--- a/output/data_20230327.xlsx
+++ b/output/data_20230327.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,22 +516,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>动画(主分区)</t>
+          <t>动画</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[{'aid': '483820535', 'bvid': 'BV1oT411679Y', 'typename': 'MAD·AMV', 'title': '“仅此127秒，新海诚中那些令人无法释怀的台词与画面“', 'subtitle': '', 'play': 1642723, 'review': 3389, 'video_review': 2242, 'favorites': 96666, 'mid': 44365325, 'author': '小雪酱LightSnow', 'description': '1999年《她和她的猫》；\n2002年《星之声》；\n2004年《云之彼端 约定的地方》；\n2007年《秒速五厘米》；\n2011年《追逐繁星的孩子》；\n2013年《言叶之庭》；\n2016年《你的名字》；\n2019年《天气之子》；\n2022年《铃芽户缔》；\n\n请问：今年的新海诚还是你一个人去看吗？！\n\nBGM【音乐名】: In The Shadow Of The Sun\nBGM【音乐人】: Professor Green\n特别感谢：@小鸟游香゜ ', 'create': '2023-03-21 17:30', 'pic': 'http://i2.hdslb.com/bfs/archive/9394e5776931e8a56685023a74ad4e78238faa9c.jpg', 'coins': 59819, 'duration': '2:08', 'badgepay': False, 'pts': 4470276, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653994807', 'bvid': 'BV1JY4y1Q7fz', 'typename': 'MAD·AMV', 'title': '楼梯扶手上的“神庙逃亡”', 'subtitle': '', 'play': 1225550, 'review': 617, 'video_review': 236, 'favorites': 34404, 'mid': 157272038, 'author': '喵哉小茶馆', 'description': '创作不易！喜欢就点个赞吧~非常感谢！！', 'create': '2023-03-22 21:44', 'pic': 'http://i0.hdslb.com/bfs/archive/fe802f8e77538a96982abbeb8c6e850ff47dddba.jpg', 'coins': 15203, 'duration': '0:56', 'badgepay': False, 'pts': 2542604, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951509662', 'bvid': 'BV1Fs4y1H7Rt', 'typename': 'MAD·AMV', 'title': '长大后才发现，这么棒的动漫越来越少了….', 'subtitle': '', 'play': 444239, 'review': 489, 'video_review': 424, 'favorites': 8881, 'mid': 2776060, 'author': '二代二代', 'description': 'BGM：Tommee Profitt,Jessie Early - Will I Make It Out Alive.\n素材：FGO  终焉誓约  进击的巨人  白夜极光   sha人少年完结几年PV  风色幻想   无职转生  Fate strange Fake  黑色五叶草  坎公骑冠剑  DNF  九州非常刀  新·世界樹的迷宮2：法夫納的騎士  血界战线  破晓传说  罪纹传说  \n最近播放比较低，希望有人看吧。\n喜欢的话给个三连加关注吧！', 'create': '2023-03-25 15:59', 'pic': 'http://i2.hdslb.com/bfs/archive/b018d0bb60edc85870ca7a441853e31aa2eb605a.jpg', 'coins': 7228, 'duration': '2:23', 'badgepay': False, 'pts': 969158, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824067647', 'bvid': 'BV1Zg4y1W7Qs', 'typename': 'MAD·AMV', 'title': '就在刚刚！米山舞最新动画MV上线！又是神仙联动！', 'subtitle': '', 'play': 258383, 'review': 633, 'video_review': 554, 'favorites': 10584, 'mid': 59550906, 'author': 'wuhu动画人空间', 'description': '作品名字：「COLORs」  监督：荒木哲郎 音乐：泽野弘之·秦基博 SawanoHiroyuki[nZk]：Hata Motohiro、 人设：米山舞 动画制作：WIT STUDIO', 'create': '2023-03-24 23:54', 'pic': 'http://i1.hdslb.com/bfs/archive/06365e749efd078b365b58529fe769f299b7af82.jpg', 'coins': 1261, 'duration': '3:04', 'badgepay': False, 'pts': 741675, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908725151', 'bvid': 'BV1jM4y167fv', 'typename': 'MAD·AMV', 'title': '那些让你至今难忘的动漫台词', 'subtitle': '', 'play': 300725, 'review': 898, 'video_review': 647, 'favorites': 6725, 'mid': 227757756, 'author': '星宇动漫社', 'description': 'BGM：outside', 'create': '2023-03-20 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/6be2bc6810c001f8362937cf384cfde279bbbf78.jpg', 'coins': 1024, 'duration': '0:32', 'badgepay': False, 'pts': 667556, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739079866', 'bvid': 'BV1Pk4y147Gx', 'typename': 'MAD·AMV', 'title': '“仅此123秒，一起感受下极致的呼吸盛宴吧！”', 'subtitle': '', 'play': 258568, 'review': 563, 'video_review': 329, 'favorites': 7842, 'mid': 384030737, 'author': '追月少年呀', 'description': '鬼灭之刃刀匠村篇【锻刀村篇】终于要来了！\n整一期提前燃一下！极致的画质，无缝的踩点，视听盛宴！\n一起感受下鬼灭的极致巅峰吧！\nBGM：Kuyenda\n音乐人：Sru/Lennart Schroot/Unknown Brain\n喜欢的小伙伴支持一下，跪求三连，谢谢大家！\n审核菌辛苦了，求推荐！', 'create': '2023-03-24 17:20', 'pic': 'http://i2.hdslb.com/bfs/archive/ef9d715b1e02f2c0883d85d0e26c356d51addab7.jpg', 'coins': 11446, 'duration': '2:03', 'badgepay': False, 'pts': 666416, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568927992', 'bvid': 'BV1jv4y1572c', 'typename': 'MAD·AMV', 'title': '⚡别沮丧，来首Funk⚡', 'subtitle': '', 'play': 126247, 'review': 294, 'video_review': 340, 'favorites': 10174, 'mid': 122757660, 'author': '金喆tt', 'description': 'BGM：Runaway\xa0Baby - Bruno\xa0Mars\n\n审核大大辛苦！', 'create': '2023-03-22 14:47', 'pic': 'http://i0.hdslb.com/bfs/archive/7ef0da4277b48ae41b9f5e9a1b2a79fd2b905c3b.jpg', 'coins': 5350, 'duration': '1:43', 'badgepay': False, 'pts': 477773, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484024108', 'bvid': 'BV1jT411z7QA', 'typename': 'MAD·AMV', 'title': '“21世纪玫瑰泛滥成灾，廉价的爱布满街道....”', 'subtitle': '', 'play': 154809, 'review': 473, 'video_review': 74, 'favorites': 7080, 'mid': 30502823, 'author': '学姐圆', 'description': '突然想坐火车了，\n一定要靠在窗边，\n这样便可以避开旁人奇怪的 东张西望的眼神。\n一定要带上耳机 ，\n这样就听不到车厢里琐碎的声音。\n我知道火车要开向何方，\n也知道何时到达，\n很重要很幸福的一件事就是，\n在到达之前的那段时间我是自由的。\n尽管车厢里没有风，\n但看着窗外的我似乎触到了外面田野上的清风。\n希望大家可以看到所有事物美好的一面，\n不管是生活、爱情、友情。\n有人看海 有人被爱 有人等你到现在。\n\n如果有机会，我们就一起去看山看海.\n看潮起潮落，看风吹落枯萎的树叶.\n看雨淋湿这片大地，看鸟儿飞翔看花儿凋', 'create': '2023-03-26 12:10', 'pic': 'http://i0.hdslb.com/bfs/archive/5210932cee4533de9b25b063526ca8795e4755f5.jpg', 'coins': 4627, 'duration': '2:14', 'badgepay': False, 'pts': 458265, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439221229', 'bvid': 'BV1GL411X78G', 'typename': 'MAD·AMV', 'title': '再见！真新镇的小智和皮卡丘，感谢26以来的陪伴【宝可梦最终章动画完结MAD】', 'subtitle': '', 'play': 149903, 'review': 1206, 'video_review': 437, 'favorites': 7242, 'mid': 81192, 'author': '真鱼', 'description': 'BGM:今、歩き出す君へ\n感谢这26年以来的陪伴，不只是小智和皮卡丘，还有宝可梦动画中数不清的角色，数不清的感动，去和全世界的宝可梦成为朋友吧！若是有缘，终会再见。', 'create': '2023-03-26 21:25', 'pic': 'http://i2.hdslb.com/bfs/archive/f75435eeffe5b39eb4f8f1619b2294111d8d9180.jpg', 'coins': 11187, 'duration': '4:34', 'badgepay': False, 'pts': 451922, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654006361', 'bvid': 'BV1VY4y1Q7Bb', 'typename': 'MAD·AMV', 'title': '“男主：就算天塌下来，我也要对你说，你非常的美丽动人', 'subtitle': '', 'play': 245698, 'review': 138, 'video_review': 32, 'favorites': 2762, 'mid': 1672910058, 'author': '阿chen没有币', 'description': '审核菌请给点流量吧(6._ò。)\n观众姥爷们请给个三连(^0^)。\n素材 番名：间谍教室\n一月番整体都要结束了，四月新番即将接踵而至', 'create': '2023-03-24 20:29', 'pic': 'http://i2.hdslb.com/bfs/archive/60187552f96a5ab8ffacbe8e8b7bde6a86b4dd66.jpg', 'coins': 311, 'duration': '0:22', 'badgepay': False, 'pts': 445174, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '483820535', 'bvid': 'BV1oT411679Y', 'typename': 'MAD·AMV', 'title': '“仅此127秒，新海诚中那些令人无法释怀的台词与画面“', 'subtitle': '', 'play': 1700324, 'review': 3446, 'video_review': 2278, 'favorites': 99282, 'mid': 44365325, 'author': '小雪酱LightSnow', 'description': '1999年《她和她的猫》；\n2002年《星之声》；\n2004年《云之彼端 约定的地方》；\n2007年《秒速五厘米》；\n2011年《追逐繁星的孩子》；\n2013年《言叶之庭》；\n2016年《你的名字》；\n2019年《天气之子》；\n2022年《铃芽户缔》；\n\n请问：今年的新海诚还是你一个人去看吗？！\n\nBGM【音乐名】: In The Shadow Of The Sun\nBGM【音乐人】: Professor Green\n特别感谢：@小鸟游香゜ ', 'create': '2023-03-21 17:30', 'pic': 'http://i2.hdslb.com/bfs/archive/9394e5776931e8a56685023a74ad4e78238faa9c.jpg', 'coins': 61612, 'duration': '2:08', 'badgepay': False, 'pts': 4575626, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653994807', 'bvid': 'BV1JY4y1Q7fz', 'typename': 'MAD·AMV', 'title': '楼梯扶手上的“神庙逃亡”', 'subtitle': '', 'play': 1252682, 'review': 627, 'video_review': 244, 'favorites': 34946, 'mid': 157272038, 'author': '喵哉小茶馆', 'description': '创作不易！喜欢就点个赞吧~非常感谢！！', 'create': '2023-03-22 21:44', 'pic': 'http://i0.hdslb.com/bfs/archive/fe802f8e77538a96982abbeb8c6e850ff47dddba.jpg', 'coins': 15486, 'duration': '0:56', 'badgepay': False, 'pts': 2576148, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951509662', 'bvid': 'BV1Fs4y1H7Rt', 'typename': 'MAD·AMV', 'title': '长大后才发现，这么棒的动漫越来越少了….', 'subtitle': '', 'play': 563417, 'review': 634, 'video_review': 448, 'favorites': 11908, 'mid': 2776060, 'author': '二代二代', 'description': 'BGM：Tommee Profitt,Jessie Early - Will I Make It Out Alive.\n素材：FGO  终焉誓约  进击的巨人  白夜极光   sha人少年完结几年PV  风色幻想   无职转生  Fate strange Fake  黑色五叶草  坎公骑冠剑  DNF  九州非常刀  新·世界樹的迷宮2：法夫納的騎士  血界战线  破晓传说  罪纹传说  \n最近播放比较低，希望有人看吧。\n喜欢的话给个三连加关注吧！', 'create': '2023-03-25 15:59', 'pic': 'http://i2.hdslb.com/bfs/archive/b018d0bb60edc85870ca7a441853e31aa2eb605a.jpg', 'coins': 9017, 'duration': '2:23', 'badgepay': False, 'pts': 1222791, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439221229', 'bvid': 'BV1GL411X78G', 'typename': 'MAD·AMV', 'title': '再见！真新镇的小智和皮卡丘，感谢26以来的陪伴【宝可梦最终章动画完结MAD】', 'subtitle': '', 'play': 342282, 'review': 1797, 'video_review': 793, 'favorites': 13608, 'mid': 81192, 'author': '真鱼', 'description': 'BGM:今、歩き出す君へ\n感谢这26年以来的陪伴，不只是小智和皮卡丘，还有宝可梦动画中数不清的角色，数不清的感动，去和全世界的宝可梦成为朋友吧！若是有缘，终会再见。', 'create': '2023-03-26 21:25', 'pic': 'http://i2.hdslb.com/bfs/archive/f75435eeffe5b39eb4f8f1619b2294111d8d9180.jpg', 'coins': 20525, 'duration': '4:34', 'badgepay': False, 'pts': 980149, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824067647', 'bvid': 'BV1Zg4y1W7Qs', 'typename': 'MAD·AMV', 'title': '就在刚刚！米山舞最新动画MV上线！又是神仙联动！', 'subtitle': '', 'play': 266536, 'review': 644, 'video_review': 558, 'favorites': 10945, 'mid': 59550906, 'author': 'wuhu动画人空间', 'description': '作品名字：「COLORs」  监督：荒木哲郎 音乐：泽野弘之·秦基博 SawanoHiroyuki[nZk]：Hata Motohiro、 人设：米山舞 动画制作：WIT STUDIO', 'create': '2023-03-24 23:54', 'pic': 'http://i1.hdslb.com/bfs/archive/06365e749efd078b365b58529fe769f299b7af82.jpg', 'coins': 1311, 'duration': '3:04', 'badgepay': False, 'pts': 764395, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739079866', 'bvid': 'BV1Pk4y147Gx', 'typename': 'MAD·AMV', 'title': '“仅此123秒，一起感受下极致的呼吸盛宴吧！”', 'subtitle': '', 'play': 277996, 'review': 574, 'video_review': 338, 'favorites': 8363, 'mid': 384030737, 'author': '追月少年呀', 'description': '鬼灭之刃刀匠村篇【锻刀村篇】终于要来了！\n整一期提前燃一下！极致的画质，无缝的踩点，视听盛宴！\n一起感受下鬼灭的极致巅峰吧！\nBGM：Kuyenda\n音乐人：Sru/Lennart Schroot/Unknown Brain\n喜欢的小伙伴支持一下，跪求三连，谢谢大家！\n审核菌辛苦了，求推荐！', 'create': '2023-03-24 17:20', 'pic': 'http://i2.hdslb.com/bfs/archive/ef9d715b1e02f2c0883d85d0e26c356d51addab7.jpg', 'coins': 12398, 'duration': '2:03', 'badgepay': False, 'pts': 710849, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484024108', 'bvid': 'BV1jT411z7QA', 'typename': 'MAD·AMV', 'title': '“21世纪玫瑰泛滥成灾，廉价的爱布满街道....”', 'subtitle': '', 'play': 206975, 'review': 588, 'video_review': 88, 'favorites': 9575, 'mid': 30502823, 'author': '学姐圆', 'description': '突然想坐火车了，\n一定要靠在窗边，\n这样便可以避开旁人奇怪的 东张西望的眼神。\n一定要带上耳机 ，\n这样就听不到车厢里琐碎的声音。\n我知道火车要开向何方，\n也知道何时到达，\n很重要很幸福的一件事就是，\n在到达之前的那段时间我是自由的。\n尽管车厢里没有风，\n但看着窗外的我似乎触到了外面田野上的清风。\n希望大家可以看到所有事物美好的一面，\n不管是生活、爱情、友情。\n有人看海 有人被爱 有人等你到现在。\n\n如果有机会，我们就一起去看山看海.\n看潮起潮落，看风吹落枯萎的树叶.\n看雨淋湿这片大地，看鸟儿飞翔看花儿凋', 'create': '2023-03-26 12:10', 'pic': 'http://i0.hdslb.com/bfs/archive/5210932cee4533de9b25b063526ca8795e4755f5.jpg', 'coins': 5949, 'duration': '2:14', 'badgepay': False, 'pts': 613709, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226473704', 'bvid': 'BV1Cb411o7fu', 'typename': 'MAD·AMV', 'title': '三年之约 如期而至', 'subtitle': '', 'play': 216223, 'review': 356, 'video_review': 118, 'favorites': 9288, 'mid': 227757756, 'author': '星宇动漫社', 'description': 'BGM：shadow of the sun', 'create': '2023-03-22 12:10', 'pic': 'http://i2.hdslb.com/bfs/archive/501c0c1cbd6c097aa97ce9d02bf7353538159ee0.jpg', 'coins': 2446, 'duration': '0:31', 'badgepay': False, 'pts': 561839, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568927992', 'bvid': 'BV1jv4y1572c', 'typename': 'MAD·AMV', 'title': '⚡别沮丧，来首Funk⚡', 'subtitle': '', 'play': 129856, 'review': 301, 'video_review': 344, 'favorites': 10430, 'mid': 122757660, 'author': '金喆tt', 'description': 'BGM：Runaway\xa0Baby - Bruno\xa0Mars\n\n审核大大辛苦！', 'create': '2023-03-22 14:47', 'pic': 'http://i0.hdslb.com/bfs/archive/7ef0da4277b48ae41b9f5e9a1b2a79fd2b905c3b.jpg', 'coins': 5502, 'duration': '1:43', 'badgepay': False, 'pts': 490854, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654006361', 'bvid': 'BV1VY4y1Q7Bb', 'typename': 'MAD·AMV', 'title': '“男主：就算天塌下来，我也要对你说，你非常的美丽动人', 'subtitle': '', 'play': 246795, 'review': 137, 'video_review': 32, 'favorites': 2779, 'mid': 1672910058, 'author': '阿chen没有币', 'description': '审核菌请给点流量吧(6._ò。)\n观众姥爷们请给个三连(^0^)。\n素材 番名：间谍教室\n一月番整体都要结束了，四月新番即将接踵而至', 'create': '2023-03-24 20:29', 'pic': 'http://i2.hdslb.com/bfs/archive/60187552f96a5ab8ffacbe8e8b7bde6a86b4dd66.jpg', 'coins': 313, 'duration': '0:22', 'badgepay': False, 'pts': 447349, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4806845</v>
+        <v>5203086</v>
       </c>
       <c r="I2" t="n">
-        <v>117456</v>
+        <v>134559</v>
       </c>
       <c r="J2" t="n">
-        <v>192360</v>
+        <v>211124</v>
       </c>
       <c r="K2" t="n">
         <v>7169</v>
@@ -563,22 +563,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>动画(主分区)</t>
+          <t>动画</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[{'aid': '268995703', 'bvid': 'BV1Kc411L7LK', 'typename': 'MMD·3D', 'title': '『御姐五选一』3.0', 'subtitle': '', 'play': 520028, 'review': 469, 'video_review': 397, 'favorites': 19544, 'mid': 597854172, 'author': '呆滞的温迪', 'description': '模型：米哈游/观海\n动作：KEITEL\n场景：Viero月城/克里斯提亚娜\n渲染：小二今天吃啥啊', 'create': '2023-03-22 17:24', 'pic': 'http://i1.hdslb.com/bfs/archive/87df23dad53b8b9dee071e8c504c41cf9f98c2e5.jpg', 'coins': 1436, 'duration': '0:10', 'badgepay': False, 'pts': 1359152, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866338334', 'bvid': 'BV13V4y1R7Gu', 'typename': 'MMD·3D', 'title': '🤣爱 莉 把 妹 王🤣【AI动画】', 'subtitle': '', 'play': 410240, 'review': 366, 'video_review': 270, 'favorites': 25022, 'mid': 895617, 'author': 'CME6大神犬', 'description': '非常好，感觉我可以去做个地狱把妹王的互动视频了\nModel：神帝宇\nMotion：博丽x海苔\nAI工具：stable diffusion', 'create': '2023-03-21 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/6cd81b8d9d893a803f06e2bfc70d79f369db8235.jpg', 'coins': 5983, 'duration': '6:47', 'badgepay': False, 'pts': 1301773, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441335086', 'bvid': 'BV1kL411r776', 'typename': 'MMD·3D', 'title': '【原神MMD】师父他好像生气了……', 'subtitle': '', 'play': 550301, 'review': 417, 'video_review': 61, 'favorites': 9428, 'mid': 1472374760, 'author': 'Monolithia', 'description': 'og audio: soggy_nugget on tiktok\nmusic: tf2 - right behind you\nmodels: hoyoverse\nanimation : 我', 'create': '2023-03-21 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/dcab76563b80e010bd3eb6526518a3b16982cfc2.jpg', 'coins': 1842, 'duration': '0:17', 'badgepay': False, 'pts': 1137440, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611612402', 'bvid': 'BV1B84y1u72y', 'typename': 'MMD·3D', 'title': '当旅行者把掰手腕修练到极致', 'subtitle': '', 'play': 463763, 'review': 780, 'video_review': 618, 'favorites': 12607, 'mid': 259584300, 'author': '漾少侠', 'description': '原视频：BV1VD4y1G7sa\n模型：miHoYo/观海子\n场景：miHoYo/克里斯提亚娜 /\xa0Blender联动原神插件 BV1PK411C7JK\n动作：自制 Mixamo\nblender预设：小二今天吃啥啊', 'create': '2023-03-25 12:15', 'pic': 'http://i1.hdslb.com/bfs/archive/13e7cb899b255a2453faea7753c95c213da5b7c3.jpg', 'coins': 5019, 'duration': '1:04', 'badgepay': False, 'pts': 1080919, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268993113', 'bvid': 'BV1Tc411L7Eg', 'typename': 'MMD·3D', 'title': '【AI动画】超柔软的达达利亚怎么能不摇起来呢-RollnRock', 'subtitle': '', 'play': 187289, 'review': 409, 'video_review': 145, 'favorites': 20196, 'mid': 1475528, 'author': '一颗小白菜是不会知道', 'description': '中间复制了一遍，其实只做了14s，电脑不太行，真的很抱歉。看到这个舞的第一眼就像让鸭鸭摇了，太棒了鸭头！\n重新上传了，刚刚又压缩画质了，那个....0.5倍速很棒\n---------------借物---------------\n动作：JohnyL\n模型提供：miHoYo\n模型改造：观海\nBGM：PUBG_RollnRock', 'create': '2023-03-23 22:20', 'pic': 'http://i0.hdslb.com/bfs/archive/1557b5105d32f4dc558ad83f99fe8f26d1de78a2.jpg', 'coins': 4457, 'duration': '0:31', 'badgepay': False, 'pts': 835031, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993758214', 'bvid': 'BV1cx4y1N7hR', 'typename': 'MMD·3D', 'title': '“请好好地看着我”——但是毛绒fufu版', 'subtitle': '', 'play': 334455, 'review': 671, 'video_review': 308, 'favorites': 8234, 'mid': 44932019, 'author': 'Lct火红枣', 'description': '动作：Lct火红枣\n镜头：Lct火红枣\n模型提供：miHoYo\n模型改造：Lct火红枣\n场景模型：机动战士牛肉/Ailephi', 'create': '2023-03-22 11:30', 'pic': 'http://i1.hdslb.com/bfs/archive/d1311f74596001b3ecaf5b7bb4e4c0c5d889337a.jpg', 'coins': 3464, 'duration': '1:26', 'badgepay': False, 'pts': 810129, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696331917', 'bvid': 'BV1Km4y1k7hg', 'typename': 'MMD·3D', 'title': '高 居 榜 首', 'subtitle': '', 'play': 438674, 'review': 490, 'video_review': 105, 'favorites': 5230, 'mid': 3461572823353499, 'author': '电音少女ICEY', 'description': '这个节点，当我们把复刻的申鹤和绫华去除榜单，优菈的复刻时长已经是第二名的两倍了\n\n模型：mihoyo/观海\n\n动作：Mintyyy\n\n场景：miHoYo/lukatoni5/可以喝的可樂/克里斯提亚娜/byasa\n\n渲染：小二今天吃啥啊', 'create': '2023-03-20 22:36', 'pic': 'http://i2.hdslb.com/bfs/archive/d13c31a101dfd22b821b54f19980ca0fb8cd5bad.jpg', 'coins': 427, 'duration': '0:32', 'badgepay': False, 'pts': 774340, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696254969', 'bvid': 'BV1ym4y1r7sz', 'typename': 'MMD·3D', 'title': '七七：可莉你身上怎么多插了一把刀？', 'subtitle': '', 'play': 312985, 'review': 262, 'video_review': 176, 'favorites': 4967, 'mid': 13891052, 'author': '沉默的拾伍分鐘', 'description': '借物表：\n可莉：miHoYo/神帝宇\n七七：miHoYo/神帝宇/Midorii绿\n纳西妲：miHoYo/观海子\n动作、镜头：自制\n部分素材参考视频：BV1E44y1f7AP\n配音：月兔_Klee\n小刀：惨劇くま\n可莉的炸弹：miHoYo/lukatoni5/可以喝的可樂\n场景：ck27/星星只爱夜夜\nMME: Rui_cg/データP /そぼろ /もこたろ/\nikeno/ビームマンP/ましまし', 'create': '2023-03-21 17:36', 'pic': 'http://i0.hdslb.com/bfs/archive/b213713961ffd6d9ac140cdd1d8d191de118ab47.jpg', 'coins': 1793, 'duration': '1:19', 'badgepay': False, 'pts': 656533, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484053023', 'bvid': 'BV1tT411z7LQ', 'typename': 'MMD·3D', 'title': '派蒙快饿死了 要给他吃一点吗？', 'subtitle': '', 'play': 247622, 'review': 411, 'video_review': 312, 'favorites': 6209, 'mid': 6816733, 'author': '食小派蒙辣', 'description': '炖派蒙的后续终于来了，旅行者和派蒙来到蒙德城已经是晚上了，派蒙好饿点了一大盘子的串串全给旅行者炫完了，一点都没给派蒙留，派蒙很生气并报复了旅行者。\n这集制作用时差不多一个半月，太多工序细节要处理，有时候很久没更新就是还在制作中。\n\n借物表\xa0\n【场景】miHoYo/克里斯提亚娜/神里千月源/自改\n【模型】miHoYo/观海/神帝宇/Viero月城/Welton/自改\n【动作&amp;表情】自制\xa0\n【镜头】自制\xa0\n【解算】自制\xa0\n【配音】派蒙（Venti_J的ai派蒙）\n【渲染预设】克里斯提亚娜/小二今天吃啥啊\n【使', 'create': '2023-03-24 21:26', 'pic': 'http://i1.hdslb.com/bfs/archive/5927eff960f68df39d4efa03c58085f4c0b9b01c.jpg', 'coins': 1852, 'duration': '1:05', 'badgepay': False, 'pts': 597086, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311425318', 'bvid': 'BV1CP411o7uX', 'typename': 'MMD·3D', 'title': '用 我的世界 复刻《铃芽之旅》？！', 'subtitle': '', 'play': 231721, 'review': 481, 'video_review': 210, 'favorites': 6550, 'mid': 9116293, 'author': '千石可乐', 'description': '终于做好了，大概耗时一个月\n今年最后一个作品，2023年开摆了\n明年再说\n————————————————\n《铃芽户缔》你和谁一起看了呢？', 'create': '2023-03-24 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/3bc6b93e17b14df5355a233d9652fb23df068813.jpg', 'coins': 5445, 'duration': '1:27', 'badgepay': False, 'pts': 589890, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '268995703', 'bvid': 'BV1Kc411L7LK', 'typename': 'MMD·3D', 'title': '『御姐五选一』3.0', 'subtitle': '', 'play': 524558, 'review': 471, 'video_review': 397, 'favorites': 19727, 'mid': 597854172, 'author': '呆滞的温迪', 'description': '模型：米哈游/观海\n动作：KEITEL\n场景：Viero月城/克里斯提亚娜\n渲染：小二今天吃啥啊', 'create': '2023-03-22 17:24', 'pic': 'http://i1.hdslb.com/bfs/archive/87df23dad53b8b9dee071e8c504c41cf9f98c2e5.jpg', 'coins': 1464, 'duration': '0:10', 'badgepay': False, 'pts': 1370587, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866338334', 'bvid': 'BV13V4y1R7Gu', 'typename': 'MMD·3D', 'title': '🤣爱 莉 把 妹 王🤣【AI动画】', 'subtitle': '', 'play': 412821, 'review': 367, 'video_review': 272, 'favorites': 25212, 'mid': 895617, 'author': 'CME6大神犬', 'description': '非常好，感觉我可以去做个地狱把妹王的互动视频了\nModel：神帝宇\nMotion：博丽x海苔\nAI工具：stable diffusion', 'create': '2023-03-21 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/6cd81b8d9d893a803f06e2bfc70d79f369db8235.jpg', 'coins': 6041, 'duration': '6:47', 'badgepay': False, 'pts': 1310069, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441335086', 'bvid': 'BV1kL411r776', 'typename': 'MMD·3D', 'title': '【原神MMD】师父他好像生气了……', 'subtitle': '', 'play': 554257, 'review': 418, 'video_review': 62, 'favorites': 9491, 'mid': 1472374760, 'author': 'Monolithia', 'description': 'og audio: soggy_nugget on tiktok\nmusic: tf2 - right behind you\nmodels: hoyoverse\nanimation : 我', 'create': '2023-03-21 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/dcab76563b80e010bd3eb6526518a3b16982cfc2.jpg', 'coins': 1856, 'duration': '0:17', 'badgepay': False, 'pts': 1143661, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611612402', 'bvid': 'BV1B84y1u72y', 'typename': 'MMD·3D', 'title': '当旅行者把掰手腕修练到极致', 'subtitle': '', 'play': 484192, 'review': 798, 'video_review': 634, 'favorites': 13101, 'mid': 259584300, 'author': '漾少侠', 'description': '原视频：BV1VD4y1G7sa\n模型：miHoYo/观海子\n场景：miHoYo/克里斯提亚娜 /\xa0Blender联动原神插件 BV1PK411C7JK\n动作：自制 Mixamo\nblender预设：小二今天吃啥啊', 'create': '2023-03-25 12:15', 'pic': 'http://i1.hdslb.com/bfs/archive/13e7cb899b255a2453faea7753c95c213da5b7c3.jpg', 'coins': 5248, 'duration': '1:04', 'badgepay': False, 'pts': 1122707, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268993113', 'bvid': 'BV1Tc411L7Eg', 'typename': 'MMD·3D', 'title': '【AI动画】超柔软的达达利亚怎么能不摇起来呢-RollnRock', 'subtitle': '', 'play': 191973, 'review': 420, 'video_review': 152, 'favorites': 20714, 'mid': 1475528, 'author': '一颗小白菜是不会知道', 'description': '中间复制了一遍，其实只做了14s，电脑不太行，真的很抱歉。看到这个舞的第一眼就像让鸭鸭摇了，太棒了鸭头！\n重新上传了，刚刚又压缩画质了，那个....0.5倍速很棒\n---------------借物---------------\n动作：JohnyL\n模型提供：miHoYo\n模型改造：观海\nBGM：PUBG_RollnRock', 'create': '2023-03-23 22:20', 'pic': 'http://i0.hdslb.com/bfs/archive/1557b5105d32f4dc558ad83f99fe8f26d1de78a2.jpg', 'coins': 4593, 'duration': '0:31', 'badgepay': False, 'pts': 857801, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993758214', 'bvid': 'BV1cx4y1N7hR', 'typename': 'MMD·3D', 'title': '“请好好地看着我”——但是毛绒fufu版', 'subtitle': '', 'play': 336006, 'review': 673, 'video_review': 308, 'favorites': 8279, 'mid': 44932019, 'author': 'Lct火红枣', 'description': '动作：Lct火红枣\n镜头：Lct火红枣\n模型提供：miHoYo\n模型改造：Lct火红枣\n场景模型：机动战士牛肉/Ailephi', 'create': '2023-03-22 11:30', 'pic': 'http://i1.hdslb.com/bfs/archive/d1311f74596001b3ecaf5b7bb4e4c0c5d889337a.jpg', 'coins': 3481, 'duration': '1:26', 'badgepay': False, 'pts': 813395, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696331917', 'bvid': 'BV1Km4y1k7hg', 'typename': 'MMD·3D', 'title': '高 居 榜 首', 'subtitle': '', 'play': 444536, 'review': 498, 'video_review': 105, 'favorites': 5314, 'mid': 3461572823353499, 'author': '电音少女ICEY', 'description': '这个节点，当我们把复刻的申鹤和绫华去除榜单，优菈的复刻时长已经是第二名的两倍了\n\n模型：mihoyo/观海\n\n动作：Mintyyy\n\n场景：miHoYo/lukatoni5/可以喝的可樂/克里斯提亚娜/byasa\n\n渲染：小二今天吃啥啊', 'create': '2023-03-20 22:36', 'pic': 'http://i2.hdslb.com/bfs/archive/d13c31a101dfd22b821b54f19980ca0fb8cd5bad.jpg', 'coins': 434, 'duration': '0:32', 'badgepay': False, 'pts': 783250, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484053023', 'bvid': 'BV1tT411z7LQ', 'typename': 'MMD·3D', 'title': '派蒙快饿死了 要给他吃一点吗？', 'subtitle': '', 'play': 320200, 'review': 489, 'video_review': 360, 'favorites': 7499, 'mid': 6816733, 'author': '食小派蒙辣', 'description': '炖派蒙的后续终于来了，旅行者和派蒙来到蒙德城已经是晚上了，派蒙好饿点了一大盘子的串串全给旅行者炫完了，一点都没给派蒙留，派蒙很生气并报复了旅行者。\n这集制作用时差不多一个半月，太多工序细节要处理，有时候很久没更新就是还在制作中。\n\n借物表\xa0\n【场景】miHoYo/克里斯提亚娜/神里千月源/自改\n【模型】miHoYo/观海/神帝宇/Viero月城/Welton/自改\n【动作&amp;表情】自制\xa0\n【镜头】自制\xa0\n【解算】自制\xa0\n【配音】派蒙（Venti_J的ai派蒙）\n【渲染预设】克里斯提亚娜/小二今天吃啥啊\n【使', 'create': '2023-03-24 21:26', 'pic': 'http://i1.hdslb.com/bfs/archive/5927eff960f68df39d4efa03c58085f4c0b9b01c.jpg', 'coins': 2202, 'duration': '1:05', 'badgepay': False, 'pts': 737357, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696254969', 'bvid': 'BV1ym4y1r7sz', 'typename': 'MMD·3D', 'title': '七七：可莉你身上怎么多插了一把刀？', 'subtitle': '', 'play': 316756, 'review': 263, 'video_review': 176, 'favorites': 5041, 'mid': 13891052, 'author': '沉默的拾伍分鐘', 'description': '借物表：\n可莉：miHoYo/神帝宇\n七七：miHoYo/神帝宇/Midorii绿\n纳西妲：miHoYo/观海子\n动作、镜头：自制\n部分素材参考视频：BV1E44y1f7AP\n配音：月兔_Klee\n小刀：惨劇くま\n可莉的炸弹：miHoYo/lukatoni5/可以喝的可樂\n场景：ck27/星星只爱夜夜\nMME: Rui_cg/データP /そぼろ /もこたろ/\nikeno/ビームマンP/ましまし', 'create': '2023-03-21 17:36', 'pic': 'http://i0.hdslb.com/bfs/archive/b213713961ffd6d9ac140cdd1d8d191de118ab47.jpg', 'coins': 1806, 'duration': '1:19', 'badgepay': False, 'pts': 664372, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311425318', 'bvid': 'BV1CP411o7uX', 'typename': 'MMD·3D', 'title': '用 我的世界 复刻《铃芽之旅》？！', 'subtitle': '', 'play': 262072, 'review': 497, 'video_review': 225, 'favorites': 7372, 'mid': 9116293, 'author': '千石可乐', 'description': '终于做好了，大概耗时一个月\n今年最后一个作品，2023年开摆了\n明年再说\n————————————————\n《铃芽户缔》你和谁一起看了呢？', 'create': '2023-03-24 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/3bc6b93e17b14df5355a233d9652fb23df068813.jpg', 'coins': 6350, 'duration': '1:27', 'badgepay': False, 'pts': 657172, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3697078</v>
+        <v>3847371</v>
       </c>
       <c r="I3" t="n">
-        <v>31718</v>
+        <v>33475</v>
       </c>
       <c r="J3" t="n">
-        <v>117987</v>
+        <v>121750</v>
       </c>
       <c r="K3" t="n">
         <v>5466</v>
@@ -610,22 +610,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>动画(主分区)</t>
+          <t>动画</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[{'aid': '823938696', 'bvid': 'BV17g4y1W75y', 'typename': '短片·手书·配音', 'title': '《小川同学是女生》', 'subtitle': '', 'play': 1897106, 'review': 6912, 'video_review': 2373, 'favorites': 87161, 'mid': 6768352, 'author': '粥粥的奇妙冒险', 'description': '前天和群友在聊天的时候突然的脑洞\n痛啊……痛起来了\n这几天赶着给画出来了\n呜呜呜，川哥我会给你幸福的！\n\n配音：\n@狸狸星星  配 小川\n@范小飞fxf   配 同学甲 &amp; 小川继父\n@围曦阳CRY  配 老师 &amp; 校长\n@粥粥的奇妙冒险  配 同学乙', 'create': '2023-03-24 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/ae92f669dd7999c2c6f62fcd0a3fbb98db1e218e.jpg', 'coins': 62604, 'duration': '2:14', 'badgepay': False, 'pts': 4633227, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396361664', 'bvid': 'BV1uo4y1B75J', 'typename': '短片·手书·配音', 'title': '变形金刚 新世纪塞伯战士 [离谱配音]', 'subtitle': '', 'play': 1413793, 'review': 817, 'video_review': 1855, 'favorites': 55881, 'mid': 431233688, 'author': '瑄羽猫CV相声演员', 'description': '抱歉大家 更的太晚了 \n有些人物配的不太贴 能力上限了\n我的精分现场 希望大家能够喜欢\n感谢大家一直以来的支持！！！！\n制作不易\n感谢大家的点赞三连！！！！！！！', 'create': '2023-03-21 12:25', 'pic': 'http://i0.hdslb.com/bfs/archive/4051a8272af4a6cb35dac8f3e40b7a3fe490bcfb.jpg', 'coins': 20789, 'duration': '2:56', 'badgepay': False, 'pts': 3146501, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441291145', 'bvid': 'BV18L411r7fq', 'typename': '短片·手书·配音', 'title': '我发现你不太合群，所以我给你准备了这个故事', 'subtitle': '', 'play': 923599, 'review': 3014, 'video_review': 978, 'favorites': 59486, 'mid': 28124184, 'author': '地图君official', 'description': '改编自短篇小说《黑羊》，作者卡尔维诺\n\n有时我们也会发现自己是那头黑羊，尤其是发现这个世界和课本里教的不太一样时，这深邃的荒谬根植于人心。到底是坚守本心还是迎合世俗确实是一个很重要的问题，卡尔维诺带来了一个荒诞的故事，一个小偷之国，在这个国家里，美好诚实的品质反而成了罪过。于是我以故事中诚实人的视角，创作了这期视频，改动较大，希望大家喜欢。\n\n如果你正好成了不合群的那只黑羊，别怕，我在这儿。', 'create': '2023-03-21 17:28', 'pic': 'http://i2.hdslb.com/bfs/archive/05df6fe1359eee289c8f0777069426b2d0bc59e0.jpg', 'coins': 38980, 'duration': '4:50', 'badgepay': False, 'pts': 2912645, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353800274', 'bvid': 'BV1vX4y1Z7YD', 'typename': '短片·手书·配音', 'title': '危机合约 了解你的捍卫者', 'subtitle': '', 'play': 1332931, 'review': 1742, 'video_review': 821, 'favorites': 39400, 'mid': 375241551, 'author': '苦力怕到此一游', 'description': '危机合约完结力', 'create': '2023-03-21 19:28', 'pic': 'http://i1.hdslb.com/bfs/archive/7cca4f61ee0ca3067c8496b884758ccbd5bee678.jpg', 'coins': 47588, 'duration': '1:58', 'badgepay': False, 'pts': 2756252, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396603969', 'bvid': 'BV1uo4y1x7zw', 'typename': '短片·手书·配音', 'title': '几块破纸板能做出什么大片......卧槽？！？！', 'subtitle': '', 'play': 1198873, 'review': 1297, 'video_review': 1903, 'favorites': 31181, 'mid': 5294454, 'author': '逗比的雀巢', 'description': '生姜蛋包饭 × 逗比的雀巢！联动视频！\n———————————————————————————————————————————————\n你的每个 三连 必将是我更新的 动力！！！ (｡･∀･)ﾉﾞ\n\n顺便告诉你个秘密：将我设置为（特别关注）可以第一时间收到推送喔！！！\n\n还有...这个UP好喜欢看弹幕和评论的，呜呜！！！\n———————————————————————————————————————————————\n么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么', 'create': '2023-03-25 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/38b5b5b46eb6681bfbf0efe0e4b8ee96448d4c09.jpg', 'coins': 76622, 'duration': '5:42', 'badgepay': False, 'pts': 2406532, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483977043', 'bvid': 'BV19T411B77z', 'typename': '短片·手书·配音', 'title': '【了不起的狐哥】告一段落……谢谢支持！', 'subtitle': '', 'play': 1173178, 'review': 1082, 'video_review': 571, 'favorites': 15849, 'mid': 1605359297, 'author': '了不起的狐哥', 'description': '', 'create': '2023-03-24 11:30', 'pic': 'http://i2.hdslb.com/bfs/archive/a26ce20c8266832f76a4227ebf737eede7d621af.jpg', 'coins': 17301, 'duration': '1:19', 'badgepay': False, 'pts': 2071783, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653866041', 'bvid': 'BV1rY4y1D7Ez', 'typename': '短片·手书·配音', 'title': '二次元李云龙', 'subtitle': '', 'play': 1306035, 'review': 1416, 'video_review': 1618, 'favorites': 17036, 'mid': 438379146, 'author': '桑落桃花', 'description': '审核您好，这是一个配音视频，已经投了配音标签，没有撞车无不良影响，球球过审后不要判定撞车限流非常感谢(´╥ω╥`)\n本视频纯属娱乐', 'create': '2023-03-20 10:05', 'pic': 'http://i1.hdslb.com/bfs/archive/1fbbb4a8628700c256ec43c8a5e9768d8419b604.jpg', 'coins': 14938, 'duration': '2:53', 'badgepay': False, 'pts': 2071306, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353649026', 'bvid': 'BV1BX4y1o7S8', 'typename': '短片·手书·配音', 'title': '【原神手书】神里绫华的❤恋.爱.陷.阱❤', 'subtitle': '', 'play': 558679, 'review': 658, 'video_review': 383, 'favorites': 49367, 'mid': 3112037, 'author': '补课i', 'description': 'song:アイワナムチュー', 'create': '2023-03-20 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/9c942e460dd2089ba0909b52bdb305c070b8bf55.jpg', 'coins': 26990, 'duration': '1:24', 'badgepay': False, 'pts': 1990661, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993940189', 'bvid': 'BV1Tx4y1A7Ch', 'typename': '短片·手书·配音', 'title': '【原神手书】活着，是为了让生命如花般绽放  迪希雅 x 迪娜泽黛 「Bloom」', 'subtitle': '', 'play': 353999, 'review': 992, 'video_review': 491, 'favorites': 52418, 'mid': 7086255, 'author': '超想吃番茄', 'description': '策划：愚人戏社\xa0超想吃番茄\n统筹/脚本：超想吃番茄\n分镜：疯兔AD\n美术监修：疯兔AD、不正经的小星星L\n人设：miniTonic\n绘制：不正经的小星星L、黑公主挖坑不填、划水池塘、洋葱狗子、大和mimiaa、梨子、酥脆球球、卯月希希希嘻嘻、Super_Adu、竹一、cococytus、高广月月、司在szai、纳浦Nap、惜惶xh、不怀好心的病棋子、五千年的咸鱼干、琥珀kaki、清辉-斋、_飘飖、mili呀呀呀、real-kyo、眼极冷、大刀洗板栗、庞先森\n视频后期：奏章Documorial、prayli', 'create': '2023-03-23 20:10', 'pic': 'http://i0.hdslb.com/bfs/archive/f4e880de5635d2eae1e834c49c0bd977cef3a549.jpg', 'coins': 59100, 'duration': '3:25', 'badgepay': False, 'pts': 1903677, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611506213', 'bvid': 'BV1284y137v5', 'typename': '短片·手书·配音', 'title': '请..请问男孩子这样撒娇正常吗？..', 'subtitle': '', 'play': 618321, 'review': 820, 'video_review': 1921, 'favorites': 13643, 'mid': 406871371, 'author': '捏碳碳碳碳', 'description': "我是碳碳在和花花做搞笑动画视频！谢谢观看！求三连求三连求三连!\n这次是有点“特别”的一期，谢谢你的支持呀！（说明一下碳碳本来就是女孩子，只有这一期配合设计稍微随地大小变了一下）\n谢谢“以闪亮之名”让啊碳闪亮了一把。(●'◡'●)", 'create': '2023-03-25 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/bcf96549b62eda9793fdf9e5bac1099a3db431a1.jpg', 'coins': 6647, 'duration': '4:22', 'badgepay': False, 'pts': 1323980, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '823938696', 'bvid': 'BV17g4y1W75y', 'typename': '短片·手书·配音', 'title': '《小川同学是女生》', 'subtitle': '', 'play': 1928022, 'review': 7005, 'video_review': 2406, 'favorites': 88153, 'mid': 6768352, 'author': '粥粥的奇妙冒险', 'description': '前天和群友在聊天的时候突然的脑洞\n痛啊……痛起来了\n这几天赶着给画出来了\n呜呜呜，川哥我会给你幸福的！\n\n配音：\n@狸狸星星  配 小川\n@范小飞fxf   配 同学甲 &amp; 小川继父\n@围曦阳CRY  配 老师 &amp; 校长\n@粥粥的奇妙冒险  配 同学乙', 'create': '2023-03-24 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/ae92f669dd7999c2c6f62fcd0a3fbb98db1e218e.jpg', 'coins': 63693, 'duration': '2:14', 'badgepay': False, 'pts': 4682338, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396361664', 'bvid': 'BV1uo4y1B75J', 'typename': '短片·手书·配音', 'title': '变形金刚 新世纪塞伯战士 [离谱配音]', 'subtitle': '', 'play': 1420918, 'review': 819, 'video_review': 1862, 'favorites': 56137, 'mid': 431233688, 'author': '瑄羽猫CV相声演员', 'description': '抱歉大家 更的太晚了 \n有些人物配的不太贴 能力上限了\n我的精分现场 希望大家能够喜欢\n感谢大家一直以来的支持！！！！\n制作不易\n感谢大家的点赞三连！！！！！！！', 'create': '2023-03-21 12:25', 'pic': 'http://i0.hdslb.com/bfs/archive/4051a8272af4a6cb35dac8f3e40b7a3fe490bcfb.jpg', 'coins': 20945, 'duration': '2:56', 'badgepay': False, 'pts': 3158353, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441291145', 'bvid': 'BV18L411r7fq', 'typename': '短片·手书·配音', 'title': '我发现你不太合群，所以我给你准备了这个故事', 'subtitle': '', 'play': 937475, 'review': 3050, 'video_review': 988, 'favorites': 60304, 'mid': 28124184, 'author': '地图君official', 'description': '改编自短篇小说《黑羊》，作者卡尔维诺\n\n有时我们也会发现自己是那头黑羊，尤其是发现这个世界和课本里教的不太一样时，这深邃的荒谬根植于人心。到底是坚守本心还是迎合世俗确实是一个很重要的问题，卡尔维诺带来了一个荒诞的故事，一个小偷之国，在这个国家里，美好诚实的品质反而成了罪过。于是我以故事中诚实人的视角，创作了这期视频，改动较大，希望大家喜欢。\n\n如果你正好成了不合群的那只黑羊，别怕，我在这儿。', 'create': '2023-03-21 17:28', 'pic': 'http://i2.hdslb.com/bfs/archive/05df6fe1359eee289c8f0777069426b2d0bc59e0.jpg', 'coins': 39570, 'duration': '4:50', 'badgepay': False, 'pts': 2949015, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353800274', 'bvid': 'BV1vX4y1Z7YD', 'typename': '短片·手书·配音', 'title': '危机合约 了解你的捍卫者', 'subtitle': '', 'play': 1344391, 'review': 1747, 'video_review': 824, 'favorites': 39562, 'mid': 375241551, 'author': '苦力怕到此一游', 'description': '危机合约完结力', 'create': '2023-03-21 19:28', 'pic': 'http://i1.hdslb.com/bfs/archive/7cca4f61ee0ca3067c8496b884758ccbd5bee678.jpg', 'coins': 47817, 'duration': '1:58', 'badgepay': False, 'pts': 2769470, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396603969', 'bvid': 'BV1uo4y1x7zw', 'typename': '短片·手书·配音', 'title': '几块破纸板能做出什么大片......卧槽？！？！', 'subtitle': '', 'play': 1271038, 'review': 1317, 'video_review': 1935, 'favorites': 32791, 'mid': 5294454, 'author': '逗比的雀巢', 'description': '生姜蛋包饭 × 逗比的雀巢！联动视频！\n———————————————————————————————————————————————\n你的每个 三连 必将是我更新的 动力！！！ (｡･∀･)ﾉﾞ\n\n顺便告诉你个秘密：将我设置为（特别关注）可以第一时间收到推送喔！！！\n\n还有...这个UP好喜欢看弹幕和评论的，呜呜！！！\n———————————————————————————————————————————————\n么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么么', 'create': '2023-03-25 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/38b5b5b46eb6681bfbf0efe0e4b8ee96448d4c09.jpg', 'coins': 80741, 'duration': '5:42', 'badgepay': False, 'pts': 2507797, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483977043', 'bvid': 'BV19T411B77z', 'typename': '短片·手书·配音', 'title': '【了不起的狐哥】告一段落……谢谢支持！', 'subtitle': '', 'play': 1193034, 'review': 1102, 'video_review': 583, 'favorites': 16165, 'mid': 1605359297, 'author': '了不起的狐哥', 'description': '', 'create': '2023-03-24 11:30', 'pic': 'http://i2.hdslb.com/bfs/archive/a26ce20c8266832f76a4227ebf737eede7d621af.jpg', 'coins': 17679, 'duration': '1:19', 'badgepay': False, 'pts': 2100665, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353649026', 'bvid': 'BV1BX4y1o7S8', 'typename': '短片·手书·配音', 'title': '【原神手书】神里绫华的❤恋.爱.陷.阱❤', 'subtitle': '', 'play': 561284, 'review': 660, 'video_review': 383, 'favorites': 49533, 'mid': 3112037, 'author': '补课i', 'description': 'song:アイワナムチュー', 'create': '2023-03-20 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/9c942e460dd2089ba0909b52bdb305c070b8bf55.jpg', 'coins': 27109, 'duration': '1:24', 'badgepay': False, 'pts': 1997978, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993940189', 'bvid': 'BV1Tx4y1A7Ch', 'typename': '短片·手书·配音', 'title': '【原神手书】活着，是为了让生命如花般绽放  迪希雅 x 迪娜泽黛 「Bloom」', 'subtitle': '', 'play': 357621, 'review': 1003, 'video_review': 497, 'favorites': 52967, 'mid': 7086255, 'author': '超想吃番茄', 'description': '策划：愚人戏社\xa0超想吃番茄\n统筹/脚本：超想吃番茄\n分镜：疯兔AD\n美术监修：疯兔AD、不正经的小星星L\n人设：miniTonic\n绘制：不正经的小星星L、黑公主挖坑不填、划水池塘、洋葱狗子、大和mimiaa、梨子、酥脆球球、卯月希希希嘻嘻、Super_Adu、竹一、cococytus、高广月月、司在szai、纳浦Nap、惜惶xh、不怀好心的病棋子、五千年的咸鱼干、琥珀kaki、清辉-斋、_飘飖、mili呀呀呀、real-kyo、眼极冷、大刀洗板栗、庞先森\n视频后期：奏章Documorial、prayli', 'create': '2023-03-23 20:10', 'pic': 'http://i0.hdslb.com/bfs/archive/f4e880de5635d2eae1e834c49c0bd977cef3a549.jpg', 'coins': 59702, 'duration': '3:25', 'badgepay': False, 'pts': 1921633, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611506213', 'bvid': 'BV1284y137v5', 'typename': '短片·手书·配音', 'title': '请..请问男孩子这样撒娇正常吗？..', 'subtitle': '', 'play': 649248, 'review': 853, 'video_review': 1968, 'favorites': 14206, 'mid': 406871371, 'author': '捏碳碳碳碳', 'description': "我是碳碳在和花花做搞笑动画视频！谢谢观看！求三连求三连求三连!\n这次是有点“特别”的一期，谢谢你的支持呀！（说明一下碳碳本来就是女孩子，只有这一期配合设计稍微随地大小变了一下）\n谢谢“以闪亮之名”让啊碳闪亮了一把。(●'◡'●)", 'create': '2023-03-25 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/bcf96549b62eda9793fdf9e5bac1099a3db431a1.jpg', 'coins': 6912, 'duration': '4:22', 'badgepay': False, 'pts': 1381265, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909018873', 'bvid': 'BV1TM4y1z7cb', 'typename': '短片·手书·配音', 'title': '看好了静香！这才是真正的嘴遁！', 'subtitle': '', 'play': 715098, 'review': 564, 'video_review': 838, 'favorites': 7240, 'mid': 24478119, 'author': '路路迷路路', 'description': '喜欢的同学可以点个三连鸭\n喜欢的同学可以点个三连鸭\n喜欢的同学可以点个三连鸭', 'create': '2023-03-25 11:30', 'pic': 'http://i2.hdslb.com/bfs/archive/e9418b433487b9ec2fdcdf56822a507f494b20ac.jpg', 'coins': 12547, 'duration': '2:13', 'badgepay': False, 'pts': 1310961, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10776514</v>
+        <v>10378129</v>
       </c>
       <c r="I4" t="n">
-        <v>371559</v>
+        <v>376715</v>
       </c>
       <c r="J4" t="n">
-        <v>421422</v>
+        <v>417058</v>
       </c>
       <c r="K4" t="n">
         <v>14524</v>
@@ -657,22 +657,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>动画(主分区)</t>
+          <t>动画</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[{'aid': '226386929', 'bvid': 'BV1Mb411o7AP', 'typename': '手办·模玩', 'title': '小哥买来87块钱保时捷911对比正版，结果完全一样傻傻分不清楚！', 'subtitle': '', 'play': 437079, 'review': 1911, 'video_review': 1122, 'favorites': 3853, 'mid': 1808399976, 'author': '伏地魔法师R', 'description': '小哥买来87块钱保时捷911对比正版，结果完全一样傻傻分不清楚！', 'create': '2023-03-22 11:08', 'pic': 'http://i1.hdslb.com/bfs/archive/384086b8f6573b9c217b6c14dd34218ee0ceeabc.jpg', 'coins': 1592, 'duration': '5:11', 'badgepay': False, 'pts': 919265, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908767416', 'bvid': 'BV1hM4y1672c', 'typename': '手办·模玩', 'title': '番茄酱制造者！万代 HG 风灵高达 修改型 水星的魔女高达模型【评头论足】', 'subtitle': '', 'play': 199956, 'review': 721, 'video_review': 2368, 'favorites': 1580, 'mid': 2029306, 'author': '-评头论足-', 'description': '大家喜欢视频的话多多点赞关注投币哦~\n《评头论足》主要以第一人称的方式去介绍最新上市的模玩产品，给人以把玩在手中最真实的直观感受，为广大模型爱好者选购模型玩具产品提供方便。合作油箱 pinggaoda@qq.com', 'create': '2023-03-20 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/2b50220108e75af73fbfe0661500619c7c1ad8d2.jpg', 'coins': 2081, 'duration': '13:01', 'badgepay': False, 'pts': 342742, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781495595', 'bvid': 'BV1f24y1j75j', 'typename': '手办·模玩', 'title': '娃圈贵与便宜的区别，娃用两字价值千金', 'subtitle': '', 'play': 1040715, 'review': 370, 'video_review': 27, 'favorites': 3121, 'mid': 1074004868, 'author': '爱酱养娃日记', 'description': '', 'create': '2023-03-22 18:43', 'pic': 'http://i1.hdslb.com/bfs/archive/68573f7c95494d4b1766a046fb5c9f82d6d4abb9.jpg', 'coins': 116, 'duration': '0:20', 'badgepay': False, 'pts': 294286, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526516295', 'bvid': 'BV1FM411g7sb', 'typename': '手办·模玩', 'title': '梦开始的地方！阿斯拉达G.S.X 开箱试玩 threeZERO&amp;MegaHouse', 'subtitle': '', 'play': 122581, 'review': 542, 'video_review': 760, 'favorites': 1334, 'mid': 2435227, 'author': '戴萌兔', 'description': '最速开封No.590\n今天开箱的玩具是MegaHouse联合threeZERO推出的阿斯拉达G.S.X\n官方定价：39800日元（税前）\n发售日期：2023年3月23日\n视频制作不易，还请多多点赞支持\n感谢大家的捧场！', 'create': '2023-03-25 13:07', 'pic': 'http://i0.hdslb.com/bfs/archive/5016dfdc02d04f626d579041939b01685e54c6c7.jpg', 'coins': 1545, 'duration': '10:11', 'badgepay': False, 'pts': 273296, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269107276', 'bvid': 'BV1ac411L7hT', 'typename': '手办·模玩', 'title': '现在更喜欢了！虫王战队超王者DX 十合体君王者 大鹏质检员', 'subtitle': '', 'play': 143857, 'review': 225, 'video_review': 390, 'favorites': 1912, 'mid': 58463695, 'author': '大鹏质检员', 'description': '-', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/0cb86ba50e3e06782d4615634e198fdec1b2bd81.jpg', 'coins': 1564, 'duration': '6:13', 'badgepay': False, 'pts': 256508, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439006783', 'bvid': 'BV1fL41197Av', 'typename': '手办·模玩', 'title': '哥哥说，cos明日香才可以拆他的海景房手办｜4K真人明日香', 'subtitle': '', 'play': 156372, 'review': 140, 'video_review': 223, 'favorites': 1747, 'mid': 45024129, 'author': 'vamoko', 'description': '点赞过一万出战斗服香香！', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/764b5984d6dd8c3460f8a005d6c54eb1c714b23c.jpg', 'coins': 315, 'duration': '4:07', 'badgepay': False, 'pts': 232687, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611462273', 'bvid': 'BV1k84y137e9', 'typename': '手办·模玩', 'title': '假面高达?闪耀突击亚克00Q', 'subtitle': '', 'play': 72767, 'review': 218, 'video_review': 96, 'favorites': 3626, 'mid': 652298165, 'author': 'StarainStudio', 'description': '-', 'create': '2023-03-23 13:18', 'pic': 'http://i0.hdslb.com/bfs/archive/d9312c0df79cb586b0acbe3a5a07a33673d559e9.jpg', 'coins': 772, 'duration': '2:17', 'badgepay': False, 'pts': 228222, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951589543', 'bvid': 'BV1Xs4y1E7ns', 'typename': '手办·模玩', 'title': '【全网首发】现货450值吗？SHF优俊少女！堂堂登场！手型战士萝卜特女士，连根萝卜都不给！', 'subtitle': '', 'play': 104627, 'review': 328, 'video_review': 204, 'favorites': 1416, 'mid': 2529007, 'author': '苟校长想要你的关注', 'description': '更新', 'create': '2023-03-25 10:10', 'pic': 'http://i0.hdslb.com/bfs/archive/d65b2647a66ce3abf940b19c1aeb02852d40314d.jpg', 'coins': 765, 'duration': '2:15', 'badgepay': False, 'pts': 219699, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526566953', 'bvid': 'BV1NM411g7uq', 'typename': '手办·模玩', 'title': '风灵：每天一遍，烦恼再见【TD25定格动画】', 'subtitle': '', 'play': 83540, 'review': 156, 'video_review': 135, 'favorites': 2458, 'mid': 2017611, 'author': '利利那TD25', 'description': '为什么没有人整这个活儿？\n视频中所有角色均为机器人（布莱德·诺亚：？）机器人大战\n========\n借物表：\n幼年巴巴托斯、自由高达：sdcs\n其余为HG\n红莲螺岩为GSC无限合体\n其余的为robot魂\n========\n仅发布在b站', 'create': '2023-03-24 18:05', 'pic': 'http://i0.hdslb.com/bfs/archive/d3aac5e877c6748cb600960b8fd595bf39b749c2.jpg', 'coins': 1878, 'duration': '1:15', 'badgepay': False, 'pts': 209579, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354093233', 'bvid': 'BV1pX4y1o7aq', 'typename': '手办·模玩', 'title': '男生的第一把AK！？', 'subtitle': '', 'play': 81562, 'review': 118, 'video_review': 45, 'favorites': 2515, 'mid': 667080964, 'author': '詹姆斯铁柱_', 'description': '-', 'create': '2023-03-25 12:16', 'pic': 'http://i0.hdslb.com/bfs/archive/5a87dbb8d48e257f420ab7bf6448363f94b134a1.jpg', 'coins': 199, 'duration': '0:48', 'badgepay': False, 'pts': 206099, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '226386929', 'bvid': 'BV1Mb411o7AP', 'typename': '手办·模玩', 'title': '小哥买来87块钱保时捷911对比正版，结果完全一样傻傻分不清楚！', 'subtitle': '', 'play': 443501, 'review': 1935, 'video_review': 1131, 'favorites': 3926, 'mid': 1808399976, 'author': '伏地魔法师R', 'description': '小哥买来87块钱保时捷911对比正版，结果完全一样傻傻分不清楚！', 'create': '2023-03-22 11:08', 'pic': 'http://i1.hdslb.com/bfs/archive/384086b8f6573b9c217b6c14dd34218ee0ceeabc.jpg', 'coins': 1610, 'duration': '5:11', 'badgepay': False, 'pts': 929630, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908767416', 'bvid': 'BV1hM4y1672c', 'typename': '手办·模玩', 'title': '番茄酱制造者！万代 HG 风灵高达 修改型 水星的魔女高达模型【评头论足】', 'subtitle': '', 'play': 200909, 'review': 722, 'video_review': 2370, 'favorites': 1582, 'mid': 2029306, 'author': '-评头论足-', 'description': '大家喜欢视频的话多多点赞关注投币哦~\n《评头论足》主要以第一人称的方式去介绍最新上市的模玩产品，给人以把玩在手中最真实的直观感受，为广大模型爱好者选购模型玩具产品提供方便。合作油箱 pinggaoda@qq.com', 'create': '2023-03-20 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/2b50220108e75af73fbfe0661500619c7c1ad8d2.jpg', 'coins': 2083, 'duration': '13:01', 'badgepay': False, 'pts': 344512, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781495595', 'bvid': 'BV1f24y1j75j', 'typename': '手办·模玩', 'title': '娃圈贵与便宜的区别，娃用两字价值千金', 'subtitle': '', 'play': 1044878, 'review': 371, 'video_review': 27, 'favorites': 3136, 'mid': 1074004868, 'author': '爱酱养娃日记', 'description': '', 'create': '2023-03-22 18:43', 'pic': 'http://i1.hdslb.com/bfs/archive/68573f7c95494d4b1766a046fb5c9f82d6d4abb9.jpg', 'coins': 116, 'duration': '0:20', 'badgepay': False, 'pts': 296952, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526516295', 'bvid': 'BV1FM411g7sb', 'typename': '手办·模玩', 'title': '梦开始的地方！阿斯拉达G.S.X 开箱试玩 threeZERO&amp;MegaHouse', 'subtitle': '', 'play': 128254, 'review': 552, 'video_review': 777, 'favorites': 1380, 'mid': 2435227, 'author': '戴萌兔', 'description': '最速开封No.590\n今天开箱的玩具是MegaHouse联合threeZERO推出的阿斯拉达G.S.X\n官方定价：39800日元（税前）\n发售日期：2023年3月23日\n视频制作不易，还请多多点赞支持\n感谢大家的捧场！', 'create': '2023-03-25 13:07', 'pic': 'http://i0.hdslb.com/bfs/archive/5016dfdc02d04f626d579041939b01685e54c6c7.jpg', 'coins': 1580, 'duration': '10:11', 'badgepay': False, 'pts': 282958, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269107276', 'bvid': 'BV1ac411L7hT', 'typename': '手办·模玩', 'title': '现在更喜欢了！虫王战队超王者DX 十合体君王者 大鹏质检员', 'subtitle': '', 'play': 147215, 'review': 226, 'video_review': 388, 'favorites': 1955, 'mid': 58463695, 'author': '大鹏质检员', 'description': '-', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/0cb86ba50e3e06782d4615634e198fdec1b2bd81.jpg', 'coins': 1577, 'duration': '6:13', 'badgepay': False, 'pts': 262080, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439006783', 'bvid': 'BV1fL41197Av', 'typename': '手办·模玩', 'title': '哥哥说，cos明日香才可以拆他的海景房手办｜4K真人明日香', 'subtitle': '', 'play': 163938, 'review': 146, 'video_review': 229, 'favorites': 1842, 'mid': 45024129, 'author': 'vamoko', 'description': '点赞过一万出战斗服香香！', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/764b5984d6dd8c3460f8a005d6c54eb1c714b23c.jpg', 'coins': 325, 'duration': '4:07', 'badgepay': False, 'pts': 244941, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611462273', 'bvid': 'BV1k84y137e9', 'typename': '手办·模玩', 'title': '假面高达?闪耀突击亚克00Q', 'subtitle': '', 'play': 75341, 'review': 221, 'video_review': 101, 'favorites': 3785, 'mid': 652298165, 'author': 'StarainStudio', 'description': '-', 'create': '2023-03-23 13:18', 'pic': 'http://i0.hdslb.com/bfs/archive/d9312c0df79cb586b0acbe3a5a07a33673d559e9.jpg', 'coins': 820, 'duration': '2:17', 'badgepay': False, 'pts': 235653, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951589543', 'bvid': 'BV1Xs4y1E7ns', 'typename': '手办·模玩', 'title': '【全网首发】现货450值吗？SHF优俊少女！堂堂登场！手型战士萝卜特女士，连根萝卜都不给！', 'subtitle': '', 'play': 107071, 'review': 331, 'video_review': 210, 'favorites': 1449, 'mid': 2529007, 'author': '苟校长想要你的关注', 'description': '更新', 'create': '2023-03-25 10:10', 'pic': 'http://i0.hdslb.com/bfs/archive/d65b2647a66ce3abf940b19c1aeb02852d40314d.jpg', 'coins': 770, 'duration': '2:15', 'badgepay': False, 'pts': 224964, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354093233', 'bvid': 'BV1pX4y1o7aq', 'typename': '手办·模玩', 'title': '男生的第一把AK！？', 'subtitle': '', 'play': 88953, 'review': 129, 'video_review': 46, 'favorites': 2670, 'mid': 667080964, 'author': '詹姆斯铁柱_', 'description': '-', 'create': '2023-03-25 12:16', 'pic': 'http://i0.hdslb.com/bfs/archive/5a87dbb8d48e257f420ab7bf6448363f94b134a1.jpg', 'coins': 210, 'duration': '0:48', 'badgepay': False, 'pts': 223556, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526566953', 'bvid': 'BV1NM411g7uq', 'typename': '手办·模玩', 'title': '风灵：每天一遍，烦恼再见【TD25定格动画】', 'subtitle': '', 'play': 85437, 'review': 161, 'video_review': 136, 'favorites': 2513, 'mid': 2017611, 'author': '利利那TD25', 'description': '为什么没有人整这个活儿？\n视频中所有角色均为机器人（布莱德·诺亚：？）机器人大战\n========\n借物表：\n幼年巴巴托斯、自由高达：sdcs\n其余为HG\n红莲螺岩为GSC无限合体\n其余的为robot魂\n========\n仅发布在b站', 'create': '2023-03-24 18:05', 'pic': 'http://i0.hdslb.com/bfs/archive/d3aac5e877c6748cb600960b8fd595bf39b749c2.jpg', 'coins': 1935, 'duration': '1:15', 'badgepay': False, 'pts': 214230, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2443056</v>
+        <v>2485497</v>
       </c>
       <c r="I5" t="n">
-        <v>10827</v>
+        <v>11026</v>
       </c>
       <c r="J5" t="n">
-        <v>23562</v>
+        <v>24238</v>
       </c>
       <c r="K5" t="n">
         <v>11392</v>
@@ -704,22 +704,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>动画(主分区)</t>
+          <t>动画</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[{'aid': '439006479', 'bvid': 'BV1ZL41197Z9', 'typename': '特摄', 'title': '再见了 乡哥哥！享年74岁，杰克奥特曼演员团时朗去世', 'subtitle': '', 'play': 463093, 'review': 1122, 'video_review': 1132, 'favorites': 8804, 'mid': 447662586, 'author': '晴天Ultraman', 'description': '再见了，乡哥哥', 'create': '2023-03-24 17:01', 'pic': 'http://i0.hdslb.com/bfs/archive/82b40a7cf6bb628bd087abdac298d0c6f0337839.jpg', 'coins': 7527, 'duration': '1:43', 'badgepay': False, 'pts': 1050369, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696538528', 'bvid': 'BV1Jm4y167Yo', 'typename': '特摄', 'title': '等对手先放大招，看准时机再变身！（自制特效）', 'subtitle': '', 'play': 404382, 'review': 506, 'video_review': 161, 'favorites': 6790, 'mid': 297116674, 'author': '喵星小白', 'description': '-', 'create': '2023-03-24 18:26', 'pic': 'http://i1.hdslb.com/bfs/archive/bcd66522ba85537a66b39a20f1cecf237f6bc23b.jpg', 'coins': 1523, 'duration': '0:16', 'badgepay': False, 'pts': 866546, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866535129', 'bvid': 'BV18V4y1X7yM', 'typename': '特摄', 'title': 'Time Vent！奥丁时间回溯带你回顾那些以卡片为主题的假面骑士（视频仅列出剧集中的骑士代表）', 'subtitle': '', 'play': 349159, 'review': 403, 'video_review': 66, 'favorites': 5155, 'mid': 178991405, 'author': '杜邦先生', 'description': '系列玩具分别来自剧集\n《假面骑士时王》\n《假面骑士电王》\n《假面骑士剑》\n《假面骑士龙骑》', 'create': '2023-03-25 11:09', 'pic': 'http://i1.hdslb.com/bfs/archive/b192926a62d63f2547e77577fab3bcb28f4af809.jpg', 'coins': 1184, 'duration': '0:15', 'badgepay': False, 'pts': 745068, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654000122', 'bvid': 'BV1nY4y1Q7DT', 'typename': '特摄', 'title': '杰克奥特曼人间体乡秀树逝世！', 'subtitle': '', 'play': 307677, 'review': 1307, 'video_review': 794, 'favorites': 4919, 'mid': 489010625, 'author': '奥特曼王国', 'description': '杰克奥特曼人间体乡秀树逝世！\n去世时间：2023年3月22日凌晨4时14分\n去世原因：肺癌（2017年夏季时患上）\n享年：74岁', 'create': '2023-03-24 12:20', 'pic': 'http://i2.hdslb.com/bfs/archive/12908ae5a29faafb17cf8497fc0c3e5670128d63.jpg', 'coins': 3724, 'duration': '1:39', 'badgepay': False, 'pts': 712047, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569075952', 'bvid': 'BV1Qv4y157sA', 'typename': '特摄', 'title': '为《新·奥特曼》配音，“地球由我来守护”【高全胜】', 'subtitle': '', 'play': 305684, 'review': 755, 'video_review': 921, 'favorites': 4773, 'mid': 1667342531, 'author': '配音演员高全胜', 'description': '配音：高全胜\n配音片段：《新·奥特曼》\n喜欢这个视频的小伙伴，记得一键三连哦~', 'create': '2023-03-24 17:37', 'pic': 'http://i1.hdslb.com/bfs/archive/2fca4ddf846c6552dec63405d15f2113374d9042.jpg', 'coins': 8662, 'duration': '6:01', 'badgepay': False, 'pts': 684045, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824015127', 'bvid': 'BV1rg4y1W7BQ', 'typename': '特摄', 'title': '杰克人间体乡秀树离世 沉重缅怀：奥特曼中已故的角色', 'subtitle': '', 'play': 253553, 'review': 585, 'video_review': 683, 'favorites': 5054, 'mid': 1322449822, 'author': 'M78阿伟V', 'description': '', 'create': '2023-03-24 18:30', 'pic': 'http://i1.hdslb.com/bfs/archive/1c0ad2b4d4a66b907b208b04f79946fec7a84a95.jpg', 'coins': 1457, 'duration': '8:16', 'badgepay': False, 'pts': 554464, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396600100', 'bvid': 'BV1Mo4y1x7ae', 'typename': '特摄', 'title': '仅以此视频致敬逝去的杰克奥特曼乡秀树！奥特五大誓言会一直留在看奥特曼长大的孩子心中的！', 'subtitle': '', 'play': 200722, 'review': 821, 'video_review': 655, 'favorites': 5426, 'mid': 189467457, 'author': '漂泊于旅途中的早川健', 'description': '杰克奥特曼是第四位出场的奥特曼，与前两部不同，杰克没有变身工具，靠意念变身。杰克长相酷似初代奥特曼，身上比初代奥特曼多条红色细纹，颈部颜色也不同。剧中杰克奥特曼的手套是银色的，但是在《泰罗奥特曼》第52话中登场时手套是红色的，原因之一是当时受了假面骑士2号（新）的红手套的影响。杰克奥特曼的武器技能多又华丽，后期战斗时以奥特手镯变的武器战斗成为杰克的主要战斗方式之一。', 'create': '2023-03-24 13:01', 'pic': 'http://i1.hdslb.com/bfs/archive/f3059640af709b769926fecacfade1cab783d0e3.jpg', 'coins': 6652, 'duration': '20:32', 'badgepay': False, 'pts': 523990, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269029499', 'bvid': 'BV1Ec411L7T4', 'typename': '特摄', 'title': '乡在超奥特八兄弟电影拍摄时就担心以后会有人不能参演了，果然这种事还是发生了', 'subtitle': '', 'play': 191871, 'review': 462, 'video_review': 247, 'favorites': 2090, 'mid': 75629880, 'author': '来自M78星云的卡门来哒', 'description': 'BV：BV12J411X7oB\n当时还是年龄最小的....\n居然第一个走', 'create': '2023-03-24 12:17', 'pic': 'http://i0.hdslb.com/bfs/archive/b5891d04117d668db71f03573505d1c3c77f8166.jpg', 'coins': 226, 'duration': '1:07', 'badgepay': False, 'pts': 402204, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994155175', 'bvid': 'BV1ds4y1S7o5', 'typename': '特摄', 'title': '【奥特闲谈】我们奥棚的科学家真的没有开挂！', 'subtitle': '', 'play': 150386, 'review': 443, 'video_review': 1215, 'favorites': 2388, 'mid': 404888281, 'author': '在下三少啦', 'description': '论奥棚那些神头鬼脸的科学家~\n往期：\n劳模宇宙人：BV1A5411o7c8\n乳mac：BV11L4y1B7F7\n那位大人：BV1hi4y1U7yB\n军火头子：BV1BW4y167ns\n伽古拉：BV1bW4y1H79Q\n贝老黑：BV12d4y1J7yR', 'create': '2023-03-26 12:03', 'pic': 'http://i2.hdslb.com/bfs/archive/8966e57e8d3b2e10a83d0b91e8aea1ff923659bd.jpg', 'coins': 2347, 'duration': '11:48', 'badgepay': False, 'pts': 350130, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866619800', 'bvid': 'BV1TV4y19778', 'typename': '特摄', 'title': '杰克奥特曼演员团时朗逝世，一些人的做法令人心寒【奥特新资讯】', 'subtitle': '', 'play': 139680, 'review': 933, 'video_review': 901, 'favorites': 2606, 'mid': 25007084, 'author': '木南工坊', 'description': '', 'create': '2023-03-25 23:31', 'pic': 'http://i1.hdslb.com/bfs/archive/7fa803e1c573607f3f0787ee7a1479c51b8ae6ca.jpg', 'coins': 2888, 'duration': '5:49', 'badgepay': False, 'pts': 346519, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '439006479', 'bvid': 'BV1ZL41197Z9', 'typename': '特摄', 'title': '再见了 乡哥哥！享年74岁，杰克奥特曼演员团时朗去世', 'subtitle': '', 'play': 471409, 'review': 1138, 'video_review': 1150, 'favorites': 8984, 'mid': 447662586, 'author': '晴天Ultraman', 'description': '再见了，乡哥哥', 'create': '2023-03-24 17:01', 'pic': 'http://i0.hdslb.com/bfs/archive/82b40a7cf6bb628bd087abdac298d0c6f0337839.jpg', 'coins': 7680, 'duration': '1:43', 'badgepay': False, 'pts': 1068015, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696538528', 'bvid': 'BV1Jm4y167Yo', 'typename': '特摄', 'title': '等对手先放大招，看准时机再变身！（自制特效）', 'subtitle': '', 'play': 410868, 'review': 516, 'video_review': 163, 'favorites': 6980, 'mid': 297116674, 'author': '喵星小白', 'description': '-', 'create': '2023-03-24 18:26', 'pic': 'http://i1.hdslb.com/bfs/archive/bcd66522ba85537a66b39a20f1cecf237f6bc23b.jpg', 'coins': 1555, 'duration': '0:16', 'badgepay': False, 'pts': 882919, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866535129', 'bvid': 'BV18V4y1X7yM', 'typename': '特摄', 'title': 'Time Vent！奥丁时间回溯带你回顾那些以卡片为主题的假面骑士（视频仅列出剧集中的骑士代表）', 'subtitle': '', 'play': 359551, 'review': 414, 'video_review': 67, 'favorites': 5361, 'mid': 178991405, 'author': '杜邦先生', 'description': '系列玩具分别来自剧集\n《假面骑士时王》\n《假面骑士电王》\n《假面骑士剑》\n《假面骑士龙骑》', 'create': '2023-03-25 11:09', 'pic': 'http://i1.hdslb.com/bfs/archive/b192926a62d63f2547e77577fab3bcb28f4af809.jpg', 'coins': 1242, 'duration': '0:15', 'badgepay': False, 'pts': 767121, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654000122', 'bvid': 'BV1nY4y1Q7DT', 'typename': '特摄', 'title': '杰克奥特曼人间体乡秀树逝世！', 'subtitle': '', 'play': 310312, 'review': 1308, 'video_review': 803, 'favorites': 4971, 'mid': 489010625, 'author': '奥特曼王国', 'description': '杰克奥特曼人间体乡秀树逝世！\n去世时间：2023年3月22日凌晨4时14分\n去世原因：肺癌（2017年夏季时患上）\n享年：74岁', 'create': '2023-03-24 12:20', 'pic': 'http://i2.hdslb.com/bfs/archive/12908ae5a29faafb17cf8497fc0c3e5670128d63.jpg', 'coins': 3769, 'duration': '1:39', 'badgepay': False, 'pts': 717587, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569075952', 'bvid': 'BV1Qv4y157sA', 'typename': '特摄', 'title': '为《新·奥特曼》配音，“地球由我来守护”【高全胜】', 'subtitle': '', 'play': 310311, 'review': 761, 'video_review': 926, 'favorites': 4876, 'mid': 1667342531, 'author': '配音演员高全胜', 'description': '配音：高全胜\n配音片段：《新·奥特曼》\n喜欢这个视频的小伙伴，记得一键三连哦~', 'create': '2023-03-24 17:37', 'pic': 'http://i1.hdslb.com/bfs/archive/2fca4ddf846c6552dec63405d15f2113374d9042.jpg', 'coins': 8768, 'duration': '6:01', 'badgepay': False, 'pts': 693714, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824015127', 'bvid': 'BV1rg4y1W7BQ', 'typename': '特摄', 'title': '杰克人间体乡秀树离世 沉重缅怀：奥特曼中已故的角色', 'subtitle': '', 'play': 260233, 'review': 598, 'video_review': 694, 'favorites': 5168, 'mid': 1322449822, 'author': 'M78阿伟V', 'description': '', 'create': '2023-03-24 18:30', 'pic': 'http://i1.hdslb.com/bfs/archive/1c0ad2b4d4a66b907b208b04f79946fec7a84a95.jpg', 'coins': 1487, 'duration': '8:16', 'badgepay': False, 'pts': 566673, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396600100', 'bvid': 'BV1Mo4y1x7ae', 'typename': '特摄', 'title': '仅以此视频致敬逝去的杰克奥特曼乡秀树！奥特五大誓言会一直留在看奥特曼长大的孩子心中的！', 'subtitle': '', 'play': 202377, 'review': 822, 'video_review': 659, 'favorites': 5480, 'mid': 189467457, 'author': '漂泊于旅途中的早川健', 'description': '杰克奥特曼是第四位出场的奥特曼，与前两部不同，杰克没有变身工具，靠意念变身。杰克长相酷似初代奥特曼，身上比初代奥特曼多条红色细纹，颈部颜色也不同。剧中杰克奥特曼的手套是银色的，但是在《泰罗奥特曼》第52话中登场时手套是红色的，原因之一是当时受了假面骑士2号（新）的红手套的影响。杰克奥特曼的武器技能多又华丽，后期战斗时以奥特手镯变的武器战斗成为杰克的主要战斗方式之一。', 'create': '2023-03-24 13:01', 'pic': 'http://i1.hdslb.com/bfs/archive/f3059640af709b769926fecacfade1cab783d0e3.jpg', 'coins': 6697, 'duration': '20:32', 'badgepay': False, 'pts': 528125, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824223133', 'bvid': 'BV18g4y137bv', 'typename': '特摄', 'title': '神回！这真的不是大结局吗？警惕未来男桐！文戏细腻打戏高燃！浮将军的内心揭露！【Who说特摄】《假面骑士Geats》第28集吐槽', 'subtitle': '', 'play': 203702, 'review': 885, 'video_review': 2255, 'favorites': 2562, 'mid': 109319230, 'author': '卡密达Who', 'description': '营收哥～（嘶啦嘶啦）我的营收哥～', 'create': '2023-03-26 18:59', 'pic': 'http://i2.hdslb.com/bfs/archive/1ff9920b99e6715256a7dd889396766f91162840.jpg', 'coins': 3769, 'duration': '15:31', 'badgepay': False, 'pts': 455398, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269029499', 'bvid': 'BV1Ec411L7T4', 'typename': '特摄', 'title': '乡在超奥特八兄弟电影拍摄时就担心以后会有人不能参演了，果然这种事还是发生了', 'subtitle': '', 'play': 194533, 'review': 464, 'video_review': 249, 'favorites': 2116, 'mid': 75629880, 'author': '来自M78星云的卡门来哒', 'description': 'BV：BV12J411X7oB\n当时还是年龄最小的....\n居然第一个走', 'create': '2023-03-24 12:17', 'pic': 'http://i0.hdslb.com/bfs/archive/b5891d04117d668db71f03573505d1c3c77f8166.jpg', 'coins': 232, 'duration': '1:07', 'badgepay': False, 'pts': 407211, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994155175', 'bvid': 'BV1ds4y1S7o5', 'typename': '特摄', 'title': '【奥特闲谈】我们奥棚的科学家真的没有开挂！', 'subtitle': '', 'play': 167971, 'review': 489, 'video_review': 1284, 'favorites': 2631, 'mid': 404888281, 'author': '在下三少啦', 'description': '论奥棚那些神头鬼脸的科学家~\n往期：\n劳模宇宙人：BV1A5411o7c8\n乳mac：BV11L4y1B7F7\n那位大人：BV1hi4y1U7yB\n军火头子：BV1BW4y167ns\n伽古拉：BV1bW4y1H79Q\n贝老黑：BV12d4y1J7yR', 'create': '2023-03-26 12:03', 'pic': 'http://i2.hdslb.com/bfs/archive/8966e57e8d3b2e10a83d0b91e8aea1ff923659bd.jpg', 'coins': 2523, 'duration': '11:48', 'badgepay': False, 'pts': 385800, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2766207</v>
+        <v>2891267</v>
       </c>
       <c r="I6" t="n">
-        <v>36190</v>
+        <v>37722</v>
       </c>
       <c r="J6" t="n">
-        <v>48005</v>
+        <v>49129</v>
       </c>
       <c r="K6" t="n">
         <v>10017</v>
@@ -751,22 +751,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>动画(主分区)</t>
+          <t>动画</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[{'aid': '526592559', 'bvid': 'BV1HM411g79r', 'typename': '动漫杂谈', 'title': '评分7.5！惊喜or拉胯？新海诚新作铃芽之旅Day1影评！', 'subtitle': '', 'play': 1996714, 'review': 14459, 'video_review': 4929, 'favorites': 33995, 'mid': 730732, 'author': '瓶子君152', 'description': '点个关注再走哦~', 'create': '2023-03-24 20:03', 'pic': 'http://i2.hdslb.com/bfs/archive/e51b0b31a8757f49ab731ec9266a1af30470b31f.jpg', 'coins': 79461, 'duration': '8:40', 'badgepay': False, 'pts': 3630874, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311521220', 'bvid': 'BV1LN411K78D', 'typename': '动漫杂谈', 'title': '奶爆新番！四月最值得期待的10部动画！快醒醒这次真的能看了！【泛式】', 'subtitle': '', 'play': 1262098, 'review': 3140, 'video_review': 10527, 'favorites': 27311, 'mid': 63231, 'author': '泛式', 'description': '2022年10月新番毒奶，个人期待的10部新作，完整导视见→BV1Py4y1Z7p6', 'create': '2023-03-25 19:17', 'pic': 'http://i2.hdslb.com/bfs/archive/830a18375fac4da5c91fcc07d6d540c897d278f8.jpg', 'coins': 47060, 'duration': '12:07', 'badgepay': False, 'pts': 2410787, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738939171', 'bvid': 'BV1wk4y1b7dq', 'typename': '动漫杂谈', 'title': '博人传动画完结，火影新作制作当中！这些是什么骚操作？聊聊《火影忍者》最新企划', 'subtitle': '', 'play': 1089365, 'review': 2070, 'video_review': 3720, 'favorites': 9915, 'mid': 2733216, 'author': '中二少年晓凯', 'description': '趁着博人传动画完结之际聊一波\n博人传漫画最新剧情：BV1Cv4y1L7ML\n博人传动画补番顺序：cv5159519', 'create': '2023-03-22 23:51', 'pic': 'http://i1.hdslb.com/bfs/archive/4abd504641baad234381bd2fafeb1cf3ccb060cb.jpg', 'coins': 4552, 'duration': '6:35', 'badgepay': False, 'pts': 1885468, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696464553', 'bvid': 'BV1Um4y1k7uq', 'typename': '动漫杂谈', 'title': '过山车吃人事件！月薪10万也不要来这家游乐园打工！', 'subtitle': '', 'play': 1086164, 'review': 1004, 'video_review': 937, 'favorites': 12035, 'mid': 7487399, 'author': '努力的Lorre', 'description': '', 'create': '2023-03-22 19:05', 'pic': 'http://i0.hdslb.com/bfs/archive/e9e8af90d2e43856294b19d988dbfc2821326996.jpg', 'coins': 16936, 'duration': '12:22', 'badgepay': False, 'pts': 1855044, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441509395', 'bvid': 'BV1hL411D7Mr', 'typename': '动漫杂谈', 'title': '盘点二次元4大邪教，一个霸占鬼畜区，一个收获明星喜爱', 'subtitle': '', 'play': 655473, 'review': 1878, 'video_review': 2229, 'favorites': 13764, 'mid': 13649066, 'author': 'ACG中二君', 'description': '动漫三大背锅王：BV1Nj411g7jy\n进击的巨人名梗：BV1924y1V7p3\n藤本树迷惑行为：BV1Ad4y1b7XF\n电锯人幕后趣闻：BV1f84y1B7Fi\n漫画家外号来源：BV1bW4y1W7si\n海贼王梗盘点：BV1vu411i73q\n三体小说梗盘点：BV1BT411Q7NR\n魔法少女小圆梗：BV1Lu411B7Ef\n鬼灭之刃梗盘点：BV1pb4y1q7YC', 'create': '2023-03-24 18:35', 'pic': 'http://i0.hdslb.com/bfs/archive/aa45915e73a8ff3835c6767a4921102cf862b656.jpg', 'coins': 2481, 'duration': '6:07', 'badgepay': False, 'pts': 1494789, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441474357', 'bvid': 'BV1EL411D7hw', 'typename': '动漫杂谈', 'title': '海贼王1079话完整解说：霸王一击神魔退避！赤红霸气震颤四海！四皇红发香克斯出手，黑胡子海贼团乱入未来国？', 'subtitle': '', 'play': 775260, 'review': 4061, 'video_review': 2473, 'favorites': 2623, 'mid': 488779255, 'author': '动漫作业本', 'description': '绿牛：终于没人笑我了！\n\n图片来源说明：\n视频内容及封面使用的图片素材来自于网络搜集，素材不作为商业用途，版权归属于原创作者，仅供交流学习，部分图片来源无法考证，如有问题请务必直接与我联系！\n\n有趣的视频推荐：\n《海贼王最终秘密：乔伊·波伊完整分析》BV15i4y1277p\n《海贼王动画幕后故事》BV1iy4y1T7et\n《探秘“天王”乌拉诺斯》BV1so4y1U7CZ\n《海贼王尾田创作史》BV1tS4y1w7YY', 'create': '2023-03-23 18:20', 'pic': 'http://i0.hdslb.com/bfs/archive/d4e13ada17dc6eda0e9dc8a8946ae50017ba018a.jpg', 'coins': 8731, 'duration': '7:51', 'badgepay': False, 'pts': 1364350, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568853702', 'bvid': 'BV19v4y1V7rR', 'typename': '动漫杂谈', 'title': '《柯南》紧跟时事！是故意还是不小心？', 'subtitle': '', 'play': 1053393, 'review': 719, 'video_review': 2059, 'favorites': 8331, 'mid': 348989367, 'author': '沫子瞪片', 'description': '没三连的家人 是故意还是不小心？', 'create': '2023-03-20 11:33', 'pic': 'http://i1.hdslb.com/bfs/archive/6aaf47e0003b902e4353eb3c7eb56597e00ffa68.jpg', 'coins': 3842, 'duration': '11:11', 'badgepay': False, 'pts': 1329942, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311559852', 'bvid': 'BV1BN411K7fx', 'typename': '动漫杂谈', 'title': '铃芽之旅有遗憾吗？多少人觉得新海诚变了？深度解读新海诚的创作使命', 'subtitle': '', 'play': 467528, 'review': 3427, 'video_review': 1540, 'favorites': 15802, 'mid': 1351379, 'author': '赫萝老师', 'description': '点赞3W！加更一期彩蛋合集！\n关注+三连=速更！感谢感谢感谢感谢！', 'create': '2023-03-25 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0f2928607914025f769cd42716d392bb25a35687.jpg', 'coins': 21708, 'duration': '20:27', 'badgepay': False, 'pts': 1319970, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441449234', 'bvid': 'BV1ML411k7NU', 'typename': '动漫杂谈', 'title': '满级大佬重回新手村？我从来没见过这么逆天的男主角！', 'subtitle': '', 'play': 636787, 'review': 1545, 'video_review': 1278, 'favorites': 3904, 'mid': 5870268, 'author': '三代鹿人', 'description': '他的人生写作刺客，却读作侠客！\n只攻不防，天下无双。奋不顾身勇担当，舍己为人道义扬！\n这是什么样的精神？这是伍六七的精神！\xa0\n-\xa0\n本期点赞过十万，随机更新人物传。\xa0\n顺手关注我一下，人生开挂！考试不挂！', 'create': '2023-03-22 10:13', 'pic': 'http://i2.hdslb.com/bfs/archive/9f5a9087c8fda61e300edb03045be25a48de1dcf.jpg', 'coins': 4388, 'duration': '8:00', 'badgepay': False, 'pts': 1098054, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269120787', 'bvid': 'BV1vc411L7ov', 'typename': '动漫杂谈', 'title': '一集封神！制作组强到离谱？！催泪完结【别当欧尼酱了】第12集表现怎样？【新番猛料】', 'subtitle': '', 'play': 267554, 'review': 1179, 'video_review': 1899, 'favorites': 5376, 'mid': 216844, 'author': '玩偶菌', 'description': '一月大热门期待作【别当欧尼酱了】 第12集 完结\n神回 催泪 看完久久无法平静', 'create': '2023-03-24 21:00', 'pic': 'http://i2.hdslb.com/bfs/archive/eaf0fd79bfa2589e489ecaa2c456890c13fe4309.jpg', 'coins': 5415, 'duration': '10:35', 'badgepay': False, 'pts': 655289, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '526592559', 'bvid': 'BV1HM411g79r', 'typename': '动漫杂谈', 'title': '评分7.5！惊喜or拉胯？新海诚新作铃芽之旅Day1影评！', 'subtitle': '', 'play': 2049609, 'review': 14808, 'video_review': 5057, 'favorites': 34630, 'mid': 730732, 'author': '瓶子君152', 'description': '点个关注再走哦~', 'create': '2023-03-24 20:03', 'pic': 'http://i2.hdslb.com/bfs/archive/e51b0b31a8757f49ab731ec9266a1af30470b31f.jpg', 'coins': 81033, 'duration': '8:40', 'badgepay': False, 'pts': 3695791, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311521220', 'bvid': 'BV1LN411K78D', 'typename': '动漫杂谈', 'title': '奶爆新番！四月最值得期待的10部动画！快醒醒这次真的能看了！【泛式】', 'subtitle': '', 'play': 1339367, 'review': 3264, 'video_review': 10852, 'favorites': 28408, 'mid': 63231, 'author': '泛式', 'description': '2022年10月新番毒奶，个人期待的10部新作，完整导视见→BV1Py4y1Z7p6', 'create': '2023-03-25 19:17', 'pic': 'http://i2.hdslb.com/bfs/archive/830a18375fac4da5c91fcc07d6d540c897d278f8.jpg', 'coins': 48723, 'duration': '12:07', 'badgepay': False, 'pts': 2511963, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738939171', 'bvid': 'BV1wk4y1b7dq', 'typename': '动漫杂谈', 'title': '博人传动画完结，火影新作制作当中！这些是什么骚操作？聊聊《火影忍者》最新企划', 'subtitle': '', 'play': 1101660, 'review': 2086, 'video_review': 3745, 'favorites': 9993, 'mid': 2733216, 'author': '中二少年晓凯', 'description': '趁着博人传动画完结之际聊一波\n博人传漫画最新剧情：BV1Cv4y1L7ML\n博人传动画补番顺序：cv5159519', 'create': '2023-03-22 23:51', 'pic': 'http://i1.hdslb.com/bfs/archive/4abd504641baad234381bd2fafeb1cf3ccb060cb.jpg', 'coins': 4599, 'duration': '6:35', 'badgepay': False, 'pts': 1898424, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696464553', 'bvid': 'BV1Um4y1k7uq', 'typename': '动漫杂谈', 'title': '过山车吃人事件！月薪10万也不要来这家游乐园打工！', 'subtitle': '', 'play': 1092300, 'review': 1004, 'video_review': 940, 'favorites': 12062, 'mid': 7487399, 'author': '努力的Lorre', 'description': '', 'create': '2023-03-22 19:05', 'pic': 'http://i0.hdslb.com/bfs/archive/e9e8af90d2e43856294b19d988dbfc2821326996.jpg', 'coins': 17035, 'duration': '12:22', 'badgepay': False, 'pts': 1861015, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441509395', 'bvid': 'BV1hL411D7Mr', 'typename': '动漫杂谈', 'title': '盘点二次元4大邪教，一个霸占鬼畜区，一个收获明星喜爱', 'subtitle': '', 'play': 669154, 'review': 1920, 'video_review': 2270, 'favorites': 14058, 'mid': 13649066, 'author': 'ACG中二君', 'description': '动漫三大背锅王：BV1Nj411g7jy\n进击的巨人名梗：BV1924y1V7p3\n藤本树迷惑行为：BV1Ad4y1b7XF\n电锯人幕后趣闻：BV1f84y1B7Fi\n漫画家外号来源：BV1bW4y1W7si\n海贼王梗盘点：BV1vu411i73q\n三体小说梗盘点：BV1BT411Q7NR\n魔法少女小圆梗：BV1Lu411B7Ef\n鬼灭之刃梗盘点：BV1pb4y1q7YC', 'create': '2023-03-24 18:35', 'pic': 'http://i0.hdslb.com/bfs/archive/aa45915e73a8ff3835c6767a4921102cf862b656.jpg', 'coins': 2552, 'duration': '6:07', 'badgepay': False, 'pts': 1522282, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311559852', 'bvid': 'BV1BN411K7fx', 'typename': '动漫杂谈', 'title': '铃芽之旅有遗憾吗？多少人觉得新海诚变了？深度解读新海诚的创作使命', 'subtitle': '', 'play': 503511, 'review': 3534, 'video_review': 1646, 'favorites': 16927, 'mid': 1351379, 'author': '赫萝老师', 'description': '点赞3W！加更一期彩蛋合集！\n关注+三连=速更！感谢感谢感谢感谢！', 'create': '2023-03-25 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0f2928607914025f769cd42716d392bb25a35687.jpg', 'coins': 23279, 'duration': '20:27', 'badgepay': False, 'pts': 1414065, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441474357', 'bvid': 'BV1EL411D7hw', 'typename': '动漫杂谈', 'title': '海贼王1079话完整解说：霸王一击神魔退避！赤红霸气震颤四海！四皇红发香克斯出手，黑胡子海贼团乱入未来国？', 'subtitle': '', 'play': 792003, 'review': 4103, 'video_review': 2487, 'favorites': 2639, 'mid': 488779255, 'author': '动漫作业本', 'description': '绿牛：终于没人笑我了！\n\n图片来源说明：\n视频内容及封面使用的图片素材来自于网络搜集，素材不作为商业用途，版权归属于原创作者，仅供交流学习，部分图片来源无法考证，如有问题请务必直接与我联系！\n\n有趣的视频推荐：\n《海贼王最终秘密：乔伊·波伊完整分析》BV15i4y1277p\n《海贼王动画幕后故事》BV1iy4y1T7et\n《探秘“天王”乌拉诺斯》BV1so4y1U7CZ\n《海贼王尾田创作史》BV1tS4y1w7YY', 'create': '2023-03-23 18:20', 'pic': 'http://i0.hdslb.com/bfs/archive/d4e13ada17dc6eda0e9dc8a8946ae50017ba018a.jpg', 'coins': 8795, 'duration': '7:51', 'badgepay': False, 'pts': 1375639, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441449234', 'bvid': 'BV1ML411k7NU', 'typename': '动漫杂谈', 'title': '满级大佬重回新手村？我从来没见过这么逆天的男主角！', 'subtitle': '', 'play': 642110, 'review': 1515, 'video_review': 1286, 'favorites': 3912, 'mid': 5870268, 'author': '三代鹿人', 'description': '他的人生写作刺客，却读作侠客！\n只攻不防，天下无双。奋不顾身勇担当，舍己为人道义扬！\n这是什么样的精神？这是伍六七的精神！\xa0\n-\xa0\n本期点赞过十万，随机更新人物传。\xa0\n顺手关注我一下，人生开挂！考试不挂！', 'create': '2023-03-22 10:13', 'pic': 'http://i2.hdslb.com/bfs/archive/9f5a9087c8fda61e300edb03045be25a48de1dcf.jpg', 'coins': 4415, 'duration': '8:00', 'badgepay': False, 'pts': 1102303, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269120787', 'bvid': 'BV1vc411L7ov', 'typename': '动漫杂谈', 'title': '一集封神！制作组强到离谱？！催泪完结【别当欧尼酱了】第12集表现怎样？【新番猛料】', 'subtitle': '', 'play': 274314, 'review': 1201, 'video_review': 1916, 'favorites': 5498, 'mid': 216844, 'author': '玩偶菌', 'description': '一月大热门期待作【别当欧尼酱了】 第12集 完结\n神回 催泪 看完久久无法平静', 'create': '2023-03-24 21:00', 'pic': 'http://i2.hdslb.com/bfs/archive/eaf0fd79bfa2589e489ecaa2c456890c13fe4309.jpg', 'coins': 5490, 'duration': '10:35', 'badgepay': False, 'pts': 670941, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866282978', 'bvid': 'BV1XV4y197xJ', 'typename': '动漫杂谈', 'title': '博人传第一集原来全是伏笔？！火影史上最大最恶事件，博人传79话内容分析', 'subtitle': '', 'play': 418758, 'review': 1299, 'video_review': 491, 'favorites': 2476, 'mid': 41918223, 'author': '少卿菌', 'description': '博人传漫画79话分析和第一集开头的解读，\n仅能代表当前视角下up主的个人分析，后续随着漫画更新我的想法可能也会有变化\n喜欢视频的话可以关注一下up主~后续有新的进展还会更新~', 'create': '2023-03-22 11:35', 'pic': 'http://i2.hdslb.com/bfs/archive/574b3fb45f81588654f0c218e90b53b0d38c9bfe.jpg', 'coins': 1114, 'duration': '6:26', 'badgepay': False, 'pts': 666834, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9290336</v>
+        <v>8882786</v>
       </c>
       <c r="I7" t="n">
-        <v>194574</v>
+        <v>197035</v>
       </c>
       <c r="J7" t="n">
-        <v>133056</v>
+        <v>130603</v>
       </c>
       <c r="K7" t="n">
         <v>40222</v>
@@ -798,22 +798,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>动画(主分区)</t>
+          <t>动画</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[{'aid': '739120338', 'bvid': 'BV1xk4y147oL', 'typename': '综合', 'title': '三年之约！极致还原！《铃芽之旅》真人版！', 'subtitle': '', 'play': 2275563, 'review': 3869, 'video_review': 1320, 'favorites': 49075, 'mid': 3066511, 'author': '特效小哥studio', 'description': '感谢新海诚导演带来这么好的作品，时光荏苒，我们成长了很多，这期视频也是对三年前在做天气之子的我们的回应，希望在未来的某一天，那时的我们也能对现在的我们有所回应，而我们现在要做的，就是承载过去，增援未来 啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊！采访完整版详见@建模小哥 ', 'create': '2023-03-24 13:12', 'pic': 'http://i0.hdslb.com/bfs/archive/f87619b1803b392d505ad87ec7aa559fcd712076.jpg', 'coins': 55190, 'duration': '5:17', 'badgepay': False, 'pts': 3718225, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951608728', 'bvid': 'BV1Us4y1E79U', 'typename': '综合', 'title': '米山舞新动画来了！泽野弘之 x 秦基博 x 荒木哲郎buff叠满!', 'subtitle': '', 'play': 768730, 'review': 1582, 'video_review': 1371, 'favorites': 51857, 'mid': 361749232, 'author': 'GGAC', 'description': 'weibo', 'create': '2023-03-24 18:43', 'pic': 'http://i0.hdslb.com/bfs/archive/f291afc8c110bcded4696a9760686a35155c53de.jpg', 'coins': 11149, 'duration': '3:13', 'badgepay': False, 'pts': 2523004, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353823769', 'bvid': 'BV1hX4y1Z7cF', 'typename': '综合', 'title': '【于谦之旅】郭德纲最新集大成之作', 'subtitle': '', 'play': 1189157, 'review': 1114, 'video_review': 356, 'favorites': 27126, 'mid': 8511941, 'author': 'Link的梦', 'description': '小整个活', 'create': '2023-03-21 13:38', 'pic': 'http://i0.hdslb.com/bfs/archive/62f94df4a6a23c005a1d11253964077e5ae59a5e.jpg', 'coins': 15368, 'duration': '1:14', 'badgepay': False, 'pts': 2359942, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824053856', 'bvid': 'BV1Ng4y1s7NB', 'typename': '综合', 'title': '“铃芽你坐啊”', 'subtitle': '', 'play': 961556, 'review': 2043, 'video_review': 806, 'favorites': 16490, 'mid': 46083050, 'author': '好像有点飘', 'description': '海的那边是草太', 'create': '2023-03-24 08:00', 'pic': 'http://i0.hdslb.com/bfs/archive/464bcdd7af495d777d4dcbc5bac8545653bcf4c3.jpg', 'coins': 11131, 'duration': '1:25', 'badgepay': False, 'pts': 1921776, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866532256', 'bvid': 'BV1zV4y1X7PJ', 'typename': '综合', 'title': '亵渎 + 唾于我面', 'subtitle': '', 'play': 740291, 'review': 482, 'video_review': 119, 'favorites': 27666, 'mid': 53084834, 'author': '克苏鲁公社', 'description': '油管\n亵渎 + 唾于我面(blashphemous x spit in my face!) 这个版本感觉不错！thanks so much（thxsomch）的歌一直很喜欢。\n快来密大深造下，领取电子diploma~ https://miskatonic.cthulhuclub.com/', 'create': '2023-03-24 09:40', 'pic': 'http://i1.hdslb.com/bfs/archive/9fbe112d446ff31575aad992e98afe79c13cfb44.jpg', 'coins': 3107, 'duration': '2:28', 'badgepay': False, 'pts': 1857987, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311511878', 'bvid': 'BV1VN411K7sx', 'typename': '综合', 'title': '省流:30秒看带你完铃芽户缔', 'subtitle': '', 'play': 956628, 'review': 4294, 'video_review': 193, 'favorites': 8147, 'mid': 383657508, 'author': '百步穿杨浩', 'description': '学习剪辑两年半剪出来的东西\n就说抽象不抽象吧', 'create': '2023-03-25 03:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7b9acce6066aafb066a57c19de7dd0ea493eded9.jpg', 'coins': 2064, 'duration': '0:34', 'badgepay': False, 'pts': 1802756, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823879875', 'bvid': 'BV1rg4y1x73E', 'typename': '综合', 'title': '【建议全文背诵】一句话反杀道德绑架', 'subtitle': '', 'play': 633388, 'review': 407, 'video_review': 302, 'favorites': 28685, 'mid': 8864484, 'author': '面粉社长', 'description': '纯属娱乐，请勿当真。\n三连助力UP更新画，我在这里替阿冲谢谢大家了，你敢投，我就敢肝，记住点波关注哦！', 'create': '2023-03-24 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/bd26562266217a6216ddfecba729cfa192a3a8d0.jpg', 'coins': 9053, 'duration': '1:43', 'badgepay': False, 'pts': 1713657, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611397343', 'bvid': 'BV1p84y137VE', 'typename': '综合', 'title': '《 成 人 故 事 》', 'subtitle': '', 'play': 807862, 'review': 819, 'video_review': 980, 'favorites': 14477, 'mid': 321422126, 'author': '进击的金厂长', 'description': '你已经做的很好了，请为自己点个赞吧', 'create': '2023-03-22 17:56', 'pic': 'http://i0.hdslb.com/bfs/archive/29c55c693271d476976f6a68070b37a4a1c7b853.jpg', 'coins': 22193, 'duration': '2:43', 'badgepay': False, 'pts': 1625154, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738846852', 'bvid': 'BV1Yk4y1t73f', 'typename': '综合', 'title': '路希维德，你这个不守v德的东西！', 'subtitle': '', 'play': 927705, 'review': 1518, 'video_review': 508, 'favorites': 13254, 'mid': 2006452883, 'author': '路希维德Wiede', 'description': '对不起，我是不守v德の东西', 'create': '2023-03-20 11:55', 'pic': 'http://i1.hdslb.com/bfs/archive/d2812b4860d5358e5c413b62044918e503b1b5df.jpg', 'coins': 5180, 'duration': '0:32', 'badgepay': False, 'pts': 1457660, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611272697', 'bvid': 'BV1a84y1w7Nq', 'typename': '综合', 'title': '博人接住了720集的重量！', 'subtitle': '', 'play': 718031, 'review': 1212, 'video_review': 143, 'favorites': 9849, 'mid': 436205081, 'author': '面瘫鱼-', 'description': '谢谢大家支持', 'create': '2023-03-21 18:38', 'pic': 'http://i2.hdslb.com/bfs/archive/892693eba0ab09c78e09f0305a9abfb5716c6bde.jpg', 'coins': 3842, 'duration': '0:17', 'badgepay': False, 'pts': 1430620, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '739120338', 'bvid': 'BV1xk4y147oL', 'typename': '综合', 'title': '三年之约！极致还原！《铃芽之旅》真人版！', 'subtitle': '', 'play': 2374531, 'review': 3940, 'video_review': 1385, 'favorites': 51159, 'mid': 3066511, 'author': '特效小哥studio', 'description': '感谢新海诚导演带来这么好的作品，时光荏苒，我们成长了很多，这期视频也是对三年前在做天气之子的我们的回应，希望在未来的某一天，那时的我们也能对现在的我们有所回应，而我们现在要做的，就是承载过去，增援未来 啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊！采访完整版详见@建模小哥 ', 'create': '2023-03-24 13:12', 'pic': 'http://i0.hdslb.com/bfs/archive/f87619b1803b392d505ad87ec7aa559fcd712076.jpg', 'coins': 58133, 'duration': '5:17', 'badgepay': False, 'pts': 3824736, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951608728', 'bvid': 'BV1Us4y1E79U', 'typename': '综合', 'title': '米山舞新动画来了！泽野弘之 x 秦基博 x 荒木哲郎buff叠满!', 'subtitle': '', 'play': 786862, 'review': 1602, 'video_review': 1388, 'favorites': 53031, 'mid': 361749232, 'author': 'GGAC', 'description': 'weibo', 'create': '2023-03-24 18:43', 'pic': 'http://i0.hdslb.com/bfs/archive/f291afc8c110bcded4696a9760686a35155c53de.jpg', 'coins': 11523, 'duration': '3:13', 'badgepay': False, 'pts': 2573892, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353823769', 'bvid': 'BV1hX4y1Z7cF', 'typename': '综合', 'title': '【于谦之旅】郭德纲最新集大成之作', 'subtitle': '', 'play': 1220806, 'review': 1158, 'video_review': 363, 'favorites': 27880, 'mid': 8511941, 'author': 'Link的梦', 'description': '小整个活', 'create': '2023-03-21 13:38', 'pic': 'http://i0.hdslb.com/bfs/archive/62f94df4a6a23c005a1d11253964077e5ae59a5e.jpg', 'coins': 15873, 'duration': '1:14', 'badgepay': False, 'pts': 2405953, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824053856', 'bvid': 'BV1Ng4y1s7NB', 'typename': '综合', 'title': '“铃芽你坐啊”', 'subtitle': '', 'play': 1044344, 'review': 2157, 'video_review': 861, 'favorites': 17843, 'mid': 46083050, 'author': '好像有点飘', 'description': '海的那边是草太', 'create': '2023-03-24 08:00', 'pic': 'http://i0.hdslb.com/bfs/archive/464bcdd7af495d777d4dcbc5bac8545653bcf4c3.jpg', 'coins': 12240, 'duration': '1:25', 'badgepay': False, 'pts': 2040583, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311511878', 'bvid': 'BV1VN411K7sx', 'typename': '综合', 'title': '省流:30秒看带你完铃芽户缔', 'subtitle': '', 'play': 1041054, 'review': 4723, 'video_review': 198, 'favorites': 8784, 'mid': 383657508, 'author': '百步穿杨浩', 'description': '学习剪辑两年半剪出来的东西\n就说抽象不抽象吧', 'create': '2023-03-25 03:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7b9acce6066aafb066a57c19de7dd0ea493eded9.jpg', 'coins': 2254, 'duration': '0:34', 'badgepay': False, 'pts': 1919876, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866532256', 'bvid': 'BV1zV4y1X7PJ', 'typename': '综合', 'title': '亵渎 + 唾于我面', 'subtitle': '', 'play': 749866, 'review': 497, 'video_review': 122, 'favorites': 27917, 'mid': 53084834, 'author': '克苏鲁公社', 'description': '油管\n亵渎 + 唾于我面(blashphemous x spit in my face!) 这个版本感觉不错！thanks so much（thxsomch）的歌一直很喜欢。\n快来密大深造下，领取电子diploma~ https://miskatonic.cthulhuclub.com/', 'create': '2023-03-24 09:40', 'pic': 'http://i1.hdslb.com/bfs/archive/9fbe112d446ff31575aad992e98afe79c13cfb44.jpg', 'coins': 3152, 'duration': '2:28', 'badgepay': False, 'pts': 1877580, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823879875', 'bvid': 'BV1rg4y1x73E', 'typename': '综合', 'title': '【建议全文背诵】一句话反杀道德绑架', 'subtitle': '', 'play': 647813, 'review': 413, 'video_review': 306, 'favorites': 29216, 'mid': 8864484, 'author': '面粉社长', 'description': '纯属娱乐，请勿当真。\n三连助力UP更新画，我在这里替阿冲谢谢大家了，你敢投，我就敢肝，记住点波关注哦！', 'create': '2023-03-24 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/bd26562266217a6216ddfecba729cfa192a3a8d0.jpg', 'coins': 9249, 'duration': '1:43', 'badgepay': False, 'pts': 1747766, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611397343', 'bvid': 'BV1p84y137VE', 'typename': '综合', 'title': '《 成 人 故 事 》', 'subtitle': '', 'play': 818742, 'review': 833, 'video_review': 984, 'favorites': 14666, 'mid': 321422126, 'author': '进击的金厂长', 'description': '你已经做的很好了，请为自己点个赞吧', 'create': '2023-03-22 17:56', 'pic': 'http://i0.hdslb.com/bfs/archive/29c55c693271d476976f6a68070b37a4a1c7b853.jpg', 'coins': 22479, 'duration': '2:43', 'badgepay': False, 'pts': 1645192, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823855476', 'bvid': 'BV1Cg4y1x7ye', 'typename': '综合', 'title': '他可以说是影响小玉一生的人了', 'subtitle': '', 'play': 702900, 'review': 333, 'video_review': 92, 'favorites': 10754, 'mid': 402601058, 'author': '次元小主', 'description': '他可以说是影响小玉一生的人了', 'create': '2023-03-21 12:30', 'pic': 'http://i2.hdslb.com/bfs/archive/b8ec0916cec0aa0bc4c90fad91a64b5b706546ef.jpg', 'coins': 2334, 'duration': '0:42', 'badgepay': False, 'pts': 1361253, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653932873', 'bvid': 'BV1cY4y1Q7aZ', 'typename': '综合', 'title': '这个忍者明明超强却过分慎重！！！【二】', 'subtitle': '', 'play': 623082, 'review': 875, 'video_review': 853, 'favorites': 12105, 'mid': 601674546, 'author': '-夏秋冬-', 'description': '素材：【这个勇者明明超强却过分慎重】和【火影忍者】结尾BGM直接搜索 慎勇OP就行了.\n刚好做了10天终于整好了，本来就两分钟左右的......但后面觉得太短了又加了2分钟.上次说没凉的话就出续集，所以就继续做了，但一般续集大概率凉凉，所以如果觉得还可以的话就给个三连吧，至少不会那么凉.......另外这些台词不是万能的日语，专门找的台词都能对上，如果没凉的话在继续整吧....', 'create': '2023-03-22 07:25', 'pic': 'http://i2.hdslb.com/bfs/archive/0fb1024da1ab2fe6aac5c23fc844e9731ace20de.jpg', 'coins': 26009, 'duration': '4:44', 'badgepay': False, 'pts': 1344367, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9978911</v>
+        <v>10010000</v>
       </c>
       <c r="I8" t="n">
-        <v>138277</v>
+        <v>163246</v>
       </c>
       <c r="J8" t="n">
-        <v>246626</v>
+        <v>253355</v>
       </c>
       <c r="K8" t="n">
         <v>113712</v>
@@ -845,22 +845,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>番剧(主分区)</t>
+          <t>番剧</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[{'aid': '611496989', 'bvid': 'BV1R84y137gz', 'typename': '资讯', 'title': '鬼灭之刃 刀匠村篇 PV', 'subtitle': '', 'play': 1639290, 'review': 4129, 'video_review': 3212, 'favorites': 79, 'mid': 408002864, 'author': '番剧资讯机', 'description': '鬼灭之刃 刀匠村篇', 'create': '2023-03-23 19:30', 'pic': 'http://i1.hdslb.com/bfs/archive/41a5b197ec8f62bc7df7cdab94765a5c00984dae.png', 'coins': 10137, 'duration': '2:49', 'badgepay': False, 'pts': 1550691, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741969'}, {'aid': '484045540', 'bvid': 'BV1LT411z7G3', 'typename': '资讯', 'title': '【TV动画】Re：从零开始的异世界生活 第三季 制作决定PV【MCE汉化组】', 'subtitle': '', 'play': 903888, 'review': 7010, 'video_review': 2906, 'favorites': 15959, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\nRe：从零开始的异世界生活 第三季 制作决定！！\nps：3/25 14:00 更换高清片源', 'create': '2023-03-25 13:12', 'pic': 'http://i1.hdslb.com/bfs/archive/f9108af55c638e6101bc7c67e8268c15f52a204d.jpg', 'coins': 12916, 'duration': '1:55', 'badgepay': False, 'pts': 881665, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951566801', 'bvid': 'BV17s4y1H7QC', 'typename': '资讯', 'title': '【7月/中村悠一&amp;子安武人】咒术回战 第二季 正式PV【MCE汉化组】', 'subtitle': '', 'play': 824476, 'review': 2824, 'video_review': 1027, 'favorites': 11586, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\n咒术回战 第二季 正式PV', 'create': '2023-03-25 12:28', 'pic': 'http://i2.hdslb.com/bfs/archive/96bb8d74d9327b0a376f067b47f3dda0c26e1531.jpg', 'coins': 2943, 'duration': '1:23', 'badgepay': False, 'pts': 804843, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441466190', 'bvid': 'BV1xL411D7mV', 'typename': '资讯', 'title': '辉夜大小姐想让我告白 剧场版 PV', 'subtitle': '', 'play': 535280, 'review': 2276, 'video_review': 882, 'favorites': 30, 'mid': 408002864, 'author': '番剧资讯机', 'description': '辉夜大小姐想让我告白 剧场版', 'create': '2023-03-23 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/9cd02e148f483c32fbd57cee2939d7a8f027b2b6.png', 'coins': 4763, 'duration': '1:35', 'badgepay': False, 'pts': 515735, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741894'}, {'aid': '738886062', 'bvid': 'BV1dk4y1t7UL', 'typename': '资讯', 'title': '泽野弘之配乐！TV动画《我独自升级》公开先导PV，预计明年1月开播！', 'subtitle': '', 'play': 320702, 'review': 854, 'video_review': 246, 'favorites': 4380, 'mid': 59550906, 'author': 'wuhu动画人空间', 'description': 'https://twitter.com/sololeveling_pr\nTV动画《我独自升级》公开先导PV，预计 2024年1月播出，由A-1 Pictures制作，泽野弘之配乐。\n本作改编自 Chugong（原著）+ DUBU（作画）的小说&amp;漫画，讲述了被称为“人类最弱兵器”的最低级猎人 水篠旬 获得了“升级”之力，历经考验从“最弱”走向“最强”的故事。', 'create': '2023-03-22 09:19', 'pic': 'http://i0.hdslb.com/bfs/archive/6610fe48e06c648f78d2f70beaa82d309534c974.jpg', 'coins': 597, 'duration': '1:01', 'badgepay': False, 'pts': 316302, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866579730', 'bvid': 'BV1yV4y1X7Kf', 'typename': '资讯', 'title': '【7月/泽野弘之】Fate/strange Fake 命运-奇异赝品 黎明低语 定档告知PV【MCE汉化组】', 'subtitle': '', 'play': 314043, 'review': 1205, 'video_review': 84, 'favorites': 4002, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\nFate/strange Fake 命运-奇异赝品 黎明低语 播出告知PV', 'create': '2023-03-25 12:34', 'pic': 'http://i1.hdslb.com/bfs/archive/93217fa88383a9cb194ac827cbb6ac289fa62e4e.jpg', 'coins': 814, 'duration': '0:31', 'badgepay': False, 'pts': 309609, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824144389', 'bvid': 'BV1pg4y1s771', 'typename': '资讯', 'title': '【6月/剧场版/CloverWorks】青春猪头少年不会梦到娇怜外出妹 PV1【MCE汉化组】', 'subtitle': '', 'play': 306041, 'review': 1177, 'video_review': 207, 'favorites': 4654, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\n《青春猪头少年》新作剧场版《青春猪头少年不会梦到娇怜外出妹》公开第一弹PV！', 'create': '2023-03-26 12:11', 'pic': 'http://i0.hdslb.com/bfs/archive/323fa0e06edf387d304859acbe019ed125fcec85.png', 'coins': 1478, 'duration': '1:19', 'badgepay': False, 'pts': 300131, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951612838', 'bvid': 'BV1Ds4y1E7Mx', 'typename': '资讯', 'title': '【2023年7月】原班人马回归！TV动画《堀与宫村-piece-》先导PV', 'subtitle': '', 'play': 274528, 'review': 491, 'video_review': 176, 'favorites': 2509, 'mid': 10098275, 'author': '游戏动漫君V', 'description': 'https://www.youtube.com/watch?v=MU-Vk5R0vVY\n根据《堀与宫村》漫画新作改编，TV动画《堀与宫村-piece-》先导PV公开，将于2023年7月播出。\n\n前作主创团队再集结，未描写的原作人气章节也将动画化，讲述之前未改编为动画的漫画故事。', 'create': '2023-03-25 15:16', 'pic': 'http://i1.hdslb.com/bfs/archive/fe30f170ccd60a2b879455616bb3f24763777d03.jpg', 'coins': 466, 'duration': '1:14', 'badgepay': False, 'pts': 270818, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866299985', 'bvid': 'BV1gV4y1R7Tn', 'typename': '资讯', 'title': '【2024年1月/泽野弘之/A-1 Pictures】我独自升级 先导PV【MCE汉化组】', 'subtitle': '', 'play': 263321, 'review': 1302, 'video_review': 150, 'favorites': 3392, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\n2024年1月新番《我独自升级》先导PV公开！', 'create': '2023-03-21 22:28', 'pic': 'http://i2.hdslb.com/bfs/archive/e016a771b6cdaf46fb351e6e7ab5c52d715d4b8b.png', 'coins': 462, 'duration': '1:01', 'badgepay': False, 'pts': 258591, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696381139', 'bvid': 'BV13m4y1k7HE', 'typename': '资讯', 'title': '国王排名 勇气的宝箱 PV', 'subtitle': '', 'play': 265841, 'review': 1175, 'video_review': 215, 'favorites': 1, 'mid': 408002864, 'author': '番剧资讯机', 'description': '国王排名勇气的宝箱', 'create': '2023-03-23 18:30', 'pic': 'http://i2.hdslb.com/bfs/archive/8d2b981e62e4243622a927bbe5da18198dd5ecab.png', 'coins': 469, 'duration': '0:57', 'badgepay': False, 'pts': 258315, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741895'}]</t>
+          <t>[{'aid': '611496989', 'bvid': 'BV1R84y137gz', 'typename': '资讯', 'title': '鬼灭之刃 刀匠村篇 PV', 'subtitle': '', 'play': 1681714, 'review': 4144, 'video_review': 3238, 'favorites': 79, 'mid': 408002864, 'author': '番剧资讯机', 'description': '鬼灭之刃 刀匠村篇', 'create': '2023-03-23 19:30', 'pic': 'http://i1.hdslb.com/bfs/archive/41a5b197ec8f62bc7df7cdab94765a5c00984dae.png', 'coins': 10296, 'duration': '2:49', 'badgepay': False, 'pts': 1591294, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741969'}, {'aid': '484045540', 'bvid': 'BV1LT411z7G3', 'typename': '资讯', 'title': '【TV动画】Re：从零开始的异世界生活 第三季 制作决定PV【MCE汉化组】', 'subtitle': '', 'play': 924993, 'review': 7158, 'video_review': 2945, 'favorites': 16229, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\nRe：从零开始的异世界生活 第三季 制作决定！！\nps：3/25 14:00 更换高清片源', 'create': '2023-03-25 13:12', 'pic': 'http://i1.hdslb.com/bfs/archive/f9108af55c638e6101bc7c67e8268c15f52a204d.jpg', 'coins': 13179, 'duration': '1:55', 'badgepay': False, 'pts': 901699, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951566801', 'bvid': 'BV17s4y1H7QC', 'typename': '资讯', 'title': '【7月/中村悠一&amp;子安武人】咒术回战 第二季 正式PV【MCE汉化组】', 'subtitle': '', 'play': 848019, 'review': 2900, 'video_review': 1044, 'favorites': 11847, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\n咒术回战 第二季 正式PV', 'create': '2023-03-25 12:28', 'pic': 'http://i2.hdslb.com/bfs/archive/96bb8d74d9327b0a376f067b47f3dda0c26e1531.jpg', 'coins': 3027, 'duration': '1:23', 'badgepay': False, 'pts': 827347, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441466190', 'bvid': 'BV1xL411D7mV', 'typename': '资讯', 'title': '辉夜大小姐想让我告白 剧场版 PV', 'subtitle': '', 'play': 548542, 'review': 2292, 'video_review': 888, 'favorites': 32, 'mid': 408002864, 'author': '番剧资讯机', 'description': '辉夜大小姐想让我告白 剧场版', 'create': '2023-03-23 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/9cd02e148f483c32fbd57cee2939d7a8f027b2b6.png', 'coins': 4859, 'duration': '1:35', 'badgepay': False, 'pts': 527627, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741894'}, {'aid': '824144389', 'bvid': 'BV1pg4y1s771', 'typename': '资讯', 'title': '【6月/剧场版/CloverWorks】青春猪头少年不会梦到娇怜外出妹 PV1【MCE汉化组】', 'subtitle': '', 'play': 332299, 'review': 1267, 'video_review': 215, 'favorites': 5104, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\n《青春猪头少年》新作剧场版《青春猪头少年不会梦到娇怜外出妹》公开第一弹PV！', 'create': '2023-03-26 12:11', 'pic': 'http://i0.hdslb.com/bfs/archive/323fa0e06edf387d304859acbe019ed125fcec85.png', 'coins': 1616, 'duration': '1:19', 'badgepay': False, 'pts': 325164, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866579730', 'bvid': 'BV1yV4y1X7Kf', 'typename': '资讯', 'title': '【7月/泽野弘之】Fate/strange Fake 命运-奇异赝品 黎明低语 定档告知PV【MCE汉化组】', 'subtitle': '', 'play': 325804, 'review': 1237, 'video_review': 88, 'favorites': 4113, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\nFate/strange Fake 命运-奇异赝品 黎明低语 播出告知PV', 'create': '2023-03-25 12:34', 'pic': 'http://i1.hdslb.com/bfs/archive/93217fa88383a9cb194ac827cbb6ac289fa62e4e.jpg', 'coins': 831, 'duration': '0:31', 'badgepay': False, 'pts': 321163, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738886062', 'bvid': 'BV1dk4y1t7UL', 'typename': '资讯', 'title': '泽野弘之配乐！TV动画《我独自升级》公开先导PV，预计明年1月开播！', 'subtitle': '', 'play': 322605, 'review': 868, 'video_review': 247, 'favorites': 4413, 'mid': 59550906, 'author': 'wuhu动画人空间', 'description': 'https://twitter.com/sololeveling_pr\nTV动画《我独自升级》公开先导PV，预计 2024年1月播出，由A-1 Pictures制作，泽野弘之配乐。\n本作改编自 Chugong（原著）+ DUBU（作画）的小说&amp;漫画，讲述了被称为“人类最弱兵器”的最低级猎人 水篠旬 获得了“升级”之力，历经考验从“最弱”走向“最强”的故事。', 'create': '2023-03-22 09:19', 'pic': 'http://i0.hdslb.com/bfs/archive/6610fe48e06c648f78d2f70beaa82d309534c974.jpg', 'coins': 607, 'duration': '1:01', 'badgepay': False, 'pts': 318123, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951612838', 'bvid': 'BV1Ds4y1E7Mx', 'typename': '资讯', 'title': '【2023年7月】原班人马回归！TV动画《堀与宫村-piece-》先导PV', 'subtitle': '', 'play': 300775, 'review': 531, 'video_review': 191, 'favorites': 2819, 'mid': 10098275, 'author': '游戏动漫君V', 'description': 'https://www.youtube.com/watch?v=MU-Vk5R0vVY\n根据《堀与宫村》漫画新作改编，TV动画《堀与宫村-piece-》先导PV公开，将于2023年7月播出。\n\n前作主创团队再集结，未描写的原作人气章节也将动画化，讲述之前未改编为动画的漫画故事。', 'create': '2023-03-25 15:16', 'pic': 'http://i1.hdslb.com/bfs/archive/fe30f170ccd60a2b879455616bb3f24763777d03.jpg', 'coins': 527, 'duration': '1:14', 'badgepay': False, 'pts': 296512, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866743158', 'bvid': 'BV19V4y1D7sH', 'typename': '资讯', 'title': '【中字】青春猪头续作动画官方预告！青春猪头少年不会梦到娇怜外出妹', 'subtitle': '', 'play': 287139, 'review': 702, 'video_review': 114, 'favorites': 2482, 'mid': 2703253, 'author': '德井鱼', 'description': 'https://www.youtube.com/watch?v=zE6K014g6nU\n自制翻译！麻衣太好看啦！官方正式预告！！定档6.23！！！', 'create': '2023-03-26 13:09', 'pic': 'http://i1.hdslb.com/bfs/archive/cc6d9ca05f6c0c13676e686a2e83dd185c5628a0.jpg', 'coins': 639, 'duration': '1:19', 'badgepay': False, 'pts': 281605, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696381139', 'bvid': 'BV13m4y1k7HE', 'typename': '资讯', 'title': '国王排名 勇气的宝箱 PV', 'subtitle': '', 'play': 270546, 'review': 1185, 'video_review': 215, 'favorites': 1, 'mid': 408002864, 'author': '番剧资讯机', 'description': '国王排名勇气的宝箱', 'create': '2023-03-23 18:30', 'pic': 'http://i2.hdslb.com/bfs/archive/8d2b981e62e4243622a927bbe5da18198dd5ecab.png', 'coins': 474, 'duration': '0:57', 'badgepay': False, 'pts': 262655, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741895'}]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5647410</v>
+        <v>5842436</v>
       </c>
       <c r="I9" t="n">
-        <v>35045</v>
+        <v>36055</v>
       </c>
       <c r="J9" t="n">
-        <v>46592</v>
+        <v>47119</v>
       </c>
       <c r="K9" t="n">
         <v>501</v>
@@ -892,22 +892,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>番剧(主分区)</t>
+          <t>番剧</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[{'aid': '908915457', 'bvid': 'BV1xM4y1B7j5', 'typename': '官方延伸', 'title': '【字】银魂后祭り2023新漫画现场配音||3秒一梗全程高能 声优是不会死的啊！', 'subtitle': '', 'play': 539556, 'review': 727, 'video_review': 1214, 'favorites': 14178, 'mid': 23838954, 'author': '胡同口的糖葫芦', 'description': 'ABEMA 昼场\n杉田智和（坂田银时役）、阪口大助（志村新八役）、钉宫理惠（神乐役）、高桥美佳子（定春 / 寺门通役）、千叶进步（近藤勋役）、中井和哉（土方十四郎役）、铃村健一（冲田总悟役）、太田哲治（山崎退役）、立木文彦（长谷川泰三役）、くじら （登势役）、石田彰（桂小太郎役）\n\n试着做了一下，真叫一个痛并快乐着，梗太密了有些不知道有些没标，请各位大力指正。你们一定会笑的很开心。', 'create': '2023-03-22 23:41', 'pic': 'http://i0.hdslb.com/bfs/archive/cd3a94413a4d524ee13b3edd781d1de78b649698.jpg', 'coins': 5712, 'duration': '20:47', 'badgepay': False, 'pts': 534130, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268993863', 'bvid': 'BV1Kc411L7dY', 'typename': '官方延伸', 'title': '紫藤莎娜的演出和动捕演员的对比动画', 'subtitle': '', 'play': 210164, 'review': 317, 'video_review': 158, 'favorites': 2250, 'mid': 24584944, 'author': '囗囗框框', 'description': '网络\nwoc原来这是动捕出来的\n太牛了吧\n她真的在天上转着圈飞啊', 'create': '2023-03-23 13:55', 'pic': 'http://i2.hdslb.com/bfs/archive/71024d35c7a0e61afb387cd441d83b630c8273e0.jpg', 'coins': 223, 'duration': '2:14', 'badgepay': False, 'pts': 208721, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696583709', 'bvid': 'BV1Cm4y167m4', 'typename': '官方延伸', 'title': '【自熟】銀魂後祭り2023 开场 昼', 'subtitle': '', 'play': 89608, 'review': 196, 'video_review': 328, 'favorites': 2351, 'mid': 2355489, 'author': '灰木诺', 'description': 'https://abema-ppv-onlinelive.abema.tv/posts/40760003\r\n昼の部\r\n海贼部分的台词和夜场有差分\r\n\r\n有条件请购买官方BD', 'create': '2023-03-24 10:05', 'pic': 'http://i2.hdslb.com/bfs/archive/49ffd2f666b1bf5be8784da888bfb852b3a354a2.png', 'coins': 298, 'duration': '7:41', 'badgepay': False, 'pts': 87742, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909105758', 'bvid': 'BV1pM4y1z7ei', 'typename': '官方延伸', 'title': '银魂2023舞台活动惊现恶搞版海贼王主题曲WE ARE，北谷洋现场演唱！杉田智和现场还用了卡塔库栗的悬赏令', 'subtitle': '', 'play': 83829, 'review': 214, 'video_review': 91, 'favorites': 660, 'mid': 3055416, 'author': 'TalkOP海贼王', 'description': 'https://twitter.com/\n素材来自UP主灰木诺的片源。银魂2023舞台活动惊现恶搞版海贼王主题曲WE ARE，北谷洋现场演唱！杉田智和现场还用了卡塔库栗的悬赏令（还捂住嘴巴符合角色，银时和卡二都是他配音的）', 'create': '2023-03-25 16:49', 'pic': 'http://i0.hdslb.com/bfs/archive/ca850fe30462b4ecdbeb0095270490424fb6e39b.jpg', 'coins': 153, 'duration': '4:05', 'badgepay': False, 'pts': 83046, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484114760', 'bvid': 'BV12T411z7vy', 'typename': '官方延伸', 'title': '【中字】林鼓子担任雪菜声优', 'subtitle': '', 'play': 62806, 'review': 723, 'video_review': 43, 'favorites': 847, 'mid': 565597249, 'author': 'No_10字幕组', 'description': 'YouTube\r\n片源：ipid\r\n翻轴：遷璃Sanry\r\n\r\n本视频由No.10字幕组制作，仅供同好交流，未经允许请勿以任何形式二次上传。字幕组不对任何用于商业行为引发的责任负责。', 'create': '2023-03-25 18:35', 'pic': 'http://i0.hdslb.com/bfs/archive/e086b433a9cfa676ff4975b98fccf76a4a5ed208.jpg', 'coins': 192, 'duration': '1:11', 'badgepay': False, 'pts': 61638, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781272726', 'bvid': 'BV1p24y1E75u', 'typename': '官方延伸', 'title': '【熟/银魂】难以捕获的石田彰/声优到底做错了什么！（銀魂後祭り2023）', 'subtitle': '', 'play': 49603, 'review': 126, 'video_review': 58, 'favorites': 1505, 'mid': 596105, 'author': 'Nmisu', 'description': '銀魂 後祭り 2023（仮）【昼公演】\n\n猩猩给这次见面会画的漫画的一小段配音cut，一上来不要被吓到（bushi\n配音全场梗太密集了有时间大概会做吧（大概\n\nCM时间\n想看全场的朋友26号之前都可以去ABEMA（日区）买了看！！昼夜都很精彩！！\n碟也可以预定了！喜欢请一定支持！！', 'create': '2023-03-21 23:53', 'pic': 'http://i1.hdslb.com/bfs/archive/594548ad0fcf193213d111525daf8df7074176ce.jpg', 'coins': 397, 'duration': '2:51', 'badgepay': False, 'pts': 48759, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654058037', 'bvid': 'BV1FY4y1S7uP', 'typename': '官方延伸', 'title': '【中字】为什么突然直播？因为妆没卸', 'subtitle': '', 'play': 48611, 'review': 78, 'video_review': 10, 'favorites': 222, 'mid': 20614378, 'author': '墨贪欢', 'description': 'Liyuu_ 3.25直播', 'create': '2023-03-25 22:43', 'pic': 'http://i0.hdslb.com/bfs/archive/926ceec694d0fc8274359ebe60f2ec92277cb4d1.jpg', 'coins': 1, 'duration': '0:49', 'badgepay': False, 'pts': 48136, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654094682', 'bvid': 'BV13Y4y1S7FH', 'typename': '官方延伸', 'title': '【中字】日高里菜公主的钢管舞《钢管公主》紫藤莎娜角色歌MV', 'subtitle': '', 'play': 39451, 'review': 51, 'video_review': 4, 'favorites': 640, 'mid': 24584944, 'author': '囗囗框框', 'description': '网络\n对比视频怎么这么多人看，站内应该没有中字\n光速传个本体中字\n字幕又加了一点奇怪的特效', 'create': '2023-03-24 15:36', 'pic': 'http://i0.hdslb.com/bfs/archive/32fc4045003d29704b05791c81eef1a6e2fe1f07.jpg', 'coins': 57, 'duration': '2:16', 'badgepay': False, 'pts': 39207, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951577917', 'bvid': 'BV1Js4y1H74m', 'typename': '官方延伸', 'title': '【中字】我都两年半没喝喜茶了，我能给你推荐啥', 'subtitle': '', 'play': 38535, 'review': 48, 'video_review': 22, 'favorites': 181, 'mid': 20614378, 'author': '墨贪欢', 'description': 'Liyuu_3.25直播', 'create': '2023-03-25 22:24', 'pic': 'http://i2.hdslb.com/bfs/archive/c219311d12b378697fbcb26d1662ebb698033e70.jpg', 'coins': 6, 'duration': '0:45', 'badgepay': False, 'pts': 38159, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311281163', 'bvid': 'BV1fP411d7R4', 'typename': '官方延伸', 'title': '【熟】銀魂後祭り2023(仮) 夜场 促贩向节选', 'subtitle': '', 'play': 36819, 'review': 84, 'video_review': 45, 'favorites': 906, 'mid': 14954522, 'author': 'Kenichi00', 'description': '20230319 石头精分现场 老猫又肚肚痛痛了 杉田：就算是死后我也会继续饰演坂田银时 有幸参加嗨到飞起 会动的先生相当活泼各种小动作 一托镜框我就倒地了 老猫你不是主演就还是不来是吗 说是这么说 听到声音嚎成猴子的仿佛不是我x 结束后樱花妹精准嘴替：子安桑只是在说话而已但绝杀了所有人 石田桑穿和服戴眼镜太优雅了 果然提了中村（不带敬称大佬知道了又要念叨w 杉田昼夜场谢幕都很真挚 到3/26都能买abema配信票看回放（需要稳定日区ip） BD可以预约了（划重点！', 'create': '2023-03-21 02:14', 'pic': 'http://i1.hdslb.com/bfs/archive/61bc93814edc43cb0067ee1a41344d91b1619faa.jpg', 'coins': 138, 'duration': '3:44', 'badgepay': False, 'pts': 36145, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '908915457', 'bvid': 'BV1xM4y1B7j5', 'typename': '官方延伸', 'title': '【字】银魂后祭り2023新漫画现场配音||3秒一梗全程高能 声优是不会死的啊！', 'subtitle': '', 'play': 548870, 'review': 738, 'video_review': 1232, 'favorites': 14519, 'mid': 23838954, 'author': '胡同口的糖葫芦', 'description': 'ABEMA 昼场\n杉田智和（坂田银时役）、阪口大助（志村新八役）、钉宫理惠（神乐役）、高桥美佳子（定春 / 寺门通役）、千叶进步（近藤勋役）、中井和哉（土方十四郎役）、铃村健一（冲田总悟役）、太田哲治（山崎退役）、立木文彦（长谷川泰三役）、くじら （登势役）、石田彰（桂小太郎役）\n\n试着做了一下，真叫一个痛并快乐着，梗太密了有些不知道有些没标，请各位大力指正。你们一定会笑的很开心。', 'create': '2023-03-22 23:41', 'pic': 'http://i0.hdslb.com/bfs/archive/cd3a94413a4d524ee13b3edd781d1de78b649698.jpg', 'coins': 5833, 'duration': '20:47', 'badgepay': False, 'pts': 543530, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268993863', 'bvid': 'BV1Kc411L7dY', 'typename': '官方延伸', 'title': '紫藤莎娜的演出和动捕演员的对比动画', 'subtitle': '', 'play': 212260, 'review': 320, 'video_review': 159, 'favorites': 2280, 'mid': 24584944, 'author': '囗囗框框', 'description': '网络\nwoc原来这是动捕出来的\n太牛了吧\n她真的在天上转着圈飞啊', 'create': '2023-03-23 13:55', 'pic': 'http://i2.hdslb.com/bfs/archive/71024d35c7a0e61afb387cd441d83b630c8273e0.jpg', 'coins': 229, 'duration': '2:14', 'badgepay': False, 'pts': 210817, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696583709', 'bvid': 'BV1Cm4y167m4', 'typename': '官方延伸', 'title': '【自熟】銀魂後祭り2023 开场 昼', 'subtitle': '', 'play': 101267, 'review': 205, 'video_review': 358, 'favorites': 2697, 'mid': 2355489, 'author': '灰木诺', 'description': 'https://abema-ppv-onlinelive.abema.tv/posts/40760003\r\n昼の部\r\n海贼部分的台词和夜场有差分\r\n\r\n有条件请购买官方BD', 'create': '2023-03-24 10:05', 'pic': 'http://i2.hdslb.com/bfs/archive/49ffd2f666b1bf5be8784da888bfb852b3a354a2.png', 'coins': 363, 'duration': '7:41', 'badgepay': False, 'pts': 99110, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909105758', 'bvid': 'BV1pM4y1z7ei', 'typename': '官方延伸', 'title': '银魂2023舞台活动惊现恶搞版海贼王主题曲WE ARE，北谷洋现场演唱！杉田智和现场还用了卡塔库栗的悬赏令', 'subtitle': '', 'play': 94995, 'review': 232, 'video_review': 100, 'favorites': 754, 'mid': 3055416, 'author': 'TalkOP海贼王', 'description': 'https://twitter.com/\n素材来自UP主灰木诺的片源。银魂2023舞台活动惊现恶搞版海贼王主题曲WE ARE，北谷洋现场演唱！杉田智和现场还用了卡塔库栗的悬赏令（还捂住嘴巴符合角色，银时和卡二都是他配音的）', 'create': '2023-03-25 16:49', 'pic': 'http://i0.hdslb.com/bfs/archive/ca850fe30462b4ecdbeb0095270490424fb6e39b.jpg', 'coins': 173, 'duration': '4:05', 'badgepay': False, 'pts': 93767, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484114760', 'bvid': 'BV12T411z7vy', 'typename': '官方延伸', 'title': '【中字】林鼓子担任雪菜声优', 'subtitle': '', 'play': 65270, 'review': 769, 'video_review': 46, 'favorites': 867, 'mid': 565597249, 'author': 'No_10字幕组', 'description': 'YouTube\r\n片源：ipid\r\n翻轴：遷璃Sanry\r\n\r\n本视频由No.10字幕组制作，仅供同好交流，未经允许请勿以任何形式二次上传。字幕组不对任何用于商业行为引发的责任负责。', 'create': '2023-03-25 18:35', 'pic': 'http://i0.hdslb.com/bfs/archive/e086b433a9cfa676ff4975b98fccf76a4a5ed208.jpg', 'coins': 197, 'duration': '1:11', 'badgepay': False, 'pts': 64115, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654058037', 'bvid': 'BV1FY4y1S7uP', 'typename': '官方延伸', 'title': '【中字】为什么突然直播？因为妆没卸', 'subtitle': '', 'play': 56342, 'review': 92, 'video_review': 11, 'favorites': 248, 'mid': 20614378, 'author': '墨贪欢', 'description': 'Liyuu_ 3.25直播', 'create': '2023-03-25 22:43', 'pic': 'http://i0.hdslb.com/bfs/archive/926ceec694d0fc8274359ebe60f2ec92277cb4d1.jpg', 'coins': 1, 'duration': '0:49', 'badgepay': False, 'pts': 55730, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781272726', 'bvid': 'BV1p24y1E75u', 'typename': '官方延伸', 'title': '【熟/银魂】难以捕获的石田彰/声优到底做错了什么！（銀魂後祭り2023）', 'subtitle': '', 'play': 50513, 'review': 126, 'video_review': 58, 'favorites': 1517, 'mid': 596105, 'author': 'Nmisu', 'description': '銀魂 後祭り 2023（仮）【昼公演】\n\n猩猩给这次见面会画的漫画的一小段配音cut，一上来不要被吓到（bushi\n配音全场梗太密集了有时间大概会做吧（大概\n\nCM时间\n想看全场的朋友26号之前都可以去ABEMA（日区）买了看！！昼夜都很精彩！！\n碟也可以预定了！喜欢请一定支持！！', 'create': '2023-03-21 23:53', 'pic': 'http://i1.hdslb.com/bfs/archive/594548ad0fcf193213d111525daf8df7074176ce.jpg', 'coins': 399, 'duration': '2:51', 'badgepay': False, 'pts': 49657, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951577917', 'bvid': 'BV1Js4y1H74m', 'typename': '官方延伸', 'title': '【中字】我都两年半没喝喜茶了，我能给你推荐啥', 'subtitle': '', 'play': 44279, 'review': 50, 'video_review': 24, 'favorites': 209, 'mid': 20614378, 'author': '墨贪欢', 'description': 'Liyuu_3.25直播', 'create': '2023-03-25 22:24', 'pic': 'http://i2.hdslb.com/bfs/archive/c219311d12b378697fbcb26d1662ebb698033e70.jpg', 'coins': 8, 'duration': '0:45', 'badgepay': False, 'pts': 43653, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654094682', 'bvid': 'BV13Y4y1S7FH', 'typename': '官方延伸', 'title': '【中字】日高里菜公主的钢管舞《钢管公主》紫藤莎娜角色歌MV', 'subtitle': '', 'play': 41585, 'review': 56, 'video_review': 5, 'favorites': 680, 'mid': 24584944, 'author': '囗囗框框', 'description': '网络\n对比视频怎么这么多人看，站内应该没有中字\n光速传个本体中字\n字幕又加了一点奇怪的特效', 'create': '2023-03-24 15:36', 'pic': 'http://i0.hdslb.com/bfs/archive/32fc4045003d29704b05791c81eef1a6e2fe1f07.jpg', 'coins': 60, 'duration': '2:16', 'badgepay': False, 'pts': 41407, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311281163', 'bvid': 'BV1fP411d7R4', 'typename': '官方延伸', 'title': '【熟】銀魂後祭り2023(仮) 夜场 促贩向节选', 'subtitle': '', 'play': 37629, 'review': 84, 'video_review': 45, 'favorites': 915, 'mid': 14954522, 'author': 'Kenichi00', 'description': '20230319 石头精分现场 老猫又肚肚痛痛了 杉田：就算是死后我也会继续饰演坂田银时 有幸参加嗨到飞起 会动的先生相当活泼各种小动作 一托镜框我就倒地了 老猫你不是主演就还是不来是吗 说是这么说 听到声音嚎成猴子的仿佛不是我x 结束后樱花妹精准嘴替：子安桑只是在说话而已但绝杀了所有人 石田桑穿和服戴眼镜太优雅了 果然提了中村（不带敬称大佬知道了又要念叨w 杉田昼夜场谢幕都很真挚 到3/26都能买abema配信票看回放（需要稳定日区ip） BD可以预约了（划重点！', 'create': '2023-03-21 02:14', 'pic': 'http://i1.hdslb.com/bfs/archive/61bc93814edc43cb0067ee1a41344d91b1619faa.jpg', 'coins': 139, 'duration': '3:44', 'badgepay': False, 'pts': 36945, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1198982</v>
+        <v>1253010</v>
       </c>
       <c r="I10" t="n">
-        <v>7177</v>
+        <v>7402</v>
       </c>
       <c r="J10" t="n">
-        <v>23740</v>
+        <v>24686</v>
       </c>
       <c r="K10" t="n">
         <v>1256</v>
@@ -939,19 +939,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>番剧(主分区)</t>
+          <t>番剧</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[{'aid': '396353798', 'bvid': 'BV1Mo4y1B7D3', 'typename': '完结动画', 'title': '劇場版 關於我轉生變成史萊姆這檔事 紅蓮之絆篇', 'subtitle': '', 'play': 25757, 'review': 383, 'video_review': 1457, 'favorites': 3, 'mid': 11783021, 'author': '哔哩哔哩番剧出差', 'description': ' ', 'create': '2023-03-23 23:00', 'pic': 'http://i0.hdslb.com/bfs/archive/4438d6abc322aff9dcb7ef43dda77b4cd36e7a6b.png', 'coins': 518, 'duration': '108:38', 'badgepay': False, 'pts': 25440, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741419'}, {'aid': '993860266', 'bvid': 'BV1Qx4y1w7ai', 'typename': '完结动画', 'title': '天使降臨我身邊 劇場版（僅限港澳台地區）', 'subtitle': '', 'play': 18418, 'review': 389, 'video_review': 1057, 'favorites': 4, 'mid': 11783021, 'author': '哔哩哔哩番剧出差', 'description': '正片', 'create': '2023-03-24 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/4665328da0f50bff48a1619e7b661b62cfbdd634.png', 'coins': 858, 'duration': '66:35', 'badgepay': False, 'pts': 18207, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741420'}, {'aid': '991575606', 'bvid': 'BV1Jx4y1L7h2', 'typename': '完结动画', 'title': '神奇蜘蛛侠 第一季 13【独家正版】', 'subtitle': '', 'play': 11209, 'review': 28, 'video_review': 105, 'favorites': 0, 'mid': 108605804, 'author': '动画纪', 'description': '#13', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/09eacc97eab707a753ea7d18decbc43ecdb67588.png', 'coins': 24, 'duration': '23:03', 'badgepay': False, 'pts': 10607, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep735119'}, {'aid': '434251400', 'bvid': 'BV1F3411X7X8', 'typename': '完结动画', 'title': '【完结】四色战记 第六季 13【独家正版】', 'subtitle': '', 'play': 8059, 'review': 25, 'video_review': 17, 'favorites': 0, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#13', 'create': '2023-03-23 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8a02fc51c25331739bdcc6efcf08c401c90bb7e2.jpg', 'coins': 27, 'duration': '23:10', 'badgepay': False, 'pts': 7945, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep712099'}, {'aid': '949114778', 'bvid': 'BV1Rs4y1Y7PN', 'typename': '完结动画', 'title': '神奇蜘蛛侠 第一季 14【独家正版】', 'subtitle': '', 'play': 7407, 'review': 31, 'video_review': 73, 'favorites': 0, 'mid': 108605804, 'author': '动画纪', 'description': '#14', 'create': '2023-03-24 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8760a859b63ecfe9d4e450098d962dd784e2ba4f.png', 'coins': 27, 'duration': '22:20', 'badgepay': False, 'pts': 6978, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep735120'}]</t>
+          <t>[{'aid': '396353798', 'bvid': 'BV1Mo4y1B7D3', 'typename': '完结动画', 'title': '劇場版 關於我轉生變成史萊姆這檔事 紅蓮之絆篇', 'subtitle': '', 'play': 26678, 'review': 388, 'video_review': 1522, 'favorites': 3, 'mid': 11783021, 'author': '哔哩哔哩番剧出差', 'description': ' ', 'create': '2023-03-23 23:00', 'pic': 'http://i0.hdslb.com/bfs/archive/4438d6abc322aff9dcb7ef43dda77b4cd36e7a6b.png', 'coins': 532, 'duration': '108:38', 'badgepay': False, 'pts': 26372, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741419'}, {'aid': '993860266', 'bvid': 'BV1Qx4y1w7ai', 'typename': '完结动画', 'title': '天使降臨我身邊 劇場版（僅限港澳台地區）', 'subtitle': '', 'play': 18940, 'review': 391, 'video_review': 1084, 'favorites': 4, 'mid': 11783021, 'author': '哔哩哔哩番剧出差', 'description': '正片', 'create': '2023-03-24 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/4665328da0f50bff48a1619e7b661b62cfbdd634.png', 'coins': 875, 'duration': '66:35', 'badgepay': False, 'pts': 18728, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741420'}, {'aid': '991575606', 'bvid': 'BV1Jx4y1L7h2', 'typename': '完结动画', 'title': '神奇蜘蛛侠 第一季 13【独家正版】', 'subtitle': '', 'play': 11868, 'review': 28, 'video_review': 105, 'favorites': 0, 'mid': 108605804, 'author': '动画纪', 'description': '#13', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/09eacc97eab707a753ea7d18decbc43ecdb67588.png', 'coins': 24, 'duration': '23:03', 'badgepay': False, 'pts': 11257, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep735119'}, {'aid': '434251400', 'bvid': 'BV1F3411X7X8', 'typename': '完结动画', 'title': '【完结】四色战记 第六季 13【独家正版】', 'subtitle': '', 'play': 8129, 'review': 25, 'video_review': 17, 'favorites': 0, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#13', 'create': '2023-03-23 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8a02fc51c25331739bdcc6efcf08c401c90bb7e2.jpg', 'coins': 27, 'duration': '23:10', 'badgepay': False, 'pts': 8008, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep712099'}, {'aid': '949114778', 'bvid': 'BV1Rs4y1Y7PN', 'typename': '完结动画', 'title': '神奇蜘蛛侠 第一季 14【独家正版】', 'subtitle': '', 'play': 7856, 'review': 31, 'video_review': 73, 'favorites': 0, 'mid': 108605804, 'author': '动画纪', 'description': '#14', 'create': '2023-03-24 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8760a859b63ecfe9d4e450098d962dd784e2ba4f.png', 'coins': 28, 'duration': '22:20', 'badgepay': False, 'pts': 7393, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep735120'}]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>70850</v>
+        <v>73471</v>
       </c>
       <c r="I11" t="n">
-        <v>1454</v>
+        <v>1486</v>
       </c>
       <c r="J11" t="n">
         <v>7</v>
@@ -986,22 +986,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>番剧(主分区)</t>
+          <t>番剧</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[{'aid': '479931668', 'bvid': 'BV17M411w7oB', 'typename': '连载动画', 'title': '【1月】文豪野犬 第四季 12【独家正版】', 'subtitle': '', 'play': 745695, 'review': 1312, 'video_review': 2414, 'favorites': 25, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#12', 'create': '2023-03-22 22:00', 'pic': 'http://i2.hdslb.com/bfs/archive/91ea87a3740935fe9629eadac01c5ac99083406d.png', 'coins': 3826, 'duration': '23:41', 'badgepay': False, 'pts': 673952, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep736250'}, {'aid': '950356537', 'bvid': 'BV1Ps4y1L7fS', 'typename': '连载动画', 'title': '【1月/完结】冰属性男子和酷酷女同事 12 【独家正版】', 'subtitle': '', 'play': 508042, 'review': 408, 'video_review': 4289, 'favorites': 36, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#12', 'create': '2023-03-21 22:30', 'pic': 'http://i1.hdslb.com/bfs/archive/1ff34fbf5fbab8a061b668bf2259508c359d1056.png', 'coins': 5784, 'duration': '23:41', 'badgepay': False, 'pts': 496589, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737178'}, {'aid': '610592030', 'bvid': 'BV1s84y1P7et', 'typename': '连载动画', 'title': '【1月】物之古物奇谭 11 【独家正版】', 'subtitle': '', 'play': 415565, 'review': 153, 'video_review': 472, 'favorites': 0, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#11', 'create': '2023-03-21 00:30', 'pic': 'http://i2.hdslb.com/bfs/archive/d17ffed7953a77b7478020033701e8954ec80bbd.jpg', 'coins': 793, 'duration': '23:41', 'badgepay': False, 'pts': 394171, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep735730'}, {'aid': '909120003', 'bvid': 'BV1kM4y1m7pM', 'typename': '连载动画', 'title': '【1月】入间同学入魔了 第三季06', 'subtitle': '', 'play': 279554, 'review': 242, 'video_review': 924, 'favorites': 3, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#6', 'create': '2023-03-25 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/2d75aa2b41aeda13f35354cf24ebd6d9144d2a4d.png', 'coins': 763, 'duration': '24:34', 'badgepay': False, 'pts': 269052, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737097'}, {'aid': '738898442', 'bvid': 'BV1Fk4y1b7eT', 'typename': '连载动画', 'title': '【1月/完结】被解雇的暗黑士兵慢生活的第二人生 12 【独家正版】', 'subtitle': '', 'play': 224790, 'review': 241, 'video_review': 1133, 'favorites': 3, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '12', 'create': '2023-03-25 21:00', 'pic': 'http://i1.hdslb.com/bfs/archive/30466af8216e1686dc06e706342e167a9a42cb55.jpg', 'coins': 983, 'duration': '23:47', 'badgepay': False, 'pts': 219587, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep738626'}, {'aid': '654104889', 'bvid': 'BV1AY4y1S7TF', 'typename': '连载动画', 'title': '【10月】假面骑士 极狐 12', 'subtitle': '', 'play': 207834, 'review': 294, 'video_review': 879, 'favorites': 3, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#12', 'create': '2023-03-26 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5dae5612a3a745bb83bbff28d901448062bb2c7e.png', 'coins': 524, 'duration': '23:16', 'badgepay': False, 'pts': 200067, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep736822'}, {'aid': '824085422', 'bvid': 'BV1Vg4y1s7Gk', 'typename': '连载动画', 'title': '名侦探柯南 1135', 'subtitle': '', 'play': 215150, 'review': 711, 'video_review': 2235, 'favorites': 5, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#1135', 'create': '2023-03-25 19:30', 'pic': 'http://i2.hdslb.com/bfs/archive/b78f144ddb5996d256f25e26e47cf6dfa4e6f4a2.png', 'coins': 958, 'duration': '24:43', 'badgepay': False, 'pts': 183705, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742692'}, {'aid': '311382238', 'bvid': 'BV1hP411o747', 'typename': '连载动画', 'title': '【1月/完结】反派大小姐莉泽洛特与实况解说 12【独家正版】', 'subtitle': '', 'play': 149488, 'review': 367, 'video_review': 1852, 'favorites': 20, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#12', 'create': '2023-03-25 01:55', 'pic': 'http://i2.hdslb.com/bfs/archive/e236ed8413e633035a59d60b2dde6aa35ed7b7d5.png', 'coins': 4179, 'duration': '24:13', 'badgepay': False, 'pts': 144349, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737181'}, {'aid': '568874081', 'bvid': 'BV1Dv4y1V7N1', 'typename': '连载动画', 'title': '【1月】英雄传说：闪之轨迹 05【独家正版】', 'subtitle': '', 'play': 117356, 'review': 111, 'video_review': 217, 'favorites': 2, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#5', 'create': '2023-03-24 21:00', 'pic': 'http://i1.hdslb.com/bfs/archive/51098f1bc1d7822afe14b4fcedce9401c676c839.png', 'coins': 134, 'duration': '23:52', 'badgepay': False, 'pts': 116586, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep738632'}, {'aid': '224182782', 'bvid': 'BV1J8411T7BU', 'typename': '连载动画', 'title': '【10月】呆萌酷男孩 23', 'subtitle': '', 'play': 115582, 'review': 153, 'video_review': 355, 'favorites': 2, 'mid': 21453565, 'author': 'TV-TOKYO', 'description': '#23', 'create': '2023-03-21 01:40', 'pic': 'http://i0.hdslb.com/bfs/archive/439ef2b89a35fae652c84cf2d1b137d6d52469c4.png', 'coins': 582, 'duration': '11:15', 'badgepay': False, 'pts': 112795, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep735522'}]</t>
+          <t>[{'aid': '479931668', 'bvid': 'BV17M411w7oB', 'typename': '连载动画', 'title': '【1月】文豪野犬 第四季 12【独家正版】', 'subtitle': '', 'play': 760047, 'review': 1325, 'video_review': 2426, 'favorites': 25, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#12', 'create': '2023-03-22 22:00', 'pic': 'http://i2.hdslb.com/bfs/archive/91ea87a3740935fe9629eadac01c5ac99083406d.png', 'coins': 3892, 'duration': '23:41', 'badgepay': False, 'pts': 686005, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep736250'}, {'aid': '950356537', 'bvid': 'BV1Ps4y1L7fS', 'typename': '连载动画', 'title': '【1月/完结】冰属性男子和酷酷女同事 12 【独家正版】', 'subtitle': '', 'play': 515871, 'review': 410, 'video_review': 4306, 'favorites': 36, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#12', 'create': '2023-03-21 22:30', 'pic': 'http://i1.hdslb.com/bfs/archive/1ff34fbf5fbab8a061b668bf2259508c359d1056.png', 'coins': 5861, 'duration': '23:41', 'badgepay': False, 'pts': 504021, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737178'}, {'aid': '610592030', 'bvid': 'BV1s84y1P7et', 'typename': '连载动画', 'title': '【1月】物之古物奇谭 11 【独家正版】', 'subtitle': '', 'play': 420108, 'review': 153, 'video_review': 472, 'favorites': 0, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#11', 'create': '2023-03-21 00:30', 'pic': 'http://i2.hdslb.com/bfs/archive/d17ffed7953a77b7478020033701e8954ec80bbd.jpg', 'coins': 802, 'duration': '23:41', 'badgepay': False, 'pts': 398158, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep735730'}, {'aid': '909120003', 'bvid': 'BV1kM4y1m7pM', 'typename': '连载动画', 'title': '【1月】入间同学入魔了 第三季06', 'subtitle': '', 'play': 312275, 'review': 254, 'video_review': 953, 'favorites': 3, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#6', 'create': '2023-03-25 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/2d75aa2b41aeda13f35354cf24ebd6d9144d2a4d.png', 'coins': 835, 'duration': '24:34', 'badgepay': False, 'pts': 301189, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737097'}, {'aid': '654104889', 'bvid': 'BV1AY4y1S7TF', 'typename': '连载动画', 'title': '【10月】假面骑士 极狐 12', 'subtitle': '', 'play': 295289, 'review': 351, 'video_review': 983, 'favorites': 4, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#12', 'create': '2023-03-26 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5dae5612a3a745bb83bbff28d901448062bb2c7e.png', 'coins': 628, 'duration': '23:16', 'badgepay': False, 'pts': 280051, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep736822'}, {'aid': '738898442', 'bvid': 'BV1Fk4y1b7eT', 'typename': '连载动画', 'title': '【1月/完结】被解雇的暗黑士兵慢生活的第二人生 12 【独家正版】', 'subtitle': '', 'play': 240962, 'review': 252, 'video_review': 1222, 'favorites': 3, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '12', 'create': '2023-03-25 21:00', 'pic': 'http://i1.hdslb.com/bfs/archive/30466af8216e1686dc06e706342e167a9a42cb55.jpg', 'coins': 1047, 'duration': '23:47', 'badgepay': False, 'pts': 235275, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep738626'}, {'aid': '824085422', 'bvid': 'BV1Vg4y1s7Gk', 'typename': '连载动画', 'title': '名侦探柯南 1135', 'subtitle': '', 'play': 228405, 'review': 742, 'video_review': 2311, 'favorites': 6, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#1135', 'create': '2023-03-25 19:30', 'pic': 'http://i2.hdslb.com/bfs/archive/b78f144ddb5996d256f25e26e47cf6dfa4e6f4a2.png', 'coins': 1013, 'duration': '24:43', 'badgepay': False, 'pts': 195754, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742692'}, {'aid': '311382238', 'bvid': 'BV1hP411o747', 'typename': '连载动画', 'title': '【1月/完结】反派大小姐莉泽洛特与实况解说 12【独家正版】', 'subtitle': '', 'play': 157085, 'review': 379, 'video_review': 1918, 'favorites': 21, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#12', 'create': '2023-03-25 01:55', 'pic': 'http://i2.hdslb.com/bfs/archive/e236ed8413e633035a59d60b2dde6aa35ed7b7d5.png', 'coins': 4487, 'duration': '24:13', 'badgepay': False, 'pts': 151467, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737181'}, {'aid': '396407194', 'bvid': 'BV1uo4y1s7K7', 'typename': '连载动画', 'title': '【10月】致不灭的你 第二季 14【独家正版】', 'subtitle': '', 'play': 143352, 'review': 169, 'video_review': 388, 'favorites': 2, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#14', 'create': '2023-03-26 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/d0fde9453bf6d0bfb015941f8dc2024bf4466ef3.png', 'coins': 528, 'duration': '24:59', 'badgepay': False, 'pts': 136658, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep738651'}, {'aid': '483909628', 'bvid': 'BV1GT411r7Ue', 'typename': '连载动画', 'title': '【10月】蓝色监狱 19', 'subtitle': '', 'play': 139687, 'review': 262, 'video_review': 916, 'favorites': 4, 'mid': 928123, 'author': '哔哩哔哩番剧', 'description': '#19', 'create': '2023-03-26 01:00', 'pic': 'http://i2.hdslb.com/bfs/archive/87561f0433714546279cbe6b89a01b22e9474184.png', 'coins': 722, 'duration': '24:40', 'badgepay': False, 'pts': 129796, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741760'}]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2979056</v>
+        <v>3213081</v>
       </c>
       <c r="I12" t="n">
-        <v>18526</v>
+        <v>19815</v>
       </c>
       <c r="J12" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K12" t="n">
         <v>45</v>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>国创(主分区)</t>
+          <t>国创</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[{'aid': '781602004', 'bvid': 'BV1H24y177cu', 'typename': '国产动画', 'title': '【独家】《三体》第15集 永恒的篝火', 'subtitle': '', 'play': 2963698, 'review': 1375, 'video_review': 17611, 'favorites': 61, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '迫近的量子体，卡壳的纳米丝，还有尚未救出去的人...罗辑最终将如何解决这些危机，顺利返回地球呢？', 'create': '2023-03-25 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/a363233219389c631b13b85936b467068b1b3b52.jpg', 'coins': 6889, 'duration': '28:43', 'badgepay': False, 'pts': 2290216, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep705756'}, {'aid': '438862609', 'bvid': 'BV15L41197Ub', 'typename': '国产动画', 'title': '【独家】两不疑 第二季 第20集 祭天罪己【10月国创】', 'subtitle': '', 'play': 891957, 'review': 392, 'video_review': 1147, 'favorites': 14, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '朝堂动荡，萧锦昀被逼祭天罪己，大戏即将拉开帷幕！', 'create': '2023-03-22 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/55d437c933cbada50db6124fb4de5541d485d4ab.jpg', 'coins': 3779, 'duration': '14:47', 'badgepay': False, 'pts': 851345, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep733275'}, {'aid': '611376998', 'bvid': 'BV1K84y137hD', 'typename': '国产动画', 'title': '【独家/完结】我家大师兄有点靠谱 第13集 八戒欢迎回来【1月国创】', 'subtitle': '', 'play': 810208, 'review': 822, 'video_review': 2584, 'favorites': 36, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '伏魔大会终于尘埃落定', 'create': '2023-03-24 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/6b0d1059a19707ea3dfdffcd91b3278d6e977736.jpg', 'coins': 4881, 'duration': '20:44', 'badgepay': False, 'pts': 638634, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep712537'}, {'aid': '526622831', 'bvid': 'BV1YM411g7Nw', 'typename': '国产动画', 'title': '【独家】《凡人修仙传之风起天南》重制版第9集【1月国创】', 'subtitle': '', 'play': 511004, 'review': 426, 'video_review': 1388, 'favorites': 21, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '每周日中午11:00，bilibili独家呈现', 'create': '2023-03-26 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7446b5c1f1a8cd762251cac6a02a56f8b90d6abf.jpg', 'coins': 3932, 'duration': '19:58', 'badgepay': False, 'pts': 309247, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep733324'}, {'aid': '994019946', 'bvid': 'BV1rx4y1A7wR', 'typename': '国产动画', 'title': '王者？别闹！第51集 我们好像躺赢了（下篇）', 'subtitle': '', 'play': 321613, 'review': 684, 'video_review': 889, 'favorites': 24, 'mid': 16484, 'author': '友人么么哒', 'description': '嗷呜~~《王者？别闹！》第51集  我们好像躺赢了(下篇)\n请观众老爷们点赞投币收藏3连支持我们，第一时间知道我们最新的动画爆料，并和友人工作室的小可爱们随时交♂流!', 'create': '2023-03-25 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/9d9157d7a31df95d1155fe4ef476f3eba001e627.jpg', 'coins': 3580, 'duration': '6:24', 'badgepay': False, 'pts': 298393, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742758'}, {'aid': '434346216', 'bvid': 'BV1b3411X7sy', 'typename': '国产动画', 'title': '【独家/完结】关喵什么事 第13集 打工喵，没有猫权【1月国创】', 'subtitle': '', 'play': 178835, 'review': 207, 'video_review': 239, 'favorites': 3, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '一只在办公室的打工猫', 'create': '2023-03-20 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/4005556c49be3d0f5fe1bd975bb3edd904d386bb.jpg', 'coins': 1254, 'duration': '5:01', 'badgepay': False, 'pts': 164580, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep716012'}, {'aid': '268808682', 'bvid': 'BV1Qc411j7LX', 'typename': '国产动画', 'title': '【我是不白吃】537 啃骨头的长颈鹿你见过吗？', 'subtitle': '', 'play': 258513, 'review': 108, 'video_review': 39, 'favorites': 10, 'mid': 451296298, 'author': '我是不白吃', 'description': '', 'create': '2023-03-25 21:00', 'pic': 'http://i2.hdslb.com/bfs/archive/e41a94f7528eb59d520390bb0056d611b32c668f.jpg', 'coins': 99, 'duration': '0:59', 'badgepay': False, 'pts': 163890, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741387'}, {'aid': '226296864', 'bvid': 'BV1Sb411d7aN', 'typename': '国产动画', 'title': '【独家】兵主奇魂 第22集 三人协力，苦战虺巳【1月国创】', 'subtitle': '', 'play': 164524, 'review': 80, 'video_review': 109, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': ' 虺巳驭控鲨妖意识，黎石三人陷入险境。', 'create': '2023-03-21 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c0b07ae4455312373bf0482556d941602b950e9d.jpg', 'coins': 125, 'duration': '18:09', 'badgepay': False, 'pts': 154132, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep733233'}, {'aid': '438798711', 'bvid': 'BV1vL411d7sn', 'typename': '国产动画', 'title': '【我是不白吃】535 东北菜的灵魂是什么？', 'subtitle': '', 'play': 311241, 'review': 148, 'video_review': 54, 'favorites': 15, 'mid': 451296298, 'author': '我是不白吃', 'description': '', 'create': '2023-03-21 21:00', 'pic': 'http://i1.hdslb.com/bfs/archive/cc053b7cdaffc4cd6621d539001f7d7dd82bece0.jpg', 'coins': 136, 'duration': '1:10', 'badgepay': False, 'pts': 98548, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741385'}, {'aid': '866213984', 'bvid': 'BV1YV4y197S3', 'typename': '国产动画', 'title': '【独家】李林克的小馆儿 第二季 第9集 庆小立家的酱爆肉丁【1月国创】', 'subtitle': '', 'play': 98487, 'review': 118, 'video_review': 211, 'favorites': 2, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '莫名其妙的火灾，隐在暗处的监视，李林克终于找到了那个暗藏的黑手……', 'create': '2023-03-20 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/b997ea30b6bac30c07bc5ebfdb4dfeddba8cb55e.png', 'coins': 248, 'duration': '18:10', 'badgepay': False, 'pts': 96937, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep711766'}]</t>
+          <t>[{'aid': '781602004', 'bvid': 'BV1H24y177cu', 'typename': '国产动画', 'title': '【独家】《三体》第15集 永恒的篝火', 'subtitle': '', 'play': 3109564, 'review': 1451, 'video_review': 18378, 'favorites': 63, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '迫近的量子体，卡壳的纳米丝，还有尚未救出去的人...罗辑最终将如何解决这些危机，顺利返回地球呢？', 'create': '2023-03-25 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/a363233219389c631b13b85936b467068b1b3b52.jpg', 'coins': 7216, 'duration': '28:43', 'badgepay': False, 'pts': 2420977, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep705756'}, {'aid': '438862609', 'bvid': 'BV15L41197Ub', 'typename': '国产动画', 'title': '【独家】两不疑 第二季 第20集 祭天罪己【10月国创】', 'subtitle': '', 'play': 901781, 'review': 394, 'video_review': 1152, 'favorites': 14, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '朝堂动荡，萧锦昀被逼祭天罪己，大戏即将拉开帷幕！', 'create': '2023-03-22 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/55d437c933cbada50db6124fb4de5541d485d4ab.jpg', 'coins': 3819, 'duration': '14:47', 'badgepay': False, 'pts': 860211, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep733275'}, {'aid': '611376998', 'bvid': 'BV1K84y137hD', 'typename': '国产动画', 'title': '【独家/完结】我家大师兄有点靠谱 第13集 八戒欢迎回来【1月国创】', 'subtitle': '', 'play': 818738, 'review': 831, 'video_review': 2608, 'favorites': 36, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '伏魔大会终于尘埃落定', 'create': '2023-03-24 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/6b0d1059a19707ea3dfdffcd91b3278d6e977736.jpg', 'coins': 4952, 'duration': '20:44', 'badgepay': False, 'pts': 646606, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep712537'}, {'aid': '526622831', 'bvid': 'BV1YM411g7Nw', 'typename': '国产动画', 'title': '【独家】《凡人修仙传之风起天南》重制版第9集【1月国创】', 'subtitle': '', 'play': 608236, 'review': 444, 'video_review': 1476, 'favorites': 22, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '每周日中午11:00，bilibili独家呈现', 'create': '2023-03-26 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7446b5c1f1a8cd762251cac6a02a56f8b90d6abf.jpg', 'coins': 4316, 'duration': '19:58', 'badgepay': False, 'pts': 397398, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep733324'}, {'aid': '994019946', 'bvid': 'BV1rx4y1A7wR', 'typename': '国产动画', 'title': '王者？别闹！第51集 我们好像躺赢了（下篇）', 'subtitle': '', 'play': 338483, 'review': 696, 'video_review': 919, 'favorites': 25, 'mid': 16484, 'author': '友人么么哒', 'description': '嗷呜~~《王者？别闹！》第51集  我们好像躺赢了(下篇)\n请观众老爷们点赞投币收藏3连支持我们，第一时间知道我们最新的动画爆料，并和友人工作室的小可爱们随时交♂流!', 'create': '2023-03-25 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/9d9157d7a31df95d1155fe4ef476f3eba001e627.jpg', 'coins': 3682, 'duration': '6:24', 'badgepay': False, 'pts': 313280, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742758'}, {'aid': '268808682', 'bvid': 'BV1Qc411j7LX', 'typename': '国产动画', 'title': '【我是不白吃】537 啃骨头的长颈鹿你见过吗？', 'subtitle': '', 'play': 329148, 'review': 129, 'video_review': 44, 'favorites': 13, 'mid': 451296298, 'author': '我是不白吃', 'description': '', 'create': '2023-03-25 21:00', 'pic': 'http://i2.hdslb.com/bfs/archive/e41a94f7528eb59d520390bb0056d611b32c668f.jpg', 'coins': 113, 'duration': '0:59', 'badgepay': False, 'pts': 208479, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741387'}, {'aid': '226296864', 'bvid': 'BV1Sb411d7aN', 'typename': '国产动画', 'title': '【独家】兵主奇魂 第22集 三人协力，苦战虺巳【1月国创】', 'subtitle': '', 'play': 165463, 'review': 80, 'video_review': 111, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': ' 虺巳驭控鲨妖意识，黎石三人陷入险境。', 'create': '2023-03-21 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c0b07ae4455312373bf0482556d941602b950e9d.jpg', 'coins': 125, 'duration': '18:09', 'badgepay': False, 'pts': 154979, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep733233'}, {'aid': '438798711', 'bvid': 'BV1vL411d7sn', 'typename': '国产动画', 'title': '【我是不白吃】535 东北菜的灵魂是什么？', 'subtitle': '', 'play': 315670, 'review': 150, 'video_review': 57, 'favorites': 15, 'mid': 451296298, 'author': '我是不白吃', 'description': '', 'create': '2023-03-21 21:00', 'pic': 'http://i1.hdslb.com/bfs/archive/cc053b7cdaffc4cd6621d539001f7d7dd82bece0.jpg', 'coins': 136, 'duration': '1:10', 'badgepay': False, 'pts': 101437, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741385'}, {'aid': '781009341', 'bvid': 'BV1Z24y1M7f1', 'typename': '国产动画', 'title': '和妈妈斗智斗勇的哈小浪', 'subtitle': '', 'play': 154286, 'review': 9, 'video_review': 3, 'favorites': 2, 'mid': 3493134164035706, 'author': '哈小浪-HuskyLang', 'description': '哈小浪轻松一刻', 'create': '2023-03-25 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/9f09adc20c650c53390df689b13b0c25b9dbd49b.jpg', 'coins': 21, 'duration': '0:56', 'badgepay': False, 'pts': 67283, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741678'}, {'aid': '483872843', 'bvid': 'BV1AT411r7mM', 'typename': '国产动画', 'title': '【独家】两不疑 第二季 小剧场第22集 傻狗有傻福', 'subtitle': '', 'play': 67405, 'review': 30, 'video_review': 17, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '不好说是狗狗昀还是喵喵钰更有福气……', 'create': '2023-03-24 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/bef1455c4b16265c57fa1a3012c02f4d8d2978e1.jpg', 'coins': 96, 'duration': '0:44', 'badgepay': False, 'pts': 66758, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep719853'}]</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6510080</v>
+        <v>6808774</v>
       </c>
       <c r="I13" t="n">
-        <v>24923</v>
+        <v>24476</v>
       </c>
       <c r="J13" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K13" t="n">
         <v>637</v>
@@ -1080,22 +1080,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>国创(主分区)</t>
+          <t>国创</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[{'aid': '994043084', 'bvid': 'BV1Bx4y1A7kD', 'typename': '国产原创相关', 'title': '刘备种白菜！关羽卖牛杂!20年前火爆中国的【Q版三国】大结局究竟是什么？', 'subtitle': '', 'play': 948252, 'review': 1214, 'video_review': 2018, 'favorites': 7516, 'mid': 31261235, 'author': 'L另唐', 'description': 'Q版三国在我心中和夺宝幸运星一样\n都是小时候恶搞动画的佳作\n看这部动画有一种看刺客伍六七的感觉\n因为时间关系里面的很多比如\n五虎上将，周瑜，赵云七进七出都没有做进去\n大家有兴趣也可以自己去看看\n希望20年后的我们也可以像今天这样笑的那么开心\nbgm：\nmoinoi moinoi\nAlphys\nMonkeys Spinning Monkeys\n Shake Down\n Feel It\nAirwaves\n文案参考：\nq版刘关张百度百科\nq版刘关张知乎\nq版刘关张豆瓣', 'create': '2023-03-24 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/cf472a756829f5b78a3fd56f280a5a1ad2a14c88.jpg', 'coins': 5402, 'duration': '19:09', 'badgepay': False, 'pts': 1681220, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353924412', 'bvid': 'BV1HX4y1d77x', 'typename': '国产原创相关', 'title': '用历史人物进行自走棋对决，你起手就选择了白色棋子诸葛村夫', 'subtitle': '', 'play': 1257930, 'review': 466, 'video_review': 656, 'favorites': 42007, 'mid': 654552, 'author': '圆桌动漫', 'description': '本系列改编自番茄小说《不要小看诸葛村夫》\n如果有想先看完剧情的，可以去番茄小说手机端自行查阅\n本系列目前先更一集试试水，如果大家喜欢就继续，数据不太理想的话就当个推荐即可', 'create': '2023-03-22 11:42', 'pic': 'http://i0.hdslb.com/bfs/archive/35c78026e083f8230826dbe4bdcef3fdc6424955.jpg', 'coins': 3575, 'duration': '9:43', 'badgepay': False, 'pts': 1224118, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438975133', 'bvid': 'BV1mL41197Z5', 'typename': '国产原创相关', 'title': '如何写黑暗流小说', 'subtitle': '', 'play': 228708, 'review': 599, 'video_review': 128, 'favorites': 12649, 'mid': 1531172399, 'author': '在下萧剑客', 'description': '-', 'create': '2023-03-22 17:25', 'pic': 'http://i0.hdslb.com/bfs/archive/8de671cfd97416585f845d6b4cdd4a8239ffea7d.jpg', 'coins': 992, 'duration': '0:28', 'badgepay': False, 'pts': 698013, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526511497', 'bvid': 'BV12M411u7p4', 'typename': '国产原创相关', 'title': '大胆提问之《伍六七》导演专访！我超勇的！', 'subtitle': '', 'play': 257538, 'review': 1579, 'video_review': 2526, 'favorites': 5386, 'mid': 70744200, 'author': '天师道的白山正', 'description': '感谢何老师百忙之中还能抽出时间，回答我的灵魂拷问。\n\n大家想问的问题，我是真的直接就问了，看在我这么勇的份上，给个三联不过分吧？\n\nps：着实没想到《小疯映画》氛围居然出奇的好，甚至很温馨，温馨和爆肝并存。', 'create': '2023-03-25 18:53', 'pic': 'http://i2.hdslb.com/bfs/archive/8116c9c970ad258fbedfd7bd0d90a693a2feafd0.jpg', 'coins': 5733, 'duration': '19:05', 'badgepay': False, 'pts': 670765, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441462325', 'bvid': 'BV1sL411D76Y', 'typename': '国产原创相关', 'title': '假如熊出没的导演是温子仁', 'subtitle': '', 'play': 292736, 'review': 272, 'video_review': 120, 'favorites': 4622, 'mid': 2021535641, 'author': '先知导演', 'description': '木屋惊魂', 'create': '2023-03-23 10:59', 'pic': 'http://i2.hdslb.com/bfs/archive/ae407763c6c6ff97cccc72c6a2c7826c67412f60.jpg', 'coins': 2558, 'duration': '1:16', 'badgepay': False, 'pts': 619280, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441473166', 'bvid': 'BV1EL411D7rB', 'typename': '国产原创相关', 'title': '【不良人6】第5集深度解析：圣姬奥姑齐破防，多角色的成长刻画满分｜画江湖之不良人', 'subtitle': '', 'play': 274234, 'review': 1703, 'video_review': 1239, 'favorites': 1255, 'mid': 214062295, 'author': '贝贝漫', 'description': '-', 'create': '2023-03-23 22:29', 'pic': 'http://i2.hdslb.com/bfs/archive/2739ede2a1d14007e0bd3c974a84d1b0d71a924d.jpg', 'coins': 7621, 'duration': '10:08', 'badgepay': False, 'pts': 560387, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738773326', 'bvid': 'BV1gk4y1t7pu', 'typename': '国产原创相关', 'title': '少年拥有正魔两道绝美妖艳的仙尊当老婆！', 'subtitle': '', 'play': 870937, 'review': 34, 'video_review': 22, 'favorites': 50157, 'mid': 449689709, 'author': '噗噗推漫', 'description': '', 'create': '2023-03-21 17:53', 'pic': 'http://i2.hdslb.com/bfs/archive/661e365c6634a778b95dcb4dc5c84ad3b5827718.jpg', 'coins': 1655, 'duration': '10:44', 'badgepay': False, 'pts': 556462, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994051652', 'bvid': 'BV1ss4y1S7Uf', 'typename': '国产原创相关', 'title': '⚡我 被 勇 者 和 怪 物 踩 了⚡【meme/卡点/官拟】', 'subtitle': '', 'play': 124198, 'review': 361, 'video_review': 132, 'favorites': 7389, 'mid': 31832612, 'author': '灰太狼办公室', 'description': 'BGM：Danger Twins - Watch Me Now', 'create': '2023-03-24 19:24', 'pic': 'http://i2.hdslb.com/bfs/archive/ade37ee0532d7c4ee15c19b0a76c124f0e56fe47.jpg', 'coins': 2804, 'duration': '0:40', 'badgepay': False, 'pts': 396676, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438983076', 'bvid': 'BV16L41197iN', 'typename': '国产原创相关', 'title': '《画江湖之不良人》第六季第6集预告！', 'subtitle': '', 'play': 170433, 'review': 1716, 'video_review': 147, 'favorites': 293, 'mid': 5683205, 'author': '北京若森数字', 'description': '大萨满真的太可爱啦！！！', 'create': '2023-03-23 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/f388ce9022050f25fd02f504ecdb912ae9f18f6a.jpg', 'coins': 1938, 'duration': '1:34', 'badgepay': False, 'pts': 347025, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994005034', 'bvid': 'BV1tx4y1A7T6', 'typename': '国产原创相关', 'title': '16年拍摄真人版（画江湖之不良人）回忆杀满满啊。无法超越的经典', 'subtitle': '', 'play': 175382, 'review': 462, 'video_review': 139, 'favorites': 1126, 'mid': 1118539857, 'author': '晓超漫', 'description': '-', 'create': '2023-03-25 11:31', 'pic': 'http://i2.hdslb.com/bfs/archive/c255b6a5196f48a7dbc4755d18ad567187d9dc07.jpg', 'coins': 421, 'duration': '1:55', 'badgepay': False, 'pts': 313776, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226495563', 'bvid': 'BV1ph411G7nS', 'typename': '国产原创相关', 'title': '给孕妇算命，没想到孩子是我的【算命而已，九尾妖帝怎么就成我娘子了】', 'subtitle': '', 'play': 106558, 'review': 83, 'video_review': 131, 'favorites': 3301, 'mid': 3461575774046870, 'author': '噗噗漫社', 'description': '姜珏穿越仙侠世界，获得天命推演系统。 观他人天命，知其过去，通晓未来，更是可为人逆天改命！\xa0只是这系统，似乎出了大问题，无论他算到了什么，都得如实告知算卦者的天命。\xa0这一日，他遇到了万妖国首领天魔主。\xa0涂山岚：“小先生，不妨为我算上一卦。”\xa0“千年之后，你已嫁做人妇，生了五个孩子。”\xa0“……” “顺带一提，你相公是我。”', 'create': '2023-03-23 12:35', 'pic': 'http://i0.hdslb.com/bfs/archive/db4d7995994264c3d792f672764fe79679d3ef1e.jpg', 'coins': 220, 'duration': '6:11', 'badgepay': False, 'pts': 273159, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '994043084', 'bvid': 'BV1Bx4y1A7kD', 'typename': '国产原创相关', 'title': '刘备种白菜！关羽卖牛杂!20年前火爆中国的【Q版三国】大结局究竟是什么？', 'subtitle': '', 'play': 1007014, 'review': 1264, 'video_review': 2146, 'favorites': 7959, 'mid': 31261235, 'author': 'L另唐', 'description': 'Q版三国在我心中和夺宝幸运星一样\n都是小时候恶搞动画的佳作\n看这部动画有一种看刺客伍六七的感觉\n因为时间关系里面的很多比如\n五虎上将，周瑜，赵云七进七出都没有做进去\n大家有兴趣也可以自己去看看\n希望20年后的我们也可以像今天这样笑的那么开心\nbgm：\nmoinoi moinoi\nAlphys\nMonkeys Spinning Monkeys\n Shake Down\n Feel It\nAirwaves\n文案参考：\nq版刘关张百度百科\nq版刘关张知乎\nq版刘关张豆瓣', 'create': '2023-03-24 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/cf472a756829f5b78a3fd56f280a5a1ad2a14c88.jpg', 'coins': 5752, 'duration': '19:09', 'badgepay': False, 'pts': 1756250, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353924412', 'bvid': 'BV1HX4y1d77x', 'typename': '国产原创相关', 'title': '用历史人物进行自走棋对决，你起手就选择了白色棋子诸葛村夫', 'subtitle': '', 'play': 1275690, 'review': 472, 'video_review': 659, 'favorites': 42662, 'mid': 654552, 'author': '圆桌动漫', 'description': '本系列改编自番茄小说《不要小看诸葛村夫》\n如果有想先看完剧情的，可以去番茄小说手机端自行查阅\n本系列目前先更一集试试水，如果大家喜欢就继续，数据不太理想的话就当个推荐即可', 'create': '2023-03-22 11:42', 'pic': 'http://i0.hdslb.com/bfs/archive/35c78026e083f8230826dbe4bdcef3fdc6424955.jpg', 'coins': 3618, 'duration': '9:43', 'badgepay': False, 'pts': 1239797, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438975133', 'bvid': 'BV1mL41197Z5', 'typename': '国产原创相关', 'title': '如何写黑暗流小说', 'subtitle': '', 'play': 230295, 'review': 600, 'video_review': 129, 'favorites': 12789, 'mid': 1531172399, 'author': '在下萧剑客', 'description': '-', 'create': '2023-03-22 17:25', 'pic': 'http://i0.hdslb.com/bfs/archive/8de671cfd97416585f845d6b4cdd4a8239ffea7d.jpg', 'coins': 1001, 'duration': '0:28', 'badgepay': False, 'pts': 702089, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526511497', 'bvid': 'BV12M411u7p4', 'typename': '国产原创相关', 'title': '大胆提问之《伍六七》导演专访！我超勇的！', 'subtitle': '', 'play': 270299, 'review': 1621, 'video_review': 2622, 'favorites': 5615, 'mid': 70744200, 'author': '天师道的白山正', 'description': '感谢何老师百忙之中还能抽出时间，回答我的灵魂拷问。\n\n大家想问的问题，我是真的直接就问了，看在我这么勇的份上，给个三联不过分吧？\n\nps：着实没想到《小疯映画》氛围居然出奇的好，甚至很温馨，温馨和爆肝并存。', 'create': '2023-03-25 18:53', 'pic': 'http://i2.hdslb.com/bfs/archive/8116c9c970ad258fbedfd7bd0d90a693a2feafd0.jpg', 'coins': 6030, 'duration': '19:05', 'badgepay': False, 'pts': 699673, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441462325', 'bvid': 'BV1sL411D76Y', 'typename': '国产原创相关', 'title': '假如熊出没的导演是温子仁', 'subtitle': '', 'play': 294614, 'review': 273, 'video_review': 120, 'favorites': 4655, 'mid': 2021535641, 'author': '先知导演', 'description': '木屋惊魂', 'create': '2023-03-23 10:59', 'pic': 'http://i2.hdslb.com/bfs/archive/ae407763c6c6ff97cccc72c6a2c7826c67412f60.jpg', 'coins': 2573, 'duration': '1:16', 'badgepay': False, 'pts': 623124, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441473166', 'bvid': 'BV1EL411D7rB', 'typename': '国产原创相关', 'title': '【不良人6】第5集深度解析：圣姬奥姑齐破防，多角色的成长刻画满分｜画江湖之不良人', 'subtitle': '', 'play': 277845, 'review': 1711, 'video_review': 1243, 'favorites': 1257, 'mid': 214062295, 'author': '贝贝漫', 'description': '-', 'create': '2023-03-23 22:29', 'pic': 'http://i2.hdslb.com/bfs/archive/2739ede2a1d14007e0bd3c974a84d1b0d71a924d.jpg', 'coins': 7659, 'duration': '10:08', 'badgepay': False, 'pts': 565595, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994051652', 'bvid': 'BV1ss4y1S7Uf', 'typename': '国产原创相关', 'title': '⚡我 被 勇 者 和 怪 物 踩 了⚡【meme/卡点/官拟】', 'subtitle': '', 'play': 127213, 'review': 367, 'video_review': 134, 'favorites': 7577, 'mid': 31832612, 'author': '灰太狼办公室', 'description': 'BGM：Danger Twins - Watch Me Now', 'create': '2023-03-24 19:24', 'pic': 'http://i2.hdslb.com/bfs/archive/ade37ee0532d7c4ee15c19b0a76c124f0e56fe47.jpg', 'coins': 2870, 'duration': '0:40', 'badgepay': False, 'pts': 406428, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994005034', 'bvid': 'BV1tx4y1A7T6', 'typename': '国产原创相关', 'title': '16年拍摄真人版（画江湖之不良人）回忆杀满满啊。无法超越的经典', 'subtitle': '', 'play': 207676, 'review': 501, 'video_review': 160, 'favorites': 1392, 'mid': 1118539857, 'author': '晓超漫', 'description': '-', 'create': '2023-03-25 11:31', 'pic': 'http://i2.hdslb.com/bfs/archive/c255b6a5196f48a7dbc4755d18ad567187d9dc07.jpg', 'coins': 503, 'duration': '1:55', 'badgepay': False, 'pts': 364731, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438983076', 'bvid': 'BV16L41197iN', 'typename': '国产原创相关', 'title': '《画江湖之不良人》第六季第6集预告！', 'subtitle': '', 'play': 173051, 'review': 1722, 'video_review': 147, 'favorites': 299, 'mid': 5683205, 'author': '北京若森数字', 'description': '大萨满真的太可爱啦！！！', 'create': '2023-03-23 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/f388ce9022050f25fd02f504ecdb912ae9f18f6a.jpg', 'coins': 1957, 'duration': '1:34', 'badgepay': False, 'pts': 351231, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226495563', 'bvid': 'BV1ph411G7nS', 'typename': '国产原创相关', 'title': '给孕妇算命，没想到孩子是我的【算命而已，九尾妖帝怎么就成我娘子了】', 'subtitle': '', 'play': 107592, 'review': 84, 'video_review': 131, 'favorites': 3331, 'mid': 3461575774046870, 'author': '噗噗漫社', 'description': '姜珏穿越仙侠世界，获得天命推演系统。 观他人天命，知其过去，通晓未来，更是可为人逆天改命！\xa0只是这系统，似乎出了大问题，无论他算到了什么，都得如实告知算卦者的天命。\xa0这一日，他遇到了万妖国首领天魔主。\xa0涂山岚：“小先生，不妨为我算上一卦。”\xa0“千年之后，你已嫁做人妇，生了五个孩子。”\xa0“……” “顺带一提，你相公是我。”', 'create': '2023-03-23 12:35', 'pic': 'http://i0.hdslb.com/bfs/archive/db4d7995994264c3d792f672764fe79679d3ef1e.jpg', 'coins': 220, 'duration': '6:11', 'badgepay': False, 'pts': 275738, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268805031', 'bvid': 'BV1Dc411j7Vp', 'typename': '国产原创相关', 'title': '述里朵的真实历史原型-述律平 真正的硬核狠人《画江湖之不良人 第六季》', 'subtitle': '', 'play': 137384, 'review': 325, 'video_review': 532, 'favorites': 1400, 'mid': 57868863, 'author': '白马侯子', 'description': '特别感谢本视频的配音小哥@鲜氣菌', 'create': '2023-03-20 18:24', 'pic': 'http://i1.hdslb.com/bfs/archive/81975410b8caa98345f4da1e4ad3da55b734b179.jpg', 'coins': 1126, 'duration': '13:19', 'badgepay': False, 'pts': 258036, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4706906</v>
+        <v>4108673</v>
       </c>
       <c r="I14" t="n">
-        <v>32919</v>
+        <v>33309</v>
       </c>
       <c r="J14" t="n">
-        <v>135701</v>
+        <v>88936</v>
       </c>
       <c r="K14" t="n">
         <v>30465</v>
@@ -1127,22 +1127,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>国创(主分区)</t>
+          <t>国创</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[{'aid': '909110892', 'bvid': 'BV1WM4y1z78x', 'typename': '布袋戏', 'title': '我叫佛剑，是个DJ，不玩电音的话就往生咒咯', 'subtitle': '', 'play': 15509, 'review': 75, 'video_review': 27, 'favorites': 196, 'mid': 13394352, 'author': '-万年竹', 'description': '论过年的坑，到现在才填', 'create': '2023-03-23 23:08', 'pic': 'http://i2.hdslb.com/bfs/archive/be1e85be53700cb590fa3addf64d51da46771d38.jpg', 'coins': 86, 'duration': '2:26', 'badgepay': False, 'pts': 33608, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '865914419', 'bvid': 'BV1x54y1K75M', 'typename': '布袋戏', 'title': '大师兄你竟然还活着@霹雳布袋戏', 'subtitle': '', 'play': 14461, 'review': 73, 'video_review': 62, 'favorites': 95, 'mid': 2799412, 'author': '霹雳布袋戲', 'description': '', 'create': '2023-03-21 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/621f09d1fdaefe9b9e4e6286b951e3b54b301172.jpg', 'coins': 80, 'duration': '5:58', 'badgepay': False, 'pts': 28814, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396271532', 'bvid': 'BV1Qo4y1q7VV', 'typename': '布袋戏', 'title': '应龙师被严重低估的boss，将在《魔羽龙渊》大展身手', 'subtitle': '', 'play': 7047, 'review': 128, 'video_review': 88, 'favorites': 18, 'mid': 453544524, 'author': '萨拉时间', 'description': '东云武象应龙师是四龙当中的应龙血脉，手持崩云古幡，术法堪称一绝，搭配本身武力加持，几乎战无不胜，作为魔世凶岳疆朝之主，在他的带领下成为魔世三大势力的最强者，连帝鬼都成了手下败将，作为远古四龙之一的应龙，其实力本就是一个BOSS人物，奈何不受编剧待见，从一出场就一直吃亏的王者，让其表现和他那霸气的BGM完全不符合，老朽真不差，是你们太年轻了。也许《魔羽龙渊》才是老朽的主场。\n武戏成就：\n龙克·旱雷\n六阴噬神\n苍天悲叹\n龙师祭天·东云御法\n龙师诰天·东云窃法\n视频素材来源于金光布袋戏', 'create': '2023-03-21 17:40', 'pic': 'http://i2.hdslb.com/bfs/archive/3c164bf40a2df6018f46f6c0c8db03cd88646867.jpg', 'coins': 16, 'duration': '6:45', 'badgepay': False, 'pts': 17011, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866308285', 'bvid': 'BV1wV4y1R7UF', 'typename': '布袋戏', 'title': '【布袋戏】超硬核布袋戏入坑指南 我为布袋戏写论文', 'subtitle': '', 'play': 4406, 'review': 144, 'video_review': 52, 'favorites': 158, 'mid': 162177894, 'author': '昱心红尘', 'description': '回答道友问题\n第一次做这种风格的布袋戏视频 希望道友们多给建议 谢谢各位', 'create': '2023-03-22 18:30', 'pic': 'http://i2.hdslb.com/bfs/archive/32d6b6ba271bb6b6f6667f3ad7a915df36acb324.jpg', 'coins': 146, 'duration': '9:39', 'badgepay': False, 'pts': 16461, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781621521', 'bvid': 'BV1B24y177jh', 'typename': '布袋戏', 'title': '退坑一年后爱上的布袋戏美貌坏男人', 'subtitle': '', 'play': 5359, 'review': 40, 'video_review': 0, 'favorites': 137, 'mid': 79463848, 'author': '借我清酒压满船', 'description': 'BGM是问情\n字幕感谢南有枝太太', 'create': '2023-03-25 04:24', 'pic': 'http://i2.hdslb.com/bfs/archive/296597f894e3a8285f4045da6b245cde1e9cb86b.jpg', 'coins': 30, 'duration': '0:48', 'badgepay': False, 'pts': 14587, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441498831', 'bvid': 'BV1iL411D7sY', 'typename': '布袋戏', 'title': '《天擎峡大战》独眼龙天决最终式斩杀角龙', 'subtitle': '', 'play': 6257, 'review': 47, 'video_review': 5, 'favorites': 33, 'mid': 393173625, 'author': '零存桓凌', 'description': '《天擎峡大战》独眼龙天决最终式斩杀角龙！', 'create': '2023-03-22 21:39', 'pic': 'http://i1.hdslb.com/bfs/archive/488dd318307fb60162a893afe6ffa86de2c815e4.jpg', 'coins': 12, 'duration': '5:07', 'badgepay': False, 'pts': 13809, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738754578', 'bvid': 'BV1Lk4y1t7mx', 'typename': '布袋戏', 'title': '入坑金光布袋戏须知！', 'subtitle': '', 'play': 4583, 'review': 99, 'video_review': 178, 'favorites': 73, 'mid': 2510815, 'author': '行走的秋南瓜', 'description': 'OK，我要开始金光布袋戏的解说了，金光比霹雳简单，直接从黑白龙狼传开始！', 'create': '2023-03-21 23:39', 'pic': 'http://i2.hdslb.com/bfs/archive/0cead0910c6a61dada49a76ae60feb4767d6d2fa.jpg', 'coins': 52, 'duration': '4:26', 'badgepay': False, 'pts': 13692, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526258019', 'bvid': 'BV1NM411p7P1', 'typename': '布袋戏', 'title': '弃天帝因儿子的教育问题问责戒神老者', 'subtitle': '', 'play': 6166, 'review': 63, 'video_review': 5, 'favorites': 22, 'mid': 659565, 'author': '北墨', 'description': '霹雳神州III之天罪\n弃总回六天之界之前把儿子交给补剑缺和戒神老者抚养，结果儿子养的叛逆无比，弃总真的很生气啊，我儿子不听话都是被你们带坏了╭(╯^╰)╮', 'create': '2023-03-21 14:28', 'pic': 'http://i2.hdslb.com/bfs/archive/1e8f83d6290ea32dfc8f1650f3c5ad6d7343b7b8.png', 'coins': 12, 'duration': '2:26', 'badgepay': False, 'pts': 12714, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526394607', 'bvid': 'BV1HM411u7Ys', 'typename': '布袋戏', 'title': '【金光】好朋友作死作没了怎么办？千雪：挖出来看看', 'subtitle': '', 'play': 5023, 'review': 104, 'video_review': 27, 'favorites': 56, 'mid': 526353264, 'author': '半只穿山乙', 'description': '哈哈哈哈哈笑死', 'create': '2023-03-22 22:39', 'pic': 'http://i2.hdslb.com/bfs/archive/8d17f7027351871ab8b2e45f2f8f790c4cc725e5.jpg', 'coins': 32, 'duration': '2:57', 'badgepay': False, 'pts': 12697, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908853795', 'bvid': 'BV1jM4y1B7rF', 'typename': '布袋戏', 'title': '【霹靂宇宙大揭密!?】這是一個幾乎所有人都是左撇子,並且所有人都能活好幾百歲的世界......', 'subtitle': '', 'play': 4293, 'review': 78, 'video_review': 22, 'favorites': 34, 'mid': 399847399, 'author': '左撇子用右手干活', 'description': '-', 'create': '2023-03-21 21:20', 'pic': 'http://i1.hdslb.com/bfs/archive/005762e44bbdc6a650c6e2060a21d8361103b66c.jpg', 'coins': 19, 'duration': '10:28', 'badgepay': False, 'pts': 11255, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '909110892', 'bvid': 'BV1WM4y1z78x', 'typename': '布袋戏', 'title': '我叫佛剑，是个DJ，不玩电音的话就往生咒咯', 'subtitle': '', 'play': 16269, 'review': 79, 'video_review': 27, 'favorites': 213, 'mid': 13394352, 'author': '-万年竹', 'description': '论过年的坑，到现在才填', 'create': '2023-03-23 23:08', 'pic': 'http://i2.hdslb.com/bfs/archive/be1e85be53700cb590fa3addf64d51da46771d38.jpg', 'coins': 95, 'duration': '2:26', 'badgepay': False, 'pts': 35579, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '865914419', 'bvid': 'BV1x54y1K75M', 'typename': '布袋戏', 'title': '大师兄你竟然还活着@霹雳布袋戏', 'subtitle': '', 'play': 14583, 'review': 73, 'video_review': 62, 'favorites': 96, 'mid': 2799412, 'author': '霹雳布袋戲', 'description': '', 'create': '2023-03-21 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/621f09d1fdaefe9b9e4e6286b951e3b54b301172.jpg', 'coins': 80, 'duration': '5:58', 'badgepay': False, 'pts': 29004, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781621521', 'bvid': 'BV1B24y177jh', 'typename': '布袋戏', 'title': '退坑一年后爱上的布袋戏美貌坏男人', 'subtitle': '', 'play': 6271, 'review': 51, 'video_review': 0, 'favorites': 163, 'mid': 79463848, 'author': '借我清酒压满船', 'description': 'BGM是问情\n字幕感谢南有枝太太', 'create': '2023-03-25 04:24', 'pic': 'http://i2.hdslb.com/bfs/archive/296597f894e3a8285f4045da6b245cde1e9cb86b.jpg', 'coins': 34, 'duration': '0:48', 'badgepay': False, 'pts': 17351, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396271532', 'bvid': 'BV1Qo4y1q7VV', 'typename': '布袋戏', 'title': '应龙师被严重低估的boss，将在《魔羽龙渊》大展身手', 'subtitle': '', 'play': 7150, 'review': 130, 'video_review': 89, 'favorites': 19, 'mid': 453544524, 'author': '萨拉时间', 'description': '东云武象应龙师是四龙当中的应龙血脉，手持崩云古幡，术法堪称一绝，搭配本身武力加持，几乎战无不胜，作为魔世凶岳疆朝之主，在他的带领下成为魔世三大势力的最强者，连帝鬼都成了手下败将，作为远古四龙之一的应龙，其实力本就是一个BOSS人物，奈何不受编剧待见，从一出场就一直吃亏的王者，让其表现和他那霸气的BGM完全不符合，老朽真不差，是你们太年轻了。也许《魔羽龙渊》才是老朽的主场。\n武戏成就：\n龙克·旱雷\n六阴噬神\n苍天悲叹\n龙师祭天·东云御法\n龙师诰天·东云窃法\n视频素材来源于金光布袋戏', 'create': '2023-03-21 17:40', 'pic': 'http://i2.hdslb.com/bfs/archive/3c164bf40a2df6018f46f6c0c8db03cd88646867.jpg', 'coins': 16, 'duration': '6:45', 'badgepay': False, 'pts': 17197, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866308285', 'bvid': 'BV1wV4y1R7UF', 'typename': '布袋戏', 'title': '【布袋戏】超硬核布袋戏入坑指南 我为布袋戏写论文', 'subtitle': '', 'play': 4488, 'review': 144, 'video_review': 52, 'favorites': 158, 'mid': 162177894, 'author': '昱心红尘', 'description': '回答道友问题\n第一次做这种风格的布袋戏视频 希望道友们多给建议 谢谢各位', 'create': '2023-03-22 18:30', 'pic': 'http://i2.hdslb.com/bfs/archive/32d6b6ba271bb6b6f6667f3ad7a915df36acb324.jpg', 'coins': 149, 'duration': '9:39', 'badgepay': False, 'pts': 16536, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738754578', 'bvid': 'BV1Lk4y1t7mx', 'typename': '布袋戏', 'title': '入坑金光布袋戏须知！', 'subtitle': '', 'play': 4687, 'review': 101, 'video_review': 179, 'favorites': 74, 'mid': 2510815, 'author': '行走的秋南瓜', 'description': 'OK，我要开始金光布袋戏的解说了，金光比霹雳简单，直接从黑白龙狼传开始！', 'create': '2023-03-21 23:39', 'pic': 'http://i2.hdslb.com/bfs/archive/0cead0910c6a61dada49a76ae60feb4767d6d2fa.jpg', 'coins': 52, 'duration': '4:26', 'badgepay': False, 'pts': 13985, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441498831', 'bvid': 'BV1iL411D7sY', 'typename': '布袋戏', 'title': '《天擎峡大战》独眼龙天决最终式斩杀角龙', 'subtitle': '', 'play': 6345, 'review': 48, 'video_review': 5, 'favorites': 33, 'mid': 393173625, 'author': '零存桓凌', 'description': '《天擎峡大战》独眼龙天决最终式斩杀角龙！', 'create': '2023-03-22 21:39', 'pic': 'http://i1.hdslb.com/bfs/archive/488dd318307fb60162a893afe6ffa86de2c815e4.jpg', 'coins': 12, 'duration': '5:07', 'badgepay': False, 'pts': 13925, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526394607', 'bvid': 'BV1HM411u7Ys', 'typename': '布袋戏', 'title': '【金光】好朋友作死作没了怎么办？千雪：挖出来看看', 'subtitle': '', 'play': 5120, 'review': 104, 'video_review': 27, 'favorites': 57, 'mid': 526353264, 'author': '半只穿山乙', 'description': '哈哈哈哈哈笑死', 'create': '2023-03-22 22:39', 'pic': 'http://i2.hdslb.com/bfs/archive/8d17f7027351871ab8b2e45f2f8f790c4cc725e5.jpg', 'coins': 32, 'duration': '2:57', 'badgepay': False, 'pts': 12801, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526258019', 'bvid': 'BV1NM411p7P1', 'typename': '布袋戏', 'title': '弃天帝因儿子的教育问题问责戒神老者', 'subtitle': '', 'play': 6246, 'review': 63, 'video_review': 5, 'favorites': 23, 'mid': 659565, 'author': '北墨', 'description': '霹雳神州III之天罪\n弃总回六天之界之前把儿子交给补剑缺和戒神老者抚养，结果儿子养的叛逆无比，弃总真的很生气啊，我儿子不听话都是被你们带坏了╭(╯^╰)╮', 'create': '2023-03-21 14:28', 'pic': 'http://i2.hdslb.com/bfs/archive/1e8f83d6290ea32dfc8f1650f3c5ad6d7343b7b8.png', 'coins': 12, 'duration': '2:26', 'badgepay': False, 'pts': 12776, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484054551', 'bvid': 'BV1tT411z7Tg', 'typename': '布袋戏', 'title': '魔佛波旬战正道群侠', 'subtitle': '', 'play': 4734, 'review': 91, 'video_review': 5, 'favorites': 15, 'mid': 1684993034, 'author': '环保大帝弃总', 'description': '霹雳布袋戏', 'create': '2023-03-25 15:11', 'pic': 'http://i1.hdslb.com/bfs/archive/6764055c5f77ecd7f2c806b175800366d5fbc317.jpg', 'coins': 1, 'duration': '2:54', 'badgepay': False, 'pts': 12097, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>73104</v>
+        <v>75893</v>
       </c>
       <c r="I15" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J15" t="n">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="K15" t="n">
         <v>401</v>
@@ -1174,22 +1174,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>国创(主分区)</t>
+          <t>国创</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[{'aid': '526506752', 'bvid': 'BV11M411u7z6', 'typename': '资讯', 'title': '【独家】火凤燎原 定档PV发布 4月29日11点站内一聚【4月国创】', 'subtitle': '', 'play': 415176, 'review': 1162, 'video_review': 442, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '火凤燎原动画定档4月29日11:00', 'create': '2023-03-25 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/f48d3e8217337f26cb13fc511de240b11f69b4c5.jpg', 'coins': 1004, 'duration': '1:25', 'badgepay': False, 'pts': 412883, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742448'}, {'aid': '908837989', 'bvid': 'BV1kM4y1674h', 'typename': '资讯', 'title': '【独家】爱上她的理由 定档4月20日12点 【4月国创】', 'subtitle': '', 'play': 234882, 'review': 282, 'video_review': 73, 'favorites': 2, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '搞不懂的爱情，搞不懂的她。', 'create': '2023-03-24 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/e83162b882398cbcf3d157aa4c253941632a70f0.png', 'coins': 178, 'duration': '0:56', 'badgepay': False, 'pts': 233244, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741763'}, {'aid': '696250581', 'bvid': 'BV1F24y147HG', 'typename': '资讯', 'title': '【独家】两不疑 第二季 第21集预告 谋朝篡位【10月国创】', 'subtitle': '', 'play': 227238, 'review': 84, 'video_review': 91, 'favorites': 3, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '大战一触即发，三皇叔的狐狸尾巴藏不住了！', 'create': '2023-03-22 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/de364c49f945bc73fbb7e9797b51c87d811958ea.jpg', 'coins': 419, 'duration': '0:35', 'badgepay': False, 'pts': 214941, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep733287'}, {'aid': '611285468', 'bvid': 'BV1v84y1w7ja', 'typename': '资讯', 'title': '【独家】披着狼皮的羊 定档PV发布 4月18日10点开播【4月国创】', 'subtitle': '', 'play': 172224, 'review': 447, 'video_review': 126, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '根据快看独家连载同名作品改编，作者：黑圈、白点', 'create': '2023-03-21 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/9927a6d0455fc3e31f09b316398fa5f47f572ad6.jpg', 'coins': 69, 'duration': '1:12', 'badgepay': False, 'pts': 171160, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741429'}, {'aid': '993955087', 'bvid': 'BV1nx4y1A73h', 'typename': '资讯', 'title': '【独家】猫之茗 第二季 定档PV发布 4月8日10点开播【4月国创】', 'subtitle': '', 'play': 127620, 'review': 623, 'video_review': 377, 'favorites': 2, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '猫之茗第二季定档PV又来咯～！这次是真的！', 'create': '2023-03-25 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d2b4c9f5f5ddb1505d748de21af6ba91600bab82.jpg', 'coins': 596, 'duration': '0:47', 'badgepay': False, 'pts': 126409, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741831'}, {'aid': '311374338', 'bvid': 'BV1BP411o7Z8', 'typename': '资讯', 'title': '致敬英烈！女子发现烈士墓碑上的金漆脱落，主动放弃游玩为其描金', 'subtitle': '', 'play': 121790, 'review': 173, 'video_review': 129, 'favorites': 489, 'mid': 3493083557660854, 'author': '燃点视频Video', 'description': '3月19日，湖南湘西。一段女子为烈士墓碑描金的视频引起网友注意。女子去陵园参观，发现烈士碑上的金漆掉了。因为自己也学过毛笔字，就想帮墓碑重新描金。因为天气的原因，女子只临摹了14块。', 'create': '2023-03-20 13:20', 'pic': 'http://i0.hdslb.com/bfs/archive/71d6a41d6b7855f117a8050261372883e6441b5f.jpg', 'coins': 561, 'duration': '1:05', 'badgepay': False, 'pts': 120931, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484062165', 'bvid': 'BV18T411z7XG', 'typename': '资讯', 'title': '【独家】赘婿 定档4月23日10点开播 【4月国创】', 'subtitle': '', 'play': 116628, 'review': 595, 'video_review': 266, 'favorites': 1, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '现代商业精英尹宁梦中来到武朝，成了商贾之家位卑言轻的赘婿——宁毅，反倒是妻子苏檀儿奔忙于苏家生意。然而这个犹如镜像的世界实则暗流涌动，宁毅意外跟随苏家卷入皇商恶战，步步艰险，不良商家与贪官勾结，多次构陷苏檀儿，宁毅为护家人担起责任，幕后布局，江湖纷争，由此开启事关“家、国、天下”的棋局……', 'create': '2023-03-26 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/790a33a3d32d5dea6f663be4faf57326f93892b2.png', 'coins': 226, 'duration': '1:54', 'badgepay': False, 'pts': 115065, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742567'}, {'aid': '568898482', 'bvid': 'BV1Mv4y157Bo', 'typename': '资讯', 'title': '【独家】山海际会 定档PV发布 4月13日11点开播【4月国创】', 'subtitle': '', 'play': 109467, 'review': 379, 'video_review': 189, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '萨拉雷导演作品', 'create': '2023-03-23 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/f1fdc7eab2dcda789c307b503fd2c8baefc96b87.jpg', 'coins': 221, 'duration': '2:22', 'badgepay': False, 'pts': 108980, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741524'}, {'aid': '951008985', 'bvid': 'BV1Gs4y1V7LP', 'typename': '资讯', 'title': '【独家】有兽焉 定档4月14日10点 春暖花开，毛球动起来啦！【4月国创】', 'subtitle': '', 'play': 103566, 'review': 533, 'video_review': 251, 'favorites': 2, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '跟上皮皮的脚步，享受彩云山的春天。', 'create': '2023-03-24 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/16577c689d4e8b8dd67d925792d4e32431e67a40.jpg', 'coins': 924, 'duration': '1:30', 'badgepay': False, 'pts': 102152, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741828'}, {'aid': '866516437', 'bvid': 'BV1pV4y1X7Zh', 'typename': '资讯', 'title': '【独家】《凡人修仙传风起天南》重制版第10集预告发布！【1月国创】', 'subtitle': '', 'play': 101590, 'review': 44, 'video_review': 11, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '韩立拜入黄枫谷门下，不料筑基丹被陆师兄盯上。韩立决定走更保险的路线，自告奋勇为马师伯管理百草园……', 'create': '2023-03-26 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/e11a664c61a9e239b1b122c3771e48138bdc54e5.jpg', 'coins': 819, 'duration': '0:42', 'badgepay': False, 'pts': 99524, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep734174'}]</t>
+          <t>[{'aid': '526506752', 'bvid': 'BV11M411u7z6', 'typename': '资讯', 'title': '【独家】火凤燎原 定档PV发布 4月29日11点站内一聚【4月国创】', 'subtitle': '', 'play': 427707, 'review': 1193, 'video_review': 454, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '火凤燎原动画定档4月29日11:00', 'create': '2023-03-25 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/f48d3e8217337f26cb13fc511de240b11f69b4c5.jpg', 'coins': 1025, 'duration': '1:25', 'badgepay': False, 'pts': 424883, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742448'}, {'aid': '908837989', 'bvid': 'BV1kM4y1674h', 'typename': '资讯', 'title': '【独家】爱上她的理由 定档4月20日12点 【4月国创】', 'subtitle': '', 'play': 236094, 'review': 283, 'video_review': 76, 'favorites': 2, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '搞不懂的爱情，搞不懂的她。', 'create': '2023-03-24 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/e83162b882398cbcf3d157aa4c253941632a70f0.png', 'coins': 178, 'duration': '0:56', 'badgepay': False, 'pts': 234347, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741763'}, {'aid': '696250581', 'bvid': 'BV1F24y147HG', 'typename': '资讯', 'title': '【独家】两不疑 第二季 第21集预告 谋朝篡位【10月国创】', 'subtitle': '', 'play': 231603, 'review': 84, 'video_review': 92, 'favorites': 3, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '大战一触即发，三皇叔的狐狸尾巴藏不住了！', 'create': '2023-03-22 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/de364c49f945bc73fbb7e9797b51c87d811958ea.jpg', 'coins': 429, 'duration': '0:35', 'badgepay': False, 'pts': 218835, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep733287'}, {'aid': '611285468', 'bvid': 'BV1v84y1w7ja', 'typename': '资讯', 'title': '【独家】披着狼皮的羊 定档PV发布 4月18日10点开播【4月国创】', 'subtitle': '', 'play': 172433, 'review': 447, 'video_review': 126, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '根据快看独家连载同名作品改编，作者：黑圈、白点', 'create': '2023-03-21 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/9927a6d0455fc3e31f09b316398fa5f47f572ad6.jpg', 'coins': 69, 'duration': '1:12', 'badgepay': False, 'pts': 171339, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741429'}, {'aid': '484062165', 'bvid': 'BV18T411z7XG', 'typename': '资讯', 'title': '【独家】赘婿 定档4月23日10点开播 【4月国创】', 'subtitle': '', 'play': 165549, 'review': 712, 'video_review': 319, 'favorites': 1, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '现代商业精英尹宁梦中来到武朝，成了商贾之家位卑言轻的赘婿——宁毅，反倒是妻子苏檀儿奔忙于苏家生意。然而这个犹如镜像的世界实则暗流涌动，宁毅意外跟随苏家卷入皇商恶战，步步艰险，不良商家与贪官勾结，多次构陷苏檀儿，宁毅为护家人担起责任，幕后布局，江湖纷争，由此开启事关“家、国、天下”的棋局……', 'create': '2023-03-26 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/790a33a3d32d5dea6f663be4faf57326f93892b2.png', 'coins': 296, 'duration': '1:54', 'badgepay': False, 'pts': 161718, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742567'}, {'aid': '993955087', 'bvid': 'BV1nx4y1A73h', 'typename': '资讯', 'title': '【独家】猫之茗 第二季 定档PV发布 4月8日10点开播【4月国创】', 'subtitle': '', 'play': 137332, 'review': 639, 'video_review': 386, 'favorites': 2, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '猫之茗第二季定档PV又来咯～！这次是真的！', 'create': '2023-03-25 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d2b4c9f5f5ddb1505d748de21af6ba91600bab82.jpg', 'coins': 627, 'duration': '0:47', 'badgepay': False, 'pts': 135834, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741831'}, {'aid': '866516437', 'bvid': 'BV1pV4y1X7Zh', 'typename': '资讯', 'title': '【独家】《凡人修仙传风起天南》重制版第10集预告发布！【1月国创】', 'subtitle': '', 'play': 113045, 'review': 49, 'video_review': 13, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '韩立拜入黄枫谷门下，不料筑基丹被陆师兄盯上。韩立决定走更保险的路线，自告奋勇为马师伯管理百草园……', 'create': '2023-03-26 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/e11a664c61a9e239b1b122c3771e48138bdc54e5.jpg', 'coins': 904, 'duration': '0:42', 'badgepay': False, 'pts': 111218, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep734174'}, {'aid': '568898482', 'bvid': 'BV1Mv4y157Bo', 'typename': '资讯', 'title': '【独家】山海际会 定档PV发布 4月13日11点开播【4月国创】', 'subtitle': '', 'play': 109910, 'review': 384, 'video_review': 190, 'favorites': 0, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '萨拉雷导演作品', 'create': '2023-03-23 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/f1fdc7eab2dcda789c307b503fd2c8baefc96b87.jpg', 'coins': 223, 'duration': '2:22', 'badgepay': False, 'pts': 109404, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741524'}, {'aid': '951008985', 'bvid': 'BV1Gs4y1V7LP', 'typename': '资讯', 'title': '【独家】有兽焉 定档4月14日10点 春暖花开，毛球动起来啦！【4月国创】', 'subtitle': '', 'play': 104170, 'review': 536, 'video_review': 251, 'favorites': 2, 'mid': 98627270, 'author': '哔哩哔哩国创', 'description': '跟上皮皮的脚步，享受彩云山的春天。', 'create': '2023-03-24 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/16577c689d4e8b8dd67d925792d4e32431e67a40.jpg', 'coins': 926, 'duration': '1:30', 'badgepay': False, 'pts': 102689, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741828'}, {'aid': '353780075', 'bvid': 'BV1EX4y1Z7UQ', 'typename': '资讯', 'title': '【伍六七 配音花絮】我有特殊的配音技巧', 'subtitle': '', 'play': 62536, 'review': 251, 'video_review': 89, 'favorites': 690, 'mid': 268990278, 'author': '啊哈时光AHAMOMENT', 'description': '《伍六七之暗影宿命》最后一条配音花絮来啦！', 'create': '2023-03-20 17:11', 'pic': 'http://i1.hdslb.com/bfs/archive/b11fa9148b16c2bd255480080853d7788415cd50.jpg', 'coins': 519, 'duration': '2:32', 'badgepay': False, 'pts': 61512, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1730181</v>
+        <v>1760379</v>
       </c>
       <c r="I16" t="n">
-        <v>5017</v>
+        <v>5196</v>
       </c>
       <c r="J16" t="n">
-        <v>499</v>
+        <v>700</v>
       </c>
       <c r="K16" t="n">
         <v>516</v>
@@ -1221,22 +1221,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>国创(主分区)</t>
+          <t>国创</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[{'aid': '311546551', 'bvid': 'BV1sN411K79P', 'typename': '动态漫·广播剧', 'title': '我坐公交偶遇杨天翔了！！！', 'subtitle': '', 'play': 127533, 'review': 802, 'video_review': 195, 'favorites': 5388, 'mid': 678395412, 'author': '美女乌鱼子辣', 'description': '啊啊啊啊啊啊啊啊啊啊啊啊啊，坐公交去剧场的路上偶遇小阿天了！！不敢打招呼，第一次见没想到是在公交车上！！！本人真的又白又帅，比视频拍的要好看好多！！！一上车就捧着电子书读，真的好帅！！！这不妥妥男大学生吗！！呜呜现在手还在抖', 'create': '2023-03-25 12:49', 'pic': 'http://i2.hdslb.com/bfs/archive/8784622189ecb0fc670f4a7113b2321a73e082a1.jpg', 'coins': 556, 'duration': '0:31', 'badgepay': False, 'pts': 125645, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441523936', 'bvid': 'BV1CL411D7X2', 'typename': '动态漫·广播剧', 'title': '因为这不是霸道总裁爱上我…', 'subtitle': '', 'play': 81324, 'review': 53, 'video_review': 8, 'favorites': 216, 'mid': 1962829435, 'author': '南橘-Hana', 'description': '-', 'create': '2023-03-24 12:28', 'pic': 'http://i2.hdslb.com/bfs/archive/68f85527ca5af01ae9c0dd89317de60763af7cac.jpg', 'coins': 8, 'duration': '0:39', 'badgepay': False, 'pts': 81068, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781607260', 'bvid': 'BV1s24y177tD', 'typename': '动态漫·广播剧', 'title': '何谓剑气长城？', 'subtitle': '', 'play': 55912, 'review': 91, 'video_review': 11, 'favorites': 563, 'mid': 269732018, 'author': '拂水房-房东', 'description': '-', 'create': '2023-03-24 19:42', 'pic': 'http://i0.hdslb.com/bfs/archive/d830011507ed18255b8ef11c3530782aa97141db.jpg', 'coins': 172, 'duration': '1:50', 'badgepay': False, 'pts': 55193, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951309206', 'bvid': 'BV16s4y1p73A', 'typename': '动态漫·广播剧', 'title': '955龙岛之战，紫研被三大龙王围困', 'subtitle': '', 'play': 43132, 'review': 114, 'video_review': 12, 'favorites': 172, 'mid': 481561831, 'author': '一木漫音', 'description': '955龙岛之战，紫研被三大龙王围困', 'create': '2023-03-21 17:20', 'pic': 'http://i2.hdslb.com/bfs/archive/0620654f84d3544b4eb57a23fa120174ba9efbf0.jpg', 'coins': 101, 'duration': '3:06', 'badgepay': False, 'pts': 42835, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311307038', 'bvid': 'BV1jP411o7Ck', 'typename': '动态漫·广播剧', 'title': '【系统更新日志】在诠释一种很新的“默契”', 'subtitle': '', 'play': 36657, 'review': 148, 'video_review': 322, 'favorites': 455, 'mid': 40389553, 'author': '729声工场', 'description': '【系统更新日志1.0】\n\r\n用户您好，本次更新优化了隐私保护功能，修复了用户安慰对话服务（不超过三句话），并新增若干无法解决的全新bug —— 比如头突然变大什么的，个性化bug你值得拥有！\n（ps：检测到有人要袭击系统！我们系统从来不和人类做伙伴是有原因的...！）', 'create': '2023-03-20 19:30', 'pic': 'http://i0.hdslb.com/bfs/archive/fc8d5193fe7005bea99def27314330a8e6b03fb0.png', 'coins': 446, 'duration': '4:40', 'badgepay': False, 'pts': 35634, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226413125', 'bvid': 'BV15b411o7kP', 'typename': '动态漫·广播剧', 'title': '【Priest合集】甜甜女神是懂如何说情话的', 'subtitle': '', 'play': 26070, 'review': 45, 'video_review': 0, 'favorites': 909, 'mid': 1812460750, 'author': '狼鹿生生世世', 'description': '', 'create': '2023-03-22 16:14', 'pic': 'http://i0.hdslb.com/bfs/archive/22437aa990c530752dce9afa113c6a0be3e71dce.jpg', 'coins': 58, 'duration': '0:32', 'badgepay': False, 'pts': 25948, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653861615', 'bvid': 'BV16Y4y1D78h', 'typename': '动态漫·广播剧', 'title': '【配音演员】对不起真的很好笑', 'subtitle': '', 'play': 24144, 'review': 15, 'video_review': 4, 'favorites': 502, 'mid': 2118446691, 'author': '蒋-丞-丞-丞', 'description': '-', 'create': '2023-03-20 14:15', 'pic': 'http://i1.hdslb.com/bfs/archive/e1a3f6d57256e23e6c2a7d43519b61318282b5d9.jpg', 'coins': 8, 'duration': '0:43', 'badgepay': False, 'pts': 24045, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438754646', 'bvid': 'BV1gL411d7ZH', 'typename': '动态漫·广播剧', 'title': '【山北】笑死，是被北哥完全拿捏的谷江山了！', 'subtitle': '', 'play': 24588, 'review': 118, 'video_review': 106, 'favorites': 825, 'mid': 288577338, 'author': '楚琴影', 'description': '谷江山×金弦', 'create': '2023-03-20 23:00', 'pic': 'http://i2.hdslb.com/bfs/archive/ca0f0607b50f80af87d8e197709f7cf3fd7ce61b.jpg', 'coins': 85, 'duration': '4:39', 'badgepay': False, 'pts': 24034, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611272342', 'bvid': 'BV1a84y1w7co', 'typename': '动态漫·广播剧', 'title': '陈家没落，陆沉赠剑', 'subtitle': '', 'play': 20830, 'review': 28, 'video_review': 22, 'favorites': 0, 'mid': 1526382594, 'author': '三界动画', 'description': '', 'create': '2023-03-23 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/01ea278069c2a052f9380de38aee9cb020e9f07a.jpg', 'coins': 37, 'duration': '7:16', 'badgepay': False, 'pts': 20236, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741646'}, {'aid': '781335503', 'bvid': 'BV1Q24y1E7FG', 'typename': '动态漫·广播剧', 'title': '哈哈哈哈这是什么好东西！希哥船长效果老师夹子音报幕，卷起来了朋友们！第一季完结FT终于来了！【郑希×郭浩然+赵毅】', 'subtitle': '', 'play': 20283, 'review': 73, 'video_review': 29, 'favorites': 486, 'mid': 5010769, 'author': '柳影云_', 'description': '-', 'create': '2023-03-21 18:51', 'pic': 'http://i1.hdslb.com/bfs/archive/50501b1b86a1808901ce47c45daa9695cb232c67.jpg', 'coins': 45, 'duration': '1:19', 'badgepay': False, 'pts': 19689, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '311546551', 'bvid': 'BV1sN411K79P', 'typename': '动态漫·广播剧', 'title': '我坐公交偶遇杨天翔了！！！', 'subtitle': '', 'play': 142119, 'review': 858, 'video_review': 222, 'favorites': 5865, 'mid': 678395412, 'author': '美女乌鱼子辣', 'description': '啊啊啊啊啊啊啊啊啊啊啊啊啊，坐公交去剧场的路上偶遇小阿天了！！不敢打招呼，第一次见没想到是在公交车上！！！本人真的又白又帅，比视频拍的要好看好多！！！一上车就捧着电子书读，真的好帅！！！这不妥妥男大学生吗！！呜呜现在手还在抖', 'create': '2023-03-25 12:49', 'pic': 'http://i2.hdslb.com/bfs/archive/8784622189ecb0fc670f4a7113b2321a73e082a1.jpg', 'coins': 620, 'duration': '0:31', 'badgepay': False, 'pts': 139615, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441523936', 'bvid': 'BV1CL411D7X2', 'typename': '动态漫·广播剧', 'title': '因为这不是霸道总裁爱上我…', 'subtitle': '', 'play': 88502, 'review': 64, 'video_review': 10, 'favorites': 249, 'mid': 1962829435, 'author': '南橘-Hana', 'description': '-', 'create': '2023-03-24 12:28', 'pic': 'http://i2.hdslb.com/bfs/archive/68f85527ca5af01ae9c0dd89317de60763af7cac.jpg', 'coins': 16, 'duration': '0:39', 'badgepay': False, 'pts': 87605, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781607260', 'bvid': 'BV1s24y177tD', 'typename': '动态漫·广播剧', 'title': '何谓剑气长城？', 'subtitle': '', 'play': 61194, 'review': 96, 'video_review': 11, 'favorites': 625, 'mid': 269732018, 'author': '拂水房-房东', 'description': '-', 'create': '2023-03-24 19:42', 'pic': 'http://i0.hdslb.com/bfs/archive/d830011507ed18255b8ef11c3530782aa97141db.jpg', 'coins': 196, 'duration': '1:50', 'badgepay': False, 'pts': 60971, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951309206', 'bvid': 'BV16s4y1p73A', 'typename': '动态漫·广播剧', 'title': '955龙岛之战，紫研被三大龙王围困', 'subtitle': '', 'play': 43555, 'review': 115, 'video_review': 12, 'favorites': 173, 'mid': 481561831, 'author': '一木漫音', 'description': '955龙岛之战，紫研被三大龙王围困', 'create': '2023-03-21 17:20', 'pic': 'http://i2.hdslb.com/bfs/archive/0620654f84d3544b4eb57a23fa120174ba9efbf0.jpg', 'coins': 101, 'duration': '3:06', 'badgepay': False, 'pts': 43241, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311307038', 'bvid': 'BV1jP411o7Ck', 'typename': '动态漫·广播剧', 'title': '【系统更新日志】在诠释一种很新的“默契”', 'subtitle': '', 'play': 36942, 'review': 148, 'video_review': 322, 'favorites': 456, 'mid': 40389553, 'author': '729声工场', 'description': '【系统更新日志1.0】\n\r\n用户您好，本次更新优化了隐私保护功能，修复了用户安慰对话服务（不超过三句话），并新增若干无法解决的全新bug —— 比如头突然变大什么的，个性化bug你值得拥有！\n（ps：检测到有人要袭击系统！我们系统从来不和人类做伙伴是有原因的...！）', 'create': '2023-03-20 19:30', 'pic': 'http://i0.hdslb.com/bfs/archive/fc8d5193fe7005bea99def27314330a8e6b03fb0.png', 'coins': 446, 'duration': '4:40', 'badgepay': False, 'pts': 35904, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226413125', 'bvid': 'BV15b411o7kP', 'typename': '动态漫·广播剧', 'title': '【Priest合集】甜甜女神是懂如何说情话的', 'subtitle': '', 'play': 27420, 'review': 46, 'video_review': 0, 'favorites': 968, 'mid': 1812460750, 'author': '狼鹿生生世世', 'description': '', 'create': '2023-03-22 16:14', 'pic': 'http://i0.hdslb.com/bfs/archive/22437aa990c530752dce9afa113c6a0be3e71dce.jpg', 'coins': 64, 'duration': '0:32', 'badgepay': False, 'pts': 27260, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653861615', 'bvid': 'BV16Y4y1D78h', 'typename': '动态漫·广播剧', 'title': '【配音演员】对不起真的很好笑', 'subtitle': '', 'play': 24645, 'review': 15, 'video_review': 4, 'favorites': 513, 'mid': 2118446691, 'author': '蒋-丞-丞-丞', 'description': '-', 'create': '2023-03-20 14:15', 'pic': 'http://i1.hdslb.com/bfs/archive/e1a3f6d57256e23e6c2a7d43519b61318282b5d9.jpg', 'coins': 8, 'duration': '0:43', 'badgepay': False, 'pts': 24554, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438754646', 'bvid': 'BV1gL411d7ZH', 'typename': '动态漫·广播剧', 'title': '【山北】笑死，是被北哥完全拿捏的谷江山了！', 'subtitle': '', 'play': 24956, 'review': 118, 'video_review': 107, 'favorites': 837, 'mid': 288577338, 'author': '楚琴影', 'description': '谷江山×金弦', 'create': '2023-03-20 23:00', 'pic': 'http://i2.hdslb.com/bfs/archive/ca0f0607b50f80af87d8e197709f7cf3fd7ce61b.jpg', 'coins': 89, 'duration': '4:39', 'badgepay': False, 'pts': 24386, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611272342', 'bvid': 'BV1a84y1w7co', 'typename': '动态漫·广播剧', 'title': '陈家没落，陆沉赠剑', 'subtitle': '', 'play': 21445, 'review': 28, 'video_review': 22, 'favorites': 0, 'mid': 1526382594, 'author': '三界动画', 'description': '', 'create': '2023-03-23 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/01ea278069c2a052f9380de38aee9cb020e9f07a.jpg', 'coins': 37, 'duration': '7:16', 'badgepay': False, 'pts': 20842, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741646'}, {'aid': '781335503', 'bvid': 'BV1Q24y1E7FG', 'typename': '动态漫·广播剧', 'title': '哈哈哈哈这是什么好东西！希哥船长效果老师夹子音报幕，卷起来了朋友们！第一季完结FT终于来了！【郑希×郭浩然+赵毅】', 'subtitle': '', 'play': 20462, 'review': 73, 'video_review': 29, 'favorites': 491, 'mid': 5010769, 'author': '柳影云_', 'description': '-', 'create': '2023-03-21 18:51', 'pic': 'http://i1.hdslb.com/bfs/archive/50501b1b86a1808901ce47c45daa9695cb232c67.jpg', 'coins': 45, 'duration': '1:19', 'badgepay': False, 'pts': 19855, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>460473</v>
+        <v>491240</v>
       </c>
       <c r="I17" t="n">
-        <v>1516</v>
+        <v>1622</v>
       </c>
       <c r="J17" t="n">
-        <v>9516</v>
+        <v>10177</v>
       </c>
       <c r="K17" t="n">
         <v>4148</v>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>音乐(主分区)</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[{'aid': '268985332', 'bvid': 'BV1Rc41157go', 'typename': '原创音乐', 'title': '《上下五千年》带解析，建议逐帧观看～', 'subtitle': '', 'play': 1725868, 'review': 3103, 'video_review': 2268, 'favorites': 177619, 'mid': 457027794, 'author': '小少焱的', 'description': '-', 'create': '2023-03-23 15:36', 'pic': 'http://i0.hdslb.com/bfs/archive/3c41b3b34292859089a652dd95ddcb2ad0dafd73.jpg', 'coins': 158319, 'duration': '4:49', 'badgepay': False, 'pts': 6458668, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568889089', 'bvid': 'BV1Pv4y157TP', 'typename': '原创音乐', 'title': '当我第11次尝试rap', 'subtitle': '', 'play': 660345, 'review': 3817, 'video_review': 3705, 'favorites': 45559, 'mid': 1577804, 'author': '某幻君', 'description': '这首歌创作于2023年某月的某个寂静的夜晚，心理年龄只有10岁的我，通过桌面上的七彩虹将星游戏本，发掘到了年轻的本质，因此写下了这首歌，诠释了我对于年轻的理解——‘年轻就要无畏。’\n那就让我无畏，那就让大家无畏，感谢七彩虹给的这个机会饶舌，我家里现在已经摆满了将星X15了！', 'create': '2023-03-23 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/68e9cc81befa5b6b22a12963d3ac655b7ae96fa8.jpg', 'coins': 79143, 'duration': '3:20', 'badgepay': False, 'pts': 2130769, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484098976', 'bvid': 'BV1aT411z7Tk', 'typename': '原创音乐', 'title': '这首诡谲的《无人区玫瑰》原唱来啦！自己与自己激情对唱', 'subtitle': '', 'play': 591116, 'review': 490, 'video_review': 147, 'favorites': 22898, 'mid': 371040148, 'author': '一颗狼星本人', 'description': '一颗狼星 - 无人区玫瑰\n作词：漱月\n作曲：漱月\n制作人：一颗狼星\n编曲：一颗狼星\n和声：一颗狼星\n配唱制作人：一颗狼星、丁筱荷\n混音：江刘博文@果果音乐\n录音：丁筱荷@果果音乐\n\n设计了不少东西在里面…电话音与另外的主人声就像内心的自己和外在的自己在对话，撕扯。不知道你们对这首歌是怎样的理解？', 'create': '2023-03-24 21:43', 'pic': 'http://i2.hdslb.com/bfs/archive/51d7657461a3242d5f262567415ff1cf1e776dad.jpg', 'coins': 4645, 'duration': '4:41', 'badgepay': False, 'pts': 1530406, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396571060', 'bvid': 'BV1fo4y1s7UR', 'typename': '原创音乐', 'title': '这首歌写给我们，给身边每一个她！', 'subtitle': '', 'play': 305841, 'review': 549, 'video_review': 2853, 'favorites': 5421, 'mid': 313580179, 'author': '九三的耳朵不是特别好', 'description': '《女生不简单》\n曲:九三\n词:文怿\n编曲:白昼星BZX\n和声:Miya敏滢\n混音＆母带:里安\n制作人:白昼星BZX/九三\n希望大家多投币多发弹幕！！和高洁丝一起来“助力每位不简单女生”！！', 'create': '2023-03-25 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/abd895eff47c43196858eec9ec327d914d894ff4.jpg', 'coins': 24581, 'duration': '2:42', 'badgepay': False, 'pts': 695847, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951585726', 'bvid': 'BV1Qs4y1E73U', 'typename': '原创音乐', 'title': '『逆水寒X兰音』帅印未摘丨想当年桃花马上威风凛凛，敌血飞溅石榴裙！', 'subtitle': '', 'play': 296795, 'review': 287, 'video_review': 169, 'favorites': 6622, 'mid': 660024390, 'author': '宋潮音乐企划', 'description': '3月23日，逆水寒与北京京剧院联动开启，欢迎大家前往梨韵阁，感受穆桂英的英武干练，感受京剧的荡气回肠！\n人生亦是战场，希望每个在职场，在家庭，在学业上打拼的你，能借得女帅胆魄，唱一出铿锵好戏！\n《帅印未摘》\n企划：宋潮音乐企划\n出品：逆水寒\n词：狐不举\xa0\n曲：徒有琴\xa0\n编：王悦 徒有琴\n演唱：兰音Reine\n戏腔：陈丽俐\n混音：dB音频工作室', 'create': '2023-03-24 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b696795bfc131ab67e0b4e139af059ab7b378aad.jpg', 'coins': 3452, 'duration': '5:15', 'badgepay': False, 'pts': 685698, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738911807', 'bvid': 'BV19k4y1t7gr', 'typename': '原创音乐', 'title': '【扬布拉德】“中文说唱应该接受我”现场带来新专《GOLDEN·BLOOD》｜SoulSenseTWH Freestyle', 'subtitle': '', 'play': 138763, 'review': 588, 'video_review': 708, 'favorites': 4336, 'mid': 39683342, 'author': 'SoulSenseTWH', 'description': '【扬布拉德】“中文说唱应该接受我”现场带来新专《GOLDEN·BLOOD》｜SoulSenseTWH Freestyle\nSoulSense TWH-Freestyle后期音频工程支持来自 @iSplashStudio ', 'create': '2023-03-22 21:00', 'pic': 'http://i2.hdslb.com/bfs/archive/081a5a8d23c4e5f07c24159eedf09120e843953e.jpg', 'coins': 6923, 'duration': '7:15', 'badgepay': False, 'pts': 382665, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739050066', 'bvid': 'BV1Nk4y147yW', 'typename': '原创音乐', 'title': '“你要照顾好你黄色的头发，挑剔的胃和爱笑的眼睛” - Lofi and chill type beat “Take Care”', 'subtitle': '', 'play': 97049, 'review': 238, 'video_review': 32, 'favorites': 6024, 'mid': 12001667, 'author': 'XXXavier_Ash', 'description': 'Beat Produced by XXXavier_Ash\n视频素材：Twitter@t_oo_r_oo', 'create': '2023-03-25 01:30', 'pic': 'http://i1.hdslb.com/bfs/archive/2a84c4d08ed0dac5adef114f92530ace77e82f44.jpg', 'coins': 1382, 'duration': '3:13', 'badgepay': False, 'pts': 330213, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739078630', 'bvid': 'BV1Pk4y147xA', 'typename': '原创音乐', 'title': '你就说有没有味儿吧！', 'subtitle': '', 'play': 156127, 'review': 518, 'video_review': 371, 'favorites': 543, 'mid': 602626901, 'author': '李二萌真美丽', 'description': '词曲:是小胖啊编曲:张博 特别鸣谢:王不醒 制作:亚迪传媒 演唱:李二萌', 'create': '2023-03-25 16:40', 'pic': 'http://i0.hdslb.com/bfs/archive/27f75821fa57cd21ab870b088130d419b8221599.jpg', 'coins': 1744, 'duration': '3:00', 'badgepay': False, 'pts': 298159, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311600034', 'bvid': 'BV1QN411K7ay', 'typename': '原创音乐', 'title': '一条旋律磨一年，这首抒情中国风太好听了吧！【原创《茉莉》】', 'subtitle': '', 'play': 59628, 'review': 233, 'video_review': 214, 'favorites': 1864, 'mid': 21096618, 'author': '阿健在写歌吗', 'description': '茉莉\n\n词曲：王子健\n编曲：王子健\n演唱：王子健\n和声：陈奕楠\n吉他：何志为\n古筝：宋紫伊\n箫：杨钟\n混音：王子健\n母带：王子健\n封面：陈吵吵', 'create': '2023-03-24 18:27', 'pic': 'http://i2.hdslb.com/bfs/archive/297214d809096a2d60be67480bd8fb77ff6fbeb4.jpg', 'coins': 3085, 'duration': '2:54', 'badgepay': False, 'pts': 159969, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866301801', 'bvid': 'BV1gV4y1R7Aq', 'typename': '原创音乐', 'title': '【阴间说唱】悲音庙窟，中式邪性歌曲...', 'subtitle': '', 'play': 58060, 'review': 231, 'video_review': 62, 'favorites': 2363, 'mid': 20246505, 'author': '道雀Bzz', 'description': '本故事纯属虚构，切勿带入现实。\n\n作词：解语花/道雀Bzz\n作曲：解语花/道雀Bzz\n编曲：yyno 混音：ST\n念白：惟韵 视频：道雀Bzz', 'create': '2023-03-20 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/f9286fd120a91e2d7bb44e776037212b22c3106e.jpg', 'coins': 1503, 'duration': '3:17', 'badgepay': False, 'pts': 159334, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '268985332', 'bvid': 'BV1Rc41157go', 'typename': '原创音乐', 'title': '《上下五千年》带解析，建议逐帧观看～', 'subtitle': '', 'play': 1779420, 'review': 3192, 'video_review': 2316, 'favorites': 182833, 'mid': 457027794, 'author': '小少焱的', 'description': '-', 'create': '2023-03-23 15:36', 'pic': 'http://i0.hdslb.com/bfs/archive/3c41b3b34292859089a652dd95ddcb2ad0dafd73.jpg', 'coins': 162256, 'duration': '4:49', 'badgepay': False, 'pts': 6611525, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568889089', 'bvid': 'BV1Pv4y157TP', 'typename': '原创音乐', 'title': '当我第11次尝试rap', 'subtitle': '', 'play': 667298, 'review': 3830, 'video_review': 3710, 'favorites': 45723, 'mid': 1577804, 'author': '某幻君', 'description': '这首歌创作于2023年某月的某个寂静的夜晚，心理年龄只有10岁的我，通过桌面上的七彩虹将星游戏本，发掘到了年轻的本质，因此写下了这首歌，诠释了我对于年轻的理解——‘年轻就要无畏。’\n那就让我无畏，那就让大家无畏，感谢七彩虹给的这个机会饶舌，我家里现在已经摆满了将星X15了！', 'create': '2023-03-23 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/68e9cc81befa5b6b22a12963d3ac655b7ae96fa8.jpg', 'coins': 79409, 'duration': '3:20', 'badgepay': False, 'pts': 2143826, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484098976', 'bvid': 'BV1aT411z7Tk', 'typename': '原创音乐', 'title': '这首诡谲的《无人区玫瑰》原唱来啦！自己与自己激情对唱', 'subtitle': '', 'play': 628358, 'review': 524, 'video_review': 155, 'favorites': 23968, 'mid': 371040148, 'author': '一颗狼星本人', 'description': '一颗狼星 - 无人区玫瑰\n作词：漱月\n作曲：漱月\n制作人：一颗狼星\n编曲：一颗狼星\n和声：一颗狼星\n配唱制作人：一颗狼星、丁筱荷\n混音：江刘博文@果果音乐\n录音：丁筱荷@果果音乐\n\n设计了不少东西在里面…电话音与另外的主人声就像内心的自己和外在的自己在对话，撕扯。不知道你们对这首歌是怎样的理解？', 'create': '2023-03-24 21:43', 'pic': 'http://i2.hdslb.com/bfs/archive/51d7657461a3242d5f262567415ff1cf1e776dad.jpg', 'coins': 5041, 'duration': '4:41', 'badgepay': False, 'pts': 1610865, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396571060', 'bvid': 'BV1fo4y1s7UR', 'typename': '原创音乐', 'title': '这首歌写给我们，给身边每一个她！', 'subtitle': '', 'play': 316840, 'review': 571, 'video_review': 2963, 'favorites': 5628, 'mid': 313580179, 'author': '九三的耳朵不是特别好', 'description': '《女生不简单》\n曲:九三\n词:文怿\n编曲:白昼星BZX\n和声:Miya敏滢\n混音＆母带:里安\n制作人:白昼星BZX/九三\n希望大家多投币多发弹幕！！和高洁丝一起来“助力每位不简单女生”！！', 'create': '2023-03-25 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/abd895eff47c43196858eec9ec327d914d894ff4.jpg', 'coins': 26239, 'duration': '2:42', 'badgepay': False, 'pts': 718858, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951585726', 'bvid': 'BV1Qs4y1E73U', 'typename': '原创音乐', 'title': '『逆水寒X兰音』帅印未摘丨想当年桃花马上威风凛凛，敌血飞溅石榴裙！', 'subtitle': '', 'play': 298260, 'review': 291, 'video_review': 170, 'favorites': 6660, 'mid': 660024390, 'author': '宋潮音乐企划', 'description': '3月23日，逆水寒与北京京剧院联动开启，欢迎大家前往梨韵阁，感受穆桂英的英武干练，感受京剧的荡气回肠！\n人生亦是战场，希望每个在职场，在家庭，在学业上打拼的你，能借得女帅胆魄，唱一出铿锵好戏！\n《帅印未摘》\n企划：宋潮音乐企划\n出品：逆水寒\n词：狐不举\xa0\n曲：徒有琴\xa0\n编：王悦 徒有琴\n演唱：兰音Reine\n戏腔：陈丽俐\n混音：dB音频工作室', 'create': '2023-03-24 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b696795bfc131ab67e0b4e139af059ab7b378aad.jpg', 'coins': 3494, 'duration': '5:15', 'badgepay': False, 'pts': 689081, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738911807', 'bvid': 'BV19k4y1t7gr', 'typename': '原创音乐', 'title': '【扬布拉德】“中文说唱应该接受我”现场带来新专《GOLDEN·BLOOD》｜SoulSenseTWH Freestyle', 'subtitle': '', 'play': 142785, 'review': 600, 'video_review': 713, 'favorites': 4436, 'mid': 39683342, 'author': 'SoulSenseTWH', 'description': '【扬布拉德】“中文说唱应该接受我”现场带来新专《GOLDEN·BLOOD》｜SoulSenseTWH Freestyle\nSoulSense TWH-Freestyle后期音频工程支持来自 @iSplashStudio ', 'create': '2023-03-22 21:00', 'pic': 'http://i2.hdslb.com/bfs/archive/081a5a8d23c4e5f07c24159eedf09120e843953e.jpg', 'coins': 7079, 'duration': '7:15', 'badgepay': False, 'pts': 392279, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739050066', 'bvid': 'BV1Nk4y147yW', 'typename': '原创音乐', 'title': '“你要照顾好你黄色的头发，挑剔的胃和爱笑的眼睛” - Lofi and chill type beat “Take Care”', 'subtitle': '', 'play': 112606, 'review': 267, 'video_review': 37, 'favorites': 6946, 'mid': 12001667, 'author': 'XXXavier_Ash', 'description': 'Beat Produced by XXXavier_Ash\n视频素材：Twitter@t_oo_r_oo', 'create': '2023-03-25 01:30', 'pic': 'http://i1.hdslb.com/bfs/archive/2a84c4d08ed0dac5adef114f92530ace77e82f44.jpg', 'coins': 1602, 'duration': '3:13', 'badgepay': False, 'pts': 381590, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739078630', 'bvid': 'BV1Pk4y147xA', 'typename': '原创音乐', 'title': '你就说有没有味儿吧！', 'subtitle': '', 'play': 184252, 'review': 557, 'video_review': 387, 'favorites': 621, 'mid': 602626901, 'author': '李二萌真美丽', 'description': '词曲:是小胖啊编曲:张博 特别鸣谢:王不醒 制作:亚迪传媒 演唱:李二萌', 'create': '2023-03-25 16:40', 'pic': 'http://i0.hdslb.com/bfs/archive/27f75821fa57cd21ab870b088130d419b8221599.jpg', 'coins': 1922, 'duration': '3:00', 'badgepay': False, 'pts': 327997, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311600034', 'bvid': 'BV1QN411K7ay', 'typename': '原创音乐', 'title': '一条旋律磨一年，这首抒情中国风太好听了吧！【原创《茉莉》】', 'subtitle': '', 'play': 61960, 'review': 233, 'video_review': 216, 'favorites': 1909, 'mid': 21096618, 'author': '阿健在写歌吗', 'description': '茉莉\n\n词曲：王子健\n编曲：王子健\n演唱：王子健\n和声：陈奕楠\n吉他：何志为\n古筝：宋紫伊\n箫：杨钟\n混音：王子健\n母带：王子健\n封面：陈吵吵', 'create': '2023-03-24 18:27', 'pic': 'http://i2.hdslb.com/bfs/archive/297214d809096a2d60be67480bd8fb77ff6fbeb4.jpg', 'coins': 3158, 'duration': '2:54', 'badgepay': False, 'pts': 165098, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866301801', 'bvid': 'BV1gV4y1R7Aq', 'typename': '原创音乐', 'title': '【阴间说唱】悲音庙窟，中式邪性歌曲...', 'subtitle': '', 'play': 58406, 'review': 232, 'video_review': 62, 'favorites': 2374, 'mid': 20246505, 'author': '道雀Bzz', 'description': '本故事纯属虚构，切勿带入现实。\n\n作词：解语花/道雀Bzz\n作曲：解语花/道雀Bzz\n编曲：yyno 混音：ST\n念白：惟韵 视频：道雀Bzz', 'create': '2023-03-20 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/f9286fd120a91e2d7bb44e776037212b22c3106e.jpg', 'coins': 1514, 'duration': '3:17', 'badgepay': False, 'pts': 160122, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4089592</v>
+        <v>4250185</v>
       </c>
       <c r="I18" t="n">
-        <v>284777</v>
+        <v>291714</v>
       </c>
       <c r="J18" t="n">
-        <v>273249</v>
+        <v>281098</v>
       </c>
       <c r="K18" t="n">
         <v>6813</v>
@@ -1315,22 +1315,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>音乐(主分区)</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[{'aid': '993842161', 'bvid': 'BV1qx4y1w7vz', 'typename': '翻唱', 'title': '中文情歌：死了都要爱；俄语情歌：不爱我就去死', 'subtitle': '', 'play': 1069698, 'review': 1395, 'video_review': 340, 'favorites': 58975, 'mid': 39552654, 'author': '奶牛晕船', 'description': 'Умри если не любишь - Dakkoka', 'create': '2023-03-20 14:05', 'pic': 'http://i2.hdslb.com/bfs/archive/17c13d419e84d5a9231d0c85993db3a83e8dbdf2.jpg', 'coins': 11859, 'duration': '0:24', 'badgepay': False, 'pts': 3007447, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824110102', 'bvid': 'BV1gg4y1s7jN', 'typename': '翻唱', 'title': '微醺版《百年孤寂》', 'subtitle': '', 'play': 1122574, 'review': 1520, 'video_review': 260, 'favorites': 29231, 'mid': 18633746, 'author': '我只吃晚饭Mia', 'description': '-', 'create': '2023-03-25 12:10', 'pic': 'http://i2.hdslb.com/bfs/archive/fb5a4b213b879523b877733d442f73f883cf36da.jpg', 'coins': 25503, 'duration': '1:32', 'badgepay': False, 'pts': 2356123, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396372678', 'bvid': 'BV1oo4y1W7i3', 'typename': '翻唱', 'title': 'Overdose ver. Shoto【翻唱】', 'subtitle': '', 'play': 425440, 'review': 3009, 'video_review': 1482, 'favorites': 53256, 'mid': 1601895109, 'author': 'shoto_official', 'description': 'Thank you for listening!\n\n▸ Original | なとり (Natori)\n\n───────────────────────────\n▋ Credits:\n\n▸▸ Mix | Univer https://twitter.com/_Univer_\n▸▸ Illust | Umi https://twitter.com/eumi_114\n▸▸ MV | riguruma https://twitter.com/riguruma\n▸▸ Puppet | Xun https://tw', 'create': '2023-03-21 23:00', 'pic': 'http://i1.hdslb.com/bfs/archive/864c362ea13a80cd4d0b3a0c7b1a07d3ddf086f2.jpg', 'coins': 46543, 'duration': '3:13', 'badgepay': False, 'pts': 2071114, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268897760', 'bvid': 'BV1jc41177dT', 'typename': '翻唱', 'title': '音乐脱口秀｜致恋爱脑闺蜜【根据真实故事改编】', 'subtitle': '', 'play': 797302, 'review': 1006, 'video_review': 282, 'favorites': 25397, 'mid': 391486193, 'author': '徐不气不要生气', 'description': '@出你的恋爱脑闺蜜', 'create': '2023-03-22 11:21', 'pic': 'http://i0.hdslb.com/bfs/archive/e2d0ced581513cf116bee88c88aefe21cc60f3d0.jpg', 'coins': 13012, 'duration': '0:35', 'badgepay': False, 'pts': 1893420, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311436823', 'bvid': 'BV1cN411K7bj', 'typename': '翻唱', 'title': '【俄语翻唱】不爱我就去死！', 'subtitle': '', 'play': 445242, 'review': 446, 'video_review': 134, 'favorites': 43275, 'mid': 245124971, 'author': '廖泽蓝_', 'description': 'Умри, если меня не любишь', 'create': '2023-03-23 16:12', 'pic': 'http://i0.hdslb.com/bfs/archive/b8a4a598037b75aafd28c539c64fb169983fba59.jpg', 'coins': 6008, 'duration': '0:24', 'badgepay': False, 'pts': 1810357, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653776417', 'bvid': 'BV1yY4y1X7mC', 'typename': '翻唱', 'title': '【人生态度】完整版丨房子着火我拍照~人生乱套我睡觉~~', 'subtitle': '', 'play': 722625, 'review': 1366, 'video_review': 542, 'favorites': 32678, 'mid': 631070414, 'author': '折原露露', 'description': '原唱：王七七 （原唱永远是最牛逼的）\n翻唱：在下\n---------------------------\n在大家的支持下露露之前投稿的人生态度BV1Bo4y1e7T9 已经两百万播放了！\n可喜可贺！！\n很多小宝贝私信问我能不能录制一个完整版！\n于是完整版它来啦！！！！！\n希望大家都能有一个快乐的好心情呀~~~', 'create': '2023-03-20 18:06', 'pic': 'http://i0.hdslb.com/bfs/archive/7cbd5f239d206b387b5a5e2c1897f2f62af874c2.jpg', 'coins': 30738, 'duration': '2:36', 'badgepay': False, 'pts': 1792992, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653875369', 'bvid': 'BV1YY4y1D76n', 'typename': '翻唱', 'title': '哭着哭着就学会了...《再见深海》', 'subtitle': '', 'play': 582205, 'review': 1626, 'video_review': 1246, 'favorites': 14934, 'mid': 37754047, 'author': '咻咻满', 'description': '深海告别曲-《再见深海》 献给走过长夜的你\n原唱：唐汉霄\n翻唱：咻咻满\n混音：Riraru\n校对：艾莉Anicca', 'create': '2023-03-22 15:36', 'pic': 'http://i0.hdslb.com/bfs/archive/dc4d2aa12d338a190fc98433d54356730aae8d54.jpg', 'coins': 31059, 'duration': '4:08', 'badgepay': False, 'pts': 1381115, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396611341', 'bvid': 'BV1Fo4y1x7Eg', 'typename': '翻唱', 'title': '浅唱一段铃芽之旅主题曲《すずめ》【多多poi】', 'subtitle': '', 'play': 569433, 'review': 1467, 'video_review': 253, 'favorites': 14818, 'mid': 11253297, 'author': '多多poi丶', 'description': '尝试了一种新的翻唱形式！\n唱了一小段《すずめ》\n混音：猫耳studio', 'create': '2023-03-25 17:20', 'pic': 'http://i2.hdslb.com/bfs/archive/b28c8c3bd865658e5cfab8ecf0e3c38de1a3f628.jpg', 'coins': 12346, 'duration': '0:55', 'badgepay': False, 'pts': 1340659, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951567429', 'bvid': 'BV17s4y1H7aG', 'typename': '翻唱', 'title': '进来看看什么叫教科书级的音乐', 'subtitle': '', 'play': 551844, 'review': 1205, 'video_review': 1933, 'favorites': 8675, 'mid': 690545051, 'author': '吹拉弹唱慕星银', 'description': '标题迫真\n\n主唱：代佳怡 @诡佳目   \n鼓手：哲学 \n吉他：朱禹杭 \n键盘/编曲：大熊 \n摄影/剪辑：王江 王朝 \n录音/混音/贝斯：岳上森 \ngears：yamaha_ela-1/ slg200s/ bb734/ Stage Custom \nmic_sE electronics', 'create': '2023-03-24 18:20', 'pic': 'http://i2.hdslb.com/bfs/archive/ddc728f0139606b8d51446ef986b7e9e53638f28.jpg', 'coins': 13244, 'duration': '6:01', 'badgepay': False, 'pts': 1181474, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738841760', 'bvid': 'BV1ak4y1t778', 'typename': '翻唱', 'title': '来听！俏皮女声翻唱《情字最大》', 'subtitle': '', 'play': 632731, 'review': 1225, 'video_review': 1188, 'favorites': 5229, 'mid': 651386960, 'author': '浅影阿_', 'description': '*该版本已获得正版授权改编', 'create': '2023-03-21 16:13', 'pic': 'http://i0.hdslb.com/bfs/archive/ab87474eaf7ff531fe56ab0e59e426021b815c24.jpg', 'coins': 8893, 'duration': '2:36', 'badgepay': False, 'pts': 1125923, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '993842161', 'bvid': 'BV1qx4y1w7vz', 'typename': '翻唱', 'title': '中文情歌：死了都要爱；俄语情歌：不爱我就去死', 'subtitle': '', 'play': 1074961, 'review': 1416, 'video_review': 341, 'favorites': 59213, 'mid': 39552654, 'author': '奶牛晕船', 'description': 'Умри если не любишь - Dakkoka', 'create': '2023-03-20 14:05', 'pic': 'http://i2.hdslb.com/bfs/archive/17c13d419e84d5a9231d0c85993db3a83e8dbdf2.jpg', 'coins': 11947, 'duration': '0:24', 'badgepay': False, 'pts': 3020466, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824110102', 'bvid': 'BV1gg4y1s7jN', 'typename': '翻唱', 'title': '微醺版《百年孤寂》', 'subtitle': '', 'play': 1288226, 'review': 1630, 'video_review': 293, 'favorites': 33691, 'mid': 18633746, 'author': '我只吃晚饭Mia', 'description': '-', 'create': '2023-03-25 12:10', 'pic': 'http://i2.hdslb.com/bfs/archive/fb5a4b213b879523b877733d442f73f883cf36da.jpg', 'coins': 29655, 'duration': '1:32', 'badgepay': False, 'pts': 2618533, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396372678', 'bvid': 'BV1oo4y1W7i3', 'typename': '翻唱', 'title': 'Overdose ver. Shoto【翻唱】', 'subtitle': '', 'play': 430561, 'review': 3024, 'video_review': 1484, 'favorites': 53618, 'mid': 1601895109, 'author': 'shoto_official', 'description': 'Thank you for listening!\n\n▸ Original | なとり (Natori)\n\n───────────────────────────\n▋ Credits:\n\n▸▸ Mix | Univer https://twitter.com/_Univer_\n▸▸ Illust | Umi https://twitter.com/eumi_114\n▸▸ MV | riguruma https://twitter.com/riguruma\n▸▸ Puppet | Xun https://tw', 'create': '2023-03-21 23:00', 'pic': 'http://i1.hdslb.com/bfs/archive/864c362ea13a80cd4d0b3a0c7b1a07d3ddf086f2.jpg', 'coins': 46842, 'duration': '3:13', 'badgepay': False, 'pts': 2088329, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268897760', 'bvid': 'BV1jc41177dT', 'typename': '翻唱', 'title': '音乐脱口秀｜致恋爱脑闺蜜【根据真实故事改编】', 'subtitle': '', 'play': 810053, 'review': 1024, 'video_review': 285, 'favorites': 25770, 'mid': 391486193, 'author': '徐不气不要生气', 'description': '@出你的恋爱脑闺蜜', 'create': '2023-03-22 11:21', 'pic': 'http://i0.hdslb.com/bfs/archive/e2d0ced581513cf116bee88c88aefe21cc60f3d0.jpg', 'coins': 13237, 'duration': '0:35', 'badgepay': False, 'pts': 1920652, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311436823', 'bvid': 'BV1cN411K7bj', 'typename': '翻唱', 'title': '【俄语翻唱】不爱我就去死！', 'subtitle': '', 'play': 451515, 'review': 452, 'video_review': 134, 'favorites': 43725, 'mid': 245124971, 'author': '廖泽蓝_', 'description': 'Умри, если меня не любишь', 'create': '2023-03-23 16:12', 'pic': 'http://i0.hdslb.com/bfs/archive/b8a4a598037b75aafd28c539c64fb169983fba59.jpg', 'coins': 6087, 'duration': '0:24', 'badgepay': False, 'pts': 1833210, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653776417', 'bvid': 'BV1yY4y1X7mC', 'typename': '翻唱', 'title': '【人生态度】完整版丨房子着火我拍照~人生乱套我睡觉~~', 'subtitle': '', 'play': 733154, 'review': 1371, 'video_review': 543, 'favorites': 32997, 'mid': 631070414, 'author': '折原露露', 'description': '原唱：王七七 （原唱永远是最牛逼的）\n翻唱：在下\n---------------------------\n在大家的支持下露露之前投稿的人生态度BV1Bo4y1e7T9 已经两百万播放了！\n可喜可贺！！\n很多小宝贝私信问我能不能录制一个完整版！\n于是完整版它来啦！！！！！\n希望大家都能有一个快乐的好心情呀~~~', 'create': '2023-03-20 18:06', 'pic': 'http://i0.hdslb.com/bfs/archive/7cbd5f239d206b387b5a5e2c1897f2f62af874c2.jpg', 'coins': 31029, 'duration': '2:36', 'badgepay': False, 'pts': 1813983, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396611341', 'bvid': 'BV1Fo4y1x7Eg', 'typename': '翻唱', 'title': '浅唱一段铃芽之旅主题曲《すずめ》【多多poi】', 'subtitle': '', 'play': 615065, 'review': 1539, 'video_review': 272, 'favorites': 16237, 'mid': 11253297, 'author': '多多poi丶', 'description': '尝试了一种新的翻唱形式！\n唱了一小段《すずめ》\n混音：猫耳studio', 'create': '2023-03-25 17:20', 'pic': 'http://i2.hdslb.com/bfs/archive/b28c8c3bd865658e5cfab8ecf0e3c38de1a3f628.jpg', 'coins': 13377, 'duration': '0:55', 'badgepay': False, 'pts': 1444316, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653875369', 'bvid': 'BV1YY4y1D76n', 'typename': '翻唱', 'title': '哭着哭着就学会了...《再见深海》', 'subtitle': '', 'play': 592378, 'review': 1641, 'video_review': 1257, 'favorites': 15116, 'mid': 37754047, 'author': '咻咻满', 'description': '深海告别曲-《再见深海》 献给走过长夜的你\n原唱：唐汉霄\n翻唱：咻咻满\n混音：Riraru\n校对：艾莉Anicca', 'create': '2023-03-22 15:36', 'pic': 'http://i0.hdslb.com/bfs/archive/dc4d2aa12d338a190fc98433d54356730aae8d54.jpg', 'coins': 31368, 'duration': '4:08', 'badgepay': False, 'pts': 1399698, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951567429', 'bvid': 'BV17s4y1H7aG', 'typename': '翻唱', 'title': '进来看看什么叫教科书级的音乐', 'subtitle': '', 'play': 568433, 'review': 1239, 'video_review': 1991, 'favorites': 8949, 'mid': 690545051, 'author': '吹拉弹唱慕星银', 'description': '标题迫真\n\n主唱：代佳怡 @诡佳目   \n鼓手：哲学 \n吉他：朱禹杭 \n键盘/编曲：大熊 \n摄影/剪辑：王江 王朝 \n录音/混音/贝斯：岳上森 \ngears：yamaha_ela-1/ slg200s/ bb734/ Stage Custom \nmic_sE electronics', 'create': '2023-03-24 18:20', 'pic': 'http://i2.hdslb.com/bfs/archive/ddc728f0139606b8d51446ef986b7e9e53638f28.jpg', 'coins': 13603, 'duration': '6:01', 'badgepay': False, 'pts': 1214352, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738841760', 'bvid': 'BV1ak4y1t778', 'typename': '翻唱', 'title': '来听！俏皮女声翻唱《情字最大》', 'subtitle': '', 'play': 642406, 'review': 1229, 'video_review': 1195, 'favorites': 5289, 'mid': 651386960, 'author': '浅影阿_', 'description': '*该版本已获得正版授权改编', 'create': '2023-03-21 16:13', 'pic': 'http://i0.hdslb.com/bfs/archive/ab87474eaf7ff531fe56ab0e59e426021b815c24.jpg', 'coins': 8988, 'duration': '2:36', 'badgepay': False, 'pts': 1137848, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6919094</v>
+        <v>7206752</v>
       </c>
       <c r="I19" t="n">
-        <v>199205</v>
+        <v>206133</v>
       </c>
       <c r="J19" t="n">
-        <v>286468</v>
+        <v>294605</v>
       </c>
       <c r="K19" t="n">
         <v>80386</v>
@@ -1362,22 +1362,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>音乐(主分区)</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[{'aid': '438756077', 'bvid': 'BV1VL411d7MQ', 'typename': 'VOCALOID·UTAU', 'title': '【4K】すずめ - 初音未来【铃芽户缔/铃芽之旅】新海诚、RADWIMPS', 'subtitle': '', 'play': 560014, 'review': 1001, 'video_review': 161, 'favorites': 29224, 'mid': 282481375, 'author': 'VOCALOID推送', 'description': 'https://m.youtube.com/watch?v=ZzG09FyRCWo\n\nOriginal: RADWIMPS feat.十明\n\nAnime: すずめの戸締まり\n\nVocal: 初音ミクV4x Soft/Original\n\nVocal Edit: pitaolap\n\nillust: by webui\n\nsubtitles: VOCALOID推送', 'create': '2023-03-20 21:07', 'pic': 'http://i2.hdslb.com/bfs/archive/84862d325ad877cf55478ab309b34a8f72762214.jpg', 'coins': 6788, 'duration': '3:58', 'badgepay': False, 'pts': 1650859, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823926177', 'bvid': 'BV1Wg4y1W7jK', 'typename': 'VOCALOID·UTAU', 'title': '【嬴政/刘彻/李世民/武则天/赵匡胤/朱元璋】数风流【忘川风华录手游二周年主题曲】', 'subtitle': '', 'play': 426478, 'review': 3137, 'video_review': 3505, 'favorites': 30019, 'mid': 326258472, 'author': '忘川风华录', 'description': '忘川风华录二周年主题曲《数风流》今日上线！\n“记生前身后，滔滔宏愿；听千古悠悠，细数风流”。\n\n出品：《忘川风华录》手游 \n演唱：星尘infinity、海伊、苍穹、诗岸、星尘Minus、赤羽、牧心\n作词：择荇 | 作曲：陈亦洺 | 编曲：崔博源 | 调教：瑞安Ryan\n笛子/箫：囚牛 | 吉他：Guitar_RK | 弦乐：亚洲首席爱乐\nvocal采样：小可、陈亦洺、崔博源\n和声编写：沈雾敛 | 分轨混音/母带：周天澈@Studio21A\n曲绘：桃源工作室美术组、夜电皮卡丘\nPV：残垣留梦、Bung Ko', 'create': '2023-03-23 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/b40a72e71359fde48b2f31c58dbf4590ec2c65e6.jpg', 'coins': 32187, 'duration': '4:15', 'badgepay': False, 'pts': 1551216, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483948511', 'bvid': 'BV1yT411B7yw', 'typename': 'VOCALOID·UTAU', 'title': '【AI 纳西妲】反方向的钟', 'subtitle': '', 'play': 390286, 'review': 553, 'video_review': 70, 'favorites': 12750, 'mid': 37189764, 'author': 'parameterN', 'description': '原唱：BV1B64y1q7Cw\n伴奏：BV1B64y1q7Cw\n图片来源：@白猫妙妙屋  \n音源：原神 纳西妲\n模型：so-vits-svc4.0\n项目地址：https://github.com/svc-develop-team/so-vits-svc \n本视频基于深度合成技术制成，仅供个人研究娱乐使用，如有侵权，请告知删除。', 'create': '2023-03-22 21:02', 'pic': 'http://i1.hdslb.com/bfs/archive/2d239b4476d8d1bd0f64208037ddf8d3f91c597b.jpg', 'coins': 3071, 'duration': '1:54', 'badgepay': False, 'pts': 997315, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823861752', 'bvid': 'BV12g4y1x7yk', 'typename': 'VOCALOID·UTAU', 'title': 'あんたにあっかんべ ／ 一二三 feat.初音ミク', 'subtitle': '', 'play': 158719, 'review': 393, 'video_review': 219, 'favorites': 23427, 'mid': 627702794, 'author': 'hihumi_v', 'description': '雨雲ごとどっか行っちゃえ。\n连著雨云一起消失吧。\n\n○ Music &amp; Lyrics : 一二三\u3000Twitter : https://twitter.com/hihumi_v\n\n○ Illustration : まりやす\u3000Twitter : https://twitter.com/mariyasu_ame\n\n○ Mix&amp;Mastering : 田本雅浩\n\n○ Off Vocal : https://drive.google.com/drive/folders/1rV9nF7s06FIq-cI9FqzeTG', 'create': '2023-03-21 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/279acd881d8898d3fe251c51dfb7a101ecd7355d.jpg', 'coins': 9805, 'duration': '3:42', 'badgepay': False, 'pts': 860159, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653937387', 'bvid': 'BV1XY4y1D7Pn', 'typename': 'VOCALOID·UTAU', 'title': '【AI影月月＆AI莴苣】《我不曾忘记》-原神同人曲合唱', 'subtitle': '', 'play': 343546, 'review': 1009, 'video_review': 821, 'favorites': 8887, 'mid': 6350114, 'author': '葱凉橙', 'description': '项目地址: https://github.com/svc-develop-team/so-vits-svc\n原曲：我不曾忘记 BV1P24y1a7Lt\n参考源：我不曾忘记-小鳄就是想唱歌 BV1Uv4y1e7gD\n莴苣音源：多个本人攻略视频\n影月月音源：多个本人攻略视频\n\n第一次做这种合唱，有很多地方可能做的不好，请多多包含\n\n如果有哪里不好听是我的问题与本人无关！\n\nps：于3.23进行音频重置视频换源', 'create': '2023-03-22 21:45', 'pic': 'http://i0.hdslb.com/bfs/archive/413c783c99c6b75300aab70797f91db720892f6f.jpg', 'coins': 4876, 'duration': '4:16', 'badgepay': False, 'pts': 857914, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568946206', 'bvid': 'BV13v4y157nc', 'typename': 'VOCALOID·UTAU', 'title': '【AI邓丽君】反方向的钟', 'subtitle': '', 'play': 208860, 'review': 346, 'video_review': 87, 'favorites': 1807, 'mid': 1659132605, 'author': '鬼才牛青青', 'description': '原唱：@九三的耳朵不是特别好 https://www.bilibili.com/video/BV1B64y1q7Cw/\n伴奏：@九三的耳朵不是特别好 https://www.bilibili.com/video/BV1B64y1q7Cw/\n音源：邓丽君\n封面：邓丽君', 'create': '2023-03-23 14:30', 'pic': 'http://i0.hdslb.com/bfs/archive/f9c0b66f6d9b5da98c8c4dc0e769e01644bd16e4.jpg', 'coins': 705, 'duration': '1:54', 'badgepay': False, 'pts': 363527, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653935210', 'bvid': 'BV1XY4y1D7kX', 'typename': 'VOCALOID·UTAU', 'title': '【洛天依AI】这么可爱真是抱歉 chu~【中文填词】', 'subtitle': '', 'play': 74919, 'review': 397, 'video_review': 198, 'favorites': 6451, 'mid': 10282294, 'author': '半只金蓝', 'description': '本家：BV1iy4y1Z7Ri 《可爱くてごめん》\nPV工程使用：伊子米 BV1vW4y1V7gA\n==========\n中文填词：又瓷\n曲绘：柳橙汁\n调/混/视：半只金蓝\n演唱：洛天依(ACEai)\n==========\n一起做了可爱的翻调！', 'create': '2023-03-22 12:01', 'pic': 'http://i1.hdslb.com/bfs/archive/9e6d1f2cb94ac0ec6d2e6a0c8f2bfed759fdeec2.jpg', 'coins': 3869, 'duration': '3:41', 'badgepay': False, 'pts': 311338, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951370050', 'bvid': 'BV17s4y1n7tW', 'typename': 'VOCALOID·UTAU', 'title': '[AI维吉尔]这么可爱真是抱歉', 'subtitle': '', 'play': 103041, 'review': 327, 'video_review': 119, 'favorites': 3381, 'mid': 647998, 'author': 'Wh1teShad0w', 'description': '项目地址：https://github.com/svc-develop-team/so-vits-svc\r\nVocal:鬼泣 维吉尔(CV:Daniel Southworth)\r\n歌曲:Kawaikute Gomen\xa0(English Cover)【Will Stetson】「可愛くてごめん」\r\nhttps://www.youtube.com/watch?v=732imz7EaT4', 'create': '2023-03-21 22:42', 'pic': 'http://i2.hdslb.com/bfs/archive/d36a8036ee3cfd7ad866cfa6243b92f10072f7c5.jpg', 'coins': 1583, 'duration': '7:24', 'badgepay': False, 'pts': 281777, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696310730', 'bvid': 'BV1Dm4y1r7wf', 'typename': 'VOCALOID·UTAU', 'title': '【AI本兮】乌梅子酱', 'subtitle': '', 'play': 119608, 'review': 516, 'video_review': 74, 'favorites': 2095, 'mid': 2531369, 'author': '华晓熊', 'description': '原唱：李荣浩 https://music.163.com/#/song?id=1997438791\n词曲：李荣浩\n原唱：李荣浩\n翻唱：AI本兮\n输入源：\n乌梅子酱-是暖暖吖：https://music.163.com/#/song?id=2028374871\n乌梅子酱-Rollya若里亚：https://music.163.com/#/song?id=2027928065\n\n既然有饭饭开了头，我也来凑个热闹吧，本AI模型是用几首兮兮早期音色的作品训练出来的，它的原理是替换别人已有作品的人声音色为兮兮的音色', 'create': '2023-03-20 15:55', 'pic': 'http://i0.hdslb.com/bfs/archive/543633798d43308df31a4fe28617c91afaf1c2ed.jpg', 'coins': 1033, 'duration': '2:47', 'badgepay': False, 'pts': 263175, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483855347', 'bvid': 'BV1TT411r7wM', 'typename': 'VOCALOID·UTAU', 'title': 'かいりきベア - ダーリンダンス feat. 初音ミク (柊マグネタイト Remix)', 'subtitle': '', 'play': 45313, 'review': 125, 'video_review': 49, 'favorites': 7074, 'mid': 3493138622581415, 'author': '柊マグネタイト', 'description': 'Remix / 柊マグネタイト https://weibo.com/u/7821448172\nIllustration / 瀬奈悠太\nOriginal / かいりきベア', 'create': '2023-03-21 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/21a15fb939d6c0ab62531e655fef6173e5c5ec61.jpg', 'coins': 1159, 'duration': '3:24', 'badgepay': False, 'pts': 256637, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '438756077', 'bvid': 'BV1VL411d7MQ', 'typename': 'VOCALOID·UTAU', 'title': '【4K】すずめ - 初音未来【铃芽户缔/铃芽之旅】新海诚、RADWIMPS', 'subtitle': '', 'play': 570742, 'review': 1024, 'video_review': 164, 'favorites': 29721, 'mid': 282481375, 'author': 'VOCALOID推送', 'description': 'https://m.youtube.com/watch?v=ZzG09FyRCWo\n\nOriginal: RADWIMPS feat.十明\n\nAnime: すずめの戸締まり\n\nVocal: 初音ミクV4x Soft/Original\n\nVocal Edit: pitaolap\n\nillust: by webui\n\nsubtitles: VOCALOID推送', 'create': '2023-03-20 21:07', 'pic': 'http://i2.hdslb.com/bfs/archive/84862d325ad877cf55478ab309b34a8f72762214.jpg', 'coins': 6908, 'duration': '3:58', 'badgepay': False, 'pts': 1680275, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823926177', 'bvid': 'BV1Wg4y1W7jK', 'typename': 'VOCALOID·UTAU', 'title': '【嬴政/刘彻/李世民/武则天/赵匡胤/朱元璋】数风流【忘川风华录手游二周年主题曲】', 'subtitle': '', 'play': 438796, 'review': 3187, 'video_review': 3525, 'favorites': 30349, 'mid': 326258472, 'author': '忘川风华录', 'description': '忘川风华录二周年主题曲《数风流》今日上线！\n“记生前身后，滔滔宏愿；听千古悠悠，细数风流”。\n\n出品：《忘川风华录》手游 \n演唱：星尘infinity、海伊、苍穹、诗岸、星尘Minus、赤羽、牧心\n作词：择荇 | 作曲：陈亦洺 | 编曲：崔博源 | 调教：瑞安Ryan\n笛子/箫：囚牛 | 吉他：Guitar_RK | 弦乐：亚洲首席爱乐\nvocal采样：小可、陈亦洺、崔博源\n和声编写：沈雾敛 | 分轨混音/母带：周天澈@Studio21A\n曲绘：桃源工作室美术组、夜电皮卡丘\nPV：残垣留梦、Bung Ko', 'create': '2023-03-23 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/b40a72e71359fde48b2f31c58dbf4590ec2c65e6.jpg', 'coins': 32512, 'duration': '4:15', 'badgepay': False, 'pts': 1579665, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483948511', 'bvid': 'BV1yT411B7yw', 'typename': 'VOCALOID·UTAU', 'title': '【AI 纳西妲】反方向的钟', 'subtitle': '', 'play': 416305, 'review': 572, 'video_review': 74, 'favorites': 13593, 'mid': 37189764, 'author': 'parameterN', 'description': '原唱：BV1B64y1q7Cw\n伴奏：BV1B64y1q7Cw\n图片来源：@白猫妙妙屋  \n音源：原神 纳西妲\n模型：so-vits-svc4.0\n项目地址：https://github.com/svc-develop-team/so-vits-svc \n本视频基于深度合成技术制成，仅供个人研究娱乐使用，如有侵权，请告知删除。', 'create': '2023-03-22 21:02', 'pic': 'http://i1.hdslb.com/bfs/archive/2d239b4476d8d1bd0f64208037ddf8d3f91c597b.jpg', 'coins': 3303, 'duration': '1:54', 'badgepay': False, 'pts': 1061073, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653937387', 'bvid': 'BV1XY4y1D7Pn', 'typename': 'VOCALOID·UTAU', 'title': '【AI影月月＆AI莴苣】《我不曾忘记》-原神同人曲合唱', 'subtitle': '', 'play': 349065, 'review': 1016, 'video_review': 834, 'favorites': 9007, 'mid': 6350114, 'author': '葱凉橙', 'description': '项目地址: https://github.com/svc-develop-team/so-vits-svc\n原曲：我不曾忘记 BV1P24y1a7Lt\n参考源：我不曾忘记-小鳄就是想唱歌 BV1Uv4y1e7gD\n莴苣音源：多个本人攻略视频\n影月月音源：多个本人攻略视频\n\n第一次做这种合唱，有很多地方可能做的不好，请多多包含\n\n如果有哪里不好听是我的问题与本人无关！\n\nps：于3.23进行音频重置视频换源', 'create': '2023-03-22 21:45', 'pic': 'http://i0.hdslb.com/bfs/archive/413c783c99c6b75300aab70797f91db720892f6f.jpg', 'coins': 4956, 'duration': '4:16', 'badgepay': False, 'pts': 870119, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823861752', 'bvid': 'BV12g4y1x7yk', 'typename': 'VOCALOID·UTAU', 'title': 'あんたにあっかんべ ／ 一二三 feat.初音ミク', 'subtitle': '', 'play': 160260, 'review': 394, 'video_review': 222, 'favorites': 23547, 'mid': 627702794, 'author': 'hihumi_v', 'description': '雨雲ごとどっか行っちゃえ。\n连著雨云一起消失吧。\n\n○ Music &amp; Lyrics : 一二三\u3000Twitter : https://twitter.com/hihumi_v\n\n○ Illustration : まりやす\u3000Twitter : https://twitter.com/mariyasu_ame\n\n○ Mix&amp;Mastering : 田本雅浩\n\n○ Off Vocal : https://drive.google.com/drive/folders/1rV9nF7s06FIq-cI9FqzeTG', 'create': '2023-03-21 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/279acd881d8898d3fe251c51dfb7a101ecd7355d.jpg', 'coins': 9874, 'duration': '3:42', 'badgepay': False, 'pts': 865867, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568946206', 'bvid': 'BV13v4y157nc', 'typename': 'VOCALOID·UTAU', 'title': '【AI邓丽君】反方向的钟', 'subtitle': '', 'play': 216937, 'review': 355, 'video_review': 87, 'favorites': 1872, 'mid': 1659132605, 'author': '鬼才牛青青', 'description': '原唱：@九三的耳朵不是特别好 https://www.bilibili.com/video/BV1B64y1q7Cw/\n伴奏：@九三的耳朵不是特别好 https://www.bilibili.com/video/BV1B64y1q7Cw/\n音源：邓丽君\n封面：邓丽君', 'create': '2023-03-23 14:30', 'pic': 'http://i0.hdslb.com/bfs/archive/f9c0b66f6d9b5da98c8c4dc0e769e01644bd16e4.jpg', 'coins': 727, 'duration': '1:54', 'badgepay': False, 'pts': 373219, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653935210', 'bvid': 'BV1XY4y1D7kX', 'typename': 'VOCALOID·UTAU', 'title': '【洛天依AI】这么可爱真是抱歉 chu~【中文填词】', 'subtitle': '', 'play': 76992, 'review': 404, 'video_review': 202, 'favorites': 6586, 'mid': 10282294, 'author': '半只金蓝', 'description': '本家：BV1iy4y1Z7Ri 《可爱くてごめん》\nPV工程使用：伊子米 BV1vW4y1V7gA\n==========\n中文填词：又瓷\n曲绘：柳橙汁\n调/混/视：半只金蓝\n演唱：洛天依(ACEai)\n==========\n一起做了可爱的翻调！', 'create': '2023-03-22 12:01', 'pic': 'http://i1.hdslb.com/bfs/archive/9e6d1f2cb94ac0ec6d2e6a0c8f2bfed759fdeec2.jpg', 'coins': 3972, 'duration': '3:41', 'badgepay': False, 'pts': 318548, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951370050', 'bvid': 'BV17s4y1n7tW', 'typename': 'VOCALOID·UTAU', 'title': '[AI维吉尔]这么可爱真是抱歉', 'subtitle': '', 'play': 107345, 'review': 329, 'video_review': 123, 'favorites': 3497, 'mid': 647998, 'author': 'Wh1teShad0w', 'description': '项目地址：https://github.com/svc-develop-team/so-vits-svc\r\nVocal:鬼泣 维吉尔(CV:Daniel Southworth)\r\n歌曲:Kawaikute Gomen\xa0(English Cover)【Will Stetson】「可愛くてごめん」\r\nhttps://www.youtube.com/watch?v=732imz7EaT4', 'create': '2023-03-21 22:42', 'pic': 'http://i2.hdslb.com/bfs/archive/d36a8036ee3cfd7ad866cfa6243b92f10072f7c5.jpg', 'coins': 1647, 'duration': '7:24', 'badgepay': False, 'pts': 292355, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696310730', 'bvid': 'BV1Dm4y1r7wf', 'typename': 'VOCALOID·UTAU', 'title': '【AI本兮】乌梅子酱', 'subtitle': '', 'play': 121029, 'review': 518, 'video_review': 75, 'favorites': 2125, 'mid': 2531369, 'author': '华晓熊', 'description': '原唱：李荣浩 https://music.163.com/#/song?id=1997438791\n词曲：李荣浩\n原唱：李荣浩\n翻唱：AI本兮\n输入源：\n乌梅子酱-是暖暖吖：https://music.163.com/#/song?id=2028374871\n乌梅子酱-Rollya若里亚：https://music.163.com/#/song?id=2027928065\n\n既然有饭饭开了头，我也来凑个热闹吧，本AI模型是用几首兮兮早期音色的作品训练出来的，它的原理是替换别人已有作品的人声音色为兮兮的音色', 'create': '2023-03-20 15:55', 'pic': 'http://i0.hdslb.com/bfs/archive/543633798d43308df31a4fe28617c91afaf1c2ed.jpg', 'coins': 1054, 'duration': '2:47', 'badgepay': False, 'pts': 266481, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483855347', 'bvid': 'BV1TT411r7wM', 'typename': 'VOCALOID·UTAU', 'title': 'かいりきベア - ダーリンダンス feat. 初音ミク (柊マグネタイト Remix)', 'subtitle': '', 'play': 46115, 'review': 127, 'video_review': 49, 'favorites': 7213, 'mid': 3493138622581415, 'author': '柊マグネタイト', 'description': 'Remix / 柊マグネタイト https://weibo.com/u/7821448172\nIllustration / 瀬奈悠太\nOriginal / かいりきベア', 'create': '2023-03-21 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/21a15fb939d6c0ab62531e655fef6173e5c5ec61.jpg', 'coins': 1190, 'duration': '3:24', 'badgepay': False, 'pts': 261104, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2430784</v>
+        <v>2503586</v>
       </c>
       <c r="I20" t="n">
-        <v>65076</v>
+        <v>66143</v>
       </c>
       <c r="J20" t="n">
-        <v>125115</v>
+        <v>127510</v>
       </c>
       <c r="K20" t="n">
         <v>2909</v>
@@ -1409,22 +1409,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>音乐(主分区)</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[{'aid': '696472837', 'bvid': 'BV16m4y1k7Zg', 'typename': '演奏', 'title': '这人怎么把【Empty Love】弹得噼里啪啦的啊啊啊！打击乐吉他？', 'subtitle': '', 'play': 935478, 'review': 805, 'video_review': 420, 'favorites': 55940, 'mid': 1392851775, 'author': '弹吉他的娃哈哈', 'description': '原作：Lulleaux、Kid Princess\n改编：弹吉他的娃哈哈\n        （部分借鉴弹吉他的飞飞&amp;出云-冯浩海的演奏）\n演奏：弹吉他的娃哈哈\n视频用琴：拿火ME3\n视频用变调夹：paige\n\n耳挂香烟弃前嫌 ，一朵鲜花足以甜\n纯爱本就是真理，有人把你当笑话，可却有人能认真的聆听并懂得你。\n真正的爱情无法被世俗限制,真挚而又热烈。', 'create': '2023-03-22 17:30', 'pic': 'http://i1.hdslb.com/bfs/archive/87f203592aa2637cf82df6d119f7ea665b153905.jpg', 'coins': 18007, 'duration': '2:31', 'badgepay': False, 'pts': 2780022, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696567712', 'bvid': 'BV1bm4y1675T', 'typename': '演奏', 'title': '中国第一代钢琴家巫漪丽演奏《梁祝》，前奏一响，世界安静了', 'subtitle': '', 'play': 608867, 'review': 711, 'video_review': 861, 'favorites': 11660, 'mid': 424127064, 'author': 'Music音乐世界', 'description': 'www.aiweisou.com 古典音乐库公众号 爱听音乐库公众号 Music音乐世界', 'create': '2023-03-24 10:13', 'pic': 'http://i1.hdslb.com/bfs/archive/975e6e3b5f72864a76d40525845afbccc1481d52.jpg', 'coins': 3021, 'duration': '9:53', 'badgepay': False, 'pts': 1311226, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823875597', 'bvid': 'BV16g4y1x7cZ', 'typename': '演奏', 'title': '想念当年在地府当官的日子', 'subtitle': '', 'play': 615915, 'review': 854, 'video_review': 722, 'favorites': 4194, 'mid': 42561463, 'author': '浑元Rysn', 'description': '许镜清老师对不起对不起！！！！！！！！', 'create': '2023-03-24 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/a3452bccf927d8d16bc8a5654c4a2f72b22abac5.jpg', 'coins': 4665, 'duration': '1:28', 'badgepay': False, 'pts': 1110032, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569084125', 'bvid': 'BV1Pv4y1L7eq', 'typename': '演奏', 'title': '法国街头，谁在用“古筝”弹奏一曲东风破？', 'subtitle': '', 'play': 314299, 'review': 594, 'video_review': 577, 'favorites': 1299, 'mid': 15960317, 'author': '碰碰彭碰彭', 'description': '作词：方文山\n作曲：周杰伦\n古筝：碰碰彭碰彭\n拍摄/后期：郭彗木\n你仔细听，每一个音符都在说话哦', 'create': '2023-03-24 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/af183c308282f96387761df05c45d44d06699c60.jpg', 'coins': 6106, 'duration': '2:34', 'badgepay': False, 'pts': 579131, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993768093', 'bvid': 'BV1Kx4y1N73Z', 'typename': '演奏', 'title': '赐我一个知己，让我弹出《梅花三弄》的长情！', 'subtitle': '', 'play': 272117, 'review': 146, 'video_review': 133, 'favorites': 2781, 'mid': 436159383, 'author': '二十四伎乐', 'description': '出品：梅见X二十四伎乐\n原曲：古曲《梅花三弄》\n改编：蔡奕滨', 'create': '2023-03-22 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/0794117fddb7fa182f5bcc3cfac226f175af272c.jpg', 'coins': 1188, 'duration': '2:34', 'badgepay': False, 'pts': 505806, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311378022', 'bvid': 'BV18P411o7jD', 'typename': '演奏', 'title': '第一次弹钢琴 大家多多包涵#你从未离去 #熊出没 #热门', 'subtitle': '', 'play': 238384, 'review': 149, 'video_review': 70, 'favorites': 3810, 'mid': 36229753, 'author': '罗家红', 'description': '', 'create': '2023-03-23 15:53', 'pic': 'http://i1.hdslb.com/bfs/archive/89b343d968aa952b8c0738659c97ec259fb7f8a4.jpg', 'coins': 1411, 'duration': '0:32', 'badgepay': False, 'pts': 490741, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994051360', 'bvid': 'BV1ss4y1S72u', 'typename': '演奏', 'title': '竹笛《野蜂飞舞》 227bpm 轻轻松松', 'subtitle': '', 'play': 195757, 'review': 487, 'video_review': 377, 'favorites': 2401, 'mid': 330340235, 'author': 'f教授', 'description': '-', 'create': '2023-03-25 17:48', 'pic': 'http://i2.hdslb.com/bfs/archive/70f5eb88d5ee6f85b4113f5ad0883f1d350b20e2.jpg', 'coins': 3748, 'duration': '3:20', 'badgepay': False, 'pts': 419467, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441367732', 'bvid': 'BV1QL411r7RR', 'typename': '演奏', 'title': '摸了一下铃芽户缔，没想到手碟真合适，抛砖引玉了', 'subtitle': '', 'play': 199621, 'review': 213, 'video_review': 32, 'favorites': 2112, 'mid': 133757159, 'author': '小熊Leo6', 'description': '随手敲的没想到这么多人看，，，，\n我录了一个完整一些的ver.2，附了谱子，有需要可以移步', 'create': '2023-03-21 22:57', 'pic': 'http://i0.hdslb.com/bfs/archive/1de455fc6de8d8284a2a8d49776798ca10f5f382.jpg', 'coins': 816, 'duration': '1:28', 'badgepay': False, 'pts': 372221, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781566526', 'bvid': 'BV1G24y177W6', 'typename': '演奏', 'title': '【二胡】天青色等烟雨，而我在等你。', 'subtitle': '', 'play': 137366, 'review': 194, 'video_review': 138, 'favorites': 1767, 'mid': 18732886, 'author': '是MiYa吖', 'description': '《青花瓷》\n作曲：周杰伦\n二胡：是miya吖', 'create': '2023-03-25 15:26', 'pic': 'http://i2.hdslb.com/bfs/archive/5ddf37bf4ea703a32f4086a7aec3a9d974f9f70f.jpg', 'coins': 464, 'duration': '3:30', 'badgepay': False, 'pts': 280870, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396295965', 'bvid': 'BV1Uo4y1q7Un', 'typename': '演奏', 'title': '《声声慢》💕寻寻觅觅，冷冷清清', 'subtitle': '', 'play': 120309, 'review': 243, 'video_review': 167, 'favorites': 2617, 'mid': 314480501, 'author': '漫罗拉', 'description': '', 'create': '2023-03-20 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/19211a2babbd5daf8685d57970d1aa3342eaeb42.jpg', 'coins': 452, 'duration': '2:46', 'badgepay': False, 'pts': 248806, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '696472837', 'bvid': 'BV16m4y1k7Zg', 'typename': '演奏', 'title': '这人怎么把【Empty Love】弹得噼里啪啦的啊啊啊！打击乐吉他？', 'subtitle': '', 'play': 955222, 'review': 819, 'video_review': 428, 'favorites': 56811, 'mid': 1392851775, 'author': '弹吉他的娃哈哈', 'description': '原作：Lulleaux、Kid Princess\n改编：弹吉他的娃哈哈\n        （部分借鉴弹吉他的飞飞&amp;出云-冯浩海的演奏）\n演奏：弹吉他的娃哈哈\n视频用琴：拿火ME3\n视频用变调夹：paige\n\n耳挂香烟弃前嫌 ，一朵鲜花足以甜\n纯爱本就是真理，有人把你当笑话，可却有人能认真的聆听并懂得你。\n真正的爱情无法被世俗限制,真挚而又热烈。', 'create': '2023-03-22 17:30', 'pic': 'http://i1.hdslb.com/bfs/archive/87f203592aa2637cf82df6d119f7ea665b153905.jpg', 'coins': 18462, 'duration': '2:31', 'badgepay': False, 'pts': 2824218, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696567712', 'bvid': 'BV1bm4y1675T', 'typename': '演奏', 'title': '中国第一代钢琴家巫漪丽演奏《梁祝》，前奏一响，世界安静了', 'subtitle': '', 'play': 656537, 'review': 762, 'video_review': 916, 'favorites': 12560, 'mid': 424127064, 'author': 'Music音乐世界', 'description': 'www.aiweisou.com 古典音乐库公众号 爱听音乐库公众号 Music音乐世界', 'create': '2023-03-24 10:13', 'pic': 'http://i1.hdslb.com/bfs/archive/975e6e3b5f72864a76d40525845afbccc1481d52.jpg', 'coins': 3229, 'duration': '9:53', 'badgepay': False, 'pts': 1399967, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823875597', 'bvid': 'BV16g4y1x7cZ', 'typename': '演奏', 'title': '想念当年在地府当官的日子', 'subtitle': '', 'play': 630157, 'review': 865, 'video_review': 733, 'favorites': 4303, 'mid': 42561463, 'author': '浑元Rysn', 'description': '许镜清老师对不起对不起！！！！！！！！', 'create': '2023-03-24 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/a3452bccf927d8d16bc8a5654c4a2f72b22abac5.jpg', 'coins': 4775, 'duration': '1:28', 'badgepay': False, 'pts': 1130538, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569084125', 'bvid': 'BV1Pv4y1L7eq', 'typename': '演奏', 'title': '法国街头，谁在用“古筝”弹奏一曲东风破？', 'subtitle': '', 'play': 322122, 'review': 604, 'video_review': 588, 'favorites': 1316, 'mid': 15960317, 'author': '碰碰彭碰彭', 'description': '作词：方文山\n作曲：周杰伦\n古筝：碰碰彭碰彭\n拍摄/后期：郭彗木\n你仔细听，每一个音符都在说话哦', 'create': '2023-03-24 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/af183c308282f96387761df05c45d44d06699c60.jpg', 'coins': 6203, 'duration': '2:34', 'badgepay': False, 'pts': 590764, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993768093', 'bvid': 'BV1Kx4y1N73Z', 'typename': '演奏', 'title': '赐我一个知己，让我弹出《梅花三弄》的长情！', 'subtitle': '', 'play': 272474, 'review': 147, 'video_review': 133, 'favorites': 2789, 'mid': 436159383, 'author': '二十四伎乐', 'description': '出品：梅见X二十四伎乐\n原曲：古曲《梅花三弄》\n改编：蔡奕滨', 'create': '2023-03-22 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/0794117fddb7fa182f5bcc3cfac226f175af272c.jpg', 'coins': 1188, 'duration': '2:34', 'badgepay': False, 'pts': 506573, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311378022', 'bvid': 'BV18P411o7jD', 'typename': '演奏', 'title': '第一次弹钢琴 大家多多包涵#你从未离去 #熊出没 #热门', 'subtitle': '', 'play': 243606, 'review': 151, 'video_review': 70, 'favorites': 3892, 'mid': 36229753, 'author': '罗家红', 'description': '', 'create': '2023-03-23 15:53', 'pic': 'http://i1.hdslb.com/bfs/archive/89b343d968aa952b8c0738659c97ec259fb7f8a4.jpg', 'coins': 1458, 'duration': '0:32', 'badgepay': False, 'pts': 500154, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994051360', 'bvid': 'BV1ss4y1S72u', 'typename': '演奏', 'title': '竹笛《野蜂飞舞》 227bpm 轻轻松松', 'subtitle': '', 'play': 221600, 'review': 538, 'video_review': 413, 'favorites': 2756, 'mid': 330340235, 'author': 'f教授', 'description': '-', 'create': '2023-03-25 17:48', 'pic': 'http://i2.hdslb.com/bfs/archive/70f5eb88d5ee6f85b4113f5ad0883f1d350b20e2.jpg', 'coins': 4270, 'duration': '3:20', 'badgepay': False, 'pts': 482456, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441367732', 'bvid': 'BV1QL411r7RR', 'typename': '演奏', 'title': '摸了一下铃芽户缔，没想到手碟真合适，抛砖引玉了', 'subtitle': '', 'play': 218278, 'review': 223, 'video_review': 35, 'favorites': 2373, 'mid': 133757159, 'author': '小熊Leo6', 'description': '随手敲的没想到这么多人看，，，，\n我录了一个完整一些的ver.2，附了谱子，有需要可以移步', 'create': '2023-03-21 22:57', 'pic': 'http://i0.hdslb.com/bfs/archive/1de455fc6de8d8284a2a8d49776798ca10f5f382.jpg', 'coins': 887, 'duration': '1:28', 'badgepay': False, 'pts': 408903, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781566526', 'bvid': 'BV1G24y177W6', 'typename': '演奏', 'title': '【二胡】天青色等烟雨，而我在等你。', 'subtitle': '', 'play': 159187, 'review': 208, 'video_review': 156, 'favorites': 2109, 'mid': 18732886, 'author': '是MiYa吖', 'description': '《青花瓷》\n作曲：周杰伦\n二胡：是miya吖', 'create': '2023-03-25 15:26', 'pic': 'http://i2.hdslb.com/bfs/archive/5ddf37bf4ea703a32f4086a7aec3a9d974f9f70f.jpg', 'coins': 520, 'duration': '3:30', 'badgepay': False, 'pts': 326585, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396295965', 'bvid': 'BV1Uo4y1q7Un', 'typename': '演奏', 'title': '《声声慢》💕寻寻觅觅，冷冷清清', 'subtitle': '', 'play': 120512, 'review': 242, 'video_review': 167, 'favorites': 2617, 'mid': 314480501, 'author': '漫罗拉', 'description': '', 'create': '2023-03-20 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/19211a2babbd5daf8685d57970d1aa3342eaeb42.jpg', 'coins': 452, 'duration': '2:46', 'badgepay': False, 'pts': 249103, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3638113</v>
+        <v>3799695</v>
       </c>
       <c r="I21" t="n">
-        <v>39878</v>
+        <v>41444</v>
       </c>
       <c r="J21" t="n">
-        <v>88581</v>
+        <v>91526</v>
       </c>
       <c r="K21" t="n">
         <v>29352</v>
@@ -1456,22 +1456,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>音乐(主分区)</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[{'aid': '526299977', 'bvid': 'BV1JM411p7H9', 'typename': 'MV', 'title': '【袁娅维×万物起舞】人间CD机袁娅维倾情献唱，如梦声线演绎女魃墓前尘今生', 'subtitle': '', 'play': 5869916, 'review': 2501, 'video_review': 6952, 'favorites': 63541, 'mid': 444935584, 'author': '梦幻西游电脑版', 'description': '煌火焚天，古墓余声 |《梦幻西游》电脑版X袁娅维 | 女魃墓门派曲《万物起舞》\n三珠树下，因果难寻，繁花如云，落英似雪；\n前尘往恨，魂梦为劳，煌火净世，块垒方消。\n袁娅维加盟《梦幻西游》电脑版门派曲，重启女魃墓尘封旧事。\n\n#梦幻西游电脑版# #梦幻西游# #袁娅维# #万物起舞# #音乐# #MV#\n\n演唱：袁娅维TIA RAY\n作词：孙雪菲\n作曲：郑冰冰、季志豪\n原唱：梁倩雨', 'create': '2023-03-22 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/ca2d8e879c9fde9be4d74849de53ea97117991f1.jpg', 'coins': 79808, 'duration': '4:01', 'badgepay': False, 'pts': 4419598, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696334276', 'bvid': 'BV1Mm4y1k7We', 'typename': 'MV', 'title': '【林肯公园 | B站首发】Numb (官方MV 4K修复版) - Linkin Park', 'subtitle': '', 'play': 2016214, 'review': 3201, 'video_review': 2358, 'favorites': 89927, 'mid': 3493136892430823, 'author': 'LinkinPark', 'description': '#LinkinPark #Numb #OfficialMusicVideo \nMeteora|20 out April 7th', 'create': '2023-03-20 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/62cb00e9285e368fbde55ee87069008de8f5ac20.jpg', 'coins': 148509, 'duration': '3:08', 'badgepay': False, 'pts': 4153479, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483796889', 'bvid': 'BV1ST411677Y', 'typename': 'MV', 'title': '【NMIXX】"Love Me Like This" M/V', 'subtitle': '', 'play': 715554, 'review': 6470, 'video_review': 10010, 'favorites': 20956, 'mid': 2115962425, 'author': 'NMIXX', 'description': '', 'create': '2023-03-20 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/47b84b62c7d6b96012a6eaf9932275dc7fb37caf.jpg', 'coins': 27608, 'duration': '3:32', 'badgepay': False, 'pts': 1552255, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353754589', 'bvid': 'BV1uX4y1Z7Jq', 'typename': 'MV', 'title': 'NMIXX最新回归曲Love Me Like This MV公开', 'subtitle': '', 'play': 556131, 'review': 8602, 'video_review': 2987, 'favorites': 5599, 'mid': 16720403, 'author': 'pcyxjy', 'description': 'yt', 'create': '2023-03-20 17:09', 'pic': 'http://i2.hdslb.com/bfs/archive/c492bacc6b6cbf26b0971081f1559734d5c52fa1.jpg', 'coins': 2314, 'duration': '3:32', 'badgepay': False, 'pts': 1026444, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951621454', 'bvid': 'BV1As4y1J7tX', 'typename': 'MV', 'title': '大学生自制女团回归！MAGI新歌Vitality MV公开', 'subtitle': '', 'play': 245179, 'review': 1203, 'video_review': 631, 'favorites': 5263, 'mid': 3493116399061434, 'author': 'MAGI_Official', 'description': '耗时三个月\n继《RED TAPE》后的第二首单曲\n大家都尽了最大的努力\n希望观众能够喜欢\nMAGI和STABRO会一直陪着大家\n每一个梦想\n正在慢慢的开花～', 'create': '2023-03-25 15:00', 'pic': 'http://i1.hdslb.com/bfs/archive/41dcee9213956884406058cc7cb68400eef25d8a.jpg', 'coins': 15210, 'duration': '3:15', 'badgepay': False, 'pts': 605810, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951513982', 'bvid': 'BV1ws4y1H75u', 'typename': 'MV', 'title': '【YOASOBI/中日歌词/TV size】「我推的孩子」OP主题曲「アイドル/偶像」试听', 'subtitle': '', 'play': 217921, 'review': 399, 'video_review': 275, 'favorites': 3336, 'mid': 15319615, 'author': 'Aki惊蛰', 'description': '誰もが目を奪われてく❤️❤️❤️ 君は完璧で究極のアイドル😭😭😭\n誰もが信じ崇めてる[打call][打call]まさに最高で無敵のアイドル😭\U0001faf5\U0001faf5\U0001faf5\U0001faf5', 'create': '2023-03-25 12:25', 'pic': 'http://i0.hdslb.com/bfs/archive/e03e002eca7364f8b8b01f1ad2f89d651bd94eed.jpg', 'coins': 880, 'duration': '1:30', 'badgepay': False, 'pts': 477252, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653775747', 'bvid': 'BV11Y4y1X7MF', 'typename': 'MV', 'title': 'NCT DREAM《Beatbox (English Ver.)》Lyric Video', 'subtitle': '', 'play': 149991, 'review': 885, 'video_review': 654, 'favorites': 4180, 'mid': 3493085782739496, 'author': 'SMTOWN', 'description': '', 'create': '2023-03-21 12:17', 'pic': 'http://i0.hdslb.com/bfs/archive/08c1365543f8a42de5e843969cdb89f890569154.jpg', 'coins': 5160, 'duration': '3:33', 'badgepay': False, 'pts': 387054, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226314806', 'bvid': 'BV1yb411d78a', 'typename': 'MV', 'title': '【MV中字】MAMAMOO+回归先行曲&lt;坏家伙&gt;（Chico malo）', 'subtitle': '', 'play': 158228, 'review': 628, 'video_review': 458, 'favorites': 3287, 'mid': 3493078040053899, 'author': 'MAMAMOO_命运站', 'description': 'https://youtu.be/bHW_k6bIUeU', 'create': '2023-03-21 17:19', 'pic': 'http://i2.hdslb.com/bfs/archive/722a2ab76a1f5a932ac1796e6ab7965f69b49721.jpg', 'coins': 1335, 'duration': '3:37', 'badgepay': False, 'pts': 379539, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781408012', 'bvid': 'BV1P24y1J7ax', 'typename': 'MV', 'title': "melon空降71！李宣美 x BE'O《灯熄灭后 (Lights Out)》MV公开！", 'subtitle': '', 'play': 183383, 'review': 400, 'video_review': 233, 'favorites': 2117, 'mid': 419085137, 'author': '爱豆安利所', 'description': 'yt', 'create': '2023-03-22 17:23', 'pic': 'http://i2.hdslb.com/bfs/archive/053424176b509cf07d1835bf68a60029aecb2c2e.jpg', 'coins': 304, 'duration': '3:53', 'badgepay': False, 'pts': 377308, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441259595', 'bvid': 'BV1nL411r7wb', 'typename': 'MV', 'title': '【官方MV】中王区 勘解由小路无花果『No Pain, Not to be Strong』Trailer', 'subtitle': '', 'play': 82465, 'review': 389, 'video_review': 205, 'favorites': 4368, 'mid': 1652293036, 'author': '催眠麦克风_Official', 'description': '4月12日(周三)发售的中王区 首张CD『Verbal Justice』所收录的勘解由小路无花果的Solo曲『No Pain, Not to be Strong』的试听版在此公开！\n同时公开为本曲rap亲自操刀制作的是，即是创作型歌手也作为舞蹈动作设计师（振付师）进行多方面活动的大门弥生。\n\n「No Pain, Not to be Strong」勘解由小路无花果（CV：高桥智秋）\n作词：大门弥生 \u3000作曲：SUNNY BOY・大门弥生\u3000编曲：SUNNY BOY\n\n快来抢先观看吧！', 'create': '2023-03-22 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c68ea84a6293803ea8295870340369354489e5ad.jpg', 'coins': 2878, 'duration': '1:19', 'badgepay': False, 'pts': 263052, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '526299977', 'bvid': 'BV1JM411p7H9', 'typename': 'MV', 'title': '【袁娅维×万物起舞】人间CD机袁娅维倾情献唱，如梦声线演绎女魃墓前尘今生', 'subtitle': '', 'play': 5871325, 'review': 2495, 'video_review': 6952, 'favorites': 63500, 'mid': 444935584, 'author': '梦幻西游电脑版', 'description': '煌火焚天，古墓余声 |《梦幻西游》电脑版X袁娅维 | 女魃墓门派曲《万物起舞》\n三珠树下，因果难寻，繁花如云，落英似雪；\n前尘往恨，魂梦为劳，煌火净世，块垒方消。\n袁娅维加盟《梦幻西游》电脑版门派曲，重启女魃墓尘封旧事。\n\n#梦幻西游电脑版# #梦幻西游# #袁娅维# #万物起舞# #音乐# #MV#\n\n演唱：袁娅维TIA RAY\n作词：孙雪菲\n作曲：郑冰冰、季志豪\n原唱：梁倩雨', 'create': '2023-03-22 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/ca2d8e879c9fde9be4d74849de53ea97117991f1.jpg', 'coins': 79817, 'duration': '4:01', 'badgepay': False, 'pts': 4420069, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696334276', 'bvid': 'BV1Mm4y1k7We', 'typename': 'MV', 'title': '【林肯公园 | B站首发】Numb (官方MV 4K修复版) - Linkin Park', 'subtitle': '', 'play': 2036802, 'review': 3219, 'video_review': 2368, 'favorites': 90572, 'mid': 3493136892430823, 'author': 'LinkinPark', 'description': '#LinkinPark #Numb #OfficialMusicVideo \nMeteora|20 out April 7th', 'create': '2023-03-20 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/62cb00e9285e368fbde55ee87069008de8f5ac20.jpg', 'coins': 149361, 'duration': '3:08', 'badgepay': False, 'pts': 4182903, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483796889', 'bvid': 'BV1ST411677Y', 'typename': 'MV', 'title': '【NMIXX】"Love Me Like This" M/V', 'subtitle': '', 'play': 720391, 'review': 6473, 'video_review': 10034, 'favorites': 21021, 'mid': 2115962425, 'author': 'NMIXX', 'description': '', 'create': '2023-03-20 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/47b84b62c7d6b96012a6eaf9932275dc7fb37caf.jpg', 'coins': 27645, 'duration': '3:32', 'badgepay': False, 'pts': 1559607, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353754589', 'bvid': 'BV1uX4y1Z7Jq', 'typename': 'MV', 'title': 'NMIXX最新回归曲Love Me Like This MV公开', 'subtitle': '', 'play': 557504, 'review': 8605, 'video_review': 2987, 'favorites': 5605, 'mid': 16720403, 'author': 'pcyxjy', 'description': 'yt', 'create': '2023-03-20 17:09', 'pic': 'http://i2.hdslb.com/bfs/archive/c492bacc6b6cbf26b0971081f1559734d5c52fa1.jpg', 'coins': 2318, 'duration': '3:32', 'badgepay': False, 'pts': 1028542, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951621454', 'bvid': 'BV1As4y1J7tX', 'typename': 'MV', 'title': '大学生自制女团回归！MAGI新歌Vitality MV公开', 'subtitle': '', 'play': 264686, 'review': 1267, 'video_review': 652, 'favorites': 5526, 'mid': 3493116399061434, 'author': 'MAGI_Official', 'description': '耗时三个月\n继《RED TAPE》后的第二首单曲\n大家都尽了最大的努力\n希望观众能够喜欢\nMAGI和STABRO会一直陪着大家\n每一个梦想\n正在慢慢的开花～', 'create': '2023-03-25 15:00', 'pic': 'http://i1.hdslb.com/bfs/archive/41dcee9213956884406058cc7cb68400eef25d8a.jpg', 'coins': 15989, 'duration': '3:15', 'badgepay': False, 'pts': 648256, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951513982', 'bvid': 'BV1ws4y1H75u', 'typename': 'MV', 'title': '【YOASOBI/中日歌词/TV size】「我推的孩子」OP主题曲「アイドル/偶像」试听', 'subtitle': '', 'play': 235652, 'review': 415, 'video_review': 277, 'favorites': 3463, 'mid': 15319615, 'author': 'Aki惊蛰', 'description': '誰もが目を奪われてく❤️❤️❤️ 君は完璧で究極のアイドル😭😭😭\n誰もが信じ崇めてる[打call][打call]まさに最高で無敵のアイドル😭\U0001faf5\U0001faf5\U0001faf5\U0001faf5', 'create': '2023-03-25 12:25', 'pic': 'http://i0.hdslb.com/bfs/archive/e03e002eca7364f8b8b01f1ad2f89d651bd94eed.jpg', 'coins': 908, 'duration': '1:30', 'badgepay': False, 'pts': 500651, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653775747', 'bvid': 'BV11Y4y1X7MF', 'typename': 'MV', 'title': 'NCT DREAM《Beatbox (English Ver.)》Lyric Video', 'subtitle': '', 'play': 150489, 'review': 885, 'video_review': 655, 'favorites': 4188, 'mid': 3493085782739496, 'author': 'SMTOWN', 'description': '', 'create': '2023-03-21 12:17', 'pic': 'http://i0.hdslb.com/bfs/archive/08c1365543f8a42de5e843969cdb89f890569154.jpg', 'coins': 5166, 'duration': '3:33', 'badgepay': False, 'pts': 388051, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226314806', 'bvid': 'BV1yb411d78a', 'typename': 'MV', 'title': '【MV中字】MAMAMOO+回归先行曲&lt;坏家伙&gt;（Chico malo）', 'subtitle': '', 'play': 159566, 'review': 630, 'video_review': 460, 'favorites': 3303, 'mid': 3493078040053899, 'author': 'MAMAMOO_命运站', 'description': 'https://youtu.be/bHW_k6bIUeU', 'create': '2023-03-21 17:19', 'pic': 'http://i2.hdslb.com/bfs/archive/722a2ab76a1f5a932ac1796e6ab7965f69b49721.jpg', 'coins': 1340, 'duration': '3:37', 'badgepay': False, 'pts': 382241, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781408012', 'bvid': 'BV1P24y1J7ax', 'typename': 'MV', 'title': "melon空降71！李宣美 x BE'O《灯熄灭后 (Lights Out)》MV公开！", 'subtitle': '', 'play': 183764, 'review': 401, 'video_review': 233, 'favorites': 2119, 'mid': 419085137, 'author': '爱豆安利所', 'description': 'yt', 'create': '2023-03-22 17:23', 'pic': 'http://i2.hdslb.com/bfs/archive/053424176b509cf07d1835bf68a60029aecb2c2e.jpg', 'coins': 304, 'duration': '3:53', 'badgepay': False, 'pts': 377948, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441259595', 'bvid': 'BV1nL411r7wb', 'typename': 'MV', 'title': '【官方MV】中王区 勘解由小路无花果『No Pain, Not to be Strong』Trailer', 'subtitle': '', 'play': 83473, 'review': 390, 'video_review': 209, 'favorites': 4393, 'mid': 1652293036, 'author': '催眠麦克风_Official', 'description': '4月12日(周三)发售的中王区 首张CD『Verbal Justice』所收录的勘解由小路无花果的Solo曲『No Pain, Not to be Strong』的试听版在此公开！\n同时公开为本曲rap亲自操刀制作的是，即是创作型歌手也作为舞蹈动作设计师（振付师）进行多方面活动的大门弥生。\n\n「No Pain, Not to be Strong」勘解由小路无花果（CV：高桥智秋）\n作词：大门弥生 \u3000作曲：SUNNY BOY・大门弥生\u3000编曲：SUNNY BOY\n\n快来抢先观看吧！', 'create': '2023-03-22 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c68ea84a6293803ea8295870340369354489e5ad.jpg', 'coins': 2887, 'duration': '1:19', 'badgepay': False, 'pts': 265392, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10194982</v>
+        <v>10263652</v>
       </c>
       <c r="I22" t="n">
-        <v>284006</v>
+        <v>285735</v>
       </c>
       <c r="J22" t="n">
-        <v>202574</v>
+        <v>203690</v>
       </c>
       <c r="K22" t="n">
         <v>20355</v>
@@ -1503,22 +1503,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>音乐(主分区)</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[{'aid': '396376943', 'bvid': 'BV1Zo4y1W7dS', 'typename': '音乐现场', 'title': '国风才是真顶流！那英马嘉祺神级翻唱《兰亭序》｜声生不息宝岛季', 'subtitle': '', 'play': 842326, 'review': 107395, 'video_review': 153723, 'favorites': 43476, 'mid': 237792333, 'author': '马嘉祺放映馆', 'description': '声生不息·宝岛季第二期舞台\n《兰亭序》-那英x马嘉祺\n原唱：周杰伦\n封面感谢：@Magical_PeachValley', 'create': '2023-03-23 19:48', 'pic': 'http://i2.hdslb.com/bfs/archive/0aa0b062f4ea58db2c6050c572a018da37035339.jpg', 'coins': 51813, 'duration': '3:47', 'badgepay': False, 'pts': 4579631, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569026454', 'bvid': 'BV1mv4y157NA', 'typename': '音乐现场', 'title': '当我们在校园合唱节中唱你被骗了……', 'subtitle': '', 'play': 1376555, 'review': 1798, 'video_review': 994, 'favorites': 22728, 'mid': 1677821154, 'author': '阳光帅气的龙卷风', 'description': '宇宙最强诈骗团伙闪亮登场！\n（背景视频来源：根号六十四）', 'create': '2023-03-24 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b41b177a3d31482935409a4c600c749cecd6e08b.jpg', 'coins': 12978, 'duration': '4:00', 'badgepay': False, 'pts': 2455162, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483891599', 'bvid': 'BV17T411r7Dz', 'typename': '音乐现场', 'title': '华晨宇X魏如萱X坏特《舞娘》声生不息·宝岛季', 'subtitle': '', 'play': 550886, 'review': 18995, 'video_review': 19289, 'favorites': 24088, 'mid': 477569206, 'author': '华晨宇工作室', 'description': '任野火苏醒，燃透所谓神秘，看华晨宇、魏如萱、坏特舞台合作曲《舞娘》已上线～', 'create': '2023-03-23 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/8f4254be279e70ea249f5e0a599f055a19ea6429.jpg', 'coins': 46906, 'duration': '6:33', 'badgepay': False, 'pts': 2260825, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396403372', 'bvid': 'BV1To4y1s7fc', 'typename': '音乐现场', 'title': '【4K60FPS】张学友《李香兰》经典神级现场！好歌如酒如痴如醉', 'subtitle': '', 'play': 927565, 'review': 1533, 'video_review': 2269, 'favorites': 16911, 'mid': 229733301, 'author': '音乐私藏馆', 'description': '官方现场\n我最近看了歌神张学友很多早期的现场，也准备了一些早期视频\n上一期的视频里，我看到了很多小伙伴在说《李香兰》的现场\n我其实找了几个版本，最后还是选用了音乐之旅的这个版本\n这首歌曾经出现在星爷周星驰的电影里，确实让人过目不忘\n原曲是来自玉置浩二，这位大神也是有很多人推荐给我\n祝大家生活愉快', 'create': '2023-03-22 18:31', 'pic': 'http://i1.hdslb.com/bfs/archive/55aba66098cae64a3017e70f403a41047e92379f.jpg', 'coins': 12992, 'duration': '7:43', 'badgepay': False, 'pts': 1833274, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653897366', 'bvid': 'BV1SY4y1D7Jo', 'typename': '音乐现场', 'title': '"如果你错过了这个Escape MV 真的会很可惜"', 'subtitle': '', 'play': 496699, 'review': 760, 'video_review': 311, 'favorites': 38138, 'mid': 54031317, 'author': '赵短尾矮袋鼠面', 'description': '我想说，如果你错过了，可能就真的很可惜，一定要看到最后啊', 'create': '2023-03-23 04:00', 'pic': 'http://i1.hdslb.com/bfs/archive/015fc50ca91cad4b6498e215ac6292c5c110581e.jpg', 'coins': 8602, 'duration': '3:28', 'badgepay': False, 'pts': 1787397, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353987329', 'bvid': 'BV16X4y1d7Wr', 'typename': '音乐现场', 'title': '唉？看到这段的时候怎么不由自主的颠起腿来了？', 'subtitle': '', 'play': 587815, 'review': 423, 'video_review': 266, 'favorites': 12229, 'mid': 483940995, 'author': '四川共青团', 'description': '', 'create': '2023-03-22 20:02', 'pic': 'http://i2.hdslb.com/bfs/archive/3e36413d8d352861d0cf4f4e8dacc1f81ba595ca.jpg', 'coins': 2701, 'duration': '0:56', 'badgepay': False, 'pts': 1272045, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866301063', 'bvid': 'BV1uV4y1R7m9', 'typename': '音乐现场', 'title': '快看我发现了什么神仙Remix现场！XG《Shooting Star》 (Unreleased Dabin Remix) Armory 2023 神仙前奏！', 'subtitle': '', 'play': 153447, 'review': 625, 'video_review': 276, 'favorites': 17465, 'mid': 29052570, 'author': 'raviiii', 'description': '油管\n【侵删】', 'create': '2023-03-20 20:24', 'pic': 'http://i1.hdslb.com/bfs/archive/27cbb938400160f63331094541145baf28290d4e.jpg', 'coins': 2803, 'duration': '3:09', 'badgepay': False, 'pts': 706711, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441332627', 'bvid': 'BV1CL411r7Eb', 'typename': '音乐现场', 'title': 'NMIXX最新回归曲Love Me Like This+Young,Dumb,Stupid+Just Did It+Password首舞台', 'subtitle': '', 'play': 301387, 'review': 1885, 'video_review': 2012, 'favorites': 5835, 'mid': 16720403, 'author': 'pcyxjy', 'description': 'yt', 'create': '2023-03-20 21:33', 'pic': 'http://i2.hdslb.com/bfs/archive/0ff5419d1264dfef12fabcc693727ba1c6d4d2f7.jpg', 'coins': 1843, 'duration': '19:39', 'badgepay': False, 'pts': 683714, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823982446', 'bvid': 'BV1hg4y1W798', 'typename': '音乐现场', 'title': '陈卓璇《天窗》震撼改编首唱，那英激动高呼选对人了！ 【声生不息宝岛季】', 'subtitle': '', 'play': 209725, 'review': 1230, 'video_review': 2121, 'favorites': 3801, 'mid': 673739886, 'author': '陈卓璇的记忆储藏馆', 'description': '陈卓璇天窗首唱舞台', 'create': '2023-03-22 12:48', 'pic': 'http://i2.hdslb.com/bfs/archive/b66b221797d0dd1929e5920734d40a61180d3813.jpg', 'coins': 3634, 'duration': '3:56', 'badgepay': False, 'pts': 518467, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268848710', 'bvid': 'BV1Qc411j76U', 'typename': '音乐现场', 'title': '最浪漫的大学湖南大学！！！', 'subtitle': '', 'play': 231518, 'review': 839, 'video_review': 220, 'favorites': 2130, 'mid': 520632312, 'author': '菠萝啤配火锅', 'description': '主持人说还有三个月他就要毕业了 狠狠共情 最后那段话喊得我直接泪洒现场\n浪漫 开放 自由 包容\n这里是没有围墙的大学 这里是湖南大学\n在湖大的每一天我都感到无比幸福！', 'create': '2023-03-20 11:18', 'pic': 'http://i2.hdslb.com/bfs/archive/0454025842f138521a6d391565ab0f19a2195e20.jpg', 'coins': 1470, 'duration': '4:59', 'badgepay': False, 'pts': 472737, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '396376943', 'bvid': 'BV1Zo4y1W7dS', 'typename': '音乐现场', 'title': '国风才是真顶流！那英马嘉祺神级翻唱《兰亭序》｜声生不息宝岛季', 'subtitle': '', 'play': 878759, 'review': 107503, 'video_review': 153885, 'favorites': 43977, 'mid': 237792333, 'author': '马嘉祺放映馆', 'description': '声生不息·宝岛季第二期舞台\n《兰亭序》-那英x马嘉祺\n原唱：周杰伦\n封面感谢：@Magical_PeachValley', 'create': '2023-03-23 19:48', 'pic': 'http://i2.hdslb.com/bfs/archive/0aa0b062f4ea58db2c6050c572a018da37035339.jpg', 'coins': 52222, 'duration': '3:47', 'badgepay': False, 'pts': 4635058, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569026454', 'bvid': 'BV1mv4y157NA', 'typename': '音乐现场', 'title': '当我们在校园合唱节中唱你被骗了……', 'subtitle': '', 'play': 1457465, 'review': 1874, 'video_review': 1161, 'favorites': 23889, 'mid': 1677821154, 'author': '阳光帅气的龙卷风', 'description': '宇宙最强诈骗团伙闪亮登场！\n（背景视频来源：根号六十四）', 'create': '2023-03-24 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b41b177a3d31482935409a4c600c749cecd6e08b.jpg', 'coins': 13984, 'duration': '4:00', 'badgepay': False, 'pts': 2552727, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483891599', 'bvid': 'BV17T411r7Dz', 'typename': '音乐现场', 'title': '华晨宇X魏如萱X坏特《舞娘》声生不息·宝岛季', 'subtitle': '', 'play': 566265, 'review': 19184, 'video_review': 19440, 'favorites': 24425, 'mid': 477569206, 'author': '华晨宇工作室', 'description': '任野火苏醒，燃透所谓神秘，看华晨宇、魏如萱、坏特舞台合作曲《舞娘》已上线～', 'create': '2023-03-23 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/8f4254be279e70ea249f5e0a599f055a19ea6429.jpg', 'coins': 47447, 'duration': '6:33', 'badgepay': False, 'pts': 2298185, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396403372', 'bvid': 'BV1To4y1s7fc', 'typename': '音乐现场', 'title': '【4K60FPS】张学友《李香兰》经典神级现场！好歌如酒如痴如醉', 'subtitle': '', 'play': 936154, 'review': 1545, 'video_review': 2279, 'favorites': 17039, 'mid': 229733301, 'author': '音乐私藏馆', 'description': '官方现场\n我最近看了歌神张学友很多早期的现场，也准备了一些早期视频\n上一期的视频里，我看到了很多小伙伴在说《李香兰》的现场\n我其实找了几个版本，最后还是选用了音乐之旅的这个版本\n这首歌曾经出现在星爷周星驰的电影里，确实让人过目不忘\n原曲是来自玉置浩二，这位大神也是有很多人推荐给我\n祝大家生活愉快', 'create': '2023-03-22 18:31', 'pic': 'http://i1.hdslb.com/bfs/archive/55aba66098cae64a3017e70f403a41047e92379f.jpg', 'coins': 13075, 'duration': '7:43', 'badgepay': False, 'pts': 1846096, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653897366', 'bvid': 'BV1SY4y1D7Jo', 'typename': '音乐现场', 'title': '"如果你错过了这个Escape MV 真的会很可惜"', 'subtitle': '', 'play': 507219, 'review': 769, 'video_review': 316, 'favorites': 38789, 'mid': 54031317, 'author': '赵短尾矮袋鼠面', 'description': '我想说，如果你错过了，可能就真的很可惜，一定要看到最后啊', 'create': '2023-03-23 04:00', 'pic': 'http://i1.hdslb.com/bfs/archive/015fc50ca91cad4b6498e215ac6292c5c110581e.jpg', 'coins': 8822, 'duration': '3:28', 'badgepay': False, 'pts': 1820246, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353987329', 'bvid': 'BV16X4y1d7Wr', 'typename': '音乐现场', 'title': '唉？看到这段的时候怎么不由自主的颠起腿来了？', 'subtitle': '', 'play': 588978, 'review': 423, 'video_review': 266, 'favorites': 12265, 'mid': 483940995, 'author': '四川共青团', 'description': '', 'create': '2023-03-22 20:02', 'pic': 'http://i2.hdslb.com/bfs/archive/3e36413d8d352861d0cf4f4e8dacc1f81ba595ca.jpg', 'coins': 2712, 'duration': '0:56', 'badgepay': False, 'pts': 1274600, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866301063', 'bvid': 'BV1uV4y1R7m9', 'typename': '音乐现场', 'title': '快看我发现了什么神仙Remix现场！XG《Shooting Star》 (Unreleased Dabin Remix) Armory 2023 神仙前奏！', 'subtitle': '', 'play': 155210, 'review': 629, 'video_review': 278, 'favorites': 17576, 'mid': 29052570, 'author': 'raviiii', 'description': '油管\n【侵删】', 'create': '2023-03-20 20:24', 'pic': 'http://i1.hdslb.com/bfs/archive/27cbb938400160f63331094541145baf28290d4e.jpg', 'coins': 2826, 'duration': '3:09', 'badgepay': False, 'pts': 712782, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441332627', 'bvid': 'BV1CL411r7Eb', 'typename': '音乐现场', 'title': 'NMIXX最新回归曲Love Me Like This+Young,Dumb,Stupid+Just Did It+Password首舞台', 'subtitle': '', 'play': 301801, 'review': 1886, 'video_review': 2019, 'favorites': 5849, 'mid': 16720403, 'author': 'pcyxjy', 'description': 'yt', 'create': '2023-03-20 21:33', 'pic': 'http://i2.hdslb.com/bfs/archive/0ff5419d1264dfef12fabcc693727ba1c6d4d2f7.jpg', 'coins': 1847, 'duration': '19:39', 'badgepay': False, 'pts': 684674, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823982446', 'bvid': 'BV1hg4y1W798', 'typename': '音乐现场', 'title': '陈卓璇《天窗》震撼改编首唱，那英激动高呼选对人了！ 【声生不息宝岛季】', 'subtitle': '', 'play': 211756, 'review': 1232, 'video_review': 2121, 'favorites': 3819, 'mid': 673739886, 'author': '陈卓璇的记忆储藏馆', 'description': '陈卓璇天窗首唱舞台', 'create': '2023-03-22 12:48', 'pic': 'http://i2.hdslb.com/bfs/archive/b66b221797d0dd1929e5920734d40a61180d3813.jpg', 'coins': 3642, 'duration': '3:56', 'badgepay': False, 'pts': 522233, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526505520', 'bvid': 'BV11M411u793', 'typename': '音乐现场', 'title': '张杰的演唱会现场求婚，我承认我羡慕了', 'subtitle': '', 'play': 236751, 'review': 656, 'video_review': 201, 'favorites': 2949, 'mid': 701823360, 'author': '是海星喂', 'description': '-', 'create': '2023-03-26 00:54', 'pic': 'http://i1.hdslb.com/bfs/archive/22f45cb70aa008c08581902fd9f9f308d27ef5ce.jpg', 'coins': 2190, 'duration': '1:28', 'badgepay': False, 'pts': 518013, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5677923</v>
+        <v>5840358</v>
       </c>
       <c r="I23" t="n">
-        <v>145742</v>
+        <v>148767</v>
       </c>
       <c r="J23" t="n">
-        <v>186801</v>
+        <v>190577</v>
       </c>
       <c r="K23" t="n">
         <v>34108</v>
@@ -1550,22 +1550,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>音乐(主分区)</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[{'aid': '993956376', 'bvid': 'BV1px4y1A7WV', 'typename': '音乐综合', 'title': '【动画MV/米山舞/中日歌词】音乐动画短片「COLORs」by泽野弘之&amp;秦基博【MCE汉化组】', 'subtitle': '', 'play': 388142, 'review': 942, 'video_review': 552, 'favorites': 33103, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\n东宝音乐MV短片十周年企划 第五部作品\n导演：荒木哲郎（《甲铁城的卡巴内利》《泡泡》导演）\n音乐家：泽野弘之、秦基博\n曲目：《COLORs》\n【第一部：av568814454】\n【第二部：av268811189】\n【第三部：av866275117】\n【第四部：av993972356】\n感谢@Tenha天羽  辛苦制作封面图！感谢@Aki惊蛰 大大辛苦翻译歌词！ \nps：3/24 20:05 更换了封面', 'create': '2023-03-24 17:46', 'pic': 'http://i1.hdslb.com/bfs/archive/b61a32b764a1746accb5f9cf1cdac967b6caf7df.jpg', 'coins': 7417, 'duration': '3:22', 'badgepay': False, 'pts': 1506266, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696533406', 'bvid': 'BV1Em4y167BA', 'typename': '音乐综合', 'title': '【杰克奥特曼｜再见了，乡秀树】百万级录音棚听《帰ってきたウルトラマン》杰克奥特曼主题曲【Hi-Res】', 'subtitle': '', 'play': 485549, 'review': 1578, 'video_review': 1298, 'favorites': 15989, 'mid': 3493082817366845, 'author': 'JLRS-jayfm', 'description': '再见了，乡秀树。\n谨以此纪念杰克奥特曼饰演者団時朗。\n《杰克奥特曼》主题曲\n歌手：団時朗 (だん じろう)、みすず児童合唱団\n作词 : 東 京一\n作曲 : すぎやま こういち\n\n音响：真力1234\n录音MIC：纽曼149 2支\n录音设备：SSL Duality Delta Pro Station + Protools\n侵删', 'create': '2023-03-24 15:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6f2034bbeec916c88b77640a5df7d80956cd098e.jpg', 'coins': 17185, 'duration': '3:01', 'badgepay': False, 'pts': 1290783, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438785411', 'bvid': 'BV1HL411d77C', 'typename': '音乐综合', 'title': '用来“自救”的造型，没想到却成了经典', 'subtitle': '', 'play': 431168, 'review': 1443, 'video_review': 672, 'favorites': 16320, 'mid': 3461565653191303, 'author': '茶马char', 'description': '非常伟大的造型，剪辑时每一帧都美到我抓狂', 'create': '2023-03-21 12:29', 'pic': 'http://i1.hdslb.com/bfs/archive/b1896fe763ccd329e92fbb57eb36a93348ff4841.jpg', 'coins': 5628, 'duration': '1:23', 'badgepay': False, 'pts': 1187718, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483983659', 'bvid': 'BV1KT411z7zb', 'typename': '音乐综合', 'title': '【完整版】夜に駆ける', 'subtitle': '', 'play': 218300, 'review': 2584, 'video_review': 943, 'favorites': 13704, 'mid': 6466707, 'author': '为了修改词条', 'description': '自购', 'create': '2023-03-22 23:25', 'pic': 'http://i1.hdslb.com/bfs/archive/81e0de34b0e3d93d9f0473e30a8f1b5a96391f40.jpg', 'coins': 3399, 'duration': '4:21', 'badgepay': False, 'pts': 771363, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738983977', 'bvid': 'BV11k4y1x7M4', 'typename': '音乐综合', 'title': '借鉴还是抄袭？这些火遍全球的“热歌”，竟都不是原创？', 'subtitle': '', 'play': 819186, 'review': 81, 'video_review': 242, 'favorites': 34630, 'mid': 343042298, 'author': 'Music郑在看', 'description': '你能相信吗？像《waka waka》（哇卡哇卡）这种火遍全球的大热单曲，竟然都不是原创', 'create': '2023-03-23 15:20', 'pic': 'http://i1.hdslb.com/bfs/archive/6f381d61c59a58a51e1567a3cee592f46a057357.jpg', 'coins': 1504, 'duration': '3:07', 'badgepay': False, 'pts': 662471, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396594002', 'bvid': 'BV1No4y1x74f', 'typename': '音乐综合', 'title': '转发这个视频来恶心你身边喜欢植物大战僵尸的朋友', 'subtitle': '', 'play': 282692, 'review': 617, 'video_review': 390, 'favorites': 2826, 'mid': 2138944338, 'author': '验_证_消_息', 'description': '本来想换个封面，但是被申鹤制裁了', 'create': '2023-03-25 12:11', 'pic': 'http://i0.hdslb.com/bfs/archive/372abe9ebb788a370ed18d978f3201fea326d15f.jpg', 'coins': 442, 'duration': '3:47', 'badgepay': False, 'pts': 576834, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993872742', 'bvid': 'BV11x4y1w7YV', 'typename': '音乐综合', 'title': '【摩擦耳珠】感受到耳珠被摩擦了嘛？极致舒服的摩擦耳珠', 'subtitle': '', 'play': 181765, 'review': 252, 'video_review': 321, 'favorites': 9853, 'mid': 51293642, 'author': '不免疫的杨杨', 'description': '主页有更多你想要的声音，欢迎翻阅~', 'create': '2023-03-21 22:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5c8d0a24a15dd170a64c3dc2091135f7dd37ab4e.png', 'coins': 1644, 'duration': '10:12', 'badgepay': False, 'pts': 568253, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653919580', 'bvid': 'BV1ZY4y1D73e', 'typename': '音乐综合', 'title': "BABYMONSTER - 'Last Evaluation' EP.3", 'subtitle': '', 'play': 255213, 'review': 1593, 'video_review': 5554, 'favorites': 1941, 'mid': 3493127232948989, 'author': 'BABYMONSTER_YG', 'description': '', 'create': '2023-03-23 23:00', 'pic': 'http://i2.hdslb.com/bfs/archive/400055d43feb45381df609bca57197ee940e04b8.jpg', 'coins': 865, 'duration': '18:56', 'badgepay': False, 'pts': 541667, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353897189', 'bvid': 'BV1pX4y1d7V9', 'typename': '音乐综合', 'title': '整活Drill！杀手耗 你滴寒王《命护辽宁》"行走江湖劝你少点套路"', 'subtitle': '', 'play': 318028, 'review': 1267, 'video_review': 767, 'favorites': 1425, 'mid': 226178777, 'author': '街头社区', 'description': 'weibo\n关注公众号  街头HIPHOP', 'create': '2023-03-23 20:18', 'pic': 'http://i2.hdslb.com/bfs/archive/1e8e7f2c14f3316a38ca4b251e34c9235c6c5449.jpg', 'coins': 1073, 'duration': '2:29', 'badgepay': False, 'pts': 535796, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823788244', 'bvid': 'BV1Wg4y1x79i', 'typename': '音乐综合', 'title': '在无人问津时一曲封神 玻璃厚嗓+魔女怪诞曲风等于绝杀——"请与我酣饮这甜蜜"', 'subtitle': '', 'play': 194920, 'review': 289, 'video_review': 161, 'favorites': 3974, 'mid': 266676044, 'author': '看姐帅死你', 'description': 'https://fn.music.163.com/g/mlog/mlog-mobile/landing/mlog?id=a1OD8Gq5CjY9PG&amp;type=2&amp;userid=496482825&amp;songId=null&amp;startTime=null', 'create': '2023-03-20 09:55', 'pic': 'http://i0.hdslb.com/bfs/archive/5e29ae76e9c2ffefa055cc16ca5ca5c62d86416c.jpg', 'coins': 219, 'duration': '3:35', 'badgepay': False, 'pts': 424296, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '993956376', 'bvid': 'BV1px4y1A7WV', 'typename': '音乐综合', 'title': '【动画MV/米山舞/中日歌词】音乐动画短片「COLORs」by泽野弘之&amp;秦基博【MCE汉化组】', 'subtitle': '', 'play': 395524, 'review': 956, 'video_review': 561, 'favorites': 33633, 'mid': 224267770, 'author': '夏日幻听MCE', 'description': '官方\n东宝音乐MV短片十周年企划 第五部作品\n导演：荒木哲郎（《甲铁城的卡巴内利》《泡泡》导演）\n音乐家：泽野弘之、秦基博\n曲目：《COLORs》\n【第一部：av568814454】\n【第二部：av268811189】\n【第三部：av866275117】\n【第四部：av993972356】\n感谢@Tenha天羽  辛苦制作封面图！感谢@Aki惊蛰 大大辛苦翻译歌词！ \nps：3/24 20:05 更换了封面', 'create': '2023-03-24 17:46', 'pic': 'http://i1.hdslb.com/bfs/archive/b61a32b764a1746accb5f9cf1cdac967b6caf7df.jpg', 'coins': 7550, 'duration': '3:22', 'badgepay': False, 'pts': 1530820, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696533406', 'bvid': 'BV1Em4y167BA', 'typename': '音乐综合', 'title': '【杰克奥特曼｜再见了，乡秀树】百万级录音棚听《帰ってきたウルトラマン》杰克奥特曼主题曲【Hi-Res】', 'subtitle': '', 'play': 493485, 'review': 1602, 'video_review': 1330, 'favorites': 16226, 'mid': 3493082817366845, 'author': 'JLRS-jayfm', 'description': '再见了，乡秀树。\n谨以此纪念杰克奥特曼饰演者団時朗。\n《杰克奥特曼》主题曲\n歌手：団時朗 (だん じろう)、みすず児童合唱団\n作词 : 東 京一\n作曲 : すぎやま こういち\n\n音响：真力1234\n录音MIC：纽曼149 2支\n录音设备：SSL Duality Delta Pro Station + Protools\n侵删', 'create': '2023-03-24 15:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6f2034bbeec916c88b77640a5df7d80956cd098e.jpg', 'coins': 17487, 'duration': '3:01', 'badgepay': False, 'pts': 1309604, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438785411', 'bvid': 'BV1HL411d77C', 'typename': '音乐综合', 'title': '用来“自救”的造型，没想到却成了经典', 'subtitle': '', 'play': 434087, 'review': 1451, 'video_review': 674, 'favorites': 16424, 'mid': 3461565653191303, 'author': '茶马char', 'description': '非常伟大的造型，剪辑时每一帧都美到我抓狂', 'create': '2023-03-21 12:29', 'pic': 'http://i1.hdslb.com/bfs/archive/b1896fe763ccd329e92fbb57eb36a93348ff4841.jpg', 'coins': 5653, 'duration': '1:23', 'badgepay': False, 'pts': 1195265, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483983659', 'bvid': 'BV1KT411z7zb', 'typename': '音乐综合', 'title': '【完整版】夜に駆ける', 'subtitle': '', 'play': 220284, 'review': 2619, 'video_review': 943, 'favorites': 13743, 'mid': 6466707, 'author': '为了修改词条', 'description': '自购', 'create': '2023-03-22 23:25', 'pic': 'http://i1.hdslb.com/bfs/archive/81e0de34b0e3d93d9f0473e30a8f1b5a96391f40.jpg', 'coins': 3404, 'duration': '4:21', 'badgepay': False, 'pts': 777247, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738983977', 'bvid': 'BV11k4y1x7M4', 'typename': '音乐综合', 'title': '借鉴还是抄袭？这些火遍全球的“热歌”，竟都不是原创？', 'subtitle': '', 'play': 837022, 'review': 91, 'video_review': 261, 'favorites': 35362, 'mid': 343042298, 'author': 'Music郑在看', 'description': '你能相信吗？像《waka waka》（哇卡哇卡）这种火遍全球的大热单曲，竟然都不是原创', 'create': '2023-03-23 15:20', 'pic': 'http://i1.hdslb.com/bfs/archive/6f381d61c59a58a51e1567a3cee592f46a057357.jpg', 'coins': 1553, 'duration': '3:07', 'badgepay': False, 'pts': 692842, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396594002', 'bvid': 'BV1No4y1x74f', 'typename': '音乐综合', 'title': '转发这个视频来恶心你身边喜欢植物大战僵尸的朋友', 'subtitle': '', 'play': 317737, 'review': 667, 'video_review': 417, 'favorites': 3119, 'mid': 2138944338, 'author': '验_证_消_息', 'description': '本来想换个封面，但是被申鹤制裁了', 'create': '2023-03-25 12:11', 'pic': 'http://i0.hdslb.com/bfs/archive/372abe9ebb788a370ed18d978f3201fea326d15f.jpg', 'coins': 503, 'duration': '3:47', 'badgepay': False, 'pts': 632497, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993872742', 'bvid': 'BV11x4y1w7YV', 'typename': '音乐综合', 'title': '【摩擦耳珠】感受到耳珠被摩擦了嘛？极致舒服的摩擦耳珠', 'subtitle': '', 'play': 188485, 'review': 256, 'video_review': 321, 'favorites': 10058, 'mid': 51293642, 'author': '不免疫的杨杨', 'description': '主页有更多你想要的声音，欢迎翻阅~', 'create': '2023-03-21 22:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5c8d0a24a15dd170a64c3dc2091135f7dd37ab4e.png', 'coins': 1680, 'duration': '10:12', 'badgepay': False, 'pts': 587903, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653919580', 'bvid': 'BV1ZY4y1D73e', 'typename': '音乐综合', 'title': "BABYMONSTER - 'Last Evaluation' EP.3", 'subtitle': '', 'play': 258926, 'review': 1602, 'video_review': 5565, 'favorites': 1960, 'mid': 3493127232948989, 'author': 'BABYMONSTER_YG', 'description': '', 'create': '2023-03-23 23:00', 'pic': 'http://i2.hdslb.com/bfs/archive/400055d43feb45381df609bca57197ee940e04b8.jpg', 'coins': 869, 'duration': '18:56', 'badgepay': False, 'pts': 546522, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353897189', 'bvid': 'BV1pX4y1d7V9', 'typename': '音乐综合', 'title': '整活Drill！杀手耗 你滴寒王《命护辽宁》"行走江湖劝你少点套路"', 'subtitle': '', 'play': 321579, 'review': 1268, 'video_review': 772, 'favorites': 1443, 'mid': 226178777, 'author': '街头社区', 'description': 'weibo\n关注公众号  街头HIPHOP', 'create': '2023-03-23 20:18', 'pic': 'http://i2.hdslb.com/bfs/archive/1e8e7f2c14f3316a38ca4b251e34c9235c6c5449.jpg', 'coins': 1078, 'duration': '2:29', 'badgepay': False, 'pts': 540688, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483816199', 'bvid': 'BV12T41167FF', 'typename': '音乐综合', 'title': '“而 我想我属于一个拥有你的未来”哎呦，还不错', 'subtitle': '', 'play': 217285, 'review': 174, 'video_review': 101, 'favorites': 2340, 'mid': 509716456, 'author': '周董FM官方音樂电台', 'description': '', 'create': '2023-03-20 17:15', 'pic': 'http://i0.hdslb.com/bfs/archive/6158a6aca322ed1dd0fa5489ebea63045561a496.jpg', 'coins': 1037, 'duration': '5:07', 'badgepay': False, 'pts': 420577, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3574963</v>
+        <v>3684414</v>
       </c>
       <c r="I24" t="n">
-        <v>39376</v>
+        <v>40814</v>
       </c>
       <c r="J24" t="n">
-        <v>133765</v>
+        <v>134308</v>
       </c>
       <c r="K24" t="n">
         <v>53476</v>
@@ -1597,22 +1597,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>音乐(主分区)</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[{'aid': '739018514', 'bvid': 'BV1Rk4y1x7m7', 'typename': '乐评盘点', 'title': '一万首歌里选出前10，图一乐音乐大赛获奖作品公布！', 'subtitle': '', 'play': 405007, 'review': 1975, 'video_review': 3557, 'favorites': 11767, 'mid': 125526, 'author': '-LKs-', 'description': '历时三个月，经过无数人的支持与帮助，图一乐原创音乐大赛从一个天马行空的想法变成了现实。今天非常荣幸地和大家分享最终的10首获奖作品名单，这10首歌代表了社区的巨大创造力，也证明了独立音乐人有不逊于主流乐坛的音乐品质。希望大家多多关注他们以及所有参赛作品，我们下届再见~', 'create': '2023-03-24 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/78032bfe62277d957c66b8e67367644bac9a0d2e.jpg', 'coins': 35456, 'duration': '13:54', 'badgepay': False, 'pts': 1015274, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311358951', 'bvid': 'BV1pP411o7dj', 'typename': '乐评盘点', 'title': '盘点国产宝藏钢琴神曲，差点以为是外国人创作', 'subtitle': '', 'play': 219037, 'review': 207, 'video_review': 349, 'favorites': 22763, 'mid': 519951325, 'author': '全球音乐榜单', 'description': '盘点国产宝藏钢琴神曲，差点以为是外国人创作', 'create': '2023-03-21 17:09', 'pic': 'http://i0.hdslb.com/bfs/archive/5c10ef843cf9d21aca30967ae68a025e5eb067a6.jpg', 'coins': 2565, 'duration': '2:01', 'badgepay': False, 'pts': 901233, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441532428', 'bvid': 'BV1BL411D7i8', 'typename': '乐评盘点', 'title': '路哥锐评《乌梅子酱》，究竟是抄袭《浪漫手机》还是跟风短视频？让我们走进荣浩~', 'subtitle': '', 'play': 296465, 'review': 787, 'video_review': 1717, 'favorites': 1801, 'mid': 518371718, 'author': '路哥会写歌', 'description': '', 'create': '2023-03-25 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/3297868d9edaf66d1039f4a95b31052e2f907cff.jpg', 'coins': 3842, 'duration': '20:38', 'badgepay': False, 'pts': 608053, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226621490', 'bvid': 'BV1Qh411G7r7', 'typename': '乐评盘点', 'title': '汪峰用心评价赵雷《我记得》', 'subtitle': '', 'play': 347902, 'review': 794, 'video_review': 699, 'favorites': 1160, 'mid': 393195152, 'author': '汪峰', 'description': '', 'create': '2023-03-24 16:44', 'pic': 'http://i2.hdslb.com/bfs/archive/89b80f480c33b15164447892670c36d95d39dd81.jpg', 'coins': 2733, 'duration': '7:00', 'badgepay': False, 'pts': 594404, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353972611', 'bvid': 'BV12X4y1d7Rw', 'typename': '乐评盘点', 'title': '上世纪那些首首炸裂的 R&amp;B 金曲 | 当代 R&amp;B 简史', 'subtitle': '', 'play': 155499, 'review': 756, 'video_review': 4458, 'favorites': 9483, 'mid': 2031078527, 'author': '凌世昊', 'description': "提及：Whitney Houston、惠特尼休斯顿、牛姐、Janet Jackson、Aretha Franklin、Babyface、Toni Braxton、Jennifer Lopez、Madonna、麦当娜、Brandy、Aaliyah、Monica、R. Kelly、Celine Dion、Usher、Boyz II Men、TLC、Destiny's Child、碧昂斯、Sade、MISIA、安室奈美惠、H.O.T.、S.E.S. 、杜德伟、林忆莲、王力宏、李玟、顺子", 'create': '2023-03-23 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d9bb72bd3de11ec04a906e63b7fe1f332b806a22.jpg', 'coins': 13251, 'duration': '60:30', 'badgepay': False, 'pts': 568280, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738837438', 'bvid': 'BV1hk4y1t7iW', 'typename': '乐评盘点', 'title': '原来是她，凭一己之力开启全球“音乐付费”，一开口气场两米八', 'subtitle': '', 'play': 292513, 'review': 452, 'video_review': 290, 'favorites': 4238, 'mid': 11173348, 'author': '下饭音乐', 'description': '你敢信，就是眼前这个女人，凭一己之力开启全球音乐付费时代，坐拥12座格莱美大奖不说~身高180的她，80多个前男友 还都是其 歌曲灵感来源', 'create': '2023-03-21 16:17', 'pic': 'http://i1.hdslb.com/bfs/archive/bc86356b85cdedce59474651b18f8d0be9b90205.jpg', 'coins': 435, 'duration': '3:07', 'badgepay': False, 'pts': 554973, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311535564', 'bvid': 'BV1hN411K7Ct', 'typename': '乐评盘点', 'title': '国产BGM的10座高峰！各个都是国宝级大师，堪称中国音乐的脊梁！', 'subtitle': '', 'play': 232938, 'review': 424, 'video_review': 1660, 'favorites': 4235, 'mid': 386719429, 'author': '小疼聊音乐', 'description': '国产BGM的10座高峰！各个都是国宝级大师，堪称中国音乐的脊梁！', 'create': '2023-03-25 16:15', 'pic': 'http://i0.hdslb.com/bfs/archive/0aac1385c581d3225f3c5a9d7034159a1a0d1b02.jpg', 'coins': 3388, 'duration': '10:33', 'badgepay': False, 'pts': 536648, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909020088', 'bvid': 'BV1KM4y1z7UH', 'typename': '乐评盘点', 'title': 'XG到底做对了什么?日本女团又行了丨HOPICO', 'subtitle': '', 'play': 225961, 'review': 1114, 'video_review': 1762, 'favorites': 2964, 'mid': 261485584, 'author': 'HOPICO', 'description': '颁奖途中水一期~\n听众俱乐部在wb：周杨HOPICO', 'create': '2023-03-24 17:30', 'pic': 'http://i2.hdslb.com/bfs/archive/e14909ff013a85cf4ed14d0935dfd2d96af022ae.jpg', 'coins': 4502, 'duration': '13:06', 'badgepay': False, 'pts': 524825, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738818458', 'bvid': 'BV1Wk4y1t7ya', 'typename': '乐评盘点', 'title': '一 起 来 听《 要 你 管 》', 'subtitle': '', 'play': 274828, 'review': 844, 'video_review': 1531, 'favorites': 804, 'mid': 259358419, 'author': '悠悠球琛总', 'description': '-', 'create': '2023-03-21 23:22', 'pic': 'http://i1.hdslb.com/bfs/archive/0b60c0d299c83414cc956ab4dfa1ed181c2db65b.jpg', 'coins': 1396, 'duration': '4:51', 'badgepay': False, 'pts': 464937, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696617748', 'bvid': 'BV19m4y167EJ', 'typename': '乐评盘点', 'title': '假如KPOP MV变成广告会怎样!?【全程高能/开幕雷击】', 'subtitle': '', 'play': 165856, 'review': 323, 'video_review': 318, 'favorites': 3753, 'mid': 59308927, 'author': '听笑话讲寂寞', 'description': '视频仅供娱乐 制作不易\n记得三连支持up!!!!', 'create': '2023-03-24 15:40', 'pic': 'http://i0.hdslb.com/bfs/archive/69c377b3afea5dd29aeacc2b88284b9347e9eed9.jpg', 'coins': 2455, 'duration': '2:23', 'badgepay': False, 'pts': 403637, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '739018514', 'bvid': 'BV1Rk4y1x7m7', 'typename': '乐评盘点', 'title': '一万首歌里选出前10，图一乐音乐大赛获奖作品公布！', 'subtitle': '', 'play': 416966, 'review': 1998, 'video_review': 3590, 'favorites': 11934, 'mid': 125526, 'author': '-LKs-', 'description': '历时三个月，经过无数人的支持与帮助，图一乐原创音乐大赛从一个天马行空的想法变成了现实。今天非常荣幸地和大家分享最终的10首获奖作品名单，这10首歌代表了社区的巨大创造力，也证明了独立音乐人有不逊于主流乐坛的音乐品质。希望大家多多关注他们以及所有参赛作品，我们下届再见~', 'create': '2023-03-24 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/78032bfe62277d957c66b8e67367644bac9a0d2e.jpg', 'coins': 36036, 'duration': '13:54', 'badgepay': False, 'pts': 1037530, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311358951', 'bvid': 'BV1pP411o7dj', 'typename': '乐评盘点', 'title': '盘点国产宝藏钢琴神曲，差点以为是外国人创作', 'subtitle': '', 'play': 220867, 'review': 207, 'video_review': 349, 'favorites': 22994, 'mid': 519951325, 'author': '全球音乐榜单', 'description': '盘点国产宝藏钢琴神曲，差点以为是外国人创作', 'create': '2023-03-21 17:09', 'pic': 'http://i0.hdslb.com/bfs/archive/5c10ef843cf9d21aca30967ae68a025e5eb067a6.jpg', 'coins': 2572, 'duration': '2:01', 'badgepay': False, 'pts': 907666, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311535564', 'bvid': 'BV1hN411K7Ct', 'typename': '乐评盘点', 'title': '国产BGM的10座高峰！各个都是国宝级大师，堪称中国音乐的脊梁！', 'subtitle': '', 'play': 326944, 'review': 574, 'video_review': 2260, 'favorites': 5800, 'mid': 386719429, 'author': '小疼聊音乐', 'description': '国产BGM的10座高峰！各个都是国宝级大师，堪称中国音乐的脊梁！', 'create': '2023-03-25 16:15', 'pic': 'http://i0.hdslb.com/bfs/archive/0aac1385c581d3225f3c5a9d7034159a1a0d1b02.jpg', 'coins': 4968, 'duration': '10:33', 'badgepay': False, 'pts': 743838, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441532428', 'bvid': 'BV1BL411D7i8', 'typename': '乐评盘点', 'title': '路哥锐评《乌梅子酱》，究竟是抄袭《浪漫手机》还是跟风短视频？让我们走进荣浩~', 'subtitle': '', 'play': 300925, 'review': 819, 'video_review': 1742, 'favorites': 1825, 'mid': 518371718, 'author': '路哥会写歌', 'description': '', 'create': '2023-03-25 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/3297868d9edaf66d1039f4a95b31052e2f907cff.jpg', 'coins': 3944, 'duration': '20:38', 'badgepay': False, 'pts': 618191, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226621490', 'bvid': 'BV1Qh411G7r7', 'typename': '乐评盘点', 'title': '汪峰用心评价赵雷《我记得》', 'subtitle': '', 'play': 355452, 'review': 810, 'video_review': 709, 'favorites': 1183, 'mid': 393195152, 'author': '汪峰', 'description': '', 'create': '2023-03-24 16:44', 'pic': 'http://i2.hdslb.com/bfs/archive/89b80f480c33b15164447892670c36d95d39dd81.jpg', 'coins': 2793, 'duration': '7:00', 'badgepay': False, 'pts': 604124, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353972611', 'bvid': 'BV12X4y1d7Rw', 'typename': '乐评盘点', 'title': '上世纪那些首首炸裂的 R&amp;B 金曲 | 当代 R&amp;B 简史', 'subtitle': '', 'play': 158108, 'review': 763, 'video_review': 4509, 'favorites': 9625, 'mid': 2031078527, 'author': '凌世昊', 'description': "提及：Whitney Houston、惠特尼休斯顿、牛姐、Janet Jackson、Aretha Franklin、Babyface、Toni Braxton、Jennifer Lopez、Madonna、麦当娜、Brandy、Aaliyah、Monica、R. Kelly、Celine Dion、Usher、Boyz II Men、TLC、Destiny's Child、碧昂斯、Sade、MISIA、安室奈美惠、H.O.T.、S.E.S. 、杜德伟、林忆莲、王力宏、李玟、顺子", 'create': '2023-03-23 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d9bb72bd3de11ec04a906e63b7fe1f332b806a22.jpg', 'coins': 13444, 'duration': '60:30', 'badgepay': False, 'pts': 577141, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738837438', 'bvid': 'BV1hk4y1t7iW', 'typename': '乐评盘点', 'title': '原来是她，凭一己之力开启全球“音乐付费”，一开口气场两米八', 'subtitle': '', 'play': 299634, 'review': 466, 'video_review': 297, 'favorites': 4320, 'mid': 11173348, 'author': '下饭音乐', 'description': '你敢信，就是眼前这个女人，凭一己之力开启全球音乐付费时代，坐拥12座格莱美大奖不说~身高180的她，80多个前男友 还都是其 歌曲灵感来源', 'create': '2023-03-21 16:17', 'pic': 'http://i1.hdslb.com/bfs/archive/bc86356b85cdedce59474651b18f8d0be9b90205.jpg', 'coins': 452, 'duration': '3:07', 'badgepay': False, 'pts': 567039, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909020088', 'bvid': 'BV1KM4y1z7UH', 'typename': '乐评盘点', 'title': 'XG到底做对了什么?日本女团又行了丨HOPICO', 'subtitle': '', 'play': 233412, 'review': 1133, 'video_review': 1780, 'favorites': 3008, 'mid': 261485584, 'author': 'HOPICO', 'description': '颁奖途中水一期~\n听众俱乐部在wb：周杨HOPICO', 'create': '2023-03-24 17:30', 'pic': 'http://i2.hdslb.com/bfs/archive/e14909ff013a85cf4ed14d0935dfd2d96af022ae.jpg', 'coins': 4564, 'duration': '13:06', 'badgepay': False, 'pts': 537991, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738818458', 'bvid': 'BV1Wk4y1t7ya', 'typename': '乐评盘点', 'title': '一 起 来 听《 要 你 管 》', 'subtitle': '', 'play': 277697, 'review': 848, 'video_review': 1536, 'favorites': 809, 'mid': 259358419, 'author': '悠悠球琛总', 'description': '-', 'create': '2023-03-21 23:22', 'pic': 'http://i1.hdslb.com/bfs/archive/0b60c0d299c83414cc956ab4dfa1ed181c2db65b.jpg', 'coins': 1400, 'duration': '4:51', 'badgepay': False, 'pts': 469011, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696617748', 'bvid': 'BV19m4y167EJ', 'typename': '乐评盘点', 'title': '假如KPOP MV变成广告会怎样!?【全程高能/开幕雷击】', 'subtitle': '', 'play': 171508, 'review': 330, 'video_review': 322, 'favorites': 3886, 'mid': 59308927, 'author': '听笑话讲寂寞', 'description': '视频仅供娱乐 制作不易\n记得三连支持up!!!!', 'create': '2023-03-24 15:40', 'pic': 'http://i0.hdslb.com/bfs/archive/69c377b3afea5dd29aeacc2b88284b9347e9eed9.jpg', 'coins': 2529, 'duration': '2:23', 'badgepay': False, 'pts': 416500, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2616006</v>
+        <v>2761513</v>
       </c>
       <c r="I25" t="n">
-        <v>70023</v>
+        <v>72702</v>
       </c>
       <c r="J25" t="n">
-        <v>62968</v>
+        <v>65384</v>
       </c>
       <c r="K25" t="n">
         <v>6245</v>
@@ -1644,22 +1644,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>音乐(主分区)</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[{'aid': '993977721', 'bvid': 'BV1Ex4y1A7nC', 'typename': '音乐教学', 'title': '没想到他们居然这么会唱？盘点娱乐圈那些跨界歌手，居然有她？', 'subtitle': '', 'play': 179406, 'review': 658, 'video_review': 2064, 'favorites': 707, 'mid': 540564177, 'author': 'Jason-老湿', 'description': '╔══════════════════╗\n╠学唱歌加微信：1057790803 ╣\n╚══════════════════╝', 'create': '2023-03-22 20:58', 'pic': 'http://i2.hdslb.com/bfs/archive/da219d1f2d7491e8f7a8c371aedc1f48d74dbccb.jpg', 'coins': 1476, 'duration': '13:11', 'badgepay': False, 'pts': 348736, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311155359', 'bvid': 'BV1cP411f76v', 'typename': '音乐教学', 'title': '男女搭配 教学不累！《珊瑚海》全网最完整细节教唱 不信你学不会！', 'subtitle': '', 'play': 85456, 'review': 294, 'video_review': 67, 'favorites': 1491, 'mid': 1482994322, 'author': '彭休休教唱歌', 'description': '本首技巧重点：强混 真假声转换 和声 \n系统学唱歌请加微信：zjyy181', 'create': '2023-03-20 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/2e62b97dd7c85a5b6ddf8c944188193e6ba821b6.jpg', 'coins': 2057, 'duration': '3:48', 'badgepay': False, 'pts': 177855, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824025660', 'bvid': 'BV1dg4y1W7CX', 'typename': '音乐教学', 'title': '【怎么才能像吃了力宏一样唱《Kiss goodbye》？- Ray叔分享】', 'subtitle': '', 'play': 80979, 'review': 208, 'video_review': 267, 'favorites': 374, 'mid': 293229600, 'author': 'Ray叔爱唱歌', 'description': '学废了没', 'create': '2023-03-24 18:03', 'pic': 'http://i1.hdslb.com/bfs/archive/0e5e54b7a2bfa0bbefd682a2be3c9f8c4361d645.jpg', 'coins': 818, 'duration': '4:11', 'badgepay': False, 'pts': 149042, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269063365', 'bvid': 'BV1tc411L7hh', 'typename': '音乐教学', 'title': '自动化和声生成算法', 'subtitle': '', 'play': 18935, 'review': 147, 'video_review': 147, 'favorites': 2548, 'mid': 24728563, 'author': '色彩和声-小田田', 'description': '本视频将会帮助大家从数学的角度研究和声，你将会看到一个囊括和声的张力、色彩性、功能性这三大属性的统一模型。up主将依次介绍该模型的使用方法，通过该模型计算和声进行新鲜感的流程(和声分析程序)，以及在指定新鲜感变化趋势的前提下自动生成相应和声进行的程序(和声生成程序)。\n希望能为大家的和声设计（甚至是作曲编曲）提供不一样的思路！', 'create': '2023-03-25 03:01', 'pic': 'http://i2.hdslb.com/bfs/archive/369927642ae1a259c3bfb884b2bc2080c813670b.jpg', 'coins': 903, 'duration': '23:19', 'badgepay': False, 'pts': 100507, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268853986', 'bvid': 'BV1dc411j7F7', 'typename': '音乐教学', 'title': '10种不同情绪的常用和弦进行', 'subtitle': '', 'play': 13356, 'review': 40, 'video_review': 22, 'favorites': 2725, 'mid': 475560300, 'author': 'JellyTheMonster', 'description': 'https://youtu.be/_yw85rAb6cw', 'create': '2023-03-20 19:06', 'pic': 'http://i0.hdslb.com/bfs/archive/4b10562f29e4a70b79c9e3fa327350f09205f436.jpg', 'coins': 253, 'duration': '13:19', 'badgepay': False, 'pts': 84035, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484093531', 'bvid': 'BV1BT411z74M', 'typename': '音乐教学', 'title': '张杰在声生不息开嗓练声，用伯克利开嗓法轻松开到Hight F!', 'subtitle': '', 'play': 44073, 'review': 275, 'video_review': 111, 'favorites': 355, 'mid': 3493138494654888, 'author': '来杯椰子汁哇', 'description': '张杰同款伯克利练声法评论区见', 'create': '2023-03-25 17:29', 'pic': 'http://i1.hdslb.com/bfs/archive/215c00552d2b83f59b3e0b596d46094e176f66b8.jpg', 'coins': 107, 'duration': '2:42', 'badgepay': False, 'pts': 83215, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268836934', 'bvid': 'BV1Fc41177y6', 'typename': '音乐教学', 'title': '拜托！别再用错误的方式速弹了，苏弹电吉他入门到高阶演奏超详细教学', 'subtitle': '', 'play': 14048, 'review': 38, 'video_review': 11, 'favorites': 2119, 'mid': 3493261576505677, 'author': '琵琶猫吉他教室', 'description': '【点赞评论解锁】\r\n【课程亮点】左右手基本手型，速度提升训练，速弹乐句讲解，全指板音阶，速弹曲目拆分讲解\r\n你还在因为弹不快苦恼吗?想要把吉他弹好没有捷径可走，只有从最基础的基本功开始练习，帮助提升手指机能，学习吉他演奏的逻辑思维。', 'create': '2023-03-21 20:10', 'pic': 'http://i2.hdslb.com/bfs/archive/dc8bbe99bb189ee29373f82542f7509f6af8af69.png', 'coins': 601, 'duration': '32:24', 'badgepay': False, 'pts': 77744, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526395783', 'bvid': 'BV1HM411u7JQ', 'typename': '音乐教学', 'title': '弗里吉亚调式：异域风情与暗黑叛逆，弗朗明哥与德彪西的增二度撩人因子', 'subtitle': '', 'play': 19712, 'review': 52, 'video_review': 31, 'favorites': 1265, 'mid': 401237301, 'author': '赫有声', 'description': '赫有声浅赏调式系列继续，本期介绍弗里吉亚调式。\n\nAds：\n赫有声《给每个人的音乐必修课》，提升音乐感知力和基础知识：https://www.cctalk.com/m/group/90559139?xh_fshareuid=158292965\n\n赫有声「音乐精读」课之《月光奏鸣曲：贝多芬的「范特西」》：https://www.cctalk.com/m/group/90444621?xh_fshareuid=158292965', 'create': '2023-03-22 18:51', 'pic': 'http://i0.hdslb.com/bfs/archive/d857518ca027d20ac9af168048d7b82341fcc34c.jpg', 'coins': 380, 'duration': '4:39', 'badgepay': False, 'pts': 68009, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268846998', 'bvid': 'BV1Xc411j7nu', 'typename': '音乐教学', 'title': '水别放钢琴上哦！', 'subtitle': '', 'play': 203361, 'review': 125, 'video_review': 53, 'favorites': 289, 'mid': 330024722, 'author': '思聪钢琴', 'description': '-', 'create': '2023-03-21 11:46', 'pic': 'http://i0.hdslb.com/bfs/archive/5114685c5d6e52070e96ff9a6f3cbf0105ced763.jpg', 'coins': 37, 'duration': '1:00', 'badgepay': False, 'pts': 65602, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268658811', 'bvid': 'BV1vc411E76v', 'typename': '音乐教学', 'title': '[音色设计教程]梦幻而有张力的锯齿波+方波合成器和弦音色', 'subtitle': '', 'play': 12128, 'review': 21, 'video_review': 4, 'favorites': 1904, 'mid': 291084566, 'author': 'AdvancedPopLab', 'description': '欢迎大家投币点赞支持一下~谢谢！\n\n也欢迎大家了解一下流行音色设计系统课程/音色素材taobao店铺：Advanced Pop Lab\n\n工作vx：stardustbeats777', 'create': '2023-03-20 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/cbf1c0e55af5340cc926b57135447874122d1918.jpg', 'coins': 142, 'duration': '1:39', 'badgepay': False, 'pts': 65098, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '993977721', 'bvid': 'BV1Ex4y1A7nC', 'typename': '音乐教学', 'title': '没想到他们居然这么会唱？盘点娱乐圈那些跨界歌手，居然有她？', 'subtitle': '', 'play': 181629, 'review': 670, 'video_review': 2094, 'favorites': 714, 'mid': 540564177, 'author': 'Jason-老湿', 'description': '╔══════════════════╗\n╠学唱歌加微信：1057790803 ╣\n╚══════════════════╝', 'create': '2023-03-22 20:58', 'pic': 'http://i2.hdslb.com/bfs/archive/da219d1f2d7491e8f7a8c371aedc1f48d74dbccb.jpg', 'coins': 1489, 'duration': '13:11', 'badgepay': False, 'pts': 353618, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311155359', 'bvid': 'BV1cP411f76v', 'typename': '音乐教学', 'title': '男女搭配 教学不累！《珊瑚海》全网最完整细节教唱 不信你学不会！', 'subtitle': '', 'play': 88101, 'review': 299, 'video_review': 67, 'favorites': 1563, 'mid': 1482994322, 'author': '彭休休教唱歌', 'description': '本首技巧重点：强混 真假声转换 和声 \n系统学唱歌请加微信：zjyy181', 'create': '2023-03-20 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/2e62b97dd7c85a5b6ddf8c944188193e6ba821b6.jpg', 'coins': 2108, 'duration': '3:48', 'badgepay': False, 'pts': 184347, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824025660', 'bvid': 'BV1dg4y1W7CX', 'typename': '音乐教学', 'title': '【怎么才能像吃了力宏一样唱《Kiss goodbye》？- Ray叔分享】', 'subtitle': '', 'play': 83495, 'review': 209, 'video_review': 276, 'favorites': 391, 'mid': 293229600, 'author': 'Ray叔爱唱歌', 'description': '学废了没', 'create': '2023-03-24 18:03', 'pic': 'http://i1.hdslb.com/bfs/archive/0e5e54b7a2bfa0bbefd682a2be3c9f8c4361d645.jpg', 'coins': 829, 'duration': '4:11', 'badgepay': False, 'pts': 153654, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269063365', 'bvid': 'BV1tc411L7hh', 'typename': '音乐教学', 'title': '自动化和声生成算法', 'subtitle': '', 'play': 20626, 'review': 151, 'video_review': 158, 'favorites': 2785, 'mid': 24728563, 'author': '色彩和声-小田田', 'description': '本视频将会帮助大家从数学的角度研究和声，你将会看到一个囊括和声的张力、色彩性、功能性这三大属性的统一模型。up主将依次介绍该模型的使用方法，通过该模型计算和声进行新鲜感的流程(和声分析程序)，以及在指定新鲜感变化趋势的前提下自动生成相应和声进行的程序(和声生成程序)。\n希望能为大家的和声设计（甚至是作曲编曲）提供不一样的思路！', 'create': '2023-03-25 03:01', 'pic': 'http://i2.hdslb.com/bfs/archive/369927642ae1a259c3bfb884b2bc2080c813670b.jpg', 'coins': 958, 'duration': '23:19', 'badgepay': False, 'pts': 109987, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484093531', 'bvid': 'BV1BT411z74M', 'typename': '音乐教学', 'title': '张杰在声生不息开嗓练声，用伯克利开嗓法轻松开到Hight F!', 'subtitle': '', 'play': 54379, 'review': 297, 'video_review': 113, 'favorites': 458, 'mid': 3493138494654888, 'author': '来杯椰子汁哇', 'description': '张杰同款伯克利练声法评论区见', 'create': '2023-03-25 17:29', 'pic': 'http://i1.hdslb.com/bfs/archive/215c00552d2b83f59b3e0b596d46094e176f66b8.jpg', 'coins': 129, 'duration': '2:42', 'badgepay': False, 'pts': 101798, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268846998', 'bvid': 'BV1Xc411j7nu', 'typename': '音乐教学', 'title': '水别放钢琴上哦！', 'subtitle': '', 'play': 242629, 'review': 194, 'video_review': 91, 'favorites': 447, 'mid': 330024722, 'author': '思聪钢琴', 'description': '-', 'create': '2023-03-21 11:46', 'pic': 'http://i0.hdslb.com/bfs/archive/5114685c5d6e52070e96ff9a6f3cbf0105ced763.jpg', 'coins': 47, 'duration': '1:00', 'badgepay': False, 'pts': 87708, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268853986', 'bvid': 'BV1dc411j7F7', 'typename': '音乐教学', 'title': '10种不同情绪的常用和弦进行', 'subtitle': '', 'play': 13581, 'review': 41, 'video_review': 22, 'favorites': 2770, 'mid': 475560300, 'author': 'JellyTheMonster', 'description': 'https://youtu.be/_yw85rAb6cw', 'create': '2023-03-20 19:06', 'pic': 'http://i0.hdslb.com/bfs/archive/4b10562f29e4a70b79c9e3fa327350f09205f436.jpg', 'coins': 256, 'duration': '13:19', 'badgepay': False, 'pts': 85448, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909101304', 'bvid': 'BV1HM4y1z7gt', 'typename': '音乐教学', 'title': '教你做个Talk Box，让吉他说话。自己动手立省1000块！', 'subtitle': '', 'play': 32897, 'review': 91, 'video_review': 149, 'favorites': 493, 'mid': 1773094, 'author': '圣屠', 'description': '', 'create': '2023-03-25 16:38', 'pic': 'http://i2.hdslb.com/bfs/archive/2b09f118e1ef84a44adb63b92d3b82cb5598eea2.jpg', 'coins': 423, 'duration': '3:10', 'badgepay': False, 'pts': 73785, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526395783', 'bvid': 'BV1HM411u7JQ', 'typename': '音乐教学', 'title': '弗里吉亚调式：异域风情与暗黑叛逆，弗朗明哥与德彪西的增二度撩人因子', 'subtitle': '', 'play': 20371, 'review': 54, 'video_review': 31, 'favorites': 1307, 'mid': 401237301, 'author': '赫有声', 'description': '赫有声浅赏调式系列继续，本期介绍弗里吉亚调式。\n\nAds：\n赫有声《给每个人的音乐必修课》，提升音乐感知力和基础知识：https://www.cctalk.com/m/group/90559139?xh_fshareuid=158292965\n\n赫有声「音乐精读」课之《月光奏鸣曲：贝多芬的「范特西」》：https://www.cctalk.com/m/group/90444621?xh_fshareuid=158292965', 'create': '2023-03-22 18:51', 'pic': 'http://i0.hdslb.com/bfs/archive/d857518ca027d20ac9af168048d7b82341fcc34c.jpg', 'coins': 398, 'duration': '4:39', 'badgepay': False, 'pts': 70158, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908775161', 'bvid': 'BV1HM4y167ts', 'typename': '音乐教学', 'title': '【大横评】3k到1w5的琴到底差多少？一口气开箱7把“Ibanez”AZ全系列电吉他对比测评ft.恒韵王巍（结尾JAM节奏爱）', 'subtitle': '', 'play': 24049, 'review': 154, 'video_review': 351, 'favorites': 569, 'mid': 65231077, 'author': '潘高峰_GaoFunk', 'description': '', 'create': '2023-03-21 20:00', 'pic': 'http://i0.hdslb.com/bfs/archive/4de8b1169b9e6fd15bee1d18fceb6c3912f857ca.jpg', 'coins': 1101, 'duration': '20:24', 'badgepay': False, 'pts': 61831, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>671454</v>
+        <v>761757</v>
       </c>
       <c r="I26" t="n">
-        <v>6774</v>
+        <v>7738</v>
       </c>
       <c r="J26" t="n">
-        <v>13777</v>
+        <v>11497</v>
       </c>
       <c r="K26" t="n">
         <v>6625</v>
@@ -1691,22 +1691,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>舞蹈(主分区)</t>
+          <t>舞蹈</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[{'aid': '568972295', 'bvid': 'BV1nv4y157J5', 'typename': '宅舞', 'title': '震惊！丘丘人在米哈游楼下跳舞，员工看了都。。。。。。', 'subtitle': '', 'play': 725585, 'review': 1541, 'video_review': 901, 'favorites': 12602, 'mid': 521444, 'author': '西四炸弹', 'description': '皮卡浩：Mosi mita！\n桃桃：gusha！\n西四：ya！！！\n梨烩：大家好，我是摄影。\n\nbgm：BV1yL411d74B', 'create': '2023-03-23 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/e9a533d9ad920177826df6f3fb3aa6b29c96b328.jpg', 'coins': 12400, 'duration': '0:50', 'badgepay': False, 'pts': 1524641, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738950809', 'bvid': 'BV1Pk4y1b7bg', 'typename': '宅舞', 'title': '这小短腿可莉害了！❤️【咬人猫】', 'subtitle': '', 'play': 705296, 'review': 1598, 'video_review': 453, 'favorites': 15793, 'mid': 116683, 'author': '=咬人猫=', 'description': '给大家介绍我可爱的女儿！小可莉！一直都很想cos可莉去雪山下拍可莉版105°，终于在美丽的云南圆满了！小小可莉来炸鱼咯，不要告诉琴团长嗷！\n感谢“血盟工作室”的装备帮助，感谢荣小兔头的协助\n感谢编舞@阔少_申旭阔：BV1FK4y1V7wS\nBGM：《热爱105°C的可莉》原创填词版-蕾米Remi\n原唱：《热爱105°C的你》-阿肆', 'create': '2023-03-24 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/d54cf8dd3eeb69bc09385aafef232fcb157dab72.jpg', 'coins': 31805, 'duration': '1:40', 'badgepay': False, 'pts': 1492693, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951465768', 'bvid': 'BV1os4y1n7NH', 'typename': '宅舞', 'title': '【鱼肉肉】神里绫华：寒椿吹雪', 'subtitle': '', 'play': 516019, 'review': 458, 'video_review': 181, 'favorites': 9926, 'mid': 31761139, 'author': '鱼肉肉pabo', 'description': 'bgm：BV1w44y1m79B', 'create': '2023-03-22 12:01', 'pic': 'http://i1.hdslb.com/bfs/archive/893582de4bfe8aff1af73d9b7415ce34371959cb.jpg', 'coins': 3558, 'duration': '0:28', 'badgepay': False, 'pts': 1076325, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441425610', 'bvid': 'BV1gL411k7NU', 'typename': '宅舞', 'title': '看起来不太聪明的亚子【神的随波逐流】', 'subtitle': '', 'play': 244007, 'review': 173, 'video_review': 44, 'favorites': 8236, 'mid': 508317181, 'author': '小知世大人', 'description': '-', 'create': '2023-03-23 10:20', 'pic': 'http://i2.hdslb.com/bfs/archive/bfb2e9d71809d9d1b4f69f4917dca4a18737cda7.jpg', 'coins': 753, 'duration': '1:41', 'badgepay': False, 'pts': 629435, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653824413', 'bvid': 'BV1bY4y1D7tS', 'typename': '宅舞', 'title': '她真的在很努力的装可爱...♡｜ 温州平阳漫展现场', 'subtitle': '', 'play': 249463, 'review': 465, 'video_review': 253, 'favorites': 5632, 'mid': 7827419, 'author': '晨二呀', 'description': '3.18平阳万达漫展，回去才发现原来我当时跳的那么嗨www\n\n编舞：七河BV1YV4y137ff', 'create': '2023-03-20 19:07', 'pic': 'http://i2.hdslb.com/bfs/archive/2943e8f684e4f88539c4c4cb7a5c9c7dcb8448ae.jpg', 'coins': 1337, 'duration': '3:35', 'badgepay': False, 'pts': 540253, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226538458', 'bvid': 'BV1qh411G7DW', 'typename': '宅舞', 'title': '还有人记得,宅舞的初心是什么吗？【神的随波逐流】', 'subtitle': '', 'play': 223639, 'review': 327, 'video_review': 198, 'favorites': 3550, 'mid': 26321887, 'author': 'Loger_陈乐一', 'description': '「\u3000やっぱり地球を愛してる 🧸！」\n\n本只是想顺带扒一支匹配樱花季节的老宅舞，翻到刚开始混圈的时候就想跳的这支宅舞，终于下手了。\n以前听这首歌，内心深处并不会有多大的波澜，只是觉得很元气。但直到现在才真正意义地听明白了整首歌要表达的内容和意境，认真听完过后热泪盈眶，一词一句仿佛全都在唱给自己听，好久没有感受到宅舞传递的快乐与纯真，就像歌词表述的那样热爱自己，充满能量，充满希望。\n好久好久没有这么开心的跳宅舞了，神のまにまに、\n今日もいい日だっ！花を咲かそう！\n感谢两位美少女的元气出镜！一下子有了穿越二次元', 'create': '2023-03-25 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/196b12bdf62251ec1430907e94a2edf30a395002.jpg', 'coins': 5300, 'duration': '6:34', 'badgepay': False, 'pts': 490194, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993873238', 'bvid': 'BV11x4y1w7PR', 'typename': '宅舞', 'title': '我的邻家妹妹💕这么可爱真是抱歉', 'subtitle': '', 'play': 180577, 'review': 278, 'video_review': 825, 'favorites': 9362, 'mid': 1536750746, 'author': 'CoCo都可官方', 'description': '这就是初恋般的清甜不腻吗？不确定，再来一口~\n编舞：七河BV1YV4y137ff', 'create': '2023-03-20 18:24', 'pic': 'http://i1.hdslb.com/bfs/archive/03f844334ef45a3b5bff2e05511615f84962cdf5.jpg', 'coins': 2436, 'duration': '2:15', 'badgepay': False, 'pts': 478098, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824060619', 'bvid': 'BV1Ng4y1s7mS', 'typename': '宅舞', 'title': '竖屏直拍︱樱花妹妹这么可爱真是抱歉啦~❤️', 'subtitle': '', 'play': 80382, 'review': 147, 'video_review': 25, 'favorites': 7173, 'mid': 330657633, 'author': '钉宫草莓', 'description': '背景当然是真的辣！\n这么可爱我根本不抱歉！（叉腰）\n\n那个 请帮我那个一下 ！', 'create': '2023-03-25 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5bc5013ec4e684f2cdb1c3c3f490512a706beea3.jpg', 'coins': 981, 'duration': '1:23', 'badgepay': False, 'pts': 317666, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396433516', 'bvid': 'BV1Lo4y1s71J', 'typename': '宅舞', 'title': '喜 欢 双 马 尾 吗 ？', 'subtitle': '', 'play': 71957, 'review': 131, 'video_review': 180, 'favorites': 8508, 'mid': 2009929, 'author': '咝小喵MAO', 'description': '竖屏来了~~~是你们心心念念的固定机位！横屏指路：BV1UY411B7pp\n喜欢的家人们记得一键三连支持一下呀！\n点赞过万，发这套中华娘的壁纸拉~\n\n摄影：@亚特兰Atlan ，\n后期：面面桑。\n音乐：我愛你-上海蟹-\n舞蹈：小呕像雯籽w', 'create': '2023-03-23 19:10', 'pic': 'http://i2.hdslb.com/bfs/archive/6dcd8c68e581a36afa1877aabf4e95d2965306ef.jpg', 'coins': 740, 'duration': '1:54', 'badgepay': False, 'pts': 316187, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311695045', 'bvid': 'BV1zN411P7jd', 'typename': '宅舞', 'title': '希望看到视频的你可以开心！！《Dream Goes On》原创编舞', 'subtitle': '', 'play': 81596, 'review': 208, 'video_review': 50, 'favorites': 3196, 'mid': 214391420, 'author': 'KeyKeyKiYoMi', 'description': 'BGM标题有哦哦！\n希望你会喜欢！！\n记得天天开心！！', 'create': '2023-03-26 15:26', 'pic': 'http://i2.hdslb.com/bfs/archive/9e7bc3e4190602306a8d985b4712025f311df748.jpg', 'coins': 1215, 'duration': '3:51', 'badgepay': False, 'pts': 220083, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '568972295', 'bvid': 'BV1nv4y157J5', 'typename': '宅舞', 'title': '震惊！丘丘人在米哈游楼下跳舞，员工看了都。。。。。。', 'subtitle': '', 'play': 733080, 'review': 1553, 'video_review': 907, 'favorites': 12745, 'mid': 521444, 'author': '西四炸弹', 'description': '皮卡浩：Mosi mita！\n桃桃：gusha！\n西四：ya！！！\n梨烩：大家好，我是摄影。\n\nbgm：BV1yL411d74B', 'create': '2023-03-23 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/e9a533d9ad920177826df6f3fb3aa6b29c96b328.jpg', 'coins': 12553, 'duration': '0:50', 'badgepay': False, 'pts': 1537557, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738950809', 'bvid': 'BV1Pk4y1b7bg', 'typename': '宅舞', 'title': '这小短腿可莉害了！❤️【咬人猫】', 'subtitle': '', 'play': 724672, 'review': 1614, 'video_review': 463, 'favorites': 16227, 'mid': 116683, 'author': '=咬人猫=', 'description': '给大家介绍我可爱的女儿！小可莉！一直都很想cos可莉去雪山下拍可莉版105°，终于在美丽的云南圆满了！小小可莉来炸鱼咯，不要告诉琴团长嗷！\n感谢“血盟工作室”的装备帮助，感谢荣小兔头的协助\n感谢编舞@阔少_申旭阔：BV1FK4y1V7wS\nBGM：《热爱105°C的可莉》原创填词版-蕾米Remi\n原唱：《热爱105°C的你》-阿肆', 'create': '2023-03-24 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/d54cf8dd3eeb69bc09385aafef232fcb157dab72.jpg', 'coins': 32457, 'duration': '1:40', 'badgepay': False, 'pts': 1527896, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951465768', 'bvid': 'BV1os4y1n7NH', 'typename': '宅舞', 'title': '【鱼肉肉】神里绫华：寒椿吹雪', 'subtitle': '', 'play': 518153, 'review': 458, 'video_review': 181, 'favorites': 9977, 'mid': 31761139, 'author': '鱼肉肉pabo', 'description': 'bgm：BV1w44y1m79B', 'create': '2023-03-22 12:01', 'pic': 'http://i1.hdslb.com/bfs/archive/893582de4bfe8aff1af73d9b7415ce34371959cb.jpg', 'coins': 3576, 'duration': '0:28', 'badgepay': False, 'pts': 1080401, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441425610', 'bvid': 'BV1gL411k7NU', 'typename': '宅舞', 'title': '看起来不太聪明的亚子【神的随波逐流】', 'subtitle': '', 'play': 249372, 'review': 169, 'video_review': 45, 'favorites': 8364, 'mid': 508317181, 'author': '小知世大人', 'description': '-', 'create': '2023-03-23 10:20', 'pic': 'http://i2.hdslb.com/bfs/archive/bfb2e9d71809d9d1b4f69f4917dca4a18737cda7.jpg', 'coins': 772, 'duration': '1:41', 'badgepay': False, 'pts': 641289, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226538458', 'bvid': 'BV1qh411G7DW', 'typename': '宅舞', 'title': '还有人记得,宅舞的初心是什么吗？【神的随波逐流】', 'subtitle': '', 'play': 248686, 'review': 338, 'video_review': 210, 'favorites': 3980, 'mid': 26321887, 'author': 'Loger_陈乐一', 'description': '「\u3000やっぱり地球を愛してる 🧸！」\n\n本只是想顺带扒一支匹配樱花季节的老宅舞，翻到刚开始混圈的时候就想跳的这支宅舞，终于下手了。\n以前听这首歌，内心深处并不会有多大的波澜，只是觉得很元气。但直到现在才真正意义地听明白了整首歌要表达的内容和意境，认真听完过后热泪盈眶，一词一句仿佛全都在唱给自己听，好久没有感受到宅舞传递的快乐与纯真，就像歌词表述的那样热爱自己，充满能量，充满希望。\n好久好久没有这么开心的跳宅舞了，神のまにまに、\n今日もいい日だっ！花を咲かそう！\n感谢两位美少女的元气出镜！一下子有了穿越二次元', 'create': '2023-03-25 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/196b12bdf62251ec1430907e94a2edf30a395002.jpg', 'coins': 5979, 'duration': '6:34', 'badgepay': False, 'pts': 545034, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653824413', 'bvid': 'BV1bY4y1D7tS', 'typename': '宅舞', 'title': '她真的在很努力的装可爱...♡｜ 温州平阳漫展现场', 'subtitle': '', 'play': 251307, 'review': 465, 'video_review': 253, 'favorites': 5687, 'mid': 7827419, 'author': '晨二呀', 'description': '3.18平阳万达漫展，回去才发现原来我当时跳的那么嗨www\n\n编舞：七河BV1YV4y137ff', 'create': '2023-03-20 19:07', 'pic': 'http://i2.hdslb.com/bfs/archive/2943e8f684e4f88539c4c4cb7a5c9c7dcb8448ae.jpg', 'coins': 1354, 'duration': '3:35', 'badgepay': False, 'pts': 544433, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993873238', 'bvid': 'BV11x4y1w7PR', 'typename': '宅舞', 'title': '我的邻家妹妹💕这么可爱真是抱歉', 'subtitle': '', 'play': 188093, 'review': 278, 'video_review': 825, 'favorites': 9399, 'mid': 1536750746, 'author': 'CoCo都可官方', 'description': '这就是初恋般的清甜不腻吗？不确定，再来一口~\n编舞：七河BV1YV4y137ff', 'create': '2023-03-20 18:24', 'pic': 'http://i1.hdslb.com/bfs/archive/03f844334ef45a3b5bff2e05511615f84962cdf5.jpg', 'coins': 2445, 'duration': '2:15', 'badgepay': False, 'pts': 483012, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396433516', 'bvid': 'BV1Lo4y1s71J', 'typename': '宅舞', 'title': '喜 欢 双 马 尾 吗 ？', 'subtitle': '', 'play': 83362, 'review': 129, 'video_review': 192, 'favorites': 8852, 'mid': 2009929, 'author': '咝小喵MAO', 'description': '竖屏来了~~~是你们心心念念的固定机位！横屏指路：BV1UY411B7pp\n喜欢的家人们记得一键三连支持一下呀！\n点赞过万，发这套中华娘的壁纸拉~\n\n摄影：@亚特兰Atlan ，\n后期：面面桑。\n音乐：我愛你-上海蟹-\n舞蹈：小呕像雯籽w', 'create': '2023-03-23 19:10', 'pic': 'http://i2.hdslb.com/bfs/archive/6dcd8c68e581a36afa1877aabf4e95d2965306ef.jpg', 'coins': 770, 'duration': '1:54', 'badgepay': False, 'pts': 344996, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824060619', 'bvid': 'BV1Ng4y1s7mS', 'typename': '宅舞', 'title': '竖屏直拍︱樱花妹妹这么可爱真是抱歉啦~❤️', 'subtitle': '', 'play': 86142, 'review': 148, 'video_review': 26, 'favorites': 7577, 'mid': 330657633, 'author': '钉宫草莓', 'description': '背景当然是真的辣！\n这么可爱我根本不抱歉！（叉腰）\n\n那个 请帮我那个一下 ！', 'create': '2023-03-25 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5bc5013ec4e684f2cdb1c3c3f490512a706beea3.jpg', 'coins': 1044, 'duration': '1:23', 'badgepay': False, 'pts': 338747, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311695045', 'bvid': 'BV1zN411P7jd', 'typename': '宅舞', 'title': '希望看到视频的你可以开心！！《Dream Goes On》原创编舞', 'subtitle': '', 'play': 90509, 'review': 215, 'video_review': 54, 'favorites': 3605, 'mid': 214391420, 'author': 'KeyKeyKiYoMi', 'description': 'BGM标题有哦哦！\n希望你会喜欢！！\n记得天天开心！！', 'create': '2023-03-26 15:26', 'pic': 'http://i2.hdslb.com/bfs/archive/9e7bc3e4190602306a8d985b4712025f311df748.jpg', 'coins': 1336, 'duration': '3:51', 'badgepay': False, 'pts': 250744, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3078521</v>
+        <v>3173376</v>
       </c>
       <c r="I27" t="n">
-        <v>60525</v>
+        <v>62286</v>
       </c>
       <c r="J27" t="n">
-        <v>83978</v>
+        <v>86413</v>
       </c>
       <c r="K27" t="n">
         <v>2215</v>
@@ -1738,22 +1738,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>舞蹈(主分区)</t>
+          <t>舞蹈</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[{'aid': '696308922', 'bvid': 'BV1Dm4y1r7M2', 'typename': '舞蹈综合', 'title': '省赛输了，摇一个', 'subtitle': '', 'play': 3212860, 'review': 2571, 'video_review': 4369, 'favorites': 44737, 'mid': 158403965, 'author': '宇崎学妹想要摇', 'description': '一场没赢啊啊啊啊啊啊啊啊啊啊啊', 'create': '2023-03-21 17:57', 'pic': 'http://i0.hdslb.com/bfs/archive/0028da95fce67cb586688e40ea49864b89fb3d8e.jpg', 'coins': 35645, 'duration': '1:27', 'badgepay': False, 'pts': 4057283, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268754970', 'bvid': 'BV1sc411j7zR', 'typename': '舞蹈综合', 'title': '放学了！回家跳个舞！(*ˉ︶ˉ*)', 'subtitle': '', 'play': 755925, 'review': 1167, 'video_review': 303, 'favorites': 19139, 'mid': 1338715561, 'author': '凛子同学提不起劲', 'description': '嘿嘿嘿嘿ε-(´∀｀; )最近吃胖了点…我还要吃ˊ_&gt;ˋ！\nbgm：yes or yes', 'create': '2023-03-20 14:21', 'pic': 'http://i1.hdslb.com/bfs/archive/363844ccfeb47b4e7fefc95392ab228f21c33e05.jpg', 'coins': 7938, 'duration': '1:45', 'badgepay': False, 'pts': 1398811, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866551393', 'bvid': 'BV11V4y1X7W1', 'typename': '舞蹈综合', 'title': '“她像是用玻璃捏出来的美人儿，一碰就会碎”', 'subtitle': '', 'play': 436743, 'review': 507, 'video_review': 371, 'favorites': 22887, 'mid': 21648772, 'author': '晓丹小仙女儿', 'description': '今天是精灵国的小公主啦～服装是逆水寒情人节时装【林泽清瑶】\n拍摄那天天气实在是太差了呜呜，最近都是阴雨连绵的天气，期待一个大太阳！\n舞蹈参考：紫嘉儿+即兴\n音源：傲七爷 - 枕边童话\n妆造：惠丽\n摄影：南瓜\n摄像：狂澜', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/054371656a80527fbd5b2494fe394e9652425a1e.jpg', 'coins': 8775, 'duration': '1:26', 'badgepay': False, 'pts': 1282695, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396463538', 'bvid': 'BV1so4y1s7wN', 'typename': '舞蹈综合', 'title': '得知凯尔希受伤的w', 'subtitle': '', 'play': 477502, 'review': 454, 'video_review': 68, 'favorites': 7827, 'mid': 451069967, 'author': '秋山清', 'description': '得知凯尔希受伤的w', 'create': '2023-03-23 16:53', 'pic': 'http://i2.hdslb.com/bfs/archive/4e476b2dd5de3d1ec4033fc82868a52021a16674.png', 'coins': 3056, 'duration': '0:39', 'badgepay': False, 'pts': 1011671, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568637260', 'bvid': 'BV1bv4y1L7jU', 'typename': '舞蹈综合', 'title': '好大的船~你还在等什么？☆Back to me', 'subtitle': '', 'play': 541810, 'review': 336, 'video_review': 247, 'favorites': 9597, 'mid': 10673533, 'author': '小深深儿', 'description': '', 'create': '2023-03-20 18:25', 'pic': 'http://i2.hdslb.com/bfs/archive/4259b90d551da83df983e99c52eaf283aeace46b.jpg', 'coins': 2663, 'duration': '2:40', 'badgepay': False, 'pts': 907338, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908936011', 'bvid': 'BV1aM4y1B7nP', 'typename': '舞蹈综合', 'title': '没人看，所以发了', 'subtitle': '', 'play': 503999, 'review': 449, 'video_review': 63, 'favorites': 8821, 'mid': 3493265179412763, 'author': '乔喔ovo', 'description': '-', 'create': '2023-03-23 11:48', 'pic': 'http://i1.hdslb.com/bfs/archive/42d778763273875369a36030aefe5dd873330e7e.jpg', 'coins': 879, 'duration': '0:14', 'badgepay': False, 'pts': 814279, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824084248', 'bvid': 'BV1Vg4y1s7ak', 'typename': '舞蹈综合', 'title': '【雪柔yuki】想看老婆穿jk吗', 'subtitle': '', 'play': 288947, 'review': 234, 'video_review': 197, 'favorites': 4975, 'mid': 262888220, 'author': '雪柔yuki', 'description': '', 'create': '2023-03-25 13:00', 'pic': 'http://i0.hdslb.com/bfs/archive/cd99036331d765b842d974cf8df88d58736cca18.jpg', 'coins': 1148, 'duration': '0:24', 'badgepay': False, 'pts': 631480, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311568628', 'bvid': 'BV16N411K7do', 'typename': '舞蹈综合', 'title': '新学的舞蹈，请网友们指导…', 'subtitle': '', 'play': 356498, 'review': 513, 'video_review': 258, 'favorites': 2894, 'mid': 27565758, 'author': '-小D-biu', 'description': '本来想等100W粉丝牌牌到了之后，拍一个100W粉丝视频的 ， 结果等哭了还没有到...\n所以先翻跳一下最近的热门舞蹈缓一缓~~\n\n音乐：尹昔眠——三拜红尘凉\n编舞：无敌火火\n\n音乐：可愛くてごめん（这么可爱真是抱歉）\n编舞：七河みこ\n\n歹徒舞/傣族舞；（未知）', 'create': '2023-03-25 17:10', 'pic': 'http://i0.hdslb.com/bfs/archive/676605eaea58c12f61296afd54f28c9c05aa8a41.jpg', 'coins': 2827, 'duration': '1:24', 'badgepay': False, 'pts': 610081, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866421775', 'bvid': 'BV1PV4y1X7rG', 'typename': '舞蹈综合', 'title': '你们要的少女时代GEE', 'subtitle': '', 'play': 395879, 'review': 154, 'video_review': 72, 'favorites': 4424, 'mid': 481329268, 'author': '菜狗嘤嘤', 'description': '-', 'create': '2023-03-23 20:11', 'pic': 'http://i1.hdslb.com/bfs/archive/2f995146ff4e4fd66ea30070c70231ed813f8121.jpg', 'coins': 362, 'duration': '1:25', 'badgepay': False, 'pts': 572509, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226410509', 'bvid': 'BV1Lb411o7gh', 'typename': '舞蹈综合', 'title': '快30岁了还在跳幼儿园舞蹈呜呜呜…', 'subtitle': '', 'play': 215483, 'review': 260, 'video_review': 50, 'favorites': 3021, 'mid': 271644025, 'author': '叽叽的盆友圈', 'description': '-', 'create': '2023-03-23 18:38', 'pic': 'http://i1.hdslb.com/bfs/archive/bc4bb6382245f4d81e510842330a10ba3e3dc73c.jpg', 'coins': 755, 'duration': '0:21', 'badgepay': False, 'pts': 438289, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '696308922', 'bvid': 'BV1Dm4y1r7M2', 'typename': '舞蹈综合', 'title': '省赛输了，摇一个', 'subtitle': '', 'play': 3249096, 'review': 2605, 'video_review': 4409, 'favorites': 45201, 'mid': 158403965, 'author': '宇崎学妹想要摇', 'description': '一场没赢啊啊啊啊啊啊啊啊啊啊啊', 'create': '2023-03-21 17:57', 'pic': 'http://i0.hdslb.com/bfs/archive/0028da95fce67cb586688e40ea49864b89fb3d8e.jpg', 'coins': 36161, 'duration': '1:27', 'badgepay': False, 'pts': 4085755, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268754970', 'bvid': 'BV1sc411j7zR', 'typename': '舞蹈综合', 'title': '放学了！回家跳个舞！(*ˉ︶ˉ*)', 'subtitle': '', 'play': 757494, 'review': 1169, 'video_review': 303, 'favorites': 19173, 'mid': 1338715561, 'author': '凛子同学提不起劲', 'description': '嘿嘿嘿嘿ε-(´∀｀; )最近吃胖了点…我还要吃ˊ_&gt;ˋ！\nbgm：yes or yes', 'create': '2023-03-20 14:21', 'pic': 'http://i1.hdslb.com/bfs/archive/363844ccfeb47b4e7fefc95392ab228f21c33e05.jpg', 'coins': 7965, 'duration': '1:45', 'badgepay': False, 'pts': 1401665, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866551393', 'bvid': 'BV11V4y1X7W1', 'typename': '舞蹈综合', 'title': '“她像是用玻璃捏出来的美人儿，一碰就会碎”', 'subtitle': '', 'play': 441206, 'review': 513, 'video_review': 375, 'favorites': 23169, 'mid': 21648772, 'author': '晓丹小仙女儿', 'description': '今天是精灵国的小公主啦～服装是逆水寒情人节时装【林泽清瑶】\n拍摄那天天气实在是太差了呜呜，最近都是阴雨连绵的天气，期待一个大太阳！\n舞蹈参考：紫嘉儿+即兴\n音源：傲七爷 - 枕边童话\n妆造：惠丽\n摄影：南瓜\n摄像：狂澜', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/054371656a80527fbd5b2494fe394e9652425a1e.jpg', 'coins': 8896, 'duration': '1:26', 'badgepay': False, 'pts': 1295886, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396463538', 'bvid': 'BV1so4y1s7wN', 'typename': '舞蹈综合', 'title': '得知凯尔希受伤的w', 'subtitle': '', 'play': 516909, 'review': 483, 'video_review': 76, 'favorites': 8460, 'mid': 451069967, 'author': '秋山清', 'description': '得知凯尔希受伤的w', 'create': '2023-03-23 16:53', 'pic': 'http://i2.hdslb.com/bfs/archive/4e476b2dd5de3d1ec4033fc82868a52021a16674.png', 'coins': 3389, 'duration': '0:39', 'badgepay': False, 'pts': 1085892, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568637260', 'bvid': 'BV1bv4y1L7jU', 'typename': '舞蹈综合', 'title': '好大的船~你还在等什么？☆Back to me', 'subtitle': '', 'play': 542437, 'review': 336, 'video_review': 247, 'favorites': 9604, 'mid': 10673533, 'author': '小深深儿', 'description': '', 'create': '2023-03-20 18:25', 'pic': 'http://i2.hdslb.com/bfs/archive/4259b90d551da83df983e99c52eaf283aeace46b.jpg', 'coins': 2667, 'duration': '2:40', 'badgepay': False, 'pts': 908461, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908936011', 'bvid': 'BV1aM4y1B7nP', 'typename': '舞蹈综合', 'title': '没人看，所以发了', 'subtitle': '', 'play': 506121, 'review': 451, 'video_review': 63, 'favorites': 8867, 'mid': 3493265179412763, 'author': '乔喔ovo', 'description': '-', 'create': '2023-03-23 11:48', 'pic': 'http://i1.hdslb.com/bfs/archive/42d778763273875369a36030aefe5dd873330e7e.jpg', 'coins': 881, 'duration': '0:14', 'badgepay': False, 'pts': 818565, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311568628', 'bvid': 'BV16N411K7do', 'typename': '舞蹈综合', 'title': '新学的舞蹈，请网友们指导…', 'subtitle': '', 'play': 387306, 'review': 523, 'video_review': 274, 'favorites': 3169, 'mid': 27565758, 'author': '-小D-biu', 'description': '本来想等100W粉丝牌牌到了之后，拍一个100W粉丝视频的 ， 结果等哭了还没有到...\n所以先翻跳一下最近的热门舞蹈缓一缓~~\n\n音乐：尹昔眠——三拜红尘凉\n编舞：无敌火火\n\n音乐：可愛くてごめん（这么可爱真是抱歉）\n编舞：七河みこ\n\n歹徒舞/傣族舞；（未知）', 'create': '2023-03-25 17:10', 'pic': 'http://i0.hdslb.com/bfs/archive/676605eaea58c12f61296afd54f28c9c05aa8a41.jpg', 'coins': 2983, 'duration': '1:24', 'badgepay': False, 'pts': 655323, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226410509', 'bvid': 'BV1Lb411o7gh', 'typename': '舞蹈综合', 'title': '快30岁了还在跳幼儿园舞蹈呜呜呜…', 'subtitle': '', 'play': 366059, 'review': 327, 'video_review': 67, 'favorites': 4474, 'mid': 271644025, 'author': '叽叽的盆友圈', 'description': '-', 'create': '2023-03-23 18:38', 'pic': 'http://i1.hdslb.com/bfs/archive/bc4bb6382245f4d81e510842330a10ba3e3dc73c.jpg', 'coins': 927, 'duration': '0:21', 'badgepay': False, 'pts': 654097, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824084248', 'bvid': 'BV1Vg4y1s7ak', 'typename': '舞蹈综合', 'title': '【雪柔yuki】想看老婆穿jk吗', 'subtitle': '', 'play': 295019, 'review': 240, 'video_review': 202, 'favorites': 5164, 'mid': 262888220, 'author': '雪柔yuki', 'description': '', 'create': '2023-03-25 13:00', 'pic': 'http://i0.hdslb.com/bfs/archive/cd99036331d765b842d974cf8df88d58736cca18.jpg', 'coins': 1187, 'duration': '0:24', 'badgepay': False, 'pts': 646740, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866421775', 'bvid': 'BV1PV4y1X7rG', 'typename': '舞蹈综合', 'title': '你们要的少女时代GEE', 'subtitle': '', 'play': 399806, 'review': 152, 'video_review': 73, 'favorites': 4493, 'mid': 481329268, 'author': '菜狗嘤嘤', 'description': '-', 'create': '2023-03-23 20:11', 'pic': 'http://i1.hdslb.com/bfs/archive/2f995146ff4e4fd66ea30070c70231ed813f8121.jpg', 'coins': 372, 'duration': '1:25', 'badgepay': False, 'pts': 579855, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7185646</v>
+        <v>7461453</v>
       </c>
       <c r="I28" t="n">
-        <v>64048</v>
+        <v>65428</v>
       </c>
       <c r="J28" t="n">
-        <v>128322</v>
+        <v>131774</v>
       </c>
       <c r="K28" t="n">
         <v>21235</v>
@@ -1785,22 +1785,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>舞蹈(主分区)</t>
+          <t>舞蹈</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[{'aid': '866324197', 'bvid': 'BV1LV4y1R7xF', 'typename': '舞蹈教程', 'title': '保姆级超详细分解教程 VATA编舞-whisper谁跳谁帅系列！', 'subtitle': '', 'play': 38741, 'review': 76, 'video_review': 501, 'favorites': 5082, 'mid': 17173397, 'author': '罗了个杨', 'description': '-', 'create': '2023-03-22 08:00', 'pic': 'http://i0.hdslb.com/bfs/archive/aa0a83c64aaafd8564ee1156005f7bbf2301c21b.jpg', 'coins': 945, 'duration': '26:14', 'badgepay': False, 'pts': 194742, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441516892', 'bvid': 'BV1CL411D76D', 'typename': '舞蹈教程', 'title': '都下班/放学了吧？来来来，别闲着', 'subtitle': '', 'play': 73735, 'review': 21, 'video_review': 5, 'favorites': 2452, 'mid': 245154064, 'author': '七七的舞蹈课堂', 'description': '录制不易\n点赞投币\n谢谢您～', 'create': '2023-03-24 17:50', 'pic': 'http://i0.hdslb.com/bfs/archive/52919e35eff16bb468b5c998bb28846d525881f8.jpg', 'coins': 135, 'duration': '1:29', 'badgepay': False, 'pts': 188198, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268959521', 'bvid': 'BV1xc41177zv', 'typename': '舞蹈教程', 'title': '手臂力量跟练，成为舞蹈界的大力水手！', 'subtitle': '', 'play': 44549, 'review': 19, 'video_review': 7, 'favorites': 4492, 'mid': 434178047, 'author': '线上舞蹈课卡卡', 'description': '-', 'create': '2023-03-22 17:27', 'pic': 'http://i0.hdslb.com/bfs/archive/242070badc0a4c88083f725ef72135a92bdd83d0.jpg', 'coins': 110, 'duration': '1:19', 'badgepay': False, 'pts': 187448, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568873817', 'bvid': 'BV1Dv4y1V7ir', 'typename': '舞蹈教程', 'title': '穿小裙子的甜妹🍬｜狠狠期待住🎵Thirsty💗', 'subtitle': '', 'play': 9729, 'review': 12, 'video_review': 0, 'favorites': 1066, 'mid': 3493111036644020, 'author': 'HiDance舞蹈工作室', 'description': '-', 'create': '2023-03-21 17:59', 'pic': 'http://i2.hdslb.com/bfs/archive/9eeb6c4bf71f1211de1fe38644dae8535e5ba50d.jpg', 'coins': 16, 'duration': '0:29', 'badgepay': False, 'pts': 42614, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696258245', 'bvid': 'BV1Cm4y1r7vw', 'typename': '舞蹈教程', 'title': '《手臂力量框架》零基础框架一首歌跟练', 'subtitle': '', 'play': 6760, 'review': 20, 'video_review': 1, 'favorites': 1318, 'mid': 384336790, 'author': '马达阿黎', 'description': '-', 'create': '2023-03-20 13:38', 'pic': 'http://i1.hdslb.com/bfs/archive/744c0e265300e5559ab703b60c001605a3c4340c.jpg', 'coins': 83, 'duration': '4:16', 'badgepay': False, 'pts': 42482, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866269731', 'bvid': 'BV1fV4y197om', 'typename': '舞蹈教程', 'title': '常见动作的小区别', 'subtitle': '', 'play': 20132, 'review': 12, 'video_review': 0, 'favorites': 221, 'mid': 570030362, 'author': '爵士舞_柳柳老师', 'description': '-', 'create': '2023-03-21 21:40', 'pic': 'http://i0.hdslb.com/bfs/archive/41c63fdc4cfc20866227f939dd63dc186f5e3c49.jpg', 'coins': 23, 'duration': '0:13', 'badgepay': False, 'pts': 35237, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908971838', 'bvid': 'BV1rM4y1B73a', 'typename': '舞蹈教程', 'title': '【小虎】VATA编舞《Whisper》10个舞蹈细节', 'subtitle': '', 'play': 8417, 'review': 8, 'video_review': 1, 'favorites': 858, 'mid': 22639944, 'author': '小虎_诶', 'description': '-', 'create': '2023-03-22 21:12', 'pic': 'http://i0.hdslb.com/bfs/archive/e9e785d9a6e678c90eac5d5f132d3869bbbff5b3.jpg', 'coins': 102, 'duration': '1:28', 'badgepay': False, 'pts': 34835, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951623158', 'bvid': 'BV1ws4y1J76o', 'typename': '舞蹈教程', 'title': '【Whisper】Vata编舞｜帅哥街舞 谁不心动啊！', 'subtitle': '', 'play': 6506, 'review': 3, 'video_review': 0, 'favorites': 971, 'mid': 15702749, 'author': '蔡洋妮', 'description': '-', 'create': '2023-03-24 22:31', 'pic': 'http://i1.hdslb.com/bfs/archive/23d22b03da80c0d00121e73cbe42e6e4e68fc429.jpg', 'coins': 51, 'duration': '0:32', 'badgepay': False, 'pts': 34195, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909042153', 'bvid': 'BV1PM4y1z7U1', 'typename': '舞蹈教程', 'title': '【佳佳】Vata编舞Whisper 保姆级分解教程来咯', 'subtitle': '', 'play': 7985, 'review': 13, 'video_review': 160, 'favorites': 520, 'mid': 36741907, 'author': '佳佳の练舞频道', 'description': '与原舞有出入 学完大家再去看看原舞', 'create': '2023-03-25 14:45', 'pic': 'http://i0.hdslb.com/bfs/archive/7f30fac0147f1af7a7927ca33066f9f7483b2359.jpg', 'coins': 70, 'duration': '25:55', 'badgepay': False, 'pts': 27788, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696283255', 'bvid': 'BV1Cm4y1r7gF', 'typename': '舞蹈教程', 'title': '一分钟教会你简单实用的Finger Tut【Figo教你手指舞】', 'subtitle': '', 'play': 5717, 'review': 17, 'video_review': 2, 'favorites': 218, 'mid': 266888731, 'author': 'Figo_oFu', 'description': '新教学来啦！接着之前出过的两期Finger Tutting基础手型系列教学\n开启了这个具体应用的、快速简单向的教学系列～', 'create': '2023-03-20 18:31', 'pic': 'http://i2.hdslb.com/bfs/archive/d3db75ede9960c8dfc890c770c7c0f321d76974a.jpg', 'coins': 56, 'duration': '0:59', 'badgepay': False, 'pts': 13940, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '441516892', 'bvid': 'BV1CL411D76D', 'typename': '舞蹈教程', 'title': '都下班/放学了吧？来来来，别闲着', 'subtitle': '', 'play': 87875, 'review': 22, 'video_review': 7, 'favorites': 3058, 'mid': 245154064, 'author': '七七的舞蹈课堂', 'description': '录制不易\n点赞投币\n谢谢您～', 'create': '2023-03-24 17:50', 'pic': 'http://i0.hdslb.com/bfs/archive/52919e35eff16bb468b5c998bb28846d525881f8.jpg', 'coins': 175, 'duration': '1:29', 'badgepay': False, 'pts': 230063, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268959521', 'bvid': 'BV1xc41177zv', 'typename': '舞蹈教程', 'title': '手臂力量跟练，成为舞蹈界的大力水手！', 'subtitle': '', 'play': 47430, 'review': 20, 'video_review': 7, 'favorites': 4791, 'mid': 434178047, 'author': '线上舞蹈课卡卡', 'description': '-', 'create': '2023-03-22 17:27', 'pic': 'http://i0.hdslb.com/bfs/archive/242070badc0a4c88083f725ef72135a92bdd83d0.jpg', 'coins': 121, 'duration': '1:19', 'badgepay': False, 'pts': 200021, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866324197', 'bvid': 'BV1LV4y1R7xF', 'typename': '舞蹈教程', 'title': '保姆级超详细分解教程 VATA编舞-whisper谁跳谁帅系列！', 'subtitle': '', 'play': 39856, 'review': 77, 'video_review': 502, 'favorites': 5223, 'mid': 17173397, 'author': '罗了个杨', 'description': '-', 'create': '2023-03-22 08:00', 'pic': 'http://i0.hdslb.com/bfs/archive/aa0a83c64aaafd8564ee1156005f7bbf2301c21b.jpg', 'coins': 967, 'duration': '26:14', 'badgepay': False, 'pts': 199858, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568873817', 'bvid': 'BV1Dv4y1V7ir', 'typename': '舞蹈教程', 'title': '穿小裙子的甜妹🍬｜狠狠期待住🎵Thirsty💗', 'subtitle': '', 'play': 9834, 'review': 12, 'video_review': 0, 'favorites': 1071, 'mid': 3493111036644020, 'author': 'HiDance舞蹈工作室', 'description': '-', 'create': '2023-03-21 17:59', 'pic': 'http://i2.hdslb.com/bfs/archive/9eeb6c4bf71f1211de1fe38644dae8535e5ba50d.jpg', 'coins': 16, 'duration': '0:29', 'badgepay': False, 'pts': 42780, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951623158', 'bvid': 'BV1ws4y1J76o', 'typename': '舞蹈教程', 'title': '【Whisper】Vata编舞｜帅哥街舞 谁不心动啊！', 'subtitle': '', 'play': 7459, 'review': 3, 'video_review': 0, 'favorites': 1116, 'mid': 15702749, 'author': '蔡洋妮', 'description': '-', 'create': '2023-03-24 22:31', 'pic': 'http://i1.hdslb.com/bfs/archive/23d22b03da80c0d00121e73cbe42e6e4e68fc429.jpg', 'coins': 62, 'duration': '0:32', 'badgepay': False, 'pts': 39869, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908971838', 'bvid': 'BV1rM4y1B73a', 'typename': '舞蹈教程', 'title': '【小虎】VATA编舞《Whisper》10个舞蹈细节', 'subtitle': '', 'play': 8807, 'review': 9, 'video_review': 1, 'favorites': 905, 'mid': 22639944, 'author': '小虎_诶', 'description': '-', 'create': '2023-03-22 21:12', 'pic': 'http://i0.hdslb.com/bfs/archive/e9e785d9a6e678c90eac5d5f132d3869bbbff5b3.jpg', 'coins': 108, 'duration': '1:28', 'badgepay': False, 'pts': 36675, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866269731', 'bvid': 'BV1fV4y197om', 'typename': '舞蹈教程', 'title': '常见动作的小区别', 'subtitle': '', 'play': 20512, 'review': 12, 'video_review': 0, 'favorites': 229, 'mid': 570030362, 'author': '爵士舞_柳柳老师', 'description': '-', 'create': '2023-03-21 21:40', 'pic': 'http://i0.hdslb.com/bfs/archive/41c63fdc4cfc20866227f939dd63dc186f5e3c49.jpg', 'coins': 23, 'duration': '0:13', 'badgepay': False, 'pts': 36155, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909042153', 'bvid': 'BV1PM4y1z7U1', 'typename': '舞蹈教程', 'title': '【佳佳】Vata编舞Whisper 保姆级分解教程来咯', 'subtitle': '', 'play': 8723, 'review': 13, 'video_review': 166, 'favorites': 561, 'mid': 36741907, 'author': '佳佳の练舞频道', 'description': '与原舞有出入 学完大家再去看看原舞', 'create': '2023-03-25 14:45', 'pic': 'http://i0.hdslb.com/bfs/archive/7f30fac0147f1af7a7927ca33066f9f7483b2359.jpg', 'coins': 78, 'duration': '25:55', 'badgepay': False, 'pts': 29940, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696283255', 'bvid': 'BV1Cm4y1r7gF', 'typename': '舞蹈教程', 'title': '一分钟教会你简单实用的Finger Tut【Figo教你手指舞】', 'subtitle': '', 'play': 5794, 'review': 17, 'video_review': 2, 'favorites': 220, 'mid': 266888731, 'author': 'Figo_oFu', 'description': '新教学来啦！接着之前出过的两期Finger Tutting基础手型系列教学\n开启了这个具体应用的、快速简单向的教学系列～', 'create': '2023-03-20 18:31', 'pic': 'http://i2.hdslb.com/bfs/archive/d3db75ede9960c8dfc890c770c7c0f321d76974a.jpg', 'coins': 56, 'duration': '0:59', 'badgepay': False, 'pts': 13988, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>222271</v>
+        <v>236290</v>
       </c>
       <c r="I29" t="n">
-        <v>1591</v>
+        <v>1606</v>
       </c>
       <c r="J29" t="n">
-        <v>17198</v>
+        <v>17174</v>
       </c>
       <c r="K29" t="n">
         <v>953</v>
@@ -1832,22 +1832,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>舞蹈(主分区)</t>
+          <t>舞蹈</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[{'aid': '353956758', 'bvid': 'BV1aX4y1d74V', 'typename': '街舞', 'title': '“人在做自己喜欢事情的时候是完全自由的”', 'subtitle': '', 'play': 907527, 'review': 368, 'video_review': 149, 'favorites': 15197, 'mid': 372151897, 'author': '废话大王赖小赖', 'description': '爱人错过—诗倩编舞', 'create': '2023-03-22 22:52', 'pic': 'http://i1.hdslb.com/bfs/archive/de8fe4bd9ef8f76e8d610ff9df96a0f7ed64ff60.jpg', 'coins': 4702, 'duration': '0:19', 'badgepay': False, 'pts': 1695539, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654050909', 'bvid': 'BV1oY4y1U7pp', 'typename': '街舞', 'title': '爵士味的古典我尽力了', 'subtitle': '', 'play': 202182, 'review': 146, 'video_review': 59, 'favorites': 6680, 'mid': 396501206, 'author': '佳佳酱HappyFree', 'description': '-', 'create': '2023-03-24 13:16', 'pic': 'http://i2.hdslb.com/bfs/archive/5394e72d41f278a2436574dd290bb90279578875.jpg', 'coins': 813, 'duration': '0:16', 'badgepay': False, 'pts': 521349, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483751990', 'bvid': 'BV1sT411676U', 'typename': '街舞', 'title': '《亲爱的那不是爱情》手语翻译？', 'subtitle': '', 'play': 136720, 'review': 320, 'video_review': 287, 'favorites': 525, 'mid': 383603162, 'author': '是张祐维本人', 'description': '哪里招手语翻译的 我能面试不？', 'create': '2023-03-21 18:18', 'pic': 'http://i1.hdslb.com/bfs/archive/a379d80786513c6fd1fbf4dc7257764c50184f13.jpg', 'coins': 2744, 'duration': '2:02', 'badgepay': False, 'pts': 245131, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781268978', 'bvid': 'BV1h24y1E7S7', 'typename': '街舞', 'title': '我最红下腰挑战', 'subtitle': '', 'play': 803246, 'review': 559, 'video_review': 167, 'favorites': 1453, 'mid': 2045577567, 'author': '铁骨曾曾', 'description': '-', 'create': '2023-03-20 16:44', 'pic': 'http://i1.hdslb.com/bfs/archive/b83143574d739a6316986a51b8392b6d4c297386.jpg', 'coins': 1399, 'duration': '0:20', 'badgepay': False, 'pts': 226996, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226426658', 'bvid': 'BV1Eb411o7uL', 'typename': '街舞', 'title': '目标是一起跳到99岁', 'subtitle': '', 'play': 117323, 'review': 69, 'video_review': 19, 'favorites': 1587, 'mid': 1254208981, 'author': '王昀臻', 'description': '-', 'create': '2023-03-22 17:44', 'pic': 'http://i0.hdslb.com/bfs/archive/72e23b37abff3f606e188fe9a3b48e364d24bf60.jpg', 'coins': 159, 'duration': '0:10', 'badgepay': False, 'pts': 205602, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781609668', 'bvid': 'BV1W24y177Ru', 'typename': '街舞', 'title': '和学妹一起共度好时光吧～good time (〃v〃)', 'subtitle': '', 'play': 65571, 'review': 182, 'video_review': 346, 'favorites': 3429, 'mid': 2804493, 'author': '恬欣欣的成长日记', 'description': 'Tina Boo编舞 Good Time', 'create': '2023-03-25 11:50', 'pic': 'http://i2.hdslb.com/bfs/archive/a7a1b083a9c864a290d11c6680aaaaf5a5cd9a17.jpg', 'coins': 759, 'duration': '1:18', 'badgepay': False, 'pts': 197493, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866463895', 'bvid': 'BV1EV4y1X7oz', 'typename': '街舞', 'title': '记得打给我哦《call me maybe》#小橘编舞#', 'subtitle': '', 'play': 71058, 'review': 46, 'video_review': 18, 'favorites': 1570, 'mid': 88082626, 'author': '张小橘子Juana', 'description': 'call me maybe\n- Carly Rae Jepsen', 'create': '2023-03-23 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/39db520980a47d30261a2479d5de0a7c8d071a4a.jpg', 'coins': 552, 'duration': '0:50', 'badgepay': False, 'pts': 160307, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653936986', 'bvid': 'BV1XY4y1D7cJ', 'typename': '街舞', 'title': '【不齐舞团】你们强烈要求看的whisper 来了，这舞真的帅啊！', 'subtitle': '', 'play': 123487, 'review': 73, 'video_review': 46, 'favorites': 727, 'mid': 267685040, 'author': '不齐舞团', 'description': '创作类型：翻跳（cover by vata）\n音乐出处：Able\xa0Heart - 《whisper》\n简介：微博关注@不齐舞团 ', 'create': '2023-03-22 19:30', 'pic': 'http://i2.hdslb.com/bfs/archive/7409849ef7a57552fed67eca6d951369dcf1acc5.jpg', 'coins': 253, 'duration': '0:24', 'badgepay': False, 'pts': 128404, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396252648', 'bvid': 'BV1qo4y1q7AN', 'typename': '街舞', 'title': '5岁的幼儿园小朋友', 'subtitle': '', 'play': 72271, 'review': 248, 'video_review': 87, 'favorites': 332, 'mid': 412517664, 'author': '跳街舞的小女孩yoyo', 'description': '-', 'create': '2023-03-20 13:59', 'pic': 'http://i2.hdslb.com/bfs/archive/a1e47ae521ce89b339885a73e9b5195578a190b0.jpg', 'coins': 282, 'duration': '0:52', 'badgepay': False, 'pts': 119793, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909087249', 'bvid': 'BV1bM4y1z7Pv', 'typename': '街舞', 'title': '我这是尴尬八颠', 'subtitle': '', 'play': 130085, 'review': 76, 'video_review': 24, 'favorites': 455, 'mid': 369072712, 'author': '我是真的张與息', 'description': '自己瞎学的 不专业 轻喷', 'create': '2023-03-24 20:25', 'pic': 'http://i2.hdslb.com/bfs/archive/6363cd3274d7cbb0794e5d6f84bad4cedb6b4027.jpg', 'coins': 139, 'duration': '0:16', 'badgepay': False, 'pts': 66262, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '353956758', 'bvid': 'BV1aX4y1d74V', 'typename': '街舞', 'title': '“人在做自己喜欢事情的时候是完全自由的”', 'subtitle': '', 'play': 945573, 'review': 386, 'video_review': 154, 'favorites': 15795, 'mid': 372151897, 'author': '废话大王赖小赖', 'description': '爱人错过—诗倩编舞', 'create': '2023-03-22 22:52', 'pic': 'http://i1.hdslb.com/bfs/archive/de8fe4bd9ef8f76e8d610ff9df96a0f7ed64ff60.jpg', 'coins': 4946, 'duration': '0:19', 'badgepay': False, 'pts': 1755382, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654050909', 'bvid': 'BV1oY4y1U7pp', 'typename': '街舞', 'title': '爵士味的古典我尽力了', 'subtitle': '', 'play': 206872, 'review': 149, 'video_review': 61, 'favorites': 6854, 'mid': 396501206, 'author': '佳佳酱HappyFree', 'description': '-', 'create': '2023-03-24 13:16', 'pic': 'http://i2.hdslb.com/bfs/archive/5394e72d41f278a2436574dd290bb90279578875.jpg', 'coins': 846, 'duration': '0:16', 'badgepay': False, 'pts': 535434, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483751990', 'bvid': 'BV1sT411676U', 'typename': '街舞', 'title': '《亲爱的那不是爱情》手语翻译？', 'subtitle': '', 'play': 140137, 'review': 323, 'video_review': 290, 'favorites': 535, 'mid': 383603162, 'author': '是张祐维本人', 'description': '哪里招手语翻译的 我能面试不？', 'create': '2023-03-21 18:18', 'pic': 'http://i1.hdslb.com/bfs/archive/a379d80786513c6fd1fbf4dc7257764c50184f13.jpg', 'coins': 2774, 'duration': '2:02', 'badgepay': False, 'pts': 250408, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781268978', 'bvid': 'BV1h24y1E7S7', 'typename': '街舞', 'title': '我最红下腰挑战', 'subtitle': '', 'play': 807254, 'review': 563, 'video_review': 167, 'favorites': 1461, 'mid': 2045577567, 'author': '铁骨曾曾', 'description': '-', 'create': '2023-03-20 16:44', 'pic': 'http://i1.hdslb.com/bfs/archive/b83143574d739a6316986a51b8392b6d4c297386.jpg', 'coins': 1407, 'duration': '0:20', 'badgepay': False, 'pts': 230136, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226426658', 'bvid': 'BV1Eb411o7uL', 'typename': '街舞', 'title': '目标是一起跳到99岁', 'subtitle': '', 'play': 119897, 'review': 70, 'video_review': 19, 'favorites': 1604, 'mid': 1254208981, 'author': '王昀臻', 'description': '-', 'create': '2023-03-22 17:44', 'pic': 'http://i0.hdslb.com/bfs/archive/72e23b37abff3f606e188fe9a3b48e364d24bf60.jpg', 'coins': 163, 'duration': '0:10', 'badgepay': False, 'pts': 209726, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781609668', 'bvid': 'BV1W24y177Ru', 'typename': '街舞', 'title': '和学妹一起共度好时光吧～good time (〃v〃)', 'subtitle': '', 'play': 68035, 'review': 182, 'video_review': 348, 'favorites': 3505, 'mid': 2804493, 'author': '恬欣欣的成长日记', 'description': 'Tina Boo编舞 Good Time', 'create': '2023-03-25 11:50', 'pic': 'http://i2.hdslb.com/bfs/archive/a7a1b083a9c864a290d11c6680aaaaf5a5cd9a17.jpg', 'coins': 774, 'duration': '1:18', 'badgepay': False, 'pts': 203497, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866463895', 'bvid': 'BV1EV4y1X7oz', 'typename': '街舞', 'title': '记得打给我哦《call me maybe》#小橘编舞#', 'subtitle': '', 'play': 73870, 'review': 47, 'video_review': 18, 'favorites': 1641, 'mid': 88082626, 'author': '张小橘子Juana', 'description': 'call me maybe\n- Carly Rae Jepsen', 'create': '2023-03-23 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/39db520980a47d30261a2479d5de0a7c8d071a4a.jpg', 'coins': 565, 'duration': '0:50', 'badgepay': False, 'pts': 166483, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653936986', 'bvid': 'BV1XY4y1D7cJ', 'typename': '街舞', 'title': '【不齐舞团】你们强烈要求看的whisper 来了，这舞真的帅啊！', 'subtitle': '', 'play': 126527, 'review': 75, 'video_review': 46, 'favorites': 752, 'mid': 267685040, 'author': '不齐舞团', 'description': '创作类型：翻跳（cover by vata）\n音乐出处：Able\xa0Heart - 《whisper》\n简介：微博关注@不齐舞团 ', 'create': '2023-03-22 19:30', 'pic': 'http://i2.hdslb.com/bfs/archive/7409849ef7a57552fed67eca6d951369dcf1acc5.jpg', 'coins': 257, 'duration': '0:24', 'badgepay': False, 'pts': 133741, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909087249', 'bvid': 'BV1bM4y1z7Pv', 'typename': '街舞', 'title': '我这是尴尬八颠', 'subtitle': '', 'play': 145056, 'review': 79, 'video_review': 25, 'favorites': 496, 'mid': 369072712, 'author': '我是真的张與息', 'description': '自己瞎学的 不专业 轻喷', 'create': '2023-03-24 20:25', 'pic': 'http://i2.hdslb.com/bfs/archive/6363cd3274d7cbb0794e5d6f84bad4cedb6b4027.jpg', 'coins': 147, 'duration': '0:16', 'badgepay': False, 'pts': 71590, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353991862', 'bvid': 'BV1rX4y1d7Aa', 'typename': '街舞', 'title': '小病一场 穿点红色冲冲喜～', 'subtitle': '', 'play': 16953, 'review': 39, 'video_review': 7, 'favorites': 1578, 'mid': 37534242, 'author': '一只卷卷er', 'description': '-', 'create': '2023-03-22 21:59', 'pic': 'http://i2.hdslb.com/bfs/archive/7138dac3355d92a09b644c8f1f049063704a149f.jpg', 'coins': 114, 'duration': '0:26', 'badgepay': False, 'pts': 67560, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2629470</v>
+        <v>2650174</v>
       </c>
       <c r="I30" t="n">
-        <v>11802</v>
+        <v>11993</v>
       </c>
       <c r="J30" t="n">
-        <v>31955</v>
+        <v>34221</v>
       </c>
       <c r="K30" t="n">
         <v>9217</v>
@@ -1879,22 +1879,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>舞蹈(主分区)</t>
+          <t>舞蹈</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[{'aid': '396371457', 'bvid': 'BV1oo4y1W7ZK', 'typename': '明星舞蹈', 'title': '告诉我，不拉腿是不是刚刚好？tell me～', 'subtitle': '', 'play': 948234, 'review': 1048, 'video_review': 350, 'favorites': 19616, 'mid': 36187475, 'author': '居居boom', 'description': '这个地真的摩擦力太大了，我都搓不起来hhhhhh\n音乐舞蹈：Tell\xa0me-Wonder\xa0Girls\n摄影后期：光轮', 'create': '2023-03-21 16:07', 'pic': 'http://i1.hdslb.com/bfs/archive/c2fd3ca5471d92011185d0fb35cfb6f833ed2534.jpg', 'coins': 3615, 'duration': '1:28', 'badgepay': False, 'pts': 1771917, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268806241', 'bvid': 'BV1Sc411j7W9', 'typename': '明星舞蹈', 'title': '【NMIXX】 "Love Me Like This" Stage Practice', 'subtitle': '', 'play': 618098, 'review': 3813, 'video_review': 2679, 'favorites': 23372, 'mid': 2115962425, 'author': 'NMIXX', 'description': '', 'create': '2023-03-21 21:00', 'pic': 'http://i1.hdslb.com/bfs/archive/657296fac9e8bfead782ce24139e70a3146d7349.jpg', 'coins': 29293, 'duration': '3:18', 'badgepay': False, 'pts': 1698624, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311278038', 'bvid': 'BV1MP411o7FH', 'typename': '明星舞蹈', 'title': '在深圳最高点跳《只因你太美》｜十万粉整活', 'subtitle': '', 'play': 913831, 'review': 1379, 'video_review': 1363, 'favorites': 12184, 'mid': 651410600, 'author': '中国平安', 'description': '筹备时间两月半的十万粉视频终于来了\n感谢大家对平总的支持和喜爱，今后也请多多为我一键三连吧！\nBGM：只因你太美\n舞蹈参考：BV1da411o7tB', 'create': '2023-03-20 14:36', 'pic': 'http://i0.hdslb.com/bfs/archive/1be317451b00cd3b7041ccd6ea3773e9833a47bc.jpg', 'coins': 7438, 'duration': '1:41', 'badgepay': False, 'pts': 1494847, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866416527', 'bvid': 'BV19V4y1Q7hZ', 'typename': '明星舞蹈', 'title': '让你一秒心动的学姐？What is love', 'subtitle': '', 'play': 405755, 'review': 271, 'video_review': 419, 'favorites': 18808, 'mid': 5028996, 'author': '莓可-w-', 'description': '这个舞录的有点不顺，路人有点多，只能没人的空档抓紧跳，真不容易~\n江边还是很美的~\n\n歌曲舞蹈出处：TWICE-What is love', 'create': '2023-03-23 18:05', 'pic': 'http://i1.hdslb.com/bfs/archive/acc912ea7cadad956d2693e3db050d6f7c7f42fa.jpg', 'coins': 3829, 'duration': '1:33', 'badgepay': False, 'pts': 1118222, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653786429', 'bvid': 'BV12Y4y1X7a9', 'typename': '明星舞蹈', 'title': '听说这是最佳夏日甜心舞？！和我一起《tell me tell me》吧！', 'subtitle': '', 'play': 442886, 'review': 373, 'video_review': 220, 'favorites': 9889, 'mid': 34967693, 'author': '每天都想吃小鱼干', 'description': '真的很喜欢这期的穿搭（超大声）一整个夏日住了 朋友圈很多老婆喜欢第二套哈哈哈（当然也有不少投第一套的） 大家可以猜猜鱼干更喜欢哪一套哦嘻嘻 后面有彩蛋别忘了看！希望这个舞蹈可以给你们带来一天的好心情耶！！！', 'create': '2023-03-21 16:45', 'pic': 'http://i2.hdslb.com/bfs/archive/b6573d7f25fc3d528c296877fa2db0f332f8b5dd.jpg', 'coins': 2582, 'duration': '1:29', 'badgepay': False, 'pts': 1003176, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441535082', 'bvid': 'BV1BL411D7MH', 'typename': '明星舞蹈', 'title': '【其其】斩不斩男不知道，应该有点斩女（我还不知道你们想看什么）', 'subtitle': '', 'play': 328584, 'review': 434, 'video_review': 295, 'favorites': 11141, 'mid': 18722787, 'author': '一个其其kiki', 'description': '这组还有哪些帅哥，评论区可以给大家安利一下！！！太齐了！！！！', 'create': '2023-03-23 23:41', 'pic': 'http://i0.hdslb.com/bfs/archive/0b644853f2108c0be74000384aee78e2f754415b.jpg', 'coins': 2432, 'duration': '0:25', 'badgepay': False, 'pts': 855141, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653884660', 'bvid': 'BV1vY4y1D722', 'typename': '明星舞蹈', 'title': '有腰精！春天怎么能少了牛仔裤？【U-Go-Girl有娜版】神级舞蹈挑战', 'subtitle': '', 'play': 229677, 'review': 231, 'video_review': 194, 'favorites': 10651, 'mid': 26328593, 'author': '耿清清呀', 'description': '拍摄现场用半小时现学的舞蹈有点不够满意，加上北京还没回暖身体着实冻僵了。。\n还想看的话点赞满1w重制一个定机位版吧！\n摄影：Z叔', 'create': '2023-03-23 19:05', 'pic': 'http://i2.hdslb.com/bfs/archive/f65ee52dcec0b90d3c039084f0a5b6b7a5993051.jpg', 'coins': 2760, 'duration': '1:17', 'badgepay': False, 'pts': 660044, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951290585', 'bvid': 'BV1Cs4y1p7T9', 'typename': '明星舞蹈', 'title': '【周子瑜】人歌橫拍！世首美來了！美神降臨！！！', 'subtitle': '', 'play': 256521, 'review': 683, 'video_review': 633, 'favorites': 7483, 'mid': 36016206, 'author': 'KPOP万事通', 'description': 'YouTube', 'create': '2023-03-20 18:45', 'pic': 'http://i1.hdslb.com/bfs/archive/da149858deeb43123e051a4ef5499657c40a99f6.jpg', 'coins': 1713, 'duration': '3:28', 'badgepay': False, 'pts': 638892, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226339839', 'bvid': 'BV1wb411o7eg', 'typename': '明星舞蹈', 'title': '全网首创！这都能翻跳？DNA被打成中国结的KPOP曲混音【BLACKPINK x LE SSERAFIM x ITZY】', 'subtitle': '', 'play': 286617, 'review': 510, 'video_review': 319, 'favorites': 4758, 'mid': 1367296225, 'author': '西南大学Wii韩舞团', 'description': '使用音乐：BV13e4y177FY/https://m.youtube.com/watch?v=3hyPSICt4r8\n\n来自西南大学Wii韩舞团的：\n高双马尾/策划编排：@美丽女人锅酱  \n牛仔长裤：@黑糖啵啵梅子酒  \n短发：@请认准2000  \n短裤白腿套：@枭枭枭企鹅  \n黑披发：@是小韻啊啊啊 ', 'create': '2023-03-21 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/634d0e694493b753a8b66051dee89a68d01dec57.jpg', 'coins': 4010, 'duration': '3:25', 'badgepay': False, 'pts': 637736, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951521445', 'bvid': 'BV15s4y1H7g4', 'typename': '明星舞蹈', 'title': 'NMIXX最新回归曲Love Me Like This舞蹈接力版', 'subtitle': '', 'play': 274951, 'review': 341, 'video_review': 641, 'favorites': 4585, 'mid': 16720403, 'author': 'pcyxjy', 'description': 'yt', 'create': '2023-03-24 18:18', 'pic': 'http://i1.hdslb.com/bfs/archive/ab90f683f31fd5dfce5b5a5c4d0d31cfc4a4dd47.jpg', 'coins': 509, 'duration': '3:28', 'badgepay': False, 'pts': 598219, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '396371457', 'bvid': 'BV1oo4y1W7ZK', 'typename': '明星舞蹈', 'title': '告诉我，不拉腿是不是刚刚好？tell me～', 'subtitle': '', 'play': 948944, 'review': 1050, 'video_review': 350, 'favorites': 19630, 'mid': 36187475, 'author': '居居boom', 'description': '这个地真的摩擦力太大了，我都搓不起来hhhhhh\n音乐舞蹈：Tell\xa0me-Wonder\xa0Girls\n摄影后期：光轮', 'create': '2023-03-21 16:07', 'pic': 'http://i1.hdslb.com/bfs/archive/c2fd3ca5471d92011185d0fb35cfb6f833ed2534.jpg', 'coins': 3615, 'duration': '1:28', 'badgepay': False, 'pts': 1773089, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268806241', 'bvid': 'BV1Sc411j7W9', 'typename': '明星舞蹈', 'title': '【NMIXX】 "Love Me Like This" Stage Practice', 'subtitle': '', 'play': 624276, 'review': 3816, 'video_review': 2680, 'favorites': 23503, 'mid': 2115962425, 'author': 'NMIXX', 'description': '', 'create': '2023-03-21 21:00', 'pic': 'http://i1.hdslb.com/bfs/archive/657296fac9e8bfead782ce24139e70a3146d7349.jpg', 'coins': 29411, 'duration': '3:18', 'badgepay': False, 'pts': 1709385, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311278038', 'bvid': 'BV1MP411o7FH', 'typename': '明星舞蹈', 'title': '在深圳最高点跳《只因你太美》｜十万粉整活', 'subtitle': '', 'play': 917501, 'review': 1381, 'video_review': 1366, 'favorites': 12221, 'mid': 651410600, 'author': '中国平安', 'description': '筹备时间两月半的十万粉视频终于来了\n感谢大家对平总的支持和喜爱，今后也请多多为我一键三连吧！\nBGM：只因你太美\n舞蹈参考：BV1da411o7tB', 'create': '2023-03-20 14:36', 'pic': 'http://i0.hdslb.com/bfs/archive/1be317451b00cd3b7041ccd6ea3773e9833a47bc.jpg', 'coins': 7468, 'duration': '1:41', 'badgepay': False, 'pts': 1499231, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866416527', 'bvid': 'BV19V4y1Q7hZ', 'typename': '明星舞蹈', 'title': '让你一秒心动的学姐？What is love', 'subtitle': '', 'play': 408857, 'review': 274, 'video_review': 420, 'favorites': 19012, 'mid': 5028996, 'author': '莓可-w-', 'description': '这个舞录的有点不顺，路人有点多，只能没人的空档抓紧跳，真不容易~\n江边还是很美的~\n\n歌曲舞蹈出处：TWICE-What is love', 'create': '2023-03-23 18:05', 'pic': 'http://i1.hdslb.com/bfs/archive/acc912ea7cadad956d2693e3db050d6f7c7f42fa.jpg', 'coins': 3875, 'duration': '1:33', 'badgepay': False, 'pts': 1128064, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653786429', 'bvid': 'BV12Y4y1X7a9', 'typename': '明星舞蹈', 'title': '听说这是最佳夏日甜心舞？！和我一起《tell me tell me》吧！', 'subtitle': '', 'play': 448203, 'review': 379, 'video_review': 221, 'favorites': 10002, 'mid': 34967693, 'author': '每天都想吃小鱼干', 'description': '真的很喜欢这期的穿搭（超大声）一整个夏日住了 朋友圈很多老婆喜欢第二套哈哈哈（当然也有不少投第一套的） 大家可以猜猜鱼干更喜欢哪一套哦嘻嘻 后面有彩蛋别忘了看！希望这个舞蹈可以给你们带来一天的好心情耶！！！', 'create': '2023-03-21 16:45', 'pic': 'http://i2.hdslb.com/bfs/archive/b6573d7f25fc3d528c296877fa2db0f332f8b5dd.jpg', 'coins': 2604, 'duration': '1:29', 'badgepay': False, 'pts': 1013873, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441535082', 'bvid': 'BV1BL411D7MH', 'typename': '明星舞蹈', 'title': '【其其】斩不斩男不知道，应该有点斩女（我还不知道你们想看什么）', 'subtitle': '', 'play': 334812, 'review': 442, 'video_review': 299, 'favorites': 11353, 'mid': 18722787, 'author': '一个其其kiki', 'description': '这组还有哪些帅哥，评论区可以给大家安利一下！！！太齐了！！！！', 'create': '2023-03-23 23:41', 'pic': 'http://i0.hdslb.com/bfs/archive/0b644853f2108c0be74000384aee78e2f754415b.jpg', 'coins': 2504, 'duration': '0:25', 'badgepay': False, 'pts': 872045, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653884660', 'bvid': 'BV1vY4y1D722', 'typename': '明星舞蹈', 'title': '有腰精！春天怎么能少了牛仔裤？【U-Go-Girl有娜版】神级舞蹈挑战', 'subtitle': '', 'play': 235732, 'review': 232, 'video_review': 193, 'favorites': 10843, 'mid': 26328593, 'author': '耿清清呀', 'description': '拍摄现场用半小时现学的舞蹈有点不够满意，加上北京还没回暖身体着实冻僵了。。\n还想看的话点赞满1w重制一个定机位版吧！\n摄影：Z叔', 'create': '2023-03-23 19:05', 'pic': 'http://i2.hdslb.com/bfs/archive/f65ee52dcec0b90d3c039084f0a5b6b7a5993051.jpg', 'coins': 2797, 'duration': '1:17', 'badgepay': False, 'pts': 674482, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226339839', 'bvid': 'BV1wb411o7eg', 'typename': '明星舞蹈', 'title': '全网首创！这都能翻跳？DNA被打成中国结的KPOP曲混音【BLACKPINK x LE SSERAFIM x ITZY】', 'subtitle': '', 'play': 293877, 'review': 521, 'video_review': 325, 'favorites': 4889, 'mid': 1367296225, 'author': '西南大学Wii韩舞团', 'description': '使用音乐：BV13e4y177FY/https://m.youtube.com/watch?v=3hyPSICt4r8\n\n来自西南大学Wii韩舞团的：\n高双马尾/策划编排：@美丽女人锅酱  \n牛仔长裤：@黑糖啵啵梅子酒  \n短发：@请认准2000  \n短裤白腿套：@枭枭枭企鹅  \n黑披发：@是小韻啊啊啊 ', 'create': '2023-03-21 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/634d0e694493b753a8b66051dee89a68d01dec57.jpg', 'coins': 4095, 'duration': '3:25', 'badgepay': False, 'pts': 651985, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951290585', 'bvid': 'BV1Cs4y1p7T9', 'typename': '明星舞蹈', 'title': '【周子瑜】人歌橫拍！世首美來了！美神降臨！！！', 'subtitle': '', 'play': 258587, 'review': 684, 'video_review': 635, 'favorites': 7523, 'mid': 36016206, 'author': 'KPOP万事通', 'description': 'YouTube', 'create': '2023-03-20 18:45', 'pic': 'http://i1.hdslb.com/bfs/archive/da149858deeb43123e051a4ef5499657c40a99f6.jpg', 'coins': 1721, 'duration': '3:28', 'badgepay': False, 'pts': 643266, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951521445', 'bvid': 'BV15s4y1H7g4', 'typename': '明星舞蹈', 'title': 'NMIXX最新回归曲Love Me Like This舞蹈接力版', 'subtitle': '', 'play': 281503, 'review': 342, 'video_review': 646, 'favorites': 4656, 'mid': 16720403, 'author': 'pcyxjy', 'description': 'yt', 'create': '2023-03-24 18:18', 'pic': 'http://i1.hdslb.com/bfs/archive/ab90f683f31fd5dfce5b5a5c4d0d31cfc4a4dd47.jpg', 'coins': 515, 'duration': '3:28', 'badgepay': False, 'pts': 607877, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4705154</v>
+        <v>4752292</v>
       </c>
       <c r="I31" t="n">
-        <v>58181</v>
+        <v>58605</v>
       </c>
       <c r="J31" t="n">
-        <v>122487</v>
+        <v>123632</v>
       </c>
       <c r="K31" t="n">
         <v>8641</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中国舞</t>
+          <t>国风舞蹈</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1926,22 +1926,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>舞蹈(主分区)</t>
+          <t>舞蹈</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[{'aid': '696571107', 'bvid': 'BV18m4y167Gn', 'typename': '国风舞蹈', 'title': '“这小娘子如此娇俏，但怎么如傀儡一般呀？”｜三拜红尘凉之傀儡新娘【两版合集】', 'subtitle': '', 'play': 350941, 'review': 298, 'video_review': 177, 'favorites': 8187, 'mid': 4435541, 'author': '頎三73', 'description': '即兴小舞段，暂时不计入傀儡系列~\n还是有点带感滴～\n喜欢的人多以后考虑多发小舞段~\n音乐：三拜红尘凉\n舞蹈：頎三73\n妆造：柿子\n拍摄：林霖（正式）图灵（ccd）', 'create': '2023-03-25 16:40', 'pic': 'http://i1.hdslb.com/bfs/archive/9179650ae08881bc2642588fef8dbd1fa360ba36.jpg', 'coins': 1805, 'duration': '0:37', 'badgepay': False, 'pts': 809480, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569006884', 'bvid': 'BV1hv4y157FW', 'typename': '国风舞蹈', 'title': '小师妹终有一日长成了少女模样，这香香软软活蹦乱跳哒 真让人疼惜呢～', 'subtitle': '', 'play': 289913, 'review': 598, 'video_review': 313, 'favorites': 9704, 'mid': 35579222, 'author': '紫颜-小仙紫', 'description': '烟雨江湖 南知意小师妹上线啦！可太太太太厉害了吧！\n\n角色：《烟雨江湖》国际版—南知意\nbgm：《软玉温香》演唱 /编舞：红杉美少女', 'create': '2023-03-25 17:20', 'pic': 'http://i0.hdslb.com/bfs/archive/501b4091f2fed143e44c71268eebe064ca9350c7.jpg', 'coins': 3616, 'duration': '2:07', 'badgepay': False, 'pts': 742080, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781175553', 'bvid': 'BV1U24y1u7jK', 'typename': '国风舞蹈', 'title': '大宋疯雅之 三拜红尘凉', 'subtitle': '', 'play': 244293, 'review': 417, 'video_review': 506, 'favorites': 3951, 'mid': 295568661, 'author': '亚力克山大', 'description': 'bgm：三拜红尘凉\n编舞：无敌火火\n对不起，我尽力了', 'create': '2023-03-20 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/1631efd170daa64ca405d9e2aeaf6ca0ca989070.jpg', 'coins': 1366, 'duration': '0:44', 'badgepay': False, 'pts': 491729, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568851804', 'bvid': 'BV1Wv4y1j7Nk', 'typename': '国风舞蹈', 'title': '姥爷！夫人她又在湖边跳舞了，要抓回家吗？【笑纳】', 'subtitle': '', 'play': 96191, 'review': 185, 'video_review': 171, 'favorites': 7541, 'mid': 15116573, 'author': '璃狸MEOW', 'description': '摄影 羊叔\n参考 白小白\n歌曲 笑纳\n后期 自理', 'create': '2023-03-24 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7704aa85d78f721f2e17bb858155b4ee844692b5.jpg', 'coins': 1213, 'duration': '1:36', 'badgepay': False, 'pts': 354374, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353767126', 'bvid': 'BV1pX4y1Z7mf', 'typename': '国风舞蹈', 'title': '【翎雪】千里邀月~我曾一心向往天上的明月', 'subtitle': '', 'play': 91406, 'review': 404, 'video_review': 116, 'favorites': 8439, 'mid': 16668448, 'author': '翎上春雪', 'description': '编舞：BV12t411q7Ab\n音源：Hanser _ 三无Marblue _ 泠鸢yousa _ 茶理理理子 - 千里邀月\n后期大哥：@柴米青山下  \n这应该是最清晰的一次视频\n天气热起来了，跳一次就出汗了，要准备个小电风扇了', 'create': '2023-03-21 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/8ec74ceca2ba9ccbc42cd35074cd78bdceb18dc4.jpg', 'coins': 1038, 'duration': '2:48', 'badgepay': False, 'pts': 352123, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866564701', 'bvid': 'BV1UV4y1X7yP', 'typename': '国风舞蹈', 'title': '【单人初投稿】❀一袭华袍，染就一树芳华❀【七朵·咏春 】', 'subtitle': '', 'play': 88897, 'review': 248, 'video_review': 196, 'favorites': 5762, 'mid': 11128680, 'author': 'UOD-阿笪', 'description': '第一次单人投稿，感谢观看~\n仍有不足，我会继续加油哒！希望能得到你的\xa0关注+三连\xa0支持！\n\n编舞出处：七朵组合 BV1Ss411t7Jd\n摄影后期：老羊@老年瓜羊  \n后勤：由一@UOD-由一   里涵@UOD-里涵   膨小黑@UOD-膨小黑 ', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/26e6ef666d0b792a5445de0085ea8f308ba1d058.jpg', 'coins': 896, 'duration': '4:27', 'badgepay': False, 'pts': 309873, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696618571', 'bvid': 'BV1Xm4y167Rg', 'typename': '国风舞蹈', 'title': '春日明媚 旗袍姐姐出来跳舞啦！~ ❤眉南边', 'subtitle': '', 'play': 49240, 'review': 62, 'video_review': 102, 'favorites': 6737, 'mid': 4568488, 'author': '夏酥酥_', 'description': '', 'create': '2023-03-24 18:54', 'pic': 'http://i0.hdslb.com/bfs/archive/fe678da40d9085d5dfed71f4b78cea61363282ca.jpg', 'coins': 340, 'duration': '2:14', 'badgepay': False, 'pts': 243143, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738856896', 'bvid': 'BV11k4y1t7ji', 'typename': '国风舞蹈', 'title': '一生行善积德 刷到旗袍佳人跳舞是应得的《晚风心里吹》', 'subtitle': '', 'play': 68319, 'review': 90, 'video_review': 37, 'favorites': 4094, 'mid': 1756807376, 'author': '星光学园STARLIGHT', 'description': '-', 'create': '2023-03-20 17:25', 'pic': 'http://i2.hdslb.com/bfs/archive/66fb9bed50b36c2e4a553ced42fbb576a688da7d.jpg', 'coins': 504, 'duration': '1:21', 'badgepay': False, 'pts': 197462, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269053297', 'bvid': 'BV1Vc411L7BG', 'typename': '国风舞蹈', 'title': '阳光这么好，漂亮一下吧～', 'subtitle': '', 'play': 125371, 'review': 204, 'video_review': 39, 'favorites': 850, 'mid': 1454439996, 'author': '古金灵', 'description': '-', 'create': '2023-03-25 19:49', 'pic': 'http://i2.hdslb.com/bfs/archive/41288d7e2cd974f6f036256f441d81e45ea46c2e.jpg', 'coins': 437, 'duration': '0:21', 'badgepay': False, 'pts': 190864, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268803795', 'bvid': 'BV1mc411j7fp', 'typename': '国风舞蹈', 'title': '【竖屏】滴！帝王体验卡！如此甜糯的小仙女，一舞镜中渊能不能俘获你的心～', 'subtitle': '', 'play': 35082, 'review': 45, 'video_review': 10, 'favorites': 4338, 'mid': 15049310, 'author': '青稞芋泥陶可爱', 'description': '希望大家多多三连', 'create': '2023-03-21 17:57', 'pic': 'http://i2.hdslb.com/bfs/archive/3135c591c72e8db8a435e29514f6a51530baddce.jpg', 'coins': 288, 'duration': '1:54', 'badgepay': False, 'pts': 153864, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '696571107', 'bvid': 'BV18m4y167Gn', 'typename': '国风舞蹈', 'title': '“这小娘子如此娇俏，但怎么如傀儡一般呀？”｜三拜红尘凉之傀儡新娘【两版合集】', 'subtitle': '', 'play': 395254, 'review': 320, 'video_review': 183, 'favorites': 9347, 'mid': 4435541, 'author': '頎三73', 'description': '即兴小舞段，暂时不计入傀儡系列~\n还是有点带感滴～\n喜欢的人多以后考虑多发小舞段~\n音乐：三拜红尘凉\n舞蹈：頎三73\n妆造：柿子\n拍摄：林霖（正式）图灵（ccd）', 'create': '2023-03-25 16:40', 'pic': 'http://i1.hdslb.com/bfs/archive/9179650ae08881bc2642588fef8dbd1fa360ba36.jpg', 'coins': 2133, 'duration': '0:37', 'badgepay': False, 'pts': 907549, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569006884', 'bvid': 'BV1hv4y157FW', 'typename': '国风舞蹈', 'title': '小师妹终有一日长成了少女模样，这香香软软活蹦乱跳哒 真让人疼惜呢～', 'subtitle': '', 'play': 306259, 'review': 616, 'video_review': 325, 'favorites': 10246, 'mid': 35579222, 'author': '紫颜-小仙紫', 'description': '烟雨江湖 南知意小师妹上线啦！可太太太太厉害了吧！\n\n角色：《烟雨江湖》国际版—南知意\nbgm：《软玉温香》演唱 /编舞：红杉美少女', 'create': '2023-03-25 17:20', 'pic': 'http://i0.hdslb.com/bfs/archive/501b4091f2fed143e44c71268eebe064ca9350c7.jpg', 'coins': 3820, 'duration': '2:07', 'badgepay': False, 'pts': 783463, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568851804', 'bvid': 'BV1Wv4y1j7Nk', 'typename': '国风舞蹈', 'title': '姥爷！夫人她又在湖边跳舞了，要抓回家吗？【笑纳】', 'subtitle': '', 'play': 99770, 'review': 188, 'video_review': 173, 'favorites': 7804, 'mid': 15116573, 'author': '璃狸MEOW', 'description': '摄影 羊叔\n参考 白小白\n歌曲 笑纳\n后期 自理', 'create': '2023-03-24 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7704aa85d78f721f2e17bb858155b4ee844692b5.jpg', 'coins': 1251, 'duration': '1:36', 'badgepay': False, 'pts': 367051, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353767126', 'bvid': 'BV1pX4y1Z7mf', 'typename': '国风舞蹈', 'title': '【翎雪】千里邀月~我曾一心向往天上的明月', 'subtitle': '', 'play': 91888, 'review': 404, 'video_review': 116, 'favorites': 8486, 'mid': 16668448, 'author': '翎上春雪', 'description': '编舞：BV12t411q7Ab\n音源：Hanser _ 三无Marblue _ 泠鸢yousa _ 茶理理理子 - 千里邀月\n后期大哥：@柴米青山下  \n这应该是最清晰的一次视频\n天气热起来了，跳一次就出汗了，要准备个小电风扇了', 'create': '2023-03-21 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/8ec74ceca2ba9ccbc42cd35074cd78bdceb18dc4.jpg', 'coins': 1038, 'duration': '2:48', 'badgepay': False, 'pts': 353977, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866564701', 'bvid': 'BV1UV4y1X7yP', 'typename': '国风舞蹈', 'title': '【单人初投稿】❀一袭华袍，染就一树芳华❀【七朵·咏春 】', 'subtitle': '', 'play': 91931, 'review': 255, 'video_review': 199, 'favorites': 6008, 'mid': 11128680, 'author': 'UOD-阿笪', 'description': '第一次单人投稿，感谢观看~\n仍有不足，我会继续加油哒！希望能得到你的\xa0关注+三连\xa0支持！\n\n编舞出处：七朵组合 BV1Ss411t7Jd\n摄影后期：老羊@老年瓜羊  \n后勤：由一@UOD-由一   里涵@UOD-里涵   膨小黑@UOD-膨小黑 ', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/26e6ef666d0b792a5445de0085ea8f308ba1d058.jpg', 'coins': 934, 'duration': '4:27', 'badgepay': False, 'pts': 321748, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696618571', 'bvid': 'BV1Xm4y167Rg', 'typename': '国风舞蹈', 'title': '春日明媚 旗袍姐姐出来跳舞啦！~ ❤眉南边', 'subtitle': '', 'play': 51334, 'review': 62, 'video_review': 105, 'favorites': 6901, 'mid': 4568488, 'author': '夏酥酥_', 'description': '', 'create': '2023-03-24 18:54', 'pic': 'http://i0.hdslb.com/bfs/archive/fe678da40d9085d5dfed71f4b78cea61363282ca.jpg', 'coins': 349, 'duration': '2:14', 'badgepay': False, 'pts': 250930, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269053297', 'bvid': 'BV1Vc411L7BG', 'typename': '国风舞蹈', 'title': '阳光这么好，漂亮一下吧～', 'subtitle': '', 'play': 137362, 'review': 210, 'video_review': 43, 'favorites': 927, 'mid': 1454439996, 'author': '古金灵', 'description': '-', 'create': '2023-03-25 19:49', 'pic': 'http://i2.hdslb.com/bfs/archive/41288d7e2cd974f6f036256f441d81e45ea46c2e.jpg', 'coins': 471, 'duration': '0:21', 'badgepay': False, 'pts': 206063, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738856896', 'bvid': 'BV11k4y1t7ji', 'typename': '国风舞蹈', 'title': '一生行善积德 刷到旗袍佳人跳舞是应得的《晚风心里吹》', 'subtitle': '', 'play': 68613, 'review': 90, 'video_review': 37, 'favorites': 4104, 'mid': 1756807376, 'author': '星光学园STARLIGHT', 'description': '-', 'create': '2023-03-20 17:25', 'pic': 'http://i2.hdslb.com/bfs/archive/66fb9bed50b36c2e4a553ced42fbb576a688da7d.jpg', 'coins': 504, 'duration': '1:21', 'badgepay': False, 'pts': 198264, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696653943', 'bvid': 'BV1Nm4y1r7wP', 'typename': '国风舞蹈', 'title': '不是风动，是心动… 青蛇◆竖屏', 'subtitle': '', 'play': 37484, 'review': 96, 'video_review': 261, 'favorites': 4796, 'mid': 2400404, 'author': '卡卡Orange', 'description': '七朵组合青蛇翻跳\n摄影@CYPC千本  \n后期自理\n本来月底想再发一个投稿的，结果全被考试冲了TAT…发竖屏先谢个罪！', 'create': '2023-03-26 18:21', 'pic': 'http://i0.hdslb.com/bfs/archive/0f56f744e6d9d7f4e403d1577977e1fc26546937.jpg', 'coins': 803, 'duration': '1:46', 'badgepay': False, 'pts': 172621, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569124745', 'bvid': 'BV1iv4y1G74v', 'typename': '国风舞蹈', 'title': '【剑网三】大美江湖·七秀坊献舞！再一次为秀秀沉沦！！锦鲤原创编舞', 'subtitle': '', 'play': 61384, 'review': 276, 'video_review': 106, 'favorites': 1760, 'mid': 34740453, 'author': '点娘www', 'description': '太喜欢七秀了，终于终于为七秀坊做出一支满意的作品！！！\n出镜舞见：\n雪河秀姐：点娘\n蚩灵秀姐：西钰\n驰冥秀姐：玖璃\n秦风秀姐：浅灯\n凌绝秀姐：容让\n夺夜秀太：喻泽萧\n雪河秀萝：三水 \n摄影/后期：猫猫@绯山圣瞳九命猫  \n策划/编舞/导演：点娘\n统筹：点娘，西钰\n大家辛苦啦！！！！', 'create': '2023-03-25 15:20', 'pic': 'http://i0.hdslb.com/bfs/archive/5365d67c33f92a798b074c287bb0767a88c629d4.jpg', 'coins': 1713, 'duration': '2:26', 'badgepay': False, 'pts': 162330, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1439653</v>
+        <v>1341279</v>
       </c>
       <c r="I32" t="n">
-        <v>11503</v>
+        <v>13016</v>
       </c>
       <c r="J32" t="n">
-        <v>59603</v>
+        <v>60379</v>
       </c>
       <c r="K32" t="n">
         <v>2139</v>
@@ -1949,1196 +1949,1192 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>单机游戏</t>
+          <t>手势·网红舞</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>stand_alone</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>以所有平台（pc、主机、移动端）的单机或联机游戏为主的视频内容，包括游戏预告、cg、实况解说及相关的评测、杂谈与视频剪辑等</t>
-        </is>
-      </c>
+          <t>gestures</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>/v/game/stand_alone(opens new window)</t>
+          <t>/v/dance/gestures</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>游戏(主分区)</t>
+          <t>舞蹈</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[{'aid': '611378611', 'bvid': 'BV1M84y137gb', 'typename': '单机游戏', 'title': '当历史老师突然在课堂上打开了刺客信条...', 'subtitle': '', 'play': 3457831, 'review': 2401, 'video_review': 1856, 'favorites': 64040, 'mid': 353731697, 'author': '源计划喷', 'description': '', 'create': '2023-03-23 21:43', 'pic': 'http://i1.hdslb.com/bfs/archive/8a27c173c9fe261d59fc86beee53ea70add8e85c.jpg', 'coins': 10756, 'duration': '1:39', 'badgepay': False, 'pts': 4272736, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866405140', 'bvid': 'BV1SV4y1Q7ie', 'typename': '单机游戏', 'title': '【4KHDR】老戴《生化危机4 重制版》【正式版】【无死亡】【硬核难度全流程攻略解说】', 'subtitle': '', 'play': 1437223, 'review': 2313, 'video_review': 12774, 'favorites': 21889, 'mid': 2142762, 'author': '老戴在此', 'description': '生化危机4将于2023年3月24日正式发售，有幸提前拿到了游戏，使用PC版、一周目最高难度（硬核难度）画质拉满，以4K60帧HDR的规格录制了流程攻略，不要忘记一键三连哦。', 'create': '2023-03-23 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/220cc4de2d38c4c1e9d83dd84ab17301bb33f3cb.jpg', 'coins': 48357, 'duration': '37:36', 'badgepay': False, 'pts': 2525043, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226545317', 'bvid': 'BV1th411G7HS', 'typename': '单机游戏', 'title': '现实中水和岩浆相碰，会发生什么？【失败版/非科普/娱乐视频】', 'subtitle': '', 'play': 2003811, 'review': 1054, 'video_review': 4469, 'favorites': 33688, 'mid': 390527713, 'author': '史蒂猪StevenPig', 'description': '这期视频不是很成功，最后只能把最近补的知识和半成功的实践带给大家，抱歉！\n12月开始就买到了熔炉，又因为各种因素和困难，不得不断断续续录制，写文案，剪辑，\n最后才努力接近了我想要的结果。\n可能会有些小伙伴觉得最后不符合预期，我其实自己也对这个结果有些失落的。\n自己也努力了那么久却没有特别成功，如果本期视频点赞过十万，我将会继续进行下去，把成功版本发到不盈利的P2，因为猪猪还有其他视频，还有生活，如果再次全身心投入在其中很不实际。\n关注我可以持续收看后续。', 'create': '2023-03-25 09:30', 'pic': 'http://i0.hdslb.com/bfs/archive/b06d41fb326d188a86ddb4aad72c21c95cd4a8f5.jpg', 'coins': 36775, 'duration': '11:14', 'badgepay': False, 'pts': 2395349, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484002437', 'bvid': 'BV1cT411z7Gv', 'typename': '单机游戏', 'title': '这哪里还是游戏 明明就是现实！！！', 'subtitle': '', 'play': 1377438, 'review': 729, 'video_review': 400, 'favorites': 20374, 'mid': 1076872109, 'author': 'FISH-MC', 'description': '', 'create': '2023-03-25 09:45', 'pic': 'http://i1.hdslb.com/bfs/archive/e673fecdee0bc98e147333139a5f4cf91c367d87.jpg', 'coins': 1487, 'duration': '0:50', 'badgepay': False, 'pts': 2346060, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611568071', 'bvid': 'BV1N84y1G7QP', 'typename': '单机游戏', 'title': '这个游戏出现在21世纪还是太抽象了！！', 'subtitle': '', 'play': 1020499, 'review': 2376, 'video_review': 10258, 'favorites': 32051, 'mid': 1577804, 'author': '某幻君', 'description': '游戏：Gingiva \n注意口腔卫生，从你我做起', 'create': '2023-03-25 11:55', 'pic': 'http://i2.hdslb.com/bfs/archive/393cd8b514f639815500feae2b4df4efa75b04c9.jpg', 'coins': 58037, 'duration': '20:00', 'badgepay': False, 'pts': 2280250, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696421810', 'bvid': 'BV1em4y1k7Vy', 'typename': '单机游戏', 'title': '《反恐精英2》正式公开！基于《CSGO》免费升级 画面、音效、体验全面翻新', 'subtitle': '', 'play': 1392822, 'review': 4520, 'video_review': 1882, 'favorites': 8965, 'mid': 19432127, 'author': 'A9VG', 'description': '来源：油管\nValve正式官宣《反恐精英2》将于2023年夏季登陆PC，本作基于起源2引擎开发，从《反恐精英 全球攻势》免费升级，对之前的视觉效果、音效、系统、内容与体验进行全面翻新，玩家之前的《CSGO》全部库存可带到《CS2》中。\n\n官方表示游戏将引入子刷新频率（Sub-Tick）更新，刷新率将不会影响玩家的每次移动与射击，服务器将精准追踪每次玩家动作的时机。', 'create': '2023-03-23 01:13', 'pic': 'http://i2.hdslb.com/bfs/archive/97e3d6c2882bf1e536ab71bb3f1ebd750a6e472d.jpg', 'coins': 2371, 'duration': '4:29', 'badgepay': False, 'pts': 2047584, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653761291', 'bvid': 'BV1SY4y1X7x5', 'typename': '单机游戏', 'title': '十年光阴，岁月如梭', 'subtitle': '', 'play': 2631639, 'review': 3171, 'video_review': 1444, 'favorites': 15433, 'mid': 544543388, 'author': '悲伤韭菜鸡蛋汤', 'description': '游戏给予了我们不一样的人生', 'create': '2023-03-20 14:58', 'pic': 'http://i1.hdslb.com/bfs/archive/8c5a28e6eda4c51fa3af448d211e926ceed48d8e.jpg', 'coins': 3190, 'duration': '1:04', 'badgepay': False, 'pts': 1756353, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739051780', 'bvid': 'BV1Nk4y147Nu', 'typename': '单机游戏', 'title': '你可曾见过如此丝滑的魂斗罗通关？', 'subtitle': '', 'play': 947277, 'review': 2197, 'video_review': 3381, 'favorites': 8281, 'mid': 1376607804, 'author': '七颗星星丶', 'description': '魂斗罗在当年被称为国民级的FC游戏不为过。只要你曾玩过魂斗罗，这部视频就绝对值得一看，它记录了这款最经典童年游戏中，隐藏着的各种不为人知的通关技巧，非常精彩，整体流程德芙般丝滑。', 'create': '2023-03-24 15:54', 'pic': 'http://i0.hdslb.com/bfs/archive/088eaa9e345502e67192660b8cd63850507bbfb5.jpg', 'coins': 31369, 'duration': '10:07', 'badgepay': False, 'pts': 1751827, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781273846', 'bvid': 'BV1H24y1E7Ro', 'typename': '单机游戏', 'title': '《斗鲲大陆》游戏实机演示！篮球武魂杀穿小黑子！', 'subtitle': '', 'play': 1142639, 'review': 789, 'video_review': 324, 'favorites': 11454, 'mid': 3493124544399905, 'author': '诡仙人在此', 'description': '斗鲲大陆开局必选篮球武魂！\n\nBGM来源：Taotie炮灰', 'create': '2023-03-21 19:15', 'pic': 'http://i2.hdslb.com/bfs/archive/9174991159d2b48a04a0e082d4ec18e22fd421f2.jpg', 'coins': 5858, 'duration': '1:21', 'badgepay': False, 'pts': 1696015, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526315996', 'bvid': 'BV15M411p7E3', 'typename': '单机游戏', 'title': '逃离学妹', 'subtitle': '', 'play': 796712, 'review': 888, 'video_review': 7629, 'favorites': 11823, 'mid': 15634833, 'author': '鲤鱼Ace', 'description': '逃离学妹，日常模式通关，全新通关动画！', 'create': '2023-03-21 18:32', 'pic': 'http://i1.hdslb.com/bfs/archive/ce03ec2e2d0869f26d8b0aee16d4729b3f8f68d2.jpg', 'coins': 8434, 'duration': '25:24', 'badgepay': False, 'pts': 1555489, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '484006867', 'bvid': 'BV1wT411z7bM', 'typename': '手势·网红舞', 'title': '快和你的好兄弟一起跳!【猛男版】trouble maker', 'subtitle': '', 'play': 1434100, 'review': 968, 'video_review': 539, 'favorites': 10089, 'mid': 483879799, 'author': '猛男舞团IconX', 'description': 'BGM: Trouble Maker\nDancer: Daneil, Maezon \nProduction co-ordinator: NN', 'create': '2023-03-24 15:50', 'pic': 'http://i0.hdslb.com/bfs/archive/347c30ee2587145e4c41467ec9029b77b7ad04bc.jpg', 'coins': 12791, 'duration': '0:26', 'badgepay': False, 'pts': 2131288, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738890680', 'bvid': 'BV1Zk4y1t7gW', 'typename': '手势·网红舞', 'title': '抓 钱 舞 直 拍', 'subtitle': '', 'play': 808118, 'review': 1110, 'video_review': 303, 'favorites': 16636, 'mid': 15892313, 'author': '知名相声演员BBBBB大王', 'description': '抓 钱 舞 直 拍', 'create': '2023-03-22 19:03', 'pic': 'http://i2.hdslb.com/bfs/archive/d004d77786bcf458747b8f42b9a47817ca7492f2.jpg', 'coins': 14163, 'duration': '0:19', 'badgepay': False, 'pts': 1657694, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653948795', 'bvid': 'BV1oY4y1D7MG', 'typename': '手势·网红舞', 'title': '果然我这个男孩子不适合跳这个舞！', 'subtitle': '', 'play': 482625, 'review': 362, 'video_review': 120, 'favorites': 11430, 'mid': 3493120773720587, 'author': '一家人的小窝', 'description': '-', 'create': '2023-03-22 21:18', 'pic': 'http://i0.hdslb.com/bfs/archive/60f340e65b51425c617a5b0c1121b0c3af169e71.jpg', 'coins': 4293, 'duration': '0:19', 'badgepay': False, 'pts': 1095467, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526344139', 'bvid': 'BV1nM411p7Dd', 'typename': '手势·网红舞', 'title': '自由热烈 赤诚勇敢', 'subtitle': '', 'play': 535856, 'review': 424, 'video_review': 135, 'favorites': 12336, 'mid': 259286222, 'author': '小民同学o', 'description': '-', 'create': '2023-03-20 18:25', 'pic': 'http://i1.hdslb.com/bfs/archive/3179426e353ddf2e59ad6e5d68964d6c43abcb71.jpg', 'coins': 2064, 'duration': '0:10', 'badgepay': False, 'pts': 1049137, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781350142', 'bvid': 'BV1224y1E7Gx', 'typename': '手势·网红舞', 'title': '少儿频道🤨', 'subtitle': '', 'play': 373985, 'review': 232, 'video_review': 48, 'favorites': 6100, 'mid': 34173336, 'author': '可以吃的小奶糖', 'description': '少儿频道🤨', 'create': '2023-03-21 12:07', 'pic': 'http://i0.hdslb.com/bfs/archive/2e7e37c6f2a47b4c7283367678b88aee67efead0.jpg', 'coins': 2247, 'duration': '0:13', 'badgepay': False, 'pts': 731391, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611461180', 'bvid': 'BV1k84y137Rf', 'typename': '手势·网红舞', 'title': '不 喜 欢 小 姨？', 'subtitle': '', 'play': 284439, 'review': 243, 'video_review': 29, 'favorites': 6226, 'mid': 4974304, 'author': '千夜未来Senyamiku', 'description': '谁还没有小姨？肯定不是我(｡ ˇ‸ˇ ｡)', 'create': '2023-03-22 20:30', 'pic': 'http://i2.hdslb.com/bfs/archive/fdac0474d3a64489e1fbe46f917830cd8f6265e8.jpg', 'coins': 1653, 'duration': '0:14', 'badgepay': False, 'pts': 616781, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696373383', 'bvid': 'BV1gm4y1k7dj', 'typename': '手势·网红舞', 'title': '才 艺 表 演', 'subtitle': '', 'play': 245371, 'review': 320, 'video_review': 97, 'favorites': 4881, 'mid': 502909621, 'author': '表情包Aliga', 'description': '出镜：@矮乐多Aliga  @害羞7 ', 'create': '2023-03-21 14:02', 'pic': 'http://i1.hdslb.com/bfs/archive/60792e352e67809119296a4825608183367f759f.jpg', 'coins': 1386, 'duration': '0:16', 'badgepay': False, 'pts': 523528, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396467406', 'bvid': 'BV1xo4y1s7MD', 'typename': '手势·网红舞', 'title': '不 如 跳 舞 2', 'subtitle': '', 'play': 69340, 'review': 100, 'video_review': 14, 'favorites': 9317, 'mid': 1905878, 'author': '铁板欧尼酱', 'description': '我再发发我的小舞蹈！！有一种手脚不协调的美', 'create': '2023-03-22 19:53', 'pic': 'http://i1.hdslb.com/bfs/archive/cd6b20a60bb9e13b98f64413eedf4151b721e8fc.jpg', 'coins': 641, 'duration': '0:28', 'badgepay': False, 'pts': 348188, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483934753', 'bvid': 'BV1rT411B7pz', 'typename': '手势·网红舞', 'title': '⚡Q弹小呆毛  一遍就上头⚡', 'subtitle': '', 'play': 134021, 'review': 984, 'video_review': 314, 'favorites': 4191, 'mid': 672328094, 'author': '嘉然今天吃什么', 'description': '（运营代发）\n————————————————\n原曲：Toca Toca\n翻跳：嘉然\n场景：自制\n动作：动作捕捉', 'create': '2023-03-26 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/b2a9ac4d15e27166900359568e161c1add433bd6.jpg', 'coins': 9666, 'duration': '0:22', 'badgepay': False, 'pts': 331593, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824043981', 'bvid': 'BV1Dg4y1W7TP', 'typename': '手势·网红舞', 'title': '球场上的神秘小女生', 'subtitle': '', 'play': 113463, 'review': 376, 'video_review': 38, 'favorites': 2493, 'mid': 1338715561, 'author': '凛子同学提不起劲', 'description': '球场上的神秘小女生', 'create': '2023-03-25 13:35', 'pic': 'http://i1.hdslb.com/bfs/archive/4f127eddb17d3623e66c580a5911b88b01f799b2.jpg', 'coins': 1577, 'duration': '0:15', 'badgepay': False, 'pts': 263999, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>16207891</v>
+        <v>4481318</v>
       </c>
       <c r="I33" t="n">
-        <v>206634</v>
+        <v>50481</v>
       </c>
       <c r="J33" t="n">
-        <v>227998</v>
+        <v>83699</v>
       </c>
       <c r="K33" t="n">
-        <v>176028</v>
+        <v>6979</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>电子竞技</t>
+          <t>单机游戏</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>esports</t>
+          <t>stand_alone</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>具有高对抗性的电子竞技游戏项目，其相关的赛事、实况、攻略、解说、短剧等视频。</t>
+          <t>以所有平台（pc、主机、移动端）的单机或联机游戏为主的视频内容，包括游戏预告、cg、实况解说及相关的评测、杂谈与视频剪辑等</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>/v/game/esports(opens new window)</t>
+          <t>/v/game/stand_alone(opens new window)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>游戏(主分区)</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[{'aid': '654030329', 'bvid': 'BV1aY4y1Q7wv', 'typename': '电子竞技', 'title': '最快赚钱世界纪录：6分钟赚24421金币！只需快这半秒就足够了！', 'subtitle': '', 'play': 1678005, 'review': 1471, 'video_review': 5727, 'favorites': 14092, 'mid': 25503580, 'author': '布锅锅', 'description': '久等了！本期内容超丰富时长超级加倍！请一定耐心看完！全片超级精彩！求三连啊谢谢各位！！！\n数据图：@Nocturne777  \n后期：@筱尘想吃猫猫虫 ', 'create': '2023-03-24 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/41027e8bb18b859ae71e0f7d7e9b07d14cdbf249.jpg', 'coins': 48147, 'duration': '30:37', 'badgepay': False, 'pts': 2473579, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611162481', 'bvid': 'BV1T84y1w7ar', 'typename': '电子竞技', 'title': '大多数去职校学电竞的人都怎样了？这个视频给你答案！', 'subtitle': '', 'play': 1255955, 'review': 3482, 'video_review': 5417, 'favorites': 11054, 'mid': 9824766, 'author': '敬汉卿', 'description': '视频上集bv：BV1Tk4y1t7ii\n视频到这里了我就和大家讲一下职业学校真正的意义吧！先不讲初中毕业直接出身社会的人吧！我觉得在一个建立三观的年纪太早去社会上可能回很容易放纵自己的欲望，需要找人管着自己，况且现在的情况也不一样了，职业学校现在也可以考大专，也可以通过读书上一个大学，这职业学校里面学技术的话也真的可以学到技术，毕业一般都可以包分配，当然最重要的是大多数职业学校学费几乎等于0，在学习过程中还可以赚钱，减轻家庭的负担！比如我当初的职业学校（当然这次我拍摄的学校学费挺贵，自然也不会出现把人往工', 'create': '2023-03-20 09:00', 'pic': 'http://i2.hdslb.com/bfs/archive/3fb5c79b183e40769e29c7eee281d69b5f77d1d2.jpg', 'coins': 50257, 'duration': '13:33', 'badgepay': False, 'pts': 1759237, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824095401', 'bvid': 'BV17g4y1s7Ws', 'typename': '电子竞技', 'title': '关羽3大终极技巧！史诗级加强！', 'subtitle': '', 'play': 754199, 'review': 2292, 'video_review': 1238, 'favorites': 18494, 'mid': 39560763, 'author': 'Study苏打锋', 'description': '-', 'create': '2023-03-24 19:16', 'pic': 'http://i1.hdslb.com/bfs/archive/6c8674863152fa7cc8d0c9472adeb9a34b8a4e16.jpg', 'coins': 17076, 'duration': '4:52', 'badgepay': False, 'pts': 1722594, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738760786', 'bvid': 'BV1jk4y1t7pB', 'typename': '电子竞技', 'title': '英雄联盟：剑魔深情演唱，挪威的森林！', 'subtitle': '', 'play': 886159, 'review': 801, 'video_review': 583, 'favorites': 10676, 'mid': 521686097, 'author': 'LOL二哈', 'description': 'AI语音是咱们站作者：今天绑了丸子头   做的  \n感觉这个烟嗓好有特色\n正好借这个语音来测试下模型的表情绑定是否还有啥问题 \n感谢大家支持  感谢 今天绑了丸子头', 'create': '2023-03-21 17:45', 'pic': 'http://i0.hdslb.com/bfs/archive/4a7464554639feffb754ff386e0549d50375e09c.jpg', 'coins': 12767, 'duration': '1:19', 'badgepay': False, 'pts': 1644331, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396404295', 'bvid': 'BV1To4y1s7rF', 'typename': '电子竞技', 'title': '这波操作放眼全宇宙也是相当炸裂', 'subtitle': '', 'play': 1044319, 'review': 469, 'video_review': 116, 'favorites': 10763, 'mid': 96223608, 'author': '疯狂叶秋', 'description': '-', 'create': '2023-03-23 16:51', 'pic': 'http://i2.hdslb.com/bfs/archive/cf160fb0400debd2beb71d5c269118f73678f04a.jpg', 'coins': 2675, 'duration': '0:11', 'badgepay': False, 'pts': 1634712, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739013758', 'bvid': 'BV1Ck4y1x7vD', 'typename': '电子竞技', 'title': '大型纪录片-《文森特传奇》', 'subtitle': '', 'play': 882264, 'review': 590, 'video_review': 393, 'favorites': 5918, 'mid': 1430774824, 'author': '文森特', 'description': '大型纪录片-《文森特传奇》', 'create': '2023-03-25 17:26', 'pic': 'http://i0.hdslb.com/bfs/archive/bd5eb98ef5020ce57b688a589ba15e2efac21e98.jpg', 'coins': 18908, 'duration': '1:49', 'badgepay': False, 'pts': 1494542, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396341191', 'bvid': 'BV1Go4y1B79G', 'typename': '电子竞技', 'title': '啊太美味了～', 'subtitle': '', 'play': 1217682, 'review': 713, 'video_review': 959, 'favorites': 8148, 'mid': 535486511, 'author': '我是弹纸儿', 'description': '-', 'create': '2023-03-20 14:54', 'pic': 'http://i1.hdslb.com/bfs/archive/56d8e1b731b007a098b9b29c1f2eebb823513fcd.jpg', 'coins': 5627, 'duration': '3:42', 'badgepay': False, 'pts': 1465079, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526610662', 'bvid': 'BV1EM411g7zu', 'typename': '电子竞技', 'title': '这里是！为我所统帅的战场！！！', 'subtitle': '', 'play': 1099621, 'review': 678, 'video_review': 652, 'favorites': 8556, 'mid': 262503053, 'author': '佐悠-Leisurely', 'description': '呃！那个悠子马上就要破100万粉丝啦！希望大家可以多关注三连助力一下鸭！谢谢啦！\n粉丝群：966818272（来！）\n呃！我不打扰！\n我走了哈！', 'create': '2023-03-24 17:40', 'pic': 'http://i2.hdslb.com/bfs/archive/d16dd17f2ffdf60e47d7f0f859eef44293a6dcdc.jpg', 'coins': 13893, 'duration': '3:50', 'badgepay': False, 'pts': 1459036, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823872134', 'bvid': 'BV1Bg4y1x7dN', 'typename': '电子竞技', 'title': '【2023LPL春季赛】3月21日 WE vs WBG', 'subtitle': '', 'play': 970958, 'review': 3381, 'video_review': 11750, 'favorites': 926, 'mid': 50329118, 'author': '哔哩哔哩英雄联盟赛事', 'description': '【2023LPL春季赛】3月21日 WE vs WBG', 'create': '2023-03-21 20:24', 'pic': 'http://i0.hdslb.com/bfs/archive/85f6999236755a918968d037562daedc0c091657.jpg', 'coins': 1178, 'duration': '209:00', 'badgepay': False, 'pts': 1452037, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738786360', 'bvid': 'BV1Vk4y1t767', 'typename': '电子竞技', 'title': '这人机守约，我哭死。', 'subtitle': '', 'play': 1381925, 'review': 459, 'video_review': 159, 'favorites': 27377, 'mid': 454548778, 'author': '冒牌军师哦', 'description': '-', 'create': '2023-03-21 17:44', 'pic': 'http://i0.hdslb.com/bfs/archive/366c0710d39154b09afeaf937e5b9871357981f5.jpg', 'coins': 1084, 'duration': '1:23', 'badgepay': False, 'pts': 1418956, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '611378611', 'bvid': 'BV1M84y137gb', 'typename': '单机游戏', 'title': '当历史老师突然在课堂上打开了刺客信条...', 'subtitle': '', 'play': 3513856, 'review': 2465, 'video_review': 1884, 'favorites': 65073, 'mid': 353731697, 'author': '源计划喷', 'description': '', 'create': '2023-03-23 21:43', 'pic': 'http://i1.hdslb.com/bfs/archive/8a27c173c9fe261d59fc86beee53ea70add8e85c.jpg', 'coins': 11097, 'duration': '1:39', 'badgepay': False, 'pts': 4318996, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866405140', 'bvid': 'BV1SV4y1Q7ie', 'typename': '单机游戏', 'title': '【4KHDR】老戴《生化危机4 重制版》【正式版】【无死亡】【硬核难度全流程攻略解说】', 'subtitle': '', 'play': 1482712, 'review': 2335, 'video_review': 12926, 'favorites': 22176, 'mid': 2142762, 'author': '老戴在此', 'description': '生化危机4将于2023年3月24日正式发售，有幸提前拿到了游戏，使用PC版、一周目最高难度（硬核难度）画质拉满，以4K60帧HDR的规格录制了流程攻略，不要忘记一键三连哦。', 'create': '2023-03-23 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/220cc4de2d38c4c1e9d83dd84ab17301bb33f3cb.jpg', 'coins': 48914, 'duration': '37:36', 'badgepay': False, 'pts': 2570704, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226545317', 'bvid': 'BV1th411G7HS', 'typename': '单机游戏', 'title': '在现实中制作岩浆怎么那么难呐，蠢失败了！【非科普/娱乐视频】', 'subtitle': '', 'play': 2113812, 'review': 1093, 'video_review': 4600, 'favorites': 35606, 'mid': 390527713, 'author': '史蒂猪StevenPig', 'description': '这期视频不是很成功，最后只能把最近补的知识和半成功的实践带给大家，抱歉！\n12月开始就买到了熔炉，又因为各种因素和困难，不得不断断续续录制，写文案，剪辑，\n最后才努力接近了我想要的结果。\n可能会有些小伙伴觉得最后不符合预期，我其实自己也对这个结果有些失落的。\n自己也努力了那么久却没有特别成功，如果本期视频点赞过十万，我将会继续进行下去，把成功版本发到不盈利的P2，因为猪猪还有其他视频，还有生活，如果再次全身心投入在其中很不实际。\n关注我可以持续收看后续。', 'create': '2023-03-25 09:30', 'pic': 'http://i0.hdslb.com/bfs/archive/b06d41fb326d188a86ddb4aad72c21c95cd4a8f5.jpg', 'coins': 38068, 'duration': '11:14', 'badgepay': False, 'pts': 2495308, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484002437', 'bvid': 'BV1cT411z7Gv', 'typename': '单机游戏', 'title': '这哪里还是游戏 明明就是现实！！！', 'subtitle': '', 'play': 1405772, 'review': 758, 'video_review': 405, 'favorites': 20873, 'mid': 1076872109, 'author': 'FISH-MC', 'description': '', 'create': '2023-03-25 09:45', 'pic': 'http://i1.hdslb.com/bfs/archive/e673fecdee0bc98e147333139a5f4cf91c367d87.jpg', 'coins': 1548, 'duration': '0:50', 'badgepay': False, 'pts': 2384265, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611568071', 'bvid': 'BV1N84y1G7QP', 'typename': '单机游戏', 'title': '这个游戏出现在21世纪还是太抽象了！！', 'subtitle': '', 'play': 1082398, 'review': 2409, 'video_review': 10423, 'favorites': 33097, 'mid': 1577804, 'author': '某幻君', 'description': '游戏：Gingiva \n注意口腔卫生，从你我做起', 'create': '2023-03-25 11:55', 'pic': 'http://i2.hdslb.com/bfs/archive/393cd8b514f639815500feae2b4df4efa75b04c9.jpg', 'coins': 59687, 'duration': '20:00', 'badgepay': False, 'pts': 2370824, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696421810', 'bvid': 'BV1em4y1k7Vy', 'typename': '单机游戏', 'title': '《反恐精英2》正式公开！基于《CSGO》免费升级 画面、音效、体验全面翻新', 'subtitle': '', 'play': 1397217, 'review': 4540, 'video_review': 1888, 'favorites': 8975, 'mid': 19432127, 'author': 'A9VG', 'description': '来源：油管\nValve正式官宣《反恐精英2》将于2023年夏季登陆PC，本作基于起源2引擎开发，从《反恐精英 全球攻势》免费升级，对之前的视觉效果、音效、系统、内容与体验进行全面翻新，玩家之前的《CSGO》全部库存可带到《CS2》中。\n\n官方表示游戏将引入子刷新频率（Sub-Tick）更新，刷新率将不会影响玩家的每次移动与射击，服务器将精准追踪每次玩家动作的时机。', 'create': '2023-03-23 01:13', 'pic': 'http://i2.hdslb.com/bfs/archive/97e3d6c2882bf1e536ab71bb3f1ebd750a6e472d.jpg', 'coins': 2371, 'duration': '4:29', 'badgepay': False, 'pts': 2051289, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739051780', 'bvid': 'BV1Nk4y147Nu', 'typename': '单机游戏', 'title': '你可曾见过如此丝滑的魂斗罗通关？', 'subtitle': '', 'play': 1019052, 'review': 2286, 'video_review': 3530, 'favorites': 8899, 'mid': 1376607804, 'author': '七颗星星丶', 'description': '魂斗罗在当年被称为国民级的FC游戏不为过。只要你曾玩过魂斗罗，这部视频就绝对值得一看，它记录了这款最经典童年游戏中，隐藏着的各种不为人知的通关技巧，非常精彩，整体流程德芙般丝滑。\n\n封面制作者：WillNie坚果威尔', 'create': '2023-03-24 15:54', 'pic': 'http://i0.hdslb.com/bfs/archive/088eaa9e345502e67192660b8cd63850507bbfb5.jpg', 'coins': 33797, 'duration': '10:07', 'badgepay': False, 'pts': 1850919, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653761291', 'bvid': 'BV1SY4y1X7x5', 'typename': '单机游戏', 'title': '十年光阴，岁月如梭', 'subtitle': '', 'play': 2646999, 'review': 3177, 'video_review': 1449, 'favorites': 15544, 'mid': 544543388, 'author': '悲伤韭菜鸡蛋汤', 'description': '游戏给予了我们不一样的人生', 'create': '2023-03-20 14:58', 'pic': 'http://i1.hdslb.com/bfs/archive/8c5a28e6eda4c51fa3af448d211e926ceed48d8e.jpg', 'coins': 3227, 'duration': '1:04', 'badgepay': False, 'pts': 1764561, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781273846', 'bvid': 'BV1H24y1E7Ro', 'typename': '单机游戏', 'title': '《斗鲲大陆》游戏实机演示！篮球武魂杀穿小黑子！', 'subtitle': '', 'play': 1149571, 'review': 792, 'video_review': 326, 'favorites': 11519, 'mid': 3493124544399905, 'author': '诡仙人在此', 'description': '斗鲲大陆开局必选篮球武魂！\n\nBGM来源：Taotie炮灰', 'create': '2023-03-21 19:15', 'pic': 'http://i2.hdslb.com/bfs/archive/9174991159d2b48a04a0e082d4ec18e22fd421f2.jpg', 'coins': 5901, 'duration': '1:21', 'badgepay': False, 'pts': 1702989, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441509396', 'bvid': 'BV1hL411D7MU', 'typename': '单机游戏', 'title': '植物大战僵尸的真面貌？', 'subtitle': '', 'play': 1592652, 'review': 166, 'video_review': 420, 'favorites': 40327, 'mid': 478281534, 'author': '我真是小熊Game', 'description': '如果你喜欢我的视频，就长按点赞支持一下吧~o(╥﹏╥)o', 'create': '2023-03-24 16:15', 'pic': 'http://i2.hdslb.com/bfs/archive/77ae06bd8aa51eb155a64bc35bf151677b4ce457.jpg', 'coins': 2795, 'duration': '4:07', 'badgepay': False, 'pts': 1576516, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>11171087</v>
+        <v>17404041</v>
       </c>
       <c r="I34" t="n">
-        <v>171612</v>
+        <v>207405</v>
       </c>
       <c r="J34" t="n">
-        <v>116004</v>
+        <v>262089</v>
       </c>
       <c r="K34" t="n">
-        <v>95134</v>
+        <v>176028</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>手机游戏</t>
+          <t>电子竞技</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>mobile</t>
+          <t>esports</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>以手机及平板设备为主要平台的游戏，其相关的实况、攻略、解说、短剧、演示等视频。</t>
+          <t>具有高对抗性的电子竞技游戏项目，其相关的赛事、实况、攻略、解说、短剧等视频。</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>/v/game/mobile(opens new window)</t>
+          <t>/v/game/esports(opens new window)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>游戏(主分区)</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[{'aid': '611356791', 'bvid': 'BV1G84y137P1', 'typename': '手机游戏', 'title': '【危机合约】"起源行动"无名庇护所18镀层+日替全关卡攻略！摆完挂机+平民低配攻略合集！《明日方舟》|魔法Zc目录 难度18', 'subtitle': '', 'play': 2730256, 'review': 7255, 'video_review': 4268, 'favorites': 22302, 'mid': 13164144, 'author': '魔法Zc目录', 'description': '《明日方舟》危机合约“起源行动”全关卡攻略！包含18镀层打法+每日轮换攻略，每张图都会有摆完挂机+低配平民 两种攻略。\r\n可以说，在这半个月的危机合约中，你只需要这一个视频，即可快乐打完每一天关卡！', 'create': '2023-03-21 16:45', 'pic': 'http://i0.hdslb.com/bfs/archive/15efd654d712cb0e735326c2efeee2e337bdbdd6.jpg', 'coins': 40784, 'duration': '78:16', 'badgepay': False, 'pts': 3562904, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568800928', 'bvid': 'BV1Ev4y1j79y', 'typename': '手机游戏', 'title': '【起源行动】无名庇护所18+挑战+每日8级 摆完挂机 简单好抄（危机合约合集，持续更新中，更新至3.26小丘郡物流站8）', 'subtitle': '', 'play': 2907163, 'review': 4357, 'video_review': 3333, 'favorites': 22439, 'mid': 31009079, 'author': '萧然Q', 'description': '本视频为为懒人向挂机流攻略，不排斥手动开启的技能但少用，遇到难挂机的关卡会选择简单好抄的手动打法，非低配攻略。\n\n视频里默认常用的干员:桃金娘1、德狗2、推王2、拉狗2、山2、棘刺3、煌2、银灰1、克洛丝、能天使1、临光1或者谷米1（需要地面医疗的时候但塞妈已经用了需要再补个奶盾）、塞雷娅12、星熊2（建议开X模组加防御，也可以用年二级模组带2技能替换）、泥岩2、闪灵2、夜莺2、白面鸮2、艾雅法拉2、小火龙2、阿米娅2\n\n难关会多用的干员:史尔特尔3、银灰3、蓝毒1（补攻击次数）、能天使3（因为需要对轴而', 'create': '2023-03-21 19:05', 'pic': 'http://i0.hdslb.com/bfs/archive/15331e8c7732507699d4a29d89201101946052b9.jpg', 'coins': 61758, 'duration': '65:59', 'badgepay': False, 'pts': 3427949, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738905295', 'bvid': 'BV1Sk4y1t7RC', 'typename': '手机游戏', 'title': '这班上的还不如回家种田', 'subtitle': '', 'play': 2244155, 'review': 3008, 'video_review': 12675, 'favorites': 29363, 'mid': 2206456, 'author': '花少北丶', 'description': '工作压力大？我选择回家种田\n喜欢本视频的小伙伴不要忘了三连！', 'create': '2023-03-22 12:36', 'pic': 'http://i1.hdslb.com/bfs/archive/49a500e849437aa3b5acee7ae0cfe5b5ca3a3b20.jpg', 'coins': 53925, 'duration': '7:06', 'badgepay': False, 'pts': 3068499, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994123933', 'bvid': 'BV1ms4y1S7Q4', 'typename': '手机游戏', 'title': '《崩坏：星穹铁道》前瞻特别节目', 'subtitle': '', 'play': 1211273, 'review': 10270, 'video_review': 21998, 'favorites': 18585, 'mid': 1340190821, 'author': '崩坏星穹铁道', 'description': '《崩坏：星穹铁道》将于2023年4月26日开启全平台公测，欢迎各位开拓者登上星穹列车，一同享受开拓的旅途！', 'create': '2023-03-24 22:50', 'pic': 'http://i1.hdslb.com/bfs/archive/642b0d56ab1cd113a92aeeaab1cecb1de91a4eac.jpg', 'coins': 31944, 'duration': '48:13', 'badgepay': False, 'pts': 2384819, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611461253', 'bvid': 'BV1k84y137Xq', 'typename': '手机游戏', 'title': '满配红刀哥 VS 全地面六星干员，传奇之所以是传奇……【明日方舟】', 'subtitle': '', 'play': 1406803, 'review': 2363, 'video_review': 3074, 'favorites': 14920, 'mid': 12073864, 'author': '-碱式碳酸咸鱼-', 'description': 'BGM：\n网易云歌单搜索：大群，需要音乐\n1. Operation Blade - 塞壬唱片-MSR,陈雪燃.flac\n2. Bass Bomber (feat. R5on11c) - Alan Aztec.flac\n\n视频中所有红刀哥练度均为90级专三，潜能尽量高，如果实装模组为“火与钢”模组和+50%攻击的模组\n战斗过程中不能使用任何的帮助和拐，且不能在敌方罚站时白嫖伤害，可以随意使用冲锋技能\n只要成功进入蓝门或击倒敌方在场所有单位即判定我方胜利\n敌方快速复活-处决者与行商分支的干员可以一起部署，互相', 'create': '2023-03-22 07:39', 'pic': 'http://i0.hdslb.com/bfs/archive/b091204a4161321e80072f47d4355b2769ae53d2.jpg', 'coins': 15051, 'duration': '7:30', 'badgepay': False, 'pts': 2332421, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268853524', 'bvid': 'BV1Rc411j7Zt', 'typename': '手机游戏', 'title': '【渊默行动】首杀危机等级39 灾渊首言登神默 怒海掌握逆世钩', 'subtitle': '', 'play': 929002, 'review': 4166, 'video_review': 5229, 'favorites': 27754, 'mid': 441449841, 'author': '莱茵实验组', 'description': '思路构筑：@没有-MeiYou  、@法术大师-A2  \n思路优化及参与攻略：@双酚c  、@冰灵冰灵冰灵冰  、@空祈_  、@空白要努力  、@想想十三会怎么装  、@创伤性百分之12攻略组  、@阿良是个大聪明  、@一只木木夕_  、@晋文公1  \n最终攻克：@空祈_  \n账号提供：\n日服：左经加拉康，花丸\n国际服：Kestrel egoist\n繁中服：懶貓、妮妮、誰在乎、竹鼠、aha\n后期：@一只木木夕_  、@假日威龙陈阿颐  \n封面：@白纸camy  \n片头：@NTIM-2020  \n繁中服', 'create': '2023-03-21 10:59', 'pic': 'http://i2.hdslb.com/bfs/archive/622e4b26e4dbd9bf374e7b1260f991a04f2db294.jpg', 'coins': 63787, 'duration': '18:12', 'badgepay': False, 'pts': 2121119, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823711537', 'bvid': 'BV1Sg4y1s7Qp', 'typename': '手机游戏', 'title': '《原神》EP - 春露漫散之虹', 'subtitle': '', 'play': 1454318, 'review': 5692, 'video_review': 7971, 'favorites': 23229, 'mid': 401742377, 'author': '原神', 'description': '漫步行，初入林樾，寒露带霜。\n且停候，日影晃晃，长虹如廊。\n\nStroll in the Shadows 山阴漫步\n\n作曲 Composer：陈致逸 Yu-Peng Chen (HOYO-MiX)\n乐队配器 Orchestrator：陈致逸 Yu-Peng Chen (HOYO-MiX)\n混音师 Mixing Engineer：Nick Wollage\n混音助理 Mixing Assistant：Tom Bailey\n母带制作 Mastering Engineer：John Webber\n出品 Produ', 'create': '2023-03-20 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/a9ff67d11946e83eb270b8bdf329f7318f1fc8cf.jpg', 'coins': 42179, 'duration': '2:50', 'badgepay': False, 'pts': 2007743, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441596200', 'bvid': 'BV1TL411Q7NH', 'typename': '手机游戏', 'title': '你还我一双没有看过的眼睛', 'subtitle': '', 'play': 1123661, 'review': 542, 'video_review': 585, 'favorites': 13465, 'mid': 1717870167, 'author': '孤影_原神', 'description': '-', 'create': '2023-03-24 17:59', 'pic': 'http://i0.hdslb.com/bfs/archive/d418a97b313ddbf004f456d4495201abcc5157d8.jpg', 'coins': 618, 'duration': '0:37', 'badgepay': False, 'pts': 1776460, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653868460', 'bvid': 'BV16Y4y1D7yR', 'typename': '手机游戏', 'title': '起源行动18', 'subtitle': '', 'play': 709599, 'review': 4216, 'video_review': 1150, 'favorites': 18239, 'mid': 334052890, 'author': '之梅零落', 'description': '', 'create': '2023-03-21 19:37', 'pic': 'http://i1.hdslb.com/bfs/archive/04c1021be09267556749e763667ae9545dd40ed4.jpg', 'coins': 23946, 'duration': '3:36', 'badgepay': False, 'pts': 1720428, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438791152', 'bvid': 'BV1pL411d7ny', 'typename': '手机游戏', 'title': '共鸣测试概念PV丨重启', 'subtitle': '', 'play': 1050114, 'review': 6821, 'video_review': 1384, 'favorites': 8351, 'mid': 1955897084, 'author': '鸣潮', 'description': '若闭环将至，你将以何作答？唤醒我，让回响再临。\n\n《鸣潮》「共鸣测试」招募现已开启，欢迎漂泊者前往（https://b23.tv/FYWaFjp）\n\n《鸣潮》开发进行中，更多信息请持续关注我们。\n游戏预约：（https://wutheringwaves.biligame.com/yy）', 'create': '2023-03-21 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/1e556f712441ceb9e16f58a674fb42b9bcafaae3.jpg', 'coins': 17249, 'duration': '1:20', 'badgepay': False, 'pts': 1697340, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '654030329', 'bvid': 'BV1aY4y1Q7wv', 'typename': '电子竞技', 'title': '最快赚钱世界纪录：6分钟赚24421金币！只需快这半秒就足够了！', 'subtitle': '', 'play': 1743487, 'review': 1523, 'video_review': 5861, 'favorites': 14546, 'mid': 25503580, 'author': '布锅锅', 'description': '久等了！本期内容超丰富时长超级加倍！请一定耐心看完！全片超级精彩！求三连啊谢谢各位！！！\n数据图：@Nocturne777  \n后期：@筱尘想吃猫猫虫 ', 'create': '2023-03-24 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/41027e8bb18b859ae71e0f7d7e9b07d14cdbf249.jpg', 'coins': 49712, 'duration': '30:37', 'badgepay': False, 'pts': 2532984, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824095401', 'bvid': 'BV17g4y1s7Ws', 'typename': '电子竞技', 'title': '关羽3大终极技巧！史诗级加强！', 'subtitle': '', 'play': 773676, 'review': 2335, 'video_review': 1267, 'favorites': 18950, 'mid': 39560763, 'author': 'Study苏打锋', 'description': '-', 'create': '2023-03-24 19:16', 'pic': 'http://i1.hdslb.com/bfs/archive/6c8674863152fa7cc8d0c9472adeb9a34b8a4e16.jpg', 'coins': 17491, 'duration': '4:52', 'badgepay': False, 'pts': 1759631, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739013758', 'bvid': 'BV1Ck4y1x7vD', 'typename': '电子竞技', 'title': '大型纪录片-《文森特传奇》', 'subtitle': '', 'play': 1020695, 'review': 660, 'video_review': 430, 'favorites': 6734, 'mid': 1430774824, 'author': '文森特', 'description': '大型纪录片-《文森特传奇》', 'create': '2023-03-25 17:26', 'pic': 'http://i0.hdslb.com/bfs/archive/bd5eb98ef5020ce57b688a589ba15e2efac21e98.jpg', 'coins': 21763, 'duration': '1:49', 'badgepay': False, 'pts': 1668803, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738760786', 'bvid': 'BV1jk4y1t7pB', 'typename': '电子竞技', 'title': '英雄联盟：剑魔深情演唱，挪威的森林！', 'subtitle': '', 'play': 892165, 'review': 810, 'video_review': 587, 'favorites': 10792, 'mid': 521686097, 'author': 'LOL二哈', 'description': 'AI语音是咱们站作者：今天绑了丸子头   做的  \n感觉这个烟嗓好有特色\n正好借这个语音来测试下模型的表情绑定是否还有啥问题 \n感谢大家支持  感谢 今天绑了丸子头', 'create': '2023-03-21 17:45', 'pic': 'http://i0.hdslb.com/bfs/archive/4a7464554639feffb754ff386e0549d50375e09c.jpg', 'coins': 12880, 'duration': '1:19', 'badgepay': False, 'pts': 1654701, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396404295', 'bvid': 'BV1To4y1s7rF', 'typename': '电子竞技', 'title': '这波操作放眼全宇宙也是相当炸裂', 'subtitle': '', 'play': 1052583, 'review': 469, 'video_review': 116, 'favorites': 10849, 'mid': 96223608, 'author': '疯狂叶秋', 'description': '-', 'create': '2023-03-23 16:51', 'pic': 'http://i2.hdslb.com/bfs/archive/cf160fb0400debd2beb71d5c269118f73678f04a.jpg', 'coins': 2705, 'duration': '0:11', 'badgepay': False, 'pts': 1643325, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526610662', 'bvid': 'BV1EM411g7zu', 'typename': '电子竞技', 'title': '这里是！为我所统帅的战场！！！', 'subtitle': '', 'play': 1175760, 'review': 736, 'video_review': 691, 'favorites': 8806, 'mid': 262503053, 'author': '佐悠-Leisurely', 'description': '呃！那个悠子马上就要破100万粉丝啦！希望大家可以多关注三连助力一下鸭！谢谢啦！\n粉丝群：966818272（来！）\n呃！我不打扰！\n我走了哈！', 'create': '2023-03-24 17:40', 'pic': 'http://i2.hdslb.com/bfs/archive/d16dd17f2ffdf60e47d7f0f859eef44293a6dcdc.jpg', 'coins': 14283, 'duration': '3:50', 'badgepay': False, 'pts': 1514944, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396341191', 'bvid': 'BV1Go4y1B79G', 'typename': '电子竞技', 'title': '啊太美味了～', 'subtitle': '', 'play': 1224433, 'review': 719, 'video_review': 965, 'favorites': 8229, 'mid': 535486511, 'author': '我是弹纸儿', 'description': '-', 'create': '2023-03-20 14:54', 'pic': 'http://i1.hdslb.com/bfs/archive/56d8e1b731b007a098b9b29c1f2eebb823513fcd.jpg', 'coins': 5686, 'duration': '3:42', 'badgepay': False, 'pts': 1472971, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823872134', 'bvid': 'BV1Bg4y1x7dN', 'typename': '电子竞技', 'title': '【2023LPL春季赛】3月21日 WE vs WBG', 'subtitle': '', 'play': 973843, 'review': 3381, 'video_review': 11789, 'favorites': 926, 'mid': 50329118, 'author': '哔哩哔哩英雄联盟赛事', 'description': '【2023LPL春季赛】3月21日 WE vs WBG', 'create': '2023-03-21 20:24', 'pic': 'http://i0.hdslb.com/bfs/archive/85f6999236755a918968d037562daedc0c091657.jpg', 'coins': 1180, 'duration': '209:00', 'badgepay': False, 'pts': 1454748, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738786360', 'bvid': 'BV1Vk4y1t767', 'typename': '电子竞技', 'title': '这人机守约，我哭死。', 'subtitle': '', 'play': 1394821, 'review': 467, 'video_review': 160, 'favorites': 27673, 'mid': 454548778, 'author': '冒牌军师哦', 'description': '-', 'create': '2023-03-21 17:44', 'pic': 'http://i0.hdslb.com/bfs/archive/366c0710d39154b09afeaf937e5b9871357981f5.jpg', 'coins': 1095, 'duration': '1:23', 'badgepay': False, 'pts': 1430777, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611502607', 'bvid': 'BV1184y1378C', 'typename': '电子竞技', 'title': '这操作放眼整个王者也是非常炸裂的！！！', 'subtitle': '', 'play': 1457792, 'review': 258, 'video_review': 585, 'favorites': 9914, 'mid': 282067352, 'author': '小仙燃起来了', 'description': '好好笑的简介！', 'create': '2023-03-24 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/1fc2fd646d87068d365503476f1ad157dc048d58.jpg', 'coins': 3260, 'duration': '2:48', 'badgepay': False, 'pts': 1380096, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15766344</v>
+        <v>11709255</v>
       </c>
       <c r="I35" t="n">
-        <v>351241</v>
+        <v>130055</v>
       </c>
       <c r="J35" t="n">
-        <v>198647</v>
+        <v>117419</v>
       </c>
       <c r="K35" t="n">
-        <v>312320</v>
+        <v>95134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>网络游戏</t>
+          <t>手机游戏</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>mobile</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>由网络运营商运营的多人在线游戏，以及电子竞技的相关游戏内容。包括赛事、攻略、实况、解说等相关视频</t>
+          <t>以手机及平板设备为主要平台的游戏，其相关的实况、攻略、解说、短剧、演示等视频。</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>/v/game/online(opens new window)</t>
+          <t>/v/game/mobile(opens new window)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>游戏(主分区)</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[{'aid': '611398715', 'bvid': 'BV1W84y137ZG', 'typename': '网络游戏', 'title': '《 你 在 切 一 下 看 看 》', 'subtitle': '', 'play': 998060, 'review': 1121, 'video_review': 195, 'favorites': 16085, 'mid': 475267554, 'author': 'CSGO公子', 'description': '来源于互联网', 'create': '2023-03-22 19:31', 'pic': 'http://i1.hdslb.com/bfs/archive/98abb524b2de5bd1b350e8a691721d797a11fee2.jpg', 'coins': 4409, 'duration': '0:31', 'badgepay': False, 'pts': 1902976, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396316278', 'bvid': 'BV1Ro4y1q7Ui', 'typename': '网络游戏', 'title': '十年网龄才知道的CF版本，还记得挑战模式刚出的那个夏天吗？（2009突围模式-2012火麒麟版本）', 'subtitle': '', 'play': 732693, 'review': 1839, 'video_review': 3719, 'favorites': 5045, 'mid': 235630215, 'author': '国电武术馆馆长', 'description': '刷B站的时候发现\n关于CF载入界面相关的视频里弹幕有大量"我入坑了"的讨论\n在整理资料的时候得知CF从公测至今已经经历了大大小小数百次更新\n这个已经有十多年历史的游戏里，每个人的入坑时间也是不同的\n这期视频不如就做一期“入坑时间”游戏更新的版本编年史吧\n希望大家能够从视频里回想起自己打CF时的同年回忆。\n因版本实在太多所以本视频分期制作\n本期时间跨度为2009突围模式-2012火麒麟版本\n\n-----------------------------------------\n\n上期：\nBV1gL411f7f', 'create': '2023-03-21 19:03', 'pic': 'http://i1.hdslb.com/bfs/archive/3efd41f23b27feab14e9a6f15377945f13b9a8b7.jpg', 'coins': 13110, 'duration': '9:32', 'badgepay': False, 'pts': 1338873, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611472181', 'bvid': 'BV1q84y1376Y', 'typename': '网络游戏', 'title': '【屑27】有科学味道的圣遗物强化玄学？虽然我不信，但……', 'subtitle': '', 'play': 395557, 'review': 527, 'video_review': 128, 'favorites': 25329, 'mid': 389665283, 'author': '屑27', 'description': '-', 'create': '2023-03-23 20:48', 'pic': 'http://i1.hdslb.com/bfs/archive/1b02317eb678b983f0815c437d3862cffc739eed.jpg', 'coins': 2015, 'duration': '1:45', 'badgepay': False, 'pts': 1305349, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226378829', 'bvid': 'BV1Nb411o7Km', 'typename': '网络游戏', 'title': '《 门 截 裂 夫 🔫 》', 'subtitle': '', 'play': 836747, 'review': 515, 'video_review': 666, 'favorites': 8926, 'mid': 1078633469, 'author': '伞斌一号', 'description': '', 'create': '2023-03-22 12:05', 'pic': 'http://i1.hdslb.com/bfs/archive/7192f0703f539b02c33537bd5b3cd948edc5ae5f.jpg', 'coins': 1019, 'duration': '2:48', 'badgepay': False, 'pts': 1276558, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483839909', 'bvid': 'BV1QT41167Mh', 'typename': '网络游戏', 'title': '优菈999w演示，载入原神史册，终结了原神核爆最强之争，登顶神座！', 'subtitle': '', 'play': 606311, 'review': 1198, 'video_review': 641, 'favorites': 8396, 'mid': 496143336, 'author': '爱玩原神的敢敢', 'description': '优菈纪录590w至999w\n9月23至2月16，载入史册！\n优菈成功登顶！感谢团队的每一位成员', 'create': '2023-03-21 21:08', 'pic': 'http://i1.hdslb.com/bfs/archive/ac75009ed10d9ee96a14997127f54a19835afa27.jpg', 'coins': 12454, 'duration': '2:11', 'badgepay': False, 'pts': 1233637, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781381316', 'bvid': 'BV1R24y1E7j3', 'typename': '网络游戏', 'title': '“一模一样”2.0', 'subtitle': '', 'play': 434143, 'review': 316, 'video_review': 70, 'favorites': 17859, 'mid': 341673367, 'author': '白色海雾', 'description': '-', 'create': '2023-03-22 17:10', 'pic': 'http://i1.hdslb.com/bfs/archive/4c78ebc7d69d90f3819a164024f37f1fe415223d.jpg', 'coins': 2914, 'duration': '0:29', 'badgepay': False, 'pts': 1177375, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353755906', 'bvid': 'BV13X4y1Z766', 'typename': '网络游戏', 'title': '穆桂英刀马旦申请出战，谁的听戏DNA动了！', 'subtitle': '', 'play': 1083886, 'review': 1427, 'video_review': 2595, 'favorites': 12856, 'mid': 21619102, 'author': '网易逆水寒', 'description': '2020年起，每年3月27日“世界戏曲日”逆水寒都会和传统剧种展开联动，让传统文化也能以数字方式乘风破浪，以巨轮之姿驶向全球。\n而今年，我们特邀梅（兰芳）派第三代传人、国家一级演员、中国戏剧梅花奖获得者的张馨月老师参与，通过动作捕捉技术，将传世名曲《穆桂英挂帅》的经典唱段带进了梨韵阁。\n3月23日，让我们一齐前往梨韵阁，感受穆桂英的英武干练，感受京剧的荡气回肠！\n\nPS：部分助演非北京京剧院专业演员', 'create': '2023-03-20 13:51', 'pic': 'http://i2.hdslb.com/bfs/archive/731ed756590968183eba28acfcb6619baeb80217.jpg', 'coins': 9555, 'duration': '2:38', 'badgepay': False, 'pts': 1087465, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483903145', 'bvid': 'BV1GT411r7uM', 'typename': '网络游戏', 'title': '原来你是这样的孤云阁', 'subtitle': '', 'play': 787262, 'review': 1065, 'video_review': 308, 'favorites': 6360, 'mid': 496905518, 'author': '酒啊老陈', 'description': '-', 'create': '2023-03-23 17:58', 'pic': 'http://i2.hdslb.com/bfs/archive/e99c3d8de3ce6a7b4d094109b223eeb0c0ac2395.jpg', 'coins': 749, 'duration': '0:11', 'badgepay': False, 'pts': 1026157, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653926030', 'bvid': 'BV1ZY4y1D7Qx', 'typename': '网络游戏', 'title': '打游戏变个身不过分吧？【迫击炮快乐阴人流#10】', 'subtitle': '', 'play': 465294, 'review': 685, 'video_review': 2352, 'favorites': 7951, 'mid': 46708782, 'author': '鲁大能', 'description': '点个关注成为股东！\n相信我！\n你也能成为光！', 'create': '2023-03-22 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/b6e65b245096d36088a67682b5678c0fe7e474cf.jpg', 'coins': 23157, 'duration': '6:32', 'badgepay': False, 'pts': 945360, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226393000', 'bvid': 'BV1Mb411o76B', 'typename': '网络游戏', 'title': '快乐，便是卸掉枷锁', 'subtitle': '', 'play': 506076, 'review': 500, 'video_review': 218, 'favorites': 1759, 'mid': 410421425, 'author': '阿喵的小生活', 'description': '虽然不是技术主播，但也不影响我获得快乐', 'create': '2023-03-23 18:02', 'pic': 'http://i1.hdslb.com/bfs/archive/4613de466ae1550e6d083c1bfb18fa844b15c359.jpg', 'coins': 18146, 'duration': '1:42', 'badgepay': False, 'pts': 908375, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '611356791', 'bvid': 'BV1G84y137P1', 'typename': '手机游戏', 'title': '【危机合约】"起源行动"无名庇护所18镀层+日替全关卡攻略！摆完挂机+平民低配攻略合集！《明日方舟》|魔法Zc目录 难度18', 'subtitle': '', 'play': 2836995, 'review': 7424, 'video_review': 4475, 'favorites': 22543, 'mid': 13164144, 'author': '魔法Zc目录', 'description': '《明日方舟》危机合约“起源行动”全关卡攻略！包含18镀层打法+每日轮换攻略，每张图都会有摆完挂机+低配平民 两种攻略。\r\n可以说，在这半个月的危机合约中，你只需要这一个视频，即可快乐打完每一天关卡！', 'create': '2023-03-21 16:45', 'pic': 'http://i0.hdslb.com/bfs/archive/15efd654d712cb0e735326c2efeee2e337bdbdd6.jpg', 'coins': 41685, 'duration': '85:24', 'badgepay': False, 'pts': 3622002, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568800928', 'bvid': 'BV1Ev4y1j79y', 'typename': '手机游戏', 'title': '【起源行动】无名庇护所18+挑战+每日8级 摆完挂机 简单好抄（危机合约合集，持续更新中，更新至3.27在建沙滩8）', 'subtitle': '', 'play': 3066322, 'review': 4462, 'video_review': 3479, 'favorites': 22796, 'mid': 31009079, 'author': '萧然Q', 'description': '本视频为为懒人向挂机流攻略，不排斥手动开启的技能但少用，遇到难挂机的关卡会选择简单好抄的手动打法，非低配攻略。\n\n视频里默认常用的干员:桃金娘1、德狗2、推王2、拉狗2、山2、棘刺3、煌2、银灰1、克洛丝、能天使1、临光1或者谷米1（需要地面医疗的时候但塞妈已经用了需要再补个奶盾）、塞雷娅12、星熊2（建议开X模组加防御，也可以用年二级模组带2技能替换）、泥岩2、闪灵2、夜莺2、白面鸮2、艾雅法拉2、小火龙2、阿米娅2\n\n难关会多用的干员:史尔特尔3、银灰3、蓝毒1（补攻击次数）、能天使3（因为需要对轴而', 'create': '2023-03-21 19:05', 'pic': 'http://i0.hdslb.com/bfs/archive/15331e8c7732507699d4a29d89201101946052b9.jpg', 'coins': 63783, 'duration': '72:39', 'badgepay': False, 'pts': 3516632, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738905295', 'bvid': 'BV1Sk4y1t7RC', 'typename': '手机游戏', 'title': '这班上的还不如回家种田', 'subtitle': '', 'play': 2249384, 'review': 3017, 'video_review': 12696, 'favorites': 29422, 'mid': 2206456, 'author': '花少北丶', 'description': '工作压力大？我选择回家种田\n喜欢本视频的小伙伴不要忘了三连！', 'create': '2023-03-22 12:36', 'pic': 'http://i1.hdslb.com/bfs/archive/49a500e849437aa3b5acee7ae0cfe5b5ca3a3b20.jpg', 'coins': 54062, 'duration': '7:06', 'badgepay': False, 'pts': 3073382, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994123933', 'bvid': 'BV1ms4y1S7Q4', 'typename': '手机游戏', 'title': '《崩坏：星穹铁道》前瞻特别节目', 'subtitle': '', 'play': 1237541, 'review': 10391, 'video_review': 22356, 'favorites': 18789, 'mid': 1340190821, 'author': '崩坏星穹铁道', 'description': '《崩坏：星穹铁道》将于2023年4月26日开启全平台公测，欢迎各位开拓者登上星穹列车，一同享受开拓的旅途！', 'create': '2023-03-24 22:50', 'pic': 'http://i1.hdslb.com/bfs/archive/642b0d56ab1cd113a92aeeaab1cecb1de91a4eac.jpg', 'coins': 32344, 'duration': '48:13', 'badgepay': False, 'pts': 2419805, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611461253', 'bvid': 'BV1k84y137Xq', 'typename': '手机游戏', 'title': '满配红刀哥 VS 全地面六星干员，传奇之所以是传奇……【明日方舟】', 'subtitle': '', 'play': 1416130, 'review': 2368, 'video_review': 3085, 'favorites': 14985, 'mid': 12073864, 'author': '-碱式碳酸咸鱼-', 'description': 'BGM：\n网易云歌单搜索：大群，需要音乐\n1. Operation Blade - 塞壬唱片-MSR,陈雪燃.flac\n2. Bass Bomber (feat. R5on11c) - Alan Aztec.flac\n\n视频中所有红刀哥练度均为90级专三，潜能尽量高，如果实装模组为“火与钢”模组和+50%攻击的模组\n战斗过程中不能使用任何的帮助和拐，且不能在敌方罚站时白嫖伤害，可以随意使用冲锋技能\n只要成功进入蓝门或击倒敌方在场所有单位即判定我方胜利\n敌方快速复活-处决者与行商分支的干员可以一起部署，互相', 'create': '2023-03-22 07:39', 'pic': 'http://i0.hdslb.com/bfs/archive/b091204a4161321e80072f47d4355b2769ae53d2.jpg', 'coins': 15103, 'duration': '7:30', 'badgepay': False, 'pts': 2339994, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268853524', 'bvid': 'BV1Rc411j7Zt', 'typename': '手机游戏', 'title': '【渊默行动】首杀危机等级39 灾渊首言登神默 怒海掌握逆世钩', 'subtitle': '', 'play': 934752, 'review': 4184, 'video_review': 5238, 'favorites': 27852, 'mid': 441449841, 'author': '莱茵实验组', 'description': '思路构筑：@没有-MeiYou  、@法术大师-A2  \n思路优化及参与攻略：@双酚c  、@冰灵冰灵冰灵冰  、@空祈_  、@空白要努力  、@想想十三会怎么装  、@创伤性百分之12攻略组  、@阿良是个大聪明  、@一只木木夕_  、@晋文公1  \n最终攻克：@空祈_  \n账号提供：\n日服：左经加拉康，花丸\n国际服：Kestrel egoist\n繁中服：懶貓、妮妮、誰在乎、竹鼠、aha\n后期：@一只木木夕_  、@假日威龙陈阿颐  \n封面：@白纸camy  \n片头：@NTIM-2020  \n繁中服', 'create': '2023-03-21 10:59', 'pic': 'http://i2.hdslb.com/bfs/archive/622e4b26e4dbd9bf374e7b1260f991a04f2db294.jpg', 'coins': 64022, 'duration': '18:12', 'badgepay': False, 'pts': 2131253, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441596200', 'bvid': 'BV1TL411Q7NH', 'typename': '手机游戏', 'title': '你还我一双没有看过的眼睛', 'subtitle': '', 'play': 1154513, 'review': 562, 'video_review': 605, 'favorites': 13840, 'mid': 1717870167, 'author': '孤影_原神', 'description': '-', 'create': '2023-03-24 17:59', 'pic': 'http://i0.hdslb.com/bfs/archive/d418a97b313ddbf004f456d4495201abcc5157d8.jpg', 'coins': 642, 'duration': '0:37', 'badgepay': False, 'pts': 1815894, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653868460', 'bvid': 'BV16Y4y1D7yR', 'typename': '手机游戏', 'title': '起源行动18', 'subtitle': '', 'play': 712672, 'review': 4223, 'video_review': 1155, 'favorites': 18289, 'mid': 334052890, 'author': '之梅零落', 'description': '', 'create': '2023-03-21 19:37', 'pic': 'http://i1.hdslb.com/bfs/archive/04c1021be09267556749e763667ae9545dd40ed4.jpg', 'coins': 24013, 'duration': '3:36', 'badgepay': False, 'pts': 1725875, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438791152', 'bvid': 'BV1pL411d7ny', 'typename': '手机游戏', 'title': '共鸣测试概念PV丨重启', 'subtitle': '', 'play': 1058461, 'review': 6865, 'video_review': 1388, 'favorites': 8373, 'mid': 1955897084, 'author': '鸣潮', 'description': '若闭环将至，你将以何作答？唤醒我，让回响再临。\n\n《鸣潮》「共鸣测试」招募现已开启，欢迎漂泊者前往（https://b23.tv/FYWaFjp）\n\n《鸣潮》开发进行中，更多信息请持续关注我们。\n游戏预约：（https://wutheringwaves.biligame.com/yy）', 'create': '2023-03-21 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/1e556f712441ceb9e16f58a674fb42b9bcafaae3.jpg', 'coins': 17306, 'duration': '1:20', 'badgepay': False, 'pts': 1706157, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483758649', 'bvid': 'BV1BT41167iZ', 'typename': '手机游戏', 'title': '神 里 太 美.exe', 'subtitle': '', 'play': 641410, 'review': 1105, 'video_review': 785, 'favorites': 20812, 'mid': 96806357, 'author': '北鹿萌爱', 'description': '逆天', 'create': '2023-03-21 19:50', 'pic': 'http://i2.hdslb.com/bfs/archive/335cbb6d6b5bc6c6a97255cb714af6330ff16cc7.jpg', 'coins': 11725, 'duration': '3:41', 'badgepay': False, 'pts': 1566276, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6846029</v>
+        <v>15308180</v>
       </c>
       <c r="I36" t="n">
-        <v>87528</v>
+        <v>324685</v>
       </c>
       <c r="J36" t="n">
-        <v>110566</v>
+        <v>197701</v>
       </c>
       <c r="K36" t="n">
-        <v>218818</v>
+        <v>311680</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>桌游棋牌</t>
+          <t>网络游戏</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>board</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>桌游、棋牌、卡牌对战等及其相关电子版游戏的实况、攻略、解说、演示等视频。</t>
+          <t>由网络运营商运营的多人在线游戏，以及电子竞技的相关游戏内容。包括赛事、攻略、实况、解说等相关视频</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>/v/game/board(opens new window)</t>
+          <t>/v/game/online(opens new window)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>游戏(主分区)</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[{'aid': '439072521', 'bvid': 'BV1EL411R7iq', 'typename': '桌游棋牌', 'title': '下棋 逃脱的关键在于 有没有一个人在远方等你', 'subtitle': '', 'play': 1918445, 'review': 2171, 'video_review': 1518, 'favorites': 63385, 'mid': 1250115313, 'author': '臭蛋老师-棋理版', 'description': '-', 'create': '2023-03-25 10:09', 'pic': 'http://i2.hdslb.com/bfs/archive/f730b955e4bfa74a0d9e26c4449bde2f20defb04.jpg', 'coins': 26624, 'duration': '2:09', 'badgepay': False, 'pts': 3842483, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739223547', 'bvid': 'BV1Zk4y147qs', 'typename': '桌游棋牌', 'title': '你画你的我猜我的（3）', 'subtitle': '', 'play': 894364, 'review': 2576, 'video_review': 12344, 'favorites': 22069, 'mid': 3913194, 'author': '高斯Goh', 'description': '希望你喜欢这次的视频， 这次玩的游戏叫做《鼻画大师》\n游戏的规则很简单：\n你画我猜，但是画手需要戴上游戏中特制的眼镜\n用眼镜上的这支笔来画画。\n记得三连！！', 'create': '2023-03-26 18:38', 'pic': 'http://i2.hdslb.com/bfs/archive/29dfcca4a8b405e82566868ab0a2b562af0614ed.jpg', 'coins': 48396, 'duration': '9:12', 'badgepay': False, 'pts': 1842858, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866250785', 'bvid': 'BV1yV4y197mQ', 'typename': '桌游棋牌', 'title': '失业区up主再就业？', 'subtitle': '', 'play': 424877, 'review': 1340, 'video_review': 721, 'favorites': 1027, 'mid': 10462362, 'author': '天天卡牌', 'description': '天天卡牌TCG吹比群 206706875\n天天卡牌宝可梦PTCG交流群\xa0740176969\n天天卡牌航海王OPCG交流群 732975453', 'create': '2023-03-21 19:25', 'pic': 'http://i1.hdslb.com/bfs/archive/50832899775a0b4b9a25891b2682f08ca58adc09.jpg', 'coins': 3981, 'duration': '7:01', 'badgepay': False, 'pts': 715297, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993983424', 'bvid': 'BV1Jx4y1A7p3', 'typename': '桌游棋牌', 'title': '战锤40K | 狮王归来', 'subtitle': '', 'play': 255581, 'review': 2690, 'video_review': 574, 'favorites': 1968, 'mid': 52323675, 'author': 'Warhammer战锤', 'description': '他已经离开很长一段时间了。现在，狮王归来！带着复仇的怒火，踏上征途！', 'create': '2023-03-23 11:10', 'pic': 'http://i0.hdslb.com/bfs/archive/f86ae568ac76f18880e1273d34323b9a257ba2e5.jpg', 'coins': 2293, 'duration': '2:09', 'badgepay': False, 'pts': 565742, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993799841', 'bvid': 'BV1ax4y1w7Zm', 'typename': '桌游棋牌', 'title': '狼人杀高能名场面！四方势力极限博弈！诞生年度级拼刀大赛！【饭堂时刻88】', 'subtitle': '', 'play': 267536, 'review': 644, 'video_review': 2937, 'favorites': 3338, 'mid': 216025, 'author': '尕丶天堂', 'description': '饭堂时刻之太空狼人杀系列第73期，这游戏终于被你们玩成刀战房了！\n看的开心别忘记三连支持一下！点赞过两万继续周更！\n模组下载地址：amonguscn.club', 'create': '2023-03-20 21:44', 'pic': 'http://i1.hdslb.com/bfs/archive/a97f8c5af0244c71fba3bb91451cf25bcd07d95d.jpg', 'coins': 7038, 'duration': '51:35', 'badgepay': False, 'pts': 550293, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439048941', 'bvid': 'BV1cL411R7Mg', 'typename': '桌游棋牌', 'title': '不要除外我的家人们啊【rs】', 'subtitle': '', 'play': 257046, 'review': 461, 'video_review': 502, 'favorites': 2221, 'mid': 605373, 'author': '日石rs终极大魔头', 'description': '😭归来吧急袭猛禽😭\n🌟我最骄傲的信仰🌟', 'create': '2023-03-26 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/21ccecc33959ef244cbb39a94b3ce771232a4c0a.jpg', 'coins': 4773, 'duration': '7:53', 'badgepay': False, 'pts': 524744, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226313045', 'bvid': 'BV11b411d7uq', 'typename': '桌游棋牌', 'title': '生日最不想收到的礼物？损友互损愈发离谱！', 'subtitle': '', 'play': 287250, 'review': 910, 'video_review': 3396, 'favorites': 2314, 'mid': 208130286, 'author': '大物是也', 'description': '', 'create': '2023-03-20 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b96d7f46a05aecd72287a587aca3cad51fd3c3e9.jpg', 'coins': 12479, 'duration': '29:12', 'badgepay': False, 'pts': 516248, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696445864', 'bvid': 'BV1am4y1k7Lu', 'typename': '桌游棋牌', 'title': '【沙雕剧场】忠臣全反了', 'subtitle': '', 'play': 288448, 'review': 389, 'video_review': 361, 'favorites': 1529, 'mid': 228089, 'author': '千芬', 'description': '三国杀账号交易老斩+v：laozhan00003\n\n备用微信：laozhan00002\n\n投稿见动态置顶', 'create': '2023-03-22 22:08', 'pic': 'http://i2.hdslb.com/bfs/archive/8cd0b8a7bb8e2563c6a527f2bfbae7b1f0e2601c.jpg', 'coins': 1951, 'duration': '3:54', 'badgepay': False, 'pts': 458075, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569075001', 'bvid': 'BV1Qv4y157Dj', 'typename': '桌游棋牌', 'title': '谁今晚会睡不着呢？【卷饼猫】', 'subtitle': '', 'play': 190584, 'review': 241, 'video_review': 542, 'favorites': 1589, 'mid': 1296037, 'author': '卷饼猫', 'description': '艹，原来睡不着的那个是我_(:з」∠)_', 'create': '2023-03-24 18:02', 'pic': 'http://i1.hdslb.com/bfs/archive/05f60ba20b8f8d60af4183e142be7b98bbfaf7ea.jpg', 'coins': 1985, 'duration': '8:19', 'badgepay': False, 'pts': 352835, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993823539', 'bvid': 'BV16x4y1w7rb', 'typename': '桌游棋牌', 'title': '神郭嘉或将大加强！史上最强动皮倚星折月爆料', 'subtitle': '', 'play': 267311, 'review': 647, 'video_review': 1182, 'favorites': 697, 'mid': 8878219, 'author': '吃蛋挞的折棒', 'description': '-', 'create': '2023-03-22 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/80bec578067770882ffe7186fffba6d29bf9a095.jpg', 'coins': 336, 'duration': '6:29', 'badgepay': False, 'pts': 319146, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '611398715', 'bvid': 'BV1W84y137ZG', 'typename': '网络游戏', 'title': '《 你 在 切 一 下 看 看 》', 'subtitle': '', 'play': 1023969, 'review': 1135, 'video_review': 198, 'favorites': 16440, 'mid': 475267554, 'author': 'CSGO公子', 'description': '来源于互联网', 'create': '2023-03-22 19:31', 'pic': 'http://i1.hdslb.com/bfs/archive/98abb524b2de5bd1b350e8a691721d797a11fee2.jpg', 'coins': 4547, 'duration': '0:31', 'badgepay': False, 'pts': 1937850, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396316278', 'bvid': 'BV1Ro4y1q7Ui', 'typename': '网络游戏', 'title': '十年网龄才知道的CF版本，还记得挑战模式刚出的那个夏天吗？（2009突围模式-2012火麒麟版本）', 'subtitle': '', 'play': 745544, 'review': 1865, 'video_review': 3760, 'favorites': 5128, 'mid': 235630215, 'author': '国电武术馆馆长', 'description': '刷B站的时候发现\n关于CF载入界面相关的视频里弹幕有大量"我入坑了"的讨论\n在整理资料的时候得知CF从公测至今已经经历了大大小小数百次更新\n这个已经有十多年历史的游戏里，每个人的入坑时间也是不同的\n这期视频不如就做一期“入坑时间”游戏更新的版本编年史吧\n希望大家能够从视频里回想起自己打CF时的同年回忆。\n因版本实在太多所以本视频分期制作\n本期时间跨度为2009突围模式-2012火麒麟版本\n\n-----------------------------------------\n\n上期：\nBV1gL411f7f', 'create': '2023-03-21 19:03', 'pic': 'http://i1.hdslb.com/bfs/archive/3efd41f23b27feab14e9a6f15377945f13b9a8b7.jpg', 'coins': 13256, 'duration': '9:32', 'badgepay': False, 'pts': 1357598, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611472181', 'bvid': 'BV1q84y1376Y', 'typename': '网络游戏', 'title': '【屑27】有科学味道的圣遗物强化玄学？虽然我不信，但……', 'subtitle': '', 'play': 401319, 'review': 543, 'video_review': 130, 'favorites': 25728, 'mid': 389665283, 'author': '屑27', 'description': '-', 'create': '2023-03-23 20:48', 'pic': 'http://i1.hdslb.com/bfs/archive/1b02317eb678b983f0815c437d3862cffc739eed.jpg', 'coins': 2066, 'duration': '1:45', 'badgepay': False, 'pts': 1325090, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226378829', 'bvid': 'BV1Nb411o7Km', 'typename': '网络游戏', 'title': '《 门 截 裂 夫 🔫 》', 'subtitle': '', 'play': 841227, 'review': 520, 'video_review': 667, 'favorites': 8964, 'mid': 1078633469, 'author': '伞斌一号', 'description': '', 'create': '2023-03-22 12:05', 'pic': 'http://i1.hdslb.com/bfs/archive/7192f0703f539b02c33537bd5b3cd948edc5ae5f.jpg', 'coins': 1031, 'duration': '2:48', 'badgepay': False, 'pts': 1282070, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483839909', 'bvid': 'BV1QT41167Mh', 'typename': '网络游戏', 'title': '优菈999w演示，载入原神史册，终结了原神核爆最强之争，登顶神座！', 'subtitle': '', 'play': 609650, 'review': 1204, 'video_review': 643, 'favorites': 8427, 'mid': 496143336, 'author': '爱玩原神的敢敢', 'description': '优菈纪录590w至999w\n9月23至2月16，载入史册！\n优菈成功登顶！感谢团队的每一位成员', 'create': '2023-03-21 21:08', 'pic': 'http://i1.hdslb.com/bfs/archive/ac75009ed10d9ee96a14997127f54a19835afa27.jpg', 'coins': 12520, 'duration': '2:11', 'badgepay': False, 'pts': 1238853, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781381316', 'bvid': 'BV1R24y1E7j3', 'typename': '网络游戏', 'title': '“一模一样”2.0', 'subtitle': '', 'play': 438409, 'review': 322, 'video_review': 70, 'favorites': 18005, 'mid': 341673367, 'author': '白色海雾', 'description': '-', 'create': '2023-03-22 17:10', 'pic': 'http://i1.hdslb.com/bfs/archive/4c78ebc7d69d90f3819a164024f37f1fe415223d.jpg', 'coins': 2945, 'duration': '0:29', 'badgepay': False, 'pts': 1187466, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483903145', 'bvid': 'BV1GT411r7uM', 'typename': '网络游戏', 'title': '原来你是这样的孤云阁', 'subtitle': '', 'play': 791572, 'review': 1070, 'video_review': 310, 'favorites': 6376, 'mid': 496905518, 'author': '酒啊老陈', 'description': '-', 'create': '2023-03-23 17:58', 'pic': 'http://i2.hdslb.com/bfs/archive/e99c3d8de3ce6a7b4d094109b223eeb0c0ac2395.jpg', 'coins': 755, 'duration': '0:11', 'badgepay': False, 'pts': 1030048, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569098672', 'bvid': 'BV1Fv4y1L7si', 'typename': '网络游戏', 'title': '跑跑卡丁车全国总冠军：开板车照样拿下你们！', 'subtitle': '', 'play': 521534, 'review': 906, 'video_review': 880, 'favorites': 3304, 'mid': 3493125947394742, 'author': '跑跑观察员', 'description': '', 'create': '2023-03-25 15:10', 'pic': 'http://i0.hdslb.com/bfs/archive/bf4a476d5a03c607b06da47f016b1993c853d733.jpg', 'coins': 3474, 'duration': '4:16', 'badgepay': False, 'pts': 961417, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653926030', 'bvid': 'BV1ZY4y1D7Qx', 'typename': '网络游戏', 'title': '打游戏变个身不过分吧？【迫击炮快乐阴人流#10】', 'subtitle': '', 'play': 468905, 'review': 688, 'video_review': 2357, 'favorites': 8000, 'mid': 46708782, 'author': '鲁大能', 'description': '点个关注成为股东！\n相信我！\n你也能成为光！', 'create': '2023-03-22 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/b6e65b245096d36088a67682b5678c0fe7e474cf.jpg', 'coins': 23279, 'duration': '6:32', 'badgepay': False, 'pts': 951149, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226393000', 'bvid': 'BV1Mb411o76B', 'typename': '网络游戏', 'title': '快乐，便是卸掉枷锁', 'subtitle': '', 'play': 528501, 'review': 524, 'video_review': 225, 'favorites': 1808, 'mid': 410421425, 'author': '阿喵的小生活', 'description': '虽然不是技术主播，但也不影响我获得快乐', 'create': '2023-03-23 18:02', 'pic': 'http://i1.hdslb.com/bfs/archive/4613de466ae1550e6d083c1bfb18fa844b15c359.jpg', 'coins': 18915, 'duration': '1:42', 'badgepay': False, 'pts': 947055, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5051442</v>
+        <v>6370630</v>
       </c>
       <c r="I37" t="n">
-        <v>109856</v>
+        <v>82788</v>
       </c>
       <c r="J37" t="n">
-        <v>100137</v>
+        <v>102180</v>
       </c>
       <c r="K37" t="n">
-        <v>31831</v>
+        <v>218818</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GMV</t>
+          <t>桌游棋牌</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gmv</t>
+          <t>board</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>由游戏素材制作的mv视频。以游戏内容或cg为主制作的，具有一定创作程度的mv类型的视频</t>
+          <t>桌游、棋牌、卡牌对战等及其相关电子版游戏的实况、攻略、解说、演示等视频。</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>/v/game/gmv(opens new window)</t>
+          <t>/v/game/board(opens new window)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>游戏(主分区)</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[{'aid': '738856074', 'bvid': 'BV11k4y1t7P7', 'typename': 'GMV', 'title': '“仅此88秒，带你感受原神中那些史诗级救场！！”', 'subtitle': '', 'play': 728245, 'review': 530, 'video_review': 695, 'favorites': 27540, 'mid': 14158002, 'author': 'Ishi丶', 'description': '审核大大辛苦了，如果稿件有什么问题的话，请一定要打回来，让我认真修改！\n喜欢这个视频的观众朋友们记得给个三连支持一下up！拜托啦！\nBGM：Legends Never Die', 'create': '2023-03-22 11:30', 'pic': 'http://i1.hdslb.com/bfs/archive/f334d24530fb5d7c3441ae09d333b326ed6dfc9b.jpg', 'coins': 9847, 'duration': '1:29', 'badgepay': False, 'pts': 1832238, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268978615', 'bvid': 'BV1Qc41157Fq', 'typename': 'GMV', 'title': '【原神/申鹤】⚡灵符化炼 霜傀万千 他日得道 三眼五显⚡', 'subtitle': '', 'play': 429520, 'review': 798, 'video_review': 644, 'favorites': 39840, 'mid': 298254767, 'author': '龙虾ゞ', 'description': '策划：龙虾ゞ\n原曲：《成仙》-王朝1982\n演唱：毕琛BC\n视频：言只Yanzhi\n填词：常氏卧龙', 'create': '2023-03-24 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/8d676331cb0c2bd9b97cb72a74b05346b0e252e6.jpg', 'coins': 18015, 'duration': '2:12', 'badgepay': False, 'pts': 1715459, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268926258', 'bvid': 'BV1Lc4117718', 'typename': 'GMV', 'title': '“就凭这些游戏，100秒之后将蒸发你的眼泪！”', 'subtitle': '', 'play': 402966, 'review': 1424, 'video_review': 1487, 'favorites': 20114, 'mid': 7594110, 'author': '烽火湛蓝', 'description': 'BGM：SLANDER、Dylan Matthew、Marvin - Love is gone (Justin Dai &amp; Marvin Bootleg) (remix：Marvin)（有修改）\n游戏不做排名，不分高低，理性讨论！\n不想再凉了~求求了~555555', 'create': '2023-03-22 11:14', 'pic': 'http://i2.hdslb.com/bfs/archive/8573b8133e0501ebbf0410dfb6e6faad2e65303e.jpg', 'coins': 12306, 'duration': '2:22', 'badgepay': False, 'pts': 1193120, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526431656', 'bvid': 'BV1YM411u7i8', 'typename': 'GMV', 'title': '谁抽铃铛不是为了这一声响', 'subtitle': '', 'play': 413582, 'review': 655, 'video_review': 147, 'favorites': 7755, 'mid': 408069546, 'author': '纯净水Lll', 'description': '', 'create': '2023-03-22 20:11', 'pic': 'http://i1.hdslb.com/bfs/archive/7f4c10d230f7658428fcec92a9bd4a057cf7026e.jpg', 'coins': 941, 'duration': '1:30', 'badgepay': False, 'pts': 910013, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611362504', 'bvid': 'BV1V84y137NR', 'typename': 'GMV', 'title': '可这真的是，你想要的结局吗？', 'subtitle': '', 'play': 386996, 'review': 322, 'video_review': 102, 'favorites': 7967, 'mid': 14690240, 'author': '糯米滋滋捏捏', 'description': '-', 'create': '2023-03-20 18:29', 'pic': 'http://i2.hdslb.com/bfs/archive/7cb8bfc1689f7389530f24f15ad3f9d69df93ff0.jpg', 'coins': 1584, 'duration': '3:00', 'badgepay': False, 'pts': 803958, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738892840', 'bvid': 'BV1ok4y1t7P6', 'typename': 'GMV', 'title': '神里家的宿命，社奉行的重担，不应由哥哥一人背负【神里绫华】', 'subtitle': '', 'play': 189847, 'review': 259, 'video_review': 460, 'favorites': 13117, 'mid': 64017998, 'author': '许里xurry', 'description': '-', 'create': '2023-03-22 17:05', 'pic': 'http://i2.hdslb.com/bfs/archive/47fb3a761aeb6c5c6cc7332e7eb09a7f5c90add6.jpg', 'coins': 3236, 'duration': '1:33', 'badgepay': False, 'pts': 594785, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441534844', 'bvid': 'BV1BL411D7A2', 'typename': 'GMV', 'title': '卡利贝尔 | 原神动漫', 'subtitle': '', 'play': 184721, 'review': 436, 'video_review': 106, 'favorites': 9557, 'mid': 3461580052236770, 'author': 'MINPHIM', 'description': '大家好 好久没上传视频了 !!\n我打算近期再上传一个视频！\n敬请期待!!\n\nTwitter | https://twitter.com/miniphim\nYoutube | https://www.youtube.com/@MINPHIM', 'create': '2023-03-25 12:54', 'pic': 'http://i0.hdslb.com/bfs/archive/9705ee89b977eb86475df0f601ef07ef1025d4bb.jpg', 'coins': 5297, 'duration': '0:58', 'badgepay': False, 'pts': 582787, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823871399', 'bvid': 'BV1zg4y1x7Er', 'typename': 'GMV', 'title': '我也不想啊，可是申鹤她会壁咚啊', 'subtitle': '', 'play': 261466, 'review': 163, 'video_review': 50, 'favorites': 5190, 'mid': 346590165, 'author': '一团白衣衣', 'description': '辛苦了', 'create': '2023-03-20 22:13', 'pic': 'http://i2.hdslb.com/bfs/archive/efe71b0710de8c2d2fe4a7a7ed5cfb2526b3c8bf.jpg', 'coins': 484, 'duration': '0:15', 'badgepay': False, 'pts': 566165, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311461054', 'bvid': 'BV1MN411K7iW', 'typename': 'GMV', 'title': '他好会撩人啊！', 'subtitle': '', 'play': 111443, 'review': 235, 'video_review': 138, 'favorites': 11858, 'mid': 183493177, 'author': '大头鹅OvO', 'description': '-', 'create': '2023-03-22 19:35', 'pic': 'http://i2.hdslb.com/bfs/archive/dcc3087ca7c8f6251236bee869c315a2200b329b.jpg', 'coins': 2052, 'duration': '0:12', 'badgepay': False, 'pts': 495422, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226504321', 'bvid': 'BV1sh411G7RZ', 'typename': 'GMV', 'title': '【原神】好家伙! 就是你小子篡改我 DNA 是吧？！', 'subtitle': '', 'play': 173402, 'review': 115, 'video_review': 307, 'favorites': 2347, 'mid': 349208226, 'author': '南有风音', 'description': '希望能给更多人带来快乐！\n求三连~希望大家能看到最后~这对我真的很重要！qwq\n喜欢的话可以点个关注哦~~\n\n~审核菌和编辑菌辛苦了！\n~希望这次能得到推荐！\n~有不好的地方可以退回修改的！\n（凉了好久 好想上次热门qwq', 'create': '2023-03-25 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/461266f2e3a7dc45001f886025fde7a034d61081.jpg', 'coins': 1054, 'duration': '1:22', 'badgepay': False, 'pts': 351516, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '439072521', 'bvid': 'BV1EL411R7iq', 'typename': '桌游棋牌', 'title': '下棋 逃脱的关键在于 有没有一个人在远方等你', 'subtitle': '', 'play': 2036637, 'review': 2345, 'video_review': 1608, 'favorites': 68151, 'mid': 1250115313, 'author': '臭蛋老师-棋理版', 'description': '-', 'create': '2023-03-25 10:09', 'pic': 'http://i2.hdslb.com/bfs/archive/f730b955e4bfa74a0d9e26c4449bde2f20defb04.jpg', 'coins': 29144, 'duration': '2:09', 'badgepay': False, 'pts': 4036294, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739223547', 'bvid': 'BV1Zk4y147qs', 'typename': '桌游棋牌', 'title': '你画你的我猜我的（3）', 'subtitle': '', 'play': 1156611, 'review': 2696, 'video_review': 13384, 'favorites': 25259, 'mid': 3913194, 'author': '高斯Goh', 'description': '希望你喜欢这次的视频， 这次玩的游戏叫做《鼻画大师》\n游戏的规则很简单：\n你画我猜，但是画手需要戴上游戏中特制的眼镜\n用眼镜上的这支笔来画画。\n记得三连！！', 'create': '2023-03-26 18:38', 'pic': 'http://i2.hdslb.com/bfs/archive/29dfcca4a8b405e82566868ab0a2b562af0614ed.jpg', 'coins': 56397, 'duration': '9:12', 'badgepay': False, 'pts': 2207462, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866250785', 'bvid': 'BV1yV4y197mQ', 'typename': '桌游棋牌', 'title': '失业区up主再就业？', 'subtitle': '', 'play': 427132, 'review': 1345, 'video_review': 721, 'favorites': 1032, 'mid': 10462362, 'author': '天天卡牌', 'description': '天天卡牌TCG吹比群 206706875\n天天卡牌宝可梦PTCG交流群\xa0740176969\n天天卡牌航海王OPCG交流群 732975453', 'create': '2023-03-21 19:25', 'pic': 'http://i1.hdslb.com/bfs/archive/50832899775a0b4b9a25891b2682f08ca58adc09.jpg', 'coins': 3991, 'duration': '7:01', 'badgepay': False, 'pts': 718886, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993983424', 'bvid': 'BV1Jx4y1A7p3', 'typename': '桌游棋牌', 'title': '战锤40K | 狮王归来', 'subtitle': '', 'play': 257955, 'review': 2697, 'video_review': 578, 'favorites': 1972, 'mid': 52323675, 'author': 'Warhammer战锤', 'description': '他已经离开很长一段时间了。现在，狮王归来！带着复仇的怒火，踏上征途！', 'create': '2023-03-23 11:10', 'pic': 'http://i0.hdslb.com/bfs/archive/f86ae568ac76f18880e1273d34323b9a257ba2e5.jpg', 'coins': 2303, 'duration': '2:09', 'badgepay': False, 'pts': 569756, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439048941', 'bvid': 'BV1cL411R7Mg', 'typename': '桌游棋牌', 'title': '不要除外我的家人们啊【rs】', 'subtitle': '', 'play': 281573, 'review': 471, 'video_review': 530, 'favorites': 2369, 'mid': 605373, 'author': '日石rs终极大魔头', 'description': '😭归来吧急袭猛禽😭\n🌟我最骄傲的信仰🌟', 'create': '2023-03-26 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/21ccecc33959ef244cbb39a94b3ce771232a4c0a.jpg', 'coins': 5022, 'duration': '7:53', 'badgepay': False, 'pts': 565474, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993799841', 'bvid': 'BV1ax4y1w7Zm', 'typename': '桌游棋牌', 'title': '狼人杀高能名场面！四方势力极限博弈！诞生年度级拼刀大赛！【饭堂时刻88】', 'subtitle': '', 'play': 270256, 'review': 647, 'video_review': 2942, 'favorites': 3348, 'mid': 216025, 'author': '尕丶天堂', 'description': '饭堂时刻之太空狼人杀系列第73期，这游戏终于被你们玩成刀战房了！\n看的开心别忘记三连支持一下！点赞过两万继续周更！\n模组下载地址：amonguscn.club', 'create': '2023-03-20 21:44', 'pic': 'http://i1.hdslb.com/bfs/archive/a97f8c5af0244c71fba3bb91451cf25bcd07d95d.jpg', 'coins': 7110, 'duration': '51:35', 'badgepay': False, 'pts': 555191, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226313045', 'bvid': 'BV11b411d7uq', 'typename': '桌游棋牌', 'title': '生日最不想收到的礼物？损友互损愈发离谱！', 'subtitle': '', 'play': 288621, 'review': 912, 'video_review': 3398, 'favorites': 2318, 'mid': 208130286, 'author': '大物是也', 'description': '', 'create': '2023-03-20 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b96d7f46a05aecd72287a587aca3cad51fd3c3e9.jpg', 'coins': 12514, 'duration': '29:12', 'badgepay': False, 'pts': 518426, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696445864', 'bvid': 'BV1am4y1k7Lu', 'typename': '桌游棋牌', 'title': '【沙雕剧场】忠臣全反了', 'subtitle': '', 'play': 291869, 'review': 391, 'video_review': 364, 'favorites': 1545, 'mid': 228089, 'author': '千芬', 'description': '三国杀账号交易老斩+v：laozhan00003\n\n备用微信：laozhan00002\n\n投稿见动态置顶', 'create': '2023-03-22 22:08', 'pic': 'http://i2.hdslb.com/bfs/archive/8cd0b8a7bb8e2563c6a527f2bfbae7b1f0e2601c.jpg', 'coins': 1955, 'duration': '3:54', 'badgepay': False, 'pts': 462109, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569075001', 'bvid': 'BV1Qv4y157Dj', 'typename': '桌游棋牌', 'title': '谁今晚会睡不着呢？【卷饼猫】', 'subtitle': '', 'play': 196615, 'review': 244, 'video_review': 545, 'favorites': 1627, 'mid': 1296037, 'author': '卷饼猫', 'description': '艹，原来睡不着的那个是我_(:з」∠)_', 'create': '2023-03-24 18:02', 'pic': 'http://i1.hdslb.com/bfs/archive/05f60ba20b8f8d60af4183e142be7b98bbfaf7ea.jpg', 'coins': 2020, 'duration': '8:19', 'badgepay': False, 'pts': 360285, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993823539', 'bvid': 'BV16x4y1w7rb', 'typename': '桌游棋牌', 'title': '神郭嘉或将大加强！史上最强动皮倚星折月爆料', 'subtitle': '', 'play': 268658, 'review': 652, 'video_review': 1185, 'favorites': 699, 'mid': 8878219, 'author': '吃蛋挞的折棒', 'description': '-', 'create': '2023-03-22 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/80bec578067770882ffe7186fffba6d29bf9a095.jpg', 'coins': 336, 'duration': '6:29', 'badgepay': False, 'pts': 321642, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3282188</v>
+        <v>5475927</v>
       </c>
       <c r="I38" t="n">
-        <v>54816</v>
+        <v>120792</v>
       </c>
       <c r="J38" t="n">
-        <v>145285</v>
+        <v>108320</v>
       </c>
       <c r="K38" t="n">
-        <v>4379</v>
+        <v>31831</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>音游</t>
+          <t>GMV</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>gmv</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>各个平台上，通过配合音乐与节奏而进行的音乐类游戏视频</t>
+          <t>由游戏素材制作的mv视频。以游戏内容或cg为主制作的，具有一定创作程度的mv类型的视频</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>/v/game/music(opens new window)</t>
+          <t>/v/game/gmv(opens new window)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>游戏(主分区)</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[{'aid': '226296494', 'bvid': 'BV1Sb411d7oL', 'typename': '音游', 'title': '【冰与火之舞】胡桃哒一遍过了', 'subtitle': '', 'play': 231640, 'review': 132, 'video_review': 77, 'favorites': 11551, 'mid': 3493110493481671, 'author': '冒险家安琪', 'description': '啊哈哈哈，居然火了', 'create': '2023-03-20 08:38', 'pic': 'http://i1.hdslb.com/bfs/archive/3fece069f672b45c74bfac2bc497076f897e34d2.jpg', 'coins': 1806, 'duration': '1:18', 'badgepay': False, 'pts': 646495, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569051160', 'bvid': 'BV19v4y157XR', 'typename': '音游', 'title': '功德之达人 但是群青', 'subtitle': '', 'play': 782264, 'review': 711, 'video_review': 279, 'favorites': 3664, 'mid': 498930, 'author': 'RaiserSystem', 'description': 'player：本人\n拍了半年了想起来没发，整活搞一搞，切勿当真（\n理论上只要打的够准的话应该能和正常太鼓一样玩（（（（', 'create': '2023-03-24 15:02', 'pic': 'http://i2.hdslb.com/bfs/archive/35c98dc48b886fe204d251035747ae781b52a55d.jpg', 'coins': 2103, 'duration': '2:50', 'badgepay': False, 'pts': 634225, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696584078', 'bvid': 'BV1Cm4y167SR', 'typename': '音游', 'title': '【光遇合奏】我用光遇琵琶还原了万蝶振翅！光遇十五乐器合奏 | 万蝶于心飞舞，蝶翼扑动扰人心乱', 'subtitle': '', 'play': 78497, 'review': 326, 'video_review': 214, 'favorites': 10653, 'mid': 492542342, 'author': '是一只Celia', 'description': '- 佩戴耳机食用效果更佳 -\n\n🎹 使用乐器：琵琶，电吉他，吉他，预言大鼓，小鼓，屁琴，弦乐（光遇音乐），人声乐器，排箫，笛子\n🎹 外部音源：堂鼓\n🎹 使用音效：光崽吸气声，集结捂脸一级，墓土马桶大风\n🎹 注：没有加入任何原曲，乐器有后期处理，谱是自己扒的，mv是乱拍的\n\n-\n\n苏世誉指上一错，琴声不稳。\n刹那间上万只蝶忽然振翅飞起，满胸膛的蝶翼扑动，心彻底乱的没有章法。\n“苏家四代，不缺你一个将军。”\n“我不会再带你上战场，往后你只需学着去做一个文臣。”\n“我想要的就是拓万里疆土，召八方拜服。”\n——喜', 'create': '2023-03-24 07:04', 'pic': 'http://i1.hdslb.com/bfs/archive/8dee80694fb45f678b4090446d36903be0bf6457.jpg', 'coins': 8457, 'duration': '2:36', 'badgepay': False, 'pts': 414867, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568750067', 'bvid': 'BV1Qv4y1L72p', 'typename': '音游', 'title': '3/28实装 3DMV ｻﾞﾑｻﾞ', 'subtitle': '', 'play': 130874, 'review': 515, 'video_review': 214, 'favorites': 3238, 'mid': 3461572663970014, 'author': '裏側のセカイ', 'description': '上线时间: 2023/03/28 21:05:00 (UTC+8)\n谱面时长: 113.1秒 (1分53.1秒)\nBPM: 121\n\nMASTER 30\n937 COMBO', 'create': '2023-03-21 10:05', 'pic': 'http://i2.hdslb.com/bfs/archive/915e0c75273192b8fc158252f5dabedd42439052.jpg', 'coins': 940, 'duration': '2:02', 'badgepay': False, 'pts': 319445, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439028052', 'bvid': 'BV1PL411R7yu', 'typename': '音游', 'title': '老师问我为什么上课戳手表', 'subtitle': '', 'play': 160601, 'review': 145, 'video_review': 133, 'favorites': 1480, 'mid': 399949035, 'author': '百合是人类文明之宝', 'description': '好多在我的手表框框外打不到，好烦', 'create': '2023-03-24 22:13', 'pic': 'http://i0.hdslb.com/bfs/archive/ab788006ad5a857aee1c0f4c6a09206c808d5c5a.jpg', 'coins': 132, 'duration': '2:05', 'badgepay': False, 'pts': 268731, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994046079', 'bvid': 'BV16x4y1A7jY', 'typename': '音游', 'title': '诡异的东西，但是Phigros', 'subtitle': '', 'play': 87569, 'review': 80, 'video_review': 63, 'favorites': 2766, 'mid': 389566990, 'author': 'Itz62iGD', 'description': '？', 'create': '2023-03-24 15:23', 'pic': 'http://i0.hdslb.com/bfs/archive/1fb0c72c21db4a49e22631874c3f9e37d94e9678.jpg', 'coins': 495, 'duration': '1:18', 'badgepay': False, 'pts': 225611, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866305474', 'bvid': 'BV1cV4y1R7JU', 'typename': '音游', 'title': '【中字切片】真冬与KAITO的争吵【PJSK】', 'subtitle': '', 'play': 74494, 'review': 227, 'video_review': 175, 'favorites': 2552, 'mid': 485997721, 'author': 'オソイ_', 'description': '节选自第六话（其实这就是第六话大部分的内容了……）\n好帅啊大哥', 'create': '2023-03-21 18:10', 'pic': 'http://i2.hdslb.com/bfs/archive/fe43a729c89bc77f08c260ccab640fd6eb766f7a.jpg', 'coins': 264, 'duration': '3:37', 'badgepay': False, 'pts': 203670, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568957551', 'bvid': 'BV1xv4y157wG', 'typename': '音游', 'title': '伤 不 起【偶像梦幻祭2/ES2】', 'subtitle': '', 'play': 43941, 'review': 213, 'video_review': 157, 'favorites': 2275, 'mid': 24824847, 'author': '千柠柠Qiu', 'description': 'hekk你自己看看你的编舞和运镜，你是故意的还是不小心\n不能说毫无关系，只能说有种qq酒店2.0的感觉', 'create': '2023-03-23 20:30', 'pic': 'http://i0.hdslb.com/bfs/archive/e7460fe940879d35b57daa982254300aeea2ad11.jpg', 'coins': 852, 'duration': '2:07', 'badgepay': False, 'pts': 140654, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269026856', 'bvid': 'BV1jc411L72x', 'typename': '音游', 'title': '【PJS字幕组】第八十九期活动『Immiscible Discord』剧情翻译 中文字幕合集 更新至第八话【世界计划 多彩舞台】', 'subtitle': '', 'play': 44678, 'review': 584, 'video_review': 530, 'favorites': 1210, 'mid': 13148307, 'author': 'Project_SEKAI资讯站', 'description': '第八十九期活动『イミシブル・ディスコード』[Immiscible Discord] \n剧情翻译中文字幕合集 by PJS字幕组\n\nStaff表（以参与时间先后排序）\n录制：茶币币、林祁\n封面：.nomedia\n翻译：ijndjdjdj、西塔、萤华、milk、只羊、质粉\n翻校：pokemonch、质粉、麻雀\n时轴：SEKAI的轴姬\n轴校&amp;压制：圣殿星痕、林祁', 'create': '2023-03-24 00:14', 'pic': 'http://i0.hdslb.com/bfs/archive/64519ed03f0d33ef1c8c741bb4f2836f26ce40d6.png', 'coins': 531, 'duration': '74:09', 'badgepay': False, 'pts': 131022, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611283907', 'bvid': 'BV1i84y1w7wZ', 'typename': '音游', 'title': '跟风来的es妹，这是你们活该', 'subtitle': '', 'play': 54766, 'review': 166, 'video_review': 97, 'favorites': 1051, 'mid': 2109489738, 'author': '顾启安', 'description': '我不知道该怎么对这个服务器做出评价。看到它最近火起来热度又瞬间掉下去，我不会在我的评论区或者动态里提出任何下载和游玩这个服务器的方式，不要向我询问，做这个视频就是为了给你们避雷。', 'create': '2023-03-21 21:01', 'pic': 'http://i1.hdslb.com/bfs/archive/af6c55e5d4182e612306ab800f421609a9d00c78.jpg', 'coins': 90, 'duration': '2:55', 'badgepay': False, 'pts': 124855, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '738856074', 'bvid': 'BV11k4y1t7P7', 'typename': 'GMV', 'title': '“仅此88秒，带你感受原神中那些史诗级救场！！”', 'subtitle': '', 'play': 735844, 'review': 538, 'video_review': 696, 'favorites': 27841, 'mid': 14158002, 'author': 'Ishi丶', 'description': '审核大大辛苦了，如果稿件有什么问题的话，请一定要打回来，让我认真修改！\n喜欢这个视频的观众朋友们记得给个三连支持一下up！拜托啦！\nBGM：Legends Never Die', 'create': '2023-03-22 11:30', 'pic': 'http://i1.hdslb.com/bfs/archive/f334d24530fb5d7c3441ae09d333b326ed6dfc9b.jpg', 'coins': 9982, 'duration': '1:29', 'badgepay': False, 'pts': 1848847, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268978615', 'bvid': 'BV1Qc41157Fq', 'typename': 'GMV', 'title': '【原神/申鹤】⚡灵符化炼 霜傀万千 他日得道 三眼五显⚡', 'subtitle': '', 'play': 436936, 'review': 809, 'video_review': 654, 'favorites': 40420, 'mid': 298254767, 'author': '龙虾ゞ', 'description': '策划：龙虾ゞ\n原曲：《成仙》-王朝1982\n演唱：毕琛BC\n视频：言只Yanzhi\n填词：常氏卧龙', 'create': '2023-03-24 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/8d676331cb0c2bd9b97cb72a74b05346b0e252e6.jpg', 'coins': 18369, 'duration': '2:12', 'badgepay': False, 'pts': 1740007, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268926258', 'bvid': 'BV1Lc4117718', 'typename': 'GMV', 'title': '“就凭这些游戏，100秒之后将蒸发你的眼泪！”', 'subtitle': '', 'play': 406316, 'review': 1436, 'video_review': 1488, 'favorites': 20331, 'mid': 7594110, 'author': '烽火湛蓝', 'description': 'BGM：SLANDER、Dylan Matthew、Marvin - Love is gone (Justin Dai &amp; Marvin Bootleg) (remix：Marvin)（有修改）\n游戏不做排名，不分高低，理性讨论！\n不想再凉了~求求了~555555', 'create': '2023-03-22 11:14', 'pic': 'http://i2.hdslb.com/bfs/archive/8573b8133e0501ebbf0410dfb6e6faad2e65303e.jpg', 'coins': 12448, 'duration': '2:22', 'badgepay': False, 'pts': 1203010, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526431656', 'bvid': 'BV1YM411u7i8', 'typename': 'GMV', 'title': '谁抽铃铛不是为了这一声响', 'subtitle': '', 'play': 421265, 'review': 665, 'video_review': 149, 'favorites': 7880, 'mid': 408069546, 'author': '纯净水Lll', 'description': '', 'create': '2023-03-22 20:11', 'pic': 'http://i1.hdslb.com/bfs/archive/7f4c10d230f7658428fcec92a9bd4a057cf7026e.jpg', 'coins': 963, 'duration': '1:30', 'badgepay': False, 'pts': 923654, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611362504', 'bvid': 'BV1V84y137NR', 'typename': 'GMV', 'title': '可这真的是，你想要的结局吗？', 'subtitle': '', 'play': 388158, 'review': 322, 'video_review': 102, 'favorites': 8015, 'mid': 14690240, 'author': '糯米滋滋捏捏', 'description': '-', 'create': '2023-03-20 18:29', 'pic': 'http://i2.hdslb.com/bfs/archive/7cb8bfc1689f7389530f24f15ad3f9d69df93ff0.jpg', 'coins': 1588, 'duration': '3:00', 'badgepay': False, 'pts': 805911, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441534844', 'bvid': 'BV1BL411D7A2', 'typename': 'GMV', 'title': '卡利贝尔 | 原神动漫', 'subtitle': '', 'play': 193478, 'review': 455, 'video_review': 109, 'favorites': 10020, 'mid': 3461580052236770, 'author': 'MINPHIM', 'description': '大家好 好久没上传视频了 !!\n我打算近期再上传一个视频！\n敬请期待!!\n\nTwitter | https://twitter.com/miniphim\nYoutube | https://www.youtube.com/@MINPHIM', 'create': '2023-03-25 12:54', 'pic': 'http://i0.hdslb.com/bfs/archive/9705ee89b977eb86475df0f601ef07ef1025d4bb.jpg', 'coins': 5522, 'duration': '0:58', 'badgepay': False, 'pts': 610038, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738892840', 'bvid': 'BV1ok4y1t7P6', 'typename': 'GMV', 'title': '神里家的宿命，社奉行的重担，不应由哥哥一人背负【神里绫华】', 'subtitle': '', 'play': 192400, 'review': 262, 'video_review': 462, 'favorites': 13318, 'mid': 64017998, 'author': '许里xurry', 'description': '-', 'create': '2023-03-22 17:05', 'pic': 'http://i2.hdslb.com/bfs/archive/47fb3a761aeb6c5c6cc7332e7eb09a7f5c90add6.jpg', 'coins': 3280, 'duration': '1:33', 'badgepay': False, 'pts': 602914, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823871399', 'bvid': 'BV1zg4y1x7Er', 'typename': 'GMV', 'title': '我也不想啊，可是申鹤她会壁咚啊', 'subtitle': '', 'play': 262137, 'review': 163, 'video_review': 51, 'favorites': 5198, 'mid': 346590165, 'author': '一团白衣衣', 'description': '辛苦了', 'create': '2023-03-20 22:13', 'pic': 'http://i2.hdslb.com/bfs/archive/efe71b0710de8c2d2fe4a7a7ed5cfb2526b3c8bf.jpg', 'coins': 486, 'duration': '0:15', 'badgepay': False, 'pts': 567744, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311461054', 'bvid': 'BV1MN411K7iW', 'typename': 'GMV', 'title': '他好会撩人啊！', 'subtitle': '', 'play': 113663, 'review': 237, 'video_review': 139, 'favorites': 12023, 'mid': 183493177, 'author': '大头鹅OvO', 'description': '-', 'create': '2023-03-22 19:35', 'pic': 'http://i2.hdslb.com/bfs/archive/dcc3087ca7c8f6251236bee869c315a2200b329b.jpg', 'coins': 2103, 'duration': '0:12', 'badgepay': False, 'pts': 503315, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226504321', 'bvid': 'BV1sh411G7RZ', 'typename': 'GMV', 'title': '【原神】好家伙! 就是你小子篡改我 DNA 是吧？！', 'subtitle': '', 'play': 205196, 'review': 129, 'video_review': 313, 'favorites': 2880, 'mid': 349208226, 'author': '南有风音', 'description': '希望能给更多人带来快乐！\n求三连~希望大家能看到最后~这对我真的很重要！qwq\n喜欢的话可以点个关注哦~~\n\n~审核菌和编辑菌辛苦了！\n~希望这次能得到推荐！\n~有不好的地方可以退回修改的！\n（凉了好久 好想上次热门qwq', 'create': '2023-03-25 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/461266f2e3a7dc45001f886025fde7a034d61081.jpg', 'coins': 1301, 'duration': '1:22', 'badgepay': False, 'pts': 410736, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1689324</v>
+        <v>3355393</v>
       </c>
       <c r="I39" t="n">
-        <v>15670</v>
+        <v>56042</v>
       </c>
       <c r="J39" t="n">
-        <v>40440</v>
+        <v>147926</v>
       </c>
       <c r="K39" t="n">
-        <v>18261</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mugen</t>
+          <t>音游</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>mugen</t>
+          <t>music</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>以mugen引擎为平台制作、或与mugen相关的游戏视频</t>
+          <t>各个平台上，通过配合音乐与节奏而进行的音乐类游戏视频</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>/v/game/mugen</t>
+          <t>/v/game/music(opens new window)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>游戏(主分区)</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[{'aid': '866541924', 'bvid': 'BV1YV4y1X74X', 'typename': 'Mugen', 'title': '熊猫人 VS  御坂美琴', 'subtitle': '', 'play': 170984, 'review': 81, 'video_review': 46, 'favorites': 1039, 'mid': 1110341928, 'author': 'i只是个路人', 'description': '-', 'create': '2023-03-25 10:45', 'pic': 'http://i1.hdslb.com/bfs/archive/41c76461f57d6f64dc3cb1109610624abf44d591.jpg', 'coins': 86, 'duration': '0:40', 'badgepay': False, 'pts': 123797, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908974866', 'bvid': 'BV1kM4y1B7kJ', 'typename': 'Mugen', 'title': '【Mugen】直视变异，窒息的恐惧，估计进来就出不去了', 'subtitle': '', 'play': 48198, 'review': 42, 'video_review': 148, 'favorites': 173, 'mid': 399258011, 'author': '菜比雪游戏', 'description': '【Mugen】直视变异，窒息的恐惧，估计进来就出不去了', 'create': '2023-03-23 02:30', 'pic': 'http://i2.hdslb.com/bfs/archive/c8a5192829fb827bf99bc811116c5904ba5ca7ce.jpg', 'coins': 18, 'duration': '3:47', 'badgepay': False, 'pts': 40815, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526273787', 'bvid': 'BV1fM411H7ds', 'typename': 'Mugen', 'title': '【MUGEN】最新技能优化全形态版『乌尔奇奥拉』技能动画（附人物下载）', 'subtitle': '', 'play': 19906, 'review': 52, 'video_review': 33, 'favorites': 206, 'mid': 2025332, 'author': 'L的朋友', 'description': '人物包下载地址：\n链接：https://pan.baidu.com/s/1kyBqPIZY1OwNlpcZE4-7ww?pwd=6666 \n提取码：6666 \n--来自百度网盘超级会员V9的分享\n\n人物作者发布地址：\nhttps://www.youtube.com/watch?v=mLn97C06TKs', 'create': '2023-03-20 18:23', 'pic': 'http://i2.hdslb.com/bfs/archive/9a222d185703fb8d037d0d9dc98a4c6d9a1f10c6.jpg', 'coins': 72, 'duration': '7:32', 'badgepay': False, 'pts': 34165, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268790401', 'bvid': 'BV1ec411j7Rq', 'typename': 'Mugen', 'title': '【MUGEN】终究还是宿敌！世界镇魂曲 VS 白金之星镇魂曲！', 'subtitle': '', 'play': 11625, 'review': 90, 'video_review': 60, 'favorites': 116, 'mid': 433961813, 'author': '一条小龙鱼', 'description': '相关游戏：MUGEN\n这，难道就是迪奥的宿命吗？\n不知道为什么打不过，有大佬能解释一下么？\n第一局为双方1p，后面那局为双方12p\n世镇作者：@愉悦の黑虎阿符 ', 'create': '2023-03-20 11:45', 'pic': 'http://i0.hdslb.com/bfs/archive/0c2ca596029298279db8c042af5abf34fd21497e.jpg', 'coins': 26, 'duration': '9:05', 'badgepay': False, 'pts': 23690, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311521563', 'bvid': 'BV17N411K7ap', 'typename': 'Mugen', 'title': '【MUGEN动画】奥特五大誓言', 'subtitle': '', 'play': 9639, 'review': 49, 'video_review': 25, 'favorites': 213, 'mid': 216864968, 'author': '注意力要集中', 'description': '由于素材限制，加了一些原创改编', 'create': '2023-03-25 12:34', 'pic': 'http://i0.hdslb.com/bfs/archive/ca087c5cdc3e26ee7cec5a3fdf2887f7f9c4d266.jpg', 'coins': 104, 'duration': '4:15', 'badgepay': False, 'pts': 22674, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696340922', 'bvid': 'BV1cm4y1k7LU', 'typename': 'Mugen', 'title': '【MUGEN】絶・最終章 MUGEN界 男性連合軍VS女性連合軍3 Part50', 'subtitle': '', 'play': 2180, 'review': 158, 'video_review': 269, 'favorites': 27, 'mid': 34390, 'author': '七夜志貴', 'description': 'sm41962386\nGOD WIND\n神風の後継ぎ', 'create': '2023-03-21 03:32', 'pic': 'http://i0.hdslb.com/bfs/archive/ab3cafe0a9c976baff653a7d3fcb7e956424d45e.jpg', 'coins': 25, 'duration': '29:25', 'badgepay': False, 'pts': 6360, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '569051160', 'bvid': 'BV19v4y157XR', 'typename': '音游', 'title': '功德之达人 但是群青', 'subtitle': '', 'play': 820257, 'review': 749, 'video_review': 299, 'favorites': 3868, 'mid': 498930, 'author': 'RaiserSystem', 'description': 'player：本人\n拍了半年了想起来没发，整活搞一搞，切勿当真（\n理论上只要打的够准的话应该能和正常太鼓一样玩（（（（', 'create': '2023-03-24 15:02', 'pic': 'http://i2.hdslb.com/bfs/archive/35c98dc48b886fe204d251035747ae781b52a55d.jpg', 'coins': 2242, 'duration': '2:50', 'badgepay': False, 'pts': 666089, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696584078', 'bvid': 'BV1Cm4y167SR', 'typename': '音游', 'title': '【光遇合奏】我用光遇琵琶还原了万蝶振翅！光遇十五乐器合奏 | 万蝶于心飞舞，蝶翼扑动扰人心乱', 'subtitle': '', 'play': 80595, 'review': 331, 'video_review': 218, 'favorites': 10926, 'mid': 492542342, 'author': '是一只Celia', 'description': '- 佩戴耳机食用效果更佳 -\n\n🎹 使用乐器：琵琶，电吉他，吉他，预言大鼓，小鼓，屁琴，弦乐（光遇音乐），人声乐器，排箫，笛子\n🎹 外部音源：堂鼓\n🎹 使用音效：光崽吸气声，集结捂脸一级，墓土马桶大风\n🎹 注：没有加入任何原曲，乐器有后期处理，谱是自己扒的，mv是乱拍的\n\n-\n\n苏世誉指上一错，琴声不稳。\n刹那间上万只蝶忽然振翅飞起，满胸膛的蝶翼扑动，心彻底乱的没有章法。\n“苏家四代，不缺你一个将军。”\n“我不会再带你上战场，往后你只需学着去做一个文臣。”\n“我想要的就是拓万里疆土，召八方拜服。”\n——喜', 'create': '2023-03-24 07:04', 'pic': 'http://i1.hdslb.com/bfs/archive/8dee80694fb45f678b4090446d36903be0bf6457.jpg', 'coins': 8712, 'duration': '2:36', 'badgepay': False, 'pts': 424937, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568750067', 'bvid': 'BV1Qv4y1L72p', 'typename': '音游', 'title': '3/28实装 3DMV ｻﾞﾑｻﾞ', 'subtitle': '', 'play': 134258, 'review': 522, 'video_review': 218, 'favorites': 3294, 'mid': 3461572663970014, 'author': '裏側のセカイ', 'description': '上线时间: 2023/03/28 21:05:00 (UTC+8)\n谱面时长: 113.1秒 (1分53.1秒)\nBPM: 121\n\nMASTER 30\n937 COMBO', 'create': '2023-03-21 10:05', 'pic': 'http://i2.hdslb.com/bfs/archive/915e0c75273192b8fc158252f5dabedd42439052.jpg', 'coins': 977, 'duration': '2:02', 'badgepay': False, 'pts': 326557, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439028052', 'bvid': 'BV1PL411R7yu', 'typename': '音游', 'title': '老师问我为什么上课戳手表', 'subtitle': '', 'play': 166017, 'review': 148, 'video_review': 140, 'favorites': 1539, 'mid': 399949035, 'author': '百合是人类文明之宝', 'description': '好多在我的手表框框外打不到，好烦', 'create': '2023-03-24 22:13', 'pic': 'http://i0.hdslb.com/bfs/archive/ab788006ad5a857aee1c0f4c6a09206c808d5c5a.jpg', 'coins': 140, 'duration': '2:05', 'badgepay': False, 'pts': 277760, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994046079', 'bvid': 'BV16x4y1A7jY', 'typename': '音游', 'title': '诡异的东西，但是Phigros', 'subtitle': '', 'play': 90993, 'review': 82, 'video_review': 64, 'favorites': 2884, 'mid': 389566990, 'author': 'Itz62iGD', 'description': '？', 'create': '2023-03-24 15:23', 'pic': 'http://i0.hdslb.com/bfs/archive/1fb0c72c21db4a49e22631874c3f9e37d94e9678.jpg', 'coins': 526, 'duration': '1:18', 'badgepay': False, 'pts': 234552, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866305474', 'bvid': 'BV1cV4y1R7JU', 'typename': '音游', 'title': '【中字切片】真冬与KAITO的争吵【PJSK】', 'subtitle': '', 'play': 75096, 'review': 227, 'video_review': 175, 'favorites': 2559, 'mid': 485997721, 'author': 'オソイ_', 'description': '节选自第六话（其实这就是第六话大部分的内容了……）\n好帅啊大哥', 'create': '2023-03-21 18:10', 'pic': 'http://i2.hdslb.com/bfs/archive/fe43a729c89bc77f08c260ccab640fd6eb766f7a.jpg', 'coins': 264, 'duration': '3:37', 'badgepay': False, 'pts': 204955, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568957551', 'bvid': 'BV1xv4y157wG', 'typename': '音游', 'title': '伤 不 起【偶像梦幻祭2/ES2】', 'subtitle': '', 'play': 45237, 'review': 217, 'video_review': 162, 'favorites': 2345, 'mid': 24824847, 'author': '千柠柠Qiu', 'description': 'hekk你自己看看你的编舞和运镜，你是故意的还是不小心\n不能说毫无关系，只能说有种qq酒店2.0的感觉', 'create': '2023-03-23 20:30', 'pic': 'http://i0.hdslb.com/bfs/archive/e7460fe940879d35b57daa982254300aeea2ad11.jpg', 'coins': 882, 'duration': '2:07', 'badgepay': False, 'pts': 144672, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269026856', 'bvid': 'BV1jc411L72x', 'typename': '音游', 'title': '【PJS字幕组】第八十九期活动『Immiscible Discord』剧情翻译 中文字幕合集 更新至第八话【世界计划 多彩舞台】', 'subtitle': '', 'play': 47540, 'review': 631, 'video_review': 677, 'favorites': 1240, 'mid': 13148307, 'author': 'Project_SEKAI资讯站', 'description': '第八十九期活动『イミシブル・ディスコード』[Immiscible Discord] \n剧情翻译中文字幕合集 by PJS字幕组\n\nStaff表（以参与时间先后排序）\n录制：茶币币、林祁\n封面：.nomedia\n翻译：ijndjdjdj、西塔、萤华、milk、只羊、质粉\n翻校：pokemonch、质粉、麻雀\n时轴：SEKAI的轴姬\n轴校&amp;压制：圣殿星痕、林祁', 'create': '2023-03-24 00:14', 'pic': 'http://i0.hdslb.com/bfs/archive/64519ed03f0d33ef1c8c741bb4f2836f26ce40d6.png', 'coins': 551, 'duration': '74:09', 'badgepay': False, 'pts': 139658, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569114985', 'bvid': 'BV1ev4y1G73S', 'typename': '音游', 'title': '【全站第一FNF加菲猫完整填词】*嘿，乔恩。子弹可是对我没用的', 'subtitle': '', 'play': 53050, 'review': 77, 'video_review': 232, 'favorites': 1288, 'mid': 604492413, 'author': '不知道叫什么好am', 'description': '我说到做到，好吧？直接晚上11.05发出，熬夜填完。一般而言，只要说到我肯定就会做到。说实话，这个要是做出来个模组，我肯定会玩爆的。但很可惜，却只有个动画。不过动画也可以了，起码歌还不错。（我不确定，我是全站第一还是第几的？不过经过我搜索也没找到我这视频的填词了，不过你要是说自己看见这视频以后，你知道谁是第一个，我就改了）如果你喜欢本期视频，你可以分享三连加关注，给你的好友。谢谢支持！（现在我这押韵，我也不清楚，这填词质量还是中下。我也搞不清楚质量是怎么算的，因为我是der必）', 'create': '2023-03-24 23:18', 'pic': 'http://i0.hdslb.com/bfs/archive/5605f3707c6eadcec576c5525b878f0a8eb0c240.jpg', 'coins': 108, 'duration': '2:46', 'badgepay': False, 'pts': 130182, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611283907', 'bvid': 'BV1i84y1w7wZ', 'typename': '音游', 'title': '跟风来的es妹，这是你们活该', 'subtitle': '', 'play': 55079, 'review': 166, 'video_review': 98, 'favorites': 1052, 'mid': 2109489738, 'author': '顾启安', 'description': '我不知道该怎么对这个服务器做出评价。看到它最近火起来热度又瞬间掉下去，我不会在我的评论区或者动态里提出任何下载和游玩这个服务器的方式，不要向我询问，做这个视频就是为了给你们避雷。', 'create': '2023-03-21 21:01', 'pic': 'http://i1.hdslb.com/bfs/archive/af6c55e5d4182e612306ab800f421609a9d00c78.jpg', 'coins': 90, 'duration': '2:55', 'badgepay': False, 'pts': 125386, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>262532</v>
+        <v>1568122</v>
       </c>
       <c r="I40" t="n">
-        <v>331</v>
+        <v>14492</v>
       </c>
       <c r="J40" t="n">
-        <v>1774</v>
+        <v>30995</v>
       </c>
       <c r="K40" t="n">
-        <v>809</v>
+        <v>18261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>科学科普</t>
+          <t>Mugen</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>mugen</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>回答你的十万个为什么</t>
+          <t>以mugen引擎为平台制作、或与mugen相关的游戏视频</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>/v/knowledge/science(opens new window)</t>
+          <t>/v/game/mugen</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>知识(主分区)</t>
+          <t>游戏</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[{'aid': '568923353', 'bvid': 'BV1Lv4y157WF', 'typename': '科学科普', 'title': '【食录】猪油这么香，可为什么没以前吃的多了', 'subtitle': '', 'play': 1324855, 'review': 8798, 'video_review': 8736, 'favorites': 11431, 'mid': 1937308559, 'author': '赛博食录', 'description': '如今猪油的江湖地位已经岌岌可危，我国人均猪油年消费已经不足1kg了，厨房灶台、超市货架几乎看不到猪油的影子。\n\xa0\n那么为什么我们现在很少吃猪油？', 'create': '2023-03-23 18:28', 'pic': 'http://i2.hdslb.com/bfs/archive/b61132d7d8993417b979196cfa5f187614691d24.jpg', 'coins': 10596, 'duration': '10:38', 'badgepay': False, 'pts': 2440207, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994004082', 'bvid': 'BV1sx4y1A7ZD', 'typename': '科学科普', 'title': '【鬼谷说】鲤形目：学好数理化，淡水称王霸', 'subtitle': '', 'play': 1303810, 'review': 2715, 'video_review': 5459, 'favorites': 18318, 'mid': 72270557, 'author': '芳斯塔芙', 'description': '这是一个速通玩家的故事', 'create': '2023-03-24 22:45', 'pic': 'http://i0.hdslb.com/bfs/archive/688be8ce82276a747a3aca3744231a564ac28762.jpg', 'coins': 29487, 'duration': '13:37', 'badgepay': False, 'pts': 2301007, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568818005', 'bvid': 'BV1Vv4y1j7zh', 'typename': '科学科普', 'title': '【花小烙】为什么脑袋撞到后会起很大一个包，身体其他地方就不会？', 'subtitle': '', 'play': 1315786, 'review': 2490, 'video_review': 1686, 'favorites': 9830, 'mid': 402576555, 'author': '画渣花小烙', 'description': '', 'create': '2023-03-20 18:18', 'pic': 'http://i0.hdslb.com/bfs/archive/dfc612d781b9c2b0d1e74c8eba75cdeb93c9c067.jpg', 'coins': 17804, 'duration': '3:26', 'badgepay': False, 'pts': 1700729, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908890747', 'bvid': 'BV1tM4y1B7qP', 'typename': '科学科普', 'title': '全面了解计算机是如何工作的', 'subtitle': '', 'play': 603310, 'review': 867, 'video_review': 587, 'favorites': 27220, 'mid': 1621049944, 'author': 'NONO频道', 'description': '动画素材来源：BranchEducation，NONO：脚本，文案，剪辑，翻译/音效：LEON\n画外音: 微软Azure-晓辰，音乐：Air-AShamaluevMusic，剪辑软件：Pr/AE AiTelly', 'create': '2023-03-23 07:37', 'pic': 'http://i0.hdslb.com/bfs/archive/b25c56773c818f0d4e70ae78f785ed9789f107b5.jpg', 'coins': 8821, 'duration': '6:37', 'badgepay': False, 'pts': 1690135, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226398529', 'bvid': 'BV1Hb411o7JF', 'typename': '科学科普', 'title': '沙尘冰雹来了！今年最强冷暖对撞开始，广东暴雨迟到但绝不会缺席', 'subtitle': '', 'play': 684286, 'review': 4447, 'video_review': 2854, 'favorites': 3171, 'mid': 547072854, 'author': '中气爱', 'description': '这几天，冷暖空气在我国强强对碰，今年以来最强的沙尘、高温、强对流天气联手登场，而且强度都超出预期。在掠过新疆后，强大的冷空气激发出蒙古气旋，蒙古高原吹起9-11级大风，大片黄沙腾空而起，遮天蔽日，内蒙古、陕甘宁，山西、京津冀、河南、山东和东北三省出现了大范围的沙尘天气。其中河北张家口PM10浓度一度高达9900以上，北方城市在沙尘中都仿佛加了模糊滤镜，哈尔滨、长春、北京等一度出现了“蓝太阳”。总体来看，这次沙尘的总体强度已经超过了3月11日那次，是2023年以来最强的沙尘。正如我们之前节目所说，这次沙尘的', 'create': '2023-03-23 22:00', 'pic': 'http://i2.hdslb.com/bfs/archive/ad24ac7ef39a35dc5a1ab4bfedea7dc29f470d7a.jpg', 'coins': 4394, 'duration': '4:26', 'badgepay': False, 'pts': 1327151, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823882884', 'bvid': 'BV1kg4y1x7CU', 'typename': '科学科普', 'title': '大脑的低电量模式，如何改变你的认知？', 'subtitle': '', 'play': 465278, 'review': 1217, 'video_review': 929, 'favorites': 17690, 'mid': 1551474535, 'author': '锦鲤实验室', 'description': '当你躺平时，大脑在做什么？', 'create': '2023-03-22 16:47', 'pic': 'http://i2.hdslb.com/bfs/archive/99b41c846b44ffca5ac4e8b4f944d580d559b802.jpg', 'coins': 3958, 'duration': '5:52', 'badgepay': False, 'pts': 1274190, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526616641', 'bvid': 'BV18M411g7ww', 'typename': '科学科普', 'title': '【显微解剖穴位成果发布】穴位到底有实体结构吗？', 'subtitle': '', 'play': 306566, 'review': 5442, 'video_review': 1782, 'favorites': 11069, 'mid': 356923123, 'author': '闫实在别处', 'description': '', 'create': '2023-03-24 10:37', 'pic': 'http://i2.hdslb.com/bfs/archive/552ddb976accb979b2fbf6ed72d1719f2f1b719b.jpg', 'coins': 14153, 'duration': '17:27', 'badgepay': False, 'pts': 1048274, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866559715', 'bvid': 'BV1mV4y1X7m1', 'typename': '科学科普', 'title': '用洒水车喷水应付空气质量检测？真的是这样吗？', 'subtitle': '', 'play': 680440, 'review': 1723, 'video_review': 334, 'favorites': 2707, 'mid': 123795206, 'author': '地球百科君', 'description': '用洒水车喷水应付空气质量检测？真的是这样吗？', 'create': '2023-03-24 18:54', 'pic': 'http://i1.hdslb.com/bfs/archive/9594c5ac10c101d76894879b4f532476986fb215.jpg', 'coins': 2915, 'duration': '1:52', 'badgepay': False, 'pts': 994176, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568937153', 'bvid': 'BV1uv4y157ub', 'typename': '科学科普', 'title': '氟哥指哪我氧化哪', 'subtitle': '', 'play': 412021, 'review': 549, 'video_review': 224, 'favorites': 10590, 'mid': 555960952, 'author': '杜炫粒子', 'description': '-', 'create': '2023-03-23 00:00', 'pic': 'http://i1.hdslb.com/bfs/archive/b3101858203229dcf7dc93de667057e48b80d359.jpg', 'coins': 1640, 'duration': '0:25', 'badgepay': False, 'pts': 983021, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866470614', 'bvid': 'BV1uV4y1X7oy', 'typename': '科学科普', 'title': '这次来南京，围观一下南京虫友们的自然爱好', 'subtitle': '', 'play': 518918, 'review': 1712, 'video_review': 1773, 'favorites': 3381, 'mid': 14804670, 'author': '无穷小亮的科普日常', 'description': '', 'create': '2023-03-23 14:23', 'pic': 'http://i2.hdslb.com/bfs/archive/3d4760201c8e7f12a014c4e75111134d907bcfaf.jpg', 'coins': 2491, 'duration': '4:25', 'badgepay': False, 'pts': 963240, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '866541924', 'bvid': 'BV1YV4y1X74X', 'typename': 'Mugen', 'title': '熊猫人 VS  御坂美琴', 'subtitle': '', 'play': 210064, 'review': 93, 'video_review': 51, 'favorites': 1316, 'mid': 1110341928, 'author': 'i只是个路人', 'description': '-', 'create': '2023-03-25 10:45', 'pic': 'http://i1.hdslb.com/bfs/archive/41c76461f57d6f64dc3cb1109610624abf44d591.jpg', 'coins': 100, 'duration': '0:40', 'badgepay': False, 'pts': 159797, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908974866', 'bvid': 'BV1kM4y1B7kJ', 'typename': 'Mugen', 'title': '【Mugen】直视变异，窒息的恐惧，估计进来就出不去了', 'subtitle': '', 'play': 49431, 'review': 43, 'video_review': 148, 'favorites': 175, 'mid': 399258011, 'author': '菜比雪游戏', 'description': '【Mugen】直视变异，窒息的恐惧，估计进来就出不去了', 'create': '2023-03-23 02:30', 'pic': 'http://i2.hdslb.com/bfs/archive/c8a5192829fb827bf99bc811116c5904ba5ca7ce.jpg', 'coins': 20, 'duration': '3:47', 'badgepay': False, 'pts': 42992, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526273787', 'bvid': 'BV1fM411H7ds', 'typename': 'Mugen', 'title': '【MUGEN】最新技能优化全形态版『乌尔奇奥拉』技能动画（附人物下载）', 'subtitle': '', 'play': 20010, 'review': 52, 'video_review': 33, 'favorites': 210, 'mid': 2025332, 'author': 'L的朋友', 'description': '人物包下载地址：\n链接：https://pan.baidu.com/s/1kyBqPIZY1OwNlpcZE4-7ww?pwd=6666 \n提取码：6666 \n--来自百度网盘超级会员V9的分享\n\n人物作者发布地址：\nhttps://www.youtube.com/watch?v=mLn97C06TKs', 'create': '2023-03-20 18:23', 'pic': 'http://i2.hdslb.com/bfs/archive/9a222d185703fb8d037d0d9dc98a4c6d9a1f10c6.jpg', 'coins': 72, 'duration': '7:32', 'badgepay': False, 'pts': 34336, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311521563', 'bvid': 'BV17N411K7ap', 'typename': 'Mugen', 'title': '【MUGEN动画】奥特五大誓言', 'subtitle': '', 'play': 10226, 'review': 52, 'video_review': 25, 'favorites': 221, 'mid': 216864968, 'author': '注意力要集中', 'description': '由于素材限制，加了一些原创改编', 'create': '2023-03-25 12:34', 'pic': 'http://i0.hdslb.com/bfs/archive/ca087c5cdc3e26ee7cec5a3fdf2887f7f9c4d266.jpg', 'coins': 104, 'duration': '4:15', 'badgepay': False, 'pts': 23791, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311560929', 'bvid': 'BV1BN411K7zC', 'typename': 'Mugen', 'title': '【Mugen jus】暗影大人 手搓核弹', 'subtitle': '', 'play': 5766, 'review': 28, 'video_review': 3, 'favorites': 58, 'mid': 435415785, 'author': '欢心解说', 'description': '-', 'create': '2023-03-25 13:14', 'pic': 'http://i1.hdslb.com/bfs/archive/82fe6fa36175bcdceadcacbd8febd9ad3f7778ba.jpg', 'coins': 22, 'duration': '1:10', 'badgepay': False, 'pts': 12416, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696340922', 'bvid': 'BV1cm4y1k7LU', 'typename': 'Mugen', 'title': '【MUGEN】絶・最終章 MUGEN界 男性連合軍VS女性連合軍3 Part50', 'subtitle': '', 'play': 2201, 'review': 158, 'video_review': 269, 'favorites': 27, 'mid': 34390, 'author': '七夜志貴', 'description': 'sm41962386\nGOD WIND\n神風の後継ぎ', 'create': '2023-03-21 03:32', 'pic': 'http://i0.hdslb.com/bfs/archive/ab3cafe0a9c976baff653a7d3fcb7e956424d45e.jpg', 'coins': 25, 'duration': '29:25', 'badgepay': False, 'pts': 6367, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>7615270</v>
+        <v>297698</v>
       </c>
       <c r="I41" t="n">
-        <v>96259</v>
+        <v>343</v>
       </c>
       <c r="J41" t="n">
-        <v>115407</v>
+        <v>2007</v>
       </c>
       <c r="K41" t="n">
-        <v>54293</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>社科·法律·心理</t>
+          <t>科学科普</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>social_science</t>
+          <t>science</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>基于社会科学、法学、心理学展开或个人观点输出的知识视频</t>
+          <t>回答你的十万个为什么</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>/v/knowledge/social_science(opens new window)</t>
+          <t>/v/knowledge/science(opens new window)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>知识(主分区)</t>
+          <t>知识</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[{'aid': '909054253', 'bvid': 'BV1EM4y1z7LZ', 'typename': '社科·法律·心理', 'title': '这次，你的硬币可以兑换成真的了！', 'subtitle': '', 'play': 3152372, 'review': 13471, 'video_review': 165749, 'favorites': 98200, 'mid': 106685726, 'author': '二二酸酸', 'description': '这是一期关于我们可能没见过的女孩和她们的“秘密”故事。\n\xa0\n大家好我酸酸，在简介里我想分享一些关于这支视频制作时的感受：第一次接到高洁丝发来的公益号召邀请、听到“只要观众投一枚硬币，我们就捐一片卫生巾”时，我特别特别激动，因为虽然当UP主这么多年来收到过大家无数的硬币，但是能将硬币真的兑换成真实的爱心来改善其他女孩的生活，这还是头一次！所以我立刻答应了并着手开始了这期视频的制作。说实话，那时我的感受还依然停留在UP主的角度，想的都是“我要怎么做才能让观众更满意”、“画面怎么表现比较好”，对于这次公益活动到', 'create': '2023-03-25 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/750a23ebd28a049bf2244bc850704a440026ae1d.jpg', 'coins': 1366838, 'duration': '5:16', 'badgepay': False, 'pts': 6564274, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353945583', 'bvid': 'BV1tX4y1d7bj', 'typename': '社科·法律·心理', 'title': '“我的脚就这么廉价？”全网热议的巨婴事件反转：逼疯一个人太容易', 'subtitle': '', 'play': 1250161, 'review': 5441, 'video_review': 3796, 'favorites': 8604, 'mid': 30947486, 'author': '小椰子专栏', 'description': '如果小伙伴有更多的看法，可以在评论区给我留言。\n感谢大家的一键三连，你们的鼓励是我做视频的动力～', 'create': '2023-03-24 16:20', 'pic': 'http://i2.hdslb.com/bfs/archive/2133df3e816f8d1f14911cc03a660752528e2da2.jpg', 'coins': 3960, 'duration': '9:02', 'badgepay': False, 'pts': 2221123, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823843277', 'bvid': 'BV18g4y1x7EK', 'typename': '社科·法律·心理', 'title': '你完全不了解梦有多重要！记忆力、创造力、伤痛疗愈，深度解读梦的作用！如何操控梦境？', 'subtitle': '', 'play': 552128, 'review': 3059, 'video_review': 2282, 'favorites': 21716, 'mid': 230983435, 'author': '心河摆渡', 'description': '有多少小伙伴忘了，今天（3月21日）是国际睡眠日\n上次聊了睡眠的重要性，看完这期你会发现：梦竟然比睡眠更重要！\n另外@哔哩哔哩纪录片 “睡个好觉”活动，了解更多睡眠冷知识，来参与活动，祝你美梦成真&gt;&gt; https://www.bilibili.com/blackboard/topic/activity-KJCc2pmbT7.html\n\n————————————————————\n这里是心河摆渡，每周分享有温度的成长内容\n书本内外皆学问，伴您成长摆渡人\n不啰嗦啦，咱们下期不见不散~', 'create': '2023-03-21 19:30', 'pic': 'http://i1.hdslb.com/bfs/archive/4e2c1e1663d5c49e0b0826bf2cca74997899c6a6.jpg', 'coins': 5195, 'duration': '10:31', 'badgepay': False, 'pts': 1563205, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526388477', 'bvid': 'BV1EM411u78q', 'typename': '社科·法律·心理', 'title': '中医说找个男朋友，你的病会好。男朋友是药引 这个难度系数有点大，大数据给我个男朋友 虽然我比较抗拒', 'subtitle': '', 'play': 941252, 'review': 4269, 'video_review': 2076, 'favorites': 3759, 'mid': 29364420, 'author': '追光向阳发热', 'description': '-', 'create': '2023-03-22 18:22', 'pic': 'http://i2.hdslb.com/bfs/archive/ecf3b205923d3bac75ceb68e05c74d1309b8ceaf.jpg', 'coins': 904, 'duration': '3:50', 'badgepay': False, 'pts': 1538224, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993797950', 'bvid': 'BV1Yx4y1w7rH', 'typename': '社科·法律·心理', 'title': '【睡前消息566】电子度牒上线 宗教管理可以更唯物', 'subtitle': '', 'play': 467426, 'review': 1835, 'video_review': 2360, 'favorites': 4770, 'mid': 316568752, 'author': '马督工', 'description': '1\xa0介绍新上线的宗教人员查询系统，分析宗教管理制度。\n2 沙特伊朗在中国斡旋下建交问题。', 'create': '2023-03-21 19:30', 'pic': 'http://i1.hdslb.com/bfs/archive/8d3703b5b571707216b3659f8fcc57c5c7e48279.jpg', 'coins': 21055, 'duration': '19:06', 'badgepay': False, 'pts': 923233, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823993240', 'bvid': 'BV12g4y1W7c8', 'typename': '社科·法律·心理', 'title': '人在落魄的时候该做的事（人生重启方案）', 'subtitle': '', 'play': 274068, 'review': 960, 'video_review': 286, 'favorites': 12939, 'mid': 239688446, 'author': '硬核的HeyMatt', 'description': '', 'create': '2023-03-23 12:16', 'pic': 'http://i2.hdslb.com/bfs/archive/df2ae251af8d341bd05e1120b406afeccd9b05b0.jpg', 'coins': 5210, 'duration': '6:35', 'badgepay': False, 'pts': 835222, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441452490', 'bvid': 'BV1pL411D7QV', 'typename': '社科·法律·心理', 'title': '【罗翔】过失犯罪引发争议，如何认定过失犯罪中的行为？', 'subtitle': '', 'play': 368725, 'review': 1506, 'video_review': 4488, 'favorites': 3161, 'mid': 517327498, 'author': '罗翔说刑法', 'description': '几乎每一个关于过失犯罪的认定，都会引起巨大争议。我们本期视频讲一讲如何认定过失犯罪中的行为？', 'create': '2023-03-23 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6ecb5ba8c1b8d9c29e8545ee35e728f3db100c38.jpg', 'coins': 5705, 'duration': '6:20', 'badgepay': False, 'pts': 732904, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441548438', 'bvid': 'BV1rL411D74D', 'typename': '社科·法律·心理', 'title': '你要试着安静下来，去做自己该做的事情', 'subtitle': '', 'play': 182355, 'review': 626, 'video_review': 618, 'favorites': 15700, 'mid': 401898575, 'author': '投稿鼠鼠', 'description': '', 'create': '2023-03-25 23:08', 'pic': 'http://i0.hdslb.com/bfs/archive/5c87b77bc82498691cc2523085ef83480ebdb982.jpg', 'coins': 4155, 'duration': '0:40', 'badgepay': False, 'pts': 714664, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994057122', 'bvid': 'BV1xs4y1S7mk', 'typename': '社科·法律·心理', 'title': '耳念珠菌传播速度惊人，但是更危险的还在后面！', 'subtitle': '', 'play': 506349, 'review': 997, 'video_review': 1200, 'favorites': 2873, 'mid': 67299944, 'author': '李三金Alex', 'description': '耳念珠菌传播速度惊人，但是离我们更近的细菌还在后面！\xa0#美国', 'create': '2023-03-24 07:45', 'pic': 'http://i2.hdslb.com/bfs/archive/f678159598d81ea2bd0bd746f18f67f8d5531dce.jpg', 'coins': 218, 'duration': '1:40', 'badgepay': False, 'pts': 707842, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951731407', 'bvid': 'BV14s4y1J7nG', 'typename': '社科·法律·心理', 'title': '能不能在法庭上整活（7）', 'subtitle': '', 'play': 511576, 'review': 810, 'video_review': 570, 'favorites': 2083, 'mid': 423738152, 'author': '俏佳人xxx', 'description': '-', 'create': '2023-03-26 19:49', 'pic': 'http://i2.hdslb.com/bfs/archive/6e54050ea3ecc95976661c382f47e4c9044bfaeb.jpg', 'coins': 3165, 'duration': '2:10', 'badgepay': False, 'pts': 681682, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '568923353', 'bvid': 'BV1Lv4y157WF', 'typename': '科学科普', 'title': '【食录】猪油这么香，可为什么没以前吃的多了', 'subtitle': '', 'play': 1377425, 'review': 8868, 'video_review': 8833, 'favorites': 11866, 'mid': 1937308559, 'author': '赛博食录', 'description': '如今猪油的江湖地位已经岌岌可危，我国人均猪油年消费已经不足1kg了，厨房灶台、超市货架几乎看不到猪油的影子。\n\xa0\n那么为什么我们现在很少吃猪油？', 'create': '2023-03-23 18:28', 'pic': 'http://i2.hdslb.com/bfs/archive/b61132d7d8993417b979196cfa5f187614691d24.jpg', 'coins': 10833, 'duration': '10:38', 'badgepay': False, 'pts': 2473142, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994004082', 'bvid': 'BV1sx4y1A7ZD', 'typename': '科学科普', 'title': '【鬼谷说】鲤形目：学好数理化，淡水称王霸', 'subtitle': '', 'play': 1379784, 'review': 2788, 'video_review': 5628, 'favorites': 19268, 'mid': 72270557, 'author': '芳斯塔芙', 'description': '这是一个速通玩家的故事', 'create': '2023-03-24 22:45', 'pic': 'http://i0.hdslb.com/bfs/archive/688be8ce82276a747a3aca3744231a564ac28762.jpg', 'coins': 30558, 'duration': '13:37', 'badgepay': False, 'pts': 2392339, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908890747', 'bvid': 'BV1tM4y1B7qP', 'typename': '科学科普', 'title': '全面了解计算机是如何工作的', 'subtitle': '', 'play': 614002, 'review': 871, 'video_review': 595, 'favorites': 27592, 'mid': 1621049944, 'author': 'NONO频道', 'description': '动画素材来源：BranchEducation，NONO：脚本，文案，剪辑，翻译/音效：LEON\n画外音: 微软Azure-晓辰，音乐：Air-AShamaluevMusic，剪辑软件：Pr/AE AiTelly', 'create': '2023-03-23 07:37', 'pic': 'http://i0.hdslb.com/bfs/archive/b25c56773c818f0d4e70ae78f785ed9789f107b5.jpg', 'coins': 8944, 'duration': '6:37', 'badgepay': False, 'pts': 1714561, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568818005', 'bvid': 'BV1Vv4y1j7zh', 'typename': '科学科普', 'title': '【花小烙】为什么脑袋撞到后会起很大一个包，身体其他地方就不会？', 'subtitle': '', 'play': 1327445, 'review': 2496, 'video_review': 1692, 'favorites': 9936, 'mid': 402576555, 'author': '画渣花小烙', 'description': '', 'create': '2023-03-20 18:18', 'pic': 'http://i0.hdslb.com/bfs/archive/dfc612d781b9c2b0d1e74c8eba75cdeb93c9c067.jpg', 'coins': 17926, 'duration': '3:26', 'badgepay': False, 'pts': 1711662, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823882884', 'bvid': 'BV1kg4y1x7CU', 'typename': '科学科普', 'title': '大脑的低电量模式，如何改变你的认知？', 'subtitle': '', 'play': 495895, 'review': 1255, 'video_review': 949, 'favorites': 18808, 'mid': 1551474535, 'author': '锦鲤实验室', 'description': '当你躺平时，大脑在做什么？', 'create': '2023-03-22 16:47', 'pic': 'http://i2.hdslb.com/bfs/archive/99b41c846b44ffca5ac4e8b4f944d580d559b802.jpg', 'coins': 4158, 'duration': '5:52', 'badgepay': False, 'pts': 1346658, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226398529', 'bvid': 'BV1Hb411o7JF', 'typename': '科学科普', 'title': '沙尘冰雹来了！今年最强冷暖对撞开始，广东暴雨迟到但绝不会缺席', 'subtitle': '', 'play': 692361, 'review': 4470, 'video_review': 2860, 'favorites': 3183, 'mid': 547072854, 'author': '中气爱', 'description': '这几天，冷暖空气在我国强强对碰，今年以来最强的沙尘、高温、强对流天气联手登场，而且强度都超出预期。在掠过新疆后，强大的冷空气激发出蒙古气旋，蒙古高原吹起9-11级大风，大片黄沙腾空而起，遮天蔽日，内蒙古、陕甘宁，山西、京津冀、河南、山东和东北三省出现了大范围的沙尘天气。其中河北张家口PM10浓度一度高达9900以上，北方城市在沙尘中都仿佛加了模糊滤镜，哈尔滨、长春、北京等一度出现了“蓝太阳”。总体来看，这次沙尘的总体强度已经超过了3月11日那次，是2023年以来最强的沙尘。正如我们之前节目所说，这次沙尘的', 'create': '2023-03-23 22:00', 'pic': 'http://i2.hdslb.com/bfs/archive/ad24ac7ef39a35dc5a1ab4bfedea7dc29f470d7a.jpg', 'coins': 4422, 'duration': '4:26', 'badgepay': False, 'pts': 1332906, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526616641', 'bvid': 'BV18M411g7ww', 'typename': '科学科普', 'title': '【显微解剖穴位成果发布】穴位到底有实体结构吗？', 'subtitle': '', 'play': 319732, 'review': 5630, 'video_review': 1834, 'favorites': 11547, 'mid': 356923123, 'author': '闫实在别处', 'description': '', 'create': '2023-03-24 10:37', 'pic': 'http://i2.hdslb.com/bfs/archive/552ddb976accb979b2fbf6ed72d1719f2f1b719b.jpg', 'coins': 14843, 'duration': '17:27', 'badgepay': False, 'pts': 1087434, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866559715', 'bvid': 'BV1mV4y1X7m1', 'typename': '科学科普', 'title': '用洒水车喷水应付空气质量检测？真的是这样吗？', 'subtitle': '', 'play': 698016, 'review': 1700, 'video_review': 344, 'favorites': 2780, 'mid': 123795206, 'author': '地球百科君', 'description': '用洒水车喷水应付空气质量检测？真的是这样吗？', 'create': '2023-03-24 18:54', 'pic': 'http://i1.hdslb.com/bfs/archive/9594c5ac10c101d76894879b4f532476986fb215.jpg', 'coins': 2975, 'duration': '1:52', 'badgepay': False, 'pts': 1011845, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568937153', 'bvid': 'BV1uv4y157ub', 'typename': '科学科普', 'title': '氟哥指哪我氧化哪', 'subtitle': '', 'play': 415409, 'review': 552, 'video_review': 227, 'favorites': 10666, 'mid': 555960952, 'author': '杜炫粒子', 'description': '-', 'create': '2023-03-23 00:00', 'pic': 'http://i1.hdslb.com/bfs/archive/b3101858203229dcf7dc93de667057e48b80d359.jpg', 'coins': 1652, 'duration': '0:25', 'badgepay': False, 'pts': 989636, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866470614', 'bvid': 'BV1uV4y1X7oy', 'typename': '科学科普', 'title': '这次来南京，围观一下南京虫友们的自然爱好', 'subtitle': '', 'play': 524439, 'review': 1723, 'video_review': 1785, 'favorites': 3405, 'mid': 14804670, 'author': '无穷小亮的科普日常', 'description': '', 'create': '2023-03-23 14:23', 'pic': 'http://i2.hdslb.com/bfs/archive/3d4760201c8e7f12a014c4e75111134d907bcfaf.jpg', 'coins': 2525, 'duration': '4:25', 'badgepay': False, 'pts': 970503, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8206412</v>
+        <v>7844508</v>
       </c>
       <c r="I42" t="n">
-        <v>1416405</v>
+        <v>98836</v>
       </c>
       <c r="J42" t="n">
-        <v>173805</v>
+        <v>119051</v>
       </c>
       <c r="K42" t="n">
-        <v>29979</v>
+        <v>54293</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>人文历史</t>
+          <t>社科·法律·心理</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>humanity_history</t>
+          <t>social_science</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>看看古今人物，聊聊历史过往，品品文学典籍</t>
+          <t>基于社会科学、法学、心理学展开或个人观点输出的知识视频</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>/v/knowledge/humanity_history(opens new window)</t>
+          <t>/v/knowledge/social_science(opens new window)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>知识(主分区)</t>
+          <t>知识</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[{'aid': '483851765', 'bvid': 'BV1RT41167qg', 'typename': '人文历史', 'title': '我，柳三变，白衣卿相，奉旨填词，人生很难，但我没失败', 'subtitle': '', 'play': 1166861, 'review': 1575, 'video_review': 2503, 'favorites': 51047, 'mid': 544291240, 'author': '东兴苟十三', 'description': '参考文献：\n1）《今宵酒醒何处-柳永词传》杨柳\n2）《柳永家世生平新考》李思永\n3）《柳永词集》柳永\n4）《柳永词传——秦楼狂客的浅斟低唱》王馨\n视频素材来源:\n1）纪录片《中国》\n2）纪录片《千古风流人物》\n3）纪录片《惟有香如故》\n4）河南卫视《少年游》\n5）《你一句春不晚，我就到了真江南》UP流云蕊\n6）《钗头凤·唐婉》流云蕊\n7）张予曦x网易逆水寒MV\n8）纪录片《舞千年》\n9）电视剧《清平乐》\n10）琵琶《倩女幽魂》up琵琶朱文婧\n11）《雾西湖》摄影作品 -up巍喆\n12）《识途》中国传媒大学', 'create': '2023-03-21 08:00', 'pic': 'http://i1.hdslb.com/bfs/archive/80728a5e943ec679eb182e694d2af4df54d96da5.jpg', 'coins': 47255, 'duration': '27:46', 'badgepay': False, 'pts': 2867993, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824034926', 'bvid': 'BV1Ug4y1W7KB', 'typename': '人文历史', 'title': '消防局如何点燃旧金山？【神奇组织05】', 'subtitle': '', 'play': 1824313, 'review': 3206, 'video_review': 12489, 'favorites': 28754, 'mid': 23947287, 'author': '小约翰可汗', 'description': '本篇为神奇组织之旧金山消防局。\n\n参考资料：\n旧金山消防局官网\n旧金山消防局博物馆官网\n旧金山历史博物馆官网\n保罗·狄策尔1976年出版《消防车、消防员：从殖民时代到现代的人员、设备和机器》\n史密斯·丹尼斯2005年出版《旧金山在燃烧：1906年地震和火灾不为人知的故事》\n汉森·格拉迪斯1995年出版《旧金山年鉴》', 'create': '2023-03-25 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7f1391b519fed608761084b5cd421e42b59fa50e.jpg', 'coins': 82376, 'duration': '20:55', 'badgepay': False, 'pts': 2841855, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438779063', 'bvid': 'BV1tL411d7dP', 'typename': '人文历史', 'title': '深度|| 欧洲为何没有“分久必合”？秦始皇“三功”如何奠基今日中国？', 'subtitle': '', 'play': 1215033, 'review': 6571, 'video_review': 10833, 'favorites': 25192, 'mid': 504934876, 'author': '渤海小吏', 'description': '参考：《大国宪制：历史中国的制度构成》——苏力\n渤海小吏的封建脉络百战——《第二季.楚汉双雄》', 'create': '2023-03-23 10:30', 'pic': 'http://i1.hdslb.com/bfs/archive/2bd56a4f13ad79ba242bea08cad99f00c041fb0b.jpg', 'coins': 48813, 'duration': '24:51', 'badgepay': False, 'pts': 2672397, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653758223', 'bvid': 'BV1mY4y1X7Rw', 'typename': '人文历史', 'title': '中历史上那些难得的“相遇”', 'subtitle': '', 'play': 1033242, 'review': 1081, 'video_review': 726, 'favorites': 44562, 'mid': 1674874598, 'author': '洛訶以北', 'description': '-', 'create': '2023-03-20 18:39', 'pic': 'http://i0.hdslb.com/bfs/archive/56924d2ecd31f57ac6f938024d864d5ecd0fff3c.jpg', 'coins': 8880, 'duration': '1:55', 'badgepay': False, 'pts': 2386771, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908950142', 'bvid': 'BV1vM4y1B7Ee', 'typename': '人文历史', 'title': '永生难忘的成语翻译，完美匹配中国教育的语文老师！', 'subtitle': '', 'play': 891649, 'review': 767, 'video_review': 593, 'favorites': 38637, 'mid': 1636194007, 'author': '阿鱼爱学习本人', 'description': '那是我的老师，她让我知道原来好的语文老师从来不会只教课本里的内容。', 'create': '2023-03-22 17:20', 'pic': 'http://i2.hdslb.com/bfs/archive/23de8201927735fb7b0649c4d688c057416b0e8a.jpg', 'coins': 11267, 'duration': '2:14', 'badgepay': False, 'pts': 2152188, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909077051', 'bvid': 'BV15M4y1z7PS', 'typename': '人文历史', 'title': '浅谈秦始皇陵兵马俑的最新考古发现：某些论文站不住脚了', 'subtitle': '', 'play': 1071660, 'review': 3992, 'video_review': 3367, 'favorites': 9638, 'mid': 35857776, 'author': '弓手冬郎', 'description': '视频里提到的那篇关于秦弩的论文，槽点是在太多，大家如果有兴趣的话我们可以单独吐槽一期，就怕一期吐槽不完。', 'create': '2023-03-24 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0f36829616cd561caf6237db4cf9e9c1c5be6666.jpg', 'coins': 6821, 'duration': '8:49', 'badgepay': False, 'pts': 2019787, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441266180', 'bvid': 'BV1pL411r7BR', 'typename': '人文历史', 'title': '花花公子、间谍、将军，最后是芬兰的英雄：曼纳海姆(上)【历史调研室38】', 'subtitle': '', 'play': 820604, 'review': 3879, 'video_review': 6943, 'favorites': 17997, 'mid': 519872016, 'author': '历史调研室', 'description': '求关注求三连~\n参考资料、视频素材、BGM在视频结尾', 'create': '2023-03-21 18:22', 'pic': 'http://i0.hdslb.com/bfs/archive/e2b8f282d440053f13b8208db726546157d3e7fb.jpg', 'coins': 43012, 'duration': '27:05', 'badgepay': False, 'pts': 1887113, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438773854', 'bvid': 'BV1tL411d7ca', 'typename': '人文历史', 'title': '“我好多年没玩了，好想和你玩一局”', 'subtitle': '', 'play': 841165, 'review': 2660, 'video_review': 1765, 'favorites': 16187, 'mid': 395089518, 'author': '阿帅派克', 'description': '诗词闲聊4群：235965582\n剪辑@仓小杰  \n上麦用户@陈攀chenpan ', 'create': '2023-03-21 05:58', 'pic': 'http://i2.hdslb.com/bfs/archive/523d551cd4c4a3d3f37504f4495117b8b08cb745.jpg', 'coins': 79216, 'duration': '10:45', 'badgepay': False, 'pts': 1682966, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354092151', 'bvid': 'BV1pX4y1o7Qs', 'typename': '人文历史', 'title': '拒绝“感动中国”提名，一个德国人在广西深山的“教育实验”【寻找·卢安克】', 'subtitle': '', 'play': 540560, 'review': 2394, 'video_review': 4205, 'favorites': 19438, 'mid': 49246269, 'author': '大象放映室', 'description': '今天，让我们一起「寻找 · 卢安克」。', 'create': '2023-03-24 18:27', 'pic': 'http://i1.hdslb.com/bfs/archive/f97c5ce36f9df003d21c2ea1c253ea11d83cac7f.jpg', 'coins': 22618, 'duration': '21:02', 'badgepay': False, 'pts': 1501314, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268876786', 'bvid': 'BV13c4117773', 'typename': '人文历史', 'title': '网红小伙戏耍整个英国，半年靠水军把不存在的餐厅做到第一名！', 'subtitle': '', 'play': 727524, 'review': 1348, 'video_review': 4100, 'favorites': 8068, 'mid': 638816489, 'author': '英大吉', 'description': '', 'create': '2023-03-22 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/c1ef7528d6c27e2d3dcebe5d7e9ebad374a03c02.jpg', 'coins': 5930, 'duration': '17:18', 'badgepay': False, 'pts': 1405148, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '909054253', 'bvid': 'BV1EM4y1z7LZ', 'typename': '社科·法律·心理', 'title': '这次，你的硬币可以兑换成真的了！', 'subtitle': '', 'play': 3728696, 'review': 15654, 'video_review': 183411, 'favorites': 112414, 'mid': 106685726, 'author': '二二酸酸', 'description': '这是一期关于我们可能没见过的女孩和她们的“秘密”故事。\n\xa0\n大家好我酸酸，在简介里我想分享一些关于这支视频制作时的感受：第一次接到高洁丝发来的公益号召邀请、听到“只要观众投一枚硬币，我们就捐一片卫生巾”时，我特别特别激动，因为虽然当UP主这么多年来收到过大家无数的硬币，但是能将硬币真的兑换成真实的爱心来改善其他女孩的生活，这还是头一次！所以我立刻答应了并着手开始了这期视频的制作。说实话，那时我的感受还依然停留在UP主的角度，想的都是“我要怎么做才能让观众更满意”、“画面怎么表现比较好”，对于这次公益活动到', 'create': '2023-03-25 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/750a23ebd28a049bf2244bc850704a440026ae1d.jpg', 'coins': 1588634, 'duration': '5:16', 'badgepay': False, 'pts': 7296334, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353945583', 'bvid': 'BV1tX4y1d7bj', 'typename': '社科·法律·心理', 'title': '“我的脚就这么廉价？”全网热议的巨婴事件反转：逼疯一个人太容易', 'subtitle': '', 'play': 1316549, 'review': 5709, 'video_review': 3989, 'favorites': 8983, 'mid': 30947486, 'author': '小椰子专栏', 'description': '如果小伙伴有更多的看法，可以在评论区给我留言。\n感谢大家的一键三连，你们的鼓励是我做视频的动力～', 'create': '2023-03-24 16:20', 'pic': 'http://i2.hdslb.com/bfs/archive/2133df3e816f8d1f14911cc03a660752528e2da2.jpg', 'coins': 4226, 'duration': '9:02', 'badgepay': False, 'pts': 2297635, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823843277', 'bvid': 'BV18g4y1x7EK', 'typename': '社科·法律·心理', 'title': '你完全不了解梦有多重要！记忆力、创造力、伤痛疗愈，深度解读梦的作用！如何操控梦境？', 'subtitle': '', 'play': 561227, 'review': 3100, 'video_review': 2303, 'favorites': 22041, 'mid': 230983435, 'author': '心河摆渡', 'description': '有多少小伙伴忘了，今天（3月21日）是国际睡眠日\n上次聊了睡眠的重要性，看完这期你会发现：梦竟然比睡眠更重要！\n另外@哔哩哔哩纪录片 “睡个好觉”活动，了解更多睡眠冷知识，来参与活动，祝你美梦成真&gt;&gt; https://www.bilibili.com/blackboard/topic/activity-KJCc2pmbT7.html\n\n————————————————————\n这里是心河摆渡，每周分享有温度的成长内容\n书本内外皆学问，伴您成长摆渡人\n不啰嗦啦，咱们下期不见不散~', 'create': '2023-03-21 19:30', 'pic': 'http://i1.hdslb.com/bfs/archive/4e2c1e1663d5c49e0b0826bf2cca74997899c6a6.jpg', 'coins': 5306, 'duration': '10:31', 'badgepay': False, 'pts': 1585764, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526388477', 'bvid': 'BV1EM411u78q', 'typename': '社科·法律·心理', 'title': '中医说找个男朋友，你的病会好。男朋友是药引 这个难度系数有点大，大数据给我个男朋友 虽然我比较抗拒', 'subtitle': '', 'play': 947521, 'review': 4293, 'video_review': 2093, 'favorites': 3786, 'mid': 29364420, 'author': '追光向阳发热', 'description': '-', 'create': '2023-03-22 18:22', 'pic': 'http://i2.hdslb.com/bfs/archive/ecf3b205923d3bac75ceb68e05c74d1309b8ceaf.jpg', 'coins': 910, 'duration': '3:50', 'badgepay': False, 'pts': 1543777, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951731407', 'bvid': 'BV14s4y1J7nG', 'typename': '社科·法律·心理', 'title': '能不能在法庭上整活（7）', 'subtitle': '', 'play': 901570, 'review': 1143, 'video_review': 800, 'favorites': 3368, 'mid': 423738152, 'author': '俏佳人xxx', 'description': '-', 'create': '2023-03-26 19:49', 'pic': 'http://i2.hdslb.com/bfs/archive/6e54050ea3ecc95976661c382f47e4c9044bfaeb.jpg', 'coins': 4788, 'duration': '2:10', 'badgepay': False, 'pts': 949683, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993797950', 'bvid': 'BV1Yx4y1w7rH', 'typename': '社科·法律·心理', 'title': '【睡前消息566】电子度牒上线 宗教管理可以更唯物', 'subtitle': '', 'play': 470127, 'review': 1836, 'video_review': 2362, 'favorites': 4784, 'mid': 316568752, 'author': '马督工', 'description': '1\xa0介绍新上线的宗教人员查询系统，分析宗教管理制度。\n2 沙特伊朗在中国斡旋下建交问题。', 'create': '2023-03-21 19:30', 'pic': 'http://i1.hdslb.com/bfs/archive/8d3703b5b571707216b3659f8fcc57c5c7e48279.jpg', 'coins': 21100, 'duration': '19:06', 'badgepay': False, 'pts': 926862, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823993240', 'bvid': 'BV12g4y1W7c8', 'typename': '社科·法律·心理', 'title': '人在落魄的时候该做的事（人生重启方案）', 'subtitle': '', 'play': 297096, 'review': 1012, 'video_review': 312, 'favorites': 14701, 'mid': 239688446, 'author': '硬核的HeyMatt', 'description': '', 'create': '2023-03-23 12:16', 'pic': 'http://i2.hdslb.com/bfs/archive/df2ae251af8d341bd05e1120b406afeccd9b05b0.jpg', 'coins': 5729, 'duration': '6:35', 'badgepay': False, 'pts': 918343, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441548438', 'bvid': 'BV1rL411D74D', 'typename': '社科·法律·心理', 'title': '你要试着安静下来，去做自己该做的事情', 'subtitle': '', 'play': 231799, 'review': 684, 'video_review': 660, 'favorites': 17129, 'mid': 401898575, 'author': '投稿鼠鼠', 'description': '', 'create': '2023-03-25 23:08', 'pic': 'http://i0.hdslb.com/bfs/archive/5c87b77bc82498691cc2523085ef83480ebdb982.jpg', 'coins': 4750, 'duration': '0:40', 'badgepay': False, 'pts': 854442, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354023358', 'bvid': 'BV1QX4y1d7qR', 'typename': '社科·法律·心理', 'title': '应聘外卖骑手却成了公司法人，离谱招聘手段应接不暇！【慧小媛】', 'subtitle': '', 'play': 382863, 'review': 1264, 'video_review': 1680, 'favorites': 1644, 'mid': 454780088, 'author': '慧小媛', 'description': '男主虚空之女-小帅，在某同城网站应聘了外卖骑手...', 'create': '2023-03-25 19:19', 'pic': 'http://i2.hdslb.com/bfs/archive/e55cd0f92de256e40cb7cfdb31ebafd132f71738.jpg', 'coins': 4688, 'duration': '5:07', 'badgepay': False, 'pts': 739128, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441452490', 'bvid': 'BV1pL411D7QV', 'typename': '社科·法律·心理', 'title': '【罗翔】过失犯罪引发争议，如何认定过失犯罪中的行为？', 'subtitle': '', 'play': 371932, 'review': 1521, 'video_review': 4513, 'favorites': 3167, 'mid': 517327498, 'author': '罗翔说刑法', 'description': '几乎每一个关于过失犯罪的认定，都会引起巨大争议。我们本期视频讲一讲如何认定过失犯罪中的行为？', 'create': '2023-03-23 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6ecb5ba8c1b8d9c29e8545ee35e728f3db100c38.jpg', 'coins': 5743, 'duration': '6:20', 'badgepay': False, 'pts': 737650, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10132611</v>
+        <v>9209380</v>
       </c>
       <c r="I43" t="n">
-        <v>356188</v>
+        <v>1645874</v>
       </c>
       <c r="J43" t="n">
-        <v>259520</v>
+        <v>192017</v>
       </c>
       <c r="K43" t="n">
-        <v>54113</v>
+        <v>29979</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>财经商业</t>
+          <t>人文历史</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>humanity_history</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>说金融市场，谈宏观经济，一起畅聊商业故事</t>
+          <t>看看古今人物，聊聊历史过往，品品文学典籍</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>/v/knowledge/finance(opens new window)</t>
+          <t>/v/knowledge/humanity_history(opens new window)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>知识(主分区)</t>
+          <t>知识</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[{'aid': '568919960', 'bvid': 'BV15v4y157sy', 'typename': '财经商业', 'title': '【半佛】疯狂星期四都没塔斯汀汉堡疯狂', 'subtitle': '', 'play': 1811079, 'review': 9343, 'video_review': 4442, 'favorites': 7168, 'mid': 37663924, 'author': '硬核的半佛仙人', 'description': '我爱这个魔幻的世界', 'create': '2023-03-23 17:40', 'pic': 'http://i1.hdslb.com/bfs/archive/2869d03eb177da9ed597b94888ef2e82ef6b9ad4.jpg', 'coins': 6305, 'duration': '12:20', 'badgepay': False, 'pts': 2592101, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268786236', 'bvid': 'BV1Yc411j7yx', 'typename': '财经商业', 'title': '我们都低估了GPT-4，它才是梦开始的地方', 'subtitle': '', 'play': 705292, 'review': 2193, 'video_review': 2046, 'favorites': 39888, 'mid': 520155988, 'author': '所长林超', 'description': 'AI时代终于来了，GPT-4的魔法到底是什么？', 'create': '2023-03-21 19:20', 'pic': 'http://i0.hdslb.com/bfs/archive/caa9822a84eee2b505a0857bed6e4ba4156a14b7.jpg', 'coins': 12334, 'duration': '6:45', 'badgepay': False, 'pts': 2137706, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396527113', 'bvid': 'BV11o4y1s7VY', 'typename': '财经商业', 'title': '我是如何快速学习一个领域的', 'subtitle': '', 'play': 671344, 'review': 946, 'video_review': 1843, 'favorites': 42642, 'mid': 520819684, 'author': '小Lin说', 'description': '有很多小伙伴问小Lin如何整理一篇内容、如何了解一个行业、学习一个新领域、如何写论文、如何解决问题... 今天来分享一个对我自己学习、工作、创业、做自媒体都非常有帮助的一个小诀窍，希望也能帮你提升工作和学习的效率~~#华为二合一效率密码#', 'create': '2023-03-25 17:33', 'pic': 'http://i2.hdslb.com/bfs/archive/d24ca62a77460f50f581080c6ca5075afc605cc5.jpg', 'coins': 21153, 'duration': '16:47', 'badgepay': False, 'pts': 2111140, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396373399', 'bvid': 'BV1oo4y1W7Vd', 'typename': '财经商业', 'title': '【36氪】3亿农民进城打工，为啥没人“回家种地”？', 'subtitle': '', 'play': 1191420, 'review': 4102, 'video_review': 5589, 'favorites': 11657, 'mid': 90183256, 'author': '36氪', 'description': '撂荒3千万亩，为什么没人愿意去种地？\n关注36氪【WHY】系列视频，来看氪深度解读财经热点\n资料源于网络整理（详细列表见片尾）', 'create': '2023-03-21 18:38', 'pic': 'http://i0.hdslb.com/bfs/archive/88afb77cc2632bc5bcf993294f4bfafbc09d2380.jpg', 'coins': 6370, 'duration': '10:29', 'badgepay': False, 'pts': 2037773, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653997179', 'bvid': 'BV1HY4y1Q7Lp', 'typename': '财经商业', 'title': '既分生死也决高下，中国企业是如何用30年成为世界第一的？', 'subtitle': '', 'play': 486578, 'review': 1162, 'video_review': 1952, 'favorites': 5062, 'mid': 11684621, 'author': '太阳星sunstar', 'description': '有什么疑问请弹幕留言\n嗷！别忘了点赞三连\n【BV18i4y197x6】四大文明古国只剩中国，为什么只有中国文明一直延续至今？\n【BV1cV4y1c7KD】日韩都用过中文，中国对亚洲到底有多大影响？\n【BV1we4y1u7ok】中国渔民有多牛？外国间谍：声纳无铜 捞走无用', 'create': '2023-03-24 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0b0ed95e4dd515cc653cdad457f562f6b90a00c6.jpg', 'coins': 7092, 'duration': '15:17', 'badgepay': False, 'pts': 976608, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311662725', 'bvid': 'BV1uN411T7Zw', 'typename': '财经商业', 'title': '深扒奥特曼实体卡后，我感觉氪金手游还是保守了【侦查冰】', 'subtitle': '', 'play': 402351, 'review': 2833, 'video_review': 3709, 'favorites': 5261, 'mid': 617285, 'author': '芒果冰OL', 'description': '文：芒果冰/凑不出字符的GM\n亲测卡游奥特曼卡概率：稀有卡或不足万分之五，概率规则不透明，饥饿营销收割小学生\nhttps://finance.sina.com.cn/consume/puguangtai/2022-11-24/doc-imqqsmrp7418554.shtml\n\n成本1毛利润15亿 奥特曼卡牌如何疯狂收割小学生？\nhttps://mp.weixin.qq.com/s?__biz=MjM5MjIyNTIwMA==&amp;mid=2652970115&amp;idx=1&amp;sn=1bf6306c6e2e2ea', 'create': '2023-03-26 11:59', 'pic': 'http://i1.hdslb.com/bfs/archive/2a12eba274e994688b44ded418e977ddd2474870.jpg', 'coins': 12018, 'duration': '23:52', 'badgepay': False, 'pts': 937413, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908857004', 'bvid': 'BV1LM4y1B7CU', 'typename': '财经商业', 'title': '瑞士信贷一周崩盘始末，170亿AT1债再埋新雷，央行隐忧显现', 'subtitle': '', 'play': 450627, 'review': 969, 'video_review': 903, 'favorites': 4942, 'mid': 731771, 'author': '搞点基金文学', 'description': '从大而不能倒到太烂救不了，一周之内过山车一样上蹿下跳的股价，瑞士信贷怎么度过的这波澜起伏的一周？\n银行财务造假这件事如何触碰了资本市场敏感的神经？\nAT1埋下了怎样的隐忧？\n由美国流动性危机外溢带来的危险就这么平息吗？\n2008以来流入瑞士的便宜美元，来的容易，但是又会怎么走呢？\n而更需要注意的是，流动性危机外溢冲击到的，恐怕不止是商业银行。\n视频做的有点赶，有口误，32.5亿说成了3.25，还在一处贴图弄混了瑞士和瑞典……已替换重传……可惜损失了好多有趣的弹幕嘤啊啊啊，小侯以后多加注意。', 'create': '2023-03-21 08:05', 'pic': 'http://i2.hdslb.com/bfs/archive/f3bd59ea93972e0c90a6b65d7a85ccd5313cdc9e.jpg', 'coins': 11406, 'duration': '16:00', 'badgepay': False, 'pts': 907916, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951317361', 'bvid': 'BV1ks4y1p7B9', 'typename': '财经商业', 'title': 'GPT-4颠覆教育行业，未来该学什么？', 'subtitle': '', 'play': 286718, 'review': 1117, 'video_review': 770, 'favorites': 11155, 'mid': 3493264076310988, 'author': '所长林超聊教育', 'description': '', 'create': '2023-03-20 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/ba2c4a32d2cb5bf7c7e4218de177cea61a73e88c.jpg', 'coins': 2441, 'duration': '5:14', 'badgepay': False, 'pts': 762761, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994078092', 'bvid': 'BV1Hs4y1S762', 'typename': '财经商业', 'title': '1800万教师队伍，砍掉一半，900万教师何去何从，失业？下海？', 'subtitle': '', 'play': 407829, 'review': 1934, 'video_review': 649, 'favorites': 2041, 'mid': 70924806, 'author': '无知半人', 'description': '目前处于相亲市场和社会地位顶端的老师，即将被快速失业，5年后幼师失业一半，10年后小学老师失业一半，15年后中学老师失业一半。20年后波及到大学老师。\n\xa0\n2030-2040占教师主力的小学和中学老师，将面临中国90年代国企下岗潮时期，40岁被迫下岗，但是确没有一技傍身的尴尬局面的人一样的场景。现在的教师群体和80/90年代的国企员工一样，都在吃大锅饭而已。', 'create': '2023-03-24 17:07', 'pic': 'http://i1.hdslb.com/bfs/archive/02867cd050076eaefc5b78a590816fc6ba032ad1.jpg', 'coins': 201, 'duration': '4:04', 'badgepay': False, 'pts': 739095, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866285799', 'bvid': 'BV19V4y197X5', 'typename': '财经商业', 'title': '【JUMP】奥斯卡既分高下，也决生死。', 'subtitle': '', 'play': 734039, 'review': 495, 'video_review': 727, 'favorites': 2994, 'mid': 651039864, 'author': '暴躁的仙人JUMP', 'description': '人类，还是有局限的。\n看起来离谱，但其实特别好玩。', 'create': '2023-03-21 16:44', 'pic': 'http://i0.hdslb.com/bfs/archive/3a62e94f196f20bc38921d4d8e1fa556d4ba07a5.jpg', 'coins': 2596, 'duration': '9:05', 'badgepay': False, 'pts': 582340, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '824034926', 'bvid': 'BV1Ug4y1W7KB', 'typename': '人文历史', 'title': '消防局如何点燃旧金山？【神奇组织05】', 'subtitle': '', 'play': 1936139, 'review': 3293, 'video_review': 12834, 'favorites': 29510, 'mid': 23947287, 'author': '小约翰可汗', 'description': '本篇为神奇组织之旧金山消防局。\n\n参考资料：\n旧金山消防局官网\n旧金山消防局博物馆官网\n旧金山历史博物馆官网\n保罗·狄策尔1976年出版《消防车、消防员：从殖民时代到现代的人员、设备和机器》\n史密斯·丹尼斯2005年出版《旧金山在燃烧：1906年地震和火灾不为人知的故事》\n汉森·格拉迪斯1995年出版《旧金山年鉴》', 'create': '2023-03-25 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7f1391b519fed608761084b5cd421e42b59fa50e.jpg', 'coins': 85791, 'duration': '20:55', 'badgepay': False, 'pts': 2938193, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483851765', 'bvid': 'BV1RT41167qg', 'typename': '人文历史', 'title': '我，柳三变，白衣卿相，奉旨填词，人生很难，但我没失败', 'subtitle': '', 'play': 1184204, 'review': 1594, 'video_review': 2534, 'favorites': 51725, 'mid': 544291240, 'author': '东兴苟十三', 'description': '参考文献：\n1）《今宵酒醒何处-柳永词传》杨柳\n2）《柳永家世生平新考》李思永\n3）《柳永词集》柳永\n4）《柳永词传——秦楼狂客的浅斟低唱》王馨\n视频素材来源:\n1）纪录片《中国》\n2）纪录片《千古风流人物》\n3）纪录片《惟有香如故》\n4）河南卫视《少年游》\n5）《你一句春不晚，我就到了真江南》UP流云蕊\n6）《钗头凤·唐婉》流云蕊\n7）张予曦x网易逆水寒MV\n8）纪录片《舞千年》\n9）电视剧《清平乐》\n10）琵琶《倩女幽魂》up琵琶朱文婧\n11）《雾西湖》摄影作品 -up巍喆\n12）《识途》中国传媒大学', 'create': '2023-03-21 08:00', 'pic': 'http://i1.hdslb.com/bfs/archive/80728a5e943ec679eb182e694d2af4df54d96da5.jpg', 'coins': 47828, 'duration': '27:46', 'badgepay': False, 'pts': 2900278, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438779063', 'bvid': 'BV1tL411d7dP', 'typename': '人文历史', 'title': '深度|| 欧洲为何没有“分久必合”？秦始皇“三功”如何奠基今日中国？', 'subtitle': '', 'play': 1243442, 'review': 6651, 'video_review': 10966, 'favorites': 25656, 'mid': 504934876, 'author': '渤海小吏', 'description': '参考：《大国宪制：历史中国的制度构成》——苏力\n渤海小吏的封建脉络百战——《第二季.楚汉双雄》', 'create': '2023-03-23 10:30', 'pic': 'http://i1.hdslb.com/bfs/archive/2bd56a4f13ad79ba242bea08cad99f00c041fb0b.jpg', 'coins': 49498, 'duration': '24:51', 'badgepay': False, 'pts': 2710331, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653758223', 'bvid': 'BV1mY4y1X7Rw', 'typename': '人文历史', 'title': '中历史上那些难得的“相遇”', 'subtitle': '', 'play': 1038920, 'review': 1084, 'video_review': 730, 'favorites': 44777, 'mid': 1674874598, 'author': '洛訶以北', 'description': '-', 'create': '2023-03-20 18:39', 'pic': 'http://i0.hdslb.com/bfs/archive/56924d2ecd31f57ac6f938024d864d5ecd0fff3c.jpg', 'coins': 8913, 'duration': '1:55', 'badgepay': False, 'pts': 2397166, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908950142', 'bvid': 'BV1vM4y1B7Ee', 'typename': '人文历史', 'title': '永生难忘的成语翻译，完美匹配中国教育的语文老师！', 'subtitle': '', 'play': 918804, 'review': 781, 'video_review': 606, 'favorites': 39990, 'mid': 1636194007, 'author': '阿鱼爱学习本人', 'description': '那是我的老师，她让我知道原来好的语文老师从来不会只教课本里的内容。', 'create': '2023-03-22 17:20', 'pic': 'http://i2.hdslb.com/bfs/archive/23de8201927735fb7b0649c4d688c057416b0e8a.jpg', 'coins': 11631, 'duration': '2:14', 'badgepay': False, 'pts': 2205326, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909077051', 'bvid': 'BV15M4y1z7PS', 'typename': '人文历史', 'title': '浅谈秦始皇陵兵马俑的最新考古发现：某些论文站不住脚了', 'subtitle': '', 'play': 1103457, 'review': 4168, 'video_review': 3432, 'favorites': 9908, 'mid': 35857776, 'author': '弓手冬郎', 'description': '视频里提到的那篇关于秦弩的论文，槽点是在太多，大家如果有兴趣的话我们可以单独吐槽一期，就怕一期吐槽不完。', 'create': '2023-03-24 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0f36829616cd561caf6237db4cf9e9c1c5be6666.jpg', 'coins': 7024, 'duration': '8:49', 'badgepay': False, 'pts': 2065655, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441266180', 'bvid': 'BV1pL411r7BR', 'typename': '人文历史', 'title': '花花公子、间谍、将军，最后是芬兰的英雄：曼纳海姆(上)【历史调研室38】', 'subtitle': '', 'play': 827648, 'review': 3887, 'video_review': 6966, 'favorites': 18055, 'mid': 519872016, 'author': '历史调研室', 'description': '求关注求三连~\n参考资料、视频素材、BGM在视频结尾', 'create': '2023-03-21 18:22', 'pic': 'http://i0.hdslb.com/bfs/archive/e2b8f282d440053f13b8208db726546157d3e7fb.jpg', 'coins': 43191, 'duration': '27:05', 'badgepay': False, 'pts': 1896939, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438773854', 'bvid': 'BV1tL411d7ca', 'typename': '人文历史', 'title': '“我好多年没玩了，好想和你玩一局”', 'subtitle': '', 'play': 843313, 'review': 2665, 'video_review': 1769, 'favorites': 16236, 'mid': 395089518, 'author': '阿帅派克', 'description': '诗词闲聊4群：235965582\n剪辑@仓小杰  \n上麦用户@陈攀chenpan ', 'create': '2023-03-21 05:58', 'pic': 'http://i2.hdslb.com/bfs/archive/523d551cd4c4a3d3f37504f4495117b8b08cb745.jpg', 'coins': 79408, 'duration': '10:45', 'badgepay': False, 'pts': 1686975, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354092151', 'bvid': 'BV1pX4y1o7Qs', 'typename': '人文历史', 'title': '拒绝“感动中国”提名，一个德国人在广西深山的“教育实验”【寻找·卢安克】', 'subtitle': '', 'play': 554660, 'review': 2443, 'video_review': 4299, 'favorites': 19870, 'mid': 49246269, 'author': '大象放映室', 'description': '今天，让我们一起「寻找 · 卢安克」。', 'create': '2023-03-24 18:27', 'pic': 'http://i1.hdslb.com/bfs/archive/f97c5ce36f9df003d21c2ea1c253ea11d83cac7f.jpg', 'coins': 23293, 'duration': '21:02', 'badgepay': False, 'pts': 1533841, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268876786', 'bvid': 'BV13c4117773', 'typename': '人文历史', 'title': '网红小伙戏耍整个英国，半年靠水军把不存在的餐厅做到第一名！', 'subtitle': '', 'play': 736956, 'review': 1359, 'video_review': 4143, 'favorites': 8146, 'mid': 638816489, 'author': '英大吉', 'description': '', 'create': '2023-03-22 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/c1ef7528d6c27e2d3dcebe5d7e9ebad374a03c02.jpg', 'coins': 6018, 'duration': '17:18', 'badgepay': False, 'pts': 1418886, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>7147277</v>
+        <v>10387543</v>
       </c>
       <c r="I44" t="n">
-        <v>81916</v>
+        <v>362595</v>
       </c>
       <c r="J44" t="n">
-        <v>132810</v>
+        <v>263873</v>
       </c>
       <c r="K44" t="n">
-        <v>35277</v>
+        <v>54113</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>校园学习</t>
+          <t>财经商业</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>campus</t>
+          <t>business</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>老师很有趣，学生也有才，我们一起搞学习</t>
+          <t>说金融市场，谈宏观经济，一起畅聊商业故事</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>/v/knowledge/campus(opens new window)</t>
+          <t>/v/knowledge/finance(opens new window)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>知识(主分区)</t>
+          <t>知识</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[{'aid': '993772964', 'bvid': 'BV1ox4y1P7Ea', 'typename': '校园学习', 'title': '零基础英语自然拼读', 'subtitle': '', 'play': 2221106, 'review': 1234, 'video_review': 670, 'favorites': 63504, 'mid': 3493262320994977, 'author': '桶桶老师的英语世界', 'description': '', 'create': '2023-03-21 09:30', 'pic': 'http://i0.hdslb.com/bfs/archive/c53dd87768b0ad36a4ee823040e8a352eb82fafc.jpg', 'coins': 5098, 'duration': '1:07', 'badgepay': False, 'pts': 3907044, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268641073', 'bvid': 'BV1rc411E7W9', 'typename': '校园学习', 'title': '【全748集】清华大佬终于把日语做成动画片了，通俗易懂，2023最新版，学完即过N1！拿走不谢，学不会我退出日语界！', 'subtitle': '', 'play': 521160, 'review': 733, 'video_review': 4910, 'favorites': 115694, 'mid': 3493134552008802, 'author': '日语学长厉子', 'description': '一次性最多上传100集惹！后续数据不错的话还会继续更新的喔！！\n系统考级 高考 考研 留学的话~可以看这里！！V：hkk8373', 'create': '2023-03-20 16:10', 'pic': 'http://i1.hdslb.com/bfs/archive/998b330f8dba7bf8da0dd701bb77777b000aeeca.jpg', 'coins': 39330, 'duration': '3334:35', 'badgepay': False, 'pts': 3658376, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781602466', 'bvid': 'BV1H24y1773U', 'typename': '校园学习', 'title': 'TA来了！是你们期望的教辅！（一轮复习用，这届高三不适合）', 'subtitle': '', 'play': 636561, 'review': 7669, 'video_review': 3563, 'favorites': 24622, 'mid': 14229967, 'author': '一数', 'description': '常用合集传送门:\n中考数学合集:BV1qE411H7Uv\n高中基础合集:BV147411K7xu\n高考通法合集:BV1w7411w7kQ\n主讲人曾获全国高中数学联赛一等奖、中国数学奥林匹克协作体夏令营一等奖，最透彻的数学理解。在专栏观看一数指南，即可掌握一数学习方法！\n欢迎关注微信公众号：一数儿 。每周分享免费学习资料~', 'create': '2023-03-25 22:29', 'pic': 'http://i0.hdslb.com/bfs/archive/27b05bcee335b2de971943b4fb4b0b2c3021c150.jpg', 'coins': 40750, 'duration': '6:14', 'badgepay': False, 'pts': 1816010, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483900879', 'bvid': 'BV1JT411r7ZM', 'typename': '校园学习', 'title': '让百度 AI 画“起重机”，为啥它画出个“鹤”？好诡异...', 'subtitle': '', 'play': 1380837, 'review': 4655, 'video_review': 1568, 'favorites': 6648, 'mid': 1607984338, 'author': '侃哥侃英语', 'description': '-', 'create': '2023-03-23 15:32', 'pic': 'http://i0.hdslb.com/bfs/archive/9379ccbde5d7378213a5e85a73179fff4db42c9d.jpg', 'coins': 2051, 'duration': '1:55', 'badgepay': False, 'pts': 1644877, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653882292', 'bvid': 'BV1iY4y1D7oN', 'typename': '校园学习', 'title': '我愿称之为考研调剂界的清流', 'subtitle': '', 'play': 520005, 'review': 305, 'video_review': 56, 'favorites': 27255, 'mid': 351201416, 'author': 'xq睡醒了没', 'description': '视频里用的调剂模拟网站 tiaoji.feitent.com ，一定要电脑浏览器输入，不行就换个浏览器\n调剂信息在公众号和小程序 HaoYo ，直接微信搜即可，免费查看', 'create': '2023-03-23 15:54', 'pic': 'http://i0.hdslb.com/bfs/archive/4e07ffa9fb08bda43b59f1576980f418061db085.jpg', 'coins': 9507, 'duration': '0:44', 'badgepay': False, 'pts': 1538421, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568787815', 'bvid': 'BV1Lv4y1j7zP', 'typename': '校园学习', 'title': '没注意毕业论文重复率就提交约等于延毕', 'subtitle': '', 'play': 565731, 'review': 373, 'video_review': 104, 'favorites': 17454, 'mid': 39549215, 'author': '小楞君', 'description': '有个师兄因为没注意毕业论文重复率就提交延毕了！最近在写毕业论文，给大家分享下自己的经验，记得收藏哦', 'create': '2023-03-20 13:50', 'pic': 'http://i0.hdslb.com/bfs/archive/6600ade688f2c3cfe03f40ff8f5eb14381a748ac.jpg', 'coins': 1606, 'duration': '1:23', 'badgepay': False, 'pts': 1171799, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441319321', 'bvid': 'BV14L411r72Z', 'typename': '校园学习', 'title': '用尚雯婕的外语方法来学习日语真的yyds！！！', 'subtitle': '', 'play': 346975, 'review': 534, 'video_review': 14, 'favorites': 18916, 'mid': 511233380, 'author': '嘴巴霹雳吧啦', 'description': '-', 'create': '2023-03-20 16:46', 'pic': 'http://i2.hdslb.com/bfs/archive/7a3d9510b598517b4f0d7f5f110591526495a7bd.jpg', 'coins': 1969, 'duration': '2:36', 'badgepay': False, 'pts': 1077859, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311538507', 'bvid': 'BV1YN411K7jS', 'typename': '校园学习', 'title': '兄弟们，我坠入爱河了！', 'subtitle': '', 'play': 1421306, 'review': 783, 'video_review': 373, 'favorites': 9622, 'mid': 481936705, 'author': 'AndrewCap', 'description': '-', 'create': '2023-03-24 19:33', 'pic': 'http://i1.hdslb.com/bfs/archive/b44e77eef0347d5ba0c085dd216315bc6a96adf8.jpg', 'coins': 1295, 'duration': '0:31', 'badgepay': False, 'pts': 1064871, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396579591', 'bvid': 'BV1Qo4y1s7r9', 'typename': '校园学习', 'title': '一分钟学会关门咒文', 'subtitle': '', 'play': 248292, 'review': 333, 'video_review': 107, 'favorites': 17935, 'mid': 261204193, 'author': '小AAA酱', 'description': '睡不着 \n录了个短的教学版', 'create': '2023-03-26 01:58', 'pic': 'http://i0.hdslb.com/bfs/archive/4fa44fb932a44667301712940be4260827024910.jpg', 'coins': 4075, 'duration': '1:19', 'badgepay': False, 'pts': 877659, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993898851', 'bvid': 'BV1Nx4y1A7Ld', 'typename': '校园学习', 'title': '中考数学还是比较简单的', 'subtitle': '', 'play': 323338, 'review': 701, 'video_review': 195, 'favorites': 7380, 'mid': 1182432309, 'author': '爱学习的炸鸡排', 'description': '-', 'create': '2023-03-22 16:03', 'pic': 'http://i1.hdslb.com/bfs/archive/5611a1a570f31e8d21b6b6f2303642258285eda2.jpg', 'coins': 302, 'duration': '0:32', 'badgepay': False, 'pts': 773084, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '568919960', 'bvid': 'BV15v4y157sy', 'typename': '财经商业', 'title': '【半佛】疯狂星期四都没塔斯汀汉堡疯狂', 'subtitle': '', 'play': 1835645, 'review': 9478, 'video_review': 4502, 'favorites': 7233, 'mid': 37663924, 'author': '硬核的半佛仙人', 'description': '我爱这个魔幻的世界', 'create': '2023-03-23 17:40', 'pic': 'http://i1.hdslb.com/bfs/archive/2869d03eb177da9ed597b94888ef2e82ef6b9ad4.jpg', 'coins': 6417, 'duration': '12:20', 'badgepay': False, 'pts': 2612418, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396527113', 'bvid': 'BV11o4y1s7VY', 'typename': '财经商业', 'title': '我是如何快速学习一个领域的', 'subtitle': '', 'play': 752100, 'review': 1025, 'video_review': 1979, 'favorites': 47639, 'mid': 520819684, 'author': '小Lin说', 'description': '有很多小伙伴问小Lin如何整理一篇内容、如何了解一个行业、学习一个新领域、如何写论文、如何解决问题... 今天来分享一个对我自己学习、工作、创业、做自媒体都非常有帮助的一个小诀窍，希望也能帮你提升工作和学习的效率~~#华为二合一效率密码#', 'create': '2023-03-25 17:33', 'pic': 'http://i2.hdslb.com/bfs/archive/d24ca62a77460f50f581080c6ca5075afc605cc5.jpg', 'coins': 23257, 'duration': '16:47', 'badgepay': False, 'pts': 2336006, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268786236', 'bvid': 'BV1Yc411j7yx', 'typename': '财经商业', 'title': '我们都低估了GPT-4，它才是梦开始的地方', 'subtitle': '', 'play': 718634, 'review': 2209, 'video_review': 2066, 'favorites': 40617, 'mid': 520155988, 'author': '所长林超', 'description': 'AI时代终于来了，GPT-4的魔法到底是什么？', 'create': '2023-03-21 19:20', 'pic': 'http://i0.hdslb.com/bfs/archive/caa9822a84eee2b505a0857bed6e4ba4156a14b7.jpg', 'coins': 12592, 'duration': '6:45', 'badgepay': False, 'pts': 2171326, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396373399', 'bvid': 'BV1oo4y1W7Vd', 'typename': '财经商业', 'title': '【36氪】3亿农民进城打工，为啥没人“回家种地”？', 'subtitle': '', 'play': 1211162, 'review': 4138, 'video_review': 5631, 'favorites': 11904, 'mid': 90183256, 'author': '36氪', 'description': '撂荒3千万亩，为什么没人愿意去种地？\n关注36氪【WHY】系列视频，来看氪深度解读财经热点\n资料源于网络整理（详细列表见片尾）', 'create': '2023-03-21 18:38', 'pic': 'http://i0.hdslb.com/bfs/archive/88afb77cc2632bc5bcf993294f4bfafbc09d2380.jpg', 'coins': 6491, 'duration': '10:29', 'badgepay': False, 'pts': 2057940, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311662725', 'bvid': 'BV1uN411T7Zw', 'typename': '财经商业', 'title': '深扒奥特曼实体卡后，我感觉氪金手游还是保守了【侦查冰】', 'subtitle': '', 'play': 457185, 'review': 3206, 'video_review': 4155, 'favorites': 5801, 'mid': 617285, 'author': '芒果冰OL', 'description': '文：芒果冰/凑不出字符的GM\n亲测卡游奥特曼卡概率：稀有卡或不足万分之五，概率规则不透明，饥饿营销收割小学生\nhttps://finance.sina.com.cn/consume/puguangtai/2022-11-24/doc-imqqsmrp7418554.shtml\n\n成本1毛利润15亿 奥特曼卡牌如何疯狂收割小学生？\nhttps://mp.weixin.qq.com/s?__biz=MjM5MjIyNTIwMA==&amp;mid=2652970115&amp;idx=1&amp;sn=1bf6306c6e2e2ea', 'create': '2023-03-26 11:59', 'pic': 'http://i1.hdslb.com/bfs/archive/2a12eba274e994688b44ded418e977ddd2474870.jpg', 'coins': 13574, 'duration': '23:52', 'badgepay': False, 'pts': 1053358, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653997179', 'bvid': 'BV1HY4y1Q7Lp', 'typename': '财经商业', 'title': '既分生死也决高下，中国企业是如何用30年成为世界第一的？', 'subtitle': '', 'play': 509486, 'review': 1207, 'video_review': 1996, 'favorites': 5268, 'mid': 11684621, 'author': '太阳星sunstar', 'description': '有什么疑问请弹幕留言\n嗷！别忘了点赞三连\n【BV18i4y197x6】四大文明古国只剩中国，为什么只有中国文明一直延续至今？\n【BV1cV4y1c7KD】日韩都用过中文，中国对亚洲到底有多大影响？\n【BV1we4y1u7ok】中国渔民有多牛？外国间谍：声纳无铜 捞走无用', 'create': '2023-03-24 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0b0ed95e4dd515cc653cdad457f562f6b90a00c6.jpg', 'coins': 7356, 'duration': '15:17', 'badgepay': False, 'pts': 1014269, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908857004', 'bvid': 'BV1LM4y1B7CU', 'typename': '财经商业', 'title': '瑞士信贷一周崩盘始末，170亿AT1债再埋新雷，央行隐忧显现', 'subtitle': '', 'play': 453693, 'review': 971, 'video_review': 909, 'favorites': 4976, 'mid': 731771, 'author': '搞点基金文学', 'description': '从大而不能倒到太烂救不了，一周之内过山车一样上蹿下跳的股价，瑞士信贷怎么度过的这波澜起伏的一周？\n银行财务造假这件事如何触碰了资本市场敏感的神经？\nAT1埋下了怎样的隐忧？\n由美国流动性危机外溢带来的危险就这么平息吗？\n2008以来流入瑞士的便宜美元，来的容易，但是又会怎么走呢？\n而更需要注意的是，流动性危机外溢冲击到的，恐怕不止是商业银行。\n视频做的有点赶，有口误，32.5亿说成了3.25，还在一处贴图弄混了瑞士和瑞典……已替换重传……可惜损失了好多有趣的弹幕嘤啊啊啊，小侯以后多加注意。', 'create': '2023-03-21 08:05', 'pic': 'http://i2.hdslb.com/bfs/archive/f3bd59ea93972e0c90a6b65d7a85ccd5313cdc9e.jpg', 'coins': 11463, 'duration': '16:00', 'badgepay': False, 'pts': 913149, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951317361', 'bvid': 'BV1ks4y1p7B9', 'typename': '财经商业', 'title': 'GPT-4颠覆教育行业，未来该学什么？', 'subtitle': '', 'play': 294844, 'review': 1135, 'video_review': 789, 'favorites': 11473, 'mid': 3493264076310988, 'author': '所长林超聊教育', 'description': '', 'create': '2023-03-20 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/ba2c4a32d2cb5bf7c7e4218de177cea61a73e88c.jpg', 'coins': 2513, 'duration': '5:14', 'badgepay': False, 'pts': 782986, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994078092', 'bvid': 'BV1Hs4y1S762', 'typename': '财经商业', 'title': '1800万教师队伍，砍掉一半，900万教师何去何从，失业？下海？', 'subtitle': '', 'play': 434238, 'review': 2046, 'video_review': 686, 'favorites': 2196, 'mid': 70924806, 'author': '无知半人', 'description': '目前处于相亲市场和社会地位顶端的老师，即将被快速失业，5年后幼师失业一半，10年后小学老师失业一半，15年后中学老师失业一半。20年后波及到大学老师。\n\xa0\n2030-2040占教师主力的小学和中学老师，将面临中国90年代国企下岗潮时期，40岁被迫下岗，但是确没有一技傍身的尴尬局面的人一样的场景。现在的教师群体和80/90年代的国企员工一样，都在吃大锅饭而已。', 'create': '2023-03-24 17:07', 'pic': 'http://i1.hdslb.com/bfs/archive/02867cd050076eaefc5b78a590816fc6ba032ad1.jpg', 'coins': 223, 'duration': '4:04', 'badgepay': False, 'pts': 776667, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866285799', 'bvid': 'BV19V4y197X5', 'typename': '财经商业', 'title': '【JUMP】奥斯卡既分高下，也决生死。', 'subtitle': '', 'play': 736909, 'review': 500, 'video_review': 731, 'favorites': 2990, 'mid': 651039864, 'author': '暴躁的仙人JUMP', 'description': '人类，还是有局限的。\n看起来离谱，但其实特别好玩。', 'create': '2023-03-21 16:44', 'pic': 'http://i0.hdslb.com/bfs/archive/3a62e94f196f20bc38921d4d8e1fa556d4ba07a5.jpg', 'coins': 2611, 'duration': '9:05', 'badgepay': False, 'pts': 585231, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8185311</v>
+        <v>7403896</v>
       </c>
       <c r="I45" t="n">
-        <v>105983</v>
+        <v>86497</v>
       </c>
       <c r="J45" t="n">
-        <v>309030</v>
+        <v>140097</v>
       </c>
       <c r="K45" t="n">
-        <v>132999</v>
+        <v>35277</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>职业职场</t>
+          <t>校园学习</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>campus</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>职业分享、升级指南，一起成为最有料的职场人</t>
+          <t>老师很有趣，学生也有才，我们一起搞学习</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>/v/knowledge/career(opens new window)</t>
+          <t>/v/knowledge/campus(opens new window)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>知识(主分区)</t>
+          <t>知识</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[{'aid': '483883423', 'bvid': 'BV1NT411r76g', 'typename': '职业职场', 'title': '为什么呢？记住了吧？', 'subtitle': '', 'play': 350378, 'review': 105, 'video_review': 55, 'favorites': 6217, 'mid': 17131900, 'author': 'WPS小表姐', 'description': '-', 'create': '2023-03-22 21:32', 'pic': 'http://i2.hdslb.com/bfs/archive/b74142e504ac584862d7877dd47bcfd46731b844.jpg', 'coins': 566, 'duration': '0:48', 'badgepay': False, 'pts': 749687, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353889030', 'bvid': 'BV1QX4y1Z7w7', 'typename': '职业职场', 'title': '15号以后大公资！跑！', 'subtitle': '', 'play': 249306, 'review': 1174, 'video_review': 158, 'favorites': 3042, 'mid': 1068488454, 'author': '求职找土豆', 'description': '-', 'create': '2023-03-23 19:02', 'pic': 'http://i1.hdslb.com/bfs/archive/23a83d1a4fac35edde4c2a74779e77eddec804b7.jpg', 'coins': 106, 'duration': '0:46', 'badgepay': False, 'pts': 555879, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226370424', 'bvid': 'BV1Gb411o7oB', 'typename': '职业职场', 'title': '你能想象三角函数也能拟人组cp吗！雷到烧坏cpu', 'subtitle': '', 'play': 130424, 'review': 260, 'video_review': 78, 'favorites': 8361, 'mid': 3493083425540830, 'author': '小亭不停课', 'description': '', 'create': '2023-03-20 17:42', 'pic': 'http://i0.hdslb.com/bfs/archive/1766bc95d18d85ac270593243f7c607519d1c620.jpg', 'coins': 171, 'duration': '0:53', 'badgepay': False, 'pts': 443403, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568985405', 'bvid': 'BV1ev4y157ob', 'typename': '职业职场', 'title': '如何用文档制作电子版手写签名？', 'subtitle': '', 'play': 187346, 'review': 25, 'video_review': 5, 'favorites': 4264, 'mid': 1027479420, 'author': 'WPS大老板', 'description': '-', 'create': '2023-03-22 12:10', 'pic': 'http://i1.hdslb.com/bfs/archive/cea168049bac017d00a1d1cbde58f85e8b92b874.jpg', 'coins': 230, 'duration': '0:26', 'badgepay': False, 'pts': 430143, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824045972', 'bvid': 'BV1Qg4y1W7of', 'typename': '职业职场', 'title': '【干货收藏】买房前要明白的四件事：是否申请共有产权房？首套房福利怎么用？一线城市二线城市？是否要买学区房？【全嘻嘻】', 'subtitle': '', 'play': 133413, 'review': 475, 'video_review': 1656, 'favorites': 2756, 'mid': 25637408, 'author': '全嘻嘻', 'description': '【羊迪聊买房】系列一共3集，本集为第2集，内容包括：1.认识羊迪，2.共有产权房和公租房，3.公寓，4.2023年，年轻人还要不要买房？5.一线城市要一步到位，6.学区房，7.劣质资产。下周会更新该系列的第3集，主要聚焦具体的房产购买实操，例如如何跟房东谈判，如何找到没有挂牌的真实房源，如何识别样板间的坑等等。关注我，下周见。', 'create': '2023-03-24 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/33be7437c33cf36c4ea1c7a8815a2bb00e8f95e1.jpg', 'coins': 2110, 'duration': '28:28', 'badgepay': False, 'pts': 337545, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396623190', 'bvid': 'BV1Ao4y1x72o', 'typename': '职业职场', 'title': '体制内有以下副业纪委不会查！', 'subtitle': '', 'play': 177654, 'review': 416, 'video_review': 36, 'favorites': 1530, 'mid': 471911317, 'author': '公选王-遴选翰林院', 'description': '添加小雪老师微信：15527243150\n备注B站，将免费获得遴选小白提升课礼包（最新版）\n包含（300组合笔面加分金句+700分钟遴选笔试入门课+40公文写作和大作文范文）', 'create': '2023-03-25 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7875d09f5931e1a49c496685038ebbea9c7fff6a.jpg', 'coins': 100, 'duration': '0:16', 'badgepay': False, 'pts': 305883, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526469958', 'bvid': 'BV1eM411u7rc', 'typename': '职业职场', 'title': '外向人都是这么找工作的吗？？？', 'subtitle': '', 'play': 77139, 'review': 272, 'video_review': 296, 'favorites': 5343, 'mid': 8736958, 'author': '他塔拉', 'description': 'BGM:\n\n根岸貴幸-MOJI-MOJI\n根岸貴幸 (ねぎし たかゆき)-小心な侵入者\nS.E.N.S. (神思者)-Future\n吉森信-ふるさとの匂い (故乡的味道)\n吉森信-春を知らせるもの (春之信使)\n吉森信-橙色の時 (橙色时光)\nko-ko-ya-うれし、たのし\n岩井俊二 - クロニクル／借り暮らし', 'create': '2023-03-23 17:30', 'pic': 'http://i2.hdslb.com/bfs/archive/8fb1164431961c6da0ef29cc985d542fedd7d229.jpg', 'coins': 5359, 'duration': '13:43', 'badgepay': False, 'pts': 280753, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696412322', 'bvid': 'BV1Hm4y1k77A', 'typename': '职业职场', 'title': '职场反派心态vs菩萨心态，看看差别多大！', 'subtitle': '', 'play': 107131, 'review': 130, 'video_review': 52, 'favorites': 3031, 'mid': 499889496, 'author': '是爱丽丝_', 'description': '-', 'create': '2023-03-23 18:58', 'pic': 'http://i1.hdslb.com/bfs/archive/1e94f58a91deb3174b13d629c313907989590cf8.jpg', 'coins': 395, 'duration': '3:04', 'badgepay': False, 'pts': 270151, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824034701', 'bvid': 'BV1Ug4y1W7Fv', 'typename': '职业职场', 'title': '被点名发言不怕，5招快速接话', 'subtitle': '', 'play': 58371, 'review': 78, 'video_review': 168, 'favorites': 5908, 'mid': 1022175770, 'author': '江雪的成长小窝', 'description': '', 'create': '2023-03-24 21:30', 'pic': 'http://i1.hdslb.com/bfs/archive/debd863cbb1a1eafd8445df3c50fcb27b30f3e38.jpg', 'coins': 1747, 'duration': '3:35', 'badgepay': False, 'pts': 247984, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611379197', 'bvid': 'BV1M84y137Eg', 'typename': '职业职场', 'title': '多台电脑莫名断网，这故障还极其隐蔽', 'subtitle': '', 'play': 220856, 'review': 469, 'video_review': 863, 'favorites': 723, 'mid': 519573253, 'author': '海南弱电小胡', 'description': '', 'create': '2023-03-23 21:49', 'pic': 'http://i2.hdslb.com/bfs/archive/2cb1e3df9f10887b71f2c09d5fa5535e0b952f1e.jpg', 'coins': 597, 'duration': '11:56', 'badgepay': False, 'pts': 226692, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '993772964', 'bvid': 'BV1ox4y1P7Ea', 'typename': '校园学习', 'title': '零基础英语自然拼读', 'subtitle': '', 'play': 2257773, 'review': 1243, 'video_review': 677, 'favorites': 64559, 'mid': 3493262320994977, 'author': '桶桶老师的英语世界', 'description': '', 'create': '2023-03-21 09:30', 'pic': 'http://i0.hdslb.com/bfs/archive/c53dd87768b0ad36a4ee823040e8a352eb82fafc.jpg', 'coins': 5221, 'duration': '1:07', 'badgepay': False, 'pts': 3950399, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268641073', 'bvid': 'BV1rc411E7W9', 'typename': '校园学习', 'title': '【全748集】清华大佬终于把日语做成动画片了，通俗易懂，2023最新版，学完即过N1！拿走不谢，学不会我退出日语界！', 'subtitle': '', 'play': 538471, 'review': 746, 'video_review': 5166, 'favorites': 118828, 'mid': 3493134552008802, 'author': '日语学长厉子', 'description': '一次性最多上传100集惹！后续数据不错的话还会继续更新的喔！！\n系统考级 高考 考研 留学的话~可以看这里！！V：hkk8373', 'create': '2023-03-20 16:10', 'pic': 'http://i1.hdslb.com/bfs/archive/998b330f8dba7bf8da0dd701bb77777b000aeeca.jpg', 'coins': 40323, 'duration': '3334:35', 'badgepay': False, 'pts': 3757140, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781602466', 'bvid': 'BV1H24y1773U', 'typename': '校园学习', 'title': 'TA来了！是你们期望的教辅！（一轮复习用，这届高三不适合）', 'subtitle': '', 'play': 665491, 'review': 7822, 'video_review': 3618, 'favorites': 25393, 'mid': 14229967, 'author': '一数', 'description': '常用合集传送门:\n中考数学合集:BV1qE411H7Uv\n高中基础合集:BV147411K7xu\n高考通法合集:BV1w7411w7kQ\n主讲人曾获全国高中数学联赛一等奖、中国数学奥林匹克协作体夏令营一等奖，最透彻的数学理解。在专栏观看一数指南，即可掌握一数学习方法！\n欢迎关注微信公众号：一数儿 。每周分享免费学习资料~', 'create': '2023-03-25 22:29', 'pic': 'http://i0.hdslb.com/bfs/archive/27b05bcee335b2de971943b4fb4b0b2c3021c150.jpg', 'coins': 41578, 'duration': '6:14', 'badgepay': False, 'pts': 1879871, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483900879', 'bvid': 'BV1JT411r7ZM', 'typename': '校园学习', 'title': '让百度 AI 画“起重机”，为啥它画出个“鹤”？好诡异...', 'subtitle': '', 'play': 1392373, 'review': 4698, 'video_review': 1592, 'favorites': 6735, 'mid': 1607984338, 'author': '侃哥侃英语', 'description': '-', 'create': '2023-03-23 15:32', 'pic': 'http://i0.hdslb.com/bfs/archive/9379ccbde5d7378213a5e85a73179fff4db42c9d.jpg', 'coins': 2080, 'duration': '1:55', 'badgepay': False, 'pts': 1657196, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653882292', 'bvid': 'BV1iY4y1D7oN', 'typename': '校园学习', 'title': '我愿称之为考研调剂界的清流', 'subtitle': '', 'play': 525681, 'review': 309, 'video_review': 56, 'favorites': 27644, 'mid': 351201416, 'author': 'xq睡醒了没', 'description': '视频里用的调剂模拟网站 tiaoji.feitent.com ，一定要电脑浏览器输入，不行就换个浏览器\n调剂信息在公众号和小程序 HaoYo ，直接微信搜即可，免费查看', 'create': '2023-03-23 15:54', 'pic': 'http://i0.hdslb.com/bfs/archive/4e07ffa9fb08bda43b59f1576980f418061db085.jpg', 'coins': 9646, 'duration': '0:44', 'badgepay': False, 'pts': 1555160, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311538507', 'bvid': 'BV1YN411K7jS', 'typename': '校园学习', 'title': '兄弟们，我坠入爱河了！', 'subtitle': '', 'play': 1460667, 'review': 812, 'video_review': 386, 'favorites': 9928, 'mid': 481936705, 'author': 'AndrewCap', 'description': '-', 'create': '2023-03-24 19:33', 'pic': 'http://i1.hdslb.com/bfs/archive/b44e77eef0347d5ba0c085dd216315bc6a96adf8.jpg', 'coins': 1336, 'duration': '0:31', 'badgepay': False, 'pts': 1093438, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441319321', 'bvid': 'BV14L411r72Z', 'typename': '校园学习', 'title': '用尚雯婕的外语方法来学习日语真的yyds！！！', 'subtitle': '', 'play': 347816, 'review': 535, 'video_review': 14, 'favorites': 18966, 'mid': 511233380, 'author': '嘴巴霹雳吧啦', 'description': '-', 'create': '2023-03-20 16:46', 'pic': 'http://i2.hdslb.com/bfs/archive/7a3d9510b598517b4f0d7f5f110591526495a7bd.jpg', 'coins': 1969, 'duration': '2:36', 'badgepay': False, 'pts': 1080488, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396579591', 'bvid': 'BV1Qo4y1s7r9', 'typename': '校园学习', 'title': '一分钟学会关门咒文', 'subtitle': '', 'play': 289119, 'review': 355, 'video_review': 113, 'favorites': 20195, 'mid': 261204193, 'author': '小AAA酱', 'description': '睡不着 \n录了个短的教学版', 'create': '2023-03-26 01:58', 'pic': 'http://i0.hdslb.com/bfs/archive/4fa44fb932a44667301712940be4260827024910.jpg', 'coins': 4632, 'duration': '1:19', 'badgepay': False, 'pts': 997273, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354096729', 'bvid': 'BV1sX4y1o7VM', 'typename': '校园学习', 'title': '一个小动作，彻底解决你的“不想学习”', 'subtitle': '', 'play': 229703, 'review': 1140, 'video_review': 1577, 'favorites': 19776, 'mid': 280963331, 'author': 'A是传奇', 'description': '超简单，只要你做，别总是“想想觉得不行”，你不做，有啥用？\n下个视频，谈谈b树🌲\n还有，准备发第一期曲线上升个人周报\n上传的时候比较急，一会再改下简介', 'create': '2023-03-25 19:45', 'pic': 'http://i0.hdslb.com/bfs/archive/cccef0d1b734bdf9228730e9d5d4766268ea38a7.jpg', 'coins': 8340, 'duration': '7:54', 'badgepay': False, 'pts': 940258, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993898851', 'bvid': 'BV1Nx4y1A7Ld', 'typename': '校园学习', 'title': '中考数学还是比较简单的', 'subtitle': '', 'play': 323845, 'review': 702, 'video_review': 197, 'favorites': 7389, 'mid': 1182432309, 'author': '爱学习的炸鸡排', 'description': '-', 'create': '2023-03-22 16:03', 'pic': 'http://i1.hdslb.com/bfs/archive/5611a1a570f31e8d21b6b6f2303642258285eda2.jpg', 'coins': 302, 'duration': '0:32', 'badgepay': False, 'pts': 774035, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1692018</v>
+        <v>8030939</v>
       </c>
       <c r="I46" t="n">
-        <v>11381</v>
+        <v>115427</v>
       </c>
       <c r="J46" t="n">
-        <v>41175</v>
+        <v>319413</v>
       </c>
       <c r="K46" t="n">
-        <v>44032</v>
+        <v>132999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>设计·创意</t>
+          <t>职业职场</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>career</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天马行空，创意设计，都在这里</t>
+          <t>职业分享、升级指南，一起成为最有料的职场人</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>/v/knowledge/design(opens new window)</t>
+          <t>/v/knowledge/career(opens new window)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>知识(主分区)</t>
+          <t>知识</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[{'aid': '268756458', 'bvid': 'BV1sc411j7W3', 'typename': '设计·创意', 'title': '陷在文具的大坑里爬不出来了～【丸子】', 'subtitle': '', 'play': 953821, 'review': 278, 'video_review': 205, 'favorites': 15025, 'mid': 4624257, 'author': '丸子大人_网汇鹅', 'description': '-', 'create': '2023-03-21 22:12', 'pic': 'http://i0.hdslb.com/bfs/archive/00f28262b9930d1cb784fb9f17e9b55b19490a2e.jpg', 'coins': 632, 'duration': '1:13', 'badgepay': False, 'pts': 1738621, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226262557', 'bvid': 'BV1tb411d7HM', 'typename': '设计·创意', 'title': '游戏公司使用AI现状', 'subtitle': '', 'play': 198729, 'review': 2437, 'video_review': 364, 'favorites': 4666, 'mid': 13812778, 'author': '扶一挽月', 'description': '嗨呀好久不见，本视频从纯社畜的角度看待AI，有发展、有焦虑、也有反思，总之希望大家越画越好。\nps：本人不会使用AI接稿，25年纯手工绘画老师傅。', 'create': '2023-03-21 12:31', 'pic': 'http://i2.hdslb.com/bfs/archive/ea5ddfcc0ba5215bc646d115c36a26e987a4302c.jpg', 'coins': 462, 'duration': '4:58', 'badgepay': False, 'pts': 571689, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438849836', 'bvid': 'BV1cL41197ji', 'typename': '设计·创意', 'title': '卷疯了！一口气学完【12种】Multi-controlnet高阶组合用法合集&amp;SD其他最新插件【持续更新】', 'subtitle': '', 'play': 41589, 'review': 173, 'video_review': 149, 'favorites': 10345, 'mid': 3493118378772863, 'author': '故障工作室', 'description': '做这个视频的一个多星期里..突然comfyUI就更新了..AI区up主，更新即过时hh\n欢迎加Funkyarden我拉你们进群讨论啦~', 'create': '2023-03-21 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/13bd331442c084a4e7cd2e62dd5cb63c4ea0203c.jpg', 'coins': 3068, 'duration': '7:32', 'badgepay': False, 'pts': 333839, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441302554', 'bvid': 'BV1aL411r7qV', 'typename': '设计·创意', 'title': '漫画家软件 - 动物模型库', 'subtitle': '', 'play': 74354, 'review': 850, 'video_review': 18, 'favorites': 4323, 'mid': 2013088162, 'author': '漫画家-蒸汽平台', 'description': '更新了动物模型库，动物模型不算完美，但还是可以帮助绘画拿捏不同的动物动作角度。', 'create': '2023-03-21 10:01', 'pic': 'http://i0.hdslb.com/bfs/archive/791d38713a028ae7fa9d52b2f4d7da5da581d70a.jpg', 'coins': 804, 'duration': '3:02', 'badgepay': False, 'pts': 270995, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483771791', 'bvid': 'BV1aT41167Kn', 'typename': '设计·创意', 'title': '超炫酷的人物介绍PPT，这个设计你肯定没见过#ppt #ppt教学', 'subtitle': '', 'play': 134323, 'review': 72, 'video_review': 42, 'favorites': 1955, 'mid': 571793335, 'author': '爱PPT的房金', 'description': '-', 'create': '2023-03-20 14:43', 'pic': 'http://i2.hdslb.com/bfs/archive/62b8887fdccc47967507be8d736500f0e765e17d.jpg', 'coins': 132, 'duration': '1:14', 'badgepay': False, 'pts': 270354, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396390153', 'bvid': 'BV1Qo4y1W7Yv', 'typename': '设计·创意', 'title': '应届毕业，坐标上海，这个作品集拿8千月薪少不少？', 'subtitle': '', 'play': 108702, 'review': 217, 'video_review': 109, 'favorites': 2191, 'mid': 1552660583, 'author': '爱吃香菜设计工作室', 'description': '视频内的作品集作者是视觉传达专业，22年的应届毕业生，22岁；\n作者大四毕业季的时候处于比较迷茫的阶段，后面在尚道经过两个半月的学习之后，凭借着自己的努力以及对插画的喜爱，慢慢培养出了自己的风格，也产出了这份作品集\n今年开年作者拿着这份作品集去上海也成功找到了一份月薪8千的设计工作，在作者看来，有一个差不多的薪资工作就先做着，后面根据自己的设计能力再去跳槽什么的，这样比较稳妥！', 'create': '2023-03-23 21:30', 'pic': 'http://i0.hdslb.com/bfs/archive/6a2804183c56d137965c2e7cab1ae5a9ea2bf438.jpg', 'coins': 117, 'duration': '1:04', 'badgepay': False, 'pts': 254352, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781488387', 'bvid': 'BV1Z24y1j7dG', 'typename': '设计·创意', 'title': '长期洗涤｜莫兰迪向白芍药春季配色系列｜高级感配色21期', 'subtitle': '', 'play': 59276, 'review': 135, 'video_review': 212, 'favorites': 5325, 'mid': 1701169, 'author': '长期洗涤Longwashing', 'description': 'hola~大家好，这里是洗涤先生。\n欢迎收看第二十一期高级感系列配色；很感谢大家的一直支持和喜欢，其次色彩不分好坏，只有找到你们喜欢的才是最好的，配色内容仅供大家参考和学习。然后也欢迎大家提要求和建议，无论是对视频的建议还是有需求，洗涤先生都会尽量阅读和回复；私信较多难免回复不及~\n\n关于配色系列：目前都是原创，从编译的颜色、LR后期和设计排版都是自主创作，不存在抄袭或者模仿，目前开放和欢迎大家在学习和工作实践中使用和参考。\n\n*不允许去水印搬运视频。\n\nBGM：Two at a time - AGA', 'create': '2023-03-24 11:30', 'pic': 'http://i0.hdslb.com/bfs/archive/d163cd02c7d58e1d968cd73cef1765eb6b3b313f.jpg', 'coins': 1471, 'duration': '1:14', 'badgepay': False, 'pts': 240741, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311427389', 'bvid': 'BV1fN411N7jC', 'typename': '设计·创意', 'title': 'Midjourney AI 快速生成UI/运营 3D IP，固定角色', 'subtitle': '', 'play': 40213, 'review': 61, 'video_review': 1, 'favorites': 5842, 'mid': 1279953518, 'author': '电子怪物', 'description': '这个模型我自己建模+渲染的话估计要三四天，AI生成加上修改超不过二十分钟....\n求三连呀', 'create': '2023-03-22 20:40', 'pic': 'http://i0.hdslb.com/bfs/archive/7dadbadb10f1fe0b20886224edffe869053fc938.jpg', 'coins': 885, 'duration': '1:34', 'badgepay': False, 'pts': 217950, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909117933', 'bvid': 'BV16M4y1m7xF', 'typename': '设计·创意', 'title': 'AI绘画落地案例，用midjourney画扁平插画，UI设计、运营设计，都能用哦', 'subtitle': '', 'play': 26750, 'review': 76, 'video_review': 5, 'favorites': 4428, 'mid': 37661915, 'author': '设计师doo', 'description': '', 'create': '2023-03-24 18:42', 'pic': 'http://i0.hdslb.com/bfs/archive/8e5d46976b835260068dc359ccfb431979dbb4a2.jpg', 'coins': 764, 'duration': '1:55', 'badgepay': False, 'pts': 159468, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396380153', 'bvid': 'BV1So4y1W76q', 'typename': '设计·创意', 'title': '高度还原脸部动态细节，Unreal Engine 5的实时面部建模演示', 'subtitle': '', 'play': 79163, 'review': 187, 'video_review': 88, 'favorites': 971, 'mid': 487511093, 'author': 'YouTube精选字幕组', 'description': 'https://www.youtube.com/watch?v=pnaKyc3mQVk\n现场演示：昨晚Epic发布的虚幻引擎5炸裂新应用——“MetaHuman Animator”极速模拟真人面部动作。\n\nDemo现场，女演员对着iPhone前置摄像头讲一段10秒钟的话，配合对应的面部动作。\n\n仅仅2分钟之后，虚幻引擎5就在建模人脸上精准复现了这一段讲话视频，所有面部细节都被高度还原，包括嘴唇，眼神，面部肌肉，光影等。语言发音与动作细节配合完美。\n\n采集面部数据的过程，并没有借助除了iPhone之外的任何', 'create': '2023-03-23 11:47', 'pic': 'http://i2.hdslb.com/bfs/archive/42e9243fcc379b7d73aad1ef6d27fc6038e98e69.jpg', 'coins': 112, 'duration': '2:58', 'badgepay': False, 'pts': 153098, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '483883423', 'bvid': 'BV1NT411r76g', 'typename': '职业职场', 'title': '为什么呢？记住了吧？', 'subtitle': '', 'play': 357211, 'review': 107, 'video_review': 55, 'favorites': 6365, 'mid': 17131900, 'author': 'WPS小表姐', 'description': '-', 'create': '2023-03-22 21:32', 'pic': 'http://i2.hdslb.com/bfs/archive/b74142e504ac584862d7877dd47bcfd46731b844.jpg', 'coins': 583, 'duration': '0:48', 'badgepay': False, 'pts': 762726, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353889030', 'bvid': 'BV1QX4y1Z7w7', 'typename': '职业职场', 'title': '15号以后大公资！跑！', 'subtitle': '', 'play': 251123, 'review': 1177, 'video_review': 159, 'favorites': 3095, 'mid': 1068488454, 'author': '求职找土豆', 'description': '-', 'create': '2023-03-23 19:02', 'pic': 'http://i1.hdslb.com/bfs/archive/23a83d1a4fac35edde4c2a74779e77eddec804b7.jpg', 'coins': 108, 'duration': '0:46', 'badgepay': False, 'pts': 560339, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226370424', 'bvid': 'BV1Gb411o7oB', 'typename': '职业职场', 'title': '你能想象三角函数也能拟人组cp吗！雷到烧坏cpu', 'subtitle': '', 'play': 130815, 'review': 260, 'video_review': 79, 'favorites': 8396, 'mid': 3493083425540830, 'author': '小亭不停课', 'description': '', 'create': '2023-03-20 17:42', 'pic': 'http://i0.hdslb.com/bfs/archive/1766bc95d18d85ac270593243f7c607519d1c620.jpg', 'coins': 178, 'duration': '0:53', 'badgepay': False, 'pts': 444926, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568985405', 'bvid': 'BV1ev4y157ob', 'typename': '职业职场', 'title': '如何用文档制作电子版手写签名？', 'subtitle': '', 'play': 191807, 'review': 28, 'video_review': 5, 'favorites': 4418, 'mid': 1027479420, 'author': 'WPS大老板', 'description': '-', 'create': '2023-03-22 12:10', 'pic': 'http://i1.hdslb.com/bfs/archive/cea168049bac017d00a1d1cbde58f85e8b92b874.jpg', 'coins': 238, 'duration': '0:26', 'badgepay': False, 'pts': 440928, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824045972', 'bvid': 'BV1Qg4y1W7of', 'typename': '职业职场', 'title': '【干货收藏】买房前要明白的四件事：是否申请共有产权房？首套房福利怎么用？一线城市二线城市？是否要买学区房？【全嘻嘻】', 'subtitle': '', 'play': 140519, 'review': 494, 'video_review': 1701, 'favorites': 2874, 'mid': 25637408, 'author': '全嘻嘻', 'description': '【羊迪聊买房】系列一共3集，本集为第2集，内容包括：1.认识羊迪，2.共有产权房和公租房，3.公寓，4.2023年，年轻人还要不要买房？5.一线城市要一步到位，6.学区房，7.劣质资产。下周会更新该系列的第3集，主要聚焦具体的房产购买实操，例如如何跟房东谈判，如何找到没有挂牌的真实房源，如何识别样板间的坑等等。关注我，下周见。', 'create': '2023-03-24 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/33be7437c33cf36c4ea1c7a8815a2bb00e8f95e1.jpg', 'coins': 2184, 'duration': '28:28', 'badgepay': False, 'pts': 353227, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396623190', 'bvid': 'BV1Ao4y1x72o', 'typename': '职业职场', 'title': '体制内有以下副业纪委不会查！', 'subtitle': '', 'play': 216806, 'review': 484, 'video_review': 42, 'favorites': 1753, 'mid': 471911317, 'author': '公选王-遴选翰林院', 'description': '添加小雪老师微信：15527243150\n备注B站，将免费获得遴选小白提升课礼包（最新版）\n包含（300组合笔面加分金句+700分钟遴选笔试入门课+40公文写作和大作文范文）', 'create': '2023-03-25 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7875d09f5931e1a49c496685038ebbea9c7fff6a.jpg', 'coins': 122, 'duration': '0:16', 'badgepay': False, 'pts': 341852, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526469958', 'bvid': 'BV1eM411u7rc', 'typename': '职业职场', 'title': '外向人都是这么找工作的吗？？？', 'subtitle': '', 'play': 78619, 'review': 272, 'video_review': 301, 'favorites': 5446, 'mid': 8736958, 'author': '他塔拉', 'description': 'BGM:\n\n根岸貴幸-MOJI-MOJI\n根岸貴幸 (ねぎし たかゆき)-小心な侵入者\nS.E.N.S. (神思者)-Future\n吉森信-ふるさとの匂い (故乡的味道)\n吉森信-春を知らせるもの (春之信使)\n吉森信-橙色の時 (橙色时光)\nko-ko-ya-うれし、たのし\n岩井俊二 - クロニクル／借り暮らし', 'create': '2023-03-23 17:30', 'pic': 'http://i2.hdslb.com/bfs/archive/8fb1164431961c6da0ef29cc985d542fedd7d229.jpg', 'coins': 5462, 'duration': '13:43', 'badgepay': False, 'pts': 285654, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696412322', 'bvid': 'BV1Hm4y1k77A', 'typename': '职业职场', 'title': '职场反派心态vs菩萨心态，看看差别多大！', 'subtitle': '', 'play': 108400, 'review': 132, 'video_review': 52, 'favorites': 3094, 'mid': 499889496, 'author': '是爱丽丝_', 'description': '-', 'create': '2023-03-23 18:58', 'pic': 'http://i1.hdslb.com/bfs/archive/1e94f58a91deb3174b13d629c313907989590cf8.jpg', 'coins': 400, 'duration': '3:04', 'badgepay': False, 'pts': 273857, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824034701', 'bvid': 'BV1Ug4y1W7Fv', 'typename': '职业职场', 'title': '被点名发言不怕，5招快速接话', 'subtitle': '', 'play': 62143, 'review': 78, 'video_review': 168, 'favorites': 6271, 'mid': 1022175770, 'author': '江雪的成长小窝', 'description': '', 'create': '2023-03-24 21:30', 'pic': 'http://i1.hdslb.com/bfs/archive/debd863cbb1a1eafd8445df3c50fcb27b30f3e38.jpg', 'coins': 1834, 'duration': '3:35', 'badgepay': False, 'pts': 263746, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611379197', 'bvid': 'BV1M84y137Eg', 'typename': '职业职场', 'title': '多台电脑莫名断网，这故障还极其隐蔽', 'subtitle': '', 'play': 224579, 'review': 470, 'video_review': 869, 'favorites': 739, 'mid': 519573253, 'author': '海南弱电小胡', 'description': '', 'create': '2023-03-23 21:49', 'pic': 'http://i2.hdslb.com/bfs/archive/2cb1e3df9f10887b71f2c09d5fa5535e0b952f1e.jpg', 'coins': 597, 'duration': '11:56', 'badgepay': False, 'pts': 231253, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1716920</v>
+        <v>1762022</v>
       </c>
       <c r="I47" t="n">
-        <v>8447</v>
+        <v>11706</v>
       </c>
       <c r="J47" t="n">
-        <v>55071</v>
+        <v>42451</v>
       </c>
       <c r="K47" t="n">
-        <v>14612</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>野生技术协会</t>
+          <t>设计·创意</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>skill</t>
+          <t>design</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>技能党集合，是时候展示真正的技术了</t>
+          <t>天马行空，创意设计，都在这里</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>/v/knowledge/skill</t>
+          <t>/v/knowledge/design(opens new window)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>知识(主分区)</t>
+          <t>知识</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[{'aid': '993956202', 'bvid': 'BV1px4y1A7E8', 'typename': '野生技能协会', 'title': '一块石头能弹300次？慢放120倍，三分钟学会打水漂！', 'subtitle': '', 'play': 2340564, 'review': 1579, 'video_review': 2322, 'favorites': 95017, 'mid': 407054668, 'author': '亿点点不一样', 'description': '也许你想学第三期——打水漂！这次我们请到了15岁的全国打水漂冠军-沈丹瑶 ，借助高速摄影机的记录能力，在几分钟之内带你学会打水漂的奥秘。如果你喜欢本期视频，别忘了一键三连！', 'create': '2023-03-23 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/558f06bd61797b577ba58bd0d447e9180f652576.jpg', 'coins': 21313, 'duration': '3:42', 'badgepay': False, 'pts': 4130441, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441492622', 'bvid': 'BV1vL411D7SH', 'typename': '野生技能协会', 'title': '下半时给老板娘露一手，马上收获掌声！', 'subtitle': '', 'play': 1817621, 'review': 124, 'video_review': 28, 'favorites': 18222, 'mid': 1658608622, 'author': '魔术老白', 'description': '-', 'create': '2023-03-22 22:25', 'pic': 'http://i2.hdslb.com/bfs/archive/fff3a04fbc3248c71ca5cd0b19d444b3bfb1c3bc.jpg', 'coins': 2240, 'duration': '1:04', 'badgepay': False, 'pts': 2119403, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353873931', 'bvid': 'BV1ZX4y1Z785', 'typename': '野生技能协会', 'title': '世界渲染大赛【无限引擎】搜索全网 找来了TOP100 预览版 多位国人入选 猜猜谁是冠军', 'subtitle': '', 'play': 426398, 'review': 503, 'video_review': 938, 'favorites': 15022, 'mid': 541547638, 'author': 'phyrender', 'description': '世界渲染大赛【无限引擎】搜索全网 找来了TOP100 预览版 多位国人入选 猜猜谁是冠军\n不是直接转载，全网搜索收集，剪辑而来，', 'create': '2023-03-20 10:39', 'pic': 'http://i2.hdslb.com/bfs/archive/f258d0b2f13d9f93b52ac3f63cada20ce6dc3fde.jpg', 'coins': 3516, 'duration': '8:21', 'badgepay': False, 'pts': 1093518, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269120536', 'bvid': 'BV1vc411L7XN', 'typename': '野生技能协会', 'title': '【美国传武】美式居合时要如何判断对方战斗力？', 'subtitle': '', 'play': 746936, 'review': 265, 'video_review': 128, 'favorites': 5079, 'mid': 492662, 'author': '中国异形', 'description': '', 'create': '2023-03-24 18:53', 'pic': 'http://i1.hdslb.com/bfs/archive/88620e9ddb318dd1fbe1e913c6340dca126db4e7.jpg', 'coins': 861, 'duration': '0:33', 'badgepay': False, 'pts': 581472, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781585914', 'bvid': 'BV1x24y177ZH', 'typename': '野生技能协会', 'title': '南方冰雹落成堆，锅碗瓢盆做头盔', 'subtitle': '', 'play': 259803, 'review': 300, 'video_review': 268, 'favorites': 3902, 'mid': 1859189432, 'author': '一诺求生录', 'description': '南方多省遭遇冰雹袭击，面对鸡蛋大小的冰雹，你难道不想拥有一个应急头盔吗？', 'create': '2023-03-25 12:10', 'pic': 'http://i0.hdslb.com/bfs/archive/8ebb0a938a548dde9f87becf4c280b490b95abbf.jpg', 'coins': 249, 'duration': '1:36', 'badgepay': False, 'pts': 560858, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866540995', 'bvid': 'BV1hV4y1X7js', 'typename': '野生技能协会', 'title': '穷人末日—物资篇—甘油和和高锰酸钾', 'subtitle': '', 'play': 190984, 'review': 526, 'video_review': 214, 'favorites': 5893, 'mid': 385306105, 'author': '穷人末日', 'description': '家里有小孩的要注意，不要让孩子接触到。', 'create': '2023-03-24 10:29', 'pic': 'http://i1.hdslb.com/bfs/archive/d1bf186fd96dc85a3ecc7c7b1d2bbea812fe0264.jpg', 'coins': 554, 'duration': '2:38', 'badgepay': False, 'pts': 509146, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268833134', 'bvid': 'BV1fc411j7iX', 'typename': '野生技能协会', 'title': 'Adobe发布AI工具：Adobe Firefly', 'subtitle': '', 'play': 179512, 'review': 633, 'video_review': 97, 'favorites': 4980, 'mid': 1435411362, 'author': '可动程序CGexe', 'description': 'Adobe Firefly', 'create': '2023-03-21 23:17', 'pic': 'http://i0.hdslb.com/bfs/archive/e490675a9c82068d55564b37d131085d82989645.jpg', 'coins': 350, 'duration': '1:11', 'badgepay': False, 'pts': 456949, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441380639', 'bvid': 'BV12L411r7Nh', 'typename': '野生技能协会', 'title': '【sovits变声器/一键包】一键变声！手把手教你使用AI变声器！', 'subtitle': '', 'play': 82824, 'review': 747, 'video_review': 225, 'favorites': 9248, 'mid': 133434728, 'author': 'INT16', 'description': '实时变声的sovits一键包！基于sovits4.0\n一键包2.0 链接：https://share.weiyun.com/Afv83T5j 密码：INT-16\n链接：https://pan.baidu.com/s/1Vx0BnpkmPIRziQtORFv-Jg?pwd=INT8\xa0提取码：INT8\n不需要安装python和cuda，双击运行', 'create': '2023-03-23 17:06', 'pic': 'http://i1.hdslb.com/bfs/archive/36678e19c7d036b11ad447353185df7dab224e6e.jpg', 'coins': 2523, 'duration': '1:47', 'badgepay': False, 'pts': 413348, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823891805', 'bvid': 'BV1dg4y1x7Md', 'typename': '野生技能协会', 'title': '一次说清 外地来北京看病就医全流程, 异地就医备案 外地社保到北京看病全流程， 生活常识科普，第一次去医院看病该怎么办？', 'subtitle': '', 'play': 44631, 'review': 192, 'video_review': 63, 'favorites': 12774, 'mid': 1376441269, 'author': '薅知识', 'description': '一次说清 外地来北京看病就医全流程, 异地就医备案 外地社保到北京看病全流程， 生活常识科普，第一次去医院看病该怎么办？', 'create': '2023-03-23 21:29', 'pic': 'http://i0.hdslb.com/bfs/archive/11d7c68e54a88b6c9166fd7405d8237ade339a33.jpg', 'coins': 3640, 'duration': '18:03', 'badgepay': False, 'pts': 391631, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951594759', 'bvid': 'BV19s4y1E7H4', 'typename': '野生技能协会', 'title': '别人嘲讽我花一百块买所谓的“怪诞美学”纸牌？', 'subtitle': '', 'play': 409662, 'review': 130, 'video_review': 114, 'favorites': 2774, 'mid': 30707134, 'author': '马格南DD', 'description': '-', 'create': '2023-03-25 23:35', 'pic': 'http://i2.hdslb.com/bfs/archive/e16b1e533874a38e33333bf5abb1789989ad37e8.jpg', 'coins': 425, 'duration': '1:05', 'badgepay': False, 'pts': 312546, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '268756458', 'bvid': 'BV1sc411j7W3', 'typename': '设计·创意', 'title': '陷在文具的大坑里爬不出来了～【丸子】', 'subtitle': '', 'play': 958824, 'review': 280, 'video_review': 205, 'favorites': 15133, 'mid': 4624257, 'author': '丸子大人_网汇鹅', 'description': '-', 'create': '2023-03-21 22:12', 'pic': 'http://i0.hdslb.com/bfs/archive/00f28262b9930d1cb784fb9f17e9b55b19490a2e.jpg', 'coins': 632, 'duration': '1:13', 'badgepay': False, 'pts': 1746711, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226262557', 'bvid': 'BV1tb411d7HM', 'typename': '设计·创意', 'title': '游戏公司使用AI现状', 'subtitle': '', 'play': 203387, 'review': 2510, 'video_review': 371, 'favorites': 4756, 'mid': 13812778, 'author': '扶一挽月', 'description': '嗨呀好久不见，本视频从纯社畜的角度看待AI，有发展、有焦虑、也有反思，总之希望大家越画越好。\nps：本人不会使用AI接稿，25年纯手工绘画老师傅。', 'create': '2023-03-21 12:31', 'pic': 'http://i2.hdslb.com/bfs/archive/ea5ddfcc0ba5215bc646d115c36a26e987a4302c.jpg', 'coins': 481, 'duration': '4:58', 'badgepay': False, 'pts': 584924, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438849836', 'bvid': 'BV1cL41197ji', 'typename': '设计·创意', 'title': '卷疯了！一口气学完【12种】Multi-controlnet高阶组合用法合集&amp;SD其他最新插件【持续更新】', 'subtitle': '', 'play': 43181, 'review': 178, 'video_review': 150, 'favorites': 10650, 'mid': 3493118378772863, 'author': '故障工作室', 'description': '做这个视频的一个多星期里..突然comfyUI就更新了..AI区up主，更新即过时hh\n欢迎加Funkyarden我拉你们进群讨论啦~', 'create': '2023-03-21 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/13bd331442c084a4e7cd2e62dd5cb63c4ea0203c.jpg', 'coins': 3182, 'duration': '7:32', 'badgepay': False, 'pts': 344080, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483771791', 'bvid': 'BV1aT41167Kn', 'typename': '设计·创意', 'title': '超炫酷的人物介绍PPT，这个设计你肯定没见过#ppt #ppt教学', 'subtitle': '', 'play': 139503, 'review': 72, 'video_review': 42, 'favorites': 2042, 'mid': 571793335, 'author': '爱PPT的房金', 'description': '-', 'create': '2023-03-20 14:43', 'pic': 'http://i2.hdslb.com/bfs/archive/62b8887fdccc47967507be8d736500f0e765e17d.jpg', 'coins': 142, 'duration': '1:14', 'badgepay': False, 'pts': 281772, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396390153', 'bvid': 'BV1Qo4y1W7Yv', 'typename': '设计·创意', 'title': '应届毕业，坐标上海，这个作品集拿8千月薪少不少？', 'subtitle': '', 'play': 118953, 'review': 233, 'video_review': 111, 'favorites': 2404, 'mid': 1552660583, 'author': '爱吃香菜设计工作室', 'description': '视频内的作品集作者是视觉传达专业，22年的应届毕业生，22岁；\n作者大四毕业季的时候处于比较迷茫的阶段，后面在尚道经过两个半月的学习之后，凭借着自己的努力以及对插画的喜爱，慢慢培养出了自己的风格，也产出了这份作品集\n今年开年作者拿着这份作品集去上海也成功找到了一份月薪8千的设计工作，在作者看来，有一个差不多的薪资工作就先做着，后面根据自己的设计能力再去跳槽什么的，这样比较稳妥！', 'create': '2023-03-23 21:30', 'pic': 'http://i0.hdslb.com/bfs/archive/6a2804183c56d137965c2e7cab1ae5a9ea2bf438.jpg', 'coins': 123, 'duration': '1:04', 'badgepay': False, 'pts': 277145, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441302554', 'bvid': 'BV1aL411r7qV', 'typename': '设计·创意', 'title': '漫画家软件 - 动物模型库', 'subtitle': '', 'play': 74496, 'review': 851, 'video_review': 18, 'favorites': 4343, 'mid': 2013088162, 'author': '漫画家-蒸汽平台', 'description': '更新了动物模型库，动物模型不算完美，但还是可以帮助绘画拿捏不同的动物动作角度。', 'create': '2023-03-21 10:01', 'pic': 'http://i0.hdslb.com/bfs/archive/791d38713a028ae7fa9d52b2f4d7da5da581d70a.jpg', 'coins': 804, 'duration': '3:02', 'badgepay': False, 'pts': 271489, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781488387', 'bvid': 'BV1Z24y1j7dG', 'typename': '设计·创意', 'title': '长期洗涤｜莫兰迪向白芍药春季配色系列｜高级感配色21期', 'subtitle': '', 'play': 62401, 'review': 138, 'video_review': 215, 'favorites': 5702, 'mid': 1701169, 'author': '长期洗涤Longwashing', 'description': 'hola~大家好，这里是洗涤先生。\n欢迎收看第二十一期高级感系列配色；很感谢大家的一直支持和喜欢，其次色彩不分好坏，只有找到你们喜欢的才是最好的，配色内容仅供大家参考和学习。然后也欢迎大家提要求和建议，无论是对视频的建议还是有需求，洗涤先生都会尽量阅读和回复；私信较多难免回复不及~\n\n关于配色系列：目前都是原创，从编译的颜色、LR后期和设计排版都是自主创作，不存在抄袭或者模仿，目前开放和欢迎大家在学习和工作实践中使用和参考。\n\n*不允许去水印搬运视频。\n\nBGM：Two at a time - AGA', 'create': '2023-03-24 11:30', 'pic': 'http://i0.hdslb.com/bfs/archive/d163cd02c7d58e1d968cd73cef1765eb6b3b313f.jpg', 'coins': 1552, 'duration': '1:14', 'badgepay': False, 'pts': 254889, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311427389', 'bvid': 'BV1fN411N7jC', 'typename': '设计·创意', 'title': 'Midjourney AI 快速生成UI/运营 3D IP，固定角色', 'subtitle': '', 'play': 41478, 'review': 62, 'video_review': 1, 'favorites': 6020, 'mid': 1279953518, 'author': '电子怪物', 'description': '这个模型我自己建模+渲染的话估计要三四天，AI生成加上修改超不过二十分钟....\n求三连呀', 'create': '2023-03-22 20:40', 'pic': 'http://i0.hdslb.com/bfs/archive/7dadbadb10f1fe0b20886224edffe869053fc938.jpg', 'coins': 904, 'duration': '1:34', 'badgepay': False, 'pts': 224488, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739077539', 'bvid': 'BV1wk4y147Eb', 'typename': '设计·创意', 'title': 'PPT结尾除了感谢之外，还可以使用这种“电影回顾式结尾”', 'subtitle': '', 'play': 44029, 'review': 23, 'video_review': 10, 'favorites': 4793, 'mid': 475442690, 'author': '种子PPT', 'description': '因为在导出视频之前，我们将第2页到最后一页的切换效果设置为了‘平滑’，并且将‘设置自动换片时间’设置成了2秒。在正式的发表或演讲之前，可以按照自己的需求重新设置幻灯片之间的切换效果，并取消勾选‘设置自动换片时间’。\n\n最后字幕的向上滚动除了使用‘字幕式’动画，还可以用向上的‘路径’动画。\n\n如果觉得今天这期视频对你有所帮助，请点赞收藏和关注，我们下期见。', 'create': '2023-03-25 13:09', 'pic': 'http://i1.hdslb.com/bfs/archive/c1bb0ed4448b4f4f3ae815685a2b99e6580a73ee.jpg', 'coins': 458, 'duration': '1:54', 'badgepay': False, 'pts': 192618, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909117933', 'bvid': 'BV16M4y1m7xF', 'typename': '设计·创意', 'title': 'AI绘画落地案例，用midjourney画扁平插画，UI设计、运营设计，都能用哦', 'subtitle': '', 'play': 29206, 'review': 81, 'video_review': 5, 'favorites': 4729, 'mid': 37661915, 'author': '设计师doo', 'description': '', 'create': '2023-03-24 18:42', 'pic': 'http://i0.hdslb.com/bfs/archive/8e5d46976b835260068dc359ccfb431979dbb4a2.jpg', 'coins': 827, 'duration': '1:55', 'badgepay': False, 'pts': 171191, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6498935</v>
+        <v>1715458</v>
       </c>
       <c r="I48" t="n">
-        <v>35671</v>
+        <v>9105</v>
       </c>
       <c r="J48" t="n">
-        <v>172911</v>
+        <v>60572</v>
       </c>
       <c r="K48" t="n">
-        <v>49397</v>
+        <v>14612</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>数码</t>
+          <t>野生技术协会</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>digital</t>
+          <t>skill</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>科技数码产品大全，一起来做发烧友</t>
+          <t>技能党集合，是时候展示真正的技术了</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>/v/tech/digital(opens new window)</t>
+          <t>/v/knowledge/skill</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>科技(主分区)</t>
+          <t>知识</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[{'aid': '441339502', 'bvid': 'BV1YL411r7SB', 'typename': '数码', 'title': '防臭小子计划第一课:教女儿装系统！', 'subtitle': '', 'play': 1168718, 'review': 5210, 'video_review': 3825, 'favorites': 22155, 'mid': 1284100140, 'author': '芊芊老猫的游戏空间', 'description': '开头是老猿的视频，我很爱听相声，所以这个只是调侃~~~不要当真~~~哈哈哈\n\nWINDOWS10 官网下载网址:  https://www.microsoft.com/zh-cn/software-download/windows10\n\n安装前准备大于8G的U盘一个。主板对应的引导快捷键不一样，也可以去BIOS里修改。或者搜索“主板型号+快捷键”，可以找到对应的。\n\n如果大家喜欢我们的视频，帮忙点个免费的赞就是对我们极大的支持，感谢观看！', 'create': '2023-03-21 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/a5fc832ab764c8d5d5619818e9d3f50134b2c690.jpg', 'coins': 8236, 'duration': '10:09', 'badgepay': False, 'pts': 2392106, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568854367', 'bvid': 'BV19v4y1V7od', 'typename': '数码', 'title': '给全网粉丝量超1亿的篮球团队做画质改造，差点难倒我们？', 'subtitle': '', 'play': 1338367, 'review': 2500, 'video_review': 2980, 'favorites': 11812, 'mid': 946974, 'author': '影视飓风', 'description': '这次我们来到了西安拜访了野球帝团队，首次尝试给体育运动场地做画质改造！除了灯光和手持设备，我们还准备了一点“小惊喜”！如果本期内容对你有帮助，请记得给我们一键三连！', 'create': '2023-03-20 20:37', 'pic': 'http://i2.hdslb.com/bfs/archive/1f6f0411fc869e3cbd1e4b92a312917b44c7ab7d.jpg', 'coins': 32793, 'duration': '11:33', 'badgepay': False, 'pts': 1938585, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311376911', 'bvid': 'BV1qP411o79q', 'typename': '数码', 'title': '先到先得！3w闲置电脑吃灰出！统统0元购！', 'subtitle': '', 'play': 785181, 'review': 5276, 'video_review': 4459, 'favorites': 16741, 'mid': 178690106, 'author': '搞机所', 'description': '在你面前的这堆顶级电脑主机跟游戏本电脑\n都是我们要出的闲置吃灰产品\n今天不用学生价V我50\n也不用9.9元\n统统只需零元购\n顺丰包邮带回家', 'create': '2023-03-23 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/6326cc6f22189a12aec20bf57adb003fe8c6a913.jpg', 'coins': 38563, 'duration': '2:16', 'badgepay': False, 'pts': 1909179, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781381275', 'bvid': 'BV1R24y1E7j1', 'typename': '数码', 'title': '「小泽」华为 P60 Pro 开箱：华为开始搞艺术了！', 'subtitle': '', 'play': 948860, 'review': 4532, 'video_review': 7234, 'favorites': 1376, 'mid': 25910292, 'author': '钟文泽', 'description': '', 'create': '2023-03-23 15:49', 'pic': 'http://i2.hdslb.com/bfs/archive/659b59bf9924833664bf1e12b51e74d976d1661e.jpg', 'coins': 1710, 'duration': '5:12', 'badgepay': False, 'pts': 1538610, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438743721', 'bvid': 'BV1JL411d7LF', 'typename': '数码', 'title': '首发丨戴森空气净化...耳机？纯整活还是真实用？', 'subtitle': '', 'play': 1293036, 'review': 3319, 'video_review': 10526, 'favorites': 5587, 'mid': 125526, 'author': '-LKs-', 'description': '原以为只是个概念机，没想到量产了∑(ﾟ□ﾟ*川\nu1s1这个定价不知道有多少人真的会买，但如果你同时有耳机+净化的需求，那它大概是市场上唯一的选择\n\n*云试听只代表同样录音环境下不同耳机的声音取向差异，与线下实际听感可能会有不同，特别感谢@LIKEMUSIC  提供的KU-100人头麦\n*音质部分所有耳机默认关闭了降噪(除了BOSE关不掉)，默认均衡设置，不开空间音频', 'create': '2023-03-20 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/de5bea22e1f28062a4c042532d95ef7ae4a8a967.jpg', 'coins': 11688, 'duration': '17:41', 'badgepay': False, 'pts': 1404384, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568939324', 'bvid': 'BV13v4y157TH', 'typename': '数码', 'title': '「科技美学开箱」华为 P60 Pro/P60 Art开箱体验 | 独一无二的洛可可白  XMAGE影像系统 北斗卫星加持', 'subtitle': '', 'play': 725183, 'review': 3932, 'video_review': 9697, 'favorites': 1252, 'mid': 3766866, 'author': '科技美学', 'description': '「科技美学开箱」首发！华为 P60 Pro/P60 Art开箱体验 | 独一无二的洛可可白\xa0XMAGE影像系统 北斗卫星加持', 'create': '2023-03-23 15:43', 'pic': 'http://i1.hdslb.com/bfs/archive/6b939b565ddd6381fef762d7522e96eb58661c96.jpg', 'coins': 1944, 'duration': '12:51', 'badgepay': False, 'pts': 1341637, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696279771', 'bvid': 'BV1km4y1r7A5', 'typename': '数码', 'title': '联想拯救者Y9000P 2023/至尊版详细评测：新LOGO+新配置', 'subtitle': '', 'play': 682546, 'review': 4236, 'video_review': 4044, 'favorites': 3576, 'mid': 367877, 'author': '笔吧评测室', 'description': '欢迎收看本期视频！\n联想刚发布了最新的拯救者Y9000P/Y9000P至尊版，我们也第一时间拿到了这两台电脑。\n作为每年的必测机型，大家对这两款产品的期待值那绝对是拉满了。\n新产品换了logo，全面升级到了13代处理器+RTX40系显卡，性能释放也更加激进。\n那么这台电脑的实际表现如何？看完本期视频，相信你能找到答案！', 'create': '2023-03-21 21:47', 'pic': 'http://i0.hdslb.com/bfs/archive/d142fb593b4724c2d1048b02124c610d5f084ff6.jpg', 'coins': 9349, 'duration': '19:55', 'badgepay': False, 'pts': 1301562, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611419348', 'bvid': 'BV1884y137fk', 'typename': '数码', 'title': '500元吃鸡电脑 给孩子戒网瘾  送灭火器', 'subtitle': '', 'play': 962667, 'review': 1220, 'video_review': 1160, 'favorites': 6462, 'mid': 3493258445458120, 'author': 'DIY二手电脑', 'description': '-', 'create': '2023-03-23 19:19', 'pic': 'http://i1.hdslb.com/bfs/archive/941210c598932e9a489f666fcbf42342036a8fb8.jpg', 'coins': 1562, 'duration': '4:48', 'badgepay': False, 'pts': 1264476, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823884547', 'bvid': 'BV1kg4y1x7rb', 'typename': '数码', 'title': '「小白」华为P60 Pro/Art体验：每一台白色都不同！', 'subtitle': '', 'play': 597448, 'review': 3561, 'video_review': 7425, 'favorites': 1118, 'mid': 8969156, 'author': '小白测评', 'description': '关注微信公众号：小白测评 每晚发车不见不散', 'create': '2023-03-23 15:30', 'pic': 'http://i1.hdslb.com/bfs/archive/cf6ebb655008c6e72b1fc3bd069b403d06c24f0a.jpg', 'coins': 1795, 'duration': '6:52', 'badgepay': False, 'pts': 1116672, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781576161', 'bvid': 'BV1524y177YC', 'typename': '数码', 'title': '自制全屋水冷！10台电脑爆改别墅散热！绿色高效热管理！【科技达】', 'subtitle': '', 'play': 462054, 'review': 1258, 'video_review': 2175, 'favorites': 9107, 'mid': 691415738, 'author': '苏打baka', 'description': '*目前此系统只是雏形测试状态 还需要有很多细节修复*\n**但目前此套方案已经实现了集中散热or室内噪音削减**\n***分水器在制作时有误差 仅实现了设计通水量的一半左右***\nQ:冬季零下如何防止系统结冰\nA:冬季室外部分需要换防冻液或者新加一层换热器（参考分体承压太阳能）\nQ:系统整体调配如何来\nA:目前是半自动化 智能家居负责定时开启循环泵 目前正在做温控智能\nQ:整体成本如何\nA:PPR管材便宜全屋可能不到1K 主要工时费力 另外PC端冷头才是主要费钱之处 纯铜循环泵较贵\n\n↓配置表↓\nCPU：13', 'create': '2023-03-25 12:16', 'pic': 'http://i2.hdslb.com/bfs/archive/91446082a05f8a484d981d9d9f55e3a0138cc012.jpg', 'coins': 45279, 'duration': '9:31', 'badgepay': False, 'pts': 1052035, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '993956202', 'bvid': 'BV1px4y1A7E8', 'typename': '野生技能协会', 'title': '一块石头能弹300次？慢放120倍，三分钟学会打水漂！', 'subtitle': '', 'play': 2397389, 'review': 1594, 'video_review': 2344, 'favorites': 98734, 'mid': 407054668, 'author': '亿点点不一样', 'description': '也许你想学第三期——打水漂！这次我们请到了15岁的全国打水漂冠军-沈丹瑶 ，借助高速摄影机的记录能力，在几分钟之内带你学会打水漂的奥秘。如果你喜欢本期视频，别忘了一键三连！', 'create': '2023-03-23 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/558f06bd61797b577ba58bd0d447e9180f652576.jpg', 'coins': 21682, 'duration': '3:42', 'badgepay': False, 'pts': 4221856, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441492622', 'bvid': 'BV1vL411D7SH', 'typename': '野生技能协会', 'title': '下半时给老板娘露一手，马上收获掌声！', 'subtitle': '', 'play': 1950527, 'review': 130, 'video_review': 32, 'favorites': 19579, 'mid': 1658608622, 'author': '魔术老白', 'description': '-', 'create': '2023-03-22 22:25', 'pic': 'http://i2.hdslb.com/bfs/archive/fff3a04fbc3248c71ca5cd0b19d444b3bfb1c3bc.jpg', 'coins': 2397, 'duration': '1:04', 'badgepay': False, 'pts': 2227515, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269120536', 'bvid': 'BV1vc411L7XN', 'typename': '野生技能协会', 'title': '【美国传武】美式居合时要如何判断对方战斗力？', 'subtitle': '', 'play': 770874, 'review': 268, 'video_review': 129, 'favorites': 5202, 'mid': 492662, 'author': '中国异形', 'description': '', 'create': '2023-03-24 18:53', 'pic': 'http://i1.hdslb.com/bfs/archive/88620e9ddb318dd1fbe1e913c6340dca126db4e7.jpg', 'coins': 891, 'duration': '0:33', 'badgepay': False, 'pts': 591768, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781585914', 'bvid': 'BV1x24y177ZH', 'typename': '野生技能协会', 'title': '南方冰雹落成堆，锅碗瓢盆做头盔', 'subtitle': '', 'play': 275344, 'review': 306, 'video_review': 276, 'favorites': 4131, 'mid': 1859189432, 'author': '一诺求生录', 'description': '南方多省遭遇冰雹袭击，面对鸡蛋大小的冰雹，你难道不想拥有一个应急头盔吗？', 'create': '2023-03-25 12:10', 'pic': 'http://i0.hdslb.com/bfs/archive/8ebb0a938a548dde9f87becf4c280b490b95abbf.jpg', 'coins': 261, 'duration': '1:36', 'badgepay': False, 'pts': 587375, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866540995', 'bvid': 'BV1hV4y1X7js', 'typename': '野生技能协会', 'title': '穷人末日—物资篇—甘油和和高锰酸钾', 'subtitle': '', 'play': 208276, 'review': 552, 'video_review': 228, 'favorites': 6367, 'mid': 385306105, 'author': '穷人末日', 'description': '家里有小孩的要注意，不要让孩子接触到。', 'create': '2023-03-24 10:29', 'pic': 'http://i1.hdslb.com/bfs/archive/d1bf186fd96dc85a3ecc7c7b1d2bbea812fe0264.jpg', 'coins': 610, 'duration': '2:38', 'badgepay': False, 'pts': 551867, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268833134', 'bvid': 'BV1fc411j7iX', 'typename': '野生技能协会', 'title': 'Adobe发布AI工具：Adobe Firefly', 'subtitle': '', 'play': 180396, 'review': 627, 'video_review': 98, 'favorites': 4992, 'mid': 1435411362, 'author': '可动程序CGexe', 'description': 'Adobe Firefly', 'create': '2023-03-21 23:17', 'pic': 'http://i0.hdslb.com/bfs/archive/e490675a9c82068d55564b37d131085d82989645.jpg', 'coins': 350, 'duration': '1:11', 'badgepay': False, 'pts': 458662, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441380639', 'bvid': 'BV12L411r7Nh', 'typename': '野生技能协会', 'title': '【sovits变声器/一键包】一键变声！手把手教你使用AI变声器！', 'subtitle': '', 'play': 86406, 'review': 750, 'video_review': 226, 'favorites': 9506, 'mid': 133434728, 'author': 'INT16', 'description': '实时变声的sovits一键包！基于sovits4.0\n一键包2.0 链接：https://share.weiyun.com/Afv83T5j 密码：INT-16\n链接：https://pan.baidu.com/s/1Vx0BnpkmPIRziQtORFv-Jg?pwd=INT8\xa0提取码：INT8\n不需要安装python和cuda，双击运行', 'create': '2023-03-23 17:06', 'pic': 'http://i1.hdslb.com/bfs/archive/36678e19c7d036b11ad447353185df7dab224e6e.jpg', 'coins': 2613, 'duration': '1:47', 'badgepay': False, 'pts': 425807, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823891805', 'bvid': 'BV1dg4y1x7Md', 'typename': '野生技能协会', 'title': '一次说清 外地来北京看病就医全流程, 异地就医备案 外地社保到北京看病全流程， 生活常识科普，第一次去医院看病该怎么办？', 'subtitle': '', 'play': 45735, 'review': 199, 'video_review': 64, 'favorites': 13105, 'mid': 1376441269, 'author': '薅知识', 'description': '一次说清 外地来北京看病就医全流程, 异地就医备案 外地社保到北京看病全流程， 生活常识科普，第一次去医院看病该怎么办？', 'create': '2023-03-23 21:29', 'pic': 'http://i0.hdslb.com/bfs/archive/11d7c68e54a88b6c9166fd7405d8237ade339a33.jpg', 'coins': 3727, 'duration': '18:03', 'badgepay': False, 'pts': 401305, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951594759', 'bvid': 'BV19s4y1E7H4', 'typename': '野生技能协会', 'title': '别人嘲讽我花一百块买所谓的“怪诞美学”纸牌？', 'subtitle': '', 'play': 464716, 'review': 142, 'video_review': 114, 'favorites': 3158, 'mid': 30707134, 'author': '马格南DD', 'description': '-', 'create': '2023-03-25 23:35', 'pic': 'http://i2.hdslb.com/bfs/archive/e16b1e533874a38e33333bf5abb1789989ad37e8.jpg', 'coins': 455, 'duration': '1:05', 'badgepay': False, 'pts': 361290, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738762632', 'bvid': 'BV1jk4y1t777', 'typename': '野生技能协会', 'title': '【变声教学】全300集，包含所有的配音伪音技巧，让你30天练就百变声线！从小白到声优大佬！', 'subtitle': '', 'play': 50343, 'review': 160, 'video_review': 335, 'favorites': 8528, 'mid': 3493261880592829, 'author': '叉腰泡泡糖呀', 'description': '0.O', 'create': '2023-03-20 17:48', 'pic': 'http://i2.hdslb.com/bfs/archive/5f21d565ed768fd3d8fc4194b5b98862c0b8d689.png', 'coins': 1310, 'duration': '496:48', 'badgepay': False, 'pts': 299201, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>8964060</v>
+        <v>6430006</v>
       </c>
       <c r="I49" t="n">
-        <v>152919</v>
+        <v>34296</v>
       </c>
       <c r="J49" t="n">
-        <v>79186</v>
+        <v>173302</v>
       </c>
       <c r="K49" t="n">
-        <v>38808</v>
+        <v>49397</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>软件应用</t>
+          <t>数码</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>digital</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>超全软件应用指南</t>
+          <t>科技数码产品大全，一起来做发烧友</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>/v/tech/application(opens new window)</t>
+          <t>/v/tech/digital(opens new window)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>科技(主分区)</t>
+          <t>科技</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[{'aid': '269022254', 'bvid': 'BV1Nc411L76A', 'typename': '软件应用', 'title': '可能是全网最强手机远程控制？用过才知道有多流畅...', 'subtitle': '', 'play': 344539, 'review': 962, 'video_review': 187, 'favorites': 27749, 'mid': 251013709, 'author': '晨钟酱Official', 'description': '不同于电脑远程控制电脑的软件，手机控制手机的App大部分都不太好用，特别是滑动操作的延迟都比较高，只能说偶尔用一下还是没太大问题的，不适合长时使用。而我的这套方案不仅整个画面非常清晰流畅，延迟也比较的低，如同操作真机一般，同时还支持锁屏唤醒，且不需要无障碍或ROOT权限，这是怎么做到的？', 'create': '2023-03-24 17:45', 'pic': 'http://i0.hdslb.com/bfs/archive/2d0a77920274edd118c12ab91001e5ed15316f8e.jpg', 'coins': 10567, 'duration': '4:05', 'badgepay': False, 'pts': 1292101, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696613119', 'bvid': 'BV1km4y167PY', 'typename': '软件应用', 'title': '耗时两天半，给你们做了个免费/干净的资源小程序！给b站顺便也做了个', 'subtitle': '', 'play': 216739, 'review': 325, 'video_review': 533, 'favorites': 15750, 'mid': 383814461, 'author': '一网一匠', 'description': '去年11月给大家做了个资源网站：一网一匠极速版，当时的想法也很简单，就是为了你们更方便的白嫖，但是这几个月时间被疯狂攻击，好就好在已经完全解决了。\n\n今天这期视频就来给各位股东老爷做个汇报，并且给你们准备了个惊喜。\n\n如果可以的话，点赞收藏投币支持一波。', 'create': '2023-03-25 12:05', 'pic': 'http://i1.hdslb.com/bfs/archive/b06bd5612194e882f4592fefa8552cb1aece63da.jpg', 'coins': 16789, 'duration': '5:10', 'badgepay': False, 'pts': 783750, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739034126', 'bvid': 'BV1Sk4y1x7r2', 'typename': '软件应用', 'title': '【ChatGPT Plugins】史诗级更新，9 个插件实例自动完成任务！打开你的想象力，创造未来吧', 'subtitle': '', 'play': 176635, 'review': 1009, 'video_review': 340, 'favorites': 12536, 'mid': 37648256, 'author': '吕立青_JimmyLv', 'description': '1. ChatGPT 插件市场 🤯\n2. 具体 9 个插件案例的应用场景\n3. 真正的大招！ GPT 自行开发插件\n\n往期视频：\nChatGPT “最强打工人” 7x24 随时待命（编程 + 阅读篇）\nChatGPT “最强打工人2” 7x24 随时待命（笔记+写作篇）\n【BiliGPT】AI 自动总结 B站 视频内容，GPT-3 智能提取并总结字幕\n【BibiGPT】AI 自动总结 YouTub 视频 · 一大波更新！Notion 账号登录，书签快捷跳转，智能时间戳，油管英文内容也可以一键总结！\n【一键', 'create': '2023-03-24 16:17', 'pic': 'http://i1.hdslb.com/bfs/archive/7fb31ac7c9e0ef74663f244c4d1b1c84500c230d.jpg', 'coins': 2763, 'duration': '11:18', 'badgepay': False, 'pts': 677371, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353994461', 'bvid': 'BV1XX4y1d7yb', 'typename': '软件应用', 'title': '谷歌也交卷了，这次为啥成了差生？【差评君】', 'subtitle': '', 'play': 272373, 'review': 1269, 'video_review': 675, 'favorites': 2301, 'mid': 19319172, 'author': '差评君', 'description': '前天晚上，谷歌的Bard也内测了，我们又双叒在第一时间申请到了资格，做一个试用的视频评价一下。但试完Bard之后，我总有一点一言难尽的感觉......', 'create': '2023-03-23 21:05', 'pic': 'http://i2.hdslb.com/bfs/archive/1436306f6407bed85839e4dfdbf8885606e7bfea.jpg', 'coins': 1501, 'duration': '4:53', 'badgepay': False, 'pts': 558162, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951281189', 'bvid': 'BV1hs4y1p7Jr', 'typename': '软件应用', 'title': '免费，国内可用ChatGPT:v1.1更新', 'subtitle': '', 'play': 155401, 'review': 26, 'video_review': 0, 'favorites': 10948, 'mid': 32912435, 'author': '话痨没话聊', 'description': '版本:V1.1.0\nai.usesless.com\n�🎉🎉版本更新1.1🎉🎉🎉\n1️⃣ 重构UI界面，根据tag或者搜索名称查询prompt\n2️⃣ 导出对话图片\n3️⃣ 单轮对话功能\n4️⃣ 调整chatgpt-api设置openapi请求的配置参数\n5️⃣ 修复暗黑模式，样式问题\n6️⃣ 清除所有会话\n\n🎨🎨🎨下个版本🎨🎨🎨\n1.增加语音\n\n🎉🎊🎈🎉🎊🎈🎉🎊🎈🎉🎊🎈\n长期维护，欢迎加入👏🏻👏🏻👏🏻👏🏻👏🏻👏🏻\n群QQ:759809630\n微信公众号：【小莓用AI】\n微信也有群，可以从公众号进入。', 'create': '2023-03-21 23:42', 'pic': 'http://i2.hdslb.com/bfs/archive/f87ca3404e9f7c4cba1d9685cd31931e26560b6c.jpg', 'coins': 3252, 'duration': '3:25', 'badgepay': False, 'pts': 549816, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908808366', 'bvid': 'BV1eM4y167Ge', 'typename': '软件应用', 'title': '【男生必备】⚡4个离谱的黑科技工具！错过一个都不行⚡', 'subtitle': '', 'play': 156593, 'review': 141, 'video_review': 141, 'favorites': 9365, 'mid': 1267785345, 'author': '一定有用', 'description': '求点赞 求三连~\n1、AI 合集网站\n2、省钱玩家\n3、99加速器\n4、宇宙百宝箱', 'create': '2023-03-21 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/f9b9ff6212978bf8a12427eb1c09bce8cb432eaa.jpg', 'coins': 1639, 'duration': '2:53', 'badgepay': False, 'pts': 514013, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311360038', 'bvid': 'BV1pP411o71H', 'typename': '软件应用', 'title': 'GPT4给出的国内各月薪阶级的职业，与AI有关的职业居然排第一？', 'subtitle': '', 'play': 216951, 'review': 449, 'video_review': 272, 'favorites': 3163, 'mid': 92181175, 'author': 'chatgptplus订阅独享', 'description': '升级订阅Plus4.0，看主页！', 'create': '2023-03-21 11:37', 'pic': 'http://i2.hdslb.com/bfs/archive/53b640027160cfc8b1c76aeb0241c5eff48fc5b6.jpg', 'coins': 279, 'duration': '2:45', 'badgepay': False, 'pts': 461321, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611597423', 'bvid': 'BV1k84y1u7db', 'typename': '软件应用', 'title': '绝了！从未见过如此无敌的神器！效率直接拉满！', 'subtitle': '', 'play': 83039, 'review': 31, 'video_review': 5, 'favorites': 13867, 'mid': 486989780, 'author': '老麦的工具库', 'description': '', 'create': '2023-03-25 22:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0819a4dd9ac5c0e8fe5110ebeb8400b562324dd9.jpg', 'coins': 1851, 'duration': '0:31', 'badgepay': False, 'pts': 459435, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269123293', 'bvid': 'BV1vc411L7Hn', 'typename': '软件应用', 'title': 'OpenAI王炸四连｜ChatGPT实时联网+第三方插件开放平台', 'subtitle': '', 'play': 133681, 'review': 1005, 'video_review': 102, 'favorites': 6064, 'mid': 1845434732, 'author': '产品君', 'description': '🌈 这里是 AI 生产力第 Vol.032 期\n\n北京时间3月24日凌晨，OpenAI 发布 ChatGPT 王炸更新\n\nChatGPT 能通过 Web Browser 插件实时联网检索数据\nChatGPT 能通过\xa0Code interpreter 插件运行 Python 代码\nChatGPT 能通过\xa0Retrieval 插件\xa0访问内部数据\nChatGPT 发布了插件商店，开发者可以为 ChatGPT 开发插件\n\nChaGPT 正在开发 iOS 和 Android App，AI 入口价值进一步放大', 'create': '2023-03-24 22:59', 'pic': 'http://i2.hdslb.com/bfs/archive/546d1dc253642dc033a43447b1a966b1d505f058.jpg', 'coins': 702, 'duration': '1:33', 'badgepay': False, 'pts': 434965, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526400430', 'bvid': 'BV1pM411u7ky', 'typename': '软件应用', 'title': '微软彻底杀疯！GPT4代码生成工具GitHub Copilot X高能炸场', 'subtitle': '', 'play': 153414, 'review': 1091, 'video_review': 65, 'favorites': 2865, 'mid': 134452343, 'author': 'Microsoft资讯', 'description': 'GitHub Copilot X', 'create': '2023-03-23 22:17', 'pic': 'http://i0.hdslb.com/bfs/archive/8058b06304d5c95c23b5051510bafc1a4cc4f50a.jpg', 'coins': 200, 'duration': '2:13', 'badgepay': False, 'pts': 389495, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '441339502', 'bvid': 'BV1YL411r7SB', 'typename': '数码', 'title': '防臭小子计划第一课:教女儿装系统！', 'subtitle': '', 'play': 1175334, 'review': 5235, 'video_review': 3847, 'favorites': 22466, 'mid': 1284100140, 'author': '芊芊老猫的游戏空间', 'description': '开头是老猿的视频，我很爱听相声，所以这个只是调侃~~~不要当真~~~哈哈哈\n\nWINDOWS10 官网下载网址:  https://www.microsoft.com/zh-cn/software-download/windows10\n\n安装前准备大于8G的U盘一个。主板对应的引导快捷键不一样，也可以去BIOS里修改。或者搜索“主板型号+快捷键”，可以找到对应的。\n\n如果大家喜欢我们的视频，帮忙点个免费的赞就是对我们极大的支持，感谢观看！', 'create': '2023-03-21 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/a5fc832ab764c8d5d5619818e9d3f50134b2c690.jpg', 'coins': 8299, 'duration': '10:09', 'badgepay': False, 'pts': 2406409, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311376911', 'bvid': 'BV1qP411o79q', 'typename': '数码', 'title': '先到先得！3w闲置电脑吃灰出！统统0元购！', 'subtitle': '', 'play': 835556, 'review': 5557, 'video_review': 4646, 'favorites': 17546, 'mid': 178690106, 'author': '搞机所', 'description': '在你面前的这堆顶级电脑主机跟游戏本电脑\n都是我们要出的闲置吃灰产品\n今天不用学生价V我50\n也不用9.9元\n统统只需零元购\n顺丰包邮带回家', 'create': '2023-03-23 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/6326cc6f22189a12aec20bf57adb003fe8c6a913.jpg', 'coins': 40204, 'duration': '2:16', 'badgepay': False, 'pts': 2001743, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568854367', 'bvid': 'BV19v4y1V7od', 'typename': '数码', 'title': '给全网粉丝量超1亿的篮球团队做画质改造，差点难倒我们？', 'subtitle': '', 'play': 1343170, 'review': 2502, 'video_review': 2986, 'favorites': 11844, 'mid': 946974, 'author': '影视飓风', 'description': '这次我们来到了西安拜访了野球帝团队，首次尝试给体育运动场地做画质改造！除了灯光和手持设备，我们还准备了一点“小惊喜”！如果本期内容对你有帮助，请记得给我们一键三连！', 'create': '2023-03-20 20:37', 'pic': 'http://i2.hdslb.com/bfs/archive/1f6f0411fc869e3cbd1e4b92a312917b44c7ab7d.jpg', 'coins': 32884, 'duration': '11:33', 'badgepay': False, 'pts': 1942942, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781381275', 'bvid': 'BV1R24y1E7j1', 'typename': '数码', 'title': '「小泽」华为 P60 Pro 开箱：华为开始搞艺术了！', 'subtitle': '', 'play': 955943, 'review': 4544, 'video_review': 7244, 'favorites': 1385, 'mid': 25910292, 'author': '钟文泽', 'description': '', 'create': '2023-03-23 15:49', 'pic': 'http://i2.hdslb.com/bfs/archive/659b59bf9924833664bf1e12b51e74d976d1661e.jpg', 'coins': 1720, 'duration': '5:12', 'badgepay': False, 'pts': 1542346, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568939324', 'bvid': 'BV13v4y157TH', 'typename': '数码', 'title': '「科技美学开箱」华为 P60 Pro/P60 Art开箱体验 | 独一无二的洛可可白  XMAGE影像系统 北斗卫星加持', 'subtitle': '', 'play': 735070, 'review': 3995, 'video_review': 9755, 'favorites': 1256, 'mid': 3766866, 'author': '科技美学', 'description': '「科技美学开箱」首发！华为 P60 Pro/P60 Art开箱体验 | 独一无二的洛可可白\xa0XMAGE影像系统 北斗卫星加持', 'create': '2023-03-23 15:43', 'pic': 'http://i1.hdslb.com/bfs/archive/6b939b565ddd6381fef762d7522e96eb58661c96.jpg', 'coins': 1946, 'duration': '12:51', 'badgepay': False, 'pts': 1354022, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696279771', 'bvid': 'BV1km4y1r7A5', 'typename': '数码', 'title': '联想拯救者Y9000P 2023/至尊版详细评测：新LOGO+新配置', 'subtitle': '', 'play': 687831, 'review': 4221, 'video_review': 4059, 'favorites': 3584, 'mid': 367877, 'author': '笔吧评测室', 'description': '欢迎收看本期视频！\n联想刚发布了最新的拯救者Y9000P/Y9000P至尊版，我们也第一时间拿到了这两台电脑。\n作为每年的必测机型，大家对这两款产品的期待值那绝对是拉满了。\n新产品换了logo，全面升级到了13代处理器+RTX40系显卡，性能释放也更加激进。\n那么这台电脑的实际表现如何？看完本期视频，相信你能找到答案！', 'create': '2023-03-21 21:47', 'pic': 'http://i0.hdslb.com/bfs/archive/d142fb593b4724c2d1048b02124c610d5f084ff6.jpg', 'coins': 9377, 'duration': '19:55', 'badgepay': False, 'pts': 1307305, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611419348', 'bvid': 'BV1884y137fk', 'typename': '数码', 'title': '500元吃鸡电脑 给孩子戒网瘾  送灭火器', 'subtitle': '', 'play': 980576, 'review': 1264, 'video_review': 1173, 'favorites': 6581, 'mid': 3493258445458120, 'author': 'DIY二手电脑', 'description': '-', 'create': '2023-03-23 19:19', 'pic': 'http://i1.hdslb.com/bfs/archive/941210c598932e9a489f666fcbf42342036a8fb8.jpg', 'coins': 1593, 'duration': '4:48', 'badgepay': False, 'pts': 1283393, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781576161', 'bvid': 'BV1524y177YC', 'typename': '数码', 'title': '自制全屋水冷！10台电脑爆改别墅散热！绿色高效热管理！【科技达】', 'subtitle': '', 'play': 496998, 'review': 1317, 'video_review': 2282, 'favorites': 9612, 'mid': 691415738, 'author': '苏打baka', 'description': '*目前此系统只是雏形测试状态 还需要有很多细节修复*\n**但目前此套方案已经实现了集中散热or室内噪音削减**\n***分水器在制作时有误差 仅实现了设计通水量的一半左右***\nQ:冬季零下如何防止系统结冰\nA:冬季室外部分需要换防冻液或者新加一层换热器（参考分体承压太阳能）\nQ:系统整体调配如何来\nA:目前是半自动化 智能家居负责定时开启循环泵 目前正在做温控智能\nQ:整体成本如何\nA:PPR管材便宜全屋可能不到1K 主要工时费力 另外PC端冷头才是主要费钱之处 纯铜循环泵较贵\n\n↓配置表↓\nCPU：13', 'create': '2023-03-25 12:16', 'pic': 'http://i2.hdslb.com/bfs/archive/91446082a05f8a484d981d9d9f55e3a0138cc012.jpg', 'coins': 48080, 'duration': '9:31', 'badgepay': False, 'pts': 1119847, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823884547', 'bvid': 'BV1kg4y1x7rb', 'typename': '数码', 'title': '「小白」华为P60 Pro/Art体验：每一台白色都不同！', 'subtitle': '', 'play': 600567, 'review': 3564, 'video_review': 7432, 'favorites': 1121, 'mid': 8969156, 'author': '小白测评', 'description': '关注微信公众号：小白测评 每晚发车不见不散', 'create': '2023-03-23 15:30', 'pic': 'http://i1.hdslb.com/bfs/archive/cf6ebb655008c6e72b1fc3bd069b403d06c24f0a.jpg', 'coins': 1804, 'duration': '6:52', 'badgepay': False, 'pts': 1119701, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866504242', 'bvid': 'BV1JV4y1X74D', 'typename': '数码', 'title': '王思聪服务器再次升级 【王思聪网络改造第四期】', 'subtitle': '', 'play': 729704, 'review': 1601, 'video_review': 2926, 'favorites': 2979, 'mid': 477782158, 'author': '电丸科技AK', 'description': '', 'create': '2023-03-26 02:48', 'pic': 'http://i2.hdslb.com/bfs/archive/7349c663a37bb8cbac051c8eb424cfe04389979f.jpg', 'coins': 2225, 'duration': '15:27', 'badgepay': False, 'pts': 1022269, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1909365</v>
+        <v>8540749</v>
       </c>
       <c r="I50" t="n">
-        <v>39543</v>
+        <v>148132</v>
       </c>
       <c r="J50" t="n">
-        <v>104608</v>
+        <v>78374</v>
       </c>
       <c r="K50" t="n">
-        <v>17531</v>
+        <v>38808</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>计算机技术</t>
+          <t>软件应用</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>computer_tech</t>
+          <t>application</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>研究分析、教学演示、经验分享......有关计算机技术的都在这里</t>
+          <t>超全软件应用指南</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>/v/tech/computer_tech(opens new window)</t>
+          <t>/v/tech/application(opens new window)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>科技(主分区)</t>
+          <t>科技</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[{'aid': '824116026', 'bvid': 'BV1Wg4y1s7vD', 'typename': '计算机技术', 'title': '用 Python 来实现原神中的抽卡（老婆', 'subtitle': '', 'play': 354099, 'review': 1016, 'video_review': 1472, 'favorites': 8755, 'mid': 319521269, 'author': '英雄哪里出来', 'description': '啊哈哈哈哈哈哈哈！这次我会更新什么呢？上一个视频我简单做了一个投票，想看什么类型的视频呀？\n除了算法教程比较拉胯以外（不到1万），原神的支持者有 3.1 万，Python的支持者有 4.5 万，所以今天的的内容我想出了一个全新的方式，就是用 Python 和 C语言来实现原神中的一些算法，这样就可以兼顾所有人啦！主要包括以下几个内容：\n1、无限的路的原理（涉及知识点：状态机）\n2、自动登录的原理（涉及知识点：网络编程）\n3、原神的抽卡实现（涉及知识点：概率论）\n4、香菱火圈的实现（涉及知识点：三角函数）\n', 'create': '2023-03-25 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/280bd4709b02500b56c96dcc3cb87c6112fb8459.jpg', 'coins': 5491, 'duration': '14:10', 'badgepay': False, 'pts': 870578, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439056210', 'bvid': 'BV1AL411R7ZR', 'typename': '计算机技术', 'title': '【黑科技】任何人都可以白嫖最强AI！！！', 'subtitle': '', 'play': 229512, 'review': 708, 'video_review': 62, 'favorites': 13880, 'mid': 82363089, 'author': '小宇Boi', 'description': 'https://www.wolai.com/xiaoyuboi/wMPpQnrPEuCsAu1QLEPZDW\n如果视频对你有帮助记得点赞投币+关注～\n我是小宇Boi，我们下期再见～\n公众号：小宇Boi\nYouTube：小宇Boi', 'create': '2023-03-25 12:04', 'pic': 'http://i1.hdslb.com/bfs/archive/f4cf86f516a3419bb56a4d7f4dcbd9628b32411a.jpg', 'coins': 3707, 'duration': '1:57', 'badgepay': False, 'pts': 776275, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696340324', 'bvid': 'BV1fm4y1r7E6', 'typename': '计算机技术', 'title': '当我把B站所有分区热门视频的播放量和投币数画到同一张图上', 'subtitle': '', 'play': 373532, 'review': 2013, 'video_review': 1786, 'favorites': 2986, 'mid': 245645656, 'author': '码农高天', 'description': '你了解B站的分区么？你知道哪个分区承载了B站最多的播放量么？如果你是个up主，你应该在哪个分区努力呢？', 'create': '2023-03-20 18:30', 'pic': 'http://i0.hdslb.com/bfs/archive/4b414033f3959601a8e6c5f90c8d2ac8f69985e7.jpg', 'coins': 2921, 'duration': '4:45', 'badgepay': False, 'pts': 740339, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781311195', 'bvid': 'BV1Y24y1E7sj', 'typename': '计算机技术', 'title': '【4K中字】GTC2023英伟达CEO黄仁勋主题演讲：AI、加速计算及其他领域的突破性进展 | 来源：NVIDIA', 'subtitle': '', 'play': 176429, 'review': 1378, 'video_review': 765, 'favorites': 5653, 'mid': 33114953, 'author': 'KG-Area21', 'description': 'https://youtu.be/DiGB5uAYKAg\nGTC 2023 Keynote with NVIDIA CEO Jensen Huang\n来源：NVIDIA\nWatch NVIDIA CEO Jensen Huang unveil a host of accelerated computing breakthroughs -- from AI training to deployment, semiconductors to software libraries, systems to clo', 'create': '2023-03-22 02:11', 'pic': 'http://i2.hdslb.com/bfs/archive/302b2c068d260fec96a2e15c9aa5b32ed4f9b16a.jpg', 'coins': 969, 'duration': '78:22', 'badgepay': False, 'pts': 519013, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909087307', 'bvid': 'BV1bM4y1z7Av', 'typename': '计算机技术', 'title': '用ChatGPT三分钟做好PPT', 'subtitle': '', 'play': 98394, 'review': 138, 'video_review': 13, 'favorites': 12661, 'mid': 580650, 'author': '程序员卡诺', 'description': '', 'create': '2023-03-24 08:00', 'pic': 'http://i0.hdslb.com/bfs/archive/207fb7d641a98ec70331940cbc5b37496243cd0e.jpg', 'coins': 2402, 'duration': '2:33', 'badgepay': False, 'pts': 462805, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438755725', 'bvid': 'BV1VL411d7NF', 'typename': '计算机技术', 'title': '科学研究的又一个新范式正在开启。简约的物理公式优雅迷人，用强化学习来寻找最能符合数据规律的符号组合。不过并非首创，只是方法优化后，提高了效率。期待第一个新物理规', 'subtitle': '', 'play': 208804, 'review': 551, 'video_review': 138, 'favorites': 4009, 'mid': 503558013, 'author': '卢菁老师_北大AI博士后', 'description': '科学研究的又一个新范式正在开启。简约的物理公式优雅迷人，用强化学习来寻找最能符合数据规律的符号组合。不过并非首创，只是方法优化后，提高了效率。期待第一个新物理规律按此方法发现', 'create': '2023-03-20 15:09', 'pic': 'http://i1.hdslb.com/bfs/archive/6a3ea1dbf4d9fe99d53d66c3fca0a668ca029cb6.jpg', 'coins': 816, 'duration': '1:37', 'badgepay': False, 'pts': 441695, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268999126', 'bvid': 'BV1Tc411L7UA', 'typename': '计算机技术', 'title': '黄仁勋与OpenAI首席科学家Ilya Sutskever的炉边谈话 4K 中文字幕', 'subtitle': '', 'play': 138720, 'review': 534, 'video_review': 637, 'favorites': 6250, 'mid': 1628263351, 'author': '三维互联网', 'description': '视频地址：https://www.nvidia.cn/gtc-global/\n本视频完整版文字纪要可以访问：https://www.yuque.com/3dinternet/gpt/gtc2，或者“3D互联网”微信公众号', 'create': '2023-03-23 12:25', 'pic': 'http://i2.hdslb.com/bfs/archive/935d665c0492099d0b77f951b68ba9fcd29d723d.jpg', 'coins': 909, 'duration': '53:04', 'badgepay': False, 'pts': 433491, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781409456', 'bvid': 'BV1A24y1J76c', 'typename': '计算机技术', 'title': '昨夜太卷了！Ai领域又要变天了！gen-2发布！输入文本直接生成视频！', 'subtitle': '', 'play': 161383, 'review': 605, 'video_review': 45, 'favorites': 4295, 'mid': 282178242, 'author': 'bxtong桐', 'description': 'AI创作视频新突破！', 'create': '2023-03-22 12:24', 'pic': 'http://i2.hdslb.com/bfs/archive/d83164002f4559190f2de5d3957ee9ff5730a277.jpg', 'coins': 330, 'duration': '1:15', 'badgepay': False, 'pts': 414742, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993756518', 'bvid': 'BV1wx4y1N7GN', 'typename': '计算机技术', 'title': '又火一个ChatGPT软件，完全免费！但问题也很明显', 'subtitle': '', 'play': 134044, 'review': 374, 'video_review': 326, 'favorites': 7416, 'mid': 12890453, 'author': '程序员鱼皮', 'description': '新出的免费 ChatGPT 软件大家用了么？程序员来给大家做一波简单的评测体验\n软件：https://www.cursor.so/（是完全免费的！）', 'create': '2023-03-20 18:38', 'pic': 'http://i1.hdslb.com/bfs/archive/6dd14212c31d0c6ac59312e31ef350d06155135f.jpg', 'coins': 1513, 'duration': '10:58', 'badgepay': False, 'pts': 405304, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226296095', 'bvid': 'BV1Sb411d79G', 'typename': '计算机技术', 'title': '英伟达GTC23短片《我是AI》完整版，由人工智能完成短片脚本和乐谱。#英伟达 #GTC23 #人工智能 #AI', 'subtitle': '', 'play': 147735, 'review': 1197, 'video_review': 233, 'favorites': 3021, 'mid': 24692157, 'author': '科技捕手', 'description': '-', 'create': '2023-03-22 01:28', 'pic': 'http://i1.hdslb.com/bfs/archive/7eb36a608e666087985421247cf6172143b61031.jpg', 'coins': 761, 'duration': '2:50', 'badgepay': False, 'pts': 391845, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '269022254', 'bvid': 'BV1Nc411L76A', 'typename': '软件应用', 'title': '可能是全网最强手机远程控制？用过才知道有多流畅...', 'subtitle': '', 'play': 357638, 'review': 1006, 'video_review': 191, 'favorites': 28665, 'mid': 251013709, 'author': '晨钟酱Official', 'description': '不同于电脑远程控制电脑的软件，手机控制手机的App大部分都不太好用，特别是滑动操作的延迟都比较高，只能说偶尔用一下还是没太大问题的，不适合长时使用。而我的这套方案不仅整个画面非常清晰流畅，延迟也比较的低，如同操作真机一般，同时还支持锁屏唤醒，且不需要无障碍或ROOT权限，这是怎么做到的？', 'create': '2023-03-24 17:45', 'pic': 'http://i0.hdslb.com/bfs/archive/2d0a77920274edd118c12ab91001e5ed15316f8e.jpg', 'coins': 10887, 'duration': '4:05', 'badgepay': False, 'pts': 1336467, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696613119', 'bvid': 'BV1km4y167PY', 'typename': '软件应用', 'title': '耗时两天半，给你们做了个免费/干净的资源小程序！给b站顺便也做了个', 'subtitle': '', 'play': 238575, 'review': 349, 'video_review': 545, 'favorites': 17493, 'mid': 383814461, 'author': '一网一匠', 'description': '去年11月给大家做了个资源网站：一网一匠极速版，当时的想法也很简单，就是为了你们更方便的白嫖，但是这几个月时间被疯狂攻击，好就好在已经完全解决了。\n\n今天这期视频就来给各位股东老爷做个汇报，并且给你们准备了个惊喜。\n\n如果可以的话，点赞收藏投币支持一波。', 'create': '2023-03-25 12:05', 'pic': 'http://i1.hdslb.com/bfs/archive/b06bd5612194e882f4592fefa8552cb1aece63da.jpg', 'coins': 18517, 'duration': '5:10', 'badgepay': False, 'pts': 864130, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739034126', 'bvid': 'BV1Sk4y1x7r2', 'typename': '软件应用', 'title': '【ChatGPT Plugins】史诗级更新，9 个插件实例自动完成任务！打开你的想象力，创造未来吧', 'subtitle': '', 'play': 189210, 'review': 1055, 'video_review': 361, 'favorites': 13504, 'mid': 37648256, 'author': '吕立青_JimmyLv', 'description': '1. ChatGPT 插件市场 🤯\n2. 具体 9 个插件案例的应用场景\n3. 真正的大招！ GPT 自行开发插件\n\n往期视频：\nChatGPT “最强打工人” 7x24 随时待命（编程 + 阅读篇）\nChatGPT “最强打工人2” 7x24 随时待命（笔记+写作篇）\n【BiliGPT】AI 自动总结 B站 视频内容，GPT-3 智能提取并总结字幕\n【BibiGPT】AI 自动总结 YouTub 视频 · 一大波更新！Notion 账号登录，书签快捷跳转，智能时间戳，油管英文内容也可以一键总结！\n【一键', 'create': '2023-03-24 16:17', 'pic': 'http://i1.hdslb.com/bfs/archive/7fb31ac7c9e0ef74663f244c4d1b1c84500c230d.jpg', 'coins': 2962, 'duration': '11:18', 'badgepay': False, 'pts': 724111, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353994461', 'bvid': 'BV1XX4y1d7yb', 'typename': '软件应用', 'title': '谷歌也交卷了，这次为啥成了差生？【差评君】', 'subtitle': '', 'play': 281421, 'review': 1293, 'video_review': 685, 'favorites': 2361, 'mid': 19319172, 'author': '差评君', 'description': '前天晚上，谷歌的Bard也内测了，我们又双叒在第一时间申请到了资格，做一个试用的视频评价一下。但试完Bard之后，我总有一点一言难尽的感觉......', 'create': '2023-03-23 21:05', 'pic': 'http://i2.hdslb.com/bfs/archive/1436306f6407bed85839e4dfdbf8885606e7bfea.jpg', 'coins': 1546, 'duration': '4:53', 'badgepay': False, 'pts': 572037, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951281189', 'bvid': 'BV1hs4y1p7Jr', 'typename': '软件应用', 'title': '免费，国内可用ChatGPT:v1.1更新', 'subtitle': '', 'play': 162087, 'review': 26, 'video_review': 0, 'favorites': 11298, 'mid': 32912435, 'author': '话痨没话聊', 'description': '版本:V1.1.0\nai.usesless.com\n�🎉🎉版本更新1.1🎉🎉🎉\n1️⃣ 重构UI界面，根据tag或者搜索名称查询prompt\n2️⃣ 导出对话图片\n3️⃣ 单轮对话功能\n4️⃣ 调整chatgpt-api设置openapi请求的配置参数\n5️⃣ 修复暗黑模式，样式问题\n6️⃣ 清除所有会话\n\n🎨🎨🎨下个版本🎨🎨🎨\n1.增加语音\n\n🎉🎊🎈🎉🎊🎈🎉🎊🎈🎉🎊🎈\n长期维护，欢迎加入👏🏻👏🏻👏🏻👏🏻👏🏻👏🏻\n群QQ:759809630\n微信公众号：【小莓用AI】\n微信也有群，可以从公众号进入。', 'create': '2023-03-21 23:42', 'pic': 'http://i2.hdslb.com/bfs/archive/f87ca3404e9f7c4cba1d9685cd31931e26560b6c.jpg', 'coins': 3327, 'duration': '3:25', 'badgepay': False, 'pts': 569508, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908808366', 'bvid': 'BV1eM4y167Ge', 'typename': '软件应用', 'title': '【男生必备】⚡4个离谱的黑科技工具！错过一个都不行⚡', 'subtitle': '', 'play': 170421, 'review': 156, 'video_review': 142, 'favorites': 10089, 'mid': 1267785345, 'author': '一定有用', 'description': '求点赞 求三连~\n1、AI 合集网站\n2、省钱玩家\n3、99加速器\n4、宇宙百宝箱', 'create': '2023-03-21 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/f9b9ff6212978bf8a12427eb1c09bce8cb432eaa.jpg', 'coins': 1759, 'duration': '2:53', 'badgepay': False, 'pts': 539733, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653903542', 'bvid': 'BV1kY4y1D7zN', 'typename': '软件应用', 'title': '暴风雨来袭！AI全面进军短视频行业！', 'subtitle': '', 'play': 205028, 'review': 315, 'video_review': 42, 'favorites': 14887, 'mid': 486989780, 'author': '老麦的工具库', 'description': '', 'create': '2023-03-24 06:00', 'pic': 'http://i1.hdslb.com/bfs/archive/916c70cecbb8cb900441a860374d6da23de4d616.jpg', 'coins': 2529, 'duration': '1:11', 'badgepay': False, 'pts': 463182, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269123293', 'bvid': 'BV1vc411L7Hn', 'typename': '软件应用', 'title': 'OpenAI王炸四连｜ChatGPT实时联网+第三方插件开放平台', 'subtitle': '', 'play': 142248, 'review': 1097, 'video_review': 104, 'favorites': 6436, 'mid': 1845434732, 'author': '产品君', 'description': '🌈 这里是 AI 生产力第 Vol.032 期\n\n北京时间3月24日凌晨，OpenAI 发布 ChatGPT 王炸更新\n\nChatGPT 能通过 Web Browser 插件实时联网检索数据\nChatGPT 能通过\xa0Code interpreter 插件运行 Python 代码\nChatGPT 能通过\xa0Retrieval 插件\xa0访问内部数据\nChatGPT 发布了插件商店，开发者可以为 ChatGPT 开发插件\n\nChaGPT 正在开发 iOS 和 Android App，AI 入口价值进一步放大', 'create': '2023-03-24 22:59', 'pic': 'http://i2.hdslb.com/bfs/archive/546d1dc253642dc033a43447b1a966b1d505f058.jpg', 'coins': 765, 'duration': '1:33', 'badgepay': False, 'pts': 462863, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311360038', 'bvid': 'BV1pP411o71H', 'typename': '软件应用', 'title': 'GPT4给出的国内各月薪阶级的职业，与AI有关的职业居然排第一？', 'subtitle': '', 'play': 217054, 'review': 449, 'video_review': 272, 'favorites': 3165, 'mid': 92181175, 'author': 'chatgptplus订阅独享', 'description': '升级订阅Plus4.0，看主页！', 'create': '2023-03-21 11:37', 'pic': 'http://i2.hdslb.com/bfs/archive/53b640027160cfc8b1c76aeb0241c5eff48fc5b6.jpg', 'coins': 280, 'duration': '2:45', 'badgepay': False, 'pts': 461474, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739113522', 'bvid': 'BV1Vk4y147rN', 'typename': '软件应用', 'title': 'ChatGPT-4“活了”！？！西部世界真的来了？', 'subtitle': '', 'play': 143822, 'review': 1516, 'video_review': 591, 'favorites': 3122, 'mid': 1561020922, 'author': '白乌鸦密园', 'description': '今天为大家更新一个和Puzzel无关，但同样有趣的东西\n是我与GPT的一段对话，让我非常震惊，或许它真的活了\n视频里可能有代码样式的东西，但和代码真的没关系，希望来着都能看到5:00\n你们绝对不会失望的！！！', 'create': '2023-03-25 11:33', 'pic': 'http://i0.hdslb.com/bfs/archive/73026ad4985c1d3a784e97f61dd0203115c80f3a.jpg', 'coins': 1817, 'duration': '8:12', 'badgepay': False, 'pts': 409528, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2022652</v>
+        <v>2107504</v>
       </c>
       <c r="I51" t="n">
-        <v>19819</v>
+        <v>44389</v>
       </c>
       <c r="J51" t="n">
-        <v>68926</v>
+        <v>111020</v>
       </c>
       <c r="K51" t="n">
-        <v>18416</v>
+        <v>17531</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">科工机械 </t>
+          <t>计算机技术</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>computer_tech</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>前方高能，机甲重工即将出没</t>
+          <t>研究分析、教学演示、经验分享......有关计算机技术的都在这里</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>/v/tech/industry(opens new window)</t>
+          <t>/v/tech/computer_tech(opens new window)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>科技(主分区)</t>
+          <t>科技</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[{'aid': '439086508', 'bvid': 'BV13L411R7CU', 'typename': '科工机械', 'title': '"啊!我关错发动机了!"详解复兴航空235号班机空难', 'subtitle': '', 'play': 833554, 'review': 1320, 'video_review': 1652, 'favorites': 8082, 'mid': 178960010, 'author': '飞行砖家王机长', 'description': '视频素材源自空中浩劫 原创文案\n向所有遇难者哀悼', 'create': '2023-03-25 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/843c6e5525123cf09223af072343078b229468f9.jpg', 'coins': 31236, 'duration': '5:39', 'badgepay': False, 'pts': 1551781, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781288965', 'bvid': 'BV1q24y1E79K', 'typename': '科工机械', 'title': '太危险了！家里电器外壳带电180多伏。大家可以测一下自己家里，排除隐患。', 'subtitle': '', 'play': 989194, 'review': 1248, 'video_review': 1613, 'favorites': 5999, 'mid': 1985127693, 'author': '城阳电工电路', 'description': '-', 'create': '2023-03-20 19:16', 'pic': 'http://i0.hdslb.com/bfs/archive/d9b5bf7680c32b42a5625d0234b0ec1225c25e28.jpg', 'coins': 3812, 'duration': '10:39', 'badgepay': False, 'pts': 1304486, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226310424', 'bvid': 'BV1Xb411d7dy', 'typename': '科工机械', 'title': '网传一小伙手搓飞机驾驶舱然后驾驶它遨游蓝天', 'subtitle': '', 'play': 413354, 'review': 727, 'video_review': 624, 'favorites': 7086, 'mid': 522860262, 'author': '轩_快出来飞飞机', 'description': '设备简介：视频飞机 fms fox 3000mm 图传设备 使用dji o3天空端 ；飞行座舱自制 有需要请私信我哟', 'create': '2023-03-22 03:29', 'pic': 'http://i0.hdslb.com/bfs/archive/daa30e713bb84f3f37c8cb4341d989e12d85e8bf.jpg', 'coins': 6054, 'duration': '2:34', 'badgepay': False, 'pts': 911307, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696460929', 'bvid': 'BV1mm4y1k7Ns', 'typename': '科工机械', 'title': '试飞员谈初见歼10：“这飞机，能飞起来吗？”', 'subtitle': '', 'play': 456959, 'review': 1234, 'video_review': 1755, 'favorites': 2968, 'mid': 20165629, 'author': '共青团中央', 'description': '制作：看航空融媒体工作室\n1998年3月23日，当歼10完成首飞、安全降落在跑道上，人群沸腾了。走出飞机驾驶舱的试飞员雷强没想到自己会落泪——首飞太顺利了，顺利得好像是与老友久别重逢，仿佛他此前曾无数次驾驶着“猛龙”翱翔天际……但当歼10总设计师宋文骢将鲜花送上，拥抱着他说：“小雷啊，谢谢你！”雷强再也控制不住自己的泪水。\n凭借着我们自己的力量，中国人实现了从二代机到三代机的历史性跨越！', 'create': '2023-03-23 15:09', 'pic': 'http://i2.hdslb.com/bfs/archive/a962dcc1b51638c78c6783e69c4e2f33800d41d3.jpg', 'coins': 4819, 'duration': '8:59', 'badgepay': False, 'pts': 907944, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441281373', 'bvid': 'BV1jL411r7uG', 'typename': '科工机械', 'title': '有光就有电！中国成功研发高强度“发电玻璃”', 'subtitle': '', 'play': 391950, 'review': 2778, 'video_review': 1169, 'favorites': 3058, 'mid': 222103174, 'author': '央视网', 'description': '一块约2m²玻璃，年发电量能达到270度，仅两三块可满足一家人全年用电。什么玻璃能这么神奇？', 'create': '2023-03-21 16:30', 'pic': 'http://i0.hdslb.com/bfs/archive/c7be80c9a728574d5a437494d372334fdf5193bb.jpg', 'coins': 1124, 'duration': '1:54', 'badgepay': False, 'pts': 836660, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739048086', 'bvid': 'BV19k4y1x7ut', 'typename': '科工机械', 'title': '【4K实弹射击】改造世界上最经典的手枪——春田双排9毫米1911', 'subtitle': '', 'play': 257509, 'review': 406, 'video_review': 358, 'favorites': 3992, 'mid': 1437101448, 'author': 'JaegerZ999官方账号', 'description': '本账号是国内目前唯一的官方账号，将会和油管同步更新。其余平台一律为冒充或未授权转载。', 'create': '2023-03-25 21:59', 'pic': 'http://i2.hdslb.com/bfs/archive/65a05e92654d1bd54194f8e616438c2da96a91de.jpg', 'coins': 559, 'duration': '0:26', 'badgepay': False, 'pts': 568228, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653962426', 'bvid': 'BV1uY4y1Q76W', 'typename': '科工机械', 'title': '【科技的力量】没有人能拒绝这种视频', 'subtitle': '', 'play': 219437, 'review': 136, 'video_review': 326, 'favorites': 1997, 'mid': 1467388271, 'author': '宇宙視覺', 'description': 'UP业余科技爱好者，有错误的地方还烦请专业人士弹幕评论指导！', 'create': '2023-03-22 17:45', 'pic': 'http://i2.hdslb.com/bfs/archive/7b17d24733352fd1be2cd100301aa24f47ba9f2d.jpg', 'coins': 379, 'duration': '8:04', 'badgepay': False, 'pts': 375485, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226383746', 'bvid': 'BV1Kb411o7ai', 'typename': '科工机械', 'title': '单片机的上拉电阻 到底在拉什么？', 'subtitle': '', 'play': 79913, 'review': 167, 'video_review': 52, 'favorites': 3143, 'mid': 43584648, 'author': '工科男孙老师', 'description': '暂无。', 'create': '2023-03-22 20:53', 'pic': 'http://i2.hdslb.com/bfs/archive/e86eede4c5fa1568e57c6ea6a2217cc591e87fca.jpg', 'coins': 1608, 'duration': '4:27', 'badgepay': False, 'pts': 224303, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526450994', 'bvid': 'BV16M411u7w7', 'typename': '科工机械', 'title': '拆解维修一台1960年代苏联IMP航天机械导航计算机', 'subtitle': '', 'play': 135132, 'review': 272, 'video_review': 88, 'favorites': 1195, 'mid': 3493144417012358, 'author': '刘学VV', 'description': '', 'create': '2023-03-23 11:12', 'pic': 'http://i2.hdslb.com/bfs/archive/e62f2efba81e94752848bed79e507d02e5b61703.jpg', 'coins': 92, 'duration': '2:05', 'badgepay': False, 'pts': 214014, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226586381', 'bvid': 'BV16h411G7BZ', 'typename': '科工机械', 'title': '徐直军：华为完成14nm以上EDA工具国产化，仍面临艰巨挑战，需加倍努力', 'subtitle': '', 'play': 98679, 'review': 994, 'video_review': 108, 'favorites': 227, 'mid': 196787, 'author': '冬白苍术', 'description': '《财经》新媒体\n搜了一下好像没人发，我来蹭个流量', 'create': '2023-03-24 14:52', 'pic': 'http://i0.hdslb.com/bfs/archive/10b86592a331c43d6f8c494a2153a7100de2484b.jpg', 'coins': 69, 'duration': '1:35', 'badgepay': False, 'pts': 206260, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '909087307', 'bvid': 'BV1bM4y1z7Av', 'typename': '计算机技术', 'title': '用ChatGPT三分钟做好PPT', 'subtitle': '', 'play': 229335, 'review': 279, 'video_review': 42, 'favorites': 24238, 'mid': 580650, 'author': '程序员卡诺', 'description': '', 'create': '2023-03-24 08:00', 'pic': 'http://i0.hdslb.com/bfs/archive/207fb7d641a98ec70331940cbc5b37496243cd0e.jpg', 'coins': 4829, 'duration': '2:33', 'badgepay': False, 'pts': 974895, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824116026', 'bvid': 'BV1Wg4y1s7vD', 'typename': '计算机技术', 'title': '用Python实现原神中算法', 'subtitle': '', 'play': 362077, 'review': 1077, 'video_review': 1493, 'favorites': 8905, 'mid': 319521269, 'author': '英雄哪里出来', 'description': '啊哈哈哈哈哈哈哈！这次我会更新什么呢？上一个视频我简单做了一个投票，想看什么类型的视频呀？\n除了算法教程比较拉胯以外（不到1万），原神的支持者有 3.1 万，Python的支持者有 4.5 万，所以今天的的内容我想出了一个全新的方式，就是用 Python 和 C语言来实现原神中的一些算法，这样就可以兼顾所有人啦！主要包括以下几个内容：\n1、无限的路的原理（涉及知识点：状态机）\n2、自动登录的原理（涉及知识点：网络编程）\n3、原神的抽卡实现（涉及知识点：概率论）\n4、香菱火圈的实现（涉及知识点：三角函数）\n', 'create': '2023-03-25 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/280bd4709b02500b56c96dcc3cb87c6112fb8459.jpg', 'coins': 5659, 'duration': '14:10', 'badgepay': False, 'pts': 889725, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439056210', 'bvid': 'BV1AL411R7ZR', 'typename': '计算机技术', 'title': '【黑科技】任何人都可以白嫖最强AI！！！', 'subtitle': '', 'play': 239155, 'review': 738, 'video_review': 64, 'favorites': 14326, 'mid': 82363089, 'author': '小宇Boi', 'description': 'https://www.wolai.com/xiaoyuboi/wMPpQnrPEuCsAu1QLEPZDW\n如果视频对你有帮助记得点赞投币+关注～\n我是小宇Boi，我们下期再见～\n公众号：小宇Boi\nYouTube：小宇Boi', 'create': '2023-03-25 12:04', 'pic': 'http://i1.hdslb.com/bfs/archive/f4cf86f516a3419bb56a4d7f4dcbd9628b32411a.jpg', 'coins': 3855, 'duration': '1:57', 'badgepay': False, 'pts': 804608, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696340324', 'bvid': 'BV1fm4y1r7E6', 'typename': '计算机技术', 'title': '当我把B站所有分区热门视频的播放量和投币数画到同一张图上', 'subtitle': '', 'play': 374803, 'review': 2021, 'video_review': 1790, 'favorites': 2997, 'mid': 245645656, 'author': '码农高天', 'description': '你了解B站的分区么？你知道哪个分区承载了B站最多的播放量么？如果你是个up主，你应该在哪个分区努力呢？', 'create': '2023-03-20 18:30', 'pic': 'http://i0.hdslb.com/bfs/archive/4b414033f3959601a8e6c5f90c8d2ac8f69985e7.jpg', 'coins': 2924, 'duration': '4:45', 'badgepay': False, 'pts': 742973, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781311195', 'bvid': 'BV1Y24y1E7sj', 'typename': '计算机技术', 'title': '【4K中字】GTC2023英伟达CEO黄仁勋主题演讲：AI、加速计算及其他领域的突破性进展 | 来源：NVIDIA', 'subtitle': '', 'play': 177964, 'review': 1390, 'video_review': 769, 'favorites': 5707, 'mid': 33114953, 'author': 'KG-Area21', 'description': 'https://youtu.be/DiGB5uAYKAg\nGTC 2023 Keynote with NVIDIA CEO Jensen Huang\n来源：NVIDIA\nWatch NVIDIA CEO Jensen Huang unveil a host of accelerated computing breakthroughs -- from AI training to deployment, semiconductors to software libraries, systems to clo', 'create': '2023-03-22 02:11', 'pic': 'http://i2.hdslb.com/bfs/archive/302b2c068d260fec96a2e15c9aa5b32ed4f9b16a.jpg', 'coins': 981, 'duration': '78:22', 'badgepay': False, 'pts': 523322, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526717427', 'bvid': 'BV1nM411M7LQ', 'typename': '计算机技术', 'title': '一位程序员使用了ChatGPT后，这是他大脑发生的变化', 'subtitle': '', 'play': 229275, 'review': 869, 'video_review': 355, 'favorites': 2534, 'mid': 933478, 'author': '超级小華', 'description': '纯属个人观点', 'create': '2023-03-26 18:32', 'pic': 'http://i1.hdslb.com/bfs/archive/266a8eb1feeecc91a36f4653af9940019eefb53f.jpg', 'coins': 994, 'duration': '4:50', 'badgepay': False, 'pts': 491207, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268999126', 'bvid': 'BV1Tc411L7UA', 'typename': '计算机技术', 'title': '黄仁勋与OpenAI首席科学家Ilya Sutskever的炉边谈话 4K 中文字幕', 'subtitle': '', 'play': 143632, 'review': 547, 'video_review': 656, 'favorites': 6462, 'mid': 1628263351, 'author': '三维互联网', 'description': '视频地址：https://www.nvidia.cn/gtc-global/\n本视频完整版文字纪要可以访问：https://www.yuque.com/3dinternet/gpt/gtc2，或者“3D互联网”微信公众号', 'create': '2023-03-23 12:25', 'pic': 'http://i2.hdslb.com/bfs/archive/935d665c0492099d0b77f951b68ba9fcd29d723d.jpg', 'coins': 936, 'duration': '53:04', 'badgepay': False, 'pts': 447539, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438755725', 'bvid': 'BV1VL411d7NF', 'typename': '计算机技术', 'title': '科学研究的又一个新范式正在开启。简约的物理公式优雅迷人，用强化学习来寻找最能符合数据规律的符号组合。不过并非首创，只是方法优化后，提高了效率。期待第一个新物理规', 'subtitle': '', 'play': 211101, 'review': 557, 'video_review': 139, 'favorites': 4047, 'mid': 503558013, 'author': '卢菁老师_北大AI博士后', 'description': '科学研究的又一个新范式正在开启。简约的物理公式优雅迷人，用强化学习来寻找最能符合数据规律的符号组合。不过并非首创，只是方法优化后，提高了效率。期待第一个新物理规律按此方法发现', 'create': '2023-03-20 15:09', 'pic': 'http://i1.hdslb.com/bfs/archive/6a3ea1dbf4d9fe99d53d66c3fca0a668ca029cb6.jpg', 'coins': 820, 'duration': '1:37', 'badgepay': False, 'pts': 447052, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781409456', 'bvid': 'BV1A24y1J76c', 'typename': '计算机技术', 'title': '昨夜太卷了！Ai领域又要变天了！gen-2发布！输入文本直接生成视频！', 'subtitle': '', 'play': 163547, 'review': 609, 'video_review': 45, 'favorites': 4356, 'mid': 282178242, 'author': 'bxtong桐', 'description': 'AI创作视频新突破！', 'create': '2023-03-22 12:24', 'pic': 'http://i2.hdslb.com/bfs/archive/d83164002f4559190f2de5d3957ee9ff5730a277.jpg', 'coins': 333, 'duration': '1:15', 'badgepay': False, 'pts': 420229, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993756518', 'bvid': 'BV1wx4y1N7GN', 'typename': '计算机技术', 'title': '又火一个ChatGPT软件，完全免费！但问题也很明显', 'subtitle': '', 'play': 137736, 'review': 392, 'video_review': 327, 'favorites': 7673, 'mid': 12890453, 'author': '程序员鱼皮', 'description': '新出的免费 ChatGPT 软件大家用了么？程序员来给大家做一波简单的评测体验\n软件：https://www.cursor.so/（是完全免费的！）', 'create': '2023-03-20 18:38', 'pic': 'http://i1.hdslb.com/bfs/archive/6dd14212c31d0c6ac59312e31ef350d06155135f.jpg', 'coins': 1562, 'duration': '10:58', 'badgepay': False, 'pts': 419233, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3875681</v>
+        <v>2268625</v>
       </c>
       <c r="I52" t="n">
-        <v>49752</v>
+        <v>22893</v>
       </c>
       <c r="J52" t="n">
-        <v>37747</v>
+        <v>81245</v>
       </c>
       <c r="K52" t="n">
-        <v>38461</v>
+        <v>18416</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>极客DIY</t>
+          <t xml:space="preserve">科工机械 </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>diy</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>炫酷技能，极客文化，硬核技巧，准备好你的惊讶</t>
+          <t>前方高能，机甲重工即将出没</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>/v/tech/diy</t>
+          <t>/v/tech/industry(opens new window)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>科技(主分区)</t>
+          <t>科技</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[{'aid': '739233567', 'bvid': 'BV1Sk4y1471G', 'typename': '极客DIY', 'title': '【何同学】我们做了一台中文打字机...', 'subtitle': '', 'play': 1979302, 'review': 6393, 'video_review': 9898, 'favorites': 104214, 'mid': 163637592, 'author': '老师好我叫何同学', 'description': '非常高兴做了这期视频，感谢SmallRig的朋友帮我们加工了字杆，感谢差评君做的中文打字机相关的视频让我们深入了解了这个话题。更感谢大家的一键三连。\n林语堂的原话其实是“我一定要造一部打字机，使我可以真正的打字。我当然没想到要花那么多钱。” 我们出于气氛的原因把后半句省略了。', 'create': '2023-03-26 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/4bd03046c52434bbe9c1290de804d4417b52e0da.jpg', 'coins': 420186, 'duration': '9:30', 'badgepay': False, 'pts': 4859675, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951477600', 'bvid': 'BV1Ss4y1n7St', 'typename': '极客DIY', 'title': '22岁，我离开城市，用180天把农村破房改造成科学实验室', 'subtitle': '', 'play': 486493, 'review': 1825, 'video_review': 3813, 'favorites': 11954, 'mid': 431956189, 'author': '阿宇的科学冒险', 'description': '本期节目我将向大家分享用一个农村的脏乱破房间改造个人科学实验室的全过程。\r\n————————————————————————————————————\r\n这一期仅仅是我对自己这么多天的努力的一个记录，不含有多高的技术含量，算是给自己一个交代吧。虽然我是全职UP，虽然我知道长视频看的人少 流量差，但是我不想对我的节目抱有很强的功利心。这期视频的素材是我回村之后拍的最早的，到现在才发布是因为我一直在一边学一边剪辑，剪了很久很久也省略了很多的画面，只是希望大家能够比较舒服的看完，看完后能觉得这32分钟是值得。同时', 'create': '2023-03-23 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/39dd9f2ae0f29a0010ccecfadc55cef471d97f61.jpg', 'coins': 35775, 'duration': '35:33', 'badgepay': False, 'pts': 1214897, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483765326', 'bvid': 'BV1BT41167yt', 'typename': '极客DIY', 'title': '《一 根木头的蜕变》', 'subtitle': '', 'play': 866671, 'review': 881, 'video_review': 1164, 'favorites': 3277, 'mid': 454118230, 'author': '开箱嘤嘤怪', 'description': '兄弟们！粉丝裙\n697677144\n606711681\n787628717', 'create': '2023-03-20 20:03', 'pic': 'http://i1.hdslb.com/bfs/archive/6b03695b0bd3b1b7c4b4694ef1afca0053ab5647.jpg', 'coins': 7519, 'duration': '2:02', 'badgepay': False, 'pts': 1092629, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823934067', 'bvid': 'BV1xg4y1W7BC', 'typename': '极客DIY', 'title': '历时5个月，我们成功了，制造试飞江西第一架超轻型载人飞机', 'subtitle': '', 'play': 280207, 'review': 806, 'video_review': 909, 'favorites': 2642, 'mid': 74529609, 'author': '魔界造物', 'description': '我咨询确定了一下\n这个机型（FK-1）过几个月是会进行销售的\n售价大概在12万\n有没有心动的感觉', 'create': '2023-03-22 17:30', 'pic': 'http://i2.hdslb.com/bfs/archive/1800805593e8e0009ffbd5ccbe910bd816270c6a.jpg', 'coins': 6454, 'duration': '6:05', 'badgepay': False, 'pts': 569723, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653791629', 'bvid': 'BV1EY4y1D7yM', 'typename': '极客DIY', 'title': '遥控高速船', 'subtitle': '', 'play': 1878001, 'review': 1213, 'video_review': 495, 'favorites': 7250, 'mid': 3493266070702547, 'author': '小精灵航拍', 'description': '-', 'create': '2023-03-22 00:18', 'pic': 'http://i0.hdslb.com/bfs/archive/9468d6ddcd0ff2ae140e7bac22fad9e7ad9baebc.jpg', 'coins': 1524, 'duration': '1:29', 'badgepay': False, 'pts': 492628, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268856138', 'bvid': 'BV1Rc411j7bR', 'typename': '极客DIY', 'title': '应该没有男生能拒绝这个3D打印的机械手臂外骨骼吧', 'subtitle': '', 'play': 243693, 'review': 194, 'video_review': 47, 'favorites': 3470, 'mid': 517342003, 'author': '优锐科技', 'description': '3D打印的机械外骨骼手臂装置，还能活动，真的有人能拒绝吗', 'create': '2023-03-20 18:10', 'pic': 'http://i1.hdslb.com/bfs/archive/bd8574ed03d5e55e1539b7d841889ff8d9ce2ac7.jpg', 'coins': 189, 'duration': '0:19', 'badgepay': False, 'pts': 479341, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441276755', 'bvid': 'BV15L411r72m', 'typename': '极客DIY', 'title': '你见过用PVC塑料管制作的扳机弹弓吗？满满的是小时候回忆', 'subtitle': '', 'play': 119108, 'review': 183, 'video_review': 87, 'favorites': 4080, 'mid': 366723140, 'author': '科学手工DIY', 'description': '大家好，越南小伙教大家制作PVC塑料管制作扳机创意弹弓', 'create': '2023-03-21 12:39', 'pic': 'http://i2.hdslb.com/bfs/archive/95923bd484ef4ac4dc4e1148cbab093476007534.jpg', 'coins': 291, 'duration': '1:54', 'badgepay': False, 'pts': 319138, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268812181', 'bvid': 'BV1Dc411j7h5', 'typename': '极客DIY', 'title': '自制地震床2.0，新增发电、厕所功能，还能尿液过滤', 'subtitle': '', 'play': 159054, 'review': 236, 'video_review': 835, 'favorites': 2064, 'mid': 50444181, 'author': '飞飞舰长', 'description': '哈哈哈，这次的升级如何，评论留言+关注', 'create': '2023-03-21 17:10', 'pic': 'http://i0.hdslb.com/bfs/archive/73dadb6a5e4d3d286b0021f24f541c718f6caa7d.jpg', 'coins': 444, 'duration': '2:04', 'badgepay': False, 'pts': 288663, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738770864', 'bvid': 'BV1Ek4y1t7Co', 'typename': '极客DIY', 'title': '源头工厂直销、价格就是这么包甜、3060只需999/5700xt仅999米', 'subtitle': '', 'play': 130935, 'review': 683, 'video_review': 136, 'favorites': 626, 'mid': 3493256606255841, 'author': '发行者总代理-菲跃', 'description': '-', 'create': '2023-03-21 08:45', 'pic': 'http://i0.hdslb.com/bfs/archive/0ca955019b42290c8402387c198ad80bd283014c.jpg', 'coins': 113, 'duration': '1:29', 'badgepay': False, 'pts': 228804, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611488364', 'bvid': 'BV1X84y1373B', 'typename': '极客DIY', 'title': '自制了心目中的华为P60 Ultra', 'subtitle': '', 'play': 130842, 'review': 329, 'video_review': 824, 'favorites': 889, 'mid': 325272035, 'author': '艾奥科技', 'description': '简介很用心', 'create': '2023-03-22 18:22', 'pic': 'http://i2.hdslb.com/bfs/archive/b5a773f5f7ff69f57111909d5c60a5d374ce9bae.jpg', 'coins': 1859, 'duration': '7:43', 'badgepay': False, 'pts': 227101, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '439086508', 'bvid': 'BV13L411R7CU', 'typename': '科工机械', 'title': '"啊!我关错发动机了!"详解复兴航空235号班机空难', 'subtitle': '', 'play': 905866, 'review': 1428, 'video_review': 1775, 'favorites': 8472, 'mid': 178960010, 'author': '飞行砖家王机长', 'description': '视频素材源自空中浩劫 原创文案\n向所有遇难者哀悼', 'create': '2023-03-25 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/843c6e5525123cf09223af072343078b229468f9.jpg', 'coins': 32824, 'duration': '5:39', 'badgepay': False, 'pts': 1653788, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781288965', 'bvid': 'BV1q24y1E79K', 'typename': '科工机械', 'title': '太危险了！家里电器外壳带电180多伏。大家可以测一下自己家里，排除隐患。', 'subtitle': '', 'play': 995966, 'review': 1253, 'video_review': 1617, 'favorites': 6047, 'mid': 1985127693, 'author': '城阳电工电路', 'description': '-', 'create': '2023-03-20 19:16', 'pic': 'http://i0.hdslb.com/bfs/archive/d9b5bf7680c32b42a5625d0234b0ec1225c25e28.jpg', 'coins': 3831, 'duration': '10:39', 'badgepay': False, 'pts': 1310130, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226310424', 'bvid': 'BV1Xb411d7dy', 'typename': '科工机械', 'title': '网传一小伙手搓飞机驾驶舱然后驾驶它遨游蓝天', 'subtitle': '', 'play': 419431, 'review': 738, 'video_review': 633, 'favorites': 7247, 'mid': 522860262, 'author': '轩_快出来飞飞机', 'description': '设备简介：视频飞机 fms fox 3000mm 图传设备 使用dji o3天空端 ；飞行座舱自制 有需要请私信我哟', 'create': '2023-03-22 03:29', 'pic': 'http://i0.hdslb.com/bfs/archive/daa30e713bb84f3f37c8cb4341d989e12d85e8bf.jpg', 'coins': 6210, 'duration': '2:34', 'badgepay': False, 'pts': 924740, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696460929', 'bvid': 'BV1mm4y1k7Ns', 'typename': '科工机械', 'title': '试飞员谈初见歼10：“这飞机，能飞起来吗？”', 'subtitle': '', 'play': 461348, 'review': 1245, 'video_review': 1774, 'favorites': 3007, 'mid': 20165629, 'author': '共青团中央', 'description': '制作：看航空融媒体工作室\n1998年3月23日，当歼10完成首飞、安全降落在跑道上，人群沸腾了。走出飞机驾驶舱的试飞员雷强没想到自己会落泪——首飞太顺利了，顺利得好像是与老友久别重逢，仿佛他此前曾无数次驾驶着“猛龙”翱翔天际……但当歼10总设计师宋文骢将鲜花送上，拥抱着他说：“小雷啊，谢谢你！”雷强再也控制不住自己的泪水。\n凭借着我们自己的力量，中国人实现了从二代机到三代机的历史性跨越！', 'create': '2023-03-23 15:09', 'pic': 'http://i2.hdslb.com/bfs/archive/a962dcc1b51638c78c6783e69c4e2f33800d41d3.jpg', 'coins': 4878, 'duration': '8:59', 'badgepay': False, 'pts': 915230, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441281373', 'bvid': 'BV1jL411r7uG', 'typename': '科工机械', 'title': '有光就有电！中国成功研发高强度“发电玻璃”', 'subtitle': '', 'play': 393894, 'review': 2785, 'video_review': 1169, 'favorites': 3071, 'mid': 222103174, 'author': '央视网', 'description': '一块约2m²玻璃，年发电量能达到270度，仅两三块可满足一家人全年用电。什么玻璃能这么神奇？', 'create': '2023-03-21 16:30', 'pic': 'http://i0.hdslb.com/bfs/archive/c7be80c9a728574d5a437494d372334fdf5193bb.jpg', 'coins': 1132, 'duration': '1:54', 'badgepay': False, 'pts': 839603, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739048086', 'bvid': 'BV19k4y1x7ut', 'typename': '科工机械', 'title': '【4K实弹射击】改造世界上最经典的手枪——春田双排9毫米1911', 'subtitle': '', 'play': 265803, 'review': 412, 'video_review': 360, 'favorites': 4121, 'mid': 1437101448, 'author': 'JaegerZ999官方账号', 'description': '本账号是国内目前唯一的官方账号，将会和油管同步更新。其余平台一律为冒充或未授权转载。', 'create': '2023-03-25 21:59', 'pic': 'http://i2.hdslb.com/bfs/archive/65a05e92654d1bd54194f8e616438c2da96a91de.jpg', 'coins': 584, 'duration': '0:26', 'badgepay': False, 'pts': 583593, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653962426', 'bvid': 'BV1uY4y1Q76W', 'typename': '科工机械', 'title': '【科技的力量】没有人能拒绝这种视频', 'subtitle': '', 'play': 219685, 'review': 136, 'video_review': 329, 'favorites': 1997, 'mid': 1467388271, 'author': '宇宙視覺', 'description': 'UP业余科技爱好者，有错误的地方还烦请专业人士弹幕评论指导！', 'create': '2023-03-22 17:45', 'pic': 'http://i2.hdslb.com/bfs/archive/7b17d24733352fd1be2cd100301aa24f47ba9f2d.jpg', 'coins': 381, 'duration': '8:04', 'badgepay': False, 'pts': 375844, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226383746', 'bvid': 'BV1Kb411o7ai', 'typename': '科工机械', 'title': '单片机的上拉电阻 到底在拉什么？', 'subtitle': '', 'play': 82596, 'review': 167, 'video_review': 52, 'favorites': 3233, 'mid': 43584648, 'author': '工科男孙老师', 'description': '暂无。', 'create': '2023-03-22 20:53', 'pic': 'http://i2.hdslb.com/bfs/archive/e86eede4c5fa1568e57c6ea6a2217cc591e87fca.jpg', 'coins': 1643, 'duration': '4:27', 'badgepay': False, 'pts': 231004, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526450994', 'bvid': 'BV16M411u7w7', 'typename': '科工机械', 'title': '拆解维修一台1960年代苏联IMP航天机械导航计算机', 'subtitle': '', 'play': 141426, 'review': 286, 'video_review': 88, 'favorites': 1233, 'mid': 3493144417012358, 'author': '刘学VV', 'description': '', 'create': '2023-03-23 11:12', 'pic': 'http://i2.hdslb.com/bfs/archive/e62f2efba81e94752848bed79e507d02e5b61703.jpg', 'coins': 94, 'duration': '2:05', 'badgepay': False, 'pts': 221778, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226586381', 'bvid': 'BV16h411G7BZ', 'typename': '科工机械', 'title': '徐直军：华为完成14nm以上EDA工具国产化，仍面临艰巨挑战，需加倍努力', 'subtitle': '', 'play': 100683, 'review': 1029, 'video_review': 114, 'favorites': 232, 'mid': 196787, 'author': '冬白苍术', 'description': '《财经》新媒体\n搜了一下好像没人发，我来蹭个流量', 'create': '2023-03-24 14:52', 'pic': 'http://i0.hdslb.com/bfs/archive/10b86592a331c43d6f8c494a2153a7100de2484b.jpg', 'coins': 72, 'duration': '1:35', 'badgepay': False, 'pts': 211660, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6274306</v>
+        <v>3986698</v>
       </c>
       <c r="I53" t="n">
-        <v>474354</v>
+        <v>51649</v>
       </c>
       <c r="J53" t="n">
-        <v>140466</v>
+        <v>38660</v>
       </c>
       <c r="K53" t="n">
-        <v>2753</v>
+        <v>38461</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>篮球</t>
+          <t>极客DIY</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>basketball</t>
+          <t>diy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>与篮球相关的视频，包括但不限于篮球赛事、教学、评述、剪辑、剧情等相关内容</t>
+          <t>炫酷技能，极客文化，硬核技巧，准备好你的惊讶</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>/v/sports/basketball(opens new window)</t>
+          <t>/v/tech/diy</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>运动(主分区)</t>
+          <t>科技</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[{'aid': '696480686', 'bvid': 'BV1Cm4y1k7SN', 'typename': '篮球', 'title': '野球帝VS西安电子科技大学（纯享版）', 'subtitle': '', 'play': 492442, 'review': 925, 'video_review': 4271, 'favorites': 4976, 'mid': 170801610, 'author': '野球帝', 'description': '', 'create': '2023-03-23 20:51', 'pic': 'http://i2.hdslb.com/bfs/archive/66693c7c1e16a570c20bcc1aa935962b3582a827.jpg', 'coins': 8300, 'duration': '51:06', 'badgepay': False, 'pts': 916175, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441618229', 'bvid': 'BV1VL411Q7cY', 'typename': '篮球', 'title': '【听球下饭#36】你可曾听说过“7秒进攻”的江湖传说？这是一段关于“跑轰太阳”的故事', 'subtitle': '', 'play': 317001, 'review': 801, 'video_review': 2419, 'favorites': 2826, 'mid': 443074011, 'author': '西柚老黑', 'description': '跑轰太阳（04-10）的故事，献给大家\n20分钟诚意满满，希望大家喜欢\n制作不易，跪求一手点赞投币，感谢！\n审核大大辛苦！', 'create': '2023-03-25 08:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7cfda9391621e5de79277707d76898750ad40e17.jpg', 'coins': 5853, 'duration': '20:43', 'badgepay': False, 'pts': 691568, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781526475', 'bvid': 'BV1u24y177hr', 'typename': '篮球', 'title': '我终于回到勇士主场了！见证库里生日战！冲进西部前六！', 'subtitle': '', 'play': 358699, 'review': 349, 'video_review': 584, 'favorites': 1799, 'mid': 6336952, 'author': '老李船长', 'description': '我和中国美食一起见证了库里生日战！顺便带大家看看美国人会不会爱上我们中国的辣条！如果你喜欢看这期视频！千万别忘了三连！三连！三连', 'create': '2023-03-24 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/f4751961834333361e538326def75e457246adc9.jpg', 'coins': 6090, 'duration': '9:09', 'badgepay': False, 'pts': 513748, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823893377', 'bvid': 'BV1Rg4y1x7pw', 'typename': '篮球', 'title': '球场德芙！保罗·乔治快船时期高光混剪', 'subtitle': '', 'play': 220130, 'review': 392, 'video_review': 1134, 'favorites': 3131, 'mid': 213826349, 'author': '不会剪辑的果子君', 'description': 'BGM:24KGoldn、Justin Bieber、iann dior、J Balvin - Mood (Remix) (Explicit)', 'create': '2023-03-23 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/b5e6e1a94033d54e563c517324ee04f43aed2e1b.jpg', 'coins': 5172, 'duration': '3:00', 'badgepay': False, 'pts': 483983, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396408195', 'bvid': 'BV1Mo4y1s7Uw', 'typename': '篮球', 'title': '勇士队在愚弄、捉弄、欺骗整个联盟！！！', 'subtitle': '', 'play': 216034, 'review': 581, 'video_review': 203, 'favorites': 1316, 'mid': 508701134, 'author': 'Matthu的篮球世界', 'description': '勇士队主客场差距巨大，原因到底是什么，勇士队到底还是不是那只争冠级别的顶级球队', 'create': '2023-03-23 11:59', 'pic': 'http://i2.hdslb.com/bfs/archive/d34174f9a3be6cdc866a8add0f34a7398835676d.jpg', 'coins': 640, 'duration': '8:45', 'badgepay': False, 'pts': 366444, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738844049', 'bvid': 'BV1hk4y1t7y1', 'typename': '篮球', 'title': '学点篮球关键时刻还是有用的', 'subtitle': '', 'play': 1670006, 'review': 538, 'video_review': 251, 'favorites': 3841, 'mid': 227003989, 'author': '茶丽', 'description': '-', 'create': '2023-03-21 17:43', 'pic': 'http://i1.hdslb.com/bfs/archive/aa4df7ebaf8c19470294543b002f5f23a06e0314.jpg', 'coins': 1269, 'duration': '0:29', 'badgepay': False, 'pts': 351011, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781273983', 'bvid': 'BV1p24y1E7ws', 'typename': '篮球', 'title': '突破上篮总不进？和鸭子一起来场突破专项训练吧！', 'subtitle': '', 'play': 118047, 'review': 66, 'video_review': 44, 'favorites': 4356, 'mid': 691653477, 'author': '野球帝周嘉豪', 'description': '想丰富自己武器库的兄弟们，快叫上你的小伙伴们一起练起来吧！', 'create': '2023-03-21 15:19', 'pic': 'http://i0.hdslb.com/bfs/archive/217035338437f861251ebd4de994698624273469.jpg', 'coins': 973, 'duration': '4:44', 'badgepay': False, 'pts': 307919, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781515800', 'bvid': 'BV1R24y1j78V', 'typename': '篮球', 'title': '《拖曳步》一定是调动防守的最佳脚步！', 'subtitle': '', 'play': 83441, 'review': 88, 'video_review': 55, 'favorites': 4596, 'mid': 648717423, 'author': '邹涵XTtexun', 'description': '-', 'create': '2023-03-25 18:24', 'pic': 'http://i2.hdslb.com/bfs/archive/972d5e2dbfeb831b480be935f5876dbea107437a.jpg', 'coins': 870, 'duration': '2:16', 'badgepay': False, 'pts': 259456, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268997290', 'bvid': 'BV1Mc411L7h8', 'typename': '篮球', 'title': '比丝滑还丝滑的转场', 'subtitle': '', 'play': 945728, 'review': 281, 'video_review': 92, 'favorites': 3252, 'mid': 482764121, 'author': '林思彤77', 'description': '-', 'create': '2023-03-23 21:36', 'pic': 'http://i0.hdslb.com/bfs/archive/28cda79f2da816d92e998e0084349487249ffa97.jpg', 'coins': 464, 'duration': '0:12', 'badgepay': False, 'pts': 253680, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653841742', 'bvid': 'BV1WY4y1D7JA', 'typename': '篮球', 'title': '多情的人总是被无情所伤', 'subtitle': '', 'play': 330420, 'review': 176, 'video_review': 578, 'favorites': 705, 'mid': 46508980, 'author': '俊鸿', 'description': '害羞内向的阿伟遇到喜欢的女孩却不敢搭讪，得知女孩喜欢爱打篮球的男生。于是找到了德艺双馨，完美的令人害怕的俊鸿帮忙。在这个过程中阿伟不断通过俊鸿了解阿丽，但也只是默默迎合而从来没有勇气主动约阿丽。同时俊鸿也喜欢上了女孩..故事开始变得扑朔迷离...', 'create': '2023-03-21 17:41', 'pic': 'http://i0.hdslb.com/bfs/archive/5a6576dd468bdfea212316c1b9a4aeacbfff24cb.jpg', 'coins': 1430, 'duration': '6:38', 'badgepay': False, 'pts': 250834, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '739233567', 'bvid': 'BV1Sk4y1471G', 'typename': '极客DIY', 'title': '【何同学】我们做了一台中文打字机...', 'subtitle': '', 'play': 2992828, 'review': 8131, 'video_review': 12884, 'favorites': 141975, 'mid': 163637592, 'author': '老师好我叫何同学', 'description': '非常高兴做了这期视频，感谢SmallRig的朋友帮我们加工了字杆，感谢差评君做的中文打字机相关的视频让我们深入了解了这个话题。更感谢大家的一键三连。\n林语堂的原话其实是“我一定要造一部打字机，使我可以真正的打字。我当然没想到要花那么多钱。” 我们出于气氛的原因把后半句省略了。', 'create': '2023-03-26 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/4bd03046c52434bbe9c1290de804d4417b52e0da.jpg', 'coins': 573404, 'duration': '9:30', 'badgepay': False, 'pts': 6395924, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951477600', 'bvid': 'BV1Ss4y1n7St', 'typename': '极客DIY', 'title': '22岁，我离开城市，用180天把农村破房改造成科学实验室', 'subtitle': '', 'play': 512196, 'review': 1858, 'video_review': 3883, 'favorites': 12658, 'mid': 431956189, 'author': '阿宇的科学冒险', 'description': '本期节目我将向大家分享用一个农村的脏乱破房间改造个人科学实验室的全过程。\r\n————————————————————————————————————\r\n这一期仅仅是我对自己这么多天的努力的一个记录，不含有多高的技术含量，算是给自己一个交代吧。虽然我是全职UP，虽然我知道长视频看的人少 流量差，但是我不想对我的节目抱有很强的功利心。这期视频的素材是我回村之后拍的最早的，到现在才发布是因为我一直在一边学一边剪辑，剪了很久很久也省略了很多的画面，只是希望大家能够比较舒服的看完，看完后能觉得这32分钟是值得。同时', 'create': '2023-03-23 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/39dd9f2ae0f29a0010ccecfadc55cef471d97f61.jpg', 'coins': 36716, 'duration': '35:33', 'badgepay': False, 'pts': 1253579, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483765326', 'bvid': 'BV1BT41167yt', 'typename': '极客DIY', 'title': '《一 根木头的蜕变》', 'subtitle': '', 'play': 870116, 'review': 885, 'video_review': 1169, 'favorites': 3289, 'mid': 454118230, 'author': '开箱嘤嘤怪', 'description': '兄弟们！粉丝裙\n697677144\n606711681\n787628717', 'create': '2023-03-20 20:03', 'pic': 'http://i1.hdslb.com/bfs/archive/6b03695b0bd3b1b7c4b4694ef1afca0053ab5647.jpg', 'coins': 7563, 'duration': '2:02', 'badgepay': False, 'pts': 1096304, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823934067', 'bvid': 'BV1xg4y1W7BC', 'typename': '极客DIY', 'title': '历时5个月，我们成功了，制造试飞江西第一架超轻型载人飞机', 'subtitle': '', 'play': 284330, 'review': 808, 'video_review': 917, 'favorites': 2701, 'mid': 74529609, 'author': '魔界造物', 'description': '我咨询确定了一下\n这个机型（FK-1）过几个月是会进行销售的\n售价大概在12万\n有没有心动的感觉', 'create': '2023-03-22 17:30', 'pic': 'http://i2.hdslb.com/bfs/archive/1800805593e8e0009ffbd5ccbe910bd816270c6a.jpg', 'coins': 6506, 'duration': '6:05', 'badgepay': False, 'pts': 575794, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653791629', 'bvid': 'BV1EY4y1D7yM', 'typename': '极客DIY', 'title': '遥控高速船', 'subtitle': '', 'play': 1905894, 'review': 1230, 'video_review': 497, 'favorites': 7397, 'mid': 3493266070702547, 'author': '小精灵航拍', 'description': '-', 'create': '2023-03-22 00:18', 'pic': 'http://i0.hdslb.com/bfs/archive/9468d6ddcd0ff2ae140e7bac22fad9e7ad9baebc.jpg', 'coins': 1570, 'duration': '1:29', 'badgepay': False, 'pts': 502747, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268856138', 'bvid': 'BV1Rc411j7bR', 'typename': '极客DIY', 'title': '应该没有男生能拒绝这个3D打印的机械手臂外骨骼吧', 'subtitle': '', 'play': 245306, 'review': 194, 'video_review': 48, 'favorites': 3496, 'mid': 517342003, 'author': '优锐科技', 'description': '3D打印的机械外骨骼手臂装置，还能活动，真的有人能拒绝吗', 'create': '2023-03-20 18:10', 'pic': 'http://i1.hdslb.com/bfs/archive/bd8574ed03d5e55e1539b7d841889ff8d9ce2ac7.jpg', 'coins': 192, 'duration': '0:19', 'badgepay': False, 'pts': 482586, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441276755', 'bvid': 'BV15L411r72m', 'typename': '极客DIY', 'title': '你见过用PVC塑料管制作的扳机弹弓吗？满满的是小时候回忆', 'subtitle': '', 'play': 121668, 'review': 191, 'video_review': 88, 'favorites': 4136, 'mid': 366723140, 'author': '科学手工DIY', 'description': '大家好，越南小伙教大家制作PVC塑料管制作扳机创意弹弓', 'create': '2023-03-21 12:39', 'pic': 'http://i2.hdslb.com/bfs/archive/95923bd484ef4ac4dc4e1148cbab093476007534.jpg', 'coins': 299, 'duration': '1:54', 'badgepay': False, 'pts': 325007, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268812181', 'bvid': 'BV1Dc411j7h5', 'typename': '极客DIY', 'title': '自制地震床2.0，新增发电、厕所功能，还能尿液过滤', 'subtitle': '', 'play': 161274, 'review': 237, 'video_review': 835, 'favorites': 2092, 'mid': 50444181, 'author': '飞飞舰长', 'description': '哈哈哈，这次的升级如何，评论留言+关注', 'create': '2023-03-21 17:10', 'pic': 'http://i0.hdslb.com/bfs/archive/73dadb6a5e4d3d286b0021f24f541c718f6caa7d.jpg', 'coins': 449, 'duration': '2:04', 'badgepay': False, 'pts': 292175, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569207683', 'bvid': 'BV1Dv4y1G71b', 'typename': '极客DIY', 'title': '王思聪百万“电脑”大升级！100G 网速实测！【王思聪网络改造】', 'subtitle': '', 'play': 469833, 'review': 966, 'video_review': 1341, 'favorites': 752, 'mid': 28572463, 'author': 'PeterTech_黄河', 'description': '关注本频道：https://space.bilibili.com/28572463\n\n感谢Ruter帮忙校对字幕\n\n商务合作请联系：peter@peterhuang.cn\xa0\n\n关注Peter Tech的其他频道：\nPeterTech 生活频道：\xa0\nYouTube：https://youtube.com/c/HePeterHuang\nTwitch：https://twitch.tv/HeHuang\n\n#王思聪 #科技话题 #HomeLab #服务器 #百万服务器 #100G网络 #网络改造', 'create': '2023-03-26 12:02', 'pic': 'http://i0.hdslb.com/bfs/archive/4596189400a4048c11c23d20eb0aafef3d1913c2.jpg', 'coins': 367, 'duration': '7:55', 'badgepay': False, 'pts': 286264, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611488364', 'bvid': 'BV1X84y1373B', 'typename': '极客DIY', 'title': '自制了心目中的华为P60 Ultra', 'subtitle': '', 'play': 133676, 'review': 331, 'video_review': 831, 'favorites': 903, 'mid': 325272035, 'author': '艾奥科技', 'description': '简介很用心', 'create': '2023-03-22 18:22', 'pic': 'http://i2.hdslb.com/bfs/archive/b5a773f5f7ff69f57111909d5c60a5d374ce9bae.jpg', 'coins': 1881, 'duration': '7:43', 'badgepay': False, 'pts': 231728, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>4751948</v>
+        <v>7697121</v>
       </c>
       <c r="I54" t="n">
-        <v>31061</v>
+        <v>628947</v>
       </c>
       <c r="J54" t="n">
-        <v>30798</v>
+        <v>179399</v>
       </c>
       <c r="K54" t="n">
-        <v>15098</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>足球</t>
+          <t>篮球</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>football</t>
+          <t>basketball</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>与足球相关的视频，包括但不限于足球赛事、教学、评述、剪辑、剧情等相关内容</t>
+          <t>与篮球相关的视频，包括但不限于篮球赛事、教学、评述、剪辑、剧情等相关内容</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>/v/sports/football(opens new window)</t>
+          <t>/v/sports/basketball(opens new window)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>运动(主分区)</t>
+          <t>运动</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[{'aid': '654077419', 'bvid': 'BV19Y4y1U7Vd', 'typename': '足球', 'title': '【全网首发】球王归来！梅西800球全记录！还记得你是从哪一球入坑的吗~', 'subtitle': '', 'play': 490763, 'review': 1246, 'video_review': 3257, 'favorites': 43977, 'mid': 45531556, 'author': '小白兔怕脏', 'description': '登顶之路，步步生辉，一起跟随球王回顾我们的青春吧！\n800球不够看，期待梅西的900球，此片未完待续！！！', 'create': '2023-03-24 10:55', 'pic': 'http://i1.hdslb.com/bfs/archive/394c3e72915861ef62981b68e8e00d396feb66a1.jpg', 'coins': 60458, 'duration': '60:57', 'badgepay': False, 'pts': 1962461, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354114421', 'bvid': 'BV1JX4y1o7Mg', 'typename': '足球', 'title': '句句足球，没有一句足球【清华未央学生节】', 'subtitle': '', 'play': 361035, 'review': 719, 'video_review': 722, 'favorites': 6283, 'mid': 435493265, 'author': '梅谁比我更珍西你', 'description': '清华大学未央书院学生节语言节目《细说足球》\n编剧： @kun20 @未央鼠人 @是yc也是LP \n演员：@爱摸鱼的赤赤羊 @未央鼠人 @繁星欢喜 @归墟来客7 ', 'create': '2023-03-25 22:39', 'pic': 'http://i1.hdslb.com/bfs/archive/e7551144d7718d89a0f9f2ea6e43623b269810af.jpg', 'coins': 8480, 'duration': '10:42', 'badgepay': False, 'pts': 798650, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311538398', 'bvid': 'BV1YN411K7gc', 'typename': '足球', 'title': '【真实解说】阿根廷2：0巴拿马！梅西任意球破门！阿尔马达补射建功！', 'subtitle': '', 'play': 283684, 'review': 901, 'video_review': 2413, 'favorites': 1443, 'mid': 108618052, 'author': '真实球迷汇', 'description': '-', 'create': '2023-03-24 15:52', 'pic': 'http://i1.hdslb.com/bfs/archive/217b00a70acccc1906d52fbe09ca1c3669ec7a8c.jpg', 'coins': 5619, 'duration': '13:39', 'badgepay': False, 'pts': 558197, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526544823', 'bvid': 'BV1oM411u7jr', 'typename': '足球', 'title': '见证历史！阿根廷队首次身披三星球衣登场！大马丁激动落泪', 'subtitle': '', 'play': 250020, 'review': 454, 'video_review': 351, 'favorites': 3174, 'mid': 334932680, 'author': '司马尘', 'description': '看，这是我们摘下的星星', 'create': '2023-03-24 15:47', 'pic': 'http://i1.hdslb.com/bfs/archive/62fd6f13db4e3b1f3ec60b569bec975ea8536137.jpg', 'coins': 4856, 'duration': '3:35', 'badgepay': False, 'pts': 539103, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526499223', 'bvid': 'BV1XM411u7t4', 'typename': '足球', 'title': '【神级表演 | 史上第一人】C罗在比赛第1-97分钟的精彩进球', 'subtitle': '', 'play': 156419, 'review': 887, 'video_review': 1943, 'favorites': 6557, 'mid': 12443729, 'author': '鸡肉干贝粥', 'description': '虽然是1-97分钟，但实际上收录了131个进球，有一些进球时间上重合了但很惊艳，我也一并保留了。素材时间跨度很大，从2002年10月7日葡体职业生涯首球，到2023年3月18日最近一次任意球，其中包括一些很有纪念意义的进球，比如在曼联、皇马、尤文、国家队的第100粒球。接近20分钟的视频，祝大家观看愉快～\n\n封面&amp;片头:@-澜蓝- \nBGM: This is Me ;The Other Side; A Million Dreams; Never Enough; The Greatest Show', 'create': '2023-03-22 12:51', 'pic': 'http://i1.hdslb.com/bfs/archive/093c2e1652076868586d5939ce2c39a5c2f062e2.jpg', 'coins': 12494, 'duration': '19:46', 'badgepay': False, 'pts': 495427, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823781514', 'bvid': 'BV1gg4y1x7fW', 'typename': '足球', 'title': '每周足坛电子厂！一点三红显神通，空门不进立头功', 'subtitle': '', 'play': 248268, 'review': 325, 'video_review': 2040, 'favorites': 1479, 'mid': 436036217, 'author': '爱穿小脚裤的花轮', 'description': '最纯粹的足球！最下饭的享受！欢迎来到足坛电子厂！\n所有BGM均在歌单内\n歌单链接：https://music.163.com/playlist?id=7053774818&amp;userid=404190141\n全平台链接中转站：https://hlcat.cn/riki', 'create': '2023-03-22 07:30', 'pic': 'http://i0.hdslb.com/bfs/archive/6ed7fb9a937db1f8bc90e01451aab2a1bd818784.jpg', 'coins': 5818, 'duration': '17:15', 'badgepay': False, 'pts': 494805, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951378176', 'bvid': 'BV1Js4y1n7R2', 'typename': '足球', 'title': '马奎普普通通的一天！有知道垫卡是什么意思的么？', 'subtitle': '', 'play': 366829, 'review': 476, 'video_review': 658, 'favorites': 1076, 'mid': 271213635, 'author': '大连小王爱踢球', 'description': '-', 'create': '2023-03-22 18:35', 'pic': 'http://i2.hdslb.com/bfs/archive/ed0044804d2406051114ae4548220bec2394ef90.jpg', 'coins': 2843, 'duration': '4:22', 'badgepay': False, 'pts': 482735, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824022359', 'bvid': 'BV1Rg4y1W7Kq', 'typename': '足球', 'title': 'C罗里程碑之夜双响+失单刀！葡萄牙4:0列支敦士登，坎塞洛凌空斩，b席破门', 'subtitle': '', 'play': 208189, 'review': 1667, 'video_review': 2351, 'favorites': 309, 'mid': 279704683, 'author': '友利Mori', 'description': 'Siuuuuuuuuuuuuu', 'create': '2023-03-24 07:30', 'pic': 'http://i0.hdslb.com/bfs/archive/400dd29206e6d909cc0250d205bf4c7e4341984c.jpg', 'coins': 436, 'duration': '4:54', 'badgepay': False, 'pts': 455154, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483924749', 'bvid': 'BV12T411B7d5', 'typename': '足球', 'title': 'C罗：在山顶时经常看不到下面 现在我成了更好的人', 'subtitle': '', 'play': 207141, 'review': 1829, 'video_review': 545, 'favorites': 530, 'mid': 414615582, 'author': '咪咕体育', 'description': 'C罗从沙特的利雅得胜利回到了葡萄牙国家队，即将出战2024年欧洲杯预选赛。赛前他出席了赛前新闻发布会，谈到了此前与曼联解约的风波。', 'create': '2023-03-23 08:05', 'pic': 'http://i1.hdslb.com/bfs/archive/19620dd4716da74529d83cd41d332e52f976b156.jpg', 'coins': 131, 'duration': '0:25', 'badgepay': False, 'pts': 440148, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484122269', 'bvid': 'BV12T411z7ob', 'typename': '足球', 'title': '【完整中字】FIFA2022卡塔尔世界杯官方电影——天命刻星·Written in the Stars', 'subtitle': '', 'play': 83072, 'review': 367, 'video_review': 4322, 'favorites': 9819, 'mid': 4715884, 'author': '西莫的狐狸', 'description': 'https://www.fifa.com/fifaplus/en/watch/movie/5mxDnmKbx2FmDeiEGknA5G\nFIFA官方2022卡塔尔世界杯记录电影————Written in the Stars《天命刻星》（自译名称）\n\n官方自带字幕，官网可以免费观看', 'create': '2023-03-26 02:02', 'pic': 'http://i2.hdslb.com/bfs/archive/9cfd36d88e5758618d6b5e580d38574d6491578b.jpg', 'coins': 3081, 'duration': '94:01', 'badgepay': False, 'pts': 420284, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '696480686', 'bvid': 'BV1Cm4y1k7SN', 'typename': '篮球', 'title': '野球帝VS西安电子科技大学（纯享版）', 'subtitle': '', 'play': 497547, 'review': 938, 'video_review': 4295, 'favorites': 5037, 'mid': 170801610, 'author': '野球帝', 'description': '', 'create': '2023-03-23 20:51', 'pic': 'http://i2.hdslb.com/bfs/archive/66693c7c1e16a570c20bcc1aa935962b3582a827.jpg', 'coins': 8354, 'duration': '51:06', 'badgepay': False, 'pts': 924559, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441618229', 'bvid': 'BV1VL411Q7cY', 'typename': '篮球', 'title': '【听球下饭#36】你可曾听说过“7秒进攻”的江湖传说？这是一段关于“跑轰太阳”的故事', 'subtitle': '', 'play': 339643, 'review': 818, 'video_review': 2506, 'favorites': 2970, 'mid': 443074011, 'author': '西柚老黑', 'description': '跑轰太阳（04-10）的故事，献给大家\n20分钟诚意满满，希望大家喜欢\n制作不易，跪求一手点赞投币，感谢！\n审核大大辛苦！', 'create': '2023-03-25 08:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7cfda9391621e5de79277707d76898750ad40e17.jpg', 'coins': 6150, 'duration': '20:43', 'badgepay': False, 'pts': 730912, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781526475', 'bvid': 'BV1u24y177hr', 'typename': '篮球', 'title': '我终于回到勇士主场了！见证库里生日战！冲进西部前六！', 'subtitle': '', 'play': 361390, 'review': 347, 'video_review': 586, 'favorites': 1796, 'mid': 6336952, 'author': '老李船长', 'description': '我和中国美食一起见证了库里生日战！顺便带大家看看美国人会不会爱上我们中国的辣条！如果你喜欢看这期视频！千万别忘了三连！三连！三连', 'create': '2023-03-24 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/f4751961834333361e538326def75e457246adc9.jpg', 'coins': 6111, 'duration': '9:09', 'badgepay': False, 'pts': 516876, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823893377', 'bvid': 'BV1Rg4y1x7pw', 'typename': '篮球', 'title': '球场德芙！保罗·乔治快船时期高光混剪', 'subtitle': '', 'play': 222966, 'review': 393, 'video_review': 1135, 'favorites': 3162, 'mid': 213826349, 'author': '不会剪辑的果子君', 'description': 'BGM:24KGoldn、Justin Bieber、iann dior、J Balvin - Mood (Remix) (Explicit)', 'create': '2023-03-23 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/b5e6e1a94033d54e563c517324ee04f43aed2e1b.jpg', 'coins': 5225, 'duration': '3:00', 'badgepay': False, 'pts': 488557, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396408195', 'bvid': 'BV1Mo4y1s7Uw', 'typename': '篮球', 'title': '勇士队在愚弄、捉弄、欺骗整个联盟！！！', 'subtitle': '', 'play': 219276, 'review': 585, 'video_review': 203, 'favorites': 1333, 'mid': 508701134, 'author': 'Matthu的篮球世界', 'description': '勇士队主客场差距巨大，原因到底是什么，勇士队到底还是不是那只争冠级别的顶级球队', 'create': '2023-03-23 11:59', 'pic': 'http://i2.hdslb.com/bfs/archive/d34174f9a3be6cdc866a8add0f34a7398835676d.jpg', 'coins': 647, 'duration': '8:45', 'badgepay': False, 'pts': 371560, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738844049', 'bvid': 'BV1hk4y1t7y1', 'typename': '篮球', 'title': '学点篮球关键时刻还是有用的', 'subtitle': '', 'play': 1674251, 'review': 538, 'video_review': 252, 'favorites': 3857, 'mid': 227003989, 'author': '茶丽', 'description': '-', 'create': '2023-03-21 17:43', 'pic': 'http://i1.hdslb.com/bfs/archive/aa4df7ebaf8c19470294543b002f5f23a06e0314.jpg', 'coins': 1274, 'duration': '0:29', 'badgepay': False, 'pts': 353214, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781273983', 'bvid': 'BV1p24y1E7ws', 'typename': '篮球', 'title': '突破上篮总不进？和鸭子一起来场突破专项训练吧！', 'subtitle': '', 'play': 118920, 'review': 66, 'video_review': 44, 'favorites': 4398, 'mid': 691653477, 'author': '野球帝周嘉豪', 'description': '想丰富自己武器库的兄弟们，快叫上你的小伙伴们一起练起来吧！', 'create': '2023-03-21 15:19', 'pic': 'http://i0.hdslb.com/bfs/archive/217035338437f861251ebd4de994698624273469.jpg', 'coins': 990, 'duration': '4:44', 'badgepay': False, 'pts': 310341, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781515800', 'bvid': 'BV1R24y1j78V', 'typename': '篮球', 'title': '《拖曳步》一定是调动防守的最佳脚步！', 'subtitle': '', 'play': 89805, 'review': 89, 'video_review': 58, 'favorites': 4938, 'mid': 648717423, 'author': '邹涵XTtexun', 'description': '-', 'create': '2023-03-25 18:24', 'pic': 'http://i2.hdslb.com/bfs/archive/972d5e2dbfeb831b480be935f5876dbea107437a.jpg', 'coins': 928, 'duration': '2:16', 'badgepay': False, 'pts': 278587, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268997290', 'bvid': 'BV1Mc411L7h8', 'typename': '篮球', 'title': '比丝滑还丝滑的转场', 'subtitle': '', 'play': 963828, 'review': 282, 'video_review': 94, 'favorites': 3309, 'mid': 482764121, 'author': '林思彤77', 'description': '-', 'create': '2023-03-23 21:36', 'pic': 'http://i0.hdslb.com/bfs/archive/28cda79f2da816d92e998e0084349487249ffa97.jpg', 'coins': 468, 'duration': '0:12', 'badgepay': False, 'pts': 258381, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994023257', 'bvid': 'BV1kx4y1A7qm', 'typename': '篮球', 'title': '常规赛十大锋线防守人？谁是真正锋线大闸？', 'subtitle': '', 'play': 128460, 'review': 630, 'video_review': 733, 'favorites': 514, 'mid': 1660008675, 'author': '业余球探刀先生', 'description': '-', 'create': '2023-03-25 02:22', 'pic': 'http://i1.hdslb.com/bfs/archive/3194a8a25ceb45cc24ca2499a19085a391170b6b.jpg', 'coins': 1694, 'duration': '7:11', 'badgepay': False, 'pts': 255094, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>2655420</v>
+        <v>4616086</v>
       </c>
       <c r="I55" t="n">
-        <v>104216</v>
+        <v>31841</v>
       </c>
       <c r="J55" t="n">
-        <v>74647</v>
+        <v>31314</v>
       </c>
       <c r="K55" t="n">
-        <v>20614</v>
+        <v>15098</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>健身</t>
+          <t>足球</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>aerobics</t>
+          <t>football</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>与健身相关的视频，包括但不限于瑜伽、crossfit、健美、力量举、普拉提、街健等相关内容</t>
+          <t>与足球相关的视频，包括但不限于足球赛事、教学、评述、剪辑、剧情等相关内容</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>/v/sports/aerobics(opens new window)</t>
+          <t>/v/sports/football(opens new window)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>运动(主分区)</t>
+          <t>运动</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[{'aid': '696462451', 'bvid': 'BV12m4y1k7nq', 'typename': '健身', 'title': '这种油汪汪的烧烤，减肥一定要多吃！', 'subtitle': '', 'play': 882230, 'review': 620, 'video_review': 182, 'favorites': 80330, 'mid': 1531707, 'author': '叔贵', 'description': '', 'create': '2023-03-23 18:15', 'pic': 'http://i0.hdslb.com/bfs/archive/47d87edb70df8d594307755a550ecf4a86f49fc2.jpg', 'coins': 20305, 'duration': '1:22', 'badgepay': False, 'pts': 3267967, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951433007', 'bvid': 'BV12s4y1n7ns', 'typename': '健身', 'title': '每天5分钟快速消除脂肪腿，强壮腿部肌肉，让你的腿部更有型并促进肌肉生长！', 'subtitle': '', 'play': 384983, 'review': 376, 'video_review': 266, 'favorites': 43274, 'mid': 431528342, 'author': '贫穷健身', 'description': '这期练腿视频主要是强壮您的腿部肌肉，锻炼之前可以适量旋转一下脚踝避免受伤。肌肉放松好物——匹克mini筋膜枪，小巧便携带去健身房也很合适，4个按摩头满足不同按摩需求，快开始居家训练计划吧～本次广告收入将用作我群健身挑战经费，喜欢健身或正在健身小伙伴欢迎加QQ群一起打卡：709503593', 'create': '2023-03-23 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/5a8b8a54e3eb0853b4b6295d7b6a2463653b3e0c.jpg', 'coins': 6295, 'duration': '7:14', 'badgepay': False, 'pts': 1701734, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823985277', 'bvid': 'BV1Cg4y1W7NP', 'typename': '健身', 'title': '随机在清华抓一名学生体验他的运动强项！', 'subtitle': '', 'play': 1040408, 'review': 782, 'video_review': 737, 'favorites': 5855, 'mid': 336563043, 'author': '鹏翼Link', 'description': '-', 'create': '2023-03-23 11:16', 'pic': 'http://i0.hdslb.com/bfs/archive/d58f4fa3cae954ee356dea9fe2189d18d0840eab.jpg', 'coins': 3935, 'duration': '6:10', 'badgepay': False, 'pts': 1323981, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526448445', 'bvid': 'BV1tM411u7RS', 'typename': '健身', 'title': '从此告别熬夜，爱上清晨12min冥想+拉伸，一次高效一整天', 'subtitle': '', 'play': 294671, 'review': 253, 'video_review': 1300, 'favorites': 26583, 'mid': 63486758, 'author': '范李猿', 'description': '晨间冥想+一点点拉伸来啦，特别适合有起床困难或者早起状态一般的朋友，可以有效唤醒身体和精神，实现无痛早起满分开局！我现在基本每天都做哈哈真的有用！那个片尾漂流瓶的小活动有兴趣的可以参与下，哈哈哈很期待和你们一起醒过来！嘿嘿还有~别忘记一点点点支持哦\xa0本期点赞过三万，会继续更新冥想这个系列!谢谢大家啦！', 'create': '2023-03-22 17:55', 'pic': 'http://i2.hdslb.com/bfs/archive/87d74c834e942d4c9803da8447260e7c33fc2dce.jpg', 'coins': 6796, 'duration': '13:58', 'badgepay': False, 'pts': 1157622, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268765008', 'bvid': 'BV1qc411j7y2', 'typename': '健身', 'title': '为带动全民健身 我发起一引体1块钱的挑战', 'subtitle': '', 'play': 609439, 'review': 479, 'video_review': 134, 'favorites': 1657, 'mid': 108255716, 'author': '小B仔_', 'description': '下血本了这次', 'create': '2023-03-20 10:50', 'pic': 'http://i0.hdslb.com/bfs/archive/965662d827584d402c03344f7715a29f9567a5ef.jpg', 'coins': 15753, 'duration': '0:38', 'badgepay': False, 'pts': 946944, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994062246', 'bvid': 'BV14s4y1S7ky', 'typename': '健身', 'title': '我与脂肪不共戴天！', 'subtitle': '', 'play': 381573, 'review': 593, 'video_review': 511, 'favorites': 2321, 'mid': 298054634, 'author': '马哥巨离谱', 'description': '', 'create': '2023-03-24 14:52', 'pic': 'http://i1.hdslb.com/bfs/archive/6d46dd757f1a7e31696d30c45236745a7a3d55f8.jpg', 'coins': 14390, 'duration': '2:56', 'badgepay': False, 'pts': 720299, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568754125', 'bvid': 'BV1Xv4y1L7fr', 'typename': '健身', 'title': '告别肌肉腿+大腿脂肪！李知恩16分钟最强瘦腿运动，超越女团腿拉伸！（Jiny diet）', 'subtitle': '', 'play': 100148, 'review': 47, 'video_review': 207, 'favorites': 23022, 'mid': 34044873, 'author': '草莓味鸡胸肉', 'description': 'https://www.youtube.com/watch?v=dpBYYEhdofI\n来自李知恩的最强瘦腿攻略！播放量1600万，超越女团腿拉伸！\n缓解肌肉腿+消除大腿脂肪，让你的腿更修长更匀称！同时创造美丽的臀部曲线！\n另外还能燃脂！只需16分钟，快给我冲！', 'create': '2023-03-21 12:14', 'pic': 'http://i2.hdslb.com/bfs/archive/23b5e248328e8eac7de9423ade1861ebb8b38bb2.jpg', 'coins': 623, 'duration': '16:13', 'badgepay': False, 'pts': 716289, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824106337', 'bvid': 'BV1ug4y1s7TY', 'typename': '健身', 'title': '从零开始的新技能成长', 'subtitle': '', 'play': 406968, 'review': 345, 'video_review': 237, 'favorites': 3618, 'mid': 1097188235, 'author': '妖腰木', 'description': '', 'create': '2023-03-24 20:30', 'pic': 'http://i1.hdslb.com/bfs/archive/87cbd51d43046e224983b0ec8e649dba1f3f9d79.jpg', 'coins': 1286, 'duration': '1:53', 'badgepay': False, 'pts': 697889, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908760312', 'bvid': 'BV1bM4y167cc', 'typename': '健身', 'title': '正念冥想 | 12min午间小憩，快速恢复脑力，高效专注一下午', 'subtitle': '', 'play': 114280, 'review': 110, 'video_review': 14, 'favorites': 13682, 'mid': 2056112979, 'author': '冥想星球App', 'description': '【专题冥想】\n这次的练习是：午间小憩（长时）\n适合这样的你：没有充分时间进行午睡的人群；想进行日间短暂休息的人群\n开始练习之前：请找一个舒适、安静的地方安顿下来\n冥想星球App出品，更多音频内容欢迎前往体验。', 'create': '2023-03-21 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/2647db7e066affc357b52490ffa657aaf7df3088.jpg', 'coins': 1630, 'duration': '12:21', 'badgepay': False, 'pts': 534052, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483860970', 'bvid': 'BV1uT411r7dc', 'typename': '健身', 'title': '帕梅拉 - 20分钟 高能虐臀 | 健身负重 组间训练 臀部进阶', 'subtitle': '', 'play': 121675, 'review': 177, 'video_review': 259, 'favorites': 11662, 'mid': 604003146, 'author': '帕梅拉PamelaReif', 'description': '我把我最爱的练臀动作都浓缩在这20分钟里了！\n-\n一组不管在家还是在健身房，都可以练的臀部训练\n根据运动情况，可以自选负重\n做完之后，可以改善扁平臀，提高臀线，更显得腿长~', 'create': '2023-03-22 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0c9820e17208cca256197028a999dfe2808c8a96.jpg', 'coins': 779, 'duration': '21:53', 'badgepay': False, 'pts': 499073, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '654077419', 'bvid': 'BV19Y4y1U7Vd', 'typename': '足球', 'title': '【全网首发】球王归来！梅西800球全记录！还记得你是从哪一球入坑的吗~', 'subtitle': '', 'play': 499507, 'review': 1263, 'video_review': 3278, 'favorites': 44750, 'mid': 45531556, 'author': '小白兔怕脏', 'description': '登顶之路，步步生辉，一起跟随球王回顾我们的青春吧！\n800球不够看，期待梅西的900球，此片未完待续！！！', 'create': '2023-03-24 10:55', 'pic': 'http://i1.hdslb.com/bfs/archive/394c3e72915861ef62981b68e8e00d396feb66a1.jpg', 'coins': 61353, 'duration': '60:57', 'badgepay': False, 'pts': 1994286, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354114421', 'bvid': 'BV1JX4y1o7Mg', 'typename': '足球', 'title': '句句足球，没有一句足球【清华未央学生节】', 'subtitle': '', 'play': 443919, 'review': 869, 'video_review': 921, 'favorites': 8015, 'mid': 435493265, 'author': '梅谁比我更珍西你', 'description': '清华大学未央书院学生节语言节目《细说足球》\n编剧： @kun20 @未央鼠人 @是yc也是LP \n演员：@爱摸鱼的赤赤羊 @未央鼠人 @繁星欢喜 @归墟来客7 ', 'create': '2023-03-25 22:39', 'pic': 'http://i1.hdslb.com/bfs/archive/e7551144d7718d89a0f9f2ea6e43623b269810af.jpg', 'coins': 10574, 'duration': '10:42', 'badgepay': False, 'pts': 947855, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311538398', 'bvid': 'BV1YN411K7gc', 'typename': '足球', 'title': '【真实解说】阿根廷2：0巴拿马！梅西任意球破门！阿尔马达补射建功！', 'subtitle': '', 'play': 287932, 'review': 903, 'video_review': 2443, 'favorites': 1453, 'mid': 108618052, 'author': '真实球迷汇', 'description': '-', 'create': '2023-03-24 15:52', 'pic': 'http://i1.hdslb.com/bfs/archive/217b00a70acccc1906d52fbe09ca1c3669ec7a8c.jpg', 'coins': 5669, 'duration': '13:39', 'badgepay': False, 'pts': 563847, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526544823', 'bvid': 'BV1oM411u7jr', 'typename': '足球', 'title': '见证历史！阿根廷队首次身披三星球衣登场！大马丁激动落泪', 'subtitle': '', 'play': 251865, 'review': 455, 'video_review': 352, 'favorites': 3200, 'mid': 334932680, 'author': '司马尘', 'description': '看，这是我们摘下的星星', 'create': '2023-03-24 15:47', 'pic': 'http://i1.hdslb.com/bfs/archive/62fd6f13db4e3b1f3ec60b569bec975ea8536137.jpg', 'coins': 4888, 'duration': '3:35', 'badgepay': False, 'pts': 542766, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484122269', 'bvid': 'BV12T411z7ob', 'typename': '足球', 'title': '【完整中字】FIFA2022卡塔尔世界杯官方电影——天命刻星·Written in the Stars', 'subtitle': '', 'play': 106065, 'review': 416, 'video_review': 5146, 'favorites': 12239, 'mid': 4715884, 'author': '西莫的狐狸', 'description': 'https://www.fifa.com/fifaplus/en/watch/movie/5mxDnmKbx2FmDeiEGknA5G\nFIFA官方2022卡塔尔世界杯记录电影————Written in the Stars《天命刻星》（自译名称）\n\n官方自带字幕，官网可以免费观看', 'create': '2023-03-26 02:02', 'pic': 'http://i2.hdslb.com/bfs/archive/9cfd36d88e5758618d6b5e580d38574d6491578b.jpg', 'coins': 3919, 'duration': '94:01', 'badgepay': False, 'pts': 520757, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823781514', 'bvid': 'BV1gg4y1x7fW', 'typename': '足球', 'title': '每周足坛电子厂！一点三红显神通，空门不进立头功', 'subtitle': '', 'play': 249883, 'review': 326, 'video_review': 2047, 'favorites': 1482, 'mid': 436036217, 'author': '爱穿小脚裤的花轮', 'description': '最纯粹的足球！最下饭的享受！欢迎来到足坛电子厂！\n所有BGM均在歌单内\n歌单链接：https://music.163.com/playlist?id=7053774818&amp;userid=404190141\n全平台链接中转站：https://hlcat.cn/riki', 'create': '2023-03-22 07:30', 'pic': 'http://i0.hdslb.com/bfs/archive/6ed7fb9a937db1f8bc90e01451aab2a1bd818784.jpg', 'coins': 5837, 'duration': '17:15', 'badgepay': False, 'pts': 497438, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526499223', 'bvid': 'BV1XM411u7t4', 'typename': '足球', 'title': '【神级表演 | 史上第一人】C罗在比赛第1-97分钟的精彩进球', 'subtitle': '', 'play': 157008, 'review': 888, 'video_review': 1941, 'favorites': 6595, 'mid': 12443729, 'author': '鸡肉干贝粥', 'description': '虽然是1-97分钟，但实际上收录了131个进球，有一些进球时间上重合了但很惊艳，我也一并保留了。素材时间跨度很大，从2002年10月7日葡体职业生涯首球，到2023年3月18日最近一次任意球，其中包括一些很有纪念意义的进球，比如在曼联、皇马、尤文、国家队的第100粒球。接近20分钟的视频，祝大家观看愉快～\n\n封面&amp;片头:@-澜蓝- \nBGM: This is Me ;The Other Side; A Million Dreams; Never Enough; The Greatest Show', 'create': '2023-03-22 12:51', 'pic': 'http://i1.hdslb.com/bfs/archive/093c2e1652076868586d5939ce2c39a5c2f062e2.jpg', 'coins': 12562, 'duration': '19:46', 'badgepay': False, 'pts': 497341, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951378176', 'bvid': 'BV1Js4y1n7R2', 'typename': '足球', 'title': '马奎普普通通的一天！有知道垫卡是什么意思的么？', 'subtitle': '', 'play': 371694, 'review': 477, 'video_review': 662, 'favorites': 1080, 'mid': 271213635, 'author': '大连小王爱踢球', 'description': '-', 'create': '2023-03-22 18:35', 'pic': 'http://i2.hdslb.com/bfs/archive/ed0044804d2406051114ae4548220bec2394ef90.jpg', 'coins': 2861, 'duration': '4:22', 'badgepay': False, 'pts': 486902, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824022359', 'bvid': 'BV1Rg4y1W7Kq', 'typename': '足球', 'title': 'C罗里程碑之夜双响+失单刀！葡萄牙4:0列支敦士登，坎塞洛凌空斩，b席破门', 'subtitle': '', 'play': 209854, 'review': 1683, 'video_review': 2361, 'favorites': 310, 'mid': 279704683, 'author': '友利Mori', 'description': 'Siuuuuuuuuuuuuu', 'create': '2023-03-24 07:30', 'pic': 'http://i0.hdslb.com/bfs/archive/400dd29206e6d909cc0250d205bf4c7e4341984c.jpg', 'coins': 436, 'duration': '4:54', 'badgepay': False, 'pts': 458666, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483924749', 'bvid': 'BV12T411B7d5', 'typename': '足球', 'title': 'C罗：在山顶时经常看不到下面 现在我成了更好的人', 'subtitle': '', 'play': 207408, 'review': 1828, 'video_review': 545, 'favorites': 530, 'mid': 414615582, 'author': '咪咕体育', 'description': 'C罗从沙特的利雅得胜利回到了葡萄牙国家队，即将出战2024年欧洲杯预选赛。赛前他出席了赛前新闻发布会，谈到了此前与曼联解约的风波。', 'create': '2023-03-23 08:05', 'pic': 'http://i1.hdslb.com/bfs/archive/19620dd4716da74529d83cd41d332e52f976b156.jpg', 'coins': 131, 'duration': '0:25', 'badgepay': False, 'pts': 440580, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>4336375</v>
+        <v>2785135</v>
       </c>
       <c r="I56" t="n">
-        <v>71792</v>
+        <v>108230</v>
       </c>
       <c r="J56" t="n">
-        <v>212004</v>
+        <v>79654</v>
       </c>
       <c r="K56" t="n">
-        <v>36718</v>
+        <v>20614</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>竞技体育</t>
+          <t>健身</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>athletic</t>
+          <t>aerobics</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>与竞技体育相关的视频，包括但不限于乒乓、羽毛球、排球、赛车等竞技项目的赛事、评述、剪辑、剧情等相关内容</t>
+          <t>与健身相关的视频，包括但不限于瑜伽、crossfit、健美、力量举、普拉提、街健等相关内容</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>/v/sports/culture(opens new window)</t>
+          <t>/v/sports/aerobics(opens new window)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>运动(主分区)</t>
+          <t>运动</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[{'aid': '526478073', 'bvid': 'BV1qM411u7FC', 'typename': '竞技体育', 'title': '有没有一种可能我说的不是围棋', 'subtitle': '', 'play': 496822, 'review': 784, 'video_review': 284, 'favorites': 6115, 'mid': 1250115313, 'author': '臭蛋老师-棋理版', 'description': '-', 'create': '2023-03-22 11:20', 'pic': 'http://i1.hdslb.com/bfs/archive/20cef9119b6dd203d65275a294094a8779c97779.jpg', 'coins': 1387, 'duration': '1:02', 'badgepay': False, 'pts': 938338, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951533935', 'bvid': 'BV1Ms4y1H7gr', 'typename': '竞技体育', 'title': '比赛取消，因为我受伤了，明天告诉大家真实情况。', 'subtitle': '', 'play': 437029, 'review': 2079, 'video_review': 1038, 'favorites': 1272, 'mid': 1955151023, 'author': '李景亮mma', 'description': '', 'create': '2023-03-24 18:04', 'pic': 'http://i0.hdslb.com/bfs/archive/06c45e4b0d3c57b3f432623f91f1382948e5ebc7.jpg', 'coins': 8302, 'duration': '1:13', 'badgepay': False, 'pts': 811618, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866272130', 'bvid': 'BV1QV4y197Px', 'typename': '竞技体育', 'title': '打拳10年无人问！一招嘲讽天下知！只用一个微笑，让他流量过亿', 'subtitle': '', 'play': 1988871, 'review': 444, 'video_review': 438, 'favorites': 11221, 'mid': 472807620, 'author': '五毒影音', 'description': '打拳10年无人问！一招嘲讽天下知！只用一个微笑，让他流量过亿', 'create': '2023-03-20 16:38', 'pic': 'http://i2.hdslb.com/bfs/archive/15081731db61683d08e95f89feca2287f5fce38d.jpg', 'coins': 646, 'duration': '2:48', 'badgepay': False, 'pts': 719978, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866542413', 'bvid': 'BV1YV4y1X7iF', 'typename': '竞技体育', 'title': '体育800米考试第一名！', 'subtitle': '', 'play': 1931307, 'review': 423, 'video_review': 44, 'favorites': 1332, 'mid': 1942126012, 'author': '阿乐的体育世界', 'description': '-', 'create': '2023-03-25 07:59', 'pic': 'http://i2.hdslb.com/bfs/archive/f979cc17bf2fb516faa8634df4f04b72576123d3.jpg', 'coins': 1820, 'duration': '0:10', 'badgepay': False, 'pts': 278245, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441470673', 'bvid': 'BV17L411D779', 'typename': '竞技体育', 'title': '【摔哥解说】从小弟、到小丑、再到WWE顶级巨星！科迪·罗兹的逆袭人生！', 'subtitle': '', 'play': 115524, 'review': 586, 'video_review': 1168, 'favorites': 1552, 'mid': 440237866, 'author': 'WWE摔哥秀', 'description': '', 'create': '2023-03-22 23:33', 'pic': 'http://i0.hdslb.com/bfs/archive/4b55667faa0244173f5f244a2cbee0d3495ea25c.jpg', 'coins': 4556, 'duration': '21:13', 'badgepay': False, 'pts': 269174, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823788506', 'bvid': 'BV1Wg4y1x7Z2', 'typename': '竞技体育', 'title': '男生和女生喜欢的拳手差别', 'subtitle': '', 'play': 270041, 'review': 328, 'video_review': 195, 'favorites': 1892, 'mid': 620048100, 'author': '格斗阿祖', 'description': '-', 'create': '2023-03-20 16:46', 'pic': 'http://i2.hdslb.com/bfs/archive/d4c11b56d2eafa6aacf09d59f1917733411463b0.jpg', 'coins': 180, 'duration': '1:21', 'badgepay': False, 'pts': 254661, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908817907', 'bvid': 'BV1iM4y167W5', 'typename': '竞技体育', 'title': '《对 你 像 篮 筐 一 样 温 柔》', 'subtitle': '', 'play': 135689, 'review': 39, 'video_review': 11, 'favorites': 1599, 'mid': 429922081, 'author': '老表BA', 'description': '-', 'create': '2023-03-21 22:25', 'pic': 'http://i0.hdslb.com/bfs/archive/a9179dbffa03cd209344ad3145b9608bc96020ea.jpg', 'coins': 217, 'duration': '0:20', 'badgepay': False, 'pts': 224602, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781305358', 'bvid': 'BV1Y24y1E7ct', 'typename': '竞技体育', 'title': '步伐是拳击中最重要的一部分', 'subtitle': '', 'play': 84033, 'review': 27, 'video_review': 8, 'favorites': 2249, 'mid': 2129178270, 'author': '格斗东sir', 'description': '-', 'create': '2023-03-20 19:53', 'pic': 'http://i1.hdslb.com/bfs/archive/343e6723f31b2f8f91f384fa812e717d96fc42d2.jpg', 'coins': 136, 'duration': '0:25', 'badgepay': False, 'pts': 195674, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396406302', 'bvid': 'BV1To4y1s7NW', 'typename': '竞技体育', 'title': '解决掉6年队友！大谷翔平带领日本登顶|世界棒球经典赛高光', 'subtitle': '', 'play': 127463, 'review': 656, 'video_review': 82, 'favorites': 508, 'mid': 260457171, 'author': 'MLB美职棒大联盟', 'description': '大谷百迈火球连发，再见三振迈克-特劳特（Mike Trout），助球队拿下了世界棒球经典赛属于日本队的第3次冠军。', 'create': '2023-03-22 10:51', 'pic': 'http://i0.hdslb.com/bfs/archive/61c32e4ac3e0860baaadc69f6c15a6039f0c2dde.jpg', 'coins': 353, 'duration': '1:06', 'badgepay': False, 'pts': 195536, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268817232', 'bvid': 'BV1yc411j7Ma', 'typename': '竞技体育', 'title': '球场魔术师不是那么好当的，大家慎用，容易打球没朋友', 'subtitle': '', 'play': 78154, 'review': 36, 'video_review': 6, 'favorites': 1583, 'mid': 3493262920780131, 'author': '是布兰登ya', 'description': '球场魔术师不是那么好当的，大家慎用，容易打球没朋友', 'create': '2023-03-21 09:46', 'pic': 'http://i0.hdslb.com/bfs/archive/60e0c41fe7d30f44ecebd869e9f2f30b63706097.jpg', 'coins': 110, 'duration': '1:01', 'badgepay': False, 'pts': 166653, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '696462451', 'bvid': 'BV12m4y1k7nq', 'typename': '健身', 'title': '这种油汪汪的烧烤，减肥一定要多吃！', 'subtitle': '', 'play': 913540, 'review': 641, 'video_review': 188, 'favorites': 83253, 'mid': 1531707, 'author': '叔贵', 'description': '', 'create': '2023-03-23 18:15', 'pic': 'http://i0.hdslb.com/bfs/archive/47d87edb70df8d594307755a550ecf4a86f49fc2.jpg', 'coins': 20943, 'duration': '1:22', 'badgepay': False, 'pts': 3374577, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951433007', 'bvid': 'BV12s4y1n7ns', 'typename': '健身', 'title': '每天5分钟快速消除脂肪腿，强壮腿部肌肉，让你的腿部更有型并促进肌肉生长！', 'subtitle': '', 'play': 390935, 'review': 380, 'video_review': 267, 'favorites': 43845, 'mid': 431528342, 'author': '贫穷健身', 'description': '这期练腿视频主要是强壮您的腿部肌肉，锻炼之前可以适量旋转一下脚踝避免受伤。肌肉放松好物——匹克mini筋膜枪，小巧便携带去健身房也很合适，4个按摩头满足不同按摩需求，快开始居家训练计划吧～本次广告收入将用作我群健身挑战经费，喜欢健身或正在健身小伙伴欢迎加QQ群一起打卡：709503593', 'create': '2023-03-23 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/5a8b8a54e3eb0853b4b6295d7b6a2463653b3e0c.jpg', 'coins': 6375, 'duration': '7:14', 'badgepay': False, 'pts': 1725063, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823985277', 'bvid': 'BV1Cg4y1W7NP', 'typename': '健身', 'title': '随机在清华抓一名学生体验他的运动强项！', 'subtitle': '', 'play': 1060628, 'review': 794, 'video_review': 750, 'favorites': 5947, 'mid': 336563043, 'author': '鹏翼Link', 'description': '-', 'create': '2023-03-23 11:16', 'pic': 'http://i0.hdslb.com/bfs/archive/d58f4fa3cae954ee356dea9fe2189d18d0840eab.jpg', 'coins': 4016, 'duration': '6:10', 'badgepay': False, 'pts': 1338512, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526448445', 'bvid': 'BV1tM411u7RS', 'typename': '健身', 'title': '从此告别熬夜，爱上清晨12min冥想+拉伸，一次高效一整天', 'subtitle': '', 'play': 326135, 'review': 279, 'video_review': 1432, 'favorites': 29265, 'mid': 63486758, 'author': '范李猿', 'description': '晨间冥想+一点点拉伸来啦，特别适合有起床困难或者早起状态一般的朋友，可以有效唤醒身体和精神，实现无痛早起满分开局！我现在基本每天都做哈哈真的有用！那个片尾漂流瓶的小活动有兴趣的可以参与下，哈哈哈很期待和你们一起醒过来！嘿嘿还有~别忘记一点点点支持哦\xa0本期点赞过三万，会继续更新冥想这个系列!谢谢大家啦！', 'create': '2023-03-22 17:55', 'pic': 'http://i2.hdslb.com/bfs/archive/87d74c834e942d4c9803da8447260e7c33fc2dce.jpg', 'coins': 7565, 'duration': '13:58', 'badgepay': False, 'pts': 1276555, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568754125', 'bvid': 'BV1Xv4y1L7fr', 'typename': '健身', 'title': '告别肌肉腿+大腿脂肪！李知恩16分钟最强瘦腿运动，超越女团腿拉伸！（Jiny diet）', 'subtitle': '', 'play': 103749, 'review': 50, 'video_review': 207, 'favorites': 23762, 'mid': 34044873, 'author': '草莓味鸡胸肉', 'description': 'https://www.youtube.com/watch?v=dpBYYEhdofI\n来自李知恩的最强瘦腿攻略！播放量1600万，超越女团腿拉伸！\n缓解肌肉腿+消除大腿脂肪，让你的腿更修长更匀称！同时创造美丽的臀部曲线！\n另外还能燃脂！只需16分钟，快给我冲！', 'create': '2023-03-21 12:14', 'pic': 'http://i2.hdslb.com/bfs/archive/23b5e248328e8eac7de9423ade1861ebb8b38bb2.jpg', 'coins': 643, 'duration': '16:13', 'badgepay': False, 'pts': 740416, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994062246', 'bvid': 'BV14s4y1S7ky', 'typename': '健身', 'title': '我与脂肪不共戴天！', 'subtitle': '', 'play': 389803, 'review': 594, 'video_review': 513, 'favorites': 2350, 'mid': 298054634, 'author': '马哥巨离谱', 'description': '', 'create': '2023-03-24 14:52', 'pic': 'http://i1.hdslb.com/bfs/archive/6d46dd757f1a7e31696d30c45236745a7a3d55f8.jpg', 'coins': 14533, 'duration': '2:56', 'badgepay': False, 'pts': 731945, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824106337', 'bvid': 'BV1ug4y1s7TY', 'typename': '健身', 'title': '从零开始的新技能成长', 'subtitle': '', 'play': 411133, 'review': 348, 'video_review': 237, 'favorites': 3674, 'mid': 1097188235, 'author': '妖腰木', 'description': '', 'create': '2023-03-24 20:30', 'pic': 'http://i1.hdslb.com/bfs/archive/87cbd51d43046e224983b0ec8e649dba1f3f9d79.jpg', 'coins': 1302, 'duration': '1:53', 'badgepay': False, 'pts': 703900, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908760312', 'bvid': 'BV1bM4y167cc', 'typename': '健身', 'title': '正念冥想 | 12min午间小憩，快速恢复脑力，高效专注一下午', 'subtitle': '', 'play': 121827, 'review': 119, 'video_review': 15, 'favorites': 14504, 'mid': 2056112979, 'author': '冥想星球App', 'description': '【专题冥想】\n这次的练习是：午间小憩（长时）\n适合这样的你：没有充分时间进行午睡的人群；想进行日间短暂休息的人群\n开始练习之前：请找一个舒适、安静的地方安顿下来\n冥想星球App出品，更多音频内容欢迎前往体验。', 'create': '2023-03-21 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/2647db7e066affc357b52490ffa657aaf7df3088.jpg', 'coins': 1706, 'duration': '12:21', 'badgepay': False, 'pts': 567361, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483860970', 'bvid': 'BV1uT411r7dc', 'typename': '健身', 'title': '帕梅拉 - 20分钟 高能虐臀 | 健身负重 组间训练 臀部进阶', 'subtitle': '', 'play': 123951, 'review': 177, 'video_review': 266, 'favorites': 11922, 'mid': 604003146, 'author': '帕梅拉PamelaReif', 'description': '我把我最爱的练臀动作都浓缩在这20分钟里了！\n-\n一组不管在家还是在健身房，都可以练的臀部训练\n根据运动情况，可以自选负重\n做完之后，可以改善扁平臀，提高臀线，更显得腿长~', 'create': '2023-03-22 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0c9820e17208cca256197028a999dfe2808c8a96.jpg', 'coins': 791, 'duration': '21:53', 'badgepay': False, 'pts': 508231, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908917664', 'bvid': 'BV1sM4y1B7B7', 'typename': '健身', 'title': '表面肌电实测！哑铃侧平举！', 'subtitle': '', 'play': 171434, 'review': 343, 'video_review': 81, 'favorites': 6135, 'mid': 5396698, 'author': '健身小师傅', 'description': '表面肌电实测！哑铃侧平举！重新认识一下这个动作吧！', 'create': '2023-03-22 20:58', 'pic': 'http://i1.hdslb.com/bfs/archive/4335c814e9823a41c70ca5cbc4b6490a016611c3.jpg', 'coins': 3377, 'duration': '6:01', 'badgepay': False, 'pts': 470870, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>5664933</v>
+        <v>4013135</v>
       </c>
       <c r="I57" t="n">
-        <v>17707</v>
+        <v>61251</v>
       </c>
       <c r="J57" t="n">
-        <v>29323</v>
+        <v>224657</v>
       </c>
       <c r="K57" t="n">
-        <v>19360</v>
+        <v>36718</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>运动文化</t>
+          <t>竞技体育</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>athletic</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>与运动文化相关的视频，包络但不限于球鞋、球衣、球星卡等运动衍生品的分享、解读，体育产业的分析、科普等相关内容</t>
+          <t>与竞技体育相关的视频，包括但不限于乒乓、羽毛球、排球、赛车等竞技项目的赛事、评述、剪辑、剧情等相关内容</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3148,1793 +3144,1785 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>运动(主分区)</t>
+          <t>运动</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[{'aid': '823981022', 'bvid': 'BV1ag4y1W7ii', 'typename': '运动文化', 'title': '修鞋界的颜值天花板是谁？', 'subtitle': '', 'play': 386906, 'review': 359, 'video_review': 97, 'favorites': 2723, 'mid': 526523394, 'author': '修鞋飒飒来', 'description': '修鞋界的颜值天花板是谁？', 'create': '2023-03-22 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/345435245b84de8b8281d4c792bd141e1e03e172.jpg', 'coins': 517, 'duration': '0:38', 'badgepay': False, 'pts': 446917, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994054721', 'bvid': 'BV14s4y1S7ng', 'typename': '运动文化', 'title': '万恶的体测！到底是你不行，还是体测不行？', 'subtitle': '', 'play': 157847, 'review': 2272, 'video_review': 3304, 'favorites': 1693, 'mid': 519899173, 'author': '摸鱼的熊彼得', 'description': '体测是每个学生都躲不过的一道坎。\n本来是为了增强体质才设立的体测，怎么就成了同学们生命中的劫数？这合理吗？', 'create': '2023-03-24 19:02', 'pic': 'http://i1.hdslb.com/bfs/archive/09f9718dec40ae8286ba9803358835afdfb68851.jpg', 'coins': 811, 'duration': '12:44', 'badgepay': False, 'pts': 436536, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696533774', 'bvid': 'BV1Em4y167SH', 'typename': '运动文化', 'title': '国产球鞋的顶峰，真正的韦德之道10：WADE INFINITY 3.0', 'subtitle': '', 'play': 116940, 'review': 414, 'video_review': 988, 'favorites': 933, 'mid': 107130503, 'author': 'XCin_', 'description': '', 'create': '2023-03-24 18:44', 'pic': 'http://i2.hdslb.com/bfs/archive/cb235dade1b85945d11d5a1fc31fe663fed3f6e0.jpg', 'coins': 1954, 'duration': '18:53', 'badgepay': False, 'pts': 241143, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696322646', 'bvid': 'BV1Pm4y1k7Wa', 'typename': '运动文化', 'title': '十三精关开锁——落锁与开锁', 'subtitle': '', 'play': 206040, 'review': 185, 'video_review': 17, 'favorites': 1777, 'mid': 2136402716, 'author': '武术科普君', 'description': '十三精关开锁——落锁与开锁，能够阻闭气血的手法叫落锁，能开窍通塞的叫做开锁', 'create': '2023-03-20 17:02', 'pic': 'http://i0.hdslb.com/bfs/archive/13806817d8a0cdce1a302e988822d8f290f28e30.jpg', 'coins': 64, 'duration': '0:47', 'badgepay': False, 'pts': 234203, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441263243', 'bvid': 'BV1HL411r7Ng', 'typename': '运动文化', 'title': '一条匹克视频掉了几百粉，为什么？', 'subtitle': '', 'play': 225143, 'review': 337, 'video_review': 90, 'favorites': 374, 'mid': 613836272, 'author': 'MannoSports', 'description': '希望大家能告诉我为什么？', 'create': '2023-03-21 18:40', 'pic': 'http://i1.hdslb.com/bfs/archive/3513043f86605505738b31d77524c5b97c2421b0.jpg', 'coins': 1413, 'duration': '1:18', 'badgepay': False, 'pts': 233342, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994068237', 'bvid': 'BV1ns4y1S7wQ', 'typename': '运动文化', 'title': '阿迪给我送了两个大盲盒！一起看看都有什么好东西吧！', 'subtitle': '', 'play': 66403, 'review': 249, 'video_review': 2269, 'favorites': 1036, 'mid': 74112426, 'author': '倓张TanZ', 'description': '', 'create': '2023-03-25 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/684cfa70fc2ca41558fa6795ba45d41f2e34018e.jpg', 'coins': 4618, 'duration': '10:15', 'badgepay': False, 'pts': 157046, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611311378', 'bvid': 'BV1k84y1w7b2', 'typename': '运动文化', 'title': '确实有不错的体验，拆解还有一些小发现！|特步鏖战1代拆解', 'subtitle': '', 'play': 464599, 'review': 99, 'video_review': 27, 'favorites': 1540, 'mid': 244792227, 'author': '果哥拆解_', 'description': '感觉像是和小胖墩恋爱，体验之后才知道内在！', 'create': '2023-03-20 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/186844d780a405c9d80e0f0ed50a3c2a4a4b5e82.jpg', 'coins': 131, 'duration': '0:48', 'badgepay': False, 'pts': 138964, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269012176', 'bvid': 'BV1cc411L7JD', 'typename': '运动文化', 'title': 'EP942_最低80！挑战500元最多能买几双鞋？学生党必入的性价比天花板！既要运动又要休闲！', 'subtitle': '', 'play': 55267, 'review': 223, 'video_review': 1208, 'favorites': 526, 'mid': 15047978, 'author': '极客鞋谈', 'description': '500元大挑战 大家觉得谁赢得了比赛？', 'create': '2023-03-24 18:39', 'pic': 'http://i2.hdslb.com/bfs/archive/f1ee861b47252e30cc0e9b83e14980946c24a840.jpg', 'coins': 799, 'duration': '20:51', 'badgepay': False, 'pts': 122549, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311422140', 'bvid': 'BV1rP411o7hi', 'typename': '运动文化', 'title': '【ENZO】如果它进了年度Top榜单 请不要太意外！锋刺RISE实战测评', 'subtitle': '', 'play': 47728, 'review': 267, 'video_review': 1791, 'favorites': 299, 'mid': 177699597, 'author': 'ENZO1204', 'description': '合作邮箱: Mirindastudio@163.com\n各长短视频平台同名\nWB@崔恩泽Enzo IG: slimcez\n闲置平台-小黄鱼: ENZO1204 (注意搜用户)\n坐标:中国 杭州/ 意大利 米兰', 'create': '2023-03-23 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/32164a696dd72ffa6ddc5dc8c67796f854653e89.jpg', 'coins': 480, 'duration': '11:04', 'badgepay': False, 'pts': 103459, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438832216', 'bvid': 'BV1AL41197RN', 'typename': '运动文化', 'title': '惊喜❗锋刺RISE高强度实战测评：中乔做出了一双旗舰篮球鞋！有自信秀出logo', 'subtitle': '', 'play': 40145, 'review': 343, 'video_review': 854, 'favorites': 340, 'mid': 12572013, 'author': '鞋道馆', 'description': '国乔目前发售定价最高的锋刺RISE，\n没有拇外翻的优秀鞋楦但实际体验下来包裹的锁定更像紧凑版的闪击7，\n大家可能以为锋刺6pro就是国乔的极限了?\n全新结构的锋刺RISE直接篡位，挤掉我曾经最宠幸的CJ1。', 'create': '2023-03-21 19:56', 'pic': 'http://i2.hdslb.com/bfs/archive/681a3cc8dd7af9423d13534d18b8eb84503c9df0.jpg', 'coins': 763, 'duration': '20:40', 'badgepay': False, 'pts': 91844, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '526478073', 'bvid': 'BV1qM411u7FC', 'typename': '竞技体育', 'title': '有没有一种可能我说的不是围棋', 'subtitle': '', 'play': 498258, 'review': 787, 'video_review': 285, 'favorites': 6123, 'mid': 1250115313, 'author': '臭蛋老师-棋理版', 'description': '-', 'create': '2023-03-22 11:20', 'pic': 'http://i1.hdslb.com/bfs/archive/20cef9119b6dd203d65275a294094a8779c97779.jpg', 'coins': 1394, 'duration': '1:02', 'badgepay': False, 'pts': 940670, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951533935', 'bvid': 'BV1Ms4y1H7gr', 'typename': '竞技体育', 'title': '比赛取消，因为我受伤了，明天告诉大家真实情况。', 'subtitle': '', 'play': 462676, 'review': 2121, 'video_review': 1070, 'favorites': 1311, 'mid': 1955151023, 'author': '李景亮mma', 'description': '', 'create': '2023-03-24 18:04', 'pic': 'http://i0.hdslb.com/bfs/archive/06c45e4b0d3c57b3f432623f91f1382948e5ebc7.jpg', 'coins': 8579, 'duration': '1:13', 'badgepay': False, 'pts': 848951, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866272130', 'bvid': 'BV1QV4y197Px', 'typename': '竞技体育', 'title': '打拳10年无人问！一招嘲讽天下知！只用一个微笑，让他流量过亿', 'subtitle': '', 'play': 1996154, 'review': 445, 'video_review': 440, 'favorites': 11266, 'mid': 472807620, 'author': '五毒影音', 'description': '打拳10年无人问！一招嘲讽天下知！只用一个微笑，让他流量过亿', 'create': '2023-03-20 16:38', 'pic': 'http://i2.hdslb.com/bfs/archive/15081731db61683d08e95f89feca2287f5fce38d.jpg', 'coins': 654, 'duration': '2:48', 'badgepay': False, 'pts': 723744, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866542413', 'bvid': 'BV1YV4y1X7iF', 'typename': '竞技体育', 'title': '体育800米考试第一名！', 'subtitle': '', 'play': 1972166, 'review': 433, 'video_review': 44, 'favorites': 1354, 'mid': 1942126012, 'author': '阿乐的体育世界', 'description': '-', 'create': '2023-03-25 07:59', 'pic': 'http://i2.hdslb.com/bfs/archive/f979cc17bf2fb516faa8634df4f04b72576123d3.jpg', 'coins': 1845, 'duration': '0:10', 'badgepay': False, 'pts': 281973, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441470673', 'bvid': 'BV17L411D779', 'typename': '竞技体育', 'title': '【摔哥解说】从小弟、到小丑、再到WWE顶级巨星！科迪·罗兹的逆袭人生！', 'subtitle': '', 'play': 116548, 'review': 574, 'video_review': 1175, 'favorites': 1556, 'mid': 440237866, 'author': 'WWE摔哥秀', 'description': '', 'create': '2023-03-22 23:33', 'pic': 'http://i0.hdslb.com/bfs/archive/4b55667faa0244173f5f244a2cbee0d3495ea25c.jpg', 'coins': 4575, 'duration': '21:13', 'badgepay': False, 'pts': 271144, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823788506', 'bvid': 'BV1Wg4y1x7Z2', 'typename': '竞技体育', 'title': '男生和女生喜欢的拳手差别', 'subtitle': '', 'play': 271042, 'review': 332, 'video_review': 196, 'favorites': 1912, 'mid': 620048100, 'author': '格斗阿祖', 'description': '-', 'create': '2023-03-20 16:46', 'pic': 'http://i2.hdslb.com/bfs/archive/d4c11b56d2eafa6aacf09d59f1917733411463b0.jpg', 'coins': 185, 'duration': '1:21', 'badgepay': False, 'pts': 256397, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908817907', 'bvid': 'BV1iM4y167W5', 'typename': '竞技体育', 'title': '《对 你 像 篮 筐 一 样 温 柔》', 'subtitle': '', 'play': 138109, 'review': 39, 'video_review': 11, 'favorites': 1625, 'mid': 429922081, 'author': '老表BA', 'description': '-', 'create': '2023-03-21 22:25', 'pic': 'http://i0.hdslb.com/bfs/archive/a9179dbffa03cd209344ad3145b9608bc96020ea.jpg', 'coins': 229, 'duration': '0:20', 'badgepay': False, 'pts': 228937, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396406302', 'bvid': 'BV1To4y1s7NW', 'typename': '竞技体育', 'title': '解决掉6年队友！大谷翔平带领日本登顶|世界棒球经典赛高光', 'subtitle': '', 'play': 128079, 'review': 660, 'video_review': 82, 'favorites': 509, 'mid': 260457171, 'author': 'MLB美职棒大联盟', 'description': '大谷百迈火球连发，再见三振迈克-特劳特（Mike Trout），助球队拿下了世界棒球经典赛属于日本队的第3次冠军。', 'create': '2023-03-22 10:51', 'pic': 'http://i0.hdslb.com/bfs/archive/61c32e4ac3e0860baaadc69f6c15a6039f0c2dde.jpg', 'coins': 353, 'duration': '1:06', 'badgepay': False, 'pts': 196804, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268817232', 'bvid': 'BV1yc411j7Ma', 'typename': '竞技体育', 'title': '球场魔术师不是那么好当的，大家慎用，容易打球没朋友', 'subtitle': '', 'play': 79947, 'review': 37, 'video_review': 7, 'favorites': 1627, 'mid': 3493262920780131, 'author': '是布兰登ya', 'description': '球场魔术师不是那么好当的，大家慎用，容易打球没朋友', 'create': '2023-03-21 09:46', 'pic': 'http://i0.hdslb.com/bfs/archive/60e0c41fe7d30f44ecebd869e9f2f30b63706097.jpg', 'coins': 112, 'duration': '1:01', 'badgepay': False, 'pts': 170866, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526325456', 'bvid': 'BV14M411p7LV', 'typename': '竞技体育', 'title': '今日已回国，师兄弟们夹道欢迎有点受宠若惊哈', 'subtitle': '', 'play': 771902, 'review': 239, 'video_review': 145, 'favorites': 241, 'mid': 701242047, 'author': '白雨露-Snooker', 'description': '-', 'create': '2023-03-21 16:06', 'pic': 'http://i1.hdslb.com/bfs/archive/37bd07426ebf974fca71adeb3ba7df9d1a561655.jpg', 'coins': 685, 'duration': '3:24', 'badgepay': False, 'pts': 154735, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1767018</v>
+        <v>6434881</v>
       </c>
       <c r="I58" t="n">
-        <v>11550</v>
+        <v>18611</v>
       </c>
       <c r="J58" t="n">
-        <v>11241</v>
+        <v>27524</v>
       </c>
       <c r="K58" t="n">
-        <v>3352</v>
+        <v>19360</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>运动综合</t>
+          <t>运动文化</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>comprehensive</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>与运动综合相关的视频，包括但不限于钓鱼、骑行、滑板等日常运动分享、教学、Vlog等相关内容</t>
+          <t>与运动文化相关的视频，包络但不限于球鞋、球衣、球星卡等运动衍生品的分享、解读，体育产业的分析、科普等相关内容</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>/v/sports/comprehensive</t>
+          <t>/v/sports/culture(opens new window)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>运动(主分区)</t>
+          <t>运动</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[{'aid': '353983092', 'bvid': 'BV1zX4y1d7NR', 'typename': '运动综合', 'title': '来一次灵魂之间的交流', 'subtitle': '', 'play': 1679987, 'review': 627, 'video_review': 141, 'favorites': 19691, 'mid': 3493261415024960, 'author': '滑板星仔k', 'description': '', 'create': '2023-03-22 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/056349fe21adf71eadc4bc4cd17ccd57d15ffb36.jpg', 'coins': 7078, 'duration': '0:31', 'badgepay': False, 'pts': 2537745, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568782824', 'bvid': 'BV1wv4y1j7ha', 'typename': '运动综合', 'title': '这动作直接封神', 'subtitle': '', 'play': 912739, 'review': 1097, 'video_review': 351, 'favorites': 6546, 'mid': 512308915, 'author': '有点功夫', 'description': '真高手在民间', 'create': '2023-03-21 18:03', 'pic': 'http://i1.hdslb.com/bfs/archive/bb464c0af4fcd16021d669351816f27f12e3afcb.jpg', 'coins': 1865, 'duration': '0:20', 'badgepay': False, 'pts': 1229015, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526325647', 'bvid': 'BV14M411p7n9', 'typename': '运动综合', 'title': '滑板不如跳舞2.0', 'subtitle': '', 'play': 562694, 'review': 222, 'video_review': 45, 'favorites': 4953, 'mid': 1048444851, 'author': 'FAN老师', 'description': '-', 'create': '2023-03-23 15:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b89c8cae02baa8cae425745225bb66c3f22d465a.jpg', 'coins': 877, 'duration': '0:13', 'badgepay': False, 'pts': 877268, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268849414', 'bvid': 'BV19c411j71N', 'typename': '运动综合', 'title': '震惊老外！果然中国人人均会点功夫！', 'subtitle': '', 'play': 445277, 'review': 972, 'video_review': 660, 'favorites': 3539, 'mid': 572168985, 'author': '斜杠玩家吉叔', 'description': '', 'create': '2023-03-20 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/a0a962f97fc060c29939fb98ba80033d224d27ca.jpg', 'coins': 9101, 'duration': '0:52', 'badgepay': False, 'pts': 813052, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781273722', 'bvid': 'BV1H24y1E7oo', 'typename': '运动综合', 'title': '一次性看18种冷兵器，武器名字你来命名', 'subtitle': '', 'play': 353116, 'review': 302, 'video_review': 652, 'favorites': 4981, 'mid': 1785452619, 'author': '_锤哥_', 'description': '-', 'create': '2023-03-21 15:00', 'pic': 'http://i1.hdslb.com/bfs/archive/8c7f75ad509509b9654a311ad2c2e8bb52134b1e.jpg', 'coins': 295, 'duration': '3:13', 'badgepay': False, 'pts': 685913, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781322726', 'bvid': 'BV1m24y1E7GV', 'typename': '运动综合', 'title': '中国-法国跨越12000公里！答应你们的炸街来了！', 'subtitle': '', 'play': 349062, 'review': 415, 'video_review': 229, 'favorites': 1973, 'mid': 70558006, 'author': '凌云仗剑走天涯', 'description': '', 'create': '2023-03-20 21:45', 'pic': 'http://i0.hdslb.com/bfs/archive/64ba2fe804077202da81f72a6c0bba5fb1d45a59.jpg', 'coins': 2945, 'duration': '0:21', 'badgepay': False, 'pts': 578000, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441273772', 'bvid': 'BV1VL411r7LV', 'typename': '运动综合', 'title': '那些你隔着屏幕都能感受到的快乐  (*^▽^*)', 'subtitle': '', 'play': 269035, 'review': 469, 'video_review': 74, 'favorites': 3235, 'mid': 31696186, 'author': '奥地利RedBull', 'description': '欢乐第一，创意第二。作为世界上最另类的赛车比赛之一，肥皂飞车（SoapBox）自2000年由奥地利Red Bull举办以来，一直深受无数人的喜爱。假如你期待看到各种天马行空的汽车设计，各种令人捧腹大笑的比赛过程，那这个视频一定不会令你失望。', 'create': '2023-03-25 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/8006fd20e99214a1449f89309b62c0e3dc5ac717.jpg', 'coins': 175, 'duration': '0:49', 'badgepay': False, 'pts': 571420, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438914258', 'bvid': 'BV1EL41197bx', 'typename': '运动综合', 'title': '把全村钓鱼佬按在地上摩擦是种什么体验', 'subtitle': '', 'play': 238712, 'review': 831, 'video_review': 2461, 'favorites': 1073, 'mid': 593920494, 'author': '荷塘星星', 'description': '鱼钓得越多亏损越大\nBGM:春三月-司南', 'create': '2023-03-23 17:40', 'pic': 'http://i0.hdslb.com/bfs/archive/825fb9b47292ee0fff8fb353e6e648a21a878322.jpg', 'coins': 12284, 'duration': '10:19', 'badgepay': False, 'pts': 502393, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866553093', 'bvid': 'BV1yV4y1X7Cz', 'typename': '运动综合', 'title': '灵山水库盘老板', 'subtitle': '', 'play': 192765, 'review': 728, 'video_review': 2116, 'favorites': 451, 'mid': 1967716624, 'author': '天元-邓刚', 'description': '-', 'create': '2023-03-25 17:10', 'pic': 'http://i2.hdslb.com/bfs/archive/d09ab1a9c4c3741a88406f9659f1c7d6487d565d.jpg', 'coins': 1161, 'duration': '12:59', 'badgepay': False, 'pts': 372573, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311362897', 'bvid': 'BV1eP411o7RG', 'typename': '运动综合', 'title': '【WarGame下场】粉色格洛克g17不能开火全靠吼，偷袭', 'subtitle': '', 'play': 3305530, 'review': 512, 'video_review': 151, 'favorites': 1670, 'mid': 352815554, 'author': '战术小佑', 'description': '我一向很快比较选好粉色', 'create': '2023-03-21 15:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d84c20af74f256bb72e8f58ca40e6dc30af7941e.jpg', 'coins': 413, 'duration': '1:07', 'badgepay': False, 'pts': 366762, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '994054721', 'bvid': 'BV14s4y1S7ng', 'typename': '运动文化', 'title': '万恶的体测！到底是你不行，还是体测不行？', 'subtitle': '', 'play': 168436, 'review': 2380, 'video_review': 3440, 'favorites': 1786, 'mid': 519899173, 'author': '摸鱼的熊彼得', 'description': '体测是每个学生都躲不过的一道坎。\n本来是为了增强体质才设立的体测，怎么就成了同学们生命中的劫数？这合理吗？', 'create': '2023-03-24 19:02', 'pic': 'http://i1.hdslb.com/bfs/archive/09f9718dec40ae8286ba9803358835afdfb68851.jpg', 'coins': 886, 'duration': '12:44', 'badgepay': False, 'pts': 461069, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823981022', 'bvid': 'BV1ag4y1W7ii', 'typename': '运动文化', 'title': '修鞋界的颜值天花板是谁？', 'subtitle': '', 'play': 387290, 'review': 359, 'video_review': 97, 'favorites': 2724, 'mid': 526523394, 'author': '修鞋飒飒来', 'description': '修鞋界的颜值天花板是谁？', 'create': '2023-03-22 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/345435245b84de8b8281d4c792bd141e1e03e172.jpg', 'coins': 520, 'duration': '0:38', 'badgepay': False, 'pts': 447465, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696533774', 'bvid': 'BV1Em4y167SH', 'typename': '运动文化', 'title': '国产球鞋的顶峰，真正的韦德之道10：WADE INFINITY 3.0', 'subtitle': '', 'play': 118939, 'review': 417, 'video_review': 1001, 'favorites': 937, 'mid': 107130503, 'author': 'XCin_', 'description': '', 'create': '2023-03-24 18:44', 'pic': 'http://i2.hdslb.com/bfs/archive/cb235dade1b85945d11d5a1fc31fe663fed3f6e0.jpg', 'coins': 1963, 'duration': '18:53', 'badgepay': False, 'pts': 244673, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441263243', 'bvid': 'BV1HL411r7Ng', 'typename': '运动文化', 'title': '一条匹克视频掉了几百粉，为什么？', 'subtitle': '', 'play': 226646, 'review': 337, 'video_review': 90, 'favorites': 380, 'mid': 613836272, 'author': 'MannoSports', 'description': '希望大家能告诉我为什么？', 'create': '2023-03-21 18:40', 'pic': 'http://i1.hdslb.com/bfs/archive/3513043f86605505738b31d77524c5b97c2421b0.jpg', 'coins': 1421, 'duration': '1:18', 'badgepay': False, 'pts': 235952, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696322646', 'bvid': 'BV1Pm4y1k7Wa', 'typename': '运动文化', 'title': '十三精关开锁——落锁与开锁', 'subtitle': '', 'play': 206136, 'review': 187, 'video_review': 17, 'favorites': 1783, 'mid': 2136402716, 'author': '武术科普君', 'description': '十三精关开锁——落锁与开锁，能够阻闭气血的手法叫落锁，能开窍通塞的叫做开锁', 'create': '2023-03-20 17:02', 'pic': 'http://i0.hdslb.com/bfs/archive/13806817d8a0cdce1a302e988822d8f290f28e30.jpg', 'coins': 64, 'duration': '0:47', 'badgepay': False, 'pts': 234456, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994068237', 'bvid': 'BV1ns4y1S7wQ', 'typename': '运动文化', 'title': '阿迪给我送了两个大盲盒！一起看看都有什么好东西吧！', 'subtitle': '', 'play': 71236, 'review': 261, 'video_review': 2301, 'favorites': 1057, 'mid': 74112426, 'author': '倓张TanZ', 'description': '', 'create': '2023-03-25 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/684cfa70fc2ca41558fa6795ba45d41f2e34018e.jpg', 'coins': 4769, 'duration': '10:15', 'badgepay': False, 'pts': 166705, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611311378', 'bvid': 'BV1k84y1w7b2', 'typename': '运动文化', 'title': '确实有不错的体验，拆解还有一些小发现！|特步鏖战1代拆解', 'subtitle': '', 'play': 466957, 'review': 99, 'video_review': 27, 'favorites': 1541, 'mid': 244792227, 'author': '果哥拆解_', 'description': '感觉像是和小胖墩恋爱，体验之后才知道内在！', 'create': '2023-03-20 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/186844d780a405c9d80e0f0ed50a3c2a4a4b5e82.jpg', 'coins': 131, 'duration': '0:48', 'badgepay': False, 'pts': 141992, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269012176', 'bvid': 'BV1cc411L7JD', 'typename': '运动文化', 'title': 'EP942_最低80！挑战500元最多能买几双鞋？学生党必入的性价比天花板！既要运动又要休闲！', 'subtitle': '', 'play': 56433, 'review': 224, 'video_review': 1215, 'favorites': 530, 'mid': 15047978, 'author': '极客鞋谈', 'description': '500元大挑战 大家觉得谁赢得了比赛？', 'create': '2023-03-24 18:39', 'pic': 'http://i2.hdslb.com/bfs/archive/f1ee861b47252e30cc0e9b83e14980946c24a840.jpg', 'coins': 801, 'duration': '20:51', 'badgepay': False, 'pts': 124789, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311422140', 'bvid': 'BV1rP411o7hi', 'typename': '运动文化', 'title': '【ENZO】如果它进了年度Top榜单 请不要太意外！锋刺RISE实战测评', 'subtitle': '', 'play': 48454, 'review': 269, 'video_review': 1800, 'favorites': 301, 'mid': 177699597, 'author': 'ENZO1204', 'description': '合作邮箱: Mirindastudio@163.com\n各长短视频平台同名\nWB@崔恩泽Enzo IG: slimcez\n闲置平台-小黄鱼: ENZO1204 (注意搜用户)\n坐标:中国 杭州/ 意大利 米兰', 'create': '2023-03-23 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/32164a696dd72ffa6ddc5dc8c67796f854653e89.jpg', 'coins': 487, 'duration': '11:04', 'badgepay': False, 'pts': 104896, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438832216', 'bvid': 'BV1AL41197RN', 'typename': '运动文化', 'title': '惊喜❗锋刺RISE高强度实战测评：中乔做出了一双旗舰篮球鞋！有自信秀出logo', 'subtitle': '', 'play': 40448, 'review': 343, 'video_review': 854, 'favorites': 340, 'mid': 12572013, 'author': '鞋道馆', 'description': '国乔目前发售定价最高的锋刺RISE，\n没有拇外翻的优秀鞋楦但实际体验下来包裹的锁定更像紧凑版的闪击7，\n大家可能以为锋刺6pro就是国乔的极限了?\n全新结构的锋刺RISE直接篡位，挤掉我曾经最宠幸的CJ1。', 'create': '2023-03-21 19:56', 'pic': 'http://i2.hdslb.com/bfs/archive/681a3cc8dd7af9423d13534d18b8eb84503c9df0.jpg', 'coins': 765, 'duration': '20:40', 'badgepay': False, 'pts': 92305, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>8308917</v>
+        <v>1790975</v>
       </c>
       <c r="I59" t="n">
-        <v>36194</v>
+        <v>11807</v>
       </c>
       <c r="J59" t="n">
-        <v>48112</v>
+        <v>11379</v>
       </c>
       <c r="K59" t="n">
-        <v>18314</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>赛车</t>
+          <t>运动综合</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>racing</t>
+          <t>comprehensive</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>f1等汽车运动相关</t>
+          <t>与运动综合相关的视频，包括但不限于钓鱼、骑行、滑板等日常运动分享、教学、Vlog等相关内容</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>/v/car/racing(opens new window)</t>
+          <t>/v/sports/comprehensive</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>汽车(主分区)</t>
+          <t>运动</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[{'aid': '268769882', 'bvid': 'BV1Bc411j7vu', 'typename': '赛车', 'title': '日产GTR，打得过宝马M4？', 'subtitle': '', 'play': 144196, 'review': 643, 'video_review': 1942, 'favorites': 919, 'mid': 1772592840, 'author': '易车圈速榜', 'description': '传承15年R35精华，50年战神精神，GT-R来了', 'create': '2023-03-22 11:45', 'pic': 'http://i2.hdslb.com/bfs/archive/55de922bab6ecee2e430b6064b3fe569e947a799.jpg', 'coins': 2912, 'duration': '12:06', 'badgepay': False, 'pts': 320142, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438921628', 'bvid': 'BV1HL41197EU', 'typename': '赛车', 'title': '【村长F1】一年烧掉1000多万！昂贵的F1轮胎技术与发展史', 'subtitle': '', 'play': 141321, 'review': 205, 'video_review': 697, 'favorites': 1130, 'mid': 435203110, 'author': '村长托马斯', 'description': '', 'create': '2023-03-22 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/fe1f63192bdfdcce3154474778ed05a52c93ba15.jpg', 'coins': 1629, 'duration': '13:18', 'badgepay': False, 'pts': 260780, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396328103', 'bvid': 'BV1fo4y1q77m', 'typename': '赛车', 'title': '2023 F1 R02 沙特阿拉伯 正赛 兵飞然解说 1080P HD', 'subtitle': '', 'play': 120913, 'review': 483, 'video_review': 3590, 'favorites': 845, 'mid': 12212413, 'author': 'Max-Verstappen', 'description': 'https://space.bilibili.com/12212413', 'create': '2023-03-20 06:20', 'pic': 'http://i1.hdslb.com/bfs/archive/6fd0b57e62665470ff8a433c58c0261d7d9a2822.jpg', 'coins': 580, 'duration': '120:32', 'badgepay': False, 'pts': 212387, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353790038', 'bvid': 'BV1nX4y1Z7Y2', 'typename': '赛车', 'title': '领航员甚至连笔都没掉！', 'subtitle': '', 'play': 288023, 'review': 314, 'video_review': 126, 'favorites': 1204, 'mid': 1495722390, 'author': '极致拉力', 'description': '-', 'create': '2023-03-21 13:35', 'pic': 'http://i2.hdslb.com/bfs/archive/e535fe21bf4bb7745a64f0ebe5361cda0429a757.jpg', 'coins': 214, 'duration': '0:53', 'badgepay': False, 'pts': 175750, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226153929', 'bvid': 'BV1qb411Z7w5', 'typename': '赛车', 'title': '2023 F1 沙特站 正赛 五星体育 兵哥 飞哥 然哥', 'subtitle': '', 'play': 97159, 'review': 267, 'video_review': 2273, 'favorites': 340, 'mid': 381823907, 'author': '极速FONE', 'description': '五星体育', 'create': '2023-03-20 03:17', 'pic': 'http://i2.hdslb.com/bfs/archive/fa27f57285bb18b7955a2568670eccdcb2ed314f.jpg', 'coins': 225, 'duration': '110:32', 'badgepay': False, 'pts': 157001, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226317866', 'bvid': 'BV12b411d7cX', 'typename': '赛车', 'title': '两分钟看懂F1沙特站—— 阿隆索季军的规则漏洞 【虾哥方程式】', 'subtitle': '', 'play': 100012, 'review': 370, 'video_review': 388, 'favorites': 369, 'mid': 667277633, 'author': '虾哥方程式', 'description': '', 'create': '2023-03-21 00:25', 'pic': 'http://i1.hdslb.com/bfs/archive/9d736b37a7d69066e6874af3c16b89f63d2df70b.jpg', 'coins': 488, 'duration': '10:39', 'badgepay': False, 'pts': 155871, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781287736', 'bvid': 'BV1B24y1E7Tx', 'typename': '赛车', 'title': '车子快的毫无人性！2023沙特大奖赛正赛，维斯塔潘车载+遥测+地图信息', 'subtitle': '', 'play': 83160, 'review': 222, 'video_review': 416, 'favorites': 584, 'mid': 2044120202, 'author': '进胎换站的BOX', 'description': '车子快的毫无人性！2023沙特大奖赛正赛，维斯塔潘车载+遥测+地图信息', 'create': '2023-03-20 19:55', 'pic': 'http://i0.hdslb.com/bfs/archive/4f4bf9c6779c55480f68b41575649d08abfc2ee8.jpg', 'coins': 117, 'duration': '84:37', 'badgepay': False, 'pts': 142743, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611254443', 'bvid': 'BV1q84y1w7AQ', 'typename': '赛车', 'title': '【F1沙特战报】正赛，结局反转，再反转！一波三折！ | 周冠宇赛后采访 （2023赛季）', 'subtitle': '', 'play': 86523, 'review': 639, 'video_review': 531, 'favorites': 180, 'mid': 65125803, 'author': 'F1赛事资讯', 'description': '【F1沙特战报】正赛，结局反转，再反转！一波三折！ | 周冠宇赛后采访 （2023赛季）', 'create': '2023-03-20 08:20', 'pic': 'http://i2.hdslb.com/bfs/archive/8b2bf6ff355249496c76c76beeeac205608b0208.jpg', 'coins': 555, 'duration': '8:19', 'badgepay': False, 'pts': 116056, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311333503', 'bvid': 'BV1xP411o72p', 'typename': '赛车', 'title': '【主观臆断 E19】沙特复盘，红牛的凶兆，千里之堤溃于蚁穴？', 'subtitle': '', 'play': 48864, 'review': 730, 'video_review': 229, 'favorites': 146, 'mid': 526479054, 'author': '飞哥的P房', 'description': '', 'create': '2023-03-21 08:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c3ab491dbab8e72d240be1b5b77e86149c0aa254.jpg', 'coins': 194, 'duration': '5:42', 'badgepay': False, 'pts': 106292, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353855787', 'bvid': 'BV1rX4y1Z7MS', 'typename': '赛车', 'title': '数据看红牛队十足的火药味：沙特站正赛解析【F117赛车】', 'subtitle': '', 'play': 54046, 'review': 322, 'video_review': 602, 'favorites': 236, 'mid': 33059473, 'author': 'Chester117', 'description': '阿隆索薛定谔的第三名，梅奔的计谋小招，冠宇起跑总算硬气了一回，以及为何本应开心胜利的佩大师，居然觉得受到了车队的不公正对待？', 'create': '2023-03-20 22:00', 'pic': 'http://i2.hdslb.com/bfs/archive/ed4dc086f9662806aacb3d0f588dc5d3cb365bfa.jpg', 'coins': 353, 'duration': '8:55', 'badgepay': False, 'pts': 100908, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '353983092', 'bvid': 'BV1zX4y1d7NR', 'typename': '运动综合', 'title': '来一次灵魂之间的交流', 'subtitle': '', 'play': 1792544, 'review': 673, 'video_review': 158, 'favorites': 21303, 'mid': 3493261415024960, 'author': '滑板星仔k', 'description': '', 'create': '2023-03-22 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/056349fe21adf71eadc4bc4cd17ccd57d15ffb36.jpg', 'coins': 7734, 'duration': '0:31', 'badgepay': False, 'pts': 2656205, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568782824', 'bvid': 'BV1wv4y1j7ha', 'typename': '运动综合', 'title': '这动作直接封神', 'subtitle': '', 'play': 921300, 'review': 1109, 'video_review': 353, 'favorites': 6625, 'mid': 512308915, 'author': '有点功夫', 'description': '真高手在民间', 'create': '2023-03-21 18:03', 'pic': 'http://i1.hdslb.com/bfs/archive/bb464c0af4fcd16021d669351816f27f12e3afcb.jpg', 'coins': 1885, 'duration': '0:20', 'badgepay': False, 'pts': 1238503, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526325647', 'bvid': 'BV14M411p7n9', 'typename': '运动综合', 'title': '滑板不如跳舞2.0', 'subtitle': '', 'play': 571952, 'review': 229, 'video_review': 47, 'favorites': 5053, 'mid': 1048444851, 'author': 'FAN老师', 'description': '-', 'create': '2023-03-23 15:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b89c8cae02baa8cae425745225bb66c3f22d465a.jpg', 'coins': 906, 'duration': '0:13', 'badgepay': False, 'pts': 889271, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781273722', 'bvid': 'BV1H24y1E7oo', 'typename': '运动综合', 'title': '一次性看18种冷兵器，武器名字你来命名', 'subtitle': '', 'play': 356717, 'review': 304, 'video_review': 654, 'favorites': 5028, 'mid': 1785452619, 'author': '_锤哥_', 'description': '-', 'create': '2023-03-21 15:00', 'pic': 'http://i1.hdslb.com/bfs/archive/8c7f75ad509509b9654a311ad2c2e8bb52134b1e.jpg', 'coins': 301, 'duration': '3:13', 'badgepay': False, 'pts': 691026, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781322726', 'bvid': 'BV1m24y1E7GV', 'typename': '运动综合', 'title': '中国-法国跨越12000公里！答应你们的炸街来了！', 'subtitle': '', 'play': 351406, 'review': 416, 'video_review': 230, 'favorites': 1982, 'mid': 70558006, 'author': '凌云仗剑走天涯', 'description': '', 'create': '2023-03-20 21:45', 'pic': 'http://i0.hdslb.com/bfs/archive/64ba2fe804077202da81f72a6c0bba5fb1d45a59.jpg', 'coins': 2960, 'duration': '0:21', 'badgepay': False, 'pts': 581369, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441273772', 'bvid': 'BV1VL411r7LV', 'typename': '运动综合', 'title': '那些你隔着屏幕都能感受到的快乐  (*^▽^*)', 'subtitle': '', 'play': 269682, 'review': 485, 'video_review': 78, 'favorites': 3245, 'mid': 31696186, 'author': '奥地利RedBull', 'description': '欢乐第一，创意第二。作为世界上最另类的赛车比赛之一，肥皂飞车（SoapBox）自2000年由奥地利Red Bull举办以来，一直深受无数人的喜爱。假如你期待看到各种天马行空的汽车设计，各种令人捧腹大笑的比赛过程，那这个视频一定不会令你失望。', 'create': '2023-03-25 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/8006fd20e99214a1449f89309b62c0e3dc5ac717.jpg', 'coins': 177, 'duration': '0:49', 'badgepay': False, 'pts': 573841, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438914258', 'bvid': 'BV1EL41197bx', 'typename': '运动综合', 'title': '把全村钓鱼佬按在地上摩擦是种什么体验', 'subtitle': '', 'play': 240992, 'review': 833, 'video_review': 2467, 'favorites': 1076, 'mid': 593920494, 'author': '荷塘星星', 'description': '鱼钓得越多亏损越大\nBGM:春三月-司南', 'create': '2023-03-23 17:40', 'pic': 'http://i0.hdslb.com/bfs/archive/825fb9b47292ee0fff8fb353e6e648a21a878322.jpg', 'coins': 12330, 'duration': '10:19', 'badgepay': False, 'pts': 506210, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866553093', 'bvid': 'BV1yV4y1X7Cz', 'typename': '运动综合', 'title': '灵山水库盘老板', 'subtitle': '', 'play': 199661, 'review': 749, 'video_review': 2184, 'favorites': 460, 'mid': 1967716624, 'author': '天元-邓刚', 'description': '-', 'create': '2023-03-25 17:10', 'pic': 'http://i2.hdslb.com/bfs/archive/d09ab1a9c4c3741a88406f9659f1c7d6487d565d.jpg', 'coins': 1195, 'duration': '12:59', 'badgepay': False, 'pts': 383716, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526535590', 'bvid': 'BV1RM411u7uW', 'typename': '运动综合', 'title': '对不起！我为之前说的大板鲫道歉', 'subtitle': '', 'play': 180350, 'review': 569, 'video_review': 1750, 'favorites': 621, 'mid': 36909511, 'author': '去种田的向凹凸', 'description': '还得是春钓滩', 'create': '2023-03-24 17:10', 'pic': 'http://i1.hdslb.com/bfs/archive/0955ec6067bd1bdf8e1727f4c0af3a53caf4a06d.jpg', 'coins': 6519, 'duration': '10:35', 'badgepay': False, 'pts': 370402, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311362897', 'bvid': 'BV1eP411o7RG', 'typename': '运动综合', 'title': '【WarGame下场】粉色格洛克g17不能开火全靠吼，偷袭', 'subtitle': '', 'play': 3336435, 'review': 515, 'video_review': 152, 'favorites': 1705, 'mid': 352815554, 'author': '战术小佑', 'description': '我一向很快比较选好粉色', 'create': '2023-03-21 15:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d84c20af74f256bb72e8f58ca40e6dc30af7941e.jpg', 'coins': 420, 'duration': '1:07', 'badgepay': False, 'pts': 369030, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1164217</v>
+        <v>8221039</v>
       </c>
       <c r="I60" t="n">
-        <v>7267</v>
+        <v>34427</v>
       </c>
       <c r="J60" t="n">
-        <v>5953</v>
+        <v>47098</v>
       </c>
       <c r="K60" t="n">
-        <v>2464</v>
+        <v>18314</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>改装玩车</t>
+          <t>赛车</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>modifiedvehicle</t>
+          <t>racing</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>汽车文化及改装车相关内容，包括改装车、老车修复介绍、汽车聚会分享等内容</t>
+          <t>f1等汽车运动相关</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>/v/car/modifiedvehicle(opens new window)</t>
+          <t>/v/car/racing(opens new window)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>汽车(主分区)</t>
+          <t>汽车</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[{'aid': '483979460', 'bvid': 'BV1RT411B7YX', 'typename': '改装玩车', 'title': '认真工作的男人最帅？                                                          呸~去K滴微的男人最帅！', 'subtitle': '', 'play': 275459, 'review': 134, 'video_review': 40, 'favorites': 2041, 'mid': 22184868, 'author': 'goodgod-auto', 'description': '素材  gchrisfx\n音乐  Roses\xa0bootleg\xa0remix\xa0-NNBeat$\n歌单  goodgod-BGM\n车型  Audi Twin Turbo R8', 'create': '2023-03-23 17:19', 'pic': 'http://i2.hdslb.com/bfs/archive/6823633a319a81054e0f6b0b11a567037f01d343.jpg', 'coins': 652, 'duration': '0:17', 'badgepay': False, 'pts': 328339, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696537185', 'bvid': 'BV1Jm4y167Uj', 'typename': '改装玩车', 'title': '一年爆赚400亿？宇宙最强法拉利割尽天下富豪！销量+营收+利润全部创造70余年新巅峰【镖车·法拉利】', 'subtitle': '', 'play': 137334, 'review': 436, 'video_review': 638, 'favorites': 1926, 'mid': 1575718735, 'author': '保镖的车库', 'description': '不多说，看视频，如果觉得还行，希望点赞鼓励一下', 'create': '2023-03-25 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/480b2c427f831cab2082adb5524255da94d1b757.jpg', 'coins': 3837, 'duration': '11:46', 'badgepay': False, 'pts': 308909, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483780937', 'bvid': 'BV1eT41167LF', 'typename': '改装玩车', 'title': '赢了对手，输了世界，曾年销100万辆的斯巴鲁和三菱，当年有多狂？', 'subtitle': '', 'play': 114169, 'review': 184, 'video_review': 1210, 'favorites': 4251, 'mid': 429306775, 'author': '王洪浩的lu', 'description': '红蓝大战是JDM粉丝心目中最热血的battle，这期视频，带大家一起走进红蓝大战。', 'create': '2023-03-22 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/62ccf4ba42906ddb98bff8a1298aa39b1737dd83.jpg', 'coins': 1315, 'duration': '4:59', 'badgepay': False, 'pts': 306876, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568908298', 'bvid': 'BV1Fv4y157r7', 'typename': '改装玩车', 'title': '再见了我的重装小兔19c,我人生中的第一俩痛车。当真正的分别来临。真的很难割舍。.·´¯`(&gt;▂&lt;)´¯`·.', 'subtitle': '', 'play': 117812, 'review': 175, 'video_review': 21, 'favorites': 2253, 'mid': 94732900, 'author': 'lmzs丶彦', 'description': '再见了我的重装小兔19c,我人生中的第一俩痛车。当真正的分别来临。真的很难割舍。.·´¯`(&gt;▂&lt;)´¯`·.', 'create': '2023-03-23 03:20', 'pic': 'http://i1.hdslb.com/bfs/archive/7369cba10891c57f0b6381c775ae824bc48445d4.jpg', 'coins': 315, 'duration': '0:28', 'badgepay': False, 'pts': 270615, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526504551', 'bvid': 'BV12M411u73w', 'typename': '改装玩车', 'title': '呜呼～挖槽', 'subtitle': '', 'play': 106395, 'review': 222, 'video_review': 52, 'favorites': 2776, 'mid': 262995232, 'author': '电车都是工业垃圾', 'description': 'TK', 'create': '2023-03-24 09:27', 'pic': 'http://i2.hdslb.com/bfs/archive/6bb8fdcb46eeba8878b7deb01312925cb9f6eaca.jpg', 'coins': 265, 'duration': '0:11', 'badgepay': False, 'pts': 268680, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569062328', 'bvid': 'BV1fv4y157n6', 'typename': '改装玩车', 'title': '沉浸式体验1979凯迪拉克Sedan Deville', 'subtitle': '', 'play': 126410, 'review': 178, 'video_review': 138, 'favorites': 954, 'mid': 517382947, 'author': '快乐Hub', 'description': '-', 'create': '2023-03-24 22:34', 'pic': 'http://i1.hdslb.com/bfs/archive/88d21491df944bdb2864ddbc4edd1f4877230def.jpg', 'coins': 97, 'duration': '0:55', 'badgepay': False, 'pts': 167149, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353694161', 'bvid': 'BV1XX4y1o73Z', 'typename': '改装玩车', 'title': '他凌驾于所有超跑之上，甚至比F1赛车都要快。不但直线快弯道更快 #道奇srt战斧x', 'subtitle': '', 'play': 448685, 'review': 517, 'video_review': 331, 'favorites': 791, 'mid': 1033818147, 'author': '新车速递', 'description': '-', 'create': '2023-03-20 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/a4f3226257129c074422b62929213da49fce3de6.jpg', 'coins': 87, 'duration': '1:18', 'badgepay': False, 'pts': 139675, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738775628', 'bvid': 'BV1Gk4y1t7ja', 'typename': '改装玩车', 'title': '【路人車】【玩车必看】聊聊我五年的玩车历程，以及15-30万运动可玩向驾驶者之车推荐及超详细解析', 'subtitle': '', 'play': 42217, 'review': 720, 'video_review': 476, 'favorites': 772, 'mid': 326319750, 'author': '路人車', 'description': '汽车除了是通勤代步或者体现社交价值的工具外，我认为也是男人的大玩具。\n有的人买车，只是图它省钱就好，而有的人会将车视作自己的热爱，操控本身也是一种乐趣，另外自己动手自己挣钱去升级优化自己的爱车，何尝不是一种人生体验！\n本篇以一个玩国产1.5T买菜车名爵6五年，从素车花30万玩到全国最速，立志挑战全国最速思域菲斯塔的UP主的角度，来跟大家聊聊我眼里15-30万运动向可玩向的轿车该怎么选。\n想了解我的故事，或者想了解15-30万驾驶者之车怎么选的朋友，一定记得看完并三连哦！', 'create': '2023-03-21 10:30', 'pic': 'http://i0.hdslb.com/bfs/archive/35f0b2848721e5ca0c5026c0490d47db8901d5fb.jpg', 'coins': 1504, 'duration': '43:43', 'badgepay': False, 'pts': 133163, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438802398', 'bvid': 'BV1qL411d7we', 'typename': '改装玩车', 'title': '当年拉着上千万在大街小巷走，四驱2.4长风猎豹黑金刚，给我3万多就拿下来了，极品啊！然后整备好交付给粉丝用。', 'subtitle': '', 'play': 201141, 'review': 234, 'video_review': 153, 'favorites': 641, 'mid': 3493137727097527, 'author': '老车改造维修记', 'description': '', 'create': '2023-03-20 10:49', 'pic': 'http://i0.hdslb.com/bfs/archive/494303ac445dcda7b2d2361ada8febb9c73f16d5.jpg', 'coins': 221, 'duration': '5:41', 'badgepay': False, 'pts': 131106, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311378840', 'bvid': 'BV18P411o7tf', 'typename': '改装玩车', 'title': '痛车停学校门口，同学啥反应？！', 'subtitle': '', 'play': 54081, 'review': 451, 'video_review': 364, 'favorites': 330, 'mid': 678425, 'author': '拉垮师傅', 'description': '从接触二次元开始，就想着等自己有车了，一定要整成痛车！\n在过了这么这么这么多年后，终于实现了自己的这个梦想！\n痛了我完美的香香～\n喜欢就要大大方方地表现出来！\n这也许就是社恐二次元最有勇气的展现了吧..\n\n漫展上的小伙伴也都超棒！\n以后有机会还要一起玩耍～\n葛城美里CN：@结城连西世一帅  \n\nBGM：\nEM20#070720 - 鷺巣詩郎\nMISATO - 鷺巣詩郎\nDJ Rasa Sayange Phonk Remix Viral - DJ Xen', 'create': '2023-03-22 20:46', 'pic': 'http://i2.hdslb.com/bfs/archive/4c02202ea4f6b362a9485f9ed01868881b8d7aac.jpg', 'coins': 126, 'duration': '1:37', 'badgepay': False, 'pts': 118162, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '268769882', 'bvid': 'BV1Bc411j7vu', 'typename': '赛车', 'title': '日产GTR，打得过宝马M4？', 'subtitle': '', 'play': 145261, 'review': 645, 'video_review': 1946, 'favorites': 918, 'mid': 1772592840, 'author': '易车圈速榜', 'description': '传承15年R35精华，50年战神精神，GT-R来了', 'create': '2023-03-22 11:45', 'pic': 'http://i2.hdslb.com/bfs/archive/55de922bab6ecee2e430b6064b3fe569e947a799.jpg', 'coins': 2920, 'duration': '12:06', 'badgepay': False, 'pts': 321877, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438921628', 'bvid': 'BV1HL41197EU', 'typename': '赛车', 'title': '【村长F1】一年烧掉1000多万！昂贵的F1轮胎技术与发展史', 'subtitle': '', 'play': 142651, 'review': 207, 'video_review': 698, 'favorites': 1136, 'mid': 435203110, 'author': '村长托马斯', 'description': '', 'create': '2023-03-22 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/fe1f63192bdfdcce3154474778ed05a52c93ba15.jpg', 'coins': 1641, 'duration': '13:18', 'badgepay': False, 'pts': 263425, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353790038', 'bvid': 'BV1nX4y1Z7Y2', 'typename': '赛车', 'title': '领航员甚至连笔都没掉！', 'subtitle': '', 'play': 293772, 'review': 321, 'video_review': 127, 'favorites': 1246, 'mid': 1495722390, 'author': '极致拉力', 'description': '-', 'create': '2023-03-21 13:35', 'pic': 'http://i2.hdslb.com/bfs/archive/e535fe21bf4bb7745a64f0ebe5361cda0429a757.jpg', 'coins': 218, 'duration': '0:53', 'badgepay': False, 'pts': 183440, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226317866', 'bvid': 'BV12b411d7cX', 'typename': '赛车', 'title': '两分钟看懂F1沙特站—— 阿隆索季军的规则漏洞 【虾哥方程式】', 'subtitle': '', 'play': 100319, 'review': 371, 'video_review': 389, 'favorites': 369, 'mid': 667277633, 'author': '虾哥方程式', 'description': '', 'create': '2023-03-21 00:25', 'pic': 'http://i1.hdslb.com/bfs/archive/9d736b37a7d69066e6874af3c16b89f63d2df70b.jpg', 'coins': 488, 'duration': '10:39', 'badgepay': False, 'pts': 156334, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781287736', 'bvid': 'BV1B24y1E7Tx', 'typename': '赛车', 'title': '车子快的毫无人性！2023沙特大奖赛正赛，维斯塔潘车载+遥测+地图信息', 'subtitle': '', 'play': 84031, 'review': 225, 'video_review': 417, 'favorites': 590, 'mid': 2044120202, 'author': '进胎换站的BOX', 'description': '车子快的毫无人性！2023沙特大奖赛正赛，维斯塔潘车载+遥测+地图信息', 'create': '2023-03-20 19:55', 'pic': 'http://i0.hdslb.com/bfs/archive/4f4bf9c6779c55480f68b41575649d08abfc2ee8.jpg', 'coins': 120, 'duration': '84:37', 'badgepay': False, 'pts': 144683, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526446183', 'bvid': 'BV14M411u7F1', 'typename': '赛车', 'title': '[3.23]F1资讯，法拉利开抄，要当真红牛！| 阿隆索：夺冠？需要红牛的帮助 | 沃尔斯公开认错 | 埃利奥特出镜，梅奔沙特站《赛后报告》', 'subtitle': '', 'play': 68908, 'review': 402, 'video_review': 324, 'favorites': 157, 'mid': 65125803, 'author': 'F1赛事资讯', 'description': '[3.23]F1资讯，法拉利开抄，要当真红牛！| 阿隆索：夺冠？需要红牛的帮助 | 沃尔斯公开认错 | 埃利奥特出镜，梅奔沙特站《赛后报告》', 'create': '2023-03-23 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/cbfac17e10a87b47a0999e976c8f6349709db4e7.jpg', 'coins': 303, 'duration': '9:11', 'badgepay': False, 'pts': 108385, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311333503', 'bvid': 'BV1xP411o72p', 'typename': '赛车', 'title': '【主观臆断 E19】沙特复盘，红牛的凶兆，千里之堤溃于蚁穴？', 'subtitle': '', 'play': 49106, 'review': 731, 'video_review': 229, 'favorites': 147, 'mid': 526479054, 'author': '飞哥的P房', 'description': '', 'create': '2023-03-21 08:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c3ab491dbab8e72d240be1b5b77e86149c0aa254.jpg', 'coins': 194, 'duration': '5:42', 'badgepay': False, 'pts': 106736, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353855787', 'bvid': 'BV1rX4y1Z7MS', 'typename': '赛车', 'title': '数据看红牛队十足的火药味：沙特站正赛解析【F117赛车】', 'subtitle': '', 'play': 54316, 'review': 322, 'video_review': 606, 'favorites': 236, 'mid': 33059473, 'author': 'Chester117', 'description': '阿隆索薛定谔的第三名，梅奔的计谋小招，冠宇起跑总算硬气了一回，以及为何本应开心胜利的佩大师，居然觉得受到了车队的不公正对待？', 'create': '2023-03-20 22:00', 'pic': 'http://i2.hdslb.com/bfs/archive/ed4dc086f9662806aacb3d0f588dc5d3cb365bfa.jpg', 'coins': 353, 'duration': '8:55', 'badgepay': False, 'pts': 101348, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483935033', 'bvid': 'BV1rT411B74z', 'typename': '赛车', 'title': '纽北推头甩尾，群众兴高采烈', 'subtitle': '', 'play': 57768, 'review': 54, 'video_review': 270, 'favorites': 316, 'mid': 5321968, 'author': '尽墨for车', 'description': '福特的车不咋认识，奔驰的GT也分辨不出来，更别说保时捷的车型了，但是依旧不妨碍我分享好玩的汽车视频给大家', 'create': '2023-03-22 21:42', 'pic': 'http://i2.hdslb.com/bfs/archive/30e2c0d425698d61af99ad2fe083207d3a11c35c.jpg', 'coins': 153, 'duration': '7:57', 'badgepay': False, 'pts': 90077, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484121658', 'bvid': 'BV12T411z7DJ', 'typename': '赛车', 'title': '⚡全 都 是 名 场 面 10⚡【机饿WRC】', 'subtitle': '', 'play': 52443, 'review': 101, 'video_review': 145, 'favorites': 297, 'mid': 668469879, 'author': '机饿青春', 'description': '全都是WRC名场面系列第10期节目来啦，小伙伴们觉得活儿整的怎么样？新人UP主，每周两期节目，欢迎喜欢WRC和赛车的小伙伴一键三连呀，咱们下周再见哦~', 'create': '2023-03-24 20:00', 'pic': 'http://i2.hdslb.com/bfs/archive/d5083d57f61dfdb1bb428242d581c5f97c8d4643.jpg', 'coins': 318, 'duration': '1:50', 'badgepay': False, 'pts': 72457, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1623703</v>
+        <v>1048575</v>
       </c>
       <c r="I61" t="n">
-        <v>8419</v>
+        <v>6708</v>
       </c>
       <c r="J61" t="n">
-        <v>16735</v>
+        <v>5412</v>
       </c>
       <c r="K61" t="n">
-        <v>3765</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>新能源车</t>
+          <t>改装玩车</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>newenergyvehicle</t>
+          <t>modifiedvehicle</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>新能源汽车相关内容，包括电动汽车、混合动力汽车等车型种类，包含不限于新车资讯、试驾体验、专业评测、技术解读、知识科普等内容</t>
+          <t>汽车文化及改装车相关内容，包括改装车、老车修复介绍、汽车聚会分享等内容</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>/v/car/newenergyvehicle(opens new window)</t>
+          <t>/v/car/modifiedvehicle(opens new window)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>汽车(主分区)</t>
+          <t>汽车</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[{'aid': '866588145', 'bvid': 'BV1oV4y1X754', 'typename': '新能源车', 'title': '比亚迪998！这种车我再也不想开第二次！！', 'subtitle': '', 'play': 1548491, 'review': 7116, 'video_review': 8663, 'favorites': 23000, 'mid': 1867759108, 'author': '大鹏快开车', 'description': '998！998！幸福你我千万家！\n兄弟们，点赞投币一键三连拉！', 'create': '2023-03-24 16:05', 'pic': 'http://i2.hdslb.com/bfs/archive/19a98e87e4694ab52e3fe21fb3cb81858739d7dd.jpg', 'coins': 136392, 'duration': '11:02', 'badgepay': False, 'pts': 2911342, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696397767', 'bvid': 'BV14m4y1k7Ah', 'typename': '新能源车', 'title': '五菱缤果别多说了，这车我送你！', 'subtitle': '', 'play': 548734, 'review': 4772, 'video_review': 4312, 'favorites': 6175, 'mid': 439064571, 'author': '狗哥FastDog', 'description': '你的缤果真好开，别忘了去置顶动态提车', 'create': '2023-03-22 12:14', 'pic': 'http://i2.hdslb.com/bfs/archive/d3d466d1c530d809d87698b2be44d68effea8eb8.jpg', 'coins': 16794, 'duration': '11:06', 'badgepay': False, 'pts': 1305216, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396550386', 'bvid': 'BV1ko4y1s79V', 'typename': '新能源车', 'title': '40万买辆“比亚迪”我们后悔了.......吗？', 'subtitle': '', 'play': 380254, 'review': 1079, 'video_review': 3879, 'favorites': 3186, 'mid': 405067166, 'author': '铁秀IRONSHOW', 'description': '作为铁秀的工作车，花20分钟评测，很正常', 'create': '2023-03-24 17:30', 'pic': 'http://i1.hdslb.com/bfs/archive/84e47452604cfbec8cc97887fe1b84114566711f.jpg', 'coins': 16117, 'duration': '20:20', 'badgepay': False, 'pts': 795430, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439114701', 'bvid': 'BV1zL411Q7Sh', 'typename': '新能源车', 'title': '高强度网上冲浪', 'subtitle': '', 'play': 236995, 'review': 562, 'video_review': 1424, 'favorites': 927, 'mid': 291324611, 'author': '极速拍档-Jacky', 'description': '', 'create': '2023-03-24 10:37', 'pic': 'http://i2.hdslb.com/bfs/archive/c3e0af656bd6a647ff39de09fc7822f9717c840c.jpg', 'coins': 2533, 'duration': '12:33', 'badgepay': False, 'pts': 453606, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909006297', 'bvid': 'BV1XM4y1B7ar', 'typename': '新能源车', 'title': '探秘路特斯工厂，外国人在中国工作会更轻松吗？', 'subtitle': '', 'play': 344298, 'review': 430, 'video_review': 676, 'favorites': 1203, 'mid': 394609671, 'author': '终极小腾', 'description': '路特斯ELETRE流媒体外后视镜下赛道实录！2.95秒的电动猛兽是如何诞生的？', 'create': '2023-03-24 18:55', 'pic': 'http://i2.hdslb.com/bfs/archive/96281a8cf0e8af077cb6774b335a514b7a4d02e4.jpg', 'coins': 1801, 'duration': '8:54', 'badgepay': False, 'pts': 449371, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483858634', 'bvid': 'BV1MT411r7cT', 'typename': '新能源车', 'title': '详细测评凯迪拉克LYRIQ锐歌', 'subtitle': '', 'play': 142955, 'review': 962, 'video_review': 1207, 'favorites': 438, 'mid': 39736779, 'author': '38号车评中心官方账号', 'description': '38号这次测评了凯迪拉克锐歌，一款传统豪华品牌的纯电动车，表现如何呢？敬请观看', 'create': '2023-03-22 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/9914803c7e52c94440dedfa6b0b01a9f81199d8f.jpg', 'coins': 971, 'duration': '14:28', 'badgepay': False, 'pts': 297597, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951610596', 'bvid': 'BV1Us4y1E7Vc', 'typename': '新能源车', 'title': '不装了，我要买新车', 'subtitle': '', 'play': 174654, 'review': 1009, 'video_review': 945, 'favorites': 233, 'mid': 15810618, 'author': '一路向北BYD', 'description': '斥巨资买新车，重点想给大家测一下帝瓦雷、空悬、腾势Link和智能驾驶，换一个三连应该不过分吧？', 'create': '2023-03-25 13:07', 'pic': 'http://i1.hdslb.com/bfs/archive/a0e02486987d4dd96d11f8060c8c3f8b443806b4.jpg', 'coins': 809, 'duration': '6:28', 'badgepay': False, 'pts': 292626, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739066102', 'bvid': 'BV1Fk4y147r8', 'typename': '新能源车', 'title': '《夏东评车》领克08，爆款，一定是设计出来的', 'subtitle': '', 'play': 123632, 'review': 625, 'video_review': 1261, 'favorites': 452, 'mid': 189021885, 'author': '踢车帮', 'description': '这只是静态的欣赏，不过，如今汽车最有差别性的也就是设计了。底盘、动力、智能，基本上能通用的，绝不专用。所以，到头来，买车就是买设计。买设计就是买喜欢。领克08是我这两年见到的最“设计”的一款车，以前，这样浑身里外上下都是设计的汽车，要么是概念车，要么还是概念车。现在，不仅设计出来，还能做出来，不仅做出来，还能量产出来，不仅量产出来，还能随便买到手……领克08，我觉得它能爆款，爆款，那一定是设计出来的。', 'create': '2023-03-25 22:16', 'pic': 'http://i1.hdslb.com/bfs/archive/18f4e013ef92771ac0d2656f43f7197bc4136736.jpg', 'coins': 446, 'duration': '10:37', 'badgepay': False, 'pts': 251625, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696337430', 'bvid': 'BV1fm4y1r7rf', 'typename': '新能源车', 'title': '展示下我的小迪', 'subtitle': '', 'play': 474771, 'review': 671, 'video_review': 260, 'favorites': 1924, 'mid': 1655433953, 'author': '中国汽车的崛起', 'description': '-', 'create': '2023-03-20 23:47', 'pic': 'http://i0.hdslb.com/bfs/archive/8674335adad35b69a14f4d16d47f2454bca985a9.jpg', 'coins': 309, 'duration': '0:26', 'badgepay': False, 'pts': 235872, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611317493', 'bvid': 'BV1184y1w7s5', 'typename': '新能源车', 'title': '【车的发布会】汉唐发布会上疯狂背刺，比亚迪老车主都成刺猬了！', 'subtitle': '', 'play': 241247, 'review': 744, 'video_review': 422, 'favorites': 630, 'mid': 1639930744, 'author': '车的发布会官方', 'description': '20.98万交个朋友', 'create': '2023-03-20 16:35', 'pic': 'http://i0.hdslb.com/bfs/archive/7291e788344c9b2a338410105b5a77fff9f96a01.jpg', 'coins': 407, 'duration': '2:35', 'badgepay': False, 'pts': 223776, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '483979460', 'bvid': 'BV1RT411B7YX', 'typename': '改装玩车', 'title': '认真工作的男人最帅？                                                          呸~去K滴微的男人最帅！', 'subtitle': '', 'play': 276083, 'review': 134, 'video_review': 40, 'favorites': 2050, 'mid': 22184868, 'author': 'goodgod-auto', 'description': '素材  gchrisfx\n音乐  Roses\xa0bootleg\xa0remix\xa0-NNBeat$\n歌单  goodgod-BGM\n车型  Audi Twin Turbo R8', 'create': '2023-03-23 17:19', 'pic': 'http://i2.hdslb.com/bfs/archive/6823633a319a81054e0f6b0b11a567037f01d343.jpg', 'coins': 654, 'duration': '0:17', 'badgepay': False, 'pts': 329542, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696537185', 'bvid': 'BV1Jm4y167Uj', 'typename': '改装玩车', 'title': '一年爆赚400亿？宇宙最强法拉利割尽天下富豪！销量+营收+利润全部创造70余年新巅峰【镖车·法拉利】', 'subtitle': '', 'play': 146676, 'review': 455, 'video_review': 668, 'favorites': 2015, 'mid': 1575718735, 'author': '保镖的车库', 'description': '不多说，看视频，如果觉得还行，希望点赞鼓励一下', 'create': '2023-03-25 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/480b2c427f831cab2082adb5524255da94d1b757.jpg', 'coins': 4009, 'duration': '11:46', 'badgepay': False, 'pts': 327572, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483780937', 'bvid': 'BV1eT41167LF', 'typename': '改装玩车', 'title': '赢了对手，输了世界，曾年销100万辆的斯巴鲁和三菱，当年有多狂？', 'subtitle': '', 'play': 115576, 'review': 184, 'video_review': 1211, 'favorites': 4290, 'mid': 429306775, 'author': '王洪浩的lu', 'description': '红蓝大战是JDM粉丝心目中最热血的battle，这期视频，带大家一起走进红蓝大战。', 'create': '2023-03-22 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/62ccf4ba42906ddb98bff8a1298aa39b1737dd83.jpg', 'coins': 1324, 'duration': '4:59', 'badgepay': False, 'pts': 310155, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526504551', 'bvid': 'BV12M411u73w', 'typename': '改装玩车', 'title': '呜呼～挖槽', 'subtitle': '', 'play': 112094, 'review': 256, 'video_review': 55, 'favorites': 2934, 'mid': 262995232, 'author': '电车都是工业垃圾', 'description': 'TK', 'create': '2023-03-24 09:27', 'pic': 'http://i2.hdslb.com/bfs/archive/6bb8fdcb46eeba8878b7deb01312925cb9f6eaca.jpg', 'coins': 284, 'duration': '0:11', 'badgepay': False, 'pts': 284045, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568908298', 'bvid': 'BV1Fv4y157r7', 'typename': '改装玩车', 'title': '再见了我的重装小兔19c,我人生中的第一俩痛车。当真正的分别来临。真的很难割舍。.·´¯`(&gt;▂&lt;)´¯`·.', 'subtitle': '', 'play': 119287, 'review': 175, 'video_review': 21, 'favorites': 2276, 'mid': 94732900, 'author': 'lmzs丶彦', 'description': '再见了我的重装小兔19c,我人生中的第一俩痛车。当真正的分别来临。真的很难割舍。.·´¯`(&gt;▂&lt;)´¯`·.', 'create': '2023-03-23 03:20', 'pic': 'http://i1.hdslb.com/bfs/archive/7369cba10891c57f0b6381c775ae824bc48445d4.jpg', 'coins': 318, 'duration': '0:28', 'badgepay': False, 'pts': 273748, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569062328', 'bvid': 'BV1fv4y157n6', 'typename': '改装玩车', 'title': '沉浸式体验1979凯迪拉克Sedan Deville', 'subtitle': '', 'play': 131479, 'review': 180, 'video_review': 140, 'favorites': 999, 'mid': 517382947, 'author': '快乐Hub', 'description': '-', 'create': '2023-03-24 22:34', 'pic': 'http://i1.hdslb.com/bfs/archive/88d21491df944bdb2864ddbc4edd1f4877230def.jpg', 'coins': 100, 'duration': '0:55', 'badgepay': False, 'pts': 174030, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353694161', 'bvid': 'BV1XX4y1o73Z', 'typename': '改装玩车', 'title': '他凌驾于所有超跑之上，甚至比F1赛车都要快。不但直线快弯道更快 #道奇srt战斧x', 'subtitle': '', 'play': 450422, 'review': 520, 'video_review': 334, 'favorites': 795, 'mid': 1033818147, 'author': '新车速递', 'description': '-', 'create': '2023-03-20 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/a4f3226257129c074422b62929213da49fce3de6.jpg', 'coins': 87, 'duration': '1:18', 'badgepay': False, 'pts': 142138, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738775628', 'bvid': 'BV1Gk4y1t7ja', 'typename': '改装玩车', 'title': '【路人車】【玩车必看】聊聊我五年的玩车历程，以及15-30万运动可玩向驾驶者之车推荐及超详细解析', 'subtitle': '', 'play': 42824, 'review': 725, 'video_review': 483, 'favorites': 793, 'mid': 326319750, 'author': '路人車', 'description': '汽车除了是通勤代步或者体现社交价值的工具外，我认为也是男人的大玩具。\n有的人买车，只是图它省钱就好，而有的人会将车视作自己的热爱，操控本身也是一种乐趣，另外自己动手自己挣钱去升级优化自己的爱车，何尝不是一种人生体验！\n本篇以一个玩国产1.5T买菜车名爵6五年，从素车花30万玩到全国最速，立志挑战全国最速思域菲斯塔的UP主的角度，来跟大家聊聊我眼里15-30万运动向可玩向的轿车该怎么选。\n想了解我的故事，或者想了解15-30万驾驶者之车怎么选的朋友，一定记得看完并三连哦！', 'create': '2023-03-21 10:30', 'pic': 'http://i0.hdslb.com/bfs/archive/35f0b2848721e5ca0c5026c0490d47db8901d5fb.jpg', 'coins': 1521, 'duration': '43:43', 'badgepay': False, 'pts': 135151, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311378840', 'bvid': 'BV18P411o7tf', 'typename': '改装玩车', 'title': '痛车停学校门口，同学啥反应？！', 'subtitle': '', 'play': 54664, 'review': 482, 'video_review': 364, 'favorites': 341, 'mid': 678425, 'author': '拉垮师傅', 'description': '从接触二次元开始，就想着等自己有车了，一定要整成痛车！\n在过了这么这么这么多年后，终于实现了自己的这个梦想！\n痛了我完美的香香～\n喜欢就要大大方方地表现出来！\n这也许就是社恐二次元最有勇气的展现了吧..\n\n漫展上的小伙伴也都超棒！\n以后有机会还要一起玩耍～\n葛城美里CN：@结城连西世一帅  \n\nBGM：\nEM20#070720 - 鷺巣詩郎\nMISATO - 鷺巣詩郎\nDJ Rasa Sayange Phonk Remix Viral - DJ Xen', 'create': '2023-03-22 20:46', 'pic': 'http://i2.hdslb.com/bfs/archive/4c02202ea4f6b362a9485f9ed01868881b8d7aac.jpg', 'coins': 130, 'duration': '1:37', 'badgepay': False, 'pts': 119561, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268652243', 'bvid': 'BV1Yc411E7w9', 'typename': '改装玩车', 'title': '四条轮胎三个牌，收车大冤种？', 'subtitle': '', 'play': 106607, 'review': 145, 'video_review': 1218, 'favorites': 797, 'mid': 326783347, 'author': 'NMNP陈璟', 'description': '5000块收来的小破车也可以玩起来～', 'create': '2023-03-20 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/23962435022939339dd840ce1b3e5a66c2db0341.jpg', 'coins': 698, 'duration': '9:49', 'badgepay': False, 'pts': 116875, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4216031</v>
+        <v>1555712</v>
       </c>
       <c r="I62" t="n">
-        <v>176579</v>
+        <v>9125</v>
       </c>
       <c r="J62" t="n">
-        <v>38168</v>
+        <v>17290</v>
       </c>
       <c r="K62" t="n">
-        <v>3922</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>房车</t>
+          <t>新能源车</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>touringcar</t>
+          <t>newenergyvehicle</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>房车及营地相关内容，包括不限于产品介绍、驾驶体验、房车生活和房车旅行等内容</t>
+          <t>新能源汽车相关内容，包括电动汽车、混合动力汽车等车型种类，包含不限于新车资讯、试驾体验、专业评测、技术解读、知识科普等内容</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>/v/car/touringcar(opens new window)</t>
+          <t>/v/car/newenergyvehicle(opens new window)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>汽车(主分区)</t>
+          <t>汽车</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[{'aid': '909124749', 'bvid': 'BV1CM4y1m7Kw', 'typename': '房车', 'title': '自驾房车穿越横断山脉，晚上露营长江第一湾，宛如世外桃源的地方', 'subtitle': '', 'play': 129402, 'review': 255, 'video_review': 774, 'favorites': 1051, 'mid': 513305949, 'author': '杨旭游记', 'description': '杨旭游记100天深入云南：自驾房车穿越横断山脉，晚上露营长江第一湾，宛如世外桃源的地方', 'create': '2023-03-25 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/32ba6b3eec95316f466c5ca93b3fc0791798a254.jpg', 'coins': 4126, 'duration': '10:44', 'badgepay': False, 'pts': 261844, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781270555', 'bvid': 'BV1h24y1E73g', 'typename': '房车', 'title': '房车自驾朝鲜边境，晚上男友被连夜带回国...【VanLIfe】', 'subtitle': '', 'play': 128313, 'review': 163, 'video_review': 525, 'favorites': 680, 'mid': 389400079, 'author': '十三要和拳头', 'description': '欢迎搭乘小白胖号房车-云游东北边境线～本期目的地是辽宁丹东！', 'create': '2023-03-20 19:22', 'pic': 'http://i2.hdslb.com/bfs/archive/24399fe779c61787d476c83f578e793dfa53e2ff.jpg', 'coins': 2442, 'duration': '10:03', 'badgepay': False, 'pts': 204155, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526464962', 'bvid': 'BV1CM411u7ty', 'typename': '房车', 'title': '这哪里是房车，这是移动的迷你别墅啊~', 'subtitle': '', 'play': 89210, 'review': 226, 'video_review': 69, 'favorites': 1250, 'mid': 412719797, 'author': 'YouTube精彩视频-', 'description': '（TT: fuelyourwander）', 'create': '2023-03-22 19:18', 'pic': 'http://i1.hdslb.com/bfs/archive/5999eacb7fd575a81091d9207226d77353fb3e84.jpg', 'coins': 59, 'duration': '1:23', 'badgepay': False, 'pts': 185608, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311618595', 'bvid': 'BV11N411K7e5', 'typename': '房车', 'title': '房车上的厕所自由！焚化马桶怎么使用？', 'subtitle': '', 'play': 98762, 'review': 479, 'video_review': 274, 'favorites': 369, 'mid': 3493264531393135, 'author': '圆脸到此一游', 'description': '', 'create': '2023-03-24 20:24', 'pic': 'http://i1.hdslb.com/bfs/archive/672cd000e2028f54b9523bcc1b2fa59e6ed29b78.jpg', 'coins': 244, 'duration': '2:10', 'badgepay': False, 'pts': 154831, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226383553', 'bvid': 'BV1Kb411o74K', 'typename': '房车', 'title': '三年了 我们第一批走出口岸 辞职自驾去北极！', 'subtitle': '', 'play': 68423, 'review': 227, 'video_review': 46, 'favorites': 294, 'mid': 3493133784451575, 'author': '大璇转世界-去北极中', 'description': '这次目的地绝不是你想象中的北欧北美的旅游城市，而是绕过整个外蒙古，纵向穿越最贫瘠荒凉的西伯利亚，途经世界冷极奥伊米亚康，去北极看极光。', 'create': '2023-03-23 18:20', 'pic': 'http://i1.hdslb.com/bfs/archive/2c9174723b7f20bfb6f4c5503bd555a6e1910388.jpg', 'coins': 186, 'duration': '1:18', 'badgepay': False, 'pts': 90776, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908919282', 'bvid': 'BV1qM4y1B7co', 'typename': '房车', 'title': '原厂空气悬挂越野属性拉满，独立厨卫还带东北大炕！ 美景美家卡居500轻卡房车', 'subtitle': '', 'play': 31104, 'review': 125, 'video_review': 141, 'favorites': 749, 'mid': 430813177, 'author': '21世纪房车', 'description': '沙漠黄越野属性拉满,全新布局尽显大空间, 美景美家卡居旅行号KJ500', 'create': '2023-03-23 18:55', 'pic': 'http://i1.hdslb.com/bfs/archive/b553c1c26134955e8327a27a1490e44594a399a1.jpg', 'coins': 148, 'duration': '8:24', 'badgepay': False, 'pts': 78778, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526575426', 'bvid': 'BV1TM411g7By', 'typename': '房车', 'title': '带着房 带着家 走在路上 这才是真的叫开房车啊！#房车伴侣 #房车旅行 #房车生活', 'subtitle': '', 'play': 155611, 'review': 142, 'video_review': 66, 'favorites': 479, 'mid': 1951773055, 'author': '房车伴侣', 'description': '-', 'create': '2023-03-25 11:28', 'pic': 'http://i1.hdslb.com/bfs/archive/893168dfec4c6acfcec9980bd980a2a7b0297f1f.jpg', 'coins': 32, 'duration': '0:58', 'badgepay': False, 'pts': 70505, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311334618', 'bvid': 'BV1xP411o7sR', 'typename': '房车', 'title': '适合2-3人的精致小两居布局，新款自由炮房车发布', 'subtitle': '', 'play': 32123, 'review': 96, 'video_review': 27, 'favorites': 240, 'mid': 595248167, 'author': '房车GO', 'description': '', 'create': '2023-03-21 12:01', 'pic': 'http://i0.hdslb.com/bfs/archive/dff58792f50922ccb55f1049afca7979355474d9.jpg', 'coins': 58, 'duration': '2:35', 'badgepay': False, 'pts': 55524, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951280034', 'bvid': 'BV1hs4y1p7hB', 'typename': '房车', 'title': '全新东风猛士甲四驱越野房车来啦！曼恩拓硬派越野房车', 'subtitle': '', 'play': 23288, 'review': 92, 'video_review': 178, 'favorites': 333, 'mid': 430519978, 'author': '房车之家原创', 'description': '全新东风猛士甲四驱越野房车来啦！曼恩拓硬派越野房车', 'create': '2023-03-20 09:46', 'pic': 'http://i0.hdslb.com/bfs/archive/b11694fe8b6aff53e5a1cfc9126a15ff031a483a.jpg', 'coins': 52, 'duration': '8:42', 'badgepay': False, 'pts': 42630, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '866588145', 'bvid': 'BV1oV4y1X754', 'typename': '新能源车', 'title': '比亚迪998！这种车我再也不想开第二次！！', 'subtitle': '', 'play': 1603946, 'review': 7315, 'video_review': 8878, 'favorites': 23822, 'mid': 1867759108, 'author': '大鹏快开车', 'description': '998！998！幸福你我千万家！\n兄弟们，点赞投币一键三连拉！', 'create': '2023-03-24 16:05', 'pic': 'http://i2.hdslb.com/bfs/archive/19a98e87e4694ab52e3fe21fb3cb81858739d7dd.jpg', 'coins': 140480, 'duration': '11:02', 'badgepay': False, 'pts': 2979185, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696397767', 'bvid': 'BV14m4y1k7Ah', 'typename': '新能源车', 'title': '五菱缤果别多说了，这车我送你！', 'subtitle': '', 'play': 552308, 'review': 4803, 'video_review': 4327, 'favorites': 6205, 'mid': 439064571, 'author': '狗哥FastDog', 'description': '你的缤果真好开，别忘了去置顶动态提车', 'create': '2023-03-22 12:14', 'pic': 'http://i2.hdslb.com/bfs/archive/d3d466d1c530d809d87698b2be44d68effea8eb8.jpg', 'coins': 16879, 'duration': '11:06', 'badgepay': False, 'pts': 1312181, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396550386', 'bvid': 'BV1ko4y1s79V', 'typename': '新能源车', 'title': '40万买辆“比亚迪”我们后悔了.......吗？', 'subtitle': '', 'play': 389470, 'review': 1100, 'video_review': 3953, 'favorites': 3236, 'mid': 405067166, 'author': '铁秀IRONSHOW', 'description': '作为铁秀的工作车，花20分钟评测，很正常', 'create': '2023-03-24 17:30', 'pic': 'http://i1.hdslb.com/bfs/archive/84e47452604cfbec8cc97887fe1b84114566711f.jpg', 'coins': 16372, 'duration': '20:20', 'badgepay': False, 'pts': 811648, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439114701', 'bvid': 'BV1zL411Q7Sh', 'typename': '新能源车', 'title': '高强度网上冲浪', 'subtitle': '', 'play': 242693, 'review': 569, 'video_review': 1447, 'favorites': 941, 'mid': 291324611, 'author': '极速拍档-Jacky', 'description': '', 'create': '2023-03-24 10:37', 'pic': 'http://i2.hdslb.com/bfs/archive/c3e0af656bd6a647ff39de09fc7822f9717c840c.jpg', 'coins': 2586, 'duration': '12:33', 'badgepay': False, 'pts': 463134, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909006297', 'bvid': 'BV1XM4y1B7ar', 'typename': '新能源车', 'title': '探秘路特斯工厂，外国人在中国工作会更轻松吗？', 'subtitle': '', 'play': 352138, 'review': 436, 'video_review': 681, 'favorites': 1225, 'mid': 394609671, 'author': '终极小腾', 'description': '路特斯ELETRE流媒体外后视镜下赛道实录！2.95秒的电动猛兽是如何诞生的？', 'create': '2023-03-24 18:55', 'pic': 'http://i2.hdslb.com/bfs/archive/96281a8cf0e8af077cb6774b335a514b7a4d02e4.jpg', 'coins': 1844, 'duration': '8:54', 'badgepay': False, 'pts': 456821, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951610596', 'bvid': 'BV1Us4y1E7Vc', 'typename': '新能源车', 'title': '不装了，我要买新车', 'subtitle': '', 'play': 184352, 'review': 1044, 'video_review': 966, 'favorites': 242, 'mid': 15810618, 'author': '一路向北BYD', 'description': '斥巨资买新车，重点想给大家测一下帝瓦雷、空悬、腾势Link和智能驾驶，换一个三连应该不过分吧？', 'create': '2023-03-25 13:07', 'pic': 'http://i1.hdslb.com/bfs/archive/a0e02486987d4dd96d11f8060c8c3f8b443806b4.jpg', 'coins': 833, 'duration': '6:28', 'badgepay': False, 'pts': 304056, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483858634', 'bvid': 'BV1MT411r7cT', 'typename': '新能源车', 'title': '详细测评凯迪拉克LYRIQ锐歌', 'subtitle': '', 'play': 144371, 'review': 967, 'video_review': 1208, 'favorites': 438, 'mid': 39736779, 'author': '38号车评中心官方账号', 'description': '38号这次测评了凯迪拉克锐歌，一款传统豪华品牌的纯电动车，表现如何呢？敬请观看', 'create': '2023-03-22 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/9914803c7e52c94440dedfa6b0b01a9f81199d8f.jpg', 'coins': 973, 'duration': '14:28', 'badgepay': False, 'pts': 299944, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739066102', 'bvid': 'BV1Fk4y147r8', 'typename': '新能源车', 'title': '《夏东评车》领克08，爆款，一定是设计出来的', 'subtitle': '', 'play': 132147, 'review': 654, 'video_review': 1298, 'favorites': 465, 'mid': 189021885, 'author': '踢车帮', 'description': '这只是静态的欣赏，不过，如今汽车最有差别性的也就是设计了。底盘、动力、智能，基本上能通用的，绝不专用。所以，到头来，买车就是买设计。买设计就是买喜欢。领克08是我这两年见到的最“设计”的一款车，以前，这样浑身里外上下都是设计的汽车，要么是概念车，要么还是概念车。现在，不仅设计出来，还能做出来，不仅做出来，还能量产出来，不仅量产出来，还能随便买到手……领克08，我觉得它能爆款，爆款，那一定是设计出来的。', 'create': '2023-03-25 22:16', 'pic': 'http://i1.hdslb.com/bfs/archive/18f4e013ef92771ac0d2656f43f7197bc4136736.jpg', 'coins': 458, 'duration': '10:37', 'badgepay': False, 'pts': 262798, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696337430', 'bvid': 'BV1fm4y1r7rf', 'typename': '新能源车', 'title': '展示下我的小迪', 'subtitle': '', 'play': 475089, 'review': 671, 'video_review': 260, 'favorites': 1926, 'mid': 1655433953, 'author': '中国汽车的崛起', 'description': '-', 'create': '2023-03-20 23:47', 'pic': 'http://i0.hdslb.com/bfs/archive/8674335adad35b69a14f4d16d47f2454bca985a9.jpg', 'coins': 309, 'duration': '0:26', 'badgepay': False, 'pts': 236336, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611317493', 'bvid': 'BV1184y1w7s5', 'typename': '新能源车', 'title': '【车的发布会】汉唐发布会上疯狂背刺，比亚迪老车主都成刺猬了！', 'subtitle': '', 'play': 242608, 'review': 751, 'video_review': 422, 'favorites': 630, 'mid': 1639930744, 'author': '车的发布会官方', 'description': '20.98万交个朋友', 'create': '2023-03-20 16:35', 'pic': 'http://i0.hdslb.com/bfs/archive/7291e788344c9b2a338410105b5a77fff9f96a01.jpg', 'coins': 407, 'duration': '2:35', 'badgepay': False, 'pts': 225861, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>756236</v>
+        <v>4319122</v>
       </c>
       <c r="I63" t="n">
-        <v>7347</v>
+        <v>181141</v>
       </c>
       <c r="J63" t="n">
-        <v>5445</v>
+        <v>39130</v>
       </c>
       <c r="K63" t="n">
-        <v>769</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>摩托车</t>
+          <t>房车</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>motorcycle</t>
+          <t>touringcar</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>骑士们集合啦</t>
+          <t>房车及营地相关内容，包括不限于产品介绍、驾驶体验、房车生活和房车旅行等内容</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>/v/car/motorcycle(opens new window)</t>
+          <t>/v/car/touringcar(opens new window)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>汽车(主分区)</t>
+          <t>汽车</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[{'aid': '739027069', 'bvid': 'BV1ok4y1x7rw', 'typename': '摩托车', 'title': '举手之劳成就你我他方便，拜拜的时候暖到我了， #内容过于真实 #骑士 #记录美好回忆', 'subtitle': '', 'play': 1688650, 'review': 1978, 'video_review': 1492, 'favorites': 12680, 'mid': 3461566305405669, 'author': '机车一辉', 'description': '-', 'create': '2023-03-25 00:53', 'pic': 'http://i1.hdslb.com/bfs/archive/9a90f3bbf1f57e2d05a8f30826bdd76f574f9803.jpg', 'coins': 33441, 'duration': '0:55', 'badgepay': False, 'pts': 2476195, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738797744', 'bvid': 'BV1tk4y1t7Jk', 'typename': '摩托车', 'title': '3万块钱的哈雷，能骑吗？', 'subtitle': '', 'play': 506758, 'review': 825, 'video_review': 2646, 'favorites': 1209, 'mid': 337294714, 'author': '极速拍档-Berlin', 'description': '', 'create': '2023-03-21 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/3c99e7f66dfb35a5c4d7c081b6afc1d9e482b9ac.jpg', 'coins': 2331, 'duration': '7:53', 'badgepay': False, 'pts': 714119, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568764871', 'bvid': 'BV1Tv4y1j7a4', 'typename': '摩托车', 'title': '因为我见到女孩子害羞，所以要逃跑。', 'subtitle': '', 'play': 2238843, 'review': 1201, 'video_review': 474, 'favorites': 6375, 'mid': 3493076267960358, 'author': '交通事故小卫士', 'description': '-', 'create': '2023-03-20 19:57', 'pic': 'http://i2.hdslb.com/bfs/archive/a8a463fec8d1d4eb76681180d8a7a33cd49e3034.jpg', 'coins': 611, 'duration': '1:20', 'badgepay': False, 'pts': 476705, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441619555', 'bvid': 'BV15L411Q7iE', 'typename': '摩托车', 'title': '佳娃250  JAWA', 'subtitle': '', 'play': 242472, 'review': 428, 'video_review': 996, 'favorites': 1019, 'mid': 1084452090, 'author': '老爷车天鹰', 'description': '一台1958年的老摩托车', 'create': '2023-03-24 20:50', 'pic': 'http://i2.hdslb.com/bfs/archive/00dc79163f4f6689e2e3254b3cecc577a3ad4430.jpg', 'coins': 1837, 'duration': '10:01', 'badgepay': False, 'pts': 451286, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311469208', 'bvid': 'BV13N411K7wA', 'typename': '摩托车', 'title': '丙Vlog036 | (一)骑着摩托去洗浴 800NK &amp; RnineT 3000公里 一路向北', 'subtitle': '', 'play': 133488, 'review': 724, 'video_review': 4844, 'favorites': 1410, 'mid': 17054540, 'author': '小丙摩托车评中心', 'description': '', 'create': '2023-03-23 19:04', 'pic': 'http://i2.hdslb.com/bfs/archive/618500d6ef9fb17bb578ba8f6200db2d209e9ab1.jpg', 'coins': 8066, 'duration': '35:26', 'badgepay': False, 'pts': 329931, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438908023', 'bvid': 'BV1tL41197z9', 'typename': '摩托车', 'title': '哼！不和你们做朋友了啦！', 'subtitle': '', 'play': 326365, 'review': 475, 'video_review': 537, 'favorites': 583, 'mid': 282356368, 'author': '骑不快的H', 'description': '这次完全参考大家的意见！！\n\n我自己的装备淘宝店：骑不快的H\n祝大家帅帅气气~', 'create': '2023-03-23 13:03', 'pic': 'http://i1.hdslb.com/bfs/archive/0b3e57cfa95debc5376a70c5a3dd2febec3cbf71.jpg', 'coins': 243, 'duration': '1:15', 'badgepay': False, 'pts': 154741, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226615269', 'bvid': 'BV1Sh411G7Tr', 'typename': '摩托车', 'title': '14亿人口的大国终于加入motogp了，没错了，我们恭喜中国旁边的阿三，哈哈哈！太惨了！我们被包围了。一起来年看向2023年的完整赛程吧！', 'subtitle': '', 'play': 74560, 'review': 467, 'video_review': 350, 'favorites': 296, 'mid': 49911040, 'author': '-暴走引擎-', 'description': '2023motogp全部赛历！不要错过比赛了。', 'create': '2023-03-24 11:47', 'pic': 'http://i2.hdslb.com/bfs/archive/d76740133b0c4feb2ca8e31a86162e24b235ac30.jpg', 'coins': 504, 'duration': '8:40', 'badgepay': False, 'pts': 143812, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738867264', 'bvid': 'BV1Sk4y1t7AN', 'typename': '摩托车', 'title': '已经3天没出车祸了，浑身难受', 'subtitle': '', 'play': 294909, 'review': 259, 'video_review': 33, 'favorites': 1146, 'mid': 2664450, 'author': '机佬研究社', 'description': 'ins', 'create': '2023-03-20 19:28', 'pic': 'http://i2.hdslb.com/bfs/archive/03363e6c99a67daeda6fa393db5d85f39ac03c30.jpg', 'coins': 84, 'duration': '0:14', 'badgepay': False, 'pts': 143441, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611293062', 'bvid': 'BV1m84y1w7dk', 'typename': '摩托车', 'title': '要是没有记录仪你永远不知道你的车在检车的时候发生了什么', 'subtitle': '', 'play': 155906, 'review': 602, 'video_review': 74, 'favorites': 184, 'mid': 450472369, 'author': '倔强的摩托车', 'description': '-', 'create': '2023-03-20 19:32', 'pic': 'http://i0.hdslb.com/bfs/archive/374cae36d61eb18d8761af1b7c76a1e8c2775fca.jpg', 'coins': 141, 'duration': '2:01', 'badgepay': False, 'pts': 135659, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568818101', 'bvid': 'BV1Vv4y1j7BZ', 'typename': '摩托车', 'title': '大爷说了几句手机，手机，我第一时间，以为他说我牛逼牛逼，居然还能站起来', 'subtitle': '', 'play': 220016, 'review': 670, 'video_review': 201, 'favorites': 143, 'mid': 400266294, 'author': '成都李小懒商贸', 'description': '对方全责，不过想想还是后怕，', 'create': '2023-03-20 11:57', 'pic': 'http://i1.hdslb.com/bfs/archive/e4ed22cfd0ae9e18a303f62968165e930cb94b8d.jpg', 'coins': 43, 'duration': '0:26', 'badgepay': False, 'pts': 122067, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '909124749', 'bvid': 'BV1CM4y1m7Kw', 'typename': '房车', 'title': '自驾房车穿越横断山脉，晚上露营长江第一湾，宛如世外桃源的地方', 'subtitle': '', 'play': 141633, 'review': 268, 'video_review': 820, 'favorites': 1116, 'mid': 513305949, 'author': '杨旭游记', 'description': '杨旭游记100天深入云南：自驾房车穿越横断山脉，晚上露营长江第一湾，宛如世外桃源的地方', 'create': '2023-03-25 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/32ba6b3eec95316f466c5ca93b3fc0791798a254.jpg', 'coins': 4383, 'duration': '10:44', 'badgepay': False, 'pts': 283914, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781270555', 'bvid': 'BV1h24y1E73g', 'typename': '房车', 'title': '房车自驾朝鲜边境，晚上男友被连夜带回国...【VanLIfe】', 'subtitle': '', 'play': 129472, 'review': 163, 'video_review': 530, 'favorites': 684, 'mid': 389400079, 'author': '十三要和拳头', 'description': '欢迎搭乘小白胖号房车-云游东北边境线～本期目的地是辽宁丹东！', 'create': '2023-03-20 19:22', 'pic': 'http://i2.hdslb.com/bfs/archive/24399fe779c61787d476c83f578e793dfa53e2ff.jpg', 'coins': 2453, 'duration': '10:03', 'badgepay': False, 'pts': 206124, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526464962', 'bvid': 'BV1CM411u7ty', 'typename': '房车', 'title': '这哪里是房车，这是移动的迷你别墅啊~', 'subtitle': '', 'play': 90427, 'review': 227, 'video_review': 69, 'favorites': 1266, 'mid': 412719797, 'author': 'YouTube精彩视频-', 'description': '（TT: fuelyourwander）', 'create': '2023-03-22 19:18', 'pic': 'http://i1.hdslb.com/bfs/archive/5999eacb7fd575a81091d9207226d77353fb3e84.jpg', 'coins': 61, 'duration': '1:23', 'badgepay': False, 'pts': 188270, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311618595', 'bvid': 'BV11N411K7e5', 'typename': '房车', 'title': '房车上的厕所自由！焚化马桶怎么使用？', 'subtitle': '', 'play': 109197, 'review': 519, 'video_review': 303, 'favorites': 392, 'mid': 3493264531393135, 'author': '圆脸到此一游', 'description': '', 'create': '2023-03-24 20:24', 'pic': 'http://i1.hdslb.com/bfs/archive/672cd000e2028f54b9523bcc1b2fa59e6ed29b78.jpg', 'coins': 264, 'duration': '2:10', 'badgepay': False, 'pts': 168547, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226383553', 'bvid': 'BV1Kb411o74K', 'typename': '房车', 'title': '三年了 我们第一批走出口岸 辞职自驾去北极！', 'subtitle': '', 'play': 69177, 'review': 227, 'video_review': 46, 'favorites': 304, 'mid': 3493133784451575, 'author': '大璇转世界-去北极中', 'description': '这次目的地绝不是你想象中的北欧北美的旅游城市，而是绕过整个外蒙古，纵向穿越最贫瘠荒凉的西伯利亚，途经世界冷极奥伊米亚康，去北极看极光。', 'create': '2023-03-23 18:20', 'pic': 'http://i1.hdslb.com/bfs/archive/2c9174723b7f20bfb6f4c5503bd555a6e1910388.jpg', 'coins': 186, 'duration': '1:18', 'badgepay': False, 'pts': 92061, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526575426', 'bvid': 'BV1TM411g7By', 'typename': '房车', 'title': '带着房 带着家 走在路上 这才是真的叫开房车啊！#房车伴侣 #房车旅行 #房车生活', 'subtitle': '', 'play': 188914, 'review': 169, 'video_review': 74, 'favorites': 638, 'mid': 1951773055, 'author': '房车伴侣', 'description': '-', 'create': '2023-03-25 11:28', 'pic': 'http://i1.hdslb.com/bfs/archive/893168dfec4c6acfcec9980bd980a2a7b0297f1f.jpg', 'coins': 48, 'duration': '0:58', 'badgepay': False, 'pts': 86055, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908919282', 'bvid': 'BV1qM4y1B7co', 'typename': '房车', 'title': '原厂空气悬挂越野属性拉满，独立厨卫还带东北大炕！ 美景美家卡居500轻卡房车', 'subtitle': '', 'play': 32655, 'review': 133, 'video_review': 148, 'favorites': 772, 'mid': 430813177, 'author': '21世纪房车', 'description': '沙漠黄越野属性拉满,全新布局尽显大空间, 美景美家卡居旅行号KJ500', 'create': '2023-03-23 18:55', 'pic': 'http://i1.hdslb.com/bfs/archive/b553c1c26134955e8327a27a1490e44594a399a1.jpg', 'coins': 152, 'duration': '8:24', 'badgepay': False, 'pts': 82610, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311334618', 'bvid': 'BV1xP411o7sR', 'typename': '房车', 'title': '适合2-3人的精致小两居布局，新款自由炮房车发布', 'subtitle': '', 'play': 32899, 'review': 97, 'video_review': 27, 'favorites': 245, 'mid': 595248167, 'author': '房车GO', 'description': '', 'create': '2023-03-21 12:01', 'pic': 'http://i0.hdslb.com/bfs/archive/dff58792f50922ccb55f1049afca7979355474d9.jpg', 'coins': 60, 'duration': '2:35', 'badgepay': False, 'pts': 57094, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824062170', 'bvid': 'BV1Tg4y1s7t6', 'typename': '房车', 'title': '房车为什么喜欢去厕所“偷”水？公厕里的水到底好在哪？', 'subtitle': '', 'play': 95649, 'review': 240, 'video_review': 69, 'favorites': 40, 'mid': 437699505, 'author': '庄树房车游', 'description': '房车为什么喜欢去厕所“偷”水？公厕里的水到底好在哪？', 'create': '2023-03-25 19:55', 'pic': 'http://i2.hdslb.com/bfs/archive/85e41a41272888bb3623e1a11263830f4c48762f.jpg', 'coins': 20, 'duration': '1:16', 'badgepay': False, 'pts': 38509, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>5881967</v>
+        <v>890023</v>
       </c>
       <c r="I64" t="n">
-        <v>47301</v>
+        <v>7627</v>
       </c>
       <c r="J64" t="n">
-        <v>25045</v>
+        <v>5457</v>
       </c>
       <c r="K64" t="n">
-        <v>5308</v>
+        <v>769</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>购车攻略</t>
+          <t>摩托车</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>strategy</t>
+          <t>motorcycle</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>丰富详实的购车建议和新车体验</t>
+          <t>骑士们集合啦</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>/v/car/strategy(opens new window)</t>
+          <t>/v/car/motorcycle(opens new window)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>汽车(主分区)</t>
+          <t>汽车</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[{'aid': '439084899', 'bvid': 'BV1GL411R7hP', 'typename': '购车攻略', 'title': '奥迪A4L低配畅销，不是穷是低调！', 'subtitle': '', 'play': 233756, 'review': 1524, 'video_review': 1735, 'favorites': 990, 'mid': 60259602, 'author': '百车全说', 'description': '奥迪的广告语只有八个字：突破科技，启迪未来。我就想问，奥迪这几年突破了什么科技，又启迪了什么未来？A4之所以如今还算畅销，说白了，就是不少人年少时有个豪车梦，长大后想要圆梦，而奥迪是最便宜的一张入场券而已。所以中国车企要学习国外豪华品牌的成功经验啊，你跟我谈定价，我跟你谈梦想有多大！', 'create': '2023-03-24 17:06', 'pic': 'http://i0.hdslb.com/bfs/archive/e9ce19a83294acbcfc33c0dfd2ed9983b1824db4.jpg', 'coins': 3232, 'duration': '7:23', 'badgepay': False, 'pts': 507576, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441465309', 'bvid': 'BV14L411D7As', 'typename': '购车攻略', 'title': '12万能提雪铁龙C6？为啥我掏了25万？', 'subtitle': '', 'play': 186591, 'review': 1043, 'video_review': 532, 'favorites': 419, 'mid': 24738601, 'author': '李老鼠说车', 'description': '', 'create': '2023-03-22 22:17', 'pic': 'http://i2.hdslb.com/bfs/archive/c41cb1b7697aaf2b25a685143922dc5eba05d388.jpg', 'coins': 635, 'duration': '3:41', 'badgepay': False, 'pts': 333057, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951321136', 'bvid': 'BV1Gs4y1n7ry', 'typename': '购车攻略', 'title': '新车5万多，自动挡轿车，小姐姐首付2万多，喜提新车，怎么样', 'subtitle': '', 'play': 251685, 'review': 1137, 'video_review': 481, 'favorites': 569, 'mid': 549336058, 'author': '郑在卖车', 'description': '新车5万多，自动挡轿车，小姐姐首付2万多，喜提新车，怎么样', 'create': '2023-03-20 17:37', 'pic': 'http://i1.hdslb.com/bfs/archive/38163bcf12af23f9741026c88ead941a10dd50eb.jpg', 'coins': 208, 'duration': '4:26', 'badgepay': False, 'pts': 282106, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739083833', 'bvid': 'BV1Lk4y147G5', 'typename': '购车攻略', 'title': '看完08，领克的老车主不淡定了。', 'subtitle': '', 'play': 130206, 'review': 370, 'video_review': 2058, 'favorites': 609, 'mid': 241332396, 'author': '蔻蔻妮娜', 'description': '领克08来了，领克的2.0时代也来了。', 'create': '2023-03-25 23:16', 'pic': 'http://i0.hdslb.com/bfs/archive/18bd34c99a7c096dc300ffb4d184209b8f77ee04.jpg', 'coins': 362, 'duration': '7:26', 'badgepay': False, 'pts': 265209, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354099978', 'bvid': 'BV1xX4y1o7D3', 'typename': '购车攻略', 'title': '全网首发！领克08体验如何？', 'subtitle': '', 'play': 115784, 'review': 805, 'video_review': 1108, 'favorites': 233, 'mid': 1560010685, 'author': '汽车之家评测中心', 'description': '全网首发！领克08体验如何？喜欢❤️别忘了关注+三连！感谢！', 'create': '2023-03-25 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d22ca4f31711b7de5a4af6e6ed8ad5e10ebab701.jpg', 'coins': 193, 'duration': '11:12', 'badgepay': False, 'pts': 237581, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993765708', 'bvid': 'BV1Px4y1N7Jc', 'typename': '购车攻略', 'title': '23款主流混动车型大乱斗！续航、油耗、性能、可靠性……谁会是最强黑马？', 'subtitle': '', 'play': 92194, 'review': 761, 'video_review': 1350, 'favorites': 1040, 'mid': 571842925, 'author': '太平洋汽车APP', 'description': '', 'create': '2023-03-20 17:54', 'pic': 'http://i1.hdslb.com/bfs/archive/48293eed79fec0816c29eec54b2ad44a6c63b28a.jpg', 'coins': 1586, 'duration': '32:21', 'badgepay': False, 'pts': 221539, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269237088', 'bvid': 'BV1zc411V72x', 'typename': '购车攻略', 'title': '代表领克第二代设计语言的领克08，会成为爆款吗?', 'subtitle': '', 'play': 66312, 'review': 489, 'video_review': 517, 'favorites': 169, 'mid': 1350227047, 'author': '此地无垠王垠', 'description': '-', 'create': '2023-03-26 13:33', 'pic': 'http://i0.hdslb.com/bfs/archive/8213451228636b080351b65d261e5b5e6ad6a621.jpg', 'coins': 311, 'duration': '8:05', 'badgepay': False, 'pts': 145191, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781301848', 'bvid': 'BV1r24y1E7AR', 'typename': '购车攻略', 'title': '北极梦怎么实现？首先我买了两台山海炮！', 'subtitle': '', 'play': 75992, 'review': 300, 'video_review': 320, 'favorites': 381, 'mid': 475058165, 'author': '玩越野的海峰', 'description': '北极行动 第一集丨不止“听过”，更要“去过”，三年来开着中国车自驾北极的梦想即将兑现，和山海炮一起出发，北极我们来了！', 'create': '2023-03-22 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/753cf7737cfcd1dd0b7e97b9186ebb880a228092.jpg', 'coins': 354, 'duration': '9:32', 'badgepay': False, 'pts': 129263, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226514274', 'bvid': 'BV1Jh411G7WW', 'typename': '购车攻略', 'title': '吉利这么好，会不会显得沃尔沃很不值钱？', 'subtitle': '', 'play': 64572, 'review': 319, 'video_review': 343, 'favorites': 244, 'mid': 648727006, 'author': '沙奔的汽车笔录', 'description': '试过了星瑞，再来试试星越L，不知道你们喜欢吗？', 'create': '2023-03-26 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/ed224fbb1b36f77da895a7b6b127f8443f34b996.jpg', 'coins': 861, 'duration': '11:51', 'badgepay': False, 'pts': 128497, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696560835', 'bvid': 'BV1vm4y1676v', 'typename': '购车攻略', 'title': '中国车完全超越韩国车！？', 'subtitle': '', 'play': 61876, 'review': 535, 'video_review': 119, 'favorites': 136, 'mid': 3493144213588772, 'author': '极速问答', 'description': '如果有关于汽车方面的问题，欢迎评论留言给我们哦～', 'create': '2023-03-24 18:30', 'pic': 'http://i0.hdslb.com/bfs/archive/4d85217f20ab1ef0afdf5fd802c0ce668ac269c6.jpg', 'coins': 93, 'duration': '2:07', 'badgepay': False, 'pts': 120330, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '739027069', 'bvid': 'BV1ok4y1x7rw', 'typename': '摩托车', 'title': '举手之劳成就你我他方便，拜拜的时候暖到我了， #内容过于真实 #骑士 #记录美好回忆', 'subtitle': '', 'play': 1722705, 'review': 2042, 'video_review': 1532, 'favorites': 13012, 'mid': 3461566305405669, 'author': '机车一辉', 'description': '-', 'create': '2023-03-25 00:53', 'pic': 'http://i1.hdslb.com/bfs/archive/9a90f3bbf1f57e2d05a8f30826bdd76f574f9803.jpg', 'coins': 34474, 'duration': '0:55', 'badgepay': False, 'pts': 2512550, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738797744', 'bvid': 'BV1tk4y1t7Jk', 'typename': '摩托车', 'title': '3万块钱的哈雷，能骑吗？', 'subtitle': '', 'play': 509889, 'review': 828, 'video_review': 2656, 'favorites': 1214, 'mid': 337294714, 'author': '极速拍档-Berlin', 'description': '', 'create': '2023-03-21 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/3c99e7f66dfb35a5c4d7c081b6afc1d9e482b9ac.jpg', 'coins': 2345, 'duration': '7:53', 'badgepay': False, 'pts': 717127, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441619555', 'bvid': 'BV15L411Q7iE', 'typename': '摩托车', 'title': '佳娃250  JAWA', 'subtitle': '', 'play': 273043, 'review': 488, 'video_review': 1110, 'favorites': 1157, 'mid': 1084452090, 'author': '老爷车天鹰', 'description': '一台1958年的老摩托车', 'create': '2023-03-24 20:50', 'pic': 'http://i2.hdslb.com/bfs/archive/00dc79163f4f6689e2e3254b3cecc577a3ad4430.jpg', 'coins': 2096, 'duration': '10:01', 'badgepay': False, 'pts': 503944, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568764871', 'bvid': 'BV1Tv4y1j7a4', 'typename': '摩托车', 'title': '因为我见到女孩子害羞，所以要逃跑。', 'subtitle': '', 'play': 2261389, 'review': 1212, 'video_review': 475, 'favorites': 6465, 'mid': 3493076267960358, 'author': '交通事故小卫士', 'description': '-', 'create': '2023-03-20 19:57', 'pic': 'http://i2.hdslb.com/bfs/archive/a8a463fec8d1d4eb76681180d8a7a33cd49e3034.jpg', 'coins': 617, 'duration': '1:20', 'badgepay': False, 'pts': 481440, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311469208', 'bvid': 'BV13N411K7wA', 'typename': '摩托车', 'title': '丙Vlog036 | (一)骑着摩托去洗浴 800NK &amp; RnineT 3000公里 一路向北', 'subtitle': '', 'play': 135542, 'review': 726, 'video_review': 4890, 'favorites': 1419, 'mid': 17054540, 'author': '小丙摩托车评中心', 'description': '', 'create': '2023-03-23 19:04', 'pic': 'http://i2.hdslb.com/bfs/archive/618500d6ef9fb17bb578ba8f6200db2d209e9ab1.jpg', 'coins': 8121, 'duration': '35:26', 'badgepay': False, 'pts': 333822, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438908023', 'bvid': 'BV1tL41197z9', 'typename': '摩托车', 'title': '哼！不和你们做朋友了啦！', 'subtitle': '', 'play': 328567, 'review': 475, 'video_review': 542, 'favorites': 586, 'mid': 282356368, 'author': '骑不快的H', 'description': '这次完全参考大家的意见！！\n\n我自己的装备淘宝店：骑不快的H\n祝大家帅帅气气~', 'create': '2023-03-23 13:03', 'pic': 'http://i1.hdslb.com/bfs/archive/0b3e57cfa95debc5376a70c5a3dd2febec3cbf71.jpg', 'coins': 245, 'duration': '1:15', 'badgepay': False, 'pts': 157184, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226615269', 'bvid': 'BV1Sh411G7Tr', 'typename': '摩托车', 'title': '14亿人口的大国终于加入motogp了，没错了，我们恭喜中国旁边的阿三，哈哈哈！太惨了！我们被包围了。一起来年看向2023年的完整赛程吧！', 'subtitle': '', 'play': 76715, 'review': 473, 'video_review': 360, 'favorites': 304, 'mid': 49911040, 'author': '-暴走引擎-', 'description': '2023motogp全部赛历！不要错过比赛了。', 'create': '2023-03-24 11:47', 'pic': 'http://i2.hdslb.com/bfs/archive/d76740133b0c4feb2ca8e31a86162e24b235ac30.jpg', 'coins': 510, 'duration': '8:40', 'badgepay': False, 'pts': 147826, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738867264', 'bvid': 'BV1Sk4y1t7AN', 'typename': '摩托车', 'title': '已经3天没出车祸了，浑身难受', 'subtitle': '', 'play': 298614, 'review': 264, 'video_review': 33, 'favorites': 1158, 'mid': 2664450, 'author': '机佬研究社', 'description': 'ins', 'create': '2023-03-20 19:28', 'pic': 'http://i2.hdslb.com/bfs/archive/03363e6c99a67daeda6fa393db5d85f39ac03c30.jpg', 'coins': 85, 'duration': '0:14', 'badgepay': False, 'pts': 147280, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611293062', 'bvid': 'BV1m84y1w7dk', 'typename': '摩托车', 'title': '要是没有记录仪你永远不知道你的车在检车的时候发生了什么', 'subtitle': '', 'play': 157688, 'review': 605, 'video_review': 75, 'favorites': 188, 'mid': 450472369, 'author': '倔强的摩托车', 'description': '-', 'create': '2023-03-20 19:32', 'pic': 'http://i0.hdslb.com/bfs/archive/374cae36d61eb18d8761af1b7c76a1e8c2775fca.jpg', 'coins': 143, 'duration': '2:01', 'badgepay': False, 'pts': 138926, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483848989', 'bvid': 'BV1dT41167Cv', 'typename': '摩托车', 'title': '川崎Ninja400，900多公里整备后跟新的一样', 'subtitle': '', 'play': 142353, 'review': 476, 'video_review': 174, 'favorites': 318, 'mid': 1216620140, 'author': '阿坛淘车', 'description': '珠海市拿下小姐姐的川崎Ninja400，900多公里有倒车磕碰，整备后跟新的一样', 'create': '2023-03-21 18:37', 'pic': 'http://i1.hdslb.com/bfs/archive/2e179125414e22fe517271650eda0fbc90944f48.jpg', 'coins': 66, 'duration': '2:34', 'badgepay': False, 'pts': 110323, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1278968</v>
+        <v>5906505</v>
       </c>
       <c r="I65" t="n">
-        <v>7835</v>
+        <v>48702</v>
       </c>
       <c r="J65" t="n">
-        <v>4790</v>
+        <v>25821</v>
       </c>
       <c r="K65" t="n">
-        <v>4014</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>汽车生活</t>
+          <t>购车攻略</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>分享汽车及出行相关的生活体验类视频</t>
+          <t>丰富详实的购车建议和新车体验</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>/v/car/life</t>
+          <t>/v/car/strategy(opens new window)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>汽车(主分区)</t>
+          <t>汽车</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[{'aid': '311364036', 'bvid': 'BV1eP411o7ek', 'typename': '汽车生活', 'title': '460w粉丝生活区UP主开什么车？东尼ookii座驾曝光！', 'subtitle': '', 'play': 828230, 'review': 1305, 'video_review': 5410, 'favorites': 5711, 'mid': 86439234, 'author': 'Upspeed盛嘉成', 'description': '求三连！！！点赞过5w马上突袭下一位百大UP主！！！', 'create': '2023-03-22 12:05', 'pic': 'http://i0.hdslb.com/bfs/archive/eefb03be6ae417d64dbf48423950601b2bc5ff59.jpg', 'coins': 28759, 'duration': '18:27', 'badgepay': False, 'pts': 1503346, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738834744', 'bvid': 'BV1zk4y1t7W2', 'typename': '汽车生活', 'title': '开手动挡911的女人，你追得上吗', 'subtitle': '', 'play': 667851, 'review': 957, 'video_review': 3984, 'favorites': 4570, 'mid': 25150941, 'author': '极速拍档', 'description': '', 'create': '2023-03-22 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/68c78f392f25e66be5bfc756d557ed92e8525f9e.jpg', 'coins': 16994, 'duration': '16:45', 'badgepay': False, 'pts': 1247121, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311585009', 'bvid': 'BV1iN411K7Pp', 'typename': '汽车生活', 'title': '发现一个大bug！用照片就能打开停车场闸门！', 'subtitle': '', 'play': 512662, 'review': 914, 'video_review': 313, 'favorites': 4233, 'mid': 2015942992, 'author': '辣眼车评', 'description': '', 'create': '2023-03-24 18:21', 'pic': 'http://i1.hdslb.com/bfs/archive/437a2e778fb07f5fca4fc8574cc0def88031ea1f.jpg', 'coins': 564, 'duration': '1:40', 'badgepay': False, 'pts': 847145, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441313355', 'bvid': 'BV1xL411r76K', 'typename': '汽车生活', 'title': '老人突发疾病开车送医，结果被暴走团的大爷大妈堵路拦车！【1067期】', 'subtitle': '', 'play': 644833, 'review': 1205, 'video_review': 6048, 'favorites': 1553, 'mid': 539418077, 'author': '车祸警示录', 'description': '无数鲜活的案例告诉我们，每次事故的发生通常只在几秒钟，其后果往往会改变一个或数个家庭的命运。\n为了自己和他人的生命安全，请遵守交通法规，摒弃交通陋习，切不要让所有的幸福都毁于侥幸。\n投稿方式 ①公众号：车祸警示录  ②邮箱投稿：CheHuoJSL@qq.com\n视频后续有相关报道/错误，会以视频CC字幕的方式在下方补充修改！\n把我设为【特别关注】，可以在第一时间收到我的视频通知！\n视频已做打码处理无不适内容，请放心食用~\nbgm：Arms Dealer - Pokecale', 'create': '2023-03-21 13:16', 'pic': 'http://i2.hdslb.com/bfs/archive/3982273db2ebd2784e6be5523db99e185f14ec13.jpg', 'coins': 1623, 'duration': '7:56', 'badgepay': False, 'pts': 826489, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396284165', 'bvid': 'BV1mo4y1q7Mz', 'typename': '汽车生活', 'title': '收到的生日礼物居然是一辆车 全国唯一 我何德何能', 'subtitle': '', 'play': 745775, 'review': 582, 'video_review': 498, 'favorites': 3250, 'mid': 478404480, 'author': '鲁撸的小助理', 'description': '活了这么久第一次见这种车', 'create': '2023-03-21 14:08', 'pic': 'http://i1.hdslb.com/bfs/archive/862f2a48060f18715b23a68aba90a5a4dc4f5a59.jpg', 'coins': 3085, 'duration': '2:57', 'badgepay': False, 'pts': 787361, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866402678', 'bvid': 'BV1DV4y1Q7At', 'typename': '汽车生活', 'title': '这车是反骨做的吗？', 'subtitle': '', 'play': 484355, 'review': 397, 'video_review': 306, 'favorites': 4066, 'mid': 3493093571561849, 'author': '钟声水起靠自己', 'description': '-', 'create': '2023-03-23 08:20', 'pic': 'http://i2.hdslb.com/bfs/archive/902535856ea27bcc68059ddb2438a57fcd548bbb.jpg', 'coins': 918, 'duration': '1:27', 'badgepay': False, 'pts': 759083, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653991213', 'bvid': 'BV1EY4y1Q7EC', 'typename': '汽车生活', 'title': 'TESTV首次穿越秀，坦克300居然“翻车”？【BB Time393期】', 'subtitle': '', 'play': 267353, 'review': 704, 'video_review': 2621, 'favorites': 3023, 'mid': 11336264, 'author': 'TESTV官方频道', 'description': 'TESTV两位车主终于带着自己的爱车出发穿越了，虽然选择了一条据传为新手小白向的路线，但是路上还是难免的出现了“翻车”，好在有两条海参，问题不大。', 'create': '2023-03-22 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/8e45ad1b80b8d9c878e541f9a6b8548051ba0588.jpg', 'coins': 14391, 'duration': '27:18', 'badgepay': False, 'pts': 586970, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823848219', 'bvid': 'BV1hg4y1x7jF', 'typename': '汽车生活', 'title': '居然白嫖我一套轮胎？！', 'subtitle': '', 'play': 696128, 'review': 488, 'video_review': 808, 'favorites': 3083, 'mid': 52250, 'author': '视角姬', 'description': '太过分了，白嫖完一套改件还想白嫖我一套轮胎，这次可不能白白给她！', 'create': '2023-03-20 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6794461ff8df364a3467c109110142610d07f046.jpg', 'coins': 2338, 'duration': '7:23', 'badgepay': False, 'pts': 523555, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438954767', 'bvid': 'BV1aL41197Lw', 'typename': '汽车生活', 'title': '猜 车', 'subtitle': '', 'play': 371107, 'review': 439, 'video_review': 1207, 'favorites': 1306, 'mid': 18154819, 'author': '极速拍档-小乔', 'description': '', 'create': '2023-03-23 11:01', 'pic': 'http://i1.hdslb.com/bfs/archive/567e916599573b04140427c64acecb1436c07ee0.jpg', 'coins': 2194, 'duration': '4:31', 'badgepay': False, 'pts': 493180, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438902274', 'bvid': 'BV1sL411972o', 'typename': '汽车生活', 'title': '1015期：提新车啦~上路啦~小姐妹飞出去啦~', 'subtitle': '', 'play': 366323, 'review': 474, 'video_review': 3463, 'favorites': 624, 'mid': 31814567, 'author': '小明不背锅', 'description': '商务合作不要私信，请联系工作QQ：1789494959', 'create': '2023-03-22 11:46', 'pic': 'http://i0.hdslb.com/bfs/archive/e681d2d370943e587109308aa53de75fba391c51.jpg', 'coins': 498, 'duration': '7:57', 'badgepay': False, 'pts': 488831, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '439084899', 'bvid': 'BV1GL411R7hP', 'typename': '购车攻略', 'title': '奥迪A4L低配畅销，不是穷是低调！', 'subtitle': '', 'play': 239899, 'review': 1572, 'video_review': 1771, 'favorites': 1009, 'mid': 60259602, 'author': '百车全说', 'description': '奥迪的广告语只有八个字：突破科技，启迪未来。我就想问，奥迪这几年突破了什么科技，又启迪了什么未来？A4之所以如今还算畅销，说白了，就是不少人年少时有个豪车梦，长大后想要圆梦，而奥迪是最便宜的一张入场券而已。所以中国车企要学习国外豪华品牌的成功经验啊，你跟我谈定价，我跟你谈梦想有多大！', 'create': '2023-03-24 17:06', 'pic': 'http://i0.hdslb.com/bfs/archive/e9ce19a83294acbcfc33c0dfd2ed9983b1824db4.jpg', 'coins': 3321, 'duration': '7:23', 'badgepay': False, 'pts': 520912, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441465309', 'bvid': 'BV14L411D7As', 'typename': '购车攻略', 'title': '12万能提雪铁龙C6？为啥我掏了25万？', 'subtitle': '', 'play': 187547, 'review': 1052, 'video_review': 532, 'favorites': 417, 'mid': 24738601, 'author': '李老鼠说车', 'description': '', 'create': '2023-03-22 22:17', 'pic': 'http://i2.hdslb.com/bfs/archive/c41cb1b7697aaf2b25a685143922dc5eba05d388.jpg', 'coins': 641, 'duration': '3:41', 'badgepay': False, 'pts': 335097, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739083833', 'bvid': 'BV1Lk4y147G5', 'typename': '购车攻略', 'title': '看完08，领克的老车主不淡定了。', 'subtitle': '', 'play': 154368, 'review': 406, 'video_review': 2195, 'favorites': 767, 'mid': 241332396, 'author': '蔻蔻妮娜', 'description': '领克08来了，领克的2.0时代也来了。', 'create': '2023-03-25 23:16', 'pic': 'http://i0.hdslb.com/bfs/archive/18bd34c99a7c096dc300ffb4d184209b8f77ee04.jpg', 'coins': 392, 'duration': '7:26', 'badgepay': False, 'pts': 309091, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951321136', 'bvid': 'BV1Gs4y1n7ry', 'typename': '购车攻略', 'title': '新车5万多，自动挡轿车，小姐姐首付2万多，喜提新车，怎么样', 'subtitle': '', 'play': 253707, 'review': 1139, 'video_review': 482, 'favorites': 576, 'mid': 549336058, 'author': '郑在卖车', 'description': '新车5万多，自动挡轿车，小姐姐首付2万多，喜提新车，怎么样', 'create': '2023-03-20 17:37', 'pic': 'http://i1.hdslb.com/bfs/archive/38163bcf12af23f9741026c88ead941a10dd50eb.jpg', 'coins': 208, 'duration': '4:26', 'badgepay': False, 'pts': 285368, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354099978', 'bvid': 'BV1xX4y1o7D3', 'typename': '购车攻略', 'title': '全网首发！领克08体验如何？', 'subtitle': '', 'play': 118787, 'review': 815, 'video_review': 1120, 'favorites': 231, 'mid': 1560010685, 'author': '汽车之家评测中心', 'description': '全网首发！领克08体验如何？喜欢❤️别忘了关注+三连！感谢！', 'create': '2023-03-25 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d22ca4f31711b7de5a4af6e6ed8ad5e10ebab701.jpg', 'coins': 193, 'duration': '11:12', 'badgepay': False, 'pts': 241752, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993765708', 'bvid': 'BV1Px4y1N7Jc', 'typename': '购车攻略', 'title': '23款主流混动车型大乱斗！续航、油耗、性能、可靠性……谁会是最强黑马？', 'subtitle': '', 'play': 97899, 'review': 794, 'video_review': 1391, 'favorites': 1088, 'mid': 571842925, 'author': '太平洋汽车APP', 'description': '', 'create': '2023-03-20 17:54', 'pic': 'http://i1.hdslb.com/bfs/archive/48293eed79fec0816c29eec54b2ad44a6c63b28a.jpg', 'coins': 1632, 'duration': '32:21', 'badgepay': False, 'pts': 233002, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269237088', 'bvid': 'BV1zc411V72x', 'typename': '购车攻略', 'title': '代表领克第二代设计语言的领克08，会成为爆款吗?', 'subtitle': '', 'play': 80026, 'review': 567, 'video_review': 638, 'favorites': 182, 'mid': 1350227047, 'author': '此地无垠王垠', 'description': '-', 'create': '2023-03-26 13:33', 'pic': 'http://i0.hdslb.com/bfs/archive/8213451228636b080351b65d261e5b5e6ad6a621.jpg', 'coins': 346, 'duration': '8:05', 'badgepay': False, 'pts': 169826, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226514274', 'bvid': 'BV1Jh411G7WW', 'typename': '购车攻略', 'title': '吉利这么好，会不会显得沃尔沃很不值钱？', 'subtitle': '', 'play': 74405, 'review': 357, 'video_review': 379, 'favorites': 270, 'mid': 648727006, 'author': '沙奔的汽车笔录', 'description': '试过了星瑞，再来试试星越L，不知道你们喜欢吗？', 'create': '2023-03-26 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/ed224fbb1b36f77da895a7b6b127f8443f34b996.jpg', 'coins': 945, 'duration': '11:51', 'badgepay': False, 'pts': 146958, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781301848', 'bvid': 'BV1r24y1E7AR', 'typename': '购车攻略', 'title': '北极梦怎么实现？首先我买了两台山海炮！', 'subtitle': '', 'play': 77152, 'review': 300, 'video_review': 320, 'favorites': 391, 'mid': 475058165, 'author': '玩越野的海峰', 'description': '北极行动 第一集丨不止“听过”，更要“去过”，三年来开着中国车自驾北极的梦想即将兑现，和山海炮一起出发，北极我们来了！', 'create': '2023-03-22 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/753cf7737cfcd1dd0b7e97b9186ebb880a228092.jpg', 'coins': 360, 'duration': '9:32', 'badgepay': False, 'pts': 130767, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696560835', 'bvid': 'BV1vm4y1676v', 'typename': '购车攻略', 'title': '中国车完全超越韩国车！？', 'subtitle': '', 'play': 63689, 'review': 538, 'video_review': 122, 'favorites': 135, 'mid': 3493144213588772, 'author': '极速问答', 'description': '如果有关于汽车方面的问题，欢迎评论留言给我们哦～', 'create': '2023-03-24 18:30', 'pic': 'http://i0.hdslb.com/bfs/archive/4d85217f20ab1ef0afdf5fd802c0ce668ac269c6.jpg', 'coins': 95, 'duration': '2:07', 'badgepay': False, 'pts': 123065, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>5584617</v>
+        <v>1347479</v>
       </c>
       <c r="I66" t="n">
-        <v>71364</v>
+        <v>8133</v>
       </c>
       <c r="J66" t="n">
-        <v>31419</v>
+        <v>5066</v>
       </c>
       <c r="K66" t="n">
-        <v>103136</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>搞笑</t>
+          <t>汽车生活</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>life</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>各种沙雕有趣的搞笑剪辑，挑战，表演，配音等视频</t>
+          <t>分享汽车及出行相关的生活体验类视频</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>/v/life/funny(opens new window)</t>
+          <t>/v/car/life</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>生活(主分区)</t>
+          <t>汽车</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[{'aid': '311578989', 'bvid': 'BV1vN411K7e9', 'typename': '搞笑', 'title': '狗是谁？（3）', 'subtitle': '', 'play': 3697021, 'review': 19813, 'video_review': 37271, 'favorites': 102737, 'mid': 5970160, 'author': '小潮院长', 'description': '希望观众老爷喜欢这个系列！\n（希望你们喜欢，记得素质三连！）', 'create': '2023-03-25 13:56', 'pic': 'http://i2.hdslb.com/bfs/archive/12aefbbe4085a32b626e3cfbec481afbd3b76ae8.jpg', 'coins': 264302, 'duration': '13:14', 'badgepay': False, 'pts': 6212449, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441474676', 'bvid': 'BV1EL411D7eH', 'typename': '搞笑', 'title': '学生：这把高端局！', 'subtitle': '', 'play': 3458760, 'review': 843, 'video_review': 4086, 'favorites': 33461, 'mid': 474267806, 'author': '人类早期驯服', 'description': '点赞过五万，马上加更下一期~\xa0\n鸡你太美：这把高端局！BV11T411r7Y5\n老默：这把高端局！BV1K54y1M7K9\n丁仪，字俊晖：这把高端局！BV1ix4y1K71j\n汪淼：这把高端局！BV1Bb411X793\n九转大肠：这把高端局！BV1UY4y1m7xm\n礼崩乐坏：这把高端局！BV12D4y1w7M6\n陋室铭：这把高端局！BV1z8411M7Gm\n在我律师来之前，我不会放下我的狗盆！BV13Y411S7gg\n修狗潦草长相大赏！！【修狗珍贵影像】BV1By4y197oX', 'create': '2023-03-23 10:30', 'pic': 'http://i1.hdslb.com/bfs/archive/c983a4a1c2d9a44d94b058ab311d4945a1c6e039.jpg', 'coins': 21471, 'duration': '5:32', 'badgepay': False, 'pts': 3766939, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441266252', 'bvid': 'BV1pL411r7q6', 'typename': '搞笑', 'title': '老板让我把公司拆了重建？？？？', 'subtitle': '', 'play': 3025674, 'review': 3194, 'video_review': 18254, 'favorites': 49367, 'mid': 178029850, 'author': '杜海皇', 'description': '希望各位观众老爷们喜欢这期视频！\n喜欢记得点赞/投币/收藏/分享！', 'create': '2023-03-20 19:43', 'pic': 'http://i1.hdslb.com/bfs/archive/25bcc5d190c2b3ef73ee6a99ae5f83cb5eb5e8eb.jpg', 'coins': 86093, 'duration': '12:42', 'badgepay': False, 'pts': 3669112, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823861616', 'bvid': 'BV12g4y1x7mA', 'typename': '搞笑', 'title': '职  校  历  险  记', 'subtitle': '', 'play': 1876494, 'review': 4415, 'video_review': 511, 'favorites': 30850, 'mid': 281687975, 'author': 'A立鸽', 'description': '-', 'create': '2023-03-22 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/449611f62b79850a12c3891266422402a177112e.jpg', 'coins': 19494, 'duration': '0:32', 'badgepay': False, 'pts': 3166618, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353974379', 'bvid': 'BV12X4y1d75S', 'typename': '搞笑', 'title': '烦死了！漫展一点都不好玩', 'subtitle': '', 'play': 2251597, 'review': 1100, 'video_review': 461, 'favorites': 29464, 'mid': 16015678, 'author': '野生鱼白', 'description': '', 'create': '2023-03-22 15:24', 'pic': 'http://i0.hdslb.com/bfs/archive/ab86dd5ca4441a56a84dc395326b61c8775866d2.jpg', 'coins': 2847, 'duration': '0:31', 'badgepay': False, 'pts': 3009281, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993825813', 'bvid': 'BV1rx4y1w7fP', 'typename': '搞笑', 'title': '去海鲜市场钓鱼', 'subtitle': '', 'play': 3104308, 'review': 2569, 'video_review': 1476, 'favorites': 22190, 'mid': 291222529, 'author': '旺仔有内涵', 'description': '-', 'create': '2023-03-20 12:22', 'pic': 'http://i0.hdslb.com/bfs/archive/701ab42a75313755a34418fa7aa2f5face533439.jpg', 'coins': 53400, 'duration': '1:36', 'badgepay': False, 'pts': 2996894, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526503977', 'bvid': 'BV12M411u7AM', 'typename': '搞笑', 'title': '听说我们不害怕，密室员工掏出了电锯...', 'subtitle': '', 'play': 1896470, 'review': 2225, 'video_review': 6276, 'favorites': 31105, 'mid': 546195, 'author': '老番茄', 'description': '也就有那么一点点吓人...', 'create': '2023-03-24 19:38', 'pic': 'http://i1.hdslb.com/bfs/archive/6a2a460493e1a1aceb7d54a515caef506d964922.jpg', 'coins': 62403, 'duration': '11:20', 'badgepay': False, 'pts': 2910514, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311269290', 'bvid': 'BV1KP411o7AJ', 'typename': '搞笑', 'title': '我再也见不到川哥了', 'subtitle': '', 'play': 1360602, 'review': 1960, 'video_review': 2156, 'favorites': 39662, 'mid': 1963607996, 'author': '________雕雕', 'description': '提醒：视频仅供娱乐，现实中请不要打架斗殴，未成年人也不要随意进出网吧\n———————————————————————————————————————————————————\n“说真的，原版的小川只要不碰hdd，估计还真是个好小伙子”\n\n【被川哥的仗义震撼到的STAFF】\n配音：雕雕\n后期：Dicky\n剧本：Dicky\n检查：皎皎', 'create': '2023-03-20 23:30', 'pic': 'http://i1.hdslb.com/bfs/archive/598f12cdcadffb80783c5d50e41f7d7a527e01cf.jpg', 'coins': 25630, 'duration': '4:31', 'badgepay': False, 'pts': 2787989, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526291403', 'bvid': 'BV1jM411p7yv', 'typename': '搞笑', 'title': '加入了礼仪队的我可不会放过任何练习的机会啊！', 'subtitle': '', 'play': 2191435, 'review': 1802, 'video_review': 1436, 'favorites': 16521, 'mid': 424658638, 'author': '四夕小田木_已黑化_', 'description': '-', 'create': '2023-03-21 21:53', 'pic': 'http://i2.hdslb.com/bfs/archive/ceb48501fae7d329569856e5468bca7d41b47b9f.jpg', 'coins': 16048, 'duration': '1:33', 'badgepay': False, 'pts': 2764030, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908810274', 'bvid': 'BV1YM4y167Ba', 'typename': '搞笑', 'title': '哈哈，再也不相信网上的穿搭了！', 'subtitle': '', 'play': 2191146, 'review': 3451, 'video_review': 6808, 'favorites': 9453, 'mid': 9841658, 'author': '是莫叔叔吗', 'description': '通过这个视频我学会了穿搭三要素\n模特好看模特好看模特好看\n再也不相信网上的实拍图了，哈哈', 'create': '2023-03-22 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/0d14d187b92fba1b59cacd53477c82014ba1bc71.jpg', 'coins': 13996, 'duration': '4:06', 'badgepay': False, 'pts': 2726318, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '311364036', 'bvid': 'BV1eP411o7ek', 'typename': '汽车生活', 'title': '460w粉丝生活区UP主开什么车？东尼ookii座驾曝光！', 'subtitle': '', 'play': 832172, 'review': 1309, 'video_review': 5422, 'favorites': 5741, 'mid': 86439234, 'author': 'Upspeed盛嘉成', 'description': '求三连！！！点赞过5w马上突袭下一位百大UP主！！！', 'create': '2023-03-22 12:05', 'pic': 'http://i0.hdslb.com/bfs/archive/eefb03be6ae417d64dbf48423950601b2bc5ff59.jpg', 'coins': 28878, 'duration': '18:27', 'badgepay': False, 'pts': 1508769, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738834744', 'bvid': 'BV1zk4y1t7W2', 'typename': '汽车生活', 'title': '开手动挡911的女人，你追得上吗', 'subtitle': '', 'play': 672440, 'review': 960, 'video_review': 3997, 'favorites': 4597, 'mid': 25150941, 'author': '极速拍档', 'description': '', 'create': '2023-03-22 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/68c78f392f25e66be5bfc756d557ed92e8525f9e.jpg', 'coins': 17106, 'duration': '16:45', 'badgepay': False, 'pts': 1253150, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311585009', 'bvid': 'BV1iN411K7Pp', 'typename': '汽车生活', 'title': '发现一个大bug！用照片就能打开停车场闸门！', 'subtitle': '', 'play': 605204, 'review': 1033, 'video_review': 367, 'favorites': 5152, 'mid': 2015942992, 'author': '辣眼车评', 'description': '', 'create': '2023-03-24 18:21', 'pic': 'http://i1.hdslb.com/bfs/archive/437a2e778fb07f5fca4fc8574cc0def88031ea1f.jpg', 'coins': 712, 'duration': '1:40', 'badgepay': False, 'pts': 978287, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441313355', 'bvid': 'BV1xL411r76K', 'typename': '汽车生活', 'title': '老人突发疾病开车送医，结果被暴走团的大爷大妈堵路拦车！【1067期】', 'subtitle': '', 'play': 649797, 'review': 1207, 'video_review': 6064, 'favorites': 1555, 'mid': 539418077, 'author': '车祸警示录', 'description': '无数鲜活的案例告诉我们，每次事故的发生通常只在几秒钟，其后果往往会改变一个或数个家庭的命运。\n为了自己和他人的生命安全，请遵守交通法规，摒弃交通陋习，切不要让所有的幸福都毁于侥幸。\n投稿方式 ①公众号：车祸警示录  ②邮箱投稿：CheHuoJSL@qq.com\n视频后续有相关报道/错误，会以视频CC字幕的方式在下方补充修改！\n把我设为【特别关注】，可以在第一时间收到我的视频通知！\n视频已做打码处理无不适内容，请放心食用~\nbgm：Arms Dealer - Pokecale', 'create': '2023-03-21 13:16', 'pic': 'http://i2.hdslb.com/bfs/archive/3982273db2ebd2784e6be5523db99e185f14ec13.jpg', 'coins': 1628, 'duration': '7:56', 'badgepay': False, 'pts': 829990, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396284165', 'bvid': 'BV1mo4y1q7Mz', 'typename': '汽车生活', 'title': '收到的生日礼物居然是一辆车 全国唯一 我何德何能', 'subtitle': '', 'play': 752500, 'review': 585, 'video_review': 501, 'favorites': 3290, 'mid': 478404480, 'author': '鲁撸的小助理', 'description': '活了这么久第一次见这种车', 'create': '2023-03-21 14:08', 'pic': 'http://i1.hdslb.com/bfs/archive/862f2a48060f18715b23a68aba90a5a4dc4f5a59.jpg', 'coins': 3131, 'duration': '2:57', 'badgepay': False, 'pts': 794344, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866402678', 'bvid': 'BV1DV4y1Q7At', 'typename': '汽车生活', 'title': '这车是反骨做的吗？', 'subtitle': '', 'play': 495999, 'review': 395, 'video_review': 308, 'favorites': 4094, 'mid': 3493093571561849, 'author': '钟声水起靠自己', 'description': '-', 'create': '2023-03-23 08:20', 'pic': 'http://i2.hdslb.com/bfs/archive/902535856ea27bcc68059ddb2438a57fcd548bbb.jpg', 'coins': 937, 'duration': '1:27', 'badgepay': False, 'pts': 764445, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269080484', 'bvid': 'BV1pc411L79o', 'typename': '汽车生活', 'title': '老司机全程跑一段高速路，讲解安全驾驶技巧，别做无意义的冒险', 'subtitle': '', 'play': 328453, 'review': 457, 'video_review': 375, 'favorites': 4552, 'mid': 698396117, 'author': '老萧说车', 'description': '老司机全程跑一段高速路，讲解安全驾驶技巧，别做无意义的冒险。', 'create': '2023-03-25 19:30', 'pic': 'http://i1.hdslb.com/bfs/archive/46c5bb7bb828f0d26fbd2c211831ac9df18f65a5.jpg', 'coins': 3326, 'duration': '6:54', 'badgepay': False, 'pts': 681300, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653991213', 'bvid': 'BV1EY4y1Q7EC', 'typename': '汽车生活', 'title': 'TESTV首次穿越秀，坦克300居然“翻车”？【BB Time393期】', 'subtitle': '', 'play': 268781, 'review': 703, 'video_review': 2619, 'favorites': 3034, 'mid': 11336264, 'author': 'TESTV官方频道', 'description': 'TESTV两位车主终于带着自己的爱车出发穿越了，虽然选择了一条据传为新手小白向的路线，但是路上还是难免的出现了“翻车”，好在有两条海参，问题不大。', 'create': '2023-03-22 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/8e45ad1b80b8d9c878e541f9a6b8548051ba0588.jpg', 'coins': 14446, 'duration': '27:18', 'badgepay': False, 'pts': 589591, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354056362', 'bvid': 'BV1cX4y1o7D3', 'typename': '汽车生活', 'title': '喜提爱车，再接再厉！', 'subtitle': '', 'play': 261548, 'review': 404, 'video_review': 300, 'favorites': 3023, 'mid': 522565545, 'author': '跌入井底的青蛙', 'description': '-', 'create': '2023-03-24 20:49', 'pic': 'http://i0.hdslb.com/bfs/archive/4855c59a897dde7e8b74762b213616bf5daa0e35.jpg', 'coins': 401, 'duration': '1:02', 'badgepay': False, 'pts': 528095, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823848219', 'bvid': 'BV1hg4y1x7jF', 'typename': '汽车生活', 'title': '居然白嫖我一套轮胎？！', 'subtitle': '', 'play': 697328, 'review': 489, 'video_review': 810, 'favorites': 3085, 'mid': 52250, 'author': '视角姬', 'description': '太过分了，白嫖完一套改件还想白嫖我一套轮胎，这次可不能白白给她！', 'create': '2023-03-20 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6794461ff8df364a3467c109110142610d07f046.jpg', 'coins': 2342, 'duration': '7:23', 'badgepay': False, 'pts': 525149, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>25053507</v>
+        <v>5564222</v>
       </c>
       <c r="I67" t="n">
-        <v>565684</v>
+        <v>72907</v>
       </c>
       <c r="J67" t="n">
-        <v>364810</v>
+        <v>38123</v>
       </c>
       <c r="K67" t="n">
-        <v>133556</v>
+        <v>103136</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>出行</t>
+          <t>搞笑</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>travel</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>为达到观光游览、休闲娱乐为目的的远途旅行、中近途户外生活、本地探店</t>
+          <t>各种沙雕有趣的搞笑剪辑，挑战，表演，配音等视频</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>/v/life/travel(opens new window)</t>
+          <t>/v/life/funny(opens new window)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>生活(主分区)</t>
+          <t>生活</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[{'aid': '226355290', 'bvid': 'BV1ob411d78A', 'typename': '出行', 'title': '漂泊两年多回到乡下，乡村生活也不错，想留在农村却很难', 'subtitle': '', 'play': 1759617, 'review': 7797, 'video_review': 24942, 'favorites': 10328, 'mid': 697166795, 'author': '徐云流浪中国', 'description': '-', 'create': '2023-03-21 00:03', 'pic': 'http://i2.hdslb.com/bfs/archive/1671dc3a9850024a0a133a47008bfc9a7777a0d9.jpg', 'coins': 90368, 'duration': '20:31', 'badgepay': False, 'pts': 2436088, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438880395', 'bvid': 'BV1uL41197Pn', 'typename': '出行', 'title': '“ 中 国 人 诱 捕 器 ”', 'subtitle': '', 'play': 800614, 'review': 2091, 'video_review': 3839, 'favorites': 44442, 'mid': 55431669, 'author': '荆楚者云', 'description': 'BGM：关山月—路南\n\n想看看大家拍的美景！发在评论区吧！\n\n除去两个特别行政区和台湾，别的省份都有哦！\n\n各省风景并非最具有代表性，素材有限，各省顺序随机排序，不分先后，请无拉踩！感谢观看！', 'create': '2023-03-22 16:41', 'pic': 'http://i1.hdslb.com/bfs/archive/21dd8e6a227d053ab1e9226e76c5fa45c51fe228.jpg', 'coins': 22573, 'duration': '3:37', 'badgepay': False, 'pts': 2424090, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823777752', 'bvid': 'BV1ug4y1x7UD', 'typename': '出行', 'title': '挪威｜我在北极，邂逅了世界尽头的冷酷仙境 ｜Links 4K HDR', 'subtitle': '', 'play': 666683, 'review': 1535, 'video_review': 4339, 'favorites': 34614, 'mid': 3816626, 'author': 'Linksphotograph', 'description': '我想旅行中的摄影就是，路过世界的一角，并截下一帧！', 'create': '2023-03-22 09:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b724692dd21d4fd4aafe94ce0fe3419aeda562ed.jpg', 'coins': 38704, 'duration': '18:12', 'badgepay': False, 'pts': 1970677, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268874710', 'bvid': 'BV13c411779c', 'typename': '出行', 'title': '第22国环球骑行到达世界第2小国:摩纳哥', 'subtitle': '', 'play': 972182, 'review': 1071, 'video_review': 948, 'favorites': 7945, 'mid': 510381190, 'author': '湖远行的单车', 'description': '23.2.23', 'create': '2023-03-24 14:00', 'pic': 'http://i1.hdslb.com/bfs/archive/79a325ac2af9e325f9265825278a8537eb320ae8.jpg', 'coins': 9574, 'duration': '2:59', 'badgepay': False, 'pts': 1691315, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396419375', 'bvid': 'BV1Ao4y1s7Pj', 'typename': '出行', 'title': '去有风的地方开启我们的gap year，挑战1500游大理！青春无价，趁年轻去疯狂！', 'subtitle': '', 'play': 767489, 'review': 2554, 'video_review': 727, 'favorites': 8147, 'mid': 1495163939, 'author': '三个人的发疯之旅', 'description': '-', 'create': '2023-03-23 21:18', 'pic': 'http://i0.hdslb.com/bfs/archive/4a65c51f5d3d5e93e3a2ebe36dd6c31e6f03da85.jpg', 'coins': 3094, 'duration': '1:18', 'badgepay': False, 'pts': 1523163, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909181038', 'bvid': 'BV1cM4y1U7bc', 'typename': '出行', 'title': '峰哥抵达泰国北部，马上进入金三角', 'subtitle': '', 'play': 616472, 'review': 8894, 'video_review': 14679, 'favorites': 4427, 'mid': 35847683, 'author': '峰哥亡命天涯', 'description': '-', 'create': '2023-03-26 13:56', 'pic': 'http://i1.hdslb.com/bfs/archive/bdb7cec1c3d130ce010f0ef15fafd54bce0288af.jpg', 'coins': 20426, 'duration': '16:15', 'badgepay': False, 'pts': 1488625, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353910620', 'bvid': 'BV1xX4y1d762', 'typename': '出行', 'title': '深藏地下50年，却值得每个中国人纪念！', 'subtitle': '', 'play': 896168, 'review': 488, 'video_review': 768, 'favorites': 8144, 'mid': 510880741, 'author': '罗飞飞带您云旅游', 'description': '-', 'create': '2023-03-23 21:39', 'pic': 'http://i0.hdslb.com/bfs/archive/3edb4e7c00aca097c6681da594349ececfaca6a8.jpg', 'coins': 2258, 'duration': '1:52', 'badgepay': False, 'pts': 1390032, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441409385', 'bvid': 'BV1RL411r7iY', 'typename': '出行', 'title': '这个时候就别犟了，要听老法师的', 'subtitle': '', 'play': 642803, 'review': 649, 'video_review': 48, 'favorites': 7970, 'mid': 3493106011868060, 'author': '茶茶呀儿', 'description': '', 'create': '2023-03-24 22:00', 'pic': 'http://i0.hdslb.com/bfs/archive/bb68ce2aab53cfd7074d2bf5842a0db3f9fe4ac7.jpg', 'coins': 813, 'duration': '0:27', 'badgepay': False, 'pts': 1198175, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866425719', 'bvid': 'BV1KV4y1X7xw', 'typename': '出行', 'title': '渔民送海鲜，路人送狗粮，漠叔算是吃饱了，纪录片更新', 'subtitle': '', 'play': 619658, 'review': 1552, 'video_review': 3822, 'favorites': 3164, 'mid': 67141499, 'author': '大漠叔叔', 'description': '', 'create': '2023-03-22 14:20', 'pic': 'http://i2.hdslb.com/bfs/archive/76979c1810b60bbd72ae118ed0b52f3fdfb9b379.jpg', 'coins': 22055, 'duration': '8:21', 'badgepay': False, 'pts': 1168504, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908894438', 'bvid': 'BV1bM4y1B7zu', 'typename': '出行', 'title': '已婚，但是分开旅行…', 'subtitle': '', 'play': 539460, 'review': 1101, 'video_review': 1328, 'favorites': 9458, 'mid': 273139194, 'author': 'S呐_', 'description': '虽然结婚了，但是也要以最舒适的方式旅行！！\n\n香港第二期vlog来啦～～～\n这是一期碎碎念的、慢悠悠的旅途！！\n\n和喜欢的人看了很喜欢的展览\n希望大家都能度过快乐的春天🌸', 'create': '2023-03-23 11:45', 'pic': 'http://i0.hdslb.com/bfs/archive/c09d50e4fa13a0d611c57cffb0c9487ad0da6bd3.jpg', 'coins': 29200, 'duration': '11:42', 'badgepay': False, 'pts': 1149501, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '311578989', 'bvid': 'BV1vN411K7e9', 'typename': '搞笑', 'title': '狗是谁？（3）', 'subtitle': '', 'play': 3885185, 'review': 19993, 'video_review': 37674, 'favorites': 106433, 'mid': 5970160, 'author': '小潮院长', 'description': '希望观众老爷喜欢这个系列！\n（希望你们喜欢，记得素质三连！）', 'create': '2023-03-25 13:56', 'pic': 'http://i2.hdslb.com/bfs/archive/12aefbbe4085a32b626e3cfbec481afbd3b76ae8.jpg', 'coins': 270266, 'duration': '13:14', 'badgepay': False, 'pts': 6373175, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441474676', 'bvid': 'BV1EL411D7eH', 'typename': '搞笑', 'title': '学生：这把高端局！', 'subtitle': '', 'play': 3527027, 'review': 857, 'video_review': 4130, 'favorites': 33918, 'mid': 474267806, 'author': '人类早期驯服', 'description': '点赞过五万，马上加更下一期~\xa0\n鸡你太美：这把高端局！BV11T411r7Y5\n老默：这把高端局！BV1K54y1M7K9\n丁仪，字俊晖：这把高端局！BV1ix4y1K71j\n汪淼：这把高端局！BV1Bb411X793\n九转大肠：这把高端局！BV1UY4y1m7xm\n礼崩乐坏：这把高端局！BV12D4y1w7M6\n陋室铭：这把高端局！BV1z8411M7Gm\n在我律师来之前，我不会放下我的狗盆！BV13Y411S7gg\n修狗潦草长相大赏！！【修狗珍贵影像】BV1By4y197oX', 'create': '2023-03-23 10:30', 'pic': 'http://i1.hdslb.com/bfs/archive/c983a4a1c2d9a44d94b058ab311d4945a1c6e039.jpg', 'coins': 21913, 'duration': '5:32', 'badgepay': False, 'pts': 3801681, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441266252', 'bvid': 'BV1pL411r7q6', 'typename': '搞笑', 'title': '老板让我把公司拆了重建？？？？', 'subtitle': '', 'play': 3038223, 'review': 3197, 'video_review': 18292, 'favorites': 49464, 'mid': 178029850, 'author': '杜海皇', 'description': '希望各位观众老爷们喜欢这期视频！\n喜欢记得点赞/投币/收藏/分享！', 'create': '2023-03-20 19:43', 'pic': 'http://i1.hdslb.com/bfs/archive/25bcc5d190c2b3ef73ee6a99ae5f83cb5eb5e8eb.jpg', 'coins': 86203, 'duration': '12:42', 'badgepay': False, 'pts': 3676390, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823861616', 'bvid': 'BV12g4y1x7mA', 'typename': '搞笑', 'title': '职  校  历  险  记', 'subtitle': '', 'play': 1882027, 'review': 4435, 'video_review': 513, 'favorites': 30935, 'mid': 281687975, 'author': 'A立鸽', 'description': '-', 'create': '2023-03-22 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/449611f62b79850a12c3891266422402a177112e.jpg', 'coins': 19545, 'duration': '0:32', 'badgepay': False, 'pts': 3173382, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353974379', 'bvid': 'BV12X4y1d75S', 'typename': '搞笑', 'title': '烦死了！漫展一点都不好玩', 'subtitle': '', 'play': 2287411, 'review': 1109, 'video_review': 466, 'favorites': 30078, 'mid': 16015678, 'author': '野生鱼白', 'description': '', 'create': '2023-03-22 15:24', 'pic': 'http://i0.hdslb.com/bfs/archive/ab86dd5ca4441a56a84dc395326b61c8775866d2.jpg', 'coins': 2942, 'duration': '0:31', 'badgepay': False, 'pts': 3043096, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526503977', 'bvid': 'BV12M411u7AM', 'typename': '搞笑', 'title': '听说我们不害怕，密室员工掏出了电锯...', 'subtitle': '', 'play': 1938704, 'review': 2244, 'video_review': 6340, 'favorites': 31476, 'mid': 546195, 'author': '老番茄', 'description': '也就有那么一点点吓人...', 'create': '2023-03-24 19:38', 'pic': 'http://i1.hdslb.com/bfs/archive/6a2a460493e1a1aceb7d54a515caef506d964922.jpg', 'coins': 63329, 'duration': '11:20', 'badgepay': False, 'pts': 2945300, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311269290', 'bvid': 'BV1KP411o7AJ', 'typename': '搞笑', 'title': '我再也见不到川哥了', 'subtitle': '', 'play': 1370160, 'review': 1970, 'video_review': 2178, 'favorites': 39856, 'mid': 1963607996, 'author': '________雕雕', 'description': '提醒：视频仅供娱乐，现实中请不要打架斗殴，未成年人也不要随意进出网吧\n———————————————————————————————————————————————————\n“说真的，原版的小川只要不碰hdd，估计还真是个好小伙子”\n\n【被川哥的仗义震撼到的STAFF】\n配音：雕雕\n后期：Dicky\n剧本：Dicky\n检查：皎皎', 'create': '2023-03-20 23:30', 'pic': 'http://i1.hdslb.com/bfs/archive/598f12cdcadffb80783c5d50e41f7d7a527e01cf.jpg', 'coins': 25805, 'duration': '4:31', 'badgepay': False, 'pts': 2800565, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526291403', 'bvid': 'BV1jM411p7yv', 'typename': '搞笑', 'title': '加入了礼仪队的我可不会放过任何练习的机会啊！', 'subtitle': '', 'play': 2204649, 'review': 1810, 'video_review': 1444, 'favorites': 16584, 'mid': 424658638, 'author': '四夕小田木_已黑化_', 'description': '-', 'create': '2023-03-21 21:53', 'pic': 'http://i2.hdslb.com/bfs/archive/ceb48501fae7d329569856e5468bca7d41b47b9f.jpg', 'coins': 16152, 'duration': '1:33', 'badgepay': False, 'pts': 2771787, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908810274', 'bvid': 'BV1YM4y167Ba', 'typename': '搞笑', 'title': '哈哈，再也不相信网上的穿搭了！', 'subtitle': '', 'play': 2213810, 'review': 3472, 'video_review': 6852, 'favorites': 9584, 'mid': 9841658, 'author': '是莫叔叔吗', 'description': '通过这个视频我学会了穿搭三要素\n模特好看模特好看模特好看\n再也不相信网上的实拍图了，哈哈', 'create': '2023-03-22 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/0d14d187b92fba1b59cacd53477c82014ba1bc71.jpg', 'coins': 14208, 'duration': '4:06', 'badgepay': False, 'pts': 2742599, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269006672', 'bvid': 'BV1gc411L7Co', 'typename': '搞笑', 'title': '剪视频的时候我真的被变态吐了', 'subtitle': '', 'play': 1491500, 'review': 2119, 'video_review': 473, 'favorites': 20436, 'mid': 504394855, 'author': '呃12138', 'description': '-', 'create': '2023-03-25 13:06', 'pic': 'http://i1.hdslb.com/bfs/archive/b5298c2e672208506899f6f0cff2d85cf2f1f549.jpg', 'coins': 5640, 'duration': '0:15', 'badgepay': False, 'pts': 2418216, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8281146</v>
+        <v>23838696</v>
       </c>
       <c r="I68" t="n">
-        <v>239065</v>
+        <v>526003</v>
       </c>
       <c r="J68" t="n">
-        <v>138639</v>
+        <v>368764</v>
       </c>
       <c r="K68" t="n">
-        <v>87775</v>
+        <v>133556</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>三农</t>
+          <t>亲子</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>rurallife</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>分享美好农村生活</t>
+          <t>各种沙雕有趣的搞笑剪辑，挑战，表演，配音等视频</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>/v/life/rurallife(opens new window)</t>
+          <t>/v/life/funny(opens new window)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>生活(主分区)</t>
+          <t>生活</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[{'aid': '311539874', 'bvid': 'BV1aN411K7xX', 'typename': '三农', 'title': '资助了三年的山区女孩，18岁的她如今在山里每天干农活放羊…', 'subtitle': '', 'play': 475670, 'review': 2946, 'video_review': 2480, 'favorites': 3555, 'mid': 480366389, 'author': '溫暖的冷风', 'description': '有什么办法可以帮到她呢', 'create': '2023-03-24 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/1ab2da5e10fff3fc350d936eed93b580a867e761.jpg', 'coins': 26955, 'duration': '9:13', 'badgepay': False, 'pts': 1018336, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653909290', 'bvid': 'BV1CY4y1D7VL', 'typename': '三农', 'title': '狐尾天门冬，栽种新方法', 'subtitle': '', 'play': 480947, 'review': 346, 'video_review': 143, 'favorites': 5577, 'mid': 35657389, 'author': '塔莎的花园TASHA', 'description': '蓬松可爱的狐尾天门冬地栽冬天“尾巴”被冻坏？试试这个栽种方法', 'create': '2023-03-22 11:13', 'pic': 'http://i0.hdslb.com/bfs/archive/38e158d0dd0640fec83e3b273452e6199257e945.jpg', 'coins': 408, 'duration': '1:34', 'badgepay': False, 'pts': 868447, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951316645', 'bvid': 'BV1ks4y1p7W9', 'typename': '三农', 'title': '郭站长入驻！最村主持人来了！', 'subtitle': '', 'play': 363395, 'review': 2821, 'video_review': 700, 'favorites': 2117, 'mid': 470828290, 'author': '17村郭站长', 'description': '', 'create': '2023-03-21 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/e00eccc5578106fe6644bb642103c1799abbb268.jpg', 'coins': 10385, 'duration': '2:50', 'badgepay': False, 'pts': 778088, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268752298', 'bvid': 'BV1Wc411j736', 'typename': '三农', 'title': '准备2大背篓野菜在城里试卖，不料2小时卖了1000多元，哈哈这是快乐偏方吗？', 'subtitle': '', 'play': 346250, 'review': 945, 'video_review': 1463, 'favorites': 857, 'mid': 694515425, 'author': '燕麦行游', 'description': '城里人为什么喜欢买野菜', 'create': '2023-03-20 19:41', 'pic': 'http://i0.hdslb.com/bfs/archive/bba6cdfb2313cb0d4ef5003b670a5f46b58d6d9f.jpg', 'coins': 4665, 'duration': '9:56', 'badgepay': False, 'pts': 571183, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738781824', 'bvid': 'BV1Gk4y1t7QU', 'typename': '三农', 'title': '新华农兄弟：新兄弟来了，让他干亿点点活，看他多开心', 'subtitle': '', 'play': 351943, 'review': 585, 'video_review': 1823, 'favorites': 968, 'mid': 473837611, 'author': '新华社', 'description': '眼下，正值春耕备耕，田间地头、育秧车间一派热火朝天的景象。新华社记者与“网红”视频博主华农兄弟一起，在希望的田野上，体验备耕的欢乐；在科技兴农、政策助农下，感受种粮信心满满！\n记者：胡晨欢、黄浩然', 'create': '2023-03-21 12:06', 'pic': 'http://i1.hdslb.com/bfs/archive/b3a2cfc8a82158af87bd86dd5b3eb29662d0c54f.jpg', 'coins': 3267, 'duration': '5:52', 'badgepay': False, 'pts': 559654, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951362814', 'bvid': 'BV1ss4y1n7HA', 'typename': '三农', 'title': '你看我像冤种不？', 'subtitle': '', 'play': 237992, 'review': 980, 'video_review': 1553, 'favorites': 587, 'mid': 430967976, 'author': '星河坞', 'description': '没有简介', 'create': '2023-03-21 19:25', 'pic': 'http://i1.hdslb.com/bfs/archive/2bbcac24b576de88543b6433bd4a727f68001ed1.jpg', 'coins': 6189, 'duration': '3:58', 'badgepay': False, 'pts': 446462, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353829702', 'bvid': 'BV1yX4y1Z7E2', 'typename': '三农', 'title': '前年让我种蓝莓的兄弟你还在吗？蓝莓种植全过程来了', 'subtitle': '', 'play': 188896, 'review': 577, 'video_review': 198, 'favorites': 3382, 'mid': 407237320, 'author': '腾一的食虫植物', 'description': '-', 'create': '2023-03-20 21:59', 'pic': 'http://i1.hdslb.com/bfs/archive/eef9e1f6c6ae719e0747b68d63bbaad38a6299bb.jpg', 'coins': 1470, 'duration': '2:56', 'badgepay': False, 'pts': 444423, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438752749', 'bvid': 'BV13L411d7Yg', 'typename': '三农', 'title': '颠沛流离24年 这也许是最圆满的结局', 'subtitle': '', 'play': 334378, 'review': 811, 'video_review': 214, 'favorites': 1081, 'mid': 1343321779, 'author': '央视农业', 'description': '', 'create': '2023-03-21 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/9381ce7a78e00590713044e756489aa8c448eea0.jpg', 'coins': 1523, 'duration': '2:16', 'badgepay': False, 'pts': 432571, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781162465', 'bvid': 'BV1R24y1u7qK', 'typename': '三农', 'title': '两棵南瓜苗靠接到西瓜苗上，三株根系养西瓜藤，结出的西瓜会怎样?', 'subtitle': '', 'play': 289118, 'review': 469, 'video_review': 393, 'favorites': 2530, 'mid': 1766710984, 'author': '种植记', 'description': '两棵南瓜苗靠接到西瓜苗上，三株根系养西瓜藤，结出的西瓜会怎样', 'create': '2023-03-20 02:51', 'pic': 'http://i2.hdslb.com/bfs/archive/ed274953bf0533736a7ae6fd80b3d0f0409f5a2d.jpg', 'coins': 770, 'duration': '4:19', 'badgepay': False, 'pts': 410106, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226528015', 'bvid': 'BV1Yh411G7BQ', 'typename': '三农', 'title': '我把144.8万硬币提现了，你知道能转换成人民币多少钱吗？', 'subtitle': '', 'play': 262449, 'review': 548, 'video_review': 137, 'favorites': 251, 'mid': 457871303, 'author': '一点爱送温暖', 'description': '原来硬币是无价的', 'create': '2023-03-26 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/75e7baf4a0afd82afffc6eacd8185df856497ebc.jpg', 'coins': 2697, 'duration': '2:27', 'badgepay': False, 'pts': 406661, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '951404601', 'bvid': 'BV14s4y1n7a9', 'typename': '亲子', 'title': '一家3口的睡前对话太治愈了！ 爸爸：我把妈妈的心偷走了 女儿：快还给我，我要报警啦', 'subtitle': '', 'play': 380557, 'review': 946, 'video_review': 156, 'favorites': 5239, 'mid': 386265385, 'author': '人民视频', 'description': '', 'create': '2023-03-22 15:05', 'pic': 'http://i0.hdslb.com/bfs/archive/74d941200078d03b25ff669e48d451492de3a83c.jpg', 'coins': 2992, 'duration': '1:14', 'badgepay': False, 'pts': 824183, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781622206', 'bvid': 'BV1B24y177Wi', 'typename': '亲子', 'title': '当父母真的很简单，只要你不负责任', 'subtitle': '', 'play': 413422, 'review': 517, 'video_review': 321, 'favorites': 1570, 'mid': 341354077, 'author': '淦淦惹', 'description': '-', 'create': '2023-03-24 18:05', 'pic': 'http://i2.hdslb.com/bfs/archive/a25eab9e66045f3a6b2a11c3f714a8f7eb928643.jpg', 'coins': 3969, 'duration': '2:10', 'badgepay': False, 'pts': 662438, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441275067', 'bvid': 'BV1LL411r74S', 'typename': '亲子', 'title': '成年人的崩溃 往往只在一瞬间（看熊猫）', 'subtitle': '', 'play': 419469, 'review': 237, 'video_review': 275, 'favorites': 1317, 'mid': 1446722183, 'author': '国际宫and乡土莉', 'description': '2023.03.21', 'create': '2023-03-21 10:14', 'pic': 'http://i0.hdslb.com/bfs/archive/3e991fd47b55c030fdcfd2cb970d5e37ec0fa510.jpg', 'coins': 4515, 'duration': '2:05', 'badgepay': False, 'pts': 608491, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441410693', 'bvid': 'BV1oL411r7gm', 'typename': '亲子', 'title': '他遇到了学说话以来最大的困难，竟然是“乒乓球”？！', 'subtitle': '', 'play': 289023, 'review': 527, 'video_review': 549, 'favorites': 1455, 'mid': 511647038, 'author': '胖团和胖圆', 'description': '-', 'create': '2023-03-22 22:23', 'pic': 'http://i1.hdslb.com/bfs/archive/19a00c5f6b82b9b184a917711e9d04349d608de2.jpg', 'coins': 3690, 'duration': '1:09', 'badgepay': False, 'pts': 496535, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738894691', 'bvid': 'BV1fk4y1t7sb', 'typename': '亲子', 'title': '在宝宝的视角中，出现最多的其实是…《手》', 'subtitle': '', 'play': 296050, 'review': 206, 'video_review': 66, 'favorites': 1318, 'mid': 2270287, 'author': '一个李欢喜', 'description': '在人生的某一天，\n你父母将你抱起后放下，然后就再也没把你抱起来了。', 'create': '2023-03-22 19:25', 'pic': 'http://i0.hdslb.com/bfs/archive/767650d7f00d01f447c3fd24cc713aabdfb995ef.jpg', 'coins': 2277, 'duration': '0:49', 'badgepay': False, 'pts': 391174, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653850151', 'bvid': 'BV1xY4y1D7Qb', 'typename': '亲子', 'title': '婴儿护理一床中床', 'subtitle': '', 'play': 237705, 'review': 73, 'video_review': 13, 'favorites': 2328, 'mid': 3493130353510438, 'author': '世事如心', 'description': '-', 'create': '2023-03-20 17:42', 'pic': 'http://i0.hdslb.com/bfs/archive/9a5277d9340063535ff01052b04cd4a23ba8bc90.jpg', 'coins': 139, 'duration': '0:15', 'badgepay': False, 'pts': 361054, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866316223', 'bvid': 'BV1AV4y1R7JQ', 'typename': '亲子', 'title': '小胃王可爱又听话，这个非洲宝宝很聪明呀', 'subtitle': '', 'play': 263652, 'review': 731, 'video_review': 344, 'favorites': 402, 'mid': 393116415, 'author': '非洲飞哥', 'description': '-', 'create': '2023-03-20 22:06', 'pic': 'http://i1.hdslb.com/bfs/archive/bce555eb3e1a9f525031122faf18b0e69f120392.jpg', 'coins': 3243, 'duration': '1:06', 'badgepay': False, 'pts': 360669, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526493900', 'bvid': 'BV1QM411u7tu', 'typename': '亲子', 'title': '跟你们说个事', 'subtitle': '', 'play': 621233, 'review': 308, 'video_review': 221, 'favorites': 1404, 'mid': 437717037, 'author': '薯条来啦', 'description': '-', 'create': '2023-03-23 19:16', 'pic': 'http://i0.hdslb.com/bfs/archive/9be0d98dc506de2e473c7dcf0ed658e501bea8e6.jpg', 'coins': 1657, 'duration': '1:21', 'badgepay': False, 'pts': 266166, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738673872', 'bvid': 'BV1Hk4y1873e', 'typename': '亲子', 'title': '婴语听力考试，你能答对几条？', 'subtitle': '', 'play': 80804, 'review': 80, 'video_review': 22, 'favorites': 4378, 'mid': 1865346758, 'author': '南山的养娃日常', 'description': '', 'create': '2023-03-20 19:25', 'pic': 'http://i1.hdslb.com/bfs/archive/3d5e46e29f26bc411fb2a3054ca4a66ee2816bbd.jpg', 'coins': 551, 'duration': '0:46', 'badgepay': False, 'pts': 249927, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311367223', 'bvid': 'BV1iP411o7Vd', 'typename': '亲子', 'title': '宝宝视角：如果感到难过，你就打个哇哇吧', 'subtitle': '', 'play': 235175, 'review': 122, 'video_review': 55, 'favorites': 1209, 'mid': 493858243, 'author': '一个达不妞-W', 'description': '-', 'create': '2023-03-20 20:48', 'pic': 'http://i2.hdslb.com/bfs/archive/c17dddd5c668b8f4cd91af049bca34818d068777.jpg', 'coins': 736, 'duration': '0:39', 'badgepay': False, 'pts': 221490, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>3331038</v>
+        <v>3237090</v>
       </c>
       <c r="I69" t="n">
-        <v>58329</v>
+        <v>23769</v>
       </c>
       <c r="J69" t="n">
-        <v>20905</v>
+        <v>20620</v>
       </c>
       <c r="K69" t="n">
-        <v>23879</v>
+        <v>52373</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>家居房产</t>
+          <t>出行</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>travel</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>与买房、装修、居家生活相关的分享</t>
+          <t>为达到观光游览、休闲娱乐为目的的远途旅行、中近途户外生活、本地探店</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>/v/life/home(opens new window)</t>
+          <t>/v/life/travel(opens new window)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>生活(主分区)</t>
+          <t>生活</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[{'aid': '269017486', 'bvid': 'BV1Pc411L72y', 'typename': '家居房产', 'title': '给你们一点小小的清洁震撼，感受下世界的参差，马俐最强一单！', 'subtitle': '', 'play': 728518, 'review': 3159, 'video_review': 7526, 'favorites': 4792, 'mid': 1590082082, 'author': '马俐管家', 'description': '封神榜感觉都装不下这套房子，突然想起了最新一期海贼香克斯秒基德的那招名字--神避...', 'create': '2023-03-24 19:15', 'pic': 'http://i2.hdslb.com/bfs/archive/f5d04a01282540a84013dbdb0d848a767068636d.jpg', 'coins': 12386, 'duration': '17:25', 'badgepay': False, 'pts': 1425144, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696473479', 'bvid': 'BV1rm4y1k7P1', 'typename': '家居房产', 'title': '虽然14m²卧室，但B站可能没这种！', 'subtitle': '', 'play': 433308, 'review': 1237, 'video_review': 783, 'favorites': 14174, 'mid': 332170241, 'author': '屁虫momo', 'description': '小屁虫子和铲屎官的家', 'create': '2023-03-22 12:43', 'pic': 'http://i1.hdslb.com/bfs/archive/20d081666d66c80ca5a448f2c28b16e7609a78e0.jpg', 'coins': 4901, 'duration': '5:27', 'badgepay': False, 'pts': 1156780, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823782997', 'bvid': 'BV1gg4y1x7Dq', 'typename': '家居房产', 'title': '9个厨房小妙招✨长见识了！简单好用又奇怪？', 'subtitle': '', 'play': 430831, 'review': 202, 'video_review': 432, 'favorites': 14904, 'mid': 13806027, 'author': '海的眼里有颗星', 'description': '', 'create': '2023-03-21 20:06', 'pic': 'http://i0.hdslb.com/bfs/archive/e5d1a01472a3ae56c34a8140e5c34c4188345829.jpg', 'coins': 3027, 'duration': '2:57', 'badgepay': False, 'pts': 939262, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226488468', 'bvid': 'BV1zb411o7Lf', 'typename': '家居房产', 'title': '我妈都夸我会买！洗地板一流', 'subtitle': '', 'play': 494859, 'review': 80, 'video_review': 25, 'favorites': 4753, 'mid': 2025885468, 'author': '池晨橙', 'description': '', 'create': '2023-03-22 14:39', 'pic': 'http://i0.hdslb.com/bfs/archive/aff57f4fb764af26c0e468fb52f1b7b017aa86cb.jpg', 'coins': 147, 'duration': '0:43', 'badgepay': False, 'pts': 681037, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526436574', 'bvid': 'BV1WM411u763', 'typename': '家居房产', 'title': '打开思路搞收纳，好用省钱 省空间！', 'subtitle': '', 'play': 338148, 'review': 21, 'video_review': 6, 'favorites': 14609, 'mid': 1256240280, 'author': '贾灿灿在此', 'description': '-', 'create': '2023-03-22 18:37', 'pic': 'http://i1.hdslb.com/bfs/archive/e61239f8d4cd1fdcc967462e378d39b6bf62f32b.jpg', 'coins': 349, 'duration': '0:34', 'badgepay': False, 'pts': 647857, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611353922', 'bvid': 'BV1g84y137qe', 'typename': '家居房产', 'title': '“是你的梦中情屋吗～”', 'subtitle': '', 'play': 212070, 'review': 401, 'video_review': 230, 'favorites': 14331, 'mid': 670456816, 'author': '咕咕啊啊咕', 'description': '-', 'create': '2023-03-20 09:39', 'pic': 'http://i0.hdslb.com/bfs/archive/d3e509e58a59ea9573d5c579457a2bb4903c3ff5.jpg', 'coins': 1606, 'duration': '1:04', 'badgepay': False, 'pts': 644945, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311554047', 'bvid': 'BV1xN411K759', 'typename': '家居房产', 'title': '猴哥家开始安装大门，一排尖刺高高竖起，又好看又防盗，一起看看整体效果怎么样', 'subtitle': '', 'play': 325013, 'review': 1003, 'video_review': 4494, 'favorites': 729, 'mid': 393116415, 'author': '非洲飞哥', 'description': '-', 'create': '2023-03-25 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/bfb19f7d2edbc4c9f7f5795d0805670fef318475.jpg', 'coins': 7904, 'duration': '17:09', 'badgepay': False, 'pts': 621745, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438772303', 'bvid': 'BV1tL411d72d', 'typename': '家居房产', 'title': '广州学区房，53平做3房？神级收纳！', 'subtitle': '', 'play': 697227, 'review': 386, 'video_review': 906, 'favorites': 6170, 'mid': 1162248798, 'author': '李小冷不冷', 'description': '她家在玩一种很新的收纳！\n据屋主小茶说\n53平竟然住着比之前的100平还显大\n偶尔老人来了\n还能无压力塞下一家5口\n\n尤其值得一提的是她家的柜体收纳设计\n从入门玄关处一直到厨房吧台\n她家很多柜体（包括楼梯！）\n前后左右都可以打开储物\n完全榨干每一寸\n\n逛完这个家\n让我有一种其实通过设计师\n也可以“既要”“又要”的感觉\n比如学区房也可以\n既兼顾地段也兼顾生活品质\n我们一起去看看吧！', 'create': '2023-03-21 21:46', 'pic': 'http://i2.hdslb.com/bfs/archive/27742a0ab54a5c2933c59b3123daa955a7115e1d.jpg', 'coins': 2404, 'duration': '14:38', 'badgepay': False, 'pts': 561635, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311529264', 'bvid': 'BV1tN411K7ye', 'typename': '家居房产', 'title': '因为一直上班太焦虑，我来了云南', 'subtitle': '', 'play': 284846, 'review': 1010, 'video_review': 593, 'favorites': 1526, 'mid': 486759751, 'author': '卡门卡卡_', 'description': '在四方街不由分说当美女的一天', 'create': '2023-03-25 12:54', 'pic': 'http://i0.hdslb.com/bfs/archive/ae71c590a42c4ad11fbe23405f052e25b58b1af8.jpg', 'coins': 3423, 'duration': '2:25', 'badgepay': False, 'pts': 549669, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993897643', 'bvid': 'BV1Ax4y1A7wr', 'typename': '家居房产', 'title': '重生の家！破败老房变花园饭店！木遁建筑师再临！', 'subtitle': '', 'play': 226342, 'review': 409, 'video_review': 1541, 'favorites': 1830, 'mid': 671011280, 'author': '百万巨星麒麟君', 'description': '主页还有超多记得点关注。', 'create': '2023-03-23 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/c382cf765af8d727f7b339bf154b1c4184ebf002.jpg', 'coins': 4449, 'duration': '20:56', 'badgepay': False, 'pts': 454191, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '438880395', 'bvid': 'BV1uL41197Pn', 'typename': '出行', 'title': '“ 中 国 人 诱 捕 器 ”', 'subtitle': '', 'play': 821922, 'review': 2134, 'video_review': 3918, 'favorites': 45515, 'mid': 55431669, 'author': '荆楚者云', 'description': 'BGM：关山月—路南\n\n想看看大家拍的美景！发在评论区吧！\n\n除去两个特别行政区和台湾，别的省份都有哦！\n\n各省风景并非最具有代表性，素材有限，各省顺序随机排序，不分先后，请无拉踩！感谢观看！', 'create': '2023-03-22 16:41', 'pic': 'http://i1.hdslb.com/bfs/archive/21dd8e6a227d053ab1e9226e76c5fa45c51fe228.jpg', 'coins': 23214, 'duration': '3:37', 'badgepay': False, 'pts': 2475236, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226355290', 'bvid': 'BV1ob411d78A', 'typename': '出行', 'title': '漂泊两年多回到乡下，乡村生活也不错，想留在农村却很难', 'subtitle': '', 'play': 1766011, 'review': 7804, 'video_review': 24965, 'favorites': 10344, 'mid': 697166795, 'author': '徐云流浪中国', 'description': '-', 'create': '2023-03-21 00:03', 'pic': 'http://i2.hdslb.com/bfs/archive/1671dc3a9850024a0a133a47008bfc9a7777a0d9.jpg', 'coins': 90461, 'duration': '20:31', 'badgepay': False, 'pts': 2440497, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823777752', 'bvid': 'BV1ug4y1x7UD', 'typename': '出行', 'title': '挪威｜我在北极，邂逅了世界尽头的冷酷仙境 ｜Links 4K HDR', 'subtitle': '', 'play': 678198, 'review': 1552, 'video_review': 4382, 'favorites': 35050, 'mid': 3816626, 'author': 'Linksphotograph', 'description': '我想旅行中的摄影就是，路过世界的一角，并截下一帧！', 'create': '2023-03-22 09:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b724692dd21d4fd4aafe94ce0fe3419aeda562ed.jpg', 'coins': 39184, 'duration': '18:12', 'badgepay': False, 'pts': 1996914, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909181038', 'bvid': 'BV1cM4y1U7bc', 'typename': '出行', 'title': '峰哥抵达泰国北部，马上进入金三角', 'subtitle': '', 'play': 747752, 'review': 10334, 'video_review': 16185, 'favorites': 4901, 'mid': 35847683, 'author': '峰哥亡命天涯', 'description': '-', 'create': '2023-03-26 13:56', 'pic': 'http://i1.hdslb.com/bfs/archive/bdb7cec1c3d130ce010f0ef15fafd54bce0288af.jpg', 'coins': 22551, 'duration': '16:15', 'badgepay': False, 'pts': 1728015, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268874710', 'bvid': 'BV13c411779c', 'typename': '出行', 'title': '第22国环球骑行到达世界第2小国:摩纳哥', 'subtitle': '', 'play': 994275, 'review': 1094, 'video_review': 963, 'favorites': 8128, 'mid': 510381190, 'author': '湖远行的单车', 'description': '23.2.23', 'create': '2023-03-24 14:00', 'pic': 'http://i1.hdslb.com/bfs/archive/79a325ac2af9e325f9265825278a8537eb320ae8.jpg', 'coins': 9805, 'duration': '2:59', 'badgepay': False, 'pts': 1720483, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396419375', 'bvid': 'BV1Ao4y1s7Pj', 'typename': '出行', 'title': '去有风的地方开启我们的gap year，挑战1500游大理！青春无价，趁年轻去疯狂！', 'subtitle': '', 'play': 789553, 'review': 2710, 'video_review': 759, 'favorites': 8595, 'mid': 1495163939, 'author': '三个人的发疯之旅', 'description': '-', 'create': '2023-03-23 21:18', 'pic': 'http://i0.hdslb.com/bfs/archive/4a65c51f5d3d5e93e3a2ebe36dd6c31e6f03da85.jpg', 'coins': 3250, 'duration': '1:18', 'badgepay': False, 'pts': 1573540, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353910620', 'bvid': 'BV1xX4y1d762', 'typename': '出行', 'title': '深藏地下50年，却值得每个中国人纪念！', 'subtitle': '', 'play': 897241, 'review': 489, 'video_review': 768, 'favorites': 8159, 'mid': 510880741, 'author': '罗飞飞带您云旅游', 'description': '-', 'create': '2023-03-23 21:39', 'pic': 'http://i0.hdslb.com/bfs/archive/3edb4e7c00aca097c6681da594349ececfaca6a8.jpg', 'coins': 2264, 'duration': '1:52', 'badgepay': False, 'pts': 1391708, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866425719', 'bvid': 'BV1KV4y1X7xw', 'typename': '出行', 'title': '渔民送海鲜，路人送狗粮，漠叔算是吃饱了，纪录片更新', 'subtitle': '', 'play': 623888, 'review': 1557, 'video_review': 3836, 'favorites': 3165, 'mid': 67141499, 'author': '大漠叔叔', 'description': '', 'create': '2023-03-22 14:20', 'pic': 'http://i2.hdslb.com/bfs/archive/76979c1810b60bbd72ae118ed0b52f3fdfb9b379.jpg', 'coins': 22149, 'duration': '8:21', 'badgepay': False, 'pts': 1173814, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908894438', 'bvid': 'BV1bM4y1B7zu', 'typename': '出行', 'title': '已婚，但是分开旅行…', 'subtitle': '', 'play': 541875, 'review': 1104, 'video_review': 1334, 'favorites': 9514, 'mid': 273139194, 'author': 'S呐_', 'description': '虽然结婚了，但是也要以最舒适的方式旅行！！\n\n香港第二期vlog来啦～～～\n这是一期碎碎念的、慢悠悠的旅途！！\n\n和喜欢的人看了很喜欢的展览\n希望大家都能度过快乐的春天🌸', 'create': '2023-03-23 11:45', 'pic': 'http://i0.hdslb.com/bfs/archive/c09d50e4fa13a0d611c57cffb0c9487ad0da6bd3.jpg', 'coins': 29380, 'duration': '11:42', 'badgepay': False, 'pts': 1154029, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951506031', 'bvid': 'BV1fs4y1n7jj', 'typename': '出行', 'title': 'Lalaland，但是黑皮甜妹在广东', 'subtitle': '', 'play': 779626, 'review': 559, 'video_review': 89, 'favorites': 6909, 'mid': 300486, 'author': '巫令儿り', 'description': '报一丝，太快乐忘记拉腿了凑合看看！', 'create': '2023-03-24 20:10', 'pic': 'http://i1.hdslb.com/bfs/archive/31b31db1676d7bc2b291ae154ebc3519a8deb885.jpg', 'coins': 1383, 'duration': '0:12', 'badgepay': False, 'pts': 1054462, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>4171162</v>
+        <v>8640341</v>
       </c>
       <c r="I70" t="n">
-        <v>40596</v>
+        <v>243641</v>
       </c>
       <c r="J70" t="n">
-        <v>77818</v>
+        <v>140280</v>
       </c>
       <c r="K70" t="n">
-        <v>33204</v>
+        <v>87775</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>手工</t>
+          <t>三农</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>handmake</t>
+          <t>rurallife</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>手工制品的制作过程或成品展示、教程、测评类视频</t>
+          <t>分享美好农村生活</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>/v/life/handmake(opens new window)</t>
+          <t>/v/life/rurallife(opens new window)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>生活(主分区)</t>
+          <t>生活</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[{'aid': '311477432', 'bvid': 'BV1AN411K7CX', 'typename': '手工', 'title': '十个行书连笔写法，建议保存收藏练起来', 'subtitle': '', 'play': 2000589, 'review': 1623, 'video_review': 533, 'favorites': 20072, 'mid': 1795579812, 'author': '禾欢不ok', 'description': '行书', 'create': '2023-03-22 16:33', 'pic': 'http://i1.hdslb.com/bfs/archive/ace5e10758f284e7796d2608410ea10c0f2b6991.jpg', 'coins': 1535, 'duration': '0:22', 'badgepay': False, 'pts': 2437330, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354032146', 'bvid': 'BV1PX4y1o742', 'typename': '手工', 'title': '我在全中国到处认爷爷？', 'subtitle': '', 'play': 808118, 'review': 527, 'video_review': 547, 'favorites': 17032, 'mid': 504980413, 'author': '熊伟Sherwin', 'description': '事情的起因是我有个叫路洋的朋友，前阵子在大理出差，拍了张这个“写字铺”的照片给我，简单说了两句书屋主人的故事，我就被打动了。我觉得能靠一张照片三两句话就打动人的故事，一定是值得挖掘的。就飞机+汽车的奔波了3000公里从杭州去云南，把李萌爷爷的故事讲给大家听。不管是李萌爷爷身上的“楞”劲和韧性，还是小镇人民谈论生死的态度、那边大人小孩的友善、健谈，都让我觉得珍贵和温情。', 'create': '2023-03-24 18:05', 'pic': 'http://i1.hdslb.com/bfs/archive/8cbdb64de391622f93a8d8ec70ab10b21bb70fb8.jpg', 'coins': 20013, 'duration': '6:21', 'badgepay': False, 'pts': 1683291, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484102946', 'bvid': 'BV1YT411z7p8', 'typename': '手工', 'title': '【秋山】拖更一年，我把游戏带进现实，MC工作台极致还原', 'subtitle': '', 'play': 415343, 'review': 415, 'video_review': 638, 'favorites': 11396, 'mid': 5309915, 'author': '秋山黛西', 'description': '久等了，这个系列属是有点费劲，会不会有下一期取决于你们的心意，总之预计是钻石剑', 'create': '2023-03-25 17:30', 'pic': 'http://i1.hdslb.com/bfs/archive/b3adab881f9aa1e56b65d5c821b94d47143b1aaf.jpg', 'coins': 31637, 'duration': '8:26', 'badgepay': False, 'pts': 999545, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611347171', 'bvid': 'BV1Z84y1g734', 'typename': '手工', 'title': '用反光工艺把萧逸发光吧唧改成了流沙', 'subtitle': '', 'play': 497205, 'review': 490, 'video_review': 215, 'favorites': 6544, 'mid': 700371703, 'author': '菜饭ww', 'description': '眼前一黑的虚妄之作', 'create': '2023-03-23 20:30', 'pic': 'http://i0.hdslb.com/bfs/archive/6fa526d812616e0c925b670d5423397e6160ecb5.jpg', 'coins': 924, 'duration': '1:09', 'badgepay': False, 'pts': 935024, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268889023', 'bvid': 'BV1Nc41177VK', 'typename': '手工', 'title': '你们信吗？茶树不修剪，真的可以长到树那么高！有两个人高！', 'subtitle': '', 'play': 606230, 'review': 819, 'video_review': 2263, 'favorites': 1176, 'mid': 1838326986, 'author': '帅农鸟哥', 'description': '只要思想不滑坡，办法总比困难多！在外砍得了茶树，在家做得了蛋卷，就是这么优秀！', 'create': '2023-03-22 19:44', 'pic': 'http://i1.hdslb.com/bfs/archive/baadcf37827d825bcdc934883f23f17814421d2b.jpg', 'coins': 4894, 'duration': '8:02', 'badgepay': False, 'pts': 881491, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226290890', 'bvid': 'BV1ib411d76a', 'typename': '手工', 'title': '｛小卡修复教程｝死马当成活马医，说不定救活了呢（折痕/压痕/卡坑/指甲印适用）', 'subtitle': '', 'play': 258083, 'review': 197, 'video_review': 72, 'favorites': 15314, 'mid': 679778, 'author': 'Oceandog_', 'description': '请务必在自印卡/白菜卡上练习后再实践！！！！！', 'create': '2023-03-20 19:02', 'pic': 'http://i2.hdslb.com/bfs/archive/03a08eed10199ceb125aa177b6e90f93576639cb.jpg', 'coins': 777, 'duration': '2:20', 'badgepay': False, 'pts': 813350, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569056610', 'bvid': 'BV1Rv4y157XT', 'typename': '手工', 'title': '【密林手作】羊毛毡 | 孙悟空 | 治愈手作记录', 'subtitle': '', 'play': 390106, 'review': 549, 'video_review': 420, 'favorites': 3867, 'mid': 147174770, 'author': '密林手作', 'description': 'bgm:\n  《天府乐》——许镜清\n  《天府乐（钢琴版）》——千榕&amp;许镜清\n原画作者：傲来老神仙', 'create': '2023-03-24 18:55', 'pic': 'http://i2.hdslb.com/bfs/archive/55b934fb608edda2d750437677054655442bdf6a.jpg', 'coins': 5755, 'duration': '2:45', 'badgepay': False, 'pts': 789251, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484111104', 'bvid': 'BV1vT411z7UV', 'typename': '手工', 'title': '丛林只因甲', 'subtitle': '', 'play': 358219, 'review': 523, 'video_review': 348, 'favorites': 3644, 'mid': 1223615155, 'author': '牛战士历险记本人', 'description': '闭关半个月才打造好的只因甲', 'create': '2023-03-24 21:07', 'pic': 'http://i1.hdslb.com/bfs/archive/36e302af9cc7bbd6687fb8420790a57811d95e34.jpg', 'coins': 7057, 'duration': '1:29', 'badgepay': False, 'pts': 726897, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483958624', 'bvid': 'BV1oT411B7HN', 'typename': '手工', 'title': '不花钱就能搞定一切！太神奇了把，其实你也可以的。', 'subtitle': '', 'play': 253317, 'review': 257, 'video_review': 158, 'favorites': 8024, 'mid': 107048421, 'author': '老墨DIY修复', 'description': '不花钱就能搞定一切！太神奇了把，其实你也可以的。 #修补 #创意diy #diy #万能胶', 'create': '2023-03-22 21:47', 'pic': 'http://i2.hdslb.com/bfs/archive/a53821559cadaac85efb71a49c1cfb4e60a708e4.jpg', 'coins': 1394, 'duration': '3:37', 'badgepay': False, 'pts': 627733, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653933836', 'bvid': 'BV1cY4y1Q7L8', 'typename': '手工', 'title': '变～变～变！可撕便签贴。一个贴纸，两种意思。', 'subtitle': '', 'play': 255152, 'review': 53, 'video_review': 22, 'favorites': 4757, 'mid': 108035689, 'author': '差生文具盒', 'description': '-', 'create': '2023-03-22 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/a30e9a37f769a830fb50a81a309d0d9799be484c.jpg', 'coins': 124, 'duration': '0:41', 'badgepay': False, 'pts': 554366, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '311539874', 'bvid': 'BV1aN411K7xX', 'typename': '三农', 'title': '资助了三年的山区女孩，18岁的她如今在山里每天干农活放羊…', 'subtitle': '', 'play': 484748, 'review': 2999, 'video_review': 2532, 'favorites': 3624, 'mid': 480366389, 'author': '溫暖的冷风', 'description': '有什么办法可以帮到她呢', 'create': '2023-03-24 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/1ab2da5e10fff3fc350d936eed93b580a867e761.jpg', 'coins': 27321, 'duration': '9:13', 'badgepay': False, 'pts': 1035578, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653909290', 'bvid': 'BV1CY4y1D7VL', 'typename': '三农', 'title': '狐尾天门冬，栽种新方法', 'subtitle': '', 'play': 493714, 'review': 357, 'video_review': 145, 'favorites': 5761, 'mid': 35657389, 'author': '塔莎的花园TASHA', 'description': '蓬松可爱的狐尾天门冬地栽冬天“尾巴”被冻坏？试试这个栽种方法', 'create': '2023-03-22 11:13', 'pic': 'http://i0.hdslb.com/bfs/archive/38e158d0dd0640fec83e3b273452e6199257e945.jpg', 'coins': 415, 'duration': '1:34', 'badgepay': False, 'pts': 889368, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951316645', 'bvid': 'BV1ks4y1p7W9', 'typename': '三农', 'title': '郭站长入驻！最村主持人来了！', 'subtitle': '', 'play': 363873, 'review': 2825, 'video_review': 701, 'favorites': 2122, 'mid': 470828290, 'author': '17村郭站长', 'description': '', 'create': '2023-03-21 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/e00eccc5578106fe6644bb642103c1799abbb268.jpg', 'coins': 10395, 'duration': '2:50', 'badgepay': False, 'pts': 779013, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268752298', 'bvid': 'BV1Wc411j736', 'typename': '三农', 'title': '准备2大背篓野菜在城里试卖，不料2小时卖了1000多元，哈哈这是快乐偏方吗？', 'subtitle': '', 'play': 348749, 'review': 955, 'video_review': 1474, 'favorites': 863, 'mid': 694515425, 'author': '燕麦行游', 'description': '城里人为什么喜欢买野菜', 'create': '2023-03-20 19:41', 'pic': 'http://i0.hdslb.com/bfs/archive/bba6cdfb2313cb0d4ef5003b670a5f46b58d6d9f.jpg', 'coins': 4696, 'duration': '9:56', 'badgepay': False, 'pts': 575164, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738781824', 'bvid': 'BV1Gk4y1t7QU', 'typename': '三农', 'title': '新华农兄弟：新兄弟来了，让他干亿点点活，看他多开心', 'subtitle': '', 'play': 354904, 'review': 588, 'video_review': 1826, 'favorites': 970, 'mid': 473837611, 'author': '新华社', 'description': '眼下，正值春耕备耕，田间地头、育秧车间一派热火朝天的景象。新华社记者与“网红”视频博主华农兄弟一起，在希望的田野上，体验备耕的欢乐；在科技兴农、政策助农下，感受种粮信心满满！\n记者：胡晨欢、黄浩然', 'create': '2023-03-21 12:06', 'pic': 'http://i1.hdslb.com/bfs/archive/b3a2cfc8a82158af87bd86dd5b3eb29662d0c54f.jpg', 'coins': 3287, 'duration': '5:52', 'badgepay': False, 'pts': 563253, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353829702', 'bvid': 'BV1yX4y1Z7E2', 'typename': '三农', 'title': '前年让我种蓝莓的兄弟你还在吗？蓝莓种植全过程来了', 'subtitle': '', 'play': 197628, 'review': 586, 'video_review': 206, 'favorites': 3523, 'mid': 407237320, 'author': '腾一的食虫植物', 'description': '-', 'create': '2023-03-20 21:59', 'pic': 'http://i1.hdslb.com/bfs/archive/eef9e1f6c6ae719e0747b68d63bbaad38a6299bb.jpg', 'coins': 1547, 'duration': '2:56', 'badgepay': False, 'pts': 461518, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951362814', 'bvid': 'BV1ss4y1n7HA', 'typename': '三农', 'title': '你看我像冤种不？', 'subtitle': '', 'play': 239606, 'review': 982, 'video_review': 1555, 'favorites': 592, 'mid': 430967976, 'author': '星河坞', 'description': '没有简介', 'create': '2023-03-21 19:25', 'pic': 'http://i1.hdslb.com/bfs/archive/2bbcac24b576de88543b6433bd4a727f68001ed1.jpg', 'coins': 6218, 'duration': '3:58', 'badgepay': False, 'pts': 449286, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438752749', 'bvid': 'BV13L411d7Yg', 'typename': '三农', 'title': '颠沛流离24年 这也许是最圆满的结局', 'subtitle': '', 'play': 335175, 'review': 812, 'video_review': 214, 'favorites': 1083, 'mid': 1343321779, 'author': '央视农业', 'description': '', 'create': '2023-03-21 10:00', 'pic': 'http://i1.hdslb.com/bfs/archive/9381ce7a78e00590713044e756489aa8c448eea0.jpg', 'coins': 1527, 'duration': '2:16', 'badgepay': False, 'pts': 433858, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226528015', 'bvid': 'BV1Yh411G7BQ', 'typename': '三农', 'title': '我把144.8万硬币提现了，你知道能转换成人民币多少钱吗？', 'subtitle': '', 'play': 290286, 'review': 587, 'video_review': 161, 'favorites': 270, 'mid': 457871303, 'author': '一点爱送温暖', 'description': '原来硬币是无价的', 'create': '2023-03-26 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/75e7baf4a0afd82afffc6eacd8185df856497ebc.jpg', 'coins': 2805, 'duration': '2:27', 'badgepay': False, 'pts': 424640, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951617908', 'bvid': 'BV1cs4y1J7UV', 'typename': '三农', 'title': '这是一条有味道的视频…这臭鱼卤头做完锅指定是不能要了', 'subtitle': '', 'play': 513842, 'review': 967, 'video_review': 580, 'favorites': 1134, 'mid': 1187017154, 'author': '湖家郎', 'description': '-', 'create': '2023-03-24 17:39', 'pic': 'http://i2.hdslb.com/bfs/archive/1597fee29da99820686b567ed131d55b0e889f44.jpg', 'coins': 1949, 'duration': '3:08', 'badgepay': False, 'pts': 402402, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>5842362</v>
+        <v>3622525</v>
       </c>
       <c r="I71" t="n">
-        <v>74110</v>
+        <v>60160</v>
       </c>
       <c r="J71" t="n">
-        <v>91826</v>
+        <v>19942</v>
       </c>
       <c r="K71" t="n">
-        <v>51661</v>
+        <v>23879</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>绘画</t>
+          <t>家居房产</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>painting</t>
+          <t>home</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>绘画过程或绘画教程，以及绘画相关的所有视频</t>
+          <t>与买房、装修、居家生活相关的分享</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>/v/life/painting(opens new window)</t>
+          <t>/v/life/home(opens new window)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>生活(主分区)</t>
+          <t>生活</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[{'aid': '354007755', 'bvid': 'BV1oX4y1d7NQ', 'typename': '绘画', 'title': '为了学会这段舞蹈，我自制了一个【艺术装置】', 'subtitle': '', 'play': 1306736, 'review': 1029, 'video_review': 754, 'favorites': 28636, 'mid': 210501465, 'author': '美院安迪看艺术', 'description': '没别的，是真的只是想学会啊！求三连关注', 'create': '2023-03-24 16:25', 'pic': 'http://i2.hdslb.com/bfs/archive/78c4b668071f41e8a586f5ee077516793f8c610d.jpg', 'coins': 21723, 'duration': '1:49', 'badgepay': False, 'pts': 2505519, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483965606', 'bvid': 'BV1FT411z7F8', 'typename': '绘画', 'title': '小狗想抱抱你', 'subtitle': '', 'play': 742235, 'review': 3201, 'video_review': 6519, 'favorites': 35284, 'mid': 3461568127830547, 'author': '线条小狗Maltese', 'description': '-', 'create': '2023-03-23 19:31', 'pic': 'http://i1.hdslb.com/bfs/archive/bab4e16811ea6c68dd9a234356b1d4e7435105c1.jpg', 'coins': 14914, 'duration': '0:11', 'badgepay': False, 'pts': 2166498, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781338939', 'bvid': 'BV1k24y1E7pY', 'typename': '绘画', 'title': '# 手绘蛋糕#奶油霜浮雕手绘蛋糕#唐装美人#古风', 'subtitle': '', 'play': 1244704, 'review': 765, 'video_review': 907, 'favorites': 15045, 'mid': 1080409518, 'author': '彤彤手绘蛋糕', 'description': '-', 'create': '2023-03-20 13:23', 'pic': 'http://i2.hdslb.com/bfs/archive/bd99948374cb79fd11579d5ffb29e570a2cbdd72.jpg', 'coins': 5524, 'duration': '1:56', 'badgepay': False, 'pts': 2042613, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993755485', 'bvid': 'BV1wx4y1N7bm', 'typename': '绘画', 'title': '大型纪录片之《神里龟龟传奇》', 'subtitle': '', 'play': 709135, 'review': 1146, 'video_review': 269, 'favorites': 20906, 'mid': 7135402, 'author': '殷秋染', 'description': '您将看到 \n作画崩坏√ \n人物OOC√', 'create': '2023-03-21 16:00', 'pic': 'http://i1.hdslb.com/bfs/archive/cf974f3693c1b4a89cf48343a68dd77284ace09f.jpg', 'coins': 9506, 'duration': '1:23', 'badgepay': False, 'pts': 1657729, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908891211', 'bvid': 'BV1tM4y1B7uE', 'typename': '绘画', 'title': '道诡异仙角色谱 一大波配角', 'subtitle': '', 'play': 661884, 'review': 1376, 'video_review': 338, 'favorites': 21059, 'mid': 392802999, 'author': '格子的乱七八糟', 'description': '道诡异仙角色谱 ，好多角色放一起了。为爱发颠、绘画不易、请多包容。', 'create': '2023-03-22 08:41', 'pic': 'http://i1.hdslb.com/bfs/archive/b08c65b40c127bb378ebb83756e1973b90a2d2bb.jpg', 'coins': 11528, 'duration': '1:01', 'badgepay': False, 'pts': 1645027, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568940559', 'bvid': 'BV1gv4y157jb', 'typename': '绘画', 'title': '学校不让带漫画？老子自己画', 'subtitle': '', 'play': 723205, 'review': 703, 'video_review': 449, 'favorites': 15458, 'mid': 3493125913839799, 'author': 'HK生', 'description': '肝了半个月', 'create': '2023-03-23 22:52', 'pic': 'http://i1.hdslb.com/bfs/archive/b4005f39a1bab9bae5cc4bf8656dadccf2da14cd.jpg', 'coins': 10681, 'duration': '0:45', 'badgepay': False, 'pts': 1538169, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311307629', 'bvid': 'BV1jP411o7LZ', 'typename': '绘画', 'title': '摆上幸福的脸吧🙂 [OC]', 'subtitle': '', 'play': 267171, 'review': 220, 'video_review': 80, 'favorites': 36610, 'mid': 1863066840, 'author': '누을NuEul', 'description': '中国的观众们，大家好，欢迎来到누을NuEul B站官方账号!\n喜欢NuEul的朋友们要记得关注哦～～', 'create': '2023-03-21 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/e4bcf61b29a2543f0ad949262b50186dad8ef6df.jpg', 'coins': 5848, 'duration': '1:36', 'badgepay': False, 'pts': 1238779, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441334955', 'bvid': 'BV1kL411r7gZ', 'typename': '绘画', 'title': '“恶魔的眼泪”', 'subtitle': '', 'play': 436858, 'review': 401, 'video_review': 118, 'favorites': 7692, 'mid': 3493257967307188, 'author': '皮诺曹的魔法画室', 'description': '当恶魔开始流泪，记住那是鳄鱼的眼泪，当它的右眼亮时，就已经晚了', 'create': '2023-03-21 20:55', 'pic': 'http://i2.hdslb.com/bfs/archive/0ac4ee4f6bd3a00b7bbbd3a9a7b351a0423d9bf4.jpg', 'coins': 908, 'duration': '0:12', 'badgepay': False, 'pts': 876960, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483991119', 'bvid': 'BV1TT411z7FZ', 'typename': '绘画', 'title': '百福图×鲤鱼跃龙门', 'subtitle': '', 'play': 398624, 'review': 475, 'video_review': 2448, 'favorites': 6310, 'mid': 519959093, 'author': '彼得潘的理想', 'description': '中国传统百福文字×鲤鱼跃龙门', 'create': '2023-03-22 11:04', 'pic': 'http://i2.hdslb.com/bfs/archive/837494eb52bb44b7217f2cdc6d8cbc6b564a01d1.jpg', 'coins': 3555, 'duration': '1:39', 'badgepay': False, 'pts': 870872, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353927983', 'bvid': 'BV1YX4y1d7kC', 'typename': '绘画', 'title': '【Procreate】绘画过程，看完后手必然就会了', 'subtitle': '', 'play': 219833, 'review': 247, 'video_review': 94, 'favorites': 17857, 'mid': 9257384, 'author': '-NaJaNoiR-', 'description': '记录过程\nBGM：モディファイ-Doctrine Doctrine', 'create': '2023-03-22 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/cbab9d829afdc1fa8379b736fdff9f47459c6bba.jpg', 'coins': 1672, 'duration': '0:25', 'badgepay': False, 'pts': 829407, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '269017486', 'bvid': 'BV1Pc411L72y', 'typename': '家居房产', 'title': '给你们一点小小的清洁震撼，感受下世界的参差，马俐最强一单！', 'subtitle': '', 'play': 753859, 'review': 3297, 'video_review': 7938, 'favorites': 4995, 'mid': 1590082082, 'author': '马俐管家', 'description': '封神榜感觉都装不下这套房子，突然想起了最新一期海贼香克斯秒基德的那招名字--神避...', 'create': '2023-03-24 19:15', 'pic': 'http://i2.hdslb.com/bfs/archive/f5d04a01282540a84013dbdb0d848a767068636d.jpg', 'coins': 12774, 'duration': '17:25', 'badgepay': False, 'pts': 1469881, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696473479', 'bvid': 'BV1rm4y1k7P1', 'typename': '家居房产', 'title': '虽然14m²卧室，但B站可能没这种！', 'subtitle': '', 'play': 436808, 'review': 1244, 'video_review': 786, 'favorites': 14284, 'mid': 332170241, 'author': '屁虫momo', 'description': '小屁虫子和铲屎官的家', 'create': '2023-03-22 12:43', 'pic': 'http://i1.hdslb.com/bfs/archive/20d081666d66c80ca5a448f2c28b16e7609a78e0.jpg', 'coins': 4934, 'duration': '5:27', 'badgepay': False, 'pts': 1165241, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823782997', 'bvid': 'BV1gg4y1x7Dq', 'typename': '家居房产', 'title': '9个厨房小妙招✨长见识了！简单好用又奇怪？', 'subtitle': '', 'play': 442542, 'review': 204, 'video_review': 443, 'favorites': 15580, 'mid': 13806027, 'author': '海的眼里有颗星', 'description': '', 'create': '2023-03-21 20:06', 'pic': 'http://i0.hdslb.com/bfs/archive/e5d1a01472a3ae56c34a8140e5c34c4188345829.jpg', 'coins': 3108, 'duration': '2:57', 'badgepay': False, 'pts': 964499, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226488468', 'bvid': 'BV1zb411o7Lf', 'typename': '家居房产', 'title': '我妈都夸我会买！洗地板一流', 'subtitle': '', 'play': 521430, 'review': 82, 'video_review': 24, 'favorites': 4973, 'mid': 2025885468, 'author': '池晨橙', 'description': '', 'create': '2023-03-22 14:39', 'pic': 'http://i0.hdslb.com/bfs/archive/aff57f4fb764af26c0e468fb52f1b7b017aa86cb.jpg', 'coins': 155, 'duration': '0:43', 'badgepay': False, 'pts': 702174, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526436574', 'bvid': 'BV1WM411u763', 'typename': '家居房产', 'title': '打开思路搞收纳，好用省钱 省空间！', 'subtitle': '', 'play': 340614, 'review': 22, 'video_review': 6, 'favorites': 14722, 'mid': 1256240280, 'author': '贾灿灿在此', 'description': '-', 'create': '2023-03-22 18:37', 'pic': 'http://i1.hdslb.com/bfs/archive/e61239f8d4cd1fdcc967462e378d39b6bf62f32b.jpg', 'coins': 351, 'duration': '0:34', 'badgepay': False, 'pts': 654465, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311554047', 'bvid': 'BV1xN411K759', 'typename': '家居房产', 'title': '猴哥家开始安装大门，一排尖刺高高竖起，又好看又防盗，一起看看整体效果怎么样', 'subtitle': '', 'play': 343602, 'review': 1042, 'video_review': 4611, 'favorites': 738, 'mid': 393116415, 'author': '非洲飞哥', 'description': '-', 'create': '2023-03-25 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/bfb19f7d2edbc4c9f7f5795d0805670fef318475.jpg', 'coins': 8100, 'duration': '17:09', 'badgepay': False, 'pts': 649595, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311529264', 'bvid': 'BV1tN411K7ye', 'typename': '家居房产', 'title': '因为一直上班太焦虑，我来了云南', 'subtitle': '', 'play': 296568, 'review': 1033, 'video_review': 621, 'favorites': 1576, 'mid': 486759751, 'author': '卡门卡卡_', 'description': '在四方街不由分说当美女的一天', 'create': '2023-03-25 12:54', 'pic': 'http://i0.hdslb.com/bfs/archive/ae71c590a42c4ad11fbe23405f052e25b58b1af8.jpg', 'coins': 3524, 'duration': '2:25', 'badgepay': False, 'pts': 566666, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438772303', 'bvid': 'BV1tL411d72d', 'typename': '家居房产', 'title': '广州学区房，53平做3房？神级收纳！', 'subtitle': '', 'play': 699185, 'review': 389, 'video_review': 912, 'favorites': 6232, 'mid': 1162248798, 'author': '李小冷不冷', 'description': '她家在玩一种很新的收纳！\n据屋主小茶说\n53平竟然住着比之前的100平还显大\n偶尔老人来了\n还能无压力塞下一家5口\n\n尤其值得一提的是她家的柜体收纳设计\n从入门玄关处一直到厨房吧台\n她家很多柜体（包括楼梯！）\n前后左右都可以打开储物\n完全榨干每一寸\n\n逛完这个家\n让我有一种其实通过设计师\n也可以“既要”“又要”的感觉\n比如学区房也可以\n既兼顾地段也兼顾生活品质\n我们一起去看看吧！', 'create': '2023-03-21 21:46', 'pic': 'http://i2.hdslb.com/bfs/archive/27742a0ab54a5c2933c59b3123daa955a7115e1d.jpg', 'coins': 2416, 'duration': '14:38', 'badgepay': False, 'pts': 565510, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526558699', 'bvid': 'BV1GM411g7Jv', 'typename': '家居房产', 'title': '分享我家省钱又好看的走廊设计（附施工流程）', 'subtitle': '', 'play': 374055, 'review': 91, 'video_review': 50, 'favorites': 3754, 'mid': 486751493, 'author': '室内设计师有料儿', 'description': '-', 'create': '2023-03-25 12:54', 'pic': 'http://i1.hdslb.com/bfs/archive/31b8c5068041566df75b123e97a5398ce31350fe.jpg', 'coins': 172, 'duration': '1:09', 'badgepay': False, 'pts': 464500, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993897643', 'bvid': 'BV1Ax4y1A7wr', 'typename': '家居房产', 'title': '重生の家！破败老房变花园饭店！木遁建筑师再临！', 'subtitle': '', 'play': 230177, 'review': 416, 'video_review': 1555, 'favorites': 1849, 'mid': 671011280, 'author': '百万巨星麒麟君', 'description': '主页还有超多记得点关注。', 'create': '2023-03-23 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/c382cf765af8d727f7b339bf154b1c4184ebf002.jpg', 'coins': 4495, 'duration': '20:56', 'badgepay': False, 'pts': 460795, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>6710385</v>
+        <v>4438840</v>
       </c>
       <c r="I72" t="n">
-        <v>85859</v>
+        <v>40029</v>
       </c>
       <c r="J72" t="n">
-        <v>204857</v>
+        <v>68703</v>
       </c>
       <c r="K72" t="n">
-        <v>45379</v>
+        <v>33204</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>日常</t>
+          <t>手工</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>handmake</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>记录日常生活，分享生活故事</t>
+          <t>手工制品的制作过程或成品展示、教程、测评类视频</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>/v/life/daily</t>
+          <t>/v/life/handmake(opens new window)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>生活(主分区)</t>
+          <t>生活</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[{'aid': '269017885', 'bvid': 'BV1Pc411L7Zh', 'typename': '日常', 'title': '现在小龙虾团购如此之便宜，便宜到你看完还想再吃吗？一分价钱一分货，便宜真的没好货！', 'subtitle': '', 'play': 4195088, 'review': 6647, 'video_review': 2877, 'favorites': 18650, 'mid': 85754245, 'author': 'superB太', 'description': '-', 'create': '2023-03-24 20:59', 'pic': 'http://i0.hdslb.com/bfs/archive/44a7351fa26a188e6ecd080d5d5f421a2f2ded55.jpg', 'coins': 56343, 'duration': '3:49', 'badgepay': False, 'pts': 4085771, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483823380', 'bvid': 'BV1oT41167wW', 'typename': '日常', 'title': '给初音未来买内裤还是很害羞的：选择跟虚拟偶像结婚的日本男人(中日双语)(23/03/17)', 'subtitle': '', 'play': 1344037, 'review': 7080, 'video_review': 4628, 'favorites': 14312, 'mid': 6697975, 'author': 'MOJi辞書', 'description': 'https://youtu.be/dDBg1AR4kbM\n听日语新闻，学时事表达！更多NHK新闻翻译请阅览：\nhttps://mojidict.com/collection/G4kGjT2T7y?f=b', 'create': '2023-03-21 16:10', 'pic': 'http://i0.hdslb.com/bfs/archive/bf9206dcfaada4ad139a69a898833b265ecfaf6b.jpg', 'coins': 2135, 'duration': '22:04', 'badgepay': False, 'pts': 2435710, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353950990', 'bvid': 'BV1tX4y1d7fa', 'typename': '日常', 'title': '我最爱吃粗茶淡饭，哈哈哈哈哈', 'subtitle': '', 'play': 1498668, 'review': 2367, 'video_review': 1051, 'favorites': 13305, 'mid': 690748574, 'author': '朝阳冬泳怪鸽', 'description': '-', 'create': '2023-03-22 15:26', 'pic': 'http://i1.hdslb.com/bfs/archive/01afbee065170b1ca8c2e83de11819f2d249b2d6.jpg', 'coins': 170193, 'duration': '0:30', 'badgepay': False, 'pts': 2372059, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226416018', 'bvid': 'BV1jb411o7Tt', 'typename': '日常', 'title': '我离婚了，终于有勇气来和大家说了', 'subtitle': '', 'play': 1741507, 'review': 3549, 'video_review': 4755, 'favorites': 6772, 'mid': 64925986, 'author': '大佬甜er', 'description': '', 'create': '2023-03-23 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/5dfe6e4e4d261a027cd950c6a8a4e6bb9ce73210.jpg', 'coins': 11871, 'duration': '10:14', 'badgepay': False, 'pts': 2307596, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526512875', 'bvid': 'BV1UM411u7eQ', 'typename': '日常', 'title': '一个人去吃饭的路上，有棵树治好了我的孤独。', 'subtitle': '', 'play': 855892, 'review': 916, 'video_review': 491, 'favorites': 30576, 'mid': 1474965865, 'author': '少年云尘', 'description': '-', 'create': '2023-03-24 19:01', 'pic': 'http://i1.hdslb.com/bfs/archive/6220339910ece848b0604d9904c07318018a719d.jpg', 'coins': 8742, 'duration': '0:55', 'badgepay': False, 'pts': 2088781, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611373393', 'bvid': 'BV1T84y137jK', 'typename': '日常', 'title': '这期VLOG我拍了十年|200张照片回顾一个爱折腾女生的十年|念念不忘必有回响~', 'subtitle': '', 'play': 1162673, 'review': 2023, 'video_review': 1497, 'favorites': 18869, 'mid': 350632501, 'author': '在下小苏', 'description': '翻完了硬盘里的几千张照片，终于整理好了“我的十年”。2011-2023，也算是给自己过去十年的一个总结和交代~\n十年前我不知道现在的生活会是怎样，但我努力让自己活得精彩。\n现在的我依然不知道未来十年会发生什么，但我会继续勇敢闯下去。\n念念不忘，必有回响\n今天正好是春分，想到陈道明老师在@特仑苏官方账号   的TVC里说的一句话“每一个让你心中的希望开始萌芽，相信一切会更好的日子，都是春天”， 趁着春光正好~一起加油吧！\n完整版TVC https://b23.tv/m9wT9q6', 'create': '2023-03-21 12:11', 'pic': 'http://i0.hdslb.com/bfs/archive/435c64b7faf4abdb9b6fc5d1b86cb909931784e8.jpg', 'coins': 23183, 'duration': '9:48', 'badgepay': False, 'pts': 1996313, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441439444', 'bvid': 'BV1NL411k762', 'typename': '日常', 'title': '【看大船】皇家最大游轮海洋奇迹号，在帅哥的眼中和他的笑容一样迷人', 'subtitle': '', 'play': 913477, 'review': 1455, 'video_review': 406, 'favorites': 15790, 'mid': 1928753206, 'author': '皇家加勒比游轮', 'description': '海洋奇迹号是皇家加勒比游轮在运营的最大最新的游轮，她当时可是为中国市场量身定制的豪华巨轮，相信未来中国游客一定会和她见面的。', 'create': '2023-03-22 21:12', 'pic': 'http://i2.hdslb.com/bfs/archive/774de57bb35a064c464244f9e55871ca15ae4e1a.jpg', 'coins': 813, 'duration': '0:19', 'badgepay': False, 'pts': 1837584, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654064945', 'bvid': 'BV1FY4y1S7p5', 'typename': '日常', 'title': '一百三十五万粉感谢！！！', 'subtitle': '', 'play': 992686, 'review': 2495, 'video_review': 3475, 'favorites': 6292, 'mid': 424658638, 'author': '四夕小田木_已黑化_', 'description': '-', 'create': '2023-03-24 20:47', 'pic': 'http://i1.hdslb.com/bfs/archive/902cc5babdb481c8278324a1cbee38230f58643e.jpg', 'coins': 23616, 'duration': '10:43', 'badgepay': False, 'pts': 1714976, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866614748', 'bvid': 'BV19V4y1X737', 'typename': '日常', 'title': '长大后才发现，我有一个如此“低俗“的童年……', 'subtitle': '', 'play': 896480, 'review': 2306, 'video_review': 2720, 'favorites': 10313, 'mid': 130636947, 'author': '塑料叉FOKU', 'description': '跟大家唠唠，小时候在大马路上观察到的一些怪事儿……', 'create': '2023-03-24 11:06', 'pic': 'http://i2.hdslb.com/bfs/archive/a46e3825fe31c9f7b42c49440478e169422420f8.jpg', 'coins': 15407, 'duration': '7:20', 'badgepay': False, 'pts': 1703124, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568752805', 'bvid': 'BV19v4y1L75C', 'typename': '日常', 'title': '“脑瘫博士”高考只有262分，每科只做选择题，仅靠旁听学到博士阶段', 'subtitle': '', 'play': 947869, 'review': 944, 'video_review': 265, 'favorites': 15492, 'mid': 41401619, 'author': '_屁屁鲨', 'description': 'bgm：something just like this', 'create': '2023-03-21 17:28', 'pic': 'http://i2.hdslb.com/bfs/archive/e01c1c43d2e52a2c59c722170e06b7707e311d9f.jpg', 'coins': 6658, 'duration': '1:16', 'badgepay': False, 'pts': 1584229, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '311477432', 'bvid': 'BV1AN411K7CX', 'typename': '手工', 'title': '十个行书连笔写法，建议保存收藏练起来', 'subtitle': '', 'play': 2063194, 'review': 1681, 'video_review': 551, 'favorites': 20996, 'mid': 1795579812, 'author': '禾欢不ok', 'description': '行书', 'create': '2023-03-22 16:33', 'pic': 'http://i1.hdslb.com/bfs/archive/ace5e10758f284e7796d2608410ea10c0f2b6991.jpg', 'coins': 1595, 'duration': '0:22', 'badgepay': False, 'pts': 2497689, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354032146', 'bvid': 'BV1PX4y1o742', 'typename': '手工', 'title': '我在全中国到处认爷爷？', 'subtitle': '', 'play': 821892, 'review': 538, 'video_review': 557, 'favorites': 17454, 'mid': 504980413, 'author': '熊伟Sherwin', 'description': '事情的起因是我有个叫路洋的朋友，前阵子在大理出差，拍了张这个“写字铺”的照片给我，简单说了两句书屋主人的故事，我就被打动了。我觉得能靠一张照片三两句话就打动人的故事，一定是值得挖掘的。就飞机+汽车的奔波了3000公里从杭州去云南，把李萌爷爷的故事讲给大家听。不管是李萌爷爷身上的“楞”劲和韧性，还是小镇人民谈论生死的态度、那边大人小孩的友善、健谈，都让我觉得珍贵和温情。', 'create': '2023-03-24 18:05', 'pic': 'http://i1.hdslb.com/bfs/archive/8cbdb64de391622f93a8d8ec70ab10b21bb70fb8.jpg', 'coins': 20633, 'duration': '6:21', 'badgepay': False, 'pts': 1711477, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483958624', 'bvid': 'BV1oT411B7HN', 'typename': '手工', 'title': '不花钱就能搞定一切！太神奇了把，其实你也可以的。', 'subtitle': '', 'play': 574161, 'review': 485, 'video_review': 336, 'favorites': 16303, 'mid': 107048421, 'author': '老墨DIY修复', 'description': '不花钱就能搞定一切！太神奇了把，其实你也可以的。 #修补 #创意diy #diy #万能胶', 'create': '2023-03-22 21:47', 'pic': 'http://i2.hdslb.com/bfs/archive/a53821559cadaac85efb71a49c1cfb4e60a708e4.jpg', 'coins': 2527, 'duration': '3:37', 'badgepay': False, 'pts': 1287048, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484102946', 'bvid': 'BV1YT411z7p8', 'typename': '手工', 'title': '【秋山】拖更一年，我把游戏带进现实，MC工作台极致还原', 'subtitle': '', 'play': 462455, 'review': 438, 'video_review': 663, 'favorites': 12423, 'mid': 5309915, 'author': '秋山黛西', 'description': '久等了，这个系列属是有点费劲，会不会有下一期取决于你们的心意，总之预计是钻石剑', 'create': '2023-03-25 17:30', 'pic': 'http://i1.hdslb.com/bfs/archive/b3adab881f9aa1e56b65d5c821b94d47143b1aaf.jpg', 'coins': 34990, 'duration': '8:26', 'badgepay': False, 'pts': 1091659, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611347171', 'bvid': 'BV1Z84y1g734', 'typename': '手工', 'title': '用反光工艺把萧逸发光吧唧改成了流沙', 'subtitle': '', 'play': 508059, 'review': 506, 'video_review': 225, 'favorites': 6721, 'mid': 700371703, 'author': '菜饭ww', 'description': '眼前一黑的虚妄之作', 'create': '2023-03-23 20:30', 'pic': 'http://i0.hdslb.com/bfs/archive/6fa526d812616e0c925b670d5423397e6160ecb5.jpg', 'coins': 966, 'duration': '1:09', 'badgepay': False, 'pts': 954722, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268889023', 'bvid': 'BV1Nc41177VK', 'typename': '手工', 'title': '你们信吗？茶树不修剪，真的可以长到树那么高！有两个人高！', 'subtitle': '', 'play': 612466, 'review': 823, 'video_review': 2274, 'favorites': 1185, 'mid': 1838326986, 'author': '帅农鸟哥', 'description': '只要思想不滑坡，办法总比困难多！在外砍得了茶树，在家做得了蛋卷，就是这么优秀！', 'create': '2023-03-22 19:44', 'pic': 'http://i1.hdslb.com/bfs/archive/baadcf37827d825bcdc934883f23f17814421d2b.jpg', 'coins': 4933, 'duration': '8:02', 'badgepay': False, 'pts': 887461, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226290890', 'bvid': 'BV1ib411d76a', 'typename': '手工', 'title': '｛小卡修复教程｝死马当成活马医，说不定救活了呢（折痕/压痕/卡坑/指甲印适用）', 'subtitle': '', 'play': 261047, 'review': 202, 'video_review': 74, 'favorites': 15530, 'mid': 679778, 'author': 'Oceandog_', 'description': '请务必在自印卡/白菜卡上练习后再实践！！！！！', 'create': '2023-03-20 19:02', 'pic': 'http://i2.hdslb.com/bfs/archive/03a08eed10199ceb125aa177b6e90f93576639cb.jpg', 'coins': 798, 'duration': '2:20', 'badgepay': False, 'pts': 824028, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569056610', 'bvid': 'BV1Rv4y157XT', 'typename': '手工', 'title': '【密林手作】羊毛毡 | 孙悟空 | 治愈手作记录', 'subtitle': '', 'play': 406032, 'review': 570, 'video_review': 430, 'favorites': 4054, 'mid': 147174770, 'author': '密林手作', 'description': 'bgm:\n  《天府乐》——许镜清\n  《天府乐（钢琴版）》——千榕&amp;许镜清\n原画作者：傲来老神仙', 'create': '2023-03-24 18:55', 'pic': 'http://i2.hdslb.com/bfs/archive/55b934fb608edda2d750437677054655442bdf6a.jpg', 'coins': 5951, 'duration': '2:45', 'badgepay': False, 'pts': 816772, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484111104', 'bvid': 'BV1vT411z7UV', 'typename': '手工', 'title': '丛林只因甲', 'subtitle': '', 'play': 365079, 'review': 531, 'video_review': 350, 'favorites': 3677, 'mid': 1223615155, 'author': '牛战士历险记本人', 'description': '闭关半个月才打造好的只因甲', 'create': '2023-03-24 21:07', 'pic': 'http://i1.hdslb.com/bfs/archive/36e302af9cc7bbd6687fb8420790a57811d95e34.jpg', 'coins': 7217, 'duration': '1:29', 'badgepay': False, 'pts': 736654, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653933836', 'bvid': 'BV1cY4y1Q7L8', 'typename': '手工', 'title': '变～变～变！可撕便签贴。一个贴纸，两种意思。', 'subtitle': '', 'play': 262018, 'review': 54, 'video_review': 24, 'favorites': 4922, 'mid': 108035689, 'author': '差生文具盒', 'description': '-', 'create': '2023-03-22 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/a30e9a37f769a830fb50a81a309d0d9799be484c.jpg', 'coins': 134, 'duration': '0:41', 'badgepay': False, 'pts': 568526, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>14548377</v>
+        <v>6336403</v>
       </c>
       <c r="I73" t="n">
-        <v>318961</v>
+        <v>79744</v>
       </c>
       <c r="J73" t="n">
-        <v>150371</v>
+        <v>103265</v>
       </c>
       <c r="K73" t="n">
-        <v>322490</v>
+        <v>51661</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>美食制作</t>
+          <t>绘画</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>painting</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>学做人间美味，展示精湛厨艺</t>
+          <t>绘画过程或绘画教程，以及绘画相关的所有视频</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>/v/food/make(opens new window)</t>
+          <t>/v/life/painting(opens new window)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>美食(主分区)</t>
+          <t>生活</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[{'aid': '311285382', 'bvid': 'BV1cP411o7KN', 'typename': '美食制作', 'title': '史上最扎实的棒棒糖吃法！5元一根，一口气能炫一打……', 'subtitle': '', 'play': 2176395, 'review': 923, 'video_review': 1685, 'favorites': 28651, 'mid': 29329085, 'author': '二喵的饭', 'description': '所以……猜猜我的冰箱里现在囤了几斤肉(￣□￣；)', 'create': '2023-03-20 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6425cc7bd605ed0df583c4ba5ff23f784778a7ea.jpg', 'coins': 40087, 'duration': '4:13', 'badgepay': False, 'pts': 2723593, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696316840', 'bvid': 'BV19m4y1r7TV', 'typename': '美食制作', 'title': '《 豚 骨 拉 面 全 套 配 方 》', 'subtitle': '', 'play': 1271375, 'review': 1795, 'video_review': 3061, 'favorites': 53125, 'mid': 270105105, 'author': '赖皮猴爱美食', 'description': '本期作品共耗时三个星期的时间，求15万个赞，谢谢大家！希望我的作品对您有所启发，有需要的小伙伴点一个收藏，也可以转发给身边的朋友，让大家少走弯路', 'create': '2023-03-20 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d125a2f3c7cad7ee3f0ad8f498fd236dc9c4327f.jpg', 'coins': 90952, 'duration': '13:20', 'badgepay': False, 'pts': 2721763, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739018882', 'bvid': 'BV1Rk4y1x7Vt', 'typename': '美食制作', 'title': '花3天做一碗面，居然只能卖10来块钱？', 'subtitle': '', 'play': 1841925, 'review': 2167, 'video_review': 11115, 'favorites': 22036, 'mid': 18202105, 'author': '绵羊料理', 'description': '日更微博：绵羊料理 \n微信公众号：绵羊料理', 'create': '2023-03-24 18:14', 'pic': 'http://i0.hdslb.com/bfs/archive/d85c208ccd0132f1cabd008f1706d79bfd54683f.jpg', 'coins': 91405, 'duration': '7:31', 'badgepay': False, 'pts': 2671256, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994075057', 'bvid': 'BV1ps4y1S7iP', 'typename': '美食制作', 'title': '真的有人吃这玩意吗？？？', 'subtitle': '', 'play': 1812650, 'review': 909, 'video_review': 1964, 'favorites': 11089, 'mid': 1420982, 'author': '黑猫厨房', 'description': '下期做什么捏 让我在评论区抓一只幸运水母', 'create': '2023-03-24 17:06', 'pic': 'http://i0.hdslb.com/bfs/archive/6ce0e8e4ae94cd5ab0ded377b60e7f6b491e3efe.jpg', 'coins': 34864, 'duration': '6:03', 'badgepay': False, 'pts': 2343403, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484121099', 'bvid': 'BV1mT411z77h', 'typename': '美食制作', 'title': '10只龙虾熬一颗糖果 吃一口有多神奇？', 'subtitle': '', 'play': 1253518, 'review': 818, 'video_review': 1297, 'favorites': 7714, 'mid': 473524263, 'author': '澳洲阿彭', 'description': '这期复刻的是Alinea的龙虾菠萝糖纸，之前复刻过的那颗变声气球也是他们家的。这道菜最神奇的地方就是菠萝的风味被浓缩后用一张纸来呈现；经过处理后的龙虾不会有一丝海腥气，而是甜味。 希望大家喜欢。', 'create': '2023-03-25 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/7bf5652acd4496c59a5975f8c32faa042c394d98.jpg', 'coins': 30420, 'duration': '4:20', 'badgepay': False, 'pts': 1889008, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908979453', 'bvid': 'BV1CM4y1B7n5', 'typename': '美食制作', 'title': '肯德基：价值11元的吮指原味鸡就这样让你破解了？', 'subtitle': '', 'play': 740342, 'review': 1213, 'video_review': 1628, 'favorites': 25555, 'mid': 1754707, 'author': '柴犬老丸子', 'description': '再也不用等疯狂星期四了！\n\n★真香★\nBV1vv4y187kU 巨厚炸猪排\nBV1144y1X7Xd 十年良心秘方炸鸡\nBV1G24y1m7Wk 脆皮大鸡腿\nBV1AP4y1U77L 烀羊排\nBV1me411K7fc 龙珠\nBV1sP4y1f7B5 巧克力唱片\nBV15a411U715 做品客\nBV1XG411s7UL 做可乐\nBV1FY4y167Up 龙吟柠檬\nBV1eT4y1S72x 神之黄油\nBV1Ta411r7qT 烤生蚝\nBV1m44y1v7MU 嫩牛四方', 'create': '2023-03-22 21:03', 'pic': 'http://i2.hdslb.com/bfs/archive/a808e528b4119d388290e62e9301c8a9500d2083.jpg', 'coins': 14558, 'duration': '7:22', 'badgepay': False, 'pts': 1812507, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993906640', 'bvid': 'BV1Rx4y1w7dt', 'typename': '美食制作', 'title': '炸鸡腿儿真能做得像钢化膜那样脆吗？', 'subtitle': '', 'play': 969332, 'review': 738, 'video_review': 1343, 'favorites': 9595, 'mid': 8960728, 'author': '日食记', 'description': '微博大号@日食记\n微博小号＠姜老刀\n微信公众号：日食记\n文字菜谱见视频末尾', 'create': '2023-03-22 18:34', 'pic': 'http://i2.hdslb.com/bfs/archive/de56c157130572469cc82018010ad6a8d87a75d7.jpg', 'coins': 6533, 'duration': '4:13', 'badgepay': False, 'pts': 1621452, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483989665', 'bvid': 'BV1TT411z7un', 'typename': '美食制作', 'title': '好吃不贵的街边炸薯片，去晚了根本买不到，今儿带你看看什么叫小成本高收益！', 'subtitle': '', 'play': 706094, 'review': 698, 'video_review': 326, 'favorites': 13956, 'mid': 3493086124575141, 'author': '南哥-呀', 'description': '炸薯片', 'create': '2023-03-22 13:29', 'pic': 'http://i0.hdslb.com/bfs/archive/8807dd6c7816a326bd8af37cd51295a6550d57d6.jpg', 'coins': 1325, 'duration': '3:42', 'badgepay': False, 'pts': 1495171, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441552683', 'bvid': 'BV1XL411D7az', 'typename': '美食制作', 'title': '《 绿 色 炸 鸡 》', 'subtitle': '', 'play': 904074, 'review': 1009, 'video_review': 2523, 'favorites': 3645, 'mid': 337521240, 'author': '记录生活的蛋黄派', 'description': '废物一个', 'create': '2023-03-25 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/c597242af0d615bbd5de2b5b222a21a805a4fbff.jpg', 'coins': 14744, 'duration': '6:07', 'badgepay': False, 'pts': 1463642, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781293650', 'bvid': 'BV1B24y1E7q2', 'typename': '美食制作', 'title': '碳水的快乐谁懂啊！满满一大锅都不够造', 'subtitle': '', 'play': 1842629, 'review': 648, 'video_review': 161, 'favorites': 13353, 'mid': 245679433, 'author': '小唐食堂', 'description': '-', 'create': '2023-03-21 19:42', 'pic': 'http://i2.hdslb.com/bfs/archive/14a82e0409cc6615636099d89c27964afe69651c.jpg', 'coins': 1141, 'duration': '0:33', 'badgepay': False, 'pts': 1171679, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '354007755', 'bvid': 'BV1oX4y1d7NQ', 'typename': '绘画', 'title': '为了学会这段舞蹈，我自制了一个【艺术装置】', 'subtitle': '', 'play': 1320195, 'review': 1047, 'video_review': 759, 'favorites': 29062, 'mid': 210501465, 'author': '美院安迪看艺术', 'description': '没别的，是真的只是想学会啊！求三连关注', 'create': '2023-03-24 16:25', 'pic': 'http://i2.hdslb.com/bfs/archive/78c4b668071f41e8a586f5ee077516793f8c610d.jpg', 'coins': 22199, 'duration': '1:49', 'badgepay': False, 'pts': 2526964, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483965606', 'bvid': 'BV1FT411z7F8', 'typename': '绘画', 'title': '小狗想抱抱你', 'subtitle': '', 'play': 769095, 'review': 3337, 'video_review': 6789, 'favorites': 36652, 'mid': 3461568127830547, 'author': '线条小狗Maltese', 'description': '-', 'create': '2023-03-23 19:31', 'pic': 'http://i1.hdslb.com/bfs/archive/bab4e16811ea6c68dd9a234356b1d4e7435105c1.jpg', 'coins': 15541, 'duration': '0:11', 'badgepay': False, 'pts': 2240485, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993755485', 'bvid': 'BV1wx4y1N7bm', 'typename': '绘画', 'title': '大型纪录片之《神里龟龟传奇》', 'subtitle': '', 'play': 713803, 'review': 1144, 'video_review': 271, 'favorites': 21072, 'mid': 7135402, 'author': '殷秋染', 'description': '您将看到 \n作画崩坏√ \n人物OOC√', 'create': '2023-03-21 16:00', 'pic': 'http://i1.hdslb.com/bfs/archive/cf974f3693c1b4a89cf48343a68dd77284ace09f.jpg', 'coins': 9580, 'duration': '1:23', 'badgepay': False, 'pts': 1667168, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568940559', 'bvid': 'BV1gv4y157jb', 'typename': '绘画', 'title': '学校不让带漫画？老子自己画', 'subtitle': '', 'play': 800615, 'review': 743, 'video_review': 497, 'favorites': 17026, 'mid': 3493125913839799, 'author': 'HK生', 'description': '肝了半个月', 'create': '2023-03-23 22:52', 'pic': 'http://i1.hdslb.com/bfs/archive/b4005f39a1bab9bae5cc4bf8656dadccf2da14cd.jpg', 'coins': 11633, 'duration': '0:45', 'badgepay': False, 'pts': 1665463, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908891211', 'bvid': 'BV1tM4y1B7uE', 'typename': '绘画', 'title': '道诡异仙角色谱 一大波配角', 'subtitle': '', 'play': 664662, 'review': 1377, 'video_review': 339, 'favorites': 21116, 'mid': 392802999, 'author': '格子的乱七八糟', 'description': '道诡异仙角色谱 ，好多角色放一起了。为爱发颠、绘画不易、请多包容。', 'create': '2023-03-22 08:41', 'pic': 'http://i1.hdslb.com/bfs/archive/b08c65b40c127bb378ebb83756e1973b90a2d2bb.jpg', 'coins': 11569, 'duration': '1:01', 'badgepay': False, 'pts': 1649663, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311307629', 'bvid': 'BV1jP411o7LZ', 'typename': '绘画', 'title': '摆上幸福的脸吧🙂 [OC]', 'subtitle': '', 'play': 270853, 'review': 222, 'video_review': 80, 'favorites': 37075, 'mid': 1863066840, 'author': '누을NuEul', 'description': '中国的观众们，大家好，欢迎来到누을NuEul B站官方账号!\n喜欢NuEul的朋友们要记得关注哦～～', 'create': '2023-03-21 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/e4bcf61b29a2543f0ad949262b50186dad8ef6df.jpg', 'coins': 5928, 'duration': '1:36', 'badgepay': False, 'pts': 1254731, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441334955', 'bvid': 'BV1kL411r7gZ', 'typename': '绘画', 'title': '“恶魔的眼泪”', 'subtitle': '', 'play': 444013, 'review': 409, 'video_review': 119, 'favorites': 7812, 'mid': 3493257967307188, 'author': '皮诺曹的魔法画室', 'description': '当恶魔开始流泪，记住那是鳄鱼的眼泪，当它的右眼亮时，就已经晚了', 'create': '2023-03-21 20:55', 'pic': 'http://i2.hdslb.com/bfs/archive/0ac4ee4f6bd3a00b7bbbd3a9a7b351a0423d9bf4.jpg', 'coins': 931, 'duration': '0:12', 'badgepay': False, 'pts': 890234, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483991119', 'bvid': 'BV1TT411z7FZ', 'typename': '绘画', 'title': '百福图×鲤鱼跃龙门', 'subtitle': '', 'play': 403163, 'review': 485, 'video_review': 2491, 'favorites': 6413, 'mid': 519959093, 'author': '彼得潘的理想', 'description': '中国传统百福文字×鲤鱼跃龙门', 'create': '2023-03-22 11:04', 'pic': 'http://i2.hdslb.com/bfs/archive/837494eb52bb44b7217f2cdc6d8cbc6b564a01d1.jpg', 'coins': 3608, 'duration': '1:39', 'badgepay': False, 'pts': 880539, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353927983', 'bvid': 'BV1YX4y1d7kC', 'typename': '绘画', 'title': '【Procreate】绘画过程，看完后手必然就会了', 'subtitle': '', 'play': 223274, 'review': 250, 'video_review': 94, 'favorites': 18107, 'mid': 9257384, 'author': '-NaJaNoiR-', 'description': '记录过程\nBGM：モディファイ-Doctrine Doctrine', 'create': '2023-03-22 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/cbab9d829afdc1fa8379b736fdff9f47459c6bba.jpg', 'coins': 1694, 'duration': '0:25', 'badgepay': False, 'pts': 840552, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738768255', 'bvid': 'BV1Jk4y1t7Gs', 'typename': '绘画', 'title': '随便漫不经心乱画居然能画成这样...跟我一起自学逆天画技吧！', 'subtitle': '', 'play': 309497, 'review': 491, 'video_review': 58, 'favorites': 11253, 'mid': 1763064194, 'author': 'boku漫画教学', 'description': '', 'create': '2023-03-21 18:12', 'pic': 'http://i1.hdslb.com/bfs/archive/8f26e53bbe44caa6f565fcd456dfb6e384b5b383.jpg', 'coins': 818, 'duration': '0:14', 'badgepay': False, 'pts': 834121, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>13518334</v>
+        <v>5919170</v>
       </c>
       <c r="I74" t="n">
-        <v>326029</v>
+        <v>83501</v>
       </c>
       <c r="J74" t="n">
-        <v>188719</v>
+        <v>205588</v>
       </c>
       <c r="K74" t="n">
-        <v>29702</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>美食侦探</t>
+          <t>日常</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>detective</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>寻找美味餐厅，发现街头美食</t>
+          <t>记录日常生活，分享生活故事</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>/v/food/detective(opens new window)</t>
+          <t>/v/life/daily</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>美食(主分区)</t>
+          <t>生活</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[{'aid': '396442847', 'bvid': 'BV17o4y1s7SS', 'typename': '美食侦探', 'title': '欢迎收看我的武汉3天18顿（不踩雷版）🤤', 'subtitle': '', 'play': 3073205, 'review': 3585, 'video_review': 501, 'favorites': 61279, 'mid': 412410944, 'author': '一颗汤圆崽崽', 'description': '-', 'create': '2023-03-22 21:09', 'pic': 'http://i0.hdslb.com/bfs/archive/3b17852f0a0435e5a3cd10b20a835788a73db28a.jpg', 'coins': 5308, 'duration': '0:35', 'badgepay': False, 'pts': 4493936, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611590148', 'bvid': 'BV1k84y1u7Be', 'typename': '美食侦探', 'title': '胖富豪带女同事在东北夜店花四位数找刺激，场面真是太狂野了！【还愿挑战ep20-夜未央disco】', 'subtitle': '', 'play': 1531408, 'review': 4055, 'video_review': 13697, 'favorites': 19171, 'mid': 452606628, 'author': '王师傅和小毛毛', 'description': '10w赞放出导演剪辑版（长达1小时！）\n20w赞立刻去下一家夜店！', 'create': '2023-03-25 11:05', 'pic': 'http://i1.hdslb.com/bfs/archive/4603de6dd144bcffdf7cbadd18f3d15c139273f0.jpg', 'coins': 114891, 'duration': '12:47', 'badgepay': False, 'pts': 2652054, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483811092', 'bvid': 'BV1kT41167Be', 'typename': '美食侦探', 'title': '战绩:一人1272元！今年必胜客自助又来啦！践行光盘行动！', 'subtitle': '', 'play': 2333344, 'review': 3719, 'video_review': 7522, 'favorites': 5387, 'mid': 8263502, 'author': '橙飞一下', 'description': '不要在意回不回本，吃开心最重要！\n\n推荐：甜品，几种虾类，麻辣小龙虾（提前说不要通心粉），比萨虽然不值钱，味道也还不错。\n\n关于新品，\n惠灵顿牛排，中规中矩，不惊艳，作为体验还可以，限量一份，好不好就那样。\n\n麻酱意面，有点像热干面？\n飘香鸡块，大块鸡米花，很多街头炸鸡店的常见品。\n松板肉披萨，肉弹性不错，咸香微甜，搭配有点怪，整体味道可以。\n\n不推荐：鱿鱼圈，\n牛排别点多了，各尝一份足以。\n\n必胜客平时经常搞优惠活动，不建议赶着自助去吃。', 'create': '2023-03-20 20:59', 'pic': 'http://i0.hdslb.com/bfs/archive/b0b21d7fb63a4c9962498032a37232d5bf17f812.jpg', 'coins': 23015, 'duration': '15:40', 'badgepay': False, 'pts': 2440806, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353998350', 'bvid': 'BV1RX4y1d7c6', 'typename': '美食侦探', 'title': '必胜客168自助,妹子一人来吃血赚还是血亏?', 'subtitle': '', 'play': 1575978, 'review': 1914, 'video_review': 3820, 'favorites': 4439, 'mid': 6087825, 'author': '小紧张的虫虫', 'description': '虽迟必到~\n(怎么还涨价了!?)', 'create': '2023-03-23 16:55', 'pic': 'http://i2.hdslb.com/bfs/archive/7c49f55ed5bc06fc8e139297270e7ed6e81fad20.jpg', 'coins': 12804, 'duration': '7:42', 'badgepay': False, 'pts': 1943779, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311534173', 'bvid': 'BV1hN411K7fq', 'typename': '美食侦探', 'title': '凌晨出门寻觅！好吃痛哭流涕！', 'subtitle': '', 'play': 938514, 'review': 2435, 'video_review': 10553, 'favorites': 18085, 'mid': 446430908, 'author': '小傲想睡觉', 'description': '美食区一鸽，前来觐见！\n感谢关注！感谢点赞、投币、收藏、转发！', 'create': '2023-03-26 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/39117a75c6eb90874ebe39183e9f758f8160a8c2.jpg', 'coins': 40286, 'duration': '10:30', 'badgepay': False, 'pts': 1899921, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908758790', 'bvid': 'BV14M4y167ta', 'typename': '美食侦探', 'title': '我把中国辣条，投屏到纽约时代广场大屏幕上！！美国人会什么反应？', 'subtitle': '', 'play': 1383267, 'review': 1308, 'video_review': 2232, 'favorites': 10840, 'mid': 447317111, 'author': 'Meetfood觅食', 'description': '今天我们把中国的辣条，投屏到了纽约时代广场大屏幕上！ 美国人能不能吃习惯我们中国零食？ 看看以JoeJoe的口才，一包辣条，能从美国人口袋里换到什么值钱的东西！！', 'create': '2023-03-21 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/481041eb9e086b2eae9b32cbe7384e802ea96a0f.jpg', 'coins': 12306, 'duration': '5:15', 'badgepay': False, 'pts': 1796990, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781564345', 'bvid': 'BV1n24y177Gw', 'typename': '美食侦探', 'title': '害怕！神秘人邀请我来中缅边境，这火烧猪真的不是诱饵吗', 'subtitle': '', 'play': 749437, 'review': 955, 'video_review': 5431, 'favorites': 9010, 'mid': 39627524, 'author': '食贫道', 'description': '吃完这顿饭，心里反而更踏实了', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/4b4112fede11bb8ac8fdadb3705668fb0d9ad441.jpg', 'coins': 41581, 'duration': '18:16', 'badgepay': False, 'pts': 1451520, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823867847', 'bvid': 'BV1mg4y1x7n9', 'typename': '美食侦探', 'title': '北京.新荣记 厨子探店¥?130', 'subtitle': '', 'play': 1000102, 'review': 967, 'video_review': 4720, 'favorites': 3195, 'mid': 544336675, 'author': '真探唐仁杰', 'description': '为了你们，老唐今天杀了个回马枪', 'create': '2023-03-22 11:30', 'pic': 'http://i0.hdslb.com/bfs/archive/e34b20b84716a142341c3e447feee2160f2c05b9.jpg', 'coins': 4988, 'duration': '4:25', 'badgepay': False, 'pts': 1449597, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439026931', 'bvid': 'BV1PL411R7dq', 'typename': '美食侦探', 'title': '警花第一次体验吃生腌海鲜，点了满满一大桌，越吃越上头', 'subtitle': '', 'play': 820473, 'review': 1458, 'video_review': 2165, 'favorites': 4580, 'mid': 476704454, 'author': '小文哥吃吃吃', 'description': '本期视频点赞过10w\n咱就兑现承诺去\n你们想看吗？\n那就赞起来吧', 'create': '2023-03-25 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/5a2cc6fb7afc961158da32702ca512e774312d57.jpg', 'coins': 18839, 'duration': '8:08', 'badgepay': False, 'pts': 1410225, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738777440', 'bvid': 'BV13k4y1t7ix', 'typename': '美食侦探', 'title': '一年家庭开销300万，杭州普通富豪生活。家宴系列', 'subtitle': '', 'play': 838096, 'review': 1821, 'video_review': 1788, 'favorites': 5758, 'mid': 3493142709930262, 'author': 'bili_28441584531', 'description': '', 'create': '2023-03-21 19:30', 'pic': 'http://i2.hdslb.com/bfs/archive/186ed0e09fb8cff2b2ced69b38d281aa8c309c70.jpg', 'coins': 682, 'duration': '6:12', 'badgepay': False, 'pts': 1313051, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '269017885', 'bvid': 'BV1Pc411L7Zh', 'typename': '日常', 'title': '现在小龙虾团购如此之便宜，便宜到你看完还想再吃吗？一分价钱一分货，便宜真的没好货！', 'subtitle': '', 'play': 4418214, 'review': 7113, 'video_review': 3042, 'favorites': 19917, 'mid': 85754245, 'author': 'superB太', 'description': '-', 'create': '2023-03-24 20:59', 'pic': 'http://i0.hdslb.com/bfs/archive/44a7351fa26a188e6ecd080d5d5f421a2f2ded55.jpg', 'coins': 60254, 'duration': '3:49', 'badgepay': False, 'pts': 4225655, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483823380', 'bvid': 'BV1oT41167wW', 'typename': '日常', 'title': '给初音未来买内裤还是很害羞的：选择跟虚拟偶像结婚的日本男人(中日双语)(23/03/17)', 'subtitle': '', 'play': 1350652, 'review': 7105, 'video_review': 4652, 'favorites': 14378, 'mid': 6697975, 'author': 'MOJi辞書', 'description': 'https://youtu.be/dDBg1AR4kbM\n听日语新闻，学时事表达！更多NHK新闻翻译请阅览：\nhttps://mojidict.com/collection/G4kGjT2T7y?f=b', 'create': '2023-03-21 16:10', 'pic': 'http://i0.hdslb.com/bfs/archive/bf9206dcfaada4ad139a69a898833b265ecfaf6b.jpg', 'coins': 2151, 'duration': '22:04', 'badgepay': False, 'pts': 2443003, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353950990', 'bvid': 'BV1tX4y1d7fa', 'typename': '日常', 'title': '我最爱吃粗茶淡饭，哈哈哈哈哈', 'subtitle': '', 'play': 1514102, 'review': 2388, 'video_review': 1055, 'favorites': 13397, 'mid': 690748574, 'author': '朝阳冬泳怪鸽', 'description': '-', 'create': '2023-03-22 15:26', 'pic': 'http://i1.hdslb.com/bfs/archive/01afbee065170b1ca8c2e83de11819f2d249b2d6.jpg', 'coins': 171316, 'duration': '0:30', 'badgepay': False, 'pts': 2388952, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226416018', 'bvid': 'BV1jb411o7Tt', 'typename': '日常', 'title': '我离婚了，终于有勇气来和大家说了', 'subtitle': '', 'play': 1774431, 'review': 3627, 'video_review': 4872, 'favorites': 6919, 'mid': 64925986, 'author': '大佬甜er', 'description': '', 'create': '2023-03-23 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/5dfe6e4e4d261a027cd950c6a8a4e6bb9ce73210.jpg', 'coins': 12063, 'duration': '10:14', 'badgepay': False, 'pts': 2334005, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526512875', 'bvid': 'BV1UM411u7eQ', 'typename': '日常', 'title': '一个人去吃饭的路上，有棵树治好了我的孤独。', 'subtitle': '', 'play': 878363, 'review': 953, 'video_review': 503, 'favorites': 31430, 'mid': 1474965865, 'author': '少年云尘', 'description': '-', 'create': '2023-03-24 19:01', 'pic': 'http://i1.hdslb.com/bfs/archive/6220339910ece848b0604d9904c07318018a719d.jpg', 'coins': 9086, 'duration': '0:55', 'badgepay': False, 'pts': 2138822, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611373393', 'bvid': 'BV1T84y137jK', 'typename': '日常', 'title': '这期VLOG我拍了十年|200张照片回顾一个爱折腾女生的十年|念念不忘必有回响~', 'subtitle': '', 'play': 1171292, 'review': 2037, 'video_review': 1503, 'favorites': 19069, 'mid': 350632501, 'author': '在下小苏', 'description': '翻完了硬盘里的几千张照片，终于整理好了“我的十年”。2011-2023，也算是给自己过去十年的一个总结和交代~\n十年前我不知道现在的生活会是怎样，但我努力让自己活得精彩。\n现在的我依然不知道未来十年会发生什么，但我会继续勇敢闯下去。\n念念不忘，必有回响\n今天正好是春分，想到陈道明老师在@特仑苏官方账号   的TVC里说的一句话“每一个让你心中的希望开始萌芽，相信一切会更好的日子，都是春天”， 趁着春光正好~一起加油吧！\n完整版TVC https://b23.tv/m9wT9q6', 'create': '2023-03-21 12:11', 'pic': 'http://i0.hdslb.com/bfs/archive/435c64b7faf4abdb9b6fc5d1b86cb909931784e8.jpg', 'coins': 23343, 'duration': '9:48', 'badgepay': False, 'pts': 2008607, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441439444', 'bvid': 'BV1NL411k762', 'typename': '日常', 'title': '【看大船】皇家最大游轮海洋奇迹号，在帅哥的眼中和他的笑容一样迷人', 'subtitle': '', 'play': 917855, 'review': 1512, 'video_review': 408, 'favorites': 15904, 'mid': 1928753206, 'author': '皇家加勒比游轮', 'description': '海洋奇迹号是皇家加勒比游轮在运营的最大最新的游轮，她当时可是为中国市场量身定制的豪华巨轮，相信未来中国游客一定会和她见面的。', 'create': '2023-03-22 21:12', 'pic': 'http://i2.hdslb.com/bfs/archive/774de57bb35a064c464244f9e55871ca15ae4e1a.jpg', 'coins': 822, 'duration': '0:19', 'badgepay': False, 'pts': 1848493, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654064945', 'bvid': 'BV1FY4y1S7p5', 'typename': '日常', 'title': '一百三十五万粉感谢！！！', 'subtitle': '', 'play': 1039949, 'review': 2549, 'video_review': 3580, 'favorites': 6514, 'mid': 424658638, 'author': '四夕小田木_已黑化_', 'description': '-', 'create': '2023-03-24 20:47', 'pic': 'http://i1.hdslb.com/bfs/archive/902cc5babdb481c8278324a1cbee38230f58643e.jpg', 'coins': 24404, 'duration': '10:43', 'badgepay': False, 'pts': 1772136, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866614748', 'bvid': 'BV19V4y1X737', 'typename': '日常', 'title': '长大后才发现，我有一个如此“低俗“的童年……', 'subtitle': '', 'play': 938601, 'review': 2393, 'video_review': 2813, 'favorites': 10759, 'mid': 130636947, 'author': '塑料叉FOKU', 'description': '跟大家唠唠，小时候在大马路上观察到的一些怪事儿……', 'create': '2023-03-24 11:06', 'pic': 'http://i2.hdslb.com/bfs/archive/a46e3825fe31c9f7b42c49440478e169422420f8.jpg', 'coins': 16098, 'duration': '7:20', 'badgepay': False, 'pts': 1762196, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568752805', 'bvid': 'BV19v4y1L75C', 'typename': '日常', 'title': '“脑瘫博士”高考只有262分，每科只做选择题，仅靠旁听学到博士阶段', 'subtitle': '', 'play': 949908, 'review': 945, 'video_review': 266, 'favorites': 15521, 'mid': 41401619, 'author': '_屁屁鲨', 'description': 'bgm：something just like this', 'create': '2023-03-21 17:28', 'pic': 'http://i2.hdslb.com/bfs/archive/e01c1c43d2e52a2c59c722170e06b7707e311d9f.jpg', 'coins': 6673, 'duration': '1:16', 'badgepay': False, 'pts': 1587067, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>14243824</v>
+        <v>14953367</v>
       </c>
       <c r="I75" t="n">
-        <v>274700</v>
+        <v>326210</v>
       </c>
       <c r="J75" t="n">
-        <v>141744</v>
+        <v>153808</v>
       </c>
       <c r="K75" t="n">
-        <v>11690</v>
+        <v>317217</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>美食测评</t>
+          <t>美食制作</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>make</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>吃货世界，品尝世间美味</t>
+          <t>学做人间美味，展示精湛厨艺</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>/v/food/measurement(opens new window)</t>
+          <t>/v/food/make(opens new window)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>美食(主分区)</t>
+          <t>美食</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[{'aid': '568923299', 'bvid': 'BV1Lv4y157xw', 'typename': '美食测评', 'title': '我终于理解为什么有人不喜欢吃早餐了！', 'subtitle': '', 'play': 1918430, 'review': 1504, 'video_review': 4172, 'favorites': 8493, 'mid': 3493077696121618, 'author': '张圣叹Yo', 'description': '-', 'create': '2023-03-23 21:33', 'pic': 'http://i2.hdslb.com/bfs/archive/17358b0905d856a227842a0271f6a15211e90c8e.jpg', 'coins': 14028, 'duration': '3:32', 'badgepay': False, 'pts': 2285263, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268805638', 'bvid': 'BV1Sc411j7Qf', 'typename': '美食测评', 'title': '代购花了300元！试吃“黄油与面包”究竟值不值？？？', 'subtitle': '', 'play': 785411, 'review': 1087, 'video_review': 2853, 'favorites': 2745, 'mid': 478691043, 'author': '穿毛裤的小拉泽', 'description': '本期无广！很多粉丝要求我测一下这个牌子，我们当地没卖的，专门找人代购买来的，没想到代购费加了那么多钱！当然，抛开那么贵的代购，就算在店里直接买，价格也不便宜，个人感觉整体吃着一般吧~没有想象中味道那么惊艳，好像噱头更大一些,据说天天排队爆满，大家还是理性消费吧。本期无广！神之舌真实测评分享，口味仅代表我个人，仅供大家参考！如果你们觉得本期有用，大佬们可以三连下吗？ 注：封神榜&gt;名士榜&gt;凡人榜&gt;妖魔榜', 'create': '2023-03-20 17:10', 'pic': 'http://i1.hdslb.com/bfs/archive/9803da84ff378c0c9cbf320e5d88d0068c746f26.jpg', 'coins': 8569, 'duration': '7:05', 'badgepay': False, 'pts': 1088230, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653905663', 'bvid': 'BV1kY4y1D7ch', 'typename': '美食测评', 'title': '必胜客自助限时回归，又涨价了？168能吃回本吗？', 'subtitle': '', 'play': 385935, 'review': 519, 'video_review': 1372, 'favorites': 4294, 'mid': 491593210, 'author': '姬一元', 'description': '', 'create': '2023-03-22 17:04', 'pic': 'http://i2.hdslb.com/bfs/archive/a3ab134f213dd392d62727c812f0ce6914cb5c1e.jpg', 'coins': 9108, 'duration': '6:15', 'badgepay': False, 'pts': 773219, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353972851', 'bvid': 'BV1mX4y1d7FS', 'typename': '美食测评', 'title': '真的不值！大牌连锁预制菜大赏！', 'subtitle': '', 'play': 506687, 'review': 648, 'video_review': 1221, 'favorites': 1378, 'mid': 42870908, 'author': '网不红萌叔Joey', 'description': '预制菜越来越火了，大牌连锁店也出了不少，价格和口味都如何呢？冬菇鸡腿肉、招牌卤肉饭、羊蝎子锅…味道还行，但比起不便宜的价格，目前感觉还是比较一般，总体感觉不是很值，来看看有没有你喜欢吃的吧！', 'create': '2023-03-22 18:18', 'pic': 'http://i2.hdslb.com/bfs/archive/a713aa7336379a44fb821411e42332d8a8fd088a.jpg', 'coins': 1469, 'duration': '10:58', 'badgepay': False, 'pts': 505800, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823877178', 'bvid': 'BV1zg4y1x7XJ', 'typename': '美食测评', 'title': '湖南美食真的好生猛！！', 'subtitle': '', 'play': 524066, 'review': 681, 'video_review': 237, 'favorites': 2902, 'mid': 1242667524, 'author': 'p老板打工记', 'description': '', 'create': '2023-03-22 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/d93f50e3cbdc1598625f3f3c3e9d0e23da20eb7b.jpg', 'coins': 519, 'duration': '1:56', 'badgepay': False, 'pts': 501754, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269039892', 'bvid': 'BV1nc411L7wi', 'typename': '美食测评', 'title': '鉴定网络热门旺旺视频第五期！', 'subtitle': '', 'play': 519572, 'review': 261, 'video_review': 227, 'favorites': 3870, 'mid': 332632721, 'author': '旺旺旺仔俱乐部', 'description': '-', 'create': '2023-03-24 17:51', 'pic': 'http://i0.hdslb.com/bfs/archive/13a9baa2ef373a762190bfd053b003a1f9933091.jpg', 'coins': 120, 'duration': '1:00', 'badgepay': False, 'pts': 486550, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994084067', 'bvid': 'BV1vs4y1S7pn', 'typename': '美食测评', 'title': '无广！历时28天硬核总结全网“免煮减脂早餐”第二弹！低至1元！ 好吃低卡，干饭潇洒！全员平价！十级能打！', 'subtitle': '', 'play': 170023, 'review': 296, 'video_review': 1909, 'favorites': 6575, 'mid': 382759805, 'author': '林画同学', 'description': '视频绝无任何广告！无广！无广！无广！\n都是自费购买试吃测评后精选出来的，视频里大家有喜欢的记得理性种草！\n点赞过3万，更新“低脂早餐之神”第三弹！感谢感谢！\n还有大家每天都要认真吃早餐哦！', 'create': '2023-03-24 18:16', 'pic': 'http://i1.hdslb.com/bfs/archive/3f4c3113b6bb313f9b8b44d19a20bdc8e8c73b62.jpg', 'coins': 6688, 'duration': '8:31', 'badgepay': False, 'pts': 481895, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653857773', 'bvid': 'BV1zY4y1D7Hn', 'typename': '美食测评', 'title': '厦门沙坡尾猪游，人家说甜品买不到我偏要｜Vlog My Mouth', 'subtitle': '', 'play': 211217, 'review': 165, 'video_review': 316, 'favorites': 2695, 'mid': 490913917, 'author': '大表哥995猪猪精', 'description': '-', 'create': '2023-03-22 21:00', 'pic': 'http://i1.hdslb.com/bfs/archive/73bd316aee3b0a058648c8dcc8736464ac370bc6.jpg', 'coins': 558, 'duration': '3:50', 'badgepay': False, 'pts': 422476, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441551960', 'bvid': 'BV1XL411D7ja', 'typename': '美食测评', 'title': '骑行路遇山寨版肯德基麦当劳，吃螺蛳粉汉堡鸡翅，喷射了', 'subtitle': '', 'play': 300959, 'review': 494, 'video_review': 879, 'favorites': 907, 'mid': 272654283, 'author': '咸鱼梦想家vlog', 'description': '-', 'create': '2023-03-24 18:59', 'pic': 'http://i2.hdslb.com/bfs/archive/d6e3611bb74be1d85b879a22f5eed80f0030126e.jpg', 'coins': 1289, 'duration': '5:49', 'badgepay': False, 'pts': 381995, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226397064', 'bvid': 'BV1Jb411o7q6', 'typename': '美食测评', 'title': '带货博主卖的水果靠谱嘛？', 'subtitle': '', 'play': 1442203, 'review': 120, 'video_review': 243, 'favorites': 12136, 'mid': 588148296, 'author': '郭小嚜', 'description': '-', 'create': '2023-03-23 07:32', 'pic': 'http://i2.hdslb.com/bfs/archive/06355ab404a6d57b6209ada44b820cc3c065b2d6.jpg', 'coins': 492, 'duration': '5:56', 'badgepay': False, 'pts': 367125, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '696316840', 'bvid': 'BV19m4y1r7TV', 'typename': '美食制作', 'title': '《 豚 骨 拉 面 全 套 配 方 》', 'subtitle': '', 'play': 1279240, 'review': 1812, 'video_review': 3080, 'favorites': 53469, 'mid': 270105105, 'author': '赖皮猴爱美食', 'description': '本期作品共耗时三个星期的时间，求15万个赞，谢谢大家！希望我的作品对您有所启发，有需要的小伙伴点一个收藏，也可以转发给身边的朋友，让大家少走弯路', 'create': '2023-03-20 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/d125a2f3c7cad7ee3f0ad8f498fd236dc9c4327f.jpg', 'coins': 91369, 'duration': '13:20', 'badgepay': False, 'pts': 2737794, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311285382', 'bvid': 'BV1cP411o7KN', 'typename': '美食制作', 'title': '史上最扎实的棒棒糖吃法！5元一根，一口气能炫一打……', 'subtitle': '', 'play': 2189230, 'review': 927, 'video_review': 1694, 'favorites': 28900, 'mid': 29329085, 'author': '二喵的饭', 'description': '所以……猜猜我的冰箱里现在囤了几斤肉(￣□￣；)', 'create': '2023-03-20 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6425cc7bd605ed0df583c4ba5ff23f784778a7ea.jpg', 'coins': 40347, 'duration': '4:13', 'badgepay': False, 'pts': 2737329, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739018882', 'bvid': 'BV1Rk4y1x7Vt', 'typename': '美食制作', 'title': '花3天做一碗面，居然只能卖10来块钱？', 'subtitle': '', 'play': 1895803, 'review': 2190, 'video_review': 11377, 'favorites': 22489, 'mid': 18202105, 'author': '绵羊料理', 'description': '日更微博：绵羊料理 \n微信公众号：绵羊料理', 'create': '2023-03-24 18:14', 'pic': 'http://i0.hdslb.com/bfs/archive/d85c208ccd0132f1cabd008f1706d79bfd54683f.jpg', 'coins': 93749, 'duration': '7:31', 'badgepay': False, 'pts': 2717369, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994075057', 'bvid': 'BV1ps4y1S7iP', 'typename': '美食制作', 'title': '真的有人吃这玩意吗？？？', 'subtitle': '', 'play': 1852985, 'review': 925, 'video_review': 1988, 'favorites': 11496, 'mid': 1420982, 'author': '黑猫厨房', 'description': '下期做什么捏 让我在评论区抓一只幸运水母', 'create': '2023-03-24 17:06', 'pic': 'http://i0.hdslb.com/bfs/archive/6ce0e8e4ae94cd5ab0ded377b60e7f6b491e3efe.jpg', 'coins': 35537, 'duration': '6:03', 'badgepay': False, 'pts': 2372592, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484121099', 'bvid': 'BV1mT411z77h', 'typename': '美食制作', 'title': '10只龙虾熬一颗糖果 吃一口有多神奇？', 'subtitle': '', 'play': 1368449, 'review': 877, 'video_review': 1366, 'favorites': 8229, 'mid': 473524263, 'author': '澳洲阿彭', 'description': '这期复刻的是Alinea的龙虾菠萝糖纸，之前复刻过的那颗变声气球也是他们家的。这道菜最神奇的地方就是菠萝的风味被浓缩后用一张纸来呈现；经过处理后的龙虾不会有一丝海腥气，而是甜味。 希望大家喜欢。', 'create': '2023-03-25 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/7bf5652acd4496c59a5975f8c32faa042c394d98.jpg', 'coins': 32790, 'duration': '4:20', 'badgepay': False, 'pts': 1999765, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908979453', 'bvid': 'BV1CM4y1B7n5', 'typename': '美食制作', 'title': '肯德基：价值11元的吮指原味鸡就这样让你破解了？', 'subtitle': '', 'play': 748759, 'review': 1233, 'video_review': 1637, 'favorites': 25959, 'mid': 1754707, 'author': '柴犬老丸子', 'description': '再也不用等疯狂星期四了！\n\n★真香★\nBV1vv4y187kU 巨厚炸猪排\nBV1144y1X7Xd 十年良心秘方炸鸡\nBV1G24y1m7Wk 脆皮大鸡腿\nBV1AP4y1U77L 烀羊排\nBV1me411K7fc 龙珠\nBV1sP4y1f7B5 巧克力唱片\nBV15a411U715 做品客\nBV1XG411s7UL 做可乐\nBV1FY4y167Up 龙吟柠檬\nBV1eT4y1S72x 神之黄油\nBV1Ta411r7qT 烤生蚝\nBV1m44y1v7MU 嫩牛四方', 'create': '2023-03-22 21:03', 'pic': 'http://i2.hdslb.com/bfs/archive/a808e528b4119d388290e62e9301c8a9500d2083.jpg', 'coins': 14736, 'duration': '7:22', 'badgepay': False, 'pts': 1833234, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993906640', 'bvid': 'BV1Rx4y1w7dt', 'typename': '美食制作', 'title': '炸鸡腿儿真能做得像钢化膜那样脆吗？', 'subtitle': '', 'play': 988057, 'review': 756, 'video_review': 1356, 'favorites': 9793, 'mid': 8960728, 'author': '日食记', 'description': '微博大号@日食记\n微博小号＠姜老刀\n微信公众号：日食记\n文字菜谱见视频末尾', 'create': '2023-03-22 18:34', 'pic': 'http://i2.hdslb.com/bfs/archive/de56c157130572469cc82018010ad6a8d87a75d7.jpg', 'coins': 6604, 'duration': '4:13', 'badgepay': False, 'pts': 1645568, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441552683', 'bvid': 'BV1XL411D7az', 'typename': '美食制作', 'title': '《 绿 色 炸 鸡 》', 'subtitle': '', 'play': 959261, 'review': 1042, 'video_review': 2589, 'favorites': 3771, 'mid': 337521240, 'author': '记录生活的蛋黄派', 'description': '废物一个', 'create': '2023-03-25 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/c597242af0d615bbd5de2b5b222a21a805a4fbff.jpg', 'coins': 15384, 'duration': '6:07', 'badgepay': False, 'pts': 1521471, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483989665', 'bvid': 'BV1TT411z7un', 'typename': '美食制作', 'title': '好吃不贵的街边炸薯片，去晚了根本买不到，今儿带你看看什么叫小成本高收益！', 'subtitle': '', 'play': 712442, 'review': 708, 'video_review': 331, 'favorites': 14181, 'mid': 3493086124575141, 'author': '南哥-呀', 'description': '炸薯片', 'create': '2023-03-22 13:29', 'pic': 'http://i0.hdslb.com/bfs/archive/8807dd6c7816a326bd8af37cd51295a6550d57d6.jpg', 'coins': 1348, 'duration': '3:42', 'badgepay': False, 'pts': 1510073, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354145588', 'bvid': 'BV18X4y1o7AN', 'typename': '美食制作', 'title': '西游记里根本没有小白饼，难道我们都被骗了？', 'subtitle': '', 'play': 630635, 'review': 2124, 'video_review': 1453, 'favorites': 4314, 'mid': 258034892, 'author': '碧蝉衣', 'description': '千辛万苦，终于做出了你们想吃的小白饼', 'create': '2023-03-26 17:36', 'pic': 'http://i0.hdslb.com/bfs/archive/d413ebcb8c216c40e246b52e5bebe875aa6a5d63.jpg', 'coins': 16790, 'duration': '4:13', 'badgepay': False, 'pts': 1208906, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>6764503</v>
+        <v>12624861</v>
       </c>
       <c r="I76" t="n">
-        <v>42840</v>
+        <v>348654</v>
       </c>
       <c r="J76" t="n">
-        <v>45995</v>
+        <v>182601</v>
       </c>
       <c r="K76" t="n">
-        <v>6054</v>
+        <v>29702</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>田园美食</t>
+          <t>美食侦探</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>detective</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>品味乡野美食，寻找山与海的味道</t>
+          <t>寻找美味餐厅，发现街头美食</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>/v/food/rural(opens new window)</t>
+          <t>/v/food/detective(opens new window)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>美食(主分区)</t>
+          <t>美食</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[{'aid': '951527998', 'bvid': 'BV15s4y1H7ZH', 'typename': '田园美食', 'title': '在法国捡垃圾吃，垃圾桶里捡土鸡？做大盘鸡真香', 'subtitle': '', 'play': 819086, 'review': 2182, 'video_review': 7129, 'favorites': 3801, 'mid': 452412746, 'author': 'Yooupi食途', 'description': '在法国捡垃圾吃，垃圾桶里捡土鸡？做大盘鸡真香！\n\n在法国有一部分人依靠捡垃圾生活，他们不仅捡日常用具，更多的是捡可食用的丢弃食材。法国严格的食品安全管控，以及蔬果的品类分级，品相不够优秀的蔬果和食品会被大量丢弃。除了大型超市有能力将临期商品进行系统的处理和捐赠以外，很多小型超市或者集市只能将它们丢弃。今天Yooupi来到了法国阿尔卑斯地区，捡垃圾认识的农场大叔在这个片区标注了几个点，都可以捡到各种面包，蔬菜瓜果，甚至肉类的垃圾桶，用这些废弃的食材烹饪成大盘鸡，味道很棒！', 'create': '2023-03-25 16:47', 'pic': 'http://i2.hdslb.com/bfs/archive/42d4d22bae926045b47b2dafbbfdeb1c2053610c.jpg', 'coins': 14057, 'duration': '13:34', 'badgepay': False, 'pts': 1474203, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866337532', 'bvid': 'BV13V4y1R7tN', 'typename': '田园美食', 'title': '军鱼终于来了，去村里水库拉一网，爆网了', 'subtitle': '', 'play': 584452, 'review': 913, 'video_review': 2638, 'favorites': 1379, 'mid': 476704454, 'author': '小文哥吃吃吃', 'description': '绿水青山就是金山银山\n爱在寿山，九峰情，十分爱\n感谢支持！', 'create': '2023-03-22 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6d0fab505f3cf066a2fbbfbc569bc5c853c9da97.jpg', 'coins': 5041, 'duration': '12:08', 'badgepay': False, 'pts': 915702, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909027815', 'bvid': 'BV1uM4y1z7NK', 'typename': '田园美食', 'title': '大海退潮后，大庆赶海发现正在开花的红色海葵，好像一块石头', 'subtitle': '', 'play': 723120, 'review': 495, 'video_review': 2035, 'favorites': 1680, 'mid': 524704055, 'author': '大庆赶海', 'description': '大海退潮后，大庆赶海发现正在开花的红色海葵，好像一块石头', 'create': '2023-03-24 16:06', 'pic': 'http://i2.hdslb.com/bfs/archive/2ce134a14be85629a8fa5ed8029c721bc3a79f32.jpg', 'coins': 2370, 'duration': '6:26', 'badgepay': False, 'pts': 531277, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909116687', 'bvid': 'BV16M4y1m72p', 'typename': '田园美食', 'title': '朋友们，这个村子我是呆不下去了……', 'subtitle': '', 'play': 180721, 'review': 799, 'video_review': 2607, 'favorites': 873, 'mid': 327552140, 'author': '我是野农', 'description': '白叔下手太狠，姜还是老的辣！', 'create': '2023-03-25 17:04', 'pic': 'http://i2.hdslb.com/bfs/archive/bf018d8970401da844e649a0dd548900771720da.jpg', 'coins': 10740, 'duration': '8:36', 'badgepay': False, 'pts': 378474, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354103814', 'bvid': 'BV14X4y1o7fi', 'typename': '田园美食', 'title': '养殖场拆迁大量螃蟹没人抓，渔夫捡漏狂抓210只青蟹，乐得合不拢嘴', 'subtitle': '', 'play': 237340, 'review': 160, 'video_review': 457, 'favorites': 271, 'mid': 391943536, 'author': '思乡渔夫', 'description': '养殖场拆迁大量螃蟹没人抓，渔夫捡漏狂抓210只青蟹，乐得合不拢嘴', 'create': '2023-03-25 18:08', 'pic': 'http://i2.hdslb.com/bfs/archive/8bba1c41e18572dbaa963222e01bd0379d9a2c59.jpg', 'coins': 3159, 'duration': '11:33', 'badgepay': False, 'pts': 343754, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653819454', 'bvid': 'BV1LY4y1D78U', 'typename': '田园美食', 'title': '上鱼', 'subtitle': '', 'play': 1782523, 'review': 932, 'video_review': 200, 'favorites': 2252, 'mid': 2123429433, 'author': '野生冷水鱼', 'description': '-', 'create': '2023-03-21 02:48', 'pic': 'http://i1.hdslb.com/bfs/archive/14f21059add881924972905b30cfa9630028e7cd.jpg', 'coins': 341, 'duration': '0:16', 'badgepay': False, 'pts': 324435, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353700597', 'bvid': 'BV1AX4y1Z7Bj', 'typename': '田园美食', 'title': '“曼谷夜市之王”火山排骨，在家就能复刻！鲜香酸辣，异灵术边吃边流口水～', 'subtitle': '', 'play': 159526, 'review': 394, 'video_review': 927, 'favorites': 1714, 'mid': 1137066730, 'author': '牢头养猪记', 'description': '小戴内心OS：谁会吃饱了在家搭这个玩意儿呢？', 'create': '2023-03-20 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/ee0f2e8f2ee2903ee7929850b6e5bc392debe698.jpg', 'coins': 13688, 'duration': '11:05', 'badgepay': False, 'pts': 282637, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396321784', 'bvid': 'BV1fo4y1q73D', 'typename': '田园美食', 'title': '闲来无事搞个鸭子两吃，香辣酥脆安逸得很', 'subtitle': '', 'play': 423001, 'review': 298, 'video_review': 669, 'favorites': 753, 'mid': 1529656577, 'author': '孤独美食咖', 'description': '闲来无事搞个鸭子两吃，香辣酥脆安逸得很', 'create': '2023-03-22 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0af6cfdcbf9266e26d28145be4e821e12cc83667.jpg', 'coins': 1172, 'duration': '2:47', 'badgepay': False, 'pts': 237226, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568750910', 'bvid': 'BV19v4y1L7ZV', 'typename': '田园美食', 'title': '1120买条11斤花龙王，凶猛异常宰杀差点被咬手，焖羊肚菌太好吃了', 'subtitle': '', 'play': 510894, 'review': 360, 'video_review': 663, 'favorites': 468, 'mid': 520754513, 'author': '阿胖山', 'description': '1120买条11斤花龙王，凶猛异常宰杀差点被咬手，焖羊肚菌太好吃了', 'create': '2023-03-21 20:39', 'pic': 'http://i1.hdslb.com/bfs/archive/ea1784753f479df6ac93f7f81adbbde8fc12f37d.jpg', 'coins': 1205, 'duration': '5:31', 'badgepay': False, 'pts': 204528, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353822320', 'bvid': 'BV1hX4y1Z71y', 'typename': '田园美食', 'title': '你一定没有吃过的水果炒鸡……', 'subtitle': '', 'play': 111401, 'review': 270, 'video_review': 290, 'favorites': 874, 'mid': 3493141191592012, 'author': '叫我阿霞', 'description': '你一定没有吃过的水果炒鸡……', 'create': '2023-03-21 20:20', 'pic': 'http://i0.hdslb.com/bfs/archive/52c94a26ff8c1255ba2f4e318d1d8cbfecdbefdb.jpg', 'coins': 620, 'duration': '3:48', 'badgepay': False, 'pts': 195356, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '396442847', 'bvid': 'BV17o4y1s7SS', 'typename': '美食侦探', 'title': '欢迎收看我的武汉3天18顿（不踩雷版）🤤', 'subtitle': '', 'play': 3097039, 'review': 3629, 'video_review': 506, 'favorites': 61804, 'mid': 412410944, 'author': '一颗汤圆崽崽', 'description': '-', 'create': '2023-03-22 21:09', 'pic': 'http://i0.hdslb.com/bfs/archive/3b17852f0a0435e5a3cd10b20a835788a73db28a.jpg', 'coins': 5371, 'duration': '0:35', 'badgepay': False, 'pts': 4518728, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611590148', 'bvid': 'BV1k84y1u7Be', 'typename': '美食侦探', 'title': '胖富豪带女同事在东北夜店花四位数找刺激，场面真是太狂野了！【还愿挑战ep20-夜未央disco】', 'subtitle': '', 'play': 1610713, 'review': 4183, 'video_review': 14250, 'favorites': 19857, 'mid': 452606628, 'author': '王师傅和小毛毛', 'description': '10w赞放出导演剪辑版（长达1小时！）\n20w赞立刻去下一家夜店！', 'create': '2023-03-25 11:05', 'pic': 'http://i1.hdslb.com/bfs/archive/4603de6dd144bcffdf7cbadd18f3d15c139273f0.jpg', 'coins': 118959, 'duration': '12:47', 'badgepay': False, 'pts': 2735548, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483811092', 'bvid': 'BV1kT41167Be', 'typename': '美食侦探', 'title': '战绩:一人1272元！今年必胜客自助又来啦！践行光盘行动！', 'subtitle': '', 'play': 2342344, 'review': 3724, 'video_review': 7541, 'favorites': 5405, 'mid': 8263502, 'author': '橙飞一下', 'description': '不要在意回不回本，吃开心最重要！\n\n推荐：甜品，几种虾类，麻辣小龙虾（提前说不要通心粉），比萨虽然不值钱，味道也还不错。\n\n关于新品，\n惠灵顿牛排，中规中矩，不惊艳，作为体验还可以，限量一份，好不好就那样。\n\n麻酱意面，有点像热干面？\n飘香鸡块，大块鸡米花，很多街头炸鸡店的常见品。\n松板肉披萨，肉弹性不错，咸香微甜，搭配有点怪，整体味道可以。\n\n不推荐：鱿鱼圈，\n牛排别点多了，各尝一份足以。\n\n必胜客平时经常搞优惠活动，不建议赶着自助去吃。', 'create': '2023-03-20 20:59', 'pic': 'http://i0.hdslb.com/bfs/archive/b0b21d7fb63a4c9962498032a37232d5bf17f812.jpg', 'coins': 23097, 'duration': '15:40', 'badgepay': False, 'pts': 2445239, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311534173', 'bvid': 'BV1hN411K7fq', 'typename': '美食侦探', 'title': '凌晨出门寻觅！好吃痛哭流涕！', 'subtitle': '', 'play': 1020286, 'review': 2513, 'video_review': 10867, 'favorites': 18951, 'mid': 446430908, 'author': '小傲想睡觉', 'description': '美食区一鸽，前来觐见！\n感谢关注！感谢点赞、投币、收藏、转发！', 'create': '2023-03-26 12:00', 'pic': 'http://i2.hdslb.com/bfs/archive/39117a75c6eb90874ebe39183e9f758f8160a8c2.jpg', 'coins': 42614, 'duration': '10:30', 'badgepay': False, 'pts': 2010205, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353998350', 'bvid': 'BV1RX4y1d7c6', 'typename': '美食侦探', 'title': '必胜客168自助,妹子一人来吃血赚还是血亏?', 'subtitle': '', 'play': 1597291, 'review': 1935, 'video_review': 3848, 'favorites': 4477, 'mid': 6087825, 'author': '小紧张的虫虫', 'description': '虽迟必到~\n(怎么还涨价了!?)', 'create': '2023-03-23 16:55', 'pic': 'http://i2.hdslb.com/bfs/archive/7c49f55ed5bc06fc8e139297270e7ed6e81fad20.jpg', 'coins': 12936, 'duration': '7:42', 'badgepay': False, 'pts': 1955214, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908758790', 'bvid': 'BV14M4y167ta', 'typename': '美食侦探', 'title': '我把中国辣条，投屏到纽约时代广场大屏幕上！！美国人会什么反应？', 'subtitle': '', 'play': 1389508, 'review': 1314, 'video_review': 2233, 'favorites': 10923, 'mid': 447317111, 'author': 'Meetfood觅食', 'description': '今天我们把中国的辣条，投屏到了纽约时代广场大屏幕上！ 美国人能不能吃习惯我们中国零食？ 看看以JoeJoe的口才，一包辣条，能从美国人口袋里换到什么值钱的东西！！', 'create': '2023-03-21 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/481041eb9e086b2eae9b32cbe7384e802ea96a0f.jpg', 'coins': 12377, 'duration': '5:15', 'badgepay': False, 'pts': 1803426, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781564345', 'bvid': 'BV1n24y177Gw', 'typename': '美食侦探', 'title': '害怕！神秘人邀请我来中缅边境，这火烧猪真的不是诱饵吗', 'subtitle': '', 'play': 774177, 'review': 985, 'video_review': 5564, 'favorites': 9196, 'mid': 39627524, 'author': '食贫道', 'description': '吃完这顿饭，心里反而更踏实了', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/4b4112fede11bb8ac8fdadb3705668fb0d9ad441.jpg', 'coins': 42745, 'duration': '18:16', 'badgepay': False, 'pts': 1487106, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439026931', 'bvid': 'BV1PL411R7dq', 'typename': '美食侦探', 'title': '警花第一次体验吃生腌海鲜，点了满满一大桌，越吃越上头', 'subtitle': '', 'play': 866129, 'review': 1510, 'video_review': 2260, 'favorites': 4787, 'mid': 476704454, 'author': '小文哥吃吃吃', 'description': '本期视频点赞过10w\n咱就兑现承诺去\n你们想看吗？\n那就赞起来吧', 'create': '2023-03-25 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/5a2cc6fb7afc961158da32702ca512e774312d57.jpg', 'coins': 19952, 'duration': '8:08', 'badgepay': False, 'pts': 1472866, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823867847', 'bvid': 'BV1mg4y1x7n9', 'typename': '美食侦探', 'title': '北京.新荣记 厨子探店¥?130', 'subtitle': '', 'play': 1007142, 'review': 968, 'video_review': 4742, 'favorites': 3206, 'mid': 544336675, 'author': '真探唐仁杰', 'description': '为了你们，老唐今天杀了个回马枪', 'create': '2023-03-22 11:30', 'pic': 'http://i0.hdslb.com/bfs/archive/e34b20b84716a142341c3e447feee2160f2c05b9.jpg', 'coins': 5007, 'duration': '4:25', 'badgepay': False, 'pts': 1453187, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738777440', 'bvid': 'BV13k4y1t7ix', 'typename': '美食侦探', 'title': '一年家庭开销300万，杭州普通富豪生活。家宴系列', 'subtitle': '', 'play': 843855, 'review': 1834, 'video_review': 1797, 'favorites': 5808, 'mid': 3493142709930262, 'author': 'bili_28441584531', 'description': '', 'create': '2023-03-21 19:30', 'pic': 'http://i2.hdslb.com/bfs/archive/186ed0e09fb8cff2b2ced69b38d281aa8c309c70.jpg', 'coins': 689, 'duration': '6:12', 'badgepay': False, 'pts': 1319013, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>5532064</v>
+        <v>14548484</v>
       </c>
       <c r="I77" t="n">
-        <v>52393</v>
+        <v>283747</v>
       </c>
       <c r="J77" t="n">
-        <v>14065</v>
+        <v>144414</v>
       </c>
       <c r="K77" t="n">
-        <v>2275</v>
+        <v>11690</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>美食记录</t>
+          <t>美食测评</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>record</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>记录一日三餐，给生活添一点幸福感</t>
+          <t>吃货世界，品尝世间美味</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>/v/food/record</t>
+          <t>/v/food/measurement(opens new window)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>美食(主分区)</t>
+          <t>美食</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[{'aid': '226443463', 'bvid': 'BV1sb411o7Qj', 'typename': '美食记录', 'title': '公开处刑！当up主6年，我竟被母校挂出来了…', 'subtitle': '', 'play': 1795511, 'review': 3461, 'video_review': 8400, 'favorites': 11683, 'mid': 99157282, 'author': '盗月社食遇记', 'description': '久违的深夜卧室聊天，想跟大家分享一个好消息。', 'create': '2023-03-22 18:11', 'pic': 'http://i0.hdslb.com/bfs/archive/2f278b1f091db4c450384d262bc11aa2ceb47a09.jpg', 'coins': 48662, 'duration': '19:14', 'badgepay': False, 'pts': 2557240, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738800403', 'bvid': 'BV18k4y1t7sb', 'typename': '美食记录', 'title': '“回家的肉惑”', 'subtitle': '', 'play': 902703, 'review': 1499, 'video_review': 646, 'favorites': 11359, 'mid': 300764639, 'author': '潘多拉的饱嗝', 'description': 'BGM：Careless Whisper - George Michael,Wham!', 'create': '2023-03-20 22:34', 'pic': 'http://i1.hdslb.com/bfs/archive/bcb795049a7ed32728381106c31af66879e02b6b.jpg', 'coins': 2037, 'duration': '2:40', 'badgepay': False, 'pts': 1613877, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226473082', 'bvid': 'BV1Cb411o7QV', 'typename': '美食记录', 'title': '我开店了，但是被坑惨了！？', 'subtitle': '', 'play': 601144, 'review': 2180, 'video_review': 2310, 'favorites': 5807, 'mid': 17546432, 'author': '马壮实Hera', 'description': '终于迈出了这一步，虽然还是很多问题，不过就如视频所说，一切困难皆可破！', 'create': '2023-03-22 18:33', 'pic': 'http://i2.hdslb.com/bfs/archive/576e4efcd4ac2b4e961520c05018fe4014bdc348.jpg', 'coins': 18165, 'duration': '11:16', 'badgepay': False, 'pts': 1184226, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866460444', 'bvid': 'BV1EV4y1X7FW', 'typename': '美食记录', 'title': '高级超市，你好狠的心。', 'subtitle': '', 'play': 469921, 'review': 535, 'video_review': 440, 'favorites': 6013, 'mid': 2041302902, 'author': '没空忧伤的B', 'description': '', 'create': '2023-03-23 18:20', 'pic': 'http://i2.hdslb.com/bfs/archive/a3140c759dff082b90317dd6fc53a88d67a43f62.jpg', 'coins': 925, 'duration': '1:37', 'badgepay': False, 'pts': 923449, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951543646', 'bvid': 'BV1gs4y1H747', 'typename': '美食记录', 'title': '老爸又住院了，胖龙忙坏了，中午吃个宽粉配兔腿，下午继续忙', 'subtitle': '', 'play': 444557, 'review': 915, 'video_review': 834, 'favorites': 1154, 'mid': 649661652, 'author': '胖龙的小生活', 'description': '老爸又住院了，胖龙忙坏了，中午吃个宽粉配兔腿，下午继续忙', 'create': '2023-03-24 17:40', 'pic': 'http://i2.hdslb.com/bfs/archive/76b88355729e7aa898421031841ab65c7176485f.jpg', 'coins': 14127, 'duration': '4:28', 'badgepay': False, 'pts': 776225, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908791656', 'bvid': 'BV1qM4y16732', 'typename': '美食记录', 'title': '简单做碗五花肉泡菜拌饭！好吃哭！配自制的酸辣无骨鸡爪，嘎嘣脆', 'subtitle': '', 'play': 441761, 'review': 398, 'video_review': 1072, 'favorites': 4017, 'mid': 392336778, 'author': '了in林', 'description': "简单的料理却如此好吃，是一件令人感动的事情。\n今日的泡菜五花肉拌饭就是这样的存在！\n而且，只要鸡爪不自己去骨，也可以说是一道简单料理了。\n\nBGM:瓦尔登湖-周云蓬\nCoffee's On Me-落日飞车", 'create': '2023-03-20 20:21', 'pic': 'http://i0.hdslb.com/bfs/archive/3f396097b6154cc814d8a1874cd00b4bcdbe72e9.jpg', 'coins': 3511, 'duration': '8:40', 'badgepay': False, 'pts': 742389, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441617328', 'bvid': 'BV1VL411Q7jo', 'typename': '美食记录', 'title': '道氏水虱都哪里不能吃，没想到生吃如此鲜嫩', 'subtitle': '', 'play': 450880, 'review': 986, 'video_review': 2110, 'favorites': 1223, 'mid': 1206156500, 'author': '老郭美食', 'description': '道氏水虱详解', 'create': '2023-03-25 23:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7967fa2734c7a64d734e23376908ec1f0bc56d21.jpg', 'coins': 2215, 'duration': '8:21', 'badgepay': False, 'pts': 705813, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738883819', 'bvid': 'BV1yk4y1t7M1', 'typename': '美食记录', 'title': '花59元来吃面包甜品自助是什么体验！大家能帮我看看我吃了多少种面包吗', 'subtitle': '', 'play': 346133, 'review': 531, 'video_review': 242, 'favorites': 3184, 'mid': 3493120020843425, 'author': '我说我饿昏了', 'description': '-', 'create': '2023-03-22 23:33', 'pic': 'http://i2.hdslb.com/bfs/archive/32f35bde3bfc38637ca4844d388a1b44890ebc74.jpg', 'coins': 277, 'duration': '2:42', 'badgepay': False, 'pts': 602968, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396257377', 'bvid': 'BV1qo4y1q7RZ', 'typename': '美食记录', 'title': '猴哥做了一碗肥肠豆腐，一口咬下去满嘴流油，这也太香了', 'subtitle': '', 'play': 319936, 'review': 765, 'video_review': 3863, 'favorites': 746, 'mid': 393116415, 'author': '非洲飞哥', 'description': '-', 'create': '2023-03-22 17:13', 'pic': 'http://i0.hdslb.com/bfs/archive/3b3dd709e79d30f62c5a5e20385c53c8eab3f75d.jpg', 'coins': 6777, 'duration': '15:59', 'badgepay': False, 'pts': 590740, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823929243', 'bvid': 'BV1sg4y1W72p', 'typename': '美食记录', 'title': '烤笋 将就吃', 'subtitle': '', 'play': 556770, 'review': 478, 'video_review': 1457, 'favorites': 1515, 'mid': 319656701, 'author': '快乐烧烤屋屋长', 'description': '-', 'create': '2023-03-23 21:14', 'pic': 'http://i2.hdslb.com/bfs/archive/9466af8576a8d037958031e092302a4d0491026c.jpg', 'coins': 2688, 'duration': '9:24', 'badgepay': False, 'pts': 564979, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '568923299', 'bvid': 'BV1Lv4y157xw', 'typename': '美食测评', 'title': '我终于理解为什么有人不喜欢吃早餐了！', 'subtitle': '', 'play': 1950416, 'review': 1526, 'video_review': 4214, 'favorites': 8619, 'mid': 3493077696121618, 'author': '张圣叹Yo', 'description': '-', 'create': '2023-03-23 21:33', 'pic': 'http://i2.hdslb.com/bfs/archive/17358b0905d856a227842a0271f6a15211e90c8e.jpg', 'coins': 14207, 'duration': '3:32', 'badgepay': False, 'pts': 2303321, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654117189', 'bvid': 'BV1jY4y1S7bz', 'typename': '美食测评', 'title': '大口炫冻奶油！超网红“巨巨巨大雪糕”抱着啃也太爽了吧！！', 'subtitle': '', 'play': 620692, 'review': 722, 'video_review': 2962, 'favorites': 4186, 'mid': 478691043, 'author': '穿毛裤的小拉泽', 'description': '无广！神之舌真实测评分享，口味仅代表我个人，仅供大家参考！大家还有什么想看拉子测评的，记得给我发私信或者留言~如果你们觉得本期有用，麻烦三连下~万分感谢！ 注：封神榜&gt;名士榜&gt;凡人榜&gt;妖魔榜', 'create': '2023-03-25 17:10', 'pic': 'http://i2.hdslb.com/bfs/archive/4bacbf50c419bf138a2223ede15596ea2d406294.jpg', 'coins': 9657, 'duration': '7:55', 'badgepay': False, 'pts': 1134837, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653905663', 'bvid': 'BV1kY4y1D7ch', 'typename': '美食测评', 'title': '必胜客自助限时回归，又涨价了？168能吃回本吗？', 'subtitle': '', 'play': 388647, 'review': 520, 'video_review': 1382, 'favorites': 4339, 'mid': 491593210, 'author': '姬一元', 'description': '', 'create': '2023-03-22 17:04', 'pic': 'http://i2.hdslb.com/bfs/archive/a3ab134f213dd392d62727c812f0ce6914cb5c1e.jpg', 'coins': 9177, 'duration': '6:15', 'badgepay': False, 'pts': 777864, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353972851', 'bvid': 'BV1mX4y1d7FS', 'typename': '美食测评', 'title': '真的不值！大牌连锁预制菜大赏！', 'subtitle': '', 'play': 512983, 'review': 653, 'video_review': 1230, 'favorites': 1391, 'mid': 42870908, 'author': '网不红萌叔Joey', 'description': '预制菜越来越火了，大牌连锁店也出了不少，价格和口味都如何呢？冬菇鸡腿肉、招牌卤肉饭、羊蝎子锅…味道还行，但比起不便宜的价格，目前感觉还是比较一般，总体感觉不是很值，来看看有没有你喜欢吃的吧！', 'create': '2023-03-22 18:18', 'pic': 'http://i2.hdslb.com/bfs/archive/a713aa7336379a44fb821411e42332d8a8fd088a.jpg', 'coins': 1483, 'duration': '10:58', 'badgepay': False, 'pts': 510771, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823877178', 'bvid': 'BV1zg4y1x7XJ', 'typename': '美食测评', 'title': '湖南美食真的好生猛！！', 'subtitle': '', 'play': 527620, 'review': 684, 'video_review': 239, 'favorites': 2933, 'mid': 1242667524, 'author': 'p老板打工记', 'description': '', 'create': '2023-03-22 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/d93f50e3cbdc1598625f3f3c3e9d0e23da20eb7b.jpg', 'coins': 529, 'duration': '1:56', 'badgepay': False, 'pts': 507093, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994084067', 'bvid': 'BV1vs4y1S7pn', 'typename': '美食测评', 'title': '无广！历时28天硬核总结全网“免煮减脂早餐”第二弹！低至1元！ 好吃低卡，干饭潇洒！全员平价！十级能打！', 'subtitle': '', 'play': 174800, 'review': 305, 'video_review': 1914, 'favorites': 6721, 'mid': 382759805, 'author': '林画同学', 'description': '视频绝无任何广告！无广！无广！无广！\n都是自费购买试吃测评后精选出来的，视频里大家有喜欢的记得理性种草！\n点赞过3万，更新“低脂早餐之神”第三弹！感谢感谢！\n还有大家每天都要认真吃早餐哦！', 'create': '2023-03-24 18:16', 'pic': 'http://i1.hdslb.com/bfs/archive/3f4c3113b6bb313f9b8b44d19a20bdc8e8c73b62.jpg', 'coins': 6813, 'duration': '8:31', 'badgepay': False, 'pts': 494293, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269039892', 'bvid': 'BV1nc411L7wi', 'typename': '美食测评', 'title': '鉴定网络热门旺旺视频第五期！', 'subtitle': '', 'play': 521772, 'review': 264, 'video_review': 227, 'favorites': 3886, 'mid': 332632721, 'author': '旺旺旺仔俱乐部', 'description': '-', 'create': '2023-03-24 17:51', 'pic': 'http://i0.hdslb.com/bfs/archive/13a9baa2ef373a762190bfd053b003a1f9933091.jpg', 'coins': 120, 'duration': '1:00', 'badgepay': False, 'pts': 488149, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653857773', 'bvid': 'BV1zY4y1D7Hn', 'typename': '美食测评', 'title': '厦门沙坡尾猪游，人家说甜品买不到我偏要｜Vlog My Mouth', 'subtitle': '', 'play': 213409, 'review': 167, 'video_review': 318, 'favorites': 2728, 'mid': 490913917, 'author': '大表哥995猪猪精', 'description': '-', 'create': '2023-03-22 21:00', 'pic': 'http://i1.hdslb.com/bfs/archive/73bd316aee3b0a058648c8dcc8736464ac370bc6.jpg', 'coins': 564, 'duration': '3:50', 'badgepay': False, 'pts': 426277, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441551960', 'bvid': 'BV1XL411D7ja', 'typename': '美食测评', 'title': '骑行路遇山寨版肯德基麦当劳，吃螺蛳粉汉堡鸡翅，喷射了', 'subtitle': '', 'play': 307614, 'review': 516, 'video_review': 893, 'favorites': 917, 'mid': 272654283, 'author': '咸鱼梦想家vlog', 'description': '-', 'create': '2023-03-24 18:59', 'pic': 'http://i2.hdslb.com/bfs/archive/d6e3611bb74be1d85b879a22f5eed80f0030126e.jpg', 'coins': 1323, 'duration': '5:49', 'badgepay': False, 'pts': 390967, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226397064', 'bvid': 'BV1Jb411o7q6', 'typename': '美食测评', 'title': '带货博主卖的水果靠谱嘛？', 'subtitle': '', 'play': 1454766, 'review': 122, 'video_review': 247, 'favorites': 12297, 'mid': 588148296, 'author': '郭小嚜', 'description': '-', 'create': '2023-03-23 07:32', 'pic': 'http://i2.hdslb.com/bfs/archive/06355ab404a6d57b6209ada44b820cc3c065b2d6.jpg', 'coins': 494, 'duration': '5:56', 'badgepay': False, 'pts': 372505, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>6329316</v>
+        <v>6672719</v>
       </c>
       <c r="I78" t="n">
-        <v>99384</v>
+        <v>44367</v>
       </c>
       <c r="J78" t="n">
-        <v>46701</v>
+        <v>48017</v>
       </c>
       <c r="K78" t="n">
-        <v>40391</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>喵星人</t>
+          <t>田园美食</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>喵喵喵喵喵</t>
+          <t>品味乡野美食，寻找山与海的味道</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>/v/animal/cat(opens new window)</t>
+          <t>/v/food/rural(opens new window)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>动物圈(主分区)</t>
+          <t>美食</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[{'aid': '311314203', 'bvid': 'BV1uP411o7CY', 'typename': '喵星人', 'title': '不会还有人没有小猫哄睡吧～', 'subtitle': '', 'play': 2625219, 'review': 1422, 'video_review': 202, 'favorites': 25635, 'mid': 17663702, 'author': '弟弟是只大脸猫', 'description': '-', 'create': '2023-03-20 18:04', 'pic': 'http://i0.hdslb.com/bfs/archive/c829bd0cdcd3c3411bd13b5b6c004ac693afe06e.jpg', 'coins': 2533, 'duration': '0:34', 'badgepay': False, 'pts': 2353143, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438828779', 'bvid': 'BV1YL411d7dn', 'typename': '喵星人', 'title': 'Oiiaioooooiai', 'subtitle': '', 'play': 694635, 'review': 953, 'video_review': 174, 'favorites': 26888, 'mid': 6035160, 'author': '_長門有希_', 'description': 'https://www.tiktok.com/t/ZTR7KcJq1/', 'create': '2023-03-21 08:13', 'pic': 'http://i2.hdslb.com/bfs/archive/e582e313763b8efca38aa57e7f232d0a9d1cbf2c.jpg', 'coins': 2427, 'duration': '0:09', 'badgepay': False, 'pts': 1789513, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268780645', 'bvid': 'BV1ac411j7zd', 'typename': '喵星人', 'title': '＂像不像你女朋友生气的样子＂', 'subtitle': '', 'play': 899249, 'review': 1037, 'video_review': 412, 'favorites': 9547, 'mid': 568137655, 'author': '萌宠森友秀', 'description': '', 'create': '2023-03-20 09:21', 'pic': 'http://i2.hdslb.com/bfs/archive/494e49b3139aa51671ec8523c27c4ffb970f0d6f.jpg', 'coins': 1994, 'duration': '3:27', 'badgepay': False, 'pts': 1507229, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354120668', 'bvid': 'BV1pX4y1o7TD', 'typename': '喵星人', 'title': '流浪猫真的让人那么讨厌吗？', 'subtitle': '', 'play': 722217, 'review': 2250, 'video_review': 581, 'favorites': 7000, 'mid': 420400406, 'author': '小山胖的甜蜜时光', 'description': '-', 'create': '2023-03-25 18:14', 'pic': 'http://i2.hdslb.com/bfs/archive/5bcfa89800f1453108ad401aa00f94866dcc6b07.jpg', 'coins': 31106, 'duration': '0:57', 'badgepay': False, 'pts': 1416740, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611270087', 'bvid': 'BV1z84y1w7DC', 'typename': '喵星人', 'title': '把水碗换成黑色，就能让猫咪爱上喝水？', 'subtitle': '', 'play': 1152663, 'review': 2059, 'video_review': 539, 'favorites': 9774, 'mid': 18373961, 'author': '萌宠指南', 'description': '把水碗换成黑色，就能让猫咪爱上喝水？', 'create': '2023-03-20 20:41', 'pic': 'http://i0.hdslb.com/bfs/archive/7d07863d8e17ebf93f4768f6011a3561d4b1aadd.jpg', 'coins': 1372, 'duration': '1:49', 'badgepay': False, 'pts': 1341796, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526325398', 'bvid': 'BV14M411p7jH', 'typename': '喵星人', 'title': '没我这个家迟早得散！', 'subtitle': '', 'play': 760530, 'review': 301, 'video_review': 358, 'favorites': 7017, 'mid': 432499697, 'author': '戒喵中心', 'description': '喜欢的小伙伴别忘记点个赞！\n此猫只应天上有，故称为天猫！', 'create': '2023-03-22 09:25', 'pic': 'http://i0.hdslb.com/bfs/archive/22245419c19dc872426dc0d7994086679d61c94a.jpg', 'coins': 1782, 'duration': '2:08', 'badgepay': False, 'pts': 1240090, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739113238', 'bvid': 'BV1Vk4y147i3', 'typename': '喵星人', 'title': '《 叛 逆 且 听 话 》', 'subtitle': '', 'play': 495327, 'review': 241, 'video_review': 331, 'favorites': 13379, 'mid': 37702695, 'author': '甜不过喵', 'description': '喜欢的朋友请点个赞支持一下，感谢~', 'create': '2023-03-25 08:20', 'pic': 'http://i0.hdslb.com/bfs/archive/e6161fcbdf32ca11d74e2c2a0b4b32407d23cd9f.jpg', 'coins': 1652, 'duration': '2:29', 'badgepay': False, 'pts': 1156652, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654087508', 'bvid': 'BV1MY4y1S7Lk', 'typename': '喵星人', 'title': '猫猫今天去吃了麻辣烫诶！但是没想到这么辣', 'subtitle': '', 'play': 538753, 'review': 609, 'video_review': 272, 'favorites': 9152, 'mid': 180334109, 'author': '白泽的猫猫', 'description': '猫咪今天吃了麻辣烫 辣晕了 被店主一盆水浇醒了', 'create': '2023-03-25 14:07', 'pic': 'http://i0.hdslb.com/bfs/archive/6ec21fe080d1a1d138031855af2552052ea11ef6.jpg', 'coins': 1586, 'duration': '0:14', 'badgepay': False, 'pts': 1134852, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483764477', 'bvid': 'BV1zT41167cG', 'typename': '喵星人', 'title': '从拒绝到信任，见证一只无爪流浪猫身材走样的过程', 'subtitle': '', 'play': 575205, 'review': 994, 'video_review': 707, 'favorites': 6062, 'mid': 471183313, 'author': '巧妇饿不死喵喵喵', 'description': '从拒绝到信任，见证一只无爪流浪猫身材走样的过程', 'create': '2023-03-20 18:32', 'pic': 'http://i1.hdslb.com/bfs/archive/8b579e060340b182e42a71bcb82b392892362985.jpg', 'coins': 33034, 'duration': '3:29', 'badgepay': False, 'pts': 1098087, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439043962', 'bvid': 'BV1FL411R7Jt', 'typename': '喵星人', 'title': '绑架通风井里的小奶猫，战绩7:5，我方损失老板一人', 'subtitle': '', 'play': 602534, 'review': 727, 'video_review': 1552, 'favorites': 3819, 'mid': 508416316, 'author': '本喵叫兔兔', 'description': '-', 'create': '2023-03-24 17:28', 'pic': 'http://i2.hdslb.com/bfs/archive/650c7c8fb66eabdffe54b1e059cd638adf196f2e.jpg', 'coins': 21359, 'duration': '4:51', 'badgepay': False, 'pts': 1087628, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '951527998', 'bvid': 'BV15s4y1H7ZH', 'typename': '田园美食', 'title': '在法国捡垃圾吃，垃圾桶里捡土鸡？做大盘鸡真香', 'subtitle': '', 'play': 871195, 'review': 2269, 'video_review': 7501, 'favorites': 3980, 'mid': 452412746, 'author': 'Yooupi食途', 'description': '在法国捡垃圾吃，垃圾桶里捡土鸡？做大盘鸡真香！\n\n在法国有一部分人依靠捡垃圾生活，他们不仅捡日常用具，更多的是捡可食用的丢弃食材。法国严格的食品安全管控，以及蔬果的品类分级，品相不够优秀的蔬果和食品会被大量丢弃。除了大型超市有能力将临期商品进行系统的处理和捐赠以外，很多小型超市或者集市只能将它们丢弃。今天Yooupi来到了法国阿尔卑斯地区，捡垃圾认识的农场大叔在这个片区标注了几个点，都可以捡到各种面包，蔬菜瓜果，甚至肉类的垃圾桶，用这些废弃的食材烹饪成大盘鸡，味道很棒！', 'create': '2023-03-25 16:47', 'pic': 'http://i2.hdslb.com/bfs/archive/42d4d22bae926045b47b2dafbbfdeb1c2053610c.jpg', 'coins': 14582, 'duration': '13:34', 'badgepay': False, 'pts': 1544797, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866337532', 'bvid': 'BV13V4y1R7tN', 'typename': '田园美食', 'title': '军鱼终于来了，去村里水库拉一网，爆网了', 'subtitle': '', 'play': 588488, 'review': 913, 'video_review': 2644, 'favorites': 1379, 'mid': 476704454, 'author': '小文哥吃吃吃', 'description': '绿水青山就是金山银山\n爱在寿山，九峰情，十分爱\n感谢支持！', 'create': '2023-03-22 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6d0fab505f3cf066a2fbbfbc569bc5c853c9da97.jpg', 'coins': 5065, 'duration': '12:08', 'badgepay': False, 'pts': 919390, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909027815', 'bvid': 'BV1uM4y1z7NK', 'typename': '田园美食', 'title': '大海退潮后，大庆赶海发现正在开花的红色海葵，好像一块石头', 'subtitle': '', 'play': 731304, 'review': 498, 'video_review': 2057, 'favorites': 1684, 'mid': 524704055, 'author': '大庆赶海', 'description': '大海退潮后，大庆赶海发现正在开花的红色海葵，好像一块石头', 'create': '2023-03-24 16:06', 'pic': 'http://i2.hdslb.com/bfs/archive/2ce134a14be85629a8fa5ed8029c721bc3a79f32.jpg', 'coins': 2401, 'duration': '6:26', 'badgepay': False, 'pts': 535700, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909116687', 'bvid': 'BV16M4y1m72p', 'typename': '田园美食', 'title': '朋友们，这个村子我是呆不下去了……', 'subtitle': '', 'play': 190253, 'review': 821, 'video_review': 2678, 'favorites': 895, 'mid': 327552140, 'author': '我是野农', 'description': '白叔下手太狠，姜还是老的辣！', 'create': '2023-03-25 17:04', 'pic': 'http://i2.hdslb.com/bfs/archive/bf018d8970401da844e649a0dd548900771720da.jpg', 'coins': 11048, 'duration': '8:36', 'badgepay': False, 'pts': 396929, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354103814', 'bvid': 'BV14X4y1o7fi', 'typename': '田园美食', 'title': '养殖场拆迁大量螃蟹没人抓，渔夫捡漏狂抓210只青蟹，乐得合不拢嘴', 'subtitle': '', 'play': 259238, 'review': 162, 'video_review': 473, 'favorites': 294, 'mid': 391943536, 'author': '思乡渔夫', 'description': '养殖场拆迁大量螃蟹没人抓，渔夫捡漏狂抓210只青蟹，乐得合不拢嘴', 'create': '2023-03-25 18:08', 'pic': 'http://i2.hdslb.com/bfs/archive/8bba1c41e18572dbaa963222e01bd0379d9a2c59.jpg', 'coins': 3386, 'duration': '11:33', 'badgepay': False, 'pts': 370090, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653819454', 'bvid': 'BV1LY4y1D78U', 'typename': '田园美食', 'title': '上鱼', 'subtitle': '', 'play': 1803058, 'review': 942, 'video_review': 200, 'favorites': 2280, 'mid': 2123429433, 'author': '野生冷水鱼', 'description': '-', 'create': '2023-03-21 02:48', 'pic': 'http://i1.hdslb.com/bfs/archive/14f21059add881924972905b30cfa9630028e7cd.jpg', 'coins': 363, 'duration': '0:16', 'badgepay': False, 'pts': 327167, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396321784', 'bvid': 'BV1fo4y1q73D', 'typename': '田园美食', 'title': '闲来无事搞个鸭子两吃，香辣酥脆安逸得很', 'subtitle': '', 'play': 426569, 'review': 298, 'video_review': 674, 'favorites': 757, 'mid': 1529656577, 'author': '孤独美食咖', 'description': '闲来无事搞个鸭子两吃，香辣酥脆安逸得很', 'create': '2023-03-22 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/0af6cfdcbf9266e26d28145be4e821e12cc83667.jpg', 'coins': 1176, 'duration': '2:47', 'badgepay': False, 'pts': 240398, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568750910', 'bvid': 'BV19v4y1L7ZV', 'typename': '田园美食', 'title': '1120买条11斤花龙王，凶猛异常宰杀差点被咬手，焖羊肚菌太好吃了', 'subtitle': '', 'play': 511954, 'review': 360, 'video_review': 666, 'favorites': 468, 'mid': 520754513, 'author': '阿胖山', 'description': '1120买条11斤花龙王，凶猛异常宰杀差点被咬手，焖羊肚菌太好吃了', 'create': '2023-03-21 20:39', 'pic': 'http://i1.hdslb.com/bfs/archive/ea1784753f479df6ac93f7f81adbbde8fc12f37d.jpg', 'coins': 1212, 'duration': '5:31', 'badgepay': False, 'pts': 205889, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353822320', 'bvid': 'BV1hX4y1Z71y', 'typename': '田园美食', 'title': '你一定没有吃过的水果炒鸡……', 'subtitle': '', 'play': 112927, 'review': 271, 'video_review': 292, 'favorites': 877, 'mid': 3493141191592012, 'author': '叫我阿霞', 'description': '你一定没有吃过的水果炒鸡……', 'create': '2023-03-21 20:20', 'pic': 'http://i0.hdslb.com/bfs/archive/52c94a26ff8c1255ba2f4e318d1d8cbfecdbefdb.jpg', 'coins': 624, 'duration': '3:48', 'badgepay': False, 'pts': 197841, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866305896', 'bvid': 'BV1cV4y1R7a7', 'typename': '田园美食', 'title': '我们猪食的营养搭配离不开你们的点赞和评论，之前只要好吃，现在要好看。', 'subtitle': '', 'play': 131589, 'review': 498, 'video_review': 616, 'favorites': 243, 'mid': 3493091442952472, 'author': '独守自然村-山村新农', 'description': '日常煮猪食', 'create': '2023-03-20 22:14', 'pic': 'http://i2.hdslb.com/bfs/archive/31e9902f1bc858c9c47b507a85bb14e372c511d4.jpg', 'coins': 605, 'duration': '3:20', 'badgepay': False, 'pts': 190342, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>9066332</v>
+        <v>5626575</v>
       </c>
       <c r="I79" t="n">
-        <v>98845</v>
+        <v>40462</v>
       </c>
       <c r="J79" t="n">
-        <v>118273</v>
+        <v>12857</v>
       </c>
       <c r="K79" t="n">
-        <v>48607</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>汪星人</t>
+          <t>美食记录</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>record</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>汪汪汪汪汪</t>
+          <t>记录一日三餐，给生活添一点幸福感</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>/v/animal/dog(opens new window)</t>
+          <t>/v/food/record</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>动物圈(主分区)</t>
+          <t>美食</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[{'aid': '611386515', 'bvid': 'BV1n84y137LC', 'typename': '汪星人', 'title': '0元自制的猫咪好物，我求你别学了！', 'subtitle': '', 'play': 1811401, 'review': 924, 'video_review': 173, 'favorites': 55098, 'mid': 410460396, 'author': '朵博士说宠物', 'description': '', 'create': '2023-03-22 18:24', 'pic': 'http://i2.hdslb.com/bfs/archive/2db533789cb55066dd6cba7ff6f8819c9f3fe5b2.jpg', 'coins': 3094, 'duration': '0:49', 'badgepay': False, 'pts': 3519249, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738868919', 'bvid': 'BV1Uk4y1t7X4', 'typename': '汪星人', 'title': '“当你顶不住的时候，来看看这个吧”', 'subtitle': '', 'play': 1331957, 'review': 1010, 'video_review': 2069, 'favorites': 18466, 'mid': 384301323, 'author': '爱睡觉的九九', 'description': '喜欢的话请点赞支持一下吧，感谢大家了~', 'create': '2023-03-20 12:10', 'pic': 'http://i0.hdslb.com/bfs/archive/1a7ac394785a0c2e8d3e773e8e2beca4812d284b.jpg', 'coins': 12431, 'duration': '2:14', 'badgepay': False, 'pts': 2148416, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781271271', 'bvid': 'BV1p24y1E7pr', 'typename': '汪星人', 'title': '狗子:最恨你像个木头', 'subtitle': '', 'play': 678144, 'review': 493, 'video_review': 144, 'favorites': 11223, 'mid': 1629956591, 'author': '吃小兔子的胡萝卜巴', 'description': '-', 'create': '2023-03-20 15:31', 'pic': 'http://i2.hdslb.com/bfs/archive/af4501b9f6cfe2f066b2bc504e672b717a727fbc.jpg', 'coins': 1685, 'duration': '0:19', 'badgepay': False, 'pts': 1327832, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654095414', 'bvid': 'BV1gY4y1S7zu', 'typename': '汪星人', 'title': '一切都来得太突然，我没办法接受，这几天连续晕厥过去很多次，对不起布宝，对不住喜欢布宝的粉丝。', 'subtitle': '', 'play': 665285, 'review': 4834, 'video_review': 1702, 'favorites': 1097, 'mid': 278161237, 'author': '刘布宝', 'description': '-', 'create': '2023-03-25 20:52', 'pic': 'http://i0.hdslb.com/bfs/archive/87672382ffbb35c5c113df5199ae053a3e6dba70.jpg', 'coins': 7593, 'duration': '3:54', 'badgepay': False, 'pts': 1206853, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994123384', 'bvid': 'BV11s4y1S7R7', 'typename': '汪星人', 'title': '有点摆烂，又有点积极', 'subtitle': '', 'play': 579070, 'review': 416, 'video_review': 94, 'favorites': 8633, 'mid': 402759669, 'author': '田园犬巡游记', 'description': '-', 'create': '2023-03-25 21:37', 'pic': 'http://i1.hdslb.com/bfs/archive/cc5c9603ec32a18704ae612e27f5fc860934f450.jpg', 'coins': 5542, 'duration': '0:37', 'badgepay': False, 'pts': 1155337, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441599984', 'bvid': 'BV1ZL411D7ZA', 'typename': '汪星人', 'title': '“它特地把小熊的脸舔干净，怕你嫌它脏”', 'subtitle': '', 'play': 561649, 'review': 652, 'video_review': 148, 'favorites': 7541, 'mid': 3493139293670292, 'author': '小月有小橘', 'description': '我真的很幸运，以后也有天使治愈我破碎的生活', 'create': '2023-03-24 14:45', 'pic': 'http://i2.hdslb.com/bfs/archive/7f4b8e0e57e440706056cb9e7a6120b5eabe8c10.jpg', 'coins': 5960, 'duration': '0:30', 'badgepay': False, 'pts': 1142092, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696421621', 'bvid': 'BV1em4y1k7ME', 'typename': '汪星人', 'title': '我太奶奶喊我吃小粑粑', 'subtitle': '', 'play': 1361314, 'review': 380, 'video_review': 222, 'favorites': 7761, 'mid': 338617869, 'author': '田花花', 'description': '-', 'create': '2023-03-23 18:46', 'pic': 'http://i2.hdslb.com/bfs/archive/882f0bd96be23188245fe9d761868138cd73f2cb.jpg', 'coins': 2476, 'duration': '0:53', 'badgepay': False, 'pts': 828684, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696315389', 'bvid': 'BV1Dm4y1r7Ub', 'typename': '汪星人', 'title': '有小孩了狗子会因为被冷落而抑郁吗？至少我不允许', 'subtitle': '', 'play': 356917, 'review': 621, 'video_review': 331, 'favorites': 2979, 'mid': 24648298, 'author': '金啊涛', 'description': 'Bgm《A Thousand Years》The Piano Guys', 'create': '2023-03-21 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/b63a6eba9c0826d46987d73d789da5a5eae0d08b.jpg', 'coins': 10840, 'duration': '2:14', 'badgepay': False, 'pts': 692607, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866372303', 'bvid': 'BV1nV4y1R7vs', 'typename': '汪星人', 'title': '在被窝里睡得正香，忘了狗子们也在床上', 'subtitle': '', 'play': 404913, 'review': 498, 'video_review': 75, 'favorites': 3577, 'mid': 381374122, 'author': '哈百里', 'description': '@giannalippmann', 'create': '2023-03-21 21:07', 'pic': 'http://i0.hdslb.com/bfs/archive/ae0cf0da23d09d4cd543dd6ba080d41f60a5fa74.jpg', 'coins': 159, 'duration': '0:12', 'badgepay': False, 'pts': 597707, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438864596', 'bvid': 'BV15L41197Pa', 'typename': '汪星人', 'title': '它好像知道自己很可爱', 'subtitle': '', 'play': 291541, 'review': 225, 'video_review': 119, 'favorites': 3799, 'mid': 1901793474, 'author': '农场里的猪', 'description': '转载于ins博主', 'create': '2023-03-21 18:34', 'pic': 'http://i1.hdslb.com/bfs/archive/1c11cdb08b419ebeab3308dad35b99edcc635152.jpg', 'coins': 253, 'duration': '1:02', 'badgepay': False, 'pts': 594685, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '226443463', 'bvid': 'BV1sb411o7Qj', 'typename': '美食记录', 'title': '公开处刑！当up主6年，我竟被母校挂出来了…', 'subtitle': '', 'play': 1808627, 'review': 3478, 'video_review': 8448, 'favorites': 11738, 'mid': 99157282, 'author': '盗月社食遇记', 'description': '久违的深夜卧室聊天，想跟大家分享一个好消息。', 'create': '2023-03-22 18:11', 'pic': 'http://i0.hdslb.com/bfs/archive/2f278b1f091db4c450384d262bc11aa2ceb47a09.jpg', 'coins': 49012, 'duration': '19:14', 'badgepay': False, 'pts': 2567754, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738800403', 'bvid': 'BV18k4y1t7sb', 'typename': '美食记录', 'title': '“回家的肉惑”', 'subtitle': '', 'play': 905999, 'review': 1506, 'video_review': 649, 'favorites': 11438, 'mid': 300764639, 'author': '潘多拉的饱嗝', 'description': 'BGM：Careless Whisper - George Michael,Wham!', 'create': '2023-03-20 22:34', 'pic': 'http://i1.hdslb.com/bfs/archive/bcb795049a7ed32728381106c31af66879e02b6b.jpg', 'coins': 2059, 'duration': '2:40', 'badgepay': False, 'pts': 1618305, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226473082', 'bvid': 'BV1Cb411o7QV', 'typename': '美食记录', 'title': '我开店了，但是被坑惨了！？', 'subtitle': '', 'play': 605224, 'review': 2191, 'video_review': 2322, 'favorites': 5840, 'mid': 17546432, 'author': '马壮实Hera', 'description': '终于迈出了这一步，虽然还是很多问题，不过就如视频所说，一切困难皆可破！', 'create': '2023-03-22 18:33', 'pic': 'http://i2.hdslb.com/bfs/archive/576e4efcd4ac2b4e961520c05018fe4014bdc348.jpg', 'coins': 18227, 'duration': '11:16', 'badgepay': False, 'pts': 1191022, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866460444', 'bvid': 'BV1EV4y1X7FW', 'typename': '美食记录', 'title': '高级超市，你好狠的心。', 'subtitle': '', 'play': 478300, 'review': 541, 'video_review': 444, 'favorites': 6099, 'mid': 2041302902, 'author': '没空忧伤的B', 'description': '', 'create': '2023-03-23 18:20', 'pic': 'http://i2.hdslb.com/bfs/archive/a3140c759dff082b90317dd6fc53a88d67a43f62.jpg', 'coins': 948, 'duration': '1:37', 'badgepay': False, 'pts': 934230, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951543646', 'bvid': 'BV1gs4y1H747', 'typename': '美食记录', 'title': '老爸又住院了，胖龙忙坏了，中午吃个宽粉配兔腿，下午继续忙', 'subtitle': '', 'play': 453817, 'review': 924, 'video_review': 838, 'favorites': 1180, 'mid': 649661652, 'author': '胖龙的小生活', 'description': '老爸又住院了，胖龙忙坏了，中午吃个宽粉配兔腿，下午继续忙', 'create': '2023-03-24 17:40', 'pic': 'http://i2.hdslb.com/bfs/archive/76b88355729e7aa898421031841ab65c7176485f.jpg', 'coins': 14312, 'duration': '4:28', 'badgepay': False, 'pts': 787997, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908791656', 'bvid': 'BV1qM4y16732', 'typename': '美食记录', 'title': '简单做碗五花肉泡菜拌饭！好吃哭！配自制的酸辣无骨鸡爪，嘎嘣脆', 'subtitle': '', 'play': 446019, 'review': 399, 'video_review': 1075, 'favorites': 4055, 'mid': 392336778, 'author': '了in林', 'description': "简单的料理却如此好吃，是一件令人感动的事情。\n今日的泡菜五花肉拌饭就是这样的存在！\n而且，只要鸡爪不自己去骨，也可以说是一道简单料理了。\n\nBGM:瓦尔登湖-周云蓬\nCoffee's On Me-落日飞车", 'create': '2023-03-20 20:21', 'pic': 'http://i0.hdslb.com/bfs/archive/3f396097b6154cc814d8a1874cd00b4bcdbe72e9.jpg', 'coins': 3528, 'duration': '8:40', 'badgepay': False, 'pts': 748546, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441617328', 'bvid': 'BV1VL411Q7jo', 'typename': '美食记录', 'title': '道氏水虱都哪里不能吃，没想到生吃如此鲜嫩', 'subtitle': '', 'play': 474512, 'review': 1050, 'video_review': 2232, 'favorites': 1307, 'mid': 1206156500, 'author': '老郭美食', 'description': '道氏水虱详解', 'create': '2023-03-25 23:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7967fa2734c7a64d734e23376908ec1f0bc56d21.jpg', 'coins': 2338, 'duration': '8:21', 'badgepay': False, 'pts': 743387, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738883819', 'bvid': 'BV1yk4y1t7M1', 'typename': '美食记录', 'title': '花59元来吃面包甜品自助是什么体验！大家能帮我看看我吃了多少种面包吗', 'subtitle': '', 'play': 353852, 'review': 542, 'video_review': 245, 'favorites': 3248, 'mid': 3493120020843425, 'author': '我说我饿昏了', 'description': '-', 'create': '2023-03-22 23:33', 'pic': 'http://i2.hdslb.com/bfs/archive/32f35bde3bfc38637ca4844d388a1b44890ebc74.jpg', 'coins': 288, 'duration': '2:42', 'badgepay': False, 'pts': 612269, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396257377', 'bvid': 'BV1qo4y1q7RZ', 'typename': '美食记录', 'title': '猴哥做了一碗肥肠豆腐，一口咬下去满嘴流油，这也太香了', 'subtitle': '', 'play': 322077, 'review': 766, 'video_review': 3868, 'favorites': 743, 'mid': 393116415, 'author': '非洲飞哥', 'description': '-', 'create': '2023-03-22 17:13', 'pic': 'http://i0.hdslb.com/bfs/archive/3b3dd709e79d30f62c5a5e20385c53c8eab3f75d.jpg', 'coins': 6794, 'duration': '15:59', 'badgepay': False, 'pts': 592823, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823929243', 'bvid': 'BV1sg4y1W72p', 'typename': '美食记录', 'title': '烤笋 将就吃', 'subtitle': '', 'play': 568881, 'review': 491, 'video_review': 1471, 'favorites': 1542, 'mid': 319656701, 'author': '快乐烧烤屋屋长', 'description': '-', 'create': '2023-03-23 21:14', 'pic': 'http://i2.hdslb.com/bfs/archive/9466af8576a8d037958031e092302a4d0491026c.jpg', 'coins': 2727, 'duration': '9:24', 'badgepay': False, 'pts': 572714, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>8042191</v>
+        <v>6417308</v>
       </c>
       <c r="I80" t="n">
-        <v>50033</v>
+        <v>100233</v>
       </c>
       <c r="J80" t="n">
-        <v>120174</v>
+        <v>47190</v>
       </c>
       <c r="K80" t="n">
-        <v>22896</v>
+        <v>40391</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>大熊猫</t>
+          <t>喵星人</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>panda</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>芝麻汤圆营业中</t>
+          <t>喵喵喵喵喵</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>/v/animal/panda(opens new window)</t>
+          <t>/v/animal/cat</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>动物圈(主分区)</t>
+          <t>动物圈</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[{'aid': '526616806', 'bvid': 'BV18M411g7Fx', 'typename': '动物二创', 'title': '《棕 熊 的 鲑 鱼 盛 宴》', 'subtitle': '', 'play': 1921184, 'review': 1875, 'video_review': 2066, 'favorites': 15806, 'mid': 3493136676424261, 'author': '狂野脉动', 'description': '', 'create': '2023-03-24 10:59', 'pic': 'http://i2.hdslb.com/bfs/archive/c264dad844c8ef5a2be05c5626e1c896d2cfb536.jpg', 'coins': 2635, 'duration': '4:14', 'badgepay': False, 'pts': 2065575, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438770002', 'bvid': 'BV1xL411d7XW', 'typename': '动物二创', 'title': '熊猫：长这么大都没受过这样的气！', 'subtitle': '', 'play': 3529570, 'review': 1763, 'video_review': 660, 'favorites': 20297, 'mid': 1870883193, 'author': '猫后生', 'description': '大熊猫与饲养员对峙', 'create': '2023-03-20 11:35', 'pic': 'http://i0.hdslb.com/bfs/archive/8cfd8e5ca42f058857e4829b38df2d832b8d1d9b.jpg', 'coins': 9410, 'duration': '1:03', 'badgepay': False, 'pts': 1711742, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908875880', 'bvid': 'BV1GM4y1B75U', 'typename': '动物二创', 'title': '当狗犯错被赶出去面壁之后', 'subtitle': '', 'play': 562169, 'review': 515, 'video_review': 316, 'favorites': 7175, 'mid': 1744959662, 'author': '钮祜禄-安舒', 'description': '-', 'create': '2023-03-23 20:12', 'pic': 'http://i0.hdslb.com/bfs/archive/923d8e0eacaec73417c21da5b3b39694a51d70da.jpg', 'coins': 3591, 'duration': '1:02', 'badgepay': False, 'pts': 1113619, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568784458', 'bvid': 'BV1Pv4y1j776', 'typename': '动物二创', 'title': '根 本 不 够 睡 ！', 'subtitle': '', 'play': 517160, 'review': 858, 'video_review': 419, 'favorites': 4842, 'mid': 6421869, 'author': '喵与茶', 'description': '今天是世界睡眠日！一起睡个好觉吧！\n欢迎来吸猫群聊天嗷104971215喵与茶，每次更新也会第一时间通知~关注一下呀！\n这是一个每条评论都会回复的UP呦！\n下期见啦！本期Bgm：1. 人生态度（改版）--karen.欣欣怡 2. LOVE HEART ❤--DENKI SAMA', 'create': '2023-03-21 12:03', 'pic': 'http://i0.hdslb.com/bfs/archive/5e9492be6812929c9100b493edb687d1cd01d847.jpg', 'coins': 2643, 'duration': '1:28', 'badgepay': False, 'pts': 921737, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226257531', 'bvid': 'BV14b411d7xh', 'typename': '动物二创', 'title': '攒 劲 的 节 目', 'subtitle': '', 'play': 490915, 'review': 430, 'video_review': 1484, 'favorites': 2405, 'mid': 1335713025, 'author': '知了解压萌物', 'description': '视频素材来源：纪录片《失败掠食者》、《动物爱情故事》、《北极熊/Polar.Bear》、《America the Beautiful》以及网络，有演绎成分；', 'create': '2023-03-20 21:27', 'pic': 'http://i1.hdslb.com/bfs/archive/837bafd88745211fcdabb779cea1431d744367b0.jpg', 'coins': 7514, 'duration': '6:00', 'badgepay': False, 'pts': 755971, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696181249', 'bvid': 'BV1B24y1x7XF', 'typename': '动物二创', 'title': '《动物迷惑行为大赏146》', 'subtitle': '', 'play': 665132, 'review': 204, 'video_review': 1283, 'favorites': 4922, 'mid': 11164088, 'author': '龙馍馍', 'description': '喜欢请点个赞啊  谢谢啦！', 'create': '2023-03-20 08:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6ecce74a6cb39401846f2d20600f3e4448878877.jpg', 'coins': 3147, 'duration': '5:28', 'badgepay': False, 'pts': 738368, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483962511', 'bvid': 'BV1ZT411B7th', 'typename': '动物二创', 'title': '修勾夺笋，但是日语', 'subtitle': '', 'play': 471310, 'review': 259, 'video_review': 337, 'favorites': 3007, 'mid': 15076745, 'author': '彩虹酱哇', 'description': '原视频：无拘无束（狗狗名字叫多多噢~）\n＆配音和文案原创＆\n＆纯属只是喜欢配音和整活＆\n＆如有侵权抱歉请本人联系我第一时间删除＆', 'create': '2023-03-22 15:27', 'pic': 'http://i1.hdslb.com/bfs/archive/86721619d7330bf70e8bfbba9b9544ec8e8051f3.jpg', 'coins': 2045, 'duration': '1:03', 'badgepay': False, 'pts': 654357, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823856261', 'bvid': 'BV1Cg4y1x7nK', 'typename': '动物二创', 'title': '爷爷想检查福宝的牙齿  福宝竟然会捂嘴巴  太可爱了', 'subtitle': '', 'play': 467349, 'review': 334, 'video_review': 238, 'favorites': 3602, 'mid': 669419275, 'author': '雲溪吖', 'description': '-', 'create': '2023-03-21 16:54', 'pic': 'http://i0.hdslb.com/bfs/archive/89bc89c844feac96c97ed9486a89a8fd2c0fbe6d.jpg', 'coins': 256, 'duration': '1:14', 'badgepay': False, 'pts': 537927, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311254710', 'bvid': 'BV1SP411d71N', 'typename': '动物二创', 'title': '看！贝加尔湖向你投掷了一枚“元气弹”！', 'subtitle': '', 'play': 231160, 'review': 402, 'video_review': 586, 'favorites': 3231, 'mid': 1481344732, 'author': '我们都是社畜', 'description': '本来只打算写地中海僧海豹的，结果被贝加尔海豹俘虏了，还拉了海豹的整个朋友圈！\n根据纪录片改编：\n《神秘的贝加尔湖》、《地中海》、《自然奇境地》及网络素材\nBGM：\nJigder Nana-Urna Chahartugchi\nWhen a Man Loves a Woman-Michael Bolton\nbeautiful day\n《教父》', 'create': '2023-03-21 23:24', 'pic': 'http://i0.hdslb.com/bfs/archive/e98c1b56a9c1e778b1be8391314d2349a6e59194.jpg', 'coins': 3356, 'duration': '7:19', 'badgepay': False, 'pts': 489028, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568938788', 'bvid': 'BV1gv4y157Zo', 'typename': '动物二创', 'title': '乐宝：该吃吃该喝喝，遇事别往心里搁！', 'subtitle': '', 'play': 243461, 'review': 61, 'video_review': 77, 'favorites': 2016, 'mid': 397314344, 'author': '爱豆鸭', 'description': '-', 'create': '2023-03-22 18:17', 'pic': 'http://i0.hdslb.com/bfs/archive/7b6fb651aa68065ea73ee850d0089940f2a5416a.jpg', 'coins': 146, 'duration': '0:54', 'badgepay': False, 'pts': 286325, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '311314203', 'bvid': 'BV1uP411o7CY', 'typename': '喵星人', 'title': '不会还有人没有小猫哄睡吧～', 'subtitle': '', 'play': 2634173, 'review': 1429, 'video_review': 202, 'favorites': 25677, 'mid': 17663702, 'author': '弟弟是只大脸猫', 'description': '-', 'create': '2023-03-20 18:04', 'pic': 'http://i0.hdslb.com/bfs/archive/c829bd0cdcd3c3411bd13b5b6c004ac693afe06e.jpg', 'coins': 2543, 'duration': '0:34', 'badgepay': False, 'pts': 2356452, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438828779', 'bvid': 'BV1YL411d7dn', 'typename': '喵星人', 'title': 'Oiiaioooooiai', 'subtitle': '', 'play': 703990, 'review': 960, 'video_review': 175, 'favorites': 27056, 'mid': 6035160, 'author': '_長門有希_', 'description': 'https://www.tiktok.com/t/ZTR7KcJq1/', 'create': '2023-03-21 08:13', 'pic': 'http://i2.hdslb.com/bfs/archive/e582e313763b8efca38aa57e7f232d0a9d1cbf2c.jpg', 'coins': 2448, 'duration': '0:09', 'badgepay': False, 'pts': 1803930, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354120668', 'bvid': 'BV1pX4y1o7TD', 'typename': '喵星人', 'title': '流浪猫真的让人那么讨厌吗？', 'subtitle': '', 'play': 739814, 'review': 2417, 'video_review': 598, 'favorites': 7184, 'mid': 420400406, 'author': '小山胖的甜蜜时光', 'description': '-', 'create': '2023-03-25 18:14', 'pic': 'http://i2.hdslb.com/bfs/archive/5bcfa89800f1453108ad401aa00f94866dcc6b07.jpg', 'coins': 32020, 'duration': '0:57', 'badgepay': False, 'pts': 1455575, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611270087', 'bvid': 'BV1z84y1w7DC', 'typename': '喵星人', 'title': '把水碗换成黑色，就能让猫咪爱上喝水？', 'subtitle': '', 'play': 1157599, 'review': 2064, 'video_review': 540, 'favorites': 9808, 'mid': 18373961, 'author': '萌宠指南', 'description': '把水碗换成黑色，就能让猫咪爱上喝水？', 'create': '2023-03-20 20:41', 'pic': 'http://i0.hdslb.com/bfs/archive/7d07863d8e17ebf93f4768f6011a3561d4b1aadd.jpg', 'coins': 1374, 'duration': '1:49', 'badgepay': False, 'pts': 1344464, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654087508', 'bvid': 'BV1MY4y1S7Lk', 'typename': '喵星人', 'title': '猫猫今天去吃了麻辣烫诶！但是没想到这么辣', 'subtitle': '', 'play': 614755, 'review': 680, 'video_review': 280, 'favorites': 10345, 'mid': 180334109, 'author': '白泽的猫猫', 'description': '猫咪今天吃了麻辣烫 辣晕了 被店主一盆水浇醒了', 'create': '2023-03-25 14:07', 'pic': 'http://i0.hdslb.com/bfs/archive/6ec21fe080d1a1d138031855af2552052ea11ef6.jpg', 'coins': 1890, 'duration': '0:14', 'badgepay': False, 'pts': 1262527, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526325398', 'bvid': 'BV14M411p7jH', 'typename': '喵星人', 'title': '没我这个家迟早得散！', 'subtitle': '', 'play': 764113, 'review': 302, 'video_review': 365, 'favorites': 7063, 'mid': 432499697, 'author': '戒喵中心', 'description': '喜欢的小伙伴别忘记点个赞！\n此猫只应天上有，故称为天猫！', 'create': '2023-03-22 09:25', 'pic': 'http://i0.hdslb.com/bfs/archive/22245419c19dc872426dc0d7994086679d61c94a.jpg', 'coins': 1787, 'duration': '2:08', 'badgepay': False, 'pts': 1244775, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739113238', 'bvid': 'BV1Vk4y147i3', 'typename': '喵星人', 'title': '《 叛 逆 且 听 话 》', 'subtitle': '', 'play': 497529, 'review': 241, 'video_review': 331, 'favorites': 13446, 'mid': 37702695, 'author': '甜不过喵', 'description': '喜欢的朋友请点个赞支持一下，感谢~', 'create': '2023-03-25 08:20', 'pic': 'http://i0.hdslb.com/bfs/archive/e6161fcbdf32ca11d74e2c2a0b4b32407d23cd9f.jpg', 'coins': 1664, 'duration': '2:29', 'badgepay': False, 'pts': 1161500, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439043962', 'bvid': 'BV1FL411R7Jt', 'typename': '喵星人', 'title': '绑架通风井里的小奶猫，战绩7:5，我方损失老板一人', 'subtitle': '', 'play': 618728, 'review': 738, 'video_review': 1571, 'favorites': 3897, 'mid': 508416316, 'author': '本喵叫兔兔', 'description': '-', 'create': '2023-03-24 17:28', 'pic': 'http://i2.hdslb.com/bfs/archive/650c7c8fb66eabdffe54b1e059cd638adf196f2e.jpg', 'coins': 21852, 'duration': '4:51', 'badgepay': False, 'pts': 1110565, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483764477', 'bvid': 'BV1zT41167cG', 'typename': '喵星人', 'title': '从拒绝到信任，见证一只无爪流浪猫身材走样的过程', 'subtitle': '', 'play': 576526, 'review': 998, 'video_review': 714, 'favorites': 6078, 'mid': 471183313, 'author': '巧妇饿不死喵喵喵', 'description': '从拒绝到信任，见证一只无爪流浪猫身材走样的过程', 'create': '2023-03-20 18:32', 'pic': 'http://i1.hdslb.com/bfs/archive/8b579e060340b182e42a71bcb82b392892362985.jpg', 'coins': 33119, 'duration': '3:29', 'badgepay': False, 'pts': 1100605, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696421558', 'bvid': 'BV1em4y1k7uW', 'typename': '喵星人', 'title': '那些懂察言观色的猫咪', 'subtitle': '', 'play': 590063, 'review': 227, 'video_review': 170, 'favorites': 6711, 'mid': 1822358703, 'author': '快乐解我忧', 'description': '', 'create': '2023-03-22 22:37', 'pic': 'http://i0.hdslb.com/bfs/archive/aa95627edd5c4e99db349833b8e30d5b323831c3.jpg', 'coins': 1500, 'duration': '1:58', 'badgepay': False, 'pts': 1088429, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>9099410</v>
+        <v>8897290</v>
       </c>
       <c r="I81" t="n">
-        <v>34743</v>
+        <v>100197</v>
       </c>
       <c r="J81" t="n">
-        <v>67303</v>
+        <v>117265</v>
       </c>
       <c r="K81" t="n">
-        <v>2830</v>
+        <v>48607</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>野生动物</t>
+          <t>汪星人</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>wild_animal</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>内有“猛兽”出没</t>
+          <t>汪汪汪汪汪</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>/v/animal/wild_animal(opens new window)</t>
+          <t>/v/animal/dog</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>动物圈(主分区)</t>
+          <t>动物圈</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[{'aid': '653852742', 'bvid': 'BV1qY4y1D7oL', 'typename': '野生动物', 'title': '《 以 父 之 名 》', 'subtitle': '', 'play': 2424481, 'review': 1745, 'video_review': 1344, 'favorites': 50839, 'mid': 496783876, 'author': '幸运猎手', 'description': 'BGM：以父之名 - 周杰伦', 'create': '2023-03-21 14:11', 'pic': 'http://i0.hdslb.com/bfs/archive/e7c821086353b0e813c6944d56e860919ae88895.jpg', 'coins': 72937, 'duration': '2:09', 'badgepay': False, 'pts': 3796386, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738779219', 'bvid': 'BV1Vk4y1t7nP', 'typename': '野生动物', 'title': '【兔狲】没人能忍住不去碰它的爪爪！', 'subtitle': '', 'play': 716329, 'review': 463, 'video_review': 202, 'favorites': 10251, 'mid': 1742893744, 'author': '小小小兔狲', 'description': '转载自网络', 'create': '2023-03-20 16:11', 'pic': 'http://i2.hdslb.com/bfs/archive/6f32969884f4e0797511581bcd62e09ef8470c60.jpg', 'coins': 448, 'duration': '0:30', 'badgepay': False, 'pts': 1220560, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483769332', 'bvid': 'BV16T41167tV', 'typename': '野生动物', 'title': '“承认吧，你就是个白毛控！”', 'subtitle': '', 'play': 456731, 'review': 976, 'video_review': 631, 'favorites': 12350, 'mid': 362831543, 'author': '小灰灰大人', 'description': '最近忙着育雏，事情有点多\n本期混剪了白色系的小鸟，下期鸟类鉴定哈', 'create': '2023-03-20 13:27', 'pic': 'http://i1.hdslb.com/bfs/archive/86b59f3e5859ce73dc39a2fe07f037e5ba4a9cab.jpg', 'coins': 2447, 'duration': '2:38', 'badgepay': False, 'pts': 998869, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439085093', 'bvid': 'BV1GL411R7Fp', 'typename': '野生动物', 'title': '记录女明星被弟弟暴打瞬间~', 'subtitle': '', 'play': 319198, 'review': 237, 'video_review': 131, 'favorites': 4061, 'mid': 516952166, 'author': '胖大飘', 'description': '-', 'create': '2023-03-24 19:58', 'pic': 'http://i1.hdslb.com/bfs/archive/51b3ea38cc8795340b2605bc3ee5cd0d46ec86f5.jpg', 'coins': 365, 'duration': '0:14', 'badgepay': False, 'pts': 649364, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526408588', 'bvid': 'BV1LM411u7W8', 'typename': '野生动物', 'title': '3.22 花花：好久不见，打个招呼~  你们想我了吗？', 'subtitle': '', 'play': 206314, 'review': 350, 'video_review': 343, 'favorites': 2357, 'mid': 125943081, 'author': '和花的小跟班', 'description': '-', 'create': '2023-03-22 12:41', 'pic': 'http://i0.hdslb.com/bfs/archive/70020bc524d87fcca0a88a05422ac3b69c06354e.jpg', 'coins': 466, 'duration': '1:02', 'badgepay': False, 'pts': 409918, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311600681', 'bvid': 'BV1QN411K731', 'typename': '野生动物', 'title': '活久见，新王和旧王一起泡澡了（打起来！打起来！）', 'subtitle': '', 'play': 204791, 'review': 151, 'video_review': 56, 'favorites': 2558, 'mid': 1466696147, 'author': '山君不吃鱼', 'description': '-', 'create': '2023-03-25 09:13', 'pic': 'http://i0.hdslb.com/bfs/archive/2495d70ff5db2eb40f2d7567ea500cb52740c97a.jpg', 'coins': 111, 'duration': '0:31', 'badgepay': False, 'pts': 396524, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438978253', 'bvid': 'BV1zL41197CC', 'typename': '野生动物', 'title': '谨以此片纪念 来世间短短几百天的月亮产房小班长小熊猫宝新', 'subtitle': '', 'play': 263856, 'review': 551, 'video_review': 272, 'favorites': 1479, 'mid': 438415588, 'author': '神奇动物b站', 'description': '', 'create': '2023-03-22 19:25', 'pic': 'http://i0.hdslb.com/bfs/archive/4f5b448e8f5bf27df81376a76903e70ef6ee8595.jpg', 'coins': 764, 'duration': '1:20', 'badgepay': False, 'pts': 389282, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696406989', 'bvid': 'BV1nm4y1k7Xj', 'typename': '野生动物', 'title': '奶熊学走路的背影把我萌晕', 'subtitle': '', 'play': 201899, 'review': 114, 'video_review': 96, 'favorites': 2667, 'mid': 1854071141, 'author': '成实圈圈', 'description': '-', 'create': '2023-03-22 18:28', 'pic': 'http://i0.hdslb.com/bfs/archive/5759ec0ed060ab5cacdedb141244315264622109.jpg', 'coins': 179, 'duration': '0:22', 'badgepay': False, 'pts': 387998, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781486104', 'bvid': 'BV1o24y1j7c8', 'typename': '野生动物', 'title': '励志小熊福菀', 'subtitle': '', 'play': 196790, 'review': 384, 'video_review': 327, 'favorites': 2003, 'mid': 1025949925, 'author': '开饭了大熊猫V', 'description': '', 'create': '2023-03-23 11:53', 'pic': 'http://i2.hdslb.com/bfs/archive/59a74669b8011acf55853bdb366d2cabd1ba676f.jpg', 'coins': 1796, 'duration': '0:46', 'badgepay': False, 'pts': 386109, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823991075', 'bvid': 'BV1yg4y1W75r', 'typename': '野生动物', 'title': '《阳光开朗大男孩》专属BGM西直门三太子——么么宝 萌兰', 'subtitle': '', 'play': 186879, 'review': 154, 'video_review': 53, 'favorites': 2340, 'mid': 22514845, 'author': '鸭梨小', 'description': '-', 'create': '2023-03-23 02:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5a3521e69876d83b51ca3adfad28d5a68fb23eba.jpg', 'coins': 1614, 'duration': '0:38', 'badgepay': False, 'pts': 385420, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '611386515', 'bvid': 'BV1n84y137LC', 'typename': '汪星人', 'title': '0元自制的猫咪好物，我求你别学了！', 'subtitle': '', 'play': 1859629, 'review': 948, 'video_review': 186, 'favorites': 56545, 'mid': 410460396, 'author': '朵博士说宠物', 'description': '', 'create': '2023-03-22 18:24', 'pic': 'http://i2.hdslb.com/bfs/archive/2db533789cb55066dd6cba7ff6f8819c9f3fe5b2.jpg', 'coins': 3200, 'duration': '0:49', 'badgepay': False, 'pts': 3583908, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994123384', 'bvid': 'BV11s4y1S7R7', 'typename': '汪星人', 'title': '有点摆烂，又有点积极', 'subtitle': '', 'play': 743514, 'review': 515, 'video_review': 115, 'favorites': 11753, 'mid': 402759669, 'author': '田园犬巡游记', 'description': '-', 'create': '2023-03-25 21:37', 'pic': 'http://i1.hdslb.com/bfs/archive/cc5c9603ec32a18704ae612e27f5fc860934f450.jpg', 'coins': 7144, 'duration': '0:37', 'badgepay': False, 'pts': 1427308, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781271271', 'bvid': 'BV1p24y1E7pr', 'typename': '汪星人', 'title': '狗子:最恨你像个木头', 'subtitle': '', 'play': 682098, 'review': 496, 'video_review': 144, 'favorites': 11282, 'mid': 1629956591, 'author': '吃小兔子的胡萝卜巴', 'description': '-', 'create': '2023-03-20 15:31', 'pic': 'http://i2.hdslb.com/bfs/archive/af4501b9f6cfe2f066b2bc504e672b717a727fbc.jpg', 'coins': 1708, 'duration': '0:19', 'badgepay': False, 'pts': 1334025, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654095414', 'bvid': 'BV1gY4y1S7zu', 'typename': '汪星人', 'title': '一切都来得太突然，我没办法接受，这几天连续晕厥过去很多次，对不起布宝，对不住喜欢布宝的粉丝。', 'subtitle': '', 'play': 733783, 'review': 5333, 'video_review': 1827, 'favorites': 1205, 'mid': 278161237, 'author': '刘布宝', 'description': '-', 'create': '2023-03-25 20:52', 'pic': 'http://i0.hdslb.com/bfs/archive/87672382ffbb35c5c113df5199ae053a3e6dba70.jpg', 'coins': 8099, 'duration': '3:54', 'badgepay': False, 'pts': 1323925, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441599984', 'bvid': 'BV1ZL411D7ZA', 'typename': '汪星人', 'title': '“它特地把小熊的脸舔干净，怕你嫌它脏”', 'subtitle': '', 'play': 575444, 'review': 673, 'video_review': 152, 'favorites': 7639, 'mid': 3493139293670292, 'author': '小月有小橘', 'description': '我真的很幸运，以后也有天使治愈我破碎的生活', 'create': '2023-03-24 14:45', 'pic': 'http://i2.hdslb.com/bfs/archive/7f4b8e0e57e440706056cb9e7a6120b5eabe8c10.jpg', 'coins': 6045, 'duration': '0:30', 'badgepay': False, 'pts': 1160668, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696421621', 'bvid': 'BV1em4y1k7ME', 'typename': '汪星人', 'title': '我太奶奶喊我吃小粑粑', 'subtitle': '', 'play': 1379540, 'review': 383, 'video_review': 224, 'favorites': 7862, 'mid': 338617869, 'author': '田花花', 'description': '-', 'create': '2023-03-23 18:46', 'pic': 'http://i2.hdslb.com/bfs/archive/882f0bd96be23188245fe9d761868138cd73f2cb.jpg', 'coins': 2522, 'duration': '0:53', 'badgepay': False, 'pts': 838553, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696315389', 'bvid': 'BV1Dm4y1r7Ub', 'typename': '汪星人', 'title': '有小孩了狗子会因为被冷落而抑郁吗？至少我不允许', 'subtitle': '', 'play': 358105, 'review': 621, 'video_review': 331, 'favorites': 2995, 'mid': 24648298, 'author': '金啊涛', 'description': 'Bgm《A Thousand Years》The Piano Guys', 'create': '2023-03-21 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/b63a6eba9c0826d46987d73d789da5a5eae0d08b.jpg', 'coins': 10862, 'duration': '2:14', 'badgepay': False, 'pts': 694766, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866372303', 'bvid': 'BV1nV4y1R7vs', 'typename': '汪星人', 'title': '在被窝里睡得正香，忘了狗子们也在床上', 'subtitle': '', 'play': 406598, 'review': 498, 'video_review': 75, 'favorites': 3589, 'mid': 381374122, 'author': '哈百里', 'description': '@giannalippmann', 'create': '2023-03-21 21:07', 'pic': 'http://i0.hdslb.com/bfs/archive/ae0cf0da23d09d4cd543dd6ba080d41f60a5fa74.jpg', 'coins': 160, 'duration': '0:12', 'badgepay': False, 'pts': 600037, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438864596', 'bvid': 'BV15L41197Pa', 'typename': '汪星人', 'title': '它好像知道自己很可爱', 'subtitle': '', 'play': 291565, 'review': 225, 'video_review': 119, 'favorites': 3799, 'mid': 1901793474, 'author': '农场里的猪', 'description': '转载于ins博主', 'create': '2023-03-21 18:34', 'pic': 'http://i1.hdslb.com/bfs/archive/1c11cdb08b419ebeab3308dad35b99edcc635152.jpg', 'coins': 253, 'duration': '1:02', 'badgepay': False, 'pts': 594685, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311420009', 'bvid': 'BV1kP411o7uG', 'typename': '汪星人', 'title': '黑豹收编小卡当小弟，以后都是好兄弟，场子里有事你吭气', 'subtitle': '', 'play': 377478, 'review': 1308, 'video_review': 1214, 'favorites': 493, 'mid': 509278225, 'author': '豫西小丁', 'description': '黑豹收编小卡当小弟，以后都是好兄弟，场子里有事你吭气', 'create': '2023-03-22 15:50', 'pic': 'http://i0.hdslb.com/bfs/archive/f4820909c5a11b9212d34e686c458703c692c0bc.jpg', 'coins': 1578, 'duration': '5:41', 'badgepay': False, 'pts': 514883, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>5177268</v>
+        <v>7407754</v>
       </c>
       <c r="I82" t="n">
-        <v>81127</v>
+        <v>41571</v>
       </c>
       <c r="J82" t="n">
-        <v>90905</v>
+        <v>107162</v>
       </c>
       <c r="K82" t="n">
-        <v>14167</v>
+        <v>22896</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>爬宠</t>
+          <t>野生动物</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>reptiles</t>
+          <t>wild_animal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>鳞甲有灵</t>
+          <t>内有“猛兽”出没</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>/v/animal/reptiles(opens new window)</t>
+          <t>/v/animal/wild_animal</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>动物圈(主分区)</t>
+          <t>动物圈</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[{'aid': '441454676', 'bvid': 'BV1sL411D73x', 'typename': '小宠异宠', 'title': '100只大闸蟹养了10个月，今天全部养到碗里来！', 'subtitle': '', 'play': 695781, 'review': 929, 'video_review': 1567, 'favorites': 2008, 'mid': 107278647, 'author': '熊乐乐大魔王', 'description': '100只大闸蟹养了10个月，今天全部养到碗里来！\n\n不愧是怨种牌大闸蟹，好吃不贵，价格实惠！古德~', 'create': '2023-03-23 23:21', 'pic': 'http://i1.hdslb.com/bfs/archive/91ea831d1f6245afa5991e93a6d059ec5db74956.jpg', 'coins': 11505, 'duration': '6:08', 'badgepay': False, 'pts': 1084701, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993798483', 'bvid': 'BV1Yx4y1w7Gj', 'typename': '小宠异宠', 'title': '猫头鹰宝宝洗澡好乖乖', 'subtitle': '', 'play': 363953, 'review': 721, 'video_review': 324, 'favorites': 10303, 'mid': 3493260236425501, 'author': '阿柴柴ovo', 'description': '', 'create': '2023-03-20 17:04', 'pic': 'http://i2.hdslb.com/bfs/archive/2f677e0b0212e499ba01e6f4ae16217b0641bae3.jpg', 'coins': 2012, 'duration': '1:01', 'badgepay': False, 'pts': 907452, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908990776', 'bvid': 'BV1ZM4y1B7gW', 'typename': '小宠异宠', 'title': '稳准狠的弹弓灭鼠遇见粉丝过程，飞哥膨胀了，害怕老鼠勿入', 'subtitle': '', 'play': 492016, 'review': 598, 'video_review': 2789, 'favorites': 854, 'mid': 478148940, 'author': '城市猎人飞哥', 'description': '-', 'create': '2023-03-23 20:11', 'pic': 'http://i1.hdslb.com/bfs/archive/bd240dee30238726662c8af274cbbec1ef2bcecf.jpg', 'coins': 4829, 'duration': '12:56', 'badgepay': False, 'pts': 816520, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781444464', 'bvid': 'BV1L24y1J7Jx', 'typename': '小宠异宠', 'title': '新成员，小熊蜂来啦！', 'subtitle': '', 'play': 612529, 'review': 268, 'video_review': 258, 'favorites': 12901, 'mid': 1032447031, 'author': '小黑的动物园', 'description': '-', 'create': '2023-03-22 17:37', 'pic': 'http://i2.hdslb.com/bfs/archive/209ebc34ec406ae59b8d7717a1adad16ec895409.jpg', 'coins': 425, 'duration': '1:11', 'badgepay': False, 'pts': 522014, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526405782', 'bvid': 'BV1LM411u72W', 'typename': '小宠异宠', 'title': '各种动物的虹膜鉴赏', 'subtitle': '', 'play': 103622, 'review': 270, 'video_review': 459, 'favorites': 13024, 'mid': 479393651, 'author': '宠物神经科医生高健', 'description': '', 'create': '2023-03-23 16:00', 'pic': 'http://i1.hdslb.com/bfs/archive/6c33b97c8b783e2cec2f8abe2f508ef1d4f128be.jpg', 'coins': 1412, 'duration': '8:16', 'badgepay': False, 'pts': 514650, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438937483', 'bvid': 'BV1qL41197p9', 'typename': '小宠异宠', 'title': '它真的成精了，我不得不信', 'subtitle': '', 'play': 356135, 'review': 480, 'video_review': 941, 'favorites': 1485, 'mid': 421912906, 'author': '天下一场梦', 'description': '', 'create': '2023-03-22 16:33', 'pic': 'http://i1.hdslb.com/bfs/archive/3356bbdad07685c48fdcb28bb42b9cacfc594c86.jpg', 'coins': 2360, 'duration': '4:35', 'badgepay': False, 'pts': 472936, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738782617', 'bvid': 'BV1Gk4y1t7bE', 'typename': '小宠异宠', 'title': '历时十天，将废弃阳台改造成动物乐园', 'subtitle': '', 'play': 228625, 'review': 1069, 'video_review': 1271, 'favorites': 2561, 'mid': 422424246, 'author': '蒙面鸟哥', 'description': '', 'create': '2023-03-20 16:19', 'pic': 'http://i1.hdslb.com/bfs/archive/897d8870a35065368a40ce0b951527151678d039.jpg', 'coins': 18642, 'duration': '5:19', 'badgepay': False, 'pts': 441290, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311278731', 'bvid': 'BV1TP411o7B4', 'typename': '小宠异宠', 'title': '缸里新来了一只奇特的生物，把缸里的小虾米都吃光了，赶紧放生吧', 'subtitle': '', 'play': 270726, 'review': 521, 'video_review': 232, 'favorites': 2562, 'mid': 338304620, 'author': '海鲜解说员', 'description': '', 'create': '2023-03-20 17:50', 'pic': 'http://i0.hdslb.com/bfs/archive/7b44bbc89228470a21f4963cc1e178b3a9312f51.jpg', 'coins': 189, 'duration': '2:15', 'badgepay': False, 'pts': 405795, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569106030', 'bvid': 'BV1Fv4y1L7Uo', 'typename': '小宠异宠', 'title': '啊啊啊 狐狐这叫声，谁能受得了呀', 'subtitle': '', 'play': 332287, 'review': 420, 'video_review': 286, 'favorites': 2762, 'mid': 273451160, 'author': '冰糖雪狸不是梨', 'description': '原频道：Ли Сяо / Alice the Fox\n授权翻译：冰糖雪狸\n私货含量：1.652%\n\n哎嘿，你在看简介耶~\n\n这只没事就大声哔哔的狐狸是阿狸萨\n\n你点了一个赞，狐狐表示很开心，并咬了伊万大叔一口\n\n如果关注一下这只 up，每个月就都可以愉快的吸狐了呀~\n嘿咻！', 'create': '2023-03-25 15:35', 'pic': 'http://i2.hdslb.com/bfs/archive/88eb702a445d86abb65638edd9633310af16c589.jpg', 'coins': 471, 'duration': '2:58', 'badgepay': False, 'pts': 401616, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483861038', 'bvid': 'BV1gT411r7AU', 'typename': '小宠异宠', 'title': '大困困鸡和小困困鸡', 'subtitle': '', 'play': 172375, 'review': 411, 'video_review': 137, 'favorites': 2709, 'mid': 569909558, 'author': '女鸽手陈陈', 'description': '-', 'create': '2023-03-21 17:09', 'pic': 'http://i2.hdslb.com/bfs/archive/767e380d23b570ab500995b9d9f3882d3f985ed9.jpg', 'coins': 225, 'duration': '1:20', 'badgepay': False, 'pts': 383331, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '653852742', 'bvid': 'BV1qY4y1D7oL', 'typename': '野生动物', 'title': '《 以 父 之 名 》', 'subtitle': '', 'play': 2450450, 'review': 1750, 'video_review': 1363, 'favorites': 51503, 'mid': 496783876, 'author': '幸运猎手', 'description': 'BGM：以父之名 - 周杰伦', 'create': '2023-03-21 14:11', 'pic': 'http://i0.hdslb.com/bfs/archive/e7c821086353b0e813c6944d56e860919ae88895.jpg', 'coins': 73875, 'duration': '2:09', 'badgepay': False, 'pts': 3824798, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738779219', 'bvid': 'BV1Vk4y1t7nP', 'typename': '野生动物', 'title': '【兔狲】没人能忍住不去碰它的爪爪！', 'subtitle': '', 'play': 719639, 'review': 464, 'video_review': 202, 'favorites': 10313, 'mid': 1742893744, 'author': '小小小兔狲', 'description': '转载自网络', 'create': '2023-03-20 16:11', 'pic': 'http://i2.hdslb.com/bfs/archive/6f32969884f4e0797511581bcd62e09ef8470c60.jpg', 'coins': 452, 'duration': '0:30', 'badgepay': False, 'pts': 1225517, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439085093', 'bvid': 'BV1GL411R7Fp', 'typename': '野生动物', 'title': '记录女明星被弟弟暴打瞬间~', 'subtitle': '', 'play': 325654, 'review': 240, 'video_review': 131, 'favorites': 4131, 'mid': 516952166, 'author': '胖大飘', 'description': '-', 'create': '2023-03-24 19:58', 'pic': 'http://i1.hdslb.com/bfs/archive/51b3ea38cc8795340b2605bc3ee5cd0d46ec86f5.jpg', 'coins': 368, 'duration': '0:14', 'badgepay': False, 'pts': 656988, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526408588', 'bvid': 'BV1LM411u7W8', 'typename': '野生动物', 'title': '3.22 花花：好久不见，打个招呼~  你们想我了吗？', 'subtitle': '', 'play': 207273, 'review': 351, 'video_review': 344, 'favorites': 2360, 'mid': 125943081, 'author': '和花的小跟班', 'description': '-', 'create': '2023-03-22 12:41', 'pic': 'http://i0.hdslb.com/bfs/archive/70020bc524d87fcca0a88a05422ac3b69c06354e.jpg', 'coins': 470, 'duration': '1:02', 'badgepay': False, 'pts': 411596, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311600681', 'bvid': 'BV1QN411K731', 'typename': '野生动物', 'title': '活久见，新王和旧王一起泡澡了（打起来！打起来！）', 'subtitle': '', 'play': 210726, 'review': 156, 'video_review': 56, 'favorites': 2637, 'mid': 1466696147, 'author': '山君不吃鱼', 'description': '-', 'create': '2023-03-25 09:13', 'pic': 'http://i0.hdslb.com/bfs/archive/2495d70ff5db2eb40f2d7567ea500cb52740c97a.jpg', 'coins': 120, 'duration': '0:31', 'badgepay': False, 'pts': 407912, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823991075', 'bvid': 'BV1yg4y1W75r', 'typename': '野生动物', 'title': '《阳光开朗大男孩》专属BGM西直门三太子——么么宝 萌兰', 'subtitle': '', 'play': 193245, 'review': 158, 'video_review': 54, 'favorites': 2389, 'mid': 22514845, 'author': '鸭梨小', 'description': '-', 'create': '2023-03-23 02:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5a3521e69876d83b51ca3adfad28d5a68fb23eba.jpg', 'coins': 1644, 'duration': '0:38', 'badgepay': False, 'pts': 394055, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438978253', 'bvid': 'BV1zL41197CC', 'typename': '野生动物', 'title': '谨以此片纪念 来世间短短几百天的月亮产房小班长小熊猫宝新', 'subtitle': '', 'play': 264438, 'review': 555, 'video_review': 274, 'favorites': 1488, 'mid': 438415588, 'author': '神奇动物b站', 'description': '', 'create': '2023-03-22 19:25', 'pic': 'http://i0.hdslb.com/bfs/archive/4f5b448e8f5bf27df81376a76903e70ef6ee8595.jpg', 'coins': 764, 'duration': '1:20', 'badgepay': False, 'pts': 390544, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781486104', 'bvid': 'BV1o24y1j7c8', 'typename': '野生动物', 'title': '励志小熊福菀', 'subtitle': '', 'play': 197886, 'review': 387, 'video_review': 331, 'favorites': 2013, 'mid': 1025949925, 'author': '开饭了大熊猫V', 'description': '', 'create': '2023-03-23 11:53', 'pic': 'http://i2.hdslb.com/bfs/archive/59a74669b8011acf55853bdb366d2cabd1ba676f.jpg', 'coins': 1807, 'duration': '0:46', 'badgepay': False, 'pts': 388334, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696406989', 'bvid': 'BV1nm4y1k7Xj', 'typename': '野生动物', 'title': '奶熊学走路的背影把我萌晕', 'subtitle': '', 'play': 202032, 'review': 114, 'video_review': 96, 'favorites': 2666, 'mid': 1854071141, 'author': '成实圈圈', 'description': '-', 'create': '2023-03-22 18:28', 'pic': 'http://i0.hdslb.com/bfs/archive/5759ec0ed060ab5cacdedb141244315264622109.jpg', 'coins': 179, 'duration': '0:22', 'badgepay': False, 'pts': 388137, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909095574', 'bvid': 'BV1hM4y1z7t6', 'typename': '野生动物', 'title': '治愈系的小熊猫', 'subtitle': '', 'play': 171286, 'review': 231, 'video_review': 115, 'favorites': 2981, 'mid': 30391683, 'author': 'December星河', 'description': '第一只叫沙琪玛\n吃东西的和趴在树上的是四川雅安碧峰峡基地的，叫什么不太清楚\n还有只好像叫sily', 'create': '2023-03-25 08:38', 'pic': 'http://i1.hdslb.com/bfs/archive/4e216bbba83cb9a1189842505e0e3d1c7b8038c9.jpg', 'coins': 628, 'duration': '1:20', 'badgepay': False, 'pts': 384033, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>3628049</v>
+        <v>4942629</v>
       </c>
       <c r="I83" t="n">
-        <v>42070</v>
+        <v>80307</v>
       </c>
       <c r="J83" t="n">
-        <v>51169</v>
+        <v>82481</v>
       </c>
       <c r="K83" t="n">
-        <v>18751</v>
+        <v>14167</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>动物综合</t>
+          <t>小宠异宠</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>animal_composite</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>收录除上述子分区外，其余动物相关视频以及非动物主体或多个动物主体的动物相关延伸内容</t>
-        </is>
-      </c>
+          <t>reptiles</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>/v/animal/animal_composite</t>
+          <t>/v/animal/reptiles</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>动物圈(主分区)</t>
+          <t>动物圈</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[{'aid': '951428352', 'bvid': 'BV1ys4y1n7Za', 'typename': '动物综合', 'title': '斗兽场大战限时回归，小土狗大战9只大老鼠，没想到杀敌一千自损八百', 'subtitle': '', 'play': 943710, 'review': 1243, 'video_review': 2882, 'favorites': 1999, 'mid': 1680826166, 'author': '桥头小何', 'description': '斗兽场大战限时回归，小土狗大战9只大老鼠，没想到杀敌一千自损八百', 'create': '2023-03-22 17:45', 'pic': 'http://i0.hdslb.com/bfs/archive/648d43d8c77aa02dc35c70a90a4ba9b8bbca9dfc.jpg', 'coins': 7607, 'duration': '9:48', 'badgepay': False, 'pts': 1267762, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568877131', 'bvid': 'BV1Qv4y1V7iE', 'typename': '动物综合', 'title': '师傅修马蹄，一次收费2000元，看完感觉很值！', 'subtitle': '', 'play': 1272690, 'review': 2321, 'video_review': 3872, 'favorites': 3510, 'mid': 196197424, 'author': '怪咖科技宅', 'description': '转自YouTube', 'create': '2023-03-22 08:27', 'pic': 'http://i1.hdslb.com/bfs/archive/77569a0940359319220908db45f8b9067753e26e.jpg', 'coins': 672, 'duration': '8:16', 'badgepay': False, 'pts': 917740, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439037033', 'bvid': 'BV1KL411R7md', 'typename': '动物综合', 'title': '老鼠：别这样，我也是鼠。黄鼠狼：呸，老子是狼。', 'subtitle': '', 'play': 241195, 'review': 1225, 'video_review': 702, 'favorites': 1332, 'mid': 1791586729, 'author': '秋北阿尼亚', 'description': '-', 'create': '2023-03-25 09:00', 'pic': 'http://i0.hdslb.com/bfs/archive/44d652dd8869696d1ece8220cf28491d54cfe6db.jpg', 'coins': 361, 'duration': '2:32', 'badgepay': False, 'pts': 473897, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396414749', 'bvid': 'BV1fo4y1W7QK', 'typename': '动物综合', 'title': '贝尔箭螳，来自马来西亚，原视频由KamakiriKk发布在推上。', 'subtitle': '', 'play': 183256, 'review': 443, 'video_review': 348, 'favorites': 3066, 'mid': 396246945, 'author': '提议合金', 'description': '贝尔箭螳，来自马来西亚，原视频由KamakiriKk发布在推上。', 'create': '2023-03-23 20:51', 'pic': 'http://i2.hdslb.com/bfs/archive/7425b18b932b3818f00dba1ac2e030145b63bb0c.jpg', 'coins': 204, 'duration': '2:20', 'badgepay': False, 'pts': 422124, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909048697', 'bvid': 'BV1NM4y1z7iS', 'typename': '动物综合', 'title': '小熊猫', 'subtitle': '', 'play': 171789, 'review': 183, 'video_review': 81, 'favorites': 2697, 'mid': 271361424, 'author': 'Johnllllll', 'description': '-', 'create': '2023-03-24 23:23', 'pic': 'http://i1.hdslb.com/bfs/archive/0e719480fdc650c361d254568140f66a39ca6533.jpg', 'coins': 658, 'duration': '0:17', 'badgepay': False, 'pts': 370211, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951252839', 'bvid': 'BV1Hs4y1p7Qq', 'typename': '动物综合', 'title': '喝水', 'subtitle': '', 'play': 1337772, 'review': 749, 'video_review': 623, 'favorites': 3431, 'mid': 3493257409464519, 'author': '骆驼新星', 'description': '天冷喝300分钟左右 天热10分钟1分钟左右换一次气', 'create': '2023-03-20 14:50', 'pic': 'http://i0.hdslb.com/bfs/archive/12d940fd6f390fc05184cc64088fd9988645c650.jpg', 'coins': 548, 'duration': '1:14', 'badgepay': False, 'pts': 335103, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866284248', 'bvid': 'BV1RV4y197qW', 'typename': '动物综合', 'title': '第一次来到海洋馆，一切都好陌生，无处安放的小手可爱得让人心疼…', 'subtitle': '', 'play': 165494, 'review': 196, 'video_review': 103, 'favorites': 2172, 'mid': 3493262484572234, 'author': '萌萌Alien', 'description': '-', 'create': '2023-03-21 16:55', 'pic': 'http://i0.hdslb.com/bfs/archive/f8a75c5bd220a93ab9598a5f98438d1ddf9cebc0.jpg', 'coins': 232, 'duration': '0:34', 'badgepay': False, 'pts': 333546, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696253237', 'bvid': 'BV1F24y147AF', 'typename': '动物综合', 'title': '旅居奥地利大熊猫“阳阳”和它的双胞胎宝宝', 'subtitle': '', 'play': 160567, 'review': 321, 'video_review': 198, 'favorites': 1767, 'mid': 1770266749, 'author': 'feroa', 'description': '-', 'create': '2023-03-20 20:02', 'pic': 'http://i2.hdslb.com/bfs/archive/2fe0ce62a955036af52b8167f503ddf372767ad3.jpg', 'coins': 337, 'duration': '1:05', 'badgepay': False, 'pts': 314377, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439123094', 'bvid': 'BV1rL411Q7yU', 'typename': '动物综合', 'title': '我们丫丫快点好起来吧 # 丫丫 # 王鹏馆长 # 熊猫 # 丫丫回来吧', 'subtitle': '', 'play': 200116, 'review': 131, 'video_review': 48, 'favorites': 1204, 'mid': 3461578997369460, 'author': '霈洁想吃蛋挞', 'description': '-', 'create': '2023-03-24 12:22', 'pic': 'http://i1.hdslb.com/bfs/archive/f32d6e61d59bc6900f49a685aca2a06c3586961a.jpg', 'coins': 768, 'duration': '0:29', 'badgepay': False, 'pts': 283980, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866361527', 'bvid': 'BV1bV4y1R7pM', 'typename': '动物综合', 'title': '你听过鹿鸣吗？仿佛是穿越岁月的呼唤', 'subtitle': '', 'play': 98350, 'review': 161, 'video_review': 72, 'favorites': 2105, 'mid': 407247601, 'author': '浙江省小动物保护协会', 'description': '', 'create': '2023-03-20 19:21', 'pic': 'http://i0.hdslb.com/bfs/archive/a9ac7c0b3af3534d56afd308ca01ed3c0870aec6.jpg', 'coins': 233, 'duration': '0:16', 'badgepay': False, 'pts': 232880, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '441454676', 'bvid': 'BV1sL411D73x', 'typename': '小宠异宠', 'title': '100只大闸蟹养了10个月，今天全部养到碗里来！', 'subtitle': '', 'play': 701350, 'review': 931, 'video_review': 1573, 'favorites': 2019, 'mid': 107278647, 'author': '熊乐乐大魔王', 'description': '100只大闸蟹养了10个月，今天全部养到碗里来！\n\n不愧是怨种牌大闸蟹，好吃不贵，价格实惠！古德~', 'create': '2023-03-23 23:21', 'pic': 'http://i1.hdslb.com/bfs/archive/91ea831d1f6245afa5991e93a6d059ec5db74956.jpg', 'coins': 11567, 'duration': '6:08', 'badgepay': False, 'pts': 1090198, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993798483', 'bvid': 'BV1Yx4y1w7Gj', 'typename': '小宠异宠', 'title': '猫头鹰宝宝洗澡好乖乖', 'subtitle': '', 'play': 367308, 'review': 726, 'video_review': 326, 'favorites': 10435, 'mid': 3493260236425501, 'author': '阿柴柴ovo', 'description': '', 'create': '2023-03-20 17:04', 'pic': 'http://i2.hdslb.com/bfs/archive/2f677e0b0212e499ba01e6f4ae16217b0641bae3.jpg', 'coins': 2055, 'duration': '1:01', 'badgepay': False, 'pts': 915239, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908990776', 'bvid': 'BV1ZM4y1B7gW', 'typename': '小宠异宠', 'title': '稳准狠的弹弓灭鼠遇见粉丝过程，飞哥膨胀了，害怕老鼠勿入', 'subtitle': '', 'play': 509100, 'review': 611, 'video_review': 2843, 'favorites': 881, 'mid': 478148940, 'author': '城市猎人飞哥', 'description': '-', 'create': '2023-03-23 20:11', 'pic': 'http://i1.hdslb.com/bfs/archive/bd240dee30238726662c8af274cbbec1ef2bcecf.jpg', 'coins': 4927, 'duration': '12:56', 'badgepay': False, 'pts': 835622, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781444464', 'bvid': 'BV1L24y1J7Jx', 'typename': '小宠异宠', 'title': '新成员，小熊蜂来啦！', 'subtitle': '', 'play': 617923, 'review': 271, 'video_review': 259, 'favorites': 13001, 'mid': 1032447031, 'author': '小黑的动物园', 'description': '-', 'create': '2023-03-22 17:37', 'pic': 'http://i2.hdslb.com/bfs/archive/209ebc34ec406ae59b8d7717a1adad16ec895409.jpg', 'coins': 425, 'duration': '1:11', 'badgepay': False, 'pts': 528016, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438937483', 'bvid': 'BV1qL41197p9', 'typename': '小宠异宠', 'title': '它真的成精了，我不得不信', 'subtitle': '', 'play': 359325, 'review': 481, 'video_review': 946, 'favorites': 1494, 'mid': 421912906, 'author': '天下一场梦', 'description': '', 'create': '2023-03-22 16:33', 'pic': 'http://i1.hdslb.com/bfs/archive/3356bbdad07685c48fdcb28bb42b9cacfc594c86.jpg', 'coins': 2377, 'duration': '4:35', 'badgepay': False, 'pts': 476889, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738782617', 'bvid': 'BV1Gk4y1t7bE', 'typename': '小宠异宠', 'title': '历时十天，将废弃阳台改造成动物乐园', 'subtitle': '', 'play': 229716, 'review': 1069, 'video_review': 1274, 'favorites': 2566, 'mid': 422424246, 'author': '蒙面鸟哥', 'description': '', 'create': '2023-03-20 16:19', 'pic': 'http://i1.hdslb.com/bfs/archive/897d8870a35065368a40ce0b951527151678d039.jpg', 'coins': 18692, 'duration': '5:19', 'badgepay': False, 'pts': 443161, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866506260', 'bvid': 'BV1HV4y1X7jJ', 'typename': '小宠异宠', 'title': '社交很牛的鸟，发现了目标，它能得手吗？请看到最后，哈哈', 'subtitle': '', 'play': 194935, 'review': 448, 'video_review': 241, 'favorites': 3539, 'mid': 1912417575, 'author': '我和小呆的幸福生活', 'description': '-', 'create': '2023-03-25 18:47', 'pic': 'http://i2.hdslb.com/bfs/archive/989622a65446944c29600185b458cc933bf2a6a6.jpg', 'coins': 574, 'duration': '1:35', 'badgepay': False, 'pts': 442147, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569106030', 'bvid': 'BV1Fv4y1L7Uo', 'typename': '小宠异宠', 'title': '啊啊啊 狐狐这叫声，谁能受得了呀', 'subtitle': '', 'play': 371767, 'review': 458, 'video_review': 320, 'favorites': 3006, 'mid': 273451160, 'author': '冰糖雪狸不是梨', 'description': '原频道：Ли Сяо / Alice the Fox\n授权翻译：冰糖雪狸\n私货含量：1.652%\n\n哎嘿，你在看简介耶~\n\n这只没事就大声哔哔的狐狸是阿狸萨\n\n你点了一个赞，狐狐表示很开心，并咬了伊万大叔一口\n\n如果关注一下这只 up，每个月就都可以愉快的吸狐了呀~\n嘿咻！', 'create': '2023-03-25 15:35', 'pic': 'http://i2.hdslb.com/bfs/archive/88eb702a445d86abb65638edd9633310af16c589.jpg', 'coins': 497, 'duration': '2:58', 'badgepay': False, 'pts': 439172, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311278731', 'bvid': 'BV1TP411o7B4', 'typename': '小宠异宠', 'title': '缸里新来了一只奇特的生物，把缸里的小虾米都吃光了，赶紧放生吧', 'subtitle': '', 'play': 272442, 'review': 521, 'video_review': 232, 'favorites': 2575, 'mid': 338304620, 'author': '海鲜解说员', 'description': '', 'create': '2023-03-20 17:50', 'pic': 'http://i0.hdslb.com/bfs/archive/7b44bbc89228470a21f4963cc1e178b3a9312f51.jpg', 'coins': 191, 'duration': '2:15', 'badgepay': False, 'pts': 408365, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483861038', 'bvid': 'BV1gT411r7AU', 'typename': '小宠异宠', 'title': '大困困鸡和小困困鸡', 'subtitle': '', 'play': 175292, 'review': 413, 'video_review': 138, 'favorites': 2750, 'mid': 569909558, 'author': '女鸽手陈陈', 'description': '-', 'create': '2023-03-21 17:09', 'pic': 'http://i2.hdslb.com/bfs/archive/767e380d23b570ab500995b9d9f3882d3f985ed9.jpg', 'coins': 227, 'duration': '1:20', 'badgepay': False, 'pts': 388164, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>4774939</v>
+        <v>3799158</v>
       </c>
       <c r="I84" t="n">
-        <v>11620</v>
+        <v>41532</v>
       </c>
       <c r="J84" t="n">
-        <v>23283</v>
+        <v>42266</v>
       </c>
       <c r="K84" t="n">
-        <v>17584</v>
+        <v>18751</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>鬼畜调教</t>
+          <t>动物二创</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>guide</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>使用素材在音频、画面上做一定处理，达到与bgm一定的同步感</t>
-        </is>
-      </c>
+          <t>second_edition</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>/v/kichiku/guide(opens new window)</t>
+          <t>/v/animal/second_edition</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>鬼畜(主分区)</t>
+          <t>动物圈</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[{'aid': '396557098', 'bvid': 'BV1Co4y1s7mV', 'typename': '鬼畜调教', 'title': '优 美 的 南 京 话', 'subtitle': '', 'play': 2381932, 'review': 2152, 'video_review': 920, 'favorites': 30059, 'mid': 281149281, 'author': 'AB鲜', 'description': '优美的蓝鲸话\n视频来源：BV1uh411k79t', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/3b8dd86614b061201fb07791deb5d223347a0bd8.jpg', 'coins': 14547, 'duration': '1:21', 'badgepay': False, 'pts': 3304917, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353941080', 'bvid': 'BV1iX4y1d7oe', 'typename': '鬼畜调教', 'title': '【神里】⚡你能忍受王手的洗脑么⚡汪⚡', 'subtitle': '', 'play': 881288, 'review': 1013, 'video_review': 1197, 'favorites': 51810, 'mid': 115058458, 'author': '莉可Kurisu', 'description': '我就是神里绫华的狗！！！\n祝大家一发入魂 十连满命~！\n\nBGM：young boss 2.0\n*所有图片素材均来源于网络*', 'create': '2023-03-24 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8f8168c3b0b862879410f93516f22a207bb942c9.jpg', 'coins': 25855, 'duration': '1:34', 'badgepay': False, 'pts': 2627548, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993925740', 'bvid': 'BV1Gx4y1A7wy', 'typename': '鬼畜调教', 'title': 'Siu~~↗~~↘~~↗', 'subtitle': '', 'play': 507722, 'review': 532, 'video_review': 603, 'favorites': 8664, 'mid': 40489639, 'author': '球球特别大', 'description': 'BGM:\nVitas - Opera 2\n大野克夫 - 「名探偵コナン」~メインテーマ(バラード・ヴァージョン)\n浦琦璋 - 渔舟唱晚混音版\n摇篮曲\nTitanic • My Heart Will Go On\n金莎 - 星月神话\nVarious Artists - Thomas and Friends\n\n柯南那段下跪合集来自：BV1NE411V7YQ\n前摇过场bgm：JOHEM - AnKulé!', 'create': '2023-03-23 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c9e22b5e106a20b1964874fbbd0220ffbbca3850.jpg', 'coins': 7164, 'duration': '2:06', 'badgepay': False, 'pts': 1120189, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568934436', 'bvid': 'BV1uv4y1576R', 'typename': '鬼畜调教', 'title': '百 京 爷，就 是 爷！', 'subtitle': '', 'play': 850212, 'review': 760, 'video_review': 124, 'favorites': 5161, 'mid': 12562611, 'author': '就叫阿路8', 'description': '那叫一个地道~滴滴滴滴滴滴滴滴叨叨叨叨叨叨叨叨\n\nBgm：The\xa0Hampster\xa0Dance\xa0Song（原曲禁止乱刷！！）\n混音：@秋名山上的切莫 ', 'create': '2023-03-23 11:30', 'pic': 'http://i0.hdslb.com/bfs/archive/83425b5e886bd786bf931f7a3b02cad40354c267.jpg', 'coins': 2817, 'duration': '1:32', 'badgepay': False, 'pts': 1029679, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908813786', 'bvid': 'BV1vM4y167uo', 'typename': '鬼畜调教', 'title': '这是蛋仔派对该有的动静？', 'subtitle': '', 'play': 269611, 'review': 248, 'video_review': 305, 'favorites': 17123, 'mid': 25911961, 'author': '龙大人不喷火', 'description': '对大佬@莉可Kurisu  洗脑神作：BV1FR4y1i77b  的模仿，谢谢授权啵啵\n素材：蛋仔派对\n伴奏：infinite power', 'create': '2023-03-21 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7ed540809c1fa599b8b8cf18be1cef68ef462a19.jpg', 'coins': 3781, 'duration': '1:15', 'badgepay': False, 'pts': 882519, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993981123', 'bvid': 'BV1Jx4y1A7Rw', 'typename': '鬼畜调教', 'title': '男！！！人！！！', 'subtitle': '', 'play': 555210, 'review': 518, 'video_review': 320, 'favorites': 4274, 'mid': 1706344, 'author': '昔日友人', 'description': '素材虎富婆', 'create': '2023-03-23 19:14', 'pic': 'http://i0.hdslb.com/bfs/archive/a8b6292385c051c91a5151a4cfc94d74143f260b.jpg', 'coins': 636, 'duration': '1:18', 'badgepay': False, 'pts': 771378, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866588527', 'bvid': 'BV1oV4y1X7xz', 'typename': '鬼畜调教', 'title': '【明星大侦探RAP】再看一遍，小脸通红！', 'subtitle': '', 'play': 401069, 'review': 244, 'video_review': 189, 'favorites': 3644, 'mid': 10977842, 'author': '董润祺', 'description': 'BGM：《Despre Tine》-O-Zone\n冷知识：点赞是免费的，却可以让UP开心一整天=v=', 'create': '2023-03-24 12:10', 'pic': 'http://i0.hdslb.com/bfs/archive/b465d2679b170058fd4a16c3932623247044430d.jpg', 'coins': 3871, 'duration': '1:30', 'badgepay': False, 'pts': 768425, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993764598', 'bvid': 'BV1Px4y1N7hx', 'typename': '鬼畜调教', 'title': '“听法官的话，认罪又认罚”', 'subtitle': '', 'play': 188139, 'review': 634, 'video_review': 295, 'favorites': 5170, 'mid': 204349229, 'author': '泷子丶', 'description': '偷了几个电棍笑传的头\n制作：泷子丶', 'create': '2023-03-21 17:31', 'pic': 'http://i1.hdslb.com/bfs/archive/3380da34f44293eb19f0dc242976324daecc3a51.jpg', 'coins': 11043, 'duration': '2:34', 'badgepay': False, 'pts': 488586, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909023118', 'bvid': 'BV1MM4y1z7JW', 'typename': '鬼畜调教', 'title': '【洗脑循环】菲谢尔☆真是太可爱啦~小艾咪来你给你洗脑啦！', 'subtitle': '', 'play': 139113, 'review': 172, 'video_review': 131, 'favorites': 8723, 'mid': 427652006, 'author': '柚卡yk', 'description': 'BGM：Linear Slope Plus\n\n感谢大家的观看~', 'create': '2023-03-24 18:05', 'pic': 'http://i2.hdslb.com/bfs/archive/65b0f729a980c16420885a3d110425953237e13b.jpg', 'coins': 2172, 'duration': '1:07', 'badgepay': False, 'pts': 464077, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653997550', 'bvid': 'BV1HY4y1Q77o', 'typename': '鬼畜调教', 'title': '噢啊哎哦 咯哒咯哒 哎哎哎哎 几个蛋', 'subtitle': '', 'play': 155681, 'review': 359, 'video_review': 194, 'favorites': 1475, 'mid': 515993, 'author': '枪弹轨迹', 'description': '纯鬼畜，原曲不使用，做完我整个人都噢啊哎哦了\nBGM：Take Off And Land', 'create': '2023-03-24 12:05', 'pic': 'http://i2.hdslb.com/bfs/archive/6bd7553ad98712573552649f55fdadc0097dcf99.jpg', 'coins': 2219, 'duration': '1:43', 'badgepay': False, 'pts': 312969, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '951428352', 'bvid': 'BV1ys4y1n7Za', 'typename': '动物综合', 'title': '斗兽场大战限时回归，小土狗大战9只大老鼠，没想到杀敌一千自损八百', 'subtitle': '', 'play': 945651, 'review': 1246, 'video_review': 2890, 'favorites': 2013, 'mid': 1680826166, 'author': '桥头小何', 'description': '斗兽场大战限时回归，小土狗大战9只大老鼠，没想到杀敌一千自损八百', 'create': '2023-03-22 17:45', 'pic': 'http://i0.hdslb.com/bfs/archive/648d43d8c77aa02dc35c70a90a4ba9b8bbca9dfc.jpg', 'coins': 7653, 'duration': '9:48', 'badgepay': False, 'pts': 1270281, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568877131', 'bvid': 'BV1Qv4y1V7iE', 'typename': '动物综合', 'title': '师傅修马蹄，一次收费2000元，看完感觉很值！', 'subtitle': '', 'play': 1282604, 'review': 2338, 'video_review': 3900, 'favorites': 3528, 'mid': 196197424, 'author': '怪咖科技宅', 'description': '转自YouTube', 'create': '2023-03-22 08:27', 'pic': 'http://i1.hdslb.com/bfs/archive/77569a0940359319220908db45f8b9067753e26e.jpg', 'coins': 675, 'duration': '8:16', 'badgepay': False, 'pts': 922706, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909048697', 'bvid': 'BV1NM4y1z7iS', 'typename': '动物综合', 'title': '小熊猫', 'subtitle': '', 'play': 394853, 'review': 487, 'video_review': 190, 'favorites': 5668, 'mid': 271361424, 'author': 'Johnllllll', 'description': '-', 'create': '2023-03-24 23:23', 'pic': 'http://i1.hdslb.com/bfs/archive/0e719480fdc650c361d254568140f66a39ca6533.jpg', 'coins': 1487, 'duration': '0:17', 'badgepay': False, 'pts': 785291, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439037033', 'bvid': 'BV1KL411R7md', 'typename': '动物综合', 'title': '老鼠：别这样，我也是鼠。黄鼠狼：呸，老子是狼。', 'subtitle': '', 'play': 241392, 'review': 1231, 'video_review': 702, 'favorites': 1334, 'mid': 1791586729, 'author': '秋北阿尼亚', 'description': '-', 'create': '2023-03-25 09:00', 'pic': 'http://i0.hdslb.com/bfs/archive/44d652dd8869696d1ece8220cf28491d54cfe6db.jpg', 'coins': 361, 'duration': '2:32', 'badgepay': False, 'pts': 474299, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396414749', 'bvid': 'BV1fo4y1W7QK', 'typename': '动物综合', 'title': '贝尔箭螳，来自马来西亚，原视频由KamakiriKk发布在推上。', 'subtitle': '', 'play': 185815, 'review': 447, 'video_review': 350, 'favorites': 3117, 'mid': 396246945, 'author': '苗谷苗谷', 'description': '贝尔箭螳，来自马来西亚，原视频由KamakiriKk发布在推上。', 'create': '2023-03-23 20:51', 'pic': 'http://i2.hdslb.com/bfs/archive/7425b18b932b3818f00dba1ac2e030145b63bb0c.jpg', 'coins': 205, 'duration': '2:20', 'badgepay': False, 'pts': 427102, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866284248', 'bvid': 'BV1RV4y197qW', 'typename': '动物综合', 'title': '第一次来到海洋馆，一切都好陌生，无处安放的小手可爱得让人心疼…', 'subtitle': '', 'play': 179750, 'review': 214, 'video_review': 110, 'favorites': 2472, 'mid': 3493262484572234, 'author': '萌萌Alien', 'description': '-', 'create': '2023-03-21 16:55', 'pic': 'http://i0.hdslb.com/bfs/archive/f8a75c5bd220a93ab9598a5f98438d1ddf9cebc0.jpg', 'coins': 267, 'duration': '0:34', 'badgepay': False, 'pts': 361813, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951252839', 'bvid': 'BV1Hs4y1p7Qq', 'typename': '动物综合', 'title': '喝水', 'subtitle': '', 'play': 1343820, 'review': 755, 'video_review': 626, 'favorites': 3447, 'mid': 3493257409464519, 'author': '骆驼新星', 'description': '天冷喝300分钟左右 天热10分钟1分钟左右换一次气', 'create': '2023-03-20 14:50', 'pic': 'http://i0.hdslb.com/bfs/archive/12d940fd6f390fc05184cc64088fd9988645c650.jpg', 'coins': 548, 'duration': '1:14', 'badgepay': False, 'pts': 337649, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696253237', 'bvid': 'BV1F24y147AF', 'typename': '动物综合', 'title': '旅居奥地利大熊猫“阳阳”和它的双胞胎宝宝', 'subtitle': '', 'play': 162597, 'review': 325, 'video_review': 199, 'favorites': 1786, 'mid': 1770266749, 'author': 'feroa', 'description': '-', 'create': '2023-03-20 20:02', 'pic': 'http://i2.hdslb.com/bfs/archive/2fe0ce62a955036af52b8167f503ddf372767ad3.jpg', 'coins': 340, 'duration': '1:05', 'badgepay': False, 'pts': 318481, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '439123094', 'bvid': 'BV1rL411Q7yU', 'typename': '动物综合', 'title': '我们丫丫快点好起来吧 # 丫丫 # 王鹏馆长 # 熊猫 # 丫丫回来吧', 'subtitle': '', 'play': 205650, 'review': 137, 'video_review': 53, 'favorites': 1235, 'mid': 3461578997369460, 'author': '霈洁想吃蛋挞', 'description': '-', 'create': '2023-03-24 12:22', 'pic': 'http://i1.hdslb.com/bfs/archive/f32d6e61d59bc6900f49a685aca2a06c3586961a.jpg', 'coins': 786, 'duration': '0:29', 'badgepay': False, 'pts': 291706, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226548675', 'bvid': 'BV1bh411G7d1', 'typename': '动物综合', 'title': '震惊！原来星期一不是狐狸！是一只…', 'subtitle': '', 'play': 117698, 'review': 121, 'video_review': 52, 'favorites': 1371, 'mid': 485259509, 'author': '星期一和礼拜五', 'description': '-', 'create': '2023-03-25 18:27', 'pic': 'http://i0.hdslb.com/bfs/archive/097662a583680c22314e87a1f16709728043ce40.jpg', 'coins': 106, 'duration': '0:37', 'badgepay': False, 'pts': 219671, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>6329977</v>
+        <v>5059830</v>
       </c>
       <c r="I85" t="n">
-        <v>74105</v>
+        <v>12428</v>
       </c>
       <c r="J85" t="n">
-        <v>136103</v>
+        <v>25971</v>
       </c>
       <c r="K85" t="n">
-        <v>2335</v>
+        <v>17584</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>音MAD</t>
+          <t>动物综合</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>mad</t>
+          <t>animal_composite</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>使用素材音频进行一定的二次创作来达到还原原曲的非商业性质稿件</t>
+          <t>收录除上述子分区外，其余动物相关视频以及非动物主体或多个动物主体的动物相关延伸内容</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>/v/kichiku/mad/v/kichiku/mad(opens new window)</t>
+          <t>/v/animal/animal_composite</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>鬼畜(主分区)</t>
+          <t>动物圈</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[{'aid': '396302316', 'bvid': 'BV1wo4y1B7YW', 'typename': '音MAD', 'title': '米哈莉~米哈莉~米哈莉~', 'subtitle': '', 'play': 31490, 'review': 80, 'video_review': 7, 'favorites': 696, 'mid': 7104127, 'author': '阿莫西不灵_塔塔', 'description': '“就这样，真寻在女孩子的道路上渐行渐远……”\n\n当初找了一下，发现原作者竟然有放出Instrument文件，就直接拿来用了，感谢感谢。。。\n前前后后拖了个把月，不知不觉竟然本季都要完结了。\n当然跟喵内比是完全比不过，那是大师之作，我这还远远不够，应当继续修炼。\n不过最近沉迷BA，不知道下面是完成制作“XXx的回廊”的梦想，还是当个sensei做学生的音mad。', 'create': '2023-03-21 17:39', 'pic': 'http://i1.hdslb.com/bfs/archive/f76074c3ad7fc5fadea7c7716e586be235ee6204.jpg', 'coins': 355, 'duration': '1:40', 'badgepay': False, 'pts': 72722, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268794801', 'bvid': 'BV1ic411j7Gd', 'typename': '音MAD', 'title': 'ボク', 'subtitle': '', 'play': 7256, 'review': 47, 'video_review': 12, 'favorites': 816, 'mid': 1761521644, 'author': 'たかはる277', 'description': '', 'create': '2023-03-21 20:52', 'pic': 'http://i0.hdslb.com/bfs/archive/dc9eef6c1e87438b104121eabca157b5a526f0fc.jpg', 'coins': 202, 'duration': '1:16', 'badgepay': False, 'pts': 33979, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866610517', 'bvid': 'BV1XV4y1X7cF', 'typename': '音MAD', 'title': '强风大背头', 'subtitle': '', 'play': 10400, 'review': 55, 'video_review': 3, 'favorites': 507, 'mid': 13773749, 'author': 'noruneru', 'description': '自制\n好玩', 'create': '2023-03-25 17:49', 'pic': 'http://i0.hdslb.com/bfs/archive/376fe7b28a5946127c409a261c1ce7ecbf7da2dd.jpg', 'coins': 158, 'duration': '0:20', 'badgepay': False, 'pts': 33217, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611612729', 'bvid': 'BV1B84y1u7p4', 'typename': '音MAD', 'title': '电棍：米拉奇战记♿', 'subtitle': '', 'play': 9821, 'review': 70, 'video_review': 14, 'favorites': 181, 'mid': 492710090, 'author': 'DarkAKun', 'description': '这个视频原本想做成原曲不使用，不过没找到能当鼓的素材，用了原版音乐提取出来的鼓声，混音也不会只加了点混响，视频部分随便找的游戏录像，用脚本套了一下再用ae加了个音频频谱不想做了。\n总结：烂完了', 'create': '2023-03-25 01:16', 'pic': 'http://i2.hdslb.com/bfs/archive/8838af09ed59aa7b0a4a638cbadbcc3c9a5b67ff.jpg', 'coins': 96, 'duration': '2:43', 'badgepay': False, 'pts': 25115, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993982985', 'bvid': 'BV1Jx4y1A7nd', 'typename': '音MAD', 'title': '【少女终末旅行】二人的沙丁鱼', 'subtitle': '', 'play': 3848, 'review': 114, 'video_review': 12, 'favorites': 487, 'mid': 3493126662523730, 'author': '九冻夜雀舌', 'description': '因为自认为海鲜曲与少终总有不可探知的相性，所以做了出来\n在剪的时候想到了很多，将部分歌词与动画最后一集的内容联系起来让我时常倒吸凉气，\n也许4号和tkmiz在某种程度上确实有一些思维的共性吧...\n\n\n千户音源来自@雨坂Amasaka \n尤莉音源来自外网\n\n*建议使用耳机*\n\n第一次做音mad + 调音类视频，很多地方都不是很到位，希望谅解\n\n希望每个人都能学会与绝望 和睦共处吧', 'create': '2023-03-22 17:21', 'pic': 'http://i1.hdslb.com/bfs/archive/a117119132189bb45fdcf9958e8b921641d6629b.jpg', 'coins': 296, 'duration': '3:10', 'badgepay': False, 'pts': 21921, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441473994', 'bvid': 'BV1EL411D79k', 'typename': '音MAD', 'title': "It's Peanut Butter Mountain Time!!! 注意是转载非自制", 'subtitle': '', 'play': 7533, 'review': 19, 'video_review': 3, 'favorites': 265, 'mid': 1508544796, 'author': '每天没法开心起来', 'description': "https://www.youtube.com/watch?v=kdpLM_wSGGc\n原作者：pelzer\nBGM：胡桃夹子-魔王的宫殿（另称“山丘之王”）\n将恶搞之家与魔王曲一起搭配感觉很毫无违和感呢。\n究极原版：It's Peanut Butter Jelly Time!!!（av39939028）", 'create': '2023-03-23 12:18', 'pic': 'http://i1.hdslb.com/bfs/archive/24d339aafa5f60c4f0788633d210e233edfbf5a8.jpg', 'coins': 28, 'duration': '1:18', 'badgepay': False, 'pts': 20433, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226441156', 'bvid': 'BV1eb411o7EL', 'typename': '音MAD', 'title': '【音mad/AI VOCALOID】水月 ロストアンブレラ', 'subtitle': '', 'play': 3662, 'review': 44, 'video_review': 20, 'favorites': 515, 'mid': 229719144, 'author': 'gxLight', 'description': '原曲：ロストアンブレラ/lost umbrella(yuigot Remix)\n音频：gxLight\nPV：gxLight\n作画：茶色哭哭\nvocal：水月\nAI协助：不知道4576\n模型：LovelyR十三\n------\n第一次尝试混曲音mad 同时也融入了AI人声的运用\nPV也尝试了类BV1gT4y1e7xY 的MG小人动画\n因为当时AI唱不上去所以还是采用了降key的方式\n同时也基本上是首次尝试将所有和弦全部耳扒出来 分为左右声道\n大概是集大成作（\n水月肉鸽4结局还没出来 于是趁今天先发了', 'create': '2023-03-22 18:15', 'pic': 'http://i0.hdslb.com/bfs/archive/f2a8e7477d8e5f336b7ef6382d92dd6071837bf6.jpg', 'coins': 253, 'duration': '1:20', 'badgepay': False, 'pts': 19910, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994013632', 'bvid': 'BV18x4y1A7eB', 'typename': '音MAD', 'title': '【真寻音mad】别当病女了！', 'subtitle': '', 'play': 6227, 'review': 64, 'video_review': 26, 'favorites': 211, 'mid': 230190435, 'author': '不-想-起-名', 'description': '别酱动画完结了，挺不错的一部番，所以打算做个音mad送小寻子走\n第一次做音mad 还不是很完善 请大佬斧正', 'create': '2023-03-25 09:57', 'pic': 'http://i1.hdslb.com/bfs/archive/d97cfe6b8c0e8d04de37acbf431d200ffcf37503.jpg', 'coins': 120, 'duration': '2:38', 'badgepay': False, 'pts': 18691, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483905840', 'bvid': 'BV1VT411r7BN', 'typename': '音MAD', 'title': '终末卡农', 'subtitle': '', 'play': 3875, 'review': 91, 'video_review': 2, 'favorites': 309, 'mid': 538183765, 'author': '驹草JX', 'description': '随便做的，新修的音试用一下～', 'create': '2023-03-22 11:20', 'pic': 'http://i0.hdslb.com/bfs/archive/4775b0d05d1156fbfe2bd277767d41aa48bf0e01.jpg', 'coins': 268, 'duration': '2:20', 'badgepay': False, 'pts': 17189, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311641260', 'bvid': 'BV19N411K74A', 'typename': '音MAD', 'title': '电影 / 结束乐队', 'subtitle': '', 'play': 3034, 'review': 36, 'video_review': 6, 'favorites': 429, 'mid': 783330, 'author': '南木林西林北林', 'description': 'sm41992751 / https://youtu.be/Dfi5FTOzNAg\n作者: ぶらん', 'create': '2023-03-26 18:48', 'pic': 'http://i2.hdslb.com/bfs/archive/341fd1dea91e48f06c10defd02aa4a477af6f25b.jpg', 'coins': 109, 'duration': '3:31', 'badgepay': False, 'pts': 16586, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '526616806', 'bvid': 'BV18M411g7Fx', 'typename': '动物二创', 'title': '《棕 熊 的 鲑 鱼 盛 宴》', 'subtitle': '', 'play': 1969027, 'review': 1929, 'video_review': 2116, 'favorites': 16406, 'mid': 3493136676424261, 'author': '狂野脉动', 'description': '', 'create': '2023-03-24 10:59', 'pic': 'http://i2.hdslb.com/bfs/archive/c264dad844c8ef5a2be05c5626e1c896d2cfb536.jpg', 'coins': 2747, 'duration': '4:14', 'badgepay': False, 'pts': 2109553, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908875880', 'bvid': 'BV1GM4y1B75U', 'typename': '动物二创', 'title': '当狗犯错被赶出去面壁之后', 'subtitle': '', 'play': 576974, 'review': 527, 'video_review': 324, 'favorites': 7403, 'mid': 1744959662, 'author': '钮祜禄-安舒', 'description': '-', 'create': '2023-03-23 20:12', 'pic': 'http://i0.hdslb.com/bfs/archive/923d8e0eacaec73417c21da5b3b39694a51d70da.jpg', 'coins': 3661, 'duration': '1:02', 'badgepay': False, 'pts': 1139552, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568784458', 'bvid': 'BV1Pv4y1j776', 'typename': '动物二创', 'title': '根 本 不 够 睡 ！', 'subtitle': '', 'play': 519490, 'review': 861, 'video_review': 420, 'favorites': 4862, 'mid': 6421869, 'author': '喵与茶', 'description': '今天是世界睡眠日！一起睡个好觉吧！\n欢迎来吸猫群聊天嗷104971215喵与茶，每次更新也会第一时间通知~关注一下呀！\n这是一个每条评论都会回复的UP呦！\n下期见啦！本期Bgm：1. 人生态度（改版）--karen.欣欣怡 2. LOVE HEART ❤--DENKI SAMA', 'create': '2023-03-21 12:03', 'pic': 'http://i0.hdslb.com/bfs/archive/5e9492be6812929c9100b493edb687d1cd01d847.jpg', 'coins': 2654, 'duration': '1:28', 'badgepay': False, 'pts': 924998, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226257531', 'bvid': 'BV14b411d7xh', 'typename': '动物二创', 'title': '攒 劲 的 节 目', 'subtitle': '', 'play': 512533, 'review': 432, 'video_review': 1520, 'favorites': 2417, 'mid': 1335713025, 'author': '知了解压萌物', 'description': '视频素材来源：纪录片《失败掠食者》、《动物爱情故事》、《北极熊/Polar.Bear》、《America the Beautiful》以及网络，有演绎成分；', 'create': '2023-03-20 21:27', 'pic': 'http://i1.hdslb.com/bfs/archive/837bafd88745211fcdabb779cea1431d744367b0.jpg', 'coins': 7641, 'duration': '6:00', 'badgepay': False, 'pts': 771208, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483962511', 'bvid': 'BV1ZT411B7th', 'typename': '动物二创', 'title': '修勾夺笋，但是日语', 'subtitle': '', 'play': 484214, 'review': 266, 'video_review': 339, 'favorites': 3111, 'mid': 15076745, 'author': '彩虹酱哇', 'description': '原视频：无拘无束（狗狗名字叫多多噢~）\n＆配音和文案原创＆\n＆纯属只是喜欢配音和整活＆\n＆如有侵权抱歉请本人联系我第一时间删除＆', 'create': '2023-03-22 15:27', 'pic': 'http://i1.hdslb.com/bfs/archive/86721619d7330bf70e8bfbba9b9544ec8e8051f3.jpg', 'coins': 2093, 'duration': '1:03', 'badgepay': False, 'pts': 668418, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823856261', 'bvid': 'BV1Cg4y1x7nK', 'typename': '动物二创', 'title': '爷爷想检查福宝的牙齿  福宝竟然会捂嘴巴  太可爱了', 'subtitle': '', 'play': 472731, 'review': 340, 'video_review': 241, 'favorites': 3646, 'mid': 669419275, 'author': '雲溪吖', 'description': '-', 'create': '2023-03-21 16:54', 'pic': 'http://i0.hdslb.com/bfs/archive/89bc89c844feac96c97ed9486a89a8fd2c0fbe6d.jpg', 'coins': 257, 'duration': '1:14', 'badgepay': False, 'pts': 545217, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311254710', 'bvid': 'BV1SP411d71N', 'typename': '动物二创', 'title': '看！贝加尔湖向你投掷了一枚“元气弹”！', 'subtitle': '', 'play': 234364, 'review': 407, 'video_review': 591, 'favorites': 3275, 'mid': 1481344732, 'author': '我们都是社畜', 'description': '本来只打算写地中海僧海豹的，结果被贝加尔海豹俘虏了，还拉了海豹的整个朋友圈！\n根据纪录片改编：\n《神秘的贝加尔湖》、《地中海》、《自然奇境地》及网络素材\nBGM：\nJigder Nana-Urna Chahartugchi\nWhen a Man Loves a Woman-Michael Bolton\nbeautiful day\n《教父》', 'create': '2023-03-21 23:24', 'pic': 'http://i0.hdslb.com/bfs/archive/e98c1b56a9c1e778b1be8391314d2349a6e59194.jpg', 'coins': 3382, 'duration': '7:19', 'badgepay': False, 'pts': 494637, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908809014', 'bvid': 'BV1eM4y167tX', 'typename': '动物二创', 'title': '猴子：哎？我现在脑子有点乱', 'subtitle': '', 'play': 449451, 'review': 289, 'video_review': 462, 'favorites': 1142, 'mid': 1870883193, 'author': '猫后生', 'description': '', 'create': '2023-03-21 17:00', 'pic': 'http://i2.hdslb.com/bfs/archive/05719ac07f9a0c8a006bde9ac810a238a3a73843.jpg', 'coins': 2075, 'duration': '2:49', 'badgepay': False, 'pts': 461127, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909011088', 'bvid': 'BV19M4y1B7W8', 'typename': '动物二创', 'title': '《对不起佛祖，你知道我天生微笑唇》', 'subtitle': '', 'play': 322414, 'review': 135, 'video_review': 374, 'favorites': 1429, 'mid': 11164088, 'author': '龙馍馍', 'description': '喜欢请点个赞啊 谢谢啦！', 'create': '2023-03-25 08:00', 'pic': 'http://i1.hdslb.com/bfs/archive/f2d560657622149e587f77c46be9170d059a8764.jpg', 'coins': 1561, 'duration': '2:46', 'badgepay': False, 'pts': 406266, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568938788', 'bvid': 'BV1gv4y157Zo', 'typename': '动物二创', 'title': '乐宝：该吃吃该喝喝，遇事别往心里搁！', 'subtitle': '', 'play': 244005, 'review': 61, 'video_review': 77, 'favorites': 2025, 'mid': 397314344, 'author': '爱豆鸭', 'description': '-', 'create': '2023-03-22 18:17', 'pic': 'http://i0.hdslb.com/bfs/archive/7b6fb651aa68065ea73ee850d0089940f2a5416a.jpg', 'coins': 146, 'duration': '0:54', 'badgepay': False, 'pts': 287303, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>87146</v>
+        <v>5785203</v>
       </c>
       <c r="I86" t="n">
-        <v>1885</v>
+        <v>26217</v>
       </c>
       <c r="J86" t="n">
-        <v>4416</v>
+        <v>45716</v>
       </c>
       <c r="K86" t="n">
-        <v>367</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>人力VOCALOID</t>
+          <t>鬼畜调教</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>manual_vocaloid</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>将人物或者角色的无伴奏素材进行人工调音，使其就像VOCALOID一样歌唱的技术</t>
+          <t>使用素材在音频、画面上做一定处理，达到与bgm一定的同步感</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>/v/kichiku/manual_vocaloid(opens new window)</t>
+          <t>/v/kichiku/guide(opens new window)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>鬼畜(主分区)</t>
+          <t>鬼畜</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[{'aid': '696611217', 'bvid': 'BV1km4y1671d', 'typename': '人力VOCALOID', 'title': '《老爹户缔》', 'subtitle': '', 'play': 692711, 'review': 1262, 'video_review': 549, 'favorites': 14723, 'mid': 12856442, 'author': '晓月之痕', 'description': '片名：《老爹户缔》\n别名：《爹的门把子》\n导演：心海沉\n其代表作有：《天气他爹》、《你爹的名字》等\n讲述了多年关闭地狱门经验的闭门人老爹，和普通考古学家成龙之间，为封印灾厄之门而引发的爱恨情仇\n其中老爹饰演老爹，成龙饰演椅子', 'create': '2023-03-25 11:30', 'pic': 'http://i2.hdslb.com/bfs/archive/945c098e981cdfbedcc7baf7a12dc1542a37f01a.jpg', 'coins': 7464, 'duration': '1:54', 'badgepay': False, 'pts': 1505171, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441488350', 'bvid': 'BV1vL411D7TL', 'typename': '人力VOCALOID', 'title': '【小潮院长】“赐我一场热爱”', 'subtitle': '', 'play': 369150, 'review': 322, 'video_review': 481, 'favorites': 13056, 'mid': 339829020, 'author': '唐啵腐', 'description': '希望观众老爷喜欢\n\n\n部分填词感谢@可达鸭不会嘎  @小壕h  \n混音@渡河赏金杀手  \n\n\n\nup主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅', 'create': '2023-03-22 11:45', 'pic': 'http://i1.hdslb.com/bfs/archive/73b08fd1e56b6422a89b0a91d1288def2140498a.jpg', 'coins': 14733, 'duration': '1:45', 'badgepay': False, 'pts': 962384, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396272105', 'bvid': 'BV19o4y1q7gm', 'typename': '人力VOCALOID', 'title': '【AI DIO】❄️冬之花 ❄️', 'subtitle': '', 'play': 299552, 'review': 490, 'video_review': 324, 'favorites': 10667, 'mid': 22169833, 'author': '寒了个羽', 'description': '原曲：冬の花--宫本浩次\n演唱：DIO（CV：子安武人 ）\n项目地址:https://github.com/innnky/so-vits-svc/tree/4.0\n模型来源：\ufeff@asdzxc2_1\ufeff \n整个重制版\n不像演的', 'create': '2023-03-20 14:47', 'pic': 'http://i1.hdslb.com/bfs/archive/14895269e4762edfeb0b3e649bd5f800a6fd80ec.jpg', 'coins': 6135, 'duration': '1:50', 'badgepay': False, 'pts': 767111, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311603495', 'bvid': 'BV1XN411K7Bm', 'typename': '人力VOCALOID', 'title': '“你浅浅的微笑就像2016年的哔哩哔哩”', 'subtitle': '', 'play': 257932, 'review': 376, 'video_review': 602, 'favorites': 3981, 'mid': 5878572, 'author': '核动力路灯', 'description': '做了大半月，人要做傻了，慢歌好难。\nbgm：乌梅子酱', 'create': '2023-03-24 12:10', 'pic': 'http://i1.hdslb.com/bfs/archive/34224e73bd71f568e519acc8b0e86bf653157107.jpg', 'coins': 7603, 'duration': '4:01', 'badgepay': False, 'pts': 568025, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951561922', 'bvid': 'BV1ss4y1H7nu', 'typename': '人力VOCALOID', 'title': '“𝑺𝒉𝒂𝒅𝒐𝒘 𝒐𝒇 𝒕𝒉𝒆 𝑲𝑼𝑵 · 黄 昏 见 证 虔 诚 的 信 徒”【蔡徐坤】', 'subtitle': '', 'play': 107360, 'review': 245, 'video_review': 210, 'favorites': 5385, 'mid': 479099740, 'author': '-氮磷钾-', 'description': '“𝑺𝒉𝒂𝒅𝒐𝒘 𝒐𝒇 𝒕𝒉𝒆 𝑲𝑼𝑵 · 黄 昏 见 证 虔 诚 的 信 徒”', 'create': '2023-03-25 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/304ed100d872c67781841a768e4c4449d25b54ac.jpg', 'coins': 2794, 'duration': '2:11', 'badgepay': False, 'pts': 330273, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226262504', 'bvid': 'BV1tb411d753', 'typename': '人力VOCALOID', 'title': '🐔本来挺喜欢送外卖的🐔', 'subtitle': '', 'play': 112854, 'review': 136, 'video_review': 203, 'favorites': 4008, 'mid': 93890857, 'author': '柴可夫司徒', 'description': '原曲：Mood\n以后送外卖就听这个', 'create': '2023-03-20 18:26', 'pic': 'http://i0.hdslb.com/bfs/archive/5e79887595df654976d83b0014ba8a7af73cd96f.jpg', 'coins': 1842, 'duration': '1:26', 'badgepay': False, 'pts': 276044, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484115253', 'bvid': 'BV12T411z72M', 'typename': '人力VOCALOID', 'title': '《神女劈观》，但是谷歌翻译20次', 'subtitle': '', 'play': 104335, 'review': 446, 'video_review': 642, 'favorites': 2615, 'mid': 451931146, 'author': '玛珂娜', 'description': '原曲：HOYO-MiX - 神女劈观 BV1kS4y1T7kK\n演唱：谷歌娘\n请勿在原曲下刷谷歌翻译及相关的词', 'create': '2023-03-25 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/b80eb2442408cbab77861181b487e5f77590471a.jpg', 'coins': 1033, 'duration': '2:42', 'badgepay': False, 'pts': 266152, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738770954', 'bvid': 'BV1gk4y1t7dN', 'typename': '人力VOCALOID', 'title': '看 过 这 么 离 谱 的 狂 飙 吗？', 'subtitle': '', 'play': 126908, 'review': 180, 'video_review': 402, 'favorites': 1590, 'mid': 159122, 'author': '惜缘、过去', 'description': '封面标题纯属娱乐哈~断断续续的做了挺久，热度都没了。。。\n言归正传，这次将我最喜欢的动漫跟电视剧人物结合到一起了，也已经三年时间没做过超电磁炮了。虽然效果不一定很好，但我保证是尽了自己最大的努力去做了。\n本作时长虽短，但心血还是费了不少，如果喜欢，请多多点赞支持，我的创作动力来自大家的三连鼓励！谢谢！', 'create': '2023-03-20 11:35', 'pic': 'http://i2.hdslb.com/bfs/archive/2d091e0b6985b19f29b5bbf4b4a3c803cbdbe0ca.jpg', 'coins': 1381, 'duration': '2:01', 'badgepay': False, 'pts': 233323, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909124460', 'bvid': 'BV1CM4y1m7zi', 'typename': '人力VOCALOID', 'title': '电棍：♿starboy♿', 'subtitle': '', 'play': 67266, 'review': 218, 'video_review': 113, 'favorites': 2591, 'mid': 97240074, 'author': '龙之王修罗', 'description': 'BGM：starboy\n注意看，视频中的男人是英雄联盟前职业选手，感兴趣的话可以去斗鱼12306看他直播\n这次没带填词师，自己填的稍微拉了点（）\n大家对视频感兴趣的话，记得给个三连哦', 'create': '2023-03-24 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6f09d4a5dd28c9ff5cfd9fe6082aa9839ca470a1.jpg', 'coins': 2053, 'duration': '2:19', 'badgepay': False, 'pts': 195052, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353995725', 'bvid': 'BV1XX4y1d7hh', 'typename': '人力VOCALOID', 'title': '“终于我做了真正的OP，你也知道那不是因为爱”', 'subtitle': '', 'play': 71673, 'review': 725, 'video_review': 67, 'favorites': 865, 'mid': 4527446, 'author': '大水母绚烂一', 'description': '去海边玩的时候晒伤了，脑门被晒出了一个二维码，扫码之后看到了这个视频，发上来分享给大家。', 'create': '2023-03-23 22:30', 'pic': 'http://i1.hdslb.com/bfs/archive/58641e6e73544d13fd17631a1253b2a4425b1ef6.jpg', 'coins': 1225, 'duration': '2:02', 'badgepay': False, 'pts': 174216, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '396557098', 'bvid': 'BV1Co4y1s7mV', 'typename': '鬼畜调教', 'title': '优 美 的 南 京 话', 'subtitle': '', 'play': 2531468, 'review': 2259, 'video_review': 972, 'favorites': 31966, 'mid': 281149281, 'author': 'AB鲜', 'description': '优美的蓝鲸话\n视频来源：BV1uh411k79t', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/3b8dd86614b061201fb07791deb5d223347a0bd8.jpg', 'coins': 15675, 'duration': '1:21', 'badgepay': False, 'pts': 3442585, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353941080', 'bvid': 'BV1iX4y1d7oe', 'typename': '鬼畜调教', 'title': '【神里】⚡你能忍受王手的洗脑么⚡汪⚡', 'subtitle': '', 'play': 910066, 'review': 1050, 'video_review': 1215, 'favorites': 53224, 'mid': 115058458, 'author': '莉可Kurisu', 'description': '我就是神里绫华的狗！！！\n祝大家一发入魂 十连满命~！\n\nBGM：young boss 2.0\n*所有图片素材均来源于网络*', 'create': '2023-03-24 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8f8168c3b0b862879410f93516f22a207bb942c9.jpg', 'coins': 26879, 'duration': '1:34', 'badgepay': False, 'pts': 2695146, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993925740', 'bvid': 'BV1Gx4y1A7wy', 'typename': '鬼畜调教', 'title': 'Siu~~↗~~↘~~↗', 'subtitle': '', 'play': 517908, 'review': 539, 'video_review': 610, 'favorites': 8823, 'mid': 40489639, 'author': '球球特别大', 'description': 'BGM:\nVitas - Opera 2\n大野克夫 - 「名探偵コナン」~メインテーマ(バラード・ヴァージョン)\n浦琦璋 - 渔舟唱晚混音版\n摇篮曲\nTitanic • My Heart Will Go On\n金莎 - 星月神话\nVarious Artists - Thomas and Friends\n\n柯南那段下跪合集来自：BV1NE411V7YQ\n前摇过场bgm：JOHEM - AnKulé!', 'create': '2023-03-23 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c9e22b5e106a20b1964874fbbd0220ffbbca3850.jpg', 'coins': 7298, 'duration': '2:06', 'badgepay': False, 'pts': 1137493, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '568934436', 'bvid': 'BV1uv4y1576R', 'typename': '鬼畜调教', 'title': '百 京 爷，就 是 爷！', 'subtitle': '', 'play': 923797, 'review': 813, 'video_review': 124, 'favorites': 5515, 'mid': 12562611, 'author': '就叫阿路8', 'description': '那叫一个地道~滴滴滴滴滴滴滴滴叨叨叨叨叨叨叨叨\n\nBgm：The\xa0Hampster\xa0Dance\xa0Song（原曲禁止乱刷！！）\n混音：@秋名山上的切莫 ', 'create': '2023-03-23 11:30', 'pic': 'http://i0.hdslb.com/bfs/archive/83425b5e886bd786bf931f7a3b02cad40354c267.jpg', 'coins': 3048, 'duration': '1:32', 'badgepay': False, 'pts': 1075647, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908813786', 'bvid': 'BV1vM4y167uo', 'typename': '鬼畜调教', 'title': '这是蛋仔派对该有的动静？', 'subtitle': '', 'play': 272862, 'review': 249, 'video_review': 308, 'favorites': 17266, 'mid': 25911961, 'author': '龙大人不喷火', 'description': '对大佬@莉可Kurisu  洗脑神作：BV1FR4y1i77b  的模仿，谢谢授权啵啵\n素材：蛋仔派对\n伴奏：infinite power', 'create': '2023-03-21 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7ed540809c1fa599b8b8cf18be1cef68ef462a19.jpg', 'coins': 3838, 'duration': '1:15', 'badgepay': False, 'pts': 891000, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993981123', 'bvid': 'BV1Jx4y1A7Rw', 'typename': '鬼畜调教', 'title': '男！！！人！！！', 'subtitle': '', 'play': 588053, 'review': 545, 'video_review': 334, 'favorites': 4478, 'mid': 1706344, 'author': '昔日友人', 'description': '素材虎富婆', 'create': '2023-03-23 19:14', 'pic': 'http://i0.hdslb.com/bfs/archive/a8b6292385c051c91a5151a4cfc94d74143f260b.jpg', 'coins': 673, 'duration': '1:18', 'badgepay': False, 'pts': 798924, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866588527', 'bvid': 'BV1oV4y1X7xz', 'typename': '鬼畜调教', 'title': '【明星大侦探RAP】再看一遍，小脸通红！', 'subtitle': '', 'play': 415684, 'review': 250, 'video_review': 190, 'favorites': 3756, 'mid': 10977842, 'author': '董润祺', 'description': 'BGM：《Despre Tine》-O-Zone\n冷知识：点赞是免费的，却可以让UP开心一整天=v=', 'create': '2023-03-24 12:10', 'pic': 'http://i0.hdslb.com/bfs/archive/b465d2679b170058fd4a16c3932623247044430d.jpg', 'coins': 3985, 'duration': '1:30', 'badgepay': False, 'pts': 789154, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993764598', 'bvid': 'BV1Px4y1N7hx', 'typename': '鬼畜调教', 'title': '“听法官的话，认罪又认罚”', 'subtitle': '', 'play': 189908, 'review': 638, 'video_review': 299, 'favorites': 5195, 'mid': 204349229, 'author': '泷子丶', 'description': '偷了几个电棍笑传的头\n制作：泷子丶', 'create': '2023-03-21 17:31', 'pic': 'http://i1.hdslb.com/bfs/archive/3380da34f44293eb19f0dc242976324daecc3a51.jpg', 'coins': 11101, 'duration': '2:34', 'badgepay': False, 'pts': 492292, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909023118', 'bvid': 'BV1MM4y1z7JW', 'typename': '鬼畜调教', 'title': '【洗脑循环】菲谢尔☆真是太可爱啦~小艾咪来你给你洗脑啦！', 'subtitle': '', 'play': 142459, 'review': 174, 'video_review': 132, 'favorites': 8863, 'mid': 427652006, 'author': '柚卡yk', 'description': 'BGM：Linear Slope Plus\n\n感谢大家的观看~', 'create': '2023-03-24 18:05', 'pic': 'http://i2.hdslb.com/bfs/archive/65b0f729a980c16420885a3d110425953237e13b.jpg', 'coins': 2224, 'duration': '1:07', 'badgepay': False, 'pts': 473533, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653997550', 'bvid': 'BV1HY4y1Q77o', 'typename': '鬼畜调教', 'title': '噢啊哎哦 咯哒咯哒 哎哎哎哎 几个蛋', 'subtitle': '', 'play': 160668, 'review': 372, 'video_review': 196, 'favorites': 1505, 'mid': 515993, 'author': '枪弹轨迹', 'description': '纯鬼畜，原曲不使用，做完我整个人都噢啊哎哦了\nBGM：Take Off And Land', 'create': '2023-03-24 12:05', 'pic': 'http://i2.hdslb.com/bfs/archive/6bd7553ad98712573552649f55fdadc0097dcf99.jpg', 'coins': 2263, 'duration': '1:43', 'badgepay': False, 'pts': 321379, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2209741</v>
+        <v>6652873</v>
       </c>
       <c r="I87" t="n">
-        <v>46263</v>
+        <v>76984</v>
       </c>
       <c r="J87" t="n">
-        <v>59481</v>
+        <v>140591</v>
       </c>
       <c r="K87" t="n">
-        <v>279</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>鬼畜剧场</t>
+          <t>音MAD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>theatre</t>
+          <t>mad</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>使用素材进行人工剪辑编排的有剧情的作品</t>
+          <t>使用素材音频进行一定的二次创作来达到还原原曲的非商业性质稿件</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>/v/kichiku/theatre(opens new window)</t>
+          <t>/v/kichiku/mad/v/kichiku/mad(opens new window)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>鬼畜(主分区)</t>
+          <t>鬼畜</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[{'aid': '951539451', 'bvid': 'BV1us4y1H7Th', 'typename': '鬼畜剧场', 'title': '《 代 父 从 军 》', 'subtitle': '', 'play': 882301, 'review': 378, 'video_review': 1233, 'favorites': 14647, 'mid': 121159721, 'author': '创可贴SNAKE', 'description': '一个人 两年半 做到如此成就 她可不是一般人~', 'create': '2023-03-24 19:20', 'pic': 'http://i2.hdslb.com/bfs/archive/c643e0b15c460d324067dc90b300121d92c4a387.jpg', 'coins': 4939, 'duration': '2:44', 'badgepay': False, 'pts': 1701190, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438915484', 'bvid': 'BV1nL41197k8', 'typename': '鬼畜剧场', 'title': '聚 宝 嘴', 'subtitle': '', 'play': 2094645, 'review': 758, 'video_review': 381, 'favorites': 15708, 'mid': 1753715431, 'author': '狗子快乐屋', 'description': '原片连续剧：《无限生机》', 'create': '2023-03-23 16:54', 'pic': 'http://i1.hdslb.com/bfs/archive/68cbe939c9141a31ec1b6df77c088cb58daba92b.jpg', 'coins': 2695, 'duration': '1:16', 'badgepay': False, 'pts': 1613708, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653937267', 'bvid': 'BV1XY4y1D7Ks', 'typename': '鬼畜剧场', 'title': '扮猪吃老虎', 'subtitle': '', 'play': 572950, 'review': 377, 'video_review': 803, 'favorites': 13301, 'mid': 23273746, 'author': '罪恶岛市', 'description': '扮猪吃老虎', 'create': '2023-03-23 20:40', 'pic': 'http://i0.hdslb.com/bfs/archive/dbe4a36ab6bbda725185d288ecf1bc4357e34f8f.jpg', 'coins': 5868, 'duration': '1:46', 'badgepay': False, 'pts': 1259870, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483918267', 'bvid': 'BV12T411B7MP', 'typename': '鬼畜剧场', 'title': '【特效向】您的外卖员正在暗战', 'subtitle': '', 'play': 500058, 'review': 553, 'video_review': 1770, 'favorites': 12337, 'mid': 22770727, 'author': '豪言の经理', 'description': '让狗子教你如何在混乱的战区当个最强的外卖员', 'create': '2023-03-22 14:01', 'pic': 'http://i2.hdslb.com/bfs/archive/edcb334e8e20e127934676fe7c97517602910b1b.jpg', 'coins': 11297, 'duration': '5:26', 'badgepay': False, 'pts': 1162556, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396585243', 'bvid': 'BV1Xo4y1s7M9', 'typename': '鬼畜剧场', 'title': '满级唐僧一统三国', 'subtitle': '', 'play': 433099, 'review': 234, 'video_review': 350, 'favorites': 6860, 'mid': 431643858, 'author': '非酋小辣椒', 'description': '血肉苦弱，机械飞升', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/e55066d7b497e262b503e011385345d37b092be4.jpg', 'coins': 3303, 'duration': '3:02', 'badgepay': False, 'pts': 903989, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483855402', 'bvid': 'BV1KT411r7Yk', 'typename': '鬼畜剧场', 'title': '汁儿炖', 'subtitle': '', 'play': 411464, 'review': 489, 'video_review': 388, 'favorites': 10215, 'mid': 9091765, 'author': '猪排派', 'description': '我要把这个简介笑死', 'create': '2023-03-20 17:55', 'pic': 'http://i2.hdslb.com/bfs/archive/60c4343a3ab2921ca2b930d2a0f54e651e14845d.jpg', 'coins': 4717, 'duration': '1:43', 'badgepay': False, 'pts': 901312, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526616216', 'bvid': 'BV18M411g7tc', 'typename': '鬼畜剧场', 'title': '京 海 疯 人 院', 'subtitle': '', 'play': 294359, 'review': 256, 'video_review': 779, 'favorites': 7092, 'mid': 51844730, 'author': '老实人张精贵', 'description': '简介也太有诗意了吧', 'create': '2023-03-24 10:30', 'pic': 'http://i0.hdslb.com/bfs/archive/5bd2175f1b99cb78659f8952a03e770cebe92fae.jpg', 'coins': 3095, 'duration': '4:40', 'badgepay': False, 'pts': 696706, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823782046', 'bvid': 'BV13g4y1x7Mc', 'typename': '鬼畜剧场', 'title': '史 上 最 强 沙 俄 使 者', 'subtitle': '', 'play': 183368, 'review': 322, 'video_review': 808, 'favorites': 6170, 'mid': 37937944, 'author': '一只小罗曼', 'description': '这是史上最强的沙俄使者\n（本视频纯属虚构，仅供娱乐）\n素材来源：康熙王朝第15集', 'create': '2023-03-20 14:34', 'pic': 'http://i2.hdslb.com/bfs/archive/aa0be560d9b2556d4c9a90b397bb046bf744b56f.jpg', 'coins': 1172, 'duration': '2:24', 'badgepay': False, 'pts': 492241, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781272028', 'bvid': 'BV1p24y1E7ic', 'typename': '鬼畜剧场', 'title': '马老师疯狂偷袭，小黑子节节败退！', 'subtitle': '', 'play': 203252, 'review': 316, 'video_review': 281, 'favorites': 3401, 'mid': 25333161, 'author': '白熊ONEヽ', 'description': '报数：一！二！三！四！六！七！八！九！十！', 'create': '2023-03-20 17:42', 'pic': 'http://i0.hdslb.com/bfs/archive/e05663ea9506a512201aae33514f0622c159d7a1.jpg', 'coins': 2653, 'duration': '1:40', 'badgepay': False, 'pts': 419037, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311376856', 'bvid': 'BV1BP411o7HR', 'typename': '鬼畜剧场', 'title': '三军听令！全力护送子龙送外卖！', 'subtitle': '', 'play': 236367, 'review': 156, 'video_review': 250, 'favorites': 2425, 'mid': 96070394, 'author': '推背兔の', 'description': '待我策马长枪，岂容尔等张狂！', 'create': '2023-03-23 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/940aef30ac5c0283132dbc81a2a9882e751de98f.jpg', 'coins': 1074, 'duration': '1:39', 'badgepay': False, 'pts': 415759, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '396302316', 'bvid': 'BV1wo4y1B7YW', 'typename': '音MAD', 'title': '米哈莉~米哈莉~米哈莉~', 'subtitle': '', 'play': 32204, 'review': 80, 'video_review': 7, 'favorites': 707, 'mid': 7104127, 'author': '阿莫西不灵_塔塔', 'description': '“就这样，真寻在女孩子的道路上渐行渐远……”\n\n当初找了一下，发现原作者竟然有放出Instrument文件，就直接拿来用了，感谢感谢。。。\n前前后后拖了个把月，不知不觉竟然本季都要完结了。\n当然跟喵内比是完全比不过，那是大师之作，我这还远远不够，应当继续修炼。\n不过最近沉迷BA，不知道下面是完成制作“XXx的回廊”的梦想，还是当个sensei做学生的音mad。', 'create': '2023-03-21 17:39', 'pic': 'http://i1.hdslb.com/bfs/archive/f76074c3ad7fc5fadea7c7716e586be235ee6204.jpg', 'coins': 360, 'duration': '1:40', 'badgepay': False, 'pts': 74186, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866610517', 'bvid': 'BV1XV4y1X7cF', 'typename': '音MAD', 'title': '强风大背头', 'subtitle': '', 'play': 13179, 'review': 63, 'video_review': 4, 'favorites': 603, 'mid': 13773749, 'author': 'noruneru', 'description': '自制\n好玩', 'create': '2023-03-25 17:49', 'pic': 'http://i0.hdslb.com/bfs/archive/376fe7b28a5946127c409a261c1ce7ecbf7da2dd.jpg', 'coins': 194, 'duration': '0:20', 'badgepay': False, 'pts': 40408, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268794801', 'bvid': 'BV1ic411j7Gd', 'typename': '音MAD', 'title': 'ボク', 'subtitle': '', 'play': 7341, 'review': 47, 'video_review': 12, 'favorites': 821, 'mid': 1761521644, 'author': 'たかはる277', 'description': '', 'create': '2023-03-21 20:52', 'pic': 'http://i0.hdslb.com/bfs/archive/dc9eef6c1e87438b104121eabca157b5a526f0fc.jpg', 'coins': 202, 'duration': '1:16', 'badgepay': False, 'pts': 34086, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311641260', 'bvid': 'BV19N411K74A', 'typename': '音MAD', 'title': '电影 / 结束乐队', 'subtitle': '', 'play': 5504, 'review': 59, 'video_review': 12, 'favorites': 805, 'mid': 783330, 'author': '南木林西林北林', 'description': 'sm41992751 / https://youtu.be/Dfi5FTOzNAg\n作者: ぶらん', 'create': '2023-03-26 18:48', 'pic': 'http://i2.hdslb.com/bfs/archive/341fd1dea91e48f06c10defd02aa4a477af6f25b.jpg', 'coins': 212, 'duration': '3:31', 'badgepay': False, 'pts': 30386, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611612729', 'bvid': 'BV1B84y1u7p4', 'typename': '音MAD', 'title': '电棍：米拉奇战记♿', 'subtitle': '', 'play': 10877, 'review': 73, 'video_review': 14, 'favorites': 187, 'mid': 492710090, 'author': 'DarkAKun', 'description': '这个视频原本想做成原曲不使用，不过没找到能当鼓的素材，用了原版音乐提取出来的鼓声，混音也不会只加了点混响，视频部分随便找的游戏录像，用脚本套了一下再用ae加了个音频频谱不想做了。\n总结：烂完了', 'create': '2023-03-25 01:16', 'pic': 'http://i2.hdslb.com/bfs/archive/8838af09ed59aa7b0a4a638cbadbcc3c9a5b67ff.jpg', 'coins': 100, 'duration': '2:43', 'badgepay': False, 'pts': 26959, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441473994', 'bvid': 'BV1EL411D79k', 'typename': '音MAD', 'title': "It's Peanut Butter Mountain Time!!! 注意是转载非自制", 'subtitle': '', 'play': 8906, 'review': 23, 'video_review': 3, 'favorites': 292, 'mid': 1508544796, 'author': '每天没法开心起来', 'description': "https://www.youtube.com/watch?v=kdpLM_wSGGc\n原作者：pelzer\nBGM：胡桃夹子-魔王的宫殿（另称“山丘之王”）\n将恶搞之家与魔王曲一起搭配感觉很毫无违和感呢。\n究极原版：It's Peanut Butter Jelly Time!!!（av39939028）", 'create': '2023-03-23 12:18', 'pic': 'http://i1.hdslb.com/bfs/archive/24d339aafa5f60c4f0788633d210e233edfbf5a8.jpg', 'coins': 31, 'duration': '1:18', 'badgepay': False, 'pts': 23824, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993982985', 'bvid': 'BV1Jx4y1A7nd', 'typename': '音MAD', 'title': '【少女终末旅行】二人的沙丁鱼', 'subtitle': '', 'play': 3894, 'review': 114, 'video_review': 13, 'favorites': 490, 'mid': 3493126662523730, 'author': '九冻夜雀舌', 'description': '因为自认为海鲜曲与少终总有不可探知的相性，所以做了出来\n在剪的时候想到了很多，将部分歌词与动画最后一集的内容联系起来让我时常倒吸凉气，\n也许4号和tkmiz在某种程度上确实有一些思维的共性吧...\n\n\n千户音源来自@雨坂Amasaka \n尤莉音源来自外网\n\n*建议使用耳机*\n\n第一次做音mad + 调音类视频，很多地方都不是很到位，希望谅解\n\n希望每个人都能学会与绝望 和睦共处吧', 'create': '2023-03-22 17:21', 'pic': 'http://i1.hdslb.com/bfs/archive/a117119132189bb45fdcf9958e8b921641d6629b.jpg', 'coins': 298, 'duration': '3:10', 'badgepay': False, 'pts': 21952, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226441156', 'bvid': 'BV1eb411o7EL', 'typename': '音MAD', 'title': '【音mad/AI VOCALOID】水月 ロストアンブレラ', 'subtitle': '', 'play': 3709, 'review': 45, 'video_review': 20, 'favorites': 518, 'mid': 229719144, 'author': 'gxLight', 'description': '原曲：ロストアンブレラ/lost umbrella(yuigot Remix)\n音频：gxLight\nPV：gxLight\n作画：茶色哭哭\nvocal：水月\nAI协助：不知道4576\n模型：LovelyR十三\n------\n第一次尝试混曲音mad 同时也融入了AI人声的运用\nPV也尝试了类BV1gT4y1e7xY 的MG小人动画\n因为当时AI唱不上去所以还是采用了降key的方式\n同时也基本上是首次尝试将所有和弦全部耳扒出来 分为左右声道\n大概是集大成作（\n水月肉鸽4结局还没出来 于是趁今天先发了', 'create': '2023-03-22 18:15', 'pic': 'http://i0.hdslb.com/bfs/archive/f2a8e7477d8e5f336b7ef6382d92dd6071837bf6.jpg', 'coins': 257, 'duration': '1:20', 'badgepay': False, 'pts': 19938, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994013632', 'bvid': 'BV18x4y1A7eB', 'typename': '音MAD', 'title': '【真寻音mad】别当病女了！', 'subtitle': '', 'play': 6412, 'review': 66, 'video_review': 26, 'favorites': 213, 'mid': 230190435, 'author': '不-想-起-名', 'description': '别酱动画完结了，挺不错的一部番，所以打算做个音mad送小寻子走\n第一次做音mad 还不是很完善 请大佬斧正', 'create': '2023-03-25 09:57', 'pic': 'http://i1.hdslb.com/bfs/archive/d97cfe6b8c0e8d04de37acbf431d200ffcf37503.jpg', 'coins': 120, 'duration': '2:38', 'badgepay': False, 'pts': 19097, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483905840', 'bvid': 'BV1VT411r7BN', 'typename': '音MAD', 'title': '终末卡农', 'subtitle': '', 'play': 4035, 'review': 92, 'video_review': 2, 'favorites': 312, 'mid': 538183765, 'author': '驹草JX', 'description': '随便做的，新修的音试用一下～', 'create': '2023-03-22 11:20', 'pic': 'http://i0.hdslb.com/bfs/archive/4775b0d05d1156fbfe2bd277767d41aa48bf0e01.jpg', 'coins': 279, 'duration': '2:20', 'badgepay': False, 'pts': 17445, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>5811863</v>
+        <v>96061</v>
       </c>
       <c r="I88" t="n">
-        <v>40813</v>
+        <v>2053</v>
       </c>
       <c r="J88" t="n">
-        <v>92156</v>
+        <v>4948</v>
       </c>
       <c r="K88" t="n">
-        <v>2482</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>教程演示</t>
+          <t>人力VOCALOID</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>manual_vocaloid</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>鬼畜相关的科普和教程演示</t>
+          <t>将人物或者角色的无伴奏素材进行人工调音，使其就像VOCALOID一样歌唱的技术</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>/v/kichiku/course</t>
+          <t>/v/kichiku/manual_vocaloid(opens new window)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>鬼畜(主分区)</t>
+          <t>鬼畜</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[{'aid': '439096575', 'bvid': 'BV1yL411Q72z', 'typename': '教程演示', 'title': '组成人列计算机计算星系运动轨迹的三体人', 'subtitle': '', 'play': 4906, 'review': 23, 'video_review': 3, 'favorites': 30, 'mid': 1580100751, 'author': '叙拉古难民', 'description': '无任何不良因素引导，视频中出现的道具均为假的。（望周知）（望过审）', 'create': '2023-03-24 17:16', 'pic': 'http://i0.hdslb.com/bfs/archive/15e8e3a5caf580f2f8030c80ea5ea890f215a726.jpg', 'coins': 3, 'duration': '0:21', 'badgepay': False, 'pts': 9871, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226306188', 'bvid': 'BV1Qb411d7iD', 'typename': '教程演示', 'title': '正在制作橄榄菜的池沼作坊.GB', 'subtitle': '', 'play': 1270, 'review': 10, 'video_review': 1, 'favorites': 5, 'mid': 626846648, 'author': '一个一个屑猹qwq', 'description': '压力马斯内', 'create': '2023-03-21 19:31', 'pic': 'http://i1.hdslb.com/bfs/archive/464e4758b80b34861d028a434398027d1bfe576b.jpg', 'coins': 6, 'duration': '0:32', 'badgepay': False, 'pts': 1448, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696259037', 'bvid': 'BV11m4y1r7qm', 'typename': '教程演示', 'title': '鬼畜素材西西物者魏骏杰《最炫民族风》', 'subtitle': '', 'play': 1074, 'review': 2, 'video_review': 0, 'favorites': 9, 'mid': 454919126, 'author': '阿葱支支吾吾', 'description': '无水印 请善用', 'create': '2023-03-21 22:15', 'pic': 'http://i0.hdslb.com/bfs/archive/b2823d6d482fdb7bb026c6155eaf790b3081d6e0.jpg', 'coins': 4, 'duration': '1:34', 'badgepay': False, 'pts': 1393, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269181151', 'bvid': 'BV1Rc411L7p1', 'typename': '教程演示', 'title': '电棍骑梓喵.bb', 'subtitle': '', 'play': 487, 'review': 14, 'video_review': 0, 'favorites': 10, 'mid': 627704911, 'author': 'ddcsb', 'description': '看到已经有人在用这段了那就做个bb出来吧', 'create': '2023-03-26 13:07', 'pic': 'http://i0.hdslb.com/bfs/archive/a7c17e43860c1a835091155d8dc344c401e5078c.jpg', 'coins': 4, 'duration': '0:16', 'badgepay': False, 'pts': 1388, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866523178', 'bvid': 'BV1iV4y1X7xX', 'typename': '教程演示', 'title': '杰哥不要【AI苹果杰克,云宝,萍琪,小蝶】', 'subtitle': '', 'play': 513, 'review': 11, 'video_review': 22, 'favorites': 16, 'mid': 378942491, 'author': 'ZTN472487', 'description': '世纪工程，用FL分离了半天人声，能听就行\n欢迎加入全联音频共享部681794085，群里有其他语音包提供给各位下载。（拿来训练也可用）\n感谢@凯尔·布罗夫洛夫斯基 上传的模型BV1nL411D7Fj\n项目: https://github.com/svc-develop-team/so-vits-svc\n整合包：BV1Eb411f7gX\n基础语音包：BV1W54y1N7rc\n\nVocal: 萍琪(彬彬)苹果杰克(杰哥)小蝶(阿嫲)云宝(阿伟)\n音频源：无\n视频源：BV1Tg4y1i7Dt', 'create': '2023-03-25 14:07', 'pic': 'http://i0.hdslb.com/bfs/archive/d29cfdf22e462f1f28617ce57ad7c11fb84e07b5.jpg', 'coins': 4, 'duration': '6:52', 'badgepay': False, 'pts': 1195, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '696611217', 'bvid': 'BV1km4y1671d', 'typename': '人力VOCALOID', 'title': '《老爹户缔》', 'subtitle': '', 'play': 788332, 'review': 1403, 'video_review': 603, 'favorites': 16647, 'mid': 12856442, 'author': '晓月之痕', 'description': '片名：《老爹户缔》\n别名：《爹的门把子》\n导演：心海沉\n其代表作有：《天气他爹》、《你爹的名字》等\n讲述了多年关闭地狱门经验的闭门人老爹，和普通考古学家成龙之间，为封印灾厄之门而引发的爱恨情仇\n其中老爹饰演老爹，成龙饰演椅子', 'create': '2023-03-25 11:30', 'pic': 'http://i2.hdslb.com/bfs/archive/945c098e981cdfbedcc7baf7a12dc1542a37f01a.jpg', 'coins': 8735, 'duration': '1:54', 'badgepay': False, 'pts': 1665884, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441488350', 'bvid': 'BV1vL411D7TL', 'typename': '人力VOCALOID', 'title': '【小潮院长】“赐我一场热爱”', 'subtitle': '', 'play': 371589, 'review': 322, 'video_review': 483, 'favorites': 13116, 'mid': 339829020, 'author': '唐啵腐', 'description': '希望观众老爷喜欢\n\n\n部分填词感谢@可达鸭不会嘎  @小壕h  \n混音@渡河赏金杀手  \n\n\n\nup主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅up主好帅', 'create': '2023-03-22 11:45', 'pic': 'http://i1.hdslb.com/bfs/archive/73b08fd1e56b6422a89b0a91d1288def2140498a.jpg', 'coins': 14807, 'duration': '1:45', 'badgepay': False, 'pts': 967429, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396272105', 'bvid': 'BV19o4y1q7gm', 'typename': '人力VOCALOID', 'title': '【AI DIO】❄️冬之花 ❄️', 'subtitle': '', 'play': 305644, 'review': 491, 'video_review': 329, 'favorites': 10828, 'mid': 22169833, 'author': '寒了个羽', 'description': '原曲：冬の花--宫本浩次\n演唱：DIO（CV：子安武人 ）\n项目地址:https://github.com/innnky/so-vits-svc/tree/4.0\n模型来源：\ufeff@asdzxc2_1\ufeff \n整个重制版\n不像演的', 'create': '2023-03-20 14:47', 'pic': 'http://i1.hdslb.com/bfs/archive/14895269e4762edfeb0b3e649bd5f800a6fd80ec.jpg', 'coins': 6256, 'duration': '1:50', 'badgepay': False, 'pts': 780428, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311603495', 'bvid': 'BV1XN411K7Bm', 'typename': '人力VOCALOID', 'title': '“你浅浅的微笑就像2016年的哔哩哔哩”', 'subtitle': '', 'play': 269009, 'review': 382, 'video_review': 611, 'favorites': 4163, 'mid': 5878572, 'author': '核动力路灯', 'description': '做了大半月，人要做傻了，慢歌好难。\nbgm：乌梅子酱', 'create': '2023-03-24 12:10', 'pic': 'http://i1.hdslb.com/bfs/archive/34224e73bd71f568e519acc8b0e86bf653157107.jpg', 'coins': 7943, 'duration': '4:01', 'badgepay': False, 'pts': 590072, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951561922', 'bvid': 'BV1ss4y1H7nu', 'typename': '人力VOCALOID', 'title': '“𝑺𝒉𝒂𝒅𝒐𝒘 𝒐𝒇 𝒕𝒉𝒆 𝑲𝑼𝑵 · 黄 昏 见 证 虔 诚 的 信 徒”【蔡徐坤】', 'subtitle': '', 'play': 116145, 'review': 251, 'video_review': 220, 'favorites': 5634, 'mid': 479099740, 'author': '-氮磷钾-', 'description': '“𝑺𝒉𝒂𝒅𝒐𝒘 𝒐𝒇 𝒕𝒉𝒆 𝑲𝑼𝑵 · 黄 昏 见 证 虔 诚 的 信 徒”', 'create': '2023-03-25 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/304ed100d872c67781841a768e4c4449d25b54ac.jpg', 'coins': 2993, 'duration': '2:11', 'badgepay': False, 'pts': 350460, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484115253', 'bvid': 'BV12T411z72M', 'typename': '人力VOCALOID', 'title': '《神女劈观》，但是谷歌翻译20次', 'subtitle': '', 'play': 113724, 'review': 463, 'video_review': 660, 'favorites': 2789, 'mid': 451931146, 'author': '玛珂娜', 'description': '原曲：HOYO-MiX - 神女劈观 BV1kS4y1T7kK\n演唱：谷歌娘\n请勿在原曲下刷谷歌翻译及相关的词', 'create': '2023-03-25 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/b80eb2442408cbab77861181b487e5f77590471a.jpg', 'coins': 1125, 'duration': '2:42', 'badgepay': False, 'pts': 285808, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226262504', 'bvid': 'BV1tb411d753', 'typename': '人力VOCALOID', 'title': '🐔本来挺喜欢送外卖的🐔', 'subtitle': '', 'play': 113414, 'review': 137, 'video_review': 203, 'favorites': 4016, 'mid': 93890857, 'author': '柴可夫司徒', 'description': '原曲：Mood\n以后送外卖就听这个', 'create': '2023-03-20 18:26', 'pic': 'http://i0.hdslb.com/bfs/archive/5e79887595df654976d83b0014ba8a7af73cd96f.jpg', 'coins': 1844, 'duration': '1:26', 'badgepay': False, 'pts': 277161, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909124460', 'bvid': 'BV1CM4y1m7zi', 'typename': '人力VOCALOID', 'title': '电棍：♿starboy♿', 'subtitle': '', 'play': 72689, 'review': 222, 'video_review': 120, 'favorites': 2760, 'mid': 97240074, 'author': '龙之王修罗', 'description': 'BGM：starboy\n注意看，视频中的男人是英雄联盟前职业选手，感兴趣的话可以去斗鱼12306看他直播\n这次没带填词师，自己填的稍微拉了点（）\n大家对视频感兴趣的话，记得给个三连哦', 'create': '2023-03-24 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6f09d4a5dd28c9ff5cfd9fe6082aa9839ca470a1.jpg', 'coins': 2201, 'duration': '2:19', 'badgepay': False, 'pts': 209617, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824159348', 'bvid': 'BV1vg4y1s7if', 'typename': '人力VOCALOID', 'title': '⚡手 鸡 提 示 音⚡真ikun必备', 'subtitle': '', 'play': 79738, 'review': 682, 'video_review': 226, 'favorites': 1350, 'mid': 26100331, 'author': '猫脸超人', 'description': '小黑子不准使用\n真ikun留下三连！！！', 'create': '2023-03-26 17:33', 'pic': 'http://i0.hdslb.com/bfs/archive/370575232f30bfbbd882d62951820da2c7db32c6.jpg', 'coins': 1124, 'duration': '1:58', 'badgepay': False, 'pts': 189596, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353995725', 'bvid': 'BV1XX4y1d7hh', 'typename': '人力VOCALOID', 'title': '“终于我做了真正的OP，你也知道那不是因为爱”', 'subtitle': '', 'play': 73297, 'review': 732, 'video_review': 69, 'favorites': 873, 'mid': 4527446, 'author': '大水母绚烂一', 'description': '去海边玩的时候晒伤了，脑门被晒出了一个二维码，扫码之后看到了这个视频，发上来分享给大家。', 'create': '2023-03-23 22:30', 'pic': 'http://i1.hdslb.com/bfs/archive/58641e6e73544d13fd17631a1253b2a4425b1ef6.jpg', 'coins': 1240, 'duration': '2:02', 'badgepay': False, 'pts': 177411, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>8250</v>
+        <v>2303581</v>
       </c>
       <c r="I89" t="n">
-        <v>21</v>
+        <v>48268</v>
       </c>
       <c r="J89" t="n">
-        <v>70</v>
+        <v>62176</v>
       </c>
       <c r="K89" t="n">
-        <v>42</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>美妆护肤</t>
+          <t>鬼畜剧场</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>makeup</t>
+          <t>theatre</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>彩妆护肤、美甲美发、仿妆、医美相关内容分享或产品测评</t>
+          <t>使用素材进行人工剪辑编排的有剧情的作品</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>/v/fashion/makeup(opens new window)</t>
+          <t>/v/kichiku/theatre(opens new window)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>时尚(主分区)</t>
+          <t>鬼畜</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[{'aid': '739095959', 'bvid': 'BV1Ek4y147yK', 'typename': '美妆护肤', 'title': '粉丝不会化妆 明星化妆师在线改妆', 'subtitle': '', 'play': 669635, 'review': 640, 'video_review': 513, 'favorites': 53978, 'mid': 515946106, 'author': 'Elvis增增-', 'description': '普通人学化妆\n跟着明星化妆师增增学化妆\n让普通人化妆告别显老\n今天详细在线指导粉丝化妆全过程\n超干货详细\n1.提亮太阳穴\n2.颧骨凸出修容\n3.下颚线修容\n4.腮红画法', 'create': '2023-03-25 19:15', 'pic': 'http://i2.hdslb.com/bfs/archive/5c3f8392b3a3571363303f2d1ccfa66ca3e74fa7.jpg', 'coins': 4239, 'duration': '3:10', 'badgepay': False, 'pts': 2380638, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611329176', 'bvid': 'BV1A84y137Go', 'typename': '美妆护肤', 'title': '夏天独爱这款花苞头抓夹发型，慢教程版本！', 'subtitle': '', 'play': 685980, 'review': 478, 'video_review': 149, 'favorites': 54224, 'mid': 1550853534, 'author': '小名嗯嗯', 'description': '-', 'create': '2023-03-20 19:47', 'pic': 'http://i2.hdslb.com/bfs/archive/4a7f8c8aef12d9c48691c7b4ac5e9b6cde787de3.jpg', 'coins': 1988, 'duration': '0:35', 'badgepay': False, 'pts': 2373763, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696307620', 'bvid': 'BV1Um4y1r7Yi', 'typename': '美妆护肤', 'title': '拍照只会比耶？这套比耶小连招学好还不是分分钟出片！', 'subtitle': '', 'play': 521763, 'review': 123, 'video_review': 23, 'favorites': 9857, 'mid': 1621239499, 'author': '黄辣叮er', 'description': '-', 'create': '2023-03-21 14:23', 'pic': 'http://i0.hdslb.com/bfs/archive/43f11abc819c09542015b1ae76a317a4698cfa9a.jpg', 'coins': 689, 'duration': '0:20', 'badgepay': False, 'pts': 1082167, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739001998', 'bvid': 'BV16k4y1x7Px', 'typename': '美妆护肤', 'title': '普通人画宋慧乔这个妆越看越美！乔氏耐看美学好绝', 'subtitle': '', 'play': 234001, 'review': 211, 'video_review': 151, 'favorites': 12578, 'mid': 373428318, 'author': '梁大件', 'description': '', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/9bc7dcd9aa536fe6e78c4cce52158a02099e0b6a.jpg', 'coins': 2200, 'duration': '4:16', 'badgepay': False, 'pts': 721172, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951271110', 'bvid': 'BV1is4y1p7yi', 'typename': '美妆护肤', 'title': '打碎的玻璃还能用来拍摄口红大片', 'subtitle': '', 'play': 1553569, 'review': 242, 'video_review': 68, 'favorites': 10173, 'mid': 3493092627843536, 'author': '啊对教你用灯光', 'description': '花絮中出现道具物料：颜料 水缸 杯子 光棒 玫瑰花 \n\t\n-\n喜欢的可以点赞关注支持一下～', 'create': '2023-03-21 17:36', 'pic': 'http://i1.hdslb.com/bfs/archive/c5080a82882c38db9d18cffe9c76dabfd3687244.jpg', 'coins': 681, 'duration': '0:35', 'badgepay': False, 'pts': 714706, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993937299', 'bvid': 'BV1Kx4y1A77m', 'typename': '美妆护肤', 'title': '瑕疵皮！新手！必看的底妆视频！', 'subtitle': '', 'play': 320403, 'review': 515, 'video_review': 269, 'favorites': 6055, 'mid': 1072317049, 'author': '宝剑嫂的小世界', 'description': '真心分享～希望有所帮助！', 'create': '2023-03-22 19:02', 'pic': 'http://i2.hdslb.com/bfs/archive/483d45ddbb1d82b27d24ebba3f16cbf0d62990cf.jpg', 'coins': 1582, 'duration': '5:58', 'badgepay': False, 'pts': 700186, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823815471', 'bvid': 'BV1ng4y1x7ad', 'typename': '美妆护肤', 'title': '不会出错的日常卷发教程', 'subtitle': '', 'play': 321417, 'review': 575, 'video_review': 154, 'favorites': 5618, 'mid': 191201578, 'author': '笑一笑比个耶', 'description': '-', 'create': '2023-03-20 21:57', 'pic': 'http://i1.hdslb.com/bfs/archive/4102262491abdebd0e80b1e453f23f98e14cc5d9.jpg', 'coins': 1203, 'duration': '1:30', 'badgepay': False, 'pts': 675492, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908909880', 'bvid': 'BV1HM4y1B72H', 'typename': '美妆护肤', 'title': '长发男生｜江南美人侧编发', 'subtitle': '', 'play': 131756, 'review': 216, 'video_review': 86, 'favorites': 17300, 'mid': 50542103, 'author': '一只苏大大', 'description': '-', 'create': '2023-03-22 20:16', 'pic': 'http://i2.hdslb.com/bfs/archive/ff817889b4cce6ff1e9e8c3329d9d369f60db953.jpg', 'coins': 1071, 'duration': '1:40', 'badgepay': False, 'pts': 662201, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226619232', 'bvid': 'BV1Dh411G7pt', 'typename': '美妆护肤', 'title': '这显色度放在cos圈也是相当炸裂的！！', 'subtitle': '', 'play': 245294, 'review': 210, 'video_review': 114, 'favorites': 7826, 'mid': 526552653, 'author': 'OUIO彩瞳优选', 'description': '-', 'create': '2023-03-24 01:42', 'pic': 'http://i1.hdslb.com/bfs/archive/ec31e3ef3efb0694bd04f3313d47f531efb724ab.jpg', 'coins': 237, 'duration': '0:16', 'badgepay': False, 'pts': 631342, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951252646', 'bvid': 'BV1Hs4y1p72T', 'typename': '美妆护肤', 'title': '“妖妃不除 社稷难安啊”｜这句话听的太讽刺了', 'subtitle': '', 'play': 248288, 'review': 150, 'video_review': 48, 'favorites': 6014, 'mid': 13486020, 'author': '爱睡觉的财财子', 'description': '-', 'create': '2023-03-20 20:19', 'pic': 'http://i2.hdslb.com/bfs/archive/2ba0f3a19437d9abef6e23937482652b209a617b.jpg', 'coins': 391, 'duration': '0:10', 'badgepay': False, 'pts': 580695, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '951539451', 'bvid': 'BV1us4y1H7Th', 'typename': '鬼畜剧场', 'title': '《 代 父 从 军 》', 'subtitle': '', 'play': 925873, 'review': 400, 'video_review': 1269, 'favorites': 15344, 'mid': 121159721, 'author': '创可贴SNAKE', 'description': '一个人 两年半 做到如此成就 她可不是一般人~', 'create': '2023-03-24 19:20', 'pic': 'http://i2.hdslb.com/bfs/archive/c643e0b15c460d324067dc90b300121d92c4a387.jpg', 'coins': 5285, 'duration': '2:44', 'badgepay': False, 'pts': 1764085, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438915484', 'bvid': 'BV1nL41197k8', 'typename': '鬼畜剧场', 'title': '聚 宝 嘴', 'subtitle': '', 'play': 2132895, 'review': 776, 'video_review': 392, 'favorites': 15937, 'mid': 1753715431, 'author': '狗子快乐屋', 'description': '原片连续剧：《无限生机》', 'create': '2023-03-23 16:54', 'pic': 'http://i1.hdslb.com/bfs/archive/68cbe939c9141a31ec1b6df77c088cb58daba92b.jpg', 'coins': 2761, 'duration': '1:16', 'badgepay': False, 'pts': 1632044, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653937267', 'bvid': 'BV1XY4y1D7Ks', 'typename': '鬼畜剧场', 'title': '扮猪吃老虎', 'subtitle': '', 'play': 587652, 'review': 366, 'video_review': 818, 'favorites': 13578, 'mid': 23273746, 'author': '罪恶岛市', 'description': '扮猪吃老虎', 'create': '2023-03-23 20:40', 'pic': 'http://i0.hdslb.com/bfs/archive/dbe4a36ab6bbda725185d288ecf1bc4357e34f8f.jpg', 'coins': 6004, 'duration': '1:46', 'badgepay': False, 'pts': 1284999, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483918267', 'bvid': 'BV12T411B7MP', 'typename': '鬼畜剧场', 'title': '【特效向】您的外卖员正在暗战', 'subtitle': '', 'play': 503595, 'review': 553, 'video_review': 1773, 'favorites': 12401, 'mid': 22770727, 'author': '豪言の经理', 'description': '让狗子教你如何在混乱的战区当个最强的外卖员', 'create': '2023-03-22 14:01', 'pic': 'http://i2.hdslb.com/bfs/archive/edcb334e8e20e127934676fe7c97517602910b1b.jpg', 'coins': 11355, 'duration': '5:26', 'badgepay': False, 'pts': 1168239, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396585243', 'bvid': 'BV1Xo4y1s7M9', 'typename': '鬼畜剧场', 'title': '满级唐僧一统三国', 'subtitle': '', 'play': 486096, 'review': 256, 'video_review': 374, 'favorites': 7465, 'mid': 431643858, 'author': '非酋小辣椒', 'description': '血肉苦弱，机械飞升', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/e55066d7b497e262b503e011385345d37b092be4.jpg', 'coins': 3838, 'duration': '3:02', 'badgepay': False, 'pts': 992830, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483855402', 'bvid': 'BV1KT411r7Yk', 'typename': '鬼畜剧场', 'title': '汁儿炖', 'subtitle': '', 'play': 415288, 'review': 491, 'video_review': 394, 'favorites': 10289, 'mid': 9091765, 'author': '猪排派', 'description': '我要把这个简介笑死', 'create': '2023-03-20 17:55', 'pic': 'http://i2.hdslb.com/bfs/archive/60c4343a3ab2921ca2b930d2a0f54e651e14845d.jpg', 'coins': 4741, 'duration': '1:43', 'badgepay': False, 'pts': 908359, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526616216', 'bvid': 'BV18M411g7tc', 'typename': '鬼畜剧场', 'title': '京 海 疯 人 院', 'subtitle': '', 'play': 308726, 'review': 264, 'video_review': 801, 'favorites': 7441, 'mid': 51844730, 'author': '老实人张精贵', 'description': '简介也太有诗意了吧', 'create': '2023-03-24 10:30', 'pic': 'http://i0.hdslb.com/bfs/archive/5bd2175f1b99cb78659f8952a03e770cebe92fae.jpg', 'coins': 3269, 'duration': '4:40', 'badgepay': False, 'pts': 727739, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823782046', 'bvid': 'BV13g4y1x7Mc', 'typename': '鬼畜剧场', 'title': '史 上 最 强 沙 俄 使 者', 'subtitle': '', 'play': 187013, 'review': 325, 'video_review': 819, 'favorites': 6250, 'mid': 37937944, 'author': '一只小罗曼', 'description': '这是史上最强的沙俄使者\n（本视频纯属虚构，仅供娱乐）\n素材来源：康熙王朝第15集', 'create': '2023-03-20 14:34', 'pic': 'http://i2.hdslb.com/bfs/archive/aa0be560d9b2556d4c9a90b397bb046bf744b56f.jpg', 'coins': 1192, 'duration': '2:24', 'badgepay': False, 'pts': 499985, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866609330', 'bvid': 'BV1XV4y1X7Vi', 'typename': '鬼畜剧场', 'title': '少女明末旅行', 'subtitle': '', 'play': 146780, 'review': 629, 'video_review': 369, 'favorites': 5154, 'mid': 9824645, 'author': '咆哮的OneFan', 'description': '九族\n视频合成：@咆哮的OneFan  \n道化指导：@ANDREY上校  \n胡军人力：@憨憨一撇丿  \n手书：@普通的雷   \n插图：@贝极星汉灿烂  \n\n部分服装素材取自于：\n@武阵天王-杰哥  \n@襄阳楚材  \n以及互联网，如有侵权请告知！', 'create': '2023-03-25 04:09', 'pic': 'http://i2.hdslb.com/bfs/archive/9346cbb58ec750122910f610f32fab9ef1d9af58.jpg', 'coins': 3909, 'duration': '2:41', 'badgepay': False, 'pts': 421782, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781272028', 'bvid': 'BV1p24y1E7ic', 'typename': '鬼畜剧场', 'title': '马老师疯狂偷袭，小黑子节节败退！', 'subtitle': '', 'play': 204532, 'review': 316, 'video_review': 281, 'favorites': 3418, 'mid': 25333161, 'author': '白熊ONEヽ', 'description': '报数：一！二！三！四！六！七！八！九！十！', 'create': '2023-03-20 17:42', 'pic': 'http://i0.hdslb.com/bfs/archive/e05663ea9506a512201aae33514f0622c159d7a1.jpg', 'coins': 2666, 'duration': '1:40', 'badgepay': False, 'pts': 421402, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>4932106</v>
+        <v>5898450</v>
       </c>
       <c r="I90" t="n">
-        <v>14281</v>
+        <v>45020</v>
       </c>
       <c r="J90" t="n">
-        <v>183623</v>
+        <v>97277</v>
       </c>
       <c r="K90" t="n">
-        <v>20233</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>仿妆cos</t>
+          <t>教程演示</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>cos</t>
+          <t>course</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>对二次元、三次元人物角色进行模仿、还原、展示、演绎的内容</t>
+          <t>鬼畜相关的科普和教程演示</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>/v/fashion/cos(opens new window)</t>
+          <t>/v/kichiku/course</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>时尚(主分区)</t>
+          <t>鬼畜</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[{'aid': '568926660', 'bvid': 'BV17v4y157F3', 'typename': '仿妆cos', 'title': '真好，我这种屌丝也性感一回', 'subtitle': '', 'play': 873622, 'review': 458, 'video_review': 30, 'favorites': 32958, 'mid': 179288789, 'author': '汤面桢子', 'description': '-', 'create': '2023-03-23 16:14', 'pic': 'http://i2.hdslb.com/bfs/archive/396bf4acb031eb3e4036b68f685ebcf19b9d6e0b.jpg', 'coins': 5024, 'duration': '0:07', 'badgepay': False, 'pts': 2107582, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738985493', 'bvid': 'BV1yk4y1x7fF', 'typename': '仿妆cos', 'title': '赎走这样的男花魁你愿意出多少', 'subtitle': '', 'play': 780816, 'review': 1054, 'video_review': 495, 'favorites': 28453, 'mid': 435972, 'author': '山南以北re', 'description': '-', 'create': '2023-03-23 18:48', 'pic': 'http://i1.hdslb.com/bfs/archive/292c32f4804e7260e1e13ef85a2fdc5e2545e922.jpg', 'coins': 6231, 'duration': '0:14', 'badgepay': False, 'pts': 1949010, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396568110', 'bvid': 'BV1Zo4y1s7sH', 'typename': '仿妆cos', 'title': '停云姐姐这么做，一定有她的大道理', 'subtitle': '', 'play': 771205, 'review': 1018, 'video_review': 632, 'favorites': 24836, 'mid': 18343098, 'author': '河野华', 'description': '狐狸瘾发作最严重的一次\n摄像：网管菌 后勤：时雨 小狼 冰糕 欣珀\nBGM：精卫琵琶版—jakub狗子哥', 'create': '2023-03-25 12:01', 'pic': 'http://i2.hdslb.com/bfs/archive/c274e7dcd46b89c95b6c03121ce1e7d54ffeff5c.jpg', 'coins': 22877, 'duration': '0:58', 'badgepay': False, 'pts': 1809680, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226532889', 'bvid': 'BV1eh411G7bK', 'typename': '仿妆cos', 'title': '不进来看看？', 'subtitle': '', 'play': 670374, 'review': 1252, 'video_review': 243, 'favorites': 28616, 'mid': 23237718, 'author': '害羞7', 'description': '海边的风也太大了吧！\n\n拍摄：岩壁生\nBGM：Love\xa0Letter', 'create': '2023-03-25 13:31', 'pic': 'http://i2.hdslb.com/bfs/archive/68dfb3dc32f325952bec06e8334412b5cefe741d.jpg', 'coins': 13772, 'duration': '0:31', 'badgepay': False, 'pts': 1796253, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526539521', 'bvid': 'BV1dM411u7Wq', 'typename': '仿妆cos', 'title': '爸，有人找你…|隐士典狱长', 'subtitle': '', 'play': 661591, 'review': 1127, 'video_review': 334, 'favorites': 21940, 'mid': 4081529, 'author': '大米壹袋袋', 'description': '-', 'create': '2023-03-24 13:21', 'pic': 'http://i1.hdslb.com/bfs/archive/e575d4dc1ed38284c6cf6f322acea72b9286c376.jpg', 'coins': 4933, 'duration': '0:09', 'badgepay': False, 'pts': 1643634, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484005320', 'bvid': 'BV1wT411z7Bu', 'typename': '仿妆cos', 'title': '新海诚看了都要沉默｜铃芽之旅', 'subtitle': '', 'play': 708494, 'review': 418, 'video_review': 85, 'favorites': 8309, 'mid': 237267348, 'author': '你十八o3o', 'description': '首映结束后…\n草太@青木雄太 三叶@桥本祭祭 \n\n微博：小野六缘', 'create': '2023-03-25 18:27', 'pic': 'http://i0.hdslb.com/bfs/archive/e552645a29e1cafb69ce6a995ffb28c4cfdb2ed0.jpg', 'coins': 983, 'duration': '0:10', 'badgepay': False, 'pts': 1322106, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951393752', 'bvid': 'BV1Ys4y1n7JR', 'typename': '仿妆cos', 'title': '“他们说我住在这金做的笼子，好生有福气。”', 'subtitle': '', 'play': 632086, 'review': 710, 'video_review': 145, 'favorites': 10605, 'mid': 101363350, 'author': '夏弃疾下乡版', 'description': '天晴后的樱花花', 'create': '2023-03-23 17:56', 'pic': 'http://i0.hdslb.com/bfs/archive/b19dc94145928d0ba0eb38e1073925af81d914d3.jpg', 'coins': 3213, 'duration': '0:21', 'badgepay': False, 'pts': 1173061, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823995396', 'bvid': 'BV1yg4y1W7Rf', 'typename': '仿妆cos', 'title': '贵 州 胡 桃', 'subtitle': '', 'play': 421240, 'review': 293, 'video_review': 49, 'favorites': 18065, 'mid': 179187121, 'author': '老久妹儿', 'description': '-', 'create': '2023-03-22 15:04', 'pic': 'http://i2.hdslb.com/bfs/archive/2c08f609df3e00caaccad44880a2d40477045e83.jpg', 'coins': 1608, 'duration': '0:15', 'badgepay': False, 'pts': 1155444, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739022186', 'bvid': 'BV1dk4y1x7D6', 'typename': '仿妆cos', 'title': '当皇子不小心爱上了自己的侍从是种怎样的体验？', 'subtitle': '', 'play': 429106, 'review': 394, 'video_review': 133, 'favorites': 12302, 'mid': 2782630, 'author': '扬大旗', 'description': '“谢太后隆恩。”', 'create': '2023-03-25 13:11', 'pic': 'http://i1.hdslb.com/bfs/archive/73e388c06f55469d2f2b8a1d391eea62e7b73beb.jpg', 'coins': 763, 'duration': '0:15', 'badgepay': False, 'pts': 1043623, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441475640', 'bvid': 'BV1nL411D7kD', 'typename': '仿妆cos', 'title': '喜多川or小雫 ？ 拜托，会cosplay的女朋友超酷的好嘛', 'subtitle': '', 'play': 369503, 'review': 187, 'video_review': 151, 'favorites': 14344, 'mid': 17367640, 'author': '尸菌菌qwq', 'description': '-', 'create': '2023-03-22 21:08', 'pic': 'http://i1.hdslb.com/bfs/archive/6e8bac63c23d933c6c5b23a233666e66df022d82.jpg', 'coins': 2634, 'duration': '0:32', 'badgepay': False, 'pts': 977060, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '439096575', 'bvid': 'BV1yL411Q72z', 'typename': '教程演示', 'title': '组成人列计算机计算星系运动轨迹的三体人', 'subtitle': '', 'play': 5429, 'review': 23, 'video_review': 3, 'favorites': 33, 'mid': 1580100751, 'author': '叙拉古难民', 'description': '无任何不良因素引导，视频中出现的道具均为假的。（望周知）（望过审）', 'create': '2023-03-24 17:16', 'pic': 'http://i0.hdslb.com/bfs/archive/15e8e3a5caf580f2f8030c80ea5ea890f215a726.jpg', 'coins': 3, 'duration': '0:21', 'badgepay': False, 'pts': 10706, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269181151', 'bvid': 'BV1Rc411L7p1', 'typename': '教程演示', 'title': '电棍骑梓喵.bb', 'subtitle': '', 'play': 705, 'review': 14, 'video_review': 0, 'favorites': 12, 'mid': 627704911, 'author': 'ddcsb', 'description': '看到已经有人在用这段了那就做个bb出来吧', 'create': '2023-03-26 13:07', 'pic': 'http://i0.hdslb.com/bfs/archive/a7c17e43860c1a835091155d8dc344c401e5078c.jpg', 'coins': 4, 'duration': '0:16', 'badgepay': False, 'pts': 1772, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226306188', 'bvid': 'BV1Qb411d7iD', 'typename': '教程演示', 'title': '正在制作橄榄菜的池沼作坊.GB', 'subtitle': '', 'play': 1285, 'review': 10, 'video_review': 1, 'favorites': 5, 'mid': 626846648, 'author': '一个一个屑猹qwq', 'description': '压力马斯内', 'create': '2023-03-21 19:31', 'pic': 'http://i1.hdslb.com/bfs/archive/464e4758b80b34861d028a434398027d1bfe576b.jpg', 'coins': 6, 'duration': '0:32', 'badgepay': False, 'pts': 1451, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696259037', 'bvid': 'BV11m4y1r7qm', 'typename': '教程演示', 'title': '鬼畜素材西西物者魏骏杰《最炫民族风》', 'subtitle': '', 'play': 1083, 'review': 2, 'video_review': 0, 'favorites': 10, 'mid': 454919126, 'author': '阿葱支支吾吾', 'description': '无水印 请善用', 'create': '2023-03-21 22:15', 'pic': 'http://i0.hdslb.com/bfs/archive/b2823d6d482fdb7bb026c6155eaf790b3081d6e0.jpg', 'coins': 5, 'duration': '1:34', 'badgepay': False, 'pts': 1393, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866523178', 'bvid': 'BV1iV4y1X7xX', 'typename': '教程演示', 'title': '杰哥不要【AI苹果杰克,云宝,萍琪,小蝶】', 'subtitle': '', 'play': 530, 'review': 12, 'video_review': 22, 'favorites': 16, 'mid': 378942491, 'author': 'ZTN472487', 'description': '世纪工程，用FL分离了半天人声，能听就行\n欢迎加入全联音频共享部681794085，群里有其他语音包提供给各位下载。（拿来训练也可用）\n感谢@凯尔·布罗夫洛夫斯基 上传的模型BV1nL411D7Fj\n项目: https://github.com/svc-develop-team/so-vits-svc\n整合包：BV1Eb411f7gX\n基础语音包：BV1W54y1N7rc\n\nVocal: 萍琪(彬彬)苹果杰克(杰哥)小蝶(阿嫲)云宝(阿伟)\n音频源：无\n视频源：BV1Tg4y1i7Dt', 'create': '2023-03-25 14:07', 'pic': 'http://i0.hdslb.com/bfs/archive/d29cfdf22e462f1f28617ce57ad7c11fb84e07b5.jpg', 'coins': 4, 'duration': '6:52', 'badgepay': False, 'pts': 1218, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>6318037</v>
+        <v>9032</v>
       </c>
       <c r="I91" t="n">
-        <v>62038</v>
+        <v>22</v>
       </c>
       <c r="J91" t="n">
-        <v>200428</v>
+        <v>76</v>
       </c>
       <c r="K91" t="n">
-        <v>5937</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>穿搭</t>
+          <t>美妆护肤</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>makeup</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>穿搭风格、穿搭技巧的展示分享，涵盖衣服、鞋靴、箱包配件、配饰（帽子、钟表、珠宝首饰）等</t>
+          <t>彩妆护肤、美甲美发、仿妆、医美相关内容分享或产品测评</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>/v/fashion/clothing(opens new window)</t>
+          <t>/v/fashion/makeup(opens new window)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>时尚(主分区)</t>
+          <t>时尚</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[{'aid': '396349141', 'bvid': 'BV1No4y1B78S', 'typename': '穿搭', 'title': '今天爷爷给我看一件特殊的衣服', 'subtitle': '', 'play': 2235994, 'review': 820, 'video_review': 1293, 'favorites': 24116, 'mid': 423385190, 'author': '康康和爷爷', 'description': '-', 'create': '2023-03-21 17:24', 'pic': 'http://i1.hdslb.com/bfs/archive/afc0be6934d38b915d30a07a50eea17e8ebf8bdc.jpg', 'coins': 23744, 'duration': '0:50', 'badgepay': False, 'pts': 2957591, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951593691', 'bvid': 'BV19s4y1E7h9', 'typename': '穿搭', 'title': '多巴胺女孩看过来！你们要的小裙子都在这', 'subtitle': '', 'play': 712271, 'review': 494, 'video_review': 158, 'favorites': 15501, 'mid': 1218878022, 'author': '小酒午KELIFAN', 'description': '春夏我真的很爱穿小裙裙，在线寻找和我一样爱穿小裙子的姐妹呀！这么氛围感满满的小裙子你心动了么？\n今天穿的小裙子都是我自家的哈！kelifan酒午嗷！', 'create': '2023-03-25 11:55', 'pic': 'http://i0.hdslb.com/bfs/archive/79107dffc731f0792dab68858d58575a240d2918.jpg', 'coins': 1803, 'duration': '1:16', 'badgepay': False, 'pts': 1516924, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483885307', 'bvid': 'BV17T411r7uw', 'typename': '穿搭', 'title': 'pdd这个盲盒真的不算诈骗吗？在线等！很急！', 'subtitle': '', 'play': 512881, 'review': 643, 'video_review': 2600, 'favorites': 6731, 'mid': 430926487, 'author': '达达达布溜-', 'description': '求一键三连回血555～', 'create': '2023-03-25 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7a7cbfdf6ced5bfe47ad00625844c746a2c6e209.jpg', 'coins': 51270, 'duration': '4:54', 'badgepay': False, 'pts': 1044877, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396467959', 'bvid': 'BV1xo4y1s7EP', 'typename': '穿搭', 'title': '【汉服日常】这人真的很想教会我们！', 'subtitle': '', 'play': 267324, 'review': 103, 'video_review': 57, 'favorites': 16080, 'mid': 44602772, 'author': 'Sherry雪梨粥', 'description': '-', 'create': '2023-03-23 20:10', 'pic': 'http://i0.hdslb.com/bfs/archive/c8844a869cad3bb35d635ee0d723fb75b950973c.jpg', 'coins': 1301, 'duration': '2:02', 'badgepay': False, 'pts': 861249, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441477726', 'bvid': 'BV1nL411D7PR', 'typename': '穿搭', 'title': '别催了，不就是牛仔裤吗！', 'subtitle': '', 'play': 378893, 'review': 271, 'video_review': 244, 'favorites': 8407, 'mid': 18841842, 'author': '慕慕有奶糖', 'description': '花了两次钱，必须得写个摄影了！\n摄影：@绯山圣瞳九命猫  \n后期：@慕慕有翠花  是我的小号，快去关注！', 'create': '2023-03-23 12:05', 'pic': 'http://i1.hdslb.com/bfs/archive/fad96d1fd41006e8a461a509066b3a27bbf48b57.jpg', 'coins': 2637, 'duration': '0:55', 'badgepay': False, 'pts': 841202, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823833980', 'bvid': 'BV1qg4y1x7of', 'typename': '穿搭', 'title': '怎么不心动呢？显瘦半身裙 158/95/s', 'subtitle': '', 'play': 333697, 'review': 310, 'video_review': 52, 'favorites': 11195, 'mid': 51571378, 'author': '痣女如花-本人', 'description': '-', 'create': '2023-03-21 19:43', 'pic': 'http://i0.hdslb.com/bfs/archive/78a6eb0371f35b4eceeb548ad17529694f1f2f20.jpg', 'coins': 421, 'duration': '0:58', 'badgepay': False, 'pts': 837169, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993758227', 'bvid': 'BV1cx4y1N7hY', 'typename': '穿搭', 'title': '痛失一个省的市场！', 'subtitle': '', 'play': 462734, 'review': 399, 'video_review': 178, 'favorites': 4081, 'mid': 633789333, 'author': '白青GQ', 'description': '', 'create': '2023-03-20 17:32', 'pic': 'http://i1.hdslb.com/bfs/archive/64cd0dd39df48abc435faab250cf5515c1911194.jpg', 'coins': 10351, 'duration': '0:17', 'badgepay': False, 'pts': 787085, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781279955', 'bvid': 'BV1s24y1E7oQ', 'typename': '穿搭', 'title': '低至21r!百元内大型春装购物分享！平价高质外贸店 | 卫衣半裙针织衫啥都有', 'subtitle': '', 'play': 222792, 'review': 391, 'video_review': 665, 'favorites': 14670, 'mid': 641835665, 'author': '莉莉子Lizzie', 'description': '无他，唯便宜尔。', 'create': '2023-03-21 19:26', 'pic': 'http://i1.hdslb.com/bfs/archive/ee78762df54cc5e95cf234bd7b20945a39ddc409.jpg', 'coins': 2160, 'duration': '9:41', 'badgepay': False, 'pts': 751825, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611504956', 'bvid': 'BV1m84y137sW', 'typename': '穿搭', 'title': '✨沉 浸 式 换 装 秀✨', 'subtitle': '', 'play': 318350, 'review': 531, 'video_review': 139, 'favorites': 7930, 'mid': 836885, 'author': '清和Alicia', 'description': '尝试照着《以闪亮之名》里的套装搭了一些日常穿搭:D\nBGM：f(x) (에프엑스)《나비 (蝴蝶 )》', 'create': '2023-03-26 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/1c9e7b1e175b7353619753a39c80561e77cd3d5c.jpg', 'coins': 9269, 'duration': '0:59', 'badgepay': False, 'pts': 748888, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268761295', 'bvid': 'BV1xc411j7V5', 'typename': '穿搭', 'title': '带你们到江边走走', 'subtitle': '', 'play': 449369, 'review': 311, 'video_review': 365, 'favorites': 3918, 'mid': 3493136881945085, 'author': '402ephto_', 'description': '-', 'create': '2023-03-20 19:12', 'pic': 'http://i0.hdslb.com/bfs/archive/9ccd3cd911a9c39fcb89da38c515deac04457089.jpg', 'coins': 1432, 'duration': '0:39', 'badgepay': False, 'pts': 674195, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '739095959', 'bvid': 'BV1Ek4y147yK', 'typename': '美妆护肤', 'title': '粉丝不会化妆 明星化妆师在线改妆', 'subtitle': '', 'play': 790435, 'review': 766, 'video_review': 612, 'favorites': 63004, 'mid': 515946106, 'author': 'Elvis增增-', 'description': '普通人学化妆\n跟着明星化妆师增增学化妆\n让普通人化妆告别显老\n今天详细在线指导粉丝化妆全过程\n超干货详细\n1.提亮太阳穴\n2.颧骨凸出修容\n3.下颚线修容\n4.腮红画法', 'create': '2023-03-25 19:15', 'pic': 'http://i2.hdslb.com/bfs/archive/5c3f8392b3a3571363303f2d1ccfa66ca3e74fa7.jpg', 'coins': 4993, 'duration': '3:10', 'badgepay': False, 'pts': 2742538, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611329176', 'bvid': 'BV1A84y137Go', 'typename': '美妆护肤', 'title': '夏天独爱这款花苞头抓夹发型，慢教程版本！', 'subtitle': '', 'play': 688480, 'review': 480, 'video_review': 151, 'favorites': 54403, 'mid': 1550853534, 'author': '小名嗯嗯', 'description': '-', 'create': '2023-03-20 19:47', 'pic': 'http://i2.hdslb.com/bfs/archive/4a7f8c8aef12d9c48691c7b4ac5e9b6cde787de3.jpg', 'coins': 1989, 'duration': '0:35', 'badgepay': False, 'pts': 2381882, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696307620', 'bvid': 'BV1Um4y1r7Yi', 'typename': '美妆护肤', 'title': '拍照只会比耶？这套比耶小连招学好还不是分分钟出片！', 'subtitle': '', 'play': 530371, 'review': 123, 'video_review': 23, 'favorites': 10070, 'mid': 1621239499, 'author': '黄辣叮er', 'description': '-', 'create': '2023-03-21 14:23', 'pic': 'http://i0.hdslb.com/bfs/archive/43f11abc819c09542015b1ae76a317a4698cfa9a.jpg', 'coins': 701, 'duration': '0:20', 'badgepay': False, 'pts': 1101236, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739001998', 'bvid': 'BV16k4y1x7Px', 'typename': '美妆护肤', 'title': '普通人画宋慧乔这个妆越看越美！乔氏耐看美学好绝', 'subtitle': '', 'play': 252538, 'review': 221, 'video_review': 162, 'favorites': 13595, 'mid': 373428318, 'author': '梁大件', 'description': '', 'create': '2023-03-24 17:30', 'pic': 'http://i0.hdslb.com/bfs/archive/9bc7dcd9aa536fe6e78c4cce52158a02099e0b6a.jpg', 'coins': 2348, 'duration': '4:16', 'badgepay': False, 'pts': 774372, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951271110', 'bvid': 'BV1is4y1p7yi', 'typename': '美妆护肤', 'title': '打碎的玻璃还能用来拍摄口红大片', 'subtitle': '', 'play': 1565911, 'review': 244, 'video_review': 68, 'favorites': 10296, 'mid': 3493092627843536, 'author': '啊对教你用灯光', 'description': '花絮中出现道具物料：颜料 水缸 杯子 光棒 玫瑰花 \n\t\n-\n喜欢的可以点赞关注支持一下～', 'create': '2023-03-21 17:36', 'pic': 'http://i1.hdslb.com/bfs/archive/c5080a82882c38db9d18cffe9c76dabfd3687244.jpg', 'coins': 683, 'duration': '0:35', 'badgepay': False, 'pts': 721535, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993937299', 'bvid': 'BV1Kx4y1A77m', 'typename': '美妆护肤', 'title': '瑕疵皮！新手！必看的底妆视频！', 'subtitle': '', 'play': 325369, 'review': 517, 'video_review': 270, 'favorites': 6133, 'mid': 1072317049, 'author': '宝剑嫂的小世界', 'description': '真心分享～希望有所帮助！', 'create': '2023-03-22 19:02', 'pic': 'http://i2.hdslb.com/bfs/archive/483d45ddbb1d82b27d24ebba3f16cbf0d62990cf.jpg', 'coins': 1596, 'duration': '5:58', 'badgepay': False, 'pts': 706730, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484161537', 'bvid': 'BV1FT41167JP', 'typename': '美妆护肤', 'title': 'SJ金希澈妆造师打造我成千禧年男爱豆', 'subtitle': '', 'play': 336175, 'review': 1395, 'video_review': 3552, 'favorites': 4041, 'mid': 15892313, 'author': '知名相声演员BBBBB大王', 'description': 'SJ金希澈妆造师打造本素人女成千禧年男爱豆，大概我觉得性价比最高一次，毕竟我还获得了新发型。\n视频中涉及的全分子量玻尿酸 专利号:ZL202110874694.1', 'create': '2023-03-26 20:32', 'pic': 'http://i1.hdslb.com/bfs/archive/3fa9971fc82ba58935cbbb15fa90047ddebd0b94.jpg', 'coins': 14081, 'duration': '8:10', 'badgepay': False, 'pts': 695213, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823815471', 'bvid': 'BV1ng4y1x7ad', 'typename': '美妆护肤', 'title': '不会出错的日常卷发教程', 'subtitle': '', 'play': 324392, 'review': 577, 'video_review': 156, 'favorites': 5710, 'mid': 191201578, 'author': '笑一笑比个耶', 'description': '-', 'create': '2023-03-20 21:57', 'pic': 'http://i1.hdslb.com/bfs/archive/4102262491abdebd0e80b1e453f23f98e14cc5d9.jpg', 'coins': 1219, 'duration': '1:30', 'badgepay': False, 'pts': 681986, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226619232', 'bvid': 'BV1Dh411G7pt', 'typename': '美妆护肤', 'title': '这显色度放在cos圈也是相当炸裂的！！', 'subtitle': '', 'play': 256669, 'review': 215, 'video_review': 118, 'favorites': 8236, 'mid': 526552653, 'author': 'OUIO彩瞳优选', 'description': '-', 'create': '2023-03-24 01:42', 'pic': 'http://i1.hdslb.com/bfs/archive/ec31e3ef3efb0694bd04f3313d47f531efb724ab.jpg', 'coins': 253, 'duration': '0:16', 'badgepay': False, 'pts': 658765, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396417744', 'bvid': 'BV1co4y1s75y', 'typename': '美妆护肤', 'title': '“淑辣甜魅”四种发型满足你日常妆容的需求！让你从发根精致到发尾，怎么拍都有氛围！', 'subtitle': '', 'play': 154030, 'review': 76, 'video_review': 22, 'favorites': 12926, 'mid': 1629780864, 'author': '西柚皮很厚哦', 'description': '-', 'create': '2023-03-22 17:10', 'pic': 'http://i2.hdslb.com/bfs/archive/c630c3088b11aa055e04f104cde4a738a6a7c108.jpg', 'coins': 720, 'duration': '3:58', 'badgepay': False, 'pts': 591210, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>5894305</v>
+        <v>5224370</v>
       </c>
       <c r="I92" t="n">
-        <v>104388</v>
+        <v>28583</v>
       </c>
       <c r="J92" t="n">
-        <v>112629</v>
+        <v>188414</v>
       </c>
       <c r="K92" t="n">
-        <v>24294</v>
+        <v>20233</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>时尚潮流</t>
+          <t>仿妆cos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>catwalk</t>
+          <t>cos</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>时尚街拍、时装周、时尚大片，时尚品牌、潮流等行业相关记录及知识科普</t>
+          <t>对二次元、三次元人物角色进行模仿、还原、展示、演绎的内容</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>/v/fashion/catwalk</t>
+          <t>/v/fashion/cos(opens new window)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>时尚(主分区)</t>
+          <t>时尚</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[{'aid': '439100926', 'bvid': 'BV12L411Q7Pk', 'typename': '时尚潮流', 'title': '上镜丑？我研究了易梦玲拍照法️...发现90%模特竟然都这么拍！', 'subtitle': '', 'play': 868319, 'review': 234, 'video_review': 132, 'favorites': 45665, 'mid': 3725622, 'author': '一一只是黑猫', 'description': '【大原则-三类照片取景和焦段必须卡死，这样就不会变形】\n全身（为了拍环境才会出现）保证在1.2x-1.5x之间-脑袋放在中间 脚放在底线左右\n穿搭（膝盖至小腿中间）基本在2x-2.5 -脑袋放第一根线 拍到小腿中间\n半身/大头照（到肚脐眼以下 裤腰以上）保证在3.5-4.4- 脑袋放第一根线 拍到裤腰\n【大原则：人物亮 背景暗】\n白天：\n寻找明暗交界线*，人站在亮处、背景是暗处\n夜景：\n打开闪光灯就行\n有无闪光灯对比*\n\n为什么有的文字没拍出来。。。是因为我摆烂了（看到的宝就当没看到哈🤫）', 'create': '2023-03-25 16:41', 'pic': 'http://i0.hdslb.com/bfs/archive/8982c848eb0ae9f0298452958c5a9040f98f43b0.jpg', 'coins': 4510, 'duration': '2:07', 'badgepay': False, 'pts': 2413407, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908755775', 'bvid': 'BV1tM4y167pq', 'typename': '时尚潮流', 'title': '我真的在身上打过很多的洞...', 'subtitle': '', 'play': 389629, 'review': 1064, 'video_review': 2144, 'favorites': 1657, 'mid': 41177354, 'author': '王炸QAQ', 'description': '', 'create': '2023-03-21 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/f20dae530f54a05d549c3912b0ad20273b45a231.jpg', 'coins': 1559, 'duration': '8:40', 'badgepay': False, 'pts': 664163, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569087866', 'bvid': 'BV1Kv4y1L7HU', 'typename': '时尚潮流', 'title': '【人间德芙】救命！这腿我p都不敢这样p，她就直接长这样', 'subtitle': '', 'play': 258148, 'review': 478, 'video_review': 305, 'favorites': 2955, 'mid': 73432150, 'author': '小小唯橙子', 'description': '视频中均为同一个模特Anok Yai~\nBGM:what do you mean', 'create': '2023-03-25 15:51', 'pic': 'http://i0.hdslb.com/bfs/archive/9e3941c454c1d04c6d9d79287f8ba9b56c2c4b1b.jpg', 'coins': 290, 'duration': '3:11', 'badgepay': False, 'pts': 526389, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866570780', 'bvid': 'BV1kV4y1X7A2', 'typename': '时尚潮流', 'title': '【2023春夏时髦流行趋势】10分钟教你今年春夏怎么穿最时尚 | Pantone 流行色 | 芭蕾风 | 赛车户外 | BettySays', 'subtitle': '', 'play': 152240, 'review': 413, 'video_review': 1134, 'favorites': 6892, 'mid': 6302909, 'author': 'BettySays', 'description': '这期带你10分钟看懂2023春夏秀场流行色，流行元素，与流行单品。\xa0\n今年春夏什么最in？春夏衣橱的填充灵感，本期一口气放送。', 'create': '2023-03-24 20:37', 'pic': 'http://i1.hdslb.com/bfs/archive/f2ec7acd2dbc34eda1e1ef472068cdd9a485c4b1.jpg', 'coins': 6139, 'duration': '12:53', 'badgepay': False, 'pts': 462663, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396600074', 'bvid': 'BV1Mo4y1x7h2', 'typename': '时尚潮流', 'title': '既然不屑为伍 何必害怕与众不同', 'subtitle': '', 'play': 129794, 'review': 260, 'video_review': 52, 'favorites': 2644, 'mid': 1110145274, 'author': '是niniye', 'description': '-', 'create': '2023-03-24 18:31', 'pic': 'http://i0.hdslb.com/bfs/archive/db52866ea5b5e9fb462e254454e0f1388dcb21e7.jpg', 'coins': 432, 'duration': '0:11', 'badgepay': False, 'pts': 305573, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951381558', 'bvid': 'BV1Js4y1n7Na', 'typename': '时尚潮流', 'title': '【ACRONYM/德国机能品牌】 ΛCR-SS-23 [ A ] … J68-GT', 'subtitle': '', 'play': 230235, 'review': 115, 'video_review': 133, 'favorites': 1863, 'mid': 1444881779, 'author': '柴可夫斯基因', 'description': 'instagram.com', 'create': '2023-03-23 08:59', 'pic': 'http://i0.hdslb.com/bfs/archive/ba0f61fa30835fc2aa2c2394a1cf99bf20f1eb3a.jpg', 'coins': 78, 'duration': '0:21', 'badgepay': False, 'pts': 272898, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653848581', 'bvid': 'BV14Y4y1D7Fm', 'typename': '时尚潮流', 'title': '疯癫无底线，明星也发狂。奥斯卡Oscar名利场红毯造型拉踩。vanity fair afterparty', 'subtitle': '', 'play': 131126, 'review': 195, 'video_review': 4464, 'favorites': 508, 'mid': 434280524, 'author': 'WENBO大设计师', 'description': '名利场红毯造型拉踩。', 'create': '2023-03-21 13:02', 'pic': 'http://i0.hdslb.com/bfs/archive/11d7ec700a4840632b0605f61d270ecfd0b9af1f.jpg', 'coins': 1908, 'duration': '16:02', 'badgepay': False, 'pts': 260302, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441406930', 'bvid': 'BV1dL411r7cT', 'typename': '时尚潮流', 'title': '不停产吃到80岁', 'subtitle': '', 'play': 95724, 'review': 71, 'video_review': 87, 'favorites': 3167, 'mid': 1503204882, 'author': '张轻轻koya', 'description': '小学生可能不爱，对大人来说刚好', 'create': '2023-03-22 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/ba1d5c2757df414acb813fdd2c7a088755b3e32e.jpg', 'coins': 222, 'duration': '3:28', 'badgepay': False, 'pts': 248105, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781693756', 'bvid': 'BV1c24y1E7ZJ', 'typename': '时尚潮流', 'title': '拼单名媛？在线辟谣！', 'subtitle': '', 'play': 146582, 'review': 314, 'video_review': 399, 'favorites': 454, 'mid': 353368172, 'author': 'AHALOLO', 'description': '同框出镜力破传闻\n\n每周三、周六中午12点，咱们不见不散！\n\n欢迎来骚扰我们：\n\n新浪微博：lolo-may/aha没有事业线\n\nYouTube： AHALOLO', 'create': '2023-03-26 19:27', 'pic': 'http://i2.hdslb.com/bfs/archive/dccc63cee2ff33031857cb2a89cd634703b372c9.jpg', 'coins': 929, 'duration': '4:10', 'badgepay': False, 'pts': 231149, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396506577', 'bvid': 'BV1zo4y1s7Fv', 'typename': '时尚潮流', 'title': '“你们也就能走走微博之夜了！姐奥斯卡有事，先忙”', 'subtitle': '', 'play': 310059, 'review': 726, 'video_review': 260, 'favorites': 759, 'mid': 1387186590, 'author': '苏打有点蓝', 'description': '-', 'create': '2023-03-25 13:12', 'pic': 'http://i1.hdslb.com/bfs/archive/7157668cd2c3e4a781e766868dd106e6ae3b91f3.jpg', 'coins': 136, 'duration': '1:28', 'badgepay': False, 'pts': 222715, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '568926660', 'bvid': 'BV17v4y157F3', 'typename': '仿妆cos', 'title': '真好，我这种屌丝也性感一回', 'subtitle': '', 'play': 877192, 'review': 461, 'video_review': 30, 'favorites': 33192, 'mid': 179288789, 'author': '汤面桢子', 'description': '-', 'create': '2023-03-23 16:14', 'pic': 'http://i2.hdslb.com/bfs/archive/396bf4acb031eb3e4036b68f685ebcf19b9d6e0b.jpg', 'coins': 5062, 'duration': '0:07', 'badgepay': False, 'pts': 2117769, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738985493', 'bvid': 'BV1yk4y1x7fF', 'typename': '仿妆cos', 'title': '赎走这样的男花魁你愿意出多少', 'subtitle': '', 'play': 787606, 'review': 1062, 'video_review': 500, 'favorites': 28721, 'mid': 435972, 'author': '山南以北re', 'description': '-', 'create': '2023-03-23 18:48', 'pic': 'http://i1.hdslb.com/bfs/archive/292c32f4804e7260e1e13ef85a2fdc5e2545e922.jpg', 'coins': 6306, 'duration': '0:14', 'badgepay': False, 'pts': 1965041, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226532889', 'bvid': 'BV1eh411G7bK', 'typename': '仿妆cos', 'title': '不进来看看？', 'subtitle': '', 'play': 710446, 'review': 1313, 'video_review': 254, 'favorites': 30537, 'mid': 23237718, 'author': '害羞7', 'description': '海边的风也太大了吧！\n\n拍摄：岩壁生\nBGM：Love\xa0Letter', 'create': '2023-03-25 13:31', 'pic': 'http://i2.hdslb.com/bfs/archive/68dfb3dc32f325952bec06e8334412b5cefe741d.jpg', 'coins': 14679, 'duration': '0:31', 'badgepay': False, 'pts': 1897668, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396568110', 'bvid': 'BV1Zo4y1s7sH', 'typename': '仿妆cos', 'title': '停云姐姐这么做，一定有她的大道理', 'subtitle': '', 'play': 803507, 'review': 1049, 'video_review': 640, 'favorites': 25821, 'mid': 18343098, 'author': '河野华', 'description': '狐狸瘾发作最严重的一次\n摄像：网管菌 后勤：时雨 小狼 冰糕 欣珀\nBGM：精卫琵琶版—jakub狗子哥', 'create': '2023-03-25 12:01', 'pic': 'http://i2.hdslb.com/bfs/archive/c274e7dcd46b89c95b6c03121ce1e7d54ffeff5c.jpg', 'coins': 23677, 'duration': '0:58', 'badgepay': False, 'pts': 1873514, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526539521', 'bvid': 'BV1dM411u7Wq', 'typename': '仿妆cos', 'title': '爸，有人找你…|隐士典狱长', 'subtitle': '', 'play': 680837, 'review': 1165, 'video_review': 337, 'favorites': 22590, 'mid': 4081529, 'author': '大米壹袋袋', 'description': '-', 'create': '2023-03-24 13:21', 'pic': 'http://i1.hdslb.com/bfs/archive/e575d4dc1ed38284c6cf6f322acea72b9286c376.jpg', 'coins': 5151, 'duration': '0:09', 'badgepay': False, 'pts': 1687319, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '484005320', 'bvid': 'BV1wT411z7Bu', 'typename': '仿妆cos', 'title': '新海诚看了都要沉默｜铃芽之旅', 'subtitle': '', 'play': 789103, 'review': 467, 'video_review': 92, 'favorites': 9299, 'mid': 237267348, 'author': '你十八o3o', 'description': '首映结束后…\n草太@青木雄太 三叶@桥本祭祭 \n\n微博：小野六缘', 'create': '2023-03-25 18:27', 'pic': 'http://i0.hdslb.com/bfs/archive/e552645a29e1cafb69ce6a995ffb28c4cfdb2ed0.jpg', 'coins': 1171, 'duration': '0:10', 'badgepay': False, 'pts': 1436437, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951393752', 'bvid': 'BV1Ys4y1n7JR', 'typename': '仿妆cos', 'title': '“他们说我住在这金做的笼子，好生有福气。”', 'subtitle': '', 'play': 636405, 'review': 714, 'video_review': 148, 'favorites': 10732, 'mid': 101363350, 'author': '夏弃疾下乡版', 'description': '天晴后的樱花花', 'create': '2023-03-23 17:56', 'pic': 'http://i0.hdslb.com/bfs/archive/b19dc94145928d0ba0eb38e1073925af81d914d3.jpg', 'coins': 3266, 'duration': '0:21', 'badgepay': False, 'pts': 1181349, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823995396', 'bvid': 'BV1yg4y1W7Rf', 'typename': '仿妆cos', 'title': '贵 州 胡 桃', 'subtitle': '', 'play': 421481, 'review': 293, 'video_review': 49, 'favorites': 18077, 'mid': 179187121, 'author': '老久妹儿', 'description': '-', 'create': '2023-03-22 15:04', 'pic': 'http://i2.hdslb.com/bfs/archive/2c08f609df3e00caaccad44880a2d40477045e83.jpg', 'coins': 1610, 'duration': '0:15', 'badgepay': False, 'pts': 1156094, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739022186', 'bvid': 'BV1dk4y1x7D6', 'typename': '仿妆cos', 'title': '当皇子不小心爱上了自己的侍从是种怎样的体验？', 'subtitle': '', 'play': 454285, 'review': 418, 'video_review': 142, 'favorites': 13069, 'mid': 2782630, 'author': '扬大旗', 'description': '“谢太后隆恩。”', 'create': '2023-03-25 13:11', 'pic': 'http://i1.hdslb.com/bfs/archive/73e388c06f55469d2f2b8a1d391eea62e7b73beb.jpg', 'coins': 824, 'duration': '0:15', 'badgepay': False, 'pts': 1103680, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441475640', 'bvid': 'BV1nL411D7kD', 'typename': '仿妆cos', 'title': '喜多川or小雫 ？ 拜托，会cosplay的女朋友超酷的好嘛', 'subtitle': '', 'play': 370277, 'review': 187, 'video_review': 151, 'favorites': 14405, 'mid': 17367640, 'author': '尸菌菌qwq', 'description': '-', 'create': '2023-03-22 21:08', 'pic': 'http://i1.hdslb.com/bfs/archive/6e8bac63c23d933c6c5b23a233666e66df022d82.jpg', 'coins': 2642, 'duration': '0:32', 'badgepay': False, 'pts': 979394, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>2711856</v>
+        <v>6531139</v>
       </c>
       <c r="I93" t="n">
-        <v>16203</v>
+        <v>64388</v>
       </c>
       <c r="J93" t="n">
-        <v>66564</v>
+        <v>206443</v>
       </c>
       <c r="K93" t="n">
-        <v>8285</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>热点</t>
+          <t>穿搭</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>hotspot</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>全民关注的时政热门资讯</t>
+          <t>穿搭风格、穿搭技巧的展示分享，涵盖衣服、鞋靴、箱包配件、配饰（帽子、钟表、珠宝首饰）等</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>/v/information/hotspot(opens new window)</t>
+          <t>/v/fashion/clothing(opens new window)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>资讯(主分区)</t>
+          <t>时尚</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>[{'aid': '396349141', 'bvid': 'BV1No4y1B78S', 'typename': '穿搭', 'title': '今天爷爷给我看一件特殊的衣服', 'subtitle': '', 'play': 2244154, 'review': 823, 'video_review': 1294, 'favorites': 24214, 'mid': 423385190, 'author': '康康和爷爷', 'description': '-', 'create': '2023-03-21 17:24', 'pic': 'http://i1.hdslb.com/bfs/archive/afc0be6934d38b915d30a07a50eea17e8ebf8bdc.jpg', 'coins': 23874, 'duration': '0:50', 'badgepay': False, 'pts': 2964897, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951593691', 'bvid': 'BV19s4y1E7h9', 'typename': '穿搭', 'title': '多巴胺女孩看过来！你们要的小裙子都在这', 'subtitle': '', 'play': 781523, 'review': 509, 'video_review': 177, 'favorites': 16857, 'mid': 1218878022, 'author': '小酒午KELIFAN', 'description': '春夏我真的很爱穿小裙裙，在线寻找和我一样爱穿小裙子的姐妹呀！这么氛围感满满的小裙子你心动了么？\n今天穿的小裙子都是我自家的哈！kelifan酒午嗷！', 'create': '2023-03-25 11:55', 'pic': 'http://i0.hdslb.com/bfs/archive/79107dffc731f0792dab68858d58575a240d2918.jpg', 'coins': 2005, 'duration': '1:16', 'badgepay': False, 'pts': 1637736, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483885307', 'bvid': 'BV17T411r7uw', 'typename': '穿搭', 'title': 'pdd这个盲盒真的不算诈骗吗？在线等！很急！', 'subtitle': '', 'play': 549926, 'review': 668, 'video_review': 2700, 'favorites': 7154, 'mid': 430926487, 'author': '达达达布溜-', 'description': '求一键三连回血555～', 'create': '2023-03-25 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7a7cbfdf6ced5bfe47ad00625844c746a2c6e209.jpg', 'coins': 54546, 'duration': '4:54', 'badgepay': False, 'pts': 1107251, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396467959', 'bvid': 'BV1xo4y1s7EP', 'typename': '穿搭', 'title': '【汉服日常】这人真的很想教会我们！', 'subtitle': '', 'play': 270467, 'review': 105, 'video_review': 57, 'favorites': 16295, 'mid': 44602772, 'author': 'Sherry雪梨粥', 'description': '-', 'create': '2023-03-23 20:10', 'pic': 'http://i0.hdslb.com/bfs/archive/c8844a869cad3bb35d635ee0d723fb75b950973c.jpg', 'coins': 1314, 'duration': '2:02', 'badgepay': False, 'pts': 872380, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823833980', 'bvid': 'BV1qg4y1x7of', 'typename': '穿搭', 'title': '怎么不心动呢？显瘦半身裙 158/95/s', 'subtitle': '', 'play': 337390, 'review': 312, 'video_review': 52, 'favorites': 11316, 'mid': 51571378, 'author': '痣女如花-本人', 'description': '-', 'create': '2023-03-21 19:43', 'pic': 'http://i0.hdslb.com/bfs/archive/78a6eb0371f35b4eceeb548ad17529694f1f2f20.jpg', 'coins': 434, 'duration': '0:58', 'badgepay': False, 'pts': 846096, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441477726', 'bvid': 'BV1nL411D7PR', 'typename': '穿搭', 'title': '别催了，不就是牛仔裤吗！', 'subtitle': '', 'play': 380502, 'review': 271, 'video_review': 244, 'favorites': 8439, 'mid': 18841842, 'author': '慕慕有奶糖', 'description': '花了两次钱，必须得写个摄影了！\n摄影：@绯山圣瞳九命猫  \n后期：@慕慕有翠花  是我的小号，快去关注！', 'create': '2023-03-23 12:05', 'pic': 'http://i1.hdslb.com/bfs/archive/fad96d1fd41006e8a461a509066b3a27bbf48b57.jpg', 'coins': 2647, 'duration': '0:55', 'badgepay': False, 'pts': 844210, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611504956', 'bvid': 'BV1m84y137sW', 'typename': '穿搭', 'title': '✨沉 浸 式 换 装 秀✨', 'subtitle': '', 'play': 345846, 'review': 559, 'video_review': 145, 'favorites': 8527, 'mid': 836885, 'author': '清和Alicia', 'description': '尝试照着《以闪亮之名》里的套装搭了一些日常穿搭:D\nBGM：f(x) (에프엑스)《나비 (蝴蝶 )》', 'create': '2023-03-26 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/1c9e7b1e175b7353619753a39c80561e77cd3d5c.jpg', 'coins': 9885, 'duration': '0:59', 'badgepay': False, 'pts': 807697, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993758227', 'bvid': 'BV1cx4y1N7hY', 'typename': '穿搭', 'title': '痛失一个省的市场！', 'subtitle': '', 'play': 463873, 'review': 400, 'video_review': 179, 'favorites': 4096, 'mid': 633789333, 'author': '白青GQ', 'description': '', 'create': '2023-03-20 17:32', 'pic': 'http://i1.hdslb.com/bfs/archive/64cd0dd39df48abc435faab250cf5515c1911194.jpg', 'coins': 10379, 'duration': '0:17', 'badgepay': False, 'pts': 789155, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781279955', 'bvid': 'BV1s24y1E7oQ', 'typename': '穿搭', 'title': '低至21r!百元内大型春装购物分享！平价高质外贸店 | 卫衣半裙针织衫啥都有', 'subtitle': '', 'play': 225549, 'review': 392, 'video_review': 665, 'favorites': 14840, 'mid': 641835665, 'author': '莉莉子Lizzie', 'description': '无他，唯便宜尔。', 'create': '2023-03-21 19:26', 'pic': 'http://i1.hdslb.com/bfs/archive/ee78762df54cc5e95cf234bd7b20945a39ddc409.jpg', 'coins': 2201, 'duration': '9:41', 'badgepay': False, 'pts': 760328, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268761295', 'bvid': 'BV1xc411j7V5', 'typename': '穿搭', 'title': '带你们到江边走走', 'subtitle': '', 'play': 453818, 'review': 310, 'video_review': 365, 'favorites': 3976, 'mid': 3493136881945085, 'author': '402ephto_', 'description': '-', 'create': '2023-03-20 19:12', 'pic': 'http://i0.hdslb.com/bfs/archive/9ccd3cd911a9c39fcb89da38c515deac04457089.jpg', 'coins': 1448, 'duration': '0:39', 'badgepay': False, 'pts': 679748, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>6053048</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>108733</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>115714</v>
       </c>
       <c r="K94" t="n">
-        <v>2421</v>
+        <v>24294</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>环球</t>
+          <t>时尚潮流</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>catwalk</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>全球范围内发生的具有重大影响力的事件动态</t>
+          <t>时尚街拍、时装周、时尚大片，时尚品牌、潮流等行业相关记录及知识科普</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>/v/information/global(opens new window)</t>
+          <t>/v/fashion/catwalk</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>资讯(主分区)</t>
+          <t>时尚</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>[{'aid': '439100926', 'bvid': 'BV12L411Q7Pk', 'typename': '时尚潮流', 'title': '上镜丑？我研究了易梦玲拍照法️...发现90%模特竟然都这么拍！', 'subtitle': '', 'play': 950009, 'review': 284, 'video_review': 149, 'favorites': 50200, 'mid': 3725622, 'author': '一一只是黑猫', 'description': '【大原则-三类照片取景和焦段必须卡死，这样就不会变形】\n全身（为了拍环境才会出现）保证在1.2x-1.5x之间-脑袋放在中间 脚放在底线左右\n穿搭（膝盖至小腿中间）基本在2x-2.5 -脑袋放第一根线 拍到小腿中间\n半身/大头照（到肚脐眼以下 裤腰以上）保证在3.5-4.4- 脑袋放第一根线 拍到裤腰\n【大原则：人物亮 背景暗】\n白天：\n寻找明暗交界线*，人站在亮处、背景是暗处\n夜景：\n打开闪光灯就行\n有无闪光灯对比*\n\n为什么有的文字没拍出来。。。是因为我摆烂了（看到的宝就当没看到哈🤫）', 'create': '2023-03-25 16:41', 'pic': 'http://i0.hdslb.com/bfs/archive/8982c848eb0ae9f0298452958c5a9040f98f43b0.jpg', 'coins': 5122, 'duration': '2:07', 'badgepay': False, 'pts': 2615361, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908755775', 'bvid': 'BV1tM4y167pq', 'typename': '时尚潮流', 'title': '我真的在身上打过很多的洞...', 'subtitle': '', 'play': 393020, 'review': 1072, 'video_review': 2169, 'favorites': 1678, 'mid': 41177354, 'author': '王炸QAQ', 'description': '', 'create': '2023-03-21 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/f20dae530f54a05d549c3912b0ad20273b45a231.jpg', 'coins': 1568, 'duration': '8:40', 'badgepay': False, 'pts': 669815, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569087866', 'bvid': 'BV1Kv4y1L7HU', 'typename': '时尚潮流', 'title': '【人间德芙】救命！这腿我p都不敢这样p，她就直接长这样', 'subtitle': '', 'play': 281493, 'review': 512, 'video_review': 328, 'favorites': 3261, 'mid': 73432150, 'author': '小小唯橙子', 'description': '视频中均为同一个模特Anok Yai~\nBGM:what do you mean', 'create': '2023-03-25 15:51', 'pic': 'http://i0.hdslb.com/bfs/archive/9e3941c454c1d04c6d9d79287f8ba9b56c2c4b1b.jpg', 'coins': 309, 'duration': '3:11', 'badgepay': False, 'pts': 572865, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866570780', 'bvid': 'BV1kV4y1X7A2', 'typename': '时尚潮流', 'title': '【2023春夏时髦流行趋势】10分钟教你今年春夏怎么穿最时尚 | Pantone 流行色 | 芭蕾风 | 赛车户外 | BettySays', 'subtitle': '', 'play': 159472, 'review': 420, 'video_review': 1170, 'favorites': 7090, 'mid': 6302909, 'author': 'BettySays', 'description': '这期带你10分钟看懂2023春夏秀场流行色，流行元素，与流行单品。\xa0\n今年春夏什么最in？春夏衣橱的填充灵感，本期一口气放送。', 'create': '2023-03-24 20:37', 'pic': 'http://i1.hdslb.com/bfs/archive/f2ec7acd2dbc34eda1e1ef472068cdd9a485c4b1.jpg', 'coins': 6416, 'duration': '12:53', 'badgepay': False, 'pts': 478976, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396600074', 'bvid': 'BV1Mo4y1x7h2', 'typename': '时尚潮流', 'title': '既然不屑为伍 何必害怕与众不同', 'subtitle': '', 'play': 132640, 'review': 265, 'video_review': 54, 'favorites': 2709, 'mid': 1110145274, 'author': '是niniye', 'description': '-', 'create': '2023-03-24 18:31', 'pic': 'http://i0.hdslb.com/bfs/archive/db52866ea5b5e9fb462e254454e0f1388dcb21e7.jpg', 'coins': 440, 'duration': '0:11', 'badgepay': False, 'pts': 312267, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781693756', 'bvid': 'BV1c24y1E7ZJ', 'typename': '时尚潮流', 'title': '拼单名媛？在线辟谣！', 'subtitle': '', 'play': 246487, 'review': 360, 'video_review': 520, 'favorites': 655, 'mid': 353368172, 'author': 'AHALOLO', 'description': '同框出镜力破传闻\n\n每周三、周六中午12点，咱们不见不散！\n\n欢迎来骚扰我们：\n\n新浪微博：lolo-may/aha没有事业线\n\nYouTube： AHALOLO', 'create': '2023-03-26 19:27', 'pic': 'http://i2.hdslb.com/bfs/archive/dccc63cee2ff33031857cb2a89cd634703b372c9.jpg', 'coins': 1188, 'duration': '4:10', 'badgepay': False, 'pts': 279995, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951381558', 'bvid': 'BV1Js4y1n7Na', 'typename': '时尚潮流', 'title': '【ACRONYM/德国机能品牌】 ΛCR-SS-23 [ A ] … J68-GT', 'subtitle': '', 'play': 230349, 'review': 118, 'video_review': 133, 'favorites': 1862, 'mid': 1444881779, 'author': '柴可夫斯基因', 'description': 'instagram.com', 'create': '2023-03-23 08:59', 'pic': 'http://i0.hdslb.com/bfs/archive/ba0f61fa30835fc2aa2c2394a1cf99bf20f1eb3a.jpg', 'coins': 78, 'duration': '0:21', 'badgepay': False, 'pts': 273071, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653848581', 'bvid': 'BV14Y4y1D7Fm', 'typename': '时尚潮流', 'title': '疯癫无底线，明星也发狂。奥斯卡Oscar名利场红毯造型拉踩。vanity fair afterparty', 'subtitle': '', 'play': 132522, 'review': 195, 'video_review': 4472, 'favorites': 513, 'mid': 434280524, 'author': 'WENBO大设计师', 'description': '名利场红毯造型拉踩。', 'create': '2023-03-21 13:02', 'pic': 'http://i0.hdslb.com/bfs/archive/11d7ec700a4840632b0605f61d270ecfd0b9af1f.jpg', 'coins': 1924, 'duration': '16:02', 'badgepay': False, 'pts': 262792, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441406930', 'bvid': 'BV1dL411r7cT', 'typename': '时尚潮流', 'title': '不停产吃到80岁', 'subtitle': '', 'play': 97413, 'review': 73, 'video_review': 87, 'favorites': 3212, 'mid': 1503204882, 'author': '张轻轻koya', 'description': '小学生可能不爱，对大人来说刚好', 'create': '2023-03-22 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/ba1d5c2757df414acb813fdd2c7a088755b3e32e.jpg', 'coins': 222, 'duration': '3:28', 'badgepay': False, 'pts': 252284, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396506577', 'bvid': 'BV1zo4y1s7Fv', 'typename': '时尚潮流', 'title': '“你们也就能走走微博之夜了！姐奥斯卡有事，先忙”', 'subtitle': '', 'play': 311663, 'review': 743, 'video_review': 258, 'favorites': 762, 'mid': 1387186590, 'author': '苏打有点蓝', 'description': '-', 'create': '2023-03-25 13:12', 'pic': 'http://i1.hdslb.com/bfs/archive/7157668cd2c3e4a781e766868dd106e6ae3b91f3.jpg', 'coins': 136, 'duration': '1:28', 'badgepay': False, 'pts': 227697, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2935068</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>17403</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>71942</v>
       </c>
       <c r="K95" t="n">
-        <v>811</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>社会</t>
+          <t>热点</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>hotspot</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>日常生活的社会事件、社会问题、社会风貌的报道</t>
+          <t>全民关注的时政热门资讯</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>/v/information/social(opens new window)</t>
+          <t>/v/information/hotspot</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>资讯(主分区)</t>
+          <t>资讯</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4952,36 +4940,36 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>2091</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>环球</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>global</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>除上述领域外其它垂直领域的综合资讯</t>
+          <t>全球范围内发生的具有重大影响力的事件动态</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>/v/information/multiple</t>
+          <t>/v/information/global</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>资讯(主分区)</t>
+          <t>资讯</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4999,871 +4987,922 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>784</v>
+        <v>811</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>综艺</t>
+          <t>社会</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>variety</t>
+          <t>social</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>所有综艺相关，全部一手掌握！</t>
+          <t>日常生活的社会事件、社会问题、社会风貌的报道</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>/v/ent/variety(opens new window)</t>
+          <t>/v/information/social</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>娱乐(主分区)</t>
+          <t>资讯</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[{'aid': '993878350', 'bvid': 'BV1Ux4y1w7xL', 'typename': '综艺', 'title': '【志村大爆笑】200+集回忆特辑，高清版+ 附带中文字幕，一次性看个够！', 'subtitle': '', 'play': 631064, 'review': 294, 'video_review': 1212, 'favorites': 25595, 'mid': 1034126069, 'author': '日语教程', 'description': 'www.youtube.com\n看完点个关注，有币的辛苦给个一键三连，持续更新300多集【志村大爆笑】【ドリフ大爆笑】【八点全员集合】系列视频，视频加了中文字幕 ..........', 'create': '2023-03-23 03:08', 'pic': 'http://i2.hdslb.com/bfs/archive/d83405d1c07ecad57e33eb6597317285085e262f.jpg', 'coins': 4041, 'duration': '302:56', 'badgepay': False, 'pts': 1659557, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866146027', 'bvid': 'BV13V4y197ds', 'typename': '综艺', 'title': '曹云金单口相声《三言二拍》之吴衙内邻舟赴约第一篇', 'subtitle': '', 'play': 601998, 'review': 2735, 'video_review': 2089, 'favorites': 2594, 'mid': 3493135355218667, 'author': '曹云金', 'description': '曹云金播讲\n三言二拍之吴衙内邻舟赴约\n这个才子有特异功能', 'create': '2023-03-20 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/b23b1ad0497c3c483e754b8abf283aa885b45e78.jpg', 'coins': 7980, 'duration': '9:23', 'badgepay': False, 'pts': 1149054, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353962986', 'bvid': 'BV1kX4y1d7mc', 'typename': '综艺', 'title': 'PEAK TIME E07.230322 中字 1080P', 'subtitle': '', 'play': 174691, 'review': 1607, 'video_review': 17937, 'favorites': 979, 'mid': 332811856, 'author': 'Mic迈扣', 'description': '片源等素材来自官方，Mic迈扣压制分享（未经许可禁止二改二传搬运）\r\n新浪微博关注@Mic迈扣 获取网盘链接 https://weibo.com/u/7795768607', 'create': '2023-03-23 00:56', 'pic': 'http://i2.hdslb.com/bfs/archive/0ac15e9ba7ec0c90649292c033002b86d2bc5be7.png', 'coins': 153, 'duration': '446:00', 'badgepay': False, 'pts': 464814, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781613756', 'bvid': 'BV1x24y177uc', 'typename': '综艺', 'title': '【张杰】时隔多年再唱金曲《天天想你》纯享舞台', 'subtitle': '', 'play': 144235, 'review': 1744, 'video_review': 1715, 'favorites': 5436, 'mid': 1842080828, 'author': '张杰', 'description': '《天天想你》纯享版\n“天天想你，天天守住一颗心，把我最好的爱留给你。”\n传承经典，声生不息！\n#一起来看声生不息宝岛季', 'create': '2023-03-23 23:28', 'pic': 'http://i0.hdslb.com/bfs/archive/92d44554605c4fe5eeae92e9bf8068d7e9e0ad19.jpg', 'coins': 11982, 'duration': '5:07', 'badgepay': False, 'pts': 439678, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353836590', 'bvid': 'BV1yX4y1Z7ea', 'typename': '综艺', 'title': '正向思考有多重要！！鲍蕾制服大直男的大杀器（之一）！！', 'subtitle': '', 'play': 178566, 'review': 433, 'video_review': 588, 'favorites': 4153, 'mid': 21677020, 'author': '六月没头', 'description': '《妻子的浪漫旅行6》\n鲍蕾的婚姻经营之道受到非常多人的关注，很多人说鲍蕾跟陆毅是两个恋爱脑的结合，真是如此吗？\n\n在我看来，鲍蕾的婚姻经营之道是一个完整的幸福闭环——强悍的自我意识、从两个主要角度来关照另一半、关注发展周围人、正向思考，以及正向思考所依据的正是强悍的自我意识。\n正因为她经营幸福的能力构成了闭环，所以参考性极高！！\n本系列，我就从这四个角度出发，给出我的分享！！B站首发，为站内内容多样化贡献自己的小力量~~~', 'create': '2023-03-21 19:30', 'pic': 'http://i0.hdslb.com/bfs/archive/ef7a89f11d0f1ea4e1839ae1b0ffcc4577c6c115.jpg', 'coins': 1416, 'duration': '10:20', 'badgepay': False, 'pts': 422407, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866398126', 'bvid': 'BV1oV4y1Q7vN', 'typename': '综艺', 'title': '高情商：宣美讨好型人格，彩领自卑，李泳知暖心安慰鼓励', 'subtitle': '', 'play': 260675, 'review': 62, 'video_review': 31, 'favorites': 2580, 'mid': 1302527762, 'author': '娱圈小恶魔', 'description': '高情商：宣美讨好型人格，彩领自卑，李泳知暖心安慰鼓励', 'create': '2023-03-22 08:08', 'pic': 'http://i0.hdslb.com/bfs/archive/b18145cf8f1e418e5cbeba111d068fe2a834fa06.png', 'coins': 206, 'duration': '1:55', 'badgepay': False, 'pts': 391393, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909110911', 'bvid': 'BV1WM4y1z78K', 'typename': '综艺', 'title': '职场中需要讲义气吗？清华博士帮美女同事背锅，惹老板不满', 'subtitle': '', 'play': 454734, 'review': 2438, 'video_review': 572, 'favorites': 309, 'mid': 265440148, 'author': '娱乐新番_', 'description': '职场中需要讲义气吗？清华博士帮美女同事背锅，惹老板不满', 'create': '2023-03-24 14:11', 'pic': 'http://i2.hdslb.com/bfs/archive/bbddfc64ca02ac1c2fdb59a720523d6541586fa7.jpg', 'coins': 47, 'duration': '7:44', 'badgepay': False, 'pts': 377586, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483980368', 'bvid': 'BV1RT411B77N', 'typename': '综艺', 'title': '综艺：她78岁身材完爆杨幂！按年龄该叫奶奶，但长得像小姐姐！', 'subtitle': '', 'play': 378421, 'review': 554, 'video_review': 594, 'favorites': 1855, 'mid': 1443841596, 'author': '灿星真人秀', 'description': '综艺：她78岁身材完爆杨幂！按年龄该叫奶奶，但长得像小姐姐！', 'create': '2023-03-22 11:45', 'pic': 'http://i1.hdslb.com/bfs/archive/09da27da8bdcbc3aa63d70f5a427b7e7a0361925.jpg', 'coins': 208, 'duration': '6:59', 'badgepay': False, 'pts': 368956, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951465063', 'bvid': 'BV1ds4y1n7Dg', 'typename': '综艺', 'title': '非诚勿扰：健美大哥上台被灭10盏灯，随手一画价值上万，心动', 'subtitle': '', 'play': 475412, 'review': 1024, 'video_review': 1829, 'favorites': 681, 'mid': 518433177, 'author': '娱情乐事吧', 'description': '', 'create': '2023-03-22 13:31', 'pic': 'http://i2.hdslb.com/bfs/archive/c93cb0df83932e3ab72e5b6b192ee15854067157.jpg', 'coins': 153, 'duration': '13:09', 'badgepay': False, 'pts': 339193, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866553653', 'bvid': 'BV1yV4y1X7X1', 'typename': '综艺', 'title': '做自我介绍时候被突然电击，妹子们都会有什么反应？(上)', 'subtitle': '', 'play': 312252, 'review': 321, 'video_review': 170, 'favorites': 1912, 'mid': 1118165241, 'author': '趣事创新', 'description': '做自我介绍时候被突然电击，妹子们都会有什么反应？(上)', 'create': '2023-03-25 17:46', 'pic': 'http://i0.hdslb.com/bfs/archive/866c265fb5fa231a00b9b02b4736a4e9430e84d3.jpg', 'coins': 214, 'duration': '2:55', 'badgepay': False, 'pts': 293817, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>3612048</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>26400</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>46094</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>24010</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>娱乐杂谈</t>
+          <t>综合</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>talker</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>娱乐人物解读、娱乐热点点评、娱乐行业分析</t>
+          <t>除上述领域外其它垂直领域的综合资讯</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>/v/ent/talker(opens new window)</t>
+          <t>/v/information/multiple</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>娱乐(主分区)</t>
+          <t>资讯</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[{'aid': '611460665', 'bvid': 'BV1C84y137pp', 'typename': '娱乐杂谈', 'title': '他们一演戏，上帝就发笑！好好的美人，怎么剧里变了个人啊？【毁容式演技盘点】', 'subtitle': '', 'play': 1142327, 'review': 1985, 'video_review': 13457, 'favorites': 3482, 'mid': 20457232, 'author': '一只吐槽圆', 'description': '杨超越《重紫》\n龚俊《山河令》《醉玲珑》《你好，火焰蓝》\n吴宣仪《斗罗大陆》《世界微尘里》\n蔡徐坤《我才不会被女孩子欺负呢》\n关晓彤《极光之恋》\n沈月《流星花园》《七月与安生》\n杨颖《孤芳不自赏》《我的真朋友》《尘缘》\n彩蛋：神秘人士', 'create': '2023-03-23 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5835c88f476dff1c440883e4d2eaa5f04caaf990.jpg', 'coins': 5263, 'duration': '10:40', 'badgepay': False, 'pts': 1781151, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908973242', 'bvid': 'BV1kM4y1B7yo', 'typename': '娱乐杂谈', 'title': '内娱艺人变形计，种地百天负债35万！走向逐渐离谱的《种地吧》第二期解说', 'subtitle': '', 'play': 1035046, 'review': 1799, 'video_review': 2934, 'favorites': 5767, 'mid': 138832847, 'author': '哇哇哇妹', 'description': '这是10个艺人种地半年的奇葩综艺，艰辛程度堪比变形计！\n种地是男人最好的医美！他们10个都变帅了不少啊！\n这群人我真的越看越佩服，目前种地了120多天了！\n搞完基建搞娱乐设施，搞完小麦搞鲜花畜牧！\n后续他们还有多离谱?让我们继续期待！', 'create': '2023-03-23 18:25', 'pic': 'http://i1.hdslb.com/bfs/archive/acce7310f25908e20e0a3edb4d802177d76faedb.jpg', 'coins': 14319, 'duration': '11:23', 'badgepay': False, 'pts': 1701475, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824050042', 'bvid': 'BV1Ag4y1s7df', 'typename': '娱乐杂谈', 'title': '让黄多多成为“文盲”的教育方式，你也曾经历过', 'subtitle': '', 'play': 409928, 'review': 978, 'video_review': 2034, 'favorites': 3905, 'mid': 1169142430, 'author': '传播学刘阳', 'description': '最近黄多多因为在读书分享视频中读错字音被口诛笔伐，有人称她为新一代“绝望的文盲”。\n今天我想聊聊黄多多所受的教育以及为什么黄多多从“国民闺女”变成了网民口中的“文盲”。我想，这一切也许与我们的炫娃文化以及学霸教育有着密切关系。', 'create': '2023-03-24 19:50', 'pic': 'http://i0.hdslb.com/bfs/archive/01444be1124cbca07c2953e13956dcaa2453e88f.jpg', 'coins': 4695, 'duration': '12:42', 'badgepay': False, 'pts': 840857, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526526329', 'bvid': 'BV1wM411g72s', 'typename': '娱乐杂谈', 'title': '【吃瓜报告】爆笑吐槽娱乐圈近期事件（3月第4期）', 'subtitle': '', 'play': 283898, 'review': 498, 'video_review': 1817, 'favorites': 811, 'mid': 517312875, 'author': '动物园会议', 'description': '3月第1期：BV1YM41147MH\n3月第2期：BV15N411F7dF\n3月第3期：BV1ym4y1r7yY', 'create': '2023-03-24 21:47', 'pic': 'http://i2.hdslb.com/bfs/archive/782564b0af5b96ea266a6e22c585475e4d8a4be5.jpg', 'coins': 2234, 'duration': '8:28', 'badgepay': False, 'pts': 453925, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696296877', 'bvid': 'BV1om4y1r7Ez', 'typename': '娱乐杂谈', 'title': '不想生孩子的那群人，其实最适合生孩子的', 'subtitle': '', 'play': 450518, 'review': 653, 'video_review': 239, 'favorites': 2905, 'mid': 384834248, 'author': '木鱼剑客', 'description': '-', 'create': '2023-03-20 11:16', 'pic': 'http://i0.hdslb.com/bfs/archive/675e34bcb82f5972da70d2dd292339fa9cf61a44.jpg', 'coins': 289, 'duration': '0:25', 'badgepay': False, 'pts': 399696, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268937376', 'bvid': 'BV18c41177n6', 'typename': '娱乐杂谈', 'title': '【娱乐圈恩怨情仇录第九期】考古“幂威恋”！细扒“夜光剧本”事件始末以及杨幂李某峰的绯闻传言', 'subtitle': '', 'play': 323377, 'review': 603, 'video_review': 1090, 'favorites': 969, 'mid': 31603563, 'author': '不八卦会死星人V', 'description': '杨幂和刘恺威为何走向BE？', 'create': '2023-03-22 20:29', 'pic': 'http://i1.hdslb.com/bfs/archive/bc43d48a753d6800c3acbb77c65c93c8b014d5ff.jpg', 'coins': 210, 'duration': '12:56', 'badgepay': False, 'pts': 352298, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654072762', 'bvid': 'BV1XY4y1U7bB', 'typename': '娱乐杂谈', 'title': '放在主持界，也是炸裂的存在。两年了，我又裂了。。。', 'subtitle': '', 'play': 229867, 'review': 448, 'video_review': 307, 'favorites': 658, 'mid': 350347646, 'author': '主持人百克力', 'description': '-', 'create': '2023-03-24 15:20', 'pic': 'http://i2.hdslb.com/bfs/archive/13da6939076dea0c87ea88d9d211af9ddb4f1002.jpg', 'coins': 1175, 'duration': '2:10', 'badgepay': False, 'pts': 315430, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993753122', 'bvid': 'BV1Sx4y1P7Xt', 'typename': '娱乐杂谈', 'title': '哲学颠覆认知：观看即权力！花300万追星的站姐，得到了“粉丝权力”吗？', 'subtitle': '', 'play': 158031, 'review': 186, 'video_review': 365, 'favorites': 1474, 'mid': 140312650, 'author': '瞻云云', 'description': '', 'create': '2023-03-22 20:30', 'pic': 'http://i2.hdslb.com/bfs/archive/936ecea4ff72894842c68732efdf1bbbac5fe0c1.jpg', 'coins': 1959, 'duration': '13:36', 'badgepay': False, 'pts': 296328, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441707010', 'bvid': 'BV1hL411Q77T', 'typename': '娱乐杂谈', 'title': '《中华小当家》原型去世！享年67岁，是他让日本人爱上麻婆豆腐', 'subtitle': '', 'play': 186380, 'review': 484, 'video_review': 213, 'favorites': 1113, 'mid': 491480950, 'author': '抓马视频', 'description': '', 'create': '2023-03-26 09:24', 'pic': 'http://i0.hdslb.com/bfs/archive/2835d53dc7c7c6a37ad8ff0bda03e036f9319f1d.jpg', 'coins': 121, 'duration': '1:04', 'badgepay': False, 'pts': 288516, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226478551', 'bvid': 'BV1vb411o7PP', 'typename': '娱乐杂谈', 'title': '央视《人生之路》首播就差评一片，观众差评理由出奇一致，那个年代既然飙车开拖拉机', 'subtitle': '', 'play': 312630, 'review': 1025, 'video_review': 741, 'favorites': 261, 'mid': 1770565875, 'author': '幺妹八卦', 'description': '-', 'create': '2023-03-22 12:54', 'pic': 'http://i2.hdslb.com/bfs/archive/f9581092f1c26956f99e24a53d3976922e7b78ea.jpg', 'coins': 465, 'duration': '4:35', 'badgepay': False, 'pts': 275075, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>4532002</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>30730</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>21345</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>29572</v>
+        <v>784</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>粉丝创作</t>
+          <t>综艺</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>fans</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>粉丝向创作视频</t>
+          <t>所有综艺相关，全部一手掌握！</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>/v/ent/fans(opens new window)</t>
+          <t>/v/ent/variety(opens new window)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>娱乐(主分区)</t>
+          <t>娱乐</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[{'aid': '226251965', 'bvid': 'BV1xb411d7nC', 'typename': '粉丝创作', 'title': '这一段谁懂啊', 'subtitle': '', 'play': 274299, 'review': 213, 'video_review': 76, 'favorites': 6683, 'mid': 510956497, 'author': 'kpop星星球', 'description': '-', 'create': '2023-03-21 12:40', 'pic': 'http://i2.hdslb.com/bfs/archive/8b0ab27d67f72ffe577655a44e7eb68bf22b686b.jpg', 'coins': 684, 'duration': '0:15', 'badgepay': False, 'pts': 641880, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438967474', 'bvid': 'BV11L41197NT', 'typename': '粉丝创作', 'title': '看完这场直播我的评价是：陈星旭已上位', 'subtitle': '', 'play': 144370, 'review': 622, 'video_review': 346, 'favorites': 3115, 'mid': 473168781, 'author': '熏春酒', 'description': '-', 'create': '2023-03-22 22:27', 'pic': 'http://i0.hdslb.com/bfs/archive/2dfab870d15b01dfc395f1a0907c28d0dd66099e.jpg', 'coins': 1390, 'duration': '2:04', 'badgepay': False, 'pts': 356587, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483768190', 'bvid': 'BV16T41167mR', 'typename': '粉丝创作', 'title': '脸：有人把我劳工网线给拔了', 'subtitle': '', 'play': 279715, 'review': 56, 'video_review': 29, 'favorites': 2519, 'mid': 20483452, 'author': '嫁给那枚绿心', 'description': '-', 'create': '2023-03-21 12:12', 'pic': 'http://i2.hdslb.com/bfs/archive/9ab83c58fe3142e899b4737ca098094f6b137b76.jpg', 'coins': 210, 'duration': '0:44', 'badgepay': False, 'pts': 321956, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311409807', 'bvid': 'BV1mP411o7ip', 'typename': '粉丝创作', 'title': '“东京女孩的走秀，我也就看了几百遍而已！”', 'subtitle': '', 'play': 128431, 'review': 155, 'video_review': 135, 'favorites': 3246, 'mid': 95667399, 'author': '会唱跳Rap的胖虎', 'description': 'BGM∶西野カナ - No.1\n视频左下角已标注名字，求三连！求推荐！\n-\n剪辑素材∶Tokyo Girls Collection.', 'create': '2023-03-22 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/90c8219e7257c5c5e0eb643607dacf9c9ce8a621.jpg', 'coins': 1186, 'duration': '4:12', 'badgepay': False, 'pts': 312900, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738805955', 'bvid': 'BV1nk4y1t7FY', 'typename': '粉丝创作', 'title': '爻终于有主打可以做伴奏延迟了❗️❗️❗️❗️', 'subtitle': '', 'play': 118244, 'review': 359, 'video_review': 350, 'favorites': 3491, 'mid': 9244287, 'author': '皮卡丘电人啦', 'description': '弄了3版我个人最喜欢这版！！都来听有旋律的副歌！\n喜欢的点个免费的赞吧，谢谢家人们❤️', 'create': '2023-03-21 00:09', 'pic': 'http://i1.hdslb.com/bfs/archive/094636c41ad538b98bbf255e705262fe36a0aea3.jpg', 'coins': 1307, 'duration': '3:27', 'badgepay': False, 'pts': 309812, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696573989', 'bvid': 'BV1hm4y167mw', 'typename': '粉丝创作', 'title': '卧槽啊啊啊啊啊我不允许任何一个人错过这个视频', 'subtitle': '', 'play': 315955, 'review': 266, 'video_review': 220, 'favorites': 1843, 'mid': 391739742, 'author': '派大星不大', 'description': 'http://m.weibo.cn/status/4883288592491683?', 'create': '2023-03-25 21:41', 'pic': 'http://i1.hdslb.com/bfs/archive/8322e434efcdfb420f6b0b3102a8bdb2f1d30ca2.jpg', 'coins': 504, 'duration': '1:21', 'badgepay': False, 'pts': 302619, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951252501', 'bvid': 'BV1Hs4y1p7mh', 'typename': '粉丝创作', 'title': '土豆震惊！！！', 'subtitle': '', 'play': 90210, 'review': 118, 'video_review': 48, 'favorites': 5455, 'mid': 24365135, 'author': 'Yiinoni', 'description': '-', 'create': '2023-03-20 23:29', 'pic': 'http://i2.hdslb.com/bfs/archive/4a02489603614764e7feae94bf6de0fabdc90f04.jpg', 'coins': 243, 'duration': '0:52', 'badgepay': False, 'pts': 292623, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526589978', 'bvid': 'BV1pM411g7n7', 'typename': '粉丝创作', 'title': 'NMIXX教你学生物', 'subtitle': '', 'play': 110241, 'review': 139, 'video_review': 75, 'favorites': 2677, 'mid': 1435653956, 'author': '克莱因不蓝', 'description': '安咪老师带你一起走进咻胞', 'create': '2023-03-26 02:09', 'pic': 'http://i2.hdslb.com/bfs/archive/a88098376857afd9ff82bb6fb8b534fbc9491f9d.jpg', 'coins': 208, 'duration': '0:30', 'badgepay': False, 'pts': 266580, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823838410', 'bvid': 'BV1bg4y1x7tt', 'typename': '粉丝创作', 'title': '【SEVENTEEN】四月回归准备全指南科普', 'subtitle': '', 'play': 42742, 'review': 701, 'video_review': 12, 'favorites': 6569, 'mid': 362832093, 'author': '文丸の把玩之道', 'description': 'SEVENTEEN四月即将回归，你是否还因为没有跟过回归而焦虑紧张？本视频保姆级科普带你详细了解回归所需知识~', 'create': '2023-03-21 23:38', 'pic': 'http://i0.hdslb.com/bfs/archive/15a14bc8e7d138401893a1712a022056502488c6.jpg', 'coins': 587, 'duration': '3:26', 'badgepay': False, 'pts': 262146, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696525378', 'bvid': 'BV14m4y167wB', 'typename': '粉丝创作', 'title': '美爆了！！！曾幻想无数次小说女主惊艳全场的画面！', 'subtitle': '', 'play': 102715, 'review': 360, 'video_review': 399, 'favorites': 1964, 'mid': 9154350, 'author': '冯二宸', 'description': '微博之夜 迪丽热巴', 'create': '2023-03-25 21:57', 'pic': 'http://i2.hdslb.com/bfs/archive/655e1cbd280101037335e1737cd7ca0aa8b3401a.jpg', 'coins': 1181, 'duration': '1:38', 'badgepay': False, 'pts': 250992, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '993878350', 'bvid': 'BV1Ux4y1w7xL', 'typename': '综艺', 'title': '【志村大爆笑】200+集回忆特辑，高清版+ 附带中文字幕，一次性看个够！', 'subtitle': '', 'play': 640117, 'review': 294, 'video_review': 1223, 'favorites': 25971, 'mid': 1034126069, 'author': '日语教程', 'description': 'www.youtube.com\n看完点个关注，有币的辛苦给个一键三连，持续更新300多集【志村大爆笑】【ドリフ大爆笑】【八点全员集合】系列视频，视频加了中文字幕 ..........', 'create': '2023-03-23 03:08', 'pic': 'http://i2.hdslb.com/bfs/archive/d83405d1c07ecad57e33eb6597317285085e262f.jpg', 'coins': 4099, 'duration': '302:56', 'badgepay': False, 'pts': 1680168, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696221862', 'bvid': 'BV1c24y147iy', 'typename': '综艺', 'title': '曹云金单口相声《三言二拍》之吴衙内邻舟赴约第二篇', 'subtitle': '', 'play': 273936, 'review': 930, 'video_review': 579, 'favorites': 701, 'mid': 3493135355218667, 'author': '曹云金', 'description': '曹云金播讲\n三言二拍之吴衙内邻舟赴约\n吴衙内初见佳人', 'create': '2023-03-22 12:00', 'pic': 'http://i0.hdslb.com/bfs/archive/7959571cd2c961a7a563b5f102fbc7cae824d29c.jpg', 'coins': 3765, 'duration': '9:59', 'badgepay': False, 'pts': 479008, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353962986', 'bvid': 'BV1kX4y1d7mc', 'typename': '综艺', 'title': 'PEAK TIME E07.230322 中字 1080P', 'subtitle': '', 'play': 177102, 'review': 1602, 'video_review': 18051, 'favorites': 980, 'mid': 332811856, 'author': 'Mic迈扣', 'description': '片源等素材来自官方，Mic迈扣压制分享（未经许可禁止二改二传搬运）\r\n新浪微博关注@Mic迈扣 获取网盘链接 https://weibo.com/u/7795768607', 'create': '2023-03-23 00:56', 'pic': 'http://i2.hdslb.com/bfs/archive/0ac15e9ba7ec0c90649292c033002b86d2bc5be7.png', 'coins': 156, 'duration': '446:00', 'badgepay': False, 'pts': 469280, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866553653', 'bvid': 'BV1yV4y1X7X1', 'typename': '综艺', 'title': '做自我介绍时候被突然电击，妹子们都会有什么反应？(上)', 'subtitle': '', 'play': 410870, 'review': 401, 'video_review': 197, 'favorites': 3190, 'mid': 1118165241, 'author': '趣事创新', 'description': '做自我介绍时候被突然电击，妹子们都会有什么反应？(上)', 'create': '2023-03-25 17:46', 'pic': 'http://i0.hdslb.com/bfs/archive/866c265fb5fa231a00b9b02b4736a4e9430e84d3.jpg', 'coins': 350, 'duration': '2:55', 'badgepay': False, 'pts': 463052, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781613756', 'bvid': 'BV1x24y177uc', 'typename': '综艺', 'title': '【张杰】时隔多年再唱金曲《天天想你》纯享舞台', 'subtitle': '', 'play': 147545, 'review': 1751, 'video_review': 1735, 'favorites': 5519, 'mid': 1842080828, 'author': '张杰', 'description': '《天天想你》纯享版\n“天天想你，天天守住一颗心，把我最好的爱留给你。”\n传承经典，声生不息！\n#一起来看声生不息宝岛季', 'create': '2023-03-23 23:28', 'pic': 'http://i0.hdslb.com/bfs/archive/92d44554605c4fe5eeae92e9bf8068d7e9e0ad19.jpg', 'coins': 12122, 'duration': '5:07', 'badgepay': False, 'pts': 447253, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354193510', 'bvid': 'BV1VX4y1R71x', 'typename': '综艺', 'title': '微博之夜，但阳光开朗大男孩｜龚俊：我的命也是命', 'subtitle': '', 'play': 170499, 'review': 2593, 'video_review': 2091, 'favorites': 2978, 'mid': 15492327, 'author': '完全人间指南', 'description': '纯属整活，不要辣菜视频中任何一位，p&amp;l', 'create': '2023-03-26 21:07', 'pic': 'http://i1.hdslb.com/bfs/archive/4a914c0f8e1ff6149f9f9d0e8b8a6b873c19c89e.jpg', 'coins': 5756, 'duration': '1:10', 'badgepay': False, 'pts': 442048, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353836590', 'bvid': 'BV1yX4y1Z7ea', 'typename': '综艺', 'title': '正向思考有多重要！！鲍蕾制服大直男的大杀器（之一）！！', 'subtitle': '', 'play': 179544, 'review': 435, 'video_review': 588, 'favorites': 4165, 'mid': 21677020, 'author': '六月没头', 'description': '《妻子的浪漫旅行6》\n鲍蕾的婚姻经营之道受到非常多人的关注，很多人说鲍蕾跟陆毅是两个恋爱脑的结合，真是如此吗？\n\n在我看来，鲍蕾的婚姻经营之道是一个完整的幸福闭环——强悍的自我意识、从两个主要角度来关照另一半、关注发展周围人、正向思考，以及正向思考所依据的正是强悍的自我意识。\n正因为她经营幸福的能力构成了闭环，所以参考性极高！！\n本系列，我就从这四个角度出发，给出我的分享！！B站首发，为站内内容多样化贡献自己的小力量~~~', 'create': '2023-03-21 19:30', 'pic': 'http://i0.hdslb.com/bfs/archive/ef7a89f11d0f1ea4e1839ae1b0ffcc4577c6c115.jpg', 'coins': 1423, 'duration': '10:20', 'badgepay': False, 'pts': 424351, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866398126', 'bvid': 'BV1oV4y1Q7vN', 'typename': '综艺', 'title': '高情商：宣美讨好型人格，彩领自卑，李泳知暖心安慰鼓励', 'subtitle': '', 'play': 269772, 'review': 63, 'video_review': 32, 'favorites': 2705, 'mid': 1302527762, 'author': '娱圈小恶魔', 'description': '高情商：宣美讨好型人格，彩领自卑，李泳知暖心安慰鼓励', 'create': '2023-03-22 08:08', 'pic': 'http://i0.hdslb.com/bfs/archive/b18145cf8f1e418e5cbeba111d068fe2a834fa06.png', 'coins': 235, 'duration': '1:55', 'badgepay': False, 'pts': 406296, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909110911', 'bvid': 'BV1WM4y1z78K', 'typename': '综艺', 'title': '职场中需要讲义气吗？清华博士帮美女同事背锅，惹老板不满', 'subtitle': '', 'play': 455411, 'review': 2450, 'video_review': 572, 'favorites': 309, 'mid': 265440148, 'author': '娱乐新番_', 'description': '职场中需要讲义气吗？清华博士帮美女同事背锅，惹老板不满', 'create': '2023-03-24 14:11', 'pic': 'http://i2.hdslb.com/bfs/archive/bbddfc64ca02ac1c2fdb59a720523d6541586fa7.jpg', 'coins': 47, 'duration': '7:44', 'badgepay': False, 'pts': 379196, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483980368', 'bvid': 'BV1RT411B77N', 'typename': '综艺', 'title': '综艺：她78岁身材完爆杨幂！按年龄该叫奶奶，但长得像小姐姐！', 'subtitle': '', 'play': 387680, 'review': 560, 'video_review': 602, 'favorites': 1914, 'mid': 1443841596, 'author': '灿星真人秀', 'description': '综艺：她78岁身材完爆杨幂！按年龄该叫奶奶，但长得像小姐姐！', 'create': '2023-03-22 11:45', 'pic': 'http://i1.hdslb.com/bfs/archive/09da27da8bdcbc3aa63d70f5a427b7e7a0361925.jpg', 'coins': 213, 'duration': '6:59', 'badgepay': False, 'pts': 378791, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1606922</v>
+        <v>3112476</v>
       </c>
       <c r="I100" t="n">
-        <v>7500</v>
+        <v>28166</v>
       </c>
       <c r="J100" t="n">
-        <v>37562</v>
+        <v>48432</v>
       </c>
       <c r="K100" t="n">
-        <v>89837</v>
+        <v>24010</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>明星综合</t>
+          <t>娱乐杂谈</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>celebrity</t>
+          <t>talker</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>娱乐圈动态、明星资讯相关</t>
+          <t>娱乐人物解读、娱乐热点点评、娱乐行业分析</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>/v/ent/celebrity</t>
+          <t>/v/ent/talker(opens new window)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>娱乐(主分区)</t>
+          <t>娱乐</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[{'aid': '909002121', 'bvid': 'BV1QM4y1B7n4', 'typename': '明星综合', 'title': '【TF家族】《一起去做的N件事》第十九件事：一起来捉迷藏吧', 'subtitle': '', 'play': 865120, 'review': 13692, 'video_review': 120896, 'favorites': 11893, 'mid': 3670216, 'author': 'TF家族', 'description': '新的故事会在一起捉迷藏的回忆中开始，属于练习生阶段最后的珍贵回忆继续，我们一起相约在有限的时间内去完成更多的事情，我们想一起填满那两年的回忆空缺。\n\n〔猫鼠定位GAME开启〕\n\n猫鼠大战一触即发，高额悬赏层层叠加。隐藏在各个角落的鼠鼠们，请躲好！起点出发GO！', 'create': '2023-03-25 19:46', 'pic': 'http://i0.hdslb.com/bfs/archive/e5bc3e9cb6587aeb11a30ffe2f9fb9beb995daec.jpg', 'coins': 13337, 'duration': '70:00', 'badgepay': False, 'pts': 2056916, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226556795', 'bvid': 'BV1ah411G7sn', 'typename': '明星综合', 'title': '“好兄弟就要互帮互助！——不玩难受难受也玩”', 'subtitle': '', 'play': 633015, 'review': 3089, 'video_review': 6690, 'favorites': 23416, 'mid': 412504829, 'author': '文韬Stefan', 'description': '', 'create': '2023-03-24 17:20', 'pic': 'http://i0.hdslb.com/bfs/archive/6e3ab4ecc3f77f832b1ebf7f5ea068ea5518ec65.jpg', 'coins': 53139, 'duration': '12:31', 'badgepay': False, 'pts': 1690210, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611488679', 'bvid': 'BV1X84y137Lw', 'typename': '明星综合', 'title': '【刘谦魔术课】柯洁第二弹：秀策 VS 爱因斯坦', 'subtitle': '', 'play': 877677, 'review': 2535, 'video_review': 1594, 'favorites': 5087, 'mid': 641975239, 'author': '刘谦', 'description': '《刘谦的魔术课》EP37\n歡迎來到魔法世界！本因坊秀策神助力！\n\n\n↓↓更多精彩↓↓请关注\n圍脖：@刘谦\n話題：#刘谦的魔术课#', 'create': '2023-03-23 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7b879776633967a8bd0f44e29e0e441f05972aaf.jpg', 'coins': 10076, 'duration': '4:28', 'badgepay': False, 'pts': 1461687, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739209850', 'bvid': 'BV1yk4y1478A', 'typename': '明星综合', 'title': '可他大大方方跳女团舞的样子真的很迷人诶', 'subtitle': '', 'play': 293435, 'review': 10082, 'video_review': 6605, 'favorites': 13331, 'mid': 1965410126, 'author': '鲨仁不过头点地', 'description': '随机舞蹈直拍拍摄：天天\n封面授权感谢：@啵啵波波｜刘宇', 'create': '2023-03-26 18:28', 'pic': 'http://i0.hdslb.com/bfs/archive/e45e1f1071d5c2c68177d04bc8d98d7b37aa4e49.jpg', 'coins': 16514, 'duration': '2:05', 'badgepay': False, 'pts': 1177805, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354110806', 'bvid': 'BV17X4y1o748', 'typename': '明星综合', 'title': '卧槽！男明星红毯终于不是清一色葬礼风了！这才是碾压级的华丽贵气！｜王鹤棣｜微博之夜', 'subtitle': '', 'play': 483655, 'review': 1843, 'video_review': 1854, 'favorites': 5914, 'mid': 47726681, 'author': '圈肉火腿', 'description': '-', 'create': '2023-03-26 00:22', 'pic': 'http://i1.hdslb.com/bfs/archive/6f3011ab35e3f4b9f6730fd6814ccaf4b53336ee.jpg', 'coins': 6350, 'duration': '1:22', 'badgepay': False, 'pts': 1047191, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353889061', 'bvid': 'BV1QX4y1Z7wQ', 'typename': '明星综合', 'title': "【SVT_ZER·0】[GOING SEVENTEEN] EP.68 Don't Lie : CLUE #1 零站中字", 'subtitle': '', 'play': 352162, 'review': 913, 'video_review': 6441, 'favorites': 5837, 'mid': 218438615, 'author': 'SEVENTEEN_ZER0站', 'description': 'ytb\n资源：清清 校对：某某 符符 小诗 KIM 小鱼 打轴：姿姿 燕玉 瓜子 花生米 晓欣 橘子 晓雨 云云 压制：蛋蛋', 'create': '2023-03-23 02:27', 'pic': 'http://i0.hdslb.com/bfs/archive/a7e4e2ffef5e3abb0d5e3cc7a3b9057f15915dc2.jpg', 'coins': 3938, 'duration': '33:42', 'badgepay': False, 'pts': 799644, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909050633', 'bvid': 'BV17M4y1z73Y', 'typename': '明星综合', 'title': '主舞互动！张艺兴跳金钟仁《Rover》舞蹈Challenge！', 'subtitle': '', 'play': 363096, 'review': 1279, 'video_review': 510, 'favorites': 3529, 'mid': 162151104, 'author': 'SM李秀满', 'description': '网络', 'create': '2023-03-25 10:41', 'pic': 'http://i2.hdslb.com/bfs/archive/6d1fe6ee9532a6ea4a8aaadb4b866b7c81e91cb4.jpg', 'coins': 1166, 'duration': '0:36', 'badgepay': False, 'pts': 750060, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909106052', 'bvid': 'BV1pM4y1z7BH', 'typename': '明星综合', 'title': '刘家祎男大十八变！我们的林磊儿长大咯！', 'subtitle': '', 'play': 351866, 'review': 165, 'video_review': 90, 'favorites': 5425, 'mid': 19660303, 'author': '芒果妈妈官方账号', 'description': '完全戳在了芒妈的酥点上！', 'create': '2023-03-24 18:25', 'pic': 'http://i0.hdslb.com/bfs/archive/da4424cef76d31a9708b8b6e6303706e45691f7c.jpg', 'coins': 203, 'duration': '0:25', 'badgepay': False, 'pts': 703674, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993967119', 'bvid': 'BV1Wx4y1A71Z', 'typename': '明星综合', 'title': '[(G)I-DLE 随心所欲] EP.01 这个..对吗..? | 2023回归研讨会 | (G)I-DLE', 'subtitle': '', 'play': 276415, 'review': 920, 'video_review': 3689, 'favorites': 6336, 'mid': 624243924, 'author': 'GIDLE_official', 'description': '', 'create': '2023-03-22 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/08cacc2cdcc2ba29660203e93994e342e30063f1.jpg', 'coins': 7534, 'duration': '19:15', 'badgepay': False, 'pts': 682788, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526616443', 'bvid': 'BV18M411g7ew', 'typename': '明星综合', 'title': '【BOYS PLANET】EP.08 如同梦想一样（中字）', 'subtitle': '', 'play': 248516, 'review': 1033, 'video_review': 32770, 'favorites': 2072, 'mid': 396481253, 'author': 'BoysPlanet', 'description': '官方视频，求审核大大通过\n中字-韩剧TV', 'create': '2023-03-24 13:26', 'pic': 'http://i1.hdslb.com/bfs/archive/f6b488ba567e48a860e574e9c8a61e8de2e02850.jpg', 'coins': 653, 'duration': '173:53', 'badgepay': False, 'pts': 664770, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '611460665', 'bvid': 'BV1C84y137pp', 'typename': '娱乐杂谈', 'title': '他们一演戏，上帝就发笑！好好的美人，怎么剧里变了个人啊？【毁容式演技盘点】', 'subtitle': '', 'play': 1157932, 'review': 1977, 'video_review': 13603, 'favorites': 3493, 'mid': 20457232, 'author': '一只吐槽圆', 'description': '杨超越《重紫》\n龚俊《山河令》《醉玲珑》《你好，火焰蓝》\n吴宣仪《斗罗大陆》《世界微尘里》\n蔡徐坤《我才不会被女孩子欺负呢》\n关晓彤《极光之恋》\n沈月《流星花园》《七月与安生》\n杨颖《孤芳不自赏》《我的真朋友》《尘缘》\n彩蛋：神秘人士', 'create': '2023-03-23 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/5835c88f476dff1c440883e4d2eaa5f04caaf990.jpg', 'coins': 5318, 'duration': '10:40', 'badgepay': False, 'pts': 1793021, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908973242', 'bvid': 'BV1kM4y1B7yo', 'typename': '娱乐杂谈', 'title': '内娱艺人变形计，种地百天负债35万！走向逐渐离谱的《种地吧》第二期解说', 'subtitle': '', 'play': 1054250, 'review': 1807, 'video_review': 2968, 'favorites': 5834, 'mid': 138832847, 'author': '哇哇哇妹', 'description': '这是10个艺人种地半年的奇葩综艺，艰辛程度堪比变形计！\n种地是男人最好的医美！他们10个都变帅了不少啊！\n这群人我真的越看越佩服，目前种地了120多天了！\n搞完基建搞娱乐设施，搞完小麦搞鲜花畜牧！\n后续他们还有多离谱?让我们继续期待！', 'create': '2023-03-23 18:25', 'pic': 'http://i1.hdslb.com/bfs/archive/acce7310f25908e20e0a3edb4d802177d76faedb.jpg', 'coins': 14486, 'duration': '11:23', 'badgepay': False, 'pts': 1718285, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824050042', 'bvid': 'BV1Ag4y1s7df', 'typename': '娱乐杂谈', 'title': '让黄多多成为“文盲”的教育方式，你也曾经历过', 'subtitle': '', 'play': 465021, 'review': 1069, 'video_review': 2219, 'favorites': 4489, 'mid': 1169142430, 'author': '传播学刘阳', 'description': '最近黄多多因为在读书分享视频中读错字音被口诛笔伐，有人称她为新一代“绝望的文盲”。\n今天我想聊聊黄多多所受的教育以及为什么黄多多从“国民闺女”变成了网民口中的“文盲”。我想，这一切也许与我们的炫娃文化以及学霸教育有着密切关系。', 'create': '2023-03-24 19:50', 'pic': 'http://i0.hdslb.com/bfs/archive/01444be1124cbca07c2953e13956dcaa2453e88f.jpg', 'coins': 5132, 'duration': '12:42', 'badgepay': False, 'pts': 932077, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526526329', 'bvid': 'BV1wM411g72s', 'typename': '娱乐杂谈', 'title': '【吃瓜报告】爆笑吐槽娱乐圈近期事件（3月第4期）', 'subtitle': '', 'play': 300249, 'review': 509, 'video_review': 1875, 'favorites': 823, 'mid': 517312875, 'author': '动物园会议', 'description': '3月第1期：BV1YM41147MH\n3月第2期：BV15N411F7dF\n3月第3期：BV1ym4y1r7yY', 'create': '2023-03-24 21:47', 'pic': 'http://i2.hdslb.com/bfs/archive/782564b0af5b96ea266a6e22c585475e4d8a4be5.jpg', 'coins': 2288, 'duration': '8:28', 'badgepay': False, 'pts': 468535, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654072762', 'bvid': 'BV1XY4y1U7bB', 'typename': '娱乐杂谈', 'title': '放在主持界，也是炸裂的存在。两年了，我又裂了。。。', 'subtitle': '', 'play': 292976, 'review': 536, 'video_review': 413, 'favorites': 997, 'mid': 350347646, 'author': '主持人百克力', 'description': '-', 'create': '2023-03-24 15:20', 'pic': 'http://i2.hdslb.com/bfs/archive/13da6939076dea0c87ea88d9d211af9ddb4f1002.jpg', 'coins': 1428, 'duration': '2:10', 'badgepay': False, 'pts': 408606, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268937376', 'bvid': 'BV18c41177n6', 'typename': '娱乐杂谈', 'title': '【娱乐圈恩怨情仇录第九期】考古“幂威恋”！细扒“夜光剧本”事件始末以及杨幂李某峰的绯闻传言', 'subtitle': '', 'play': 329813, 'review': 604, 'video_review': 1109, 'favorites': 983, 'mid': 31603563, 'author': '不八卦会死星人V', 'description': '杨幂和刘恺威为何走向BE？', 'create': '2023-03-22 20:29', 'pic': 'http://i1.hdslb.com/bfs/archive/bc43d48a753d6800c3acbb77c65c93c8b014d5ff.jpg', 'coins': 212, 'duration': '12:56', 'badgepay': False, 'pts': 356508, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993753122', 'bvid': 'BV1Sx4y1P7Xt', 'typename': '娱乐杂谈', 'title': '哲学颠覆认知：观看即权力！花300万追星的站姐，得到了“粉丝权力”吗？', 'subtitle': '', 'play': 161193, 'review': 190, 'video_review': 366, 'favorites': 1493, 'mid': 140312650, 'author': '瞻云云', 'description': '', 'create': '2023-03-22 20:30', 'pic': 'http://i2.hdslb.com/bfs/archive/936ecea4ff72894842c68732efdf1bbbac5fe0c1.jpg', 'coins': 1977, 'duration': '13:36', 'badgepay': False, 'pts': 301217, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441707010', 'bvid': 'BV1hL411Q77T', 'typename': '娱乐杂谈', 'title': '《中华小当家》原型去世！享年67岁，是他让日本人爱上麻婆豆腐', 'subtitle': '', 'play': 190372, 'review': 480, 'video_review': 213, 'favorites': 1128, 'mid': 491480950, 'author': '抓马视频', 'description': '', 'create': '2023-03-26 09:24', 'pic': 'http://i0.hdslb.com/bfs/archive/2835d53dc7c7c6a37ad8ff0bda03e036f9319f1d.jpg', 'coins': 121, 'duration': '1:04', 'badgepay': False, 'pts': 292703, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226478551', 'bvid': 'BV1vb411o7PP', 'typename': '娱乐杂谈', 'title': '央视《人生之路》首播就差评一片，观众差评理由出奇一致，那个年代既然飙车开拖拉机', 'subtitle': '', 'play': 316655, 'review': 1034, 'video_review': 742, 'favorites': 264, 'mid': 1770565875, 'author': '幺妹八卦', 'description': '-', 'create': '2023-03-22 12:54', 'pic': 'http://i2.hdslb.com/bfs/archive/f9581092f1c26956f99e24a53d3976922e7b78ea.jpg', 'coins': 467, 'duration': '4:35', 'badgepay': False, 'pts': 278341, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354196523', 'bvid': 'BV1GX4y1R7Qn', 'typename': '娱乐杂谈', 'title': '没有艺人能从这次的微博之夜中生还！情商再高也不行！', 'subtitle': '', 'play': 161513, 'review': 454, 'video_review': 745, 'favorites': 927, 'mid': 9642397, 'author': '多肉在锅里', 'description': '', 'create': '2023-03-26 20:13', 'pic': 'http://i0.hdslb.com/bfs/archive/3a85d89d7fba4aed485b988a6c936487b03f92b4.jpg', 'coins': 706, 'duration': '4:15', 'badgepay': False, 'pts': 252897, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>4744957</v>
+        <v>4429974</v>
       </c>
       <c r="I101" t="n">
-        <v>112910</v>
+        <v>32135</v>
       </c>
       <c r="J101" t="n">
-        <v>82840</v>
+        <v>20431</v>
       </c>
       <c r="K101" t="n">
-        <v>77256</v>
+        <v>29572</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>影视(主分区)</t>
+          <t>粉丝创作</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>cinephile</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>fans</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>粉丝向创作视频</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>/v/cinephile(opens new window)</t>
+          <t>/v/ent/fans(opens new window)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>娱乐(主分区)</t>
+          <t>娱乐</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[{'aid': '611430299', 'bvid': 'BV1Y84y137AC', 'typename': '影视杂谈', 'title': '大臣是铃芽的隐喻？《铃芽之旅》深度解读，新海诚的灾难哲学与人情温暖', 'subtitle': '', 'play': 1334591, 'review': 7071, 'video_review': 4362, 'favorites': 67994, 'mid': 3397882, 'author': '一镜电影', 'description': '灾难三部曲，从《你的名字》到《铃芽之旅》；新海诚用10年的时间，终于完成了对灾难创伤的心理转变。《你的名字》试图改变未来；《天气之子》尝试选择人生，而到了《铃芽之旅》，新海诚终于明白了，也许面对灾难的最好方式，就是接受现实、重新开始珍贵的日常生活', 'create': '2023-03-24 11:30', 'pic': 'http://i1.hdslb.com/bfs/archive/84bcc7122395cf81f2c921005eedcfce5e6f996f.jpg', 'coins': 98376, 'duration': '12:28', 'badgepay': False, 'pts': 2446359, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354026019', 'bvid': 'BV1AX4y1o7Qj', 'typename': '影视剪辑', 'title': '做人没必要太正常', 'subtitle': '', 'play': 1140844, 'review': 782, 'video_review': 656, 'favorites': 20655, 'mid': 293931870, 'author': '薯条日记', 'description': '-', 'create': '2023-03-25 21:09', 'pic': 'http://i0.hdslb.com/bfs/archive/37efa9dd0a672975dfa2b5afff3796b155afeec3.jpg', 'coins': 21597, 'duration': '2:13', 'badgepay': False, 'pts': 1415531, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354035328', 'bvid': 'BV1NX4y1o7ou', 'typename': '影视杂谈', 'title': '太牛了，抗日神剧中用土法研制出蓝火加特林！！鬼子看到人都傻了', 'subtitle': '', 'play': 789971, 'review': 1231, 'video_review': 4442, 'favorites': 4309, 'mid': 94281836, 'author': '文西与阿漆', 'description': '本视频素材来自网络由文西激情解说，希望大家喜欢！', 'create': '2023-03-24 17:22', 'pic': 'http://i0.hdslb.com/bfs/archive/49bce6a4d7e0fcf53b00a712ec472ab2ca5b240f.jpg', 'coins': 19420, 'duration': '7:26', 'badgepay': False, 'pts': 1095870, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353991645', 'bvid': 'BV1rX4y1d7Yz', 'typename': '影视剪辑', 'title': '“终于明白这电影凭啥封神了，这台词太真实讽刺了！”', 'subtitle': '', 'play': 998885, 'review': 1197, 'video_review': 476, 'favorites': 18835, 'mid': 43887712, 'author': '爱睡觉的_Koala', 'description': '', 'create': '2023-03-23 11:58', 'pic': 'http://i1.hdslb.com/bfs/archive/b5d21bf6d643703f4e171d0fb020de7e7defdbae.jpg', 'coins': 3488, 'duration': '3:44', 'badgepay': False, 'pts': 1071935, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '994005727', 'bvid': 'BV1tx4y1A7Gs', 'typename': '影视杂谈', 'title': '泰山压顶，团灭！悟空痛哭不止，西天路到底有多难？', 'subtitle': '', 'play': 581652, 'review': 1216, 'video_review': 4852, 'favorites': 6072, 'mid': 8096990, 'author': '啊粥粥啊粥', 'description': '一家之言，姑且听之。\n推荐大家去阅读《西游记》原著，并拥有自己的理解。\n\n西游系列第14集，大纲如下：\n1、悟空和唐僧，谁的悟性更高？\n2、唐僧有多么护短猪八戒？\n3、银角大王到底有多强？\n\n无患子专利号：ZL202110698266.8\n植物控油方专利号：ZL200910048788.2\xa0\n止痒素植物专利：ZL202010336068.2', 'create': '2023-03-25 09:22', 'pic': 'http://i1.hdslb.com/bfs/archive/6b1e3a5c50d0c4353e2430e31559dde7e7d22a42.jpg', 'coins': 26774, 'duration': '27:02', 'badgepay': False, 'pts': 950731, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739007368', 'bvid': 'BV1rk4y1x7A2', 'typename': '影视杂谈', 'title': '对话，新海诚！！！！！！', 'subtitle': '', 'play': 444646, 'review': 1469, 'video_review': 1247, 'favorites': 11592, 'mid': 3433092, 'author': '狂阿弥_', 'description': '在这个春天，见到了新海诚！！！\n\n《秒速五厘米》《言叶之庭》《你的名字。》是无数人的挚爱\n\n新海诚非线性的叙事、极致细腻的画风、迷人的配乐\n\n一次次带我们重回青春时的孤独、迷茫、和渴望！\n\n三年之约已到，他带着新作《铃芽之旅》回归\n\n我们在上海，开启这场回应青春的「对话」！\n\n【求三连！求三连！求三连！】', 'create': '2023-03-26 12:00', 'pic': 'http://i1.hdslb.com/bfs/archive/ada4b0de7d63307fa02abe0c5b5c5e4c716ca4db.jpg', 'coins': 21366, 'duration': '12:04', 'badgepay': False, 'pts': 945203, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226512072', 'bvid': 'BV17h411G743', 'typename': '影视杂谈', 'title': '出场几秒，却值几个亿！？电影片名里藏了多少奥秘？', 'subtitle': '', 'play': 601295, 'review': 863, 'video_review': 1730, 'favorites': 7979, 'mid': 946974, 'author': '影视飓风', 'description': '短短几秒的出场时间，电影片名是如何快速吸引大家的注意力？电影取名又隐藏了多少的学问？这期我们来聊一聊电影片名的奥秘，分享有关片名的种种奇特故事。如果你喜欢本期视频，别忘了点赞投币！', 'create': '2023-03-25 17:12', 'pic': 'http://i0.hdslb.com/bfs/archive/366be72d9220c7102b635249a4bcd96111a4e872.jpg', 'coins': 7918, 'duration': '8:29', 'badgepay': False, 'pts': 929784, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824102772', 'bvid': 'BV1Mg4y1s7Ae', 'typename': '影视杂谈', 'title': '水浒传，但是全女声配音', 'subtitle': '', 'play': 691844, 'review': 789, 'video_review': 1221, 'favorites': 9088, 'mid': 438379146, 'author': '桑落桃花', 'description': '所有cv都是我！哇哈哈哈哈！\n审核您好，本视频是配音视频，请不要判定撞车限流，非常感谢！！\n本视频纯属娱乐(๑•̀ㅁ•́ฅ)', 'create': '2023-03-25 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/5193ecf91915927d291fe37b9a8c755aac872e19.jpg', 'coins': 3358, 'duration': '4:42', 'badgepay': False, 'pts': 929695, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951576202', 'bvid': 'BV1ns4y1H7No', 'typename': '影视杂谈', 'title': '罪犯一个接一个，案情却毫无进展！你们还行不行了？国产刑侦剧《他是谁》第三期', 'subtitle': '', 'play': 844196, 'review': 1000, 'video_review': 3647, 'favorites': 3566, 'mid': 10119428, 'author': '小片片说大片', 'description': '经过几天等待，我又来更新《他是谁》了。\n经过上期吴教授的心理疏导，和办案过程中的自我反省，卫国平终于恢复冷静理智。\n然而碎尸案、性侵案和八八连环杀人案都没什么进展，新的案情又搞得他焦头烂额。\n关注微信公众号：小片片说大片，更多宠粉福利等你来！', 'create': '2023-03-24 19:15', 'pic': 'http://i1.hdslb.com/bfs/archive/056f9ae919731d52e2654ddd8423816714af7c46.jpg', 'coins': 11065, 'duration': '31:27', 'badgepay': False, 'pts': 896051, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '269108852', 'bvid': 'BV1ac411L7Hk', 'typename': '小剧场', 'title': '出击了家人们 专业维修', 'subtitle': '', 'play': 679416, 'review': 376, 'video_review': 468, 'favorites': 3484, 'mid': 373388923, 'author': '脱缰凯Kk', 'description': '-', 'create': '2023-03-24 17:24', 'pic': 'http://i0.hdslb.com/bfs/archive/d52f7faf7700d5c278dc96cb105c204f78659fda.jpg', 'coins': 2198, 'duration': '2:30', 'badgepay': False, 'pts': 881900, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611390123', 'bvid': 'BV1H84y137oh', 'typename': '影视杂谈', 'title': '退役特战队员，为救小男孩，掀翻掀翻一支军队-', 'subtitle': '', 'play': 893864, 'review': 221, 'video_review': 588, 'favorites': 4178, 'mid': 73528331, 'author': '摩斯神探', 'description': '退役特战队员，为救小男孩，掀翻掀翻一支军队', 'create': '2023-03-23 22:18', 'pic': 'http://i1.hdslb.com/bfs/archive/be9513c1ea386b4456810b67699d63110a3517f7.jpg', 'coins': 1505, 'duration': '8:10', 'badgepay': False, 'pts': 874944, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '226251965', 'bvid': 'BV1xb411d7nC', 'typename': '粉丝创作', 'title': '这一段谁懂啊', 'subtitle': '', 'play': 276667, 'review': 215, 'video_review': 76, 'favorites': 6710, 'mid': 510956497, 'author': 'kpop星星球', 'description': '-', 'create': '2023-03-21 12:40', 'pic': 'http://i2.hdslb.com/bfs/archive/8b0ab27d67f72ffe577655a44e7eb68bf22b686b.jpg', 'coins': 690, 'duration': '0:15', 'badgepay': False, 'pts': 645457, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438967474', 'bvid': 'BV11L41197NT', 'typename': '粉丝创作', 'title': '看完这场直播我的评价是：陈星旭已上位', 'subtitle': '', 'play': 146111, 'review': 623, 'video_review': 346, 'favorites': 3135, 'mid': 473168781, 'author': '熏春酒', 'description': '-', 'create': '2023-03-22 22:27', 'pic': 'http://i0.hdslb.com/bfs/archive/2dfab870d15b01dfc395f1a0907c28d0dd66099e.jpg', 'coins': 1396, 'duration': '2:04', 'badgepay': False, 'pts': 359959, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696573989', 'bvid': 'BV1hm4y167mw', 'typename': '粉丝创作', 'title': '卧槽啊啊啊啊啊我不允许任何一个人错过这个视频', 'subtitle': '', 'play': 381074, 'review': 340, 'video_review': 281, 'favorites': 2131, 'mid': 391739742, 'author': '派大星不大', 'description': 'http://m.weibo.cn/status/4883288592491683?', 'create': '2023-03-25 21:41', 'pic': 'http://i1.hdslb.com/bfs/archive/8322e434efcdfb420f6b0b3102a8bdb2f1d30ca2.jpg', 'coins': 641, 'duration': '1:21', 'badgepay': False, 'pts': 346569, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483768190', 'bvid': 'BV16T41167mR', 'typename': '粉丝创作', 'title': '脸：有人把我劳工网线给拔了', 'subtitle': '', 'play': 280396, 'review': 56, 'video_review': 29, 'favorites': 2532, 'mid': 20483452, 'author': '嫁给那枚绿心', 'description': '-', 'create': '2023-03-21 12:12', 'pic': 'http://i2.hdslb.com/bfs/archive/9ab83c58fe3142e899b4737ca098094f6b137b76.jpg', 'coins': 210, 'duration': '0:44', 'badgepay': False, 'pts': 323075, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311409807', 'bvid': 'BV1mP411o7ip', 'typename': '粉丝创作', 'title': '“东京女孩的走秀，我也就看了几百遍而已！”', 'subtitle': '', 'play': 132015, 'review': 161, 'video_review': 134, 'favorites': 3347, 'mid': 95667399, 'author': '会唱跳Rap的胖虎', 'description': 'BGM∶西野カナ - No.1\n视频左下角已标注名字，求三连！求推荐！\n-\n剪辑素材∶Tokyo Girls Collection.', 'create': '2023-03-22 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/90c8219e7257c5c5e0eb643607dacf9c9ce8a621.jpg', 'coins': 1228, 'duration': '4:12', 'badgepay': False, 'pts': 321231, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951252501', 'bvid': 'BV1Hs4y1p7mh', 'typename': '粉丝创作', 'title': '土豆震惊！！！', 'subtitle': '', 'play': 93588, 'review': 121, 'video_review': 48, 'favorites': 5534, 'mid': 24365135, 'author': 'Yiinoni', 'description': '-', 'create': '2023-03-20 23:29', 'pic': 'http://i2.hdslb.com/bfs/archive/4a02489603614764e7feae94bf6de0fabdc90f04.jpg', 'coins': 247, 'duration': '0:52', 'badgepay': False, 'pts': 300038, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823838410', 'bvid': 'BV1bg4y1x7tt', 'typename': '粉丝创作', 'title': '【SEVENTEEN】四月回归准备全指南科普', 'subtitle': '', 'play': 43095, 'review': 708, 'video_review': 12, 'favorites': 6610, 'mid': 362832093, 'author': '文丸の把玩之道', 'description': 'SEVENTEEN四月即将回归，你是否还因为没有跟过回归而焦虑紧张？本视频保姆级科普带你详细了解回归所需知识~', 'create': '2023-03-21 23:38', 'pic': 'http://i0.hdslb.com/bfs/archive/15a14bc8e7d138401893a1712a022056502488c6.jpg', 'coins': 590, 'duration': '3:26', 'badgepay': False, 'pts': 264220, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696525378', 'bvid': 'BV14m4y167wB', 'typename': '粉丝创作', 'title': '美爆了！！！曾幻想无数次小说女主惊艳全场的画面！', 'subtitle': '', 'play': 103753, 'review': 370, 'video_review': 402, 'favorites': 1976, 'mid': 9154350, 'author': '冯二宸', 'description': '微博之夜 迪丽热巴', 'create': '2023-03-25 21:57', 'pic': 'http://i2.hdslb.com/bfs/archive/655e1cbd280101037335e1737cd7ca0aa8b3401a.jpg', 'coins': 1185, 'duration': '1:38', 'badgepay': False, 'pts': 253649, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696638231', 'bvid': 'BV1Sm4y167zs', 'typename': '粉丝创作', 'title': '从今以后你出生寿辰满师，成亲生子满月...全部与我赵灵儿无关【刘亦菲胡歌｜李逍遥赵灵儿】微博之夜仙剑一重逢', 'subtitle': '', 'play': 104680, 'review': 334, 'video_review': 113, 'favorites': 1234, 'mid': 25352476, 'author': '大菠萝蝗虫', 'description': '祝好。', 'create': '2023-03-26 14:13', 'pic': 'http://i2.hdslb.com/bfs/archive/7a20ee08aeaada6694a256b1160fc1c984c97e4c.jpg', 'coins': 1106, 'duration': '0:59', 'badgepay': False, 'pts': 222764, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311515955', 'bvid': 'BV15N411K7zn', 'typename': '粉丝创作', 'title': '辰乐:西珍妮 牛逼 !!! 西珍妮:牛逼!牛逼!牛逼! 仁俊:(堂皇)', 'subtitle': '', 'play': 76601, 'review': 197, 'video_review': 106, 'favorites': 2694, 'mid': 1093465772, 'author': '保护我的小年糕_', 'description': '微博', 'create': '2023-03-26 01:23', 'pic': 'http://i0.hdslb.com/bfs/archive/bd2c5ad31c76d48a612b235adf3aa590c9028403.jpg', 'coins': 108, 'duration': '0:56', 'badgepay': False, 'pts': 209671, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>9001204</v>
+        <v>1637980</v>
       </c>
       <c r="I102" t="n">
-        <v>217065</v>
+        <v>7401</v>
       </c>
       <c r="J102" t="n">
-        <v>157752</v>
+        <v>35903</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>89837</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>影视杂谈</t>
+          <t>明星综合</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>cinecism</t>
+          <t>celebrity</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>影视评论、解说、吐槽、科普等</t>
+          <t>娱乐圈动态、明星资讯相关</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>/v/cinephile/cinecism(opens new window)</t>
+          <t>/v/ent/celebrity</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>娱乐(主分区)</t>
+          <t>娱乐</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[{'aid': '611430299', 'bvid': 'BV1Y84y137AC', 'typename': '影视杂谈', 'title': '大臣是铃芽的隐喻？《铃芽之旅》深度解读，新海诚的灾难哲学与人情温暖', 'subtitle': '', 'play': 1334591, 'review': 7072, 'video_review': 4362, 'favorites': 67994, 'mid': 3397882, 'author': '一镜电影', 'description': '灾难三部曲，从《你的名字》到《铃芽之旅》；新海诚用10年的时间，终于完成了对灾难创伤的心理转变。《你的名字》试图改变未来；《天气之子》尝试选择人生，而到了《铃芽之旅》，新海诚终于明白了，也许面对灾难的最好方式，就是接受现实、重新开始珍贵的日常生活', 'create': '2023-03-24 11:30', 'pic': 'http://i1.hdslb.com/bfs/archive/84bcc7122395cf81f2c921005eedcfce5e6f996f.jpg', 'coins': 98376, 'duration': '12:28', 'badgepay': False, 'pts': 3800854, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951335203', 'bvid': 'BV1Ls4y1n76K', 'typename': '影视杂谈', 'title': '【阿斗】55万人打出9.2分，被无数影迷奉为“必看神作”！史上最经典的窃听电影《窃听风暴》', 'subtitle': '', 'play': 1436062, 'review': 2862, 'video_review': 9720, 'favorites': 14329, 'mid': 21837784, 'author': '阿斗归来了', 'description': '喜欢的话多多点赞、投币、收藏吧，你们的三连支持就我更新的最大动力。\n更多精彩内容，关注我的微信公众号——阿斗归来了（adouGLL）', 'create': '2023-03-21 20:26', 'pic': 'http://i1.hdslb.com/bfs/archive/d625b6a75155097f3a574d607bf138acc7d48af9.jpg', 'coins': 21627, 'duration': '29:24', 'badgepay': False, 'pts': 2333078, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908889391', 'bvid': 'BV1xM4y1B7xh', 'typename': '影视杂谈', 'title': '一案扣一案，真凶没找到，嫌犯蹦出好几个！国产刑侦剧《他是谁》第二期', 'subtitle': '', 'play': 1215465, 'review': 1009, 'video_review': 5058, 'favorites': 6024, 'mid': 10119428, 'author': '小片片说大片', 'description': '最近追他是谁的大家，是不是都被卫国平的八个“站住”刷屏了？\n啊，本阿拉斯加没想到在悬疑剧里也会吃这么大碗狗粮。\n不过在磕到了的同时，我还是更关注案情，这就马上给大家带来《他是谁》连载第二期。\n关注微信公众号：小片片说大片，更多宠粉福利等你来！', 'create': '2023-03-22 18:01', 'pic': 'http://i1.hdslb.com/bfs/archive/e563ff62ad55cdfa9fa20df3c4b5db7ac75791f2.jpg', 'coins': 17203, 'duration': '39:43', 'badgepay': False, 'pts': 1797354, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823908870', 'bvid': 'BV1Sg4y1x7RX', 'typename': '影视杂谈', 'title': '男版宫斗！手下变情敌，弟弟变上级？《叶卡捷琳娜》S2P6', 'subtitle': '', 'play': 641344, 'review': 2489, 'video_review': 6206, 'favorites': 9710, 'mid': 927587, 'author': '木鱼水心', 'description': '格里、波将金爆发身体冲突！\n情夫大战谁能笑到最后？\n俄土开战！女皇犯兵家大忌，临阵换将为哪般？\n\n点赞过10万，周六更新下一P\n本系列周三、周六更新\n敬请期待！', 'create': '2023-03-22 21:53', 'pic': 'http://i2.hdslb.com/bfs/archive/05f480702fc362b40dce1f738a0ec57e8ce7a9d7.jpg', 'coins': 55596, 'duration': '36:38', 'badgepay': False, 'pts': 1426752, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354035328', 'bvid': 'BV1NX4y1o7ou', 'typename': '影视杂谈', 'title': '太牛了，抗日神剧中用土法研制出蓝火加特林！！鬼子看到人都傻了', 'subtitle': '', 'play': 789971, 'review': 1231, 'video_review': 4442, 'favorites': 4309, 'mid': 94281836, 'author': '文西与阿漆', 'description': '本视频素材来自网络由文西激情解说，希望大家喜欢！', 'create': '2023-03-24 17:22', 'pic': 'http://i0.hdslb.com/bfs/archive/49bce6a4d7e0fcf53b00a712ec472ab2ca5b240f.jpg', 'coins': 19420, 'duration': '7:26', 'badgepay': False, 'pts': 1391105, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824102772', 'bvid': 'BV1Mg4y1s7Ae', 'typename': '影视杂谈', 'title': '水浒传，但是全女声配音', 'subtitle': '', 'play': 691945, 'review': 789, 'video_review': 1221, 'favorites': 9088, 'mid': 438379146, 'author': '桑落桃花', 'description': '所有cv都是我！哇哈哈哈哈！\n审核您好，本视频是配音视频，请不要判定撞车限流，非常感谢！！\n本视频纯属娱乐(๑•̀ㅁ•́ฅ)', 'create': '2023-03-25 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/5193ecf91915927d291fe37b9a8c755aac872e19.jpg', 'coins': 3358, 'duration': '4:42', 'badgepay': False, 'pts': 1365092, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441463248', 'bvid': 'BV14L411D7zU', 'typename': '影视杂谈', 'title': '臭脸就别演纯爱了！爆笑吐槽井柏然谭松韵《归路》', 'subtitle': '', 'play': 814326, 'review': 1917, 'video_review': 7623, 'favorites': 1777, 'mid': 203337614, 'author': '开心嘴炮', 'description': '《归路》吐槽', 'create': '2023-03-24 10:45', 'pic': 'http://i2.hdslb.com/bfs/archive/c3dc7d09dfb613839dafc0cd7c3a6c42cd39c2b6.jpg', 'coins': 2655, 'duration': '8:21', 'badgepay': False, 'pts': 1337133, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611536214', 'bvid': 'BV1R84y137DW', 'typename': '影视杂谈', 'title': '这么重口味居然能上映，揭开老光棍最后的“遮羞布”，真实的可怕！《光棍儿》', 'subtitle': '', 'play': 742086, 'review': 1246, 'video_review': 2866, 'favorites': 5477, 'mid': 390898500, 'author': '一目十影', 'description': '《光棍儿》是由郝杰执导，杨振君、叶兰等主演的现实题材电影。该片讲述了顾家沟村里老杨、梁大头、顾林、六软四个无所事事的光棍们的生活规律以及性苦闷的故事。该片于2011年12月14日在中国大陆上映。', 'create': '2023-03-24 18:54', 'pic': 'http://i2.hdslb.com/bfs/archive/96f62b1730e434a092d1ff36fedf512215fa7c61.jpg', 'coins': 3057, 'duration': '14:22', 'badgepay': False, 'pts': 1337076, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526310050', 'bvid': 'BV13M411p7pc', 'typename': '影视杂谈', 'title': '细读经典：教科书级别的黑色幽默！这么逗比的杀手你见过么？', 'subtitle': '', 'play': 708848, 'review': 732, 'video_review': 4812, 'favorites': 6552, 'mid': 17819768, 'author': '电影最TOP', 'description': '《杀手没有假期》解读', 'create': '2023-03-22 20:45', 'pic': 'http://i0.hdslb.com/bfs/archive/97bc569c4da4d75420c4c74c03bc167385836ef6.jpg', 'coins': 15811, 'duration': '37:30', 'badgepay': False, 'pts': 1327156, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696315399', 'bvid': 'BV1Dm4y1r7ow', 'typename': '影视杂谈', 'title': '七星螳螂拳细解 好怀念于海老师', 'subtitle': '', 'play': 550459, 'review': 752, 'video_review': 163, 'favorites': 11289, 'mid': 1896599818, 'author': 'CR7aijianji', 'description': '都说传统武术不行了，这两位行么', 'create': '2023-03-21 20:20', 'pic': 'http://i2.hdslb.com/bfs/archive/2bfdfb49a6741eb7bb6220302c4c301aa8b22205.jpg', 'coins': 980, 'duration': '1:11', 'badgepay': False, 'pts': 1216348, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '909002121', 'bvid': 'BV1QM4y1B7n4', 'typename': '明星综合', 'title': '【TF家族】《一起去做的N件事》第十九件事：一起来捉迷藏吧', 'subtitle': '', 'play': 903946, 'review': 13754, 'video_review': 122314, 'favorites': 12249, 'mid': 3670216, 'author': 'TF家族', 'description': '新的故事会在一起捉迷藏的回忆中开始，属于练习生阶段最后的珍贵回忆继续，我们一起相约在有限的时间内去完成更多的事情，我们想一起填满那两年的回忆空缺。\n\n〔猫鼠定位GAME开启〕\n\n猫鼠大战一触即发，高额悬赏层层叠加。隐藏在各个角落的鼠鼠们，请躲好！起点出发GO！', 'create': '2023-03-25 19:46', 'pic': 'http://i0.hdslb.com/bfs/archive/e5bc3e9cb6587aeb11a30ffe2f9fb9beb995daec.jpg', 'coins': 13608, 'duration': '70:00', 'badgepay': False, 'pts': 2111252, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226556795', 'bvid': 'BV1ah411G7sn', 'typename': '明星综合', 'title': '“好兄弟就要互帮互助！——不玩难受难受也玩”', 'subtitle': '', 'play': 650929, 'review': 3117, 'video_review': 6756, 'favorites': 23870, 'mid': 412504829, 'author': '文韬Stefan', 'description': '', 'create': '2023-03-24 17:20', 'pic': 'http://i0.hdslb.com/bfs/archive/6e3ab4ecc3f77f832b1ebf7f5ea068ea5518ec65.jpg', 'coins': 53893, 'duration': '12:31', 'badgepay': False, 'pts': 1725438, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739209850', 'bvid': 'BV1yk4y1478A', 'typename': '明星综合', 'title': '可他大大方方跳女团舞的样子真的很迷人诶', 'subtitle': '', 'play': 413223, 'review': 12478, 'video_review': 7940, 'favorites': 15575, 'mid': 1965410126, 'author': '鲨仁不过头点地', 'description': '随机舞蹈直拍拍摄：天天\n封面授权感谢：@啵啵波波｜刘宇', 'create': '2023-03-26 18:28', 'pic': 'http://i0.hdslb.com/bfs/archive/e45e1f1071d5c2c68177d04bc8d98d7b37aa4e49.jpg', 'coins': 18418, 'duration': '2:05', 'badgepay': False, 'pts': 1524056, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611488679', 'bvid': 'BV1X84y137Lw', 'typename': '明星综合', 'title': '【刘谦魔术课】柯洁第二弹：秀策 VS 爱因斯坦', 'subtitle': '', 'play': 883027, 'review': 2537, 'video_review': 1597, 'favorites': 5095, 'mid': 641975239, 'author': '刘谦', 'description': '《刘谦的魔术课》EP37\n歡迎來到魔法世界！本因坊秀策神助力！\n\n\n↓↓更多精彩↓↓请关注\n圍脖：@刘谦\n話題：#刘谦的魔术课#', 'create': '2023-03-23 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/7b879776633967a8bd0f44e29e0e441f05972aaf.jpg', 'coins': 10128, 'duration': '4:28', 'badgepay': False, 'pts': 1466172, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354110806', 'bvid': 'BV17X4y1o748', 'typename': '明星综合', 'title': '卧槽！男明星红毯终于不是清一色葬礼风了！这才是碾压级的华丽贵气！｜王鹤棣｜微博之夜', 'subtitle': '', 'play': 539629, 'review': 2102, 'video_review': 2117, 'favorites': 6746, 'mid': 47726681, 'author': '圈肉火腿', 'description': '-', 'create': '2023-03-26 00:22', 'pic': 'http://i1.hdslb.com/bfs/archive/6f3011ab35e3f4b9f6730fd6814ccaf4b53336ee.jpg', 'coins': 7135, 'duration': '1:22', 'badgepay': False, 'pts': 1160163, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353889061', 'bvid': 'BV1QX4y1Z7wQ', 'typename': '明星综合', 'title': "【SVT_ZER·0】[GOING SEVENTEEN] EP.68 Don't Lie : CLUE #1 零站中字", 'subtitle': '', 'play': 359474, 'review': 917, 'video_review': 6485, 'favorites': 5862, 'mid': 218438615, 'author': 'SEVENTEEN_ZER0站', 'description': 'ytb\n资源：清清 校对：某某 符符 小诗 KIM 小鱼 打轴：姿姿 燕玉 瓜子 花生米 晓欣 橘子 晓雨 云云 压制：蛋蛋', 'create': '2023-03-23 02:27', 'pic': 'http://i0.hdslb.com/bfs/archive/a7e4e2ffef5e3abb0d5e3cc7a3b9057f15915dc2.jpg', 'coins': 3958, 'duration': '33:42', 'badgepay': False, 'pts': 806993, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909050633', 'bvid': 'BV17M4y1z73Y', 'typename': '明星综合', 'title': '主舞互动！张艺兴跳金钟仁《Rover》舞蹈Challenge！', 'subtitle': '', 'play': 376634, 'review': 1312, 'video_review': 518, 'favorites': 3667, 'mid': 162151104, 'author': 'SM李秀满', 'description': '网络', 'create': '2023-03-25 10:41', 'pic': 'http://i2.hdslb.com/bfs/archive/6d1fe6ee9532a6ea4a8aaadb4b866b7c81e91cb4.jpg', 'coins': 1190, 'duration': '0:36', 'badgepay': False, 'pts': 772598, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909106052', 'bvid': 'BV1pM4y1z7BH', 'typename': '明星综合', 'title': '刘家祎男大十八变！我们的林磊儿长大咯！', 'subtitle': '', 'play': 353068, 'review': 168, 'video_review': 90, 'favorites': 5440, 'mid': 19660303, 'author': '芒果妈妈官方账号', 'description': '完全戳在了芒妈的酥点上！', 'create': '2023-03-24 18:25', 'pic': 'http://i0.hdslb.com/bfs/archive/da4424cef76d31a9708b8b6e6303706e45691f7c.jpg', 'coins': 204, 'duration': '0:25', 'badgepay': False, 'pts': 705826, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993967119', 'bvid': 'BV1Wx4y1A71Z', 'typename': '明星综合', 'title': '[(G)I-DLE 随心所欲] EP.01 这个..对吗..? | 2023回归研讨会 | (G)I-DLE', 'subtitle': '', 'play': 278735, 'review': 920, 'video_review': 3713, 'favorites': 6363, 'mid': 624243924, 'author': 'GIDLE_official', 'description': '', 'create': '2023-03-22 17:00', 'pic': 'http://i1.hdslb.com/bfs/archive/08cacc2cdcc2ba29660203e93994e342e30063f1.jpg', 'coins': 7563, 'duration': '19:15', 'badgepay': False, 'pts': 687106, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526616443', 'bvid': 'BV18M411g7ew', 'typename': '明星综合', 'title': '【BOYS PLANET】EP.08 如同梦想一样（中字）', 'subtitle': '', 'play': 258491, 'review': 1059, 'video_review': 33607, 'favorites': 2116, 'mid': 396481253, 'author': 'BoysPlanet', 'description': '官方视频，求审核大大通过\n中字-韩剧TV', 'create': '2023-03-24 13:26', 'pic': 'http://i1.hdslb.com/bfs/archive/f6b488ba567e48a860e574e9c8a61e8de2e02850.jpg', 'coins': 673, 'duration': '173:53', 'badgepay': False, 'pts': 686775, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>8925097</v>
+        <v>5017156</v>
       </c>
       <c r="I103" t="n">
-        <v>238083</v>
+        <v>116770</v>
       </c>
       <c r="J103" t="n">
-        <v>136549</v>
+        <v>86983</v>
       </c>
       <c r="K103" t="n">
-        <v>104191</v>
+        <v>77256</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>影视剪辑</t>
+          <t>影视杂谈</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>montage</t>
+          <t>cinecism</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>对影视素材进行剪辑再创作的视频</t>
+          <t>影视评论、解说、吐槽、科普等</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>/v/cinephile/montage(opens new window)</t>
+          <t>/v/cinephile/cinecism(opens new window)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>娱乐(主分区)</t>
+          <t>影视</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[{'aid': '993855575', 'bvid': 'BV1Dx4y1w7gq', 'typename': '影视剪辑', 'title': '用亮剑来打开大学生活', 'subtitle': '', 'play': 2440644, 'review': 991, 'video_review': 363, 'favorites': 52174, 'mid': 476728345, 'author': '肥鸡煲', 'description': '-', 'create': '2023-03-21 21:30', 'pic': 'http://i1.hdslb.com/bfs/archive/dab7234b63d738a5ff56d1af6964e8fde124ee99.jpg', 'coins': 14677, 'duration': '0:54', 'badgepay': False, 'pts': 3823496, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354026019', 'bvid': 'BV1AX4y1o7Qj', 'typename': '影视剪辑', 'title': '做人没必要太正常', 'subtitle': '', 'play': 1140844, 'review': 782, 'video_review': 656, 'favorites': 20655, 'mid': 293931870, 'author': '薯条日记', 'description': '-', 'create': '2023-03-25 21:09', 'pic': 'http://i0.hdslb.com/bfs/archive/37efa9dd0a672975dfa2b5afff3796b155afeec3.jpg', 'coins': 21597, 'duration': '2:13', 'badgepay': False, 'pts': 2121072, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353991645', 'bvid': 'BV1rX4y1d7Yz', 'typename': '影视剪辑', 'title': '“终于明白这电影凭啥封神了，这台词太真实讽刺了！”', 'subtitle': '', 'play': 998885, 'review': 1197, 'video_review': 476, 'favorites': 18835, 'mid': 43887712, 'author': '爱睡觉的_Koala', 'description': '', 'create': '2023-03-23 11:58', 'pic': 'http://i1.hdslb.com/bfs/archive/b5d21bf6d643703f4e171d0fb020de7e7defdbae.jpg', 'coins': 3488, 'duration': '3:44', 'badgepay': False, 'pts': 1926413, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866403786', 'bvid': 'BV1SV4y1Q7kT', 'typename': '影视剪辑', 'title': '电影美学｜用9分影片打开10种绝美构图', 'subtitle': '', 'play': 273465, 'review': 142, 'video_review': 256, 'favorites': 27898, 'mid': 440766992, 'author': '编导生的暴走日记', 'description': '用高分电影介绍10种构图，内容很全，包含最常见也最好用的构图方式，能让影视爱好小白和初学拍摄的小白有低门槛学习的方法论：\n-对称构图\n-黄金分割构图\n-框架式构图\n-三角形构图\n-水平线构图\n-垂直构图\n-曲线构图\n-圆形构图\n-对角线构图\n-中心构图', 'create': '2023-03-23 20:46', 'pic': 'http://i2.hdslb.com/bfs/archive/a12b0c4ddfcdb5b4b4230950f168b36575c96f82.jpg', 'coins': 6293, 'duration': '4:27', 'badgepay': False, 'pts': 1154149, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226436169', 'bvid': 'BV1ab411o79p', 'typename': '影视剪辑', 'title': '这才是正宗小狼狗！笑着叫姐姐谁能抵挡的住啊！！', 'subtitle': '', 'play': 546903, 'review': 1367, 'video_review': 935, 'favorites': 7592, 'mid': 1705424833, 'author': '日日就是窝', 'description': '', 'create': '2023-03-22 14:22', 'pic': 'http://i0.hdslb.com/bfs/archive/ec4b28597a0f65d2c217c430c60a0118bdde68ab.jpg', 'coins': 2596, 'duration': '1:16', 'badgepay': False, 'pts': 1148648, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483775369', 'bvid': 'BV1YT411672s', 'typename': '影视剪辑', 'title': '“姑娘们，冲！”', 'subtitle': '', 'play': 315434, 'review': 640, 'video_review': 311, 'favorites': 16378, 'mid': 93815794, 'author': '初晴弥可喜可贺', 'description': '《中国电影中的女性角色 Female Characters in Chinese Movies》\n\n详细影片信息在结尾。\n这次也加了英文字幕，一部分是电影本身的英文台词，一部分是我自己翻译的。\n\n还有很多优秀的影片没放进来，剪辑的过程中不断发现电影中还有更多元的女性角色，而荧幕之外的生活中的女性角色则更加多样。\n\n感谢这些为中国电影辛勤付出的勤劳、美丽、可爱的妇女同志们～', 'create': '2023-03-20 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/1bb6b1ec693e307362511dd07e9bd250079ed879.jpg', 'coins': 22924, 'duration': '4:10', 'badgepay': False, 'pts': 970918, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993974359', 'bvid': 'BV1jx4y1A7yz', 'typename': '影视剪辑', 'title': '“至此，华夏一统刻入了DNA！”', 'subtitle': '', 'play': 358712, 'review': 677, 'video_review': 271, 'favorites': 5895, 'mid': 509997673, 'author': '官帽头上戴', 'description': '-', 'create': '2023-03-23 19:59', 'pic': 'http://i1.hdslb.com/bfs/archive/03e07357dc3eddb409352ef8daa7efa007020954.jpg', 'coins': 3646, 'duration': '2:20', 'badgepay': False, 'pts': 791982, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653860595', 'bvid': 'BV1BY4y1D7HC', 'typename': '影视剪辑', 'title': '“那你可不可以，慢一点忘记我。”| 影视剧中那些意难平的现代BE美学', 'subtitle': '', 'play': 372059, 'review': 289, 'video_review': 786, 'favorites': 7126, 'mid': 50660026, 'author': '粗糙丹丹', 'description': 'bgm:突然好想你-五月天\n剪辑不易辛苦审核大大给个推荐吧，拜托拜托~', 'create': '2023-03-20 15:26', 'pic': 'http://i2.hdslb.com/bfs/archive/bffbdf790088068b525e6c7357c002fca8ec5670.jpg', 'coins': 1811, 'duration': '4:16', 'badgepay': False, 'pts': 787698, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441268386', 'bvid': 'BV1pL411r7FD', 'typename': '影视剪辑', 'title': '“我知道你是个二流货色，然而我爱你。”「黑暗荣耀 | 河道英×朴妍珍」', 'subtitle': '', 'play': 440763, 'review': 333, 'video_review': 282, 'favorites': 5452, 'mid': 46422567, 'author': 'aka玉兔精', 'description': 'bgm: 爱人\n碎掉的是他的花瓶，刮伤的是他的心。', 'create': '2023-03-20 14:00', 'pic': 'http://i2.hdslb.com/bfs/archive/1e1042183996f036a92523f9c0ba8bd9978da206.jpg', 'coins': 860, 'duration': '4:52', 'badgepay': False, 'pts': 756124, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353840293', 'bvid': 'BV11X4y1Z7ij', 'typename': '影视剪辑', 'title': '“十一年前的拽姐老大和她的少爷小弟超好磕好不好!”', 'subtitle': '', 'play': 319478, 'review': 389, 'video_review': 246, 'favorites': 7840, 'mid': 170934544, 'author': '谭先生家的小猫咪', 'description': 'b站有版权可以直接看', 'create': '2023-03-20 23:06', 'pic': 'http://i1.hdslb.com/bfs/archive/8a03a9362a42d5ae78d7b1342a8f9586c26bbb88.jpg', 'coins': 1397, 'duration': '3:04', 'badgepay': False, 'pts': 743959, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '611430299', 'bvid': 'BV1Y84y137AC', 'typename': '影视杂谈', 'title': '大臣是铃芽的隐喻？《铃芽之旅》深度解读，新海诚的灾难哲学与人情温暖', 'subtitle': '', 'play': 1412183, 'review': 7423, 'video_review': 4546, 'favorites': 71361, 'mid': 3397882, 'author': '一镜电影', 'description': '灾难三部曲，从《你的名字》到《铃芽之旅》；新海诚用10年的时间，终于完成了对灾难创伤的心理转变。《你的名字》试图改变未来；《天气之子》尝试选择人生，而到了《铃芽之旅》，新海诚终于明白了，也许面对灾难的最好方式，就是接受现实、重新开始珍贵的日常生活', 'create': '2023-03-24 11:30', 'pic': 'http://i1.hdslb.com/bfs/archive/84bcc7122395cf81f2c921005eedcfce5e6f996f.jpg', 'coins': 103305, 'duration': '12:28', 'badgepay': False, 'pts': 3964621, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951335203', 'bvid': 'BV1Ls4y1n76K', 'typename': '影视杂谈', 'title': '【阿斗】55万人打出9.2分，被无数影迷奉为“必看神作”！史上最经典的窃听电影《窃听风暴》', 'subtitle': '', 'play': 1455336, 'review': 2881, 'video_review': 9788, 'favorites': 14492, 'mid': 21837784, 'author': '阿斗归来了', 'description': '喜欢的话多多点赞、投币、收藏吧，你们的三连支持就我更新的最大动力。\n更多精彩内容，关注我的微信公众号——阿斗归来了（adouGLL）', 'create': '2023-03-21 20:26', 'pic': 'http://i1.hdslb.com/bfs/archive/d625b6a75155097f3a574d607bf138acc7d48af9.jpg', 'coins': 21832, 'duration': '29:24', 'badgepay': False, 'pts': 2352939, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908889391', 'bvid': 'BV1xM4y1B7xh', 'typename': '影视杂谈', 'title': '一案扣一案，真凶没找到，嫌犯蹦出好几个！国产刑侦剧《他是谁》第二期', 'subtitle': '', 'play': 1234756, 'review': 1008, 'video_review': 5093, 'favorites': 6068, 'mid': 10119428, 'author': '小片片说大片', 'description': '最近追他是谁的大家，是不是都被卫国平的八个“站住”刷屏了？\n啊，本阿拉斯加没想到在悬疑剧里也会吃这么大碗狗粮。\n不过在磕到了的同时，我还是更关注案情，这就马上给大家带来《他是谁》连载第二期。\n关注微信公众号：小片片说大片，更多宠粉福利等你来！', 'create': '2023-03-22 18:01', 'pic': 'http://i1.hdslb.com/bfs/archive/e563ff62ad55cdfa9fa20df3c4b5db7ac75791f2.jpg', 'coins': 17325, 'duration': '39:43', 'badgepay': False, 'pts': 1808815, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '824102772', 'bvid': 'BV1Mg4y1s7Ae', 'typename': '影视杂谈', 'title': '水浒传，但是全女声配音', 'subtitle': '', 'play': 754999, 'review': 843, 'video_review': 1303, 'favorites': 9820, 'mid': 438379146, 'author': '桑落桃花', 'description': '所有cv都是我！哇哈哈哈哈！\n审核您好，本视频是配音视频，请不要判定撞车限流，非常感谢！！\n本视频纯属娱乐(๑•̀ㅁ•́ฅ)', 'create': '2023-03-25 10:00', 'pic': 'http://i0.hdslb.com/bfs/archive/5193ecf91915927d291fe37b9a8c755aac872e19.jpg', 'coins': 3669, 'duration': '4:42', 'badgepay': False, 'pts': 1467696, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '823908870', 'bvid': 'BV1Sg4y1x7RX', 'typename': '影视杂谈', 'title': '男版宫斗！手下变情敌，弟弟变上级？《叶卡捷琳娜》S2P6', 'subtitle': '', 'play': 653809, 'review': 2528, 'video_review': 6243, 'favorites': 9834, 'mid': 927587, 'author': '木鱼水心', 'description': '格里、波将金爆发身体冲突！\n情夫大战谁能笑到最后？\n俄土开战！女皇犯兵家大忌，临阵换将为哪般？\n\n点赞过10万，周六更新下一P\n本系列周三、周六更新\n敬请期待！', 'create': '2023-03-22 21:53', 'pic': 'http://i2.hdslb.com/bfs/archive/05f480702fc362b40dce1f738a0ec57e8ce7a9d7.jpg', 'coins': 56454, 'duration': '36:38', 'badgepay': False, 'pts': 1448546, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354035328', 'bvid': 'BV1NX4y1o7ou', 'typename': '影视杂谈', 'title': '太牛了，抗日神剧中用土法研制出蓝火加特林！！鬼子看到人都傻了', 'subtitle': '', 'play': 813320, 'review': 1252, 'video_review': 4513, 'favorites': 4408, 'mid': 94281836, 'author': '文西与阿漆', 'description': '本视频素材来自网络由文西激情解说，希望大家喜欢！', 'create': '2023-03-24 17:22', 'pic': 'http://i0.hdslb.com/bfs/archive/49bce6a4d7e0fcf53b00a712ec472ab2ca5b240f.jpg', 'coins': 19874, 'duration': '7:26', 'badgepay': False, 'pts': 1423339, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441463248', 'bvid': 'BV14L411D7zU', 'typename': '影视杂谈', 'title': '臭脸就别演纯爱了！爆笑吐槽井柏然谭松韵《归路》', 'subtitle': '', 'play': 851634, 'review': 1973, 'video_review': 7880, 'favorites': 1827, 'mid': 203337614, 'author': '开心嘴炮', 'description': '《归路》吐槽', 'create': '2023-03-24 10:45', 'pic': 'http://i2.hdslb.com/bfs/archive/c3dc7d09dfb613839dafc0cd7c3a6c42cd39c2b6.jpg', 'coins': 2769, 'duration': '8:21', 'badgepay': False, 'pts': 1377381, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611536214', 'bvid': 'BV1R84y137DW', 'typename': '影视杂谈', 'title': '这么重口味居然能上映，揭开老光棍最后的“遮羞布”，真实的可怕！《光棍儿》', 'subtitle': '', 'play': 744292, 'review': 1252, 'video_review': 2877, 'favorites': 5477, 'mid': 390898500, 'author': '一目十影', 'description': '《光棍儿》是由郝杰执导，杨振君、叶兰等主演的现实题材电影。该片讲述了顾家沟村里老杨、梁大头、顾林、六软四个无所事事的光棍们的生活规律以及性苦闷的故事。该片于2011年12月14日在中国大陆上映。', 'create': '2023-03-24 18:54', 'pic': 'http://i2.hdslb.com/bfs/archive/96f62b1730e434a092d1ff36fedf512215fa7c61.jpg', 'coins': 3072, 'duration': '14:22', 'badgepay': False, 'pts': 1339438, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526310050', 'bvid': 'BV13M411p7pc', 'typename': '影视杂谈', 'title': '细读经典：教科书级别的黑色幽默！这么逗比的杀手你见过么？', 'subtitle': '', 'play': 716817, 'review': 735, 'video_review': 4833, 'favorites': 6551, 'mid': 17819768, 'author': '电影最TOP', 'description': '《杀手没有假期》解读', 'create': '2023-03-22 20:45', 'pic': 'http://i0.hdslb.com/bfs/archive/97bc569c4da4d75420c4c74c03bc167385836ef6.jpg', 'coins': 15949, 'duration': '37:30', 'badgepay': False, 'pts': 1335838, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226512072', 'bvid': 'BV17h411G743', 'typename': '影视杂谈', 'title': '出场几秒，却值几个亿！？电影片名里藏了多少奥秘？', 'subtitle': '', 'play': 642161, 'review': 897, 'video_review': 1799, 'favorites': 8435, 'mid': 946974, 'author': '影视飓风', 'description': '短短几秒的出场时间，电影片名是如何快速吸引大家的注意力？电影取名又隐藏了多少的学问？这期我们来聊一聊电影片名的奥秘，分享有关片名的种种奇特故事。如果你喜欢本期视频，别忘了点赞投币！', 'create': '2023-03-25 17:12', 'pic': 'http://i0.hdslb.com/bfs/archive/366be72d9220c7102b635249a4bcd96111a4e872.jpg', 'coins': 8488, 'duration': '8:29', 'badgepay': False, 'pts': 1241397, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>7207187</v>
+        <v>9279307</v>
       </c>
       <c r="I104" t="n">
-        <v>79289</v>
+        <v>252737</v>
       </c>
       <c r="J104" t="n">
-        <v>169845</v>
+        <v>138273</v>
       </c>
       <c r="K104" t="n">
-        <v>161966</v>
+        <v>104191</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>小剧场</t>
+          <t>影视剪辑</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>shortfilm</t>
+          <t>montage</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>有场景、有剧情的演绎类内容</t>
+          <t>对影视素材进行剪辑再创作的视频</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>/v/cinephile/shortfilm(opens new window)</t>
+          <t>/v/cinephile/montage(opens new window)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>娱乐(主分区)</t>
+          <t>影视</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[{'aid': '441327226', 'bvid': 'BV1zL411r7RW', 'typename': '小剧场', 'title': '“世人将神推落泥潭，神决定还世人一池鲜花。”                              人生新体验，在淤泥池里拍照。', 'subtitle': '', 'play': 4606591, 'review': 4166, 'video_review': 803, 'favorites': 75094, 'mid': 101363350, 'author': '夏弃疾下乡版', 'description': '@-妞妞妞- ', 'create': '2023-03-21 18:38', 'pic': 'http://i2.hdslb.com/bfs/archive/cded8a1861516fca51ec2e6fe07d89a5a5221d1f.jpg', 'coins': 63961, 'duration': '0:21', 'badgepay': False, 'pts': 5325771, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441480996', 'bvid': 'BV1HL411D7kk', 'typename': '小剧场', 'title': '谁还不认识几个婷婷、琪琪、玲玲、琳琳了？', 'subtitle': '', 'play': 669162, 'review': 1836, 'video_review': 461, 'favorites': 30956, 'mid': 661898191, 'author': '戴晓琛', 'description': '', 'create': '2023-03-23 11:31', 'pic': 'http://i1.hdslb.com/bfs/archive/9edb8f0e30bf3b4fd39a271cac636a5a80322faf.jpg', 'coins': 1533, 'duration': '0:48', 'badgepay': False, 'pts': 1917530, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866366569', 'bvid': 'BV18V4y1R7EE', 'typename': '小剧场', 'title': '家人们，来了！', 'subtitle': '', 'play': 1425345, 'review': 1054, 'video_review': 1476, 'favorites': 12634, 'mid': 373388923, 'author': '脱缰凯Kk', 'description': '-', 'create': '2023-03-21 17:45', 'pic': 'http://i2.hdslb.com/bfs/archive/c80e08489d12979bdf2c794cdf29b7f3efaec3c2.jpg', 'coins': 6556, 'duration': '3:36', 'badgepay': False, 'pts': 1844771, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738881817', 'bvid': 'BV1yk4y1t7XF', 'typename': '小剧场', 'title': '这才是武打！看好了，峨眉山的猴子大战醉拳，功夫片不能在我们这一代断了层！', 'subtitle': '', 'play': 1047409, 'review': 1208, 'video_review': 1087, 'favorites': 9445, 'mid': 432083444, 'author': '俩大叔的功夫梦', 'description': '猴拳技高一筹，醉拳技狂一战，拳拳到肉见真章！', 'create': '2023-03-22 16:32', 'pic': 'http://i0.hdslb.com/bfs/archive/14e7b335805ff3f28b75b670454ca9ead6cf1906.jpg', 'coins': 45874, 'duration': '2:13', 'badgepay': False, 'pts': 1815754, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268959894', 'bvid': 'BV1oc41157Wt', 'typename': '小剧场', 'title': '我们捅穿了上门按摩的最后一张遮羞布', 'subtitle': '', 'play': 880058, 'review': 2762, 'video_review': 5881, 'favorites': 5696, 'mid': 523608103, 'author': '给我一个镜头V', 'description': '当你用镜头看到真相，就再也无法相信谎言\n如果你喜欢我们这个系列，请给予我们一键三连加关注\n你的支持，对我们的创作特别重要', 'create': '2023-03-24 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/9f2a75fc9fa199e692329bd0ef20833861fed064.jpg', 'coins': 12352, 'duration': '11:53', 'badgepay': False, 'pts': 1660134, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611545599', 'bvid': 'BV1F84y1G7ps', 'typename': '小剧场', 'title': '长大了才明白你们才是我的最高配置', 'subtitle': '', 'play': 932080, 'review': 1210, 'video_review': 282, 'favorites': 5850, 'mid': 1805992672, 'author': '创作失败', 'description': '', 'create': '2023-03-24 00:01', 'pic': 'http://i1.hdslb.com/bfs/archive/1b70cb1246726f79b8eefdadf18b01f344704935.jpg', 'coins': 5256, 'duration': '1:02', 'badgepay': False, 'pts': 1444605, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226602719', 'bvid': 'BV1dh411G7Tp', 'typename': '小剧场', 'title': '看完这个广告我严重怀疑现在广告人的精神状态....', 'subtitle': '', 'play': 658576, 'review': 782, 'video_review': 727, 'favorites': 8608, 'mid': 324188834, 'author': '广告圈poor猴', 'description': '蚂蚁财富\n完了，又疯一个官方......', 'create': '2023-03-24 13:26', 'pic': 'http://i1.hdslb.com/bfs/archive/c848cbbebcc6a4c4fe126b26cc87477a0762472c.jpg', 'coins': 1670, 'duration': '4:10', 'badgepay': False, 'pts': 1302658, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311538161', 'bvid': 'BV1YN411K7K5', 'typename': '小剧场', 'title': '为了交学费，21岁女学生半夜出卖炒饭：挣1万学费其实挺难的', 'subtitle': '', 'play': 614824, 'review': 2139, 'video_review': 1715, 'favorites': 4936, 'mid': 94508565, 'author': '牛事', 'description': '为了交学费，21岁女学生半夜出卖炒饭：挣1万学费其实挺难的。', 'create': '2023-03-25 18:57', 'pic': 'http://i1.hdslb.com/bfs/archive/550567f1701f2d841d7c4f76a71cd9424bbf0746.jpg', 'coins': 9441, 'duration': '4:17', 'badgepay': False, 'pts': 1224723, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951623740', 'bvid': 'BV1Ps4y1J7mJ', 'typename': '小剧场', 'title': '他说要不要吃水煮鱼，是约会的意思吗？', 'subtitle': '', 'play': 529655, 'review': 1941, 'video_review': 1220, 'favorites': 7194, 'mid': 477535138, 'author': '吴夏帆', 'description': '-', 'create': '2023-03-24 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/e816d5aa80eaea37bf5b9c0103d04f43039015e3.jpg', 'coins': 12147, 'duration': '1:01', 'badgepay': False, 'pts': 1138994, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739114623', 'bvid': 'BV1Vk4y147H5', 'typename': '小剧场', 'title': '当所有人谈恋爱的次数被公开，海王该怎么办？', 'subtitle': '', 'play': 1267021, 'review': 1314, 'video_review': 822, 'favorites': 5463, 'mid': 1435089014, 'author': '阿凯的脑洞', 'description': '恋爱次数被公开，相亲市场大震荡！', 'create': '2023-03-24 21:31', 'pic': 'http://i2.hdslb.com/bfs/archive/e182151d34965fdac38632be1f91189af0250d8e.jpg', 'coins': 2459, 'duration': '2:52', 'badgepay': False, 'pts': 910669, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '993855575', 'bvid': 'BV1Dx4y1w7gq', 'typename': '影视剪辑', 'title': '用亮剑来打开大学生活', 'subtitle': '', 'play': 2465218, 'review': 1009, 'video_review': 367, 'favorites': 52703, 'mid': 476728345, 'author': '肥鸡煲', 'description': '-', 'create': '2023-03-21 21:30', 'pic': 'http://i1.hdslb.com/bfs/archive/dab7234b63d738a5ff56d1af6964e8fde124ee99.jpg', 'coins': 14921, 'duration': '0:54', 'badgepay': False, 'pts': 3848609, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '354026019', 'bvid': 'BV1AX4y1o7Qj', 'typename': '影视剪辑', 'title': '做人没必要太正常', 'subtitle': '', 'play': 1384255, 'review': 932, 'video_review': 788, 'favorites': 25992, 'mid': 293931870, 'author': '薯条日记', 'description': '-', 'create': '2023-03-25 21:09', 'pic': 'http://i0.hdslb.com/bfs/archive/37efa9dd0a672975dfa2b5afff3796b155afeec3.jpg', 'coins': 26903, 'duration': '2:13', 'badgepay': False, 'pts': 2452847, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353991645', 'bvid': 'BV1rX4y1d7Yz', 'typename': '影视剪辑', 'title': '“终于明白这电影凭啥封神了，这台词太真实讽刺了！”', 'subtitle': '', 'play': 1034568, 'review': 1234, 'video_review': 485, 'favorites': 19349, 'mid': 43887712, 'author': '爱睡觉的_Koala', 'description': '', 'create': '2023-03-23 11:58', 'pic': 'http://i1.hdslb.com/bfs/archive/b5d21bf6d643703f4e171d0fb020de7e7defdbae.jpg', 'coins': 3648, 'duration': '3:44', 'badgepay': False, 'pts': 1975349, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866403786', 'bvid': 'BV1SV4y1Q7kT', 'typename': '影视剪辑', 'title': '电影美学｜用9分影片打开10种绝美构图', 'subtitle': '', 'play': 290155, 'review': 148, 'video_review': 270, 'favorites': 29758, 'mid': 440766992, 'author': '编导生的暴走日记', 'description': '用高分电影介绍10种构图，内容很全，包含最常见也最好用的构图方式，能让影视爱好小白和初学拍摄的小白有低门槛学习的方法论：\n-对称构图\n-黄金分割构图\n-框架式构图\n-三角形构图\n-水平线构图\n-垂直构图\n-曲线构图\n-圆形构图\n-对角线构图\n-中心构图', 'create': '2023-03-23 20:46', 'pic': 'http://i2.hdslb.com/bfs/archive/a12b0c4ddfcdb5b4b4230950f168b36575c96f82.jpg', 'coins': 6728, 'duration': '4:27', 'badgepay': False, 'pts': 1224375, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226436169', 'bvid': 'BV1ab411o79p', 'typename': '影视剪辑', 'title': '这才是正宗小狼狗！笑着叫姐姐谁能抵挡的住啊！！', 'subtitle': '', 'play': 556197, 'review': 1384, 'video_review': 940, 'favorites': 7705, 'mid': 1705424833, 'author': '日日就是窝', 'description': '', 'create': '2023-03-22 14:22', 'pic': 'http://i0.hdslb.com/bfs/archive/ec4b28597a0f65d2c217c430c60a0118bdde68ab.jpg', 'coins': 2615, 'duration': '1:16', 'badgepay': False, 'pts': 1161719, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '483775369', 'bvid': 'BV1YT411672s', 'typename': '影视剪辑', 'title': '“姑娘们，冲！”', 'subtitle': '', 'play': 317024, 'review': 641, 'video_review': 313, 'favorites': 16498, 'mid': 93815794, 'author': '初晴弥可喜可贺', 'description': '《中国电影中的女性角色 Female Characters in Chinese Movies》\n\n详细影片信息在结尾。\n这次也加了英文字幕，一部分是电影本身的英文台词，一部分是我自己翻译的。\n\n还有很多优秀的影片没放进来，剪辑的过程中不断发现电影中还有更多元的女性角色，而荧幕之外的生活中的女性角色则更加多样。\n\n感谢这些为中国电影辛勤付出的勤劳、美丽、可爱的妇女同志们～', 'create': '2023-03-20 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/1bb6b1ec693e307362511dd07e9bd250079ed879.jpg', 'coins': 23069, 'duration': '4:10', 'badgepay': False, 'pts': 976126, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993974359', 'bvid': 'BV1jx4y1A7yz', 'typename': '影视剪辑', 'title': '“至此，华夏一统刻入了DNA！”', 'subtitle': '', 'play': 371284, 'review': 730, 'video_review': 283, 'favorites': 6094, 'mid': 509997673, 'author': '官帽头上戴', 'description': '-', 'create': '2023-03-23 19:59', 'pic': 'http://i1.hdslb.com/bfs/archive/03e07357dc3eddb409352ef8daa7efa007020954.jpg', 'coins': 3776, 'duration': '2:20', 'badgepay': False, 'pts': 819106, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653860595', 'bvid': 'BV1BY4y1D7HC', 'typename': '影视剪辑', 'title': '“那你可不可以，慢一点忘记我。”| 影视剧中那些意难平的现代BE美学', 'subtitle': '', 'play': 379346, 'review': 290, 'video_review': 801, 'favorites': 7276, 'mid': 50660026, 'author': '粗糙丹丹', 'description': 'bgm:突然好想你-五月天\n剪辑不易辛苦审核大大给个推荐吧，拜托拜托~', 'create': '2023-03-20 15:26', 'pic': 'http://i2.hdslb.com/bfs/archive/bffbdf790088068b525e6c7357c002fca8ec5670.jpg', 'coins': 1846, 'duration': '4:16', 'badgepay': False, 'pts': 802627, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353840293', 'bvid': 'BV11X4y1Z7ij', 'typename': '影视剪辑', 'title': '“十一年前的拽姐老大和她的少爷小弟超好磕好不好!”', 'subtitle': '', 'play': 324301, 'review': 393, 'video_review': 246, 'favorites': 7953, 'mid': 170934544, 'author': '谭先生家的小猫咪', 'description': 'b站有版权可以直接看', 'create': '2023-03-20 23:06', 'pic': 'http://i1.hdslb.com/bfs/archive/8a03a9362a42d5ae78d7b1342a8f9586c26bbb88.jpg', 'coins': 1420, 'duration': '3:04', 'badgepay': False, 'pts': 754123, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226305730', 'bvid': 'BV1Xb411d7AL', 'typename': '影视剪辑', 'title': '“那时的大学生脸上写满了自信！眼里充满了光！”', 'subtitle': '', 'play': 331830, 'review': 1225, 'video_review': 297, 'favorites': 3692, 'mid': 346749212, 'author': 'wrizedm', 'description': '', 'create': '2023-03-20 18:28', 'pic': 'http://i0.hdslb.com/bfs/archive/bf54fe6216fe7a70cccfa402b9615c46503ddcb4.jpg', 'coins': 1366, 'duration': '2:34', 'badgepay': False, 'pts': 670890, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>12630721</v>
+        <v>7454178</v>
       </c>
       <c r="I105" t="n">
-        <v>161249</v>
+        <v>86292</v>
       </c>
       <c r="J105" t="n">
-        <v>165876</v>
+        <v>177020</v>
       </c>
       <c r="K105" t="n">
-        <v>34250</v>
+        <v>161966</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>预告·资讯</t>
+          <t>小剧场</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>trailer_info</t>
+          <t>shortfilm</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>影视类相关资讯，预告，花絮等视频</t>
+          <t>有场景、有剧情的演绎类内容</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>/v/cinephile/trailer_info</t>
+          <t>/v/cinephile/shortfilm(opens new window)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>娱乐(主分区)</t>
+          <t>影视</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[{'aid': '738989467', 'bvid': 'BV12k4y1x7P1', 'typename': '预告·资讯', 'title': '【IGN】电影《新·假面骑士》全新预告', 'subtitle': '', 'play': 431970, 'review': 1151, 'video_review': 272, 'favorites': 3332, 'mid': 652239032, 'author': 'IGN中国', 'description': '由庵野秀明指导的《新·假面骑士》公开了全新预告，本乡猛/假面骑士由池松壮亮饰演，绿川ルリ子由浜边美波饰演。 《新·假面骑士》现已在日本上映。', 'create': '2023-03-23 19:10', 'pic': 'http://i0.hdslb.com/bfs/archive/a4250f41cafedcf479c673dc750fd5fbbf32456c.jpg', 'coins': 1276, 'duration': '1:21', 'badgepay': False, 'pts': 791777, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696448805', 'bvid': 'BV1Ym4y1k7US', 'typename': '预告·资讯', 'title': '超多新角色曝光！庵野秀明《新·假面骑士》追告，长泽雅美+竹野内丰+斋藤工等亮相', 'subtitle': '', 'play': 398221, 'review': 1210, 'video_review': 325, 'favorites': 2694, 'mid': 8465957, 'author': '乌鸦预告片', 'description': '假面骑士50周年纪念电影《新·假面骑士》追告新预告，解禁新卡司：竹野内丰、斋藤工、大森南朋、长泽雅美、本乡奏多、松坂桃李、市川实日子、仲村亨、安田显、上杉柊平、森山未來。庵野秀明编剧执导，池松壮亮、滨边美波、柄本佑、冢本晋也、手塚通、松尾铃木主演，3月17日已在日本上映。', 'create': '2023-03-23 20:05', 'pic': 'http://i2.hdslb.com/bfs/archive/8c888a97f8bbac545c9b08426267ed9024ce5f95.jpg', 'coins': 636, 'duration': '1:23', 'badgepay': False, 'pts': 653395, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738834737', 'bvid': 'BV1zk4y1t7W9', 'typename': '预告·资讯', 'title': '春分节气，大自然的奏鸣曲达到终极平衡，我们和风筝也在寻找平衡。', 'subtitle': '', 'play': 483082, 'review': 2564, 'video_review': 3489, 'favorites': 4507, 'mid': 506525525, 'author': 'Beast野兽派官方', 'description': '', 'create': '2023-03-21 09:07', 'pic': 'http://i0.hdslb.com/bfs/archive/cdd3c9eb7d972209b6f4043208a47f87954eb5ca.jpg', 'coins': 6742, 'duration': '2:43', 'badgepay': False, 'pts': 584863, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396308624', 'bvid': 'BV1No4y1B7PW', 'typename': '预告·资讯', 'title': '仅5天睡眠不足体重就可增长近2斤', 'subtitle': '', 'play': 216687, 'review': 930, 'video_review': 141, 'favorites': 1604, 'mid': 72209046, 'author': '央视纪录', 'description': '在一项研究睡眠剥夺的实验中，志愿者的睡眠时间从9个小时被减少至5个小时，他们不仅正餐的食量变大了，平时吃的零食也增多了。研究人员发现，负责调节人们食量的激素——胃饥饿素和瘦素受到了影响。', 'create': '2023-03-21 11:16', 'pic': 'http://i2.hdslb.com/bfs/archive/cf4b975587e6e23fb92a76597eedf05e45b2375c.jpg', 'coins': 169, 'duration': '2:25', 'badgepay': False, 'pts': 369071, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353799145', 'bvid': 'BV1YX4y1Z7dz', 'typename': '预告·资讯', 'title': '电影《铃芽之旅》路演热度口碑双收 幕后纪录片公开新海诚谈创作初衷', 'subtitle': '', 'play': 129207, 'review': 767, 'video_review': 292, 'favorites': 4141, 'mid': 1176313847, 'author': '电影铃芽之旅', 'description': '', 'create': '2023-03-21 08:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b7c8eb3c1693b52a6a0599d47d04bb6c908a7d69.jpg', 'coins': 1948, 'duration': '7:04', 'badgepay': False, 'pts': 357224, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951528668', 'bvid': 'BV15s4y1H74A', 'typename': '预告·资讯', 'title': '1080p 新 假面骑士电影片段 开场前两分钟', 'subtitle': '', 'play': 92450, 'review': 466, 'video_review': 302, 'favorites': 828, 'mid': 1194243551, 'author': '柴宝子SHIBA', 'description': 'https://www.youtube.com/watch?v=uydUqZFSyQI', 'create': '2023-03-25 18:17', 'pic': 'http://i0.hdslb.com/bfs/archive/50764df95c59ab85e2b353b2b5088baa6e77b693.jpg', 'coins': 88, 'duration': '3:02', 'badgepay': False, 'pts': 196026, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311263143', 'bvid': 'BV1XP411d7jF', 'typename': '预告·资讯', 'title': '［热点］导演# 新海诚 中国行VLOG，全力以赴的“三年之约', 'subtitle': '', 'play': 114010, 'review': 138, 'video_review': 8, 'favorites': 1182, 'mid': 1529898523, 'author': '青年影音馆', 'description': '-', 'create': '2023-03-21 20:33', 'pic': 'http://i1.hdslb.com/bfs/archive/142803f8f785abfb30e5697d5141b5bbb0a1ac57.jpg', 'coins': 187, 'duration': '0:49', 'badgepay': False, 'pts': 194550, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696431220', 'bvid': 'BV1Bm4y1k793', 'typename': '预告·资讯', 'title': '奔跑的小椅子和会说话的猫咪，《铃芽之旅》终极预告，电影明日正式上映！', 'subtitle': '', 'play': 92699, 'review': 613, 'video_review': 101, 'favorites': 501, 'mid': 67090174, 'author': '猫眼电影官方', 'description': '新海诚治愈系口碑佳片《铃芽之旅》曝光终极预告，一场梦幻绮丽的冒险即将启程，跟着铃芽、奔跑的三条腿小椅子和会说话的猫咪大臣一起，奔赴春之约！影片讲述了少女铃芽和自己喜欢的男孩并肩作战，在关闭灾难之门的历险的过程中完成了自我治愈与救赎的成长故事。此前首映礼和路演热度与口碑双收，被誉为“最好的新海诚”。影片将于明日上映，微博大V推荐度94%，B站评分9.8，预售火热进行中。', 'create': '2023-03-23 10:37', 'pic': 'http://i0.hdslb.com/bfs/archive/d362cdc13e283c7e624c20be490db675859ad8f1.jpg', 'coins': 153, 'duration': '2:03', 'badgepay': False, 'pts': 187399, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526603372', 'bvid': 'BV1LM411g7oH', 'typename': '预告·资讯', 'title': '电影爱很美味｜被张含韵的超长忌口清单笑发财！！重度过敏体质真的这么离谱吗？', 'subtitle': '', 'play': 966914, 'review': 100, 'video_review': 20, 'favorites': 352, 'mid': 1703134198, 'author': '联瑞影业官方影视号', 'description': '', 'create': '2023-03-24 15:46', 'pic': 'http://i0.hdslb.com/bfs/archive/db9d200b840a1eb92028d49230e3ff37858cfd21.jpg', 'coins': 34, 'duration': '0:12', 'badgepay': False, 'pts': 161374, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353799557', 'bvid': 'BV1YX4y1Z7bd', 'typename': '预告·资讯', 'title': '《宇宙探索编辑部》发布“宇宙的线索”预告', 'subtitle': '', 'play': 76629, 'review': 284, 'video_review': 230, 'favorites': 451, 'mid': 32708626, 'author': '哔斯卡金像奖', 'description': '', 'create': '2023-03-20 11:31', 'pic': 'http://i0.hdslb.com/bfs/archive/80b2d4bc7f5647fdffb9dbacab146e21273aee00.jpg', 'coins': 152, 'duration': '3:23', 'badgepay': False, 'pts': 122715, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '441327226', 'bvid': 'BV1zL411r7RW', 'typename': '小剧场', 'title': '“世人将神推落泥潭，神决定还世人一池鲜花。”                              人生新体验，在淤泥池里拍照。', 'subtitle': '', 'play': 4623335, 'review': 4183, 'video_review': 805, 'favorites': 75368, 'mid': 101363350, 'author': '夏弃疾下乡版', 'description': '@-妞妞妞- ', 'create': '2023-03-21 18:38', 'pic': 'http://i2.hdslb.com/bfs/archive/cded8a1861516fca51ec2e6fe07d89a5a5221d1f.jpg', 'coins': 64210, 'duration': '0:21', 'badgepay': False, 'pts': 5339034, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441480996', 'bvid': 'BV1HL411D7kk', 'typename': '小剧场', 'title': '谁还不认识几个婷婷、琪琪、玲玲、琳琳了？', 'subtitle': '', 'play': 692347, 'review': 1878, 'video_review': 476, 'favorites': 31899, 'mid': 661898191, 'author': '戴晓琛', 'description': '', 'create': '2023-03-23 11:31', 'pic': 'http://i1.hdslb.com/bfs/archive/9edb8f0e30bf3b4fd39a271cac636a5a80322faf.jpg', 'coins': 1584, 'duration': '0:48', 'badgepay': False, 'pts': 1958520, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866366569', 'bvid': 'BV18V4y1R7EE', 'typename': '小剧场', 'title': '家人们，来了！', 'subtitle': '', 'play': 1436667, 'review': 1054, 'video_review': 1479, 'favorites': 12727, 'mid': 373388923, 'author': '脱缰凯Kk', 'description': '-', 'create': '2023-03-21 17:45', 'pic': 'http://i2.hdslb.com/bfs/archive/c80e08489d12979bdf2c794cdf29b7f3efaec3c2.jpg', 'coins': 6579, 'duration': '3:36', 'badgepay': False, 'pts': 1851440, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738881817', 'bvid': 'BV1yk4y1t7XF', 'typename': '小剧场', 'title': '这才是武打！看好了，峨眉山的猴子大战醉拳，功夫片不能在我们这一代断了层！', 'subtitle': '', 'play': 1057027, 'review': 1222, 'video_review': 1098, 'favorites': 9556, 'mid': 432083444, 'author': '俩大叔的功夫梦', 'description': '猴拳技高一筹，醉拳技狂一战，拳拳到肉见真章！', 'create': '2023-03-22 16:32', 'pic': 'http://i0.hdslb.com/bfs/archive/14e7b335805ff3f28b75b670454ca9ead6cf1906.jpg', 'coins': 46372, 'duration': '2:13', 'badgepay': False, 'pts': 1827916, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268959894', 'bvid': 'BV1oc41157Wt', 'typename': '小剧场', 'title': '我们捅穿了上门按摩的最后一张遮羞布', 'subtitle': '', 'play': 952542, 'review': 2927, 'video_review': 6544, 'favorites': 5947, 'mid': 523608103, 'author': '给我一个镜头V', 'description': '当你用镜头看到真相，就再也无法相信谎言\n如果你喜欢我们这个系列，请给予我们一键三连加关注\n你的支持，对我们的创作特别重要', 'create': '2023-03-24 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/9f2a75fc9fa199e692329bd0ef20833861fed064.jpg', 'coins': 12815, 'duration': '11:53', 'badgepay': False, 'pts': 1755302, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '611545599', 'bvid': 'BV1F84y1G7ps', 'typename': '小剧场', 'title': '长大了才明白你们才是我的最高配置', 'subtitle': '', 'play': 961633, 'review': 1252, 'video_review': 293, 'favorites': 6081, 'mid': 1805992672, 'author': '创作失败', 'description': '', 'create': '2023-03-24 00:01', 'pic': 'http://i1.hdslb.com/bfs/archive/1b70cb1246726f79b8eefdadf18b01f344704935.jpg', 'coins': 5398, 'duration': '1:02', 'badgepay': False, 'pts': 1482546, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '226602719', 'bvid': 'BV1dh411G7Tp', 'typename': '小剧场', 'title': '看完这个广告我严重怀疑现在广告人的精神状态....', 'subtitle': '', 'play': 682995, 'review': 805, 'video_review': 745, 'favorites': 8921, 'mid': 324188834, 'author': '广告圈poor猴', 'description': '蚂蚁财富\n完了，又疯一个官方......', 'create': '2023-03-24 13:26', 'pic': 'http://i1.hdslb.com/bfs/archive/c848cbbebcc6a4c4fe126b26cc87477a0762472c.jpg', 'coins': 1723, 'duration': '4:10', 'badgepay': False, 'pts': 1340374, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311538161', 'bvid': 'BV1YN411K7K5', 'typename': '小剧场', 'title': '为了交学费，21岁女学生半夜出卖炒饭：挣1万学费其实挺难的', 'subtitle': '', 'play': 662181, 'review': 2278, 'video_review': 1871, 'favorites': 5436, 'mid': 94508565, 'author': '牛事', 'description': '为了交学费，21岁女学生半夜出卖炒饭：挣1万学费其实挺难的。', 'create': '2023-03-25 18:57', 'pic': 'http://i1.hdslb.com/bfs/archive/550567f1701f2d841d7c4f76a71cd9424bbf0746.jpg', 'coins': 10307, 'duration': '4:17', 'badgepay': False, 'pts': 1310349, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951623740', 'bvid': 'BV1Ps4y1J7mJ', 'typename': '小剧场', 'title': '他说要不要吃水煮鱼，是约会的意思吗？', 'subtitle': '', 'play': 540321, 'review': 1967, 'video_review': 1240, 'favorites': 7306, 'mid': 477535138, 'author': '吴夏帆', 'description': '-', 'create': '2023-03-24 17:00', 'pic': 'http://i0.hdslb.com/bfs/archive/e816d5aa80eaea37bf5b9c0103d04f43039015e3.jpg', 'coins': 12345, 'duration': '1:01', 'badgepay': False, 'pts': 1157274, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '739114623', 'bvid': 'BV1Vk4y147H5', 'typename': '小剧场', 'title': '当所有人谈恋爱的次数被公开，海王该怎么办？', 'subtitle': '', 'play': 1354733, 'review': 1358, 'video_review': 878, 'favorites': 5937, 'mid': 1435089014, 'author': '阿凯的脑洞', 'description': '恋爱次数被公开，相亲市场大震荡！', 'create': '2023-03-24 21:31', 'pic': 'http://i2.hdslb.com/bfs/archive/e182151d34965fdac38632be1f91189af0250d8e.jpg', 'coins': 2667, 'duration': '2:52', 'badgepay': False, 'pts': 978027, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>3001869</v>
+        <v>12963781</v>
       </c>
       <c r="I106" t="n">
-        <v>11385</v>
+        <v>164000</v>
       </c>
       <c r="J106" t="n">
-        <v>19592</v>
+        <v>169178</v>
       </c>
       <c r="K106" t="n">
-        <v>6920</v>
+        <v>34250</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>人文·历史</t>
+          <t>预告·资讯</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>trailer_info</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>除宣传片、影视剪辑外的，人文艺术历史纪录剧集或电影、预告、花絮、二创、5分钟以上纪录短片</t>
+          <t>影视类相关资讯，预告，花絮等视频</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>/v/documentary/history(opens new window)</t>
+          <t>/v/cinephile/trailer_info</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>纪录片(主分区)</t>
+          <t>影视</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[{'aid': '823925665', 'bvid': 'BV1Wg4y1W7Cv', 'typename': '人文·历史', 'title': '指尖上的梦幻·光影', 'subtitle': '', 'play': 574330, 'review': 197, 'video_review': 212, 'favorites': 22, 'mid': 444935584, 'author': '梦幻西游电脑版', 'description': '《指尖上的梦幻》，是由梦幻西游团队携手《舌尖上的中国一》制作团队倾力打造，从传统文化视角洞悉游戏行业的系列纪录片。\n皮影戏，榫卯建筑，活字印刷，瓷器……匠人们的智慧结晶璀璨千年，光耀至今；梦幻西游根植于传统文化，以中华经典为滋养，同时也凭借自身的创新形式，为传统文化的传承与弘扬贡献着自己的力量。', 'create': '2023-03-24 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6f2c902ef09f76af1ac6530815477f0f408193be.jpg', 'coins': 221, 'duration': '9:46', 'badgepay': False, 'pts': 572709, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741764'}, {'aid': '864755727', 'bvid': 'BV1p54y1A7VE', 'typename': '人文·历史', 'title': '【纪录片】被数学选中的人 第4集 抽象的巨人', 'subtitle': '', 'play': 89664, 'review': 81, 'video_review': 176, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '数学之美，似乎只有少数人才能感受，但其实不管你是否是那个被数学选中的人，数学之美都在潜移默化地影响、改变、塑造着你。数学存在的意义，从来不是成为一件艺术品，而是作为一种人类智慧指引我们前行的方向。如果被数学选中的人是一个集合的话，它与人类这个集合应该是一样大的。', 'create': '2023-03-25 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/c355d260358c649785b097f67cd03e324990037e.png', 'coins': 190, 'duration': '25:01', 'badgepay': False, 'pts': 85098, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737259'}, {'aid': '441421229', 'bvid': 'BV1ML411k7Sh', 'typename': '人文·历史', 'title': '一开门就发现12个被扒光的女孩儿 一段真实的缅北救人录音', 'subtitle': '', 'play': 35467, 'review': 137, 'video_review': 41, 'favorites': 179, 'mid': 73152299, 'author': '老白观影视', 'description': '', 'create': '2023-03-22 18:28', 'pic': 'http://i0.hdslb.com/bfs/archive/0025e945b57125aa72aff94c1fe1c43a74c718d0.jpg', 'coins': 54, 'duration': '4:14', 'badgepay': False, 'pts': 31856, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908859945', 'bvid': 'BV17M4y1B77G', 'typename': '人文·历史', 'title': '【纪录片】档案 67 纪念毛泽东东渡黄河75周年', 'subtitle': '', 'play': 14681, 'review': 6, 'video_review': 0, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '《档案》是一档国内首创并唯一拥有自主讲述类纪录片模式的品牌栏目，《档案》栏目依托历史档案的发掘和呈现，讲述历史事件，揭秘历史谜团，还原历史真相，通过对历史的分析与解读，引导观众建立正确的历史观，并在历史与现实的关联呼应中，启发人们对人生观、世界观、价值观的思考，从而实现对“真善美”主流价值观的传递。', 'create': '2023-03-21 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/f24aa40b00e5f46e2a03362d2dccd1e8dc527599.jpg', 'coins': 34, 'duration': '45:10', 'badgepay': False, 'pts': 14424, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741425'}, {'aid': '824148607', 'bvid': 'BV1eg4y1s75n', 'typename': '人文·历史', 'title': '《榜样7》 20230325', 'subtitle': '', 'play': 4811, 'review': 4, 'video_review': 1, 'favorites': 42, 'mid': 1828013600, 'author': '纪录片典藏', 'description': '网络\r\n1', 'create': '2023-03-26 19:12', 'pic': 'http://i1.hdslb.com/bfs/archive/9d7324925a72e692a4afc3dc63441e341ed230a0.png', 'coins': 4, 'duration': '93:30', 'badgepay': False, 'pts': 4180, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866356701', 'bvid': 'BV1xV4y1R7Pv', 'typename': '人文·历史', 'title': '《您好，110》第四季第十一集——薪火', 'subtitle': '', 'play': 3976, 'review': 1, 'video_review': 3, 'favorites': 1, 'mid': 20390404, 'author': '东南卫视', 'description': '筑牢忠诚警魂守“初心”，化解基层矛盾聚“民心”，守护百姓平安淬“匠心”，服务辖区群众倾“真心”。经年累月的工作中，才溪派出所始终坚持着这“四心”的理想信念，做辖区百姓的贴心人。在工作中，他们还为百姓做了哪些实事？今晚20:00《您好，110》第四季，看“人民的保护神”暖心出击！', 'create': '2023-03-21 21:45', 'pic': 'http://i2.hdslb.com/bfs/archive/275934044f42d140593b8ee13079fcf98c18cbae.jpg', 'coins': 5, 'duration': '20:01', 'badgepay': False, 'pts': 3835, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742235'}, {'aid': '568911025', 'bvid': 'BV1wv4y157cZ', 'typename': '人文·历史', 'title': '【纪录片】《一爿店》第七集——啡舍咖啡馆｜没有一个春天不会来临。', 'subtitle': '', 'play': 3410, 'review': 6, 'video_review': 12, 'favorites': 30, 'mid': 611957438, 'author': '未见制片所', 'description': '一个必要奢侈的天井里，\n一场恍若隔世的春光色。 \n-----------------------------------------------------------------------------------------\n《一爿店》城市采样系列纪录短片，每周四15:00，\n记录12家小店日常故事，轻盈治愈，5分钟*12集。\nbilibili&amp;微博搜“未见制片所”&amp;“一爿店”，视频号搜“未见WeSee”，欢迎来玩~\n喜欢纪录片的朋友欢迎后台私信入群，同好交流、周边抽奖等你~', 'create': '2023-03-23 15:00', 'pic': 'http://i2.hdslb.com/bfs/archive/6a34ffe1b6c78717ca4856bf6f249f408f8c58af.jpg', 'coins': 28, 'duration': '4:31', 'badgepay': False, 'pts': 3340, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '294014272', 'bvid': 'BV1QF411a7Z3', 'typename': '人文·历史', 'title': '【纪录片】流行档案第二季 12', 'subtitle': '', 'play': 3388, 'review': 11, 'video_review': 27, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '欧美流行乐坛超级明星幕后故事。', 'create': '2023-03-20 19:05', 'pic': 'http://i2.hdslb.com/bfs/archive/537424f3bad8e3f46b7e03be5901c7058dd4a13d.png', 'coins': 10, 'duration': '21:14', 'badgepay': False, 'pts': 3051, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep204231'}, {'aid': '441748287', 'bvid': 'BV1GL411S7x4', 'typename': '人文·历史', 'title': 'Following', 'subtitle': '', 'play': 1994, 'review': 6, 'video_review': 0, 'favorites': 52, 'mid': 4357864, 'author': '羲北偏北', 'description': '网络', 'create': '2023-03-26 17:34', 'pic': 'http://i2.hdslb.com/bfs/archive/d73d2f2b108f44e71ae8eb98f879cc290a06cae5.jpg', 'coins': 23, 'duration': '70:11', 'badgepay': False, 'pts': 1959, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951470530', 'bvid': 'BV1ms4y1n7w2', 'typename': '人文·历史', 'title': '天宫TV | 走！我带你去看这世界的山和海', 'subtitle': '', 'play': 1913, 'review': 13, 'video_review': 5, 'favorites': 17, 'mid': 496261881, 'author': 'CNSA中国航天文化', 'description': '如果你还没有试过跨越山和大海，让中国空间站带着你去看看这世界的山和海，希望这俯瞰地球美景的视频能够给予你出发的勇气和动力，山河美好，值得你我不断前行。\n\n载人航天新闻宣传中心出品\n编辑/刘泽康\n来源：中国载人航天工程办公室', 'create': '2023-03-22 09:32', 'pic': 'http://i2.hdslb.com/bfs/archive/7575c0cfa5c9325bdc15df613cc57a6ccd358f8f.jpg', 'coins': 21, 'duration': '1:46', 'badgepay': False, 'pts': 1869, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '738989467', 'bvid': 'BV12k4y1x7P1', 'typename': '预告·资讯', 'title': '【IGN】电影《新·假面骑士》全新预告', 'subtitle': '', 'play': 436855, 'review': 1162, 'video_review': 273, 'favorites': 3355, 'mid': 652239032, 'author': 'IGN中国', 'description': '由庵野秀明指导的《新·假面骑士》公开了全新预告，本乡猛/假面骑士由池松壮亮饰演，绿川ルリ子由浜边美波饰演。 《新·假面骑士》现已在日本上映。', 'create': '2023-03-23 19:10', 'pic': 'http://i0.hdslb.com/bfs/archive/a4250f41cafedcf479c673dc750fd5fbbf32456c.jpg', 'coins': 1280, 'duration': '1:21', 'badgepay': False, 'pts': 796635, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696448805', 'bvid': 'BV1Ym4y1k7US', 'typename': '预告·资讯', 'title': '超多新角色曝光！庵野秀明《新·假面骑士》追告，长泽雅美+竹野内丰+斋藤工等亮相', 'subtitle': '', 'play': 401109, 'review': 1211, 'video_review': 328, 'favorites': 2706, 'mid': 8465957, 'author': '乌鸦预告片', 'description': '假面骑士50周年纪念电影《新·假面骑士》追告新预告，解禁新卡司：竹野内丰、斋藤工、大森南朋、长泽雅美、本乡奏多、松坂桃李、市川实日子、仲村亨、安田显、上杉柊平、森山未來。庵野秀明编剧执导，池松壮亮、滨边美波、柄本佑、冢本晋也、手塚通、松尾铃木主演，3月17日已在日本上映。', 'create': '2023-03-23 20:05', 'pic': 'http://i2.hdslb.com/bfs/archive/8c888a97f8bbac545c9b08426267ed9024ce5f95.jpg', 'coins': 641, 'duration': '1:23', 'badgepay': False, 'pts': 656652, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738834737', 'bvid': 'BV1zk4y1t7W9', 'typename': '预告·资讯', 'title': '春分节气，大自然的奏鸣曲达到终极平衡，我们和风筝也在寻找平衡。', 'subtitle': '', 'play': 483541, 'review': 2570, 'video_review': 3491, 'favorites': 4533, 'mid': 506525525, 'author': 'Beast野兽派官方', 'description': '', 'create': '2023-03-21 09:07', 'pic': 'http://i0.hdslb.com/bfs/archive/cdd3c9eb7d972209b6f4043208a47f87954eb5ca.jpg', 'coins': 6789, 'duration': '2:43', 'badgepay': False, 'pts': 586301, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '353799145', 'bvid': 'BV1YX4y1Z7dz', 'typename': '预告·资讯', 'title': '电影《铃芽之旅》路演热度口碑双收 幕后纪录片公开新海诚谈创作初衷', 'subtitle': '', 'play': 136104, 'review': 796, 'video_review': 301, 'favorites': 4406, 'mid': 1176313847, 'author': '电影铃芽之旅', 'description': '', 'create': '2023-03-21 08:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b7c8eb3c1693b52a6a0599d47d04bb6c908a7d69.jpg', 'coins': 2095, 'duration': '7:04', 'badgepay': False, 'pts': 376870, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '396308624', 'bvid': 'BV1No4y1B7PW', 'typename': '预告·资讯', 'title': '仅5天睡眠不足体重就可增长近2斤', 'subtitle': '', 'play': 217298, 'review': 939, 'video_review': 141, 'favorites': 1604, 'mid': 72209046, 'author': '央视纪录', 'description': '在一项研究睡眠剥夺的实验中，志愿者的睡眠时间从9个小时被减少至5个小时，他们不仅正餐的食量变大了，平时吃的零食也增多了。研究人员发现，负责调节人们食量的激素——胃饥饿素和瘦素受到了影响。', 'create': '2023-03-21 11:16', 'pic': 'http://i2.hdslb.com/bfs/archive/cf4b975587e6e23fb92a76597eedf05e45b2375c.jpg', 'coins': 169, 'duration': '2:25', 'badgepay': False, 'pts': 370302, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311263143', 'bvid': 'BV1XP411d7jF', 'typename': '预告·资讯', 'title': '［热点］导演# 新海诚 中国行VLOG，全力以赴的“三年之约', 'subtitle': '', 'play': 120966, 'review': 158, 'video_review': 8, 'favorites': 1280, 'mid': 1529898523, 'author': '青年影音馆', 'description': '-', 'create': '2023-03-21 20:33', 'pic': 'http://i1.hdslb.com/bfs/archive/142803f8f785abfb30e5697d5141b5bbb0a1ac57.jpg', 'coins': 211, 'duration': '0:49', 'badgepay': False, 'pts': 207562, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951528668', 'bvid': 'BV15s4y1H74A', 'typename': '预告·资讯', 'title': '1080p 新 假面骑士电影片段 开场前两分钟', 'subtitle': '', 'play': 99296, 'review': 485, 'video_review': 318, 'favorites': 865, 'mid': 1194243551, 'author': '柴宝子SHIBA', 'description': 'https://www.youtube.com/watch?v=uydUqZFSyQI', 'create': '2023-03-25 18:17', 'pic': 'http://i0.hdslb.com/bfs/archive/50764df95c59ab85e2b353b2b5088baa6e77b693.jpg', 'coins': 93, 'duration': '3:02', 'badgepay': False, 'pts': 205306, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696431220', 'bvid': 'BV1Bm4y1k793', 'typename': '预告·资讯', 'title': '奔跑的小椅子和会说话的猫咪，《铃芽之旅》终极预告，电影明日正式上映！', 'subtitle': '', 'play': 92883, 'review': 614, 'video_review': 101, 'favorites': 503, 'mid': 67090174, 'author': '猫眼电影官方', 'description': '新海诚治愈系口碑佳片《铃芽之旅》曝光终极预告，一场梦幻绮丽的冒险即将启程，跟着铃芽、奔跑的三条腿小椅子和会说话的猫咪大臣一起，奔赴春之约！影片讲述了少女铃芽和自己喜欢的男孩并肩作战，在关闭灾难之门的历险的过程中完成了自我治愈与救赎的成长故事。此前首映礼和路演热度与口碑双收，被誉为“最好的新海诚”。影片将于明日上映，微博大V推荐度94%，B站评分9.8，预售火热进行中。', 'create': '2023-03-23 10:37', 'pic': 'http://i0.hdslb.com/bfs/archive/d362cdc13e283c7e624c20be490db675859ad8f1.jpg', 'coins': 155, 'duration': '2:03', 'badgepay': False, 'pts': 187800, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '526603372', 'bvid': 'BV1LM411g7oH', 'typename': '预告·资讯', 'title': '电影爱很美味｜被张含韵的超长忌口清单笑发财！！重度过敏体质真的这么离谱吗？', 'subtitle': '', 'play': 995285, 'review': 107, 'video_review': 20, 'favorites': 367, 'mid': 1703134198, 'author': '联瑞影业官方影视号', 'description': '', 'create': '2023-03-24 15:46', 'pic': 'http://i0.hdslb.com/bfs/archive/db9d200b840a1eb92028d49230e3ff37858cfd21.jpg', 'coins': 34, 'duration': '0:12', 'badgepay': False, 'pts': 165265, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>733634</v>
+        <v>2983337</v>
       </c>
       <c r="I107" t="n">
-        <v>590</v>
+        <v>11467</v>
       </c>
       <c r="J107" t="n">
-        <v>343</v>
+        <v>19619</v>
       </c>
       <c r="K107" t="n">
-        <v>516</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>科学·探索·自然</t>
+          <t>人文·历史</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>history</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>除演讲、网课、教程外的，科学探索自然纪录剧集或电影、预告、花絮、二创、5分钟以上纪录短片</t>
+          <t>除宣传片、影视剪辑外的，人文艺术历史纪录剧集或电影、预告、花絮、二创、5分钟以上纪录短片</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>/v/documentary/science(opens new window)</t>
+          <t>/v/documentary/history(opens new window)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>纪录片(主分区)</t>
+          <t>纪录片</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[{'aid': '822694533', 'bvid': 'BV1Bg4y1J7Nj', 'typename': '科学·探索·自然', 'title': '【纪录片】野犬家族 03', 'subtitle': '', 'play': 546079, 'review': 71, 'video_review': 222, 'favorites': 32, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '全球共有大约37种类似狐狸的犬科动物，分布在全球的各个地区。非洲野犬的群居性很强，族群对它们的生存意义重大，受伤的非洲野犬如果没有同伴在身边，哪怕伤势好转，也有可能伤心而死。鬃狼在巴西的甘蔗田里找到了新的栖息地，但秋季的收获令它们丧失了食物来源，因此幼崽死亡率很高。草原狐的栖息地面积大幅缩减，人们希望将部分草原狐转移到其它地区，扩大它们的栖息地面积。亚吉认为自己看到了已被宣告灭绝的日本狼，从此走上了寻狼之旅。由于狼的数量减少，欧洲的金豺数量大幅增加。有些野生犬科动物甚至在城市里安了家，比如赤狐、', 'create': '2023-03-21 18:30', 'pic': 'http://i2.hdslb.com/bfs/archive/976ddd04d6e410aeffcf98365535b12db8a99718.png', 'coins': 258, 'duration': '59:15', 'badgepay': False, 'pts': 98502, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737390'}, {'aid': '225981657', 'bvid': 'BV19b411o7Y4', 'typename': '科学·探索·自然', 'title': '【纪录片】超级装备 第二季 第2集 智领仁心', 'subtitle': '', 'play': 398212, 'review': 105, 'video_review': 110, 'favorites': 29, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '早晨七点半，复旦大学附属中山医院核医学科主管技师陈曙光早早来到医院，一场重要的医学检查正等待着他，而支撑这场检查的是一款全新的人体分子影像装备；一套先进的医疗装备成为罗艳萍的黄金搭档，它就是拥有中国原创智能推片机、核酸荧光染色结合三维立体分析等尖端技术的“太行”血液分析流水线。', 'create': '2023-03-23 18:30', 'pic': 'http://i2.hdslb.com/bfs/archive/fab1d0dc68fe49d13d17056f481057e82e9d832a.png', 'coins': 184, 'duration': '50:01', 'badgepay': False, 'pts': 90548, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740192'}, {'aid': '568819103', 'bvid': 'BV1Vv4y1j7Jv', 'typename': '科学·探索·自然', 'title': '【挤痘大师3】精彩看点14：切除15年的大囊肿，挤出满满一碗“香蕉泥”', 'subtitle': '', 'play': 65597, 'review': 65, 'video_review': 80, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '每周三18点准时更新', 'create': '2023-03-22 18:01', 'pic': 'http://i2.hdslb.com/bfs/archive/b87b9f97303ccaaffd94d6ae984091376fdb1115.jpg', 'coins': 22, 'duration': '3:02', 'badgepay': False, 'pts': 65458, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741523'}, {'aid': '438732870', 'bvid': 'BV15L411d7Dy', 'typename': '科学·探索·自然', 'title': '【央视】《大国建造》第二季【全5集 1080P+】', 'subtitle': '', 'play': 1467, 'review': 0, 'video_review': 3, 'favorites': 50, 'mid': 23774277, 'author': '某咕咕咕的搬运工', 'description': '央视\n以“探寻工程奇迹”为主线，选择最具标志性的建筑和工程，探秘更绿色、更科技、更智慧的建造，展现大国建造在推进中国式现代化中的中国智慧、中国方案与中国力量，并通过超级工程背后的凡人故事，礼赞新时代大国工匠在聚光成芒中所展现的踔厉奋发、勇毅前行的奋斗精神。', 'create': '2023-03-20 02:37', 'pic': 'http://i1.hdslb.com/bfs/archive/74cba78e0b705639a6bea3f3eb7ad255210bcfae.png', 'coins': 2, 'duration': '225:05', 'badgepay': False, 'pts': 1433, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696442931', 'bvid': 'BV1am4y1k765', 'typename': '科学·探索·自然', 'title': '被保护的港湾 第一季全十集 Port Protection', 'subtitle': '', 'play': 1412, 'review': 1, 'video_review': 0, 'favorites': 26, 'mid': 72647293, 'author': '我是全球焦点', 'description': 'https://shop581891081.taobao.com\r\n承接室内外广告设计、室内外写真喷绘打印与室内外广告安装', 'create': '2023-03-24 18:48', 'pic': 'http://i2.hdslb.com/bfs/archive/6a0e9a455c83751496eb3eca746b9340173c77a7.png', 'coins': 1, 'duration': '423:17', 'badgepay': False, 'pts': 1380, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993665931', 'bvid': 'BV1ex4y1P7Dw', 'typename': '科学·探索·自然', 'title': '阿拉斯加夺命之最 Alaskas Deadliest', 'subtitle': '', 'play': 1374, 'review': 0, 'video_review': 3, 'favorites': 29, 'mid': 72647293, 'author': '我是全球焦点', 'description': 'https://shop581891081.taobao.com\n承接室内外广告设计、室内外写真喷绘打印与室内外广告安装', 'create': '2023-03-21 18:57', 'pic': 'http://i0.hdslb.com/bfs/archive/236d0dcf81babf3c6e5b07b13823676afbef9868.png', 'coins': 2, 'duration': '88:24', 'badgepay': False, 'pts': 1344, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866535897', 'bvid': 'BV18V4y1X7HP', 'typename': '科学·探索·自然', 'title': '灾难的见证 第一季全六集 Witness to Disaster', 'subtitle': '', 'play': 1310, 'review': 0, 'video_review': 0, 'favorites': 43, 'mid': 72647293, 'author': '我是全球焦点', 'description': 'https://shop581891081.taobao.com\n承接室内外广告设计、室内外写真喷绘打印与室内外广告安装', 'create': '2023-03-25 19:08', 'pic': 'http://i1.hdslb.com/bfs/archive/1b6254ef239dfbef1463dd9b8357278b9cb2056b.png', 'coins': 1, 'duration': '264:24', 'badgepay': False, 'pts': 1286, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438802857', 'bvid': 'BV1iL411d7iZ', 'typename': '科学·探索·自然', 'title': '【央视】《走进滇西南生态秘境》【全5集 1080P+】', 'subtitle': '', 'play': 1215, 'review': 1, 'video_review': 0, 'favorites': 24, 'mid': 23774277, 'author': '某咕咕咕的搬运工', 'description': '央视\n中国版图西南的一片生态沃土，德宏傣族景颇族自治州，与缅甸山水相连，是各族人民和谐生活的家园，古时南方丝绸之路的要冲，文化融合的通道。这里有蜿蜒的河流，秘境的森林，最神奇的物种。德宏人民正不遗余力地守护着这片美丽之地，与所有生物共享自然的馈赠。', 'create': '2023-03-22 03:08', 'pic': 'http://i1.hdslb.com/bfs/archive/9819d902c95134ee81ab61db75094c80613044bc.png', 'coins': 2, 'duration': '24:15', 'badgepay': False, 'pts': 1199, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696481768', 'bvid': 'BV1Cm4y1k787', 'typename': '科学·探索·自然', 'title': '纪录片.致命猎手.S01E03.2020[片头][高清][英字]', 'subtitle': '', 'play': 1200, 'review': 1, 'video_review': 0, 'favorites': 2, 'mid': 13374324, 'author': '猛犸君侯', 'description': '【纪录片.致命猎手.Deadly.Hunters.S01.2020】大自然中每时每刻都在上演捕猎与逃生的生死游戏。利爪与速度，尖牙与毒液，生存与死亡，本片记述物竞天择的故事。\n全3集。微博：猛犸君侯', 'create': '2023-03-23 17:26', 'pic': 'http://i1.hdslb.com/bfs/archive/8bf91b0082420ec8ca496f9bed108dd6d2ede7c1.jpg', 'coins': 1, 'duration': '16:05', 'badgepay': False, 'pts': 1175, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908803258', 'bvid': 'BV16M4y167vf', 'typename': '科学·探索·自然', 'title': '【央视】《行走天下 草原》更新至7集【1080P+】', 'subtitle': '', 'play': 1051, 'review': 1, 'video_review': 3, 'favorites': 47, 'mid': 23774277, 'author': '某咕咕咕的搬运工', 'description': '央视\r\n“草原”是《行走天下》系列纪录片的第一季，以旅行体验者的视角展示和讲述中国六大草原，从东边的呼伦贝尔大草原到西边的伊犁草原，从南端的那曲高寒草原到北端的锡林郭勒草原，通过体验者深入现场和亲身经历，用独到的视角和语言将人们带入其境，真实、准确地表达在草原上的所见、所闻、所感，以此展现草原人独特的生活方式以及草原环境呈现出来的自然之美和生命张力。', 'create': '2023-03-22 02:54', 'pic': 'http://i1.hdslb.com/bfs/archive/776035a85055b2fdbe96d176c798ded87af07a69.png', 'coins': 3, 'duration': '175:06', 'badgepay': False, 'pts': 1019, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '823925665', 'bvid': 'BV1Wg4y1W7Cv', 'typename': '人文·历史', 'title': '指尖上的梦幻·光影', 'subtitle': '', 'play': 575747, 'review': 197, 'video_review': 212, 'favorites': 22, 'mid': 444935584, 'author': '梦幻西游电脑版', 'description': '《指尖上的梦幻》，是由梦幻西游团队携手《舌尖上的中国一》制作团队倾力打造，从传统文化视角洞悉游戏行业的系列纪录片。\n皮影戏，榫卯建筑，活字印刷，瓷器……匠人们的智慧结晶璀璨千年，光耀至今；梦幻西游根植于传统文化，以中华经典为滋养，同时也凭借自身的创新形式，为传统文化的传承与弘扬贡献着自己的力量。', 'create': '2023-03-24 18:00', 'pic': 'http://i0.hdslb.com/bfs/archive/6f2c902ef09f76af1ac6530815477f0f408193be.jpg', 'coins': 222, 'duration': '9:46', 'badgepay': False, 'pts': 573866, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741764'}, {'aid': '864755727', 'bvid': 'BV1p54y1A7VE', 'typename': '人文·历史', 'title': '【纪录片】被数学选中的人 第4集 抽象的巨人', 'subtitle': '', 'play': 93523, 'review': 82, 'video_review': 181, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '数学之美，似乎只有少数人才能感受，但其实不管你是否是那个被数学选中的人，数学之美都在潜移默化地影响、改变、塑造着你。数学存在的意义，从来不是成为一件艺术品，而是作为一种人类智慧指引我们前行的方向。如果被数学选中的人是一个集合的话，它与人类这个集合应该是一样大的。', 'create': '2023-03-25 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/c355d260358c649785b097f67cd03e324990037e.png', 'coins': 201, 'duration': '25:01', 'badgepay': False, 'pts': 86175, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737259'}, {'aid': '441421229', 'bvid': 'BV1ML411k7Sh', 'typename': '人文·历史', 'title': '一开门就发现12个被扒光的女孩儿 一段真实的缅北救人录音', 'subtitle': '', 'play': 38868, 'review': 142, 'video_review': 45, 'favorites': 196, 'mid': 73152299, 'author': '老白观影视', 'description': '', 'create': '2023-03-22 18:28', 'pic': 'http://i0.hdslb.com/bfs/archive/0025e945b57125aa72aff94c1fe1c43a74c718d0.jpg', 'coins': 56, 'duration': '4:14', 'badgepay': False, 'pts': 34905, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908859945', 'bvid': 'BV17M4y1B77G', 'typename': '人文·历史', 'title': '【纪录片】档案 67 纪念毛泽东东渡黄河75周年', 'subtitle': '', 'play': 15125, 'review': 6, 'video_review': 0, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '《档案》是一档国内首创并唯一拥有自主讲述类纪录片模式的品牌栏目，《档案》栏目依托历史档案的发掘和呈现，讲述历史事件，揭秘历史谜团，还原历史真相，通过对历史的分析与解读，引导观众建立正确的历史观，并在历史与现实的关联呼应中，启发人们对人生观、世界观、价值观的思考，从而实现对“真善美”主流价值观的传递。', 'create': '2023-03-21 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/f24aa40b00e5f46e2a03362d2dccd1e8dc527599.jpg', 'coins': 34, 'duration': '45:10', 'badgepay': False, 'pts': 14829, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741425'}, {'aid': '824148607', 'bvid': 'BV1eg4y1s75n', 'typename': '人文·历史', 'title': '《榜样7》 20230325', 'subtitle': '', 'play': 10434, 'review': 12, 'video_review': 4, 'favorites': 83, 'mid': 1828013600, 'author': '纪录片典藏', 'description': '网络\r\n1', 'create': '2023-03-26 19:12', 'pic': 'http://i1.hdslb.com/bfs/archive/9d7324925a72e692a4afc3dc63441e341ed230a0.png', 'coins': 10, 'duration': '93:30', 'badgepay': False, 'pts': 8476, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866356701', 'bvid': 'BV1xV4y1R7Pv', 'typename': '人文·历史', 'title': '《您好，110》第四季第十一集——薪火', 'subtitle': '', 'play': 3994, 'review': 1, 'video_review': 3, 'favorites': 1, 'mid': 20390404, 'author': '东南卫视', 'description': '筑牢忠诚警魂守“初心”，化解基层矛盾聚“民心”，守护百姓平安淬“匠心”，服务辖区群众倾“真心”。经年累月的工作中，才溪派出所始终坚持着这“四心”的理想信念，做辖区百姓的贴心人。在工作中，他们还为百姓做了哪些实事？今晚20:00《您好，110》第四季，看“人民的保护神”暖心出击！', 'create': '2023-03-21 21:45', 'pic': 'http://i2.hdslb.com/bfs/archive/275934044f42d140593b8ee13079fcf98c18cbae.jpg', 'coins': 5, 'duration': '20:01', 'badgepay': False, 'pts': 3852, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742235'}, {'aid': '568911025', 'bvid': 'BV1wv4y157cZ', 'typename': '人文·历史', 'title': '【纪录片】《一爿店》第七集——啡舍咖啡馆｜没有一个春天不会来临。', 'subtitle': '', 'play': 3415, 'review': 6, 'video_review': 12, 'favorites': 30, 'mid': 611957438, 'author': '未见制片所', 'description': '一个必要奢侈的天井里，\n一场恍若隔世的春光色。 \n-----------------------------------------------------------------------------------------\n《一爿店》城市采样系列纪录短片，每周四15:00，\n记录12家小店日常故事，轻盈治愈，5分钟*12集。\nbilibili&amp;微博搜“未见制片所”&amp;“一爿店”，视频号搜“未见WeSee”，欢迎来玩~\n喜欢纪录片的朋友欢迎后台私信入群，同好交流、周边抽奖等你~', 'create': '2023-03-23 15:00', 'pic': 'http://i2.hdslb.com/bfs/archive/6a34ffe1b6c78717ca4856bf6f249f408f8c58af.jpg', 'coins': 28, 'duration': '4:31', 'badgepay': False, 'pts': 3344, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '294014272', 'bvid': 'BV1QF411a7Z3', 'typename': '人文·历史', 'title': '【纪录片】流行档案第二季 12', 'subtitle': '', 'play': 3399, 'review': 11, 'video_review': 27, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '欧美流行乐坛超级明星幕后故事。', 'create': '2023-03-20 19:05', 'pic': 'http://i2.hdslb.com/bfs/archive/537424f3bad8e3f46b7e03be5901c7058dd4a13d.png', 'coins': 10, 'duration': '21:14', 'badgepay': False, 'pts': 3061, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep204231'}, {'aid': '441748287', 'bvid': 'BV1GL411S7x4', 'typename': '人文·历史', 'title': 'Following', 'subtitle': '', 'play': 2161, 'review': 6, 'video_review': 0, 'favorites': 63, 'mid': 4357864, 'author': '羲北偏北', 'description': '网络', 'create': '2023-03-26 17:34', 'pic': 'http://i2.hdslb.com/bfs/archive/d73d2f2b108f44e71ae8eb98f879cc290a06cae5.jpg', 'coins': 25, 'duration': '70:11', 'badgepay': False, 'pts': 2129, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '951470530', 'bvid': 'BV1ms4y1n7w2', 'typename': '人文·历史', 'title': '天宫TV | 走！我带你去看这世界的山和海', 'subtitle': '', 'play': 1916, 'review': 13, 'video_review': 5, 'favorites': 17, 'mid': 496261881, 'author': 'CNSA中国航天文化', 'description': '如果你还没有试过跨越山和大海，让中国空间站带着你去看看这世界的山和海，希望这俯瞰地球美景的视频能够给予你出发的勇气和动力，山河美好，值得你我不断前行。\n\n载人航天新闻宣传中心出品\n编辑/刘泽康\n来源：中国载人航天工程办公室', 'create': '2023-03-22 09:32', 'pic': 'http://i2.hdslb.com/bfs/archive/7575c0cfa5c9325bdc15df613cc57a6ccd358f8f.jpg', 'coins': 21, 'duration': '1:46', 'badgepay': False, 'pts': 1872, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1018917</v>
+        <v>748582</v>
       </c>
       <c r="I108" t="n">
-        <v>476</v>
+        <v>612</v>
       </c>
       <c r="J108" t="n">
-        <v>282</v>
+        <v>412</v>
       </c>
       <c r="K108" t="n">
-        <v>729</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>军事</t>
+          <t>科学·探索·自然</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>military</t>
+          <t>science</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>除时政军事新闻外的，军事纪录剧集或电影、预告、花絮、二创、5分钟以上纪录短片</t>
+          <t>除演讲、网课、教程外的，科学探索自然纪录剧集或电影、预告、花絮、二创、5分钟以上纪录短片</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>/v/documentary/military(opens new window)</t>
+          <t>/v/documentary/science(opens new window)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>纪录片(主分区)</t>
+          <t>纪录片</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[{'aid': '738887116', 'bvid': 'BV1dk4y1t7tf', 'typename': '军事', 'title': '9名中国人身死，叛军声称是瓦格纳所为，中国需要自己的安保公司', 'subtitle': '', 'play': 44103, 'review': 999, 'video_review': 302, 'favorites': 199, 'mid': 1251210938, 'author': '瞩望云霄', 'description': '这两天，中非共和国一座中企经营的金矿传来噩耗，工仍9名中国员工被残忍杀害。当地政府认为，施暴者是当地叛军组织爱国者变革联盟。', 'create': '2023-03-22 16:31', 'pic': 'http://i0.hdslb.com/bfs/archive/69293dd1e14a0cca36548bf57db260c7adb76765.jpg', 'coins': 52, 'duration': '4:51', 'badgepay': False, 'pts': 42914, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696234309', 'bvid': 'BV1N24y147nv', 'typename': '军事', 'title': '【军武零距离 4K50P官方增强版】新主持 新战法 开启新年度首次实弹战斗射击考核', 'subtitle': '', 'play': 24106, 'review': 187, 'video_review': 762, 'favorites': 322, 'mid': 415200463, 'author': '军迷天花板杰哥', 'description': '', 'create': '2023-03-21 00:58', 'pic': 'http://i1.hdslb.com/bfs/archive/f71ec5e645409aa4a4276c01705a8e4af1ec7114.jpg', 'coins': 302, 'duration': '27:01', 'badgepay': False, 'pts': 23242, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653984293', 'bvid': 'BV1EY4y1Q7Nq', 'typename': '军事', 'title': '印度加入制裁俄罗斯，普京“向东看”遭到重击，只能寄希望于中国', 'subtitle': '', 'play': 21539, 'review': 241, 'video_review': 181, 'favorites': 48, 'mid': 1251210938, 'author': '瞩望云霄', 'description': '印度加入制裁俄罗斯普京向东看的战略遭到重击他们现在只能寄希望于中国。', 'create': '2023-03-23 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/2a342e1ad09336e273cbdec56287eae573642497.jpg', 'coins': 24, 'duration': '4:44', 'badgepay': False, 'pts': 20094, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311316017', 'bvid': 'BV1uP411o7AY', 'typename': '军事', 'title': '特别军事行动！2023年3月20日纪实', 'subtitle': '', 'play': 17783, 'review': 85, 'video_review': 80, 'favorites': 106, 'mid': 501247999, 'author': 'RT今日俄罗斯', 'description': '咕...咕咕？', 'create': '2023-03-21 21:09', 'pic': 'http://i0.hdslb.com/bfs/archive/a5c518dd34a1a365b93a773a717d6abf1edbe3a0.jpg', 'coins': 133, 'duration': '2:24', 'badgepay': False, 'pts': 17332, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781374511', 'bvid': 'BV1924y1E7eC', 'typename': '军事', 'title': '寡头拒绝捐款，俄罗斯更大的危机不在战场，而是国内法治和公平', 'subtitle': '', 'play': 14535, 'review': 197, 'video_review': 131, 'favorites': 46, 'mid': 1251210938, 'author': '瞩望云霄', 'description': '在俄乌冲突爆发一周年之后，俄乌在巴赫穆特的交战进入白热化。', 'create': '2023-03-21 19:13', 'pic': 'http://i0.hdslb.com/bfs/archive/8f56a58fe1673e065e0c7f135d5a466e1bb4648a.jpg', 'coins': 45, 'duration': '6:03', 'badgepay': False, 'pts': 14083, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909008036', 'bvid': 'BV1QM4y1B79T', 'typename': '军事', 'title': '特别军事行动！2023年3月22日纪实', 'subtitle': '', 'play': 14306, 'review': 81, 'video_review': 122, 'favorites': 100, 'mid': 501247999, 'author': 'RT今日俄罗斯', 'description': '', 'create': '2023-03-24 08:26', 'pic': 'http://i0.hdslb.com/bfs/archive/dddf8466dd8ee49a8975d980dc7ba24cdab9aa38.jpg', 'coins': 130, 'duration': '2:40', 'badgepay': False, 'pts': 13435, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908781348', 'bvid': 'BV1sM4y167z3', 'typename': '军事', 'title': '国际法院宣布逮捕普京，要求123个国家配合抓捕，俄做了什么？', 'subtitle': '', 'play': 12794, 'review': 228, 'video_review': 146, 'favorites': 46, 'mid': 1899561635, 'author': '焦点防务', 'description': '海牙国际法庭发出了逮捕令，其实我一说这个逮捕令大家都知道很多人都知道最近最热门的一个话题就是逮捕普京。', 'create': '2023-03-21 09:55', 'pic': 'http://i1.hdslb.com/bfs/archive/4a666bd2b80c24c2f621a7fafcddc03399431bac.jpg', 'coins': 107, 'duration': '6:39', 'badgepay': False, 'pts': 12493, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696553427', 'bvid': 'BV1Ym4y167tE', 'typename': '军事', 'title': '印军利用美国卫星对抗解放军，却有26条巡逻线被断，发生了什么？', 'subtitle': '', 'play': 12853, 'review': 33, 'video_review': 50, 'favorites': 39, 'mid': 1251210938, 'author': '瞩望云霄', 'description': '最近美国参议院刚刚通过了将中国藏南地区划给印度的议案。', 'create': '2023-03-25 17:36', 'pic': 'http://i2.hdslb.com/bfs/archive/039bbe8fecc8634975910f79d4789179496187fa.jpg', 'coins': 35, 'duration': '5:15', 'badgepay': False, 'pts': 12444, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908848474', 'bvid': 'BV1yM4y167JU', 'typename': '军事', 'title': '近距离感受工兵实弹现场', 'subtitle': '', 'play': 11476, 'review': 20, 'video_review': 2, 'favorites': 26, 'mid': 1735615743, 'author': '东部战区', 'description': '近距离感受工兵实弹现场（作者：黄浩、邹坤宇、付祚铭  编辑：冯冲浪）', 'create': '2023-03-21 19:51', 'pic': 'http://i2.hdslb.com/bfs/archive/35ec4aff77cc41ae6f79eee961e9076b996cfeac.jpg', 'coins': 16, 'duration': '0:36', 'badgepay': False, 'pts': 11369, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441358674', 'bvid': 'BV1SL411r7X3', 'typename': '军事', 'title': '中国不表态，就是在考虑向俄罗斯提供致命的援助？西方人害怕了', 'subtitle': '', 'play': 12323, 'review': 22, 'video_review': 32, 'favorites': 17, 'mid': 1048038251, 'author': '包明说', 'description': '中俄保持良好的外交关系，让西方的这些专家们胆战心惊。', 'create': '2023-03-21 17:23', 'pic': 'http://i2.hdslb.com/bfs/archive/a71e2f1ff2076d230e893a3c9a616421f162f141.jpg', 'coins': 9, 'duration': '4:12', 'badgepay': False, 'pts': 11232, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '822694533', 'bvid': 'BV1Bg4y1J7Nj', 'typename': '科学·探索·自然', 'title': '【纪录片】野犬家族 03', 'subtitle': '', 'play': 549503, 'review': 71, 'video_review': 224, 'favorites': 32, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '全球共有大约37种类似狐狸的犬科动物，分布在全球的各个地区。非洲野犬的群居性很强，族群对它们的生存意义重大，受伤的非洲野犬如果没有同伴在身边，哪怕伤势好转，也有可能伤心而死。鬃狼在巴西的甘蔗田里找到了新的栖息地，但秋季的收获令它们丧失了食物来源，因此幼崽死亡率很高。草原狐的栖息地面积大幅缩减，人们希望将部分草原狐转移到其它地区，扩大它们的栖息地面积。亚吉认为自己看到了已被宣告灭绝的日本狼，从此走上了寻狼之旅。由于狼的数量减少，欧洲的金豺数量大幅增加。有些野生犬科动物甚至在城市里安了家，比如赤狐、', 'create': '2023-03-21 18:30', 'pic': 'http://i2.hdslb.com/bfs/archive/976ddd04d6e410aeffcf98365535b12db8a99718.png', 'coins': 262, 'duration': '59:15', 'badgepay': False, 'pts': 98698, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep737390'}, {'aid': '225981657', 'bvid': 'BV19b411o7Y4', 'typename': '科学·探索·自然', 'title': '【纪录片】超级装备 第二季 第2集 智领仁心', 'subtitle': '', 'play': 400683, 'review': 106, 'video_review': 111, 'favorites': 29, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '早晨七点半，复旦大学附属中山医院核医学科主管技师陈曙光早早来到医院，一场重要的医学检查正等待着他，而支撑这场检查的是一款全新的人体分子影像装备；一套先进的医疗装备成为罗艳萍的黄金搭档，它就是拥有中国原创智能推片机、核酸荧光染色结合三维立体分析等尖端技术的“太行”血液分析流水线。', 'create': '2023-03-23 18:30', 'pic': 'http://i2.hdslb.com/bfs/archive/fab1d0dc68fe49d13d17056f481057e82e9d832a.png', 'coins': 184, 'duration': '50:01', 'badgepay': False, 'pts': 90763, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740192'}, {'aid': '568819103', 'bvid': 'BV1Vv4y1j7Jv', 'typename': '科学·探索·自然', 'title': '【挤痘大师3】精彩看点14：切除15年的大囊肿，挤出满满一碗“香蕉泥”', 'subtitle': '', 'play': 65728, 'review': 65, 'video_review': 80, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '每周三18点准时更新', 'create': '2023-03-22 18:01', 'pic': 'http://i2.hdslb.com/bfs/archive/b87b9f97303ccaaffd94d6ae984091376fdb1115.jpg', 'coins': 22, 'duration': '3:02', 'badgepay': False, 'pts': 65590, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741523'}, {'aid': '696442931', 'bvid': 'BV1am4y1k765', 'typename': '科学·探索·自然', 'title': '被保护的港湾 第一季全十集 Port Protection', 'subtitle': '', 'play': 1428, 'review': 1, 'video_review': 0, 'favorites': 27, 'mid': 72647293, 'author': '我是全球焦点', 'description': 'https://shop581891081.taobao.com\r\n承接室内外广告设计、室内外写真喷绘打印与室内外广告安装', 'create': '2023-03-24 18:48', 'pic': 'http://i2.hdslb.com/bfs/archive/6a0e9a455c83751496eb3eca746b9340173c77a7.png', 'coins': 1, 'duration': '423:17', 'badgepay': False, 'pts': 1394, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '993665931', 'bvid': 'BV1ex4y1P7Dw', 'typename': '科学·探索·自然', 'title': '阿拉斯加夺命之最 Alaskas Deadliest', 'subtitle': '', 'play': 1380, 'review': 0, 'video_review': 3, 'favorites': 30, 'mid': 72647293, 'author': '我是全球焦点', 'description': 'https://shop581891081.taobao.com\n承接室内外广告设计、室内外写真喷绘打印与室内外广告安装', 'create': '2023-03-21 18:57', 'pic': 'http://i0.hdslb.com/bfs/archive/236d0dcf81babf3c6e5b07b13823676afbef9868.png', 'coins': 2, 'duration': '88:24', 'badgepay': False, 'pts': 1349, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '866535897', 'bvid': 'BV18V4y1X7HP', 'typename': '科学·探索·自然', 'title': '灾难的见证 第一季全六集 Witness to Disaster', 'subtitle': '', 'play': 1337, 'review': 0, 'video_review': 0, 'favorites': 45, 'mid': 72647293, 'author': '我是全球焦点', 'description': 'https://shop581891081.taobao.com\n承接室内外广告设计、室内外写真喷绘打印与室内外广告安装', 'create': '2023-03-25 19:08', 'pic': 'http://i1.hdslb.com/bfs/archive/1b6254ef239dfbef1463dd9b8357278b9cb2056b.png', 'coins': 1, 'duration': '264:24', 'badgepay': False, 'pts': 1310, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '438802857', 'bvid': 'BV1iL411d7iZ', 'typename': '科学·探索·自然', 'title': '【央视】《走进滇西南生态秘境》【全5集 1080P+】', 'subtitle': '', 'play': 1218, 'review': 1, 'video_review': 0, 'favorites': 24, 'mid': 23774277, 'author': '某咕咕咕的搬运工', 'description': '央视\n中国版图西南的一片生态沃土，德宏傣族景颇族自治州，与缅甸山水相连，是各族人民和谐生活的家园，古时南方丝绸之路的要冲，文化融合的通道。这里有蜿蜒的河流，秘境的森林，最神奇的物种。德宏人民正不遗余力地守护着这片美丽之地，与所有生物共享自然的馈赠。', 'create': '2023-03-22 03:08', 'pic': 'http://i1.hdslb.com/bfs/archive/9819d902c95134ee81ab61db75094c80613044bc.png', 'coins': 2, 'duration': '24:15', 'badgepay': False, 'pts': 1202, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696481768', 'bvid': 'BV1Cm4y1k787', 'typename': '科学·探索·自然', 'title': '纪录片.致命猎手.S01E03.2020[片头][高清][英字]', 'subtitle': '', 'play': 1205, 'review': 1, 'video_review': 0, 'favorites': 2, 'mid': 13374324, 'author': '猛犸君侯', 'description': '【纪录片.致命猎手.Deadly.Hunters.S01.2020】大自然中每时每刻都在上演捕猎与逃生的生死游戏。利爪与速度，尖牙与毒液，生存与死亡，本片记述物竞天择的故事。\n全3集。微博：猛犸君侯', 'create': '2023-03-23 17:26', 'pic': 'http://i1.hdslb.com/bfs/archive/8bf91b0082420ec8ca496f9bed108dd6d2ede7c1.jpg', 'coins': 1, 'duration': '16:05', 'badgepay': False, 'pts': 1177, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908803258', 'bvid': 'BV16M4y167vf', 'typename': '科学·探索·自然', 'title': '【央视】《行走天下 草原》更新至7集【1080P+】', 'subtitle': '', 'play': 1088, 'review': 1, 'video_review': 3, 'favorites': 50, 'mid': 23774277, 'author': '某咕咕咕的搬运工', 'description': '央视\r\n“草原”是《行走天下》系列纪录片的第一季，以旅行体验者的视角展示和讲述中国六大草原，从东边的呼伦贝尔大草原到西边的伊犁草原，从南端的那曲高寒草原到北端的锡林郭勒草原，通过体验者深入现场和亲身经历，用独到的视角和语言将人们带入其境，真实、准确地表达在草原上的所见、所闻、所感，以此展现草原人独特的生活方式以及草原环境呈现出来的自然之美和生命张力。', 'create': '2023-03-22 02:54', 'pic': 'http://i1.hdslb.com/bfs/archive/776035a85055b2fdbe96d176c798ded87af07a69.png', 'coins': 3, 'duration': '175:06', 'badgepay': False, 'pts': 1050, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>185818</v>
+        <v>1023570</v>
       </c>
       <c r="I109" t="n">
-        <v>853</v>
+        <v>478</v>
       </c>
       <c r="J109" t="n">
-        <v>949</v>
+        <v>239</v>
       </c>
       <c r="K109" t="n">
-        <v>541</v>
+        <v>729</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>社会·美食·旅行</t>
+          <t>军事</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>travel</t>
+          <t>military</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>除VLOG、风光摄影外的，社会美食旅行纪录剧集或电影、预告、花絮、二创、5分钟以上纪录短片</t>
+          <t>除时政军事新闻外的，军事纪录剧集或电影、预告、花絮、二创、5分钟以上纪录短片</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>/v/documentary/travel</t>
+          <t>/v/documentary/military(opens new window)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>纪录片(主分区)</t>
+          <t>纪录片</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[{'aid': '738975969', 'bvid': 'BV1Vk4y1b71h', 'typename': '社会·美食·旅行', 'title': '第5集 体面提货点', 'subtitle': '', 'play': 871262, 'review': 240, 'video_review': 2002, 'favorites': 20, 'mid': 3493129965537841, 'author': '这货哪来的', 'description': '由《人生一串》原班人马打造，淘宝和方寸印象出品的《这货哪来的》是国内首档聚焦小生意人买卖门道和赛博烟火气的纪录片，本片将镜头伸向网页背后的中国，展现中国制造的视觉奇观和手艺情怀，以最富有人味的视角讲述最市井的小本买卖，展现“人造万物、货见众生”。', 'create': '2023-03-22 20:00', 'pic': 'http://i0.hdslb.com/bfs/archive/3c4576b793b1b84261f505bf5404b316935a788c.jpg', 'coins': 1847, 'duration': '60:00', 'badgepay': False, 'pts': 593644, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740397'}, {'aid': '738175262', 'bvid': 'BV1cD4y1u7y3', 'typename': '社会·美食·旅行', 'title': '【纪录片】Top Gear 第33季 02 超跑之旅', 'subtitle': '', 'play': 559565, 'review': 145, 'video_review': 1690, 'favorites': 23, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '说到超级跑车，谈及的往往都是惊人的数字，如动力、速度、售价等。但主持人们认为苍白无聊的数字并不能代表超级跑车的全部，重点应在于它为驾驶者带来的体验。要想测试哪款超级跑车能带来最棒体验，还有什么地方比这个国家更适合呢。它拥有风景优美的公路、丰富的汽车历史传承，最重要的是，有不限速的高速公路。是的，我们说的就是德国。 ', 'create': '2023-03-24 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/f053ec0ead2c806f255e1c98b5ae15b87892c7dd.png', 'coins': 714, 'duration': '59:30', 'badgepay': False, 'pts': 334100, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740589'}, {'aid': '267284271', 'bvid': 'BV1kY411Y7rY', 'typename': '社会·美食·旅行', 'title': '【纪录片】古怪食物 第九季 03 南方烧烤之旅', 'subtitle': '', 'play': 636446, 'review': 20, 'video_review': 49, 'favorites': 31, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '这是一趟终极旅程，跨越佐治亚洲，北卡罗来纳州以及南卡罗来纳州，这三个南方州在烤肉的历史上都占有一席地位。安德鲁·席莫要前往一家餐厅，它结合了许多州以及地区的风格，可以展现出最为丰富的烤肉文化。这次，他也邀请了好友丹尼尔·韦翰一同相会，解说南方烤肉的悠久历史。美味烤肉的做法简单，但一点都不轻松，需要花费很多时间让肉吸收烟熏的风味，进而烹成各种口味的烤肉。佐治亚洲最经典的烤肉料理就是猪肩肉以及火腿，但这还不是福克斯兄弟烧烤店最出名的菜式。', 'create': '2023-03-21 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/33ab8c2a2f16c8fb5ad567eba4d64db404d80197.jpg', 'coins': 185, 'duration': '40:40', 'badgepay': False, 'pts': 209988, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep736570'}, {'aid': '526305495', 'bvid': 'BV1uM411p7Zr', 'typename': '社会·美食·旅行', 'title': '【纪录片】这就是中国 第180集 从“北溪”事件谈起', 'subtitle': '', 'play': 137807, 'review': 137, 'video_review': 895, 'favorites': 5, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '普利策奖得主、美国资深调查记者西摩·赫什披露了美国总统拜登策划炸毁“北溪”管道的内幕，在世界范围内掀起了轩然大波。', 'create': '2023-03-21 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/ceb919df88476ba4e6f9675456d9c74b4b31d86a.jpg', 'coins': 1121, 'duration': '41:36', 'badgepay': False, 'pts': 132329, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741435'}, {'aid': '780826448', 'bvid': 'BV1k24y1g7RN', 'typename': '社会·美食·旅行', 'title': '【纪录片】无穷之路2 无价之保 第9集 垃圾变宝', 'subtitle': '', 'play': 124812, 'review': 70, 'video_review': 45, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '每年中国产生数以亿吨计的城市垃圾，以“百年商埠”闻名的广西宾阳县也面临垃圾围城的困境，一间大型央企想出解决方法，将垃圾变宝，直接转化成为水泥源料。一个全球最大的“城市有机垃圾综合处理项目”亦于广东诞生，技术的突破令含水量极高极难再用的厨余垃圾以及地沟油，可以变成清洁能源。', 'create': '2023-03-21 00:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c53017438ca6cc7c318e644d0fd3cbff62eb5adc.png', 'coins': 110, 'duration': '21:50', 'badgepay': False, 'pts': 123748, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep732389'}, {'aid': '819762701', 'bvid': 'BV1AG4y1L7SE', 'typename': '社会·美食·旅行', 'title': '【纪录片】挤痘大师 第三季 第8集：奇怪的疤痕', 'subtitle': '', 'play': 330106, 'review': 106, 'video_review': 1048, 'favorites': 14, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '46岁的詹姆斯来自于新泽西州的米尔维尔，他的前额长了一颗大肿块，大约有高尔夫球那么大，质感是软软的，但也有一定的紧实度。这颗肿块大约是在15年前长出来的，一开始很小，他有些担心，去问过诊所的医生，医生认为这是脂肪组织堆积，没有必要切除，因为疤痕可能会比原本的小肿块还明显。但是五六年前，肿块突然变大了三倍，而且正慢慢的往脸部移动，越来越靠近眼窝。他每天不自觉地擦眼睛，其实是在挤压这颗肿块。他也不想参加很多活动，因为害怕引起别人的关注而感觉难堪。詹姆斯的家人非常希望他这块心病能得到治疗，让他重新找回', 'create': '2023-03-22 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b89e5ee4a2ee60d614b9eaf43d2da31de466a5a0.png', 'coins': 147, 'duration': '43:31', 'badgepay': False, 'pts': 123703, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep719165'}, {'aid': '866584847', 'bvid': 'BV1RV4y1X72K', 'typename': '社会·美食·旅行', 'title': '【守护系列番外之我是检察官】01 万万没想到', 'subtitle': '', 'play': 437318, 'review': 399, 'video_review': 1977, 'favorites': 25, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '男子转账999请女同事帮忙喝酒，趁其酒醉实施强奸，却声称对方是自愿的；男子以同一手法伪造交通事故碰瓷29次，以此骗取保险理赔费用。', 'create': '2023-03-24 19:30', 'pic': 'http://i1.hdslb.com/bfs/archive/576619edb4b34f94c628068b367a3a8b9027279f.png', 'coins': 960, 'duration': '32:19', 'badgepay': False, 'pts': 92444, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742688'}, {'aid': '526553812', 'bvid': 'BV13M411g7bt', 'typename': '社会·美食·旅行', 'title': '【守护系列番外之我是检察官】第1集预告：万万没想到', 'subtitle': '', 'play': 73877, 'review': 236, 'video_review': 109, 'favorites': 4, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '守护系列番外之《我是检察官》第1集将于3月24日19:30正式上线', 'create': '2023-03-24 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/5c2c070feca69e04510dd338fc103e071768ec8f.jpg', 'coins': 193, 'duration': '1:12', 'badgepay': False, 'pts': 41847, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742341'}, {'aid': '222325626', 'bvid': 'BV1Q8411N7Fc', 'typename': '社会·美食·旅行', 'title': '【纪录片】热血兽医师 第六季 第11集：长瘤的法国斗牛犬', 'subtitle': '', 'play': 41042, 'review': 5, 'video_review': 11, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '可可是一只法国斗牛犬，喜欢玩耍，总是折腾个不停。然而有一天它的脖子肿了一个大包，并且十分坚硬，担心的主人带着它来问兽医杰夫。可可的脸因为逐渐膨大的肿包而变形，杰夫医生认为比起癌症而言更可能是感染引起的肿胀，但也不能排除是癌症的可能，引起肿包的原因仍需要进一步确定。内格罗是一只黑色的兔子，从昨天晚上开始一点东西都不吃，甚至完全不想动，和平时的它完全不一样。在X光片下，它的胃有一些膨胀，似乎被毛发给堵住了。', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/16a096c5a04bce4db6e8ddc11aaac97fe404479f.png', 'coins': 17, 'duration': '46:11', 'badgepay': False, 'pts': 40869, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep719156'}, {'aid': '526261552', 'bvid': 'BV1KM411p7ux', 'typename': '社会·美食·旅行', 'title': '【Top Gear】第33季 看点2-2：三大迷你车出场！一辆比一辆惊艳', 'subtitle': '', 'play': 36545, 'review': 50, 'video_review': 37, 'favorites': 1, 'mid': 203389736, 'author': 'TopGear', 'description': '《Top Gear 第33季》正片已上线', 'create': '2023-03-24 20:06', 'pic': 'http://i0.hdslb.com/bfs/archive/1bdee3d5c2294830c4e44eba0dcd4a132aceddb6.jpg', 'coins': 16, 'duration': '4:05', 'badgepay': False, 'pts': 36420, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741667'}]</t>
+          <t>[{'aid': '738887116', 'bvid': 'BV1dk4y1t7tf', 'typename': '军事', 'title': '9名中国人身死，叛军声称是瓦格纳所为，中国需要自己的安保公司', 'subtitle': '', 'play': 45135, 'review': 1028, 'video_review': 317, 'favorites': 209, 'mid': 1251210938, 'author': '瞩望云霄', 'description': '这两天，中非共和国一座中企经营的金矿传来噩耗，工仍9名中国员工被残忍杀害。当地政府认为，施暴者是当地叛军组织爱国者变革联盟。', 'create': '2023-03-22 16:31', 'pic': 'http://i0.hdslb.com/bfs/archive/69293dd1e14a0cca36548bf57db260c7adb76765.jpg', 'coins': 54, 'duration': '4:51', 'badgepay': False, 'pts': 43901, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696234309', 'bvid': 'BV1N24y147nv', 'typename': '军事', 'title': '【军武零距离 4K50P官方增强版】新主持 新战法 开启新年度首次实弹战斗射击考核', 'subtitle': '', 'play': 24386, 'review': 187, 'video_review': 762, 'favorites': 322, 'mid': 415200463, 'author': '军迷天花板杰哥', 'description': '', 'create': '2023-03-21 00:58', 'pic': 'http://i1.hdslb.com/bfs/archive/f71ec5e645409aa4a4276c01705a8e4af1ec7114.jpg', 'coins': 304, 'duration': '27:01', 'badgepay': False, 'pts': 23493, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '653984293', 'bvid': 'BV1EY4y1Q7Nq', 'typename': '军事', 'title': '印度加入制裁俄罗斯，普京“向东看”遭到重击，只能寄希望于中国', 'subtitle': '', 'play': 21775, 'review': 211, 'video_review': 178, 'favorites': 48, 'mid': 1251210938, 'author': '瞩望云霄', 'description': '印度加入制裁俄罗斯普京向东看的战略遭到重击他们现在只能寄希望于中国。', 'create': '2023-03-23 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/2a342e1ad09336e273cbdec56287eae573642497.jpg', 'coins': 24, 'duration': '4:44', 'badgepay': False, 'pts': 20291, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '311316017', 'bvid': 'BV1uP411o7AY', 'typename': '军事', 'title': '特别军事行动！2023年3月20日纪实', 'subtitle': '', 'play': 17821, 'review': 85, 'video_review': 80, 'favorites': 106, 'mid': 501247999, 'author': 'RT今日俄罗斯', 'description': '咕...咕咕？', 'create': '2023-03-21 21:09', 'pic': 'http://i0.hdslb.com/bfs/archive/a5c518dd34a1a365b93a773a717d6abf1edbe3a0.jpg', 'coins': 133, 'duration': '2:24', 'badgepay': False, 'pts': 17365, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '781374511', 'bvid': 'BV1924y1E7eC', 'typename': '军事', 'title': '寡头拒绝捐款，俄罗斯更大的危机不在战场，而是国内法治和公平', 'subtitle': '', 'play': 14762, 'review': 201, 'video_review': 136, 'favorites': 46, 'mid': 1251210938, 'author': '瞩望云霄', 'description': '在俄乌冲突爆发一周年之后，俄乌在巴赫穆特的交战进入白热化。', 'create': '2023-03-21 19:13', 'pic': 'http://i0.hdslb.com/bfs/archive/8f56a58fe1673e065e0c7f135d5a466e1bb4648a.jpg', 'coins': 45, 'duration': '6:03', 'badgepay': False, 'pts': 14283, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '909008036', 'bvid': 'BV1QM4y1B79T', 'typename': '军事', 'title': '特别军事行动！2023年3月22日纪实', 'subtitle': '', 'play': 14587, 'review': 82, 'video_review': 122, 'favorites': 103, 'mid': 501247999, 'author': 'RT今日俄罗斯', 'description': '', 'create': '2023-03-24 08:26', 'pic': 'http://i0.hdslb.com/bfs/archive/dddf8466dd8ee49a8975d980dc7ba24cdab9aa38.jpg', 'coins': 130, 'duration': '2:40', 'badgepay': False, 'pts': 13664, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696553427', 'bvid': 'BV1Ym4y167tE', 'typename': '军事', 'title': '印军利用美国卫星对抗解放军，却有26条巡逻线被断，发生了什么？', 'subtitle': '', 'play': 13497, 'review': 36, 'video_review': 50, 'favorites': 39, 'mid': 1251210938, 'author': '瞩望云霄', 'description': '最近美国参议院刚刚通过了将中国藏南地区划给印度的议案。', 'create': '2023-03-25 17:36', 'pic': 'http://i2.hdslb.com/bfs/archive/039bbe8fecc8634975910f79d4789179496187fa.jpg', 'coins': 35, 'duration': '5:15', 'badgepay': False, 'pts': 13048, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '908781348', 'bvid': 'BV1sM4y167z3', 'typename': '军事', 'title': '国际法院宣布逮捕普京，要求123个国家配合抓捕，俄做了什么？', 'subtitle': '', 'play': 12865, 'review': 230, 'video_review': 146, 'favorites': 47, 'mid': 1899561635, 'author': '焦点防务', 'description': '海牙国际法庭发出了逮捕令，其实我一说这个逮捕令大家都知道很多人都知道最近最热门的一个话题就是逮捕普京。', 'create': '2023-03-21 09:55', 'pic': 'http://i1.hdslb.com/bfs/archive/4a666bd2b80c24c2f621a7fafcddc03399431bac.jpg', 'coins': 109, 'duration': '6:39', 'badgepay': False, 'pts': 12554, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441358674', 'bvid': 'BV1SL411r7X3', 'typename': '军事', 'title': '中国不表态，就是在考虑向俄罗斯提供致命的援助？西方人害怕了', 'subtitle': '', 'play': 12646, 'review': 22, 'video_review': 32, 'favorites': 17, 'mid': 1048038251, 'author': '包明说', 'description': '中俄保持良好的外交关系，让西方的这些专家们胆战心惊。', 'create': '2023-03-21 17:23', 'pic': 'http://i2.hdslb.com/bfs/archive/a71e2f1ff2076d230e893a3c9a616421f162f141.jpg', 'coins': 9, 'duration': '4:12', 'badgepay': False, 'pts': 11542, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '569129285', 'bvid': 'BV1qv4y1G75w', 'typename': '军事', 'title': '70岁的高龄，俄罗斯将T55坦克送上乌克兰战场，真的快撑不住了？', 'subtitle': '', 'play': 12116, 'review': 231, 'video_review': 203, 'favorites': 24, 'mid': 1251210938, 'author': '瞩望云霄', 'description': '70岁的高龄，俄罗斯将T55坦克送上乌克兰战场，真的快撑不住了？', 'create': '2023-03-26 17:09', 'pic': 'http://i2.hdslb.com/bfs/archive/553965e395a6cc7a8f27517332cdeca86a0dee16.jpg', 'coins': 20, 'duration': '4:44', 'badgepay': False, 'pts': 11503, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>3248780</v>
+        <v>189590</v>
       </c>
       <c r="I110" t="n">
-        <v>5310</v>
+        <v>863</v>
       </c>
       <c r="J110" t="n">
-        <v>123</v>
+        <v>961</v>
       </c>
       <c r="K110" t="n">
-        <v>331</v>
+        <v>541</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>华语电影</t>
+          <t>社会·美食·旅行</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>chinese</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>travel</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>除VLOG、风光摄影外的，社会美食旅行纪录剧集或电影、预告、花絮、二创、5分钟以上纪录短片</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>/v/movie/chinese(opens new window)</t>
+          <t>/v/documentary/travel</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>电影(主分区)</t>
+          <t>纪录片</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[{'aid': '951383532', 'bvid': 'BV1ns4y1n72R', 'typename': '国产电影', 'title': '【深海】视效巅峰！引爆泪腺的治愈之旅', 'subtitle': '', 'play': 8160691, 'review': 18561, 'video_review': 45464, 'favorites': 957, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '在大海的最深处，藏着所有秘密。一位现代少女（参宿）误入梦幻的深海世界，却因此邂逅了一段独特的生命旅程。\n', 'create': '2023-03-24 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/762bab0f6696b666a3c0b476814f605938d12857.jpg', 'coins': 153774, 'duration': '112:01', 'badgepay': False, 'pts': 6223771, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741421?theme=movie'}, {'aid': '951581917', 'bvid': 'BV1ns4y1H7aM', 'typename': '国产电影', 'title': '【深海】六天七晚，深海奢华游！欢迎来到—深海大饭店', 'subtitle': '', 'play': 465797, 'review': 54, 'video_review': 39, 'favorites': 25, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '深海', 'create': '2023-03-24 20:10', 'pic': 'http://i2.hdslb.com/bfs/archive/785a3d3285b6fe16c294286b22907b55a5bb02f8.jpg', 'coins': 204, 'duration': '1:18', 'badgepay': False, 'pts': 84378, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742756?theme=movie'}, {'aid': '269033107', 'bvid': 'BV17c411L7Jm', 'typename': '国产电影', 'title': '【深海】谁不想拥有这么可爱的小海獭啊！', 'subtitle': '', 'play': 448465, 'review': 27, 'video_review': 27, 'favorites': 18, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '深海', 'create': '2023-03-24 20:10', 'pic': 'http://i2.hdslb.com/bfs/archive/d6ec69595ff0f97e6b05457179e900858b978669.jpg', 'coins': 76, 'duration': '0:43', 'badgepay': False, 'pts': 66188, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742757?theme=movie'}, {'aid': '739110755', 'bvid': 'BV1Gk4y147Vp', 'typename': '国产电影', 'title': '【深海】请你相信，你值得爱与被爱“献给走过长夜的你”', 'subtitle': '', 'play': 81645, 'review': 30, 'video_review': 15, 'favorites': 1, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '深海', 'create': '2023-03-24 20:10', 'pic': 'http://i0.hdslb.com/bfs/archive/acaae57bcd163b1eac57aec50b81b307ebe95e2a.jpg', 'coins': 89, 'duration': '1:07', 'badgepay': False, 'pts': 36684, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742755?theme=movie'}]</t>
+          <t>[{'aid': '738975969', 'bvid': 'BV1Vk4y1b71h', 'typename': '社会·美食·旅行', 'title': '第5集 体面提货点', 'subtitle': '', 'play': 879418, 'review': 242, 'video_review': 2053, 'favorites': 20, 'mid': 3493129965537841, 'author': '这货哪来的', 'description': '由《人生一串》原班人马打造，淘宝和方寸印象出品的《这货哪来的》是国内首档聚焦小生意人买卖门道和赛博烟火气的纪录片，本片将镜头伸向网页背后的中国，展现中国制造的视觉奇观和手艺情怀，以最富有人味的视角讲述最市井的小本买卖，展现“人造万物、货见众生”。', 'create': '2023-03-22 20:00', 'pic': 'http://i0.hdslb.com/bfs/archive/3c4576b793b1b84261f505bf5404b316935a788c.jpg', 'coins': 1896, 'duration': '60:00', 'badgepay': False, 'pts': 599249, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740397'}, {'aid': '738175262', 'bvid': 'BV1cD4y1u7y3', 'typename': '社会·美食·旅行', 'title': '【纪录片】Top Gear 第33季 02 超跑之旅', 'subtitle': '', 'play': 568406, 'review': 148, 'video_review': 1717, 'favorites': 23, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '说到超级跑车，谈及的往往都是惊人的数字，如动力、速度、售价等。但主持人们认为苍白无聊的数字并不能代表超级跑车的全部，重点应在于它为驾驶者带来的体验。要想测试哪款超级跑车能带来最棒体验，还有什么地方比这个国家更适合呢。它拥有风景优美的公路、丰富的汽车历史传承，最重要的是，有不限速的高速公路。是的，我们说的就是德国。 ', 'create': '2023-03-24 20:00', 'pic': 'http://i1.hdslb.com/bfs/archive/f053ec0ead2c806f255e1c98b5ae15b87892c7dd.png', 'coins': 725, 'duration': '59:30', 'badgepay': False, 'pts': 339315, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 1, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740589'}, {'aid': '267284271', 'bvid': 'BV1kY411Y7rY', 'typename': '社会·美食·旅行', 'title': '【纪录片】古怪食物 第九季 03 南方烧烤之旅', 'subtitle': '', 'play': 638885, 'review': 20, 'video_review': 49, 'favorites': 31, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '这是一趟终极旅程，跨越佐治亚洲，北卡罗来纳州以及南卡罗来纳州，这三个南方州在烤肉的历史上都占有一席地位。安德鲁·席莫要前往一家餐厅，它结合了许多州以及地区的风格，可以展现出最为丰富的烤肉文化。这次，他也邀请了好友丹尼尔·韦翰一同相会，解说南方烤肉的悠久历史。美味烤肉的做法简单，但一点都不轻松，需要花费很多时间让肉吸收烟熏的风味，进而烹成各种口味的烤肉。佐治亚洲最经典的烤肉料理就是猪肩肉以及火腿，但这还不是福克斯兄弟烧烤店最出名的菜式。', 'create': '2023-03-21 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/33ab8c2a2f16c8fb5ad567eba4d64db404d80197.jpg', 'coins': 192, 'duration': '40:40', 'badgepay': False, 'pts': 210338, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep736570'}, {'aid': '526305495', 'bvid': 'BV1uM411p7Zr', 'typename': '社会·美食·旅行', 'title': '【纪录片】这就是中国 第180集 从“北溪”事件谈起', 'subtitle': '', 'play': 143308, 'review': 138, 'video_review': 903, 'favorites': 5, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '普利策奖得主、美国资深调查记者西摩·赫什披露了美国总统拜登策划炸毁“北溪”管道的内幕，在世界范围内掀起了轩然大波。', 'create': '2023-03-21 10:00', 'pic': 'http://i2.hdslb.com/bfs/archive/ceb919df88476ba4e6f9675456d9c74b4b31d86a.jpg', 'coins': 1130, 'duration': '41:36', 'badgepay': False, 'pts': 137630, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741435'}, {'aid': '819762701', 'bvid': 'BV1AG4y1L7SE', 'typename': '社会·美食·旅行', 'title': '【纪录片】挤痘大师 第三季 第8集：奇怪的疤痕', 'subtitle': '', 'play': 334115, 'review': 111, 'video_review': 1061, 'favorites': 14, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '46岁的詹姆斯来自于新泽西州的米尔维尔，他的前额长了一颗大肿块，大约有高尔夫球那么大，质感是软软的，但也有一定的紧实度。这颗肿块大约是在15年前长出来的，一开始很小，他有些担心，去问过诊所的医生，医生认为这是脂肪组织堆积，没有必要切除，因为疤痕可能会比原本的小肿块还明显。但是五六年前，肿块突然变大了三倍，而且正慢慢的往脸部移动，越来越靠近眼窝。他每天不自觉地擦眼睛，其实是在挤压这颗肿块。他也不想参加很多活动，因为害怕引起别人的关注而感觉难堪。詹姆斯的家人非常希望他这块心病能得到治疗，让他重新找回', 'create': '2023-03-22 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/b89e5ee4a2ee60d614b9eaf43d2da31de466a5a0.png', 'coins': 150, 'duration': '43:31', 'badgepay': False, 'pts': 125169, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep719165'}, {'aid': '780826448', 'bvid': 'BV1k24y1g7RN', 'typename': '社会·美食·旅行', 'title': '【纪录片】无穷之路2 无价之保 第9集 垃圾变宝', 'subtitle': '', 'play': 125010, 'review': 70, 'video_review': 48, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '每年中国产生数以亿吨计的城市垃圾，以“百年商埠”闻名的广西宾阳县也面临垃圾围城的困境，一间大型央企想出解决方法，将垃圾变宝，直接转化成为水泥源料。一个全球最大的“城市有机垃圾综合处理项目”亦于广东诞生，技术的突破令含水量极高极难再用的厨余垃圾以及地沟油，可以变成清洁能源。', 'create': '2023-03-21 00:00', 'pic': 'http://i1.hdslb.com/bfs/archive/c53017438ca6cc7c318e644d0fd3cbff62eb5adc.png', 'coins': 110, 'duration': '21:50', 'badgepay': False, 'pts': 123921, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep732389'}, {'aid': '866584847', 'bvid': 'BV1RV4y1X72K', 'typename': '社会·美食·旅行', 'title': '【守护系列番外之我是检察官】01 万万没想到', 'subtitle': '', 'play': 456733, 'review': 448, 'video_review': 2226, 'favorites': 26, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '男子转账999请女同事帮忙喝酒，趁其酒醉实施强奸，却声称对方是自愿的；男子以同一手法伪造交通事故碰瓷29次，以此骗取保险理赔费用。', 'create': '2023-03-24 19:30', 'pic': 'http://i1.hdslb.com/bfs/archive/576619edb4b34f94c628068b367a3a8b9027279f.png', 'coins': 1145, 'duration': '32:19', 'badgepay': False, 'pts': 108582, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742688'}, {'aid': '526553812', 'bvid': 'BV13M411g7bt', 'typename': '社会·美食·旅行', 'title': '【守护系列番外之我是检察官】第1集预告：万万没想到', 'subtitle': '', 'play': 85855, 'review': 315, 'video_review': 137, 'favorites': 4, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '守护系列番外之《我是检察官》第1集将于3月24日19:30正式上线', 'create': '2023-03-24 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/5c2c070feca69e04510dd338fc103e071768ec8f.jpg', 'coins': 253, 'duration': '1:12', 'badgepay': False, 'pts': 52437, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742341'}, {'aid': '222325626', 'bvid': 'BV1Q8411N7Fc', 'typename': '社会·美食·旅行', 'title': '【纪录片】热血兽医师 第六季 第11集：长瘤的法国斗牛犬', 'subtitle': '', 'play': 41119, 'review': 5, 'video_review': 14, 'favorites': 0, 'mid': 7584632, 'author': '哔哩哔哩纪录片', 'description': '可可是一只法国斗牛犬，喜欢玩耍，总是折腾个不停。然而有一天它的脖子肿了一个大包，并且十分坚硬，担心的主人带着它来问兽医杰夫。可可的脸因为逐渐膨大的肿包而变形，杰夫医生认为比起癌症而言更可能是感染引起的肿胀，但也不能排除是癌症的可能，引起肿包的原因仍需要进一步确定。内格罗是一只黑色的兔子，从昨天晚上开始一点东西都不吃，甚至完全不想动，和平时的它完全不一样。在X光片下，它的胃有一些膨胀，似乎被毛发给堵住了。', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/16a096c5a04bce4db6e8ddc11aaac97fe404479f.png', 'coins': 17, 'duration': '46:11', 'badgepay': False, 'pts': 40935, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep719156'}, {'aid': '526261552', 'bvid': 'BV1KM411p7ux', 'typename': '社会·美食·旅行', 'title': '【Top Gear】第33季 看点2-2：三大迷你车出场！一辆比一辆惊艳', 'subtitle': '', 'play': 36608, 'review': 50, 'video_review': 37, 'favorites': 1, 'mid': 203389736, 'author': 'TopGear', 'description': '《Top Gear 第33季》正片已上线', 'create': '2023-03-24 20:06', 'pic': 'http://i0.hdslb.com/bfs/archive/1bdee3d5c2294830c4e44eba0dcd4a132aceddb6.jpg', 'coins': 16, 'duration': '4:05', 'badgepay': False, 'pts': 36482, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741667'}]</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>9156598</v>
+        <v>3309457</v>
       </c>
       <c r="I111" t="n">
-        <v>154143</v>
+        <v>5634</v>
       </c>
       <c r="J111" t="n">
-        <v>1001</v>
+        <v>124</v>
       </c>
       <c r="K111" t="n">
-        <v>13</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>欧美电影</t>
+          <t>华语电影</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>chinese</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>/v/movie/west(opens new window)</t>
+          <t>/v/movie/chinese(opens new window)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>电影(主分区)</t>
+          <t>电影</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[{'aid': '686413203', 'bvid': 'BV1VU4y1v79G', 'typename': '欧美电影', 'title': '【侏罗纪公园】系列开启！斯皮尔伯格的恐龙梦', 'subtitle': '', 'play': 308014, 'review': 752, 'video_review': 4715, 'favorites': 17, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '哈蒙德（理查德•阿滕伯勒 Richard Attenborough 饰）立志要建立一个非同寻常的公园：恐龙将是这个公园的主角。他把众多科学家收归旗下，利用琥珀里面困住的远古蚊子体内的血液，提取出恐龙的基因信息，利用这些信息培育繁殖恐龙。结果如愿以偿，他把怒布拉岛建立成了一个恐龙公园，坚信可以从中赚取大钱。然而，科学家们则忧心忡忡。\n\u3000\u3000不幸的事情果然发生了。虽然公园有电脑系统管理，但却因为被员工破坏而造成了无法挽救的失控：所有的恐龙逃出了控制区，人们纷纷逃窜却逃不过恐龙的魔爪。恐龙自相残杀，人们', 'create': '2023-03-24 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/f0b885fe1cc0a584774f60f4327a8845c598471b.png', 'coins': 955, 'duration': '126:29', 'badgepay': False, 'pts': 184170, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742205?theme=movie'}, {'aid': '394833193', 'bvid': 'BV1go4y1Y7vK', 'typename': '欧美电影', 'title': '【失落的大陆】脑洞大开带你穿越未知世界', 'subtitle': '', 'play': 129669, 'review': 289, 'video_review': 1477, 'favorites': 7, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '量古生物学学家瑞克•马绍尔（威尔•法瑞尔 Will Ferrell 饰）提出了时光旅行的设想，并征得1500万美元的经费专门开发穿越时空的超光速粒子仪。然而公众对此并不买帐，反而对其大肆嘲笑和抨击。3年来，瑞克无奈窝在一所小学里教书，自暴自弃。某天，来自剑桥的美丽女子霍莉（安娜•弗莱尔 Anna Friel 饰）找到瑞克，她展示了一块不可思议的化石，以此鼓励瑞克继续他的研究。\n\u3000\u3000重获信心的瑞克最终制造出超光速粒子仪，他和霍莉来到化石的发现地，准备进行时光旅行的测试。在有些神经质的威尔（丹尼•麦', 'create': '2023-03-20 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/bbe7d0583de91044a896a0054e52b8635d163561.jpg', 'coins': 318, 'duration': '101:42', 'badgepay': False, 'pts': 122351, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741417?theme=movie'}, {'aid': '944005104', 'bvid': 'BV1cW4y1J7Wu', 'typename': '欧美电影', 'title': '【超级战舰】人类海上大战外星人战舰 ', 'subtitle': '', 'play': 106405, 'review': 696, 'video_review': 3346, 'favorites': 8, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': 'NASA在2005年的时候发现了一个太阳系外的类地行星，并判断其上可能存在智慧生命。为了能与外星智慧生物接触，NASA启动“灯塔计划”，在夏威夷启用深空通信阵列基地，向其发射高功率信号进行试探。几年后，外星飞船不期而至。身处夏威夷的太平洋联合海军演习舰队受命进行接触。男主角海军中尉阿历克斯（泰勒·克奇 Taylor Kitsch 饰）所在的导弹驱逐舰及其他两艘军舰被作为侦查小队，受命接触外星舰船。却因此受到攻击，损失惨重。由于外星舰船展开的护盾原因，联合舰队的其他舰船无法实施支援，完全只能靠自己', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/963055d993e47c85ae58ec03514311892564bdcc.jpg', 'coins': 659, 'duration': '130:52', 'badgepay': False, 'pts': 101429, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742686?theme=movie'}, {'aid': '729299178', 'bvid': 'BV1GS4y1s7dB', 'typename': '欧美电影', 'title': '【侏罗纪世界】三巨头大战！群龙混战侏罗纪', 'subtitle': '', 'play': 96251, 'review': 350, 'video_review': 2877, 'favorites': 8, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '\u3000\u300021世纪，曾经诞生过第一只恐龙的努布拉岛，在经历了一系列的惨剧之后迎来新的时代，如今这里经马斯拉尼之手建成了规模宏大的主题公园“侏罗纪世界”，数量繁多的远古生物每天都吸引数以万计的游客前来一饱眼福。为了吸引更多的游客，公司授意创意实验室采用不同动物的基因创造了集力量、速度和智慧于一体的暴虐霸王龙。作为负责人的克莱尔（布莱丝·达拉斯·霍华德 Bryce Dallas Howard 饰）原打算请专门负责迅猛龙的欧文·格雷迪（克里斯·普拉特 Chris Pratt 饰）评估暴虐霸王龙的防护设施，谁', 'create': '2023-03-24 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/2ef01946e74e457a66d578e9202e30ff2eb64f44.jpg', 'coins': 310, 'duration': '124:22', 'badgepay': False, 'pts': 69648, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741855?theme=movie'}, {'aid': '738718352', 'bvid': 'BV1ik4y187Af', 'typename': '欧美电影', 'title': '【忍者神龟：崛起】用生命打开时光之门，泪目了！', 'subtitle': '', 'play': 308256, 'review': 9, 'video_review': 5, 'favorites': 11, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '忍者神龟', 'create': '2023-03-21 12:05', 'pic': 'http://i2.hdslb.com/bfs/archive/efb8ec5e72c76efd66b6f411595c220ec6f3da21.jpg', 'coins': 20, 'duration': '1:48', 'badgepay': False, 'pts': 67133, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741516?theme=movie'}, {'aid': '216620108', 'bvid': 'BV1ka411N7pa', 'typename': '欧美电影', 'title': '【侏罗纪公园2】危险加倍！霸王龙入侵城市', 'subtitle': '', 'play': 348068, 'review': 213, 'video_review': 2626, 'favorites': 21, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '当年在努布拉岛营建侏罗纪公园时，约翰•哈蒙德（理查德•阿滕伯勒 Richard Attenborough 饰）曾把附近的索纳岛作为恐龙的制造工场。侏罗纪公园沦陷后，索纳岛上的恐龙在完全隔绝且缺少必要合成元素的情况下生存了4年时间。哈蒙德对此颇感好奇，他重新找到马科姆博士（杰夫•高布伦 Jeff Goldblum 饰），邀请他前往小岛考察。4年前经历让马科姆心有余悸，他断然拒绝哈蒙德的提议，但当得知女友莎拉（朱丽安•摩尔 Julianne Moore 饰）已前往小岛之时，只得跟随探险队整装出发。\n', 'create': '2023-03-24 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/325a2c014a0584cc292f8acac757b3abc87d39e8.jpg', 'coins': 270, 'duration': '128:40', 'badgepay': False, 'pts': 51587, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742221?theme=movie'}, {'aid': '941824142', 'bvid': 'BV1GW4y1Y7MN', 'typename': '欧美电影', 'title': '【侏罗纪公园3】男主回归！陆地霸主经典对决', 'subtitle': '', 'play': 103531, 'review': 179, 'video_review': 1642, 'favorites': 6, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '\u3000\u3000继索纳岛恐龙逃往事件过去已有八年，艾伦•格兰特博士（山姆•尼尔 Sam Neill 饰）无论如何也不愿再返回那个鬼地方。虽然发下重誓，但现状不得不让他收回誓言。他的一项史前动物研究陷入资金紧张的窘境。而这时，富有的商人保罗•科比（William H. Macy 饰）及其夫人阿曼达（Téa Leoni 饰）找到艾伦，邀请他作为向导带他们乘飞机前往索纳岛观光。一方面酬劳颇丰，一方面又得知不用着陆小岛，好了伤疤忘了疼的艾伦接受了他们的邀请。\n\u3000\u3000然而事情却朝相反的方向发展，他们的飞机最终迫降小岛。', 'create': '2023-03-24 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/a41ea5ff908011f3c9dab4ba7725a66b1388577a.jpg', 'coins': 168, 'duration': '92:12', 'badgepay': False, 'pts': 50110, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741854?theme=movie'}, {'aid': '268461243', 'bvid': 'BV1vc41177hn', 'typename': '欧美电影', 'title': '【野孩子】作精富家女蜕变英式乖乖女', 'subtitle': '', 'play': 48780, 'review': 184, 'video_review': 715, 'favorites': 3, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '\u3000\u3000居住在加利福尼亚海滨的16岁的美丽少女波碧·摩尔（艾玛·罗伯茨 Emma Roberts 饰）家境优渥，衣食无忧。由于母亲早年去世，父亲盖瑞（艾丹·奎恩 Aidan Quinn 饰）对她纵容溺爱，致使她从小个性张扬，无法无天。某天，波碧的嚣张终于惹恼老爹，于是被送到一家英国寄宿学校学习。当然，即使到了异国他乡，波碧桀骜不驯的性格也未作改变，而她的作风自然也引起校内女生们的关注与反感，严格的校规更令她透不过气来。波碧无时无刻不想逃离这个古板沉闷的地方，不过在这段时间，她渐渐意识到自己从前行为的', 'create': '2023-03-22 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/e000e971d2dfc6376b05e0c81ae110525a386fb6.jpg', 'coins': 177, 'duration': '98:25', 'badgepay': False, 'pts': 47805, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741670?theme=movie'}, {'aid': '951166722', 'bvid': 'BV1Ks4y1p7AA', 'typename': '欧美电影', 'title': '【忍者神龟：崛起】热血兄弟情', 'subtitle': '', 'play': 392304, 'review': 9, 'video_review': 2, 'favorites': 82, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '忍者神龟', 'create': '2023-03-21 12:05', 'pic': 'http://i2.hdslb.com/bfs/archive/0a6f123f27e82f77e382cff3f3a9f557ed2908f5.jpg', 'coins': 24, 'duration': '0:36', 'badgepay': False, 'pts': 46334, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741519?theme=movie'}, {'aid': '908896203', 'bvid': 'BV1bM4y1B7YZ', 'typename': '欧美电影', 'title': '【猫和老鼠之雪人乐园圣诞节】雪人国大冒险', 'subtitle': '', 'play': 49036, 'review': 70, 'video_review': 25, 'favorites': 3, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '杰瑞和他的侄子塔菲用魔法制造了一只雪老鼠，奇迹般地复活了。为了防止他们的新朋友，雪鼠拉里融化，塔菲和杰瑞必须与他赛跑，来到传说中的雪人村。', 'create': '2023-03-25 00:00', 'pic': 'http://i0.hdslb.com/bfs/archive/4ed0bd1cf5b414941439441db8ca06a7843543f1.jpg', 'coins': 79, 'duration': '75:54', 'badgepay': False, 'pts': 41878, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742690?theme=movie'}]</t>
+          <t>[{'aid': '951383532', 'bvid': 'BV1ns4y1n72R', 'typename': '国产电影', 'title': '【深海】视效巅峰！引爆泪腺的治愈之旅', 'subtitle': '', 'play': 8448599, 'review': 18988, 'video_review': 46507, 'favorites': 994, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '在大海的最深处，藏着所有秘密。一位现代少女（参宿）误入梦幻的深海世界，却因此邂逅了一段独特的生命旅程。\n', 'create': '2023-03-24 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/762bab0f6696b666a3c0b476814f605938d12857.jpg', 'coins': 158121, 'duration': '112:01', 'badgepay': False, 'pts': 6427682, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741421?theme=movie'}, {'aid': '951581917', 'bvid': 'BV1ns4y1H7aM', 'typename': '国产电影', 'title': '【深海】六天七晚，深海奢华游！欢迎来到—深海大饭店', 'subtitle': '', 'play': 500531, 'review': 64, 'video_review': 42, 'favorites': 28, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '深海', 'create': '2023-03-24 20:10', 'pic': 'http://i2.hdslb.com/bfs/archive/785a3d3285b6fe16c294286b22907b55a5bb02f8.jpg', 'coins': 241, 'duration': '1:18', 'badgepay': False, 'pts': 100201, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742756?theme=movie'}, {'aid': '269033107', 'bvid': 'BV17c411L7Jm', 'typename': '国产电影', 'title': '【深海】谁不想拥有这么可爱的小海獭啊！', 'subtitle': '', 'play': 499156, 'review': 36, 'video_review': 33, 'favorites': 20, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '深海', 'create': '2023-03-24 20:10', 'pic': 'http://i2.hdslb.com/bfs/archive/d6ec69595ff0f97e6b05457179e900858b978669.jpg', 'coins': 80, 'duration': '0:43', 'badgepay': False, 'pts': 78773, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742757?theme=movie'}, {'aid': '739110755', 'bvid': 'BV1Gk4y147Vp', 'typename': '国产电影', 'title': '【深海】请你相信，你值得爱与被爱“献给走过长夜的你”', 'subtitle': '', 'play': 90759, 'review': 36, 'video_review': 18, 'favorites': 1, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '深海', 'create': '2023-03-24 20:10', 'pic': 'http://i0.hdslb.com/bfs/archive/acaae57bcd163b1eac57aec50b81b307ebe95e2a.jpg', 'coins': 101, 'duration': '1:07', 'badgepay': False, 'pts': 43811, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742755?theme=movie'}]</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1890314</v>
+        <v>9539045</v>
       </c>
       <c r="I112" t="n">
-        <v>2980</v>
+        <v>158543</v>
       </c>
       <c r="J112" t="n">
-        <v>166</v>
+        <v>1043</v>
       </c>
       <c r="K112" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>日本电影</t>
+          <t>欧美电影</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>japan</t>
+          <t>west</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>/v/movie/japan(opens new window)</t>
+          <t>/v/movie/west(opens new window)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>电影(主分区)</t>
+          <t>电影</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[{'aid': '483738565', 'bvid': 'BV1HT41167md', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】结婚当天，新郎却倒在新娘脚下', 'subtitle': '', 'play': 375925, 'review': 16, 'video_review': 6, 'favorites': 11, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/7ec1e463017d121526c0dbae7e73f7fe038cdfdf.jpg', 'coins': 19, 'duration': '1:40', 'badgepay': False, 'pts': 38391, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741406?theme=movie'}, {'aid': '993662506', 'bvid': 'BV1Yx4y1P77T', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】\xa0Boom！把这里炸成烟花！', 'subtitle': '', 'play': 139523, 'review': 16, 'video_review': 12, 'favorites': 2, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/4daf1b383328ae97b37ea0fc4aa570330aa3f736.jpg', 'coins': 19, 'duration': '1:14', 'badgepay': False, 'pts': 37342, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741407?theme=movie'}, {'aid': '738695567', 'bvid': 'BV1qk4y187Uz', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】\xa0万圣节不给糖果就爆炸', 'subtitle': '', 'play': 209126, 'review': 2, 'video_review': 3, 'favorites': 5, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/23b646ad52c8427bf19f798570127e8201ec9e7e.jpg', 'coins': 7, 'duration': '1:57', 'badgepay': False, 'pts': 8507, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741410?theme=movie'}, {'aid': '268672984', 'bvid': 'BV1Uc411E7o7', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】\xa0带上这个项圈炸弹，就要听话哦，不然……', 'subtitle': '', 'play': 139569, 'review': 3, 'video_review': 3, 'favorites': 2, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/907b830b970b7e2408a30819c48c2c205156f48d.jpg', 'coins': 3, 'duration': '1:26', 'badgepay': False, 'pts': 7125, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741408?theme=movie'}, {'aid': '311161844', 'bvid': 'BV1PP411f7m3', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】\xa0 被挟持的婚礼现场，正在进行中…….', 'subtitle': '', 'play': 272207, 'review': 5, 'video_review': 0, 'favorites': 14, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/ca0234081575ef80cb3048133184d1d055331a0d.jpg', 'coins': 7, 'duration': '1:07', 'badgepay': False, 'pts': 6594, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741409?theme=movie'}]</t>
+          <t>[{'aid': '686413203', 'bvid': 'BV1VU4y1v79G', 'typename': '欧美电影', 'title': '【侏罗纪公园】系列开启！斯皮尔伯格的恐龙梦', 'subtitle': '', 'play': 351712, 'review': 800, 'video_review': 5018, 'favorites': 17, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '哈蒙德（理查德•阿滕伯勒 Richard Attenborough 饰）立志要建立一个非同寻常的公园：恐龙将是这个公园的主角。他把众多科学家收归旗下，利用琥珀里面困住的远古蚊子体内的血液，提取出恐龙的基因信息，利用这些信息培育繁殖恐龙。结果如愿以偿，他把怒布拉岛建立成了一个恐龙公园，坚信可以从中赚取大钱。然而，科学家们则忧心忡忡。\n\u3000\u3000不幸的事情果然发生了。虽然公园有电脑系统管理，但却因为被员工破坏而造成了无法挽救的失控：所有的恐龙逃出了控制区，人们纷纷逃窜却逃不过恐龙的魔爪。恐龙自相残杀，人们', 'create': '2023-03-24 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/f0b885fe1cc0a584774f60f4327a8845c598471b.png', 'coins': 1052, 'duration': '126:29', 'badgepay': False, 'pts': 221982, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742205?theme=movie'}, {'aid': '394833193', 'bvid': 'BV1go4y1Y7vK', 'typename': '欧美电影', 'title': '【失落的大陆】脑洞大开带你穿越未知世界', 'subtitle': '', 'play': 134534, 'review': 293, 'video_review': 1487, 'favorites': 7, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '量古生物学学家瑞克•马绍尔（威尔•法瑞尔 Will Ferrell 饰）提出了时光旅行的设想，并征得1500万美元的经费专门开发穿越时空的超光速粒子仪。然而公众对此并不买帐，反而对其大肆嘲笑和抨击。3年来，瑞克无奈窝在一所小学里教书，自暴自弃。某天，来自剑桥的美丽女子霍莉（安娜•弗莱尔 Anna Friel 饰）找到瑞克，她展示了一块不可思议的化石，以此鼓励瑞克继续他的研究。\n\u3000\u3000重获信心的瑞克最终制造出超光速粒子仪，他和霍莉来到化石的发现地，准备进行时光旅行的测试。在有些神经质的威尔（丹尼•麦', 'create': '2023-03-20 18:00', 'pic': 'http://i2.hdslb.com/bfs/archive/bbe7d0583de91044a896a0054e52b8635d163561.jpg', 'coins': 320, 'duration': '101:42', 'badgepay': False, 'pts': 126902, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741417?theme=movie'}, {'aid': '944005104', 'bvid': 'BV1cW4y1J7Wu', 'typename': '欧美电影', 'title': '【超级战舰】人类海上大战外星人战舰 ', 'subtitle': '', 'play': 117903, 'review': 737, 'video_review': 3464, 'favorites': 8, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': 'NASA在2005年的时候发现了一个太阳系外的类地行星，并判断其上可能存在智慧生命。为了能与外星智慧生物接触，NASA启动“灯塔计划”，在夏威夷启用深空通信阵列基地，向其发射高功率信号进行试探。几年后，外星飞船不期而至。身处夏威夷的太平洋联合海军演习舰队受命进行接触。男主角海军中尉阿历克斯（泰勒·克奇 Taylor Kitsch 饰）所在的导弹驱逐舰及其他两艘军舰被作为侦查小队，受命接触外星舰船。却因此受到攻击，损失惨重。由于外星舰船展开的护盾原因，联合舰队的其他舰船无法实施支援，完全只能靠自己', 'create': '2023-03-24 18:00', 'pic': 'http://i1.hdslb.com/bfs/archive/963055d993e47c85ae58ec03514311892564bdcc.jpg', 'coins': 721, 'duration': '130:52', 'badgepay': False, 'pts': 111841, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742686?theme=movie'}, {'aid': '729299178', 'bvid': 'BV1GS4y1s7dB', 'typename': '欧美电影', 'title': '【侏罗纪世界】三巨头大战！群龙混战侏罗纪', 'subtitle': '', 'play': 103385, 'review': 362, 'video_review': 3037, 'favorites': 8, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '\u3000\u300021世纪，曾经诞生过第一只恐龙的努布拉岛，在经历了一系列的惨剧之后迎来新的时代，如今这里经马斯拉尼之手建成了规模宏大的主题公园“侏罗纪世界”，数量繁多的远古生物每天都吸引数以万计的游客前来一饱眼福。为了吸引更多的游客，公司授意创意实验室采用不同动物的基因创造了集力量、速度和智慧于一体的暴虐霸王龙。作为负责人的克莱尔（布莱丝·达拉斯·霍华德 Bryce Dallas Howard 饰）原打算请专门负责迅猛龙的欧文·格雷迪（克里斯·普拉特 Chris Pratt 饰）评估暴虐霸王龙的防护设施，谁', 'create': '2023-03-24 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/2ef01946e74e457a66d578e9202e30ff2eb64f44.jpg', 'coins': 330, 'duration': '124:22', 'badgepay': False, 'pts': 75370, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741855?theme=movie'}, {'aid': '738718352', 'bvid': 'BV1ik4y187Af', 'typename': '欧美电影', 'title': '【忍者神龟：崛起】用生命打开时光之门，泪目了！', 'subtitle': '', 'play': 309372, 'review': 9, 'video_review': 5, 'favorites': 11, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '忍者神龟', 'create': '2023-03-21 12:05', 'pic': 'http://i2.hdslb.com/bfs/archive/efb8ec5e72c76efd66b6f411595c220ec6f3da21.jpg', 'coins': 20, 'duration': '1:48', 'badgepay': False, 'pts': 67144, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741516?theme=movie'}, {'aid': '216620108', 'bvid': 'BV1ka411N7pa', 'typename': '欧美电影', 'title': '【侏罗纪公园2】危险加倍！霸王龙入侵城市', 'subtitle': '', 'play': 355016, 'review': 226, 'video_review': 2814, 'favorites': 21, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '当年在努布拉岛营建侏罗纪公园时，约翰•哈蒙德（理查德•阿滕伯勒 Richard Attenborough 饰）曾把附近的索纳岛作为恐龙的制造工场。侏罗纪公园沦陷后，索纳岛上的恐龙在完全隔绝且缺少必要合成元素的情况下生存了4年时间。哈蒙德对此颇感好奇，他重新找到马科姆博士（杰夫•高布伦 Jeff Goldblum 饰），邀请他前往小岛考察。4年前经历让马科姆心有余悸，他断然拒绝哈蒙德的提议，但当得知女友莎拉（朱丽安•摩尔 Julianne Moore 饰）已前往小岛之时，只得跟随探险队整装出发。\n', 'create': '2023-03-24 11:00', 'pic': 'http://i2.hdslb.com/bfs/archive/325a2c014a0584cc292f8acac757b3abc87d39e8.jpg', 'coins': 288, 'duration': '128:40', 'badgepay': False, 'pts': 56258, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742221?theme=movie'}, {'aid': '941824142', 'bvid': 'BV1GW4y1Y7MN', 'typename': '欧美电影', 'title': '【侏罗纪公园3】男主回归！陆地霸主经典对决', 'subtitle': '', 'play': 163451, 'review': 186, 'video_review': 1737, 'favorites': 11, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '\u3000\u3000继索纳岛恐龙逃往事件过去已有八年，艾伦•格兰特博士（山姆•尼尔 Sam Neill 饰）无论如何也不愿再返回那个鬼地方。虽然发下重誓，但现状不得不让他收回誓言。他的一项史前动物研究陷入资金紧张的窘境。而这时，富有的商人保罗•科比（William H. Macy 饰）及其夫人阿曼达（Téa Leoni 饰）找到艾伦，邀请他作为向导带他们乘飞机前往索纳岛观光。一方面酬劳颇丰，一方面又得知不用着陆小岛，好了伤疤忘了疼的艾伦接受了他们的邀请。\n\u3000\u3000然而事情却朝相反的方向发展，他们的飞机最终迫降小岛。', 'create': '2023-03-24 11:00', 'pic': 'http://i1.hdslb.com/bfs/archive/a41ea5ff908011f3c9dab4ba7725a66b1388577a.jpg', 'coins': 191, 'duration': '92:12', 'badgepay': False, 'pts': 53900, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741854?theme=movie'}, {'aid': '268461243', 'bvid': 'BV1vc41177hn', 'typename': '欧美电影', 'title': '【野孩子】作精富家女蜕变英式乖乖女', 'subtitle': '', 'play': 50545, 'review': 185, 'video_review': 731, 'favorites': 3, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '\u3000\u3000居住在加利福尼亚海滨的16岁的美丽少女波碧·摩尔（艾玛·罗伯茨 Emma Roberts 饰）家境优渥，衣食无忧。由于母亲早年去世，父亲盖瑞（艾丹·奎恩 Aidan Quinn 饰）对她纵容溺爱，致使她从小个性张扬，无法无天。某天，波碧的嚣张终于惹恼老爹，于是被送到一家英国寄宿学校学习。当然，即使到了异国他乡，波碧桀骜不驯的性格也未作改变，而她的作风自然也引起校内女生们的关注与反感，严格的校规更令她透不过气来。波碧无时无刻不想逃离这个古板沉闷的地方，不过在这段时间，她渐渐意识到自己从前行为的', 'create': '2023-03-22 11:00', 'pic': 'http://i0.hdslb.com/bfs/archive/e000e971d2dfc6376b05e0c81ae110525a386fb6.jpg', 'coins': 179, 'duration': '98:25', 'badgepay': False, 'pts': 49429, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741670?theme=movie'}, {'aid': '951166722', 'bvid': 'BV1Ks4y1p7AA', 'typename': '欧美电影', 'title': '【忍者神龟：崛起】热血兄弟情', 'subtitle': '', 'play': 392709, 'review': 9, 'video_review': 2, 'favorites': 82, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '忍者神龟', 'create': '2023-03-21 12:05', 'pic': 'http://i2.hdslb.com/bfs/archive/0a6f123f27e82f77e382cff3f3a9f557ed2908f5.jpg', 'coins': 24, 'duration': '0:36', 'badgepay': False, 'pts': 46446, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741519?theme=movie'}, {'aid': '908896203', 'bvid': 'BV1bM4y1B7YZ', 'typename': '欧美电影', 'title': '【猫和老鼠之雪人乐园圣诞节】雪人国大冒险', 'subtitle': '', 'play': 50226, 'review': 71, 'video_review': 25, 'favorites': 3, 'mid': 15773384, 'author': '哔哩哔哩电影', 'description': '杰瑞和他的侄子塔菲用魔法制造了一只雪老鼠，奇迹般地复活了。为了防止他们的新朋友，雪鼠拉里融化，塔菲和杰瑞必须与他赛跑，来到传说中的雪人村。', 'create': '2023-03-25 00:00', 'pic': 'http://i0.hdslb.com/bfs/archive/4ed0bd1cf5b414941439441db8ca06a7843543f1.jpg', 'coins': 80, 'duration': '75:54', 'badgepay': False, 'pts': 42921, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep742690?theme=movie'}]</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1136350</v>
+        <v>2028853</v>
       </c>
       <c r="I113" t="n">
-        <v>55</v>
+        <v>3205</v>
       </c>
       <c r="J113" t="n">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="K113" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>其他国家</t>
+          <t>日本电影</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>movie</t>
+          <t>japan</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>/v/movie/movie</t>
+          <t>/v/movie/japan(opens new window)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>电影(主分区)</t>
+          <t>电影</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[{'aid': '775183593', 'bvid': 'BV1Z14y1n7VY', 'typename': '其他国家', 'title': '【老年】具有人文关怀的作品', 'subtitle': '', 'play': 4064, 'review': 19, 'video_review': 57, 'favorites': 0, 'mid': 1567237030, 'author': '中国国际新媒体短片节', 'description': '老人想逃离养老院。', 'create': '2023-03-17 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/83eea6498876a6a56fed8f4635664628d6acfb97.jpg', 'coins': 51, 'duration': '18:40', 'badgepay': False, 'pts': 3779, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740331?theme=movie'}, {'aid': '605959694', 'bvid': 'BV1Z84y167wf', 'typename': '其他国家', 'title': '【芒果】以色列退伍军人回乡邂逅高僧', 'subtitle': '', 'play': 3030, 'review': 18, 'video_review': 7, 'favorites': 0, 'mid': 1567237030, 'author': '中国国际新媒体短片节', 'description': '以色列退伍军人伊姆里想要去到越南的乡野之下，在与一位高僧难忘的邂逅中，他领悟了幸福的真谛。', 'create': '2023-03-17 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/a7cbb73a131075fec209dda5428968996c5b0c47.jpg', 'coins': 8, 'duration': '8:18', 'badgepay': False, 'pts': 2309, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740336?theme=movie'}, {'aid': '520245255', 'bvid': 'BV13M411C7cK', 'typename': '其他国家', 'title': '【在玻璃之后】玻璃清洁工不满枯燥的工作', 'subtitle': '', 'play': 2330, 'review': 11, 'video_review': 2, 'favorites': 1, 'mid': 1567237030, 'author': '中国国际新媒体短片节', 'description': '摩天大楼的挡风玻璃清洁工在枯燥的工作日遇到了一些状况，并开始对每天重复的工作感到不满。', 'create': '2023-03-17 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/431939ad322129ab0b86446feea33c3fa892d8b0.jpg', 'coins': 43, 'duration': '3:03', 'badgepay': False, 'pts': 2040, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740335?theme=movie'}, {'aid': '390213298', 'bvid': 'BV1Xd4y1b7Vy', 'typename': '其他国家', 'title': '【伪装】家里唯一有秘密的人', 'subtitle': '', 'play': 2247, 'review': 4, 'video_review': 0, 'favorites': 0, 'mid': 1567237030, 'author': '中国国际新媒体短片节', 'description': '18岁的Mahnazir来自伊朗的一个阿富汗移民家庭。由于父亲Kabir生病，不能再在“巴格达迪烧砖车间”工作了，于是他车间的主管要求收回他们的住所。为了解决这个问题，Mahnazir决定将自己伪装成工人去车间工作，并想办法不被自己的家人和那些烧砖工人发现。直到有一天，一个叫Ehsan的同事对她的真实身份产生了怀疑，打乱了她的秩序。但这让她开始发现，她不是这个家里唯一有秘密的人。', 'create': '2023-03-17 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8a74a780bb406d402f95d73bd14959779d99db9a.jpg', 'coins': 2, 'duration': '12:03', 'badgepay': False, 'pts': 1480, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740154?theme=movie'}]</t>
+          <t>[{'aid': '483738565', 'bvid': 'BV1HT41167md', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】结婚当天，新郎却倒在新娘脚下', 'subtitle': '', 'play': 379290, 'review': 16, 'video_review': 6, 'favorites': 11, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/7ec1e463017d121526c0dbae7e73f7fe038cdfdf.jpg', 'coins': 19, 'duration': '1:40', 'badgepay': False, 'pts': 38513, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741406?theme=movie'}, {'aid': '993662506', 'bvid': 'BV1Yx4y1P77T', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】\xa0Boom！把这里炸成烟花！', 'subtitle': '', 'play': 140980, 'review': 16, 'video_review': 12, 'favorites': 2, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/4daf1b383328ae97b37ea0fc4aa570330aa3f736.jpg', 'coins': 19, 'duration': '1:14', 'badgepay': False, 'pts': 37393, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741407?theme=movie'}, {'aid': '738695567', 'bvid': 'BV1qk4y187Uz', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】\xa0万圣节不给糖果就爆炸', 'subtitle': '', 'play': 210547, 'review': 2, 'video_review': 3, 'favorites': 5, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/23b646ad52c8427bf19f798570127e8201ec9e7e.jpg', 'coins': 8, 'duration': '1:57', 'badgepay': False, 'pts': 8548, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741410?theme=movie'}, {'aid': '268672984', 'bvid': 'BV1Uc411E7o7', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】\xa0带上这个项圈炸弹，就要听话哦，不然……', 'subtitle': '', 'play': 141802, 'review': 3, 'video_review': 3, 'favorites': 2, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/907b830b970b7e2408a30819c48c2c205156f48d.jpg', 'coins': 3, 'duration': '1:26', 'badgepay': False, 'pts': 7153, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741408?theme=movie'}, {'aid': '311161844', 'bvid': 'BV1PP411f7m3', 'typename': '日本电影', 'title': '【名侦探柯南：万圣节的新娘】\xa0 被挟持的婚礼现场，正在进行中…….', 'subtitle': '', 'play': 273434, 'review': 5, 'video_review': 0, 'favorites': 14, 'mid': 207539637, 'author': '哔哩哔哩放映员', 'description': '柯南万圣节剧场版', 'create': '2023-03-20 15:12', 'pic': 'http://i1.hdslb.com/bfs/archive/ca0234081575ef80cb3048133184d1d055331a0d.jpg', 'coins': 7, 'duration': '1:07', 'badgepay': False, 'pts': 6619, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 0, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741409?theme=movie'}]</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>11671</v>
+        <v>1146053</v>
       </c>
       <c r="I114" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>国产剧</t>
+          <t>其他国家</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>mainland</t>
+          <t>movie</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>/v/tv/mainland(opens new window)</t>
+          <t>/v/movie/movie</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>电视剧(主分区)</t>
+          <t>电影</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[{'aid': '568507973', 'bvid': 'BV1bv4y177bm', 'typename': '国产剧', 'title': '【剧情】许你万家灯火（2023）32【郑业成/刘芮麟】', 'subtitle': '', 'play': 21036, 'review': 69, 'video_review': 198, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '该剧讲述了中国核工业人以非凡的志气、骨气、底气，为实现“中国拥有自己的世界一流核电站”这一强国梦而努力奋斗的故事。', 'create': '2023-03-20 22:00', 'pic': 'http://i1.hdslb.com/bfs/archive/e488613c4b512b507ca1344dea4e59458c90bbae.jpg', 'coins': 112, 'duration': '45:26', 'badgepay': False, 'pts': 16931, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740700'}, {'aid': '738808396', 'bvid': 'BV1pk4y1t7c8', 'typename': '国产剧', 'title': '开端Re第4集：凯文吃醋的表情竟然是这样的 处女座男生都这样吗？', 'subtitle': '', 'play': 12508, 'review': 54, 'video_review': 329, 'favorites': 24, 'mid': 25456354, 'author': 'Kevin和Cindy', 'description': '凯文和辛迪看电视剧开端第4集的反应Reaction', 'create': '2023-03-21 10:48', 'pic': 'http://i2.hdslb.com/bfs/archive/2378e3e4de1f746eeecee0851bb7f7e2977e0d5b.png', 'coins': 142, 'duration': '39:51', 'badgepay': False, 'pts': 12196, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '696457980', 'bvid': 'BV11m4y1k7YL', 'typename': '国产剧', 'title': '开端Re第5集：白rap吃醋的样子超级可爱 笑死我了', 'subtitle': '', 'play': 12471, 'review': 61, 'video_review': 255, 'favorites': 28, 'mid': 25456354, 'author': 'Kevin和Cindy', 'description': '凯文和辛迪看电视剧《开端》第5集的reaction反应视频', 'create': '2023-03-23 12:29', 'pic': 'http://i1.hdslb.com/bfs/archive/596940eba6a74c54081a2da3513f0a377c61165e.png', 'coins': 210, 'duration': '39:28', 'badgepay': False, 'pts': 12194, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441548888', 'bvid': 'BV19L411D738', 'typename': '国产剧', 'title': '开端Re第6集：卢（猫之使徒）迪上线了', 'subtitle': '', 'play': 8215, 'review': 58, 'video_review': 248, 'favorites': 34, 'mid': 25456354, 'author': 'Kevin和Cindy', 'description': '凯文和辛迪追剧Reaction反应视频', 'create': '2023-03-25 09:46', 'pic': 'http://i2.hdslb.com/bfs/archive/e38344a9e2cac52e128d797ea60b851531aacf66.png', 'coins': 151, 'duration': '35:32', 'badgepay': False, 'pts': 7984, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268857847', 'bvid': 'BV1oc411j7Mj', 'typename': '国产剧', 'title': '芈月传之威后仙逝芈姝哭晕', 'subtitle': '', 'play': 5779, 'review': 6, 'video_review': 7, 'favorites': 7, 'mid': 66052478, 'author': '低调的redback', 'description': '', 'create': '2023-03-21 09:37', 'pic': 'http://i0.hdslb.com/bfs/archive/732a50bf80ea2eda82b424b3134547199eccf2a4.jpg', 'coins': 2, 'duration': '4:17', 'badgepay': False, 'pts': 5736, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+          <t>[{'aid': '775183593', 'bvid': 'BV1Z14y1n7VY', 'typename': '其他国家', 'title': '【老年】具有人文关怀的作品', 'subtitle': '', 'play': 4081, 'review': 19, 'video_review': 57, 'favorites': 0, 'mid': 1567237030, 'author': '中国国际新媒体短片节', 'description': '老人想逃离养老院。', 'create': '2023-03-17 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/83eea6498876a6a56fed8f4635664628d6acfb97.jpg', 'coins': 51, 'duration': '18:40', 'badgepay': False, 'pts': 3779, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740331?theme=movie'}, {'aid': '605959694', 'bvid': 'BV1Z84y167wf', 'typename': '其他国家', 'title': '【芒果】以色列退伍军人回乡邂逅高僧', 'subtitle': '', 'play': 3080, 'review': 18, 'video_review': 7, 'favorites': 0, 'mid': 1567237030, 'author': '中国国际新媒体短片节', 'description': '以色列退伍军人伊姆里想要去到越南的乡野之下，在与一位高僧难忘的邂逅中，他领悟了幸福的真谛。', 'create': '2023-03-17 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/a7cbb73a131075fec209dda5428968996c5b0c47.jpg', 'coins': 8, 'duration': '8:18', 'badgepay': False, 'pts': 2309, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740336?theme=movie'}, {'aid': '520245255', 'bvid': 'BV13M411C7cK', 'typename': '其他国家', 'title': '【在玻璃之后】玻璃清洁工不满枯燥的工作', 'subtitle': '', 'play': 2345, 'review': 11, 'video_review': 2, 'favorites': 1, 'mid': 1567237030, 'author': '中国国际新媒体短片节', 'description': '摩天大楼的挡风玻璃清洁工在枯燥的工作日遇到了一些状况，并开始对每天重复的工作感到不满。', 'create': '2023-03-17 16:00', 'pic': 'http://i2.hdslb.com/bfs/archive/431939ad322129ab0b86446feea33c3fa892d8b0.jpg', 'coins': 43, 'duration': '3:03', 'badgepay': False, 'pts': 2040, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740335?theme=movie'}, {'aid': '390213298', 'bvid': 'BV1Xd4y1b7Vy', 'typename': '其他国家', 'title': '【伪装】家里唯一有秘密的人', 'subtitle': '', 'play': 2317, 'review': 4, 'video_review': 0, 'favorites': 0, 'mid': 1567237030, 'author': '中国国际新媒体短片节', 'description': '18岁的Mahnazir来自伊朗的一个阿富汗移民家庭。由于父亲Kabir生病，不能再在“巴格达迪烧砖车间”工作了，于是他车间的主管要求收回他们的住所。为了解决这个问题，Mahnazir决定将自己伪装成工人去车间工作，并想办法不被自己的家人和那些烧砖工人发现。直到有一天，一个叫Ehsan的同事对她的真实身份产生了怀疑，打乱了她的秩序。但这让她开始发现，她不是这个家里唯一有秘密的人。', 'create': '2023-03-17 16:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8a74a780bb406d402f95d73bd14959779d99db9a.jpg', 'coins': 2, 'duration': '12:03', 'badgepay': False, 'pts': 1480, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 1, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740154?theme=movie'}]</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>60009</v>
+        <v>11823</v>
       </c>
       <c r="I115" t="n">
-        <v>617</v>
+        <v>104</v>
       </c>
       <c r="J115" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>海外剧</t>
+          <t>国产剧</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>overseas</t>
+          <t>mainland</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
+          <t>/v/tv/mainland(opens new window)</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>电视剧</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>[{'aid': '568507973', 'bvid': 'BV1bv4y177bm', 'typename': '国产剧', 'title': '【剧情】许你万家灯火（2023）32【郑业成/刘芮麟】', 'subtitle': '', 'play': 21934, 'review': 70, 'video_review': 204, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '该剧讲述了中国核工业人以非凡的志气、骨气、底气，为实现“中国拥有自己的世界一流核电站”这一强国梦而努力奋斗的故事。', 'create': '2023-03-20 22:00', 'pic': 'http://i1.hdslb.com/bfs/archive/e488613c4b512b507ca1344dea4e59458c90bbae.jpg', 'coins': 112, 'duration': '45:26', 'badgepay': False, 'pts': 17524, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep740700'}, {'aid': '696457980', 'bvid': 'BV11m4y1k7YL', 'typename': '国产剧', 'title': '开端Re第5集：白rap吃醋的样子超级可爱 笑死我了', 'subtitle': '', 'play': 12731, 'review': 61, 'video_review': 256, 'favorites': 26, 'mid': 25456354, 'author': 'Kevin和Cindy', 'description': '凯文和辛迪看电视剧《开端》第5集的reaction反应视频', 'create': '2023-03-23 12:29', 'pic': 'http://i1.hdslb.com/bfs/archive/596940eba6a74c54081a2da3513f0a377c61165e.png', 'coins': 210, 'duration': '39:28', 'badgepay': False, 'pts': 12442, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '738808396', 'bvid': 'BV1pk4y1t7c8', 'typename': '国产剧', 'title': '开端Re第4集：凯文吃醋的表情竟然是这样的 处女座男生都这样吗？', 'subtitle': '', 'play': 12626, 'review': 54, 'video_review': 329, 'favorites': 23, 'mid': 25456354, 'author': 'Kevin和Cindy', 'description': '凯文和辛迪看电视剧开端第4集的反应Reaction', 'create': '2023-03-21 10:48', 'pic': 'http://i2.hdslb.com/bfs/archive/2378e3e4de1f746eeecee0851bb7f7e2977e0d5b.png', 'coins': 142, 'duration': '39:51', 'badgepay': False, 'pts': 12302, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '441548888', 'bvid': 'BV19L411D738', 'typename': '国产剧', 'title': '开端Re第6集：卢（猫之使徒）迪上线了', 'subtitle': '', 'play': 8822, 'review': 60, 'video_review': 256, 'favorites': 29, 'mid': 25456354, 'author': 'Kevin和Cindy', 'description': '凯文和辛迪追剧Reaction反应视频', 'create': '2023-03-25 09:46', 'pic': 'http://i2.hdslb.com/bfs/archive/e38344a9e2cac52e128d797ea60b851531aacf66.png', 'coins': 153, 'duration': '35:32', 'badgepay': False, 'pts': 8549, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '268857847', 'bvid': 'BV1oc411j7Mj', 'typename': '国产剧', 'title': '芈月传之威后仙逝芈姝哭晕', 'subtitle': '', 'play': 6136, 'review': 6, 'video_review': 9, 'favorites': 7, 'mid': 66052478, 'author': '低调的redback', 'description': '', 'create': '2023-03-21 09:37', 'pic': 'http://i0.hdslb.com/bfs/archive/732a50bf80ea2eda82b424b3134547199eccf2a4.jpg', 'coins': 2, 'duration': '4:17', 'badgepay': False, 'pts': 6058, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 0, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}, {'aid': '654203861', 'bvid': 'BV1YY4y1S7xP', 'typename': '国产剧', 'title': '开端Reaction第7集：逐一排查嫌疑人 辛迪哭完立马笑的', 'subtitle': '', 'play': 2267, 'review': 27, 'video_review': 71, 'favorites': 15, 'mid': 25456354, 'author': 'Kevin和Cindy', 'description': '凯文和辛迪看电视剧的反应视频', 'create': '2023-03-27 10:50', 'pic': 'http://i1.hdslb.com/bfs/archive/b8ee28866d7ceba2c3ce6c48777cd76e4d7f053f.png', 'coins': 58, 'duration': '43:44', 'badgepay': False, 'pts': 2049, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 1, 'autoplay': 1, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': ''}]</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>64516</v>
+      </c>
+      <c r="I116" t="n">
+        <v>677</v>
+      </c>
+      <c r="J116" t="n">
+        <v>100</v>
+      </c>
+      <c r="K116" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>187</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>海外剧</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>overseas</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>/v/tv/overseas</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>电视剧(主分区)</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>[{'aid': '268549327', 'bvid': 'BV13c411E73C', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）01【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 160381, 'review': 194, 'video_review': 235, 'favorites': 2, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/06aa1da32029fc9e0697ee52893e872700070a7d.jpg', 'coins': 173, 'duration': '44:41', 'badgepay': False, 'pts': 157319, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741346'}, {'aid': '993597096', 'bvid': 'BV1Gx4y1P72c', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）02【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 88223, 'review': 22, 'video_review': 142, 'favorites': 1, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/9ebef00c3a454d49fcd3aa2c785449f18e6f7f72.jpg', 'coins': 27, 'duration': '44:31', 'badgepay': False, 'pts': 38845, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741347'}, {'aid': '611041479', 'bvid': 'BV1w84y1P7Sq', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第4季（2016）01【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 16465, 'review': 22, 'video_review': 30, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-24 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/41c846dd69fd8542228517e807e3ff7f23e4afe9.jpg', 'coins': 21, 'duration': '44:32', 'badgepay': False, 'pts': 15992, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741376'}, {'aid': '568585337', 'bvid': 'BV1kv4y177CQ', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）03【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 7941, 'review': 8, 'video_review': 75, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/20a6670f4388e029856a3bbf0213a93ef4dd4a5b.jpg', 'coins': 3, 'duration': '43:34', 'badgepay': False, 'pts': 7524, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741348'}, {'aid': '353550319', 'bvid': 'BV1ZX4y1f7Gq', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第4季（2016）08【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 4467, 'review': 3, 'video_review': 11, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-24 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/9261e89df2ba51367740e327a91a9e64da1755c3.jpg', 'coins': 3, 'duration': '44:48', 'badgepay': False, 'pts': 4442, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741369'}, {'aid': '611010039', 'bvid': 'BV1Q84y1A7Qr', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）05【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 4319, 'review': 1, 'video_review': 32, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7563b3b846bfe8402cadb65343f82f324a5090ef.jpg', 'coins': 7, 'duration': '44:32', 'badgepay': False, 'pts': 4125, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741350'}, {'aid': '438561898', 'bvid': 'BV1XL411o7hD', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）04【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 2630, 'review': 6, 'video_review': 58, 'favorites': 1, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/f0e13decf51c3f94978f405192206b8e22806c19.jpg', 'coins': 8, 'duration': '44:42', 'badgepay': False, 'pts': 2392, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741349'}, {'aid': '823503672', 'bvid': 'BV1qg4y147AH', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）15【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 1723, 'review': 5, 'video_review': 31, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8dbc8023f43bc733dfde64b6e7d0d1b7a4e49efe.jpg', 'coins': 5, 'duration': '44:31', 'badgepay': False, 'pts': 1595, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741360'}, {'aid': '226000100', 'bvid': 'BV1Ub411o7Nk', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）06【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 1689, 'review': 2, 'video_review': 14, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/471a367319941744df32cc2f3a615138b574ae16.jpg', 'coins': 6, 'duration': '44:08', 'badgepay': False, 'pts': 1545, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741351'}, {'aid': '823557977', 'bvid': 'BV1kg4y147UM', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）07【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 1448, 'review': 0, 'video_review': 12, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/f91c80663e9f760349c3a6117e9a6f13c44e4956.jpg', 'coins': 1, 'duration': '44:34', 'badgepay': False, 'pts': 1308, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741352'}]</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>289286</v>
-      </c>
-      <c r="I116" t="n">
-        <v>254</v>
-      </c>
-      <c r="J116" t="n">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>电视剧</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[{'aid': '268549327', 'bvid': 'BV13c411E73C', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）01【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 161218, 'review': 194, 'video_review': 236, 'favorites': 2, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/06aa1da32029fc9e0697ee52893e872700070a7d.jpg', 'coins': 179, 'duration': '44:41', 'badgepay': False, 'pts': 158009, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741346'}, {'aid': '993597096', 'bvid': 'BV1Gx4y1P72c', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）02【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 89830, 'review': 22, 'video_review': 143, 'favorites': 1, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/9ebef00c3a454d49fcd3aa2c785449f18e6f7f72.jpg', 'coins': 35, 'duration': '44:31', 'badgepay': False, 'pts': 38939, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741347'}, {'aid': '611041479', 'bvid': 'BV1w84y1P7Sq', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第4季（2016）01【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 17280, 'review': 22, 'video_review': 35, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-24 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/41c846dd69fd8542228517e807e3ff7f23e4afe9.jpg', 'coins': 21, 'duration': '44:32', 'badgepay': False, 'pts': 16707, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 0, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741376'}, {'aid': '568585337', 'bvid': 'BV1kv4y177CQ', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）03【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 8036, 'review': 8, 'video_review': 75, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/20a6670f4388e029856a3bbf0213a93ef4dd4a5b.jpg', 'coins': 3, 'duration': '43:34', 'badgepay': False, 'pts': 7595, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741348'}, {'aid': '353550319', 'bvid': 'BV1ZX4y1f7Gq', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第4季（2016）08【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 4504, 'review': 3, 'video_review': 11, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-24 19:00', 'pic': 'http://i1.hdslb.com/bfs/archive/9261e89df2ba51367740e327a91a9e64da1755c3.jpg', 'coins': 3, 'duration': '44:48', 'badgepay': False, 'pts': 4472, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741369'}, {'aid': '611010039', 'bvid': 'BV1Q84y1A7Qr', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）05【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 4395, 'review': 1, 'video_review': 32, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/7563b3b846bfe8402cadb65343f82f324a5090ef.jpg', 'coins': 7, 'duration': '44:32', 'badgepay': False, 'pts': 4191, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741350'}, {'aid': '438561898', 'bvid': 'BV1XL411o7hD', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）04【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 2710, 'review': 6, 'video_review': 59, 'favorites': 1, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i2.hdslb.com/bfs/archive/f0e13decf51c3f94978f405192206b8e22806c19.jpg', 'coins': 8, 'duration': '44:42', 'badgepay': False, 'pts': 2461, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741349'}, {'aid': '823503672', 'bvid': 'BV1qg4y147AH', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）15【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 1779, 'review': 5, 'video_review': 36, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/8dbc8023f43bc733dfde64b6e7d0d1b7a4e49efe.jpg', 'coins': 5, 'duration': '44:31', 'badgepay': False, 'pts': 1644, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741360'}, {'aid': '226000100', 'bvid': 'BV1Ub411o7Nk', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）06【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 1766, 'review': 2, 'video_review': 16, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/471a367319941744df32cc2f3a615138b574ae16.jpg', 'coins': 6, 'duration': '44:08', 'badgepay': False, 'pts': 1605, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741351'}, {'aid': '823557977', 'bvid': 'BV1kg4y147UM', 'typename': '海外剧', 'title': '【悬疑/犯罪】布朗神父第3季（2015）07【马克·威廉姆斯/索查·库萨克】', 'subtitle': '', 'play': 1528, 'review': 0, 'video_review': 12, 'favorites': 0, 'mid': 4856007, 'author': '迷影社', 'description': '布朗神父是切斯特顿笔下的著名侦探，矮个子，圆脑袋，身材胖儿可爱。手边常有一把标志性的大雨伞，他天性怕羞，说话有些结巴，看起来憨厚纯真，似乎与探案不搭边，却大智若愚，有着很锐利的直觉。', 'create': '2023-03-20 19:00', 'pic': 'http://i0.hdslb.com/bfs/archive/f91c80663e9f760349c3a6117e9a6f13c44e4956.jpg', 'coins': 1, 'duration': '44:34', 'badgepay': False, 'pts': 1380, 'rights': {'bp': 0, 'elec': 0, 'download': 0, 'movie': 0, 'pay': 1, 'hd5': 1, 'no_reprint': 0, 'autoplay': 0, 'ugc_pay': 0, 'is_cooperation': 0, 'ugc_pay_preview': 0, 'no_background': 0, 'arc_pay': 0, 'pay_free_watch': 0}, 'redirect_url': 'https://www.bilibili.com/bangumi/play/ep741352'}]</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>293046</v>
+      </c>
+      <c r="I117" t="n">
+        <v>268</v>
+      </c>
+      <c r="J117" t="n">
         <v>4</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K117" t="n">
         <v>26</v>
       </c>
     </row>
